--- a/TI_Lombardia.xlsx
+++ b/TI_Lombardia.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U80794191\Documents\githubJupyter\COVID-19\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>Date</t>
   </si>
@@ -38,18 +33,6 @@
     <t>Deaths</t>
   </si>
   <si>
-    <t>Mortality_%</t>
-  </si>
-  <si>
-    <t>Pop</t>
-  </si>
-  <si>
-    <t>Extent_%</t>
-  </si>
-  <si>
-    <t>Deaths%pop</t>
-  </si>
-  <si>
     <t>Daten Tessin</t>
   </si>
   <si>
@@ -71,19 +54,25 @@
     <t>wikipedia</t>
   </si>
   <si>
-    <t>Province/State,Country/Region,Lat,Long,Date,Confirmed,Deaths,Recovered</t>
-  </si>
-  <si>
     <t>Province/State</t>
   </si>
   <si>
     <t>,</t>
+  </si>
+  <si>
+    <t>Province/State,Country/Region,Lat,Long,Date,Confirmed,Deaths</t>
+  </si>
+  <si>
+    <t>de.wikipedia.org/wiki/COVID-19-Pandemie_in_Italien</t>
+  </si>
+  <si>
+    <t>de.wikipedia.org/wiki/COVID-19-Pandemie_in_der_Schweiz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -143,10 +132,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -437,7 +425,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -445,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4:N5"/>
+      <selection activeCell="J4" sqref="J4:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -457,20 +445,17 @@
     <col min="2" max="2" width="9.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.625" customWidth="1"/>
-    <col min="6" max="6" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" t="s">
-        <v>17</v>
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -481,120 +466,134 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" t="s">
-        <v>4</v>
-      </c>
       <c r="G3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" t="s">
         <v>6</v>
       </c>
-      <c r="I3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>15</v>
+      <c r="J3" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
         <v>43914</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>1211</v>
       </c>
-      <c r="C4" s="8" t="str">
+      <c r="C4" s="7" t="str">
         <f>D4</f>
         <v>TI</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="4">
+      <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="3">
         <v>53</v>
       </c>
-      <c r="F4" s="4">
-        <f>E4/B4*100</f>
-        <v>4.3765483071841453</v>
-      </c>
-      <c r="G4" s="4">
-        <v>353709</v>
-      </c>
-      <c r="H4" s="4">
-        <f>339.9/1000</f>
-        <v>0.33989999999999998</v>
-      </c>
-      <c r="I4" s="4">
-        <f>E4/G4*100</f>
-        <v>1.4984068824938013E-2</v>
-      </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M4" s="7" t="str">
+      <c r="F4" s="3"/>
+      <c r="G4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="6" t="str">
         <f>MONTH(A4)&amp;"/"&amp;DAY(A4)&amp;"/"&amp;(YEAR(A4)-2000)</f>
         <v>3/24/20</v>
       </c>
-      <c r="N4" s="5" t="str">
-        <f>D4&amp;$N$1&amp;C4&amp;$N$1&amp;"0"&amp;$N$1&amp;"0"&amp;$N$1&amp;M4&amp;$N$1&amp;B4&amp;$N$1&amp;E4&amp;$N$1&amp;0</f>
-        <v>TI,TI,0,0,3/24/20,1211,53,0</v>
+      <c r="J4" s="4" t="str">
+        <f>D4&amp;$J$1&amp;C4&amp;$J$1&amp;"0"&amp;$J$1&amp;"0"&amp;$J$1&amp;I4&amp;$J$1&amp;B4&amp;$J$1&amp;E4</f>
+        <v>TI,TI,0,0,3/24/20,1211,53</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>43913</v>
       </c>
       <c r="B5">
         <v>28761</v>
       </c>
-      <c r="C5" s="9" t="str">
+      <c r="C5" s="8" t="str">
         <f>D5</f>
         <v>Lombardia</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E5">
         <v>3776</v>
       </c>
-      <c r="F5">
-        <f>E5/B5*100</f>
-        <v>13.128889816070375</v>
-      </c>
-      <c r="G5" s="2">
-        <v>10060000</v>
-      </c>
-      <c r="H5">
-        <f>B5/G5*100</f>
-        <v>0.28589463220675948</v>
-      </c>
-      <c r="I5">
-        <f>E5/G5*100</f>
-        <v>3.7534791252485086E-2</v>
-      </c>
-      <c r="K5" t="s">
-        <v>14</v>
-      </c>
-      <c r="M5" s="7" t="str">
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="6" t="str">
         <f>MONTH(A5)&amp;"/"&amp;DAY(A5)&amp;"/"&amp;(YEAR(A5)-2000)</f>
         <v>3/23/20</v>
       </c>
-      <c r="N5" s="5" t="str">
-        <f>D5&amp;$N$1&amp;C5&amp;$N$1&amp;"0"&amp;$N$1&amp;"0"&amp;$N$1&amp;M5&amp;$N$1&amp;B5&amp;$N$1&amp;E5&amp;$N$1&amp;0</f>
-        <v>Lombardia,Lombardia,0,0,3/23/20,28761,3776,0</v>
+      <c r="J5" s="4" t="str">
+        <f>D5&amp;$J$1&amp;C5&amp;$J$1&amp;"0"&amp;$J$1&amp;"0"&amp;$J$1&amp;I5&amp;$J$1&amp;B5&amp;$J$1&amp;E5</f>
+        <v>Lombardia,Lombardia,0,0,3/23/20,28761,3776</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>43914</v>
+      </c>
+      <c r="B6">
+        <v>32346</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>4474</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="6" t="str">
+        <f t="shared" ref="I6:I7" si="0">MONTH(A6)&amp;"/"&amp;DAY(A6)&amp;"/"&amp;(YEAR(A6)-2000)</f>
+        <v>3/24/20</v>
+      </c>
+      <c r="J6" s="4" t="str">
+        <f t="shared" ref="J6:J7" si="1">D6&amp;$J$1&amp;C6&amp;$J$1&amp;"0"&amp;$J$1&amp;"0"&amp;$J$1&amp;I6&amp;$J$1&amp;B6&amp;$J$1&amp;E6</f>
+        <v>Lombardia,Lombardia,0,0,3/24/20,32346,4474</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>43915</v>
+      </c>
+      <c r="B7">
+        <v>1343</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>60</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>3/25/20</v>
+      </c>
+      <c r="J7" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>TI,TI,0,0,3/25/20,1343,60</v>
       </c>
     </row>
   </sheetData>

--- a/TI_Lombardia.xlsx
+++ b/TI_Lombardia.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U80794191\Documents\githubJupyter\COVID-19\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,8 +23,31 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Steinmann Philipp BAG</author>
+  </authors>
+  <commentList>
+    <comment ref="C3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>script sucht nach Country/Region</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
   <si>
     <t>Date</t>
   </si>
@@ -72,7 +100,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -100,23 +128,18 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -128,11 +151,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -148,13 +170,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -425,18 +442,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4:J7"/>
+      <selection activeCell="J4" sqref="J4:J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -485,13 +502,10 @@
       <c r="B4" s="3">
         <v>1211</v>
       </c>
-      <c r="C4" s="7" t="str">
-        <f>D4</f>
-        <v>TI</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3"/>
       <c r="E4" s="3">
         <v>53</v>
       </c>
@@ -508,7 +522,7 @@
       </c>
       <c r="J4" s="4" t="str">
         <f>D4&amp;$J$1&amp;C4&amp;$J$1&amp;"0"&amp;$J$1&amp;"0"&amp;$J$1&amp;I4&amp;$J$1&amp;B4&amp;$J$1&amp;E4</f>
-        <v>TI,TI,0,0,3/24/20,1211,53</v>
+        <v>,TI,0,0,3/24/20,1211,53</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -518,11 +532,7 @@
       <c r="B5">
         <v>28761</v>
       </c>
-      <c r="C5" s="8" t="str">
-        <f>D5</f>
-        <v>Lombardia</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C5" t="s">
         <v>9</v>
       </c>
       <c r="E5">
@@ -537,7 +547,7 @@
       </c>
       <c r="J5" s="4" t="str">
         <f>D5&amp;$J$1&amp;C5&amp;$J$1&amp;"0"&amp;$J$1&amp;"0"&amp;$J$1&amp;I5&amp;$J$1&amp;B5&amp;$J$1&amp;E5</f>
-        <v>Lombardia,Lombardia,0,0,3/23/20,28761,3776</v>
+        <v>,Lombardia,0,0,3/23/20,28761,3776</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -550,9 +560,6 @@
       <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
       <c r="E6">
         <v>4474</v>
       </c>
@@ -560,12 +567,12 @@
         <v>14</v>
       </c>
       <c r="I6" s="6" t="str">
-        <f t="shared" ref="I6:I7" si="0">MONTH(A6)&amp;"/"&amp;DAY(A6)&amp;"/"&amp;(YEAR(A6)-2000)</f>
+        <f t="shared" ref="I6:I10" si="0">MONTH(A6)&amp;"/"&amp;DAY(A6)&amp;"/"&amp;(YEAR(A6)-2000)</f>
         <v>3/24/20</v>
       </c>
       <c r="J6" s="4" t="str">
-        <f t="shared" ref="J6:J7" si="1">D6&amp;$J$1&amp;C6&amp;$J$1&amp;"0"&amp;$J$1&amp;"0"&amp;$J$1&amp;I6&amp;$J$1&amp;B6&amp;$J$1&amp;E6</f>
-        <v>Lombardia,Lombardia,0,0,3/24/20,32346,4474</v>
+        <f t="shared" ref="J6:J10" si="1">D6&amp;$J$1&amp;C6&amp;$J$1&amp;"0"&amp;$J$1&amp;"0"&amp;$J$1&amp;I6&amp;$J$1&amp;B6&amp;$J$1&amp;E6</f>
+        <v>,Lombardia,0,0,3/24/20,32346,4474</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -578,9 +585,6 @@
       <c r="C7" t="s">
         <v>7</v>
       </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
       <c r="E7">
         <v>60</v>
       </c>
@@ -593,11 +597,276 @@
       </c>
       <c r="J7" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>TI,TI,0,0,3/25/20,1343,60</v>
+        <v>,TI,0,0,3/25/20,1343,60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>43916</v>
+      </c>
+      <c r="B8">
+        <v>34889</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8">
+        <v>4861</v>
+      </c>
+      <c r="I8" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>3/26/20</v>
+      </c>
+      <c r="J8" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>,Lombardia,0,0,3/26/20,34889,4861</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>43916</v>
+      </c>
+      <c r="B9">
+        <v>1401</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>67</v>
+      </c>
+      <c r="I9" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>3/26/20</v>
+      </c>
+      <c r="J9" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>,TI,0,0,3/26/20,1401,67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>43904</v>
+      </c>
+      <c r="B10">
+        <v>262</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="I10" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>3/14/20</v>
+      </c>
+      <c r="J10" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>,TI,0,0,3/14/20,262,5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>43905</v>
+      </c>
+      <c r="B11">
+        <v>291</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>6</v>
+      </c>
+      <c r="I11" s="6" t="str">
+        <f t="shared" ref="I11:I19" si="2">MONTH(A11)&amp;"/"&amp;DAY(A11)&amp;"/"&amp;(YEAR(A11)-2000)</f>
+        <v>3/15/20</v>
+      </c>
+      <c r="J11" s="4" t="str">
+        <f t="shared" ref="J11:J19" si="3">D11&amp;$J$1&amp;C11&amp;$J$1&amp;"0"&amp;$J$1&amp;"0"&amp;$J$1&amp;I11&amp;$J$1&amp;B11&amp;$J$1&amp;E11</f>
+        <v>,TI,0,0,3/15/20,291,6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>43906</v>
+      </c>
+      <c r="B12">
+        <v>330</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <v>8</v>
+      </c>
+      <c r="I12" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>3/16/20</v>
+      </c>
+      <c r="J12" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>,TI,0,0,3/16/20,330,8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>43907</v>
+      </c>
+      <c r="B13">
+        <v>422</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="I13" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>3/17/20</v>
+      </c>
+      <c r="J13" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>,TI,0,0,3/17/20,422,10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>43908</v>
+      </c>
+      <c r="B14">
+        <v>511</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14">
+        <v>14</v>
+      </c>
+      <c r="I14" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>3/18/20</v>
+      </c>
+      <c r="J14" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>,TI,0,0,3/18/20,511,14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>43909</v>
+      </c>
+      <c r="B15">
+        <v>638</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15">
+        <v>15</v>
+      </c>
+      <c r="I15" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>3/19/20</v>
+      </c>
+      <c r="J15" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>,TI,0,0,3/19/20,638,15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>43910</v>
+      </c>
+      <c r="B16">
+        <v>834</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16">
+        <v>22</v>
+      </c>
+      <c r="I16" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>3/20/20</v>
+      </c>
+      <c r="J16" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>,TI,0,0,3/20/20,834,22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>43911</v>
+      </c>
+      <c r="B17">
+        <v>918</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17">
+        <v>28</v>
+      </c>
+      <c r="I17" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>3/21/20</v>
+      </c>
+      <c r="J17" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>,TI,0,0,3/21/20,918,28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>43912</v>
+      </c>
+      <c r="B18">
+        <v>939</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18">
+        <v>37</v>
+      </c>
+      <c r="I18" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>3/22/20</v>
+      </c>
+      <c r="J18" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>,TI,0,0,3/22/20,939,37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>43913</v>
+      </c>
+      <c r="B19">
+        <v>1165</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19">
+        <v>48</v>
+      </c>
+      <c r="I19" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>3/23/20</v>
+      </c>
+      <c r="J19" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>,TI,0,0,3/23/20,1165,48</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/TI_Lombardia.xlsx
+++ b/TI_Lombardia.xlsx
@@ -1,20 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U80794191\Documents\githubJupyter\COVID-19\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$E$20</definedName>
+  </definedNames>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +27,7 @@
     <author>Steinmann Philipp BAG</author>
   </authors>
   <commentList>
-    <comment ref="C3" authorId="0" shapeId="0">
+    <comment ref="C3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -47,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
   <si>
     <t>Date</t>
   </si>
@@ -95,13 +93,25 @@
   </si>
   <si>
     <t>de.wikipedia.org/wiki/COVID-19-Pandemie_in_der_Schweiz</t>
+  </si>
+  <si>
+    <t>pop TI</t>
+  </si>
+  <si>
+    <t>ilmessaggero.it</t>
+  </si>
+  <si>
+    <t>pop Lombardia</t>
+  </si>
+  <si>
+    <t>10.04 mio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,6 +143,12 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="23"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -154,7 +170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -170,6 +186,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,7 +459,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -450,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4:J19"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -462,11 +479,24 @@
     <col min="2" max="2" width="9.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.625" customWidth="1"/>
+    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="7">
+        <v>353709</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
       </c>
       <c r="J1" t="s">
         <v>12</v>
@@ -496,18 +526,17 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>43914</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1211</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3">
-        <v>53</v>
+      <c r="A4" s="1">
+        <v>43913</v>
+      </c>
+      <c r="B4">
+        <v>28761</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>3776</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
@@ -518,353 +547,406 @@
       </c>
       <c r="I4" s="6" t="str">
         <f>MONTH(A4)&amp;"/"&amp;DAY(A4)&amp;"/"&amp;(YEAR(A4)-2000)</f>
-        <v>3/24/20</v>
+        <v>3/23/20</v>
       </c>
       <c r="J4" s="4" t="str">
         <f>D4&amp;$J$1&amp;C4&amp;$J$1&amp;"0"&amp;$J$1&amp;"0"&amp;$J$1&amp;I4&amp;$J$1&amp;B4&amp;$J$1&amp;E4</f>
-        <v>,TI,0,0,3/24/20,1211,53</v>
+        <v>,Lombardia,0,0,3/23/20,28761,3776</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="B5">
-        <v>28761</v>
+        <v>32346</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
       <c r="E5">
-        <v>3776</v>
+        <v>4474</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
       </c>
       <c r="I5" s="6" t="str">
         <f>MONTH(A5)&amp;"/"&amp;DAY(A5)&amp;"/"&amp;(YEAR(A5)-2000)</f>
-        <v>3/23/20</v>
+        <v>3/24/20</v>
       </c>
       <c r="J5" s="4" t="str">
         <f>D5&amp;$J$1&amp;C5&amp;$J$1&amp;"0"&amp;$J$1&amp;"0"&amp;$J$1&amp;I5&amp;$J$1&amp;B5&amp;$J$1&amp;E5</f>
-        <v>,Lombardia,0,0,3/23/20,28761,3776</v>
+        <v>,Lombardia,0,0,3/24/20,32346,4474</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>43914</v>
+        <v>43916</v>
       </c>
       <c r="B6">
-        <v>32346</v>
+        <v>34889</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
       <c r="E6">
-        <v>4474</v>
+        <v>4861</v>
       </c>
       <c r="G6" t="s">
         <v>14</v>
       </c>
       <c r="I6" s="6" t="str">
-        <f t="shared" ref="I6:I10" si="0">MONTH(A6)&amp;"/"&amp;DAY(A6)&amp;"/"&amp;(YEAR(A6)-2000)</f>
-        <v>3/24/20</v>
+        <f t="shared" ref="I6:I11" si="0">MONTH(A6)&amp;"/"&amp;DAY(A6)&amp;"/"&amp;(YEAR(A6)-2000)</f>
+        <v>3/26/20</v>
       </c>
       <c r="J6" s="4" t="str">
-        <f t="shared" ref="J6:J10" si="1">D6&amp;$J$1&amp;C6&amp;$J$1&amp;"0"&amp;$J$1&amp;"0"&amp;$J$1&amp;I6&amp;$J$1&amp;B6&amp;$J$1&amp;E6</f>
-        <v>,Lombardia,0,0,3/24/20,32346,4474</v>
+        <f t="shared" ref="J6:J11" si="1">D6&amp;$J$1&amp;C6&amp;$J$1&amp;"0"&amp;$J$1&amp;"0"&amp;$J$1&amp;I6&amp;$J$1&amp;B6&amp;$J$1&amp;E6</f>
+        <v>,Lombardia,0,0,3/26/20,34889,4861</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>43915</v>
+        <v>43917</v>
       </c>
       <c r="B7">
-        <v>1343</v>
+        <v>37298</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E7">
-        <v>60</v>
+        <v>5402</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I7" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>3/25/20</v>
+        <f t="shared" ref="I7" si="2">MONTH(A7)&amp;"/"&amp;DAY(A7)&amp;"/"&amp;(YEAR(A7)-2000)</f>
+        <v>3/27/20</v>
       </c>
       <c r="J7" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>,TI,0,0,3/25/20,1343,60</v>
+        <f t="shared" ref="J7" si="3">D7&amp;$J$1&amp;C7&amp;$J$1&amp;"0"&amp;$J$1&amp;"0"&amp;$J$1&amp;I7&amp;$J$1&amp;B7&amp;$J$1&amp;E7</f>
+        <v>,Lombardia,0,0,3/27/20,37298,5402</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>43916</v>
+        <v>43904</v>
       </c>
       <c r="B8">
-        <v>34889</v>
+        <v>262</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E8">
-        <v>4861</v>
+        <v>5</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
       </c>
       <c r="I8" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>3/26/20</v>
+        <v>3/14/20</v>
       </c>
       <c r="J8" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>,Lombardia,0,0,3/26/20,34889,4861</v>
+        <v>,TI,0,0,3/14/20,262,5</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>43916</v>
+        <v>43905</v>
       </c>
       <c r="B9">
-        <v>1401</v>
+        <v>291</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
       </c>
       <c r="E9">
-        <v>67</v>
+        <v>6</v>
       </c>
       <c r="I9" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>3/26/20</v>
+        <v>3/15/20</v>
       </c>
       <c r="J9" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>,TI,0,0,3/26/20,1401,67</v>
+        <v>,TI,0,0,3/15/20,291,6</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>43904</v>
+        <v>43906</v>
       </c>
       <c r="B10">
-        <v>262</v>
+        <v>330</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
       </c>
       <c r="E10">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I10" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>3/14/20</v>
+        <v>3/16/20</v>
       </c>
       <c r="J10" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>,TI,0,0,3/14/20,262,5</v>
+        <v>,TI,0,0,3/16/20,330,8</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>43905</v>
+        <v>43907</v>
       </c>
       <c r="B11">
-        <v>291</v>
+        <v>422</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
       </c>
       <c r="E11">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I11" s="6" t="str">
-        <f t="shared" ref="I11:I19" si="2">MONTH(A11)&amp;"/"&amp;DAY(A11)&amp;"/"&amp;(YEAR(A11)-2000)</f>
-        <v>3/15/20</v>
+        <f t="shared" si="0"/>
+        <v>3/17/20</v>
       </c>
       <c r="J11" s="4" t="str">
-        <f t="shared" ref="J11:J19" si="3">D11&amp;$J$1&amp;C11&amp;$J$1&amp;"0"&amp;$J$1&amp;"0"&amp;$J$1&amp;I11&amp;$J$1&amp;B11&amp;$J$1&amp;E11</f>
-        <v>,TI,0,0,3/15/20,291,6</v>
+        <f t="shared" si="1"/>
+        <v>,TI,0,0,3/17/20,422,10</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>43906</v>
+        <v>43908</v>
       </c>
       <c r="B12">
-        <v>330</v>
+        <v>511</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
       </c>
       <c r="E12">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I12" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>3/16/20</v>
+        <f t="shared" ref="I12:I20" si="4">MONTH(A12)&amp;"/"&amp;DAY(A12)&amp;"/"&amp;(YEAR(A12)-2000)</f>
+        <v>3/18/20</v>
       </c>
       <c r="J12" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>,TI,0,0,3/16/20,330,8</v>
+        <f t="shared" ref="J12:J20" si="5">D12&amp;$J$1&amp;C12&amp;$J$1&amp;"0"&amp;$J$1&amp;"0"&amp;$J$1&amp;I12&amp;$J$1&amp;B12&amp;$J$1&amp;E12</f>
+        <v>,TI,0,0,3/18/20,511,14</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>43907</v>
+        <v>43909</v>
       </c>
       <c r="B13">
-        <v>422</v>
+        <v>638</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
       </c>
       <c r="E13">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I13" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>3/17/20</v>
+        <f t="shared" si="4"/>
+        <v>3/19/20</v>
       </c>
       <c r="J13" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>,TI,0,0,3/17/20,422,10</v>
+        <f t="shared" si="5"/>
+        <v>,TI,0,0,3/19/20,638,15</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>43908</v>
+        <v>43910</v>
       </c>
       <c r="B14">
-        <v>511</v>
+        <v>834</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
       </c>
       <c r="E14">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="I14" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>3/18/20</v>
+        <f t="shared" si="4"/>
+        <v>3/20/20</v>
       </c>
       <c r="J14" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>,TI,0,0,3/18/20,511,14</v>
+        <f t="shared" si="5"/>
+        <v>,TI,0,0,3/20/20,834,22</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>43909</v>
+        <v>43911</v>
       </c>
       <c r="B15">
-        <v>638</v>
+        <v>918</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
       </c>
       <c r="E15">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="I15" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>3/19/20</v>
+        <f t="shared" si="4"/>
+        <v>3/21/20</v>
       </c>
       <c r="J15" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>,TI,0,0,3/19/20,638,15</v>
+        <f t="shared" si="5"/>
+        <v>,TI,0,0,3/21/20,918,28</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>43910</v>
+        <v>43912</v>
       </c>
       <c r="B16">
-        <v>834</v>
+        <v>939</v>
       </c>
       <c r="C16" t="s">
         <v>7</v>
       </c>
       <c r="E16">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="I16" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>3/20/20</v>
+        <f t="shared" si="4"/>
+        <v>3/22/20</v>
       </c>
       <c r="J16" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>,TI,0,0,3/20/20,834,22</v>
+        <f t="shared" si="5"/>
+        <v>,TI,0,0,3/22/20,939,37</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>43911</v>
+        <v>43913</v>
       </c>
       <c r="B17">
-        <v>918</v>
+        <v>1165</v>
       </c>
       <c r="C17" t="s">
         <v>7</v>
       </c>
       <c r="E17">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="I17" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>3/21/20</v>
+        <f t="shared" si="4"/>
+        <v>3/23/20</v>
       </c>
       <c r="J17" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>,TI,0,0,3/21/20,918,28</v>
+        <f t="shared" si="5"/>
+        <v>,TI,0,0,3/23/20,1165,48</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>43912</v>
+      <c r="A18" s="2">
+        <v>43914</v>
       </c>
       <c r="B18">
-        <v>939</v>
-      </c>
-      <c r="C18" t="s">
-        <v>7</v>
-      </c>
+        <v>1211</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="3"/>
       <c r="E18">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="I18" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>3/22/20</v>
+        <f t="shared" si="4"/>
+        <v>3/24/20</v>
       </c>
       <c r="J18" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>,TI,0,0,3/22/20,939,37</v>
+        <f t="shared" si="5"/>
+        <v>,TI,0,0,3/24/20,1211,53</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>43913</v>
+        <v>43915</v>
       </c>
       <c r="B19">
-        <v>1165</v>
+        <v>1343</v>
       </c>
       <c r="C19" t="s">
         <v>7</v>
       </c>
       <c r="E19">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="I19" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>3/23/20</v>
+        <f t="shared" si="4"/>
+        <v>3/25/20</v>
       </c>
       <c r="J19" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>,TI,0,0,3/23/20,1165,48</v>
+        <f t="shared" si="5"/>
+        <v>,TI,0,0,3/25/20,1343,60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>43916</v>
+      </c>
+      <c r="B20">
+        <v>1401</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20">
+        <v>67</v>
+      </c>
+      <c r="I20" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>3/26/20</v>
+      </c>
+      <c r="J20" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>,TI,0,0,3/26/20,1401,67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>43917</v>
+      </c>
+      <c r="B21">
+        <v>1688</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21">
+        <v>76</v>
+      </c>
+      <c r="I21" s="6" t="str">
+        <f t="shared" ref="I21" si="6">MONTH(A21)&amp;"/"&amp;DAY(A21)&amp;"/"&amp;(YEAR(A21)-2000)</f>
+        <v>3/27/20</v>
+      </c>
+      <c r="J21" s="4" t="str">
+        <f t="shared" ref="J21" si="7">D21&amp;$J$1&amp;C21&amp;$J$1&amp;"0"&amp;$J$1&amp;"0"&amp;$J$1&amp;I21&amp;$J$1&amp;B21&amp;$J$1&amp;E21</f>
+        <v>,TI,0,0,3/27/20,1688,76</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A3:E20">
+    <sortState ref="A4:E20">
+      <sortCondition ref="C3:C19"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/TI_Lombardia.xlsx
+++ b/TI_Lombardia.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$F$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$F$32</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="33">
   <si>
     <t>Date</t>
   </si>
@@ -162,13 +162,13 @@
     <t>pop</t>
   </si>
   <si>
-    <t>;</t>
-  </si>
-  <si>
     <t>daily_cases</t>
   </si>
   <si>
     <t>daily_deaths</t>
+  </si>
+  <si>
+    <t>,</t>
   </si>
 </sst>
 </file>
@@ -266,12 +266,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -564,7 +561,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -572,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U27"/>
+  <dimension ref="A1:U37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -596,10 +593,10 @@
       <c r="E1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="7">
+      <c r="F1" s="6">
         <v>353709</v>
       </c>
-      <c r="G1" s="7"/>
+      <c r="G1" s="6"/>
       <c r="H1" t="s">
         <v>17</v>
       </c>
@@ -607,32 +604,32 @@
         <v>18</v>
       </c>
       <c r="L1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="36" x14ac:dyDescent="0.2">
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="Q2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="R2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="S2" s="7" t="s">
         <v>27</v>
       </c>
       <c r="T2" t="s">
@@ -650,7 +647,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
@@ -662,7 +659,7 @@
         <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H3" t="s">
         <v>29</v>
@@ -670,829 +667,1159 @@
       <c r="I3" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="10" t="e">
+      <c r="K3" s="9" t="e">
         <f t="shared" ref="K3" si="0">MONTH(A3)&amp;"/"&amp;DAY(A3)&amp;"/"&amp;(YEAR(A3)-2000)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>43912</v>
+        <v>43904</v>
       </c>
       <c r="B4">
-        <v>27206</v>
+        <v>11685</v>
       </c>
       <c r="C4">
         <f>B4</f>
-        <v>27206</v>
+        <v>11685</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
       </c>
       <c r="F4">
-        <v>3456</v>
+        <v>966</v>
       </c>
       <c r="G4">
         <f>F4</f>
-        <v>3456</v>
-      </c>
-      <c r="H4" s="3">
+        <v>966</v>
+      </c>
+      <c r="H4" s="2">
         <v>10040000</v>
       </c>
-      <c r="K4" s="6" t="str">
-        <f t="shared" ref="K4" si="1">DAY(A4)&amp;"."&amp;MONTH(A4)&amp;"."&amp;YEAR(A4)</f>
-        <v>22.3.2020</v>
-      </c>
-      <c r="L4" s="4" t="str">
-        <f>K4&amp;$L$1&amp;DAY(A4)&amp;$L$1&amp;MONTH(A4)&amp;$L$1&amp;YEAR(A4)&amp;$L$1&amp;C4&amp;$L$1&amp;G4&amp;$L$1&amp;D4&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H4</f>
-        <v>22.3.2020;22;3;2020;27206;3456;Lombardia;nn;nnn;10040000</v>
+      <c r="K4" s="5" t="str">
+        <f t="shared" ref="K4:K6" si="1">DAY(A4)&amp;"/"&amp;MONTH(A4)&amp;"/"&amp;YEAR(A4)</f>
+        <v>14/3/2020</v>
+      </c>
+      <c r="L4" s="3" t="str">
+        <f t="shared" ref="L4:L6" si="2">K4&amp;$L$1&amp;DAY(A4)&amp;$L$1&amp;MONTH(A4)&amp;$L$1&amp;YEAR(A4)&amp;$L$1&amp;C4&amp;$L$1&amp;G4&amp;$L$1&amp;D4&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H4</f>
+        <v>14/3/2020,14,3,2020,11685,966,Lombardia,nn,nnn,10040000</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>43913</v>
+        <v>43905</v>
       </c>
       <c r="B5">
-        <v>28761</v>
+        <v>13272</v>
       </c>
       <c r="C5">
-        <f t="shared" ref="C5:C11" si="2">B5-B4</f>
-        <v>1555</v>
+        <f t="shared" ref="C5:C8" si="3">B5-B4</f>
+        <v>1587</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
       </c>
       <c r="F5">
-        <v>3776</v>
+        <v>1218</v>
       </c>
       <c r="G5">
-        <f t="shared" ref="G5:G11" si="3">F5-F4</f>
-        <v>320</v>
-      </c>
-      <c r="H5" s="3">
+        <f t="shared" ref="G5:G7" si="4">F5-F4</f>
+        <v>252</v>
+      </c>
+      <c r="H5" s="2">
         <v>10040000</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K5" s="6" t="str">
-        <f t="shared" ref="K5:K27" si="4">DAY(A5)&amp;"."&amp;MONTH(A5)&amp;"."&amp;YEAR(A5)</f>
-        <v>23.3.2020</v>
-      </c>
-      <c r="L5" s="4" t="str">
-        <f t="shared" ref="L5:L27" si="5">K5&amp;$L$1&amp;DAY(A5)&amp;$L$1&amp;MONTH(A5)&amp;$L$1&amp;YEAR(A5)&amp;$L$1&amp;C5&amp;$L$1&amp;G5&amp;$L$1&amp;D5&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H5</f>
-        <v>23.3.2020;23;3;2020;1555;320;Lombardia;nn;nnn;10040000</v>
+      <c r="K5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>15/3/2020</v>
+      </c>
+      <c r="L5" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>15/3/2020,15,3,2020,1587,252,Lombardia,nn,nnn,10040000</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>43914</v>
+        <v>43906</v>
       </c>
       <c r="B6">
-        <v>30703</v>
+        <v>14649</v>
       </c>
       <c r="C6">
-        <f t="shared" si="2"/>
-        <v>1942</v>
+        <f t="shared" si="3"/>
+        <v>1377</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
       </c>
       <c r="F6">
-        <v>4178</v>
+        <v>1420</v>
       </c>
       <c r="G6">
-        <f t="shared" si="3"/>
-        <v>402</v>
-      </c>
-      <c r="H6" s="3">
+        <f t="shared" si="4"/>
+        <v>202</v>
+      </c>
+      <c r="H6" s="2">
         <v>10040000</v>
       </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>24.3.2020</v>
-      </c>
-      <c r="L6" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>24.3.2020;24;3;2020;1942;402;Lombardia;nn;nnn;10040000</v>
+      <c r="K6" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>16/3/2020</v>
+      </c>
+      <c r="L6" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>16/3/2020,16,3,2020,1377,202,Lombardia,nn,nnn,10040000</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>43915</v>
+        <v>43907</v>
       </c>
       <c r="B7">
-        <v>32346</v>
+        <v>16220</v>
       </c>
       <c r="C7">
-        <f t="shared" si="2"/>
-        <v>1643</v>
+        <f t="shared" si="3"/>
+        <v>1571</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
       </c>
       <c r="F7">
-        <v>4474</v>
+        <v>1640</v>
       </c>
       <c r="G7">
-        <f t="shared" si="3"/>
-        <v>296</v>
-      </c>
-      <c r="H7" s="3">
+        <f t="shared" si="4"/>
+        <v>220</v>
+      </c>
+      <c r="H7" s="2">
         <v>10040000</v>
       </c>
-      <c r="I7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>25.3.2020</v>
-      </c>
-      <c r="L7" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>25.3.2020;25;3;2020;1643;296;Lombardia;nn;nnn;10040000</v>
+      <c r="K7" s="5" t="str">
+        <f t="shared" ref="K7:K10" si="5">DAY(A7)&amp;"/"&amp;MONTH(A7)&amp;"/"&amp;YEAR(A7)</f>
+        <v>17/3/2020</v>
+      </c>
+      <c r="L7" s="3" t="str">
+        <f t="shared" ref="L7:L10" si="6">K7&amp;$L$1&amp;DAY(A7)&amp;$L$1&amp;MONTH(A7)&amp;$L$1&amp;YEAR(A7)&amp;$L$1&amp;C7&amp;$L$1&amp;G7&amp;$L$1&amp;D7&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H7</f>
+        <v>17/3/2020,17,3,2020,1571,220,Lombardia,nn,nnn,10040000</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>43916</v>
+        <v>43908</v>
       </c>
       <c r="B8">
-        <v>34889</v>
+        <v>17713</v>
       </c>
       <c r="C8">
-        <f t="shared" si="2"/>
-        <v>2543</v>
+        <f t="shared" si="3"/>
+        <v>1493</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
       </c>
       <c r="F8">
-        <v>4861</v>
+        <v>1959</v>
       </c>
       <c r="G8">
-        <f t="shared" si="3"/>
-        <v>387</v>
-      </c>
-      <c r="H8" s="3">
+        <f t="shared" ref="G8:G12" si="7">F8-F7</f>
+        <v>319</v>
+      </c>
+      <c r="H8" s="2">
         <v>10040000</v>
       </c>
-      <c r="I8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>26.3.2020</v>
-      </c>
-      <c r="L8" s="4" t="str">
+      <c r="K8" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>26.3.2020;26;3;2020;2543;387;Lombardia;nn;nnn;10040000</v>
+        <v>18/3/2020</v>
+      </c>
+      <c r="L8" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>18/3/2020,18,3,2020,1493,319,Lombardia,nn,nnn,10040000</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>43917</v>
+        <v>43909</v>
       </c>
       <c r="B9">
-        <v>37298</v>
+        <v>19884</v>
       </c>
       <c r="C9">
-        <f t="shared" si="2"/>
-        <v>2409</v>
+        <f t="shared" ref="C8:C12" si="8">B9-B8</f>
+        <v>2171</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
       </c>
       <c r="F9">
-        <v>5402</v>
+        <v>2168</v>
       </c>
       <c r="G9">
-        <f t="shared" si="3"/>
-        <v>541</v>
-      </c>
-      <c r="H9" s="3">
+        <f t="shared" si="7"/>
+        <v>209</v>
+      </c>
+      <c r="H9" s="2">
         <v>10040000</v>
       </c>
-      <c r="I9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K9" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>27.3.2020</v>
-      </c>
-      <c r="L9" s="4" t="str">
+      <c r="K9" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>27.3.2020;27;3;2020;2409;541;Lombardia;nn;nnn;10040000</v>
+        <v>19/3/2020</v>
+      </c>
+      <c r="L9" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>19/3/2020,19,3,2020,2171,209,Lombardia,nn,nnn,10040000</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>43918</v>
+        <v>43910</v>
       </c>
       <c r="B10">
-        <v>39415</v>
+        <v>22264</v>
       </c>
       <c r="C10">
-        <f t="shared" si="2"/>
-        <v>2117</v>
+        <f t="shared" si="8"/>
+        <v>2380</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
       </c>
       <c r="F10">
-        <v>5944</v>
+        <v>2549</v>
       </c>
       <c r="G10">
-        <f t="shared" si="3"/>
-        <v>542</v>
-      </c>
-      <c r="H10" s="3">
+        <f t="shared" si="7"/>
+        <v>381</v>
+      </c>
+      <c r="H10" s="2">
         <v>10040000</v>
       </c>
-      <c r="I10" t="s">
-        <v>14</v>
-      </c>
-      <c r="K10" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>28.3.2020</v>
-      </c>
-      <c r="L10" s="4" t="str">
+      <c r="K10" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>28.3.2020;28;3;2020;2117;542;Lombardia;nn;nnn;10040000</v>
+        <v>20/3/2020</v>
+      </c>
+      <c r="L10" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>20/3/2020,20,3,2020,2380,381,Lombardia,nn,nnn,10040000</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>43919</v>
+        <v>43911</v>
       </c>
       <c r="B11">
-        <v>41007</v>
+        <v>25515</v>
       </c>
       <c r="C11">
-        <f t="shared" si="2"/>
-        <v>1592</v>
+        <f t="shared" si="8"/>
+        <v>3251</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
       </c>
       <c r="F11">
-        <v>6360</v>
+        <v>3095</v>
       </c>
       <c r="G11">
-        <f t="shared" si="3"/>
-        <v>416</v>
-      </c>
-      <c r="H11" s="3">
+        <f t="shared" si="7"/>
+        <v>546</v>
+      </c>
+      <c r="H11" s="2">
         <v>10040000</v>
       </c>
-      <c r="K11" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>29.3.2020</v>
-      </c>
-      <c r="L11" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>29.3.2020;29;3;2020;1592;416;Lombardia;nn;nnn;10040000</v>
+      <c r="K11" s="5" t="str">
+        <f>DAY(A11)&amp;"/"&amp;MONTH(A11)&amp;"/"&amp;YEAR(A11)</f>
+        <v>21/3/2020</v>
+      </c>
+      <c r="L11" s="3" t="str">
+        <f>K11&amp;$L$1&amp;DAY(A11)&amp;$L$1&amp;MONTH(A11)&amp;$L$1&amp;YEAR(A11)&amp;$L$1&amp;C11&amp;$L$1&amp;G11&amp;$L$1&amp;D11&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H11</f>
+        <v>21/3/2020,21,3,2020,3251,546,Lombardia,nn,nnn,10040000</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>43904</v>
+        <v>43912</v>
       </c>
       <c r="B12">
-        <v>262</v>
+        <v>27206</v>
       </c>
       <c r="C12">
-        <f>B12</f>
-        <v>262</v>
+        <f t="shared" si="8"/>
+        <v>1691</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F12">
-        <v>5</v>
+        <v>3456</v>
       </c>
       <c r="G12">
-        <f>F12</f>
-        <v>5</v>
-      </c>
-      <c r="H12">
-        <v>353709</v>
-      </c>
-      <c r="K12" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>14.3.2020</v>
-      </c>
-      <c r="L12" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>14.3.2020;14;3;2020;262;5;TI;nn;nnn;353709</v>
+        <f t="shared" si="7"/>
+        <v>361</v>
+      </c>
+      <c r="H12" s="2">
+        <v>10040000</v>
+      </c>
+      <c r="K12" s="5" t="str">
+        <f t="shared" ref="K12:K37" si="9">DAY(A12)&amp;"/"&amp;MONTH(A12)&amp;"/"&amp;YEAR(A12)</f>
+        <v>22/3/2020</v>
+      </c>
+      <c r="L12" s="3" t="str">
+        <f>K12&amp;$L$1&amp;DAY(A12)&amp;$L$1&amp;MONTH(A12)&amp;$L$1&amp;YEAR(A12)&amp;$L$1&amp;C12&amp;$L$1&amp;G12&amp;$L$1&amp;D12&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H12</f>
+        <v>22/3/2020,22,3,2020,1691,361,Lombardia,nn,nnn,10040000</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>43905</v>
+        <v>43913</v>
       </c>
       <c r="B13">
-        <v>291</v>
+        <v>28761</v>
       </c>
       <c r="C13">
-        <f t="shared" ref="C13:C27" si="6">B13-B12</f>
-        <v>29</v>
+        <f t="shared" ref="C13:C20" si="10">B13-B12</f>
+        <v>1555</v>
       </c>
       <c r="D13" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F13">
-        <v>6</v>
+        <v>3776</v>
       </c>
       <c r="G13">
-        <f t="shared" ref="G13:G27" si="7">F13-F12</f>
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>353709</v>
-      </c>
-      <c r="K13" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>15.3.2020</v>
-      </c>
-      <c r="L13" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>15.3.2020;15;3;2020;29;1;TI;nn;nnn;353709</v>
+        <f t="shared" ref="G13:G20" si="11">F13-F12</f>
+        <v>320</v>
+      </c>
+      <c r="H13" s="2">
+        <v>10040000</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K13" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>23/3/2020</v>
+      </c>
+      <c r="L13" s="3" t="str">
+        <f t="shared" ref="L13:L36" si="12">K13&amp;$L$1&amp;DAY(A13)&amp;$L$1&amp;MONTH(A13)&amp;$L$1&amp;YEAR(A13)&amp;$L$1&amp;C13&amp;$L$1&amp;G13&amp;$L$1&amp;D13&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H13</f>
+        <v>23/3/2020,23,3,2020,1555,320,Lombardia,nn,nnn,10040000</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>43906</v>
+        <v>43914</v>
       </c>
       <c r="B14">
-        <v>330</v>
+        <v>30703</v>
       </c>
       <c r="C14">
-        <f t="shared" si="6"/>
-        <v>39</v>
+        <f t="shared" si="10"/>
+        <v>1942</v>
       </c>
       <c r="D14" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F14">
-        <v>8</v>
+        <v>4178</v>
       </c>
       <c r="G14">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="H14">
-        <v>353709</v>
-      </c>
-      <c r="K14" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>16.3.2020</v>
-      </c>
-      <c r="L14" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>16.3.2020;16;3;2020;39;2;TI;nn;nnn;353709</v>
+        <f t="shared" si="11"/>
+        <v>402</v>
+      </c>
+      <c r="H14" s="2">
+        <v>10040000</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>24/3/2020</v>
+      </c>
+      <c r="L14" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>24/3/2020,24,3,2020,1942,402,Lombardia,nn,nnn,10040000</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>43907</v>
+        <v>43915</v>
       </c>
       <c r="B15">
-        <v>422</v>
+        <v>32346</v>
       </c>
       <c r="C15">
-        <f t="shared" si="6"/>
-        <v>92</v>
+        <f t="shared" si="10"/>
+        <v>1643</v>
       </c>
       <c r="D15" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F15">
+        <v>4474</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="11"/>
+        <v>296</v>
+      </c>
+      <c r="H15" s="2">
+        <v>10040000</v>
+      </c>
+      <c r="I15" t="s">
         <v>10</v>
       </c>
-      <c r="G15">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="H15">
-        <v>353709</v>
-      </c>
-      <c r="K15" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>17.3.2020</v>
-      </c>
-      <c r="L15" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>17.3.2020;17;3;2020;92;2;TI;nn;nnn;353709</v>
+      <c r="K15" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>25/3/2020</v>
+      </c>
+      <c r="L15" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>25/3/2020,25,3,2020,1643,296,Lombardia,nn,nnn,10040000</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>43908</v>
+        <v>43916</v>
       </c>
       <c r="B16">
-        <v>511</v>
+        <v>34889</v>
       </c>
       <c r="C16">
-        <f t="shared" si="6"/>
-        <v>89</v>
+        <f t="shared" si="10"/>
+        <v>2543</v>
       </c>
       <c r="D16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F16">
-        <v>14</v>
+        <v>4861</v>
       </c>
       <c r="G16">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="H16">
-        <v>353709</v>
-      </c>
-      <c r="K16" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>18.3.2020</v>
-      </c>
-      <c r="L16" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>18.3.2020;18;3;2020;89;4;TI;nn;nnn;353709</v>
+        <f t="shared" si="11"/>
+        <v>387</v>
+      </c>
+      <c r="H16" s="2">
+        <v>10040000</v>
+      </c>
+      <c r="I16" t="s">
+        <v>13</v>
+      </c>
+      <c r="K16" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>26/3/2020</v>
+      </c>
+      <c r="L16" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>26/3/2020,26,3,2020,2543,387,Lombardia,nn,nnn,10040000</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>43909</v>
+        <v>43917</v>
       </c>
       <c r="B17">
-        <v>638</v>
+        <v>37298</v>
       </c>
       <c r="C17">
-        <f t="shared" si="6"/>
-        <v>127</v>
+        <f t="shared" si="10"/>
+        <v>2409</v>
       </c>
       <c r="D17" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F17">
-        <v>15</v>
+        <v>5402</v>
       </c>
       <c r="G17">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>353709</v>
-      </c>
-      <c r="K17" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>19.3.2020</v>
-      </c>
-      <c r="L17" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>19.3.2020;19;3;2020;127;1;TI;nn;nnn;353709</v>
+        <f t="shared" si="11"/>
+        <v>541</v>
+      </c>
+      <c r="H17" s="2">
+        <v>10040000</v>
+      </c>
+      <c r="I17" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>27/3/2020</v>
+      </c>
+      <c r="L17" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>27/3/2020,27,3,2020,2409,541,Lombardia,nn,nnn,10040000</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>43910</v>
+        <v>43918</v>
       </c>
       <c r="B18">
-        <v>834</v>
+        <v>39415</v>
       </c>
       <c r="C18">
-        <f t="shared" si="6"/>
-        <v>196</v>
+        <f t="shared" si="10"/>
+        <v>2117</v>
       </c>
       <c r="D18" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F18">
-        <v>22</v>
+        <v>5944</v>
       </c>
       <c r="G18">
-        <f t="shared" si="7"/>
-        <v>7</v>
-      </c>
-      <c r="H18">
-        <v>353709</v>
-      </c>
-      <c r="K18" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>20.3.2020</v>
-      </c>
-      <c r="L18" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>20.3.2020;20;3;2020;196;7;TI;nn;nnn;353709</v>
+        <f t="shared" si="11"/>
+        <v>542</v>
+      </c>
+      <c r="H18" s="2">
+        <v>10040000</v>
+      </c>
+      <c r="I18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K18" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>28/3/2020</v>
+      </c>
+      <c r="L18" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>28/3/2020,28,3,2020,2117,542,Lombardia,nn,nnn,10040000</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>43911</v>
+        <v>43919</v>
       </c>
       <c r="B19">
-        <v>918</v>
+        <v>41007</v>
       </c>
       <c r="C19">
-        <f t="shared" si="6"/>
-        <v>84</v>
+        <f t="shared" si="10"/>
+        <v>1592</v>
       </c>
       <c r="D19" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F19">
-        <v>28</v>
+        <v>6360</v>
       </c>
       <c r="G19">
-        <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
-      <c r="H19">
-        <v>353709</v>
-      </c>
-      <c r="K19" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>21.3.2020</v>
-      </c>
-      <c r="L19" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>21.3.2020;21;3;2020;84;6;TI;nn;nnn;353709</v>
+        <f t="shared" si="11"/>
+        <v>416</v>
+      </c>
+      <c r="H19" s="2">
+        <v>10040000</v>
+      </c>
+      <c r="K19" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>29/3/2020</v>
+      </c>
+      <c r="L19" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>29/3/2020,29,3,2020,1592,416,Lombardia,nn,nnn,10040000</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>43912</v>
+        <v>43920</v>
       </c>
       <c r="B20">
-        <v>939</v>
+        <v>42161</v>
       </c>
       <c r="C20">
-        <f t="shared" si="6"/>
-        <v>21</v>
+        <f t="shared" si="10"/>
+        <v>1154</v>
       </c>
       <c r="D20" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F20">
-        <v>37</v>
+        <v>6818</v>
       </c>
       <c r="G20">
-        <f t="shared" si="7"/>
-        <v>9</v>
-      </c>
-      <c r="H20">
-        <v>353709</v>
-      </c>
-      <c r="K20" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>22.3.2020</v>
-      </c>
-      <c r="L20" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>22.3.2020;22;3;2020;21;9;TI;nn;nnn;353709</v>
+        <f t="shared" si="11"/>
+        <v>458</v>
+      </c>
+      <c r="H20" s="2">
+        <v>10040000</v>
+      </c>
+      <c r="K20" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>30/3/2020</v>
+      </c>
+      <c r="L20" s="3" t="str">
+        <f t="shared" ref="L20" si="13">K20&amp;$L$1&amp;DAY(A20)&amp;$L$1&amp;MONTH(A20)&amp;$L$1&amp;YEAR(A20)&amp;$L$1&amp;C20&amp;$L$1&amp;G20&amp;$L$1&amp;D20&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H20</f>
+        <v>30/3/2020,30,3,2020,1154,458,Lombardia,nn,nnn,10040000</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>43913</v>
+        <v>43904</v>
       </c>
       <c r="B21">
-        <v>1165</v>
+        <v>262</v>
       </c>
       <c r="C21">
-        <f t="shared" si="6"/>
-        <v>226</v>
+        <f>B21</f>
+        <v>262</v>
       </c>
       <c r="D21" t="s">
         <v>7</v>
       </c>
       <c r="F21">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="G21">
-        <f t="shared" si="7"/>
-        <v>11</v>
+        <f>F21</f>
+        <v>5</v>
       </c>
       <c r="H21">
         <v>353709</v>
       </c>
-      <c r="K21" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>23.3.2020</v>
-      </c>
-      <c r="L21" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>23.3.2020;23;3;2020;226;11;TI;nn;nnn;353709</v>
+      <c r="K21" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>14/3/2020</v>
+      </c>
+      <c r="L21" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>14/3/2020,14,3,2020,262,5,TI,nn,nnn,353709</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
-        <v>43914</v>
+      <c r="A22" s="1">
+        <v>43905</v>
       </c>
       <c r="B22">
-        <v>1211</v>
+        <v>291</v>
       </c>
       <c r="C22">
-        <f t="shared" si="6"/>
-        <v>46</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="3"/>
+        <f t="shared" ref="C22:C37" si="14">B22-B21</f>
+        <v>29</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
       <c r="F22">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="G22">
-        <f t="shared" si="7"/>
-        <v>5</v>
+        <f t="shared" ref="G22:G37" si="15">F22-F21</f>
+        <v>1</v>
       </c>
       <c r="H22">
         <v>353709</v>
       </c>
-      <c r="K22" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>24.3.2020</v>
-      </c>
-      <c r="L22" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>24.3.2020;24;3;2020;46;5;TI;nn;nnn;353709</v>
+      <c r="K22" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>15/3/2020</v>
+      </c>
+      <c r="L22" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>15/3/2020,15,3,2020,29,1,TI,nn,nnn,353709</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>43915</v>
+        <v>43906</v>
       </c>
       <c r="B23">
-        <v>1343</v>
+        <v>330</v>
       </c>
       <c r="C23">
-        <f t="shared" si="6"/>
-        <v>132</v>
+        <f t="shared" si="14"/>
+        <v>39</v>
       </c>
       <c r="D23" t="s">
         <v>7</v>
       </c>
       <c r="F23">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="G23">
-        <f t="shared" si="7"/>
-        <v>7</v>
+        <f t="shared" si="15"/>
+        <v>2</v>
       </c>
       <c r="H23">
         <v>353709</v>
       </c>
-      <c r="K23" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>25.3.2020</v>
-      </c>
-      <c r="L23" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>25.3.2020;25;3;2020;132;7;TI;nn;nnn;353709</v>
+      <c r="K23" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>16/3/2020</v>
+      </c>
+      <c r="L23" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>16/3/2020,16,3,2020,39,2,TI,nn,nnn,353709</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>43916</v>
+        <v>43907</v>
       </c>
       <c r="B24">
-        <v>1401</v>
+        <v>422</v>
       </c>
       <c r="C24">
-        <f t="shared" si="6"/>
-        <v>58</v>
+        <f t="shared" si="14"/>
+        <v>92</v>
       </c>
       <c r="D24" t="s">
         <v>7</v>
       </c>
       <c r="F24">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="G24">
-        <f t="shared" si="7"/>
-        <v>7</v>
+        <f t="shared" si="15"/>
+        <v>2</v>
       </c>
       <c r="H24">
         <v>353709</v>
       </c>
-      <c r="K24" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>26.3.2020</v>
-      </c>
-      <c r="L24" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>26.3.2020;26;3;2020;58;7;TI;nn;nnn;353709</v>
+      <c r="K24" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>17/3/2020</v>
+      </c>
+      <c r="L24" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>17/3/2020,17,3,2020,92,2,TI,nn,nnn,353709</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>43917</v>
+        <v>43908</v>
       </c>
       <c r="B25">
-        <v>1688</v>
+        <v>511</v>
       </c>
       <c r="C25">
-        <f t="shared" si="6"/>
-        <v>287</v>
+        <f t="shared" si="14"/>
+        <v>89</v>
       </c>
       <c r="D25" t="s">
         <v>7</v>
       </c>
       <c r="F25">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="G25">
-        <f t="shared" si="7"/>
-        <v>9</v>
+        <f t="shared" si="15"/>
+        <v>4</v>
       </c>
       <c r="H25">
         <v>353709</v>
       </c>
-      <c r="K25" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>27.3.2020</v>
-      </c>
-      <c r="L25" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>27.3.2020;27;3;2020;287;9;TI;nn;nnn;353709</v>
+      <c r="K25" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>18/3/2020</v>
+      </c>
+      <c r="L25" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>18/3/2020,18,3,2020,89,4,TI,nn,nnn,353709</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>43918</v>
+        <v>43909</v>
       </c>
       <c r="B26">
-        <v>1727</v>
+        <v>638</v>
       </c>
       <c r="C26">
-        <f t="shared" si="6"/>
-        <v>39</v>
+        <f t="shared" si="14"/>
+        <v>127</v>
       </c>
       <c r="D26" t="s">
         <v>7</v>
       </c>
       <c r="F26">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="G26">
-        <f t="shared" si="7"/>
-        <v>11</v>
+        <f t="shared" si="15"/>
+        <v>1</v>
       </c>
       <c r="H26">
         <v>353709</v>
       </c>
-      <c r="K26" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>28.3.2020</v>
-      </c>
-      <c r="L26" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>28.3.2020;28;3;2020;39;11;TI;nn;nnn;353709</v>
+      <c r="K26" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>19/3/2020</v>
+      </c>
+      <c r="L26" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>19/3/2020,19,3,2020,127,1,TI,nn,nnn,353709</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>43919</v>
+        <v>43910</v>
       </c>
       <c r="B27">
-        <v>1837</v>
+        <v>834</v>
       </c>
       <c r="C27">
-        <f t="shared" si="6"/>
-        <v>110</v>
+        <f t="shared" si="14"/>
+        <v>196</v>
       </c>
       <c r="D27" t="s">
         <v>7</v>
       </c>
       <c r="F27">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="G27">
-        <f t="shared" si="7"/>
-        <v>6</v>
+        <f t="shared" si="15"/>
+        <v>7</v>
       </c>
       <c r="H27">
         <v>353709</v>
       </c>
-      <c r="K27" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>29.3.2020</v>
-      </c>
-      <c r="L27" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>29.3.2020;29;3;2020;110;6;TI;nn;nnn;353709</v>
+      <c r="K27" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>20/3/2020</v>
+      </c>
+      <c r="L27" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>20/3/2020,20,3,2020,196,7,TI,nn,nnn,353709</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>43911</v>
+      </c>
+      <c r="B28">
+        <v>918</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="14"/>
+        <v>84</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28">
+        <v>28</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="H28">
+        <v>353709</v>
+      </c>
+      <c r="K28" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>21/3/2020</v>
+      </c>
+      <c r="L28" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>21/3/2020,21,3,2020,84,6,TI,nn,nnn,353709</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>43912</v>
+      </c>
+      <c r="B29">
+        <v>939</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="14"/>
+        <v>21</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29">
+        <v>37</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="H29">
+        <v>353709</v>
+      </c>
+      <c r="K29" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>22/3/2020</v>
+      </c>
+      <c r="L29" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>22/3/2020,22,3,2020,21,9,TI,nn,nnn,353709</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>43913</v>
+      </c>
+      <c r="B30">
+        <v>1165</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="14"/>
+        <v>226</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30">
+        <v>48</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="15"/>
+        <v>11</v>
+      </c>
+      <c r="H30">
+        <v>353709</v>
+      </c>
+      <c r="K30" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>23/3/2020</v>
+      </c>
+      <c r="L30" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>23/3/2020,23,3,2020,226,11,TI,nn,nnn,353709</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>43914</v>
+      </c>
+      <c r="B31">
+        <v>1211</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="14"/>
+        <v>46</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31">
+        <v>53</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="H31">
+        <v>353709</v>
+      </c>
+      <c r="K31" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>24/3/2020</v>
+      </c>
+      <c r="L31" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>24/3/2020,24,3,2020,46,5,TI,nn,nnn,353709</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>43915</v>
+      </c>
+      <c r="B32">
+        <v>1343</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="14"/>
+        <v>132</v>
+      </c>
+      <c r="D32" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32">
+        <v>60</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="15"/>
+        <v>7</v>
+      </c>
+      <c r="H32">
+        <v>353709</v>
+      </c>
+      <c r="K32" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>25/3/2020</v>
+      </c>
+      <c r="L32" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>25/3/2020,25,3,2020,132,7,TI,nn,nnn,353709</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>43916</v>
+      </c>
+      <c r="B33">
+        <v>1401</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="14"/>
+        <v>58</v>
+      </c>
+      <c r="D33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33">
+        <v>67</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="15"/>
+        <v>7</v>
+      </c>
+      <c r="H33">
+        <v>353709</v>
+      </c>
+      <c r="K33" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>26/3/2020</v>
+      </c>
+      <c r="L33" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>26/3/2020,26,3,2020,58,7,TI,nn,nnn,353709</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>43917</v>
+      </c>
+      <c r="B34">
+        <v>1688</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="14"/>
+        <v>287</v>
+      </c>
+      <c r="D34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34">
+        <v>76</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="H34">
+        <v>353709</v>
+      </c>
+      <c r="K34" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>27/3/2020</v>
+      </c>
+      <c r="L34" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>27/3/2020,27,3,2020,287,9,TI,nn,nnn,353709</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>43918</v>
+      </c>
+      <c r="B35">
+        <v>1727</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="14"/>
+        <v>39</v>
+      </c>
+      <c r="D35" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35">
+        <v>87</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="15"/>
+        <v>11</v>
+      </c>
+      <c r="H35">
+        <v>353709</v>
+      </c>
+      <c r="K35" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>28/3/2020</v>
+      </c>
+      <c r="L35" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>28/3/2020,28,3,2020,39,11,TI,nn,nnn,353709</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>43919</v>
+      </c>
+      <c r="B36">
+        <v>1837</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="14"/>
+        <v>110</v>
+      </c>
+      <c r="D36" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36">
+        <v>93</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="H36">
+        <v>353709</v>
+      </c>
+      <c r="K36" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>29/3/2020</v>
+      </c>
+      <c r="L36" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>29/3/2020,29,3,2020,110,6,TI,nn,nnn,353709</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>43920</v>
+      </c>
+      <c r="B37">
+        <v>1962</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="14"/>
+        <v>125</v>
+      </c>
+      <c r="D37" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37">
+        <v>105</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+      <c r="H37">
+        <v>353709</v>
+      </c>
+      <c r="K37" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>30/3/2020</v>
+      </c>
+      <c r="L37" s="3" t="str">
+        <f t="shared" ref="L37" si="16">K37&amp;$L$1&amp;DAY(A37)&amp;$L$1&amp;MONTH(A37)&amp;$L$1&amp;YEAR(A37)&amp;$L$1&amp;C37&amp;$L$1&amp;G37&amp;$L$1&amp;D37&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H37</f>
+        <v>30/3/2020,30,3,2020,125,12,TI,nn,nnn,353709</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:F23">
+  <autoFilter ref="A3:F32">
     <sortState ref="A4:F23">
       <sortCondition ref="D3:D20"/>
     </sortState>

--- a/TI_Lombardia.xlsx
+++ b/TI_Lombardia.xlsx
@@ -8,9 +8,10 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$F$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$F$39</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
@@ -70,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="33">
   <si>
     <t>Date</t>
   </si>
@@ -175,7 +176,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,8 +234,14 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF24292E"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -253,8 +260,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6F8FA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -262,11 +275,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDFE2E5"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDFE2E5"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDFE2E5"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDFE2E5"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -288,6 +316,22 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -561,7 +605,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -569,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U37"/>
+  <dimension ref="A1:U45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -677,1149 +721,1413 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>43904</v>
+        <v>43898</v>
       </c>
       <c r="B4">
-        <v>11685</v>
+        <v>4189</v>
       </c>
       <c r="C4">
         <f>B4</f>
-        <v>11685</v>
+        <v>4189</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
       </c>
       <c r="F4">
-        <v>966</v>
+        <v>267</v>
       </c>
       <c r="G4">
         <f>F4</f>
-        <v>966</v>
+        <v>267</v>
       </c>
       <c r="H4" s="2">
         <v>10040000</v>
       </c>
       <c r="K4" s="5" t="str">
-        <f t="shared" ref="K4:K6" si="1">DAY(A4)&amp;"/"&amp;MONTH(A4)&amp;"/"&amp;YEAR(A4)</f>
-        <v>14/3/2020</v>
+        <f t="shared" ref="K4:K9" si="1">DAY(A4)&amp;"/"&amp;MONTH(A4)&amp;"/"&amp;YEAR(A4)</f>
+        <v>8/3/2020</v>
       </c>
       <c r="L4" s="3" t="str">
-        <f t="shared" ref="L4:L6" si="2">K4&amp;$L$1&amp;DAY(A4)&amp;$L$1&amp;MONTH(A4)&amp;$L$1&amp;YEAR(A4)&amp;$L$1&amp;C4&amp;$L$1&amp;G4&amp;$L$1&amp;D4&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H4</f>
-        <v>14/3/2020,14,3,2020,11685,966,Lombardia,nn,nnn,10040000</v>
+        <f t="shared" ref="L4:L9" si="2">K4&amp;$L$1&amp;DAY(A4)&amp;$L$1&amp;MONTH(A4)&amp;$L$1&amp;YEAR(A4)&amp;$L$1&amp;C4&amp;$L$1&amp;G4&amp;$L$1&amp;D4&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H4</f>
+        <v>8/3/2020,8,3,2020,4189,267,Lombardia,nn,nnn,10040000</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>43905</v>
+        <v>43899</v>
       </c>
       <c r="B5">
-        <v>13272</v>
+        <v>5469</v>
       </c>
       <c r="C5">
-        <f t="shared" ref="C5:C8" si="3">B5-B4</f>
-        <v>1587</v>
+        <f t="shared" ref="C5:C11" si="3">B5-B4</f>
+        <v>1280</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
       </c>
       <c r="F5">
-        <v>1218</v>
+        <v>333</v>
       </c>
       <c r="G5">
-        <f t="shared" ref="G5:G7" si="4">F5-F4</f>
-        <v>252</v>
+        <f t="shared" ref="G5:G10" si="4">F5-F4</f>
+        <v>66</v>
       </c>
       <c r="H5" s="2">
         <v>10040000</v>
       </c>
       <c r="K5" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>15/3/2020</v>
+        <v>9/3/2020</v>
       </c>
       <c r="L5" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>15/3/2020,15,3,2020,1587,252,Lombardia,nn,nnn,10040000</v>
+        <v>9/3/2020,9,3,2020,1280,66,Lombardia,nn,nnn,10040000</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>43906</v>
+        <v>43900</v>
       </c>
       <c r="B6">
-        <v>14649</v>
+        <v>5791</v>
       </c>
       <c r="C6">
         <f t="shared" si="3"/>
-        <v>1377</v>
+        <v>322</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
       </c>
       <c r="F6">
-        <v>1420</v>
+        <v>468</v>
       </c>
       <c r="G6">
         <f t="shared" si="4"/>
-        <v>202</v>
+        <v>135</v>
       </c>
       <c r="H6" s="2">
         <v>10040000</v>
       </c>
       <c r="K6" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>16/3/2020</v>
+        <v>10/3/2020</v>
       </c>
       <c r="L6" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>16/3/2020,16,3,2020,1377,202,Lombardia,nn,nnn,10040000</v>
+        <v>10/3/2020,10,3,2020,322,135,Lombardia,nn,nnn,10040000</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>43907</v>
+        <v>43901</v>
       </c>
       <c r="B7">
-        <v>16220</v>
+        <v>7280</v>
       </c>
       <c r="C7">
         <f t="shared" si="3"/>
-        <v>1571</v>
+        <v>1489</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
       </c>
       <c r="F7">
-        <v>1640</v>
+        <v>617</v>
       </c>
       <c r="G7">
         <f t="shared" si="4"/>
-        <v>220</v>
+        <v>149</v>
       </c>
       <c r="H7" s="2">
         <v>10040000</v>
       </c>
       <c r="K7" s="5" t="str">
-        <f t="shared" ref="K7:K10" si="5">DAY(A7)&amp;"/"&amp;MONTH(A7)&amp;"/"&amp;YEAR(A7)</f>
-        <v>17/3/2020</v>
+        <f t="shared" si="1"/>
+        <v>11/3/2020</v>
       </c>
       <c r="L7" s="3" t="str">
-        <f t="shared" ref="L7:L10" si="6">K7&amp;$L$1&amp;DAY(A7)&amp;$L$1&amp;MONTH(A7)&amp;$L$1&amp;YEAR(A7)&amp;$L$1&amp;C7&amp;$L$1&amp;G7&amp;$L$1&amp;D7&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H7</f>
-        <v>17/3/2020,17,3,2020,1571,220,Lombardia,nn,nnn,10040000</v>
+        <f t="shared" si="2"/>
+        <v>11/3/2020,11,3,2020,1489,149,Lombardia,nn,nnn,10040000</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>43908</v>
+        <v>43902</v>
       </c>
       <c r="B8">
-        <v>17713</v>
+        <v>8725</v>
       </c>
       <c r="C8">
         <f t="shared" si="3"/>
-        <v>1493</v>
+        <v>1445</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
       </c>
       <c r="F8">
-        <v>1959</v>
+        <v>744</v>
       </c>
       <c r="G8">
-        <f t="shared" ref="G8:G12" si="7">F8-F7</f>
-        <v>319</v>
+        <f t="shared" si="4"/>
+        <v>127</v>
       </c>
       <c r="H8" s="2">
         <v>10040000</v>
       </c>
       <c r="K8" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>18/3/2020</v>
+        <f t="shared" si="1"/>
+        <v>12/3/2020</v>
       </c>
       <c r="L8" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>18/3/2020,18,3,2020,1493,319,Lombardia,nn,nnn,10040000</v>
+        <f t="shared" si="2"/>
+        <v>12/3/2020,12,3,2020,1445,127,Lombardia,nn,nnn,10040000</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>43909</v>
+        <v>43903</v>
       </c>
       <c r="B9">
-        <v>19884</v>
+        <v>9820</v>
       </c>
       <c r="C9">
-        <f t="shared" ref="C8:C12" si="8">B9-B8</f>
-        <v>2171</v>
+        <f t="shared" si="3"/>
+        <v>1095</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
       </c>
       <c r="F9">
-        <v>2168</v>
+        <v>890</v>
       </c>
       <c r="G9">
-        <f t="shared" si="7"/>
-        <v>209</v>
+        <f t="shared" si="4"/>
+        <v>146</v>
       </c>
       <c r="H9" s="2">
         <v>10040000</v>
       </c>
       <c r="K9" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>19/3/2020</v>
+        <f t="shared" si="1"/>
+        <v>13/3/2020</v>
       </c>
       <c r="L9" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>19/3/2020,19,3,2020,2171,209,Lombardia,nn,nnn,10040000</v>
+        <f t="shared" si="2"/>
+        <v>13/3/2020,13,3,2020,1095,146,Lombardia,nn,nnn,10040000</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>43910</v>
+        <v>43904</v>
       </c>
       <c r="B10">
-        <v>22264</v>
+        <v>11685</v>
       </c>
       <c r="C10">
-        <f t="shared" si="8"/>
-        <v>2380</v>
+        <f t="shared" si="3"/>
+        <v>1865</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
       </c>
       <c r="F10">
-        <v>2549</v>
+        <v>966</v>
       </c>
       <c r="G10">
-        <f t="shared" si="7"/>
-        <v>381</v>
+        <f t="shared" si="4"/>
+        <v>76</v>
       </c>
       <c r="H10" s="2">
         <v>10040000</v>
       </c>
       <c r="K10" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>20/3/2020</v>
+        <f t="shared" ref="K10:K12" si="5">DAY(A10)&amp;"/"&amp;MONTH(A10)&amp;"/"&amp;YEAR(A10)</f>
+        <v>14/3/2020</v>
       </c>
       <c r="L10" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>20/3/2020,20,3,2020,2380,381,Lombardia,nn,nnn,10040000</v>
+        <f t="shared" ref="L10:L12" si="6">K10&amp;$L$1&amp;DAY(A10)&amp;$L$1&amp;MONTH(A10)&amp;$L$1&amp;YEAR(A10)&amp;$L$1&amp;C10&amp;$L$1&amp;G10&amp;$L$1&amp;D10&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H10</f>
+        <v>14/3/2020,14,3,2020,1865,76,Lombardia,nn,nnn,10040000</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>43911</v>
+        <v>43905</v>
       </c>
       <c r="B11">
-        <v>25515</v>
+        <v>13272</v>
       </c>
       <c r="C11">
-        <f t="shared" si="8"/>
-        <v>3251</v>
+        <f t="shared" si="3"/>
+        <v>1587</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
       </c>
       <c r="F11">
-        <v>3095</v>
+        <v>1218</v>
       </c>
       <c r="G11">
-        <f t="shared" si="7"/>
-        <v>546</v>
+        <f t="shared" ref="G11:G13" si="7">F11-F10</f>
+        <v>252</v>
       </c>
       <c r="H11" s="2">
         <v>10040000</v>
       </c>
       <c r="K11" s="5" t="str">
-        <f>DAY(A11)&amp;"/"&amp;MONTH(A11)&amp;"/"&amp;YEAR(A11)</f>
-        <v>21/3/2020</v>
+        <f t="shared" si="5"/>
+        <v>15/3/2020</v>
       </c>
       <c r="L11" s="3" t="str">
-        <f>K11&amp;$L$1&amp;DAY(A11)&amp;$L$1&amp;MONTH(A11)&amp;$L$1&amp;YEAR(A11)&amp;$L$1&amp;C11&amp;$L$1&amp;G11&amp;$L$1&amp;D11&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H11</f>
-        <v>21/3/2020,21,3,2020,3251,546,Lombardia,nn,nnn,10040000</v>
+        <f t="shared" si="6"/>
+        <v>15/3/2020,15,3,2020,1587,252,Lombardia,nn,nnn,10040000</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>43912</v>
+        <v>43906</v>
       </c>
       <c r="B12">
-        <v>27206</v>
+        <v>14649</v>
       </c>
       <c r="C12">
-        <f t="shared" si="8"/>
-        <v>1691</v>
+        <f t="shared" ref="C10:C14" si="8">B12-B11</f>
+        <v>1377</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
       </c>
       <c r="F12">
-        <v>3456</v>
+        <v>1420</v>
       </c>
       <c r="G12">
         <f t="shared" si="7"/>
-        <v>361</v>
+        <v>202</v>
       </c>
       <c r="H12" s="2">
         <v>10040000</v>
       </c>
       <c r="K12" s="5" t="str">
-        <f t="shared" ref="K12:K37" si="9">DAY(A12)&amp;"/"&amp;MONTH(A12)&amp;"/"&amp;YEAR(A12)</f>
-        <v>22/3/2020</v>
+        <f t="shared" si="5"/>
+        <v>16/3/2020</v>
       </c>
       <c r="L12" s="3" t="str">
-        <f>K12&amp;$L$1&amp;DAY(A12)&amp;$L$1&amp;MONTH(A12)&amp;$L$1&amp;YEAR(A12)&amp;$L$1&amp;C12&amp;$L$1&amp;G12&amp;$L$1&amp;D12&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H12</f>
-        <v>22/3/2020,22,3,2020,1691,361,Lombardia,nn,nnn,10040000</v>
+        <f t="shared" si="6"/>
+        <v>16/3/2020,16,3,2020,1377,202,Lombardia,nn,nnn,10040000</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>43913</v>
+        <v>43907</v>
       </c>
       <c r="B13">
-        <v>28761</v>
+        <v>16220</v>
       </c>
       <c r="C13">
-        <f t="shared" ref="C13:C20" si="10">B13-B12</f>
-        <v>1555</v>
+        <f t="shared" si="8"/>
+        <v>1571</v>
       </c>
       <c r="D13" t="s">
         <v>9</v>
       </c>
       <c r="F13">
-        <v>3776</v>
+        <v>1640</v>
       </c>
       <c r="G13">
-        <f t="shared" ref="G13:G20" si="11">F13-F12</f>
-        <v>320</v>
+        <f t="shared" si="7"/>
+        <v>220</v>
       </c>
       <c r="H13" s="2">
         <v>10040000</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="K13" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>23/3/2020</v>
+        <f t="shared" ref="K13:K16" si="9">DAY(A13)&amp;"/"&amp;MONTH(A13)&amp;"/"&amp;YEAR(A13)</f>
+        <v>17/3/2020</v>
       </c>
       <c r="L13" s="3" t="str">
-        <f t="shared" ref="L13:L36" si="12">K13&amp;$L$1&amp;DAY(A13)&amp;$L$1&amp;MONTH(A13)&amp;$L$1&amp;YEAR(A13)&amp;$L$1&amp;C13&amp;$L$1&amp;G13&amp;$L$1&amp;D13&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H13</f>
-        <v>23/3/2020,23,3,2020,1555,320,Lombardia,nn,nnn,10040000</v>
+        <f t="shared" ref="L13:L16" si="10">K13&amp;$L$1&amp;DAY(A13)&amp;$L$1&amp;MONTH(A13)&amp;$L$1&amp;YEAR(A13)&amp;$L$1&amp;C13&amp;$L$1&amp;G13&amp;$L$1&amp;D13&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H13</f>
+        <v>17/3/2020,17,3,2020,1571,220,Lombardia,nn,nnn,10040000</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>43914</v>
+        <v>43908</v>
       </c>
       <c r="B14">
-        <v>30703</v>
+        <v>17713</v>
       </c>
       <c r="C14">
-        <f t="shared" si="10"/>
-        <v>1942</v>
+        <f t="shared" si="8"/>
+        <v>1493</v>
       </c>
       <c r="D14" t="s">
         <v>9</v>
       </c>
       <c r="F14">
-        <v>4178</v>
+        <v>1959</v>
       </c>
       <c r="G14">
-        <f t="shared" si="11"/>
-        <v>402</v>
+        <f t="shared" ref="G14:G18" si="11">F14-F13</f>
+        <v>319</v>
       </c>
       <c r="H14" s="2">
         <v>10040000</v>
       </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
       <c r="K14" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>24/3/2020</v>
+        <v>18/3/2020</v>
       </c>
       <c r="L14" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>24/3/2020,24,3,2020,1942,402,Lombardia,nn,nnn,10040000</v>
+        <f t="shared" si="10"/>
+        <v>18/3/2020,18,3,2020,1493,319,Lombardia,nn,nnn,10040000</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>43915</v>
+        <v>43909</v>
       </c>
       <c r="B15">
-        <v>32346</v>
+        <v>19884</v>
       </c>
       <c r="C15">
-        <f t="shared" si="10"/>
-        <v>1643</v>
+        <f t="shared" ref="C15:C18" si="12">B15-B14</f>
+        <v>2171</v>
       </c>
       <c r="D15" t="s">
         <v>9</v>
       </c>
       <c r="F15">
-        <v>4474</v>
+        <v>2168</v>
       </c>
       <c r="G15">
         <f t="shared" si="11"/>
-        <v>296</v>
+        <v>209</v>
       </c>
       <c r="H15" s="2">
         <v>10040000</v>
       </c>
-      <c r="I15" t="s">
-        <v>10</v>
-      </c>
       <c r="K15" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>25/3/2020</v>
+        <v>19/3/2020</v>
       </c>
       <c r="L15" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>25/3/2020,25,3,2020,1643,296,Lombardia,nn,nnn,10040000</v>
+        <f t="shared" si="10"/>
+        <v>19/3/2020,19,3,2020,2171,209,Lombardia,nn,nnn,10040000</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>43916</v>
+        <v>43910</v>
       </c>
       <c r="B16">
-        <v>34889</v>
+        <v>22264</v>
       </c>
       <c r="C16">
-        <f t="shared" si="10"/>
-        <v>2543</v>
+        <f t="shared" si="12"/>
+        <v>2380</v>
       </c>
       <c r="D16" t="s">
         <v>9</v>
       </c>
       <c r="F16">
-        <v>4861</v>
+        <v>2549</v>
       </c>
       <c r="G16">
         <f t="shared" si="11"/>
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H16" s="2">
         <v>10040000</v>
       </c>
-      <c r="I16" t="s">
-        <v>13</v>
-      </c>
       <c r="K16" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>26/3/2020</v>
+        <v>20/3/2020</v>
       </c>
       <c r="L16" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>26/3/2020,26,3,2020,2543,387,Lombardia,nn,nnn,10040000</v>
+        <f t="shared" si="10"/>
+        <v>20/3/2020,20,3,2020,2380,381,Lombardia,nn,nnn,10040000</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>43917</v>
+        <v>43911</v>
       </c>
       <c r="B17">
-        <v>37298</v>
+        <v>25515</v>
       </c>
       <c r="C17">
-        <f t="shared" si="10"/>
-        <v>2409</v>
+        <f t="shared" si="12"/>
+        <v>3251</v>
       </c>
       <c r="D17" t="s">
         <v>9</v>
       </c>
       <c r="F17">
-        <v>5402</v>
+        <v>3095</v>
       </c>
       <c r="G17">
         <f t="shared" si="11"/>
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="H17" s="2">
         <v>10040000</v>
       </c>
-      <c r="I17" t="s">
-        <v>16</v>
-      </c>
       <c r="K17" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>27/3/2020</v>
+        <f>DAY(A17)&amp;"/"&amp;MONTH(A17)&amp;"/"&amp;YEAR(A17)</f>
+        <v>21/3/2020</v>
       </c>
       <c r="L17" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>27/3/2020,27,3,2020,2409,541,Lombardia,nn,nnn,10040000</v>
+        <f>K17&amp;$L$1&amp;DAY(A17)&amp;$L$1&amp;MONTH(A17)&amp;$L$1&amp;YEAR(A17)&amp;$L$1&amp;C17&amp;$L$1&amp;G17&amp;$L$1&amp;D17&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H17</f>
+        <v>21/3/2020,21,3,2020,3251,546,Lombardia,nn,nnn,10040000</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>43918</v>
+        <v>43912</v>
       </c>
       <c r="B18">
-        <v>39415</v>
+        <v>27206</v>
       </c>
       <c r="C18">
-        <f t="shared" si="10"/>
-        <v>2117</v>
+        <f t="shared" si="12"/>
+        <v>1691</v>
       </c>
       <c r="D18" t="s">
         <v>9</v>
       </c>
       <c r="F18">
-        <v>5944</v>
+        <v>3456</v>
       </c>
       <c r="G18">
         <f t="shared" si="11"/>
-        <v>542</v>
+        <v>361</v>
       </c>
       <c r="H18" s="2">
         <v>10040000</v>
       </c>
-      <c r="I18" t="s">
-        <v>14</v>
-      </c>
       <c r="K18" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>28/3/2020</v>
+        <f t="shared" ref="K18:K44" si="13">DAY(A18)&amp;"/"&amp;MONTH(A18)&amp;"/"&amp;YEAR(A18)</f>
+        <v>22/3/2020</v>
       </c>
       <c r="L18" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>28/3/2020,28,3,2020,2117,542,Lombardia,nn,nnn,10040000</v>
+        <f>K18&amp;$L$1&amp;DAY(A18)&amp;$L$1&amp;MONTH(A18)&amp;$L$1&amp;YEAR(A18)&amp;$L$1&amp;C18&amp;$L$1&amp;G18&amp;$L$1&amp;D18&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H18</f>
+        <v>22/3/2020,22,3,2020,1691,361,Lombardia,nn,nnn,10040000</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>43919</v>
+        <v>43913</v>
       </c>
       <c r="B19">
-        <v>41007</v>
+        <v>28761</v>
       </c>
       <c r="C19">
-        <f t="shared" si="10"/>
-        <v>1592</v>
+        <f t="shared" ref="C19:C27" si="14">B19-B18</f>
+        <v>1555</v>
       </c>
       <c r="D19" t="s">
         <v>9</v>
       </c>
       <c r="F19">
-        <v>6360</v>
+        <v>3776</v>
       </c>
       <c r="G19">
-        <f t="shared" si="11"/>
-        <v>416</v>
+        <f t="shared" ref="G19:G27" si="15">F19-F18</f>
+        <v>320</v>
       </c>
       <c r="H19" s="2">
         <v>10040000</v>
       </c>
+      <c r="I19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="K19" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>29/3/2020</v>
+        <f t="shared" si="13"/>
+        <v>23/3/2020</v>
       </c>
       <c r="L19" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>29/3/2020,29,3,2020,1592,416,Lombardia,nn,nnn,10040000</v>
+        <f t="shared" ref="L19:L43" si="16">K19&amp;$L$1&amp;DAY(A19)&amp;$L$1&amp;MONTH(A19)&amp;$L$1&amp;YEAR(A19)&amp;$L$1&amp;C19&amp;$L$1&amp;G19&amp;$L$1&amp;D19&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H19</f>
+        <v>23/3/2020,23,3,2020,1555,320,Lombardia,nn,nnn,10040000</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>43920</v>
+        <v>43914</v>
       </c>
       <c r="B20">
-        <v>42161</v>
+        <v>30703</v>
       </c>
       <c r="C20">
-        <f t="shared" si="10"/>
-        <v>1154</v>
+        <f t="shared" si="14"/>
+        <v>1942</v>
       </c>
       <c r="D20" t="s">
         <v>9</v>
       </c>
       <c r="F20">
-        <v>6818</v>
+        <v>4178</v>
       </c>
       <c r="G20">
-        <f t="shared" si="11"/>
-        <v>458</v>
+        <f t="shared" si="15"/>
+        <v>402</v>
       </c>
       <c r="H20" s="2">
         <v>10040000</v>
       </c>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
       <c r="K20" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>30/3/2020</v>
+        <f t="shared" si="13"/>
+        <v>24/3/2020</v>
       </c>
       <c r="L20" s="3" t="str">
-        <f t="shared" ref="L20" si="13">K20&amp;$L$1&amp;DAY(A20)&amp;$L$1&amp;MONTH(A20)&amp;$L$1&amp;YEAR(A20)&amp;$L$1&amp;C20&amp;$L$1&amp;G20&amp;$L$1&amp;D20&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H20</f>
-        <v>30/3/2020,30,3,2020,1154,458,Lombardia,nn,nnn,10040000</v>
+        <f t="shared" si="16"/>
+        <v>24/3/2020,24,3,2020,1942,402,Lombardia,nn,nnn,10040000</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>43904</v>
+        <v>43915</v>
       </c>
       <c r="B21">
-        <v>262</v>
+        <v>32346</v>
       </c>
       <c r="C21">
-        <f>B21</f>
-        <v>262</v>
+        <f t="shared" si="14"/>
+        <v>1643</v>
       </c>
       <c r="D21" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F21">
-        <v>5</v>
+        <v>4474</v>
       </c>
       <c r="G21">
-        <f>F21</f>
-        <v>5</v>
-      </c>
-      <c r="H21">
-        <v>353709</v>
+        <f t="shared" si="15"/>
+        <v>296</v>
+      </c>
+      <c r="H21" s="2">
+        <v>10040000</v>
+      </c>
+      <c r="I21" t="s">
+        <v>10</v>
       </c>
       <c r="K21" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>14/3/2020</v>
+        <f t="shared" si="13"/>
+        <v>25/3/2020</v>
       </c>
       <c r="L21" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>14/3/2020,14,3,2020,262,5,TI,nn,nnn,353709</v>
+        <f t="shared" si="16"/>
+        <v>25/3/2020,25,3,2020,1643,296,Lombardia,nn,nnn,10040000</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>43905</v>
+        <v>43916</v>
       </c>
       <c r="B22">
-        <v>291</v>
+        <v>34889</v>
       </c>
       <c r="C22">
-        <f t="shared" ref="C22:C37" si="14">B22-B21</f>
-        <v>29</v>
+        <f t="shared" si="14"/>
+        <v>2543</v>
       </c>
       <c r="D22" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F22">
-        <v>6</v>
+        <v>4861</v>
       </c>
       <c r="G22">
-        <f t="shared" ref="G22:G37" si="15">F22-F21</f>
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <v>353709</v>
+        <f t="shared" si="15"/>
+        <v>387</v>
+      </c>
+      <c r="H22" s="2">
+        <v>10040000</v>
+      </c>
+      <c r="I22" t="s">
+        <v>13</v>
       </c>
       <c r="K22" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>15/3/2020</v>
+        <f t="shared" si="13"/>
+        <v>26/3/2020</v>
       </c>
       <c r="L22" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>15/3/2020,15,3,2020,29,1,TI,nn,nnn,353709</v>
+        <f t="shared" si="16"/>
+        <v>26/3/2020,26,3,2020,2543,387,Lombardia,nn,nnn,10040000</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>43906</v>
+        <v>43917</v>
       </c>
       <c r="B23">
-        <v>330</v>
+        <v>37298</v>
       </c>
       <c r="C23">
         <f t="shared" si="14"/>
-        <v>39</v>
+        <v>2409</v>
       </c>
       <c r="D23" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F23">
-        <v>8</v>
+        <v>5402</v>
       </c>
       <c r="G23">
         <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="H23">
-        <v>353709</v>
+        <v>541</v>
+      </c>
+      <c r="H23" s="2">
+        <v>10040000</v>
+      </c>
+      <c r="I23" t="s">
+        <v>16</v>
       </c>
       <c r="K23" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>16/3/2020</v>
+        <f t="shared" si="13"/>
+        <v>27/3/2020</v>
       </c>
       <c r="L23" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>16/3/2020,16,3,2020,39,2,TI,nn,nnn,353709</v>
+        <f t="shared" si="16"/>
+        <v>27/3/2020,27,3,2020,2409,541,Lombardia,nn,nnn,10040000</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>43907</v>
+        <v>43918</v>
       </c>
       <c r="B24">
-        <v>422</v>
+        <v>39415</v>
       </c>
       <c r="C24">
         <f t="shared" si="14"/>
-        <v>92</v>
+        <v>2117</v>
       </c>
       <c r="D24" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F24">
-        <v>10</v>
+        <v>5944</v>
       </c>
       <c r="G24">
         <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="H24">
-        <v>353709</v>
+        <v>542</v>
+      </c>
+      <c r="H24" s="2">
+        <v>10040000</v>
+      </c>
+      <c r="I24" t="s">
+        <v>14</v>
       </c>
       <c r="K24" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>17/3/2020</v>
+        <f t="shared" si="13"/>
+        <v>28/3/2020</v>
       </c>
       <c r="L24" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>17/3/2020,17,3,2020,92,2,TI,nn,nnn,353709</v>
+        <f t="shared" si="16"/>
+        <v>28/3/2020,28,3,2020,2117,542,Lombardia,nn,nnn,10040000</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>43908</v>
+        <v>43919</v>
       </c>
       <c r="B25">
-        <v>511</v>
+        <v>41007</v>
       </c>
       <c r="C25">
         <f t="shared" si="14"/>
-        <v>89</v>
+        <v>1592</v>
       </c>
       <c r="D25" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F25">
-        <v>14</v>
+        <v>6360</v>
       </c>
       <c r="G25">
         <f t="shared" si="15"/>
-        <v>4</v>
-      </c>
-      <c r="H25">
-        <v>353709</v>
+        <v>416</v>
+      </c>
+      <c r="H25" s="2">
+        <v>10040000</v>
       </c>
       <c r="K25" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>18/3/2020</v>
+        <f t="shared" si="13"/>
+        <v>29/3/2020</v>
       </c>
       <c r="L25" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>18/3/2020,18,3,2020,89,4,TI,nn,nnn,353709</v>
+        <f t="shared" si="16"/>
+        <v>29/3/2020,29,3,2020,1592,416,Lombardia,nn,nnn,10040000</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>43909</v>
+        <v>43920</v>
       </c>
       <c r="B26">
-        <v>638</v>
+        <v>42161</v>
       </c>
       <c r="C26">
         <f t="shared" si="14"/>
-        <v>127</v>
+        <v>1154</v>
       </c>
       <c r="D26" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F26">
-        <v>15</v>
+        <v>6818</v>
       </c>
       <c r="G26">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="H26">
-        <v>353709</v>
+        <v>458</v>
+      </c>
+      <c r="H26" s="2">
+        <v>10040000</v>
       </c>
       <c r="K26" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>19/3/2020</v>
+        <f t="shared" si="13"/>
+        <v>30/3/2020</v>
       </c>
       <c r="L26" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>19/3/2020,19,3,2020,127,1,TI,nn,nnn,353709</v>
+        <f t="shared" ref="L26:L27" si="17">K26&amp;$L$1&amp;DAY(A26)&amp;$L$1&amp;MONTH(A26)&amp;$L$1&amp;YEAR(A26)&amp;$L$1&amp;C26&amp;$L$1&amp;G26&amp;$L$1&amp;D26&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H26</f>
+        <v>30/3/2020,30,3,2020,1154,458,Lombardia,nn,nnn,10040000</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>43910</v>
+        <v>43921</v>
       </c>
       <c r="B27">
-        <v>834</v>
+        <v>43208</v>
       </c>
       <c r="C27">
         <f t="shared" si="14"/>
-        <v>196</v>
+        <v>1047</v>
       </c>
       <c r="D27" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F27">
-        <v>22</v>
+        <v>7199</v>
       </c>
       <c r="G27">
         <f t="shared" si="15"/>
-        <v>7</v>
-      </c>
-      <c r="H27">
-        <v>353709</v>
+        <v>381</v>
+      </c>
+      <c r="H27" s="2">
+        <v>10040000</v>
       </c>
       <c r="K27" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>20/3/2020</v>
+        <f t="shared" si="13"/>
+        <v>31/3/2020</v>
       </c>
       <c r="L27" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>20/3/2020,20,3,2020,196,7,TI,nn,nnn,353709</v>
+        <f t="shared" si="17"/>
+        <v>31/3/2020,31,3,2020,1047,381,Lombardia,nn,nnn,10040000</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>43911</v>
+        <v>43904</v>
       </c>
       <c r="B28">
-        <v>918</v>
+        <v>262</v>
       </c>
       <c r="C28">
-        <f t="shared" si="14"/>
-        <v>84</v>
+        <f>B28</f>
+        <v>262</v>
       </c>
       <c r="D28" t="s">
         <v>7</v>
       </c>
       <c r="F28">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="G28">
-        <f t="shared" si="15"/>
-        <v>6</v>
+        <f>F28</f>
+        <v>5</v>
       </c>
       <c r="H28">
         <v>353709</v>
       </c>
       <c r="K28" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>21/3/2020</v>
+        <f t="shared" si="13"/>
+        <v>14/3/2020</v>
       </c>
       <c r="L28" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>21/3/2020,21,3,2020,84,6,TI,nn,nnn,353709</v>
+        <f t="shared" si="16"/>
+        <v>14/3/2020,14,3,2020,262,5,TI,nn,nnn,353709</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>43912</v>
+        <v>43905</v>
       </c>
       <c r="B29">
-        <v>939</v>
+        <v>291</v>
       </c>
       <c r="C29">
-        <f t="shared" si="14"/>
-        <v>21</v>
+        <f t="shared" ref="C29:C45" si="18">B29-B28</f>
+        <v>29</v>
       </c>
       <c r="D29" t="s">
         <v>7</v>
       </c>
       <c r="F29">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="G29">
-        <f t="shared" si="15"/>
-        <v>9</v>
+        <f t="shared" ref="G29:G45" si="19">F29-F28</f>
+        <v>1</v>
       </c>
       <c r="H29">
         <v>353709</v>
       </c>
       <c r="K29" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>22/3/2020</v>
+        <f t="shared" si="13"/>
+        <v>15/3/2020</v>
       </c>
       <c r="L29" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>22/3/2020,22,3,2020,21,9,TI,nn,nnn,353709</v>
+        <f t="shared" si="16"/>
+        <v>15/3/2020,15,3,2020,29,1,TI,nn,nnn,353709</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>43913</v>
+        <v>43906</v>
       </c>
       <c r="B30">
-        <v>1165</v>
+        <v>330</v>
       </c>
       <c r="C30">
-        <f t="shared" si="14"/>
-        <v>226</v>
+        <f t="shared" si="18"/>
+        <v>39</v>
       </c>
       <c r="D30" t="s">
         <v>7</v>
       </c>
       <c r="F30">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="G30">
-        <f t="shared" si="15"/>
-        <v>11</v>
+        <f t="shared" si="19"/>
+        <v>2</v>
       </c>
       <c r="H30">
         <v>353709</v>
       </c>
       <c r="K30" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>23/3/2020</v>
+        <f t="shared" si="13"/>
+        <v>16/3/2020</v>
       </c>
       <c r="L30" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>23/3/2020,23,3,2020,226,11,TI,nn,nnn,353709</v>
+        <f t="shared" si="16"/>
+        <v>16/3/2020,16,3,2020,39,2,TI,nn,nnn,353709</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>43914</v>
+        <v>43907</v>
       </c>
       <c r="B31">
-        <v>1211</v>
+        <v>422</v>
       </c>
       <c r="C31">
-        <f t="shared" si="14"/>
-        <v>46</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" s="2"/>
+        <f t="shared" si="18"/>
+        <v>92</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
       <c r="F31">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="G31">
-        <f t="shared" si="15"/>
-        <v>5</v>
+        <f t="shared" si="19"/>
+        <v>2</v>
       </c>
       <c r="H31">
         <v>353709</v>
       </c>
       <c r="K31" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>24/3/2020</v>
+        <f t="shared" si="13"/>
+        <v>17/3/2020</v>
       </c>
       <c r="L31" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>24/3/2020,24,3,2020,46,5,TI,nn,nnn,353709</v>
+        <f t="shared" si="16"/>
+        <v>17/3/2020,17,3,2020,92,2,TI,nn,nnn,353709</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>43915</v>
+        <v>43908</v>
       </c>
       <c r="B32">
-        <v>1343</v>
+        <v>511</v>
       </c>
       <c r="C32">
-        <f t="shared" si="14"/>
-        <v>132</v>
+        <f t="shared" si="18"/>
+        <v>89</v>
       </c>
       <c r="D32" t="s">
         <v>7</v>
       </c>
       <c r="F32">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="G32">
-        <f t="shared" si="15"/>
-        <v>7</v>
+        <f t="shared" si="19"/>
+        <v>4</v>
       </c>
       <c r="H32">
         <v>353709</v>
       </c>
       <c r="K32" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>25/3/2020</v>
+        <f t="shared" si="13"/>
+        <v>18/3/2020</v>
       </c>
       <c r="L32" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>25/3/2020,25,3,2020,132,7,TI,nn,nnn,353709</v>
+        <f t="shared" si="16"/>
+        <v>18/3/2020,18,3,2020,89,4,TI,nn,nnn,353709</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>43916</v>
+        <v>43909</v>
       </c>
       <c r="B33">
-        <v>1401</v>
+        <v>638</v>
       </c>
       <c r="C33">
-        <f t="shared" si="14"/>
-        <v>58</v>
+        <f t="shared" si="18"/>
+        <v>127</v>
       </c>
       <c r="D33" t="s">
         <v>7</v>
       </c>
       <c r="F33">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="G33">
-        <f t="shared" si="15"/>
-        <v>7</v>
+        <f t="shared" si="19"/>
+        <v>1</v>
       </c>
       <c r="H33">
         <v>353709</v>
       </c>
       <c r="K33" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>26/3/2020</v>
+        <f t="shared" si="13"/>
+        <v>19/3/2020</v>
       </c>
       <c r="L33" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>26/3/2020,26,3,2020,58,7,TI,nn,nnn,353709</v>
+        <f t="shared" si="16"/>
+        <v>19/3/2020,19,3,2020,127,1,TI,nn,nnn,353709</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>43917</v>
+        <v>43910</v>
       </c>
       <c r="B34">
-        <v>1688</v>
+        <v>834</v>
       </c>
       <c r="C34">
-        <f t="shared" si="14"/>
-        <v>287</v>
+        <f t="shared" si="18"/>
+        <v>196</v>
       </c>
       <c r="D34" t="s">
         <v>7</v>
       </c>
       <c r="F34">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="G34">
-        <f t="shared" si="15"/>
-        <v>9</v>
+        <f t="shared" si="19"/>
+        <v>7</v>
       </c>
       <c r="H34">
         <v>353709</v>
       </c>
       <c r="K34" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>27/3/2020</v>
+        <f t="shared" si="13"/>
+        <v>20/3/2020</v>
       </c>
       <c r="L34" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>27/3/2020,27,3,2020,287,9,TI,nn,nnn,353709</v>
+        <f t="shared" si="16"/>
+        <v>20/3/2020,20,3,2020,196,7,TI,nn,nnn,353709</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>43918</v>
+        <v>43911</v>
       </c>
       <c r="B35">
-        <v>1727</v>
+        <v>918</v>
       </c>
       <c r="C35">
-        <f t="shared" si="14"/>
-        <v>39</v>
+        <f t="shared" si="18"/>
+        <v>84</v>
       </c>
       <c r="D35" t="s">
         <v>7</v>
       </c>
       <c r="F35">
-        <v>87</v>
+        <v>28</v>
       </c>
       <c r="G35">
-        <f t="shared" si="15"/>
-        <v>11</v>
+        <f t="shared" si="19"/>
+        <v>6</v>
       </c>
       <c r="H35">
         <v>353709</v>
       </c>
       <c r="K35" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>28/3/2020</v>
+        <f t="shared" si="13"/>
+        <v>21/3/2020</v>
       </c>
       <c r="L35" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>28/3/2020,28,3,2020,39,11,TI,nn,nnn,353709</v>
+        <f t="shared" si="16"/>
+        <v>21/3/2020,21,3,2020,84,6,TI,nn,nnn,353709</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>43919</v>
+        <v>43912</v>
       </c>
       <c r="B36">
-        <v>1837</v>
+        <v>939</v>
       </c>
       <c r="C36">
-        <f t="shared" si="14"/>
-        <v>110</v>
+        <f t="shared" si="18"/>
+        <v>21</v>
       </c>
       <c r="D36" t="s">
         <v>7</v>
       </c>
       <c r="F36">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="G36">
-        <f t="shared" si="15"/>
-        <v>6</v>
+        <f t="shared" si="19"/>
+        <v>9</v>
       </c>
       <c r="H36">
         <v>353709</v>
       </c>
       <c r="K36" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>29/3/2020</v>
+        <f t="shared" si="13"/>
+        <v>22/3/2020</v>
       </c>
       <c r="L36" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>29/3/2020,29,3,2020,110,6,TI,nn,nnn,353709</v>
+        <f t="shared" si="16"/>
+        <v>22/3/2020,22,3,2020,21,9,TI,nn,nnn,353709</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>43920</v>
+        <v>43913</v>
       </c>
       <c r="B37">
-        <v>1962</v>
+        <v>1165</v>
       </c>
       <c r="C37">
-        <f t="shared" si="14"/>
-        <v>125</v>
+        <f t="shared" si="18"/>
+        <v>226</v>
       </c>
       <c r="D37" t="s">
         <v>7</v>
       </c>
       <c r="F37">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="G37">
-        <f t="shared" si="15"/>
-        <v>12</v>
+        <f t="shared" si="19"/>
+        <v>11</v>
       </c>
       <c r="H37">
         <v>353709</v>
       </c>
       <c r="K37" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
+        <v>23/3/2020</v>
+      </c>
+      <c r="L37" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>23/3/2020,23,3,2020,226,11,TI,nn,nnn,353709</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>43914</v>
+      </c>
+      <c r="B38">
+        <v>1211</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="18"/>
+        <v>46</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38">
+        <v>53</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="19"/>
+        <v>5</v>
+      </c>
+      <c r="H38">
+        <v>353709</v>
+      </c>
+      <c r="K38" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>24/3/2020</v>
+      </c>
+      <c r="L38" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>24/3/2020,24,3,2020,46,5,TI,nn,nnn,353709</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>43915</v>
+      </c>
+      <c r="B39">
+        <v>1343</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="18"/>
+        <v>132</v>
+      </c>
+      <c r="D39" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39">
+        <v>60</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="19"/>
+        <v>7</v>
+      </c>
+      <c r="H39">
+        <v>353709</v>
+      </c>
+      <c r="K39" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>25/3/2020</v>
+      </c>
+      <c r="L39" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>25/3/2020,25,3,2020,132,7,TI,nn,nnn,353709</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>43916</v>
+      </c>
+      <c r="B40">
+        <v>1401</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="18"/>
+        <v>58</v>
+      </c>
+      <c r="D40" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40">
+        <v>67</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="19"/>
+        <v>7</v>
+      </c>
+      <c r="H40">
+        <v>353709</v>
+      </c>
+      <c r="K40" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>26/3/2020</v>
+      </c>
+      <c r="L40" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>26/3/2020,26,3,2020,58,7,TI,nn,nnn,353709</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>43917</v>
+      </c>
+      <c r="B41">
+        <v>1688</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="18"/>
+        <v>287</v>
+      </c>
+      <c r="D41" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41">
+        <v>76</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="19"/>
+        <v>9</v>
+      </c>
+      <c r="H41">
+        <v>353709</v>
+      </c>
+      <c r="K41" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>27/3/2020</v>
+      </c>
+      <c r="L41" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>27/3/2020,27,3,2020,287,9,TI,nn,nnn,353709</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>43918</v>
+      </c>
+      <c r="B42">
+        <v>1727</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="18"/>
+        <v>39</v>
+      </c>
+      <c r="D42" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42">
+        <v>87</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="19"/>
+        <v>11</v>
+      </c>
+      <c r="H42">
+        <v>353709</v>
+      </c>
+      <c r="K42" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>28/3/2020</v>
+      </c>
+      <c r="L42" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>28/3/2020,28,3,2020,39,11,TI,nn,nnn,353709</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>43919</v>
+      </c>
+      <c r="B43">
+        <v>1837</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="18"/>
+        <v>110</v>
+      </c>
+      <c r="D43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43">
+        <v>93</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="19"/>
+        <v>6</v>
+      </c>
+      <c r="H43">
+        <v>353709</v>
+      </c>
+      <c r="K43" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>29/3/2020</v>
+      </c>
+      <c r="L43" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>29/3/2020,29,3,2020,110,6,TI,nn,nnn,353709</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>43920</v>
+      </c>
+      <c r="B44">
+        <v>1962</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="18"/>
+        <v>125</v>
+      </c>
+      <c r="D44" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44">
+        <v>105</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="19"/>
+        <v>12</v>
+      </c>
+      <c r="H44">
+        <v>353709</v>
+      </c>
+      <c r="K44" s="5" t="str">
+        <f t="shared" si="13"/>
         <v>30/3/2020</v>
       </c>
-      <c r="L37" s="3" t="str">
-        <f t="shared" ref="L37" si="16">K37&amp;$L$1&amp;DAY(A37)&amp;$L$1&amp;MONTH(A37)&amp;$L$1&amp;YEAR(A37)&amp;$L$1&amp;C37&amp;$L$1&amp;G37&amp;$L$1&amp;D37&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H37</f>
+      <c r="L44" s="3" t="str">
+        <f t="shared" ref="L44" si="20">K44&amp;$L$1&amp;DAY(A44)&amp;$L$1&amp;MONTH(A44)&amp;$L$1&amp;YEAR(A44)&amp;$L$1&amp;C44&amp;$L$1&amp;G44&amp;$L$1&amp;D44&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H44</f>
         <v>30/3/2020,30,3,2020,125,12,TI,nn,nnn,353709</v>
       </c>
     </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B45">
+        <v>2091</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="18"/>
+        <v>129</v>
+      </c>
+      <c r="D45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45">
+        <v>120</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="19"/>
+        <v>15</v>
+      </c>
+      <c r="H45">
+        <v>353709</v>
+      </c>
+      <c r="K45" s="5" t="str">
+        <f t="shared" ref="K45" si="21">DAY(A45)&amp;"/"&amp;MONTH(A45)&amp;"/"&amp;YEAR(A45)</f>
+        <v>31/3/2020</v>
+      </c>
+      <c r="L45" s="3" t="str">
+        <f t="shared" ref="L45" si="22">K45&amp;$L$1&amp;DAY(A45)&amp;$L$1&amp;MONTH(A45)&amp;$L$1&amp;YEAR(A45)&amp;$L$1&amp;C45&amp;$L$1&amp;G45&amp;$L$1&amp;D45&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H45</f>
+        <v>31/3/2020,31,3,2020,129,15,TI,nn,nnn,353709</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A3:F32">
+  <autoFilter ref="A3:F39">
     <sortState ref="A4:F23">
       <sortCondition ref="D3:D20"/>
     </sortState>
@@ -1828,4 +2136,177 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="26" width="2.875" customWidth="1"/>
+    <col min="27" max="28" width="2.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11">
+        <v>43920</v>
+      </c>
+      <c r="B1" s="15">
+        <f>SUM(C1:AB1)</f>
+        <v>369</v>
+      </c>
+      <c r="C1" s="12">
+        <v>8</v>
+      </c>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12">
+        <v>2</v>
+      </c>
+      <c r="F1" s="12">
+        <v>13</v>
+      </c>
+      <c r="G1" s="12">
+        <v>7</v>
+      </c>
+      <c r="H1" s="12">
+        <v>15</v>
+      </c>
+      <c r="I1" s="12">
+        <v>17</v>
+      </c>
+      <c r="J1" s="12">
+        <v>43</v>
+      </c>
+      <c r="K1" s="12">
+        <v>1</v>
+      </c>
+      <c r="L1" s="12">
+        <v>12</v>
+      </c>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12">
+        <v>6</v>
+      </c>
+      <c r="O1" s="12">
+        <v>6</v>
+      </c>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12">
+        <v>5</v>
+      </c>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12">
+        <v>2</v>
+      </c>
+      <c r="V1" s="12">
+        <v>2</v>
+      </c>
+      <c r="W1" s="12">
+        <v>105</v>
+      </c>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12">
+        <v>77</v>
+      </c>
+      <c r="Z1" s="12">
+        <v>26</v>
+      </c>
+      <c r="AA1" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB1" s="12">
+        <v>21</v>
+      </c>
+      <c r="AC1" s="12">
+        <v>371</v>
+      </c>
+      <c r="AD1" s="10"/>
+    </row>
+    <row r="2" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13">
+        <v>43921</v>
+      </c>
+      <c r="B2" s="15">
+        <f>SUM(C2:AB2)+77</f>
+        <v>433</v>
+      </c>
+      <c r="C2" s="14">
+        <v>11</v>
+      </c>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14">
+        <v>2</v>
+      </c>
+      <c r="F2" s="14">
+        <v>16</v>
+      </c>
+      <c r="G2" s="14">
+        <v>10</v>
+      </c>
+      <c r="H2" s="14">
+        <v>16</v>
+      </c>
+      <c r="I2" s="14">
+        <v>20</v>
+      </c>
+      <c r="J2" s="14">
+        <v>49</v>
+      </c>
+      <c r="K2" s="14">
+        <v>2</v>
+      </c>
+      <c r="L2" s="14">
+        <v>19</v>
+      </c>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14">
+        <v>7</v>
+      </c>
+      <c r="O2" s="14">
+        <v>7</v>
+      </c>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14">
+        <v>7</v>
+      </c>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14">
+        <v>2</v>
+      </c>
+      <c r="U2" s="14">
+        <v>4</v>
+      </c>
+      <c r="V2" s="14">
+        <v>3</v>
+      </c>
+      <c r="W2" s="14">
+        <v>120</v>
+      </c>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14">
+        <v>35</v>
+      </c>
+      <c r="AA2" s="14">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="14">
+        <v>25</v>
+      </c>
+      <c r="AC2" s="14">
+        <v>433</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/TI_Lombardia.xlsx
+++ b/TI_Lombardia.xlsx
@@ -14,7 +14,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">cases!$A$3:$AB$75</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$F$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$F$41</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="117">
   <si>
     <t>Date</t>
   </si>
@@ -736,7 +736,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -852,8 +852,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -889,8 +896,19 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -961,13 +979,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1061,10 +1095,34 @@
     <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="6" xfId="3"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Input" xfId="3" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2765,7 +2823,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2773,10 +2831,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U47"/>
+  <dimension ref="A1:U49"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29:L47"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4:L49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3366,7 +3424,7 @@
         <v>10040000</v>
       </c>
       <c r="K18" s="5" t="str">
-        <f t="shared" ref="K18:K45" si="13">DAY(A18)&amp;"/"&amp;MONTH(A18)&amp;"/"&amp;YEAR(A18)</f>
+        <f t="shared" ref="K18:K46" si="13">DAY(A18)&amp;"/"&amp;MONTH(A18)&amp;"/"&amp;YEAR(A18)</f>
         <v>22/3/2020</v>
       </c>
       <c r="L18" s="3" t="str">
@@ -3382,7 +3440,7 @@
         <v>28761</v>
       </c>
       <c r="C19">
-        <f t="shared" ref="C19:C28" si="14">B19-B18</f>
+        <f t="shared" ref="C19:C29" si="14">B19-B18</f>
         <v>1555</v>
       </c>
       <c r="D19" t="s">
@@ -3392,7 +3450,7 @@
         <v>3776</v>
       </c>
       <c r="G19">
-        <f t="shared" ref="G19:G28" si="15">F19-F18</f>
+        <f t="shared" ref="G19:G29" si="15">F19-F18</f>
         <v>320</v>
       </c>
       <c r="H19" s="2">
@@ -3409,7 +3467,7 @@
         <v>23/3/2020</v>
       </c>
       <c r="L19" s="3" t="str">
-        <f t="shared" ref="L19:L44" si="16">K19&amp;$L$1&amp;DAY(A19)&amp;$L$1&amp;MONTH(A19)&amp;$L$1&amp;YEAR(A19)&amp;$L$1&amp;C19&amp;$L$1&amp;G19&amp;$L$1&amp;D19&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H19</f>
+        <f t="shared" ref="L19:L45" si="16">K19&amp;$L$1&amp;DAY(A19)&amp;$L$1&amp;MONTH(A19)&amp;$L$1&amp;YEAR(A19)&amp;$L$1&amp;C19&amp;$L$1&amp;G19&amp;$L$1&amp;D19&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H19</f>
         <v>23/3/2020,23,3,2020,1555,320,Lombardia,nn,nnn,10040000</v>
       </c>
     </row>
@@ -3654,7 +3712,7 @@
         <v>30/3/2020</v>
       </c>
       <c r="L26" s="3" t="str">
-        <f t="shared" ref="L26:L28" si="17">K26&amp;$L$1&amp;DAY(A26)&amp;$L$1&amp;MONTH(A26)&amp;$L$1&amp;YEAR(A26)&amp;$L$1&amp;C26&amp;$L$1&amp;G26&amp;$L$1&amp;D26&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H26</f>
+        <f t="shared" ref="L26:L27" si="17">K26&amp;$L$1&amp;DAY(A26)&amp;$L$1&amp;MONTH(A26)&amp;$L$1&amp;YEAR(A26)&amp;$L$1&amp;C26&amp;$L$1&amp;G26&amp;$L$1&amp;D26&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H26</f>
         <v>30/3/2020,30,3,2020,1154,458,Lombardia,nn,nnn,10040000</v>
       </c>
     </row>
@@ -3726,119 +3784,119 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>43904</v>
+        <v>43923</v>
       </c>
       <c r="B29">
-        <v>262</v>
+        <v>46065</v>
       </c>
       <c r="C29">
-        <f>B29</f>
-        <v>262</v>
+        <f t="shared" si="14"/>
+        <v>1292</v>
       </c>
       <c r="D29" t="s">
-        <v>116</v>
+        <v>9</v>
       </c>
       <c r="F29">
-        <v>5</v>
+        <v>7960</v>
       </c>
       <c r="G29">
-        <f>F29</f>
-        <v>5</v>
-      </c>
-      <c r="H29">
-        <v>353709</v>
+        <f t="shared" si="15"/>
+        <v>367</v>
+      </c>
+      <c r="H29" s="2">
+        <v>10040000</v>
       </c>
       <c r="K29" s="5" t="str">
         <f t="shared" si="13"/>
+        <v>2/4/2020</v>
+      </c>
+      <c r="L29" s="3" t="str">
+        <f>K29&amp;$L$1&amp;DAY(A29)&amp;$L$1&amp;MONTH(A29)&amp;$L$1&amp;YEAR(A29)&amp;$L$1&amp;C29&amp;$L$1&amp;G29&amp;$L$1&amp;D29&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H29</f>
+        <v>2/4/2020,2,4,2020,1292,367,Lombardia,nn,nnn,10040000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>43904</v>
+      </c>
+      <c r="B30">
+        <v>262</v>
+      </c>
+      <c r="C30">
+        <f>B30</f>
+        <v>262</v>
+      </c>
+      <c r="D30" t="s">
+        <v>116</v>
+      </c>
+      <c r="F30">
+        <v>5</v>
+      </c>
+      <c r="G30">
+        <f>F30</f>
+        <v>5</v>
+      </c>
+      <c r="H30">
+        <v>353709</v>
+      </c>
+      <c r="K30" s="5" t="str">
+        <f t="shared" si="13"/>
         <v>14/3/2020</v>
       </c>
-      <c r="L29" s="3" t="str">
+      <c r="L30" s="3" t="str">
         <f t="shared" si="16"/>
         <v>14/3/2020,14,3,2020,262,5,Ticino,nn,nnn,353709</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
         <v>43905</v>
       </c>
-      <c r="B30">
+      <c r="B31">
         <v>291</v>
       </c>
-      <c r="C30">
-        <f t="shared" ref="C30:C47" si="18">B30-B29</f>
+      <c r="C31">
+        <f t="shared" ref="C31:C49" si="18">B31-B30</f>
         <v>29</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D31" t="s">
         <v>116</v>
       </c>
-      <c r="F30">
+      <c r="F31">
         <v>6</v>
       </c>
-      <c r="G30">
-        <f t="shared" ref="G30:G47" si="19">F30-F29</f>
+      <c r="G31">
+        <f t="shared" ref="G31:G49" si="19">F31-F30</f>
         <v>1</v>
       </c>
-      <c r="H30">
+      <c r="H31">
         <v>353709</v>
       </c>
-      <c r="K30" s="5" t="str">
+      <c r="K31" s="5" t="str">
         <f t="shared" si="13"/>
         <v>15/3/2020</v>
       </c>
-      <c r="L30" s="3" t="str">
+      <c r="L31" s="3" t="str">
         <f t="shared" si="16"/>
         <v>15/3/2020,15,3,2020,29,1,Ticino,nn,nnn,353709</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
         <v>43906</v>
       </c>
-      <c r="B31">
+      <c r="B32">
         <v>330</v>
       </c>
-      <c r="C31">
+      <c r="C32">
         <f t="shared" si="18"/>
         <v>39</v>
       </c>
-      <c r="D31" t="s">
-        <v>116</v>
-      </c>
-      <c r="F31">
-        <v>8</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="19"/>
-        <v>2</v>
-      </c>
-      <c r="H31">
-        <v>353709</v>
-      </c>
-      <c r="K31" s="5" t="str">
-        <f t="shared" si="13"/>
-        <v>16/3/2020</v>
-      </c>
-      <c r="L31" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>16/3/2020,16,3,2020,39,2,Ticino,nn,nnn,353709</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
-        <v>43907</v>
-      </c>
-      <c r="B32">
-        <v>422</v>
-      </c>
-      <c r="C32">
-        <f t="shared" si="18"/>
-        <v>92</v>
-      </c>
       <c r="D32" t="s">
         <v>116</v>
       </c>
       <c r="F32">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G32">
         <f t="shared" si="19"/>
@@ -3849,294 +3907,294 @@
       </c>
       <c r="K32" s="5" t="str">
         <f t="shared" si="13"/>
-        <v>17/3/2020</v>
+        <v>16/3/2020</v>
       </c>
       <c r="L32" s="3" t="str">
         <f t="shared" si="16"/>
-        <v>17/3/2020,17,3,2020,92,2,Ticino,nn,nnn,353709</v>
+        <v>16/3/2020,16,3,2020,39,2,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>43908</v>
+        <v>43907</v>
       </c>
       <c r="B33">
-        <v>511</v>
+        <v>422</v>
       </c>
       <c r="C33">
         <f t="shared" si="18"/>
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D33" t="s">
         <v>116</v>
       </c>
       <c r="F33">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G33">
         <f t="shared" si="19"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H33">
         <v>353709</v>
       </c>
       <c r="K33" s="5" t="str">
         <f t="shared" si="13"/>
-        <v>18/3/2020</v>
+        <v>17/3/2020</v>
       </c>
       <c r="L33" s="3" t="str">
         <f t="shared" si="16"/>
-        <v>18/3/2020,18,3,2020,89,4,Ticino,nn,nnn,353709</v>
+        <v>17/3/2020,17,3,2020,92,2,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>43909</v>
+        <v>43908</v>
       </c>
       <c r="B34">
-        <v>638</v>
+        <v>511</v>
       </c>
       <c r="C34">
         <f t="shared" si="18"/>
-        <v>127</v>
+        <v>89</v>
       </c>
       <c r="D34" t="s">
         <v>116</v>
       </c>
       <c r="F34">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G34">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H34">
         <v>353709</v>
       </c>
       <c r="K34" s="5" t="str">
         <f t="shared" si="13"/>
-        <v>19/3/2020</v>
+        <v>18/3/2020</v>
       </c>
       <c r="L34" s="3" t="str">
         <f t="shared" si="16"/>
-        <v>19/3/2020,19,3,2020,127,1,Ticino,nn,nnn,353709</v>
+        <v>18/3/2020,18,3,2020,89,4,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>43910</v>
+        <v>43909</v>
       </c>
       <c r="B35">
-        <v>834</v>
+        <v>638</v>
       </c>
       <c r="C35">
         <f t="shared" si="18"/>
-        <v>196</v>
+        <v>127</v>
       </c>
       <c r="D35" t="s">
         <v>116</v>
       </c>
       <c r="F35">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G35">
         <f t="shared" si="19"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H35">
         <v>353709</v>
       </c>
       <c r="K35" s="5" t="str">
         <f t="shared" si="13"/>
-        <v>20/3/2020</v>
+        <v>19/3/2020</v>
       </c>
       <c r="L35" s="3" t="str">
         <f t="shared" si="16"/>
-        <v>20/3/2020,20,3,2020,196,7,Ticino,nn,nnn,353709</v>
+        <v>19/3/2020,19,3,2020,127,1,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>43911</v>
+        <v>43910</v>
       </c>
       <c r="B36">
-        <v>918</v>
+        <v>834</v>
       </c>
       <c r="C36">
         <f t="shared" si="18"/>
-        <v>84</v>
+        <v>196</v>
       </c>
       <c r="D36" t="s">
         <v>116</v>
       </c>
       <c r="F36">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G36">
         <f t="shared" si="19"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H36">
         <v>353709</v>
       </c>
       <c r="K36" s="5" t="str">
         <f t="shared" si="13"/>
-        <v>21/3/2020</v>
+        <v>20/3/2020</v>
       </c>
       <c r="L36" s="3" t="str">
         <f t="shared" si="16"/>
-        <v>21/3/2020,21,3,2020,84,6,Ticino,nn,nnn,353709</v>
+        <v>20/3/2020,20,3,2020,196,7,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>43912</v>
+        <v>43911</v>
       </c>
       <c r="B37">
-        <v>939</v>
+        <v>918</v>
       </c>
       <c r="C37">
         <f t="shared" si="18"/>
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="D37" t="s">
         <v>116</v>
       </c>
       <c r="F37">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G37">
         <f t="shared" si="19"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H37">
         <v>353709</v>
       </c>
       <c r="K37" s="5" t="str">
         <f t="shared" si="13"/>
-        <v>22/3/2020</v>
+        <v>21/3/2020</v>
       </c>
       <c r="L37" s="3" t="str">
         <f t="shared" si="16"/>
-        <v>22/3/2020,22,3,2020,21,9,Ticino,nn,nnn,353709</v>
+        <v>21/3/2020,21,3,2020,84,6,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>43913</v>
+        <v>43912</v>
       </c>
       <c r="B38">
-        <v>1165</v>
+        <v>939</v>
       </c>
       <c r="C38">
         <f t="shared" si="18"/>
-        <v>226</v>
+        <v>21</v>
       </c>
       <c r="D38" t="s">
         <v>116</v>
       </c>
       <c r="F38">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G38">
         <f t="shared" si="19"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H38">
         <v>353709</v>
       </c>
       <c r="K38" s="5" t="str">
         <f t="shared" si="13"/>
-        <v>23/3/2020</v>
+        <v>22/3/2020</v>
       </c>
       <c r="L38" s="3" t="str">
         <f t="shared" si="16"/>
-        <v>23/3/2020,23,3,2020,226,11,Ticino,nn,nnn,353709</v>
+        <v>22/3/2020,22,3,2020,21,9,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>43914</v>
+        <v>43913</v>
       </c>
       <c r="B39">
-        <v>1211</v>
+        <v>1165</v>
       </c>
       <c r="C39">
         <f t="shared" si="18"/>
-        <v>46</v>
+        <v>226</v>
       </c>
       <c r="D39" t="s">
         <v>116</v>
       </c>
-      <c r="E39" s="2"/>
       <c r="F39">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G39">
         <f t="shared" si="19"/>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H39">
         <v>353709</v>
       </c>
       <c r="K39" s="5" t="str">
         <f t="shared" si="13"/>
-        <v>24/3/2020</v>
+        <v>23/3/2020</v>
       </c>
       <c r="L39" s="3" t="str">
         <f t="shared" si="16"/>
-        <v>24/3/2020,24,3,2020,46,5,Ticino,nn,nnn,353709</v>
+        <v>23/3/2020,23,3,2020,226,11,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>43915</v>
+        <v>43914</v>
       </c>
       <c r="B40">
-        <v>1343</v>
+        <v>1211</v>
       </c>
       <c r="C40">
         <f t="shared" si="18"/>
-        <v>132</v>
+        <v>46</v>
       </c>
       <c r="D40" t="s">
         <v>116</v>
       </c>
+      <c r="E40" s="2"/>
       <c r="F40">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G40">
         <f t="shared" si="19"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H40">
         <v>353709</v>
       </c>
       <c r="K40" s="5" t="str">
         <f t="shared" si="13"/>
-        <v>25/3/2020</v>
+        <v>24/3/2020</v>
       </c>
       <c r="L40" s="3" t="str">
         <f t="shared" si="16"/>
-        <v>25/3/2020,25,3,2020,132,7,Ticino,nn,nnn,353709</v>
+        <v>24/3/2020,24,3,2020,46,5,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>43916</v>
+        <v>43915</v>
       </c>
       <c r="B41">
-        <v>1401</v>
+        <v>1343</v>
       </c>
       <c r="C41">
         <f t="shared" si="18"/>
-        <v>58</v>
+        <v>132</v>
       </c>
       <c r="D41" t="s">
         <v>116</v>
       </c>
       <c r="F41">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="G41">
         <f t="shared" si="19"/>
@@ -4147,213 +4205,279 @@
       </c>
       <c r="K41" s="5" t="str">
         <f t="shared" si="13"/>
-        <v>26/3/2020</v>
+        <v>25/3/2020</v>
       </c>
       <c r="L41" s="3" t="str">
         <f t="shared" si="16"/>
-        <v>26/3/2020,26,3,2020,58,7,Ticino,nn,nnn,353709</v>
+        <v>25/3/2020,25,3,2020,132,7,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>43917</v>
+        <v>43916</v>
       </c>
       <c r="B42">
-        <v>1688</v>
+        <v>1401</v>
       </c>
       <c r="C42">
         <f t="shared" si="18"/>
-        <v>287</v>
+        <v>58</v>
       </c>
       <c r="D42" t="s">
         <v>116</v>
       </c>
       <c r="F42">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="G42">
         <f t="shared" si="19"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H42">
         <v>353709</v>
       </c>
       <c r="K42" s="5" t="str">
         <f t="shared" si="13"/>
-        <v>27/3/2020</v>
+        <v>26/3/2020</v>
       </c>
       <c r="L42" s="3" t="str">
         <f t="shared" si="16"/>
-        <v>27/3/2020,27,3,2020,287,9,Ticino,nn,nnn,353709</v>
+        <v>26/3/2020,26,3,2020,58,7,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>43918</v>
+        <v>43917</v>
       </c>
       <c r="B43">
-        <v>1727</v>
+        <v>1688</v>
       </c>
       <c r="C43">
         <f t="shared" si="18"/>
-        <v>39</v>
+        <v>287</v>
       </c>
       <c r="D43" t="s">
         <v>116</v>
       </c>
       <c r="F43">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="G43">
         <f t="shared" si="19"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H43">
         <v>353709</v>
       </c>
       <c r="K43" s="5" t="str">
         <f t="shared" si="13"/>
-        <v>28/3/2020</v>
+        <v>27/3/2020</v>
       </c>
       <c r="L43" s="3" t="str">
         <f t="shared" si="16"/>
-        <v>28/3/2020,28,3,2020,39,11,Ticino,nn,nnn,353709</v>
+        <v>27/3/2020,27,3,2020,287,9,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>43919</v>
+        <v>43918</v>
       </c>
       <c r="B44">
-        <v>1837</v>
+        <v>1727</v>
       </c>
       <c r="C44">
         <f t="shared" si="18"/>
-        <v>110</v>
+        <v>39</v>
       </c>
       <c r="D44" t="s">
         <v>116</v>
       </c>
       <c r="F44">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G44">
         <f t="shared" si="19"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H44">
         <v>353709</v>
       </c>
       <c r="K44" s="5" t="str">
         <f t="shared" si="13"/>
-        <v>29/3/2020</v>
+        <v>28/3/2020</v>
       </c>
       <c r="L44" s="3" t="str">
         <f t="shared" si="16"/>
-        <v>29/3/2020,29,3,2020,110,6,Ticino,nn,nnn,353709</v>
+        <v>28/3/2020,28,3,2020,39,11,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>43920</v>
+        <v>43919</v>
       </c>
       <c r="B45">
-        <v>1962</v>
+        <v>1837</v>
       </c>
       <c r="C45">
         <f t="shared" si="18"/>
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="D45" t="s">
         <v>116</v>
       </c>
       <c r="F45">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G45">
         <f t="shared" si="19"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H45">
         <v>353709</v>
       </c>
       <c r="K45" s="5" t="str">
         <f t="shared" si="13"/>
-        <v>30/3/2020</v>
+        <v>29/3/2020</v>
       </c>
       <c r="L45" s="3" t="str">
-        <f t="shared" ref="L45" si="20">K45&amp;$L$1&amp;DAY(A45)&amp;$L$1&amp;MONTH(A45)&amp;$L$1&amp;YEAR(A45)&amp;$L$1&amp;C45&amp;$L$1&amp;G45&amp;$L$1&amp;D45&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H45</f>
-        <v>30/3/2020,30,3,2020,125,12,Ticino,nn,nnn,353709</v>
+        <f t="shared" si="16"/>
+        <v>29/3/2020,29,3,2020,110,6,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>43921</v>
+        <v>43920</v>
       </c>
       <c r="B46">
-        <v>2091</v>
+        <v>1962</v>
       </c>
       <c r="C46">
         <f t="shared" si="18"/>
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D46" t="s">
         <v>116</v>
       </c>
       <c r="F46">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="G46">
         <f t="shared" si="19"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H46">
         <v>353709</v>
       </c>
       <c r="K46" s="5" t="str">
-        <f t="shared" ref="K46:K47" si="21">DAY(A46)&amp;"/"&amp;MONTH(A46)&amp;"/"&amp;YEAR(A46)</f>
-        <v>31/3/2020</v>
+        <f t="shared" si="13"/>
+        <v>30/3/2020</v>
       </c>
       <c r="L46" s="3" t="str">
-        <f t="shared" ref="L46:L47" si="22">K46&amp;$L$1&amp;DAY(A46)&amp;$L$1&amp;MONTH(A46)&amp;$L$1&amp;YEAR(A46)&amp;$L$1&amp;C46&amp;$L$1&amp;G46&amp;$L$1&amp;D46&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H46</f>
-        <v>31/3/2020,31,3,2020,129,15,Ticino,nn,nnn,353709</v>
+        <f t="shared" ref="L46" si="20">K46&amp;$L$1&amp;DAY(A46)&amp;$L$1&amp;MONTH(A46)&amp;$L$1&amp;YEAR(A46)&amp;$L$1&amp;C46&amp;$L$1&amp;G46&amp;$L$1&amp;D46&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H46</f>
+        <v>30/3/2020,30,3,2020,125,12,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>43922</v>
+        <v>43921</v>
       </c>
       <c r="B47">
-        <v>2195</v>
+        <v>2091</v>
       </c>
       <c r="C47">
         <f t="shared" si="18"/>
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="D47" t="s">
         <v>116</v>
       </c>
       <c r="F47">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="G47">
         <f t="shared" si="19"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H47">
         <v>353709</v>
       </c>
       <c r="K47" s="5" t="str">
+        <f t="shared" ref="K47:K48" si="21">DAY(A47)&amp;"/"&amp;MONTH(A47)&amp;"/"&amp;YEAR(A47)</f>
+        <v>31/3/2020</v>
+      </c>
+      <c r="L47" s="3" t="str">
+        <f t="shared" ref="L47:L48" si="22">K47&amp;$L$1&amp;DAY(A47)&amp;$L$1&amp;MONTH(A47)&amp;$L$1&amp;YEAR(A47)&amp;$L$1&amp;C47&amp;$L$1&amp;G47&amp;$L$1&amp;D47&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H47</f>
+        <v>31/3/2020,31,3,2020,129,15,Ticino,nn,nnn,353709</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>43922</v>
+      </c>
+      <c r="B48">
+        <v>2195</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="18"/>
+        <v>104</v>
+      </c>
+      <c r="D48" t="s">
+        <v>116</v>
+      </c>
+      <c r="F48">
+        <v>132</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="19"/>
+        <v>12</v>
+      </c>
+      <c r="H48">
+        <v>353709</v>
+      </c>
+      <c r="K48" s="5" t="str">
         <f t="shared" si="21"/>
         <v>1/4/2020</v>
       </c>
-      <c r="L47" s="3" t="str">
+      <c r="L48" s="3" t="str">
         <f t="shared" si="22"/>
         <v>1/4/2020,1,4,2020,104,12,Ticino,nn,nnn,353709</v>
       </c>
     </row>
+    <row r="49" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>43923</v>
+      </c>
+      <c r="B49" s="44">
+        <v>2271</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="18"/>
+        <v>76</v>
+      </c>
+      <c r="D49" t="s">
+        <v>116</v>
+      </c>
+      <c r="F49" s="49">
+        <v>141</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="19"/>
+        <v>9</v>
+      </c>
+      <c r="H49">
+        <v>353709</v>
+      </c>
+      <c r="K49" s="5" t="str">
+        <f t="shared" ref="K49" si="23">DAY(A49)&amp;"/"&amp;MONTH(A49)&amp;"/"&amp;YEAR(A49)</f>
+        <v>2/4/2020</v>
+      </c>
+      <c r="L49" s="3" t="str">
+        <f t="shared" ref="L49" si="24">K49&amp;$L$1&amp;DAY(A49)&amp;$L$1&amp;MONTH(A49)&amp;$L$1&amp;YEAR(A49)&amp;$L$1&amp;C49&amp;$L$1&amp;G49&amp;$L$1&amp;D49&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H49</f>
+        <v>2/4/2020,2,4,2020,76,9,Ticino,nn,nnn,353709</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A3:F40">
+  <autoFilter ref="A3:F41">
     <sortState ref="A4:F23">
       <sortCondition ref="D3:D20"/>
     </sortState>
@@ -4368,8 +4492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BD75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="AB39" sqref="AB39"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="V40" sqref="V40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4386,7 +4510,8 @@
     <col min="15" max="16" width="6.25" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="7.25" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="19" max="22" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.25" style="45" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="6.25" bestFit="1" customWidth="1"/>
     <col min="24" max="26" width="7.25" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="8.625" bestFit="1" customWidth="1"/>
@@ -4396,7 +4521,7 @@
     <col min="37" max="37" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -4460,7 +4585,7 @@
       <c r="U1" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="V1" s="11" t="s">
+      <c r="V1" s="41" t="s">
         <v>7</v>
       </c>
       <c r="W1" s="11" t="s">
@@ -4496,7 +4621,7 @@
         <f t="shared" si="0"/>
         <v>AR</v>
       </c>
-      <c r="AG1" s="10" t="str">
+      <c r="AG1" s="40" t="str">
         <f t="shared" si="0"/>
         <v>BE</v>
       </c>
@@ -4504,7 +4629,7 @@
         <f t="shared" si="0"/>
         <v>BL</v>
       </c>
-      <c r="AI1" s="10" t="str">
+      <c r="AI1" s="40" t="str">
         <f t="shared" si="0"/>
         <v>BS</v>
       </c>
@@ -4512,7 +4637,7 @@
         <f t="shared" si="0"/>
         <v>FR</v>
       </c>
-      <c r="AK1" s="10" t="str">
+      <c r="AK1" s="40" t="str">
         <f t="shared" si="0"/>
         <v>GE</v>
       </c>
@@ -4520,7 +4645,7 @@
         <f t="shared" si="0"/>
         <v>GL</v>
       </c>
-      <c r="AM1" s="10" t="str">
+      <c r="AM1" s="40" t="str">
         <f t="shared" si="0"/>
         <v>GR</v>
       </c>
@@ -4532,7 +4657,7 @@
         <f t="shared" si="0"/>
         <v>LU</v>
       </c>
-      <c r="AP1" s="10" t="str">
+      <c r="AP1" s="40" t="str">
         <f t="shared" si="0"/>
         <v>NE</v>
       </c>
@@ -4564,7 +4689,7 @@
         <f t="shared" ref="AW1" si="2">U1</f>
         <v>TG</v>
       </c>
-      <c r="AX1" s="10" t="str">
+      <c r="AX1" s="40" t="str">
         <f t="shared" ref="AX1" si="3">V1</f>
         <v>TI</v>
       </c>
@@ -4572,11 +4697,11 @@
         <f t="shared" ref="AY1" si="4">W1</f>
         <v>UR</v>
       </c>
-      <c r="AZ1" s="10" t="str">
+      <c r="AZ1" s="40" t="str">
         <f t="shared" ref="AZ1" si="5">X1</f>
         <v>VD</v>
       </c>
-      <c r="BA1" s="10" t="str">
+      <c r="BA1" s="40" t="str">
         <f t="shared" ref="BA1" si="6">Y1</f>
         <v>VS</v>
       </c>
@@ -4584,11 +4709,11 @@
         <f t="shared" ref="BB1:BD1" si="7">Z1</f>
         <v>ZG</v>
       </c>
-      <c r="BC1" s="10" t="str">
+      <c r="BC1" s="40" t="str">
         <f t="shared" si="7"/>
         <v>ZH</v>
       </c>
-      <c r="BD1" s="10" t="str">
+      <c r="BD1" s="40" t="str">
         <f t="shared" si="7"/>
         <v>CH</v>
       </c>
@@ -4655,7 +4780,7 @@
       <c r="U2" s="32">
         <v>276472</v>
       </c>
-      <c r="V2" s="24">
+      <c r="V2" s="42">
         <v>353343</v>
       </c>
       <c r="W2" s="32">
@@ -4729,7 +4854,7 @@
       <c r="S3" s="14"/>
       <c r="T3" s="14"/>
       <c r="U3" s="14"/>
-      <c r="V3" s="14">
+      <c r="V3" s="43">
         <v>1</v>
       </c>
       <c r="W3" s="14"/>
@@ -4879,7 +5004,7 @@
       <c r="S4" s="14"/>
       <c r="T4" s="14"/>
       <c r="U4" s="14"/>
-      <c r="V4" s="14"/>
+      <c r="V4" s="43"/>
       <c r="W4" s="14"/>
       <c r="X4" s="14"/>
       <c r="Y4" s="14"/>
@@ -5029,7 +5154,7 @@
       <c r="S5" s="14"/>
       <c r="T5" s="14"/>
       <c r="U5" s="14"/>
-      <c r="V5" s="14"/>
+      <c r="V5" s="43"/>
       <c r="W5" s="14"/>
       <c r="X5" s="14"/>
       <c r="Y5" s="14"/>
@@ -5187,7 +5312,7 @@
       <c r="S6" s="14"/>
       <c r="T6" s="14"/>
       <c r="U6" s="14"/>
-      <c r="V6" s="14"/>
+      <c r="V6" s="43"/>
       <c r="W6" s="14"/>
       <c r="X6" s="14"/>
       <c r="Y6" s="14">
@@ -5343,7 +5468,7 @@
       <c r="S7" s="14"/>
       <c r="T7" s="14"/>
       <c r="U7" s="14"/>
-      <c r="V7" s="14"/>
+      <c r="V7" s="43"/>
       <c r="W7" s="14"/>
       <c r="X7" s="14"/>
       <c r="Y7" s="14">
@@ -5503,7 +5628,7 @@
       <c r="S8" s="14"/>
       <c r="T8" s="14"/>
       <c r="U8" s="14"/>
-      <c r="V8" s="14"/>
+      <c r="V8" s="43"/>
       <c r="W8" s="14"/>
       <c r="X8" s="14"/>
       <c r="Y8" s="14">
@@ -5665,7 +5790,7 @@
       <c r="S9" s="14"/>
       <c r="T9" s="14"/>
       <c r="U9" s="14"/>
-      <c r="V9" s="14">
+      <c r="V9" s="43">
         <v>2</v>
       </c>
       <c r="W9" s="14"/>
@@ -5829,7 +5954,7 @@
         <v>1</v>
       </c>
       <c r="U10" s="14"/>
-      <c r="V10" s="14">
+      <c r="V10" s="43">
         <v>4</v>
       </c>
       <c r="W10" s="14"/>
@@ -6003,7 +6128,7 @@
         <v>3</v>
       </c>
       <c r="U11" s="14"/>
-      <c r="V11" s="14">
+      <c r="V11" s="43">
         <v>5</v>
       </c>
       <c r="W11" s="14"/>
@@ -6167,7 +6292,7 @@
       <c r="S12" s="14"/>
       <c r="T12" s="14"/>
       <c r="U12" s="14"/>
-      <c r="V12" s="14"/>
+      <c r="V12" s="43"/>
       <c r="W12" s="14"/>
       <c r="X12" s="14"/>
       <c r="Y12" s="14">
@@ -6276,7 +6401,7 @@
       </c>
       <c r="AZ12" s="3" t="str">
         <f>$AC12&amp;$AC$1&amp;X12&amp;$AC$1&amp;fatalities!X12&amp;$AC$1&amp;X$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;X$2</f>
-        <v>5/3/2020,5,3,2020,,1,VD,nn,nnn,799145</v>
+        <v>5/3/2020,5,3,2020,,,VD,nn,nnn,799145</v>
       </c>
       <c r="BA12" s="3" t="str">
         <f>$AC12&amp;$AC$1&amp;Y12&amp;$AC$1&amp;fatalities!Y12&amp;$AC$1&amp;Y$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Y$2</f>
@@ -6292,7 +6417,7 @@
       </c>
       <c r="BD12" s="3" t="str">
         <f>$AC12&amp;$AC$1&amp;AB12&amp;$AC$1&amp;fatalities!AB12&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2</f>
-        <v>5/3/2020,5,3,2020,87,1,CH,nn,nnn,8543707</v>
+        <v>5/3/2020,5,3,2020,87,0,CH,nn,nnn,8543707</v>
       </c>
     </row>
     <row r="13" spans="1:56" x14ac:dyDescent="0.2">
@@ -6337,7 +6462,7 @@
         <v>6</v>
       </c>
       <c r="U13" s="14"/>
-      <c r="V13" s="14"/>
+      <c r="V13" s="43"/>
       <c r="W13" s="14"/>
       <c r="X13" s="14">
         <v>23</v>
@@ -6497,7 +6622,7 @@
       <c r="S14" s="14"/>
       <c r="T14" s="14"/>
       <c r="U14" s="14"/>
-      <c r="V14" s="14"/>
+      <c r="V14" s="43"/>
       <c r="W14" s="14"/>
       <c r="X14" s="14">
         <v>30</v>
@@ -6532,7 +6657,7 @@
       </c>
       <c r="AH14" s="3" t="str">
         <f>$AC14&amp;$AC$1&amp;F14&amp;$AC$1&amp;fatalities!F14&amp;$AC$1&amp;F$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;F$2</f>
-        <v>7/3/2020,7,3,2020,15,1,BL,nn,nnn,288132</v>
+        <v>7/3/2020,7,3,2020,15,,BL,nn,nnn,288132</v>
       </c>
       <c r="AI14" s="3" t="str">
         <f>$AC14&amp;$AC$1&amp;G14&amp;$AC$1&amp;fatalities!G14&amp;$AC$1&amp;G$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;G$2</f>
@@ -6620,7 +6745,7 @@
       </c>
       <c r="BD14" s="3" t="str">
         <f>$AC14&amp;$AC$1&amp;AB14&amp;$AC$1&amp;fatalities!AB14&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2</f>
-        <v>7/3/2020,7,3,2020,185,2,CH,nn,nnn,8543707</v>
+        <v>7/3/2020,7,3,2020,185,1,CH,nn,nnn,8543707</v>
       </c>
     </row>
     <row r="15" spans="1:56" x14ac:dyDescent="0.2">
@@ -6657,7 +6782,7 @@
       <c r="S15" s="14"/>
       <c r="T15" s="14"/>
       <c r="U15" s="14"/>
-      <c r="V15" s="14"/>
+      <c r="V15" s="43"/>
       <c r="W15" s="14"/>
       <c r="X15" s="14">
         <v>40</v>
@@ -6706,7 +6831,7 @@
       </c>
       <c r="AK15" s="3" t="str">
         <f>$AC15&amp;$AC$1&amp;I15&amp;$AC$1&amp;fatalities!I15&amp;$AC$1&amp;I$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;I$2</f>
-        <v>8/3/2020,8,3,2020,35,1,GE,nn,nnn,499480</v>
+        <v>8/3/2020,8,3,2020,35,,GE,nn,nnn,499480</v>
       </c>
       <c r="AL15" s="3" t="str">
         <f>$AC15&amp;$AC$1&amp;J15&amp;$AC$1&amp;fatalities!J15&amp;$AC$1&amp;J$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;J$2</f>
@@ -6782,7 +6907,7 @@
       </c>
       <c r="BD15" s="3" t="str">
         <f>$AC15&amp;$AC$1&amp;AB15&amp;$AC$1&amp;fatalities!AB15&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2</f>
-        <v>8/3/2020,8,3,2020,221,3,CH,nn,nnn,8543707</v>
+        <v>8/3/2020,8,3,2020,221,2,CH,nn,nnn,8543707</v>
       </c>
     </row>
     <row r="16" spans="1:56" x14ac:dyDescent="0.2">
@@ -6825,7 +6950,7 @@
       <c r="S16" s="14"/>
       <c r="T16" s="14"/>
       <c r="U16" s="14"/>
-      <c r="V16" s="14"/>
+      <c r="V16" s="43"/>
       <c r="W16" s="14"/>
       <c r="X16" s="14">
         <v>51</v>
@@ -6874,7 +6999,7 @@
       </c>
       <c r="AK16" s="3" t="str">
         <f>$AC16&amp;$AC$1&amp;I16&amp;$AC$1&amp;fatalities!I16&amp;$AC$1&amp;I$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;I$2</f>
-        <v>9/3/2020,9,3,2020,44,2,GE,nn,nnn,499480</v>
+        <v>9/3/2020,9,3,2020,44,1,GE,nn,nnn,499480</v>
       </c>
       <c r="AL16" s="3" t="str">
         <f>$AC16&amp;$AC$1&amp;J16&amp;$AC$1&amp;fatalities!J16&amp;$AC$1&amp;J$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;J$2</f>
@@ -6926,7 +7051,7 @@
       </c>
       <c r="AX16" s="3" t="str">
         <f>$AC16&amp;$AC$1&amp;V16&amp;$AC$1&amp;fatalities!V16&amp;$AC$1&amp;V$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;V$2</f>
-        <v>9/3/2020,9,3,2020,,1,TI,nn,nnn,353343</v>
+        <v>9/3/2020,9,3,2020,,,TI,nn,nnn,353343</v>
       </c>
       <c r="AY16" s="3" t="str">
         <f>$AC16&amp;$AC$1&amp;W16&amp;$AC$1&amp;fatalities!W16&amp;$AC$1&amp;W$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;W$2</f>
@@ -6950,7 +7075,7 @@
       </c>
       <c r="BD16" s="3" t="str">
         <f>$AC16&amp;$AC$1&amp;AB16&amp;$AC$1&amp;fatalities!AB16&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2</f>
-        <v>9/3/2020,9,3,2020,278,5,CH,nn,nnn,8543707</v>
+        <v>9/3/2020,9,3,2020,278,3,CH,nn,nnn,8543707</v>
       </c>
     </row>
     <row r="17" spans="1:56" x14ac:dyDescent="0.2">
@@ -6987,7 +7112,7 @@
       <c r="S17" s="14"/>
       <c r="T17" s="14"/>
       <c r="U17" s="14"/>
-      <c r="V17" s="14"/>
+      <c r="V17" s="43"/>
       <c r="W17" s="14"/>
       <c r="X17" s="14">
         <v>77</v>
@@ -7024,7 +7149,7 @@
       </c>
       <c r="AH17" s="3" t="str">
         <f>$AC17&amp;$AC$1&amp;F17&amp;$AC$1&amp;fatalities!F17&amp;$AC$1&amp;F$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;F$2</f>
-        <v>10/3/2020,10,3,2020,22,2,BL,nn,nnn,288132</v>
+        <v>10/3/2020,10,3,2020,22,1,BL,nn,nnn,288132</v>
       </c>
       <c r="AI17" s="3" t="str">
         <f>$AC17&amp;$AC$1&amp;G17&amp;$AC$1&amp;fatalities!G17&amp;$AC$1&amp;G$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;G$2</f>
@@ -7088,7 +7213,7 @@
       </c>
       <c r="AX17" s="3" t="str">
         <f>$AC17&amp;$AC$1&amp;V17&amp;$AC$1&amp;fatalities!V17&amp;$AC$1&amp;V$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;V$2</f>
-        <v>10/3/2020,10,3,2020,,,TI,nn,nnn,353343</v>
+        <v>10/3/2020,10,3,2020,,1,TI,nn,nnn,353343</v>
       </c>
       <c r="AY17" s="3" t="str">
         <f>$AC17&amp;$AC$1&amp;W17&amp;$AC$1&amp;fatalities!W17&amp;$AC$1&amp;W$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;W$2</f>
@@ -7112,7 +7237,7 @@
       </c>
       <c r="BD17" s="3" t="str">
         <f>$AC17&amp;$AC$1&amp;AB17&amp;$AC$1&amp;fatalities!AB17&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2</f>
-        <v>10/3/2020,10,3,2020,353,6,CH,nn,nnn,8543707</v>
+        <v>10/3/2020,10,3,2020,353,5,CH,nn,nnn,8543707</v>
       </c>
     </row>
     <row r="18" spans="1:56" x14ac:dyDescent="0.2">
@@ -7153,7 +7278,7 @@
       <c r="S18" s="14"/>
       <c r="T18" s="14"/>
       <c r="U18" s="14"/>
-      <c r="V18" s="14"/>
+      <c r="V18" s="43"/>
       <c r="W18" s="14"/>
       <c r="X18" s="14">
         <v>108</v>
@@ -7194,7 +7319,7 @@
       </c>
       <c r="AI18" s="3" t="str">
         <f>$AC18&amp;$AC$1&amp;G18&amp;$AC$1&amp;fatalities!G18&amp;$AC$1&amp;G$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;G$2</f>
-        <v>11/3/2020,11,3,2020,49,1,BS,nn,nnn,194766</v>
+        <v>11/3/2020,11,3,2020,49,,BS,nn,nnn,194766</v>
       </c>
       <c r="AJ18" s="3" t="str">
         <f>$AC18&amp;$AC$1&amp;H18&amp;$AC$1&amp;fatalities!H18&amp;$AC$1&amp;H$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;H$2</f>
@@ -7278,7 +7403,7 @@
       </c>
       <c r="BD18" s="3" t="str">
         <f>$AC18&amp;$AC$1&amp;AB18&amp;$AC$1&amp;fatalities!AB18&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2</f>
-        <v>11/3/2020,11,3,2020,440,7,CH,nn,nnn,8543707</v>
+        <v>11/3/2020,11,3,2020,440,6,CH,nn,nnn,8543707</v>
       </c>
     </row>
     <row r="19" spans="1:56" x14ac:dyDescent="0.2">
@@ -7321,7 +7446,7 @@
       <c r="S19" s="14"/>
       <c r="T19" s="14"/>
       <c r="U19" s="14"/>
-      <c r="V19" s="14">
+      <c r="V19" s="43">
         <v>180</v>
       </c>
       <c r="W19" s="14">
@@ -7434,7 +7559,7 @@
       </c>
       <c r="AZ19" s="3" t="str">
         <f>$AC19&amp;$AC$1&amp;X19&amp;$AC$1&amp;fatalities!X19&amp;$AC$1&amp;X$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;X$2</f>
-        <v>12/3/2020,12,3,2020,156,2,VD,nn,nnn,799145</v>
+        <v>12/3/2020,12,3,2020,156,1,VD,nn,nnn,799145</v>
       </c>
       <c r="BA19" s="3" t="str">
         <f>$AC19&amp;$AC$1&amp;Y19&amp;$AC$1&amp;fatalities!Y19&amp;$AC$1&amp;Y$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Y$2</f>
@@ -7450,7 +7575,7 @@
       </c>
       <c r="BD19" s="3" t="str">
         <f>$AC19&amp;$AC$1&amp;AB19&amp;$AC$1&amp;fatalities!AB19&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2</f>
-        <v>12/3/2020,12,3,2020,793,8,CH,nn,nnn,8543707</v>
+        <v>12/3/2020,12,3,2020,793,7,CH,nn,nnn,8543707</v>
       </c>
     </row>
     <row r="20" spans="1:56" x14ac:dyDescent="0.2">
@@ -7493,7 +7618,7 @@
         <v>9</v>
       </c>
       <c r="U20" s="14"/>
-      <c r="V20" s="14">
+      <c r="V20" s="43">
         <v>258</v>
       </c>
       <c r="W20" s="14"/>
@@ -7598,7 +7723,7 @@
       </c>
       <c r="AX20" s="3" t="str">
         <f>$AC20&amp;$AC$1&amp;V20&amp;$AC$1&amp;fatalities!V20&amp;$AC$1&amp;V$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;V$2</f>
-        <v>13/3/2020,13,3,2020,258,3,TI,nn,nnn,353343</v>
+        <v>13/3/2020,13,3,2020,258,,TI,nn,nnn,353343</v>
       </c>
       <c r="AY20" s="3" t="str">
         <f>$AC20&amp;$AC$1&amp;W20&amp;$AC$1&amp;fatalities!W20&amp;$AC$1&amp;W$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;W$2</f>
@@ -7606,11 +7731,11 @@
       </c>
       <c r="AZ20" s="3" t="str">
         <f>$AC20&amp;$AC$1&amp;X20&amp;$AC$1&amp;fatalities!X20&amp;$AC$1&amp;X$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;X$2</f>
-        <v>13/3/2020,13,3,2020,204,3,VD,nn,nnn,799145</v>
+        <v>13/3/2020,13,3,2020,204,2,VD,nn,nnn,799145</v>
       </c>
       <c r="BA20" s="3" t="str">
         <f>$AC20&amp;$AC$1&amp;Y20&amp;$AC$1&amp;fatalities!Y20&amp;$AC$1&amp;Y$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Y$2</f>
-        <v>13/3/2020,13,3,2020,53,1,VS,nn,nnn,343955</v>
+        <v>13/3/2020,13,3,2020,53,,VS,nn,nnn,343955</v>
       </c>
       <c r="BB20" s="3" t="str">
         <f>$AC20&amp;$AC$1&amp;Z20&amp;$AC$1&amp;fatalities!Z20&amp;$AC$1&amp;Z$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Z$2</f>
@@ -7622,7 +7747,7 @@
       </c>
       <c r="BD20" s="3" t="str">
         <f>$AC20&amp;$AC$1&amp;AB20&amp;$AC$1&amp;fatalities!AB20&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2</f>
-        <v>13/3/2020,13,3,2020,1117,12,CH,nn,nnn,8543707</v>
+        <v>13/3/2020,13,3,2020,1117,8,CH,nn,nnn,8543707</v>
       </c>
     </row>
     <row r="21" spans="1:56" x14ac:dyDescent="0.2">
@@ -7663,7 +7788,7 @@
         <v>12</v>
       </c>
       <c r="U21" s="14"/>
-      <c r="V21" s="14">
+      <c r="V21" s="43">
         <v>265</v>
       </c>
       <c r="W21" s="14"/>
@@ -7706,7 +7831,7 @@
       </c>
       <c r="AI21" s="3" t="str">
         <f>$AC21&amp;$AC$1&amp;G21&amp;$AC$1&amp;fatalities!G21&amp;$AC$1&amp;G$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;G$2</f>
-        <v>14/3/2020,14,3,2020,100,,BS,nn,nnn,194766</v>
+        <v>14/3/2020,14,3,2020,100,1,BS,nn,nnn,194766</v>
       </c>
       <c r="AJ21" s="3" t="str">
         <f>$AC21&amp;$AC$1&amp;H21&amp;$AC$1&amp;fatalities!H21&amp;$AC$1&amp;H$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;H$2</f>
@@ -7714,7 +7839,7 @@
       </c>
       <c r="AK21" s="3" t="str">
         <f>$AC21&amp;$AC$1&amp;I21&amp;$AC$1&amp;fatalities!I21&amp;$AC$1&amp;I$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;I$2</f>
-        <v>14/3/2020,14,3,2020,282,4,GE,nn,nnn,499480</v>
+        <v>14/3/2020,14,3,2020,282,2,GE,nn,nnn,499480</v>
       </c>
       <c r="AL21" s="3" t="str">
         <f>$AC21&amp;$AC$1&amp;J21&amp;$AC$1&amp;fatalities!J21&amp;$AC$1&amp;J$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;J$2</f>
@@ -7766,7 +7891,7 @@
       </c>
       <c r="AX21" s="3" t="str">
         <f>$AC21&amp;$AC$1&amp;V21&amp;$AC$1&amp;fatalities!V21&amp;$AC$1&amp;V$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;V$2</f>
-        <v>14/3/2020,14,3,2020,265,6,TI,nn,nnn,353343</v>
+        <v>14/3/2020,14,3,2020,265,3,TI,nn,nnn,353343</v>
       </c>
       <c r="AY21" s="3" t="str">
         <f>$AC21&amp;$AC$1&amp;W21&amp;$AC$1&amp;fatalities!W21&amp;$AC$1&amp;W$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;W$2</f>
@@ -7774,7 +7899,7 @@
       </c>
       <c r="AZ21" s="3" t="str">
         <f>$AC21&amp;$AC$1&amp;X21&amp;$AC$1&amp;fatalities!X21&amp;$AC$1&amp;X$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;X$2</f>
-        <v>14/3/2020,14,3,2020,350,4,VD,nn,nnn,799145</v>
+        <v>14/3/2020,14,3,2020,350,3,VD,nn,nnn,799145</v>
       </c>
       <c r="BA21" s="3" t="str">
         <f>$AC21&amp;$AC$1&amp;Y21&amp;$AC$1&amp;fatalities!Y21&amp;$AC$1&amp;Y$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Y$2</f>
@@ -7790,7 +7915,7 @@
       </c>
       <c r="BD21" s="3" t="str">
         <f>$AC21&amp;$AC$1&amp;AB21&amp;$AC$1&amp;fatalities!AB21&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2</f>
-        <v>14/3/2020,14,3,2020,1432,18,CH,nn,nnn,8543707</v>
+        <v>14/3/2020,14,3,2020,1432,12,CH,nn,nnn,8543707</v>
       </c>
     </row>
     <row r="22" spans="1:56" x14ac:dyDescent="0.2">
@@ -7827,7 +7952,7 @@
         <v>13</v>
       </c>
       <c r="U22" s="14"/>
-      <c r="V22" s="14">
+      <c r="V22" s="43">
         <v>291</v>
       </c>
       <c r="W22" s="14"/>
@@ -7860,7 +7985,7 @@
       </c>
       <c r="AG22" s="3" t="str">
         <f>$AC22&amp;$AC$1&amp;E22&amp;$AC$1&amp;fatalities!E22&amp;$AC$1&amp;E$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;E$2</f>
-        <v>15/3/2020,15,3,2020,,1,BE,nn,nnn,1034977</v>
+        <v>15/3/2020,15,3,2020,,,BE,nn,nnn,1034977</v>
       </c>
       <c r="AH22" s="3" t="str">
         <f>$AC22&amp;$AC$1&amp;F22&amp;$AC$1&amp;fatalities!F22&amp;$AC$1&amp;F$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;F$2</f>
@@ -7868,7 +7993,7 @@
       </c>
       <c r="AI22" s="3" t="str">
         <f>$AC22&amp;$AC$1&amp;G22&amp;$AC$1&amp;fatalities!G22&amp;$AC$1&amp;G$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;G$2</f>
-        <v>15/3/2020,15,3,2020,,4,BS,nn,nnn,194766</v>
+        <v>15/3/2020,15,3,2020,,,BS,nn,nnn,194766</v>
       </c>
       <c r="AJ22" s="3" t="str">
         <f>$AC22&amp;$AC$1&amp;H22&amp;$AC$1&amp;fatalities!H22&amp;$AC$1&amp;H$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;H$2</f>
@@ -7928,7 +8053,7 @@
       </c>
       <c r="AX22" s="3" t="str">
         <f>$AC22&amp;$AC$1&amp;V22&amp;$AC$1&amp;fatalities!V22&amp;$AC$1&amp;V$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;V$2</f>
-        <v>15/3/2020,15,3,2020,291,8,TI,nn,nnn,353343</v>
+        <v>15/3/2020,15,3,2020,291,6,TI,nn,nnn,353343</v>
       </c>
       <c r="AY22" s="3" t="str">
         <f>$AC22&amp;$AC$1&amp;W22&amp;$AC$1&amp;fatalities!W22&amp;$AC$1&amp;W$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;W$2</f>
@@ -7936,11 +8061,11 @@
       </c>
       <c r="AZ22" s="3" t="str">
         <f>$AC22&amp;$AC$1&amp;X22&amp;$AC$1&amp;fatalities!X22&amp;$AC$1&amp;X$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;X$2</f>
-        <v>15/3/2020,15,3,2020,406,5,VD,nn,nnn,799145</v>
+        <v>15/3/2020,15,3,2020,406,4,VD,nn,nnn,799145</v>
       </c>
       <c r="BA22" s="3" t="str">
         <f>$AC22&amp;$AC$1&amp;Y22&amp;$AC$1&amp;fatalities!Y22&amp;$AC$1&amp;Y$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Y$2</f>
-        <v>15/3/2020,15,3,2020,98,2,VS,nn,nnn,343955</v>
+        <v>15/3/2020,15,3,2020,98,1,VS,nn,nnn,343955</v>
       </c>
       <c r="BB22" s="3" t="str">
         <f>$AC22&amp;$AC$1&amp;Z22&amp;$AC$1&amp;fatalities!Z22&amp;$AC$1&amp;Z$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Z$2</f>
@@ -7948,11 +8073,11 @@
       </c>
       <c r="BC22" s="3" t="str">
         <f>$AC22&amp;$AC$1&amp;AA22&amp;$AC$1&amp;fatalities!AA22&amp;$AC$1&amp;AA$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AA$2</f>
-        <v>15/3/2020,15,3,2020,,1,ZH,nn,nnn,1520968</v>
+        <v>15/3/2020,15,3,2020,,,ZH,nn,nnn,1520968</v>
       </c>
       <c r="BD22" s="3" t="str">
         <f>$AC22&amp;$AC$1&amp;AB22&amp;$AC$1&amp;fatalities!AB22&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2</f>
-        <v>15/3/2020,15,3,2020,1639,27,CH,nn,nnn,8543707</v>
+        <v>15/3/2020,15,3,2020,1639,18,CH,nn,nnn,8543707</v>
       </c>
     </row>
     <row r="23" spans="1:56" x14ac:dyDescent="0.2">
@@ -7997,7 +8122,7 @@
       <c r="U23" s="14">
         <v>17</v>
       </c>
-      <c r="V23" s="14">
+      <c r="V23" s="43">
         <v>330</v>
       </c>
       <c r="W23" s="14"/>
@@ -8034,7 +8159,7 @@
       </c>
       <c r="AG23" s="3" t="str">
         <f>$AC23&amp;$AC$1&amp;E23&amp;$AC$1&amp;fatalities!E23&amp;$AC$1&amp;E$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;E$2</f>
-        <v>16/3/2020,16,3,2020,123,,BE,nn,nnn,1034977</v>
+        <v>16/3/2020,16,3,2020,123,1,BE,nn,nnn,1034977</v>
       </c>
       <c r="AH23" s="3" t="str">
         <f>$AC23&amp;$AC$1&amp;F23&amp;$AC$1&amp;fatalities!F23&amp;$AC$1&amp;F$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;F$2</f>
@@ -8102,7 +8227,7 @@
       </c>
       <c r="AX23" s="3" t="str">
         <f>$AC23&amp;$AC$1&amp;V23&amp;$AC$1&amp;fatalities!V23&amp;$AC$1&amp;V$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;V$2</f>
-        <v>16/3/2020,16,3,2020,330,10,TI,nn,nnn,353343</v>
+        <v>16/3/2020,16,3,2020,330,8,TI,nn,nnn,353343</v>
       </c>
       <c r="AY23" s="3" t="str">
         <f>$AC23&amp;$AC$1&amp;W23&amp;$AC$1&amp;fatalities!W23&amp;$AC$1&amp;W$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;W$2</f>
@@ -8114,7 +8239,7 @@
       </c>
       <c r="BA23" s="3" t="str">
         <f>$AC23&amp;$AC$1&amp;Y23&amp;$AC$1&amp;fatalities!Y23&amp;$AC$1&amp;Y$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Y$2</f>
-        <v>16/3/2020,16,3,2020,116,3,VS,nn,nnn,343955</v>
+        <v>16/3/2020,16,3,2020,116,2,VS,nn,nnn,343955</v>
       </c>
       <c r="BB23" s="3" t="str">
         <f>$AC23&amp;$AC$1&amp;Z23&amp;$AC$1&amp;fatalities!Z23&amp;$AC$1&amp;Z$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Z$2</f>
@@ -8122,11 +8247,11 @@
       </c>
       <c r="BC23" s="3" t="str">
         <f>$AC23&amp;$AC$1&amp;AA23&amp;$AC$1&amp;fatalities!AA23&amp;$AC$1&amp;AA$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AA$2</f>
-        <v>16/3/2020,16,3,2020,270,,ZH,nn,nnn,1520968</v>
+        <v>16/3/2020,16,3,2020,270,1,ZH,nn,nnn,1520968</v>
       </c>
       <c r="BD23" s="3" t="str">
         <f>$AC23&amp;$AC$1&amp;AB23&amp;$AC$1&amp;fatalities!AB23&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2</f>
-        <v>16/3/2020,16,3,2020,2239,30,CH,nn,nnn,8543707</v>
+        <v>16/3/2020,16,3,2020,2239,27,CH,nn,nnn,8543707</v>
       </c>
     </row>
     <row r="24" spans="1:56" x14ac:dyDescent="0.2">
@@ -8173,7 +8298,7 @@
       <c r="U24" s="14">
         <v>23</v>
       </c>
-      <c r="V24" s="14">
+      <c r="V24" s="43">
         <v>422</v>
       </c>
       <c r="W24" s="14"/>
@@ -8208,7 +8333,7 @@
       </c>
       <c r="AG24" s="3" t="str">
         <f>$AC24&amp;$AC$1&amp;E24&amp;$AC$1&amp;fatalities!E24&amp;$AC$1&amp;E$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;E$2</f>
-        <v>17/3/2020,17,3,2020,,1,BE,nn,nnn,1034977</v>
+        <v>17/3/2020,17,3,2020,,,BE,nn,nnn,1034977</v>
       </c>
       <c r="AH24" s="3" t="str">
         <f>$AC24&amp;$AC$1&amp;F24&amp;$AC$1&amp;fatalities!F24&amp;$AC$1&amp;F$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;F$2</f>
@@ -8220,11 +8345,11 @@
       </c>
       <c r="AJ24" s="3" t="str">
         <f>$AC24&amp;$AC$1&amp;H24&amp;$AC$1&amp;fatalities!H24&amp;$AC$1&amp;H$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;H$2</f>
-        <v>17/3/2020,17,3,2020,59,1,FR,nn,nnn,318714</v>
+        <v>17/3/2020,17,3,2020,59,,FR,nn,nnn,318714</v>
       </c>
       <c r="AK24" s="3" t="str">
         <f>$AC24&amp;$AC$1&amp;I24&amp;$AC$1&amp;fatalities!I24&amp;$AC$1&amp;I$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;I$2</f>
-        <v>17/3/2020,17,3,2020,619,6,GE,nn,nnn,499480</v>
+        <v>17/3/2020,17,3,2020,619,4,GE,nn,nnn,499480</v>
       </c>
       <c r="AL24" s="3" t="str">
         <f>$AC24&amp;$AC$1&amp;J24&amp;$AC$1&amp;fatalities!J24&amp;$AC$1&amp;J$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;J$2</f>
@@ -8232,7 +8357,7 @@
       </c>
       <c r="AM24" s="3" t="str">
         <f>$AC24&amp;$AC$1&amp;K24&amp;$AC$1&amp;fatalities!K24&amp;$AC$1&amp;K$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;K$2</f>
-        <v>17/3/2020,17,3,2020,,1,GR,nn,nnn,198379</v>
+        <v>17/3/2020,17,3,2020,,,GR,nn,nnn,198379</v>
       </c>
       <c r="AN24" s="3" t="str">
         <f>$AC24&amp;$AC$1&amp;L24&amp;$AC$1&amp;fatalities!L24&amp;$AC$1&amp;L$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;L$2</f>
@@ -8276,7 +8401,7 @@
       </c>
       <c r="AX24" s="3" t="str">
         <f>$AC24&amp;$AC$1&amp;V24&amp;$AC$1&amp;fatalities!V24&amp;$AC$1&amp;V$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;V$2</f>
-        <v>17/3/2020,17,3,2020,422,14,TI,nn,nnn,353343</v>
+        <v>17/3/2020,17,3,2020,422,10,TI,nn,nnn,353343</v>
       </c>
       <c r="AY24" s="3" t="str">
         <f>$AC24&amp;$AC$1&amp;W24&amp;$AC$1&amp;fatalities!W24&amp;$AC$1&amp;W$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;W$2</f>
@@ -8300,7 +8425,7 @@
       </c>
       <c r="BD24" s="3" t="str">
         <f>$AC24&amp;$AC$1&amp;AB24&amp;$AC$1&amp;fatalities!AB24&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2</f>
-        <v>17/3/2020,17,3,2020,2778,38,CH,nn,nnn,8543707</v>
+        <v>17/3/2020,17,3,2020,2778,30,CH,nn,nnn,8543707</v>
       </c>
     </row>
     <row r="25" spans="1:56" x14ac:dyDescent="0.2">
@@ -8353,7 +8478,7 @@
       <c r="U25" s="14">
         <v>32</v>
       </c>
-      <c r="V25" s="14">
+      <c r="V25" s="43">
         <v>511</v>
       </c>
       <c r="W25" s="14">
@@ -8458,7 +8583,7 @@
       </c>
       <c r="AX25" s="3" t="str">
         <f>$AC25&amp;$AC$1&amp;V25&amp;$AC$1&amp;fatalities!V25&amp;$AC$1&amp;V$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;V$2</f>
-        <v>18/3/2020,18,3,2020,511,15,TI,nn,nnn,353343</v>
+        <v>18/3/2020,18,3,2020,511,14,TI,nn,nnn,353343</v>
       </c>
       <c r="AY25" s="3" t="str">
         <f>$AC25&amp;$AC$1&amp;W25&amp;$AC$1&amp;fatalities!W25&amp;$AC$1&amp;W$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;W$2</f>
@@ -8466,11 +8591,11 @@
       </c>
       <c r="AZ25" s="3" t="str">
         <f>$AC25&amp;$AC$1&amp;X25&amp;$AC$1&amp;fatalities!X25&amp;$AC$1&amp;X$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;X$2</f>
-        <v>18/3/2020,18,3,2020,796,7,VD,nn,nnn,799145</v>
+        <v>18/3/2020,18,3,2020,796,5,VD,nn,nnn,799145</v>
       </c>
       <c r="BA25" s="3" t="str">
         <f>$AC25&amp;$AC$1&amp;Y25&amp;$AC$1&amp;fatalities!Y25&amp;$AC$1&amp;Y$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Y$2</f>
-        <v>18/3/2020,18,3,2020,225,4,VS,nn,nnn,343955</v>
+        <v>18/3/2020,18,3,2020,225,3,VS,nn,nnn,343955</v>
       </c>
       <c r="BB25" s="3" t="str">
         <f>$AC25&amp;$AC$1&amp;Z25&amp;$AC$1&amp;fatalities!Z25&amp;$AC$1&amp;Z$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Z$2</f>
@@ -8478,11 +8603,11 @@
       </c>
       <c r="BC25" s="3" t="str">
         <f>$AC25&amp;$AC$1&amp;AA25&amp;$AC$1&amp;fatalities!AA25&amp;$AC$1&amp;AA$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AA$2</f>
-        <v>18/3/2020,18,3,2020,424,3,ZH,nn,nnn,1520968</v>
+        <v>18/3/2020,18,3,2020,424,,ZH,nn,nnn,1520968</v>
       </c>
       <c r="BD25" s="3" t="str">
         <f>$AC25&amp;$AC$1&amp;AB25&amp;$AC$1&amp;fatalities!AB25&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2</f>
-        <v>18/3/2020,18,3,2020,3801,44,CH,nn,nnn,8543707</v>
+        <v>18/3/2020,18,3,2020,3801,38,CH,nn,nnn,8543707</v>
       </c>
     </row>
     <row r="26" spans="1:56" x14ac:dyDescent="0.2">
@@ -8535,7 +8660,7 @@
       <c r="U26" s="14">
         <v>36</v>
       </c>
-      <c r="V26" s="14">
+      <c r="V26" s="43">
         <v>638</v>
       </c>
       <c r="W26" s="14">
@@ -8560,7 +8685,7 @@
       </c>
       <c r="AD26" s="3" t="str">
         <f>$AC26&amp;$AC$1&amp;B26&amp;$AC$1&amp;fatalities!B26&amp;$AC$1&amp;B$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;B$2</f>
-        <v>19/3/2020,19,3,2020,118,1,AG,nn,nnn,677387</v>
+        <v>19/3/2020,19,3,2020,118,,AG,nn,nnn,677387</v>
       </c>
       <c r="AE26" s="3" t="str">
         <f>$AC26&amp;$AC$1&amp;C26&amp;$AC$1&amp;fatalities!C26&amp;$AC$1&amp;C$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;C$2</f>
@@ -8572,11 +8697,11 @@
       </c>
       <c r="AG26" s="3" t="str">
         <f>$AC26&amp;$AC$1&amp;E26&amp;$AC$1&amp;fatalities!E26&amp;$AC$1&amp;E$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;E$2</f>
-        <v>19/3/2020,19,3,2020,282,2,BE,nn,nnn,1034977</v>
+        <v>19/3/2020,19,3,2020,282,1,BE,nn,nnn,1034977</v>
       </c>
       <c r="AH26" s="3" t="str">
         <f>$AC26&amp;$AC$1&amp;F26&amp;$AC$1&amp;fatalities!F26&amp;$AC$1&amp;F$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;F$2</f>
-        <v>19/3/2020,19,3,2020,134,3,BL,nn,nnn,288132</v>
+        <v>19/3/2020,19,3,2020,134,2,BL,nn,nnn,288132</v>
       </c>
       <c r="AI26" s="3" t="str">
         <f>$AC26&amp;$AC$1&amp;G26&amp;$AC$1&amp;fatalities!G26&amp;$AC$1&amp;G$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;G$2</f>
@@ -8588,7 +8713,7 @@
       </c>
       <c r="AK26" s="3" t="str">
         <f>$AC26&amp;$AC$1&amp;I26&amp;$AC$1&amp;fatalities!I26&amp;$AC$1&amp;I$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;I$2</f>
-        <v>19/3/2020,19,3,2020,961,8,GE,nn,nnn,499480</v>
+        <v>19/3/2020,19,3,2020,961,6,GE,nn,nnn,499480</v>
       </c>
       <c r="AL26" s="3" t="str">
         <f>$AC26&amp;$AC$1&amp;J26&amp;$AC$1&amp;fatalities!J26&amp;$AC$1&amp;J$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;J$2</f>
@@ -8596,7 +8721,7 @@
       </c>
       <c r="AM26" s="3" t="str">
         <f>$AC26&amp;$AC$1&amp;K26&amp;$AC$1&amp;fatalities!K26&amp;$AC$1&amp;K$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;K$2</f>
-        <v>19/3/2020,19,3,2020,145,3,GR,nn,nnn,198379</v>
+        <v>19/3/2020,19,3,2020,145,1,GR,nn,nnn,198379</v>
       </c>
       <c r="AN26" s="3" t="str">
         <f>$AC26&amp;$AC$1&amp;L26&amp;$AC$1&amp;fatalities!L26&amp;$AC$1&amp;L$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;L$2</f>
@@ -8608,7 +8733,7 @@
       </c>
       <c r="AP26" s="3" t="str">
         <f>$AC26&amp;$AC$1&amp;N26&amp;$AC$1&amp;fatalities!N26&amp;$AC$1&amp;N$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;N$2</f>
-        <v>19/3/2020,19,3,2020,,2,NE,nn,nnn,176850</v>
+        <v>19/3/2020,19,3,2020,,,NE,nn,nnn,176850</v>
       </c>
       <c r="AQ26" s="3" t="str">
         <f>$AC26&amp;$AC$1&amp;O26&amp;$AC$1&amp;fatalities!O26&amp;$AC$1&amp;O$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;O$2</f>
@@ -8640,7 +8765,7 @@
       </c>
       <c r="AX26" s="3" t="str">
         <f>$AC26&amp;$AC$1&amp;V26&amp;$AC$1&amp;fatalities!V26&amp;$AC$1&amp;V$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;V$2</f>
-        <v>19/3/2020,19,3,2020,638,22,TI,nn,nnn,353343</v>
+        <v>19/3/2020,19,3,2020,638,15,TI,nn,nnn,353343</v>
       </c>
       <c r="AY26" s="3" t="str">
         <f>$AC26&amp;$AC$1&amp;W26&amp;$AC$1&amp;fatalities!W26&amp;$AC$1&amp;W$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;W$2</f>
@@ -8648,11 +8773,11 @@
       </c>
       <c r="AZ26" s="3" t="str">
         <f>$AC26&amp;$AC$1&amp;X26&amp;$AC$1&amp;fatalities!X26&amp;$AC$1&amp;X$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;X$2</f>
-        <v>19/3/2020,19,3,2020,1212,12,VD,nn,nnn,799145</v>
+        <v>19/3/2020,19,3,2020,1212,7,VD,nn,nnn,799145</v>
       </c>
       <c r="BA26" s="3" t="str">
         <f>$AC26&amp;$AC$1&amp;Y26&amp;$AC$1&amp;fatalities!Y26&amp;$AC$1&amp;Y$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Y$2</f>
-        <v>19/3/2020,19,3,2020,311,6,VS,nn,nnn,343955</v>
+        <v>19/3/2020,19,3,2020,311,4,VS,nn,nnn,343955</v>
       </c>
       <c r="BB26" s="3" t="str">
         <f>$AC26&amp;$AC$1&amp;Z26&amp;$AC$1&amp;fatalities!Z26&amp;$AC$1&amp;Z$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Z$2</f>
@@ -8664,7 +8789,7 @@
       </c>
       <c r="BD26" s="3" t="str">
         <f>$AC26&amp;$AC$1&amp;AB26&amp;$AC$1&amp;fatalities!AB26&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2</f>
-        <v>19/3/2020,19,3,2020,5024,67,CH,nn,nnn,8543707</v>
+        <v>19/3/2020,19,3,2020,5024,44,CH,nn,nnn,8543707</v>
       </c>
     </row>
     <row r="27" spans="1:56" x14ac:dyDescent="0.2">
@@ -8721,7 +8846,7 @@
       <c r="U27" s="14">
         <v>49</v>
       </c>
-      <c r="V27" s="14">
+      <c r="V27" s="43">
         <v>834</v>
       </c>
       <c r="W27" s="14">
@@ -8748,7 +8873,7 @@
       </c>
       <c r="AD27" s="3" t="str">
         <f>$AC27&amp;$AC$1&amp;B27&amp;$AC$1&amp;fatalities!B27&amp;$AC$1&amp;B$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;B$2</f>
-        <v>20/3/2020,20,3,2020,168,,AG,nn,nnn,677387</v>
+        <v>20/3/2020,20,3,2020,168,1,AG,nn,nnn,677387</v>
       </c>
       <c r="AE27" s="3" t="str">
         <f>$AC27&amp;$AC$1&amp;C27&amp;$AC$1&amp;fatalities!C27&amp;$AC$1&amp;C$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;C$2</f>
@@ -8756,11 +8881,11 @@
       </c>
       <c r="AF27" s="3" t="str">
         <f>$AC27&amp;$AC$1&amp;D27&amp;$AC$1&amp;fatalities!D27&amp;$AC$1&amp;D$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;D$2</f>
-        <v>20/3/2020,20,3,2020,,1,AR,nn,nnn,55234</v>
+        <v>20/3/2020,20,3,2020,,,AR,nn,nnn,55234</v>
       </c>
       <c r="AG27" s="3" t="str">
         <f>$AC27&amp;$AC$1&amp;E27&amp;$AC$1&amp;fatalities!E27&amp;$AC$1&amp;E$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;E$2</f>
-        <v>20/3/2020,20,3,2020,377,3,BE,nn,nnn,1034977</v>
+        <v>20/3/2020,20,3,2020,377,2,BE,nn,nnn,1034977</v>
       </c>
       <c r="AH27" s="3" t="str">
         <f>$AC27&amp;$AC$1&amp;F27&amp;$AC$1&amp;fatalities!F27&amp;$AC$1&amp;F$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;F$2</f>
@@ -8768,15 +8893,15 @@
       </c>
       <c r="AI27" s="3" t="str">
         <f>$AC27&amp;$AC$1&amp;G27&amp;$AC$1&amp;fatalities!G27&amp;$AC$1&amp;G$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;G$2</f>
-        <v>20/3/2020,20,3,2020,272,5,BS,nn,nnn,194766</v>
+        <v>20/3/2020,20,3,2020,272,4,BS,nn,nnn,194766</v>
       </c>
       <c r="AJ27" s="3" t="str">
         <f>$AC27&amp;$AC$1&amp;H27&amp;$AC$1&amp;fatalities!H27&amp;$AC$1&amp;H$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;H$2</f>
-        <v>20/3/2020,20,3,2020,145,2,FR,nn,nnn,318714</v>
+        <v>20/3/2020,20,3,2020,145,1,FR,nn,nnn,318714</v>
       </c>
       <c r="AK27" s="3" t="str">
         <f>$AC27&amp;$AC$1&amp;I27&amp;$AC$1&amp;fatalities!I27&amp;$AC$1&amp;I$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;I$2</f>
-        <v>20/3/2020,20,3,2020,1136,9,GE,nn,nnn,499480</v>
+        <v>20/3/2020,20,3,2020,1136,8,GE,nn,nnn,499480</v>
       </c>
       <c r="AL27" s="3" t="str">
         <f>$AC27&amp;$AC$1&amp;J27&amp;$AC$1&amp;fatalities!J27&amp;$AC$1&amp;J$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;J$2</f>
@@ -8792,7 +8917,7 @@
       </c>
       <c r="AO27" s="3" t="str">
         <f>$AC27&amp;$AC$1&amp;M27&amp;$AC$1&amp;fatalities!M27&amp;$AC$1&amp;M$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;M$2</f>
-        <v>20/3/2020,20,3,2020,92,1,LU,nn,nnn,409557</v>
+        <v>20/3/2020,20,3,2020,92,,LU,nn,nnn,409557</v>
       </c>
       <c r="AP27" s="3" t="str">
         <f>$AC27&amp;$AC$1&amp;N27&amp;$AC$1&amp;fatalities!N27&amp;$AC$1&amp;N$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;N$2</f>
@@ -8828,7 +8953,7 @@
       </c>
       <c r="AX27" s="3" t="str">
         <f>$AC27&amp;$AC$1&amp;V27&amp;$AC$1&amp;fatalities!V27&amp;$AC$1&amp;V$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;V$2</f>
-        <v>20/3/2020,20,3,2020,834,28,TI,nn,nnn,353343</v>
+        <v>20/3/2020,20,3,2020,834,22,TI,nn,nnn,353343</v>
       </c>
       <c r="AY27" s="3" t="str">
         <f>$AC27&amp;$AC$1&amp;W27&amp;$AC$1&amp;fatalities!W27&amp;$AC$1&amp;W$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;W$2</f>
@@ -8836,11 +8961,11 @@
       </c>
       <c r="AZ27" s="3" t="str">
         <f>$AC27&amp;$AC$1&amp;X27&amp;$AC$1&amp;fatalities!X27&amp;$AC$1&amp;X$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;X$2</f>
-        <v>20/3/2020,20,3,2020,1432,15,VD,nn,nnn,799145</v>
+        <v>20/3/2020,20,3,2020,1432,12,VD,nn,nnn,799145</v>
       </c>
       <c r="BA27" s="3" t="str">
         <f>$AC27&amp;$AC$1&amp;Y27&amp;$AC$1&amp;fatalities!Y27&amp;$AC$1&amp;Y$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Y$2</f>
-        <v>20/3/2020,20,3,2020,346,7,VS,nn,nnn,343955</v>
+        <v>20/3/2020,20,3,2020,346,6,VS,nn,nnn,343955</v>
       </c>
       <c r="BB27" s="3" t="str">
         <f>$AC27&amp;$AC$1&amp;Z27&amp;$AC$1&amp;fatalities!Z27&amp;$AC$1&amp;Z$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Z$2</f>
@@ -8848,11 +8973,11 @@
       </c>
       <c r="BC27" s="3" t="str">
         <f>$AC27&amp;$AC$1&amp;AA27&amp;$AC$1&amp;fatalities!AA27&amp;$AC$1&amp;AA$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AA$2</f>
-        <v>20/3/2020,20,3,2020,773,,ZH,nn,nnn,1520968</v>
+        <v>20/3/2020,20,3,2020,773,3,ZH,nn,nnn,1520968</v>
       </c>
       <c r="BD27" s="3" t="str">
         <f>$AC27&amp;$AC$1&amp;AB27&amp;$AC$1&amp;fatalities!AB27&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2</f>
-        <v>20/3/2020,20,3,2020,6526,83,CH,nn,nnn,8543707</v>
+        <v>20/3/2020,20,3,2020,6526,67,CH,nn,nnn,8543707</v>
       </c>
     </row>
     <row r="28" spans="1:56" x14ac:dyDescent="0.2">
@@ -8901,7 +9026,7 @@
       <c r="U28" s="14">
         <v>56</v>
       </c>
-      <c r="V28" s="14">
+      <c r="V28" s="43">
         <v>918</v>
       </c>
       <c r="W28" s="14">
@@ -8924,7 +9049,7 @@
       </c>
       <c r="AD28" s="3" t="str">
         <f>$AC28&amp;$AC$1&amp;B28&amp;$AC$1&amp;fatalities!B28&amp;$AC$1&amp;B$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;B$2</f>
-        <v>21/3/2020,21,3,2020,,1,AG,nn,nnn,677387</v>
+        <v>21/3/2020,21,3,2020,,,AG,nn,nnn,677387</v>
       </c>
       <c r="AE28" s="3" t="str">
         <f>$AC28&amp;$AC$1&amp;C28&amp;$AC$1&amp;fatalities!C28&amp;$AC$1&amp;C$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;C$2</f>
@@ -8932,11 +9057,11 @@
       </c>
       <c r="AF28" s="3" t="str">
         <f>$AC28&amp;$AC$1&amp;D28&amp;$AC$1&amp;fatalities!D28&amp;$AC$1&amp;D$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;D$2</f>
-        <v>21/3/2020,21,3,2020,,,AR,nn,nnn,55234</v>
+        <v>21/3/2020,21,3,2020,,1,AR,nn,nnn,55234</v>
       </c>
       <c r="AG28" s="3" t="str">
         <f>$AC28&amp;$AC$1&amp;E28&amp;$AC$1&amp;fatalities!E28&amp;$AC$1&amp;E$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;E$2</f>
-        <v>21/3/2020,21,3,2020,418,,BE,nn,nnn,1034977</v>
+        <v>21/3/2020,21,3,2020,418,3,BE,nn,nnn,1034977</v>
       </c>
       <c r="AH28" s="3" t="str">
         <f>$AC28&amp;$AC$1&amp;F28&amp;$AC$1&amp;fatalities!F28&amp;$AC$1&amp;F$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;F$2</f>
@@ -8948,11 +9073,11 @@
       </c>
       <c r="AJ28" s="3" t="str">
         <f>$AC28&amp;$AC$1&amp;H28&amp;$AC$1&amp;fatalities!H28&amp;$AC$1&amp;H$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;H$2</f>
-        <v>21/3/2020,21,3,2020,167,3,FR,nn,nnn,318714</v>
+        <v>21/3/2020,21,3,2020,167,2,FR,nn,nnn,318714</v>
       </c>
       <c r="AK28" s="3" t="str">
         <f>$AC28&amp;$AC$1&amp;I28&amp;$AC$1&amp;fatalities!I28&amp;$AC$1&amp;I$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;I$2</f>
-        <v>21/3/2020,21,3,2020,1262,10,GE,nn,nnn,499480</v>
+        <v>21/3/2020,21,3,2020,1262,9,GE,nn,nnn,499480</v>
       </c>
       <c r="AL28" s="3" t="str">
         <f>$AC28&amp;$AC$1&amp;J28&amp;$AC$1&amp;fatalities!J28&amp;$AC$1&amp;J$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;J$2</f>
@@ -8960,7 +9085,7 @@
       </c>
       <c r="AM28" s="3" t="str">
         <f>$AC28&amp;$AC$1&amp;K28&amp;$AC$1&amp;fatalities!K28&amp;$AC$1&amp;K$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;K$2</f>
-        <v>21/3/2020,21,3,2020,239,6,GR,nn,nnn,198379</v>
+        <v>21/3/2020,21,3,2020,239,3,GR,nn,nnn,198379</v>
       </c>
       <c r="AN28" s="3" t="str">
         <f>$AC28&amp;$AC$1&amp;L28&amp;$AC$1&amp;fatalities!L28&amp;$AC$1&amp;L$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;L$2</f>
@@ -9004,7 +9129,7 @@
       </c>
       <c r="AX28" s="3" t="str">
         <f>$AC28&amp;$AC$1&amp;V28&amp;$AC$1&amp;fatalities!V28&amp;$AC$1&amp;V$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;V$2</f>
-        <v>21/3/2020,21,3,2020,918,37,TI,nn,nnn,353343</v>
+        <v>21/3/2020,21,3,2020,918,28,TI,nn,nnn,353343</v>
       </c>
       <c r="AY28" s="3" t="str">
         <f>$AC28&amp;$AC$1&amp;W28&amp;$AC$1&amp;fatalities!W28&amp;$AC$1&amp;W$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;W$2</f>
@@ -9012,11 +9137,11 @@
       </c>
       <c r="AZ28" s="3" t="str">
         <f>$AC28&amp;$AC$1&amp;X28&amp;$AC$1&amp;fatalities!X28&amp;$AC$1&amp;X$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;X$2</f>
-        <v>21/3/2020,21,3,2020,1676,16,VD,nn,nnn,799145</v>
+        <v>21/3/2020,21,3,2020,1676,15,VD,nn,nnn,799145</v>
       </c>
       <c r="BA28" s="3" t="str">
         <f>$AC28&amp;$AC$1&amp;Y28&amp;$AC$1&amp;fatalities!Y28&amp;$AC$1&amp;Y$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Y$2</f>
-        <v>21/3/2020,21,3,2020,433,10,VS,nn,nnn,343955</v>
+        <v>21/3/2020,21,3,2020,433,7,VS,nn,nnn,343955</v>
       </c>
       <c r="BB28" s="3" t="str">
         <f>$AC28&amp;$AC$1&amp;Z28&amp;$AC$1&amp;fatalities!Z28&amp;$AC$1&amp;Z$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Z$2</f>
@@ -9028,7 +9153,7 @@
       </c>
       <c r="BD28" s="3" t="str">
         <f>$AC28&amp;$AC$1&amp;AB28&amp;$AC$1&amp;fatalities!AB28&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2</f>
-        <v>21/3/2020,21,3,2020,7345,101,CH,nn,nnn,8543707</v>
+        <v>21/3/2020,21,3,2020,7345,83,CH,nn,nnn,8543707</v>
       </c>
     </row>
     <row r="29" spans="1:56" x14ac:dyDescent="0.2">
@@ -9079,7 +9204,7 @@
       <c r="U29" s="14">
         <v>75</v>
       </c>
-      <c r="V29" s="14">
+      <c r="V29" s="43">
         <v>939</v>
       </c>
       <c r="W29" s="14"/>
@@ -9108,11 +9233,11 @@
       </c>
       <c r="AF29" s="3" t="str">
         <f>$AC29&amp;$AC$1&amp;D29&amp;$AC$1&amp;fatalities!D29&amp;$AC$1&amp;D$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;D$2</f>
-        <v>22/3/2020,22,3,2020,,1,AR,nn,nnn,55234</v>
+        <v>22/3/2020,22,3,2020,,,AR,nn,nnn,55234</v>
       </c>
       <c r="AG29" s="3" t="str">
         <f>$AC29&amp;$AC$1&amp;E29&amp;$AC$1&amp;fatalities!E29&amp;$AC$1&amp;E$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;E$2</f>
-        <v>22/3/2020,22,3,2020,,5,BE,nn,nnn,1034977</v>
+        <v>22/3/2020,22,3,2020,,,BE,nn,nnn,1034977</v>
       </c>
       <c r="AH29" s="3" t="str">
         <f>$AC29&amp;$AC$1&amp;F29&amp;$AC$1&amp;fatalities!F29&amp;$AC$1&amp;F$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;F$2</f>
@@ -9124,7 +9249,7 @@
       </c>
       <c r="AJ29" s="3" t="str">
         <f>$AC29&amp;$AC$1&amp;H29&amp;$AC$1&amp;fatalities!H29&amp;$AC$1&amp;H$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;H$2</f>
-        <v>22/3/2020,22,3,2020,202,4,FR,nn,nnn,318714</v>
+        <v>22/3/2020,22,3,2020,202,3,FR,nn,nnn,318714</v>
       </c>
       <c r="AK29" s="3" t="str">
         <f>$AC29&amp;$AC$1&amp;I29&amp;$AC$1&amp;fatalities!I29&amp;$AC$1&amp;I$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;I$2</f>
@@ -9136,7 +9261,7 @@
       </c>
       <c r="AM29" s="3" t="str">
         <f>$AC29&amp;$AC$1&amp;K29&amp;$AC$1&amp;fatalities!K29&amp;$AC$1&amp;K$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;K$2</f>
-        <v>22/3/2020,22,3,2020,266,,GR,nn,nnn,198379</v>
+        <v>22/3/2020,22,3,2020,266,6,GR,nn,nnn,198379</v>
       </c>
       <c r="AN29" s="3" t="str">
         <f>$AC29&amp;$AC$1&amp;L29&amp;$AC$1&amp;fatalities!L29&amp;$AC$1&amp;L$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;L$2</f>
@@ -9160,7 +9285,7 @@
       </c>
       <c r="AS29" s="3" t="str">
         <f>$AC29&amp;$AC$1&amp;Q29&amp;$AC$1&amp;fatalities!Q29&amp;$AC$1&amp;Q$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Q$2</f>
-        <v>22/3/2020,22,3,2020,,1,SG,nn,nnn,507697</v>
+        <v>22/3/2020,22,3,2020,,,SG,nn,nnn,507697</v>
       </c>
       <c r="AT29" s="3" t="str">
         <f>$AC29&amp;$AC$1&amp;R29&amp;$AC$1&amp;fatalities!R29&amp;$AC$1&amp;R$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;R$2</f>
@@ -9168,7 +9293,7 @@
       </c>
       <c r="AU29" s="3" t="str">
         <f>$AC29&amp;$AC$1&amp;S29&amp;$AC$1&amp;fatalities!S29&amp;$AC$1&amp;S$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;S$2</f>
-        <v>22/3/2020,22,3,2020,,1,SO,nn,nnn,273194</v>
+        <v>22/3/2020,22,3,2020,,,SO,nn,nnn,273194</v>
       </c>
       <c r="AV29" s="3" t="str">
         <f>$AC29&amp;$AC$1&amp;T29&amp;$AC$1&amp;fatalities!T29&amp;$AC$1&amp;T$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;T$2</f>
@@ -9180,7 +9305,7 @@
       </c>
       <c r="AX29" s="3" t="str">
         <f>$AC29&amp;$AC$1&amp;V29&amp;$AC$1&amp;fatalities!V29&amp;$AC$1&amp;V$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;V$2</f>
-        <v>22/3/2020,22,3,2020,939,48,TI,nn,nnn,353343</v>
+        <v>22/3/2020,22,3,2020,939,37,TI,nn,nnn,353343</v>
       </c>
       <c r="AY29" s="3" t="str">
         <f>$AC29&amp;$AC$1&amp;W29&amp;$AC$1&amp;fatalities!W29&amp;$AC$1&amp;W$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;W$2</f>
@@ -9188,11 +9313,11 @@
       </c>
       <c r="AZ29" s="3" t="str">
         <f>$AC29&amp;$AC$1&amp;X29&amp;$AC$1&amp;fatalities!X29&amp;$AC$1&amp;X$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;X$2</f>
-        <v>22/3/2020,22,3,2020,1782,25,VD,nn,nnn,799145</v>
+        <v>22/3/2020,22,3,2020,1782,16,VD,nn,nnn,799145</v>
       </c>
       <c r="BA29" s="3" t="str">
         <f>$AC29&amp;$AC$1&amp;Y29&amp;$AC$1&amp;fatalities!Y29&amp;$AC$1&amp;Y$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Y$2</f>
-        <v>22/3/2020,22,3,2020,490,12,VS,nn,nnn,343955</v>
+        <v>22/3/2020,22,3,2020,490,10,VS,nn,nnn,343955</v>
       </c>
       <c r="BB29" s="3" t="str">
         <f>$AC29&amp;$AC$1&amp;Z29&amp;$AC$1&amp;fatalities!Z29&amp;$AC$1&amp;Z$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Z$2</f>
@@ -9200,11 +9325,11 @@
       </c>
       <c r="BC29" s="3" t="str">
         <f>$AC29&amp;$AC$1&amp;AA29&amp;$AC$1&amp;fatalities!AA29&amp;$AC$1&amp;AA$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AA$2</f>
-        <v>22/3/2020,22,3,2020,,5,ZH,nn,nnn,1520968</v>
+        <v>22/3/2020,22,3,2020,,,ZH,nn,nnn,1520968</v>
       </c>
       <c r="BD29" s="3" t="str">
         <f>$AC29&amp;$AC$1&amp;AB29&amp;$AC$1&amp;fatalities!AB29&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2</f>
-        <v>22/3/2020,22,3,2020,7947,130,CH,nn,nnn,8543707</v>
+        <v>22/3/2020,22,3,2020,7947,101,CH,nn,nnn,8543707</v>
       </c>
     </row>
     <row r="30" spans="1:56" x14ac:dyDescent="0.2">
@@ -9263,7 +9388,7 @@
       <c r="U30" s="14">
         <v>81</v>
       </c>
-      <c r="V30" s="14">
+      <c r="V30" s="43">
         <v>1165</v>
       </c>
       <c r="W30" s="14">
@@ -9290,7 +9415,7 @@
       </c>
       <c r="AD30" s="3" t="str">
         <f>$AC30&amp;$AC$1&amp;B30&amp;$AC$1&amp;fatalities!B30&amp;$AC$1&amp;B$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;B$2</f>
-        <v>23/3/2020,23,3,2020,241,2,AG,nn,nnn,677387</v>
+        <v>23/3/2020,23,3,2020,241,1,AG,nn,nnn,677387</v>
       </c>
       <c r="AE30" s="3" t="str">
         <f>$AC30&amp;$AC$1&amp;C30&amp;$AC$1&amp;fatalities!C30&amp;$AC$1&amp;C$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;C$2</f>
@@ -9298,15 +9423,15 @@
       </c>
       <c r="AF30" s="3" t="str">
         <f>$AC30&amp;$AC$1&amp;D30&amp;$AC$1&amp;fatalities!D30&amp;$AC$1&amp;D$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;D$2</f>
-        <v>23/3/2020,23,3,2020,30,2,AR,nn,nnn,55234</v>
+        <v>23/3/2020,23,3,2020,30,1,AR,nn,nnn,55234</v>
       </c>
       <c r="AG30" s="3" t="str">
         <f>$AC30&amp;$AC$1&amp;E30&amp;$AC$1&amp;fatalities!E30&amp;$AC$1&amp;E$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;E$2</f>
-        <v>23/3/2020,23,3,2020,470,6,BE,nn,nnn,1034977</v>
+        <v>23/3/2020,23,3,2020,470,5,BE,nn,nnn,1034977</v>
       </c>
       <c r="AH30" s="3" t="str">
         <f>$AC30&amp;$AC$1&amp;F30&amp;$AC$1&amp;fatalities!F30&amp;$AC$1&amp;F$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;F$2</f>
-        <v>23/3/2020,23,3,2020,302,4,BL,nn,nnn,288132</v>
+        <v>23/3/2020,23,3,2020,302,3,BL,nn,nnn,288132</v>
       </c>
       <c r="AI30" s="3" t="str">
         <f>$AC30&amp;$AC$1&amp;G30&amp;$AC$1&amp;fatalities!G30&amp;$AC$1&amp;G$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;G$2</f>
@@ -9314,11 +9439,11 @@
       </c>
       <c r="AJ30" s="3" t="str">
         <f>$AC30&amp;$AC$1&amp;H30&amp;$AC$1&amp;fatalities!H30&amp;$AC$1&amp;H$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;H$2</f>
-        <v>23/3/2020,23,3,2020,226,5,FR,nn,nnn,318714</v>
+        <v>23/3/2020,23,3,2020,226,4,FR,nn,nnn,318714</v>
       </c>
       <c r="AK30" s="3" t="str">
         <f>$AC30&amp;$AC$1&amp;I30&amp;$AC$1&amp;fatalities!I30&amp;$AC$1&amp;I$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;I$2</f>
-        <v>23/3/2020,23,3,2020,1509,13,GE,nn,nnn,499480</v>
+        <v>23/3/2020,23,3,2020,1509,10,GE,nn,nnn,499480</v>
       </c>
       <c r="AL30" s="3" t="str">
         <f>$AC30&amp;$AC$1&amp;J30&amp;$AC$1&amp;fatalities!J30&amp;$AC$1&amp;J$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;J$2</f>
@@ -9326,7 +9451,7 @@
       </c>
       <c r="AM30" s="3" t="str">
         <f>$AC30&amp;$AC$1&amp;K30&amp;$AC$1&amp;fatalities!K30&amp;$AC$1&amp;K$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;K$2</f>
-        <v>23/3/2020,23,3,2020,,6,GR,nn,nnn,198379</v>
+        <v>23/3/2020,23,3,2020,,,GR,nn,nnn,198379</v>
       </c>
       <c r="AN30" s="3" t="str">
         <f>$AC30&amp;$AC$1&amp;L30&amp;$AC$1&amp;fatalities!L30&amp;$AC$1&amp;L$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;L$2</f>
@@ -9334,7 +9459,7 @@
       </c>
       <c r="AO30" s="3" t="str">
         <f>$AC30&amp;$AC$1&amp;M30&amp;$AC$1&amp;fatalities!M30&amp;$AC$1&amp;M$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;M$2</f>
-        <v>23/3/2020,23,3,2020,156,2,LU,nn,nnn,409557</v>
+        <v>23/3/2020,23,3,2020,156,1,LU,nn,nnn,409557</v>
       </c>
       <c r="AP30" s="3" t="str">
         <f>$AC30&amp;$AC$1&amp;N30&amp;$AC$1&amp;fatalities!N30&amp;$AC$1&amp;N$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;N$2</f>
@@ -9350,7 +9475,7 @@
       </c>
       <c r="AS30" s="3" t="str">
         <f>$AC30&amp;$AC$1&amp;Q30&amp;$AC$1&amp;fatalities!Q30&amp;$AC$1&amp;Q$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Q$2</f>
-        <v>23/3/2020,23,3,2020,228,,SG,nn,nnn,507697</v>
+        <v>23/3/2020,23,3,2020,228,1,SG,nn,nnn,507697</v>
       </c>
       <c r="AT30" s="3" t="str">
         <f>$AC30&amp;$AC$1&amp;R30&amp;$AC$1&amp;fatalities!R30&amp;$AC$1&amp;R$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;R$2</f>
@@ -9366,11 +9491,11 @@
       </c>
       <c r="AW30" s="3" t="str">
         <f>$AC30&amp;$AC$1&amp;U30&amp;$AC$1&amp;fatalities!U30&amp;$AC$1&amp;U$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;U$2</f>
-        <v>23/3/2020,23,3,2020,81,1,TG,nn,nnn,276472</v>
+        <v>23/3/2020,23,3,2020,81,,TG,nn,nnn,276472</v>
       </c>
       <c r="AX30" s="3" t="str">
         <f>$AC30&amp;$AC$1&amp;V30&amp;$AC$1&amp;fatalities!V30&amp;$AC$1&amp;V$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;V$2</f>
-        <v>23/3/2020,23,3,2020,1165,53,TI,nn,nnn,353343</v>
+        <v>23/3/2020,23,3,2020,1165,48,TI,nn,nnn,353343</v>
       </c>
       <c r="AY30" s="3" t="str">
         <f>$AC30&amp;$AC$1&amp;W30&amp;$AC$1&amp;fatalities!W30&amp;$AC$1&amp;W$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;W$2</f>
@@ -9378,11 +9503,11 @@
       </c>
       <c r="AZ30" s="3" t="str">
         <f>$AC30&amp;$AC$1&amp;X30&amp;$AC$1&amp;fatalities!X30&amp;$AC$1&amp;X$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;X$2</f>
-        <v>23/3/2020,23,3,2020,1822,29,VD,nn,nnn,799145</v>
+        <v>23/3/2020,23,3,2020,1822,25,VD,nn,nnn,799145</v>
       </c>
       <c r="BA30" s="3" t="str">
         <f>$AC30&amp;$AC$1&amp;Y30&amp;$AC$1&amp;fatalities!Y30&amp;$AC$1&amp;Y$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Y$2</f>
-        <v>23/3/2020,23,3,2020,527,13,VS,nn,nnn,343955</v>
+        <v>23/3/2020,23,3,2020,527,12,VS,nn,nnn,343955</v>
       </c>
       <c r="BB30" s="3" t="str">
         <f>$AC30&amp;$AC$1&amp;Z30&amp;$AC$1&amp;fatalities!Z30&amp;$AC$1&amp;Z$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Z$2</f>
@@ -9394,7 +9519,7 @@
       </c>
       <c r="BD30" s="3" t="str">
         <f>$AC30&amp;$AC$1&amp;AB30&amp;$AC$1&amp;fatalities!AB30&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2</f>
-        <v>23/3/2020,23,3,2020,9051,150,CH,nn,nnn,8543707</v>
+        <v>23/3/2020,23,3,2020,9051,130,CH,nn,nnn,8543707</v>
       </c>
     </row>
     <row r="31" spans="1:56" x14ac:dyDescent="0.2">
@@ -9457,7 +9582,7 @@
       <c r="U31" s="14">
         <v>87</v>
       </c>
-      <c r="V31" s="14">
+      <c r="V31" s="43">
         <v>1211</v>
       </c>
       <c r="W31" s="14">
@@ -9500,19 +9625,19 @@
       </c>
       <c r="AH31" s="3" t="str">
         <f>$AC31&amp;$AC$1&amp;F31&amp;$AC$1&amp;fatalities!F31&amp;$AC$1&amp;F$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;F$2</f>
-        <v>24/3/2020,24,3,2020,306,5,BL,nn,nnn,288132</v>
+        <v>24/3/2020,24,3,2020,306,4,BL,nn,nnn,288132</v>
       </c>
       <c r="AI31" s="3" t="str">
         <f>$AC31&amp;$AC$1&amp;G31&amp;$AC$1&amp;fatalities!G31&amp;$AC$1&amp;G$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;G$2</f>
-        <v>24/3/2020,24,3,2020,414,8,BS,nn,nnn,194766</v>
+        <v>24/3/2020,24,3,2020,414,5,BS,nn,nnn,194766</v>
       </c>
       <c r="AJ31" s="3" t="str">
         <f>$AC31&amp;$AC$1&amp;H31&amp;$AC$1&amp;fatalities!H31&amp;$AC$1&amp;H$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;H$2</f>
-        <v>24/3/2020,24,3,2020,255,6,FR,nn,nnn,318714</v>
+        <v>24/3/2020,24,3,2020,255,5,FR,nn,nnn,318714</v>
       </c>
       <c r="AK31" s="3" t="str">
         <f>$AC31&amp;$AC$1&amp;I31&amp;$AC$1&amp;fatalities!I31&amp;$AC$1&amp;I$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;I$2</f>
-        <v>24/3/2020,24,3,2020,1598,16,GE,nn,nnn,499480</v>
+        <v>24/3/2020,24,3,2020,1598,13,GE,nn,nnn,499480</v>
       </c>
       <c r="AL31" s="3" t="str">
         <f>$AC31&amp;$AC$1&amp;J31&amp;$AC$1&amp;fatalities!J31&amp;$AC$1&amp;J$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;J$2</f>
@@ -9544,7 +9669,7 @@
       </c>
       <c r="AS31" s="3" t="str">
         <f>$AC31&amp;$AC$1&amp;Q31&amp;$AC$1&amp;fatalities!Q31&amp;$AC$1&amp;Q$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Q$2</f>
-        <v>24/3/2020,24,3,2020,,1,SG,nn,nnn,507697</v>
+        <v>24/3/2020,24,3,2020,,,SG,nn,nnn,507697</v>
       </c>
       <c r="AT31" s="3" t="str">
         <f>$AC31&amp;$AC$1&amp;R31&amp;$AC$1&amp;fatalities!R31&amp;$AC$1&amp;R$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;R$2</f>
@@ -9564,7 +9689,7 @@
       </c>
       <c r="AX31" s="3" t="str">
         <f>$AC31&amp;$AC$1&amp;V31&amp;$AC$1&amp;fatalities!V31&amp;$AC$1&amp;V$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;V$2</f>
-        <v>24/3/2020,24,3,2020,1211,60,TI,nn,nnn,353343</v>
+        <v>24/3/2020,24,3,2020,1211,53,TI,nn,nnn,353343</v>
       </c>
       <c r="AY31" s="3" t="str">
         <f>$AC31&amp;$AC$1&amp;W31&amp;$AC$1&amp;fatalities!W31&amp;$AC$1&amp;W$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;W$2</f>
@@ -9572,11 +9697,11 @@
       </c>
       <c r="AZ31" s="3" t="str">
         <f>$AC31&amp;$AC$1&amp;X31&amp;$AC$1&amp;fatalities!X31&amp;$AC$1&amp;X$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;X$2</f>
-        <v>24/3/2020,24,3,2020,2162,36,VD,nn,nnn,799145</v>
+        <v>24/3/2020,24,3,2020,2162,29,VD,nn,nnn,799145</v>
       </c>
       <c r="BA31" s="3" t="str">
         <f>$AC31&amp;$AC$1&amp;Y31&amp;$AC$1&amp;fatalities!Y31&amp;$AC$1&amp;Y$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Y$2</f>
-        <v>24/3/2020,24,3,2020,606,14,VS,nn,nnn,343955</v>
+        <v>24/3/2020,24,3,2020,606,13,VS,nn,nnn,343955</v>
       </c>
       <c r="BB31" s="3" t="str">
         <f>$AC31&amp;$AC$1&amp;Z31&amp;$AC$1&amp;fatalities!Z31&amp;$AC$1&amp;Z$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Z$2</f>
@@ -9584,11 +9709,11 @@
       </c>
       <c r="BC31" s="3" t="str">
         <f>$AC31&amp;$AC$1&amp;AA31&amp;$AC$1&amp;fatalities!AA31&amp;$AC$1&amp;AA$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AA$2</f>
-        <v>24/3/2020,24,3,2020,1211,7,ZH,nn,nnn,1520968</v>
+        <v>24/3/2020,24,3,2020,1211,5,ZH,nn,nnn,1520968</v>
       </c>
       <c r="BD31" s="3" t="str">
         <f>$AC31&amp;$AC$1&amp;AB31&amp;$AC$1&amp;fatalities!AB31&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2</f>
-        <v>24/3/2020,24,3,2020,10040,175,CH,nn,nnn,8543707</v>
+        <v>24/3/2020,24,3,2020,10040,150,CH,nn,nnn,8543707</v>
       </c>
     </row>
     <row r="32" spans="1:56" x14ac:dyDescent="0.2">
@@ -9655,7 +9780,7 @@
       <c r="U32" s="14">
         <v>96</v>
       </c>
-      <c r="V32" s="14">
+      <c r="V32" s="43">
         <v>1354</v>
       </c>
       <c r="W32" s="14"/>
@@ -9692,7 +9817,7 @@
       </c>
       <c r="AG32" s="3" t="str">
         <f>$AC32&amp;$AC$1&amp;E32&amp;$AC$1&amp;fatalities!E32&amp;$AC$1&amp;E$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;E$2</f>
-        <v>25/3/2020,25,3,2020,624,7,BE,nn,nnn,1034977</v>
+        <v>25/3/2020,25,3,2020,624,6,BE,nn,nnn,1034977</v>
       </c>
       <c r="AH32" s="3" t="str">
         <f>$AC32&amp;$AC$1&amp;F32&amp;$AC$1&amp;fatalities!F32&amp;$AC$1&amp;F$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;F$2</f>
@@ -9700,15 +9825,15 @@
       </c>
       <c r="AI32" s="3" t="str">
         <f>$AC32&amp;$AC$1&amp;G32&amp;$AC$1&amp;fatalities!G32&amp;$AC$1&amp;G$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;G$2</f>
-        <v>25/3/2020,25,3,2020,466,12,BS,nn,nnn,194766</v>
+        <v>25/3/2020,25,3,2020,466,8,BS,nn,nnn,194766</v>
       </c>
       <c r="AJ32" s="3" t="str">
         <f>$AC32&amp;$AC$1&amp;H32&amp;$AC$1&amp;fatalities!H32&amp;$AC$1&amp;H$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;H$2</f>
-        <v>25/3/2020,25,3,2020,293,11,FR,nn,nnn,318714</v>
+        <v>25/3/2020,25,3,2020,293,6,FR,nn,nnn,318714</v>
       </c>
       <c r="AK32" s="3" t="str">
         <f>$AC32&amp;$AC$1&amp;I32&amp;$AC$1&amp;fatalities!I32&amp;$AC$1&amp;I$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;I$2</f>
-        <v>25/3/2020,25,3,2020,1708,22,GE,nn,nnn,499480</v>
+        <v>25/3/2020,25,3,2020,1708,16,GE,nn,nnn,499480</v>
       </c>
       <c r="AL32" s="3" t="str">
         <f>$AC32&amp;$AC$1&amp;J32&amp;$AC$1&amp;fatalities!J32&amp;$AC$1&amp;J$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;J$2</f>
@@ -9716,7 +9841,7 @@
       </c>
       <c r="AM32" s="3" t="str">
         <f>$AC32&amp;$AC$1&amp;K32&amp;$AC$1&amp;fatalities!K32&amp;$AC$1&amp;K$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;K$2</f>
-        <v>25/3/2020,25,3,2020,322,9,GR,nn,nnn,198379</v>
+        <v>25/3/2020,25,3,2020,322,6,GR,nn,nnn,198379</v>
       </c>
       <c r="AN32" s="3" t="str">
         <f>$AC32&amp;$AC$1&amp;L32&amp;$AC$1&amp;fatalities!L32&amp;$AC$1&amp;L$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;L$2</f>
@@ -9724,11 +9849,11 @@
       </c>
       <c r="AO32" s="3" t="str">
         <f>$AC32&amp;$AC$1&amp;M32&amp;$AC$1&amp;fatalities!M32&amp;$AC$1&amp;M$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;M$2</f>
-        <v>25/3/2020,25,3,2020,228,3,LU,nn,nnn,409557</v>
+        <v>25/3/2020,25,3,2020,228,2,LU,nn,nnn,409557</v>
       </c>
       <c r="AP32" s="3" t="str">
         <f>$AC32&amp;$AC$1&amp;N32&amp;$AC$1&amp;fatalities!N32&amp;$AC$1&amp;N$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;N$2</f>
-        <v>25/3/2020,25,3,2020,256,5,NE,nn,nnn,176850</v>
+        <v>25/3/2020,25,3,2020,256,2,NE,nn,nnn,176850</v>
       </c>
       <c r="AQ32" s="3" t="str">
         <f>$AC32&amp;$AC$1&amp;O32&amp;$AC$1&amp;fatalities!O32&amp;$AC$1&amp;O$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;O$2</f>
@@ -9740,7 +9865,7 @@
       </c>
       <c r="AS32" s="3" t="str">
         <f>$AC32&amp;$AC$1&amp;Q32&amp;$AC$1&amp;fatalities!Q32&amp;$AC$1&amp;Q$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Q$2</f>
-        <v>25/3/2020,25,3,2020,228,2,SG,nn,nnn,507697</v>
+        <v>25/3/2020,25,3,2020,228,1,SG,nn,nnn,507697</v>
       </c>
       <c r="AT32" s="3" t="str">
         <f>$AC32&amp;$AC$1&amp;R32&amp;$AC$1&amp;fatalities!R32&amp;$AC$1&amp;R$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;R$2</f>
@@ -9752,7 +9877,7 @@
       </c>
       <c r="AV32" s="3" t="str">
         <f>$AC32&amp;$AC$1&amp;T32&amp;$AC$1&amp;fatalities!T32&amp;$AC$1&amp;T$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;T$2</f>
-        <v>25/3/2020,25,3,2020,99,1,SZ,nn,nnn,159165</v>
+        <v>25/3/2020,25,3,2020,99,,SZ,nn,nnn,159165</v>
       </c>
       <c r="AW32" s="3" t="str">
         <f>$AC32&amp;$AC$1&amp;U32&amp;$AC$1&amp;fatalities!U32&amp;$AC$1&amp;U$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;U$2</f>
@@ -9760,7 +9885,7 @@
       </c>
       <c r="AX32" s="3" t="str">
         <f>$AC32&amp;$AC$1&amp;V32&amp;$AC$1&amp;fatalities!V32&amp;$AC$1&amp;V$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;V$2</f>
-        <v>25/3/2020,25,3,2020,1354,67,TI,nn,nnn,353343</v>
+        <v>25/3/2020,25,3,2020,1354,60,TI,nn,nnn,353343</v>
       </c>
       <c r="AY32" s="3" t="str">
         <f>$AC32&amp;$AC$1&amp;W32&amp;$AC$1&amp;fatalities!W32&amp;$AC$1&amp;W$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;W$2</f>
@@ -9768,11 +9893,11 @@
       </c>
       <c r="AZ32" s="3" t="str">
         <f>$AC32&amp;$AC$1&amp;X32&amp;$AC$1&amp;fatalities!X32&amp;$AC$1&amp;X$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;X$2</f>
-        <v>25/3/2020,25,3,2020,2215,47,VD,nn,nnn,799145</v>
+        <v>25/3/2020,25,3,2020,2215,36,VD,nn,nnn,799145</v>
       </c>
       <c r="BA32" s="3" t="str">
         <f>$AC32&amp;$AC$1&amp;Y32&amp;$AC$1&amp;fatalities!Y32&amp;$AC$1&amp;Y$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Y$2</f>
-        <v>25/3/2020,25,3,2020,651,15,VS,nn,nnn,343955</v>
+        <v>25/3/2020,25,3,2020,651,14,VS,nn,nnn,343955</v>
       </c>
       <c r="BB32" s="3" t="str">
         <f>$AC32&amp;$AC$1&amp;Z32&amp;$AC$1&amp;fatalities!Z32&amp;$AC$1&amp;Z$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Z$2</f>
@@ -9780,11 +9905,11 @@
       </c>
       <c r="BC32" s="3" t="str">
         <f>$AC32&amp;$AC$1&amp;AA32&amp;$AC$1&amp;fatalities!AA32&amp;$AC$1&amp;AA$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AA$2</f>
-        <v>25/3/2020,25,3,2020,1363,9,ZH,nn,nnn,1520968</v>
+        <v>25/3/2020,25,3,2020,1363,7,ZH,nn,nnn,1520968</v>
       </c>
       <c r="BD32" s="3" t="str">
         <f>$AC32&amp;$AC$1&amp;AB32&amp;$AC$1&amp;fatalities!AB32&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2</f>
-        <v>25/3/2020,25,3,2020,11063,221,CH,nn,nnn,8543707</v>
+        <v>25/3/2020,25,3,2020,11063,175,CH,nn,nnn,8543707</v>
       </c>
     </row>
     <row r="33" spans="1:56" x14ac:dyDescent="0.2">
@@ -9851,7 +9976,7 @@
       <c r="U33" s="14">
         <v>110</v>
       </c>
-      <c r="V33" s="14">
+      <c r="V33" s="43">
         <v>1401</v>
       </c>
       <c r="W33" s="14">
@@ -9878,7 +10003,7 @@
       </c>
       <c r="AD33" s="3" t="str">
         <f>$AC33&amp;$AC$1&amp;B33&amp;$AC$1&amp;fatalities!B33&amp;$AC$1&amp;B$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;B$2</f>
-        <v>26/3/2020,26,3,2020,349,3,AG,nn,nnn,677387</v>
+        <v>26/3/2020,26,3,2020,349,2,AG,nn,nnn,677387</v>
       </c>
       <c r="AE33" s="3" t="str">
         <f>$AC33&amp;$AC$1&amp;C33&amp;$AC$1&amp;fatalities!C33&amp;$AC$1&amp;C$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;C$2</f>
@@ -9890,7 +10015,7 @@
       </c>
       <c r="AG33" s="3" t="str">
         <f>$AC33&amp;$AC$1&amp;E33&amp;$AC$1&amp;fatalities!E33&amp;$AC$1&amp;E$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;E$2</f>
-        <v>26/3/2020,26,3,2020,660,8,BE,nn,nnn,1034977</v>
+        <v>26/3/2020,26,3,2020,660,7,BE,nn,nnn,1034977</v>
       </c>
       <c r="AH33" s="3" t="str">
         <f>$AC33&amp;$AC$1&amp;F33&amp;$AC$1&amp;fatalities!F33&amp;$AC$1&amp;F$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;F$2</f>
@@ -9898,15 +10023,15 @@
       </c>
       <c r="AI33" s="3" t="str">
         <f>$AC33&amp;$AC$1&amp;G33&amp;$AC$1&amp;fatalities!G33&amp;$AC$1&amp;G$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;G$2</f>
-        <v>26/3/2020,26,3,2020,505,13,BS,nn,nnn,194766</v>
+        <v>26/3/2020,26,3,2020,505,12,BS,nn,nnn,194766</v>
       </c>
       <c r="AJ33" s="3" t="str">
         <f>$AC33&amp;$AC$1&amp;H33&amp;$AC$1&amp;fatalities!H33&amp;$AC$1&amp;H$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;H$2</f>
-        <v>26/3/2020,26,3,2020,309,15,FR,nn,nnn,318714</v>
+        <v>26/3/2020,26,3,2020,309,11,FR,nn,nnn,318714</v>
       </c>
       <c r="AK33" s="3" t="str">
         <f>$AC33&amp;$AC$1&amp;I33&amp;$AC$1&amp;fatalities!I33&amp;$AC$1&amp;I$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;I$2</f>
-        <v>26/3/2020,26,3,2020,1902,23,GE,nn,nnn,499480</v>
+        <v>26/3/2020,26,3,2020,1902,22,GE,nn,nnn,499480</v>
       </c>
       <c r="AL33" s="3" t="str">
         <f>$AC33&amp;$AC$1&amp;J33&amp;$AC$1&amp;fatalities!J33&amp;$AC$1&amp;J$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;J$2</f>
@@ -9938,7 +10063,7 @@
       </c>
       <c r="AS33" s="3" t="str">
         <f>$AC33&amp;$AC$1&amp;Q33&amp;$AC$1&amp;fatalities!Q33&amp;$AC$1&amp;Q$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Q$2</f>
-        <v>26/3/2020,26,3,2020,306,,SG,nn,nnn,507697</v>
+        <v>26/3/2020,26,3,2020,306,2,SG,nn,nnn,507697</v>
       </c>
       <c r="AT33" s="3" t="str">
         <f>$AC33&amp;$AC$1&amp;R33&amp;$AC$1&amp;fatalities!R33&amp;$AC$1&amp;R$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;R$2</f>
@@ -9954,11 +10079,11 @@
       </c>
       <c r="AW33" s="3" t="str">
         <f>$AC33&amp;$AC$1&amp;U33&amp;$AC$1&amp;fatalities!U33&amp;$AC$1&amp;U$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;U$2</f>
-        <v>26/3/2020,26,3,2020,110,2,TG,nn,nnn,276472</v>
+        <v>26/3/2020,26,3,2020,110,1,TG,nn,nnn,276472</v>
       </c>
       <c r="AX33" s="3" t="str">
         <f>$AC33&amp;$AC$1&amp;V33&amp;$AC$1&amp;fatalities!V33&amp;$AC$1&amp;V$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;V$2</f>
-        <v>26/3/2020,26,3,2020,1401,76,TI,nn,nnn,353343</v>
+        <v>26/3/2020,26,3,2020,1401,67,TI,nn,nnn,353343</v>
       </c>
       <c r="AY33" s="3" t="str">
         <f>$AC33&amp;$AC$1&amp;W33&amp;$AC$1&amp;fatalities!W33&amp;$AC$1&amp;W$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;W$2</f>
@@ -9966,23 +10091,23 @@
       </c>
       <c r="AZ33" s="3" t="str">
         <f>$AC33&amp;$AC$1&amp;X33&amp;$AC$1&amp;fatalities!X33&amp;$AC$1&amp;X$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;X$2</f>
-        <v>26/3/2020,26,3,2020,2532,48,VD,nn,nnn,799145</v>
+        <v>26/3/2020,26,3,2020,2532,47,VD,nn,nnn,799145</v>
       </c>
       <c r="BA33" s="3" t="str">
         <f>$AC33&amp;$AC$1&amp;Y33&amp;$AC$1&amp;fatalities!Y33&amp;$AC$1&amp;Y$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Y$2</f>
-        <v>26/3/2020,26,3,2020,715,20,VS,nn,nnn,343955</v>
+        <v>26/3/2020,26,3,2020,715,15,VS,nn,nnn,343955</v>
       </c>
       <c r="BB33" s="3" t="str">
         <f>$AC33&amp;$AC$1&amp;Z33&amp;$AC$1&amp;fatalities!Z33&amp;$AC$1&amp;Z$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Z$2</f>
-        <v>26/3/2020,26,3,2020,87,1,ZG,nn,nnn,126837</v>
+        <v>26/3/2020,26,3,2020,87,,ZG,nn,nnn,126837</v>
       </c>
       <c r="BC33" s="3" t="str">
         <f>$AC33&amp;$AC$1&amp;AA33&amp;$AC$1&amp;fatalities!AA33&amp;$AC$1&amp;AA$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AA$2</f>
-        <v>26/3/2020,26,3,2020,1476,11,ZH,nn,nnn,1520968</v>
+        <v>26/3/2020,26,3,2020,1476,9,ZH,nn,nnn,1520968</v>
       </c>
       <c r="BD33" s="3" t="str">
         <f>$AC33&amp;$AC$1&amp;AB33&amp;$AC$1&amp;fatalities!AB33&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2</f>
-        <v>26/3/2020,26,3,2020,12257,248,CH,nn,nnn,8543707</v>
+        <v>26/3/2020,26,3,2020,12257,221,CH,nn,nnn,8543707</v>
       </c>
     </row>
     <row r="34" spans="1:56" x14ac:dyDescent="0.2">
@@ -10047,7 +10172,7 @@
       <c r="U34" s="14">
         <v>117</v>
       </c>
-      <c r="V34" s="14">
+      <c r="V34" s="43">
         <v>1688</v>
       </c>
       <c r="W34" s="14">
@@ -10074,7 +10199,7 @@
       </c>
       <c r="AD34" s="3" t="str">
         <f>$AC34&amp;$AC$1&amp;B34&amp;$AC$1&amp;fatalities!B34&amp;$AC$1&amp;B$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;B$2</f>
-        <v>27/3/2020,27,3,2020,364,,AG,nn,nnn,677387</v>
+        <v>27/3/2020,27,3,2020,364,3,AG,nn,nnn,677387</v>
       </c>
       <c r="AE34" s="3" t="str">
         <f>$AC34&amp;$AC$1&amp;C34&amp;$AC$1&amp;fatalities!C34&amp;$AC$1&amp;C$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;C$2</f>
@@ -10086,11 +10211,11 @@
       </c>
       <c r="AG34" s="3" t="str">
         <f>$AC34&amp;$AC$1&amp;E34&amp;$AC$1&amp;fatalities!E34&amp;$AC$1&amp;E$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;E$2</f>
-        <v>27/3/2020,27,3,2020,718,9,BE,nn,nnn,1034977</v>
+        <v>27/3/2020,27,3,2020,718,8,BE,nn,nnn,1034977</v>
       </c>
       <c r="AH34" s="3" t="str">
         <f>$AC34&amp;$AC$1&amp;F34&amp;$AC$1&amp;fatalities!F34&amp;$AC$1&amp;F$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;F$2</f>
-        <v>27/3/2020,27,3,2020,466,6,BL,nn,nnn,288132</v>
+        <v>27/3/2020,27,3,2020,466,5,BL,nn,nnn,288132</v>
       </c>
       <c r="AI34" s="3" t="str">
         <f>$AC34&amp;$AC$1&amp;G34&amp;$AC$1&amp;fatalities!G34&amp;$AC$1&amp;G$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;G$2</f>
@@ -10102,15 +10227,15 @@
       </c>
       <c r="AK34" s="3" t="str">
         <f>$AC34&amp;$AC$1&amp;I34&amp;$AC$1&amp;fatalities!I34&amp;$AC$1&amp;I$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;I$2</f>
-        <v>27/3/2020,27,3,2020,2051,27,GE,nn,nnn,499480</v>
+        <v>27/3/2020,27,3,2020,2051,23,GE,nn,nnn,499480</v>
       </c>
       <c r="AL34" s="3" t="str">
         <f>$AC34&amp;$AC$1&amp;J34&amp;$AC$1&amp;fatalities!J34&amp;$AC$1&amp;J$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;J$2</f>
-        <v>27/3/2020,27,3,2020,44,1,GL,nn,nnn,40403</v>
+        <v>27/3/2020,27,3,2020,44,,GL,nn,nnn,40403</v>
       </c>
       <c r="AM34" s="3" t="str">
         <f>$AC34&amp;$AC$1&amp;K34&amp;$AC$1&amp;fatalities!K34&amp;$AC$1&amp;K$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;K$2</f>
-        <v>27/3/2020,27,3,2020,409,,GR,nn,nnn,198379</v>
+        <v>27/3/2020,27,3,2020,409,9,GR,nn,nnn,198379</v>
       </c>
       <c r="AN34" s="3" t="str">
         <f>$AC34&amp;$AC$1&amp;L34&amp;$AC$1&amp;fatalities!L34&amp;$AC$1&amp;L$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;L$2</f>
@@ -10118,11 +10243,11 @@
       </c>
       <c r="AO34" s="3" t="str">
         <f>$AC34&amp;$AC$1&amp;M34&amp;$AC$1&amp;fatalities!M34&amp;$AC$1&amp;M$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;M$2</f>
-        <v>27/3/2020,27,3,2020,287,4,LU,nn,nnn,409557</v>
+        <v>27/3/2020,27,3,2020,287,3,LU,nn,nnn,409557</v>
       </c>
       <c r="AP34" s="3" t="str">
         <f>$AC34&amp;$AC$1&amp;N34&amp;$AC$1&amp;fatalities!N34&amp;$AC$1&amp;N$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;N$2</f>
-        <v>27/3/2020,27,3,2020,287,6,NE,nn,nnn,176850</v>
+        <v>27/3/2020,27,3,2020,287,5,NE,nn,nnn,176850</v>
       </c>
       <c r="AQ34" s="3" t="str">
         <f>$AC34&amp;$AC$1&amp;O34&amp;$AC$1&amp;fatalities!O34&amp;$AC$1&amp;O$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;O$2</f>
@@ -10134,7 +10259,7 @@
       </c>
       <c r="AS34" s="3" t="str">
         <f>$AC34&amp;$AC$1&amp;Q34&amp;$AC$1&amp;fatalities!Q34&amp;$AC$1&amp;Q$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Q$2</f>
-        <v>27/3/2020,27,3,2020,,5,SG,nn,nnn,507697</v>
+        <v>27/3/2020,27,3,2020,,,SG,nn,nnn,507697</v>
       </c>
       <c r="AT34" s="3" t="str">
         <f>$AC34&amp;$AC$1&amp;R34&amp;$AC$1&amp;fatalities!R34&amp;$AC$1&amp;R$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;R$2</f>
@@ -10146,7 +10271,7 @@
       </c>
       <c r="AV34" s="3" t="str">
         <f>$AC34&amp;$AC$1&amp;T34&amp;$AC$1&amp;fatalities!T34&amp;$AC$1&amp;T$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;T$2</f>
-        <v>27/3/2020,27,3,2020,119,2,SZ,nn,nnn,159165</v>
+        <v>27/3/2020,27,3,2020,119,1,SZ,nn,nnn,159165</v>
       </c>
       <c r="AW34" s="3" t="str">
         <f>$AC34&amp;$AC$1&amp;U34&amp;$AC$1&amp;fatalities!U34&amp;$AC$1&amp;U$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;U$2</f>
@@ -10154,7 +10279,7 @@
       </c>
       <c r="AX34" s="3" t="str">
         <f>$AC34&amp;$AC$1&amp;V34&amp;$AC$1&amp;fatalities!V34&amp;$AC$1&amp;V$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;V$2</f>
-        <v>27/3/2020,27,3,2020,1688,87,TI,nn,nnn,353343</v>
+        <v>27/3/2020,27,3,2020,1688,76,TI,nn,nnn,353343</v>
       </c>
       <c r="AY34" s="3" t="str">
         <f>$AC34&amp;$AC$1&amp;W34&amp;$AC$1&amp;fatalities!W34&amp;$AC$1&amp;W$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;W$2</f>
@@ -10162,23 +10287,23 @@
       </c>
       <c r="AZ34" s="3" t="str">
         <f>$AC34&amp;$AC$1&amp;X34&amp;$AC$1&amp;fatalities!X34&amp;$AC$1&amp;X$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;X$2</f>
-        <v>27/3/2020,27,3,2020,2745,55,VD,nn,nnn,799145</v>
+        <v>27/3/2020,27,3,2020,2745,48,VD,nn,nnn,799145</v>
       </c>
       <c r="BA34" s="3" t="str">
         <f>$AC34&amp;$AC$1&amp;Y34&amp;$AC$1&amp;fatalities!Y34&amp;$AC$1&amp;Y$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Y$2</f>
-        <v>27/3/2020,27,3,2020,808,21,VS,nn,nnn,343955</v>
+        <v>27/3/2020,27,3,2020,808,20,VS,nn,nnn,343955</v>
       </c>
       <c r="BB34" s="3" t="str">
         <f>$AC34&amp;$AC$1&amp;Z34&amp;$AC$1&amp;fatalities!Z34&amp;$AC$1&amp;Z$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Z$2</f>
-        <v>27/3/2020,27,3,2020,101,,ZG,nn,nnn,126837</v>
+        <v>27/3/2020,27,3,2020,101,1,ZG,nn,nnn,126837</v>
       </c>
       <c r="BC34" s="3" t="str">
         <f>$AC34&amp;$AC$1&amp;AA34&amp;$AC$1&amp;fatalities!AA34&amp;$AC$1&amp;AA$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AA$2</f>
-        <v>27/3/2020,27,3,2020,1578,15,ZH,nn,nnn,1520968</v>
+        <v>27/3/2020,27,3,2020,1578,11,ZH,nn,nnn,1520968</v>
       </c>
       <c r="BD34" s="3" t="str">
         <f>$AC34&amp;$AC$1&amp;AB34&amp;$AC$1&amp;fatalities!AB34&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2</f>
-        <v>27/3/2020,27,3,2020,13483,284,CH,nn,nnn,8543707</v>
+        <v>27/3/2020,27,3,2020,13483,248,CH,nn,nnn,8543707</v>
       </c>
     </row>
     <row r="35" spans="1:56" x14ac:dyDescent="0.2">
@@ -10239,7 +10364,7 @@
       <c r="U35" s="14">
         <v>134</v>
       </c>
-      <c r="V35" s="14">
+      <c r="V35" s="43">
         <v>1727</v>
       </c>
       <c r="W35" s="14">
@@ -10276,7 +10401,7 @@
       </c>
       <c r="AG35" s="3" t="str">
         <f>$AC35&amp;$AC$1&amp;E35&amp;$AC$1&amp;fatalities!E35&amp;$AC$1&amp;E$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;E$2</f>
-        <v>28/3/2020,28,3,2020,767,10,BE,nn,nnn,1034977</v>
+        <v>28/3/2020,28,3,2020,767,9,BE,nn,nnn,1034977</v>
       </c>
       <c r="AH35" s="3" t="str">
         <f>$AC35&amp;$AC$1&amp;F35&amp;$AC$1&amp;fatalities!F35&amp;$AC$1&amp;F$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;F$2</f>
@@ -10284,19 +10409,19 @@
       </c>
       <c r="AI35" s="3" t="str">
         <f>$AC35&amp;$AC$1&amp;G35&amp;$AC$1&amp;fatalities!G35&amp;$AC$1&amp;G$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;G$2</f>
-        <v>28/3/2020,28,3,2020,573,15,BS,nn,nnn,194766</v>
+        <v>28/3/2020,28,3,2020,573,13,BS,nn,nnn,194766</v>
       </c>
       <c r="AJ35" s="3" t="str">
         <f>$AC35&amp;$AC$1&amp;H35&amp;$AC$1&amp;fatalities!H35&amp;$AC$1&amp;H$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;H$2</f>
-        <v>28/3/2020,28,3,2020,421,16,FR,nn,nnn,318714</v>
+        <v>28/3/2020,28,3,2020,421,15,FR,nn,nnn,318714</v>
       </c>
       <c r="AK35" s="3" t="str">
         <f>$AC35&amp;$AC$1&amp;I35&amp;$AC$1&amp;fatalities!I35&amp;$AC$1&amp;I$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;I$2</f>
-        <v>28/3/2020,28,3,2020,2277,37,GE,nn,nnn,499480</v>
+        <v>28/3/2020,28,3,2020,2277,27,GE,nn,nnn,499480</v>
       </c>
       <c r="AL35" s="3" t="str">
         <f>$AC35&amp;$AC$1&amp;J35&amp;$AC$1&amp;fatalities!J35&amp;$AC$1&amp;J$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;J$2</f>
-        <v>28/3/2020,28,3,2020,47,,GL,nn,nnn,40403</v>
+        <v>28/3/2020,28,3,2020,47,1,GL,nn,nnn,40403</v>
       </c>
       <c r="AM35" s="3" t="str">
         <f>$AC35&amp;$AC$1&amp;K35&amp;$AC$1&amp;fatalities!K35&amp;$AC$1&amp;K$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;K$2</f>
@@ -10308,7 +10433,7 @@
       </c>
       <c r="AO35" s="3" t="str">
         <f>$AC35&amp;$AC$1&amp;M35&amp;$AC$1&amp;fatalities!M35&amp;$AC$1&amp;M$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;M$2</f>
-        <v>28/3/2020,28,3,2020,317,5,LU,nn,nnn,409557</v>
+        <v>28/3/2020,28,3,2020,317,4,LU,nn,nnn,409557</v>
       </c>
       <c r="AP35" s="3" t="str">
         <f>$AC35&amp;$AC$1&amp;N35&amp;$AC$1&amp;fatalities!N35&amp;$AC$1&amp;N$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;N$2</f>
@@ -10332,7 +10457,7 @@
       </c>
       <c r="AU35" s="3" t="str">
         <f>$AC35&amp;$AC$1&amp;S35&amp;$AC$1&amp;fatalities!S35&amp;$AC$1&amp;S$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;S$2</f>
-        <v>28/3/2020,28,3,2020,173,2,SO,nn,nnn,273194</v>
+        <v>28/3/2020,28,3,2020,173,1,SO,nn,nnn,273194</v>
       </c>
       <c r="AV35" s="3" t="str">
         <f>$AC35&amp;$AC$1&amp;T35&amp;$AC$1&amp;fatalities!T35&amp;$AC$1&amp;T$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;T$2</f>
@@ -10344,7 +10469,7 @@
       </c>
       <c r="AX35" s="3" t="str">
         <f>$AC35&amp;$AC$1&amp;V35&amp;$AC$1&amp;fatalities!V35&amp;$AC$1&amp;V$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;V$2</f>
-        <v>28/3/2020,28,3,2020,1727,93,TI,nn,nnn,353343</v>
+        <v>28/3/2020,28,3,2020,1727,87,TI,nn,nnn,353343</v>
       </c>
       <c r="AY35" s="3" t="str">
         <f>$AC35&amp;$AC$1&amp;W35&amp;$AC$1&amp;fatalities!W35&amp;$AC$1&amp;W$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;W$2</f>
@@ -10352,7 +10477,7 @@
       </c>
       <c r="AZ35" s="3" t="str">
         <f>$AC35&amp;$AC$1&amp;X35&amp;$AC$1&amp;fatalities!X35&amp;$AC$1&amp;X$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;X$2</f>
-        <v>28/3/2020,28,3,2020,2936,66,VD,nn,nnn,799145</v>
+        <v>28/3/2020,28,3,2020,2936,55,VD,nn,nnn,799145</v>
       </c>
       <c r="BA35" s="3" t="str">
         <f>$AC35&amp;$AC$1&amp;Y35&amp;$AC$1&amp;fatalities!Y35&amp;$AC$1&amp;Y$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Y$2</f>
@@ -10368,7 +10493,7 @@
       </c>
       <c r="BD35" s="3" t="str">
         <f>$AC35&amp;$AC$1&amp;AB35&amp;$AC$1&amp;fatalities!AB35&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2</f>
-        <v>28/3/2020,28,3,2020,14495,317,CH,nn,nnn,8543707</v>
+        <v>28/3/2020,28,3,2020,14495,284,CH,nn,nnn,8543707</v>
       </c>
     </row>
     <row r="36" spans="1:56" x14ac:dyDescent="0.2">
@@ -10425,7 +10550,7 @@
       <c r="U36" s="14">
         <v>138</v>
       </c>
-      <c r="V36" s="14">
+      <c r="V36" s="43">
         <v>1837</v>
       </c>
       <c r="W36" s="14">
@@ -10450,7 +10575,7 @@
       </c>
       <c r="AD36" s="3" t="str">
         <f>$AC36&amp;$AC$1&amp;B36&amp;$AC$1&amp;fatalities!B36&amp;$AC$1&amp;B$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;B$2</f>
-        <v>29/3/2020,29,3,2020,,8,AG,nn,nnn,677387</v>
+        <v>29/3/2020,29,3,2020,,,AG,nn,nnn,677387</v>
       </c>
       <c r="AE36" s="3" t="str">
         <f>$AC36&amp;$AC$1&amp;C36&amp;$AC$1&amp;fatalities!C36&amp;$AC$1&amp;C$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;C$2</f>
@@ -10462,11 +10587,11 @@
       </c>
       <c r="AG36" s="3" t="str">
         <f>$AC36&amp;$AC$1&amp;E36&amp;$AC$1&amp;fatalities!E36&amp;$AC$1&amp;E$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;E$2</f>
-        <v>29/3/2020,29,3,2020,798,13,BE,nn,nnn,1034977</v>
+        <v>29/3/2020,29,3,2020,798,10,BE,nn,nnn,1034977</v>
       </c>
       <c r="AH36" s="3" t="str">
         <f>$AC36&amp;$AC$1&amp;F36&amp;$AC$1&amp;fatalities!F36&amp;$AC$1&amp;F$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;F$2</f>
-        <v>29/3/2020,29,3,2020,511,7,BL,nn,nnn,288132</v>
+        <v>29/3/2020,29,3,2020,511,6,BL,nn,nnn,288132</v>
       </c>
       <c r="AI36" s="3" t="str">
         <f>$AC36&amp;$AC$1&amp;G36&amp;$AC$1&amp;fatalities!G36&amp;$AC$1&amp;G$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;G$2</f>
@@ -10474,19 +10599,19 @@
       </c>
       <c r="AJ36" s="3" t="str">
         <f>$AC36&amp;$AC$1&amp;H36&amp;$AC$1&amp;fatalities!H36&amp;$AC$1&amp;H$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;H$2</f>
-        <v>29/3/2020,29,3,2020,442,17,FR,nn,nnn,318714</v>
+        <v>29/3/2020,29,3,2020,442,16,FR,nn,nnn,318714</v>
       </c>
       <c r="AK36" s="3" t="str">
         <f>$AC36&amp;$AC$1&amp;I36&amp;$AC$1&amp;fatalities!I36&amp;$AC$1&amp;I$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;I$2</f>
-        <v>29/3/2020,29,3,2020,2349,43,GE,nn,nnn,499480</v>
+        <v>29/3/2020,29,3,2020,2349,37,GE,nn,nnn,499480</v>
       </c>
       <c r="AL36" s="3" t="str">
         <f>$AC36&amp;$AC$1&amp;J36&amp;$AC$1&amp;fatalities!J36&amp;$AC$1&amp;J$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;J$2</f>
-        <v>29/3/2020,29,3,2020,,1,GL,nn,nnn,40403</v>
+        <v>29/3/2020,29,3,2020,,,GL,nn,nnn,40403</v>
       </c>
       <c r="AM36" s="3" t="str">
         <f>$AC36&amp;$AC$1&amp;K36&amp;$AC$1&amp;fatalities!K36&amp;$AC$1&amp;K$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;K$2</f>
-        <v>29/3/2020,29,3,2020,,12,GR,nn,nnn,198379</v>
+        <v>29/3/2020,29,3,2020,,,GR,nn,nnn,198379</v>
       </c>
       <c r="AN36" s="3" t="str">
         <f>$AC36&amp;$AC$1&amp;L36&amp;$AC$1&amp;fatalities!L36&amp;$AC$1&amp;L$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;L$2</f>
@@ -10494,7 +10619,7 @@
       </c>
       <c r="AO36" s="3" t="str">
         <f>$AC36&amp;$AC$1&amp;M36&amp;$AC$1&amp;fatalities!M36&amp;$AC$1&amp;M$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;M$2</f>
-        <v>29/3/2020,29,3,2020,339,6,LU,nn,nnn,409557</v>
+        <v>29/3/2020,29,3,2020,339,5,LU,nn,nnn,409557</v>
       </c>
       <c r="AP36" s="3" t="str">
         <f>$AC36&amp;$AC$1&amp;N36&amp;$AC$1&amp;fatalities!N36&amp;$AC$1&amp;N$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;N$2</f>
@@ -10518,7 +10643,7 @@
       </c>
       <c r="AU36" s="3" t="str">
         <f>$AC36&amp;$AC$1&amp;S36&amp;$AC$1&amp;fatalities!S36&amp;$AC$1&amp;S$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;S$2</f>
-        <v>29/3/2020,29,3,2020,190,,SO,nn,nnn,273194</v>
+        <v>29/3/2020,29,3,2020,190,2,SO,nn,nnn,273194</v>
       </c>
       <c r="AV36" s="3" t="str">
         <f>$AC36&amp;$AC$1&amp;T36&amp;$AC$1&amp;fatalities!T36&amp;$AC$1&amp;T$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;T$2</f>
@@ -10530,7 +10655,7 @@
       </c>
       <c r="AX36" s="3" t="str">
         <f>$AC36&amp;$AC$1&amp;V36&amp;$AC$1&amp;fatalities!V36&amp;$AC$1&amp;V$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;V$2</f>
-        <v>29/3/2020,29,3,2020,1837,105,TI,nn,nnn,353343</v>
+        <v>29/3/2020,29,3,2020,1837,93,TI,nn,nnn,353343</v>
       </c>
       <c r="AY36" s="3" t="str">
         <f>$AC36&amp;$AC$1&amp;W36&amp;$AC$1&amp;fatalities!W36&amp;$AC$1&amp;W$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;W$2</f>
@@ -10538,23 +10663,23 @@
       </c>
       <c r="AZ36" s="3" t="str">
         <f>$AC36&amp;$AC$1&amp;X36&amp;$AC$1&amp;fatalities!X36&amp;$AC$1&amp;X$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;X$2</f>
-        <v>29/3/2020,29,3,2020,3168,77,VD,nn,nnn,799145</v>
+        <v>29/3/2020,29,3,2020,3168,66,VD,nn,nnn,799145</v>
       </c>
       <c r="BA36" s="3" t="str">
         <f>$AC36&amp;$AC$1&amp;Y36&amp;$AC$1&amp;fatalities!Y36&amp;$AC$1&amp;Y$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Y$2</f>
-        <v>29/3/2020,29,3,2020,964,26,VS,nn,nnn,343955</v>
+        <v>29/3/2020,29,3,2020,964,21,VS,nn,nnn,343955</v>
       </c>
       <c r="BB36" s="3" t="str">
         <f>$AC36&amp;$AC$1&amp;Z36&amp;$AC$1&amp;fatalities!Z36&amp;$AC$1&amp;Z$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Z$2</f>
-        <v>29/3/2020,29,3,2020,,1,ZG,nn,nnn,126837</v>
+        <v>29/3/2020,29,3,2020,,,ZG,nn,nnn,126837</v>
       </c>
       <c r="BC36" s="3" t="str">
         <f>$AC36&amp;$AC$1&amp;AA36&amp;$AC$1&amp;fatalities!AA36&amp;$AC$1&amp;AA$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AA$2</f>
-        <v>29/3/2020,29,3,2020,1758,21,ZH,nn,nnn,1520968</v>
+        <v>29/3/2020,29,3,2020,1758,15,ZH,nn,nnn,1520968</v>
       </c>
       <c r="BD36" s="3" t="str">
         <f>$AC36&amp;$AC$1&amp;AB36&amp;$AC$1&amp;fatalities!AB36&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2</f>
-        <v>29/3/2020,29,3,2020,15195,371,CH,nn,nnn,8543707</v>
+        <v>29/3/2020,29,3,2020,15195,317,CH,nn,nnn,8543707</v>
       </c>
     </row>
     <row r="37" spans="1:56" x14ac:dyDescent="0.2">
@@ -10619,7 +10744,7 @@
       <c r="U37" s="14">
         <v>148</v>
       </c>
-      <c r="V37" s="14">
+      <c r="V37" s="43">
         <v>1962</v>
       </c>
       <c r="W37" s="14">
@@ -10646,7 +10771,7 @@
       </c>
       <c r="AD37" s="3" t="str">
         <f>$AC37&amp;$AC$1&amp;B37&amp;$AC$1&amp;fatalities!B37&amp;$AC$1&amp;B$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;B$2</f>
-        <v>30/3/2020,30,3,2020,481,11,AG,nn,nnn,677387</v>
+        <v>30/3/2020,30,3,2020,481,8,AG,nn,nnn,677387</v>
       </c>
       <c r="AE37" s="3" t="str">
         <f>$AC37&amp;$AC$1&amp;C37&amp;$AC$1&amp;fatalities!C37&amp;$AC$1&amp;C$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;C$2</f>
@@ -10658,31 +10783,31 @@
       </c>
       <c r="AG37" s="3" t="str">
         <f>$AC37&amp;$AC$1&amp;E37&amp;$AC$1&amp;fatalities!E37&amp;$AC$1&amp;E$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;E$2</f>
-        <v>30/3/2020,30,3,2020,826,16,BE,nn,nnn,1034977</v>
+        <v>30/3/2020,30,3,2020,826,13,BE,nn,nnn,1034977</v>
       </c>
       <c r="AH37" s="3" t="str">
         <f>$AC37&amp;$AC$1&amp;F37&amp;$AC$1&amp;fatalities!F37&amp;$AC$1&amp;F$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;F$2</f>
-        <v>30/3/2020,30,3,2020,539,10,BL,nn,nnn,288132</v>
+        <v>30/3/2020,30,3,2020,539,7,BL,nn,nnn,288132</v>
       </c>
       <c r="AI37" s="3" t="str">
         <f>$AC37&amp;$AC$1&amp;G37&amp;$AC$1&amp;fatalities!G37&amp;$AC$1&amp;G$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;G$2</f>
-        <v>30/3/2020,30,3,2020,621,16,BS,nn,nnn,194766</v>
+        <v>30/3/2020,30,3,2020,621,15,BS,nn,nnn,194766</v>
       </c>
       <c r="AJ37" s="3" t="str">
         <f>$AC37&amp;$AC$1&amp;H37&amp;$AC$1&amp;fatalities!H37&amp;$AC$1&amp;H$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;H$2</f>
-        <v>30/3/2020,30,3,2020,477,20,FR,nn,nnn,318714</v>
+        <v>30/3/2020,30,3,2020,477,17,FR,nn,nnn,318714</v>
       </c>
       <c r="AK37" s="3" t="str">
         <f>$AC37&amp;$AC$1&amp;I37&amp;$AC$1&amp;fatalities!I37&amp;$AC$1&amp;I$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;I$2</f>
-        <v>30/3/2020,30,3,2020,2450,52,GE,nn,nnn,499480</v>
+        <v>30/3/2020,30,3,2020,2450,43,GE,nn,nnn,499480</v>
       </c>
       <c r="AL37" s="3" t="str">
         <f>$AC37&amp;$AC$1&amp;J37&amp;$AC$1&amp;fatalities!J37&amp;$AC$1&amp;J$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;J$2</f>
-        <v>30/3/2020,30,3,2020,50,2,GL,nn,nnn,40403</v>
+        <v>30/3/2020,30,3,2020,50,1,GL,nn,nnn,40403</v>
       </c>
       <c r="AM37" s="3" t="str">
         <f>$AC37&amp;$AC$1&amp;K37&amp;$AC$1&amp;fatalities!K37&amp;$AC$1&amp;K$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;K$2</f>
-        <v>30/3/2020,30,3,2020,497,19,GR,nn,nnn,198379</v>
+        <v>30/3/2020,30,3,2020,497,12,GR,nn,nnn,198379</v>
       </c>
       <c r="AN37" s="3" t="str">
         <f>$AC37&amp;$AC$1&amp;L37&amp;$AC$1&amp;fatalities!L37&amp;$AC$1&amp;L$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;L$2</f>
@@ -10690,7 +10815,7 @@
       </c>
       <c r="AO37" s="3" t="str">
         <f>$AC37&amp;$AC$1&amp;M37&amp;$AC$1&amp;fatalities!M37&amp;$AC$1&amp;M$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;M$2</f>
-        <v>30/3/2020,30,3,2020,351,7,LU,nn,nnn,409557</v>
+        <v>30/3/2020,30,3,2020,351,6,LU,nn,nnn,409557</v>
       </c>
       <c r="AP37" s="3" t="str">
         <f>$AC37&amp;$AC$1&amp;N37&amp;$AC$1&amp;fatalities!N37&amp;$AC$1&amp;N$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;N$2</f>
@@ -10706,7 +10831,7 @@
       </c>
       <c r="AS37" s="3" t="str">
         <f>$AC37&amp;$AC$1&amp;Q37&amp;$AC$1&amp;fatalities!Q37&amp;$AC$1&amp;Q$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Q$2</f>
-        <v>30/3/2020,30,3,2020,389,7,SG,nn,nnn,507697</v>
+        <v>30/3/2020,30,3,2020,389,5,SG,nn,nnn,507697</v>
       </c>
       <c r="AT37" s="3" t="str">
         <f>$AC37&amp;$AC$1&amp;R37&amp;$AC$1&amp;fatalities!R37&amp;$AC$1&amp;R$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;R$2</f>
@@ -10714,19 +10839,19 @@
       </c>
       <c r="AU37" s="3" t="str">
         <f>$AC37&amp;$AC$1&amp;S37&amp;$AC$1&amp;fatalities!S37&amp;$AC$1&amp;S$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;S$2</f>
-        <v>30/3/2020,30,3,2020,,2,SO,nn,nnn,273194</v>
+        <v>30/3/2020,30,3,2020,,,SO,nn,nnn,273194</v>
       </c>
       <c r="AV37" s="3" t="str">
         <f>$AC37&amp;$AC$1&amp;T37&amp;$AC$1&amp;fatalities!T37&amp;$AC$1&amp;T$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;T$2</f>
-        <v>30/3/2020,30,3,2020,135,4,SZ,nn,nnn,159165</v>
+        <v>30/3/2020,30,3,2020,135,2,SZ,nn,nnn,159165</v>
       </c>
       <c r="AW37" s="3" t="str">
         <f>$AC37&amp;$AC$1&amp;U37&amp;$AC$1&amp;fatalities!U37&amp;$AC$1&amp;U$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;U$2</f>
-        <v>30/3/2020,30,3,2020,148,3,TG,nn,nnn,276472</v>
+        <v>30/3/2020,30,3,2020,148,2,TG,nn,nnn,276472</v>
       </c>
       <c r="AX37" s="3" t="str">
         <f>$AC37&amp;$AC$1&amp;V37&amp;$AC$1&amp;fatalities!V37&amp;$AC$1&amp;V$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;V$2</f>
-        <v>30/3/2020,30,3,2020,1962,120,TI,nn,nnn,353343</v>
+        <v>30/3/2020,30,3,2020,1962,105,TI,nn,nnn,353343</v>
       </c>
       <c r="AY37" s="3" t="str">
         <f>$AC37&amp;$AC$1&amp;W37&amp;$AC$1&amp;fatalities!W37&amp;$AC$1&amp;W$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;W$2</f>
@@ -10734,11 +10859,11 @@
       </c>
       <c r="AZ37" s="3" t="str">
         <f>$AC37&amp;$AC$1&amp;X37&amp;$AC$1&amp;fatalities!X37&amp;$AC$1&amp;X$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;X$2</f>
-        <v>30/3/2020,30,3,2020,3272,84,VD,nn,nnn,799145</v>
+        <v>30/3/2020,30,3,2020,3272,77,VD,nn,nnn,799145</v>
       </c>
       <c r="BA37" s="3" t="str">
         <f>$AC37&amp;$AC$1&amp;Y37&amp;$AC$1&amp;fatalities!Y37&amp;$AC$1&amp;Y$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Y$2</f>
-        <v>30/3/2020,30,3,2020,1000,35,VS,nn,nnn,343955</v>
+        <v>30/3/2020,30,3,2020,1000,26,VS,nn,nnn,343955</v>
       </c>
       <c r="BB37" s="3" t="str">
         <f>$AC37&amp;$AC$1&amp;Z37&amp;$AC$1&amp;fatalities!Z37&amp;$AC$1&amp;Z$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Z$2</f>
@@ -10746,11 +10871,11 @@
       </c>
       <c r="BC37" s="3" t="str">
         <f>$AC37&amp;$AC$1&amp;AA37&amp;$AC$1&amp;fatalities!AA37&amp;$AC$1&amp;AA$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AA$2</f>
-        <v>30/3/2020,30,3,2020,1874,25,ZH,nn,nnn,1520968</v>
+        <v>30/3/2020,30,3,2020,1874,21,ZH,nn,nnn,1520968</v>
       </c>
       <c r="BD37" s="3" t="str">
         <f>$AC37&amp;$AC$1&amp;AB37&amp;$AC$1&amp;fatalities!AB37&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2</f>
-        <v>30/3/2020,30,3,2020,16101,442,CH,nn,nnn,8543707</v>
+        <v>30/3/2020,30,3,2020,16101,371,CH,nn,nnn,8543707</v>
       </c>
     </row>
     <row r="38" spans="1:56" x14ac:dyDescent="0.2">
@@ -10817,7 +10942,7 @@
       <c r="U38" s="14">
         <v>154</v>
       </c>
-      <c r="V38" s="14">
+      <c r="V38" s="43">
         <v>2091</v>
       </c>
       <c r="W38" s="14">
@@ -10852,27 +10977,27 @@
       </c>
       <c r="AF38" s="3" t="str">
         <f>$AC38&amp;$AC$1&amp;D38&amp;$AC$1&amp;fatalities!D38&amp;$AC$1&amp;D$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;D$2</f>
-        <v>31/3/2020,31,3,2020,58,3,AR,nn,nnn,55234</v>
+        <v>31/3/2020,31,3,2020,58,2,AR,nn,nnn,55234</v>
       </c>
       <c r="AG38" s="3" t="str">
         <f>$AC38&amp;$AC$1&amp;E38&amp;$AC$1&amp;fatalities!E38&amp;$AC$1&amp;E$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;E$2</f>
-        <v>31/3/2020,31,3,2020,856,20,BE,nn,nnn,1034977</v>
+        <v>31/3/2020,31,3,2020,856,16,BE,nn,nnn,1034977</v>
       </c>
       <c r="AH38" s="3" t="str">
         <f>$AC38&amp;$AC$1&amp;F38&amp;$AC$1&amp;fatalities!F38&amp;$AC$1&amp;F$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;F$2</f>
-        <v>31/3/2020,31,3,2020,561,11,BL,nn,nnn,288132</v>
+        <v>31/3/2020,31,3,2020,561,10,BL,nn,nnn,288132</v>
       </c>
       <c r="AI38" s="3" t="str">
         <f>$AC38&amp;$AC$1&amp;G38&amp;$AC$1&amp;fatalities!G38&amp;$AC$1&amp;G$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;G$2</f>
-        <v>31/3/2020,31,3,2020,657,18,BS,nn,nnn,194766</v>
+        <v>31/3/2020,31,3,2020,657,16,BS,nn,nnn,194766</v>
       </c>
       <c r="AJ38" s="3" t="str">
         <f>$AC38&amp;$AC$1&amp;H38&amp;$AC$1&amp;fatalities!H38&amp;$AC$1&amp;H$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;H$2</f>
-        <v>31/3/2020,31,3,2020,491,23,FR,nn,nnn,318714</v>
+        <v>31/3/2020,31,3,2020,491,20,FR,nn,nnn,318714</v>
       </c>
       <c r="AK38" s="3" t="str">
         <f>$AC38&amp;$AC$1&amp;I38&amp;$AC$1&amp;fatalities!I38&amp;$AC$1&amp;I$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;I$2</f>
-        <v>31/3/2020,31,3,2020,2657,59,GE,nn,nnn,499480</v>
+        <v>31/3/2020,31,3,2020,2657,52,GE,nn,nnn,499480</v>
       </c>
       <c r="AL38" s="3" t="str">
         <f>$AC38&amp;$AC$1&amp;J38&amp;$AC$1&amp;fatalities!J38&amp;$AC$1&amp;J$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;J$2</f>
@@ -10880,7 +11005,7 @@
       </c>
       <c r="AM38" s="3" t="str">
         <f>$AC38&amp;$AC$1&amp;K38&amp;$AC$1&amp;fatalities!K38&amp;$AC$1&amp;K$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;K$2</f>
-        <v>31/3/2020,31,3,2020,513,21,GR,nn,nnn,198379</v>
+        <v>31/3/2020,31,3,2020,513,19,GR,nn,nnn,198379</v>
       </c>
       <c r="AN38" s="3" t="str">
         <f>$AC38&amp;$AC$1&amp;L38&amp;$AC$1&amp;fatalities!L38&amp;$AC$1&amp;L$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;L$2</f>
@@ -10892,11 +11017,11 @@
       </c>
       <c r="AP38" s="3" t="str">
         <f>$AC38&amp;$AC$1&amp;N38&amp;$AC$1&amp;fatalities!N38&amp;$AC$1&amp;N$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;N$2</f>
-        <v>31/3/2020,31,3,2020,366,11,NE,nn,nnn,176850</v>
+        <v>31/3/2020,31,3,2020,366,6,NE,nn,nnn,176850</v>
       </c>
       <c r="AQ38" s="3" t="str">
         <f>$AC38&amp;$AC$1&amp;O38&amp;$AC$1&amp;fatalities!O38&amp;$AC$1&amp;O$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;O$2</f>
-        <v>31/3/2020,31,3,2020,70,0,NW,nn,nnn,43223</v>
+        <v>31/3/2020,31,3,2020,70,,NW,nn,nnn,43223</v>
       </c>
       <c r="AR38" s="3" t="str">
         <f>$AC38&amp;$AC$1&amp;P38&amp;$AC$1&amp;fatalities!P38&amp;$AC$1&amp;P$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;P$2</f>
@@ -10908,11 +11033,11 @@
       </c>
       <c r="AT38" s="3" t="str">
         <f>$AC38&amp;$AC$1&amp;R38&amp;$AC$1&amp;fatalities!R38&amp;$AC$1&amp;R$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;R$2</f>
-        <v>31/3/2020,31,3,2020,42,1,SH,nn,nnn,81991</v>
+        <v>31/3/2020,31,3,2020,42,,SH,nn,nnn,81991</v>
       </c>
       <c r="AU38" s="3" t="str">
         <f>$AC38&amp;$AC$1&amp;S38&amp;$AC$1&amp;fatalities!S38&amp;$AC$1&amp;S$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;S$2</f>
-        <v>31/3/2020,31,3,2020,196,3,SO,nn,nnn,273194</v>
+        <v>31/3/2020,31,3,2020,196,2,SO,nn,nnn,273194</v>
       </c>
       <c r="AV38" s="3" t="str">
         <f>$AC38&amp;$AC$1&amp;T38&amp;$AC$1&amp;fatalities!T38&amp;$AC$1&amp;T$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;T$2</f>
@@ -10920,11 +11045,11 @@
       </c>
       <c r="AW38" s="3" t="str">
         <f>$AC38&amp;$AC$1&amp;U38&amp;$AC$1&amp;fatalities!U38&amp;$AC$1&amp;U$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;U$2</f>
-        <v>31/3/2020,31,3,2020,154,4,TG,nn,nnn,276472</v>
+        <v>31/3/2020,31,3,2020,154,3,TG,nn,nnn,276472</v>
       </c>
       <c r="AX38" s="3" t="str">
         <f>$AC38&amp;$AC$1&amp;V38&amp;$AC$1&amp;fatalities!V38&amp;$AC$1&amp;V$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;V$2</f>
-        <v>31/3/2020,31,3,2020,2091,132,TI,nn,nnn,353343</v>
+        <v>31/3/2020,31,3,2020,2091,120,TI,nn,nnn,353343</v>
       </c>
       <c r="AY38" s="3" t="str">
         <f>$AC38&amp;$AC$1&amp;W38&amp;$AC$1&amp;fatalities!W38&amp;$AC$1&amp;W$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;W$2</f>
@@ -10932,11 +11057,11 @@
       </c>
       <c r="AZ38" s="3" t="str">
         <f>$AC38&amp;$AC$1&amp;X38&amp;$AC$1&amp;fatalities!X38&amp;$AC$1&amp;X$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;X$2</f>
-        <v>31/3/2020,31,3,2020,3465,,VD,nn,nnn,799145</v>
+        <v>31/3/2020,31,3,2020,3465,84,VD,nn,nnn,799145</v>
       </c>
       <c r="BA38" s="3" t="str">
         <f>$AC38&amp;$AC$1&amp;Y38&amp;$AC$1&amp;fatalities!Y38&amp;$AC$1&amp;Y$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Y$2</f>
-        <v>31/3/2020,31,3,2020,1085,37,VS,nn,nnn,343955</v>
+        <v>31/3/2020,31,3,2020,1085,35,VS,nn,nnn,343955</v>
       </c>
       <c r="BB38" s="3" t="str">
         <f>$AC38&amp;$AC$1&amp;Z38&amp;$AC$1&amp;fatalities!Z38&amp;$AC$1&amp;Z$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Z$2</f>
@@ -10944,11 +11069,11 @@
       </c>
       <c r="BC38" s="3" t="str">
         <f>$AC38&amp;$AC$1&amp;AA38&amp;$AC$1&amp;fatalities!AA38&amp;$AC$1&amp;AA$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AA$2</f>
-        <v>31/3/2020,31,3,2020,1960,29,ZH,nn,nnn,1520968</v>
+        <v>31/3/2020,31,3,2020,1960,25,ZH,nn,nnn,1520968</v>
       </c>
       <c r="BD38" s="3" t="str">
         <f>$AC38&amp;$AC$1&amp;AB38&amp;$AC$1&amp;fatalities!AB38&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2</f>
-        <v>31/3/2020,31,3,2020,17062,488,CH,nn,nnn,8543707</v>
+        <v>31/3/2020,31,3,2020,17062,442,CH,nn,nnn,8543707</v>
       </c>
     </row>
     <row r="39" spans="1:56" x14ac:dyDescent="0.2">
@@ -11011,7 +11136,7 @@
       <c r="U39" s="14">
         <v>166</v>
       </c>
-      <c r="V39" s="14">
+      <c r="V39" s="43">
         <v>2195</v>
       </c>
       <c r="W39" s="14">
@@ -11036,7 +11161,7 @@
       </c>
       <c r="AD39" s="3" t="str">
         <f>$AC39&amp;$AC$1&amp;B39&amp;$AC$1&amp;fatalities!B39&amp;$AC$1&amp;B$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;B$2</f>
-        <v>1/4/2020,1,4,2020,549,,AG,nn,nnn,677387</v>
+        <v>1/4/2020,1,4,2020,549,11,AG,nn,nnn,677387</v>
       </c>
       <c r="AE39" s="3" t="str">
         <f>$AC39&amp;$AC$1&amp;C39&amp;$AC$1&amp;fatalities!C39&amp;$AC$1&amp;C$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;C$2</f>
@@ -11044,35 +11169,35 @@
       </c>
       <c r="AF39" s="3" t="str">
         <f>$AC39&amp;$AC$1&amp;D39&amp;$AC$1&amp;fatalities!D39&amp;$AC$1&amp;D$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;D$2</f>
-        <v>1/4/2020,1,4,2020,61,,AR,nn,nnn,55234</v>
+        <v>1/4/2020,1,4,2020,61,3,AR,nn,nnn,55234</v>
       </c>
       <c r="AG39" s="3" t="str">
         <f>$AC39&amp;$AC$1&amp;E39&amp;$AC$1&amp;fatalities!E39&amp;$AC$1&amp;E$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;E$2</f>
-        <v>1/4/2020,1,4,2020,909,,BE,nn,nnn,1034977</v>
+        <v>1/4/2020,1,4,2020,909,20,BE,nn,nnn,1034977</v>
       </c>
       <c r="AH39" s="3" t="str">
         <f>$AC39&amp;$AC$1&amp;F39&amp;$AC$1&amp;fatalities!F39&amp;$AC$1&amp;F$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;F$2</f>
-        <v>1/4/2020,1,4,2020,588,,BL,nn,nnn,288132</v>
+        <v>1/4/2020,1,4,2020,588,11,BL,nn,nnn,288132</v>
       </c>
       <c r="AI39" s="3" t="str">
         <f>$AC39&amp;$AC$1&amp;G39&amp;$AC$1&amp;fatalities!G39&amp;$AC$1&amp;G$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;G$2</f>
-        <v>1/4/2020,1,4,2020,691,,BS,nn,nnn,194766</v>
+        <v>1/4/2020,1,4,2020,691,18,BS,nn,nnn,194766</v>
       </c>
       <c r="AJ39" s="3" t="str">
         <f>$AC39&amp;$AC$1&amp;H39&amp;$AC$1&amp;fatalities!H39&amp;$AC$1&amp;H$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;H$2</f>
-        <v>1/4/2020,1,4,2020,525,,FR,nn,nnn,318714</v>
+        <v>1/4/2020,1,4,2020,525,23,FR,nn,nnn,318714</v>
       </c>
       <c r="AK39" s="3" t="str">
         <f>$AC39&amp;$AC$1&amp;I39&amp;$AC$1&amp;fatalities!I39&amp;$AC$1&amp;I$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;I$2</f>
-        <v>1/4/2020,1,4,2020,2702,,GE,nn,nnn,499480</v>
+        <v>1/4/2020,1,4,2020,2702,59,GE,nn,nnn,499480</v>
       </c>
       <c r="AL39" s="3" t="str">
         <f>$AC39&amp;$AC$1&amp;J39&amp;$AC$1&amp;fatalities!J39&amp;$AC$1&amp;J$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;J$2</f>
-        <v>1/4/2020,1,4,2020,56,,GL,nn,nnn,40403</v>
+        <v>1/4/2020,1,4,2020,56,2,GL,nn,nnn,40403</v>
       </c>
       <c r="AM39" s="3" t="str">
         <f>$AC39&amp;$AC$1&amp;K39&amp;$AC$1&amp;fatalities!K39&amp;$AC$1&amp;K$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;K$2</f>
-        <v>1/4/2020,1,4,2020,521,,GR,nn,nnn,198379</v>
+        <v>1/4/2020,1,4,2020,521,21,GR,nn,nnn,198379</v>
       </c>
       <c r="AN39" s="3" t="str">
         <f>$AC39&amp;$AC$1&amp;L39&amp;$AC$1&amp;fatalities!L39&amp;$AC$1&amp;L$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;L$2</f>
@@ -11080,15 +11205,15 @@
       </c>
       <c r="AO39" s="3" t="str">
         <f>$AC39&amp;$AC$1&amp;M39&amp;$AC$1&amp;fatalities!M39&amp;$AC$1&amp;M$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;M$2</f>
-        <v>1/4/2020,1,4,2020,401,,LU,nn,nnn,409557</v>
+        <v>1/4/2020,1,4,2020,401,7,LU,nn,nnn,409557</v>
       </c>
       <c r="AP39" s="3" t="str">
         <f>$AC39&amp;$AC$1&amp;N39&amp;$AC$1&amp;fatalities!N39&amp;$AC$1&amp;N$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;N$2</f>
-        <v>1/4/2020,1,4,2020,,,NE,nn,nnn,176850</v>
+        <v>1/4/2020,1,4,2020,,11,NE,nn,nnn,176850</v>
       </c>
       <c r="AQ39" s="3" t="str">
         <f>$AC39&amp;$AC$1&amp;O39&amp;$AC$1&amp;fatalities!O39&amp;$AC$1&amp;O$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;O$2</f>
-        <v>1/4/2020,1,4,2020,70,,NW,nn,nnn,43223</v>
+        <v>1/4/2020,1,4,2020,70,0,NW,nn,nnn,43223</v>
       </c>
       <c r="AR39" s="3" t="str">
         <f>$AC39&amp;$AC$1&amp;P39&amp;$AC$1&amp;fatalities!P39&amp;$AC$1&amp;P$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;P$2</f>
@@ -11096,27 +11221,27 @@
       </c>
       <c r="AS39" s="3" t="str">
         <f>$AC39&amp;$AC$1&amp;Q39&amp;$AC$1&amp;fatalities!Q39&amp;$AC$1&amp;Q$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Q$2</f>
-        <v>1/4/2020,1,4,2020,414,,SG,nn,nnn,507697</v>
+        <v>1/4/2020,1,4,2020,414,7,SG,nn,nnn,507697</v>
       </c>
       <c r="AT39" s="3" t="str">
         <f>$AC39&amp;$AC$1&amp;R39&amp;$AC$1&amp;fatalities!R39&amp;$AC$1&amp;R$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;R$2</f>
-        <v>1/4/2020,1,4,2020,44,,SH,nn,nnn,81991</v>
+        <v>1/4/2020,1,4,2020,44,1,SH,nn,nnn,81991</v>
       </c>
       <c r="AU39" s="3" t="str">
         <f>$AC39&amp;$AC$1&amp;S39&amp;$AC$1&amp;fatalities!S39&amp;$AC$1&amp;S$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;S$2</f>
-        <v>1/4/2020,1,4,2020,216,,SO,nn,nnn,273194</v>
+        <v>1/4/2020,1,4,2020,216,3,SO,nn,nnn,273194</v>
       </c>
       <c r="AV39" s="3" t="str">
         <f>$AC39&amp;$AC$1&amp;T39&amp;$AC$1&amp;fatalities!T39&amp;$AC$1&amp;T$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;T$2</f>
-        <v>1/4/2020,1,4,2020,146,,SZ,nn,nnn,159165</v>
+        <v>1/4/2020,1,4,2020,146,4,SZ,nn,nnn,159165</v>
       </c>
       <c r="AW39" s="3" t="str">
         <f>$AC39&amp;$AC$1&amp;U39&amp;$AC$1&amp;fatalities!U39&amp;$AC$1&amp;U$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;U$2</f>
-        <v>1/4/2020,1,4,2020,166,,TG,nn,nnn,276472</v>
+        <v>1/4/2020,1,4,2020,166,4,TG,nn,nnn,276472</v>
       </c>
       <c r="AX39" s="3" t="str">
         <f>$AC39&amp;$AC$1&amp;V39&amp;$AC$1&amp;fatalities!V39&amp;$AC$1&amp;V$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;V$2</f>
-        <v>1/4/2020,1,4,2020,2195,,TI,nn,nnn,353343</v>
+        <v>1/4/2020,1,4,2020,2195,132,TI,nn,nnn,353343</v>
       </c>
       <c r="AY39" s="3" t="str">
         <f>$AC39&amp;$AC$1&amp;W39&amp;$AC$1&amp;fatalities!W39&amp;$AC$1&amp;W$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;W$2</f>
@@ -11128,50 +11253,214 @@
       </c>
       <c r="BA39" s="3" t="str">
         <f>$AC39&amp;$AC$1&amp;Y39&amp;$AC$1&amp;fatalities!Y39&amp;$AC$1&amp;Y$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Y$2</f>
-        <v>1/4/2020,1,4,2020,1145,,VS,nn,nnn,343955</v>
+        <v>1/4/2020,1,4,2020,1145,37,VS,nn,nnn,343955</v>
       </c>
       <c r="BB39" s="3" t="str">
         <f>$AC39&amp;$AC$1&amp;Z39&amp;$AC$1&amp;fatalities!Z39&amp;$AC$1&amp;Z$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Z$2</f>
-        <v>1/4/2020,1,4,2020,125,,ZG,nn,nnn,126837</v>
+        <v>1/4/2020,1,4,2020,125,1,ZG,nn,nnn,126837</v>
       </c>
       <c r="BC39" s="3" t="str">
         <f>$AC39&amp;$AC$1&amp;AA39&amp;$AC$1&amp;fatalities!AA39&amp;$AC$1&amp;AA$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AA$2</f>
-        <v>1/4/2020,1,4,2020,2148,,ZH,nn,nnn,1520968</v>
+        <v>1/4/2020,1,4,2020,2148,29,ZH,nn,nnn,1520968</v>
       </c>
       <c r="BD39" s="3" t="str">
         <f>$AC39&amp;$AC$1&amp;AB39&amp;$AC$1&amp;fatalities!AB39&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2</f>
-        <v>1/4/2020,1,4,2020,17768,,CH,nn,nnn,8543707</v>
+        <v>1/4/2020,1,4,2020,17768,488,CH,nn,nnn,8543707</v>
       </c>
     </row>
     <row r="40" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A40" s="12"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
-      <c r="M40" s="12"/>
+      <c r="A40" s="39">
+        <v>43923</v>
+      </c>
+      <c r="B40" s="12">
+        <v>592</v>
+      </c>
+      <c r="C40" s="12">
+        <v>20</v>
+      </c>
+      <c r="D40" s="12">
+        <v>64</v>
+      </c>
+      <c r="E40" s="12">
+        <v>1003</v>
+      </c>
+      <c r="F40" s="12">
+        <v>610</v>
+      </c>
+      <c r="G40" s="12">
+        <v>718</v>
+      </c>
+      <c r="H40" s="12">
+        <v>550</v>
+      </c>
+      <c r="I40" s="12">
+        <v>2845</v>
+      </c>
+      <c r="J40" s="12">
+        <v>58</v>
+      </c>
+      <c r="K40" s="12">
+        <v>569</v>
+      </c>
+      <c r="L40" s="12">
+        <v>145</v>
+      </c>
+      <c r="M40" s="12">
+        <v>422</v>
+      </c>
       <c r="N40" s="12"/>
-      <c r="O40" s="12"/>
-      <c r="P40" s="12"/>
-      <c r="Q40" s="12"/>
-      <c r="R40" s="12"/>
-      <c r="S40" s="12"/>
-      <c r="T40" s="12"/>
-      <c r="U40" s="12"/>
-      <c r="V40" s="12"/>
-      <c r="W40" s="12"/>
+      <c r="O40" s="12">
+        <v>76</v>
+      </c>
+      <c r="P40" s="12">
+        <v>51</v>
+      </c>
+      <c r="Q40" s="12">
+        <v>455</v>
+      </c>
+      <c r="R40" s="12">
+        <v>44</v>
+      </c>
+      <c r="S40" s="12">
+        <v>227</v>
+      </c>
+      <c r="T40" s="12">
+        <v>155</v>
+      </c>
+      <c r="U40" s="12">
+        <v>179</v>
+      </c>
+      <c r="V40" s="44">
+        <v>2271</v>
+      </c>
+      <c r="W40" s="12">
+        <v>60</v>
+      </c>
       <c r="X40" s="12"/>
-      <c r="Y40" s="12"/>
-      <c r="Z40" s="12"/>
-      <c r="AA40" s="12"/>
-      <c r="AB40" s="12"/>
+      <c r="Y40" s="12">
+        <v>1218</v>
+      </c>
+      <c r="Z40" s="12">
+        <v>131</v>
+      </c>
+      <c r="AA40" s="12">
+        <v>2323</v>
+      </c>
+      <c r="AB40" s="12">
+        <v>18827</v>
+      </c>
+      <c r="AC40" s="15" t="str">
+        <f t="shared" ref="AC40" si="9">DAY(A40)&amp;"/"&amp;MONTH(A40)&amp;"/"&amp;YEAR(A40)&amp;$AC$1&amp;DAY(A40)&amp;$AC$1&amp;MONTH(A40)&amp;$AC$1&amp;YEAR(A40)</f>
+        <v>2/4/2020,2,4,2020</v>
+      </c>
+      <c r="AD40" s="3" t="str">
+        <f>$AC40&amp;$AC$1&amp;B40&amp;$AC$1&amp;fatalities!B40&amp;$AC$1&amp;B$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;B$2</f>
+        <v>2/4/2020,2,4,2020,592,12,AG,nn,nnn,677387</v>
+      </c>
+      <c r="AE40" s="3" t="str">
+        <f>$AC40&amp;$AC$1&amp;C40&amp;$AC$1&amp;fatalities!C40&amp;$AC$1&amp;C$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;C$2</f>
+        <v>2/4/2020,2,4,2020,20,,AI,nn,nnn,16145</v>
+      </c>
+      <c r="AF40" s="3" t="str">
+        <f>$AC40&amp;$AC$1&amp;D40&amp;$AC$1&amp;fatalities!D40&amp;$AC$1&amp;D$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;D$2</f>
+        <v>2/4/2020,2,4,2020,64,3,AR,nn,nnn,55234</v>
+      </c>
+      <c r="AG40" s="3" t="str">
+        <f>$AC40&amp;$AC$1&amp;E40&amp;$AC$1&amp;fatalities!E40&amp;$AC$1&amp;E$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;E$2</f>
+        <v>2/4/2020,2,4,2020,1003,23,BE,nn,nnn,1034977</v>
+      </c>
+      <c r="AH40" s="3" t="str">
+        <f>$AC40&amp;$AC$1&amp;F40&amp;$AC$1&amp;fatalities!F40&amp;$AC$1&amp;F$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;F$2</f>
+        <v>2/4/2020,2,4,2020,610,12,BL,nn,nnn,288132</v>
+      </c>
+      <c r="AI40" s="3" t="str">
+        <f>$AC40&amp;$AC$1&amp;G40&amp;$AC$1&amp;fatalities!G40&amp;$AC$1&amp;G$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;G$2</f>
+        <v>2/4/2020,2,4,2020,718,19,BS,nn,nnn,194766</v>
+      </c>
+      <c r="AJ40" s="3" t="str">
+        <f>$AC40&amp;$AC$1&amp;H40&amp;$AC$1&amp;fatalities!H40&amp;$AC$1&amp;H$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;H$2</f>
+        <v>2/4/2020,2,4,2020,550,26,FR,nn,nnn,318714</v>
+      </c>
+      <c r="AK40" s="3" t="str">
+        <f>$AC40&amp;$AC$1&amp;I40&amp;$AC$1&amp;fatalities!I40&amp;$AC$1&amp;I$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;I$2</f>
+        <v>2/4/2020,2,4,2020,2845,67,GE,nn,nnn,499480</v>
+      </c>
+      <c r="AL40" s="3" t="str">
+        <f>$AC40&amp;$AC$1&amp;J40&amp;$AC$1&amp;fatalities!J40&amp;$AC$1&amp;J$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;J$2</f>
+        <v>2/4/2020,2,4,2020,58,2,GL,nn,nnn,40403</v>
+      </c>
+      <c r="AM40" s="3" t="str">
+        <f>$AC40&amp;$AC$1&amp;K40&amp;$AC$1&amp;fatalities!K40&amp;$AC$1&amp;K$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;K$2</f>
+        <v>2/4/2020,2,4,2020,569,23,GR,nn,nnn,198379</v>
+      </c>
+      <c r="AN40" s="3" t="str">
+        <f>$AC40&amp;$AC$1&amp;L40&amp;$AC$1&amp;fatalities!L40&amp;$AC$1&amp;L$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;L$2</f>
+        <v>2/4/2020,2,4,2020,145,,JU,nn,nnn,73419</v>
+      </c>
+      <c r="AO40" s="3" t="str">
+        <f>$AC40&amp;$AC$1&amp;M40&amp;$AC$1&amp;fatalities!M40&amp;$AC$1&amp;M$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;M$2</f>
+        <v>2/4/2020,2,4,2020,422,7,LU,nn,nnn,409557</v>
+      </c>
+      <c r="AP40" s="3" t="str">
+        <f>$AC40&amp;$AC$1&amp;N40&amp;$AC$1&amp;fatalities!N40&amp;$AC$1&amp;N$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;N$2</f>
+        <v>2/4/2020,2,4,2020,,,NE,nn,nnn,176850</v>
+      </c>
+      <c r="AQ40" s="3" t="str">
+        <f>$AC40&amp;$AC$1&amp;O40&amp;$AC$1&amp;fatalities!O40&amp;$AC$1&amp;O$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;O$2</f>
+        <v>2/4/2020,2,4,2020,76,0,NW,nn,nnn,43223</v>
+      </c>
+      <c r="AR40" s="3" t="str">
+        <f>$AC40&amp;$AC$1&amp;P40&amp;$AC$1&amp;fatalities!P40&amp;$AC$1&amp;P$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;P$2</f>
+        <v>2/4/2020,2,4,2020,51,,OW,nn,nnn,37841</v>
+      </c>
+      <c r="AS40" s="3" t="str">
+        <f>$AC40&amp;$AC$1&amp;Q40&amp;$AC$1&amp;fatalities!Q40&amp;$AC$1&amp;Q$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Q$2</f>
+        <v>2/4/2020,2,4,2020,455,8,SG,nn,nnn,507697</v>
+      </c>
+      <c r="AT40" s="3" t="str">
+        <f>$AC40&amp;$AC$1&amp;R40&amp;$AC$1&amp;fatalities!R40&amp;$AC$1&amp;R$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;R$2</f>
+        <v>2/4/2020,2,4,2020,44,,SH,nn,nnn,81991</v>
+      </c>
+      <c r="AU40" s="3" t="str">
+        <f>$AC40&amp;$AC$1&amp;S40&amp;$AC$1&amp;fatalities!S40&amp;$AC$1&amp;S$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;S$2</f>
+        <v>2/4/2020,2,4,2020,227,3,SO,nn,nnn,273194</v>
+      </c>
+      <c r="AV40" s="3" t="str">
+        <f>$AC40&amp;$AC$1&amp;T40&amp;$AC$1&amp;fatalities!T40&amp;$AC$1&amp;T$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;T$2</f>
+        <v>2/4/2020,2,4,2020,155,4,SZ,nn,nnn,159165</v>
+      </c>
+      <c r="AW40" s="3" t="str">
+        <f>$AC40&amp;$AC$1&amp;U40&amp;$AC$1&amp;fatalities!U40&amp;$AC$1&amp;U$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;U$2</f>
+        <v>2/4/2020,2,4,2020,179,4,TG,nn,nnn,276472</v>
+      </c>
+      <c r="AX40" s="3" t="str">
+        <f>$AC40&amp;$AC$1&amp;V40&amp;$AC$1&amp;fatalities!V40&amp;$AC$1&amp;V$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;V$2</f>
+        <v>2/4/2020,2,4,2020,2271,141,TI,nn,nnn,353343</v>
+      </c>
+      <c r="AY40" s="3" t="str">
+        <f>$AC40&amp;$AC$1&amp;W40&amp;$AC$1&amp;fatalities!W40&amp;$AC$1&amp;W$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;W$2</f>
+        <v>2/4/2020,2,4,2020,60,1,UR,nn,nnn,36433</v>
+      </c>
+      <c r="AZ40" s="3" t="str">
+        <f>$AC40&amp;$AC$1&amp;X40&amp;$AC$1&amp;fatalities!X40&amp;$AC$1&amp;X$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;X$2</f>
+        <v>2/4/2020,2,4,2020,,,VD,nn,nnn,799145</v>
+      </c>
+      <c r="BA40" s="3" t="str">
+        <f>$AC40&amp;$AC$1&amp;Y40&amp;$AC$1&amp;fatalities!Y40&amp;$AC$1&amp;Y$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Y$2</f>
+        <v>2/4/2020,2,4,2020,1218,40,VS,nn,nnn,343955</v>
+      </c>
+      <c r="BB40" s="3" t="str">
+        <f>$AC40&amp;$AC$1&amp;Z40&amp;$AC$1&amp;fatalities!Z40&amp;$AC$1&amp;Z$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Z$2</f>
+        <v>2/4/2020,2,4,2020,131,1,ZG,nn,nnn,126837</v>
+      </c>
+      <c r="BC40" s="3" t="str">
+        <f>$AC40&amp;$AC$1&amp;AA40&amp;$AC$1&amp;fatalities!AA40&amp;$AC$1&amp;AA$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AA$2</f>
+        <v>2/4/2020,2,4,2020,2323,36,ZH,nn,nnn,1520968</v>
+      </c>
+      <c r="BD40" s="3" t="str">
+        <f>$AC40&amp;$AC$1&amp;AB40&amp;$AC$1&amp;fatalities!AB40&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2</f>
+        <v>2/4/2020,2,4,2020,18827,536,CH,nn,nnn,8543707</v>
+      </c>
     </row>
     <row r="41" spans="1:56" x14ac:dyDescent="0.2">
       <c r="Z41" s="12"/>
@@ -11179,10 +11468,6 @@
       <c r="AB41" s="12"/>
     </row>
     <row r="42" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="W42">
-        <f>84/3465</f>
-        <v>2.4242424242424242E-2</v>
-      </c>
       <c r="Z42" s="12"/>
       <c r="AA42" s="12"/>
       <c r="AB42" s="12"/>
@@ -11209,7 +11494,7 @@
       <c r="S43" s="12"/>
       <c r="T43" s="12"/>
       <c r="U43" s="12"/>
-      <c r="V43" s="12"/>
+      <c r="V43" s="44"/>
       <c r="W43" s="12"/>
       <c r="X43" s="12"/>
       <c r="Y43" s="12"/>
@@ -11239,7 +11524,7 @@
       <c r="S44" s="12"/>
       <c r="T44" s="12"/>
       <c r="U44" s="12"/>
-      <c r="V44" s="12"/>
+      <c r="V44" s="44"/>
       <c r="W44" s="12"/>
       <c r="X44" s="12"/>
       <c r="Y44" s="12"/>
@@ -11269,7 +11554,7 @@
       <c r="S45" s="12"/>
       <c r="T45" s="12"/>
       <c r="U45" s="12"/>
-      <c r="V45" s="12"/>
+      <c r="V45" s="44"/>
       <c r="W45" s="12"/>
       <c r="X45" s="12"/>
       <c r="Y45" s="12"/>
@@ -11299,7 +11584,7 @@
       <c r="S46" s="12"/>
       <c r="T46" s="12"/>
       <c r="U46" s="12"/>
-      <c r="V46" s="12"/>
+      <c r="V46" s="44"/>
       <c r="W46" s="12"/>
       <c r="X46" s="12"/>
       <c r="Y46" s="12"/>
@@ -11329,7 +11614,7 @@
       <c r="S47" s="12"/>
       <c r="T47" s="12"/>
       <c r="U47" s="12"/>
-      <c r="V47" s="12"/>
+      <c r="V47" s="44"/>
       <c r="W47" s="12"/>
       <c r="X47" s="12"/>
       <c r="Y47" s="12"/>
@@ -11359,7 +11644,7 @@
       <c r="S48" s="12"/>
       <c r="T48" s="12"/>
       <c r="U48" s="12"/>
-      <c r="V48" s="12"/>
+      <c r="V48" s="44"/>
       <c r="W48" s="12"/>
       <c r="X48" s="12"/>
       <c r="Y48" s="12"/>
@@ -11389,7 +11674,7 @@
       <c r="S49" s="12"/>
       <c r="T49" s="12"/>
       <c r="U49" s="12"/>
-      <c r="V49" s="12"/>
+      <c r="V49" s="44"/>
       <c r="W49" s="12"/>
       <c r="X49" s="12"/>
       <c r="Y49" s="12"/>
@@ -11419,7 +11704,7 @@
       <c r="S50" s="12"/>
       <c r="T50" s="12"/>
       <c r="U50" s="12"/>
-      <c r="V50" s="12"/>
+      <c r="V50" s="44"/>
       <c r="W50" s="12"/>
       <c r="X50" s="12"/>
       <c r="Y50" s="12"/>
@@ -11449,7 +11734,7 @@
       <c r="S51" s="12"/>
       <c r="T51" s="12"/>
       <c r="U51" s="12"/>
-      <c r="V51" s="12"/>
+      <c r="V51" s="44"/>
       <c r="W51" s="12"/>
       <c r="X51" s="12"/>
       <c r="Y51" s="12"/>
@@ -11479,7 +11764,7 @@
       <c r="S52" s="12"/>
       <c r="T52" s="12"/>
       <c r="U52" s="12"/>
-      <c r="V52" s="12"/>
+      <c r="V52" s="44"/>
       <c r="W52" s="12"/>
       <c r="X52" s="12"/>
       <c r="Y52" s="12"/>
@@ -11509,7 +11794,7 @@
       <c r="S53" s="12"/>
       <c r="T53" s="12"/>
       <c r="U53" s="12"/>
-      <c r="V53" s="12"/>
+      <c r="V53" s="44"/>
       <c r="W53" s="12"/>
       <c r="X53" s="12"/>
       <c r="Y53" s="12"/>
@@ -11539,7 +11824,7 @@
       <c r="S54" s="12"/>
       <c r="T54" s="12"/>
       <c r="U54" s="12"/>
-      <c r="V54" s="12"/>
+      <c r="V54" s="44"/>
       <c r="W54" s="12"/>
       <c r="X54" s="12"/>
       <c r="Y54" s="12"/>
@@ -11569,7 +11854,7 @@
       <c r="S55" s="12"/>
       <c r="T55" s="12"/>
       <c r="U55" s="12"/>
-      <c r="V55" s="12"/>
+      <c r="V55" s="44"/>
       <c r="W55" s="12"/>
       <c r="X55" s="12"/>
       <c r="Y55" s="12"/>
@@ -11599,7 +11884,7 @@
       <c r="S56" s="12"/>
       <c r="T56" s="12"/>
       <c r="U56" s="12"/>
-      <c r="V56" s="12"/>
+      <c r="V56" s="44"/>
       <c r="W56" s="12"/>
       <c r="X56" s="12"/>
       <c r="Y56" s="12"/>
@@ -11629,7 +11914,7 @@
       <c r="S57" s="12"/>
       <c r="T57" s="12"/>
       <c r="U57" s="12"/>
-      <c r="V57" s="12"/>
+      <c r="V57" s="44"/>
       <c r="W57" s="12"/>
       <c r="X57" s="12"/>
       <c r="Y57" s="12"/>
@@ -11659,7 +11944,7 @@
       <c r="S58" s="12"/>
       <c r="T58" s="12"/>
       <c r="U58" s="12"/>
-      <c r="V58" s="12"/>
+      <c r="V58" s="44"/>
       <c r="W58" s="12"/>
       <c r="X58" s="12"/>
       <c r="Y58" s="12"/>
@@ -11689,7 +11974,7 @@
       <c r="S59" s="12"/>
       <c r="T59" s="12"/>
       <c r="U59" s="12"/>
-      <c r="V59" s="12"/>
+      <c r="V59" s="44"/>
       <c r="W59" s="12"/>
       <c r="X59" s="12"/>
       <c r="Y59" s="12"/>
@@ -11719,7 +12004,7 @@
       <c r="S60" s="12"/>
       <c r="T60" s="12"/>
       <c r="U60" s="12"/>
-      <c r="V60" s="12"/>
+      <c r="V60" s="44"/>
       <c r="W60" s="12"/>
       <c r="X60" s="12"/>
       <c r="Y60" s="12"/>
@@ -11749,7 +12034,7 @@
       <c r="S61" s="12"/>
       <c r="T61" s="12"/>
       <c r="U61" s="12"/>
-      <c r="V61" s="12"/>
+      <c r="V61" s="44"/>
       <c r="W61" s="12"/>
       <c r="X61" s="12"/>
       <c r="Y61" s="12"/>
@@ -11779,7 +12064,7 @@
       <c r="S62" s="12"/>
       <c r="T62" s="12"/>
       <c r="U62" s="12"/>
-      <c r="V62" s="12"/>
+      <c r="V62" s="44"/>
       <c r="W62" s="12"/>
       <c r="X62" s="12"/>
       <c r="Y62" s="12"/>
@@ -11809,7 +12094,7 @@
       <c r="S63" s="12"/>
       <c r="T63" s="12"/>
       <c r="U63" s="12"/>
-      <c r="V63" s="12"/>
+      <c r="V63" s="44"/>
       <c r="W63" s="12"/>
       <c r="X63" s="12"/>
       <c r="Y63" s="12"/>
@@ -11839,7 +12124,7 @@
       <c r="S64" s="12"/>
       <c r="T64" s="12"/>
       <c r="U64" s="12"/>
-      <c r="V64" s="12"/>
+      <c r="V64" s="44"/>
       <c r="W64" s="12"/>
       <c r="X64" s="12"/>
       <c r="Y64" s="12"/>
@@ -11869,7 +12154,7 @@
       <c r="S65" s="12"/>
       <c r="T65" s="12"/>
       <c r="U65" s="12"/>
-      <c r="V65" s="12"/>
+      <c r="V65" s="44"/>
       <c r="W65" s="12"/>
       <c r="X65" s="12"/>
       <c r="Y65" s="12"/>
@@ -11899,7 +12184,7 @@
       <c r="S66" s="12"/>
       <c r="T66" s="12"/>
       <c r="U66" s="12"/>
-      <c r="V66" s="12"/>
+      <c r="V66" s="44"/>
       <c r="W66" s="12"/>
       <c r="X66" s="12"/>
       <c r="Y66" s="12"/>
@@ -11929,7 +12214,7 @@
       <c r="S67" s="12"/>
       <c r="T67" s="12"/>
       <c r="U67" s="12"/>
-      <c r="V67" s="12"/>
+      <c r="V67" s="44"/>
       <c r="W67" s="12"/>
       <c r="X67" s="12"/>
       <c r="Y67" s="12"/>
@@ -11959,7 +12244,7 @@
       <c r="S68" s="12"/>
       <c r="T68" s="12"/>
       <c r="U68" s="12"/>
-      <c r="V68" s="12"/>
+      <c r="V68" s="44"/>
       <c r="W68" s="12"/>
       <c r="X68" s="12"/>
       <c r="Y68" s="12"/>
@@ -11989,7 +12274,7 @@
       <c r="S69" s="12"/>
       <c r="T69" s="12"/>
       <c r="U69" s="12"/>
-      <c r="V69" s="12"/>
+      <c r="V69" s="44"/>
       <c r="W69" s="12"/>
       <c r="X69" s="12"/>
       <c r="Y69" s="12"/>
@@ -12019,7 +12304,7 @@
       <c r="S70" s="12"/>
       <c r="T70" s="12"/>
       <c r="U70" s="12"/>
-      <c r="V70" s="12"/>
+      <c r="V70" s="44"/>
       <c r="W70" s="12"/>
       <c r="X70" s="12"/>
       <c r="Y70" s="12"/>
@@ -12049,7 +12334,7 @@
       <c r="S71" s="12"/>
       <c r="T71" s="12"/>
       <c r="U71" s="12"/>
-      <c r="V71" s="12"/>
+      <c r="V71" s="44"/>
       <c r="W71" s="12"/>
       <c r="X71" s="12"/>
       <c r="Y71" s="12"/>
@@ -12079,7 +12364,7 @@
       <c r="S72" s="12"/>
       <c r="T72" s="12"/>
       <c r="U72" s="12"/>
-      <c r="V72" s="12"/>
+      <c r="V72" s="44"/>
       <c r="W72" s="12"/>
       <c r="X72" s="12"/>
       <c r="Y72" s="12"/>
@@ -12109,7 +12394,7 @@
       <c r="S73" s="12"/>
       <c r="T73" s="12"/>
       <c r="U73" s="12"/>
-      <c r="V73" s="12"/>
+      <c r="V73" s="44"/>
       <c r="W73" s="12"/>
       <c r="X73" s="12"/>
       <c r="Y73" s="12"/>
@@ -12139,7 +12424,7 @@
       <c r="S74" s="12"/>
       <c r="T74" s="12"/>
       <c r="U74" s="12"/>
-      <c r="V74" s="12"/>
+      <c r="V74" s="44"/>
       <c r="W74" s="12"/>
       <c r="X74" s="12"/>
       <c r="Y74" s="12"/>
@@ -12169,7 +12454,7 @@
       <c r="S75" s="12"/>
       <c r="T75" s="12"/>
       <c r="U75" s="12"/>
-      <c r="V75" s="12"/>
+      <c r="V75" s="44"/>
       <c r="W75" s="12"/>
       <c r="X75" s="12"/>
       <c r="Y75" s="12"/>
@@ -12185,10 +12470,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC38"/>
+  <dimension ref="A1:AC40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="X37" sqref="X37"/>
+      <selection activeCell="V40" sqref="V40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12208,7 +12493,7 @@
     <col min="19" max="19" width="3.125" style="18" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="3.375" style="18" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="2.75" style="18" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="3.875" style="18" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3.875" style="48" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="3" style="18" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="3.125" style="18" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="3.375" style="18" bestFit="1" customWidth="1"/>
@@ -12282,7 +12567,7 @@
       <c r="U1" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="V1" s="19" t="s">
+      <c r="V1" s="46" t="s">
         <v>7</v>
       </c>
       <c r="W1" s="19" t="s">
@@ -12306,9 +12591,7 @@
       <c r="AC1" s="17"/>
     </row>
     <row r="2" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20">
-        <v>43886</v>
-      </c>
+      <c r="A2" s="20"/>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
       <c r="D2" s="21"/>
@@ -12329,1798 +12612,1905 @@
       <c r="S2" s="21"/>
       <c r="T2" s="21"/>
       <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
+      <c r="V2" s="47"/>
       <c r="W2" s="21"/>
       <c r="X2" s="21"/>
       <c r="Y2" s="21"/>
       <c r="Z2" s="21"/>
       <c r="AA2" s="21"/>
-      <c r="AB2" s="21">
+      <c r="AB2" s="21"/>
+    </row>
+    <row r="3" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="20">
+        <v>43886</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="47"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="21">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22">
+    <row r="4" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="22">
         <v>43887</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="23"/>
-      <c r="AA3" s="23"/>
-      <c r="AB3" s="23">
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="23"/>
+      <c r="V4" s="47"/>
+      <c r="W4" s="23"/>
+      <c r="X4" s="23"/>
+      <c r="Y4" s="23"/>
+      <c r="Z4" s="23"/>
+      <c r="AA4" s="23"/>
+      <c r="AB4" s="23">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20">
+    <row r="5" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="20">
         <v>43888</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="21"/>
-      <c r="W4" s="21"/>
-      <c r="X4" s="21"/>
-      <c r="Y4" s="21"/>
-      <c r="Z4" s="21"/>
-      <c r="AA4" s="21"/>
-      <c r="AB4" s="21">
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="47"/>
+      <c r="W5" s="21"/>
+      <c r="X5" s="21"/>
+      <c r="Y5" s="21"/>
+      <c r="Z5" s="21"/>
+      <c r="AA5" s="21"/>
+      <c r="AB5" s="21">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22">
+    <row r="6" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="22">
         <v>43889</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="23"/>
-      <c r="U5" s="23"/>
-      <c r="V5" s="23"/>
-      <c r="W5" s="23"/>
-      <c r="X5" s="23"/>
-      <c r="Y5" s="23"/>
-      <c r="Z5" s="23"/>
-      <c r="AA5" s="23"/>
-      <c r="AB5" s="23">
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="23"/>
+      <c r="V6" s="47"/>
+      <c r="W6" s="23"/>
+      <c r="X6" s="23"/>
+      <c r="Y6" s="23"/>
+      <c r="Z6" s="23"/>
+      <c r="AA6" s="23"/>
+      <c r="AB6" s="23">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20">
+    <row r="7" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="20">
         <v>43890</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="21"/>
-      <c r="X6" s="21"/>
-      <c r="Y6" s="21"/>
-      <c r="Z6" s="21"/>
-      <c r="AA6" s="21"/>
-      <c r="AB6" s="21">
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="47"/>
+      <c r="W7" s="21"/>
+      <c r="X7" s="21"/>
+      <c r="Y7" s="21"/>
+      <c r="Z7" s="21"/>
+      <c r="AA7" s="21"/>
+      <c r="AB7" s="21">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22">
+    <row r="8" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="22">
         <v>43891</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23"/>
-      <c r="U7" s="23"/>
-      <c r="V7" s="23"/>
-      <c r="W7" s="23"/>
-      <c r="X7" s="23"/>
-      <c r="Y7" s="23"/>
-      <c r="Z7" s="23"/>
-      <c r="AA7" s="23"/>
-      <c r="AB7" s="23">
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="47"/>
+      <c r="W8" s="23"/>
+      <c r="X8" s="23"/>
+      <c r="Y8" s="23"/>
+      <c r="Z8" s="23"/>
+      <c r="AA8" s="23"/>
+      <c r="AB8" s="23">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20">
+    <row r="9" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="20">
         <v>43892</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="21"/>
-      <c r="T8" s="21"/>
-      <c r="U8" s="21"/>
-      <c r="V8" s="21"/>
-      <c r="W8" s="21"/>
-      <c r="X8" s="21"/>
-      <c r="Y8" s="21"/>
-      <c r="Z8" s="21"/>
-      <c r="AA8" s="21"/>
-      <c r="AB8" s="21">
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="47"/>
+      <c r="W9" s="21"/>
+      <c r="X9" s="21"/>
+      <c r="Y9" s="21"/>
+      <c r="Z9" s="21"/>
+      <c r="AA9" s="21"/>
+      <c r="AB9" s="21">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="22">
+    <row r="10" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="22">
         <v>43893</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
-      <c r="S9" s="23"/>
-      <c r="T9" s="23"/>
-      <c r="U9" s="23"/>
-      <c r="V9" s="23"/>
-      <c r="W9" s="23"/>
-      <c r="X9" s="23"/>
-      <c r="Y9" s="23"/>
-      <c r="Z9" s="23"/>
-      <c r="AA9" s="23"/>
-      <c r="AB9" s="23">
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="23"/>
+      <c r="U10" s="23"/>
+      <c r="V10" s="47"/>
+      <c r="W10" s="23"/>
+      <c r="X10" s="23"/>
+      <c r="Y10" s="23"/>
+      <c r="Z10" s="23"/>
+      <c r="AA10" s="23"/>
+      <c r="AB10" s="23">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="20">
+    <row r="11" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="20">
         <v>43894</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="21"/>
-      <c r="T10" s="21"/>
-      <c r="U10" s="21"/>
-      <c r="V10" s="21"/>
-      <c r="W10" s="21"/>
-      <c r="X10" s="21"/>
-      <c r="Y10" s="21"/>
-      <c r="Z10" s="21"/>
-      <c r="AA10" s="21"/>
-      <c r="AB10" s="21">
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="47"/>
+      <c r="W11" s="21"/>
+      <c r="X11" s="21"/>
+      <c r="Y11" s="21"/>
+      <c r="Z11" s="21"/>
+      <c r="AA11" s="21"/>
+      <c r="AB11" s="21">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22">
+    <row r="12" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="22">
         <v>43895</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
-      <c r="S11" s="23"/>
-      <c r="T11" s="23"/>
-      <c r="U11" s="23"/>
-      <c r="V11" s="23"/>
-      <c r="W11" s="23"/>
-      <c r="X11" s="23"/>
-      <c r="Y11" s="23"/>
-      <c r="Z11" s="23"/>
-      <c r="AA11" s="23"/>
-      <c r="AB11" s="23">
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="47"/>
+      <c r="W12" s="23"/>
+      <c r="X12" s="23"/>
+      <c r="Y12" s="23"/>
+      <c r="Z12" s="23"/>
+      <c r="AA12" s="23"/>
+      <c r="AB12" s="23">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20">
+    <row r="13" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="20">
         <v>43896</v>
       </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="21"/>
-      <c r="T12" s="21"/>
-      <c r="U12" s="21"/>
-      <c r="V12" s="21"/>
-      <c r="W12" s="21"/>
-      <c r="X12" s="21">
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="47"/>
+      <c r="W13" s="21"/>
+      <c r="X13" s="21">
         <v>1</v>
       </c>
-      <c r="Y12" s="21"/>
-      <c r="Z12" s="21"/>
-      <c r="AA12" s="21"/>
-      <c r="AB12" s="21">
+      <c r="Y13" s="21"/>
+      <c r="Z13" s="21"/>
+      <c r="AA13" s="21"/>
+      <c r="AB13" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="22">
+    <row r="14" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="22">
         <v>43897</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
-      <c r="S13" s="23"/>
-      <c r="T13" s="23"/>
-      <c r="U13" s="23"/>
-      <c r="V13" s="23"/>
-      <c r="W13" s="23"/>
-      <c r="X13" s="23">
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="23"/>
+      <c r="U14" s="23"/>
+      <c r="V14" s="47"/>
+      <c r="W14" s="23"/>
+      <c r="X14" s="23">
         <v>1</v>
       </c>
-      <c r="Y13" s="23"/>
-      <c r="Z13" s="23"/>
-      <c r="AA13" s="23"/>
-      <c r="AB13" s="23">
+      <c r="Y14" s="23"/>
+      <c r="Z14" s="23"/>
+      <c r="AA14" s="23"/>
+      <c r="AB14" s="23">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20">
+    <row r="15" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="20">
         <v>43898</v>
       </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21">
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21">
         <v>1</v>
       </c>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="21"/>
-      <c r="T14" s="21"/>
-      <c r="U14" s="21"/>
-      <c r="V14" s="21"/>
-      <c r="W14" s="21"/>
-      <c r="X14" s="21">
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="21"/>
+      <c r="V15" s="47"/>
+      <c r="W15" s="21"/>
+      <c r="X15" s="21">
         <v>1</v>
       </c>
-      <c r="Y14" s="21"/>
-      <c r="Z14" s="21"/>
-      <c r="AA14" s="21"/>
-      <c r="AB14" s="21">
+      <c r="Y15" s="21"/>
+      <c r="Z15" s="21"/>
+      <c r="AA15" s="21"/>
+      <c r="AB15" s="21">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="22">
+    <row r="16" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="22">
         <v>43899</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23">
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23">
         <v>1</v>
       </c>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23">
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23">
         <v>1</v>
       </c>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="23"/>
-      <c r="T15" s="23"/>
-      <c r="U15" s="23"/>
-      <c r="V15" s="23"/>
-      <c r="W15" s="23"/>
-      <c r="X15" s="23">
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="23"/>
+      <c r="U16" s="23"/>
+      <c r="V16" s="47"/>
+      <c r="W16" s="23"/>
+      <c r="X16" s="23">
         <v>1</v>
       </c>
-      <c r="Y15" s="23"/>
-      <c r="Z15" s="23"/>
-      <c r="AA15" s="23"/>
-      <c r="AB15" s="23">
+      <c r="Y16" s="23"/>
+      <c r="Z16" s="23"/>
+      <c r="AA16" s="23"/>
+      <c r="AB16" s="23">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="20">
+    <row r="17" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="20">
         <v>43900</v>
       </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21">
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21">
         <v>1</v>
       </c>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21">
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21">
         <v>2</v>
       </c>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="21"/>
-      <c r="S16" s="21"/>
-      <c r="T16" s="21"/>
-      <c r="U16" s="21"/>
-      <c r="V16" s="21">
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="21"/>
+      <c r="U17" s="21"/>
+      <c r="V17" s="47">
         <v>1</v>
       </c>
-      <c r="W16" s="21"/>
-      <c r="X16" s="21">
+      <c r="W17" s="21"/>
+      <c r="X17" s="21">
         <v>1</v>
       </c>
-      <c r="Y16" s="21"/>
-      <c r="Z16" s="21"/>
-      <c r="AA16" s="21"/>
-      <c r="AB16" s="21">
+      <c r="Y17" s="21"/>
+      <c r="Z17" s="21"/>
+      <c r="AA17" s="21"/>
+      <c r="AB17" s="21">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="22">
+    <row r="18" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="22">
         <v>43901</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23">
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23">
         <v>2</v>
       </c>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23">
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23">
         <v>2</v>
       </c>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
-      <c r="S17" s="23"/>
-      <c r="T17" s="23"/>
-      <c r="U17" s="23"/>
-      <c r="V17" s="23"/>
-      <c r="W17" s="23"/>
-      <c r="X17" s="23">
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="23"/>
+      <c r="U18" s="23"/>
+      <c r="V18" s="47"/>
+      <c r="W18" s="23"/>
+      <c r="X18" s="23">
         <v>1</v>
       </c>
-      <c r="Y17" s="23"/>
-      <c r="Z17" s="23"/>
-      <c r="AA17" s="23"/>
-      <c r="AB17" s="23">
+      <c r="Y18" s="23"/>
+      <c r="Z18" s="23"/>
+      <c r="AA18" s="23"/>
+      <c r="AB18" s="23">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20">
+    <row r="19" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="20">
         <v>43902</v>
       </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21">
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21">
         <v>2</v>
       </c>
-      <c r="G18" s="21">
+      <c r="G19" s="21">
         <v>1</v>
       </c>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21">
+      <c r="H19" s="21"/>
+      <c r="I19" s="21">
         <v>2</v>
       </c>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="21"/>
-      <c r="S18" s="21"/>
-      <c r="T18" s="21"/>
-      <c r="U18" s="21"/>
-      <c r="V18" s="21"/>
-      <c r="W18" s="21"/>
-      <c r="X18" s="21">
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="21"/>
+      <c r="S19" s="21"/>
+      <c r="T19" s="21"/>
+      <c r="U19" s="21"/>
+      <c r="V19" s="47"/>
+      <c r="W19" s="21"/>
+      <c r="X19" s="21">
         <v>1</v>
       </c>
-      <c r="Y18" s="21"/>
-      <c r="Z18" s="21"/>
-      <c r="AA18" s="21"/>
-      <c r="AB18" s="21">
+      <c r="Y19" s="21"/>
+      <c r="Z19" s="21"/>
+      <c r="AA19" s="21"/>
+      <c r="AB19" s="21">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="22">
+    <row r="20" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="22">
         <v>43903</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23">
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23">
         <v>2</v>
       </c>
-      <c r="G19" s="23">
+      <c r="G20" s="23">
         <v>1</v>
       </c>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23">
+      <c r="H20" s="23"/>
+      <c r="I20" s="23">
         <v>2</v>
       </c>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
-      <c r="S19" s="23"/>
-      <c r="T19" s="23"/>
-      <c r="U19" s="23"/>
-      <c r="V19" s="23"/>
-      <c r="W19" s="23"/>
-      <c r="X19" s="23">
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
+      <c r="S20" s="23"/>
+      <c r="T20" s="23"/>
+      <c r="U20" s="23"/>
+      <c r="V20" s="47"/>
+      <c r="W20" s="23"/>
+      <c r="X20" s="23">
         <v>2</v>
       </c>
-      <c r="Y19" s="23"/>
-      <c r="Z19" s="23"/>
-      <c r="AA19" s="23"/>
-      <c r="AB19" s="23">
+      <c r="Y20" s="23"/>
+      <c r="Z20" s="23"/>
+      <c r="AA20" s="23"/>
+      <c r="AB20" s="23">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="20">
+    <row r="21" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="20">
         <v>43904</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21">
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21">
         <v>2</v>
       </c>
-      <c r="G20" s="21">
+      <c r="G21" s="21">
         <v>1</v>
       </c>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21">
+      <c r="H21" s="21"/>
+      <c r="I21" s="21">
         <v>2</v>
       </c>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="21"/>
-      <c r="S20" s="21"/>
-      <c r="T20" s="21"/>
-      <c r="U20" s="21"/>
-      <c r="V20" s="21">
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="21"/>
+      <c r="T21" s="21"/>
+      <c r="U21" s="21"/>
+      <c r="V21" s="47">
         <v>3</v>
       </c>
-      <c r="W20" s="21"/>
-      <c r="X20" s="21">
+      <c r="W21" s="21"/>
+      <c r="X21" s="21">
         <v>3</v>
       </c>
-      <c r="Y20" s="21">
+      <c r="Y21" s="21">
         <v>1</v>
       </c>
-      <c r="Z20" s="21"/>
-      <c r="AA20" s="21"/>
-      <c r="AB20" s="21">
+      <c r="Z21" s="21"/>
+      <c r="AA21" s="21"/>
+      <c r="AB21" s="21">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="22">
+    <row r="22" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="22">
         <v>43905</v>
       </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23">
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23">
         <v>2</v>
       </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23">
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23">
         <v>4</v>
       </c>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="23"/>
-      <c r="S21" s="23"/>
-      <c r="T21" s="23"/>
-      <c r="U21" s="23"/>
-      <c r="V21" s="23">
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
+      <c r="S22" s="23"/>
+      <c r="T22" s="23"/>
+      <c r="U22" s="23"/>
+      <c r="V22" s="47">
         <v>6</v>
       </c>
-      <c r="W21" s="23"/>
-      <c r="X21" s="23">
+      <c r="W22" s="23"/>
+      <c r="X22" s="23">
         <v>4</v>
       </c>
-      <c r="Y21" s="23">
+      <c r="Y22" s="23">
         <v>1</v>
       </c>
-      <c r="Z21" s="23"/>
-      <c r="AA21" s="23"/>
-      <c r="AB21" s="23">
+      <c r="Z22" s="23"/>
+      <c r="AA22" s="23"/>
+      <c r="AB22" s="23">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="20">
+    <row r="23" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="20">
         <v>43906</v>
       </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21">
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21">
         <v>1</v>
       </c>
-      <c r="F22" s="21">
+      <c r="F23" s="21">
         <v>2</v>
       </c>
-      <c r="G22" s="21">
+      <c r="G23" s="21">
         <v>4</v>
       </c>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21">
+      <c r="H23" s="21"/>
+      <c r="I23" s="21">
         <v>4</v>
       </c>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="21"/>
-      <c r="R22" s="21"/>
-      <c r="S22" s="21"/>
-      <c r="T22" s="21"/>
-      <c r="U22" s="21"/>
-      <c r="V22" s="21">
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="21"/>
+      <c r="S23" s="21"/>
+      <c r="T23" s="21"/>
+      <c r="U23" s="21"/>
+      <c r="V23" s="47">
         <v>8</v>
       </c>
-      <c r="W22" s="21"/>
-      <c r="X22" s="21">
+      <c r="W23" s="21"/>
+      <c r="X23" s="21">
         <v>5</v>
       </c>
-      <c r="Y22" s="21">
+      <c r="Y23" s="21">
         <v>2</v>
       </c>
-      <c r="Z22" s="21"/>
-      <c r="AA22" s="21">
+      <c r="Z23" s="21"/>
+      <c r="AA23" s="21">
         <v>1</v>
       </c>
-      <c r="AB22" s="21">
+      <c r="AB23" s="21">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="22">
+    <row r="24" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="22">
         <v>43907</v>
       </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23">
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23">
         <v>2</v>
       </c>
-      <c r="G23" s="23">
+      <c r="G24" s="23">
         <v>4</v>
       </c>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23">
+      <c r="H24" s="23"/>
+      <c r="I24" s="23">
         <v>4</v>
       </c>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="23"/>
-      <c r="Q23" s="23"/>
-      <c r="R23" s="23"/>
-      <c r="S23" s="23"/>
-      <c r="T23" s="23"/>
-      <c r="U23" s="23"/>
-      <c r="V23" s="23">
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="23"/>
+      <c r="R24" s="23"/>
+      <c r="S24" s="23"/>
+      <c r="T24" s="23"/>
+      <c r="U24" s="23"/>
+      <c r="V24" s="47">
         <v>10</v>
       </c>
-      <c r="W23" s="23"/>
-      <c r="X23" s="23">
+      <c r="W24" s="23"/>
+      <c r="X24" s="23">
         <v>5</v>
       </c>
-      <c r="Y23" s="23">
+      <c r="Y24" s="23">
         <v>3</v>
       </c>
-      <c r="Z23" s="23"/>
-      <c r="AA23" s="23"/>
-      <c r="AB23" s="23">
+      <c r="Z24" s="23"/>
+      <c r="AA24" s="23"/>
+      <c r="AB24" s="23">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="20">
+    <row r="25" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="20">
         <v>43908</v>
       </c>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21">
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21">
         <v>1</v>
       </c>
-      <c r="F24" s="21">
+      <c r="F25" s="21">
         <v>2</v>
       </c>
-      <c r="G24" s="21">
+      <c r="G25" s="21">
         <v>4</v>
       </c>
-      <c r="H24" s="21">
+      <c r="H25" s="21">
         <v>1</v>
       </c>
-      <c r="I24" s="21">
+      <c r="I25" s="21">
         <v>6</v>
       </c>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21">
+      <c r="J25" s="21"/>
+      <c r="K25" s="21">
         <v>1</v>
       </c>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="21"/>
-      <c r="R24" s="21"/>
-      <c r="S24" s="21"/>
-      <c r="T24" s="21"/>
-      <c r="U24" s="21"/>
-      <c r="V24" s="21">
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="21"/>
+      <c r="S25" s="21"/>
+      <c r="T25" s="21"/>
+      <c r="U25" s="21"/>
+      <c r="V25" s="47">
         <v>14</v>
       </c>
-      <c r="W24" s="21"/>
-      <c r="X24" s="21">
+      <c r="W25" s="21"/>
+      <c r="X25" s="21">
         <v>5</v>
       </c>
-      <c r="Y24" s="21">
+      <c r="Y25" s="21">
         <v>3</v>
       </c>
-      <c r="Z24" s="21"/>
-      <c r="AA24" s="21"/>
-      <c r="AB24" s="21">
+      <c r="Z25" s="21"/>
+      <c r="AA25" s="21"/>
+      <c r="AB25" s="21">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="22">
+    <row r="26" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="22">
         <v>43909</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23">
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23">
         <v>1</v>
       </c>
-      <c r="F25" s="23">
+      <c r="F26" s="23">
         <v>2</v>
       </c>
-      <c r="G25" s="23">
+      <c r="G26" s="23">
         <v>4</v>
       </c>
-      <c r="H25" s="23">
+      <c r="H26" s="23">
         <v>1</v>
       </c>
-      <c r="I25" s="23">
+      <c r="I26" s="23">
         <v>6</v>
       </c>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23">
+      <c r="J26" s="23"/>
+      <c r="K26" s="23">
         <v>1</v>
       </c>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="23"/>
-      <c r="P25" s="23"/>
-      <c r="Q25" s="23"/>
-      <c r="R25" s="23"/>
-      <c r="S25" s="23"/>
-      <c r="T25" s="23"/>
-      <c r="U25" s="23"/>
-      <c r="V25" s="23">
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="23"/>
+      <c r="R26" s="23"/>
+      <c r="S26" s="23"/>
+      <c r="T26" s="23"/>
+      <c r="U26" s="23"/>
+      <c r="V26" s="47">
         <v>15</v>
       </c>
-      <c r="W25" s="23"/>
-      <c r="X25" s="23">
+      <c r="W26" s="23"/>
+      <c r="X26" s="23">
         <v>7</v>
       </c>
-      <c r="Y25" s="23">
+      <c r="Y26" s="23">
         <v>4</v>
       </c>
-      <c r="Z25" s="23"/>
-      <c r="AA25" s="23">
+      <c r="Z26" s="23"/>
+      <c r="AA26" s="23">
         <v>3</v>
       </c>
-      <c r="AB25" s="23">
+      <c r="AB26" s="23">
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="20">
+    <row r="27" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="20">
         <v>43910</v>
       </c>
-      <c r="B26" s="21">
+      <c r="B27" s="21">
         <v>1</v>
       </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21">
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21">
         <v>2</v>
       </c>
-      <c r="F26" s="21">
+      <c r="F27" s="21">
         <v>3</v>
       </c>
-      <c r="G26" s="21">
+      <c r="G27" s="21">
         <v>4</v>
       </c>
-      <c r="H26" s="21">
+      <c r="H27" s="21">
         <v>1</v>
       </c>
-      <c r="I26" s="21">
+      <c r="I27" s="21">
         <v>8</v>
       </c>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21">
+      <c r="J27" s="21"/>
+      <c r="K27" s="21">
         <v>3</v>
       </c>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="21">
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21">
         <v>2</v>
       </c>
-      <c r="O26" s="21"/>
-      <c r="P26" s="21"/>
-      <c r="Q26" s="21"/>
-      <c r="R26" s="21"/>
-      <c r="S26" s="21"/>
-      <c r="T26" s="21"/>
-      <c r="U26" s="21"/>
-      <c r="V26" s="21">
+      <c r="O27" s="21"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="21"/>
+      <c r="R27" s="21"/>
+      <c r="S27" s="21"/>
+      <c r="T27" s="21"/>
+      <c r="U27" s="21"/>
+      <c r="V27" s="47">
         <v>22</v>
       </c>
-      <c r="W26" s="21"/>
-      <c r="X26" s="21">
+      <c r="W27" s="21"/>
+      <c r="X27" s="21">
         <v>12</v>
       </c>
-      <c r="Y26" s="21">
+      <c r="Y27" s="21">
         <v>6</v>
       </c>
-      <c r="Z26" s="21"/>
-      <c r="AA26" s="21">
+      <c r="Z27" s="21"/>
+      <c r="AA27" s="21">
         <v>3</v>
       </c>
-      <c r="AB26" s="21">
+      <c r="AB27" s="21">
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="22">
+    <row r="28" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="22">
         <v>43911</v>
       </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23">
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23">
         <v>1</v>
       </c>
-      <c r="E27" s="23">
+      <c r="E28" s="23">
         <v>3</v>
       </c>
-      <c r="F27" s="23">
+      <c r="F28" s="23">
         <v>3</v>
       </c>
-      <c r="G27" s="23">
+      <c r="G28" s="23">
         <v>5</v>
       </c>
-      <c r="H27" s="23">
+      <c r="H28" s="23">
         <v>2</v>
       </c>
-      <c r="I27" s="23">
+      <c r="I28" s="23">
         <v>9</v>
       </c>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23">
+      <c r="J28" s="23"/>
+      <c r="K28" s="23">
         <v>3</v>
       </c>
-      <c r="L27" s="23"/>
-      <c r="M27" s="23">
+      <c r="L28" s="23"/>
+      <c r="M28" s="23">
         <v>1</v>
       </c>
-      <c r="N27" s="23">
+      <c r="N28" s="23">
         <v>2</v>
       </c>
-      <c r="O27" s="23"/>
-      <c r="P27" s="23"/>
-      <c r="Q27" s="23"/>
-      <c r="R27" s="23"/>
-      <c r="S27" s="23"/>
-      <c r="T27" s="23"/>
-      <c r="U27" s="23"/>
-      <c r="V27" s="23">
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="23"/>
+      <c r="S28" s="23"/>
+      <c r="T28" s="23"/>
+      <c r="U28" s="23"/>
+      <c r="V28" s="47">
         <v>28</v>
       </c>
-      <c r="W27" s="23"/>
-      <c r="X27" s="23">
+      <c r="W28" s="23"/>
+      <c r="X28" s="23">
         <v>15</v>
       </c>
-      <c r="Y27" s="23">
+      <c r="Y28" s="23">
         <v>7</v>
       </c>
-      <c r="Z27" s="23"/>
-      <c r="AA27" s="23"/>
-      <c r="AB27" s="23">
+      <c r="Z28" s="23"/>
+      <c r="AA28" s="23"/>
+      <c r="AB28" s="23">
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="20">
+    <row r="29" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="20">
         <v>43912</v>
       </c>
-      <c r="B28" s="21">
+      <c r="B29" s="21">
         <v>1</v>
       </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21">
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21">
         <v>3</v>
       </c>
-      <c r="G28" s="21">
+      <c r="G29" s="21">
         <v>5</v>
       </c>
-      <c r="H28" s="21">
+      <c r="H29" s="21">
         <v>3</v>
       </c>
-      <c r="I28" s="21">
+      <c r="I29" s="21">
         <v>10</v>
       </c>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21">
+      <c r="J29" s="21"/>
+      <c r="K29" s="21">
         <v>6</v>
       </c>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21">
+      <c r="L29" s="21"/>
+      <c r="M29" s="21">
         <v>1</v>
       </c>
-      <c r="N28" s="21">
+      <c r="N29" s="21">
         <v>2</v>
       </c>
-      <c r="O28" s="21"/>
-      <c r="P28" s="21"/>
-      <c r="Q28" s="21"/>
-      <c r="R28" s="21"/>
-      <c r="S28" s="21"/>
-      <c r="T28" s="21"/>
-      <c r="U28" s="21"/>
-      <c r="V28" s="21">
+      <c r="O29" s="21"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="21"/>
+      <c r="S29" s="21"/>
+      <c r="T29" s="21"/>
+      <c r="U29" s="21"/>
+      <c r="V29" s="47">
         <v>37</v>
       </c>
-      <c r="W28" s="21"/>
-      <c r="X28" s="21">
+      <c r="W29" s="21"/>
+      <c r="X29" s="21">
         <v>16</v>
       </c>
-      <c r="Y28" s="21">
+      <c r="Y29" s="21">
         <v>10</v>
       </c>
-      <c r="Z28" s="21"/>
-      <c r="AA28" s="21"/>
-      <c r="AB28" s="21">
+      <c r="Z29" s="21"/>
+      <c r="AA29" s="21"/>
+      <c r="AB29" s="21">
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="22">
+    <row r="30" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="22">
         <v>43913</v>
       </c>
-      <c r="B29" s="23">
+      <c r="B30" s="23">
         <v>1</v>
       </c>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23">
+      <c r="C30" s="23"/>
+      <c r="D30" s="23">
         <v>1</v>
       </c>
-      <c r="E29" s="23">
+      <c r="E30" s="23">
         <v>5</v>
       </c>
-      <c r="F29" s="23">
+      <c r="F30" s="23">
         <v>3</v>
       </c>
-      <c r="G29" s="23">
+      <c r="G30" s="23">
         <v>5</v>
       </c>
-      <c r="H29" s="23">
+      <c r="H30" s="23">
         <v>4</v>
       </c>
-      <c r="I29" s="23">
+      <c r="I30" s="23">
         <v>10</v>
       </c>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="23">
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="23">
         <v>1</v>
       </c>
-      <c r="N29" s="23">
+      <c r="N30" s="23">
         <v>2</v>
       </c>
-      <c r="O29" s="23"/>
-      <c r="P29" s="23"/>
-      <c r="Q29" s="23">
+      <c r="O30" s="23"/>
+      <c r="P30" s="23"/>
+      <c r="Q30" s="23">
         <v>1</v>
       </c>
-      <c r="R29" s="23"/>
-      <c r="S29" s="23">
+      <c r="R30" s="23"/>
+      <c r="S30" s="23">
         <v>1</v>
       </c>
-      <c r="T29" s="23"/>
-      <c r="U29" s="23"/>
-      <c r="V29" s="23">
+      <c r="T30" s="23"/>
+      <c r="U30" s="23"/>
+      <c r="V30" s="47">
         <v>48</v>
       </c>
-      <c r="W29" s="23"/>
-      <c r="X29" s="23">
+      <c r="W30" s="23"/>
+      <c r="X30" s="23">
         <v>25</v>
       </c>
-      <c r="Y29" s="23">
+      <c r="Y30" s="23">
         <v>12</v>
       </c>
-      <c r="Z29" s="23"/>
-      <c r="AA29" s="23">
+      <c r="Z30" s="23"/>
+      <c r="AA30" s="23">
         <v>5</v>
       </c>
-      <c r="AB29" s="23">
+      <c r="AB30" s="23">
         <v>130</v>
       </c>
     </row>
-    <row r="30" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="20">
+    <row r="31" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="20">
         <v>43914</v>
       </c>
-      <c r="B30" s="21">
+      <c r="B31" s="21">
         <v>2</v>
       </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21">
+      <c r="C31" s="21"/>
+      <c r="D31" s="21">
         <v>2</v>
       </c>
-      <c r="E30" s="21">
+      <c r="E31" s="21">
         <v>6</v>
       </c>
-      <c r="F30" s="21">
+      <c r="F31" s="21">
         <v>4</v>
       </c>
-      <c r="G30" s="21">
+      <c r="G31" s="21">
         <v>5</v>
       </c>
-      <c r="H30" s="21">
+      <c r="H31" s="21">
         <v>5</v>
       </c>
-      <c r="I30" s="21">
+      <c r="I31" s="21">
         <v>13</v>
       </c>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21">
+      <c r="J31" s="21"/>
+      <c r="K31" s="21">
         <v>6</v>
       </c>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21">
+      <c r="L31" s="21"/>
+      <c r="M31" s="21">
         <v>2</v>
       </c>
-      <c r="N30" s="21">
+      <c r="N31" s="21">
         <v>2</v>
       </c>
-      <c r="O30" s="21"/>
-      <c r="P30" s="21"/>
-      <c r="Q30" s="21"/>
-      <c r="R30" s="21"/>
-      <c r="S30" s="21">
+      <c r="O31" s="21"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="21"/>
+      <c r="R31" s="21"/>
+      <c r="S31" s="21">
         <v>1</v>
       </c>
-      <c r="T30" s="21"/>
-      <c r="U30" s="21">
+      <c r="T31" s="21"/>
+      <c r="U31" s="21">
         <v>1</v>
       </c>
-      <c r="V30" s="21">
+      <c r="V31" s="47">
         <v>53</v>
       </c>
-      <c r="W30" s="21"/>
-      <c r="X30" s="21">
+      <c r="W31" s="21"/>
+      <c r="X31" s="21">
         <v>29</v>
       </c>
-      <c r="Y30" s="21">
+      <c r="Y31" s="21">
         <v>13</v>
       </c>
-      <c r="Z30" s="21"/>
-      <c r="AA30" s="21">
+      <c r="Z31" s="21"/>
+      <c r="AA31" s="21">
         <v>5</v>
       </c>
-      <c r="AB30" s="21">
+      <c r="AB31" s="21">
         <v>150</v>
       </c>
     </row>
-    <row r="31" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="22">
+    <row r="32" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="22">
         <v>43915</v>
       </c>
-      <c r="B31" s="23">
+      <c r="B32" s="23">
         <v>2</v>
       </c>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23">
+      <c r="C32" s="23"/>
+      <c r="D32" s="23">
         <v>2</v>
       </c>
-      <c r="E31" s="23">
+      <c r="E32" s="23">
         <v>6</v>
       </c>
-      <c r="F31" s="23">
+      <c r="F32" s="23">
         <v>5</v>
       </c>
-      <c r="G31" s="23">
+      <c r="G32" s="23">
         <v>8</v>
       </c>
-      <c r="H31" s="23">
+      <c r="H32" s="23">
         <v>6</v>
       </c>
-      <c r="I31" s="23">
+      <c r="I32" s="23">
         <v>16</v>
       </c>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23">
+      <c r="J32" s="23"/>
+      <c r="K32" s="23">
         <v>6</v>
       </c>
-      <c r="L31" s="23"/>
-      <c r="M31" s="23">
+      <c r="L32" s="23"/>
+      <c r="M32" s="23">
         <v>2</v>
       </c>
-      <c r="N31" s="23">
+      <c r="N32" s="23">
         <v>2</v>
       </c>
-      <c r="O31" s="23"/>
-      <c r="P31" s="23"/>
-      <c r="Q31" s="23">
+      <c r="O32" s="23"/>
+      <c r="P32" s="23"/>
+      <c r="Q32" s="23">
         <v>1</v>
       </c>
-      <c r="R31" s="23"/>
-      <c r="S31" s="23">
+      <c r="R32" s="23"/>
+      <c r="S32" s="23">
         <v>1</v>
       </c>
-      <c r="T31" s="23"/>
-      <c r="U31" s="23">
+      <c r="T32" s="23"/>
+      <c r="U32" s="23">
         <v>1</v>
       </c>
-      <c r="V31" s="23">
+      <c r="V32" s="47">
         <v>60</v>
       </c>
-      <c r="W31" s="23"/>
-      <c r="X31" s="23">
+      <c r="W32" s="23"/>
+      <c r="X32" s="23">
         <v>36</v>
       </c>
-      <c r="Y31" s="23">
+      <c r="Y32" s="23">
         <v>14</v>
       </c>
-      <c r="Z31" s="23"/>
-      <c r="AA31" s="23">
+      <c r="Z32" s="23"/>
+      <c r="AA32" s="23">
         <v>7</v>
       </c>
-      <c r="AB31" s="23">
+      <c r="AB32" s="23">
         <v>175</v>
       </c>
     </row>
-    <row r="32" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="20">
+    <row r="33" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="20">
         <v>43916</v>
       </c>
-      <c r="B32" s="21">
+      <c r="B33" s="21">
         <v>2</v>
       </c>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21">
+      <c r="C33" s="21"/>
+      <c r="D33" s="21">
         <v>2</v>
       </c>
-      <c r="E32" s="21">
+      <c r="E33" s="21">
         <v>7</v>
       </c>
-      <c r="F32" s="21">
+      <c r="F33" s="21">
         <v>5</v>
       </c>
-      <c r="G32" s="21">
+      <c r="G33" s="21">
         <v>12</v>
       </c>
-      <c r="H32" s="21">
+      <c r="H33" s="21">
         <v>11</v>
       </c>
-      <c r="I32" s="21">
+      <c r="I33" s="21">
         <v>22</v>
       </c>
-      <c r="J32" s="21"/>
-      <c r="K32" s="21">
+      <c r="J33" s="21"/>
+      <c r="K33" s="21">
         <v>9</v>
       </c>
-      <c r="L32" s="21"/>
-      <c r="M32" s="21">
+      <c r="L33" s="21"/>
+      <c r="M33" s="21">
         <v>3</v>
       </c>
-      <c r="N32" s="21">
+      <c r="N33" s="21">
         <v>5</v>
       </c>
-      <c r="O32" s="21"/>
-      <c r="P32" s="21"/>
-      <c r="Q32" s="21">
+      <c r="O33" s="21"/>
+      <c r="P33" s="21"/>
+      <c r="Q33" s="21">
         <v>2</v>
       </c>
-      <c r="R32" s="21"/>
-      <c r="S32" s="21">
+      <c r="R33" s="21"/>
+      <c r="S33" s="21">
         <v>1</v>
       </c>
-      <c r="T32" s="21">
+      <c r="T33" s="21">
         <v>1</v>
       </c>
-      <c r="U32" s="21">
+      <c r="U33" s="21">
         <v>1</v>
       </c>
-      <c r="V32" s="21">
+      <c r="V33" s="47">
         <v>67</v>
       </c>
-      <c r="W32" s="21"/>
-      <c r="X32" s="21">
+      <c r="W33" s="21"/>
+      <c r="X33" s="21">
         <v>47</v>
       </c>
-      <c r="Y32" s="21">
+      <c r="Y33" s="21">
         <v>15</v>
       </c>
-      <c r="Z32" s="21"/>
-      <c r="AA32" s="21">
+      <c r="Z33" s="21"/>
+      <c r="AA33" s="21">
         <v>9</v>
       </c>
-      <c r="AB32" s="21">
+      <c r="AB33" s="21">
         <v>221</v>
       </c>
     </row>
-    <row r="33" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="22">
+    <row r="34" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="22">
         <v>43917</v>
       </c>
-      <c r="B33" s="23">
+      <c r="B34" s="23">
         <v>3</v>
       </c>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23">
+      <c r="C34" s="23"/>
+      <c r="D34" s="23">
         <v>2</v>
       </c>
-      <c r="E33" s="23">
+      <c r="E34" s="23">
         <v>8</v>
       </c>
-      <c r="F33" s="23">
+      <c r="F34" s="23">
         <v>5</v>
       </c>
-      <c r="G33" s="23">
+      <c r="G34" s="23">
         <v>13</v>
       </c>
-      <c r="H33" s="23">
+      <c r="H34" s="23">
         <v>15</v>
       </c>
-      <c r="I33" s="23">
+      <c r="I34" s="23">
         <v>23</v>
       </c>
-      <c r="J33" s="23"/>
-      <c r="K33" s="23">
+      <c r="J34" s="23"/>
+      <c r="K34" s="23">
         <v>9</v>
       </c>
-      <c r="L33" s="23"/>
-      <c r="M33" s="23">
+      <c r="L34" s="23"/>
+      <c r="M34" s="23">
         <v>3</v>
       </c>
-      <c r="N33" s="23">
+      <c r="N34" s="23">
         <v>5</v>
       </c>
-      <c r="O33" s="23"/>
-      <c r="P33" s="23"/>
-      <c r="Q33" s="23"/>
-      <c r="R33" s="23"/>
-      <c r="S33" s="23">
+      <c r="O34" s="23"/>
+      <c r="P34" s="23"/>
+      <c r="Q34" s="23"/>
+      <c r="R34" s="23"/>
+      <c r="S34" s="23">
         <v>1</v>
       </c>
-      <c r="T33" s="23">
+      <c r="T34" s="23">
         <v>1</v>
       </c>
-      <c r="U33" s="23">
+      <c r="U34" s="23">
         <v>2</v>
       </c>
-      <c r="V33" s="23">
+      <c r="V34" s="47">
         <v>76</v>
       </c>
-      <c r="W33" s="23"/>
-      <c r="X33" s="23">
+      <c r="W34" s="23"/>
+      <c r="X34" s="23">
         <v>48</v>
       </c>
-      <c r="Y33" s="23">
+      <c r="Y34" s="23">
         <v>20</v>
       </c>
-      <c r="Z33" s="23">
+      <c r="Z34" s="23">
         <v>1</v>
       </c>
-      <c r="AA33" s="23">
+      <c r="AA34" s="23">
         <v>11</v>
       </c>
-      <c r="AB33" s="23">
+      <c r="AB34" s="23">
         <v>248</v>
       </c>
     </row>
-    <row r="34" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="20">
+    <row r="35" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="20">
         <v>43918</v>
       </c>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21">
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21">
         <v>2</v>
       </c>
-      <c r="E34" s="21">
+      <c r="E35" s="21">
         <v>9</v>
       </c>
-      <c r="F34" s="21">
+      <c r="F35" s="21">
         <v>6</v>
       </c>
-      <c r="G34" s="21">
+      <c r="G35" s="21">
         <v>13</v>
       </c>
-      <c r="H34" s="21">
+      <c r="H35" s="21">
         <v>15</v>
       </c>
-      <c r="I34" s="21">
+      <c r="I35" s="21">
         <v>27</v>
       </c>
-      <c r="J34" s="21">
+      <c r="J35" s="21">
         <v>1</v>
       </c>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="21">
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="21">
         <v>4</v>
       </c>
-      <c r="N34" s="21">
+      <c r="N35" s="21">
         <v>6</v>
       </c>
-      <c r="O34" s="21"/>
-      <c r="P34" s="21"/>
-      <c r="Q34" s="21">
+      <c r="O35" s="21"/>
+      <c r="P35" s="21"/>
+      <c r="Q35" s="21">
         <v>5</v>
       </c>
-      <c r="R34" s="21"/>
-      <c r="S34" s="21">
+      <c r="R35" s="21"/>
+      <c r="S35" s="21">
         <v>1</v>
       </c>
-      <c r="T34" s="21">
+      <c r="T35" s="21">
         <v>2</v>
       </c>
-      <c r="U34" s="21">
+      <c r="U35" s="21">
         <v>2</v>
       </c>
-      <c r="V34" s="21">
+      <c r="V35" s="47">
         <v>87</v>
       </c>
-      <c r="W34" s="21"/>
-      <c r="X34" s="21">
+      <c r="W35" s="21"/>
+      <c r="X35" s="21">
         <v>55</v>
       </c>
-      <c r="Y34" s="21">
+      <c r="Y35" s="21">
         <v>21</v>
       </c>
-      <c r="Z34" s="21"/>
-      <c r="AA34" s="21">
+      <c r="Z35" s="21"/>
+      <c r="AA35" s="21">
         <v>15</v>
       </c>
-      <c r="AB34" s="21">
+      <c r="AB35" s="21">
         <v>284</v>
       </c>
     </row>
-    <row r="35" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="22">
+    <row r="36" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="22">
         <v>43919</v>
       </c>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23">
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23">
         <v>2</v>
       </c>
-      <c r="E35" s="23">
+      <c r="E36" s="23">
         <v>10</v>
       </c>
-      <c r="F35" s="23">
+      <c r="F36" s="23">
         <v>6</v>
       </c>
-      <c r="G35" s="23">
+      <c r="G36" s="23">
         <v>15</v>
       </c>
-      <c r="H35" s="23">
+      <c r="H36" s="23">
         <v>16</v>
       </c>
-      <c r="I35" s="23">
+      <c r="I36" s="23">
         <v>37</v>
       </c>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="23">
+      <c r="J36" s="23"/>
+      <c r="K36" s="23"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="23">
         <v>5</v>
       </c>
-      <c r="N35" s="23">
+      <c r="N36" s="23">
         <v>6</v>
       </c>
-      <c r="O35" s="23"/>
-      <c r="P35" s="23"/>
-      <c r="Q35" s="23">
+      <c r="O36" s="23"/>
+      <c r="P36" s="23"/>
+      <c r="Q36" s="23">
         <v>5</v>
       </c>
-      <c r="R35" s="23"/>
-      <c r="S35" s="23">
+      <c r="R36" s="23"/>
+      <c r="S36" s="23">
         <v>2</v>
       </c>
-      <c r="T35" s="23">
+      <c r="T36" s="23">
         <v>2</v>
       </c>
-      <c r="U35" s="23">
+      <c r="U36" s="23">
         <v>2</v>
       </c>
-      <c r="V35" s="23">
+      <c r="V36" s="47">
         <v>93</v>
       </c>
-      <c r="W35" s="23"/>
-      <c r="X35" s="23">
+      <c r="W36" s="23"/>
+      <c r="X36" s="23">
         <v>66</v>
       </c>
-      <c r="Y35" s="23">
+      <c r="Y36" s="23">
         <v>21</v>
       </c>
-      <c r="Z35" s="23"/>
-      <c r="AA35" s="23">
+      <c r="Z36" s="23"/>
+      <c r="AA36" s="23">
         <v>15</v>
       </c>
-      <c r="AB35" s="23">
+      <c r="AB36" s="23">
         <v>317</v>
       </c>
     </row>
-    <row r="36" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="20">
+    <row r="37" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="20">
         <v>43920</v>
       </c>
-      <c r="B36" s="21">
+      <c r="B37" s="21">
         <v>8</v>
       </c>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21">
+      <c r="C37" s="21"/>
+      <c r="D37" s="21">
         <v>2</v>
       </c>
-      <c r="E36" s="21">
+      <c r="E37" s="21">
         <v>13</v>
       </c>
-      <c r="F36" s="21">
+      <c r="F37" s="21">
         <v>7</v>
       </c>
-      <c r="G36" s="21">
+      <c r="G37" s="21">
         <v>15</v>
       </c>
-      <c r="H36" s="21">
+      <c r="H37" s="21">
         <v>17</v>
       </c>
-      <c r="I36" s="21">
+      <c r="I37" s="21">
         <v>43</v>
       </c>
-      <c r="J36" s="21">
+      <c r="J37" s="21">
         <v>1</v>
       </c>
-      <c r="K36" s="21">
+      <c r="K37" s="21">
         <v>12</v>
       </c>
-      <c r="L36" s="21"/>
-      <c r="M36" s="21">
+      <c r="L37" s="21"/>
+      <c r="M37" s="21">
         <v>6</v>
       </c>
-      <c r="N36" s="21">
+      <c r="N37" s="21">
         <v>6</v>
       </c>
-      <c r="O36" s="21"/>
-      <c r="P36" s="21"/>
-      <c r="Q36" s="21">
+      <c r="O37" s="21"/>
+      <c r="P37" s="21"/>
+      <c r="Q37" s="21">
         <v>5</v>
       </c>
-      <c r="R36" s="21"/>
-      <c r="S36" s="21"/>
-      <c r="T36" s="21">
+      <c r="R37" s="21"/>
+      <c r="S37" s="21"/>
+      <c r="T37" s="21">
         <v>2</v>
       </c>
-      <c r="U36" s="21">
+      <c r="U37" s="21">
         <v>2</v>
       </c>
-      <c r="V36" s="21">
+      <c r="V37" s="47">
         <v>105</v>
       </c>
-      <c r="W36" s="21"/>
-      <c r="X36" s="21">
+      <c r="W37" s="21"/>
+      <c r="X37" s="21">
         <v>77</v>
       </c>
-      <c r="Y36" s="21">
+      <c r="Y37" s="21">
         <v>26</v>
       </c>
-      <c r="Z36" s="21">
+      <c r="Z37" s="21">
         <v>1</v>
       </c>
-      <c r="AA36" s="21">
+      <c r="AA37" s="21">
         <v>21</v>
       </c>
-      <c r="AB36" s="21">
+      <c r="AB37" s="21">
         <v>371</v>
       </c>
     </row>
-    <row r="37" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="22">
+    <row r="38" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="22">
         <v>43921</v>
       </c>
-      <c r="B37" s="23">
+      <c r="B38" s="23">
         <v>11</v>
       </c>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23">
+      <c r="C38" s="23"/>
+      <c r="D38" s="23">
         <v>2</v>
       </c>
-      <c r="E37" s="23">
+      <c r="E38" s="23">
         <v>16</v>
       </c>
-      <c r="F37" s="23">
+      <c r="F38" s="23">
         <v>10</v>
       </c>
-      <c r="G37" s="23">
+      <c r="G38" s="23">
         <v>16</v>
       </c>
-      <c r="H37" s="23">
+      <c r="H38" s="23">
         <v>20</v>
       </c>
-      <c r="I37" s="23">
+      <c r="I38" s="23">
         <v>52</v>
       </c>
-      <c r="J37" s="23">
+      <c r="J38" s="23">
         <v>2</v>
       </c>
-      <c r="K37" s="23">
+      <c r="K38" s="23">
         <v>19</v>
       </c>
-      <c r="L37" s="23"/>
-      <c r="M37" s="23">
+      <c r="L38" s="23"/>
+      <c r="M38" s="23">
         <v>7</v>
       </c>
-      <c r="N37" s="23">
+      <c r="N38" s="23">
         <v>6</v>
       </c>
-      <c r="O37" s="23"/>
-      <c r="P37" s="23"/>
-      <c r="Q37" s="23">
+      <c r="O38" s="23"/>
+      <c r="P38" s="23"/>
+      <c r="Q38" s="23">
         <v>7</v>
       </c>
-      <c r="R37" s="23"/>
-      <c r="S37" s="23">
+      <c r="R38" s="23"/>
+      <c r="S38" s="23">
         <v>2</v>
       </c>
-      <c r="T37" s="23">
+      <c r="T38" s="23">
         <v>4</v>
       </c>
-      <c r="U37" s="23">
+      <c r="U38" s="23">
         <v>3</v>
       </c>
-      <c r="V37" s="23">
+      <c r="V38" s="47">
         <v>120</v>
       </c>
-      <c r="W37" s="23"/>
-      <c r="X37" s="23">
+      <c r="W38" s="23"/>
+      <c r="X38" s="23">
         <v>84</v>
       </c>
-      <c r="Y37" s="23">
+      <c r="Y38" s="23">
         <v>35</v>
       </c>
-      <c r="Z37" s="23">
+      <c r="Z38" s="23">
         <v>1</v>
       </c>
-      <c r="AA37" s="23">
+      <c r="AA38" s="23">
         <v>25</v>
       </c>
-      <c r="AB37" s="23">
+      <c r="AB38" s="23">
         <v>442</v>
       </c>
     </row>
-    <row r="38" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="20">
+    <row r="39" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="20">
         <v>43922</v>
       </c>
-      <c r="B38" s="21">
+      <c r="B39" s="21">
         <v>11</v>
       </c>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21">
+      <c r="C39" s="21"/>
+      <c r="D39" s="21">
         <v>3</v>
       </c>
-      <c r="E38" s="21">
+      <c r="E39" s="21">
         <v>20</v>
       </c>
-      <c r="F38" s="21">
+      <c r="F39" s="21">
         <v>11</v>
       </c>
-      <c r="G38" s="21">
+      <c r="G39" s="21">
         <v>18</v>
       </c>
-      <c r="H38" s="21">
+      <c r="H39" s="21">
         <v>23</v>
       </c>
-      <c r="I38" s="21">
+      <c r="I39" s="21">
         <v>59</v>
       </c>
-      <c r="J38" s="21">
+      <c r="J39" s="21">
         <v>2</v>
       </c>
-      <c r="K38" s="21">
+      <c r="K39" s="21">
         <v>21</v>
       </c>
-      <c r="L38" s="21"/>
-      <c r="M38" s="21">
+      <c r="L39" s="21"/>
+      <c r="M39" s="21">
         <v>7</v>
       </c>
-      <c r="N38" s="21">
+      <c r="N39" s="21">
         <v>11</v>
       </c>
-      <c r="O38" s="21">
+      <c r="O39" s="21">
         <v>0</v>
       </c>
-      <c r="P38" s="21"/>
-      <c r="Q38" s="21">
+      <c r="P39" s="21"/>
+      <c r="Q39" s="21">
         <v>7</v>
       </c>
-      <c r="R38" s="21">
+      <c r="R39" s="21">
         <v>1</v>
       </c>
-      <c r="S38" s="21">
+      <c r="S39" s="21">
         <v>3</v>
       </c>
-      <c r="T38" s="21">
+      <c r="T39" s="21">
         <v>4</v>
       </c>
-      <c r="U38" s="21">
+      <c r="U39" s="21">
         <v>4</v>
       </c>
-      <c r="V38" s="21">
+      <c r="V39" s="47">
         <v>132</v>
       </c>
-      <c r="W38" s="21"/>
-      <c r="X38" s="21"/>
-      <c r="Y38" s="21">
+      <c r="W39" s="21"/>
+      <c r="X39" s="21"/>
+      <c r="Y39" s="21">
         <v>37</v>
       </c>
-      <c r="Z38" s="21">
+      <c r="Z39" s="21">
         <v>1</v>
       </c>
-      <c r="AA38" s="21">
+      <c r="AA39" s="21">
         <v>29</v>
       </c>
-      <c r="AB38" s="21">
+      <c r="AB39" s="21">
         <v>488</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="22">
+        <v>43923</v>
+      </c>
+      <c r="B40" s="23">
+        <v>12</v>
+      </c>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23">
+        <v>3</v>
+      </c>
+      <c r="E40" s="23">
+        <v>23</v>
+      </c>
+      <c r="F40" s="23">
+        <v>12</v>
+      </c>
+      <c r="G40" s="23">
+        <v>19</v>
+      </c>
+      <c r="H40" s="23">
+        <v>26</v>
+      </c>
+      <c r="I40" s="23">
+        <v>67</v>
+      </c>
+      <c r="J40" s="23">
+        <v>2</v>
+      </c>
+      <c r="K40" s="23">
+        <v>23</v>
+      </c>
+      <c r="L40" s="23"/>
+      <c r="M40" s="23">
+        <v>7</v>
+      </c>
+      <c r="N40" s="23"/>
+      <c r="O40" s="23">
+        <v>0</v>
+      </c>
+      <c r="P40" s="23"/>
+      <c r="Q40" s="23">
+        <v>8</v>
+      </c>
+      <c r="R40" s="23"/>
+      <c r="S40" s="23">
+        <v>3</v>
+      </c>
+      <c r="T40" s="23">
+        <v>4</v>
+      </c>
+      <c r="U40" s="23">
+        <v>4</v>
+      </c>
+      <c r="V40" s="47">
+        <v>141</v>
+      </c>
+      <c r="W40" s="23">
+        <v>1</v>
+      </c>
+      <c r="X40" s="23"/>
+      <c r="Y40" s="23">
+        <v>40</v>
+      </c>
+      <c r="Z40" s="23">
+        <v>1</v>
+      </c>
+      <c r="AA40" s="23">
+        <v>36</v>
+      </c>
+      <c r="AB40" s="23">
+        <v>536</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/TI_Lombardia.xlsx
+++ b/TI_Lombardia.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">cases!$A$3:$AB$75</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$F$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$F$42</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="117">
   <si>
     <t>Date</t>
   </si>
@@ -2823,7 +2823,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2831,10 +2831,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U49"/>
+  <dimension ref="A1:U51"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4:L49"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4:L51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3424,7 +3424,7 @@
         <v>10040000</v>
       </c>
       <c r="K18" s="5" t="str">
-        <f t="shared" ref="K18:K46" si="13">DAY(A18)&amp;"/"&amp;MONTH(A18)&amp;"/"&amp;YEAR(A18)</f>
+        <f t="shared" ref="K18:K47" si="13">DAY(A18)&amp;"/"&amp;MONTH(A18)&amp;"/"&amp;YEAR(A18)</f>
         <v>22/3/2020</v>
       </c>
       <c r="L18" s="3" t="str">
@@ -3467,7 +3467,7 @@
         <v>23/3/2020</v>
       </c>
       <c r="L19" s="3" t="str">
-        <f t="shared" ref="L19:L45" si="16">K19&amp;$L$1&amp;DAY(A19)&amp;$L$1&amp;MONTH(A19)&amp;$L$1&amp;YEAR(A19)&amp;$L$1&amp;C19&amp;$L$1&amp;G19&amp;$L$1&amp;D19&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H19</f>
+        <f t="shared" ref="L19:L46" si="16">K19&amp;$L$1&amp;DAY(A19)&amp;$L$1&amp;MONTH(A19)&amp;$L$1&amp;YEAR(A19)&amp;$L$1&amp;C19&amp;$L$1&amp;G19&amp;$L$1&amp;D19&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H19</f>
         <v>23/3/2020,23,3,2020,1555,320,Lombardia,nn,nnn,10040000</v>
       </c>
     </row>
@@ -3817,667 +3817,733 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>43904</v>
+        <v>43924</v>
       </c>
       <c r="B30">
-        <v>262</v>
+        <v>47520</v>
       </c>
       <c r="C30">
-        <f>B30</f>
-        <v>262</v>
+        <f t="shared" ref="C30" si="18">B30-B29</f>
+        <v>1455</v>
       </c>
       <c r="D30" t="s">
-        <v>116</v>
+        <v>9</v>
       </c>
       <c r="F30">
-        <v>5</v>
+        <v>8311</v>
       </c>
       <c r="G30">
-        <f>F30</f>
-        <v>5</v>
-      </c>
-      <c r="H30">
-        <v>353709</v>
+        <f t="shared" ref="G30" si="19">F30-F29</f>
+        <v>351</v>
+      </c>
+      <c r="H30" s="2">
+        <v>10040001</v>
       </c>
       <c r="K30" s="5" t="str">
         <f t="shared" si="13"/>
+        <v>3/4/2020</v>
+      </c>
+      <c r="L30" s="3" t="str">
+        <f>K30&amp;$L$1&amp;DAY(A30)&amp;$L$1&amp;MONTH(A30)&amp;$L$1&amp;YEAR(A30)&amp;$L$1&amp;C30&amp;$L$1&amp;G30&amp;$L$1&amp;D30&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H30</f>
+        <v>3/4/2020,3,4,2020,1455,351,Lombardia,nn,nnn,10040001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>43904</v>
+      </c>
+      <c r="B31">
+        <v>262</v>
+      </c>
+      <c r="C31">
+        <f>B31</f>
+        <v>262</v>
+      </c>
+      <c r="D31" t="s">
+        <v>116</v>
+      </c>
+      <c r="F31">
+        <v>5</v>
+      </c>
+      <c r="G31">
+        <f>F31</f>
+        <v>5</v>
+      </c>
+      <c r="H31">
+        <v>353709</v>
+      </c>
+      <c r="K31" s="5" t="str">
+        <f t="shared" si="13"/>
         <v>14/3/2020</v>
       </c>
-      <c r="L30" s="3" t="str">
+      <c r="L31" s="3" t="str">
         <f t="shared" si="16"/>
         <v>14/3/2020,14,3,2020,262,5,Ticino,nn,nnn,353709</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
         <v>43905</v>
       </c>
-      <c r="B31">
+      <c r="B32">
         <v>291</v>
       </c>
-      <c r="C31">
-        <f t="shared" ref="C31:C49" si="18">B31-B30</f>
+      <c r="C32">
+        <f t="shared" ref="C32:C50" si="20">B32-B31</f>
         <v>29</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D32" t="s">
         <v>116</v>
       </c>
-      <c r="F31">
+      <c r="F32">
         <v>6</v>
       </c>
-      <c r="G31">
-        <f t="shared" ref="G31:G49" si="19">F31-F30</f>
+      <c r="G32">
+        <f t="shared" ref="G32:G50" si="21">F32-F31</f>
         <v>1</v>
       </c>
-      <c r="H31">
+      <c r="H32">
         <v>353709</v>
       </c>
-      <c r="K31" s="5" t="str">
+      <c r="K32" s="5" t="str">
         <f t="shared" si="13"/>
         <v>15/3/2020</v>
       </c>
-      <c r="L31" s="3" t="str">
+      <c r="L32" s="3" t="str">
         <f t="shared" si="16"/>
         <v>15/3/2020,15,3,2020,29,1,Ticino,nn,nnn,353709</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
         <v>43906</v>
       </c>
-      <c r="B32">
+      <c r="B33">
         <v>330</v>
       </c>
-      <c r="C32">
-        <f t="shared" si="18"/>
+      <c r="C33">
+        <f t="shared" si="20"/>
         <v>39</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D33" t="s">
         <v>116</v>
       </c>
-      <c r="F32">
+      <c r="F33">
         <v>8</v>
       </c>
-      <c r="G32">
-        <f t="shared" si="19"/>
+      <c r="G33">
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
-      <c r="H32">
+      <c r="H33">
         <v>353709</v>
       </c>
-      <c r="K32" s="5" t="str">
+      <c r="K33" s="5" t="str">
         <f t="shared" si="13"/>
         <v>16/3/2020</v>
       </c>
-      <c r="L32" s="3" t="str">
+      <c r="L33" s="3" t="str">
         <f t="shared" si="16"/>
         <v>16/3/2020,16,3,2020,39,2,Ticino,nn,nnn,353709</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
         <v>43907</v>
       </c>
-      <c r="B33">
+      <c r="B34">
         <v>422</v>
       </c>
-      <c r="C33">
-        <f t="shared" si="18"/>
+      <c r="C34">
+        <f t="shared" si="20"/>
         <v>92</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D34" t="s">
         <v>116</v>
       </c>
-      <c r="F33">
+      <c r="F34">
         <v>10</v>
       </c>
-      <c r="G33">
-        <f t="shared" si="19"/>
+      <c r="G34">
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
-      <c r="H33">
+      <c r="H34">
         <v>353709</v>
       </c>
-      <c r="K33" s="5" t="str">
+      <c r="K34" s="5" t="str">
         <f t="shared" si="13"/>
         <v>17/3/2020</v>
       </c>
-      <c r="L33" s="3" t="str">
+      <c r="L34" s="3" t="str">
         <f t="shared" si="16"/>
         <v>17/3/2020,17,3,2020,92,2,Ticino,nn,nnn,353709</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
         <v>43908</v>
       </c>
-      <c r="B34">
+      <c r="B35">
         <v>511</v>
       </c>
-      <c r="C34">
-        <f t="shared" si="18"/>
+      <c r="C35">
+        <f t="shared" si="20"/>
         <v>89</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D35" t="s">
         <v>116</v>
       </c>
-      <c r="F34">
+      <c r="F35">
         <v>14</v>
       </c>
-      <c r="G34">
-        <f t="shared" si="19"/>
+      <c r="G35">
+        <f t="shared" si="21"/>
         <v>4</v>
       </c>
-      <c r="H34">
+      <c r="H35">
         <v>353709</v>
       </c>
-      <c r="K34" s="5" t="str">
+      <c r="K35" s="5" t="str">
         <f t="shared" si="13"/>
         <v>18/3/2020</v>
       </c>
-      <c r="L34" s="3" t="str">
+      <c r="L35" s="3" t="str">
         <f t="shared" si="16"/>
         <v>18/3/2020,18,3,2020,89,4,Ticino,nn,nnn,353709</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
         <v>43909</v>
       </c>
-      <c r="B35">
+      <c r="B36">
         <v>638</v>
       </c>
-      <c r="C35">
-        <f t="shared" si="18"/>
+      <c r="C36">
+        <f t="shared" si="20"/>
         <v>127</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D36" t="s">
         <v>116</v>
       </c>
-      <c r="F35">
+      <c r="F36">
         <v>15</v>
       </c>
-      <c r="G35">
-        <f t="shared" si="19"/>
+      <c r="G36">
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="H35">
+      <c r="H36">
         <v>353709</v>
       </c>
-      <c r="K35" s="5" t="str">
+      <c r="K36" s="5" t="str">
         <f t="shared" si="13"/>
         <v>19/3/2020</v>
       </c>
-      <c r="L35" s="3" t="str">
+      <c r="L36" s="3" t="str">
         <f t="shared" si="16"/>
         <v>19/3/2020,19,3,2020,127,1,Ticino,nn,nnn,353709</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
         <v>43910</v>
       </c>
-      <c r="B36">
+      <c r="B37">
         <v>834</v>
       </c>
-      <c r="C36">
-        <f t="shared" si="18"/>
+      <c r="C37">
+        <f t="shared" si="20"/>
         <v>196</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D37" t="s">
         <v>116</v>
       </c>
-      <c r="F36">
+      <c r="F37">
         <v>22</v>
       </c>
-      <c r="G36">
-        <f t="shared" si="19"/>
+      <c r="G37">
+        <f t="shared" si="21"/>
         <v>7</v>
       </c>
-      <c r="H36">
+      <c r="H37">
         <v>353709</v>
       </c>
-      <c r="K36" s="5" t="str">
+      <c r="K37" s="5" t="str">
         <f t="shared" si="13"/>
         <v>20/3/2020</v>
       </c>
-      <c r="L36" s="3" t="str">
+      <c r="L37" s="3" t="str">
         <f t="shared" si="16"/>
         <v>20/3/2020,20,3,2020,196,7,Ticino,nn,nnn,353709</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
         <v>43911</v>
       </c>
-      <c r="B37">
+      <c r="B38">
         <v>918</v>
       </c>
-      <c r="C37">
-        <f t="shared" si="18"/>
+      <c r="C38">
+        <f t="shared" si="20"/>
         <v>84</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D38" t="s">
         <v>116</v>
       </c>
-      <c r="F37">
+      <c r="F38">
         <v>28</v>
       </c>
-      <c r="G37">
-        <f t="shared" si="19"/>
+      <c r="G38">
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
-      <c r="H37">
+      <c r="H38">
         <v>353709</v>
       </c>
-      <c r="K37" s="5" t="str">
+      <c r="K38" s="5" t="str">
         <f t="shared" si="13"/>
         <v>21/3/2020</v>
       </c>
-      <c r="L37" s="3" t="str">
+      <c r="L38" s="3" t="str">
         <f t="shared" si="16"/>
         <v>21/3/2020,21,3,2020,84,6,Ticino,nn,nnn,353709</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
         <v>43912</v>
       </c>
-      <c r="B38">
+      <c r="B39">
         <v>939</v>
       </c>
-      <c r="C38">
-        <f t="shared" si="18"/>
+      <c r="C39">
+        <f t="shared" si="20"/>
         <v>21</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D39" t="s">
         <v>116</v>
       </c>
-      <c r="F38">
+      <c r="F39">
         <v>37</v>
       </c>
-      <c r="G38">
-        <f t="shared" si="19"/>
+      <c r="G39">
+        <f t="shared" si="21"/>
         <v>9</v>
       </c>
-      <c r="H38">
+      <c r="H39">
         <v>353709</v>
       </c>
-      <c r="K38" s="5" t="str">
+      <c r="K39" s="5" t="str">
         <f t="shared" si="13"/>
         <v>22/3/2020</v>
       </c>
-      <c r="L38" s="3" t="str">
+      <c r="L39" s="3" t="str">
         <f t="shared" si="16"/>
         <v>22/3/2020,22,3,2020,21,9,Ticino,nn,nnn,353709</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
         <v>43913</v>
       </c>
-      <c r="B39">
+      <c r="B40">
         <v>1165</v>
       </c>
-      <c r="C39">
-        <f t="shared" si="18"/>
+      <c r="C40">
+        <f t="shared" si="20"/>
         <v>226</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D40" t="s">
         <v>116</v>
       </c>
-      <c r="F39">
+      <c r="F40">
         <v>48</v>
       </c>
-      <c r="G39">
-        <f t="shared" si="19"/>
+      <c r="G40">
+        <f t="shared" si="21"/>
         <v>11</v>
       </c>
-      <c r="H39">
+      <c r="H40">
         <v>353709</v>
       </c>
-      <c r="K39" s="5" t="str">
+      <c r="K40" s="5" t="str">
         <f t="shared" si="13"/>
         <v>23/3/2020</v>
       </c>
-      <c r="L39" s="3" t="str">
+      <c r="L40" s="3" t="str">
         <f t="shared" si="16"/>
         <v>23/3/2020,23,3,2020,226,11,Ticino,nn,nnn,353709</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
         <v>43914</v>
       </c>
-      <c r="B40">
+      <c r="B41">
         <v>1211</v>
       </c>
-      <c r="C40">
-        <f t="shared" si="18"/>
+      <c r="C41">
+        <f t="shared" si="20"/>
         <v>46</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D41" t="s">
         <v>116</v>
       </c>
-      <c r="E40" s="2"/>
-      <c r="F40">
+      <c r="E41" s="2"/>
+      <c r="F41">
         <v>53</v>
       </c>
-      <c r="G40">
-        <f t="shared" si="19"/>
+      <c r="G41">
+        <f t="shared" si="21"/>
         <v>5</v>
       </c>
-      <c r="H40">
+      <c r="H41">
         <v>353709</v>
       </c>
-      <c r="K40" s="5" t="str">
+      <c r="K41" s="5" t="str">
         <f t="shared" si="13"/>
         <v>24/3/2020</v>
       </c>
-      <c r="L40" s="3" t="str">
+      <c r="L41" s="3" t="str">
         <f t="shared" si="16"/>
         <v>24/3/2020,24,3,2020,46,5,Ticino,nn,nnn,353709</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
         <v>43915</v>
       </c>
-      <c r="B41">
+      <c r="B42">
         <v>1343</v>
       </c>
-      <c r="C41">
-        <f t="shared" si="18"/>
+      <c r="C42">
+        <f t="shared" si="20"/>
         <v>132</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D42" t="s">
         <v>116</v>
       </c>
-      <c r="F41">
+      <c r="F42">
         <v>60</v>
       </c>
-      <c r="G41">
-        <f t="shared" si="19"/>
+      <c r="G42">
+        <f t="shared" si="21"/>
         <v>7</v>
       </c>
-      <c r="H41">
+      <c r="H42">
         <v>353709</v>
       </c>
-      <c r="K41" s="5" t="str">
+      <c r="K42" s="5" t="str">
         <f t="shared" si="13"/>
         <v>25/3/2020</v>
       </c>
-      <c r="L41" s="3" t="str">
+      <c r="L42" s="3" t="str">
         <f t="shared" si="16"/>
         <v>25/3/2020,25,3,2020,132,7,Ticino,nn,nnn,353709</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
         <v>43916</v>
       </c>
-      <c r="B42">
+      <c r="B43">
         <v>1401</v>
       </c>
-      <c r="C42">
-        <f t="shared" si="18"/>
+      <c r="C43">
+        <f t="shared" si="20"/>
         <v>58</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D43" t="s">
         <v>116</v>
       </c>
-      <c r="F42">
+      <c r="F43">
         <v>67</v>
       </c>
-      <c r="G42">
-        <f t="shared" si="19"/>
+      <c r="G43">
+        <f t="shared" si="21"/>
         <v>7</v>
       </c>
-      <c r="H42">
+      <c r="H43">
         <v>353709</v>
       </c>
-      <c r="K42" s="5" t="str">
+      <c r="K43" s="5" t="str">
         <f t="shared" si="13"/>
         <v>26/3/2020</v>
       </c>
-      <c r="L42" s="3" t="str">
+      <c r="L43" s="3" t="str">
         <f t="shared" si="16"/>
         <v>26/3/2020,26,3,2020,58,7,Ticino,nn,nnn,353709</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
         <v>43917</v>
       </c>
-      <c r="B43">
+      <c r="B44">
         <v>1688</v>
       </c>
-      <c r="C43">
-        <f t="shared" si="18"/>
+      <c r="C44">
+        <f t="shared" si="20"/>
         <v>287</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D44" t="s">
         <v>116</v>
       </c>
-      <c r="F43">
+      <c r="F44">
         <v>76</v>
       </c>
-      <c r="G43">
-        <f t="shared" si="19"/>
+      <c r="G44">
+        <f t="shared" si="21"/>
         <v>9</v>
       </c>
-      <c r="H43">
+      <c r="H44">
         <v>353709</v>
       </c>
-      <c r="K43" s="5" t="str">
+      <c r="K44" s="5" t="str">
         <f t="shared" si="13"/>
         <v>27/3/2020</v>
       </c>
-      <c r="L43" s="3" t="str">
+      <c r="L44" s="3" t="str">
         <f t="shared" si="16"/>
         <v>27/3/2020,27,3,2020,287,9,Ticino,nn,nnn,353709</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
         <v>43918</v>
       </c>
-      <c r="B44">
+      <c r="B45">
         <v>1727</v>
       </c>
-      <c r="C44">
-        <f t="shared" si="18"/>
+      <c r="C45">
+        <f t="shared" si="20"/>
         <v>39</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D45" t="s">
         <v>116</v>
       </c>
-      <c r="F44">
+      <c r="F45">
         <v>87</v>
       </c>
-      <c r="G44">
-        <f t="shared" si="19"/>
+      <c r="G45">
+        <f t="shared" si="21"/>
         <v>11</v>
       </c>
-      <c r="H44">
+      <c r="H45">
         <v>353709</v>
       </c>
-      <c r="K44" s="5" t="str">
+      <c r="K45" s="5" t="str">
         <f t="shared" si="13"/>
         <v>28/3/2020</v>
       </c>
-      <c r="L44" s="3" t="str">
+      <c r="L45" s="3" t="str">
         <f t="shared" si="16"/>
         <v>28/3/2020,28,3,2020,39,11,Ticino,nn,nnn,353709</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
         <v>43919</v>
       </c>
-      <c r="B45">
+      <c r="B46">
         <v>1837</v>
       </c>
-      <c r="C45">
-        <f t="shared" si="18"/>
+      <c r="C46">
+        <f t="shared" si="20"/>
         <v>110</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D46" t="s">
         <v>116</v>
       </c>
-      <c r="F45">
+      <c r="F46">
         <v>93</v>
       </c>
-      <c r="G45">
-        <f t="shared" si="19"/>
+      <c r="G46">
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
-      <c r="H45">
+      <c r="H46">
         <v>353709</v>
       </c>
-      <c r="K45" s="5" t="str">
+      <c r="K46" s="5" t="str">
         <f t="shared" si="13"/>
         <v>29/3/2020</v>
       </c>
-      <c r="L45" s="3" t="str">
+      <c r="L46" s="3" t="str">
         <f t="shared" si="16"/>
         <v>29/3/2020,29,3,2020,110,6,Ticino,nn,nnn,353709</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
         <v>43920</v>
       </c>
-      <c r="B46">
+      <c r="B47">
         <v>1962</v>
       </c>
-      <c r="C46">
-        <f t="shared" si="18"/>
+      <c r="C47">
+        <f t="shared" si="20"/>
         <v>125</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D47" t="s">
         <v>116</v>
       </c>
-      <c r="F46">
+      <c r="F47">
         <v>105</v>
       </c>
-      <c r="G46">
-        <f t="shared" si="19"/>
+      <c r="G47">
+        <f t="shared" si="21"/>
         <v>12</v>
       </c>
-      <c r="H46">
+      <c r="H47">
         <v>353709</v>
       </c>
-      <c r="K46" s="5" t="str">
+      <c r="K47" s="5" t="str">
         <f t="shared" si="13"/>
         <v>30/3/2020</v>
       </c>
-      <c r="L46" s="3" t="str">
-        <f t="shared" ref="L46" si="20">K46&amp;$L$1&amp;DAY(A46)&amp;$L$1&amp;MONTH(A46)&amp;$L$1&amp;YEAR(A46)&amp;$L$1&amp;C46&amp;$L$1&amp;G46&amp;$L$1&amp;D46&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H46</f>
+      <c r="L47" s="3" t="str">
+        <f t="shared" ref="L47" si="22">K47&amp;$L$1&amp;DAY(A47)&amp;$L$1&amp;MONTH(A47)&amp;$L$1&amp;YEAR(A47)&amp;$L$1&amp;C47&amp;$L$1&amp;G47&amp;$L$1&amp;D47&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H47</f>
         <v>30/3/2020,30,3,2020,125,12,Ticino,nn,nnn,353709</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
         <v>43921</v>
       </c>
-      <c r="B47">
+      <c r="B48">
         <v>2091</v>
       </c>
-      <c r="C47">
-        <f t="shared" si="18"/>
+      <c r="C48">
+        <f t="shared" si="20"/>
         <v>129</v>
-      </c>
-      <c r="D47" t="s">
-        <v>116</v>
-      </c>
-      <c r="F47">
-        <v>120</v>
-      </c>
-      <c r="G47">
-        <f t="shared" si="19"/>
-        <v>15</v>
-      </c>
-      <c r="H47">
-        <v>353709</v>
-      </c>
-      <c r="K47" s="5" t="str">
-        <f t="shared" ref="K47:K48" si="21">DAY(A47)&amp;"/"&amp;MONTH(A47)&amp;"/"&amp;YEAR(A47)</f>
-        <v>31/3/2020</v>
-      </c>
-      <c r="L47" s="3" t="str">
-        <f t="shared" ref="L47:L48" si="22">K47&amp;$L$1&amp;DAY(A47)&amp;$L$1&amp;MONTH(A47)&amp;$L$1&amp;YEAR(A47)&amp;$L$1&amp;C47&amp;$L$1&amp;G47&amp;$L$1&amp;D47&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H47</f>
-        <v>31/3/2020,31,3,2020,129,15,Ticino,nn,nnn,353709</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>43922</v>
-      </c>
-      <c r="B48">
-        <v>2195</v>
-      </c>
-      <c r="C48">
-        <f t="shared" si="18"/>
-        <v>104</v>
       </c>
       <c r="D48" t="s">
         <v>116</v>
       </c>
       <c r="F48">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="G48">
-        <f t="shared" si="19"/>
-        <v>12</v>
+        <f t="shared" si="21"/>
+        <v>15</v>
       </c>
       <c r="H48">
         <v>353709</v>
       </c>
       <c r="K48" s="5" t="str">
-        <f t="shared" si="21"/>
-        <v>1/4/2020</v>
+        <f t="shared" ref="K48:K49" si="23">DAY(A48)&amp;"/"&amp;MONTH(A48)&amp;"/"&amp;YEAR(A48)</f>
+        <v>31/3/2020</v>
       </c>
       <c r="L48" s="3" t="str">
-        <f t="shared" si="22"/>
-        <v>1/4/2020,1,4,2020,104,12,Ticino,nn,nnn,353709</v>
+        <f t="shared" ref="L48:L49" si="24">K48&amp;$L$1&amp;DAY(A48)&amp;$L$1&amp;MONTH(A48)&amp;$L$1&amp;YEAR(A48)&amp;$L$1&amp;C48&amp;$L$1&amp;G48&amp;$L$1&amp;D48&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H48</f>
+        <v>31/3/2020,31,3,2020,129,15,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>43923</v>
-      </c>
-      <c r="B49" s="44">
-        <v>2271</v>
+        <v>43922</v>
+      </c>
+      <c r="B49">
+        <v>2195</v>
       </c>
       <c r="C49">
-        <f t="shared" si="18"/>
-        <v>76</v>
+        <f t="shared" si="20"/>
+        <v>104</v>
       </c>
       <c r="D49" t="s">
         <v>116</v>
       </c>
-      <c r="F49" s="49">
-        <v>141</v>
+      <c r="F49">
+        <v>132</v>
       </c>
       <c r="G49">
-        <f t="shared" si="19"/>
-        <v>9</v>
+        <f t="shared" si="21"/>
+        <v>12</v>
       </c>
       <c r="H49">
         <v>353709</v>
       </c>
       <c r="K49" s="5" t="str">
-        <f t="shared" ref="K49" si="23">DAY(A49)&amp;"/"&amp;MONTH(A49)&amp;"/"&amp;YEAR(A49)</f>
+        <f t="shared" si="23"/>
+        <v>1/4/2020</v>
+      </c>
+      <c r="L49" s="3" t="str">
+        <f t="shared" si="24"/>
+        <v>1/4/2020,1,4,2020,104,12,Ticino,nn,nnn,353709</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>43923</v>
+      </c>
+      <c r="B50" s="44">
+        <v>2271</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="20"/>
+        <v>76</v>
+      </c>
+      <c r="D50" t="s">
+        <v>116</v>
+      </c>
+      <c r="F50" s="49">
+        <v>141</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="21"/>
+        <v>9</v>
+      </c>
+      <c r="H50">
+        <v>353709</v>
+      </c>
+      <c r="K50" s="5" t="str">
+        <f t="shared" ref="K50:K51" si="25">DAY(A50)&amp;"/"&amp;MONTH(A50)&amp;"/"&amp;YEAR(A50)</f>
         <v>2/4/2020</v>
       </c>
-      <c r="L49" s="3" t="str">
-        <f t="shared" ref="L49" si="24">K49&amp;$L$1&amp;DAY(A49)&amp;$L$1&amp;MONTH(A49)&amp;$L$1&amp;YEAR(A49)&amp;$L$1&amp;C49&amp;$L$1&amp;G49&amp;$L$1&amp;D49&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H49</f>
+      <c r="L50" s="3" t="str">
+        <f t="shared" ref="L50:L51" si="26">K50&amp;$L$1&amp;DAY(A50)&amp;$L$1&amp;MONTH(A50)&amp;$L$1&amp;YEAR(A50)&amp;$L$1&amp;C50&amp;$L$1&amp;G50&amp;$L$1&amp;D50&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H50</f>
         <v>2/4/2020,2,4,2020,76,9,Ticino,nn,nnn,353709</v>
       </c>
     </row>
+    <row r="51" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>43924</v>
+      </c>
+      <c r="B51" s="44">
+        <v>2377</v>
+      </c>
+      <c r="C51">
+        <f t="shared" ref="C51" si="27">B51-B50</f>
+        <v>106</v>
+      </c>
+      <c r="D51" t="s">
+        <v>116</v>
+      </c>
+      <c r="F51" s="47">
+        <v>155</v>
+      </c>
+      <c r="G51">
+        <f t="shared" ref="G51" si="28">F51-F50</f>
+        <v>14</v>
+      </c>
+      <c r="H51">
+        <v>353710</v>
+      </c>
+      <c r="K51" s="5" t="str">
+        <f t="shared" si="25"/>
+        <v>3/4/2020</v>
+      </c>
+      <c r="L51" s="3" t="str">
+        <f t="shared" si="26"/>
+        <v>3/4/2020,3,4,2020,106,14,Ticino,nn,nnn,353710</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A3:F41">
+  <autoFilter ref="A3:F42">
     <sortState ref="A4:F23">
       <sortCondition ref="D3:D20"/>
     </sortState>
@@ -4492,8 +4558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BD75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
-      <selection activeCell="V40" sqref="V40"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="V41" sqref="V41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4633,7 +4699,7 @@
         <f t="shared" si="0"/>
         <v>BS</v>
       </c>
-      <c r="AJ1" s="10" t="str">
+      <c r="AJ1" s="40" t="str">
         <f t="shared" si="0"/>
         <v>FR</v>
       </c>
@@ -4657,7 +4723,7 @@
         <f t="shared" si="0"/>
         <v>LU</v>
       </c>
-      <c r="AP1" s="40" t="str">
+      <c r="AP1" s="10" t="str">
         <f t="shared" si="0"/>
         <v>NE</v>
       </c>
@@ -8793,79 +8859,79 @@
       </c>
     </row>
     <row r="27" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A27" s="13">
+      <c r="A27" s="39">
         <v>43910</v>
       </c>
-      <c r="B27" s="14">
+      <c r="B27" s="12">
         <v>168</v>
       </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14">
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12">
         <v>377</v>
       </c>
-      <c r="F27" s="14">
+      <c r="F27" s="12">
         <v>184</v>
       </c>
-      <c r="G27" s="14">
+      <c r="G27" s="12">
         <v>272</v>
       </c>
-      <c r="H27" s="14">
+      <c r="H27" s="12">
         <v>145</v>
       </c>
-      <c r="I27" s="14">
+      <c r="I27" s="12">
         <v>1136</v>
       </c>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14">
+      <c r="J27" s="12"/>
+      <c r="K27" s="12">
         <v>213</v>
       </c>
-      <c r="L27" s="14">
+      <c r="L27" s="12">
         <v>37</v>
       </c>
-      <c r="M27" s="14">
+      <c r="M27" s="12">
         <v>92</v>
       </c>
-      <c r="N27" s="14">
-        <v>159</v>
-      </c>
-      <c r="O27" s="14">
+      <c r="N27" s="12">
+        <v>188</v>
+      </c>
+      <c r="O27" s="12">
         <v>28</v>
       </c>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="14">
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12">
         <v>98</v>
       </c>
-      <c r="R27" s="14">
+      <c r="R27" s="12">
         <v>14</v>
       </c>
-      <c r="S27" s="14">
+      <c r="S27" s="12">
         <v>66</v>
       </c>
-      <c r="T27" s="14"/>
-      <c r="U27" s="14">
+      <c r="T27" s="12"/>
+      <c r="U27" s="12">
         <v>49</v>
       </c>
-      <c r="V27" s="43">
+      <c r="V27" s="44">
         <v>834</v>
       </c>
-      <c r="W27" s="14">
+      <c r="W27" s="12">
         <v>7</v>
       </c>
-      <c r="X27" s="14">
+      <c r="X27" s="12">
         <v>1432</v>
       </c>
-      <c r="Y27" s="14">
+      <c r="Y27" s="12">
         <v>346</v>
       </c>
-      <c r="Z27" s="14">
+      <c r="Z27" s="12">
         <v>48</v>
       </c>
-      <c r="AA27" s="14">
+      <c r="AA27" s="12">
         <v>773</v>
       </c>
-      <c r="AB27" s="14">
-        <v>6526</v>
+      <c r="AB27" s="12">
+        <v>6555</v>
       </c>
       <c r="AC27" s="15" t="str">
         <f t="shared" si="8"/>
@@ -8921,7 +8987,7 @@
       </c>
       <c r="AP27" s="3" t="str">
         <f>$AC27&amp;$AC$1&amp;N27&amp;$AC$1&amp;fatalities!N27&amp;$AC$1&amp;N$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;N$2</f>
-        <v>20/3/2020,20,3,2020,159,2,NE,nn,nnn,176850</v>
+        <v>20/3/2020,20,3,2020,188,3,NE,nn,nnn,176850</v>
       </c>
       <c r="AQ27" s="3" t="str">
         <f>$AC27&amp;$AC$1&amp;O27&amp;$AC$1&amp;fatalities!O27&amp;$AC$1&amp;O$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;O$2</f>
@@ -8977,71 +9043,71 @@
       </c>
       <c r="BD27" s="3" t="str">
         <f>$AC27&amp;$AC$1&amp;AB27&amp;$AC$1&amp;fatalities!AB27&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2</f>
-        <v>20/3/2020,20,3,2020,6526,67,CH,nn,nnn,8543707</v>
+        <v>20/3/2020,20,3,2020,6555,68,CH,nn,nnn,8543707</v>
       </c>
     </row>
     <row r="28" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A28" s="13">
+      <c r="A28" s="39">
         <v>43911</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14">
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12">
         <v>418</v>
       </c>
-      <c r="F28" s="14">
+      <c r="F28" s="12">
         <v>282</v>
       </c>
-      <c r="G28" s="14">
+      <c r="G28" s="12">
         <v>299</v>
       </c>
-      <c r="H28" s="14">
+      <c r="H28" s="12">
         <v>167</v>
       </c>
-      <c r="I28" s="14">
+      <c r="I28" s="12">
         <v>1262</v>
       </c>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14">
+      <c r="J28" s="12"/>
+      <c r="K28" s="12">
         <v>239</v>
       </c>
-      <c r="L28" s="14">
+      <c r="L28" s="12">
         <v>49</v>
       </c>
-      <c r="M28" s="14">
+      <c r="M28" s="12">
         <v>109</v>
       </c>
-      <c r="N28" s="14">
-        <v>177</v>
-      </c>
-      <c r="O28" s="14">
+      <c r="N28" s="12">
+        <v>200</v>
+      </c>
+      <c r="O28" s="12">
         <v>33</v>
       </c>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="14"/>
-      <c r="S28" s="14"/>
-      <c r="T28" s="14"/>
-      <c r="U28" s="14">
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="12"/>
+      <c r="T28" s="12"/>
+      <c r="U28" s="12">
         <v>56</v>
       </c>
-      <c r="V28" s="43">
+      <c r="V28" s="44">
         <v>918</v>
       </c>
-      <c r="W28" s="14">
+      <c r="W28" s="12">
         <v>12</v>
       </c>
-      <c r="X28" s="14">
+      <c r="X28" s="12">
         <v>1676</v>
       </c>
-      <c r="Y28" s="14">
+      <c r="Y28" s="12">
         <v>433</v>
       </c>
-      <c r="Z28" s="14"/>
-      <c r="AA28" s="14"/>
-      <c r="AB28" s="14">
-        <v>7345</v>
+      <c r="Z28" s="12"/>
+      <c r="AA28" s="12"/>
+      <c r="AB28" s="12">
+        <v>7368</v>
       </c>
       <c r="AC28" s="15" t="str">
         <f t="shared" si="8"/>
@@ -9097,7 +9163,7 @@
       </c>
       <c r="AP28" s="3" t="str">
         <f>$AC28&amp;$AC$1&amp;N28&amp;$AC$1&amp;fatalities!N28&amp;$AC$1&amp;N$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;N$2</f>
-        <v>21/3/2020,21,3,2020,177,2,NE,nn,nnn,176850</v>
+        <v>21/3/2020,21,3,2020,200,4,NE,nn,nnn,176850</v>
       </c>
       <c r="AQ28" s="3" t="str">
         <f>$AC28&amp;$AC$1&amp;O28&amp;$AC$1&amp;fatalities!O28&amp;$AC$1&amp;O$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;O$2</f>
@@ -9153,71 +9219,71 @@
       </c>
       <c r="BD28" s="3" t="str">
         <f>$AC28&amp;$AC$1&amp;AB28&amp;$AC$1&amp;fatalities!AB28&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2</f>
-        <v>21/3/2020,21,3,2020,7345,83,CH,nn,nnn,8543707</v>
+        <v>21/3/2020,21,3,2020,7368,85,CH,nn,nnn,8543707</v>
       </c>
     </row>
     <row r="29" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A29" s="13">
+      <c r="A29" s="39">
         <v>43912</v>
       </c>
-      <c r="B29" s="14">
+      <c r="B29" s="12">
         <v>232</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14">
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12">
         <v>289</v>
       </c>
-      <c r="G29" s="14">
+      <c r="G29" s="12">
         <v>358</v>
       </c>
-      <c r="H29" s="14">
+      <c r="H29" s="12">
         <v>202</v>
       </c>
-      <c r="I29" s="14">
+      <c r="I29" s="12">
         <v>1417</v>
       </c>
-      <c r="J29" s="14">
+      <c r="J29" s="12">
         <v>31</v>
       </c>
-      <c r="K29" s="14">
+      <c r="K29" s="12">
         <v>266</v>
       </c>
-      <c r="L29" s="14">
+      <c r="L29" s="12">
         <v>51</v>
       </c>
-      <c r="M29" s="14">
+      <c r="M29" s="12">
         <v>131</v>
       </c>
-      <c r="N29" s="14">
-        <v>188</v>
-      </c>
-      <c r="O29" s="14">
+      <c r="N29" s="12">
+        <v>216</v>
+      </c>
+      <c r="O29" s="12">
         <v>36</v>
       </c>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="14"/>
-      <c r="R29" s="14"/>
-      <c r="S29" s="14"/>
-      <c r="T29" s="14"/>
-      <c r="U29" s="14">
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="12"/>
+      <c r="T29" s="12"/>
+      <c r="U29" s="12">
         <v>75</v>
       </c>
-      <c r="V29" s="43">
+      <c r="V29" s="44">
         <v>939</v>
       </c>
-      <c r="W29" s="14"/>
-      <c r="X29" s="14">
+      <c r="W29" s="12"/>
+      <c r="X29" s="12">
         <v>1782</v>
       </c>
-      <c r="Y29" s="14">
+      <c r="Y29" s="12">
         <v>490</v>
       </c>
-      <c r="Z29" s="14"/>
-      <c r="AA29" s="14"/>
-      <c r="AB29" s="14">
-        <v>7947</v>
+      <c r="Z29" s="12"/>
+      <c r="AA29" s="12"/>
+      <c r="AB29" s="12">
+        <v>7975</v>
       </c>
       <c r="AC29" s="15" t="str">
         <f t="shared" si="8"/>
@@ -9273,7 +9339,7 @@
       </c>
       <c r="AP29" s="3" t="str">
         <f>$AC29&amp;$AC$1&amp;N29&amp;$AC$1&amp;fatalities!N29&amp;$AC$1&amp;N$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;N$2</f>
-        <v>22/3/2020,22,3,2020,188,2,NE,nn,nnn,176850</v>
+        <v>22/3/2020,22,3,2020,216,4,NE,nn,nnn,176850</v>
       </c>
       <c r="AQ29" s="3" t="str">
         <f>$AC29&amp;$AC$1&amp;O29&amp;$AC$1&amp;fatalities!O29&amp;$AC$1&amp;O$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;O$2</f>
@@ -9329,85 +9395,85 @@
       </c>
       <c r="BD29" s="3" t="str">
         <f>$AC29&amp;$AC$1&amp;AB29&amp;$AC$1&amp;fatalities!AB29&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2</f>
-        <v>22/3/2020,22,3,2020,7947,101,CH,nn,nnn,8543707</v>
+        <v>22/3/2020,22,3,2020,7975,103,CH,nn,nnn,8543707</v>
       </c>
     </row>
     <row r="30" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A30" s="13">
+      <c r="A30" s="39">
         <v>43913</v>
       </c>
-      <c r="B30" s="14">
+      <c r="B30" s="12">
         <v>241</v>
       </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14">
+      <c r="C30" s="12"/>
+      <c r="D30" s="12">
         <v>30</v>
       </c>
-      <c r="E30" s="14">
+      <c r="E30" s="12">
         <v>470</v>
       </c>
-      <c r="F30" s="14">
+      <c r="F30" s="12">
         <v>302</v>
       </c>
-      <c r="G30" s="14">
+      <c r="G30" s="12">
         <v>376</v>
       </c>
-      <c r="H30" s="14">
+      <c r="H30" s="12">
         <v>226</v>
       </c>
-      <c r="I30" s="14">
+      <c r="I30" s="12">
         <v>1509</v>
       </c>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14">
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12">
         <v>57</v>
       </c>
-      <c r="M30" s="14">
+      <c r="M30" s="12">
         <v>156</v>
       </c>
-      <c r="N30" s="14">
-        <v>204</v>
-      </c>
-      <c r="O30" s="14">
+      <c r="N30" s="12">
+        <v>247</v>
+      </c>
+      <c r="O30" s="12">
         <v>39</v>
       </c>
-      <c r="P30" s="14">
+      <c r="P30" s="12">
         <v>25</v>
       </c>
-      <c r="Q30" s="14">
+      <c r="Q30" s="12">
         <v>228</v>
       </c>
-      <c r="R30" s="14">
+      <c r="R30" s="12">
         <v>30</v>
       </c>
-      <c r="S30" s="14">
+      <c r="S30" s="12">
         <v>95</v>
       </c>
-      <c r="T30" s="14"/>
-      <c r="U30" s="14">
+      <c r="T30" s="12"/>
+      <c r="U30" s="12">
         <v>81</v>
       </c>
-      <c r="V30" s="43">
+      <c r="V30" s="44">
         <v>1165</v>
       </c>
-      <c r="W30" s="14">
+      <c r="W30" s="12">
         <v>22</v>
       </c>
-      <c r="X30" s="14">
+      <c r="X30" s="12">
         <v>1822</v>
       </c>
-      <c r="Y30" s="14">
+      <c r="Y30" s="12">
         <v>527</v>
       </c>
-      <c r="Z30" s="14">
+      <c r="Z30" s="12">
         <v>62</v>
       </c>
-      <c r="AA30" s="14">
+      <c r="AA30" s="12">
         <v>1068</v>
       </c>
-      <c r="AB30" s="14">
-        <v>9051</v>
+      <c r="AB30" s="12">
+        <v>9094</v>
       </c>
       <c r="AC30" s="15" t="str">
         <f t="shared" si="8"/>
@@ -9463,7 +9529,7 @@
       </c>
       <c r="AP30" s="3" t="str">
         <f>$AC30&amp;$AC$1&amp;N30&amp;$AC$1&amp;fatalities!N30&amp;$AC$1&amp;N$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;N$2</f>
-        <v>23/3/2020,23,3,2020,204,2,NE,nn,nnn,176850</v>
+        <v>23/3/2020,23,3,2020,247,5,NE,nn,nnn,176850</v>
       </c>
       <c r="AQ30" s="3" t="str">
         <f>$AC30&amp;$AC$1&amp;O30&amp;$AC$1&amp;fatalities!O30&amp;$AC$1&amp;O$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;O$2</f>
@@ -9519,89 +9585,89 @@
       </c>
       <c r="BD30" s="3" t="str">
         <f>$AC30&amp;$AC$1&amp;AB30&amp;$AC$1&amp;fatalities!AB30&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2</f>
-        <v>23/3/2020,23,3,2020,9051,130,CH,nn,nnn,8543707</v>
+        <v>23/3/2020,23,3,2020,9094,133,CH,nn,nnn,8543707</v>
       </c>
     </row>
     <row r="31" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A31" s="13">
+      <c r="A31" s="39">
         <v>43914</v>
       </c>
-      <c r="B31" s="14">
+      <c r="B31" s="12">
         <v>266</v>
       </c>
-      <c r="C31" s="14">
+      <c r="C31" s="12">
         <v>8</v>
       </c>
-      <c r="D31" s="14">
+      <c r="D31" s="12">
         <v>33</v>
       </c>
-      <c r="E31" s="14">
+      <c r="E31" s="12">
         <v>532</v>
       </c>
-      <c r="F31" s="14">
+      <c r="F31" s="12">
         <v>306</v>
       </c>
-      <c r="G31" s="14">
+      <c r="G31" s="12">
         <v>414</v>
       </c>
-      <c r="H31" s="14">
+      <c r="H31" s="12">
         <v>255</v>
       </c>
-      <c r="I31" s="14">
+      <c r="I31" s="12">
         <v>1598</v>
       </c>
-      <c r="J31" s="14">
+      <c r="J31" s="12">
         <v>33</v>
       </c>
-      <c r="K31" s="14">
+      <c r="K31" s="12">
         <v>276</v>
       </c>
-      <c r="L31" s="14">
+      <c r="L31" s="12">
         <v>66</v>
       </c>
-      <c r="M31" s="14">
+      <c r="M31" s="12">
         <v>205</v>
       </c>
-      <c r="N31" s="14">
-        <v>230</v>
-      </c>
-      <c r="O31" s="14">
+      <c r="N31" s="12">
+        <v>265</v>
+      </c>
+      <c r="O31" s="12">
         <v>42</v>
       </c>
-      <c r="P31" s="14">
+      <c r="P31" s="12">
         <v>25</v>
       </c>
-      <c r="Q31" s="14"/>
-      <c r="R31" s="14">
+      <c r="Q31" s="12"/>
+      <c r="R31" s="12">
         <v>32</v>
       </c>
-      <c r="S31" s="14">
+      <c r="S31" s="12">
         <v>104</v>
       </c>
-      <c r="T31" s="14"/>
-      <c r="U31" s="14">
+      <c r="T31" s="12"/>
+      <c r="U31" s="12">
         <v>87</v>
       </c>
-      <c r="V31" s="43">
+      <c r="V31" s="44">
         <v>1211</v>
       </c>
-      <c r="W31" s="14">
+      <c r="W31" s="12">
         <v>25</v>
       </c>
-      <c r="X31" s="14">
+      <c r="X31" s="12">
         <v>2162</v>
       </c>
-      <c r="Y31" s="14">
+      <c r="Y31" s="12">
         <v>606</v>
       </c>
-      <c r="Z31" s="14">
+      <c r="Z31" s="12">
         <v>72</v>
       </c>
-      <c r="AA31" s="14">
+      <c r="AA31" s="12">
         <v>1211</v>
       </c>
-      <c r="AB31" s="14">
-        <v>10040</v>
+      <c r="AB31" s="12">
+        <v>10075</v>
       </c>
       <c r="AC31" s="15" t="str">
         <f t="shared" si="8"/>
@@ -9657,7 +9723,7 @@
       </c>
       <c r="AP31" s="3" t="str">
         <f>$AC31&amp;$AC$1&amp;N31&amp;$AC$1&amp;fatalities!N31&amp;$AC$1&amp;N$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;N$2</f>
-        <v>24/3/2020,24,3,2020,230,2,NE,nn,nnn,176850</v>
+        <v>24/3/2020,24,3,2020,265,6,NE,nn,nnn,176850</v>
       </c>
       <c r="AQ31" s="3" t="str">
         <f>$AC31&amp;$AC$1&amp;O31&amp;$AC$1&amp;fatalities!O31&amp;$AC$1&amp;O$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;O$2</f>
@@ -9713,91 +9779,91 @@
       </c>
       <c r="BD31" s="3" t="str">
         <f>$AC31&amp;$AC$1&amp;AB31&amp;$AC$1&amp;fatalities!AB31&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2</f>
-        <v>24/3/2020,24,3,2020,10040,150,CH,nn,nnn,8543707</v>
+        <v>24/3/2020,24,3,2020,10075,154,CH,nn,nnn,8543707</v>
       </c>
     </row>
     <row r="32" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A32" s="13">
+      <c r="A32" s="39">
         <v>43915</v>
       </c>
-      <c r="B32" s="14">
+      <c r="B32" s="12">
         <v>319</v>
       </c>
-      <c r="C32" s="14">
+      <c r="C32" s="12">
         <v>9</v>
       </c>
-      <c r="D32" s="14">
+      <c r="D32" s="12">
         <v>34</v>
       </c>
-      <c r="E32" s="14">
+      <c r="E32" s="12">
         <v>624</v>
       </c>
-      <c r="F32" s="14">
+      <c r="F32" s="12">
         <v>341</v>
       </c>
-      <c r="G32" s="14">
+      <c r="G32" s="12">
         <v>466</v>
       </c>
-      <c r="H32" s="14">
+      <c r="H32" s="12">
         <v>293</v>
       </c>
-      <c r="I32" s="14">
+      <c r="I32" s="12">
         <v>1708</v>
       </c>
-      <c r="J32" s="14">
+      <c r="J32" s="12">
         <v>40</v>
       </c>
-      <c r="K32" s="14">
+      <c r="K32" s="12">
         <v>322</v>
       </c>
-      <c r="L32" s="14">
+      <c r="L32" s="12">
         <v>78</v>
       </c>
-      <c r="M32" s="14">
+      <c r="M32" s="12">
         <v>228</v>
       </c>
-      <c r="N32" s="14">
-        <v>256</v>
-      </c>
-      <c r="O32" s="14">
+      <c r="N32" s="12">
+        <v>280</v>
+      </c>
+      <c r="O32" s="12">
         <v>44</v>
       </c>
-      <c r="P32" s="14">
+      <c r="P32" s="12">
         <v>27</v>
       </c>
-      <c r="Q32" s="14">
+      <c r="Q32" s="12">
         <v>228</v>
       </c>
-      <c r="R32" s="14">
+      <c r="R32" s="12">
         <v>34</v>
       </c>
-      <c r="S32" s="14">
+      <c r="S32" s="12">
         <v>129</v>
       </c>
-      <c r="T32" s="14">
+      <c r="T32" s="12">
         <v>99</v>
       </c>
-      <c r="U32" s="14">
+      <c r="U32" s="12">
         <v>96</v>
       </c>
-      <c r="V32" s="43">
+      <c r="V32" s="44">
         <v>1354</v>
       </c>
-      <c r="W32" s="14"/>
-      <c r="X32" s="14">
+      <c r="W32" s="12"/>
+      <c r="X32" s="12">
         <v>2215</v>
       </c>
-      <c r="Y32" s="14">
+      <c r="Y32" s="12">
         <v>651</v>
       </c>
-      <c r="Z32" s="14">
+      <c r="Z32" s="12">
         <v>80</v>
       </c>
-      <c r="AA32" s="14">
+      <c r="AA32" s="12">
         <v>1363</v>
       </c>
-      <c r="AB32" s="14">
-        <v>11063</v>
+      <c r="AB32" s="12">
+        <v>11087</v>
       </c>
       <c r="AC32" s="15" t="str">
         <f t="shared" si="8"/>
@@ -9853,7 +9919,7 @@
       </c>
       <c r="AP32" s="3" t="str">
         <f>$AC32&amp;$AC$1&amp;N32&amp;$AC$1&amp;fatalities!N32&amp;$AC$1&amp;N$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;N$2</f>
-        <v>25/3/2020,25,3,2020,256,2,NE,nn,nnn,176850</v>
+        <v>25/3/2020,25,3,2020,280,9,NE,nn,nnn,176850</v>
       </c>
       <c r="AQ32" s="3" t="str">
         <f>$AC32&amp;$AC$1&amp;O32&amp;$AC$1&amp;fatalities!O32&amp;$AC$1&amp;O$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;O$2</f>
@@ -9909,93 +9975,93 @@
       </c>
       <c r="BD32" s="3" t="str">
         <f>$AC32&amp;$AC$1&amp;AB32&amp;$AC$1&amp;fatalities!AB32&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2</f>
-        <v>25/3/2020,25,3,2020,11063,175,CH,nn,nnn,8543707</v>
+        <v>25/3/2020,25,3,2020,11087,182,CH,nn,nnn,8543707</v>
       </c>
     </row>
     <row r="33" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A33" s="13">
+      <c r="A33" s="39">
         <v>43916</v>
       </c>
-      <c r="B33" s="14">
+      <c r="B33" s="12">
         <v>349</v>
       </c>
-      <c r="C33" s="14">
+      <c r="C33" s="12">
         <v>11</v>
       </c>
-      <c r="D33" s="14">
+      <c r="D33" s="12">
         <v>42</v>
       </c>
-      <c r="E33" s="14">
+      <c r="E33" s="12">
         <v>660</v>
       </c>
-      <c r="F33" s="14">
+      <c r="F33" s="12">
         <v>422</v>
       </c>
-      <c r="G33" s="14">
+      <c r="G33" s="12">
         <v>505</v>
       </c>
-      <c r="H33" s="14">
+      <c r="H33" s="12">
         <v>309</v>
       </c>
-      <c r="I33" s="14">
+      <c r="I33" s="12">
         <v>1902</v>
       </c>
-      <c r="J33" s="14">
+      <c r="J33" s="12">
         <v>43</v>
       </c>
-      <c r="K33" s="14">
+      <c r="K33" s="12">
         <v>373</v>
       </c>
-      <c r="L33" s="14">
+      <c r="L33" s="12">
         <v>99</v>
       </c>
-      <c r="M33" s="14">
+      <c r="M33" s="12">
         <v>253</v>
       </c>
-      <c r="N33" s="14">
-        <v>271</v>
-      </c>
-      <c r="O33" s="14">
+      <c r="N33" s="12">
+        <v>299</v>
+      </c>
+      <c r="O33" s="12">
         <v>48</v>
       </c>
-      <c r="P33" s="14">
+      <c r="P33" s="12">
         <v>30</v>
       </c>
-      <c r="Q33" s="14">
+      <c r="Q33" s="12">
         <v>306</v>
       </c>
-      <c r="R33" s="14">
+      <c r="R33" s="12">
         <v>35</v>
       </c>
-      <c r="S33" s="14">
+      <c r="S33" s="12">
         <v>141</v>
       </c>
-      <c r="T33" s="14">
+      <c r="T33" s="12">
         <v>99</v>
       </c>
-      <c r="U33" s="14">
+      <c r="U33" s="12">
         <v>110</v>
       </c>
-      <c r="V33" s="43">
+      <c r="V33" s="44">
         <v>1401</v>
       </c>
-      <c r="W33" s="14">
+      <c r="W33" s="12">
         <v>38</v>
       </c>
-      <c r="X33" s="14">
+      <c r="X33" s="12">
         <v>2532</v>
       </c>
-      <c r="Y33" s="14">
+      <c r="Y33" s="12">
         <v>715</v>
       </c>
-      <c r="Z33" s="14">
+      <c r="Z33" s="12">
         <v>87</v>
       </c>
-      <c r="AA33" s="14">
+      <c r="AA33" s="12">
         <v>1476</v>
       </c>
-      <c r="AB33" s="14">
-        <v>12257</v>
+      <c r="AB33" s="12">
+        <v>12285</v>
       </c>
       <c r="AC33" s="15" t="str">
         <f t="shared" si="8"/>
@@ -10051,7 +10117,7 @@
       </c>
       <c r="AP33" s="3" t="str">
         <f>$AC33&amp;$AC$1&amp;N33&amp;$AC$1&amp;fatalities!N33&amp;$AC$1&amp;N$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;N$2</f>
-        <v>26/3/2020,26,3,2020,271,5,NE,nn,nnn,176850</v>
+        <v>26/3/2020,26,3,2020,299,11,NE,nn,nnn,176850</v>
       </c>
       <c r="AQ33" s="3" t="str">
         <f>$AC33&amp;$AC$1&amp;O33&amp;$AC$1&amp;fatalities!O33&amp;$AC$1&amp;O$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;O$2</f>
@@ -10107,91 +10173,91 @@
       </c>
       <c r="BD33" s="3" t="str">
         <f>$AC33&amp;$AC$1&amp;AB33&amp;$AC$1&amp;fatalities!AB33&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2</f>
-        <v>26/3/2020,26,3,2020,12257,221,CH,nn,nnn,8543707</v>
+        <v>26/3/2020,26,3,2020,12285,227,CH,nn,nnn,8543707</v>
       </c>
     </row>
     <row r="34" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A34" s="13">
+      <c r="A34" s="39">
         <v>43917</v>
       </c>
-      <c r="B34" s="14">
+      <c r="B34" s="12">
         <v>364</v>
       </c>
-      <c r="C34" s="14">
+      <c r="C34" s="12">
         <v>12</v>
       </c>
-      <c r="D34" s="14">
+      <c r="D34" s="12">
         <v>44</v>
       </c>
-      <c r="E34" s="14">
+      <c r="E34" s="12">
         <v>718</v>
       </c>
-      <c r="F34" s="14">
+      <c r="F34" s="12">
         <v>466</v>
       </c>
-      <c r="G34" s="14">
+      <c r="G34" s="12">
         <v>534</v>
       </c>
-      <c r="H34" s="14">
+      <c r="H34" s="12">
         <v>369</v>
       </c>
-      <c r="I34" s="14">
+      <c r="I34" s="12">
         <v>2051</v>
       </c>
-      <c r="J34" s="14">
+      <c r="J34" s="12">
         <v>44</v>
       </c>
-      <c r="K34" s="14">
+      <c r="K34" s="12">
         <v>409</v>
       </c>
-      <c r="L34" s="14">
+      <c r="L34" s="12">
         <v>112</v>
       </c>
-      <c r="M34" s="14">
+      <c r="M34" s="12">
         <v>287</v>
       </c>
-      <c r="N34" s="14">
-        <v>287</v>
-      </c>
-      <c r="O34" s="14">
+      <c r="N34" s="12">
+        <v>316</v>
+      </c>
+      <c r="O34" s="12">
         <v>54</v>
       </c>
-      <c r="P34" s="14">
+      <c r="P34" s="12">
         <v>37</v>
       </c>
-      <c r="Q34" s="14"/>
-      <c r="R34" s="14">
+      <c r="Q34" s="12"/>
+      <c r="R34" s="12">
         <v>36</v>
       </c>
-      <c r="S34" s="14">
+      <c r="S34" s="12">
         <v>157</v>
       </c>
-      <c r="T34" s="14">
+      <c r="T34" s="12">
         <v>119</v>
       </c>
-      <c r="U34" s="14">
+      <c r="U34" s="12">
         <v>117</v>
       </c>
-      <c r="V34" s="43">
+      <c r="V34" s="44">
         <v>1688</v>
       </c>
-      <c r="W34" s="14">
+      <c r="W34" s="12">
         <v>40</v>
       </c>
-      <c r="X34" s="14">
+      <c r="X34" s="12">
         <v>2745</v>
       </c>
-      <c r="Y34" s="14">
+      <c r="Y34" s="12">
         <v>808</v>
       </c>
-      <c r="Z34" s="14">
+      <c r="Z34" s="12">
         <v>101</v>
       </c>
-      <c r="AA34" s="14">
+      <c r="AA34" s="12">
         <v>1578</v>
       </c>
-      <c r="AB34" s="14">
-        <v>13483</v>
+      <c r="AB34" s="12">
+        <v>13512</v>
       </c>
       <c r="AC34" s="15" t="str">
         <f t="shared" si="8"/>
@@ -10247,7 +10313,7 @@
       </c>
       <c r="AP34" s="3" t="str">
         <f>$AC34&amp;$AC$1&amp;N34&amp;$AC$1&amp;fatalities!N34&amp;$AC$1&amp;N$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;N$2</f>
-        <v>27/3/2020,27,3,2020,287,5,NE,nn,nnn,176850</v>
+        <v>27/3/2020,27,3,2020,316,12,NE,nn,nnn,176850</v>
       </c>
       <c r="AQ34" s="3" t="str">
         <f>$AC34&amp;$AC$1&amp;O34&amp;$AC$1&amp;fatalities!O34&amp;$AC$1&amp;O$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;O$2</f>
@@ -10303,85 +10369,85 @@
       </c>
       <c r="BD34" s="3" t="str">
         <f>$AC34&amp;$AC$1&amp;AB34&amp;$AC$1&amp;fatalities!AB34&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2</f>
-        <v>27/3/2020,27,3,2020,13483,248,CH,nn,nnn,8543707</v>
+        <v>27/3/2020,27,3,2020,13512,255,CH,nn,nnn,8543707</v>
       </c>
     </row>
     <row r="35" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A35" s="13">
+      <c r="A35" s="39">
         <v>43918</v>
       </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14">
+      <c r="B35" s="12"/>
+      <c r="C35" s="12">
         <v>13</v>
       </c>
-      <c r="D35" s="14">
+      <c r="D35" s="12">
         <v>45</v>
       </c>
-      <c r="E35" s="14">
+      <c r="E35" s="12">
         <v>767</v>
       </c>
-      <c r="F35" s="14">
+      <c r="F35" s="12">
         <v>502</v>
       </c>
-      <c r="G35" s="14">
+      <c r="G35" s="12">
         <v>573</v>
       </c>
-      <c r="H35" s="14">
+      <c r="H35" s="12">
         <v>421</v>
       </c>
-      <c r="I35" s="14">
+      <c r="I35" s="12">
         <v>2277</v>
       </c>
-      <c r="J35" s="14">
+      <c r="J35" s="12">
         <v>47</v>
       </c>
-      <c r="K35" s="14"/>
-      <c r="L35" s="14">
+      <c r="K35" s="12"/>
+      <c r="L35" s="12">
         <v>118</v>
       </c>
-      <c r="M35" s="14">
+      <c r="M35" s="12">
         <v>317</v>
       </c>
-      <c r="N35" s="14">
-        <v>311</v>
-      </c>
-      <c r="O35" s="14">
+      <c r="N35" s="12">
+        <v>337</v>
+      </c>
+      <c r="O35" s="12">
         <v>55</v>
       </c>
-      <c r="P35" s="14"/>
-      <c r="Q35" s="14">
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12">
         <v>339</v>
       </c>
-      <c r="R35" s="14">
+      <c r="R35" s="12">
         <v>37</v>
       </c>
-      <c r="S35" s="14">
+      <c r="S35" s="12">
         <v>173</v>
       </c>
-      <c r="T35" s="14">
+      <c r="T35" s="12">
         <v>122</v>
       </c>
-      <c r="U35" s="14">
+      <c r="U35" s="12">
         <v>134</v>
       </c>
-      <c r="V35" s="43">
+      <c r="V35" s="44">
         <v>1727</v>
       </c>
-      <c r="W35" s="14">
+      <c r="W35" s="12">
         <v>48</v>
       </c>
-      <c r="X35" s="14">
+      <c r="X35" s="12">
         <v>2936</v>
       </c>
-      <c r="Y35" s="14">
+      <c r="Y35" s="12">
         <v>902</v>
       </c>
-      <c r="Z35" s="14"/>
-      <c r="AA35" s="14">
+      <c r="Z35" s="12"/>
+      <c r="AA35" s="12">
         <v>1720</v>
       </c>
-      <c r="AB35" s="14">
-        <v>14495</v>
+      <c r="AB35" s="12">
+        <v>14521</v>
       </c>
       <c r="AC35" s="15" t="str">
         <f t="shared" si="8"/>
@@ -10437,7 +10503,7 @@
       </c>
       <c r="AP35" s="3" t="str">
         <f>$AC35&amp;$AC$1&amp;N35&amp;$AC$1&amp;fatalities!N35&amp;$AC$1&amp;N$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;N$2</f>
-        <v>28/3/2020,28,3,2020,311,6,NE,nn,nnn,176850</v>
+        <v>28/3/2020,28,3,2020,337,14,NE,nn,nnn,176850</v>
       </c>
       <c r="AQ35" s="3" t="str">
         <f>$AC35&amp;$AC$1&amp;O35&amp;$AC$1&amp;fatalities!O35&amp;$AC$1&amp;O$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;O$2</f>
@@ -10493,81 +10559,81 @@
       </c>
       <c r="BD35" s="3" t="str">
         <f>$AC35&amp;$AC$1&amp;AB35&amp;$AC$1&amp;fatalities!AB35&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2</f>
-        <v>28/3/2020,28,3,2020,14495,284,CH,nn,nnn,8543707</v>
+        <v>28/3/2020,28,3,2020,14521,292,CH,nn,nnn,8543707</v>
       </c>
     </row>
     <row r="36" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A36" s="13">
+      <c r="A36" s="39">
         <v>43919</v>
       </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14">
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12">
         <v>48</v>
       </c>
-      <c r="E36" s="14">
+      <c r="E36" s="12">
         <v>798</v>
       </c>
-      <c r="F36" s="14">
+      <c r="F36" s="12">
         <v>511</v>
       </c>
-      <c r="G36" s="14">
+      <c r="G36" s="12">
         <v>609</v>
       </c>
-      <c r="H36" s="14">
+      <c r="H36" s="12">
         <v>442</v>
       </c>
-      <c r="I36" s="14">
+      <c r="I36" s="12">
         <v>2349</v>
       </c>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="14">
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12">
         <v>118</v>
       </c>
-      <c r="M36" s="14">
+      <c r="M36" s="12">
         <v>339</v>
       </c>
-      <c r="N36" s="14">
-        <v>313</v>
-      </c>
-      <c r="O36" s="14">
+      <c r="N36" s="12">
+        <v>346</v>
+      </c>
+      <c r="O36" s="12">
         <v>59</v>
       </c>
-      <c r="P36" s="14"/>
-      <c r="Q36" s="14">
+      <c r="P36" s="12"/>
+      <c r="Q36" s="12">
         <v>365</v>
       </c>
-      <c r="R36" s="14">
+      <c r="R36" s="12">
         <v>40</v>
       </c>
-      <c r="S36" s="14">
+      <c r="S36" s="12">
         <v>190</v>
       </c>
-      <c r="T36" s="14">
+      <c r="T36" s="12">
         <v>128</v>
       </c>
-      <c r="U36" s="14">
+      <c r="U36" s="12">
         <v>138</v>
       </c>
-      <c r="V36" s="43">
+      <c r="V36" s="44">
         <v>1837</v>
       </c>
-      <c r="W36" s="14">
+      <c r="W36" s="12">
         <v>50</v>
       </c>
-      <c r="X36" s="14">
+      <c r="X36" s="12">
         <v>3168</v>
       </c>
-      <c r="Y36" s="14">
+      <c r="Y36" s="12">
         <v>964</v>
       </c>
-      <c r="Z36" s="14"/>
-      <c r="AA36" s="14">
+      <c r="Z36" s="12"/>
+      <c r="AA36" s="12">
         <v>1758</v>
       </c>
-      <c r="AB36" s="14">
-        <v>15195</v>
+      <c r="AB36" s="12">
+        <v>15228</v>
       </c>
       <c r="AC36" s="15" t="str">
         <f t="shared" si="8"/>
@@ -10623,7 +10689,7 @@
       </c>
       <c r="AP36" s="3" t="str">
         <f>$AC36&amp;$AC$1&amp;N36&amp;$AC$1&amp;fatalities!N36&amp;$AC$1&amp;N$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;N$2</f>
-        <v>29/3/2020,29,3,2020,313,6,NE,nn,nnn,176850</v>
+        <v>29/3/2020,29,3,2020,346,17,NE,nn,nnn,176850</v>
       </c>
       <c r="AQ36" s="3" t="str">
         <f>$AC36&amp;$AC$1&amp;O36&amp;$AC$1&amp;fatalities!O36&amp;$AC$1&amp;O$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;O$2</f>
@@ -10679,91 +10745,91 @@
       </c>
       <c r="BD36" s="3" t="str">
         <f>$AC36&amp;$AC$1&amp;AB36&amp;$AC$1&amp;fatalities!AB36&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2</f>
-        <v>29/3/2020,29,3,2020,15195,317,CH,nn,nnn,8543707</v>
+        <v>29/3/2020,29,3,2020,15228,328,CH,nn,nnn,8543707</v>
       </c>
     </row>
     <row r="37" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A37" s="13">
+      <c r="A37" s="39">
         <v>43920</v>
       </c>
-      <c r="B37" s="14">
+      <c r="B37" s="12">
         <v>481</v>
       </c>
-      <c r="C37" s="14">
+      <c r="C37" s="12">
         <v>14</v>
       </c>
-      <c r="D37" s="14">
+      <c r="D37" s="12">
         <v>50</v>
       </c>
-      <c r="E37" s="14">
+      <c r="E37" s="12">
         <v>826</v>
       </c>
-      <c r="F37" s="14">
+      <c r="F37" s="12">
         <v>539</v>
       </c>
-      <c r="G37" s="14">
+      <c r="G37" s="12">
         <v>621</v>
       </c>
-      <c r="H37" s="14">
+      <c r="H37" s="12">
         <v>477</v>
       </c>
-      <c r="I37" s="14">
+      <c r="I37" s="12">
         <v>2450</v>
       </c>
-      <c r="J37" s="14">
+      <c r="J37" s="12">
         <v>50</v>
       </c>
-      <c r="K37" s="14">
+      <c r="K37" s="12">
         <v>497</v>
       </c>
-      <c r="L37" s="14">
+      <c r="L37" s="12">
         <v>122</v>
       </c>
-      <c r="M37" s="14">
+      <c r="M37" s="12">
         <v>351</v>
       </c>
-      <c r="N37" s="14">
-        <v>338</v>
-      </c>
-      <c r="O37" s="14">
+      <c r="N37" s="12">
+        <v>378</v>
+      </c>
+      <c r="O37" s="12">
         <v>63</v>
       </c>
-      <c r="P37" s="14">
+      <c r="P37" s="12">
         <v>46</v>
       </c>
-      <c r="Q37" s="14">
+      <c r="Q37" s="12">
         <v>389</v>
       </c>
-      <c r="R37" s="14">
+      <c r="R37" s="12">
         <v>41</v>
       </c>
-      <c r="S37" s="14"/>
-      <c r="T37" s="14">
+      <c r="S37" s="12"/>
+      <c r="T37" s="12">
         <v>135</v>
       </c>
-      <c r="U37" s="14">
+      <c r="U37" s="12">
         <v>148</v>
       </c>
-      <c r="V37" s="43">
+      <c r="V37" s="44">
         <v>1962</v>
       </c>
-      <c r="W37" s="14">
+      <c r="W37" s="12">
         <v>53</v>
       </c>
-      <c r="X37" s="14">
+      <c r="X37" s="12">
         <v>3272</v>
       </c>
-      <c r="Y37" s="14">
+      <c r="Y37" s="12">
         <v>1000</v>
       </c>
-      <c r="Z37" s="14">
+      <c r="Z37" s="12">
         <v>112</v>
       </c>
-      <c r="AA37" s="14">
+      <c r="AA37" s="12">
         <v>1874</v>
       </c>
-      <c r="AB37" s="14">
-        <v>16101</v>
+      <c r="AB37" s="12">
+        <v>16141</v>
       </c>
       <c r="AC37" s="15" t="str">
         <f t="shared" si="8"/>
@@ -10819,7 +10885,7 @@
       </c>
       <c r="AP37" s="3" t="str">
         <f>$AC37&amp;$AC$1&amp;N37&amp;$AC$1&amp;fatalities!N37&amp;$AC$1&amp;N$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;N$2</f>
-        <v>30/3/2020,30,3,2020,338,6,NE,nn,nnn,176850</v>
+        <v>30/3/2020,30,3,2020,378,19,NE,nn,nnn,176850</v>
       </c>
       <c r="AQ37" s="3" t="str">
         <f>$AC37&amp;$AC$1&amp;O37&amp;$AC$1&amp;fatalities!O37&amp;$AC$1&amp;O$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;O$2</f>
@@ -10875,93 +10941,93 @@
       </c>
       <c r="BD37" s="3" t="str">
         <f>$AC37&amp;$AC$1&amp;AB37&amp;$AC$1&amp;fatalities!AB37&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2</f>
-        <v>30/3/2020,30,3,2020,16101,371,CH,nn,nnn,8543707</v>
+        <v>30/3/2020,30,3,2020,16141,384,CH,nn,nnn,8543707</v>
       </c>
     </row>
     <row r="38" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A38" s="13">
+      <c r="A38" s="39">
         <v>43921</v>
       </c>
-      <c r="B38" s="14">
+      <c r="B38" s="12">
         <v>499</v>
       </c>
-      <c r="C38" s="14">
+      <c r="C38" s="12">
         <v>14</v>
       </c>
-      <c r="D38" s="14">
+      <c r="D38" s="12">
         <v>58</v>
       </c>
-      <c r="E38" s="14">
+      <c r="E38" s="12">
         <v>856</v>
       </c>
-      <c r="F38" s="14">
+      <c r="F38" s="12">
         <v>561</v>
       </c>
-      <c r="G38" s="14">
+      <c r="G38" s="12">
         <v>657</v>
       </c>
-      <c r="H38" s="14">
+      <c r="H38" s="12">
         <v>491</v>
       </c>
-      <c r="I38" s="14">
+      <c r="I38" s="12">
         <v>2657</v>
       </c>
-      <c r="J38" s="14">
+      <c r="J38" s="12">
         <v>53</v>
       </c>
-      <c r="K38" s="14">
+      <c r="K38" s="12">
         <v>513</v>
       </c>
-      <c r="L38" s="14">
+      <c r="L38" s="12">
         <v>127</v>
       </c>
-      <c r="M38" s="14">
+      <c r="M38" s="12">
         <v>375</v>
       </c>
-      <c r="N38" s="14">
-        <v>366</v>
-      </c>
-      <c r="O38" s="14">
+      <c r="N38" s="12">
+        <v>401</v>
+      </c>
+      <c r="O38" s="12">
         <v>70</v>
       </c>
-      <c r="P38" s="14">
+      <c r="P38" s="12">
         <v>46</v>
       </c>
-      <c r="Q38" s="14">
+      <c r="Q38" s="12">
         <v>414</v>
       </c>
-      <c r="R38" s="14">
+      <c r="R38" s="12">
         <v>42</v>
       </c>
-      <c r="S38" s="14">
+      <c r="S38" s="12">
         <v>196</v>
       </c>
-      <c r="T38" s="14">
+      <c r="T38" s="12">
         <v>141</v>
       </c>
-      <c r="U38" s="14">
+      <c r="U38" s="12">
         <v>154</v>
       </c>
-      <c r="V38" s="43">
+      <c r="V38" s="44">
         <v>2091</v>
       </c>
-      <c r="W38" s="14">
+      <c r="W38" s="12">
         <v>57</v>
       </c>
-      <c r="X38" s="14">
+      <c r="X38" s="12">
         <v>3465</v>
       </c>
-      <c r="Y38" s="14">
+      <c r="Y38" s="12">
         <v>1085</v>
       </c>
-      <c r="Z38" s="14">
+      <c r="Z38" s="12">
         <v>114</v>
       </c>
-      <c r="AA38" s="14">
+      <c r="AA38" s="12">
         <v>1960</v>
       </c>
-      <c r="AB38" s="14">
-        <v>17062</v>
+      <c r="AB38" s="12">
+        <v>17097</v>
       </c>
       <c r="AC38" s="15" t="str">
         <f t="shared" si="8"/>
@@ -11017,7 +11083,7 @@
       </c>
       <c r="AP38" s="3" t="str">
         <f>$AC38&amp;$AC$1&amp;N38&amp;$AC$1&amp;fatalities!N38&amp;$AC$1&amp;N$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;N$2</f>
-        <v>31/3/2020,31,3,2020,366,6,NE,nn,nnn,176850</v>
+        <v>31/3/2020,31,3,2020,401,21,NE,nn,nnn,176850</v>
       </c>
       <c r="AQ38" s="3" t="str">
         <f>$AC38&amp;$AC$1&amp;O38&amp;$AC$1&amp;fatalities!O38&amp;$AC$1&amp;O$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;O$2</f>
@@ -11073,87 +11139,91 @@
       </c>
       <c r="BD38" s="3" t="str">
         <f>$AC38&amp;$AC$1&amp;AB38&amp;$AC$1&amp;fatalities!AB38&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2</f>
-        <v>31/3/2020,31,3,2020,17062,442,CH,nn,nnn,8543707</v>
+        <v>31/3/2020,31,3,2020,17097,457,CH,nn,nnn,8543707</v>
       </c>
     </row>
     <row r="39" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A39" s="13">
+      <c r="A39" s="39">
         <v>43922</v>
       </c>
-      <c r="B39" s="14">
+      <c r="B39" s="12">
         <v>549</v>
       </c>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14">
+      <c r="C39" s="12"/>
+      <c r="D39" s="12">
         <v>61</v>
       </c>
-      <c r="E39" s="14">
+      <c r="E39" s="12">
         <v>909</v>
       </c>
-      <c r="F39" s="14">
+      <c r="F39" s="12">
         <v>588</v>
       </c>
-      <c r="G39" s="14">
+      <c r="G39" s="12">
         <v>691</v>
       </c>
-      <c r="H39" s="14">
+      <c r="H39" s="12">
         <v>525</v>
       </c>
-      <c r="I39" s="14">
-        <v>2702</v>
-      </c>
-      <c r="J39" s="14">
+      <c r="I39" s="12">
+        <v>2775</v>
+      </c>
+      <c r="J39" s="12">
         <v>56</v>
       </c>
-      <c r="K39" s="14">
+      <c r="K39" s="12">
         <v>521</v>
       </c>
-      <c r="L39" s="14">
+      <c r="L39" s="12">
         <v>144</v>
       </c>
-      <c r="M39" s="14">
+      <c r="M39" s="12">
         <v>401</v>
       </c>
-      <c r="N39" s="14"/>
-      <c r="O39" s="14">
+      <c r="N39" s="12">
+        <v>406</v>
+      </c>
+      <c r="O39" s="12">
         <v>70</v>
       </c>
-      <c r="P39" s="14">
+      <c r="P39" s="12">
         <v>48</v>
       </c>
-      <c r="Q39" s="14">
+      <c r="Q39" s="12">
         <v>414</v>
       </c>
-      <c r="R39" s="14">
+      <c r="R39" s="12">
         <v>44</v>
       </c>
-      <c r="S39" s="14">
+      <c r="S39" s="12">
         <v>216</v>
       </c>
-      <c r="T39" s="14">
+      <c r="T39" s="12">
         <v>146</v>
       </c>
-      <c r="U39" s="14">
+      <c r="U39" s="12">
         <v>166</v>
       </c>
-      <c r="V39" s="43">
+      <c r="V39" s="44">
         <v>2195</v>
       </c>
-      <c r="W39" s="14">
+      <c r="W39" s="12">
         <v>59</v>
       </c>
-      <c r="X39" s="14"/>
-      <c r="Y39" s="14">
+      <c r="X39" s="12">
+        <v>3639</v>
+      </c>
+      <c r="Y39" s="12">
         <v>1145</v>
       </c>
-      <c r="Z39" s="14">
+      <c r="Z39" s="12">
         <v>125</v>
       </c>
-      <c r="AA39" s="14">
+      <c r="AA39" s="12">
         <v>2148</v>
       </c>
-      <c r="AB39" s="14">
-        <v>17768</v>
+      <c r="AB39" s="12">
+        <v>18055</v>
       </c>
       <c r="AC39" s="15" t="str">
         <f t="shared" si="8"/>
@@ -11189,7 +11259,7 @@
       </c>
       <c r="AK39" s="3" t="str">
         <f>$AC39&amp;$AC$1&amp;I39&amp;$AC$1&amp;fatalities!I39&amp;$AC$1&amp;I$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;I$2</f>
-        <v>1/4/2020,1,4,2020,2702,59,GE,nn,nnn,499480</v>
+        <v>1/4/2020,1,4,2020,2775,65,GE,nn,nnn,499480</v>
       </c>
       <c r="AL39" s="3" t="str">
         <f>$AC39&amp;$AC$1&amp;J39&amp;$AC$1&amp;fatalities!J39&amp;$AC$1&amp;J$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;J$2</f>
@@ -11209,11 +11279,11 @@
       </c>
       <c r="AP39" s="3" t="str">
         <f>$AC39&amp;$AC$1&amp;N39&amp;$AC$1&amp;fatalities!N39&amp;$AC$1&amp;N$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;N$2</f>
-        <v>1/4/2020,1,4,2020,,11,NE,nn,nnn,176850</v>
+        <v>1/4/2020,1,4,2020,406,23,NE,nn,nnn,176850</v>
       </c>
       <c r="AQ39" s="3" t="str">
         <f>$AC39&amp;$AC$1&amp;O39&amp;$AC$1&amp;fatalities!O39&amp;$AC$1&amp;O$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;O$2</f>
-        <v>1/4/2020,1,4,2020,70,0,NW,nn,nnn,43223</v>
+        <v>1/4/2020,1,4,2020,70,,NW,nn,nnn,43223</v>
       </c>
       <c r="AR39" s="3" t="str">
         <f>$AC39&amp;$AC$1&amp;P39&amp;$AC$1&amp;fatalities!P39&amp;$AC$1&amp;P$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;P$2</f>
@@ -11245,11 +11315,11 @@
       </c>
       <c r="AY39" s="3" t="str">
         <f>$AC39&amp;$AC$1&amp;W39&amp;$AC$1&amp;fatalities!W39&amp;$AC$1&amp;W$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;W$2</f>
-        <v>1/4/2020,1,4,2020,59,,UR,nn,nnn,36433</v>
+        <v>1/4/2020,1,4,2020,59,1,UR,nn,nnn,36433</v>
       </c>
       <c r="AZ39" s="3" t="str">
         <f>$AC39&amp;$AC$1&amp;X39&amp;$AC$1&amp;fatalities!X39&amp;$AC$1&amp;X$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;X$2</f>
-        <v>1/4/2020,1,4,2020,,,VD,nn,nnn,799145</v>
+        <v>1/4/2020,1,4,2020,3639,92,VD,nn,nnn,799145</v>
       </c>
       <c r="BA39" s="3" t="str">
         <f>$AC39&amp;$AC$1&amp;Y39&amp;$AC$1&amp;fatalities!Y39&amp;$AC$1&amp;Y$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Y$2</f>
@@ -11265,7 +11335,7 @@
       </c>
       <c r="BD39" s="3" t="str">
         <f>$AC39&amp;$AC$1&amp;AB39&amp;$AC$1&amp;fatalities!AB39&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2</f>
-        <v>1/4/2020,1,4,2020,17768,488,CH,nn,nnn,8543707</v>
+        <v>1/4/2020,1,4,2020,18055,515,CH,nn,nnn,8543707</v>
       </c>
     </row>
     <row r="40" spans="1:56" x14ac:dyDescent="0.2">
@@ -11294,7 +11364,7 @@
         <v>550</v>
       </c>
       <c r="I40" s="12">
-        <v>2845</v>
+        <v>2938</v>
       </c>
       <c r="J40" s="12">
         <v>58</v>
@@ -11316,10 +11386,10 @@
         <v>51</v>
       </c>
       <c r="Q40" s="12">
-        <v>455</v>
+        <v>480</v>
       </c>
       <c r="R40" s="12">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="S40" s="12">
         <v>227</v>
@@ -11336,7 +11406,9 @@
       <c r="W40" s="12">
         <v>60</v>
       </c>
-      <c r="X40" s="12"/>
+      <c r="X40" s="12">
+        <v>3796</v>
+      </c>
       <c r="Y40" s="12">
         <v>1218</v>
       </c>
@@ -11347,7 +11419,7 @@
         <v>2323</v>
       </c>
       <c r="AB40" s="12">
-        <v>18827</v>
+        <v>19109</v>
       </c>
       <c r="AC40" s="15" t="str">
         <f t="shared" ref="AC40" si="9">DAY(A40)&amp;"/"&amp;MONTH(A40)&amp;"/"&amp;YEAR(A40)&amp;$AC$1&amp;DAY(A40)&amp;$AC$1&amp;MONTH(A40)&amp;$AC$1&amp;YEAR(A40)</f>
@@ -11383,7 +11455,7 @@
       </c>
       <c r="AK40" s="3" t="str">
         <f>$AC40&amp;$AC$1&amp;I40&amp;$AC$1&amp;fatalities!I40&amp;$AC$1&amp;I$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;I$2</f>
-        <v>2/4/2020,2,4,2020,2845,67,GE,nn,nnn,499480</v>
+        <v>2/4/2020,2,4,2020,2938,72,GE,nn,nnn,499480</v>
       </c>
       <c r="AL40" s="3" t="str">
         <f>$AC40&amp;$AC$1&amp;J40&amp;$AC$1&amp;fatalities!J40&amp;$AC$1&amp;J$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;J$2</f>
@@ -11407,7 +11479,7 @@
       </c>
       <c r="AQ40" s="3" t="str">
         <f>$AC40&amp;$AC$1&amp;O40&amp;$AC$1&amp;fatalities!O40&amp;$AC$1&amp;O$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;O$2</f>
-        <v>2/4/2020,2,4,2020,76,0,NW,nn,nnn,43223</v>
+        <v>2/4/2020,2,4,2020,76,,NW,nn,nnn,43223</v>
       </c>
       <c r="AR40" s="3" t="str">
         <f>$AC40&amp;$AC$1&amp;P40&amp;$AC$1&amp;fatalities!P40&amp;$AC$1&amp;P$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;P$2</f>
@@ -11415,11 +11487,11 @@
       </c>
       <c r="AS40" s="3" t="str">
         <f>$AC40&amp;$AC$1&amp;Q40&amp;$AC$1&amp;fatalities!Q40&amp;$AC$1&amp;Q$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Q$2</f>
-        <v>2/4/2020,2,4,2020,455,8,SG,nn,nnn,507697</v>
+        <v>2/4/2020,2,4,2020,480,8,SG,nn,nnn,507697</v>
       </c>
       <c r="AT40" s="3" t="str">
         <f>$AC40&amp;$AC$1&amp;R40&amp;$AC$1&amp;fatalities!R40&amp;$AC$1&amp;R$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;R$2</f>
-        <v>2/4/2020,2,4,2020,44,,SH,nn,nnn,81991</v>
+        <v>2/4/2020,2,4,2020,47,1,SH,nn,nnn,81991</v>
       </c>
       <c r="AU40" s="3" t="str">
         <f>$AC40&amp;$AC$1&amp;S40&amp;$AC$1&amp;fatalities!S40&amp;$AC$1&amp;S$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;S$2</f>
@@ -11443,7 +11515,7 @@
       </c>
       <c r="AZ40" s="3" t="str">
         <f>$AC40&amp;$AC$1&amp;X40&amp;$AC$1&amp;fatalities!X40&amp;$AC$1&amp;X$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;X$2</f>
-        <v>2/4/2020,2,4,2020,,,VD,nn,nnn,799145</v>
+        <v>2/4/2020,2,4,2020,3796,107,VD,nn,nnn,799145</v>
       </c>
       <c r="BA40" s="3" t="str">
         <f>$AC40&amp;$AC$1&amp;Y40&amp;$AC$1&amp;fatalities!Y40&amp;$AC$1&amp;Y$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Y$2</f>
@@ -11459,21 +11531,260 @@
       </c>
       <c r="BD40" s="3" t="str">
         <f>$AC40&amp;$AC$1&amp;AB40&amp;$AC$1&amp;fatalities!AB40&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2</f>
-        <v>2/4/2020,2,4,2020,18827,536,CH,nn,nnn,8543707</v>
+        <v>2/4/2020,2,4,2020,19109,568,CH,nn,nnn,8543707</v>
       </c>
     </row>
     <row r="41" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="Z41" s="12"/>
-      <c r="AA41" s="12"/>
-      <c r="AB41" s="12"/>
+      <c r="A41" s="39">
+        <v>43924</v>
+      </c>
+      <c r="B41" s="12">
+        <v>626</v>
+      </c>
+      <c r="C41" s="12">
+        <v>20</v>
+      </c>
+      <c r="D41" s="12">
+        <v>65</v>
+      </c>
+      <c r="E41" s="12">
+        <v>1073</v>
+      </c>
+      <c r="F41" s="12">
+        <v>625</v>
+      </c>
+      <c r="G41" s="12">
+        <v>748</v>
+      </c>
+      <c r="H41" s="12">
+        <v>588</v>
+      </c>
+      <c r="I41" s="12">
+        <v>2941</v>
+      </c>
+      <c r="J41" s="12">
+        <v>59</v>
+      </c>
+      <c r="K41" s="12">
+        <v>598</v>
+      </c>
+      <c r="L41" s="12">
+        <v>149</v>
+      </c>
+      <c r="M41" s="12">
+        <v>449</v>
+      </c>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12">
+        <v>79</v>
+      </c>
+      <c r="P41" s="12">
+        <v>56</v>
+      </c>
+      <c r="Q41" s="12">
+        <v>480</v>
+      </c>
+      <c r="R41" s="12"/>
+      <c r="S41" s="12">
+        <v>237</v>
+      </c>
+      <c r="T41" s="12">
+        <v>164</v>
+      </c>
+      <c r="U41" s="12">
+        <v>198</v>
+      </c>
+      <c r="V41" s="44">
+        <v>2377</v>
+      </c>
+      <c r="W41" s="12">
+        <v>62</v>
+      </c>
+      <c r="X41" s="12"/>
+      <c r="Y41" s="12">
+        <v>1273</v>
+      </c>
+      <c r="Z41" s="12">
+        <v>138</v>
+      </c>
+      <c r="AA41" s="12">
+        <v>2452</v>
+      </c>
+      <c r="AB41" s="12">
+        <v>19706</v>
+      </c>
+      <c r="AC41" s="15" t="str">
+        <f t="shared" ref="AC41" si="10">DAY(A41)&amp;"/"&amp;MONTH(A41)&amp;"/"&amp;YEAR(A41)&amp;$AC$1&amp;DAY(A41)&amp;$AC$1&amp;MONTH(A41)&amp;$AC$1&amp;YEAR(A41)</f>
+        <v>3/4/2020,3,4,2020</v>
+      </c>
+      <c r="AD41" s="3" t="str">
+        <f>$AC41&amp;$AC$1&amp;B41&amp;$AC$1&amp;fatalities!B41&amp;$AC$1&amp;B$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;B$2</f>
+        <v>3/4/2020,3,4,2020,626,12,AG,nn,nnn,677387</v>
+      </c>
+      <c r="AE41" s="3" t="str">
+        <f>$AC41&amp;$AC$1&amp;C41&amp;$AC$1&amp;fatalities!C41&amp;$AC$1&amp;C$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;C$2</f>
+        <v>3/4/2020,3,4,2020,20,,AI,nn,nnn,16145</v>
+      </c>
+      <c r="AF41" s="3" t="str">
+        <f>$AC41&amp;$AC$1&amp;D41&amp;$AC$1&amp;fatalities!D41&amp;$AC$1&amp;D$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;D$2</f>
+        <v>3/4/2020,3,4,2020,65,3,AR,nn,nnn,55234</v>
+      </c>
+      <c r="AG41" s="3" t="str">
+        <f>$AC41&amp;$AC$1&amp;E41&amp;$AC$1&amp;fatalities!E41&amp;$AC$1&amp;E$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;E$2</f>
+        <v>3/4/2020,3,4,2020,1073,26,BE,nn,nnn,1034977</v>
+      </c>
+      <c r="AH41" s="3" t="str">
+        <f>$AC41&amp;$AC$1&amp;F41&amp;$AC$1&amp;fatalities!F41&amp;$AC$1&amp;F$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;F$2</f>
+        <v>3/4/2020,3,4,2020,625,14,BL,nn,nnn,288132</v>
+      </c>
+      <c r="AI41" s="3" t="str">
+        <f>$AC41&amp;$AC$1&amp;G41&amp;$AC$1&amp;fatalities!G41&amp;$AC$1&amp;G$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;G$2</f>
+        <v>3/4/2020,3,4,2020,748,21,BS,nn,nnn,194766</v>
+      </c>
+      <c r="AJ41" s="3" t="str">
+        <f>$AC41&amp;$AC$1&amp;H41&amp;$AC$1&amp;fatalities!H41&amp;$AC$1&amp;H$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;H$2</f>
+        <v>3/4/2020,3,4,2020,588,31,FR,nn,nnn,318714</v>
+      </c>
+      <c r="AK41" s="3" t="str">
+        <f>$AC41&amp;$AC$1&amp;I41&amp;$AC$1&amp;fatalities!I41&amp;$AC$1&amp;I$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;I$2</f>
+        <v>3/4/2020,3,4,2020,2941,,GE,nn,nnn,499480</v>
+      </c>
+      <c r="AL41" s="3" t="str">
+        <f>$AC41&amp;$AC$1&amp;J41&amp;$AC$1&amp;fatalities!J41&amp;$AC$1&amp;J$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;J$2</f>
+        <v>3/4/2020,3,4,2020,59,2,GL,nn,nnn,40403</v>
+      </c>
+      <c r="AM41" s="3" t="str">
+        <f>$AC41&amp;$AC$1&amp;K41&amp;$AC$1&amp;fatalities!K41&amp;$AC$1&amp;K$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;K$2</f>
+        <v>3/4/2020,3,4,2020,598,27,GR,nn,nnn,198379</v>
+      </c>
+      <c r="AN41" s="3" t="str">
+        <f>$AC41&amp;$AC$1&amp;L41&amp;$AC$1&amp;fatalities!L41&amp;$AC$1&amp;L$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;L$2</f>
+        <v>3/4/2020,3,4,2020,149,,JU,nn,nnn,73419</v>
+      </c>
+      <c r="AO41" s="3" t="str">
+        <f>$AC41&amp;$AC$1&amp;M41&amp;$AC$1&amp;fatalities!M41&amp;$AC$1&amp;M$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;M$2</f>
+        <v>3/4/2020,3,4,2020,449,7,LU,nn,nnn,409557</v>
+      </c>
+      <c r="AP41" s="3" t="str">
+        <f>$AC41&amp;$AC$1&amp;N41&amp;$AC$1&amp;fatalities!N41&amp;$AC$1&amp;N$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;N$2</f>
+        <v>3/4/2020,3,4,2020,,,NE,nn,nnn,176850</v>
+      </c>
+      <c r="AQ41" s="3" t="str">
+        <f>$AC41&amp;$AC$1&amp;O41&amp;$AC$1&amp;fatalities!O41&amp;$AC$1&amp;O$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;O$2</f>
+        <v>3/4/2020,3,4,2020,79,,NW,nn,nnn,43223</v>
+      </c>
+      <c r="AR41" s="3" t="str">
+        <f>$AC41&amp;$AC$1&amp;P41&amp;$AC$1&amp;fatalities!P41&amp;$AC$1&amp;P$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;P$2</f>
+        <v>3/4/2020,3,4,2020,56,,OW,nn,nnn,37841</v>
+      </c>
+      <c r="AS41" s="3" t="str">
+        <f>$AC41&amp;$AC$1&amp;Q41&amp;$AC$1&amp;fatalities!Q41&amp;$AC$1&amp;Q$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Q$2</f>
+        <v>3/4/2020,3,4,2020,480,8,SG,nn,nnn,507697</v>
+      </c>
+      <c r="AT41" s="3" t="str">
+        <f>$AC41&amp;$AC$1&amp;R41&amp;$AC$1&amp;fatalities!R41&amp;$AC$1&amp;R$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;R$2</f>
+        <v>3/4/2020,3,4,2020,,,SH,nn,nnn,81991</v>
+      </c>
+      <c r="AU41" s="3" t="str">
+        <f>$AC41&amp;$AC$1&amp;S41&amp;$AC$1&amp;fatalities!S41&amp;$AC$1&amp;S$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;S$2</f>
+        <v>3/4/2020,3,4,2020,237,3,SO,nn,nnn,273194</v>
+      </c>
+      <c r="AV41" s="3" t="str">
+        <f>$AC41&amp;$AC$1&amp;T41&amp;$AC$1&amp;fatalities!T41&amp;$AC$1&amp;T$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;T$2</f>
+        <v>3/4/2020,3,4,2020,164,4,SZ,nn,nnn,159165</v>
+      </c>
+      <c r="AW41" s="3" t="str">
+        <f>$AC41&amp;$AC$1&amp;U41&amp;$AC$1&amp;fatalities!U41&amp;$AC$1&amp;U$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;U$2</f>
+        <v>3/4/2020,3,4,2020,198,5,TG,nn,nnn,276472</v>
+      </c>
+      <c r="AX41" s="3" t="str">
+        <f>$AC41&amp;$AC$1&amp;V41&amp;$AC$1&amp;fatalities!V41&amp;$AC$1&amp;V$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;V$2</f>
+        <v>3/4/2020,3,4,2020,2377,155,TI,nn,nnn,353343</v>
+      </c>
+      <c r="AY41" s="3" t="str">
+        <f>$AC41&amp;$AC$1&amp;W41&amp;$AC$1&amp;fatalities!W41&amp;$AC$1&amp;W$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;W$2</f>
+        <v>3/4/2020,3,4,2020,62,1,UR,nn,nnn,36433</v>
+      </c>
+      <c r="AZ41" s="3" t="str">
+        <f>$AC41&amp;$AC$1&amp;X41&amp;$AC$1&amp;fatalities!X41&amp;$AC$1&amp;X$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;X$2</f>
+        <v>3/4/2020,3,4,2020,,,VD,nn,nnn,799145</v>
+      </c>
+      <c r="BA41" s="3" t="str">
+        <f>$AC41&amp;$AC$1&amp;Y41&amp;$AC$1&amp;fatalities!Y41&amp;$AC$1&amp;Y$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Y$2</f>
+        <v>3/4/2020,3,4,2020,1273,45,VS,nn,nnn,343955</v>
+      </c>
+      <c r="BB41" s="3" t="str">
+        <f>$AC41&amp;$AC$1&amp;Z41&amp;$AC$1&amp;fatalities!Z41&amp;$AC$1&amp;Z$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Z$2</f>
+        <v>3/4/2020,3,4,2020,138,2,ZG,nn,nnn,126837</v>
+      </c>
+      <c r="BC41" s="3" t="str">
+        <f>$AC41&amp;$AC$1&amp;AA41&amp;$AC$1&amp;fatalities!AA41&amp;$AC$1&amp;AA$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AA$2</f>
+        <v>3/4/2020,3,4,2020,2452,38,ZH,nn,nnn,1520968</v>
+      </c>
+      <c r="BD41" s="3" t="str">
+        <f>$AC41&amp;$AC$1&amp;AB41&amp;$AC$1&amp;fatalities!AB41&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2</f>
+        <v>3/4/2020,3,4,2020,19706,607,CH,nn,nnn,8543707</v>
+      </c>
     </row>
     <row r="42" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A42" s="39"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="12"/>
+      <c r="Q42" s="12"/>
+      <c r="R42" s="12"/>
+      <c r="S42" s="12"/>
+      <c r="T42" s="12"/>
+      <c r="U42" s="12"/>
+      <c r="V42" s="44"/>
+      <c r="W42" s="12"/>
+      <c r="X42" s="12"/>
+      <c r="Y42" s="12"/>
       <c r="Z42" s="12"/>
       <c r="AA42" s="12"/>
       <c r="AB42" s="12"/>
+      <c r="AD42" s="3"/>
+      <c r="AE42" s="3"/>
+      <c r="AF42" s="3"/>
+      <c r="AG42" s="3"/>
+      <c r="AH42" s="3"/>
+      <c r="AI42" s="3"/>
+      <c r="AJ42" s="3"/>
+      <c r="AK42" s="3"/>
+      <c r="AL42" s="3"/>
+      <c r="AM42" s="3"/>
+      <c r="AN42" s="3"/>
+      <c r="AO42" s="3"/>
+      <c r="AP42" s="3"/>
+      <c r="AQ42" s="3"/>
+      <c r="AR42" s="3"/>
+      <c r="AS42" s="3"/>
+      <c r="AT42" s="3"/>
+      <c r="AU42" s="3"/>
+      <c r="AV42" s="3"/>
+      <c r="AW42" s="3"/>
+      <c r="AX42" s="3"/>
+      <c r="AY42" s="3"/>
+      <c r="AZ42" s="3"/>
+      <c r="BA42" s="3"/>
+      <c r="BB42" s="3"/>
+      <c r="BC42" s="3"/>
+      <c r="BD42" s="3"/>
     </row>
     <row r="43" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A43" s="12"/>
+      <c r="A43" s="39"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
@@ -11503,7 +11814,7 @@
       <c r="AB43" s="12"/>
     </row>
     <row r="44" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A44" s="12"/>
+      <c r="A44" s="39"/>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
@@ -11533,7 +11844,7 @@
       <c r="AB44" s="12"/>
     </row>
     <row r="45" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A45" s="12"/>
+      <c r="A45" s="39"/>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
@@ -11563,7 +11874,7 @@
       <c r="AB45" s="12"/>
     </row>
     <row r="46" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A46" s="12"/>
+      <c r="A46" s="39"/>
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
       <c r="D46" s="12"/>
@@ -11593,7 +11904,7 @@
       <c r="AB46" s="12"/>
     </row>
     <row r="47" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A47" s="12"/>
+      <c r="A47" s="39"/>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
       <c r="D47" s="12"/>
@@ -11623,7 +11934,7 @@
       <c r="AB47" s="12"/>
     </row>
     <row r="48" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A48" s="12"/>
+      <c r="A48" s="39"/>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
       <c r="D48" s="12"/>
@@ -11653,7 +11964,7 @@
       <c r="AB48" s="12"/>
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A49" s="12"/>
+      <c r="A49" s="39"/>
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
@@ -11683,7 +11994,7 @@
       <c r="AB49" s="12"/>
     </row>
     <row r="50" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A50" s="12"/>
+      <c r="A50" s="39"/>
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
       <c r="D50" s="12"/>
@@ -11713,7 +12024,7 @@
       <c r="AB50" s="12"/>
     </row>
     <row r="51" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A51" s="12"/>
+      <c r="A51" s="39"/>
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>
       <c r="D51" s="12"/>
@@ -11743,7 +12054,7 @@
       <c r="AB51" s="12"/>
     </row>
     <row r="52" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A52" s="12"/>
+      <c r="A52" s="39"/>
       <c r="B52" s="12"/>
       <c r="C52" s="12"/>
       <c r="D52" s="12"/>
@@ -11773,7 +12084,7 @@
       <c r="AB52" s="12"/>
     </row>
     <row r="53" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A53" s="12"/>
+      <c r="A53" s="39"/>
       <c r="B53" s="12"/>
       <c r="C53" s="12"/>
       <c r="D53" s="12"/>
@@ -11803,7 +12114,7 @@
       <c r="AB53" s="12"/>
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A54" s="12"/>
+      <c r="A54" s="39"/>
       <c r="B54" s="12"/>
       <c r="C54" s="12"/>
       <c r="D54" s="12"/>
@@ -11833,7 +12144,7 @@
       <c r="AB54" s="12"/>
     </row>
     <row r="55" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A55" s="12"/>
+      <c r="A55" s="39"/>
       <c r="B55" s="12"/>
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
@@ -11863,7 +12174,7 @@
       <c r="AB55" s="12"/>
     </row>
     <row r="56" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A56" s="12"/>
+      <c r="A56" s="39"/>
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
       <c r="D56" s="12"/>
@@ -12470,10 +12781,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC40"/>
+  <dimension ref="A1:AC55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V40" sqref="V40"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="V41" sqref="V41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13569,61 +13880,61 @@
       </c>
     </row>
     <row r="27" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="20">
+      <c r="A27" s="22">
         <v>43910</v>
       </c>
-      <c r="B27" s="21">
+      <c r="B27" s="23">
         <v>1</v>
       </c>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21">
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23">
         <v>2</v>
       </c>
-      <c r="F27" s="21">
+      <c r="F27" s="23">
         <v>3</v>
       </c>
-      <c r="G27" s="21">
+      <c r="G27" s="23">
         <v>4</v>
       </c>
-      <c r="H27" s="21">
+      <c r="H27" s="23">
         <v>1</v>
       </c>
-      <c r="I27" s="21">
+      <c r="I27" s="23">
         <v>8</v>
       </c>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21">
+      <c r="J27" s="23"/>
+      <c r="K27" s="23">
         <v>3</v>
       </c>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21">
-        <v>2</v>
-      </c>
-      <c r="O27" s="21"/>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="21"/>
-      <c r="R27" s="21"/>
-      <c r="S27" s="21"/>
-      <c r="T27" s="21"/>
-      <c r="U27" s="21"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23">
+        <v>3</v>
+      </c>
+      <c r="O27" s="23"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="23"/>
+      <c r="R27" s="23"/>
+      <c r="S27" s="23"/>
+      <c r="T27" s="23"/>
+      <c r="U27" s="23"/>
       <c r="V27" s="47">
         <v>22</v>
       </c>
-      <c r="W27" s="21"/>
-      <c r="X27" s="21">
+      <c r="W27" s="23"/>
+      <c r="X27" s="23">
         <v>12</v>
       </c>
-      <c r="Y27" s="21">
+      <c r="Y27" s="23">
         <v>6</v>
       </c>
-      <c r="Z27" s="21"/>
-      <c r="AA27" s="21">
+      <c r="Z27" s="23"/>
+      <c r="AA27" s="23">
         <v>3</v>
       </c>
-      <c r="AB27" s="21">
-        <v>67</v>
+      <c r="AB27" s="23">
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -13659,7 +13970,7 @@
         <v>1</v>
       </c>
       <c r="N28" s="23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O28" s="23"/>
       <c r="P28" s="23"/>
@@ -13681,63 +13992,63 @@
       <c r="Z28" s="23"/>
       <c r="AA28" s="23"/>
       <c r="AB28" s="23">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="20">
+      <c r="A29" s="22">
         <v>43912</v>
       </c>
-      <c r="B29" s="21">
+      <c r="B29" s="23">
         <v>1</v>
       </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21">
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23">
         <v>3</v>
       </c>
-      <c r="G29" s="21">
+      <c r="G29" s="23">
         <v>5</v>
       </c>
-      <c r="H29" s="21">
+      <c r="H29" s="23">
         <v>3</v>
       </c>
-      <c r="I29" s="21">
+      <c r="I29" s="23">
         <v>10</v>
       </c>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21">
+      <c r="J29" s="23"/>
+      <c r="K29" s="23">
         <v>6</v>
       </c>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21">
+      <c r="L29" s="23"/>
+      <c r="M29" s="23">
         <v>1</v>
       </c>
-      <c r="N29" s="21">
-        <v>2</v>
-      </c>
-      <c r="O29" s="21"/>
-      <c r="P29" s="21"/>
-      <c r="Q29" s="21"/>
-      <c r="R29" s="21"/>
-      <c r="S29" s="21"/>
-      <c r="T29" s="21"/>
-      <c r="U29" s="21"/>
+      <c r="N29" s="23">
+        <v>4</v>
+      </c>
+      <c r="O29" s="23"/>
+      <c r="P29" s="23"/>
+      <c r="Q29" s="23"/>
+      <c r="R29" s="23"/>
+      <c r="S29" s="23"/>
+      <c r="T29" s="23"/>
+      <c r="U29" s="23"/>
       <c r="V29" s="47">
         <v>37</v>
       </c>
-      <c r="W29" s="21"/>
-      <c r="X29" s="21">
+      <c r="W29" s="23"/>
+      <c r="X29" s="23">
         <v>16</v>
       </c>
-      <c r="Y29" s="21">
+      <c r="Y29" s="23">
         <v>10</v>
       </c>
-      <c r="Z29" s="21"/>
-      <c r="AA29" s="21"/>
-      <c r="AB29" s="21">
-        <v>101</v>
+      <c r="Z29" s="23"/>
+      <c r="AA29" s="23"/>
+      <c r="AB29" s="23">
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -13773,7 +14084,7 @@
         <v>1</v>
       </c>
       <c r="N30" s="23">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O30" s="23"/>
       <c r="P30" s="23"/>
@@ -13801,73 +14112,73 @@
         <v>5</v>
       </c>
       <c r="AB30" s="23">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="20">
+      <c r="A31" s="22">
         <v>43914</v>
       </c>
-      <c r="B31" s="21">
+      <c r="B31" s="23">
         <v>2</v>
       </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21">
+      <c r="C31" s="23"/>
+      <c r="D31" s="23">
         <v>2</v>
       </c>
-      <c r="E31" s="21">
+      <c r="E31" s="23">
         <v>6</v>
       </c>
-      <c r="F31" s="21">
+      <c r="F31" s="23">
         <v>4</v>
       </c>
-      <c r="G31" s="21">
+      <c r="G31" s="23">
         <v>5</v>
       </c>
-      <c r="H31" s="21">
+      <c r="H31" s="23">
         <v>5</v>
       </c>
-      <c r="I31" s="21">
+      <c r="I31" s="23">
         <v>13</v>
       </c>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21">
+      <c r="J31" s="23"/>
+      <c r="K31" s="23">
         <v>6</v>
       </c>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21">
+      <c r="L31" s="23"/>
+      <c r="M31" s="23">
         <v>2</v>
       </c>
-      <c r="N31" s="21">
-        <v>2</v>
-      </c>
-      <c r="O31" s="21"/>
-      <c r="P31" s="21"/>
-      <c r="Q31" s="21"/>
-      <c r="R31" s="21"/>
-      <c r="S31" s="21">
+      <c r="N31" s="23">
+        <v>6</v>
+      </c>
+      <c r="O31" s="23"/>
+      <c r="P31" s="23"/>
+      <c r="Q31" s="23"/>
+      <c r="R31" s="23"/>
+      <c r="S31" s="23">
         <v>1</v>
       </c>
-      <c r="T31" s="21"/>
-      <c r="U31" s="21">
+      <c r="T31" s="23"/>
+      <c r="U31" s="23">
         <v>1</v>
       </c>
       <c r="V31" s="47">
         <v>53</v>
       </c>
-      <c r="W31" s="21"/>
-      <c r="X31" s="21">
+      <c r="W31" s="23"/>
+      <c r="X31" s="23">
         <v>29</v>
       </c>
-      <c r="Y31" s="21">
+      <c r="Y31" s="23">
         <v>13</v>
       </c>
-      <c r="Z31" s="21"/>
-      <c r="AA31" s="21">
+      <c r="Z31" s="23"/>
+      <c r="AA31" s="23">
         <v>5</v>
       </c>
-      <c r="AB31" s="21">
-        <v>150</v>
+      <c r="AB31" s="23">
+        <v>154</v>
       </c>
     </row>
     <row r="32" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -13905,7 +14216,7 @@
         <v>2</v>
       </c>
       <c r="N32" s="23">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="O32" s="23"/>
       <c r="P32" s="23"/>
@@ -13935,80 +14246,80 @@
         <v>7</v>
       </c>
       <c r="AB32" s="23">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="33" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="20">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="22">
         <v>43916</v>
       </c>
-      <c r="B33" s="21">
+      <c r="B33" s="23">
         <v>2</v>
       </c>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21">
+      <c r="C33" s="23"/>
+      <c r="D33" s="23">
         <v>2</v>
       </c>
-      <c r="E33" s="21">
+      <c r="E33" s="23">
         <v>7</v>
       </c>
-      <c r="F33" s="21">
+      <c r="F33" s="23">
         <v>5</v>
       </c>
-      <c r="G33" s="21">
+      <c r="G33" s="23">
         <v>12</v>
       </c>
-      <c r="H33" s="21">
+      <c r="H33" s="23">
         <v>11</v>
       </c>
-      <c r="I33" s="21">
+      <c r="I33" s="23">
         <v>22</v>
       </c>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21">
+      <c r="J33" s="23"/>
+      <c r="K33" s="23">
         <v>9</v>
       </c>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21">
+      <c r="L33" s="23"/>
+      <c r="M33" s="23">
         <v>3</v>
       </c>
-      <c r="N33" s="21">
-        <v>5</v>
-      </c>
-      <c r="O33" s="21"/>
-      <c r="P33" s="21"/>
-      <c r="Q33" s="21">
+      <c r="N33" s="23">
+        <v>11</v>
+      </c>
+      <c r="O33" s="23"/>
+      <c r="P33" s="23"/>
+      <c r="Q33" s="23">
         <v>2</v>
       </c>
-      <c r="R33" s="21"/>
-      <c r="S33" s="21">
+      <c r="R33" s="23"/>
+      <c r="S33" s="23">
         <v>1</v>
       </c>
-      <c r="T33" s="21">
+      <c r="T33" s="23">
         <v>1</v>
       </c>
-      <c r="U33" s="21">
+      <c r="U33" s="23">
         <v>1</v>
       </c>
       <c r="V33" s="47">
         <v>67</v>
       </c>
-      <c r="W33" s="21"/>
-      <c r="X33" s="21">
+      <c r="W33" s="23"/>
+      <c r="X33" s="23">
         <v>47</v>
       </c>
-      <c r="Y33" s="21">
+      <c r="Y33" s="23">
         <v>15</v>
       </c>
-      <c r="Z33" s="21"/>
-      <c r="AA33" s="21">
+      <c r="Z33" s="23"/>
+      <c r="AA33" s="23">
         <v>9</v>
       </c>
-      <c r="AB33" s="21">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="34" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AB33" s="23">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="22">
         <v>43917</v>
       </c>
@@ -14043,7 +14354,7 @@
         <v>3</v>
       </c>
       <c r="N34" s="23">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="O34" s="23"/>
       <c r="P34" s="23"/>
@@ -14075,78 +14386,78 @@
         <v>11</v>
       </c>
       <c r="AB34" s="23">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="35" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="20">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="22">
         <v>43918</v>
       </c>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21">
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23">
         <v>2</v>
       </c>
-      <c r="E35" s="21">
+      <c r="E35" s="23">
         <v>9</v>
       </c>
-      <c r="F35" s="21">
+      <c r="F35" s="23">
         <v>6</v>
       </c>
-      <c r="G35" s="21">
+      <c r="G35" s="23">
         <v>13</v>
       </c>
-      <c r="H35" s="21">
+      <c r="H35" s="23">
         <v>15</v>
       </c>
-      <c r="I35" s="21">
+      <c r="I35" s="23">
         <v>27</v>
       </c>
-      <c r="J35" s="21">
+      <c r="J35" s="23">
         <v>1</v>
       </c>
-      <c r="K35" s="21"/>
-      <c r="L35" s="21"/>
-      <c r="M35" s="21">
+      <c r="K35" s="23"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="23">
         <v>4</v>
       </c>
-      <c r="N35" s="21">
-        <v>6</v>
-      </c>
-      <c r="O35" s="21"/>
-      <c r="P35" s="21"/>
-      <c r="Q35" s="21">
+      <c r="N35" s="23">
+        <v>14</v>
+      </c>
+      <c r="O35" s="23"/>
+      <c r="P35" s="23"/>
+      <c r="Q35" s="23">
         <v>5</v>
       </c>
-      <c r="R35" s="21"/>
-      <c r="S35" s="21">
+      <c r="R35" s="23"/>
+      <c r="S35" s="23">
         <v>1</v>
       </c>
-      <c r="T35" s="21">
+      <c r="T35" s="23">
         <v>2</v>
       </c>
-      <c r="U35" s="21">
+      <c r="U35" s="23">
         <v>2</v>
       </c>
       <c r="V35" s="47">
         <v>87</v>
       </c>
-      <c r="W35" s="21"/>
-      <c r="X35" s="21">
+      <c r="W35" s="23"/>
+      <c r="X35" s="23">
         <v>55</v>
       </c>
-      <c r="Y35" s="21">
+      <c r="Y35" s="23">
         <v>21</v>
       </c>
-      <c r="Z35" s="21"/>
-      <c r="AA35" s="21">
+      <c r="Z35" s="23"/>
+      <c r="AA35" s="23">
         <v>15</v>
       </c>
-      <c r="AB35" s="21">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="36" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AB35" s="23">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="22">
         <v>43919</v>
       </c>
@@ -14177,7 +14488,7 @@
         <v>5</v>
       </c>
       <c r="N36" s="23">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="O36" s="23"/>
       <c r="P36" s="23"/>
@@ -14209,82 +14520,82 @@
         <v>15</v>
       </c>
       <c r="AB36" s="23">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="37" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="20">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="22">
         <v>43920</v>
       </c>
-      <c r="B37" s="21">
+      <c r="B37" s="23">
         <v>8</v>
       </c>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21">
+      <c r="C37" s="23"/>
+      <c r="D37" s="23">
         <v>2</v>
       </c>
-      <c r="E37" s="21">
+      <c r="E37" s="23">
         <v>13</v>
       </c>
-      <c r="F37" s="21">
+      <c r="F37" s="23">
         <v>7</v>
       </c>
-      <c r="G37" s="21">
+      <c r="G37" s="23">
         <v>15</v>
       </c>
-      <c r="H37" s="21">
+      <c r="H37" s="23">
         <v>17</v>
       </c>
-      <c r="I37" s="21">
+      <c r="I37" s="23">
         <v>43</v>
       </c>
-      <c r="J37" s="21">
+      <c r="J37" s="23">
         <v>1</v>
       </c>
-      <c r="K37" s="21">
+      <c r="K37" s="23">
         <v>12</v>
       </c>
-      <c r="L37" s="21"/>
-      <c r="M37" s="21">
+      <c r="L37" s="23"/>
+      <c r="M37" s="23">
         <v>6</v>
       </c>
-      <c r="N37" s="21">
-        <v>6</v>
-      </c>
-      <c r="O37" s="21"/>
-      <c r="P37" s="21"/>
-      <c r="Q37" s="21">
+      <c r="N37" s="23">
+        <v>19</v>
+      </c>
+      <c r="O37" s="23"/>
+      <c r="P37" s="23"/>
+      <c r="Q37" s="23">
         <v>5</v>
       </c>
-      <c r="R37" s="21"/>
-      <c r="S37" s="21"/>
-      <c r="T37" s="21">
+      <c r="R37" s="23"/>
+      <c r="S37" s="23"/>
+      <c r="T37" s="23">
         <v>2</v>
       </c>
-      <c r="U37" s="21">
+      <c r="U37" s="23">
         <v>2</v>
       </c>
       <c r="V37" s="47">
         <v>105</v>
       </c>
-      <c r="W37" s="21"/>
-      <c r="X37" s="21">
+      <c r="W37" s="23"/>
+      <c r="X37" s="23">
         <v>77</v>
       </c>
-      <c r="Y37" s="21">
+      <c r="Y37" s="23">
         <v>26</v>
       </c>
-      <c r="Z37" s="21">
+      <c r="Z37" s="23">
         <v>1</v>
       </c>
-      <c r="AA37" s="21">
+      <c r="AA37" s="23">
         <v>21</v>
       </c>
-      <c r="AB37" s="21">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="38" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AB37" s="23">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="22">
         <v>43921</v>
       </c>
@@ -14321,7 +14632,7 @@
         <v>7</v>
       </c>
       <c r="N38" s="23">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="O38" s="23"/>
       <c r="P38" s="23"/>
@@ -14355,86 +14666,88 @@
         <v>25</v>
       </c>
       <c r="AB38" s="23">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="39" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="20">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="22">
         <v>43922</v>
       </c>
-      <c r="B39" s="21">
+      <c r="B39" s="23">
         <v>11</v>
       </c>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21">
+      <c r="C39" s="23"/>
+      <c r="D39" s="23">
         <v>3</v>
       </c>
-      <c r="E39" s="21">
+      <c r="E39" s="23">
         <v>20</v>
       </c>
-      <c r="F39" s="21">
+      <c r="F39" s="23">
         <v>11</v>
       </c>
-      <c r="G39" s="21">
+      <c r="G39" s="23">
         <v>18</v>
       </c>
-      <c r="H39" s="21">
+      <c r="H39" s="23">
         <v>23</v>
       </c>
-      <c r="I39" s="21">
-        <v>59</v>
-      </c>
-      <c r="J39" s="21">
+      <c r="I39" s="23">
+        <v>65</v>
+      </c>
+      <c r="J39" s="23">
         <v>2</v>
       </c>
-      <c r="K39" s="21">
+      <c r="K39" s="23">
         <v>21</v>
       </c>
-      <c r="L39" s="21"/>
-      <c r="M39" s="21">
+      <c r="L39" s="23"/>
+      <c r="M39" s="23">
         <v>7</v>
       </c>
-      <c r="N39" s="21">
-        <v>11</v>
-      </c>
-      <c r="O39" s="21">
-        <v>0</v>
-      </c>
-      <c r="P39" s="21"/>
-      <c r="Q39" s="21">
+      <c r="N39" s="23">
+        <v>23</v>
+      </c>
+      <c r="O39" s="23"/>
+      <c r="P39" s="23"/>
+      <c r="Q39" s="23">
         <v>7</v>
       </c>
-      <c r="R39" s="21">
+      <c r="R39" s="23">
         <v>1</v>
       </c>
-      <c r="S39" s="21">
+      <c r="S39" s="23">
         <v>3</v>
       </c>
-      <c r="T39" s="21">
+      <c r="T39" s="23">
         <v>4</v>
       </c>
-      <c r="U39" s="21">
+      <c r="U39" s="23">
         <v>4</v>
       </c>
       <c r="V39" s="47">
         <v>132</v>
       </c>
-      <c r="W39" s="21"/>
-      <c r="X39" s="21"/>
-      <c r="Y39" s="21">
+      <c r="W39" s="23">
+        <v>1</v>
+      </c>
+      <c r="X39" s="23">
+        <v>92</v>
+      </c>
+      <c r="Y39" s="23">
         <v>37</v>
       </c>
-      <c r="Z39" s="21">
+      <c r="Z39" s="23">
         <v>1</v>
       </c>
-      <c r="AA39" s="21">
+      <c r="AA39" s="23">
         <v>29</v>
       </c>
-      <c r="AB39" s="21">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="40" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AB39" s="23">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="22">
         <v>43923</v>
       </c>
@@ -14458,7 +14771,7 @@
         <v>26</v>
       </c>
       <c r="I40" s="23">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="J40" s="23">
         <v>2</v>
@@ -14471,14 +14784,14 @@
         <v>7</v>
       </c>
       <c r="N40" s="23"/>
-      <c r="O40" s="23">
-        <v>0</v>
-      </c>
+      <c r="O40" s="23"/>
       <c r="P40" s="23"/>
       <c r="Q40" s="23">
         <v>8</v>
       </c>
-      <c r="R40" s="23"/>
+      <c r="R40" s="23">
+        <v>1</v>
+      </c>
       <c r="S40" s="23">
         <v>3</v>
       </c>
@@ -14494,7 +14807,9 @@
       <c r="W40" s="23">
         <v>1</v>
       </c>
-      <c r="X40" s="23"/>
+      <c r="X40" s="23">
+        <v>107</v>
+      </c>
       <c r="Y40" s="23">
         <v>40</v>
       </c>
@@ -14505,8 +14820,499 @@
         <v>36</v>
       </c>
       <c r="AB40" s="23">
-        <v>536</v>
-      </c>
+        <v>568</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="22">
+        <v>43924</v>
+      </c>
+      <c r="B41" s="23">
+        <v>12</v>
+      </c>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23">
+        <v>3</v>
+      </c>
+      <c r="E41" s="23">
+        <v>26</v>
+      </c>
+      <c r="F41" s="23">
+        <v>14</v>
+      </c>
+      <c r="G41" s="23">
+        <v>21</v>
+      </c>
+      <c r="H41" s="23">
+        <v>31</v>
+      </c>
+      <c r="I41" s="23"/>
+      <c r="J41" s="23">
+        <v>2</v>
+      </c>
+      <c r="K41" s="23">
+        <v>27</v>
+      </c>
+      <c r="L41" s="23"/>
+      <c r="M41" s="23">
+        <v>7</v>
+      </c>
+      <c r="N41" s="23"/>
+      <c r="O41" s="23"/>
+      <c r="P41" s="23"/>
+      <c r="Q41" s="23">
+        <v>8</v>
+      </c>
+      <c r="R41" s="23"/>
+      <c r="S41" s="23">
+        <v>3</v>
+      </c>
+      <c r="T41" s="23">
+        <v>4</v>
+      </c>
+      <c r="U41" s="23">
+        <v>5</v>
+      </c>
+      <c r="V41" s="47">
+        <v>155</v>
+      </c>
+      <c r="W41" s="23">
+        <v>1</v>
+      </c>
+      <c r="X41" s="23"/>
+      <c r="Y41" s="23">
+        <v>45</v>
+      </c>
+      <c r="Z41" s="23">
+        <v>2</v>
+      </c>
+      <c r="AA41" s="23">
+        <v>38</v>
+      </c>
+      <c r="AB41" s="23">
+        <v>607</v>
+      </c>
+      <c r="AC41"/>
+    </row>
+    <row r="42" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="22"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="23"/>
+      <c r="K42" s="23"/>
+      <c r="L42" s="23"/>
+      <c r="M42" s="23"/>
+      <c r="N42" s="23"/>
+      <c r="O42" s="23"/>
+      <c r="P42" s="23"/>
+      <c r="Q42" s="23"/>
+      <c r="R42" s="23"/>
+      <c r="S42" s="23"/>
+      <c r="T42" s="23"/>
+      <c r="U42" s="23"/>
+      <c r="V42" s="47"/>
+      <c r="W42" s="23"/>
+      <c r="X42" s="23"/>
+      <c r="Y42" s="23"/>
+      <c r="Z42" s="23"/>
+      <c r="AA42" s="23"/>
+      <c r="AB42" s="23"/>
+    </row>
+    <row r="43" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="22"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="23"/>
+      <c r="L43" s="23"/>
+      <c r="M43" s="23"/>
+      <c r="N43" s="23"/>
+      <c r="O43" s="23"/>
+      <c r="P43" s="23"/>
+      <c r="Q43" s="23"/>
+      <c r="R43" s="23"/>
+      <c r="S43" s="23"/>
+      <c r="T43" s="23"/>
+      <c r="U43" s="23"/>
+      <c r="V43" s="47"/>
+      <c r="W43" s="23"/>
+      <c r="X43" s="23"/>
+      <c r="Y43" s="23"/>
+      <c r="Z43" s="23"/>
+      <c r="AA43" s="23"/>
+      <c r="AB43" s="23"/>
+    </row>
+    <row r="44" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="22"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="23"/>
+      <c r="K44" s="23"/>
+      <c r="L44" s="23"/>
+      <c r="M44" s="23"/>
+      <c r="N44" s="23"/>
+      <c r="O44" s="23"/>
+      <c r="P44" s="23"/>
+      <c r="Q44" s="23"/>
+      <c r="R44" s="23"/>
+      <c r="S44" s="23"/>
+      <c r="T44" s="23"/>
+      <c r="U44" s="23"/>
+      <c r="V44" s="47"/>
+      <c r="W44" s="23"/>
+      <c r="X44" s="23"/>
+      <c r="Y44" s="23"/>
+      <c r="Z44" s="23"/>
+      <c r="AA44" s="23"/>
+      <c r="AB44" s="23"/>
+    </row>
+    <row r="45" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="22"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="23"/>
+      <c r="J45" s="23"/>
+      <c r="K45" s="23"/>
+      <c r="L45" s="23"/>
+      <c r="M45" s="23"/>
+      <c r="N45" s="23"/>
+      <c r="O45" s="23"/>
+      <c r="P45" s="23"/>
+      <c r="Q45" s="23"/>
+      <c r="R45" s="23"/>
+      <c r="S45" s="23"/>
+      <c r="T45" s="23"/>
+      <c r="U45" s="23"/>
+      <c r="V45" s="47"/>
+      <c r="W45" s="23"/>
+      <c r="X45" s="23"/>
+      <c r="Y45" s="23"/>
+      <c r="Z45" s="23"/>
+      <c r="AA45" s="23"/>
+      <c r="AB45" s="23"/>
+    </row>
+    <row r="46" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="22"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="23"/>
+      <c r="K46" s="23"/>
+      <c r="L46" s="23"/>
+      <c r="M46" s="23"/>
+      <c r="N46" s="23"/>
+      <c r="O46" s="23"/>
+      <c r="P46" s="23"/>
+      <c r="Q46" s="23"/>
+      <c r="R46" s="23"/>
+      <c r="S46" s="23"/>
+      <c r="T46" s="23"/>
+      <c r="U46" s="23"/>
+      <c r="V46" s="47"/>
+      <c r="W46" s="23"/>
+      <c r="X46" s="23"/>
+      <c r="Y46" s="23"/>
+      <c r="Z46" s="23"/>
+      <c r="AA46" s="23"/>
+      <c r="AB46" s="23"/>
+    </row>
+    <row r="47" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="22"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="23"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="23"/>
+      <c r="K47" s="23"/>
+      <c r="L47" s="23"/>
+      <c r="M47" s="23"/>
+      <c r="N47" s="23"/>
+      <c r="O47" s="23"/>
+      <c r="P47" s="23"/>
+      <c r="Q47" s="23"/>
+      <c r="R47" s="23"/>
+      <c r="S47" s="23"/>
+      <c r="T47" s="23"/>
+      <c r="U47" s="23"/>
+      <c r="V47" s="47"/>
+      <c r="W47" s="23"/>
+      <c r="X47" s="23"/>
+      <c r="Y47" s="23"/>
+      <c r="Z47" s="23"/>
+      <c r="AA47" s="23"/>
+      <c r="AB47" s="23"/>
+    </row>
+    <row r="48" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="22"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="23"/>
+      <c r="I48" s="23"/>
+      <c r="J48" s="23"/>
+      <c r="K48" s="23"/>
+      <c r="L48" s="23"/>
+      <c r="M48" s="23"/>
+      <c r="N48" s="23"/>
+      <c r="O48" s="23"/>
+      <c r="P48" s="23"/>
+      <c r="Q48" s="23"/>
+      <c r="R48" s="23"/>
+      <c r="S48" s="23"/>
+      <c r="T48" s="23"/>
+      <c r="U48" s="23"/>
+      <c r="V48" s="47"/>
+      <c r="W48" s="23"/>
+      <c r="X48" s="23"/>
+      <c r="Y48" s="23"/>
+      <c r="Z48" s="23"/>
+      <c r="AA48" s="23"/>
+      <c r="AB48" s="23"/>
+    </row>
+    <row r="49" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="22"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="23"/>
+      <c r="I49" s="23"/>
+      <c r="J49" s="23"/>
+      <c r="K49" s="23"/>
+      <c r="L49" s="23"/>
+      <c r="M49" s="23"/>
+      <c r="N49" s="23"/>
+      <c r="O49" s="23"/>
+      <c r="P49" s="23"/>
+      <c r="Q49" s="23"/>
+      <c r="R49" s="23"/>
+      <c r="S49" s="23"/>
+      <c r="T49" s="23"/>
+      <c r="U49" s="23"/>
+      <c r="V49" s="47"/>
+      <c r="W49" s="23"/>
+      <c r="X49" s="23"/>
+      <c r="Y49" s="23"/>
+      <c r="Z49" s="23"/>
+      <c r="AA49" s="23"/>
+      <c r="AB49" s="23"/>
+    </row>
+    <row r="50" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="22"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="23"/>
+      <c r="I50" s="23"/>
+      <c r="J50" s="23"/>
+      <c r="K50" s="23"/>
+      <c r="L50" s="23"/>
+      <c r="M50" s="23"/>
+      <c r="N50" s="23"/>
+      <c r="O50" s="23"/>
+      <c r="P50" s="23"/>
+      <c r="Q50" s="23"/>
+      <c r="R50" s="23"/>
+      <c r="S50" s="23"/>
+      <c r="T50" s="23"/>
+      <c r="U50" s="23"/>
+      <c r="V50" s="47"/>
+      <c r="W50" s="23"/>
+      <c r="X50" s="23"/>
+      <c r="Y50" s="23"/>
+      <c r="Z50" s="23"/>
+      <c r="AA50" s="23"/>
+      <c r="AB50" s="23"/>
+    </row>
+    <row r="51" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="22"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="23"/>
+      <c r="I51" s="23"/>
+      <c r="J51" s="23"/>
+      <c r="K51" s="23"/>
+      <c r="L51" s="23"/>
+      <c r="M51" s="23"/>
+      <c r="N51" s="23"/>
+      <c r="O51" s="23"/>
+      <c r="P51" s="23"/>
+      <c r="Q51" s="23"/>
+      <c r="R51" s="23"/>
+      <c r="S51" s="23"/>
+      <c r="T51" s="23"/>
+      <c r="U51" s="23"/>
+      <c r="V51" s="47"/>
+      <c r="W51" s="23"/>
+      <c r="X51" s="23"/>
+      <c r="Y51" s="23"/>
+      <c r="Z51" s="23"/>
+      <c r="AA51" s="23"/>
+      <c r="AB51" s="23"/>
+    </row>
+    <row r="52" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="22"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="23"/>
+      <c r="I52" s="23"/>
+      <c r="J52" s="23"/>
+      <c r="K52" s="23"/>
+      <c r="L52" s="23"/>
+      <c r="M52" s="23"/>
+      <c r="N52" s="23"/>
+      <c r="O52" s="23"/>
+      <c r="P52" s="23"/>
+      <c r="Q52" s="23"/>
+      <c r="R52" s="23"/>
+      <c r="S52" s="23"/>
+      <c r="T52" s="23"/>
+      <c r="U52" s="23"/>
+      <c r="V52" s="47"/>
+      <c r="W52" s="23"/>
+      <c r="X52" s="23"/>
+      <c r="Y52" s="23"/>
+      <c r="Z52" s="23"/>
+      <c r="AA52" s="23"/>
+      <c r="AB52" s="23"/>
+    </row>
+    <row r="53" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="22"/>
+      <c r="B53" s="23"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="23"/>
+      <c r="H53" s="23"/>
+      <c r="I53" s="23"/>
+      <c r="J53" s="23"/>
+      <c r="K53" s="23"/>
+      <c r="L53" s="23"/>
+      <c r="M53" s="23"/>
+      <c r="N53" s="23"/>
+      <c r="O53" s="23"/>
+      <c r="P53" s="23"/>
+      <c r="Q53" s="23"/>
+      <c r="R53" s="23"/>
+      <c r="S53" s="23"/>
+      <c r="T53" s="23"/>
+      <c r="U53" s="23"/>
+      <c r="V53" s="47"/>
+      <c r="W53" s="23"/>
+      <c r="X53" s="23"/>
+      <c r="Y53" s="23"/>
+      <c r="Z53" s="23"/>
+      <c r="AA53" s="23"/>
+      <c r="AB53" s="23"/>
+    </row>
+    <row r="54" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="22"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="23"/>
+      <c r="I54" s="23"/>
+      <c r="J54" s="23"/>
+      <c r="K54" s="23"/>
+      <c r="L54" s="23"/>
+      <c r="M54" s="23"/>
+      <c r="N54" s="23"/>
+      <c r="O54" s="23"/>
+      <c r="P54" s="23"/>
+      <c r="Q54" s="23"/>
+      <c r="R54" s="23"/>
+      <c r="S54" s="23"/>
+      <c r="T54" s="23"/>
+      <c r="U54" s="23"/>
+      <c r="V54" s="47"/>
+      <c r="W54" s="23"/>
+      <c r="X54" s="23"/>
+      <c r="Y54" s="23"/>
+      <c r="Z54" s="23"/>
+      <c r="AA54" s="23"/>
+      <c r="AB54" s="23"/>
+    </row>
+    <row r="55" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="22"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="23"/>
+      <c r="H55" s="23"/>
+      <c r="I55" s="23"/>
+      <c r="J55" s="23"/>
+      <c r="K55" s="23"/>
+      <c r="L55" s="23"/>
+      <c r="M55" s="23"/>
+      <c r="N55" s="23"/>
+      <c r="O55" s="23"/>
+      <c r="P55" s="23"/>
+      <c r="Q55" s="23"/>
+      <c r="R55" s="23"/>
+      <c r="S55" s="23"/>
+      <c r="T55" s="23"/>
+      <c r="U55" s="23"/>
+      <c r="V55" s="47"/>
+      <c r="W55" s="23"/>
+      <c r="X55" s="23"/>
+      <c r="Y55" s="23"/>
+      <c r="Z55" s="23"/>
+      <c r="AA55" s="23"/>
+      <c r="AB55" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TI_Lombardia.xlsx
+++ b/TI_Lombardia.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,8 +13,8 @@
     <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">cases!$A$3:$AB$75</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$F$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">cases!$A$3:$AB$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$F$43</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="117">
   <si>
     <t>Date</t>
   </si>
@@ -736,7 +736,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -858,6 +858,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF24292E"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1001,7 +1007,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1117,6 +1123,18 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2823,7 +2841,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2831,10 +2849,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U51"/>
+  <dimension ref="A1:U53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4:L51"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4:L53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3424,7 +3442,7 @@
         <v>10040000</v>
       </c>
       <c r="K18" s="5" t="str">
-        <f t="shared" ref="K18:K47" si="13">DAY(A18)&amp;"/"&amp;MONTH(A18)&amp;"/"&amp;YEAR(A18)</f>
+        <f t="shared" ref="K18:K48" si="13">DAY(A18)&amp;"/"&amp;MONTH(A18)&amp;"/"&amp;YEAR(A18)</f>
         <v>22/3/2020</v>
       </c>
       <c r="L18" s="3" t="str">
@@ -3467,7 +3485,7 @@
         <v>23/3/2020</v>
       </c>
       <c r="L19" s="3" t="str">
-        <f t="shared" ref="L19:L46" si="16">K19&amp;$L$1&amp;DAY(A19)&amp;$L$1&amp;MONTH(A19)&amp;$L$1&amp;YEAR(A19)&amp;$L$1&amp;C19&amp;$L$1&amp;G19&amp;$L$1&amp;D19&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H19</f>
+        <f t="shared" ref="L19:L47" si="16">K19&amp;$L$1&amp;DAY(A19)&amp;$L$1&amp;MONTH(A19)&amp;$L$1&amp;YEAR(A19)&amp;$L$1&amp;C19&amp;$L$1&amp;G19&amp;$L$1&amp;D19&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H19</f>
         <v>23/3/2020,23,3,2020,1555,320,Lombardia,nn,nnn,10040000</v>
       </c>
     </row>
@@ -3823,7 +3841,7 @@
         <v>47520</v>
       </c>
       <c r="C30">
-        <f t="shared" ref="C30" si="18">B30-B29</f>
+        <f t="shared" ref="C30:C31" si="18">B30-B29</f>
         <v>1455</v>
       </c>
       <c r="D30" t="s">
@@ -3833,7 +3851,7 @@
         <v>8311</v>
       </c>
       <c r="G30">
-        <f t="shared" ref="G30" si="19">F30-F29</f>
+        <f t="shared" ref="G30:G31" si="19">F30-F29</f>
         <v>351</v>
       </c>
       <c r="H30" s="2">
@@ -3850,119 +3868,119 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>43904</v>
+        <v>43925</v>
       </c>
       <c r="B31">
-        <v>262</v>
+        <v>49118</v>
       </c>
       <c r="C31">
-        <f>B31</f>
-        <v>262</v>
+        <f t="shared" si="18"/>
+        <v>1598</v>
       </c>
       <c r="D31" t="s">
-        <v>116</v>
+        <v>9</v>
       </c>
       <c r="F31">
-        <v>5</v>
+        <v>8656</v>
       </c>
       <c r="G31">
-        <f>F31</f>
-        <v>5</v>
-      </c>
-      <c r="H31">
-        <v>353709</v>
+        <f t="shared" si="19"/>
+        <v>345</v>
+      </c>
+      <c r="H31" s="2">
+        <v>10040001</v>
       </c>
       <c r="K31" s="5" t="str">
         <f t="shared" si="13"/>
+        <v>4/4/2020</v>
+      </c>
+      <c r="L31" s="3" t="str">
+        <f>K31&amp;$L$1&amp;DAY(A31)&amp;$L$1&amp;MONTH(A31)&amp;$L$1&amp;YEAR(A31)&amp;$L$1&amp;C31&amp;$L$1&amp;G31&amp;$L$1&amp;D31&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H31</f>
+        <v>4/4/2020,4,4,2020,1598,345,Lombardia,nn,nnn,10040001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>43904</v>
+      </c>
+      <c r="B32">
+        <v>262</v>
+      </c>
+      <c r="C32">
+        <f>B32</f>
+        <v>262</v>
+      </c>
+      <c r="D32" t="s">
+        <v>116</v>
+      </c>
+      <c r="F32">
+        <v>5</v>
+      </c>
+      <c r="G32">
+        <f>F32</f>
+        <v>5</v>
+      </c>
+      <c r="H32">
+        <v>353709</v>
+      </c>
+      <c r="K32" s="5" t="str">
+        <f t="shared" si="13"/>
         <v>14/3/2020</v>
       </c>
-      <c r="L31" s="3" t="str">
+      <c r="L32" s="3" t="str">
         <f t="shared" si="16"/>
         <v>14/3/2020,14,3,2020,262,5,Ticino,nn,nnn,353709</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
         <v>43905</v>
       </c>
-      <c r="B32">
+      <c r="B33">
         <v>291</v>
       </c>
-      <c r="C32">
-        <f t="shared" ref="C32:C50" si="20">B32-B31</f>
+      <c r="C33">
+        <f t="shared" ref="C33:C51" si="20">B33-B32</f>
         <v>29</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D33" t="s">
         <v>116</v>
       </c>
-      <c r="F32">
+      <c r="F33">
         <v>6</v>
       </c>
-      <c r="G32">
-        <f t="shared" ref="G32:G50" si="21">F32-F31</f>
+      <c r="G33">
+        <f t="shared" ref="G33:G51" si="21">F33-F32</f>
         <v>1</v>
       </c>
-      <c r="H32">
+      <c r="H33">
         <v>353709</v>
       </c>
-      <c r="K32" s="5" t="str">
+      <c r="K33" s="5" t="str">
         <f t="shared" si="13"/>
         <v>15/3/2020</v>
       </c>
-      <c r="L32" s="3" t="str">
+      <c r="L33" s="3" t="str">
         <f t="shared" si="16"/>
         <v>15/3/2020,15,3,2020,29,1,Ticino,nn,nnn,353709</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
         <v>43906</v>
       </c>
-      <c r="B33">
+      <c r="B34">
         <v>330</v>
       </c>
-      <c r="C33">
+      <c r="C34">
         <f t="shared" si="20"/>
         <v>39</v>
       </c>
-      <c r="D33" t="s">
-        <v>116</v>
-      </c>
-      <c r="F33">
-        <v>8</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="21"/>
-        <v>2</v>
-      </c>
-      <c r="H33">
-        <v>353709</v>
-      </c>
-      <c r="K33" s="5" t="str">
-        <f t="shared" si="13"/>
-        <v>16/3/2020</v>
-      </c>
-      <c r="L33" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>16/3/2020,16,3,2020,39,2,Ticino,nn,nnn,353709</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
-        <v>43907</v>
-      </c>
-      <c r="B34">
-        <v>422</v>
-      </c>
-      <c r="C34">
-        <f t="shared" si="20"/>
-        <v>92</v>
-      </c>
       <c r="D34" t="s">
         <v>116</v>
       </c>
       <c r="F34">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G34">
         <f t="shared" si="21"/>
@@ -3973,294 +3991,294 @@
       </c>
       <c r="K34" s="5" t="str">
         <f t="shared" si="13"/>
-        <v>17/3/2020</v>
+        <v>16/3/2020</v>
       </c>
       <c r="L34" s="3" t="str">
         <f t="shared" si="16"/>
-        <v>17/3/2020,17,3,2020,92,2,Ticino,nn,nnn,353709</v>
+        <v>16/3/2020,16,3,2020,39,2,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>43908</v>
+        <v>43907</v>
       </c>
       <c r="B35">
-        <v>511</v>
+        <v>422</v>
       </c>
       <c r="C35">
         <f t="shared" si="20"/>
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D35" t="s">
         <v>116</v>
       </c>
       <c r="F35">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G35">
         <f t="shared" si="21"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H35">
         <v>353709</v>
       </c>
       <c r="K35" s="5" t="str">
         <f t="shared" si="13"/>
-        <v>18/3/2020</v>
+        <v>17/3/2020</v>
       </c>
       <c r="L35" s="3" t="str">
         <f t="shared" si="16"/>
-        <v>18/3/2020,18,3,2020,89,4,Ticino,nn,nnn,353709</v>
+        <v>17/3/2020,17,3,2020,92,2,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>43909</v>
+        <v>43908</v>
       </c>
       <c r="B36">
-        <v>638</v>
+        <v>511</v>
       </c>
       <c r="C36">
         <f t="shared" si="20"/>
-        <v>127</v>
+        <v>89</v>
       </c>
       <c r="D36" t="s">
         <v>116</v>
       </c>
       <c r="F36">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G36">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H36">
         <v>353709</v>
       </c>
       <c r="K36" s="5" t="str">
         <f t="shared" si="13"/>
-        <v>19/3/2020</v>
+        <v>18/3/2020</v>
       </c>
       <c r="L36" s="3" t="str">
         <f t="shared" si="16"/>
-        <v>19/3/2020,19,3,2020,127,1,Ticino,nn,nnn,353709</v>
+        <v>18/3/2020,18,3,2020,89,4,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>43910</v>
+        <v>43909</v>
       </c>
       <c r="B37">
-        <v>834</v>
+        <v>638</v>
       </c>
       <c r="C37">
         <f t="shared" si="20"/>
-        <v>196</v>
+        <v>127</v>
       </c>
       <c r="D37" t="s">
         <v>116</v>
       </c>
       <c r="F37">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G37">
         <f t="shared" si="21"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H37">
         <v>353709</v>
       </c>
       <c r="K37" s="5" t="str">
         <f t="shared" si="13"/>
-        <v>20/3/2020</v>
+        <v>19/3/2020</v>
       </c>
       <c r="L37" s="3" t="str">
         <f t="shared" si="16"/>
-        <v>20/3/2020,20,3,2020,196,7,Ticino,nn,nnn,353709</v>
+        <v>19/3/2020,19,3,2020,127,1,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>43911</v>
+        <v>43910</v>
       </c>
       <c r="B38">
-        <v>918</v>
+        <v>834</v>
       </c>
       <c r="C38">
         <f t="shared" si="20"/>
-        <v>84</v>
+        <v>196</v>
       </c>
       <c r="D38" t="s">
         <v>116</v>
       </c>
       <c r="F38">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G38">
         <f t="shared" si="21"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H38">
         <v>353709</v>
       </c>
       <c r="K38" s="5" t="str">
         <f t="shared" si="13"/>
-        <v>21/3/2020</v>
+        <v>20/3/2020</v>
       </c>
       <c r="L38" s="3" t="str">
         <f t="shared" si="16"/>
-        <v>21/3/2020,21,3,2020,84,6,Ticino,nn,nnn,353709</v>
+        <v>20/3/2020,20,3,2020,196,7,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>43912</v>
+        <v>43911</v>
       </c>
       <c r="B39">
-        <v>939</v>
+        <v>918</v>
       </c>
       <c r="C39">
         <f t="shared" si="20"/>
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="D39" t="s">
         <v>116</v>
       </c>
       <c r="F39">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G39">
         <f t="shared" si="21"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H39">
         <v>353709</v>
       </c>
       <c r="K39" s="5" t="str">
         <f t="shared" si="13"/>
-        <v>22/3/2020</v>
+        <v>21/3/2020</v>
       </c>
       <c r="L39" s="3" t="str">
         <f t="shared" si="16"/>
-        <v>22/3/2020,22,3,2020,21,9,Ticino,nn,nnn,353709</v>
+        <v>21/3/2020,21,3,2020,84,6,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>43913</v>
+        <v>43912</v>
       </c>
       <c r="B40">
-        <v>1165</v>
+        <v>939</v>
       </c>
       <c r="C40">
         <f t="shared" si="20"/>
-        <v>226</v>
+        <v>21</v>
       </c>
       <c r="D40" t="s">
         <v>116</v>
       </c>
       <c r="F40">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G40">
         <f t="shared" si="21"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H40">
         <v>353709</v>
       </c>
       <c r="K40" s="5" t="str">
         <f t="shared" si="13"/>
-        <v>23/3/2020</v>
+        <v>22/3/2020</v>
       </c>
       <c r="L40" s="3" t="str">
         <f t="shared" si="16"/>
-        <v>23/3/2020,23,3,2020,226,11,Ticino,nn,nnn,353709</v>
+        <v>22/3/2020,22,3,2020,21,9,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>43914</v>
+        <v>43913</v>
       </c>
       <c r="B41">
-        <v>1211</v>
+        <v>1165</v>
       </c>
       <c r="C41">
         <f t="shared" si="20"/>
-        <v>46</v>
+        <v>226</v>
       </c>
       <c r="D41" t="s">
         <v>116</v>
       </c>
-      <c r="E41" s="2"/>
       <c r="F41">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G41">
         <f t="shared" si="21"/>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H41">
         <v>353709</v>
       </c>
       <c r="K41" s="5" t="str">
         <f t="shared" si="13"/>
-        <v>24/3/2020</v>
+        <v>23/3/2020</v>
       </c>
       <c r="L41" s="3" t="str">
         <f t="shared" si="16"/>
-        <v>24/3/2020,24,3,2020,46,5,Ticino,nn,nnn,353709</v>
+        <v>23/3/2020,23,3,2020,226,11,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>43915</v>
+        <v>43914</v>
       </c>
       <c r="B42">
-        <v>1343</v>
+        <v>1211</v>
       </c>
       <c r="C42">
         <f t="shared" si="20"/>
-        <v>132</v>
+        <v>46</v>
       </c>
       <c r="D42" t="s">
         <v>116</v>
       </c>
+      <c r="E42" s="2"/>
       <c r="F42">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G42">
         <f t="shared" si="21"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H42">
         <v>353709</v>
       </c>
       <c r="K42" s="5" t="str">
         <f t="shared" si="13"/>
-        <v>25/3/2020</v>
+        <v>24/3/2020</v>
       </c>
       <c r="L42" s="3" t="str">
         <f t="shared" si="16"/>
-        <v>25/3/2020,25,3,2020,132,7,Ticino,nn,nnn,353709</v>
+        <v>24/3/2020,24,3,2020,46,5,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>43916</v>
+        <v>43915</v>
       </c>
       <c r="B43">
-        <v>1401</v>
+        <v>1343</v>
       </c>
       <c r="C43">
         <f t="shared" si="20"/>
-        <v>58</v>
+        <v>132</v>
       </c>
       <c r="D43" t="s">
         <v>116</v>
       </c>
       <c r="F43">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="G43">
         <f t="shared" si="21"/>
@@ -4271,279 +4289,345 @@
       </c>
       <c r="K43" s="5" t="str">
         <f t="shared" si="13"/>
-        <v>26/3/2020</v>
+        <v>25/3/2020</v>
       </c>
       <c r="L43" s="3" t="str">
         <f t="shared" si="16"/>
-        <v>26/3/2020,26,3,2020,58,7,Ticino,nn,nnn,353709</v>
+        <v>25/3/2020,25,3,2020,132,7,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>43917</v>
+        <v>43916</v>
       </c>
       <c r="B44">
-        <v>1688</v>
+        <v>1401</v>
       </c>
       <c r="C44">
         <f t="shared" si="20"/>
-        <v>287</v>
+        <v>58</v>
       </c>
       <c r="D44" t="s">
         <v>116</v>
       </c>
       <c r="F44">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="G44">
         <f t="shared" si="21"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H44">
         <v>353709</v>
       </c>
       <c r="K44" s="5" t="str">
         <f t="shared" si="13"/>
-        <v>27/3/2020</v>
+        <v>26/3/2020</v>
       </c>
       <c r="L44" s="3" t="str">
         <f t="shared" si="16"/>
-        <v>27/3/2020,27,3,2020,287,9,Ticino,nn,nnn,353709</v>
+        <v>26/3/2020,26,3,2020,58,7,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>43918</v>
+        <v>43917</v>
       </c>
       <c r="B45">
-        <v>1727</v>
+        <v>1688</v>
       </c>
       <c r="C45">
         <f t="shared" si="20"/>
-        <v>39</v>
+        <v>287</v>
       </c>
       <c r="D45" t="s">
         <v>116</v>
       </c>
       <c r="F45">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="G45">
         <f t="shared" si="21"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H45">
         <v>353709</v>
       </c>
       <c r="K45" s="5" t="str">
         <f t="shared" si="13"/>
-        <v>28/3/2020</v>
+        <v>27/3/2020</v>
       </c>
       <c r="L45" s="3" t="str">
         <f t="shared" si="16"/>
-        <v>28/3/2020,28,3,2020,39,11,Ticino,nn,nnn,353709</v>
+        <v>27/3/2020,27,3,2020,287,9,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>43919</v>
+        <v>43918</v>
       </c>
       <c r="B46">
-        <v>1837</v>
+        <v>1727</v>
       </c>
       <c r="C46">
         <f t="shared" si="20"/>
-        <v>110</v>
+        <v>39</v>
       </c>
       <c r="D46" t="s">
         <v>116</v>
       </c>
       <c r="F46">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G46">
         <f t="shared" si="21"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H46">
         <v>353709</v>
       </c>
       <c r="K46" s="5" t="str">
         <f t="shared" si="13"/>
-        <v>29/3/2020</v>
+        <v>28/3/2020</v>
       </c>
       <c r="L46" s="3" t="str">
         <f t="shared" si="16"/>
-        <v>29/3/2020,29,3,2020,110,6,Ticino,nn,nnn,353709</v>
+        <v>28/3/2020,28,3,2020,39,11,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>43920</v>
+        <v>43919</v>
       </c>
       <c r="B47">
-        <v>1962</v>
+        <v>1837</v>
       </c>
       <c r="C47">
         <f t="shared" si="20"/>
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="D47" t="s">
         <v>116</v>
       </c>
       <c r="F47">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G47">
         <f t="shared" si="21"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H47">
         <v>353709</v>
       </c>
       <c r="K47" s="5" t="str">
         <f t="shared" si="13"/>
-        <v>30/3/2020</v>
+        <v>29/3/2020</v>
       </c>
       <c r="L47" s="3" t="str">
-        <f t="shared" ref="L47" si="22">K47&amp;$L$1&amp;DAY(A47)&amp;$L$1&amp;MONTH(A47)&amp;$L$1&amp;YEAR(A47)&amp;$L$1&amp;C47&amp;$L$1&amp;G47&amp;$L$1&amp;D47&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H47</f>
-        <v>30/3/2020,30,3,2020,125,12,Ticino,nn,nnn,353709</v>
+        <f t="shared" si="16"/>
+        <v>29/3/2020,29,3,2020,110,6,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>43921</v>
+        <v>43920</v>
       </c>
       <c r="B48">
-        <v>2091</v>
+        <v>1962</v>
       </c>
       <c r="C48">
         <f t="shared" si="20"/>
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D48" t="s">
         <v>116</v>
       </c>
       <c r="F48">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="G48">
         <f t="shared" si="21"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H48">
         <v>353709</v>
       </c>
       <c r="K48" s="5" t="str">
-        <f t="shared" ref="K48:K49" si="23">DAY(A48)&amp;"/"&amp;MONTH(A48)&amp;"/"&amp;YEAR(A48)</f>
-        <v>31/3/2020</v>
+        <f t="shared" si="13"/>
+        <v>30/3/2020</v>
       </c>
       <c r="L48" s="3" t="str">
-        <f t="shared" ref="L48:L49" si="24">K48&amp;$L$1&amp;DAY(A48)&amp;$L$1&amp;MONTH(A48)&amp;$L$1&amp;YEAR(A48)&amp;$L$1&amp;C48&amp;$L$1&amp;G48&amp;$L$1&amp;D48&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H48</f>
-        <v>31/3/2020,31,3,2020,129,15,Ticino,nn,nnn,353709</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="L48" si="22">K48&amp;$L$1&amp;DAY(A48)&amp;$L$1&amp;MONTH(A48)&amp;$L$1&amp;YEAR(A48)&amp;$L$1&amp;C48&amp;$L$1&amp;G48&amp;$L$1&amp;D48&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H48</f>
+        <v>30/3/2020,30,3,2020,125,12,Ticino,nn,nnn,353709</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>43922</v>
+        <v>43921</v>
       </c>
       <c r="B49">
-        <v>2195</v>
+        <v>2091</v>
       </c>
       <c r="C49">
         <f t="shared" si="20"/>
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="D49" t="s">
         <v>116</v>
       </c>
       <c r="F49">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="G49">
         <f t="shared" si="21"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H49">
         <v>353709</v>
       </c>
       <c r="K49" s="5" t="str">
+        <f t="shared" ref="K49:K50" si="23">DAY(A49)&amp;"/"&amp;MONTH(A49)&amp;"/"&amp;YEAR(A49)</f>
+        <v>31/3/2020</v>
+      </c>
+      <c r="L49" s="3" t="str">
+        <f t="shared" ref="L49:L50" si="24">K49&amp;$L$1&amp;DAY(A49)&amp;$L$1&amp;MONTH(A49)&amp;$L$1&amp;YEAR(A49)&amp;$L$1&amp;C49&amp;$L$1&amp;G49&amp;$L$1&amp;D49&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H49</f>
+        <v>31/3/2020,31,3,2020,129,15,Ticino,nn,nnn,353709</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>43922</v>
+      </c>
+      <c r="B50">
+        <v>2195</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="20"/>
+        <v>104</v>
+      </c>
+      <c r="D50" t="s">
+        <v>116</v>
+      </c>
+      <c r="F50">
+        <v>132</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="21"/>
+        <v>12</v>
+      </c>
+      <c r="H50">
+        <v>353709</v>
+      </c>
+      <c r="K50" s="5" t="str">
         <f t="shared" si="23"/>
         <v>1/4/2020</v>
       </c>
-      <c r="L49" s="3" t="str">
+      <c r="L50" s="3" t="str">
         <f t="shared" si="24"/>
         <v>1/4/2020,1,4,2020,104,12,Ticino,nn,nnn,353709</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
+    <row r="51" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
         <v>43923</v>
       </c>
-      <c r="B50" s="44">
+      <c r="B51" s="44">
         <v>2271</v>
       </c>
-      <c r="C50">
+      <c r="C51">
         <f t="shared" si="20"/>
         <v>76</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D51" t="s">
         <v>116</v>
       </c>
-      <c r="F50" s="49">
+      <c r="F51" s="49">
         <v>141</v>
       </c>
-      <c r="G50">
+      <c r="G51">
         <f t="shared" si="21"/>
         <v>9</v>
       </c>
-      <c r="H50">
+      <c r="H51">
         <v>353709</v>
       </c>
-      <c r="K50" s="5" t="str">
-        <f t="shared" ref="K50:K51" si="25">DAY(A50)&amp;"/"&amp;MONTH(A50)&amp;"/"&amp;YEAR(A50)</f>
+      <c r="K51" s="5" t="str">
+        <f t="shared" ref="K51:K53" si="25">DAY(A51)&amp;"/"&amp;MONTH(A51)&amp;"/"&amp;YEAR(A51)</f>
         <v>2/4/2020</v>
       </c>
-      <c r="L50" s="3" t="str">
-        <f t="shared" ref="L50:L51" si="26">K50&amp;$L$1&amp;DAY(A50)&amp;$L$1&amp;MONTH(A50)&amp;$L$1&amp;YEAR(A50)&amp;$L$1&amp;C50&amp;$L$1&amp;G50&amp;$L$1&amp;D50&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H50</f>
+      <c r="L51" s="3" t="str">
+        <f t="shared" ref="L51:L53" si="26">K51&amp;$L$1&amp;DAY(A51)&amp;$L$1&amp;MONTH(A51)&amp;$L$1&amp;YEAR(A51)&amp;$L$1&amp;C51&amp;$L$1&amp;G51&amp;$L$1&amp;D51&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H51</f>
         <v>2/4/2020,2,4,2020,76,9,Ticino,nn,nnn,353709</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
+    <row r="52" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
         <v>43924</v>
       </c>
-      <c r="B51" s="44">
+      <c r="B52" s="44">
         <v>2377</v>
       </c>
-      <c r="C51">
-        <f t="shared" ref="C51" si="27">B51-B50</f>
+      <c r="C52">
+        <f t="shared" ref="C52" si="27">B52-B51</f>
         <v>106</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D52" t="s">
         <v>116</v>
       </c>
-      <c r="F51" s="47">
+      <c r="F52" s="47">
         <v>155</v>
       </c>
-      <c r="G51">
-        <f t="shared" ref="G51" si="28">F51-F50</f>
+      <c r="G52">
+        <f t="shared" ref="G52" si="28">F52-F51</f>
         <v>14</v>
       </c>
-      <c r="H51">
-        <v>353710</v>
-      </c>
-      <c r="K51" s="5" t="str">
+      <c r="H52">
+        <v>353709</v>
+      </c>
+      <c r="K52" s="5" t="str">
         <f t="shared" si="25"/>
         <v>3/4/2020</v>
       </c>
-      <c r="L51" s="3" t="str">
+      <c r="L52" s="3" t="str">
         <f t="shared" si="26"/>
-        <v>3/4/2020,3,4,2020,106,14,Ticino,nn,nnn,353710</v>
+        <v>3/4/2020,3,4,2020,106,14,Ticino,nn,nnn,353709</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>43925</v>
+      </c>
+      <c r="B53">
+        <v>2422</v>
+      </c>
+      <c r="C53">
+        <f t="shared" ref="C53" si="29">B53-B52</f>
+        <v>45</v>
+      </c>
+      <c r="D53" t="s">
+        <v>116</v>
+      </c>
+      <c r="F53" s="47">
+        <v>165</v>
+      </c>
+      <c r="G53">
+        <f t="shared" ref="G53" si="30">F53-F52</f>
+        <v>10</v>
+      </c>
+      <c r="H53">
+        <v>353709</v>
+      </c>
+      <c r="K53" s="5" t="str">
+        <f t="shared" si="25"/>
+        <v>4/4/2020</v>
+      </c>
+      <c r="L53" s="3" t="str">
+        <f t="shared" si="26"/>
+        <v>4/4/2020,4,4,2020,45,10,Ticino,nn,nnn,353709</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:F42">
+  <autoFilter ref="A3:F43">
     <sortState ref="A4:F23">
       <sortCondition ref="D3:D20"/>
     </sortState>
@@ -4556,10 +4640,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BD75"/>
+  <dimension ref="A1:BD59"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="V41" sqref="V41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V42" sqref="V42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10985,7 +11069,7 @@
         <v>375</v>
       </c>
       <c r="N38" s="12">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="O38" s="12">
         <v>70</v>
@@ -11027,7 +11111,7 @@
         <v>1960</v>
       </c>
       <c r="AB38" s="12">
-        <v>17097</v>
+        <v>17098</v>
       </c>
       <c r="AC38" s="15" t="str">
         <f t="shared" si="8"/>
@@ -11083,7 +11167,7 @@
       </c>
       <c r="AP38" s="3" t="str">
         <f>$AC38&amp;$AC$1&amp;N38&amp;$AC$1&amp;fatalities!N38&amp;$AC$1&amp;N$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;N$2</f>
-        <v>31/3/2020,31,3,2020,401,21,NE,nn,nnn,176850</v>
+        <v>31/3/2020,31,3,2020,402,21,NE,nn,nnn,176850</v>
       </c>
       <c r="AQ38" s="3" t="str">
         <f>$AC38&amp;$AC$1&amp;O38&amp;$AC$1&amp;fatalities!O38&amp;$AC$1&amp;O$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;O$2</f>
@@ -11139,7 +11223,7 @@
       </c>
       <c r="BD38" s="3" t="str">
         <f>$AC38&amp;$AC$1&amp;AB38&amp;$AC$1&amp;fatalities!AB38&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2</f>
-        <v>31/3/2020,31,3,2020,17097,457,CH,nn,nnn,8543707</v>
+        <v>31/3/2020,31,3,2020,17098,457,CH,nn,nnn,8543707</v>
       </c>
     </row>
     <row r="39" spans="1:56" x14ac:dyDescent="0.2">
@@ -11181,7 +11265,7 @@
         <v>401</v>
       </c>
       <c r="N39" s="12">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="O39" s="12">
         <v>70</v>
@@ -11223,7 +11307,7 @@
         <v>2148</v>
       </c>
       <c r="AB39" s="12">
-        <v>18055</v>
+        <v>18069</v>
       </c>
       <c r="AC39" s="15" t="str">
         <f t="shared" si="8"/>
@@ -11279,7 +11363,7 @@
       </c>
       <c r="AP39" s="3" t="str">
         <f>$AC39&amp;$AC$1&amp;N39&amp;$AC$1&amp;fatalities!N39&amp;$AC$1&amp;N$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;N$2</f>
-        <v>1/4/2020,1,4,2020,406,23,NE,nn,nnn,176850</v>
+        <v>1/4/2020,1,4,2020,420,23,NE,nn,nnn,176850</v>
       </c>
       <c r="AQ39" s="3" t="str">
         <f>$AC39&amp;$AC$1&amp;O39&amp;$AC$1&amp;fatalities!O39&amp;$AC$1&amp;O$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;O$2</f>
@@ -11335,7 +11419,7 @@
       </c>
       <c r="BD39" s="3" t="str">
         <f>$AC39&amp;$AC$1&amp;AB39&amp;$AC$1&amp;fatalities!AB39&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2</f>
-        <v>1/4/2020,1,4,2020,18055,515,CH,nn,nnn,8543707</v>
+        <v>1/4/2020,1,4,2020,18069,515,CH,nn,nnn,8543707</v>
       </c>
     </row>
     <row r="40" spans="1:56" x14ac:dyDescent="0.2">
@@ -11378,7 +11462,9 @@
       <c r="M40" s="12">
         <v>422</v>
       </c>
-      <c r="N40" s="12"/>
+      <c r="N40" s="12">
+        <v>430</v>
+      </c>
       <c r="O40" s="12">
         <v>76</v>
       </c>
@@ -11419,7 +11505,7 @@
         <v>2323</v>
       </c>
       <c r="AB40" s="12">
-        <v>19109</v>
+        <v>19133</v>
       </c>
       <c r="AC40" s="15" t="str">
         <f t="shared" ref="AC40" si="9">DAY(A40)&amp;"/"&amp;MONTH(A40)&amp;"/"&amp;YEAR(A40)&amp;$AC$1&amp;DAY(A40)&amp;$AC$1&amp;MONTH(A40)&amp;$AC$1&amp;YEAR(A40)</f>
@@ -11475,7 +11561,7 @@
       </c>
       <c r="AP40" s="3" t="str">
         <f>$AC40&amp;$AC$1&amp;N40&amp;$AC$1&amp;fatalities!N40&amp;$AC$1&amp;N$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;N$2</f>
-        <v>2/4/2020,2,4,2020,,,NE,nn,nnn,176850</v>
+        <v>2/4/2020,2,4,2020,430,,NE,nn,nnn,176850</v>
       </c>
       <c r="AQ40" s="3" t="str">
         <f>$AC40&amp;$AC$1&amp;O40&amp;$AC$1&amp;fatalities!O40&amp;$AC$1&amp;O$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;O$2</f>
@@ -11531,7 +11617,7 @@
       </c>
       <c r="BD40" s="3" t="str">
         <f>$AC40&amp;$AC$1&amp;AB40&amp;$AC$1&amp;fatalities!AB40&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2</f>
-        <v>2/4/2020,2,4,2020,19109,568,CH,nn,nnn,8543707</v>
+        <v>2/4/2020,2,4,2020,19133,568,CH,nn,nnn,8543707</v>
       </c>
     </row>
     <row r="41" spans="1:56" x14ac:dyDescent="0.2">
@@ -11554,13 +11640,13 @@
         <v>625</v>
       </c>
       <c r="G41" s="12">
-        <v>748</v>
+        <v>758</v>
       </c>
       <c r="H41" s="12">
         <v>588</v>
       </c>
       <c r="I41" s="12">
-        <v>2941</v>
+        <v>3220</v>
       </c>
       <c r="J41" s="12">
         <v>59</v>
@@ -11574,7 +11660,9 @@
       <c r="M41" s="12">
         <v>449</v>
       </c>
-      <c r="N41" s="12"/>
+      <c r="N41" s="12">
+        <v>433</v>
+      </c>
       <c r="O41" s="12">
         <v>79</v>
       </c>
@@ -11584,7 +11672,9 @@
       <c r="Q41" s="12">
         <v>480</v>
       </c>
-      <c r="R41" s="12"/>
+      <c r="R41" s="12">
+        <v>47</v>
+      </c>
       <c r="S41" s="12">
         <v>237</v>
       </c>
@@ -11600,7 +11690,9 @@
       <c r="W41" s="12">
         <v>62</v>
       </c>
-      <c r="X41" s="12"/>
+      <c r="X41" s="12">
+        <v>3915</v>
+      </c>
       <c r="Y41" s="12">
         <v>1273</v>
       </c>
@@ -11611,10 +11703,10 @@
         <v>2452</v>
       </c>
       <c r="AB41" s="12">
-        <v>19706</v>
+        <v>20141</v>
       </c>
       <c r="AC41" s="15" t="str">
-        <f t="shared" ref="AC41" si="10">DAY(A41)&amp;"/"&amp;MONTH(A41)&amp;"/"&amp;YEAR(A41)&amp;$AC$1&amp;DAY(A41)&amp;$AC$1&amp;MONTH(A41)&amp;$AC$1&amp;YEAR(A41)</f>
+        <f t="shared" ref="AC41:AC42" si="10">DAY(A41)&amp;"/"&amp;MONTH(A41)&amp;"/"&amp;YEAR(A41)&amp;$AC$1&amp;DAY(A41)&amp;$AC$1&amp;MONTH(A41)&amp;$AC$1&amp;YEAR(A41)</f>
         <v>3/4/2020,3,4,2020</v>
       </c>
       <c r="AD41" s="3" t="str">
@@ -11639,7 +11731,7 @@
       </c>
       <c r="AI41" s="3" t="str">
         <f>$AC41&amp;$AC$1&amp;G41&amp;$AC$1&amp;fatalities!G41&amp;$AC$1&amp;G$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;G$2</f>
-        <v>3/4/2020,3,4,2020,748,21,BS,nn,nnn,194766</v>
+        <v>3/4/2020,3,4,2020,758,21,BS,nn,nnn,194766</v>
       </c>
       <c r="AJ41" s="3" t="str">
         <f>$AC41&amp;$AC$1&amp;H41&amp;$AC$1&amp;fatalities!H41&amp;$AC$1&amp;H$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;H$2</f>
@@ -11647,7 +11739,7 @@
       </c>
       <c r="AK41" s="3" t="str">
         <f>$AC41&amp;$AC$1&amp;I41&amp;$AC$1&amp;fatalities!I41&amp;$AC$1&amp;I$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;I$2</f>
-        <v>3/4/2020,3,4,2020,2941,,GE,nn,nnn,499480</v>
+        <v>3/4/2020,3,4,2020,3220,78,GE,nn,nnn,499480</v>
       </c>
       <c r="AL41" s="3" t="str">
         <f>$AC41&amp;$AC$1&amp;J41&amp;$AC$1&amp;fatalities!J41&amp;$AC$1&amp;J$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;J$2</f>
@@ -11667,7 +11759,7 @@
       </c>
       <c r="AP41" s="3" t="str">
         <f>$AC41&amp;$AC$1&amp;N41&amp;$AC$1&amp;fatalities!N41&amp;$AC$1&amp;N$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;N$2</f>
-        <v>3/4/2020,3,4,2020,,,NE,nn,nnn,176850</v>
+        <v>3/4/2020,3,4,2020,433,,NE,nn,nnn,176850</v>
       </c>
       <c r="AQ41" s="3" t="str">
         <f>$AC41&amp;$AC$1&amp;O41&amp;$AC$1&amp;fatalities!O41&amp;$AC$1&amp;O$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;O$2</f>
@@ -11683,7 +11775,7 @@
       </c>
       <c r="AT41" s="3" t="str">
         <f>$AC41&amp;$AC$1&amp;R41&amp;$AC$1&amp;fatalities!R41&amp;$AC$1&amp;R$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;R$2</f>
-        <v>3/4/2020,3,4,2020,,,SH,nn,nnn,81991</v>
+        <v>3/4/2020,3,4,2020,47,1,SH,nn,nnn,81991</v>
       </c>
       <c r="AU41" s="3" t="str">
         <f>$AC41&amp;$AC$1&amp;S41&amp;$AC$1&amp;fatalities!S41&amp;$AC$1&amp;S$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;S$2</f>
@@ -11707,7 +11799,7 @@
       </c>
       <c r="AZ41" s="3" t="str">
         <f>$AC41&amp;$AC$1&amp;X41&amp;$AC$1&amp;fatalities!X41&amp;$AC$1&amp;X$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;X$2</f>
-        <v>3/4/2020,3,4,2020,,,VD,nn,nnn,799145</v>
+        <v>3/4/2020,3,4,2020,3915,123,VD,nn,nnn,799145</v>
       </c>
       <c r="BA41" s="3" t="str">
         <f>$AC41&amp;$AC$1&amp;Y41&amp;$AC$1&amp;fatalities!Y41&amp;$AC$1&amp;Y$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Y$2</f>
@@ -11723,65 +11815,190 @@
       </c>
       <c r="BD41" s="3" t="str">
         <f>$AC41&amp;$AC$1&amp;AB41&amp;$AC$1&amp;fatalities!AB41&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2</f>
-        <v>3/4/2020,3,4,2020,19706,607,CH,nn,nnn,8543707</v>
+        <v>3/4/2020,3,4,2020,20141,629,CH,nn,nnn,8543707</v>
       </c>
     </row>
     <row r="42" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A42" s="39"/>
+      <c r="A42" s="39">
+        <v>43925</v>
+      </c>
       <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
+      <c r="C42" s="12">
+        <v>21</v>
+      </c>
+      <c r="D42" s="12">
+        <v>66</v>
+      </c>
+      <c r="E42" s="12">
+        <v>1106</v>
+      </c>
+      <c r="F42" s="12">
+        <v>656</v>
+      </c>
+      <c r="G42" s="12">
+        <v>771</v>
+      </c>
+      <c r="H42" s="12">
+        <v>638</v>
+      </c>
       <c r="I42" s="12"/>
       <c r="J42" s="12"/>
       <c r="K42" s="12"/>
-      <c r="L42" s="12"/>
-      <c r="M42" s="12"/>
+      <c r="L42" s="12">
+        <v>153</v>
+      </c>
+      <c r="M42" s="12">
+        <v>469</v>
+      </c>
       <c r="N42" s="12"/>
-      <c r="O42" s="12"/>
+      <c r="O42" s="12">
+        <v>80</v>
+      </c>
       <c r="P42" s="12"/>
-      <c r="Q42" s="12"/>
+      <c r="Q42" s="12">
+        <v>504</v>
+      </c>
       <c r="R42" s="12"/>
-      <c r="S42" s="12"/>
-      <c r="T42" s="12"/>
-      <c r="U42" s="12"/>
-      <c r="V42" s="44"/>
-      <c r="W42" s="12"/>
+      <c r="S42" s="12">
+        <v>250</v>
+      </c>
+      <c r="T42" s="12">
+        <v>168</v>
+      </c>
+      <c r="U42" s="12">
+        <v>208</v>
+      </c>
+      <c r="V42" s="44">
+        <v>2422</v>
+      </c>
+      <c r="W42" s="12">
+        <v>66</v>
+      </c>
       <c r="X42" s="12"/>
-      <c r="Y42" s="12"/>
-      <c r="Z42" s="12"/>
-      <c r="AA42" s="12"/>
-      <c r="AB42" s="12"/>
-      <c r="AD42" s="3"/>
-      <c r="AE42" s="3"/>
-      <c r="AF42" s="3"/>
-      <c r="AG42" s="3"/>
-      <c r="AH42" s="3"/>
-      <c r="AI42" s="3"/>
-      <c r="AJ42" s="3"/>
-      <c r="AK42" s="3"/>
-      <c r="AL42" s="3"/>
-      <c r="AM42" s="3"/>
-      <c r="AN42" s="3"/>
-      <c r="AO42" s="3"/>
-      <c r="AP42" s="3"/>
-      <c r="AQ42" s="3"/>
-      <c r="AR42" s="3"/>
-      <c r="AS42" s="3"/>
-      <c r="AT42" s="3"/>
-      <c r="AU42" s="3"/>
-      <c r="AV42" s="3"/>
-      <c r="AW42" s="3"/>
-      <c r="AX42" s="3"/>
-      <c r="AY42" s="3"/>
-      <c r="AZ42" s="3"/>
-      <c r="BA42" s="3"/>
-      <c r="BB42" s="3"/>
-      <c r="BC42" s="3"/>
-      <c r="BD42" s="3"/>
+      <c r="Y42" s="12">
+        <v>1319</v>
+      </c>
+      <c r="Z42" s="12">
+        <v>146</v>
+      </c>
+      <c r="AA42" s="12">
+        <v>2492</v>
+      </c>
+      <c r="AB42" s="12">
+        <v>20489</v>
+      </c>
+      <c r="AC42" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v>4/4/2020,4,4,2020</v>
+      </c>
+      <c r="AD42" s="3" t="str">
+        <f>$AC42&amp;$AC$1&amp;B42&amp;$AC$1&amp;fatalities!B42&amp;$AC$1&amp;B$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;B$2</f>
+        <v>4/4/2020,4,4,2020,,,AG,nn,nnn,677387</v>
+      </c>
+      <c r="AE42" s="3" t="str">
+        <f>$AC42&amp;$AC$1&amp;C42&amp;$AC$1&amp;fatalities!C42&amp;$AC$1&amp;C$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;C$2</f>
+        <v>4/4/2020,4,4,2020,21,,AI,nn,nnn,16145</v>
+      </c>
+      <c r="AF42" s="3" t="str">
+        <f>$AC42&amp;$AC$1&amp;D42&amp;$AC$1&amp;fatalities!D42&amp;$AC$1&amp;D$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;D$2</f>
+        <v>4/4/2020,4,4,2020,66,3,AR,nn,nnn,55234</v>
+      </c>
+      <c r="AG42" s="3" t="str">
+        <f>$AC42&amp;$AC$1&amp;E42&amp;$AC$1&amp;fatalities!E42&amp;$AC$1&amp;E$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;E$2</f>
+        <v>4/4/2020,4,4,2020,1106,28,BE,nn,nnn,1034977</v>
+      </c>
+      <c r="AH42" s="3" t="str">
+        <f>$AC42&amp;$AC$1&amp;F42&amp;$AC$1&amp;fatalities!F42&amp;$AC$1&amp;F$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;F$2</f>
+        <v>4/4/2020,4,4,2020,656,19,BL,nn,nnn,288132</v>
+      </c>
+      <c r="AI42" s="3" t="str">
+        <f>$AC42&amp;$AC$1&amp;G42&amp;$AC$1&amp;fatalities!G42&amp;$AC$1&amp;G$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;G$2</f>
+        <v>4/4/2020,4,4,2020,771,24,BS,nn,nnn,194766</v>
+      </c>
+      <c r="AJ42" s="3" t="str">
+        <f>$AC42&amp;$AC$1&amp;H42&amp;$AC$1&amp;fatalities!H42&amp;$AC$1&amp;H$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;H$2</f>
+        <v>4/4/2020,4,4,2020,638,37,FR,nn,nnn,318714</v>
+      </c>
+      <c r="AK42" s="3" t="str">
+        <f>$AC42&amp;$AC$1&amp;I42&amp;$AC$1&amp;fatalities!I42&amp;$AC$1&amp;I$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;I$2</f>
+        <v>4/4/2020,4,4,2020,,,GE,nn,nnn,499480</v>
+      </c>
+      <c r="AL42" s="3" t="str">
+        <f>$AC42&amp;$AC$1&amp;J42&amp;$AC$1&amp;fatalities!J42&amp;$AC$1&amp;J$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;J$2</f>
+        <v>4/4/2020,4,4,2020,,,GL,nn,nnn,40403</v>
+      </c>
+      <c r="AM42" s="3" t="str">
+        <f>$AC42&amp;$AC$1&amp;K42&amp;$AC$1&amp;fatalities!K42&amp;$AC$1&amp;K$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;K$2</f>
+        <v>4/4/2020,4,4,2020,,,GR,nn,nnn,198379</v>
+      </c>
+      <c r="AN42" s="3" t="str">
+        <f>$AC42&amp;$AC$1&amp;L42&amp;$AC$1&amp;fatalities!L42&amp;$AC$1&amp;L$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;L$2</f>
+        <v>4/4/2020,4,4,2020,153,,JU,nn,nnn,73419</v>
+      </c>
+      <c r="AO42" s="3" t="str">
+        <f>$AC42&amp;$AC$1&amp;M42&amp;$AC$1&amp;fatalities!M42&amp;$AC$1&amp;M$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;M$2</f>
+        <v>4/4/2020,4,4,2020,469,7,LU,nn,nnn,409557</v>
+      </c>
+      <c r="AP42" s="3" t="str">
+        <f>$AC42&amp;$AC$1&amp;N42&amp;$AC$1&amp;fatalities!N42&amp;$AC$1&amp;N$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;N$2</f>
+        <v>4/4/2020,4,4,2020,,,NE,nn,nnn,176850</v>
+      </c>
+      <c r="AQ42" s="3" t="str">
+        <f>$AC42&amp;$AC$1&amp;O42&amp;$AC$1&amp;fatalities!O42&amp;$AC$1&amp;O$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;O$2</f>
+        <v>4/4/2020,4,4,2020,80,0,NW,nn,nnn,43223</v>
+      </c>
+      <c r="AR42" s="3" t="str">
+        <f>$AC42&amp;$AC$1&amp;P42&amp;$AC$1&amp;fatalities!P42&amp;$AC$1&amp;P$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;P$2</f>
+        <v>4/4/2020,4,4,2020,,,OW,nn,nnn,37841</v>
+      </c>
+      <c r="AS42" s="3" t="str">
+        <f>$AC42&amp;$AC$1&amp;Q42&amp;$AC$1&amp;fatalities!Q42&amp;$AC$1&amp;Q$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Q$2</f>
+        <v>4/4/2020,4,4,2020,504,9,SG,nn,nnn,507697</v>
+      </c>
+      <c r="AT42" s="3" t="str">
+        <f>$AC42&amp;$AC$1&amp;R42&amp;$AC$1&amp;fatalities!R42&amp;$AC$1&amp;R$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;R$2</f>
+        <v>4/4/2020,4,4,2020,,,SH,nn,nnn,81991</v>
+      </c>
+      <c r="AU42" s="3" t="str">
+        <f>$AC42&amp;$AC$1&amp;S42&amp;$AC$1&amp;fatalities!S42&amp;$AC$1&amp;S$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;S$2</f>
+        <v>4/4/2020,4,4,2020,250,3,SO,nn,nnn,273194</v>
+      </c>
+      <c r="AV42" s="3" t="str">
+        <f>$AC42&amp;$AC$1&amp;T42&amp;$AC$1&amp;fatalities!T42&amp;$AC$1&amp;T$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;T$2</f>
+        <v>4/4/2020,4,4,2020,168,5,SZ,nn,nnn,159165</v>
+      </c>
+      <c r="AW42" s="3" t="str">
+        <f>$AC42&amp;$AC$1&amp;U42&amp;$AC$1&amp;fatalities!U42&amp;$AC$1&amp;U$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;U$2</f>
+        <v>4/4/2020,4,4,2020,208,5,TG,nn,nnn,276472</v>
+      </c>
+      <c r="AX42" s="3" t="str">
+        <f>$AC42&amp;$AC$1&amp;V42&amp;$AC$1&amp;fatalities!V42&amp;$AC$1&amp;V$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;V$2</f>
+        <v>4/4/2020,4,4,2020,2422,165,TI,nn,nnn,353343</v>
+      </c>
+      <c r="AY42" s="3" t="str">
+        <f>$AC42&amp;$AC$1&amp;W42&amp;$AC$1&amp;fatalities!W42&amp;$AC$1&amp;W$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;W$2</f>
+        <v>4/4/2020,4,4,2020,66,1,UR,nn,nnn,36433</v>
+      </c>
+      <c r="AZ42" s="3" t="str">
+        <f>$AC42&amp;$AC$1&amp;X42&amp;$AC$1&amp;fatalities!X42&amp;$AC$1&amp;X$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;X$2</f>
+        <v>4/4/2020,4,4,2020,,,VD,nn,nnn,799145</v>
+      </c>
+      <c r="BA42" s="3" t="str">
+        <f>$AC42&amp;$AC$1&amp;Y42&amp;$AC$1&amp;fatalities!Y42&amp;$AC$1&amp;Y$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Y$2</f>
+        <v>4/4/2020,4,4,2020,1319,51,VS,nn,nnn,343955</v>
+      </c>
+      <c r="BB42" s="3" t="str">
+        <f>$AC42&amp;$AC$1&amp;Z42&amp;$AC$1&amp;fatalities!Z42&amp;$AC$1&amp;Z$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Z$2</f>
+        <v>4/4/2020,4,4,2020,146,2,ZG,nn,nnn,126837</v>
+      </c>
+      <c r="BC42" s="3" t="str">
+        <f>$AC42&amp;$AC$1&amp;AA42&amp;$AC$1&amp;fatalities!AA42&amp;$AC$1&amp;AA$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AA$2</f>
+        <v>4/4/2020,4,4,2020,2492,41,ZH,nn,nnn,1520968</v>
+      </c>
+      <c r="BD42" s="3" t="str">
+        <f>$AC42&amp;$AC$1&amp;AB42&amp;$AC$1&amp;fatalities!AB42&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2</f>
+        <v>4/4/2020,4,4,2020,20489,666,CH,nn,nnn,8543707</v>
+      </c>
     </row>
     <row r="43" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A43" s="39"/>
@@ -11814,7 +12031,7 @@
       <c r="AB43" s="12"/>
     </row>
     <row r="44" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A44" s="39"/>
+      <c r="A44" s="12"/>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
@@ -11844,7 +12061,6 @@
       <c r="AB44" s="12"/>
     </row>
     <row r="45" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A45" s="39"/>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
@@ -11874,7 +12090,6 @@
       <c r="AB45" s="12"/>
     </row>
     <row r="46" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A46" s="39"/>
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
       <c r="D46" s="12"/>
@@ -11904,7 +12119,6 @@
       <c r="AB46" s="12"/>
     </row>
     <row r="47" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A47" s="39"/>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
       <c r="D47" s="12"/>
@@ -11934,7 +12148,6 @@
       <c r="AB47" s="12"/>
     </row>
     <row r="48" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A48" s="39"/>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
       <c r="D48" s="12"/>
@@ -11963,8 +12176,7 @@
       <c r="AA48" s="12"/>
       <c r="AB48" s="12"/>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A49" s="39"/>
+    <row r="49" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
@@ -11993,8 +12205,7 @@
       <c r="AA49" s="12"/>
       <c r="AB49" s="12"/>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A50" s="39"/>
+    <row r="50" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
       <c r="D50" s="12"/>
@@ -12023,8 +12234,7 @@
       <c r="AA50" s="12"/>
       <c r="AB50" s="12"/>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A51" s="39"/>
+    <row r="51" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>
       <c r="D51" s="12"/>
@@ -12053,8 +12263,7 @@
       <c r="AA51" s="12"/>
       <c r="AB51" s="12"/>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A52" s="39"/>
+    <row r="52" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B52" s="12"/>
       <c r="C52" s="12"/>
       <c r="D52" s="12"/>
@@ -12083,8 +12292,7 @@
       <c r="AA52" s="12"/>
       <c r="AB52" s="12"/>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A53" s="39"/>
+    <row r="53" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B53" s="12"/>
       <c r="C53" s="12"/>
       <c r="D53" s="12"/>
@@ -12113,8 +12321,7 @@
       <c r="AA53" s="12"/>
       <c r="AB53" s="12"/>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A54" s="39"/>
+    <row r="54" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B54" s="12"/>
       <c r="C54" s="12"/>
       <c r="D54" s="12"/>
@@ -12143,8 +12350,7 @@
       <c r="AA54" s="12"/>
       <c r="AB54" s="12"/>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A55" s="39"/>
+    <row r="55" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B55" s="12"/>
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
@@ -12173,8 +12379,7 @@
       <c r="AA55" s="12"/>
       <c r="AB55" s="12"/>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A56" s="39"/>
+    <row r="56" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
       <c r="D56" s="12"/>
@@ -12203,8 +12408,7 @@
       <c r="AA56" s="12"/>
       <c r="AB56" s="12"/>
     </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A57" s="12"/>
+    <row r="57" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B57" s="12"/>
       <c r="C57" s="12"/>
       <c r="D57" s="12"/>
@@ -12233,8 +12437,7 @@
       <c r="AA57" s="12"/>
       <c r="AB57" s="12"/>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A58" s="12"/>
+    <row r="58" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B58" s="12"/>
       <c r="C58" s="12"/>
       <c r="D58" s="12"/>
@@ -12263,8 +12466,7 @@
       <c r="AA58" s="12"/>
       <c r="AB58" s="12"/>
     </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A59" s="12"/>
+    <row r="59" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B59" s="12"/>
       <c r="C59" s="12"/>
       <c r="D59" s="12"/>
@@ -12293,486 +12495,6 @@
       <c r="AA59" s="12"/>
       <c r="AB59" s="12"/>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A60" s="12"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="12"/>
-      <c r="H60" s="12"/>
-      <c r="I60" s="12"/>
-      <c r="J60" s="12"/>
-      <c r="K60" s="12"/>
-      <c r="L60" s="12"/>
-      <c r="M60" s="12"/>
-      <c r="N60" s="12"/>
-      <c r="O60" s="12"/>
-      <c r="P60" s="12"/>
-      <c r="Q60" s="12"/>
-      <c r="R60" s="12"/>
-      <c r="S60" s="12"/>
-      <c r="T60" s="12"/>
-      <c r="U60" s="12"/>
-      <c r="V60" s="44"/>
-      <c r="W60" s="12"/>
-      <c r="X60" s="12"/>
-      <c r="Y60" s="12"/>
-      <c r="Z60" s="12"/>
-      <c r="AA60" s="12"/>
-      <c r="AB60" s="12"/>
-    </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A61" s="12"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="12"/>
-      <c r="G61" s="12"/>
-      <c r="H61" s="12"/>
-      <c r="I61" s="12"/>
-      <c r="J61" s="12"/>
-      <c r="K61" s="12"/>
-      <c r="L61" s="12"/>
-      <c r="M61" s="12"/>
-      <c r="N61" s="12"/>
-      <c r="O61" s="12"/>
-      <c r="P61" s="12"/>
-      <c r="Q61" s="12"/>
-      <c r="R61" s="12"/>
-      <c r="S61" s="12"/>
-      <c r="T61" s="12"/>
-      <c r="U61" s="12"/>
-      <c r="V61" s="44"/>
-      <c r="W61" s="12"/>
-      <c r="X61" s="12"/>
-      <c r="Y61" s="12"/>
-      <c r="Z61" s="12"/>
-      <c r="AA61" s="12"/>
-      <c r="AB61" s="12"/>
-    </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A62" s="12"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="12"/>
-      <c r="G62" s="12"/>
-      <c r="H62" s="12"/>
-      <c r="I62" s="12"/>
-      <c r="J62" s="12"/>
-      <c r="K62" s="12"/>
-      <c r="L62" s="12"/>
-      <c r="M62" s="12"/>
-      <c r="N62" s="12"/>
-      <c r="O62" s="12"/>
-      <c r="P62" s="12"/>
-      <c r="Q62" s="12"/>
-      <c r="R62" s="12"/>
-      <c r="S62" s="12"/>
-      <c r="T62" s="12"/>
-      <c r="U62" s="12"/>
-      <c r="V62" s="44"/>
-      <c r="W62" s="12"/>
-      <c r="X62" s="12"/>
-      <c r="Y62" s="12"/>
-      <c r="Z62" s="12"/>
-      <c r="AA62" s="12"/>
-      <c r="AB62" s="12"/>
-    </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A63" s="12"/>
-      <c r="B63" s="12"/>
-      <c r="C63" s="12"/>
-      <c r="D63" s="12"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="12"/>
-      <c r="G63" s="12"/>
-      <c r="H63" s="12"/>
-      <c r="I63" s="12"/>
-      <c r="J63" s="12"/>
-      <c r="K63" s="12"/>
-      <c r="L63" s="12"/>
-      <c r="M63" s="12"/>
-      <c r="N63" s="12"/>
-      <c r="O63" s="12"/>
-      <c r="P63" s="12"/>
-      <c r="Q63" s="12"/>
-      <c r="R63" s="12"/>
-      <c r="S63" s="12"/>
-      <c r="T63" s="12"/>
-      <c r="U63" s="12"/>
-      <c r="V63" s="44"/>
-      <c r="W63" s="12"/>
-      <c r="X63" s="12"/>
-      <c r="Y63" s="12"/>
-      <c r="Z63" s="12"/>
-      <c r="AA63" s="12"/>
-      <c r="AB63" s="12"/>
-    </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A64" s="12"/>
-      <c r="B64" s="12"/>
-      <c r="C64" s="12"/>
-      <c r="D64" s="12"/>
-      <c r="E64" s="12"/>
-      <c r="F64" s="12"/>
-      <c r="G64" s="12"/>
-      <c r="H64" s="12"/>
-      <c r="I64" s="12"/>
-      <c r="J64" s="12"/>
-      <c r="K64" s="12"/>
-      <c r="L64" s="12"/>
-      <c r="M64" s="12"/>
-      <c r="N64" s="12"/>
-      <c r="O64" s="12"/>
-      <c r="P64" s="12"/>
-      <c r="Q64" s="12"/>
-      <c r="R64" s="12"/>
-      <c r="S64" s="12"/>
-      <c r="T64" s="12"/>
-      <c r="U64" s="12"/>
-      <c r="V64" s="44"/>
-      <c r="W64" s="12"/>
-      <c r="X64" s="12"/>
-      <c r="Y64" s="12"/>
-      <c r="Z64" s="12"/>
-      <c r="AA64" s="12"/>
-      <c r="AB64" s="12"/>
-    </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A65" s="12"/>
-      <c r="B65" s="12"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="12"/>
-      <c r="F65" s="12"/>
-      <c r="G65" s="12"/>
-      <c r="H65" s="12"/>
-      <c r="I65" s="12"/>
-      <c r="J65" s="12"/>
-      <c r="K65" s="12"/>
-      <c r="L65" s="12"/>
-      <c r="M65" s="12"/>
-      <c r="N65" s="12"/>
-      <c r="O65" s="12"/>
-      <c r="P65" s="12"/>
-      <c r="Q65" s="12"/>
-      <c r="R65" s="12"/>
-      <c r="S65" s="12"/>
-      <c r="T65" s="12"/>
-      <c r="U65" s="12"/>
-      <c r="V65" s="44"/>
-      <c r="W65" s="12"/>
-      <c r="X65" s="12"/>
-      <c r="Y65" s="12"/>
-      <c r="Z65" s="12"/>
-      <c r="AA65" s="12"/>
-      <c r="AB65" s="12"/>
-    </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A66" s="12"/>
-      <c r="B66" s="12"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="12"/>
-      <c r="F66" s="12"/>
-      <c r="G66" s="12"/>
-      <c r="H66" s="12"/>
-      <c r="I66" s="12"/>
-      <c r="J66" s="12"/>
-      <c r="K66" s="12"/>
-      <c r="L66" s="12"/>
-      <c r="M66" s="12"/>
-      <c r="N66" s="12"/>
-      <c r="O66" s="12"/>
-      <c r="P66" s="12"/>
-      <c r="Q66" s="12"/>
-      <c r="R66" s="12"/>
-      <c r="S66" s="12"/>
-      <c r="T66" s="12"/>
-      <c r="U66" s="12"/>
-      <c r="V66" s="44"/>
-      <c r="W66" s="12"/>
-      <c r="X66" s="12"/>
-      <c r="Y66" s="12"/>
-      <c r="Z66" s="12"/>
-      <c r="AA66" s="12"/>
-      <c r="AB66" s="12"/>
-    </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A67" s="12"/>
-      <c r="B67" s="12"/>
-      <c r="C67" s="12"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="12"/>
-      <c r="G67" s="12"/>
-      <c r="H67" s="12"/>
-      <c r="I67" s="12"/>
-      <c r="J67" s="12"/>
-      <c r="K67" s="12"/>
-      <c r="L67" s="12"/>
-      <c r="M67" s="12"/>
-      <c r="N67" s="12"/>
-      <c r="O67" s="12"/>
-      <c r="P67" s="12"/>
-      <c r="Q67" s="12"/>
-      <c r="R67" s="12"/>
-      <c r="S67" s="12"/>
-      <c r="T67" s="12"/>
-      <c r="U67" s="12"/>
-      <c r="V67" s="44"/>
-      <c r="W67" s="12"/>
-      <c r="X67" s="12"/>
-      <c r="Y67" s="12"/>
-      <c r="Z67" s="12"/>
-      <c r="AA67" s="12"/>
-      <c r="AB67" s="12"/>
-    </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A68" s="12"/>
-      <c r="B68" s="12"/>
-      <c r="C68" s="12"/>
-      <c r="D68" s="12"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="12"/>
-      <c r="G68" s="12"/>
-      <c r="H68" s="12"/>
-      <c r="I68" s="12"/>
-      <c r="J68" s="12"/>
-      <c r="K68" s="12"/>
-      <c r="L68" s="12"/>
-      <c r="M68" s="12"/>
-      <c r="N68" s="12"/>
-      <c r="O68" s="12"/>
-      <c r="P68" s="12"/>
-      <c r="Q68" s="12"/>
-      <c r="R68" s="12"/>
-      <c r="S68" s="12"/>
-      <c r="T68" s="12"/>
-      <c r="U68" s="12"/>
-      <c r="V68" s="44"/>
-      <c r="W68" s="12"/>
-      <c r="X68" s="12"/>
-      <c r="Y68" s="12"/>
-      <c r="Z68" s="12"/>
-      <c r="AA68" s="12"/>
-      <c r="AB68" s="12"/>
-    </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A69" s="12"/>
-      <c r="B69" s="12"/>
-      <c r="C69" s="12"/>
-      <c r="D69" s="12"/>
-      <c r="E69" s="12"/>
-      <c r="F69" s="12"/>
-      <c r="G69" s="12"/>
-      <c r="H69" s="12"/>
-      <c r="I69" s="12"/>
-      <c r="J69" s="12"/>
-      <c r="K69" s="12"/>
-      <c r="L69" s="12"/>
-      <c r="M69" s="12"/>
-      <c r="N69" s="12"/>
-      <c r="O69" s="12"/>
-      <c r="P69" s="12"/>
-      <c r="Q69" s="12"/>
-      <c r="R69" s="12"/>
-      <c r="S69" s="12"/>
-      <c r="T69" s="12"/>
-      <c r="U69" s="12"/>
-      <c r="V69" s="44"/>
-      <c r="W69" s="12"/>
-      <c r="X69" s="12"/>
-      <c r="Y69" s="12"/>
-      <c r="Z69" s="12"/>
-      <c r="AA69" s="12"/>
-      <c r="AB69" s="12"/>
-    </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A70" s="12"/>
-      <c r="B70" s="12"/>
-      <c r="C70" s="12"/>
-      <c r="D70" s="12"/>
-      <c r="E70" s="12"/>
-      <c r="F70" s="12"/>
-      <c r="G70" s="12"/>
-      <c r="H70" s="12"/>
-      <c r="I70" s="12"/>
-      <c r="J70" s="12"/>
-      <c r="K70" s="12"/>
-      <c r="L70" s="12"/>
-      <c r="M70" s="12"/>
-      <c r="N70" s="12"/>
-      <c r="O70" s="12"/>
-      <c r="P70" s="12"/>
-      <c r="Q70" s="12"/>
-      <c r="R70" s="12"/>
-      <c r="S70" s="12"/>
-      <c r="T70" s="12"/>
-      <c r="U70" s="12"/>
-      <c r="V70" s="44"/>
-      <c r="W70" s="12"/>
-      <c r="X70" s="12"/>
-      <c r="Y70" s="12"/>
-      <c r="Z70" s="12"/>
-      <c r="AA70" s="12"/>
-      <c r="AB70" s="12"/>
-    </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A71" s="12"/>
-      <c r="B71" s="12"/>
-      <c r="C71" s="12"/>
-      <c r="D71" s="12"/>
-      <c r="E71" s="12"/>
-      <c r="F71" s="12"/>
-      <c r="G71" s="12"/>
-      <c r="H71" s="12"/>
-      <c r="I71" s="12"/>
-      <c r="J71" s="12"/>
-      <c r="K71" s="12"/>
-      <c r="L71" s="12"/>
-      <c r="M71" s="12"/>
-      <c r="N71" s="12"/>
-      <c r="O71" s="12"/>
-      <c r="P71" s="12"/>
-      <c r="Q71" s="12"/>
-      <c r="R71" s="12"/>
-      <c r="S71" s="12"/>
-      <c r="T71" s="12"/>
-      <c r="U71" s="12"/>
-      <c r="V71" s="44"/>
-      <c r="W71" s="12"/>
-      <c r="X71" s="12"/>
-      <c r="Y71" s="12"/>
-      <c r="Z71" s="12"/>
-      <c r="AA71" s="12"/>
-      <c r="AB71" s="12"/>
-    </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A72" s="12"/>
-      <c r="B72" s="12"/>
-      <c r="C72" s="12"/>
-      <c r="D72" s="12"/>
-      <c r="E72" s="12"/>
-      <c r="F72" s="12"/>
-      <c r="G72" s="12"/>
-      <c r="H72" s="12"/>
-      <c r="I72" s="12"/>
-      <c r="J72" s="12"/>
-      <c r="K72" s="12"/>
-      <c r="L72" s="12"/>
-      <c r="M72" s="12"/>
-      <c r="N72" s="12"/>
-      <c r="O72" s="12"/>
-      <c r="P72" s="12"/>
-      <c r="Q72" s="12"/>
-      <c r="R72" s="12"/>
-      <c r="S72" s="12"/>
-      <c r="T72" s="12"/>
-      <c r="U72" s="12"/>
-      <c r="V72" s="44"/>
-      <c r="W72" s="12"/>
-      <c r="X72" s="12"/>
-      <c r="Y72" s="12"/>
-      <c r="Z72" s="12"/>
-      <c r="AA72" s="12"/>
-      <c r="AB72" s="12"/>
-    </row>
-    <row r="73" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A73" s="12"/>
-      <c r="B73" s="12"/>
-      <c r="C73" s="12"/>
-      <c r="D73" s="12"/>
-      <c r="E73" s="12"/>
-      <c r="F73" s="12"/>
-      <c r="G73" s="12"/>
-      <c r="H73" s="12"/>
-      <c r="I73" s="12"/>
-      <c r="J73" s="12"/>
-      <c r="K73" s="12"/>
-      <c r="L73" s="12"/>
-      <c r="M73" s="12"/>
-      <c r="N73" s="12"/>
-      <c r="O73" s="12"/>
-      <c r="P73" s="12"/>
-      <c r="Q73" s="12"/>
-      <c r="R73" s="12"/>
-      <c r="S73" s="12"/>
-      <c r="T73" s="12"/>
-      <c r="U73" s="12"/>
-      <c r="V73" s="44"/>
-      <c r="W73" s="12"/>
-      <c r="X73" s="12"/>
-      <c r="Y73" s="12"/>
-      <c r="Z73" s="12"/>
-      <c r="AA73" s="12"/>
-      <c r="AB73" s="12"/>
-    </row>
-    <row r="74" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A74" s="12"/>
-      <c r="B74" s="12"/>
-      <c r="C74" s="12"/>
-      <c r="D74" s="12"/>
-      <c r="E74" s="12"/>
-      <c r="F74" s="12"/>
-      <c r="G74" s="12"/>
-      <c r="H74" s="12"/>
-      <c r="I74" s="12"/>
-      <c r="J74" s="12"/>
-      <c r="K74" s="12"/>
-      <c r="L74" s="12"/>
-      <c r="M74" s="12"/>
-      <c r="N74" s="12"/>
-      <c r="O74" s="12"/>
-      <c r="P74" s="12"/>
-      <c r="Q74" s="12"/>
-      <c r="R74" s="12"/>
-      <c r="S74" s="12"/>
-      <c r="T74" s="12"/>
-      <c r="U74" s="12"/>
-      <c r="V74" s="44"/>
-      <c r="W74" s="12"/>
-      <c r="X74" s="12"/>
-      <c r="Y74" s="12"/>
-      <c r="Z74" s="12"/>
-      <c r="AA74" s="12"/>
-      <c r="AB74" s="12"/>
-    </row>
-    <row r="75" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A75" s="12"/>
-      <c r="B75" s="12"/>
-      <c r="C75" s="12"/>
-      <c r="D75" s="12"/>
-      <c r="E75" s="12"/>
-      <c r="F75" s="12"/>
-      <c r="G75" s="12"/>
-      <c r="H75" s="12"/>
-      <c r="I75" s="12"/>
-      <c r="J75" s="12"/>
-      <c r="K75" s="12"/>
-      <c r="L75" s="12"/>
-      <c r="M75" s="12"/>
-      <c r="N75" s="12"/>
-      <c r="O75" s="12"/>
-      <c r="P75" s="12"/>
-      <c r="Q75" s="12"/>
-      <c r="R75" s="12"/>
-      <c r="S75" s="12"/>
-      <c r="T75" s="12"/>
-      <c r="U75" s="12"/>
-      <c r="V75" s="44"/>
-      <c r="W75" s="12"/>
-      <c r="X75" s="12"/>
-      <c r="Y75" s="12"/>
-      <c r="Z75" s="12"/>
-      <c r="AA75" s="12"/>
-      <c r="AB75" s="12"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12781,10 +12503,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC55"/>
+  <dimension ref="A1:AC58"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="V41" sqref="V41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12806,7 +12528,7 @@
     <col min="21" max="21" width="2.75" style="18" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="3.875" style="48" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="3" style="18" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="3.125" style="18" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.25" style="18" customWidth="1"/>
     <col min="25" max="25" width="3.375" style="18" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="3.5" style="18" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="3.625" style="18" bestFit="1" customWidth="1"/>
@@ -14846,7 +14568,9 @@
       <c r="H41" s="23">
         <v>31</v>
       </c>
-      <c r="I41" s="23"/>
+      <c r="I41" s="23">
+        <v>78</v>
+      </c>
       <c r="J41" s="23">
         <v>2</v>
       </c>
@@ -14863,7 +14587,9 @@
       <c r="Q41" s="23">
         <v>8</v>
       </c>
-      <c r="R41" s="23"/>
+      <c r="R41" s="23">
+        <v>1</v>
+      </c>
       <c r="S41" s="23">
         <v>3</v>
       </c>
@@ -14879,7 +14605,9 @@
       <c r="W41" s="23">
         <v>1</v>
       </c>
-      <c r="X41" s="23"/>
+      <c r="X41" s="23">
+        <v>123</v>
+      </c>
       <c r="Y41" s="23">
         <v>45</v>
       </c>
@@ -14890,429 +14618,556 @@
         <v>38</v>
       </c>
       <c r="AB41" s="23">
-        <v>607</v>
+        <v>629</v>
       </c>
       <c r="AC41"/>
     </row>
     <row r="42" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="22"/>
+      <c r="A42" s="22">
+        <v>43925</v>
+      </c>
       <c r="B42" s="23"/>
       <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="23"/>
+      <c r="D42" s="23">
+        <v>3</v>
+      </c>
+      <c r="E42" s="23">
+        <v>28</v>
+      </c>
+      <c r="F42" s="23">
+        <v>19</v>
+      </c>
+      <c r="G42" s="23">
+        <v>24</v>
+      </c>
+      <c r="H42" s="23">
+        <v>37</v>
+      </c>
       <c r="I42" s="23"/>
       <c r="J42" s="23"/>
       <c r="K42" s="23"/>
       <c r="L42" s="23"/>
-      <c r="M42" s="23"/>
+      <c r="M42" s="23">
+        <v>7</v>
+      </c>
       <c r="N42" s="23"/>
-      <c r="O42" s="23"/>
+      <c r="O42" s="23">
+        <v>0</v>
+      </c>
       <c r="P42" s="23"/>
-      <c r="Q42" s="23"/>
+      <c r="Q42" s="23">
+        <v>9</v>
+      </c>
       <c r="R42" s="23"/>
-      <c r="S42" s="23"/>
-      <c r="T42" s="23"/>
-      <c r="U42" s="23"/>
-      <c r="V42" s="47"/>
-      <c r="W42" s="23"/>
+      <c r="S42" s="23">
+        <v>3</v>
+      </c>
+      <c r="T42" s="23">
+        <v>5</v>
+      </c>
+      <c r="U42" s="23">
+        <v>5</v>
+      </c>
+      <c r="V42" s="47">
+        <v>165</v>
+      </c>
+      <c r="W42" s="23">
+        <v>1</v>
+      </c>
       <c r="X42" s="23"/>
-      <c r="Y42" s="23"/>
-      <c r="Z42" s="23"/>
-      <c r="AA42" s="23"/>
-      <c r="AB42" s="23"/>
+      <c r="Y42" s="23">
+        <v>51</v>
+      </c>
+      <c r="Z42" s="23">
+        <v>2</v>
+      </c>
+      <c r="AA42" s="23">
+        <v>41</v>
+      </c>
+      <c r="AB42" s="23">
+        <v>666</v>
+      </c>
     </row>
     <row r="43" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="22"/>
-      <c r="B43" s="23"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="23"/>
-      <c r="K43" s="23"/>
-      <c r="L43" s="23"/>
-      <c r="M43" s="23"/>
-      <c r="N43" s="23"/>
-      <c r="O43" s="23"/>
-      <c r="P43" s="23"/>
-      <c r="Q43" s="23"/>
-      <c r="R43" s="23"/>
-      <c r="S43" s="23"/>
-      <c r="T43" s="23"/>
-      <c r="U43" s="23"/>
-      <c r="V43" s="47"/>
-      <c r="W43" s="23"/>
-      <c r="X43" s="23"/>
-      <c r="Y43" s="23"/>
-      <c r="Z43" s="23"/>
-      <c r="AA43" s="23"/>
-      <c r="AB43" s="23"/>
+      <c r="A43" s="50"/>
+      <c r="B43" s="51"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="51"/>
+      <c r="E43" s="51"/>
+      <c r="F43" s="51"/>
+      <c r="G43" s="51"/>
+      <c r="H43" s="51"/>
+      <c r="I43" s="51"/>
+      <c r="J43" s="51"/>
+      <c r="K43" s="51"/>
+      <c r="L43" s="51"/>
+      <c r="M43" s="51"/>
+      <c r="N43" s="51"/>
+      <c r="O43" s="51"/>
+      <c r="P43" s="51"/>
+      <c r="Q43" s="51"/>
+      <c r="R43" s="51"/>
+      <c r="S43" s="51"/>
+      <c r="T43" s="51"/>
+      <c r="U43" s="51"/>
+      <c r="V43" s="51"/>
+      <c r="W43" s="51"/>
+      <c r="X43" s="51"/>
+      <c r="Y43" s="51"/>
+      <c r="Z43" s="51"/>
+      <c r="AA43" s="51"/>
+      <c r="AB43" s="51"/>
+      <c r="AC43" s="10"/>
     </row>
     <row r="44" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="22"/>
-      <c r="B44" s="23"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="23"/>
-      <c r="I44" s="23"/>
-      <c r="J44" s="23"/>
-      <c r="K44" s="23"/>
-      <c r="L44" s="23"/>
-      <c r="M44" s="23"/>
-      <c r="N44" s="23"/>
-      <c r="O44" s="23"/>
-      <c r="P44" s="23"/>
-      <c r="Q44" s="23"/>
-      <c r="R44" s="23"/>
-      <c r="S44" s="23"/>
-      <c r="T44" s="23"/>
-      <c r="U44" s="23"/>
-      <c r="V44" s="47"/>
-      <c r="W44" s="23"/>
-      <c r="X44" s="23"/>
-      <c r="Y44" s="23"/>
-      <c r="Z44" s="23"/>
-      <c r="AA44" s="23"/>
-      <c r="AB44" s="23"/>
+      <c r="A44" s="52"/>
+      <c r="B44" s="53"/>
+      <c r="C44" s="53"/>
+      <c r="D44" s="53"/>
+      <c r="E44" s="53"/>
+      <c r="F44" s="53"/>
+      <c r="G44" s="53"/>
+      <c r="H44" s="53"/>
+      <c r="I44" s="53"/>
+      <c r="J44" s="53"/>
+      <c r="K44" s="53"/>
+      <c r="L44" s="53"/>
+      <c r="M44" s="53"/>
+      <c r="N44" s="53"/>
+      <c r="O44" s="53"/>
+      <c r="P44" s="53"/>
+      <c r="Q44" s="53"/>
+      <c r="R44" s="53"/>
+      <c r="S44" s="53"/>
+      <c r="T44" s="53"/>
+      <c r="U44" s="53"/>
+      <c r="V44" s="53"/>
+      <c r="W44" s="53"/>
+      <c r="X44" s="53"/>
+      <c r="Y44" s="53"/>
+      <c r="Z44" s="53"/>
+      <c r="AA44" s="53"/>
+      <c r="AB44" s="53"/>
     </row>
     <row r="45" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="22"/>
-      <c r="B45" s="23"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="23"/>
-      <c r="I45" s="23"/>
-      <c r="J45" s="23"/>
-      <c r="K45" s="23"/>
-      <c r="L45" s="23"/>
-      <c r="M45" s="23"/>
-      <c r="N45" s="23"/>
-      <c r="O45" s="23"/>
-      <c r="P45" s="23"/>
-      <c r="Q45" s="23"/>
-      <c r="R45" s="23"/>
-      <c r="S45" s="23"/>
-      <c r="T45" s="23"/>
-      <c r="U45" s="23"/>
-      <c r="V45" s="47"/>
-      <c r="W45" s="23"/>
-      <c r="X45" s="23"/>
-      <c r="Y45" s="23"/>
-      <c r="Z45" s="23"/>
-      <c r="AA45" s="23"/>
-      <c r="AB45" s="23"/>
+      <c r="A45" s="50"/>
+      <c r="B45" s="51"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="51"/>
+      <c r="E45" s="51"/>
+      <c r="F45" s="51"/>
+      <c r="G45" s="51"/>
+      <c r="H45" s="51"/>
+      <c r="I45" s="51"/>
+      <c r="J45" s="51"/>
+      <c r="K45" s="51"/>
+      <c r="L45" s="51"/>
+      <c r="M45" s="51"/>
+      <c r="N45" s="51"/>
+      <c r="O45" s="51"/>
+      <c r="P45" s="51"/>
+      <c r="Q45" s="51"/>
+      <c r="R45" s="51"/>
+      <c r="S45" s="51"/>
+      <c r="T45" s="51"/>
+      <c r="U45" s="51"/>
+      <c r="V45" s="51"/>
+      <c r="W45" s="51"/>
+      <c r="X45" s="51"/>
+      <c r="Y45" s="51"/>
+      <c r="Z45" s="51"/>
+      <c r="AA45" s="51"/>
+      <c r="AB45" s="51"/>
     </row>
     <row r="46" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="22"/>
-      <c r="B46" s="23"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="23"/>
-      <c r="I46" s="23"/>
-      <c r="J46" s="23"/>
-      <c r="K46" s="23"/>
-      <c r="L46" s="23"/>
-      <c r="M46" s="23"/>
-      <c r="N46" s="23"/>
-      <c r="O46" s="23"/>
-      <c r="P46" s="23"/>
-      <c r="Q46" s="23"/>
-      <c r="R46" s="23"/>
-      <c r="S46" s="23"/>
-      <c r="T46" s="23"/>
-      <c r="U46" s="23"/>
-      <c r="V46" s="47"/>
-      <c r="W46" s="23"/>
-      <c r="X46" s="23"/>
-      <c r="Y46" s="23"/>
-      <c r="Z46" s="23"/>
-      <c r="AA46" s="23"/>
-      <c r="AB46" s="23"/>
+      <c r="A46" s="52"/>
+      <c r="B46" s="53"/>
+      <c r="C46" s="53"/>
+      <c r="D46" s="53"/>
+      <c r="E46" s="53"/>
+      <c r="F46" s="53"/>
+      <c r="G46" s="53"/>
+      <c r="H46" s="53"/>
+      <c r="I46" s="53"/>
+      <c r="J46" s="53"/>
+      <c r="K46" s="53"/>
+      <c r="L46" s="53"/>
+      <c r="M46" s="53"/>
+      <c r="N46" s="53"/>
+      <c r="O46" s="53"/>
+      <c r="P46" s="53"/>
+      <c r="Q46" s="53"/>
+      <c r="R46" s="53"/>
+      <c r="S46" s="53"/>
+      <c r="T46" s="53"/>
+      <c r="U46" s="53"/>
+      <c r="V46" s="53"/>
+      <c r="W46" s="53"/>
+      <c r="X46" s="53"/>
+      <c r="Y46" s="53"/>
+      <c r="Z46" s="53"/>
+      <c r="AA46" s="53"/>
+      <c r="AB46" s="53"/>
     </row>
     <row r="47" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="22"/>
-      <c r="B47" s="23"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="23"/>
-      <c r="J47" s="23"/>
-      <c r="K47" s="23"/>
-      <c r="L47" s="23"/>
-      <c r="M47" s="23"/>
-      <c r="N47" s="23"/>
-      <c r="O47" s="23"/>
-      <c r="P47" s="23"/>
-      <c r="Q47" s="23"/>
-      <c r="R47" s="23"/>
-      <c r="S47" s="23"/>
-      <c r="T47" s="23"/>
-      <c r="U47" s="23"/>
-      <c r="V47" s="47"/>
-      <c r="W47" s="23"/>
-      <c r="X47" s="23"/>
-      <c r="Y47" s="23"/>
-      <c r="Z47" s="23"/>
-      <c r="AA47" s="23"/>
-      <c r="AB47" s="23"/>
+      <c r="A47" s="50"/>
+      <c r="B47" s="51"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="51"/>
+      <c r="E47" s="51"/>
+      <c r="F47" s="51"/>
+      <c r="G47" s="51"/>
+      <c r="H47" s="51"/>
+      <c r="I47" s="51"/>
+      <c r="J47" s="51"/>
+      <c r="K47" s="51"/>
+      <c r="L47" s="51"/>
+      <c r="M47" s="51"/>
+      <c r="N47" s="51"/>
+      <c r="O47" s="51"/>
+      <c r="P47" s="51"/>
+      <c r="Q47" s="51"/>
+      <c r="R47" s="51"/>
+      <c r="S47" s="51"/>
+      <c r="T47" s="51"/>
+      <c r="U47" s="51"/>
+      <c r="V47" s="51"/>
+      <c r="W47" s="51"/>
+      <c r="X47" s="51"/>
+      <c r="Y47" s="51"/>
+      <c r="Z47" s="51"/>
+      <c r="AA47" s="51"/>
+      <c r="AB47" s="51"/>
     </row>
     <row r="48" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="22"/>
-      <c r="B48" s="23"/>
-      <c r="C48" s="23"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="23"/>
-      <c r="I48" s="23"/>
-      <c r="J48" s="23"/>
-      <c r="K48" s="23"/>
-      <c r="L48" s="23"/>
-      <c r="M48" s="23"/>
-      <c r="N48" s="23"/>
-      <c r="O48" s="23"/>
-      <c r="P48" s="23"/>
-      <c r="Q48" s="23"/>
-      <c r="R48" s="23"/>
-      <c r="S48" s="23"/>
-      <c r="T48" s="23"/>
-      <c r="U48" s="23"/>
-      <c r="V48" s="47"/>
-      <c r="W48" s="23"/>
-      <c r="X48" s="23"/>
-      <c r="Y48" s="23"/>
-      <c r="Z48" s="23"/>
-      <c r="AA48" s="23"/>
-      <c r="AB48" s="23"/>
+      <c r="A48" s="52"/>
+      <c r="B48" s="53"/>
+      <c r="C48" s="53"/>
+      <c r="D48" s="53"/>
+      <c r="E48" s="53"/>
+      <c r="F48" s="53"/>
+      <c r="G48" s="53"/>
+      <c r="H48" s="53"/>
+      <c r="I48" s="53"/>
+      <c r="J48" s="53"/>
+      <c r="K48" s="53"/>
+      <c r="L48" s="53"/>
+      <c r="M48" s="53"/>
+      <c r="N48" s="53"/>
+      <c r="O48" s="53"/>
+      <c r="P48" s="53"/>
+      <c r="Q48" s="53"/>
+      <c r="R48" s="53"/>
+      <c r="S48" s="53"/>
+      <c r="T48" s="53"/>
+      <c r="U48" s="53"/>
+      <c r="V48" s="53"/>
+      <c r="W48" s="53"/>
+      <c r="X48" s="53"/>
+      <c r="Y48" s="53"/>
+      <c r="Z48" s="53"/>
+      <c r="AA48" s="53"/>
+      <c r="AB48" s="53"/>
     </row>
     <row r="49" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="22"/>
-      <c r="B49" s="23"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="23"/>
-      <c r="H49" s="23"/>
-      <c r="I49" s="23"/>
-      <c r="J49" s="23"/>
-      <c r="K49" s="23"/>
-      <c r="L49" s="23"/>
-      <c r="M49" s="23"/>
-      <c r="N49" s="23"/>
-      <c r="O49" s="23"/>
-      <c r="P49" s="23"/>
-      <c r="Q49" s="23"/>
-      <c r="R49" s="23"/>
-      <c r="S49" s="23"/>
-      <c r="T49" s="23"/>
-      <c r="U49" s="23"/>
-      <c r="V49" s="47"/>
-      <c r="W49" s="23"/>
-      <c r="X49" s="23"/>
-      <c r="Y49" s="23"/>
-      <c r="Z49" s="23"/>
-      <c r="AA49" s="23"/>
-      <c r="AB49" s="23"/>
+      <c r="A49" s="50"/>
+      <c r="B49" s="51"/>
+      <c r="C49" s="51"/>
+      <c r="D49" s="51"/>
+      <c r="E49" s="51"/>
+      <c r="F49" s="51"/>
+      <c r="G49" s="51"/>
+      <c r="H49" s="51"/>
+      <c r="I49" s="51"/>
+      <c r="J49" s="51"/>
+      <c r="K49" s="51"/>
+      <c r="L49" s="51"/>
+      <c r="M49" s="51"/>
+      <c r="N49" s="51"/>
+      <c r="O49" s="51"/>
+      <c r="P49" s="51"/>
+      <c r="Q49" s="51"/>
+      <c r="R49" s="51"/>
+      <c r="S49" s="51"/>
+      <c r="T49" s="51"/>
+      <c r="U49" s="51"/>
+      <c r="V49" s="51"/>
+      <c r="W49" s="51"/>
+      <c r="X49" s="51"/>
+      <c r="Y49" s="51"/>
+      <c r="Z49" s="51"/>
+      <c r="AA49" s="51"/>
+      <c r="AB49" s="51"/>
     </row>
     <row r="50" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="22"/>
-      <c r="B50" s="23"/>
-      <c r="C50" s="23"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="23"/>
-      <c r="I50" s="23"/>
-      <c r="J50" s="23"/>
-      <c r="K50" s="23"/>
-      <c r="L50" s="23"/>
-      <c r="M50" s="23"/>
-      <c r="N50" s="23"/>
-      <c r="O50" s="23"/>
-      <c r="P50" s="23"/>
-      <c r="Q50" s="23"/>
-      <c r="R50" s="23"/>
-      <c r="S50" s="23"/>
-      <c r="T50" s="23"/>
-      <c r="U50" s="23"/>
-      <c r="V50" s="47"/>
-      <c r="W50" s="23"/>
-      <c r="X50" s="23"/>
-      <c r="Y50" s="23"/>
-      <c r="Z50" s="23"/>
-      <c r="AA50" s="23"/>
-      <c r="AB50" s="23"/>
+      <c r="A50" s="52"/>
+      <c r="B50" s="53"/>
+      <c r="C50" s="53"/>
+      <c r="D50" s="53"/>
+      <c r="E50" s="53"/>
+      <c r="F50" s="53"/>
+      <c r="G50" s="53"/>
+      <c r="H50" s="53"/>
+      <c r="I50" s="53"/>
+      <c r="J50" s="53"/>
+      <c r="K50" s="53"/>
+      <c r="L50" s="53"/>
+      <c r="M50" s="53"/>
+      <c r="N50" s="53"/>
+      <c r="O50" s="53"/>
+      <c r="P50" s="53"/>
+      <c r="Q50" s="53"/>
+      <c r="R50" s="53"/>
+      <c r="S50" s="53"/>
+      <c r="T50" s="53"/>
+      <c r="U50" s="53"/>
+      <c r="V50" s="53"/>
+      <c r="W50" s="53"/>
+      <c r="X50" s="53"/>
+      <c r="Y50" s="53"/>
+      <c r="Z50" s="53"/>
+      <c r="AA50" s="53"/>
+      <c r="AB50" s="53"/>
     </row>
     <row r="51" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="22"/>
-      <c r="B51" s="23"/>
-      <c r="C51" s="23"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="23"/>
-      <c r="I51" s="23"/>
-      <c r="J51" s="23"/>
-      <c r="K51" s="23"/>
-      <c r="L51" s="23"/>
-      <c r="M51" s="23"/>
-      <c r="N51" s="23"/>
-      <c r="O51" s="23"/>
-      <c r="P51" s="23"/>
-      <c r="Q51" s="23"/>
-      <c r="R51" s="23"/>
-      <c r="S51" s="23"/>
-      <c r="T51" s="23"/>
-      <c r="U51" s="23"/>
-      <c r="V51" s="47"/>
-      <c r="W51" s="23"/>
-      <c r="X51" s="23"/>
-      <c r="Y51" s="23"/>
-      <c r="Z51" s="23"/>
-      <c r="AA51" s="23"/>
-      <c r="AB51" s="23"/>
+      <c r="A51" s="50"/>
+      <c r="B51" s="51"/>
+      <c r="C51" s="51"/>
+      <c r="D51" s="51"/>
+      <c r="E51" s="51"/>
+      <c r="F51" s="51"/>
+      <c r="G51" s="51"/>
+      <c r="H51" s="51"/>
+      <c r="I51" s="51"/>
+      <c r="J51" s="51"/>
+      <c r="K51" s="51"/>
+      <c r="L51" s="51"/>
+      <c r="M51" s="51"/>
+      <c r="N51" s="51"/>
+      <c r="O51" s="51"/>
+      <c r="P51" s="51"/>
+      <c r="Q51" s="51"/>
+      <c r="R51" s="51"/>
+      <c r="S51" s="51"/>
+      <c r="T51" s="51"/>
+      <c r="U51" s="51"/>
+      <c r="V51" s="51"/>
+      <c r="W51" s="51"/>
+      <c r="X51" s="51"/>
+      <c r="Y51" s="51"/>
+      <c r="Z51" s="51"/>
+      <c r="AA51" s="51"/>
+      <c r="AB51" s="51"/>
     </row>
     <row r="52" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="22"/>
-      <c r="B52" s="23"/>
-      <c r="C52" s="23"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="23"/>
-      <c r="F52" s="23"/>
-      <c r="G52" s="23"/>
-      <c r="H52" s="23"/>
-      <c r="I52" s="23"/>
-      <c r="J52" s="23"/>
-      <c r="K52" s="23"/>
-      <c r="L52" s="23"/>
-      <c r="M52" s="23"/>
-      <c r="N52" s="23"/>
-      <c r="O52" s="23"/>
-      <c r="P52" s="23"/>
-      <c r="Q52" s="23"/>
-      <c r="R52" s="23"/>
-      <c r="S52" s="23"/>
-      <c r="T52" s="23"/>
-      <c r="U52" s="23"/>
-      <c r="V52" s="47"/>
-      <c r="W52" s="23"/>
-      <c r="X52" s="23"/>
-      <c r="Y52" s="23"/>
-      <c r="Z52" s="23"/>
-      <c r="AA52" s="23"/>
-      <c r="AB52" s="23"/>
+      <c r="A52" s="52"/>
+      <c r="B52" s="53"/>
+      <c r="C52" s="53"/>
+      <c r="D52" s="53"/>
+      <c r="E52" s="53"/>
+      <c r="F52" s="53"/>
+      <c r="G52" s="53"/>
+      <c r="H52" s="53"/>
+      <c r="I52" s="53"/>
+      <c r="J52" s="53"/>
+      <c r="K52" s="53"/>
+      <c r="L52" s="53"/>
+      <c r="M52" s="53"/>
+      <c r="N52" s="53"/>
+      <c r="O52" s="53"/>
+      <c r="P52" s="53"/>
+      <c r="Q52" s="53"/>
+      <c r="R52" s="53"/>
+      <c r="S52" s="53"/>
+      <c r="T52" s="53"/>
+      <c r="U52" s="53"/>
+      <c r="V52" s="53"/>
+      <c r="W52" s="53"/>
+      <c r="X52" s="53"/>
+      <c r="Y52" s="53"/>
+      <c r="Z52" s="53"/>
+      <c r="AA52" s="53"/>
+      <c r="AB52" s="53"/>
     </row>
     <row r="53" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="22"/>
-      <c r="B53" s="23"/>
-      <c r="C53" s="23"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="23"/>
-      <c r="F53" s="23"/>
-      <c r="G53" s="23"/>
-      <c r="H53" s="23"/>
-      <c r="I53" s="23"/>
-      <c r="J53" s="23"/>
-      <c r="K53" s="23"/>
-      <c r="L53" s="23"/>
-      <c r="M53" s="23"/>
-      <c r="N53" s="23"/>
-      <c r="O53" s="23"/>
-      <c r="P53" s="23"/>
-      <c r="Q53" s="23"/>
-      <c r="R53" s="23"/>
-      <c r="S53" s="23"/>
-      <c r="T53" s="23"/>
-      <c r="U53" s="23"/>
-      <c r="V53" s="47"/>
-      <c r="W53" s="23"/>
-      <c r="X53" s="23"/>
-      <c r="Y53" s="23"/>
-      <c r="Z53" s="23"/>
-      <c r="AA53" s="23"/>
-      <c r="AB53" s="23"/>
+      <c r="A53" s="50"/>
+      <c r="B53" s="51"/>
+      <c r="C53" s="51"/>
+      <c r="D53" s="51"/>
+      <c r="E53" s="51"/>
+      <c r="F53" s="51"/>
+      <c r="G53" s="51"/>
+      <c r="H53" s="51"/>
+      <c r="I53" s="51"/>
+      <c r="J53" s="51"/>
+      <c r="K53" s="51"/>
+      <c r="L53" s="51"/>
+      <c r="M53" s="51"/>
+      <c r="N53" s="51"/>
+      <c r="O53" s="51"/>
+      <c r="P53" s="51"/>
+      <c r="Q53" s="51"/>
+      <c r="R53" s="51"/>
+      <c r="S53" s="51"/>
+      <c r="T53" s="51"/>
+      <c r="U53" s="51"/>
+      <c r="V53" s="51"/>
+      <c r="W53" s="51"/>
+      <c r="X53" s="51"/>
+      <c r="Y53" s="51"/>
+      <c r="Z53" s="51"/>
+      <c r="AA53" s="51"/>
+      <c r="AB53" s="51"/>
     </row>
     <row r="54" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="22"/>
-      <c r="B54" s="23"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="23"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="23"/>
-      <c r="G54" s="23"/>
-      <c r="H54" s="23"/>
-      <c r="I54" s="23"/>
-      <c r="J54" s="23"/>
-      <c r="K54" s="23"/>
-      <c r="L54" s="23"/>
-      <c r="M54" s="23"/>
-      <c r="N54" s="23"/>
-      <c r="O54" s="23"/>
-      <c r="P54" s="23"/>
-      <c r="Q54" s="23"/>
-      <c r="R54" s="23"/>
-      <c r="S54" s="23"/>
-      <c r="T54" s="23"/>
-      <c r="U54" s="23"/>
-      <c r="V54" s="47"/>
-      <c r="W54" s="23"/>
-      <c r="X54" s="23"/>
-      <c r="Y54" s="23"/>
-      <c r="Z54" s="23"/>
-      <c r="AA54" s="23"/>
-      <c r="AB54" s="23"/>
+      <c r="A54" s="52"/>
+      <c r="B54" s="53"/>
+      <c r="C54" s="53"/>
+      <c r="D54" s="53"/>
+      <c r="E54" s="53"/>
+      <c r="F54" s="53"/>
+      <c r="G54" s="53"/>
+      <c r="H54" s="53"/>
+      <c r="I54" s="53"/>
+      <c r="J54" s="53"/>
+      <c r="K54" s="53"/>
+      <c r="L54" s="53"/>
+      <c r="M54" s="53"/>
+      <c r="N54" s="53"/>
+      <c r="O54" s="53"/>
+      <c r="P54" s="53"/>
+      <c r="Q54" s="53"/>
+      <c r="R54" s="53"/>
+      <c r="S54" s="53"/>
+      <c r="T54" s="53"/>
+      <c r="U54" s="53"/>
+      <c r="V54" s="53"/>
+      <c r="W54" s="53"/>
+      <c r="X54" s="53"/>
+      <c r="Y54" s="53"/>
+      <c r="Z54" s="53"/>
+      <c r="AA54" s="53"/>
+      <c r="AB54" s="53"/>
     </row>
     <row r="55" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="22"/>
-      <c r="B55" s="23"/>
-      <c r="C55" s="23"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="23"/>
-      <c r="F55" s="23"/>
-      <c r="G55" s="23"/>
-      <c r="H55" s="23"/>
-      <c r="I55" s="23"/>
-      <c r="J55" s="23"/>
-      <c r="K55" s="23"/>
-      <c r="L55" s="23"/>
-      <c r="M55" s="23"/>
-      <c r="N55" s="23"/>
-      <c r="O55" s="23"/>
-      <c r="P55" s="23"/>
-      <c r="Q55" s="23"/>
-      <c r="R55" s="23"/>
-      <c r="S55" s="23"/>
-      <c r="T55" s="23"/>
-      <c r="U55" s="23"/>
-      <c r="V55" s="47"/>
-      <c r="W55" s="23"/>
-      <c r="X55" s="23"/>
-      <c r="Y55" s="23"/>
-      <c r="Z55" s="23"/>
-      <c r="AA55" s="23"/>
-      <c r="AB55" s="23"/>
+      <c r="A55" s="50"/>
+      <c r="B55" s="51"/>
+      <c r="C55" s="51"/>
+      <c r="D55" s="51"/>
+      <c r="E55" s="51"/>
+      <c r="F55" s="51"/>
+      <c r="G55" s="51"/>
+      <c r="H55" s="51"/>
+      <c r="I55" s="51"/>
+      <c r="J55" s="51"/>
+      <c r="K55" s="51"/>
+      <c r="L55" s="51"/>
+      <c r="M55" s="51"/>
+      <c r="N55" s="51"/>
+      <c r="O55" s="51"/>
+      <c r="P55" s="51"/>
+      <c r="Q55" s="51"/>
+      <c r="R55" s="51"/>
+      <c r="S55" s="51"/>
+      <c r="T55" s="51"/>
+      <c r="U55" s="51"/>
+      <c r="V55" s="51"/>
+      <c r="W55" s="51"/>
+      <c r="X55" s="51"/>
+      <c r="Y55" s="51"/>
+      <c r="Z55" s="51"/>
+      <c r="AA55" s="51"/>
+      <c r="AB55" s="51"/>
+    </row>
+    <row r="56" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="52"/>
+      <c r="B56" s="53"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="53"/>
+      <c r="E56" s="53"/>
+      <c r="F56" s="53"/>
+      <c r="G56" s="53"/>
+      <c r="H56" s="53"/>
+      <c r="I56" s="53"/>
+      <c r="J56" s="53"/>
+      <c r="K56" s="53"/>
+      <c r="L56" s="53"/>
+      <c r="M56" s="53"/>
+      <c r="N56" s="53"/>
+      <c r="O56" s="53"/>
+      <c r="P56" s="53"/>
+      <c r="Q56" s="53"/>
+      <c r="R56" s="53"/>
+      <c r="S56" s="53"/>
+      <c r="T56" s="53"/>
+      <c r="U56" s="53"/>
+      <c r="V56" s="53"/>
+      <c r="W56" s="53"/>
+      <c r="X56" s="53"/>
+      <c r="Y56" s="53"/>
+      <c r="Z56" s="53"/>
+      <c r="AA56" s="53"/>
+      <c r="AB56" s="53"/>
+    </row>
+    <row r="57" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="50"/>
+      <c r="B57" s="51"/>
+      <c r="C57" s="51"/>
+      <c r="D57" s="51"/>
+      <c r="E57" s="51"/>
+      <c r="F57" s="51"/>
+      <c r="G57" s="51"/>
+      <c r="H57" s="51"/>
+      <c r="I57" s="51"/>
+      <c r="J57" s="51"/>
+      <c r="K57" s="51"/>
+      <c r="L57" s="51"/>
+      <c r="M57" s="51"/>
+      <c r="N57" s="51"/>
+      <c r="O57" s="51"/>
+      <c r="P57" s="51"/>
+      <c r="Q57" s="51"/>
+      <c r="R57" s="51"/>
+      <c r="S57" s="51"/>
+      <c r="T57" s="51"/>
+      <c r="U57" s="51"/>
+      <c r="V57" s="51"/>
+      <c r="W57" s="51"/>
+      <c r="X57" s="51"/>
+      <c r="Y57" s="51"/>
+      <c r="Z57" s="51"/>
+      <c r="AA57" s="51"/>
+      <c r="AB57" s="51"/>
+    </row>
+    <row r="58" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="52"/>
+      <c r="B58" s="53"/>
+      <c r="C58" s="53"/>
+      <c r="D58" s="53"/>
+      <c r="E58" s="53"/>
+      <c r="F58" s="53"/>
+      <c r="G58" s="53"/>
+      <c r="H58" s="53"/>
+      <c r="I58" s="53"/>
+      <c r="J58" s="53"/>
+      <c r="K58" s="53"/>
+      <c r="L58" s="53"/>
+      <c r="M58" s="53"/>
+      <c r="N58" s="53"/>
+      <c r="O58" s="53"/>
+      <c r="P58" s="53"/>
+      <c r="Q58" s="53"/>
+      <c r="R58" s="53"/>
+      <c r="S58" s="53"/>
+      <c r="T58" s="53"/>
+      <c r="U58" s="53"/>
+      <c r="V58" s="53"/>
+      <c r="W58" s="53"/>
+      <c r="X58" s="53"/>
+      <c r="Y58" s="53"/>
+      <c r="Z58" s="53"/>
+      <c r="AA58" s="53"/>
+      <c r="AB58" s="53"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TI_Lombardia.xlsx
+++ b/TI_Lombardia.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315"/>
   </bookViews>
   <sheets>
     <sheet name="TI Lombardia" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">cases!$A$3:$AB$44</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TI Lombardia'!$A$3:$F$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TI Lombardia'!$A$3:$F$48</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="117">
   <si>
     <t>Date</t>
   </si>
@@ -737,9 +737,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.000%"/>
+    <numFmt numFmtId="164" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -866,6 +866,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF24292E"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1017,7 +1023,7 @@
     <xf numFmtId="0" fontId="18" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1137,9 +1143,21 @@
     <xf numFmtId="3" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="14" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="14" fillId="3" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="14" fillId="9" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="14" fillId="9" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="20" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -2846,7 +2864,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2854,10 +2872,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U58"/>
+  <dimension ref="A1:U60"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4:L58"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4:L60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2985,11 +3003,11 @@
         <v>10040000</v>
       </c>
       <c r="K4" s="5" t="str">
-        <f>DAY(A4)&amp;"/"&amp;MONTH(A4)&amp;"/"&amp;YEAR(A4)</f>
+        <f t="shared" ref="K4:K32" si="0">DAY(A4)&amp;"/"&amp;MONTH(A4)&amp;"/"&amp;YEAR(A4)</f>
         <v>8/3/2020</v>
       </c>
       <c r="L4" s="3" t="str">
-        <f>K4&amp;$L$1&amp;DAY(A4)&amp;$L$1&amp;MONTH(A4)&amp;$L$1&amp;YEAR(A4)&amp;$L$1&amp;D4&amp;$L$1&amp;G4&amp;$L$1&amp;E4&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H4</f>
+        <f t="shared" ref="L4:L32" si="1">K4&amp;$L$1&amp;DAY(A4)&amp;$L$1&amp;MONTH(A4)&amp;$L$1&amp;YEAR(A4)&amp;$L$1&amp;D4&amp;$L$1&amp;G4&amp;$L$1&amp;E4&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H4</f>
         <v>8/3/2020,8,3,2020,4189,267,Lombardia,nn,nnn,10040000</v>
       </c>
     </row>
@@ -3004,25 +3022,25 @@
         <v>5469</v>
       </c>
       <c r="D5">
-        <f>C5-C4</f>
+        <f t="shared" ref="D5:D33" si="2">C5-C4</f>
         <v>1280</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
       </c>
       <c r="G5">
-        <f>B5-B4</f>
+        <f t="shared" ref="G5:G32" si="3">B5-B4</f>
         <v>66</v>
       </c>
       <c r="H5" s="2">
         <v>10040000</v>
       </c>
       <c r="K5" s="5" t="str">
-        <f>DAY(A5)&amp;"/"&amp;MONTH(A5)&amp;"/"&amp;YEAR(A5)</f>
+        <f t="shared" si="0"/>
         <v>9/3/2020</v>
       </c>
       <c r="L5" s="3" t="str">
-        <f>K5&amp;$L$1&amp;DAY(A5)&amp;$L$1&amp;MONTH(A5)&amp;$L$1&amp;YEAR(A5)&amp;$L$1&amp;D5&amp;$L$1&amp;G5&amp;$L$1&amp;E5&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H5</f>
+        <f t="shared" si="1"/>
         <v>9/3/2020,9,3,2020,1280,66,Lombardia,nn,nnn,10040000</v>
       </c>
     </row>
@@ -3037,25 +3055,25 @@
         <v>5791</v>
       </c>
       <c r="D6">
-        <f>C6-C5</f>
+        <f t="shared" si="2"/>
         <v>322</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
       </c>
       <c r="G6">
-        <f>B6-B5</f>
+        <f t="shared" si="3"/>
         <v>135</v>
       </c>
       <c r="H6" s="2">
         <v>10040000</v>
       </c>
       <c r="K6" s="5" t="str">
-        <f>DAY(A6)&amp;"/"&amp;MONTH(A6)&amp;"/"&amp;YEAR(A6)</f>
+        <f t="shared" si="0"/>
         <v>10/3/2020</v>
       </c>
       <c r="L6" s="3" t="str">
-        <f>K6&amp;$L$1&amp;DAY(A6)&amp;$L$1&amp;MONTH(A6)&amp;$L$1&amp;YEAR(A6)&amp;$L$1&amp;D6&amp;$L$1&amp;G6&amp;$L$1&amp;E6&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H6</f>
+        <f t="shared" si="1"/>
         <v>10/3/2020,10,3,2020,322,135,Lombardia,nn,nnn,10040000</v>
       </c>
     </row>
@@ -3070,25 +3088,25 @@
         <v>7280</v>
       </c>
       <c r="D7">
-        <f>C7-C6</f>
+        <f t="shared" si="2"/>
         <v>1489</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
       </c>
       <c r="G7">
-        <f>B7-B6</f>
+        <f t="shared" si="3"/>
         <v>149</v>
       </c>
       <c r="H7" s="2">
         <v>10040000</v>
       </c>
       <c r="K7" s="5" t="str">
-        <f>DAY(A7)&amp;"/"&amp;MONTH(A7)&amp;"/"&amp;YEAR(A7)</f>
+        <f t="shared" si="0"/>
         <v>11/3/2020</v>
       </c>
       <c r="L7" s="3" t="str">
-        <f>K7&amp;$L$1&amp;DAY(A7)&amp;$L$1&amp;MONTH(A7)&amp;$L$1&amp;YEAR(A7)&amp;$L$1&amp;D7&amp;$L$1&amp;G7&amp;$L$1&amp;E7&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H7</f>
+        <f t="shared" si="1"/>
         <v>11/3/2020,11,3,2020,1489,149,Lombardia,nn,nnn,10040000</v>
       </c>
     </row>
@@ -3103,25 +3121,25 @@
         <v>8725</v>
       </c>
       <c r="D8">
-        <f>C8-C7</f>
+        <f t="shared" si="2"/>
         <v>1445</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
       </c>
       <c r="G8">
-        <f>B8-B7</f>
+        <f t="shared" si="3"/>
         <v>127</v>
       </c>
       <c r="H8" s="2">
         <v>10040000</v>
       </c>
       <c r="K8" s="5" t="str">
-        <f>DAY(A8)&amp;"/"&amp;MONTH(A8)&amp;"/"&amp;YEAR(A8)</f>
+        <f t="shared" si="0"/>
         <v>12/3/2020</v>
       </c>
       <c r="L8" s="3" t="str">
-        <f>K8&amp;$L$1&amp;DAY(A8)&amp;$L$1&amp;MONTH(A8)&amp;$L$1&amp;YEAR(A8)&amp;$L$1&amp;D8&amp;$L$1&amp;G8&amp;$L$1&amp;E8&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H8</f>
+        <f t="shared" si="1"/>
         <v>12/3/2020,12,3,2020,1445,127,Lombardia,nn,nnn,10040000</v>
       </c>
     </row>
@@ -3136,25 +3154,25 @@
         <v>9820</v>
       </c>
       <c r="D9">
-        <f>C9-C8</f>
+        <f t="shared" si="2"/>
         <v>1095</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
       </c>
       <c r="G9">
-        <f>B9-B8</f>
+        <f t="shared" si="3"/>
         <v>146</v>
       </c>
       <c r="H9" s="2">
         <v>10040000</v>
       </c>
       <c r="K9" s="5" t="str">
-        <f>DAY(A9)&amp;"/"&amp;MONTH(A9)&amp;"/"&amp;YEAR(A9)</f>
+        <f t="shared" si="0"/>
         <v>13/3/2020</v>
       </c>
       <c r="L9" s="3" t="str">
-        <f>K9&amp;$L$1&amp;DAY(A9)&amp;$L$1&amp;MONTH(A9)&amp;$L$1&amp;YEAR(A9)&amp;$L$1&amp;D9&amp;$L$1&amp;G9&amp;$L$1&amp;E9&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H9</f>
+        <f t="shared" si="1"/>
         <v>13/3/2020,13,3,2020,1095,146,Lombardia,nn,nnn,10040000</v>
       </c>
     </row>
@@ -3169,25 +3187,25 @@
         <v>11685</v>
       </c>
       <c r="D10">
-        <f>C10-C9</f>
+        <f t="shared" si="2"/>
         <v>1865</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
       </c>
       <c r="G10">
-        <f>B10-B9</f>
+        <f t="shared" si="3"/>
         <v>76</v>
       </c>
       <c r="H10" s="2">
         <v>10040000</v>
       </c>
       <c r="K10" s="5" t="str">
-        <f>DAY(A10)&amp;"/"&amp;MONTH(A10)&amp;"/"&amp;YEAR(A10)</f>
+        <f t="shared" si="0"/>
         <v>14/3/2020</v>
       </c>
       <c r="L10" s="3" t="str">
-        <f>K10&amp;$L$1&amp;DAY(A10)&amp;$L$1&amp;MONTH(A10)&amp;$L$1&amp;YEAR(A10)&amp;$L$1&amp;D10&amp;$L$1&amp;G10&amp;$L$1&amp;E10&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H10</f>
+        <f t="shared" si="1"/>
         <v>14/3/2020,14,3,2020,1865,76,Lombardia,nn,nnn,10040000</v>
       </c>
     </row>
@@ -3202,25 +3220,25 @@
         <v>13272</v>
       </c>
       <c r="D11">
-        <f>C11-C10</f>
+        <f t="shared" si="2"/>
         <v>1587</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
       </c>
       <c r="G11">
-        <f>B11-B10</f>
+        <f t="shared" si="3"/>
         <v>252</v>
       </c>
       <c r="H11" s="2">
         <v>10040000</v>
       </c>
       <c r="K11" s="5" t="str">
-        <f>DAY(A11)&amp;"/"&amp;MONTH(A11)&amp;"/"&amp;YEAR(A11)</f>
+        <f t="shared" si="0"/>
         <v>15/3/2020</v>
       </c>
       <c r="L11" s="3" t="str">
-        <f>K11&amp;$L$1&amp;DAY(A11)&amp;$L$1&amp;MONTH(A11)&amp;$L$1&amp;YEAR(A11)&amp;$L$1&amp;D11&amp;$L$1&amp;G11&amp;$L$1&amp;E11&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H11</f>
+        <f t="shared" si="1"/>
         <v>15/3/2020,15,3,2020,1587,252,Lombardia,nn,nnn,10040000</v>
       </c>
     </row>
@@ -3235,25 +3253,25 @@
         <v>14649</v>
       </c>
       <c r="D12">
-        <f>C12-C11</f>
+        <f t="shared" si="2"/>
         <v>1377</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
       </c>
       <c r="G12">
-        <f>B12-B11</f>
+        <f t="shared" si="3"/>
         <v>202</v>
       </c>
       <c r="H12" s="2">
         <v>10040000</v>
       </c>
       <c r="K12" s="5" t="str">
-        <f>DAY(A12)&amp;"/"&amp;MONTH(A12)&amp;"/"&amp;YEAR(A12)</f>
+        <f t="shared" si="0"/>
         <v>16/3/2020</v>
       </c>
       <c r="L12" s="3" t="str">
-        <f>K12&amp;$L$1&amp;DAY(A12)&amp;$L$1&amp;MONTH(A12)&amp;$L$1&amp;YEAR(A12)&amp;$L$1&amp;D12&amp;$L$1&amp;G12&amp;$L$1&amp;E12&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H12</f>
+        <f t="shared" si="1"/>
         <v>16/3/2020,16,3,2020,1377,202,Lombardia,nn,nnn,10040000</v>
       </c>
     </row>
@@ -3268,25 +3286,25 @@
         <v>16220</v>
       </c>
       <c r="D13">
-        <f>C13-C12</f>
+        <f t="shared" si="2"/>
         <v>1571</v>
       </c>
       <c r="E13" t="s">
         <v>9</v>
       </c>
       <c r="G13">
-        <f>B13-B12</f>
+        <f t="shared" si="3"/>
         <v>220</v>
       </c>
       <c r="H13" s="2">
         <v>10040000</v>
       </c>
       <c r="K13" s="5" t="str">
-        <f>DAY(A13)&amp;"/"&amp;MONTH(A13)&amp;"/"&amp;YEAR(A13)</f>
+        <f t="shared" si="0"/>
         <v>17/3/2020</v>
       </c>
       <c r="L13" s="3" t="str">
-        <f>K13&amp;$L$1&amp;DAY(A13)&amp;$L$1&amp;MONTH(A13)&amp;$L$1&amp;YEAR(A13)&amp;$L$1&amp;D13&amp;$L$1&amp;G13&amp;$L$1&amp;E13&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H13</f>
+        <f t="shared" si="1"/>
         <v>17/3/2020,17,3,2020,1571,220,Lombardia,nn,nnn,10040000</v>
       </c>
     </row>
@@ -3301,25 +3319,25 @@
         <v>17713</v>
       </c>
       <c r="D14">
-        <f>C14-C13</f>
+        <f t="shared" si="2"/>
         <v>1493</v>
       </c>
       <c r="E14" t="s">
         <v>9</v>
       </c>
       <c r="G14">
-        <f>B14-B13</f>
+        <f t="shared" si="3"/>
         <v>319</v>
       </c>
       <c r="H14" s="2">
         <v>10040000</v>
       </c>
       <c r="K14" s="5" t="str">
-        <f>DAY(A14)&amp;"/"&amp;MONTH(A14)&amp;"/"&amp;YEAR(A14)</f>
+        <f t="shared" si="0"/>
         <v>18/3/2020</v>
       </c>
       <c r="L14" s="3" t="str">
-        <f>K14&amp;$L$1&amp;DAY(A14)&amp;$L$1&amp;MONTH(A14)&amp;$L$1&amp;YEAR(A14)&amp;$L$1&amp;D14&amp;$L$1&amp;G14&amp;$L$1&amp;E14&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H14</f>
+        <f t="shared" si="1"/>
         <v>18/3/2020,18,3,2020,1493,319,Lombardia,nn,nnn,10040000</v>
       </c>
     </row>
@@ -3334,25 +3352,25 @@
         <v>19884</v>
       </c>
       <c r="D15">
-        <f>C15-C14</f>
+        <f t="shared" si="2"/>
         <v>2171</v>
       </c>
       <c r="E15" t="s">
         <v>9</v>
       </c>
       <c r="G15">
-        <f>B15-B14</f>
+        <f t="shared" si="3"/>
         <v>209</v>
       </c>
       <c r="H15" s="2">
         <v>10040000</v>
       </c>
       <c r="K15" s="5" t="str">
-        <f>DAY(A15)&amp;"/"&amp;MONTH(A15)&amp;"/"&amp;YEAR(A15)</f>
+        <f t="shared" si="0"/>
         <v>19/3/2020</v>
       </c>
       <c r="L15" s="3" t="str">
-        <f>K15&amp;$L$1&amp;DAY(A15)&amp;$L$1&amp;MONTH(A15)&amp;$L$1&amp;YEAR(A15)&amp;$L$1&amp;D15&amp;$L$1&amp;G15&amp;$L$1&amp;E15&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H15</f>
+        <f t="shared" si="1"/>
         <v>19/3/2020,19,3,2020,2171,209,Lombardia,nn,nnn,10040000</v>
       </c>
     </row>
@@ -3367,25 +3385,25 @@
         <v>22264</v>
       </c>
       <c r="D16">
-        <f>C16-C15</f>
+        <f t="shared" si="2"/>
         <v>2380</v>
       </c>
       <c r="E16" t="s">
         <v>9</v>
       </c>
       <c r="G16">
-        <f>B16-B15</f>
+        <f t="shared" si="3"/>
         <v>381</v>
       </c>
       <c r="H16" s="2">
         <v>10040000</v>
       </c>
       <c r="K16" s="5" t="str">
-        <f>DAY(A16)&amp;"/"&amp;MONTH(A16)&amp;"/"&amp;YEAR(A16)</f>
+        <f t="shared" si="0"/>
         <v>20/3/2020</v>
       </c>
       <c r="L16" s="3" t="str">
-        <f>K16&amp;$L$1&amp;DAY(A16)&amp;$L$1&amp;MONTH(A16)&amp;$L$1&amp;YEAR(A16)&amp;$L$1&amp;D16&amp;$L$1&amp;G16&amp;$L$1&amp;E16&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H16</f>
+        <f t="shared" si="1"/>
         <v>20/3/2020,20,3,2020,2380,381,Lombardia,nn,nnn,10040000</v>
       </c>
     </row>
@@ -3400,25 +3418,25 @@
         <v>25515</v>
       </c>
       <c r="D17">
-        <f>C17-C16</f>
+        <f t="shared" si="2"/>
         <v>3251</v>
       </c>
       <c r="E17" t="s">
         <v>9</v>
       </c>
       <c r="G17">
-        <f>B17-B16</f>
+        <f t="shared" si="3"/>
         <v>546</v>
       </c>
       <c r="H17" s="2">
         <v>10040000</v>
       </c>
       <c r="K17" s="5" t="str">
-        <f>DAY(A17)&amp;"/"&amp;MONTH(A17)&amp;"/"&amp;YEAR(A17)</f>
+        <f t="shared" si="0"/>
         <v>21/3/2020</v>
       </c>
       <c r="L17" s="3" t="str">
-        <f>K17&amp;$L$1&amp;DAY(A17)&amp;$L$1&amp;MONTH(A17)&amp;$L$1&amp;YEAR(A17)&amp;$L$1&amp;D17&amp;$L$1&amp;G17&amp;$L$1&amp;E17&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H17</f>
+        <f t="shared" si="1"/>
         <v>21/3/2020,21,3,2020,3251,546,Lombardia,nn,nnn,10040000</v>
       </c>
     </row>
@@ -3433,25 +3451,25 @@
         <v>27206</v>
       </c>
       <c r="D18">
-        <f>C18-C17</f>
+        <f t="shared" si="2"/>
         <v>1691</v>
       </c>
       <c r="E18" t="s">
         <v>9</v>
       </c>
       <c r="G18">
-        <f>B18-B17</f>
+        <f t="shared" si="3"/>
         <v>361</v>
       </c>
       <c r="H18" s="2">
         <v>10040000</v>
       </c>
       <c r="K18" s="5" t="str">
-        <f>DAY(A18)&amp;"/"&amp;MONTH(A18)&amp;"/"&amp;YEAR(A18)</f>
+        <f t="shared" si="0"/>
         <v>22/3/2020</v>
       </c>
       <c r="L18" s="3" t="str">
-        <f>K18&amp;$L$1&amp;DAY(A18)&amp;$L$1&amp;MONTH(A18)&amp;$L$1&amp;YEAR(A18)&amp;$L$1&amp;D18&amp;$L$1&amp;G18&amp;$L$1&amp;E18&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H18</f>
+        <f t="shared" si="1"/>
         <v>22/3/2020,22,3,2020,1691,361,Lombardia,nn,nnn,10040000</v>
       </c>
     </row>
@@ -3466,14 +3484,14 @@
         <v>28761</v>
       </c>
       <c r="D19">
-        <f>C19-C18</f>
+        <f t="shared" si="2"/>
         <v>1555</v>
       </c>
       <c r="E19" t="s">
         <v>9</v>
       </c>
       <c r="G19">
-        <f>B19-B18</f>
+        <f t="shared" si="3"/>
         <v>320</v>
       </c>
       <c r="H19" s="2">
@@ -3486,11 +3504,11 @@
         <v>8</v>
       </c>
       <c r="K19" s="5" t="str">
-        <f>DAY(A19)&amp;"/"&amp;MONTH(A19)&amp;"/"&amp;YEAR(A19)</f>
+        <f t="shared" si="0"/>
         <v>23/3/2020</v>
       </c>
       <c r="L19" s="3" t="str">
-        <f>K19&amp;$L$1&amp;DAY(A19)&amp;$L$1&amp;MONTH(A19)&amp;$L$1&amp;YEAR(A19)&amp;$L$1&amp;D19&amp;$L$1&amp;G19&amp;$L$1&amp;E19&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H19</f>
+        <f t="shared" si="1"/>
         <v>23/3/2020,23,3,2020,1555,320,Lombardia,nn,nnn,10040000</v>
       </c>
     </row>
@@ -3505,14 +3523,14 @@
         <v>30703</v>
       </c>
       <c r="D20">
-        <f>C20-C19</f>
+        <f t="shared" si="2"/>
         <v>1942</v>
       </c>
       <c r="E20" t="s">
         <v>9</v>
       </c>
       <c r="G20">
-        <f>B20-B19</f>
+        <f t="shared" si="3"/>
         <v>402</v>
       </c>
       <c r="H20" s="2">
@@ -3521,11 +3539,11 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="5" t="str">
-        <f>DAY(A20)&amp;"/"&amp;MONTH(A20)&amp;"/"&amp;YEAR(A20)</f>
+        <f t="shared" si="0"/>
         <v>24/3/2020</v>
       </c>
       <c r="L20" s="3" t="str">
-        <f>K20&amp;$L$1&amp;DAY(A20)&amp;$L$1&amp;MONTH(A20)&amp;$L$1&amp;YEAR(A20)&amp;$L$1&amp;D20&amp;$L$1&amp;G20&amp;$L$1&amp;E20&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H20</f>
+        <f t="shared" si="1"/>
         <v>24/3/2020,24,3,2020,1942,402,Lombardia,nn,nnn,10040000</v>
       </c>
     </row>
@@ -3540,14 +3558,14 @@
         <v>32346</v>
       </c>
       <c r="D21">
-        <f>C21-C20</f>
+        <f t="shared" si="2"/>
         <v>1643</v>
       </c>
       <c r="E21" t="s">
         <v>9</v>
       </c>
       <c r="G21">
-        <f>B21-B20</f>
+        <f t="shared" si="3"/>
         <v>296</v>
       </c>
       <c r="H21" s="2">
@@ -3557,11 +3575,11 @@
         <v>10</v>
       </c>
       <c r="K21" s="5" t="str">
-        <f>DAY(A21)&amp;"/"&amp;MONTH(A21)&amp;"/"&amp;YEAR(A21)</f>
+        <f t="shared" si="0"/>
         <v>25/3/2020</v>
       </c>
       <c r="L21" s="3" t="str">
-        <f>K21&amp;$L$1&amp;DAY(A21)&amp;$L$1&amp;MONTH(A21)&amp;$L$1&amp;YEAR(A21)&amp;$L$1&amp;D21&amp;$L$1&amp;G21&amp;$L$1&amp;E21&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H21</f>
+        <f t="shared" si="1"/>
         <v>25/3/2020,25,3,2020,1643,296,Lombardia,nn,nnn,10040000</v>
       </c>
     </row>
@@ -3576,14 +3594,14 @@
         <v>34889</v>
       </c>
       <c r="D22">
-        <f>C22-C21</f>
+        <f t="shared" si="2"/>
         <v>2543</v>
       </c>
       <c r="E22" t="s">
         <v>9</v>
       </c>
       <c r="G22">
-        <f>B22-B21</f>
+        <f t="shared" si="3"/>
         <v>387</v>
       </c>
       <c r="H22" s="2">
@@ -3593,11 +3611,11 @@
         <v>13</v>
       </c>
       <c r="K22" s="5" t="str">
-        <f>DAY(A22)&amp;"/"&amp;MONTH(A22)&amp;"/"&amp;YEAR(A22)</f>
+        <f t="shared" si="0"/>
         <v>26/3/2020</v>
       </c>
       <c r="L22" s="3" t="str">
-        <f>K22&amp;$L$1&amp;DAY(A22)&amp;$L$1&amp;MONTH(A22)&amp;$L$1&amp;YEAR(A22)&amp;$L$1&amp;D22&amp;$L$1&amp;G22&amp;$L$1&amp;E22&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H22</f>
+        <f t="shared" si="1"/>
         <v>26/3/2020,26,3,2020,2543,387,Lombardia,nn,nnn,10040000</v>
       </c>
     </row>
@@ -3612,14 +3630,14 @@
         <v>37298</v>
       </c>
       <c r="D23">
-        <f>C23-C22</f>
+        <f t="shared" si="2"/>
         <v>2409</v>
       </c>
       <c r="E23" t="s">
         <v>9</v>
       </c>
       <c r="G23">
-        <f>B23-B22</f>
+        <f t="shared" si="3"/>
         <v>541</v>
       </c>
       <c r="H23" s="2">
@@ -3629,11 +3647,11 @@
         <v>16</v>
       </c>
       <c r="K23" s="5" t="str">
-        <f>DAY(A23)&amp;"/"&amp;MONTH(A23)&amp;"/"&amp;YEAR(A23)</f>
+        <f t="shared" si="0"/>
         <v>27/3/2020</v>
       </c>
       <c r="L23" s="3" t="str">
-        <f>K23&amp;$L$1&amp;DAY(A23)&amp;$L$1&amp;MONTH(A23)&amp;$L$1&amp;YEAR(A23)&amp;$L$1&amp;D23&amp;$L$1&amp;G23&amp;$L$1&amp;E23&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H23</f>
+        <f t="shared" si="1"/>
         <v>27/3/2020,27,3,2020,2409,541,Lombardia,nn,nnn,10040000</v>
       </c>
     </row>
@@ -3648,14 +3666,14 @@
         <v>39415</v>
       </c>
       <c r="D24">
-        <f>C24-C23</f>
+        <f t="shared" si="2"/>
         <v>2117</v>
       </c>
       <c r="E24" t="s">
         <v>9</v>
       </c>
       <c r="G24">
-        <f>B24-B23</f>
+        <f t="shared" si="3"/>
         <v>542</v>
       </c>
       <c r="H24" s="2">
@@ -3665,11 +3683,11 @@
         <v>14</v>
       </c>
       <c r="K24" s="5" t="str">
-        <f>DAY(A24)&amp;"/"&amp;MONTH(A24)&amp;"/"&amp;YEAR(A24)</f>
+        <f t="shared" si="0"/>
         <v>28/3/2020</v>
       </c>
       <c r="L24" s="3" t="str">
-        <f>K24&amp;$L$1&amp;DAY(A24)&amp;$L$1&amp;MONTH(A24)&amp;$L$1&amp;YEAR(A24)&amp;$L$1&amp;D24&amp;$L$1&amp;G24&amp;$L$1&amp;E24&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H24</f>
+        <f t="shared" si="1"/>
         <v>28/3/2020,28,3,2020,2117,542,Lombardia,nn,nnn,10040000</v>
       </c>
     </row>
@@ -3684,25 +3702,25 @@
         <v>41007</v>
       </c>
       <c r="D25">
-        <f>C25-C24</f>
+        <f t="shared" si="2"/>
         <v>1592</v>
       </c>
       <c r="E25" t="s">
         <v>9</v>
       </c>
       <c r="G25">
-        <f>B25-B24</f>
+        <f t="shared" si="3"/>
         <v>416</v>
       </c>
       <c r="H25" s="2">
         <v>10040000</v>
       </c>
       <c r="K25" s="5" t="str">
-        <f>DAY(A25)&amp;"/"&amp;MONTH(A25)&amp;"/"&amp;YEAR(A25)</f>
+        <f t="shared" si="0"/>
         <v>29/3/2020</v>
       </c>
       <c r="L25" s="3" t="str">
-        <f>K25&amp;$L$1&amp;DAY(A25)&amp;$L$1&amp;MONTH(A25)&amp;$L$1&amp;YEAR(A25)&amp;$L$1&amp;D25&amp;$L$1&amp;G25&amp;$L$1&amp;E25&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H25</f>
+        <f t="shared" si="1"/>
         <v>29/3/2020,29,3,2020,1592,416,Lombardia,nn,nnn,10040000</v>
       </c>
     </row>
@@ -3717,25 +3735,25 @@
         <v>42161</v>
       </c>
       <c r="D26">
-        <f>C26-C25</f>
+        <f t="shared" si="2"/>
         <v>1154</v>
       </c>
       <c r="E26" t="s">
         <v>9</v>
       </c>
       <c r="G26">
-        <f>B26-B25</f>
+        <f t="shared" si="3"/>
         <v>458</v>
       </c>
       <c r="H26" s="2">
         <v>10040000</v>
       </c>
       <c r="K26" s="5" t="str">
-        <f>DAY(A26)&amp;"/"&amp;MONTH(A26)&amp;"/"&amp;YEAR(A26)</f>
+        <f t="shared" si="0"/>
         <v>30/3/2020</v>
       </c>
       <c r="L26" s="3" t="str">
-        <f>K26&amp;$L$1&amp;DAY(A26)&amp;$L$1&amp;MONTH(A26)&amp;$L$1&amp;YEAR(A26)&amp;$L$1&amp;D26&amp;$L$1&amp;G26&amp;$L$1&amp;E26&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H26</f>
+        <f t="shared" si="1"/>
         <v>30/3/2020,30,3,2020,1154,458,Lombardia,nn,nnn,10040000</v>
       </c>
     </row>
@@ -3750,25 +3768,25 @@
         <v>43208</v>
       </c>
       <c r="D27">
-        <f>C27-C26</f>
+        <f t="shared" si="2"/>
         <v>1047</v>
       </c>
       <c r="E27" t="s">
         <v>9</v>
       </c>
       <c r="G27">
-        <f>B27-B26</f>
+        <f t="shared" si="3"/>
         <v>381</v>
       </c>
       <c r="H27" s="2">
         <v>10040000</v>
       </c>
       <c r="K27" s="5" t="str">
-        <f>DAY(A27)&amp;"/"&amp;MONTH(A27)&amp;"/"&amp;YEAR(A27)</f>
+        <f t="shared" si="0"/>
         <v>31/3/2020</v>
       </c>
       <c r="L27" s="3" t="str">
-        <f>K27&amp;$L$1&amp;DAY(A27)&amp;$L$1&amp;MONTH(A27)&amp;$L$1&amp;YEAR(A27)&amp;$L$1&amp;D27&amp;$L$1&amp;G27&amp;$L$1&amp;E27&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H27</f>
+        <f t="shared" si="1"/>
         <v>31/3/2020,31,3,2020,1047,381,Lombardia,nn,nnn,10040000</v>
       </c>
     </row>
@@ -3783,25 +3801,25 @@
         <v>44773</v>
       </c>
       <c r="D28">
-        <f>C28-C27</f>
+        <f t="shared" si="2"/>
         <v>1565</v>
       </c>
       <c r="E28" t="s">
         <v>9</v>
       </c>
       <c r="G28">
-        <f>B28-B27</f>
+        <f t="shared" si="3"/>
         <v>394</v>
       </c>
       <c r="H28" s="2">
         <v>10040000</v>
       </c>
       <c r="K28" s="5" t="str">
-        <f>DAY(A28)&amp;"/"&amp;MONTH(A28)&amp;"/"&amp;YEAR(A28)</f>
+        <f t="shared" si="0"/>
         <v>1/4/2020</v>
       </c>
       <c r="L28" s="3" t="str">
-        <f>K28&amp;$L$1&amp;DAY(A28)&amp;$L$1&amp;MONTH(A28)&amp;$L$1&amp;YEAR(A28)&amp;$L$1&amp;D28&amp;$L$1&amp;G28&amp;$L$1&amp;E28&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H28</f>
+        <f t="shared" si="1"/>
         <v>1/4/2020,1,4,2020,1565,394,Lombardia,nn,nnn,10040000</v>
       </c>
     </row>
@@ -3816,25 +3834,25 @@
         <v>46065</v>
       </c>
       <c r="D29">
-        <f>C29-C28</f>
+        <f t="shared" si="2"/>
         <v>1292</v>
       </c>
       <c r="E29" t="s">
         <v>9</v>
       </c>
       <c r="G29">
-        <f>B29-B28</f>
+        <f t="shared" si="3"/>
         <v>367</v>
       </c>
       <c r="H29" s="2">
         <v>10040000</v>
       </c>
       <c r="K29" s="5" t="str">
-        <f>DAY(A29)&amp;"/"&amp;MONTH(A29)&amp;"/"&amp;YEAR(A29)</f>
+        <f t="shared" si="0"/>
         <v>2/4/2020</v>
       </c>
       <c r="L29" s="3" t="str">
-        <f>K29&amp;$L$1&amp;DAY(A29)&amp;$L$1&amp;MONTH(A29)&amp;$L$1&amp;YEAR(A29)&amp;$L$1&amp;D29&amp;$L$1&amp;G29&amp;$L$1&amp;E29&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H29</f>
+        <f t="shared" si="1"/>
         <v>2/4/2020,2,4,2020,1292,367,Lombardia,nn,nnn,10040000</v>
       </c>
     </row>
@@ -3849,25 +3867,25 @@
         <v>47520</v>
       </c>
       <c r="D30">
-        <f>C30-C29</f>
+        <f t="shared" si="2"/>
         <v>1455</v>
       </c>
       <c r="E30" t="s">
         <v>9</v>
       </c>
       <c r="G30">
-        <f>B30-B29</f>
+        <f t="shared" si="3"/>
         <v>351</v>
       </c>
       <c r="H30" s="2">
         <v>10040000</v>
       </c>
       <c r="K30" s="5" t="str">
-        <f>DAY(A30)&amp;"/"&amp;MONTH(A30)&amp;"/"&amp;YEAR(A30)</f>
+        <f t="shared" si="0"/>
         <v>3/4/2020</v>
       </c>
       <c r="L30" s="3" t="str">
-        <f>K30&amp;$L$1&amp;DAY(A30)&amp;$L$1&amp;MONTH(A30)&amp;$L$1&amp;YEAR(A30)&amp;$L$1&amp;D30&amp;$L$1&amp;G30&amp;$L$1&amp;E30&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H30</f>
+        <f t="shared" si="1"/>
         <v>3/4/2020,3,4,2020,1455,351,Lombardia,nn,nnn,10040000</v>
       </c>
     </row>
@@ -3882,29 +3900,29 @@
         <v>49118</v>
       </c>
       <c r="D31">
-        <f>C31-C30</f>
+        <f t="shared" si="2"/>
         <v>1598</v>
       </c>
       <c r="E31" t="s">
         <v>9</v>
       </c>
       <c r="G31">
-        <f>B31-B30</f>
+        <f t="shared" si="3"/>
         <v>345</v>
       </c>
       <c r="H31" s="2">
         <v>10040000</v>
       </c>
       <c r="K31" s="5" t="str">
-        <f>DAY(A31)&amp;"/"&amp;MONTH(A31)&amp;"/"&amp;YEAR(A31)</f>
+        <f t="shared" si="0"/>
         <v>4/4/2020</v>
       </c>
       <c r="L31" s="3" t="str">
-        <f>K31&amp;$L$1&amp;DAY(A31)&amp;$L$1&amp;MONTH(A31)&amp;$L$1&amp;YEAR(A31)&amp;$L$1&amp;D31&amp;$L$1&amp;G31&amp;$L$1&amp;E31&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H31</f>
+        <f t="shared" si="1"/>
         <v>4/4/2020,4,4,2020,1598,345,Lombardia,nn,nnn,10040000</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43926</v>
       </c>
@@ -3915,889 +3933,955 @@
         <v>50455</v>
       </c>
       <c r="D32">
-        <f>C32-C31</f>
+        <f t="shared" si="2"/>
         <v>1337</v>
       </c>
       <c r="E32" t="s">
         <v>9</v>
       </c>
       <c r="G32">
-        <f>B32-B31</f>
+        <f t="shared" si="3"/>
         <v>249</v>
       </c>
       <c r="H32" s="2">
         <v>10040000</v>
       </c>
       <c r="K32" s="5" t="str">
-        <f>DAY(A32)&amp;"/"&amp;MONTH(A32)&amp;"/"&amp;YEAR(A32)</f>
+        <f t="shared" si="0"/>
         <v>5/4/2020</v>
       </c>
       <c r="L32" s="3" t="str">
-        <f>K32&amp;$L$1&amp;DAY(A32)&amp;$L$1&amp;MONTH(A32)&amp;$L$1&amp;YEAR(A32)&amp;$L$1&amp;D32&amp;$L$1&amp;G32&amp;$L$1&amp;E32&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H32</f>
+        <f t="shared" si="1"/>
         <v>5/4/2020,5,4,2020,1337,249,Lombardia,nn,nnn,10040000</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>43901</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33">
-        <v>68</v>
+        <v>43927</v>
+      </c>
+      <c r="B33" s="57">
+        <v>9202</v>
+      </c>
+      <c r="C33" s="57">
+        <v>51534</v>
       </c>
       <c r="D33">
-        <f>C33</f>
-        <v>68</v>
+        <f t="shared" si="2"/>
+        <v>1079</v>
       </c>
       <c r="E33" t="s">
-        <v>116</v>
+        <v>9</v>
       </c>
       <c r="G33">
-        <f t="shared" ref="G33:G35" si="0">B33</f>
-        <v>1</v>
-      </c>
-      <c r="H33">
-        <v>353709</v>
+        <f t="shared" ref="G33" si="4">B33-B32</f>
+        <v>297</v>
+      </c>
+      <c r="H33" s="2">
+        <v>10040001</v>
       </c>
       <c r="K33" s="5" t="str">
-        <f t="shared" ref="K33:K35" si="1">DAY(A33)&amp;"/"&amp;MONTH(A33)&amp;"/"&amp;YEAR(A33)</f>
-        <v>11/3/2020</v>
+        <f t="shared" ref="K33" si="5">DAY(A33)&amp;"/"&amp;MONTH(A33)&amp;"/"&amp;YEAR(A33)</f>
+        <v>6/4/2020</v>
       </c>
       <c r="L33" s="3" t="str">
-        <f t="shared" ref="L33:L35" si="2">K33&amp;$L$1&amp;DAY(A33)&amp;$L$1&amp;MONTH(A33)&amp;$L$1&amp;YEAR(A33)&amp;$L$1&amp;D33&amp;$L$1&amp;G33&amp;$L$1&amp;E33&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H33</f>
-        <v>11/3/2020,11,3,2020,68,1,Ticino,nn,nnn,353709</v>
+        <f t="shared" ref="L33" si="6">K33&amp;$L$1&amp;DAY(A33)&amp;$L$1&amp;MONTH(A33)&amp;$L$1&amp;YEAR(A33)&amp;$L$1&amp;D33&amp;$L$1&amp;G33&amp;$L$1&amp;E33&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H33</f>
+        <v>6/4/2020,6,4,2020,1079,297,Lombardia,nn,nnn,10040001</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>43902</v>
+        <v>43901</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
-      <c r="C34" s="43">
-        <v>180</v>
+      <c r="C34">
+        <v>68</v>
       </c>
       <c r="D34">
-        <f>C34-C33</f>
-        <v>112</v>
+        <f>C34</f>
+        <v>68</v>
       </c>
       <c r="E34" t="s">
         <v>116</v>
       </c>
       <c r="G34">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G34:G36" si="7">B34</f>
         <v>1</v>
       </c>
       <c r="H34">
         <v>353709</v>
       </c>
       <c r="K34" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>12/3/2020</v>
+        <f t="shared" ref="K34:K36" si="8">DAY(A34)&amp;"/"&amp;MONTH(A34)&amp;"/"&amp;YEAR(A34)</f>
+        <v>11/3/2020</v>
       </c>
       <c r="L34" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>12/3/2020,12,3,2020,112,1,Ticino,nn,nnn,353709</v>
+        <f t="shared" ref="L34:L36" si="9">K34&amp;$L$1&amp;DAY(A34)&amp;$L$1&amp;MONTH(A34)&amp;$L$1&amp;YEAR(A34)&amp;$L$1&amp;D34&amp;$L$1&amp;G34&amp;$L$1&amp;E34&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H34</f>
+        <v>11/3/2020,11,3,2020,68,1,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>43903</v>
+        <v>43902</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
       <c r="C35" s="43">
-        <v>258</v>
+        <v>180</v>
       </c>
       <c r="D35">
-        <f>C35-C34</f>
-        <v>78</v>
+        <f t="shared" ref="D35:D60" si="10">C35-C34</f>
+        <v>112</v>
       </c>
       <c r="E35" t="s">
         <v>116</v>
       </c>
       <c r="G35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="H35">
         <v>353709</v>
       </c>
       <c r="K35" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>13/3/2020</v>
+        <f t="shared" si="8"/>
+        <v>12/3/2020</v>
       </c>
       <c r="L35" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>13/3/2020,13,3,2020,78,1,Ticino,nn,nnn,353709</v>
+        <f t="shared" si="9"/>
+        <v>12/3/2020,12,3,2020,112,1,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>43904</v>
+        <v>43903</v>
       </c>
       <c r="B36">
-        <v>5</v>
-      </c>
-      <c r="C36">
-        <v>262</v>
+        <v>1</v>
+      </c>
+      <c r="C36" s="43">
+        <v>258</v>
       </c>
       <c r="D36">
-        <f>C36-C35</f>
-        <v>4</v>
+        <f t="shared" si="10"/>
+        <v>78</v>
       </c>
       <c r="E36" t="s">
         <v>116</v>
       </c>
       <c r="G36">
-        <f>B36</f>
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="H36">
         <v>353709</v>
       </c>
       <c r="K36" s="5" t="str">
-        <f>DAY(A36)&amp;"/"&amp;MONTH(A36)&amp;"/"&amp;YEAR(A36)</f>
-        <v>14/3/2020</v>
+        <f t="shared" si="8"/>
+        <v>13/3/2020</v>
       </c>
       <c r="L36" s="3" t="str">
-        <f>K36&amp;$L$1&amp;DAY(A36)&amp;$L$1&amp;MONTH(A36)&amp;$L$1&amp;YEAR(A36)&amp;$L$1&amp;D36&amp;$L$1&amp;G36&amp;$L$1&amp;E36&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H36</f>
-        <v>14/3/2020,14,3,2020,4,5,Ticino,nn,nnn,353709</v>
+        <f t="shared" si="9"/>
+        <v>13/3/2020,13,3,2020,78,1,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>43905</v>
+        <v>43904</v>
       </c>
       <c r="B37">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C37">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c r="D37">
-        <f>C37-C36</f>
-        <v>29</v>
+        <f t="shared" si="10"/>
+        <v>4</v>
       </c>
       <c r="E37" t="s">
         <v>116</v>
       </c>
       <c r="G37">
-        <f>B37-B36</f>
-        <v>1</v>
+        <f>B37</f>
+        <v>5</v>
       </c>
       <c r="H37">
         <v>353709</v>
       </c>
       <c r="K37" s="5" t="str">
-        <f>DAY(A37)&amp;"/"&amp;MONTH(A37)&amp;"/"&amp;YEAR(A37)</f>
-        <v>15/3/2020</v>
+        <f t="shared" ref="K37:K59" si="11">DAY(A37)&amp;"/"&amp;MONTH(A37)&amp;"/"&amp;YEAR(A37)</f>
+        <v>14/3/2020</v>
       </c>
       <c r="L37" s="3" t="str">
-        <f>K37&amp;$L$1&amp;DAY(A37)&amp;$L$1&amp;MONTH(A37)&amp;$L$1&amp;YEAR(A37)&amp;$L$1&amp;D37&amp;$L$1&amp;G37&amp;$L$1&amp;E37&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H37</f>
-        <v>15/3/2020,15,3,2020,29,1,Ticino,nn,nnn,353709</v>
+        <f t="shared" ref="L37:L59" si="12">K37&amp;$L$1&amp;DAY(A37)&amp;$L$1&amp;MONTH(A37)&amp;$L$1&amp;YEAR(A37)&amp;$L$1&amp;D37&amp;$L$1&amp;G37&amp;$L$1&amp;E37&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H37</f>
+        <v>14/3/2020,14,3,2020,4,5,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>43906</v>
+        <v>43905</v>
       </c>
       <c r="B38">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C38">
-        <v>330</v>
+        <v>291</v>
       </c>
       <c r="D38">
-        <f>C38-C37</f>
-        <v>39</v>
+        <f t="shared" si="10"/>
+        <v>29</v>
       </c>
       <c r="E38" t="s">
         <v>116</v>
       </c>
       <c r="G38">
-        <f>B38-B37</f>
-        <v>2</v>
+        <f t="shared" ref="G38:G59" si="13">B38-B37</f>
+        <v>1</v>
       </c>
       <c r="H38">
         <v>353709</v>
       </c>
       <c r="K38" s="5" t="str">
-        <f>DAY(A38)&amp;"/"&amp;MONTH(A38)&amp;"/"&amp;YEAR(A38)</f>
-        <v>16/3/2020</v>
+        <f t="shared" si="11"/>
+        <v>15/3/2020</v>
       </c>
       <c r="L38" s="3" t="str">
-        <f>K38&amp;$L$1&amp;DAY(A38)&amp;$L$1&amp;MONTH(A38)&amp;$L$1&amp;YEAR(A38)&amp;$L$1&amp;D38&amp;$L$1&amp;G38&amp;$L$1&amp;E38&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H38</f>
-        <v>16/3/2020,16,3,2020,39,2,Ticino,nn,nnn,353709</v>
+        <f t="shared" si="12"/>
+        <v>15/3/2020,15,3,2020,29,1,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>43907</v>
+        <v>43906</v>
       </c>
       <c r="B39">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C39">
-        <v>422</v>
+        <v>330</v>
       </c>
       <c r="D39">
-        <f>C39-C38</f>
-        <v>92</v>
+        <f t="shared" si="10"/>
+        <v>39</v>
       </c>
       <c r="E39" t="s">
         <v>116</v>
       </c>
       <c r="G39">
-        <f>B39-B38</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="H39">
         <v>353709</v>
       </c>
       <c r="K39" s="5" t="str">
-        <f>DAY(A39)&amp;"/"&amp;MONTH(A39)&amp;"/"&amp;YEAR(A39)</f>
-        <v>17/3/2020</v>
+        <f t="shared" si="11"/>
+        <v>16/3/2020</v>
       </c>
       <c r="L39" s="3" t="str">
-        <f>K39&amp;$L$1&amp;DAY(A39)&amp;$L$1&amp;MONTH(A39)&amp;$L$1&amp;YEAR(A39)&amp;$L$1&amp;D39&amp;$L$1&amp;G39&amp;$L$1&amp;E39&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H39</f>
-        <v>17/3/2020,17,3,2020,92,2,Ticino,nn,nnn,353709</v>
+        <f t="shared" si="12"/>
+        <v>16/3/2020,16,3,2020,39,2,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>43908</v>
+        <v>43907</v>
       </c>
       <c r="B40">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C40">
-        <v>511</v>
+        <v>422</v>
       </c>
       <c r="D40">
-        <f>C40-C39</f>
-        <v>89</v>
+        <f t="shared" si="10"/>
+        <v>92</v>
       </c>
       <c r="E40" t="s">
         <v>116</v>
       </c>
       <c r="G40">
-        <f>B40-B39</f>
-        <v>4</v>
+        <f t="shared" si="13"/>
+        <v>2</v>
       </c>
       <c r="H40">
         <v>353709</v>
       </c>
       <c r="K40" s="5" t="str">
-        <f>DAY(A40)&amp;"/"&amp;MONTH(A40)&amp;"/"&amp;YEAR(A40)</f>
-        <v>18/3/2020</v>
+        <f t="shared" si="11"/>
+        <v>17/3/2020</v>
       </c>
       <c r="L40" s="3" t="str">
-        <f>K40&amp;$L$1&amp;DAY(A40)&amp;$L$1&amp;MONTH(A40)&amp;$L$1&amp;YEAR(A40)&amp;$L$1&amp;D40&amp;$L$1&amp;G40&amp;$L$1&amp;E40&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H40</f>
-        <v>18/3/2020,18,3,2020,89,4,Ticino,nn,nnn,353709</v>
+        <f t="shared" si="12"/>
+        <v>17/3/2020,17,3,2020,92,2,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>43909</v>
+        <v>43908</v>
       </c>
       <c r="B41">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C41">
-        <v>638</v>
+        <v>511</v>
       </c>
       <c r="D41">
-        <f>C41-C40</f>
-        <v>127</v>
+        <f t="shared" si="10"/>
+        <v>89</v>
       </c>
       <c r="E41" t="s">
         <v>116</v>
       </c>
       <c r="G41">
-        <f>B41-B40</f>
-        <v>1</v>
+        <f t="shared" si="13"/>
+        <v>4</v>
       </c>
       <c r="H41">
         <v>353709</v>
       </c>
       <c r="K41" s="5" t="str">
-        <f>DAY(A41)&amp;"/"&amp;MONTH(A41)&amp;"/"&amp;YEAR(A41)</f>
-        <v>19/3/2020</v>
+        <f t="shared" si="11"/>
+        <v>18/3/2020</v>
       </c>
       <c r="L41" s="3" t="str">
-        <f>K41&amp;$L$1&amp;DAY(A41)&amp;$L$1&amp;MONTH(A41)&amp;$L$1&amp;YEAR(A41)&amp;$L$1&amp;D41&amp;$L$1&amp;G41&amp;$L$1&amp;E41&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H41</f>
-        <v>19/3/2020,19,3,2020,127,1,Ticino,nn,nnn,353709</v>
+        <f t="shared" si="12"/>
+        <v>18/3/2020,18,3,2020,89,4,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>43910</v>
+        <v>43909</v>
       </c>
       <c r="B42">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C42">
-        <v>834</v>
+        <v>638</v>
       </c>
       <c r="D42">
-        <f>C42-C41</f>
-        <v>196</v>
+        <f t="shared" si="10"/>
+        <v>127</v>
       </c>
       <c r="E42" t="s">
         <v>116</v>
       </c>
       <c r="G42">
-        <f>B42-B41</f>
-        <v>7</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="H42">
         <v>353709</v>
       </c>
       <c r="K42" s="5" t="str">
-        <f>DAY(A42)&amp;"/"&amp;MONTH(A42)&amp;"/"&amp;YEAR(A42)</f>
-        <v>20/3/2020</v>
+        <f t="shared" si="11"/>
+        <v>19/3/2020</v>
       </c>
       <c r="L42" s="3" t="str">
-        <f>K42&amp;$L$1&amp;DAY(A42)&amp;$L$1&amp;MONTH(A42)&amp;$L$1&amp;YEAR(A42)&amp;$L$1&amp;D42&amp;$L$1&amp;G42&amp;$L$1&amp;E42&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H42</f>
-        <v>20/3/2020,20,3,2020,196,7,Ticino,nn,nnn,353709</v>
+        <f t="shared" si="12"/>
+        <v>19/3/2020,19,3,2020,127,1,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>43911</v>
+        <v>43910</v>
       </c>
       <c r="B43">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C43">
-        <v>918</v>
+        <v>834</v>
       </c>
       <c r="D43">
-        <f>C43-C42</f>
-        <v>84</v>
+        <f t="shared" si="10"/>
+        <v>196</v>
       </c>
       <c r="E43" t="s">
         <v>116</v>
       </c>
       <c r="G43">
-        <f>B43-B42</f>
-        <v>6</v>
+        <f t="shared" si="13"/>
+        <v>7</v>
       </c>
       <c r="H43">
         <v>353709</v>
       </c>
       <c r="K43" s="5" t="str">
-        <f>DAY(A43)&amp;"/"&amp;MONTH(A43)&amp;"/"&amp;YEAR(A43)</f>
-        <v>21/3/2020</v>
+        <f t="shared" si="11"/>
+        <v>20/3/2020</v>
       </c>
       <c r="L43" s="3" t="str">
-        <f>K43&amp;$L$1&amp;DAY(A43)&amp;$L$1&amp;MONTH(A43)&amp;$L$1&amp;YEAR(A43)&amp;$L$1&amp;D43&amp;$L$1&amp;G43&amp;$L$1&amp;E43&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H43</f>
-        <v>21/3/2020,21,3,2020,84,6,Ticino,nn,nnn,353709</v>
+        <f t="shared" si="12"/>
+        <v>20/3/2020,20,3,2020,196,7,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>43912</v>
+        <v>43911</v>
       </c>
       <c r="B44">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C44">
-        <v>939</v>
+        <v>918</v>
       </c>
       <c r="D44">
-        <f>C44-C43</f>
-        <v>21</v>
+        <f t="shared" si="10"/>
+        <v>84</v>
       </c>
       <c r="E44" t="s">
         <v>116</v>
       </c>
       <c r="G44">
-        <f>B44-B43</f>
-        <v>9</v>
+        <f t="shared" si="13"/>
+        <v>6</v>
       </c>
       <c r="H44">
         <v>353709</v>
       </c>
       <c r="K44" s="5" t="str">
-        <f>DAY(A44)&amp;"/"&amp;MONTH(A44)&amp;"/"&amp;YEAR(A44)</f>
-        <v>22/3/2020</v>
+        <f t="shared" si="11"/>
+        <v>21/3/2020</v>
       </c>
       <c r="L44" s="3" t="str">
-        <f>K44&amp;$L$1&amp;DAY(A44)&amp;$L$1&amp;MONTH(A44)&amp;$L$1&amp;YEAR(A44)&amp;$L$1&amp;D44&amp;$L$1&amp;G44&amp;$L$1&amp;E44&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H44</f>
-        <v>22/3/2020,22,3,2020,21,9,Ticino,nn,nnn,353709</v>
+        <f t="shared" si="12"/>
+        <v>21/3/2020,21,3,2020,84,6,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>43913</v>
+        <v>43912</v>
       </c>
       <c r="B45">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C45">
-        <v>1165</v>
+        <v>939</v>
       </c>
       <c r="D45">
-        <f>C45-C44</f>
-        <v>226</v>
+        <f t="shared" si="10"/>
+        <v>21</v>
       </c>
       <c r="E45" t="s">
         <v>116</v>
       </c>
       <c r="G45">
-        <f>B45-B44</f>
-        <v>11</v>
+        <f t="shared" si="13"/>
+        <v>9</v>
       </c>
       <c r="H45">
         <v>353709</v>
       </c>
       <c r="K45" s="5" t="str">
-        <f>DAY(A45)&amp;"/"&amp;MONTH(A45)&amp;"/"&amp;YEAR(A45)</f>
-        <v>23/3/2020</v>
+        <f t="shared" si="11"/>
+        <v>22/3/2020</v>
       </c>
       <c r="L45" s="3" t="str">
-        <f>K45&amp;$L$1&amp;DAY(A45)&amp;$L$1&amp;MONTH(A45)&amp;$L$1&amp;YEAR(A45)&amp;$L$1&amp;D45&amp;$L$1&amp;G45&amp;$L$1&amp;E45&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H45</f>
-        <v>23/3/2020,23,3,2020,226,11,Ticino,nn,nnn,353709</v>
+        <f t="shared" si="12"/>
+        <v>22/3/2020,22,3,2020,21,9,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>43914</v>
+        <v>43913</v>
       </c>
       <c r="B46">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C46">
-        <v>1211</v>
+        <v>1165</v>
       </c>
       <c r="D46">
-        <f>C46-C45</f>
-        <v>46</v>
+        <f t="shared" si="10"/>
+        <v>226</v>
       </c>
       <c r="E46" t="s">
         <v>116</v>
       </c>
-      <c r="F46" s="2"/>
       <c r="G46">
-        <f>B46-B45</f>
-        <v>5</v>
+        <f t="shared" si="13"/>
+        <v>11</v>
       </c>
       <c r="H46">
         <v>353709</v>
       </c>
       <c r="K46" s="5" t="str">
-        <f>DAY(A46)&amp;"/"&amp;MONTH(A46)&amp;"/"&amp;YEAR(A46)</f>
-        <v>24/3/2020</v>
+        <f t="shared" si="11"/>
+        <v>23/3/2020</v>
       </c>
       <c r="L46" s="3" t="str">
-        <f>K46&amp;$L$1&amp;DAY(A46)&amp;$L$1&amp;MONTH(A46)&amp;$L$1&amp;YEAR(A46)&amp;$L$1&amp;D46&amp;$L$1&amp;G46&amp;$L$1&amp;E46&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H46</f>
-        <v>24/3/2020,24,3,2020,46,5,Ticino,nn,nnn,353709</v>
+        <f t="shared" si="12"/>
+        <v>23/3/2020,23,3,2020,226,11,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>43915</v>
+        <v>43914</v>
       </c>
       <c r="B47">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C47">
-        <v>1343</v>
+        <v>1211</v>
       </c>
       <c r="D47">
-        <f>C47-C46</f>
-        <v>132</v>
+        <f t="shared" si="10"/>
+        <v>46</v>
       </c>
       <c r="E47" t="s">
         <v>116</v>
       </c>
+      <c r="F47" s="2"/>
       <c r="G47">
-        <f>B47-B46</f>
-        <v>7</v>
+        <f t="shared" si="13"/>
+        <v>5</v>
       </c>
       <c r="H47">
         <v>353709</v>
       </c>
       <c r="K47" s="5" t="str">
-        <f>DAY(A47)&amp;"/"&amp;MONTH(A47)&amp;"/"&amp;YEAR(A47)</f>
-        <v>25/3/2020</v>
+        <f t="shared" si="11"/>
+        <v>24/3/2020</v>
       </c>
       <c r="L47" s="3" t="str">
-        <f>K47&amp;$L$1&amp;DAY(A47)&amp;$L$1&amp;MONTH(A47)&amp;$L$1&amp;YEAR(A47)&amp;$L$1&amp;D47&amp;$L$1&amp;G47&amp;$L$1&amp;E47&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H47</f>
-        <v>25/3/2020,25,3,2020,132,7,Ticino,nn,nnn,353709</v>
+        <f t="shared" si="12"/>
+        <v>24/3/2020,24,3,2020,46,5,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>43916</v>
+        <v>43915</v>
       </c>
       <c r="B48">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C48">
-        <v>1401</v>
+        <v>1343</v>
       </c>
       <c r="D48">
-        <f>C48-C47</f>
-        <v>58</v>
+        <f t="shared" si="10"/>
+        <v>132</v>
       </c>
       <c r="E48" t="s">
         <v>116</v>
       </c>
       <c r="G48">
-        <f>B48-B47</f>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="H48">
         <v>353709</v>
       </c>
       <c r="K48" s="5" t="str">
-        <f>DAY(A48)&amp;"/"&amp;MONTH(A48)&amp;"/"&amp;YEAR(A48)</f>
-        <v>26/3/2020</v>
+        <f t="shared" si="11"/>
+        <v>25/3/2020</v>
       </c>
       <c r="L48" s="3" t="str">
-        <f>K48&amp;$L$1&amp;DAY(A48)&amp;$L$1&amp;MONTH(A48)&amp;$L$1&amp;YEAR(A48)&amp;$L$1&amp;D48&amp;$L$1&amp;G48&amp;$L$1&amp;E48&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H48</f>
-        <v>26/3/2020,26,3,2020,58,7,Ticino,nn,nnn,353709</v>
+        <f t="shared" si="12"/>
+        <v>25/3/2020,25,3,2020,132,7,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>43917</v>
+        <v>43916</v>
       </c>
       <c r="B49">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C49">
-        <v>1688</v>
+        <v>1401</v>
       </c>
       <c r="D49">
-        <f>C49-C48</f>
-        <v>287</v>
+        <f t="shared" si="10"/>
+        <v>58</v>
       </c>
       <c r="E49" t="s">
         <v>116</v>
       </c>
       <c r="G49">
-        <f>B49-B48</f>
-        <v>9</v>
+        <f t="shared" si="13"/>
+        <v>7</v>
       </c>
       <c r="H49">
         <v>353709</v>
       </c>
       <c r="K49" s="5" t="str">
-        <f>DAY(A49)&amp;"/"&amp;MONTH(A49)&amp;"/"&amp;YEAR(A49)</f>
-        <v>27/3/2020</v>
+        <f t="shared" si="11"/>
+        <v>26/3/2020</v>
       </c>
       <c r="L49" s="3" t="str">
-        <f>K49&amp;$L$1&amp;DAY(A49)&amp;$L$1&amp;MONTH(A49)&amp;$L$1&amp;YEAR(A49)&amp;$L$1&amp;D49&amp;$L$1&amp;G49&amp;$L$1&amp;E49&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H49</f>
-        <v>27/3/2020,27,3,2020,287,9,Ticino,nn,nnn,353709</v>
+        <f t="shared" si="12"/>
+        <v>26/3/2020,26,3,2020,58,7,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>43918</v>
+        <v>43917</v>
       </c>
       <c r="B50">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C50">
-        <v>1727</v>
+        <v>1688</v>
       </c>
       <c r="D50">
-        <f>C50-C49</f>
-        <v>39</v>
+        <f t="shared" si="10"/>
+        <v>287</v>
       </c>
       <c r="E50" t="s">
         <v>116</v>
       </c>
       <c r="G50">
-        <f>B50-B49</f>
-        <v>11</v>
+        <f t="shared" si="13"/>
+        <v>9</v>
       </c>
       <c r="H50">
         <v>353709</v>
       </c>
       <c r="K50" s="5" t="str">
-        <f>DAY(A50)&amp;"/"&amp;MONTH(A50)&amp;"/"&amp;YEAR(A50)</f>
-        <v>28/3/2020</v>
+        <f t="shared" si="11"/>
+        <v>27/3/2020</v>
       </c>
       <c r="L50" s="3" t="str">
-        <f>K50&amp;$L$1&amp;DAY(A50)&amp;$L$1&amp;MONTH(A50)&amp;$L$1&amp;YEAR(A50)&amp;$L$1&amp;D50&amp;$L$1&amp;G50&amp;$L$1&amp;E50&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H50</f>
-        <v>28/3/2020,28,3,2020,39,11,Ticino,nn,nnn,353709</v>
+        <f t="shared" si="12"/>
+        <v>27/3/2020,27,3,2020,287,9,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>43919</v>
+        <v>43918</v>
       </c>
       <c r="B51">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C51">
-        <v>1837</v>
+        <v>1727</v>
       </c>
       <c r="D51">
-        <f>C51-C50</f>
-        <v>110</v>
+        <f t="shared" si="10"/>
+        <v>39</v>
       </c>
       <c r="E51" t="s">
         <v>116</v>
       </c>
       <c r="G51">
-        <f>B51-B50</f>
-        <v>6</v>
+        <f t="shared" si="13"/>
+        <v>11</v>
       </c>
       <c r="H51">
         <v>353709</v>
       </c>
       <c r="K51" s="5" t="str">
-        <f>DAY(A51)&amp;"/"&amp;MONTH(A51)&amp;"/"&amp;YEAR(A51)</f>
-        <v>29/3/2020</v>
+        <f t="shared" si="11"/>
+        <v>28/3/2020</v>
       </c>
       <c r="L51" s="3" t="str">
-        <f>K51&amp;$L$1&amp;DAY(A51)&amp;$L$1&amp;MONTH(A51)&amp;$L$1&amp;YEAR(A51)&amp;$L$1&amp;D51&amp;$L$1&amp;G51&amp;$L$1&amp;E51&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H51</f>
-        <v>29/3/2020,29,3,2020,110,6,Ticino,nn,nnn,353709</v>
+        <f t="shared" si="12"/>
+        <v>28/3/2020,28,3,2020,39,11,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>43920</v>
+        <v>43919</v>
       </c>
       <c r="B52">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C52">
-        <v>1962</v>
+        <v>1837</v>
       </c>
       <c r="D52">
-        <f>C52-C51</f>
-        <v>125</v>
+        <f t="shared" si="10"/>
+        <v>110</v>
       </c>
       <c r="E52" t="s">
         <v>116</v>
       </c>
       <c r="G52">
-        <f>B52-B51</f>
-        <v>12</v>
+        <f t="shared" si="13"/>
+        <v>6</v>
       </c>
       <c r="H52">
         <v>353709</v>
       </c>
       <c r="K52" s="5" t="str">
-        <f>DAY(A52)&amp;"/"&amp;MONTH(A52)&amp;"/"&amp;YEAR(A52)</f>
-        <v>30/3/2020</v>
+        <f t="shared" si="11"/>
+        <v>29/3/2020</v>
       </c>
       <c r="L52" s="3" t="str">
-        <f>K52&amp;$L$1&amp;DAY(A52)&amp;$L$1&amp;MONTH(A52)&amp;$L$1&amp;YEAR(A52)&amp;$L$1&amp;D52&amp;$L$1&amp;G52&amp;$L$1&amp;E52&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H52</f>
-        <v>30/3/2020,30,3,2020,125,12,Ticino,nn,nnn,353709</v>
+        <f t="shared" si="12"/>
+        <v>29/3/2020,29,3,2020,110,6,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>43921</v>
+        <v>43920</v>
       </c>
       <c r="B53">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="C53">
-        <v>2091</v>
+        <v>1962</v>
       </c>
       <c r="D53">
-        <f>C53-C52</f>
-        <v>129</v>
+        <f t="shared" si="10"/>
+        <v>125</v>
       </c>
       <c r="E53" t="s">
         <v>116</v>
       </c>
       <c r="G53">
-        <f>B53-B52</f>
-        <v>15</v>
+        <f t="shared" si="13"/>
+        <v>12</v>
       </c>
       <c r="H53">
         <v>353709</v>
       </c>
       <c r="K53" s="5" t="str">
-        <f>DAY(A53)&amp;"/"&amp;MONTH(A53)&amp;"/"&amp;YEAR(A53)</f>
-        <v>31/3/2020</v>
+        <f t="shared" si="11"/>
+        <v>30/3/2020</v>
       </c>
       <c r="L53" s="3" t="str">
-        <f>K53&amp;$L$1&amp;DAY(A53)&amp;$L$1&amp;MONTH(A53)&amp;$L$1&amp;YEAR(A53)&amp;$L$1&amp;D53&amp;$L$1&amp;G53&amp;$L$1&amp;E53&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H53</f>
-        <v>31/3/2020,31,3,2020,129,15,Ticino,nn,nnn,353709</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>30/3/2020,30,3,2020,125,12,Ticino,nn,nnn,353709</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>43922</v>
+        <v>43921</v>
       </c>
       <c r="B54">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="C54">
-        <v>2195</v>
+        <v>2091</v>
       </c>
       <c r="D54">
-        <f>C54-C53</f>
-        <v>104</v>
+        <f t="shared" si="10"/>
+        <v>129</v>
       </c>
       <c r="E54" t="s">
         <v>116</v>
       </c>
       <c r="G54">
-        <f>B54-B53</f>
-        <v>12</v>
+        <f t="shared" si="13"/>
+        <v>15</v>
       </c>
       <c r="H54">
         <v>353709</v>
       </c>
       <c r="K54" s="5" t="str">
-        <f>DAY(A54)&amp;"/"&amp;MONTH(A54)&amp;"/"&amp;YEAR(A54)</f>
-        <v>1/4/2020</v>
+        <f t="shared" si="11"/>
+        <v>31/3/2020</v>
       </c>
       <c r="L54" s="3" t="str">
-        <f>K54&amp;$L$1&amp;DAY(A54)&amp;$L$1&amp;MONTH(A54)&amp;$L$1&amp;YEAR(A54)&amp;$L$1&amp;D54&amp;$L$1&amp;G54&amp;$L$1&amp;E54&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H54</f>
-        <v>1/4/2020,1,4,2020,104,12,Ticino,nn,nnn,353709</v>
+        <f t="shared" si="12"/>
+        <v>31/3/2020,31,3,2020,129,15,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>43923</v>
-      </c>
-      <c r="B55" s="49">
-        <v>141</v>
-      </c>
-      <c r="C55" s="44">
-        <v>2271</v>
+        <v>43922</v>
+      </c>
+      <c r="B55">
+        <v>132</v>
+      </c>
+      <c r="C55">
+        <v>2195</v>
       </c>
       <c r="D55">
-        <f>C55-C54</f>
-        <v>76</v>
+        <f t="shared" si="10"/>
+        <v>104</v>
       </c>
       <c r="E55" t="s">
         <v>116</v>
       </c>
       <c r="G55">
-        <f>B55-B54</f>
-        <v>9</v>
+        <f t="shared" si="13"/>
+        <v>12</v>
       </c>
       <c r="H55">
         <v>353709</v>
       </c>
       <c r="K55" s="5" t="str">
-        <f>DAY(A55)&amp;"/"&amp;MONTH(A55)&amp;"/"&amp;YEAR(A55)</f>
-        <v>2/4/2020</v>
+        <f t="shared" si="11"/>
+        <v>1/4/2020</v>
       </c>
       <c r="L55" s="3" t="str">
-        <f>K55&amp;$L$1&amp;DAY(A55)&amp;$L$1&amp;MONTH(A55)&amp;$L$1&amp;YEAR(A55)&amp;$L$1&amp;D55&amp;$L$1&amp;G55&amp;$L$1&amp;E55&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H55</f>
-        <v>2/4/2020,2,4,2020,76,9,Ticino,nn,nnn,353709</v>
+        <f t="shared" si="12"/>
+        <v>1/4/2020,1,4,2020,104,12,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>43924</v>
+        <v>43923</v>
       </c>
       <c r="B56" s="49">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="C56" s="44">
-        <v>2377</v>
+        <v>2271</v>
       </c>
       <c r="D56">
-        <f>C56-C55</f>
-        <v>106</v>
+        <f t="shared" si="10"/>
+        <v>76</v>
       </c>
       <c r="E56" t="s">
         <v>116</v>
       </c>
       <c r="G56">
-        <f>B56-B55</f>
-        <v>14</v>
+        <f t="shared" si="13"/>
+        <v>9</v>
       </c>
       <c r="H56">
         <v>353709</v>
       </c>
       <c r="K56" s="5" t="str">
-        <f>DAY(A56)&amp;"/"&amp;MONTH(A56)&amp;"/"&amp;YEAR(A56)</f>
-        <v>3/4/2020</v>
+        <f t="shared" si="11"/>
+        <v>2/4/2020</v>
       </c>
       <c r="L56" s="3" t="str">
-        <f>K56&amp;$L$1&amp;DAY(A56)&amp;$L$1&amp;MONTH(A56)&amp;$L$1&amp;YEAR(A56)&amp;$L$1&amp;D56&amp;$L$1&amp;G56&amp;$L$1&amp;E56&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H56</f>
-        <v>3/4/2020,3,4,2020,106,14,Ticino,nn,nnn,353709</v>
+        <f t="shared" si="12"/>
+        <v>2/4/2020,2,4,2020,76,9,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>43925</v>
+        <v>43924</v>
       </c>
       <c r="B57" s="49">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C57" s="44">
-        <v>2422</v>
+        <v>2377</v>
       </c>
       <c r="D57">
-        <f>C57-C56</f>
-        <v>45</v>
+        <f t="shared" si="10"/>
+        <v>106</v>
       </c>
       <c r="E57" t="s">
         <v>116</v>
       </c>
       <c r="G57">
-        <f>B57-B56</f>
-        <v>10</v>
+        <f t="shared" si="13"/>
+        <v>14</v>
       </c>
       <c r="H57">
         <v>353709</v>
       </c>
       <c r="K57" s="5" t="str">
-        <f>DAY(A57)&amp;"/"&amp;MONTH(A57)&amp;"/"&amp;YEAR(A57)</f>
-        <v>4/4/2020</v>
+        <f t="shared" si="11"/>
+        <v>3/4/2020</v>
       </c>
       <c r="L57" s="3" t="str">
-        <f>K57&amp;$L$1&amp;DAY(A57)&amp;$L$1&amp;MONTH(A57)&amp;$L$1&amp;YEAR(A57)&amp;$L$1&amp;D57&amp;$L$1&amp;G57&amp;$L$1&amp;E57&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H57</f>
-        <v>4/4/2020,4,4,2020,45,10,Ticino,nn,nnn,353709</v>
+        <f t="shared" si="12"/>
+        <v>3/4/2020,3,4,2020,106,14,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>43926</v>
+        <v>43925</v>
       </c>
       <c r="B58" s="49">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="C58" s="44">
-        <v>2508</v>
+        <v>2422</v>
       </c>
       <c r="D58">
-        <f>C58-C57</f>
-        <v>86</v>
+        <f t="shared" si="10"/>
+        <v>45</v>
       </c>
       <c r="E58" t="s">
         <v>116</v>
       </c>
       <c r="G58">
-        <f>B58-B57</f>
-        <v>12</v>
+        <f t="shared" si="13"/>
+        <v>10</v>
       </c>
       <c r="H58">
         <v>353709</v>
       </c>
       <c r="K58" s="5" t="str">
-        <f>DAY(A58)&amp;"/"&amp;MONTH(A58)&amp;"/"&amp;YEAR(A58)</f>
+        <f t="shared" si="11"/>
+        <v>4/4/2020</v>
+      </c>
+      <c r="L58" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>4/4/2020,4,4,2020,45,10,Ticino,nn,nnn,353709</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>43926</v>
+      </c>
+      <c r="B59" s="49">
+        <v>177</v>
+      </c>
+      <c r="C59" s="44">
+        <v>2508</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="10"/>
+        <v>86</v>
+      </c>
+      <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="13"/>
+        <v>12</v>
+      </c>
+      <c r="H59">
+        <v>353709</v>
+      </c>
+      <c r="K59" s="5" t="str">
+        <f t="shared" si="11"/>
         <v>5/4/2020</v>
       </c>
-      <c r="L58" s="3" t="str">
-        <f>K58&amp;$L$1&amp;DAY(A58)&amp;$L$1&amp;MONTH(A58)&amp;$L$1&amp;YEAR(A58)&amp;$L$1&amp;D58&amp;$L$1&amp;G58&amp;$L$1&amp;E58&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H58</f>
+      <c r="L59" s="3" t="str">
+        <f t="shared" si="12"/>
         <v>5/4/2020,5,4,2020,86,12,Ticino,nn,nnn,353709</v>
       </c>
     </row>
+    <row r="60" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>43927</v>
+      </c>
+      <c r="B60" s="47">
+        <v>189</v>
+      </c>
+      <c r="C60" s="44">
+        <v>2546</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="10"/>
+        <v>38</v>
+      </c>
+      <c r="E60" t="s">
+        <v>116</v>
+      </c>
+      <c r="G60">
+        <f t="shared" ref="G60" si="14">B60-B59</f>
+        <v>12</v>
+      </c>
+      <c r="H60">
+        <v>353710</v>
+      </c>
+      <c r="K60" s="5" t="str">
+        <f t="shared" ref="K60" si="15">DAY(A60)&amp;"/"&amp;MONTH(A60)&amp;"/"&amp;YEAR(A60)</f>
+        <v>6/4/2020</v>
+      </c>
+      <c r="L60" s="3" t="str">
+        <f t="shared" ref="L60" si="16">K60&amp;$L$1&amp;DAY(A60)&amp;$L$1&amp;MONTH(A60)&amp;$L$1&amp;YEAR(A60)&amp;$L$1&amp;D60&amp;$L$1&amp;G60&amp;$L$1&amp;E60&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H60</f>
+        <v>6/4/2020,6,4,2020,38,12,Ticino,nn,nnn,353710</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A3:F47">
+  <autoFilter ref="A3:F48">
     <sortState ref="A4:G23">
       <sortCondition ref="E3:E20"/>
     </sortState>
@@ -4810,11 +4894,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BD44"/>
+  <dimension ref="A1:BD62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:AA2"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V44" sqref="V44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9301,71 +9385,71 @@
         <v>20/3/2020,20,3,2020,6555,68,CH,nn,nnn,8543707</v>
       </c>
     </row>
-    <row r="28" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="39">
         <v>43911</v>
       </c>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
-      <c r="D28" s="12">
+      <c r="D28" s="12"/>
+      <c r="E28" s="12">
         <v>418</v>
       </c>
-      <c r="E28" s="12">
+      <c r="F28" s="12">
         <v>282</v>
       </c>
-      <c r="F28" s="12">
+      <c r="G28" s="12">
         <v>299</v>
       </c>
-      <c r="G28" s="12">
+      <c r="H28" s="12">
         <v>167</v>
       </c>
-      <c r="H28" s="12">
+      <c r="I28" s="12">
         <v>1262</v>
       </c>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12">
+      <c r="J28" s="12"/>
+      <c r="K28" s="12">
         <v>239</v>
       </c>
-      <c r="K28" s="12">
+      <c r="L28" s="12">
         <v>49</v>
       </c>
-      <c r="L28" s="12">
+      <c r="M28" s="12">
         <v>109</v>
       </c>
-      <c r="M28" s="12">
+      <c r="N28" s="12">
         <v>200</v>
       </c>
-      <c r="N28" s="12">
+      <c r="O28" s="12">
         <v>33</v>
       </c>
-      <c r="O28" s="12"/>
       <c r="P28" s="12"/>
       <c r="Q28" s="12"/>
       <c r="R28" s="12"/>
       <c r="S28" s="12"/>
-      <c r="T28" s="12">
+      <c r="T28" s="12"/>
+      <c r="U28" s="12">
         <v>56</v>
       </c>
-      <c r="U28" s="12">
+      <c r="V28" s="44">
         <v>918</v>
       </c>
-      <c r="V28" s="44">
+      <c r="W28" s="12">
         <v>12</v>
       </c>
-      <c r="W28" s="12">
+      <c r="X28" s="12">
         <v>1676</v>
       </c>
-      <c r="X28" s="12">
+      <c r="Y28" s="12">
         <v>433</v>
       </c>
-      <c r="Y28" s="12"/>
       <c r="Z28" s="12"/>
-      <c r="AA28" s="12">
+      <c r="AA28" s="12"/>
+      <c r="AB28" s="12">
         <v>7368</v>
       </c>
-      <c r="AB28" s="12"/>
       <c r="AC28" s="15" t="str">
-        <f>DAY(A28)&amp;"/"&amp;MONTH(A28)&amp;"/"&amp;YEAR(A28)&amp;$AC$1&amp;DAY(A28)&amp;$AC$1&amp;MONTH(A28)&amp;$AC$1&amp;YEAR(A28)</f>
+        <f t="shared" ref="AC28:AC43" si="9">DAY(A28)&amp;"/"&amp;MONTH(A28)&amp;"/"&amp;YEAR(A28)&amp;$AC$1&amp;DAY(A28)&amp;$AC$1&amp;MONTH(A28)&amp;$AC$1&amp;YEAR(A28)</f>
         <v>21/3/2020,21,3,2020</v>
       </c>
       <c r="AD28" s="3" t="str">
@@ -9378,51 +9462,51 @@
       </c>
       <c r="AF28" s="3" t="str">
         <f>$AC28&amp;$AC$1&amp;D28&amp;$AC$1&amp;fatalities!D29&amp;$AC$1&amp;D$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;D$2</f>
-        <v>21/3/2020,21,3,2020,418,1,AR,nn,nnn,55234</v>
+        <v>21/3/2020,21,3,2020,,1,AR,nn,nnn,55234</v>
       </c>
       <c r="AG28" s="3" t="str">
         <f>$AC28&amp;$AC$1&amp;E28&amp;$AC$1&amp;fatalities!E29&amp;$AC$1&amp;E$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;E$2</f>
-        <v>21/3/2020,21,3,2020,282,3,BE,nn,nnn,1034977</v>
+        <v>21/3/2020,21,3,2020,418,3,BE,nn,nnn,1034977</v>
       </c>
       <c r="AH28" s="3" t="str">
         <f>$AC28&amp;$AC$1&amp;F28&amp;$AC$1&amp;fatalities!F29&amp;$AC$1&amp;F$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;F$2</f>
-        <v>21/3/2020,21,3,2020,299,3,BL,nn,nnn,288132</v>
+        <v>21/3/2020,21,3,2020,282,3,BL,nn,nnn,288132</v>
       </c>
       <c r="AI28" s="3" t="str">
         <f>$AC28&amp;$AC$1&amp;G28&amp;$AC$1&amp;fatalities!G29&amp;$AC$1&amp;G$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;G$2</f>
-        <v>21/3/2020,21,3,2020,167,5,BS,nn,nnn,194766</v>
+        <v>21/3/2020,21,3,2020,299,5,BS,nn,nnn,194766</v>
       </c>
       <c r="AJ28" s="3" t="str">
         <f>$AC28&amp;$AC$1&amp;H28&amp;$AC$1&amp;fatalities!H29&amp;$AC$1&amp;H$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;H$2</f>
-        <v>21/3/2020,21,3,2020,1262,2,FR,nn,nnn,318714</v>
+        <v>21/3/2020,21,3,2020,167,2,FR,nn,nnn,318714</v>
       </c>
       <c r="AK28" s="3" t="str">
         <f>$AC28&amp;$AC$1&amp;I28&amp;$AC$1&amp;fatalities!I29&amp;$AC$1&amp;I$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;I$2</f>
-        <v>21/3/2020,21,3,2020,,9,GE,nn,nnn,499480</v>
+        <v>21/3/2020,21,3,2020,1262,9,GE,nn,nnn,499480</v>
       </c>
       <c r="AL28" s="3" t="str">
         <f>$AC28&amp;$AC$1&amp;J28&amp;$AC$1&amp;fatalities!J29&amp;$AC$1&amp;J$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;J$2</f>
-        <v>21/3/2020,21,3,2020,239,,GL,nn,nnn,40403</v>
+        <v>21/3/2020,21,3,2020,,,GL,nn,nnn,40403</v>
       </c>
       <c r="AM28" s="3" t="str">
         <f>$AC28&amp;$AC$1&amp;K28&amp;$AC$1&amp;fatalities!K29&amp;$AC$1&amp;K$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;K$2</f>
-        <v>21/3/2020,21,3,2020,49,3,GR,nn,nnn,198379</v>
+        <v>21/3/2020,21,3,2020,239,3,GR,nn,nnn,198379</v>
       </c>
       <c r="AN28" s="3" t="str">
         <f>$AC28&amp;$AC$1&amp;L28&amp;$AC$1&amp;fatalities!L29&amp;$AC$1&amp;L$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;L$2</f>
-        <v>21/3/2020,21,3,2020,109,,JU,nn,nnn,73419</v>
+        <v>21/3/2020,21,3,2020,49,,JU,nn,nnn,73419</v>
       </c>
       <c r="AO28" s="3" t="str">
         <f>$AC28&amp;$AC$1&amp;M28&amp;$AC$1&amp;fatalities!M29&amp;$AC$1&amp;M$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;M$2</f>
-        <v>21/3/2020,21,3,2020,200,1,LU,nn,nnn,409557</v>
+        <v>21/3/2020,21,3,2020,109,1,LU,nn,nnn,409557</v>
       </c>
       <c r="AP28" s="3" t="str">
         <f>$AC28&amp;$AC$1&amp;N28&amp;$AC$1&amp;fatalities!N29&amp;$AC$1&amp;N$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;N$2</f>
-        <v>21/3/2020,21,3,2020,33,4,NE,nn,nnn,176850</v>
+        <v>21/3/2020,21,3,2020,200,4,NE,nn,nnn,176850</v>
       </c>
       <c r="AQ28" s="3" t="str">
         <f>$AC28&amp;$AC$1&amp;O28&amp;$AC$1&amp;fatalities!O29&amp;$AC$1&amp;O$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;O$2</f>
-        <v>21/3/2020,21,3,2020,,,NW,nn,nnn,43223</v>
+        <v>21/3/2020,21,3,2020,33,,NW,nn,nnn,43223</v>
       </c>
       <c r="AR28" s="3" t="str">
         <f>$AC28&amp;$AC$1&amp;P28&amp;$AC$1&amp;fatalities!P29&amp;$AC$1&amp;P$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;P$2</f>
@@ -9442,27 +9526,27 @@
       </c>
       <c r="AV28" s="3" t="str">
         <f>$AC28&amp;$AC$1&amp;T28&amp;$AC$1&amp;fatalities!T29&amp;$AC$1&amp;T$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;T$2</f>
-        <v>21/3/2020,21,3,2020,56,,SZ,nn,nnn,159165</v>
+        <v>21/3/2020,21,3,2020,,,SZ,nn,nnn,159165</v>
       </c>
       <c r="AW28" s="3" t="str">
         <f>$AC28&amp;$AC$1&amp;U28&amp;$AC$1&amp;fatalities!U29&amp;$AC$1&amp;U$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;U$2</f>
-        <v>21/3/2020,21,3,2020,918,,TG,nn,nnn,276472</v>
+        <v>21/3/2020,21,3,2020,56,,TG,nn,nnn,276472</v>
       </c>
       <c r="AX28" s="3" t="str">
         <f>$AC28&amp;$AC$1&amp;V28&amp;$AC$1&amp;fatalities!V29&amp;$AC$1&amp;V$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;V$2</f>
-        <v>21/3/2020,21,3,2020,12,28,TI,nn,nnn,353343</v>
+        <v>21/3/2020,21,3,2020,918,28,TI,nn,nnn,353343</v>
       </c>
       <c r="AY28" s="3" t="str">
         <f>$AC28&amp;$AC$1&amp;W28&amp;$AC$1&amp;fatalities!W29&amp;$AC$1&amp;W$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;W$2</f>
-        <v>21/3/2020,21,3,2020,1676,,UR,nn,nnn,36433</v>
+        <v>21/3/2020,21,3,2020,12,,UR,nn,nnn,36433</v>
       </c>
       <c r="AZ28" s="3" t="str">
         <f>$AC28&amp;$AC$1&amp;X28&amp;$AC$1&amp;fatalities!X29&amp;$AC$1&amp;X$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;X$2</f>
-        <v>21/3/2020,21,3,2020,433,15,VD,nn,nnn,799145</v>
+        <v>21/3/2020,21,3,2020,1676,15,VD,nn,nnn,799145</v>
       </c>
       <c r="BA28" s="3" t="str">
         <f>$AC28&amp;$AC$1&amp;Y28&amp;$AC$1&amp;fatalities!Y29&amp;$AC$1&amp;Y$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Y$2</f>
-        <v>21/3/2020,21,3,2020,,7,VS,nn,nnn,343955</v>
+        <v>21/3/2020,21,3,2020,433,7,VS,nn,nnn,343955</v>
       </c>
       <c r="BB28" s="3" t="str">
         <f>$AC28&amp;$AC$1&amp;Z28&amp;$AC$1&amp;fatalities!Z29&amp;$AC$1&amp;Z$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Z$2</f>
@@ -9470,78 +9554,78 @@
       </c>
       <c r="BC28" s="3" t="str">
         <f>$AC28&amp;$AC$1&amp;AA28&amp;$AC$1&amp;fatalities!AA29&amp;$AC$1&amp;AA$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AA$2</f>
-        <v>21/3/2020,21,3,2020,7368,,ZH,nn,nnn,1520968</v>
+        <v>21/3/2020,21,3,2020,,,ZH,nn,nnn,1520968</v>
       </c>
       <c r="BD28" s="3" t="str">
         <f>$AC28&amp;$AC$1&amp;AB28&amp;$AC$1&amp;fatalities!AB29&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2</f>
-        <v>21/3/2020,21,3,2020,,85,CH,nn,nnn,8543707</v>
-      </c>
-    </row>
-    <row r="29" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A29" s="39">
+        <v>21/3/2020,21,3,2020,7368,85,CH,nn,nnn,8543707</v>
+      </c>
+    </row>
+    <row r="29" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="54">
         <v>43912</v>
       </c>
-      <c r="B29" s="12">
+      <c r="B29" s="55">
         <v>232</v>
       </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12">
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55">
         <v>289</v>
       </c>
-      <c r="G29" s="12">
+      <c r="G29" s="55">
         <v>358</v>
       </c>
-      <c r="H29" s="12">
+      <c r="H29" s="55">
         <v>202</v>
       </c>
-      <c r="I29" s="12">
+      <c r="I29" s="55">
         <v>1417</v>
       </c>
-      <c r="J29" s="12">
+      <c r="J29" s="55">
         <v>31</v>
       </c>
-      <c r="K29" s="12">
+      <c r="K29" s="55">
         <v>266</v>
       </c>
-      <c r="L29" s="12">
+      <c r="L29" s="55">
         <v>51</v>
       </c>
-      <c r="M29" s="12">
+      <c r="M29" s="55">
         <v>131</v>
       </c>
-      <c r="N29" s="12">
+      <c r="N29" s="55">
         <v>216</v>
       </c>
-      <c r="O29" s="12">
+      <c r="O29" s="55">
         <v>36</v>
       </c>
-      <c r="P29" s="12"/>
-      <c r="Q29" s="12"/>
-      <c r="R29" s="12"/>
-      <c r="S29" s="12"/>
-      <c r="T29" s="12"/>
-      <c r="U29" s="12">
+      <c r="P29" s="55"/>
+      <c r="Q29" s="55"/>
+      <c r="R29" s="55"/>
+      <c r="S29" s="55"/>
+      <c r="T29" s="55"/>
+      <c r="U29" s="55">
         <v>75</v>
       </c>
       <c r="V29" s="44">
         <v>939</v>
       </c>
-      <c r="W29" s="12"/>
-      <c r="X29" s="12">
+      <c r="W29" s="55"/>
+      <c r="X29" s="55">
         <v>1782</v>
       </c>
-      <c r="Y29" s="12">
+      <c r="Y29" s="55">
         <v>490</v>
       </c>
-      <c r="Z29" s="12"/>
-      <c r="AA29" s="12"/>
-      <c r="AB29" s="12">
+      <c r="Z29" s="55"/>
+      <c r="AA29" s="55"/>
+      <c r="AB29" s="55">
         <v>7975</v>
       </c>
       <c r="AC29" s="15" t="str">
-        <f>DAY(A29)&amp;"/"&amp;MONTH(A29)&amp;"/"&amp;YEAR(A29)&amp;$AC$1&amp;DAY(A29)&amp;$AC$1&amp;MONTH(A29)&amp;$AC$1&amp;YEAR(A29)</f>
+        <f t="shared" si="9"/>
         <v>22/3/2020,22,3,2020</v>
       </c>
       <c r="AD29" s="3" t="str">
@@ -9653,85 +9737,85 @@
         <v>22/3/2020,22,3,2020,7975,103,CH,nn,nnn,8543707</v>
       </c>
     </row>
-    <row r="30" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A30" s="39">
+    <row r="30" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="56">
         <v>43913</v>
       </c>
-      <c r="B30" s="12">
+      <c r="B30" s="57">
         <v>241</v>
       </c>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12">
+      <c r="C30" s="57"/>
+      <c r="D30" s="57">
         <v>30</v>
       </c>
-      <c r="E30" s="12">
+      <c r="E30" s="57">
         <v>470</v>
       </c>
-      <c r="F30" s="12">
+      <c r="F30" s="57">
         <v>302</v>
       </c>
-      <c r="G30" s="12">
+      <c r="G30" s="57">
         <v>376</v>
       </c>
-      <c r="H30" s="12">
+      <c r="H30" s="57">
         <v>226</v>
       </c>
-      <c r="I30" s="12">
+      <c r="I30" s="57">
         <v>1509</v>
       </c>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12">
+      <c r="J30" s="57"/>
+      <c r="K30" s="57"/>
+      <c r="L30" s="57">
         <v>57</v>
       </c>
-      <c r="M30" s="12">
+      <c r="M30" s="57">
         <v>156</v>
       </c>
-      <c r="N30" s="12">
+      <c r="N30" s="57">
         <v>247</v>
       </c>
-      <c r="O30" s="12">
+      <c r="O30" s="57">
         <v>39</v>
       </c>
-      <c r="P30" s="12">
+      <c r="P30" s="57">
         <v>25</v>
       </c>
-      <c r="Q30" s="12">
+      <c r="Q30" s="57">
         <v>228</v>
       </c>
-      <c r="R30" s="12">
+      <c r="R30" s="57">
         <v>30</v>
       </c>
-      <c r="S30" s="12">
+      <c r="S30" s="57">
         <v>95</v>
       </c>
-      <c r="T30" s="12"/>
-      <c r="U30" s="12">
+      <c r="T30" s="57"/>
+      <c r="U30" s="57">
         <v>81</v>
       </c>
       <c r="V30" s="44">
         <v>1165</v>
       </c>
-      <c r="W30" s="12">
+      <c r="W30" s="57">
         <v>22</v>
       </c>
-      <c r="X30" s="12">
+      <c r="X30" s="57">
         <v>1822</v>
       </c>
-      <c r="Y30" s="12">
+      <c r="Y30" s="57">
         <v>527</v>
       </c>
-      <c r="Z30" s="12">
+      <c r="Z30" s="57">
         <v>62</v>
       </c>
-      <c r="AA30" s="12">
+      <c r="AA30" s="57">
         <v>1068</v>
       </c>
-      <c r="AB30" s="12">
+      <c r="AB30" s="57">
         <v>9094</v>
       </c>
       <c r="AC30" s="15" t="str">
-        <f>DAY(A30)&amp;"/"&amp;MONTH(A30)&amp;"/"&amp;YEAR(A30)&amp;$AC$1&amp;DAY(A30)&amp;$AC$1&amp;MONTH(A30)&amp;$AC$1&amp;YEAR(A30)</f>
+        <f t="shared" si="9"/>
         <v>23/3/2020,23,3,2020</v>
       </c>
       <c r="AD30" s="3" t="str">
@@ -9843,89 +9927,89 @@
         <v>23/3/2020,23,3,2020,9094,133,CH,nn,nnn,8543707</v>
       </c>
     </row>
-    <row r="31" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A31" s="39">
+    <row r="31" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="54">
         <v>43914</v>
       </c>
-      <c r="B31" s="12">
+      <c r="B31" s="55">
         <v>266</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="55">
         <v>8</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D31" s="55">
         <v>33</v>
       </c>
-      <c r="E31" s="12">
+      <c r="E31" s="55">
         <v>532</v>
       </c>
-      <c r="F31" s="12">
+      <c r="F31" s="55">
         <v>306</v>
       </c>
-      <c r="G31" s="12">
+      <c r="G31" s="55">
         <v>414</v>
       </c>
-      <c r="H31" s="12">
+      <c r="H31" s="55">
         <v>255</v>
       </c>
-      <c r="I31" s="12">
+      <c r="I31" s="55">
         <v>1598</v>
       </c>
-      <c r="J31" s="12">
+      <c r="J31" s="55">
         <v>33</v>
       </c>
-      <c r="K31" s="12">
+      <c r="K31" s="55">
         <v>276</v>
       </c>
-      <c r="L31" s="12">
+      <c r="L31" s="55">
         <v>66</v>
       </c>
-      <c r="M31" s="12">
+      <c r="M31" s="55">
         <v>205</v>
       </c>
-      <c r="N31" s="12">
+      <c r="N31" s="55">
         <v>265</v>
       </c>
-      <c r="O31" s="12">
+      <c r="O31" s="55">
         <v>42</v>
       </c>
-      <c r="P31" s="12">
+      <c r="P31" s="55">
         <v>25</v>
       </c>
-      <c r="Q31" s="12"/>
-      <c r="R31" s="12">
+      <c r="Q31" s="55"/>
+      <c r="R31" s="55">
         <v>32</v>
       </c>
-      <c r="S31" s="12">
+      <c r="S31" s="55">
         <v>104</v>
       </c>
-      <c r="T31" s="12"/>
-      <c r="U31" s="12">
+      <c r="T31" s="55"/>
+      <c r="U31" s="55">
         <v>87</v>
       </c>
       <c r="V31" s="44">
         <v>1211</v>
       </c>
-      <c r="W31" s="12">
+      <c r="W31" s="55">
         <v>25</v>
       </c>
-      <c r="X31" s="12">
+      <c r="X31" s="55">
         <v>2162</v>
       </c>
-      <c r="Y31" s="12">
+      <c r="Y31" s="55">
         <v>606</v>
       </c>
-      <c r="Z31" s="12">
+      <c r="Z31" s="55">
         <v>72</v>
       </c>
-      <c r="AA31" s="12">
+      <c r="AA31" s="55">
         <v>1211</v>
       </c>
-      <c r="AB31" s="12">
+      <c r="AB31" s="55">
         <v>10075</v>
       </c>
       <c r="AC31" s="15" t="str">
-        <f>DAY(A31)&amp;"/"&amp;MONTH(A31)&amp;"/"&amp;YEAR(A31)&amp;$AC$1&amp;DAY(A31)&amp;$AC$1&amp;MONTH(A31)&amp;$AC$1&amp;YEAR(A31)</f>
+        <f t="shared" si="9"/>
         <v>24/3/2020,24,3,2020</v>
       </c>
       <c r="AD31" s="3" t="str">
@@ -10037,91 +10121,91 @@
         <v>24/3/2020,24,3,2020,10075,154,CH,nn,nnn,8543707</v>
       </c>
     </row>
-    <row r="32" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A32" s="39">
+    <row r="32" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="56">
         <v>43915</v>
       </c>
-      <c r="B32" s="12">
+      <c r="B32" s="57">
         <v>319</v>
       </c>
-      <c r="C32" s="12">
+      <c r="C32" s="57">
         <v>9</v>
       </c>
-      <c r="D32" s="12">
+      <c r="D32" s="57">
         <v>34</v>
       </c>
-      <c r="E32" s="12">
+      <c r="E32" s="57">
         <v>624</v>
       </c>
-      <c r="F32" s="12">
+      <c r="F32" s="57">
         <v>341</v>
       </c>
-      <c r="G32" s="12">
+      <c r="G32" s="57">
         <v>466</v>
       </c>
-      <c r="H32" s="12">
+      <c r="H32" s="57">
         <v>293</v>
       </c>
-      <c r="I32" s="12">
+      <c r="I32" s="57">
         <v>1708</v>
       </c>
-      <c r="J32" s="12">
+      <c r="J32" s="57">
         <v>40</v>
       </c>
-      <c r="K32" s="12">
+      <c r="K32" s="57">
         <v>322</v>
       </c>
-      <c r="L32" s="12">
+      <c r="L32" s="57">
         <v>78</v>
       </c>
-      <c r="M32" s="12">
+      <c r="M32" s="57">
         <v>228</v>
       </c>
-      <c r="N32" s="12">
+      <c r="N32" s="57">
         <v>280</v>
       </c>
-      <c r="O32" s="12">
+      <c r="O32" s="57">
         <v>44</v>
       </c>
-      <c r="P32" s="12">
+      <c r="P32" s="57">
         <v>27</v>
       </c>
-      <c r="Q32" s="12">
+      <c r="Q32" s="57">
         <v>228</v>
       </c>
-      <c r="R32" s="12">
+      <c r="R32" s="57">
         <v>34</v>
       </c>
-      <c r="S32" s="12">
+      <c r="S32" s="57">
         <v>129</v>
       </c>
-      <c r="T32" s="12">
+      <c r="T32" s="57">
         <v>99</v>
       </c>
-      <c r="U32" s="12">
+      <c r="U32" s="57">
         <v>96</v>
       </c>
       <c r="V32" s="44">
         <v>1354</v>
       </c>
-      <c r="W32" s="12"/>
-      <c r="X32" s="12">
+      <c r="W32" s="57"/>
+      <c r="X32" s="57">
         <v>2215</v>
       </c>
-      <c r="Y32" s="12">
+      <c r="Y32" s="57">
         <v>651</v>
       </c>
-      <c r="Z32" s="12">
+      <c r="Z32" s="57">
         <v>80</v>
       </c>
-      <c r="AA32" s="12">
+      <c r="AA32" s="57">
         <v>1363</v>
       </c>
-      <c r="AB32" s="12">
+      <c r="AB32" s="57">
         <v>11087</v>
       </c>
       <c r="AC32" s="15" t="str">
-        <f>DAY(A32)&amp;"/"&amp;MONTH(A32)&amp;"/"&amp;YEAR(A32)&amp;$AC$1&amp;DAY(A32)&amp;$AC$1&amp;MONTH(A32)&amp;$AC$1&amp;YEAR(A32)</f>
+        <f t="shared" si="9"/>
         <v>25/3/2020,25,3,2020</v>
       </c>
       <c r="AD32" s="3" t="str">
@@ -10233,93 +10317,93 @@
         <v>25/3/2020,25,3,2020,11087,182,CH,nn,nnn,8543707</v>
       </c>
     </row>
-    <row r="33" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A33" s="39">
+    <row r="33" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="54">
         <v>43916</v>
       </c>
-      <c r="B33" s="12">
+      <c r="B33" s="55">
         <v>349</v>
       </c>
-      <c r="C33" s="12">
+      <c r="C33" s="55">
         <v>11</v>
       </c>
-      <c r="D33" s="12">
+      <c r="D33" s="55">
         <v>42</v>
       </c>
-      <c r="E33" s="12">
+      <c r="E33" s="55">
         <v>660</v>
       </c>
-      <c r="F33" s="12">
+      <c r="F33" s="55">
         <v>422</v>
       </c>
-      <c r="G33" s="12">
+      <c r="G33" s="55">
         <v>505</v>
       </c>
-      <c r="H33" s="12">
+      <c r="H33" s="55">
         <v>309</v>
       </c>
-      <c r="I33" s="12">
+      <c r="I33" s="55">
         <v>1902</v>
       </c>
-      <c r="J33" s="12">
+      <c r="J33" s="55">
         <v>43</v>
       </c>
-      <c r="K33" s="12">
+      <c r="K33" s="55">
         <v>373</v>
       </c>
-      <c r="L33" s="12">
+      <c r="L33" s="55">
         <v>99</v>
       </c>
-      <c r="M33" s="12">
+      <c r="M33" s="55">
         <v>253</v>
       </c>
-      <c r="N33" s="12">
+      <c r="N33" s="55">
         <v>299</v>
       </c>
-      <c r="O33" s="12">
+      <c r="O33" s="55">
         <v>48</v>
       </c>
-      <c r="P33" s="12">
+      <c r="P33" s="55">
         <v>30</v>
       </c>
-      <c r="Q33" s="12">
+      <c r="Q33" s="55">
         <v>306</v>
       </c>
-      <c r="R33" s="12">
+      <c r="R33" s="55">
         <v>35</v>
       </c>
-      <c r="S33" s="12">
+      <c r="S33" s="55">
         <v>141</v>
       </c>
-      <c r="T33" s="12">
+      <c r="T33" s="55">
         <v>99</v>
       </c>
-      <c r="U33" s="12">
+      <c r="U33" s="55">
         <v>110</v>
       </c>
       <c r="V33" s="44">
         <v>1401</v>
       </c>
-      <c r="W33" s="12">
+      <c r="W33" s="55">
         <v>38</v>
       </c>
-      <c r="X33" s="12">
+      <c r="X33" s="55">
         <v>2532</v>
       </c>
-      <c r="Y33" s="12">
+      <c r="Y33" s="55">
         <v>715</v>
       </c>
-      <c r="Z33" s="12">
+      <c r="Z33" s="55">
         <v>87</v>
       </c>
-      <c r="AA33" s="12">
+      <c r="AA33" s="55">
         <v>1476</v>
       </c>
-      <c r="AB33" s="12">
+      <c r="AB33" s="55">
         <v>12285</v>
       </c>
       <c r="AC33" s="15" t="str">
-        <f>DAY(A33)&amp;"/"&amp;MONTH(A33)&amp;"/"&amp;YEAR(A33)&amp;$AC$1&amp;DAY(A33)&amp;$AC$1&amp;MONTH(A33)&amp;$AC$1&amp;YEAR(A33)</f>
+        <f t="shared" si="9"/>
         <v>26/3/2020,26,3,2020</v>
       </c>
       <c r="AD33" s="3" t="str">
@@ -10431,91 +10515,91 @@
         <v>26/3/2020,26,3,2020,12285,227,CH,nn,nnn,8543707</v>
       </c>
     </row>
-    <row r="34" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A34" s="39">
+    <row r="34" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="56">
         <v>43917</v>
       </c>
-      <c r="B34" s="12">
+      <c r="B34" s="57">
         <v>364</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="57">
         <v>12</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D34" s="57">
         <v>44</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E34" s="57">
         <v>718</v>
       </c>
-      <c r="F34" s="12">
+      <c r="F34" s="57">
         <v>466</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G34" s="57">
         <v>534</v>
       </c>
-      <c r="H34" s="12">
+      <c r="H34" s="57">
         <v>369</v>
       </c>
-      <c r="I34" s="12">
+      <c r="I34" s="57">
         <v>2051</v>
       </c>
-      <c r="J34" s="12">
+      <c r="J34" s="57">
         <v>44</v>
       </c>
-      <c r="K34" s="12">
+      <c r="K34" s="57">
         <v>409</v>
       </c>
-      <c r="L34" s="12">
+      <c r="L34" s="57">
         <v>112</v>
       </c>
-      <c r="M34" s="12">
+      <c r="M34" s="57">
         <v>287</v>
       </c>
-      <c r="N34" s="12">
+      <c r="N34" s="57">
         <v>316</v>
       </c>
-      <c r="O34" s="12">
+      <c r="O34" s="57">
         <v>54</v>
       </c>
-      <c r="P34" s="12">
+      <c r="P34" s="57">
         <v>37</v>
       </c>
-      <c r="Q34" s="12"/>
-      <c r="R34" s="12">
+      <c r="Q34" s="57"/>
+      <c r="R34" s="57">
         <v>36</v>
       </c>
-      <c r="S34" s="12">
+      <c r="S34" s="57">
         <v>157</v>
       </c>
-      <c r="T34" s="12">
+      <c r="T34" s="57">
         <v>119</v>
       </c>
-      <c r="U34" s="12">
+      <c r="U34" s="57">
         <v>117</v>
       </c>
       <c r="V34" s="44">
         <v>1688</v>
       </c>
-      <c r="W34" s="12">
+      <c r="W34" s="57">
         <v>40</v>
       </c>
-      <c r="X34" s="12">
+      <c r="X34" s="57">
         <v>2745</v>
       </c>
-      <c r="Y34" s="12">
+      <c r="Y34" s="57">
         <v>808</v>
       </c>
-      <c r="Z34" s="12">
+      <c r="Z34" s="57">
         <v>101</v>
       </c>
-      <c r="AA34" s="12">
+      <c r="AA34" s="57">
         <v>1578</v>
       </c>
-      <c r="AB34" s="12">
+      <c r="AB34" s="57">
         <v>13512</v>
       </c>
       <c r="AC34" s="15" t="str">
-        <f>DAY(A34)&amp;"/"&amp;MONTH(A34)&amp;"/"&amp;YEAR(A34)&amp;$AC$1&amp;DAY(A34)&amp;$AC$1&amp;MONTH(A34)&amp;$AC$1&amp;YEAR(A34)</f>
+        <f t="shared" si="9"/>
         <v>27/3/2020,27,3,2020</v>
       </c>
       <c r="AD34" s="3" t="str">
@@ -10627,85 +10711,85 @@
         <v>27/3/2020,27,3,2020,13512,255,CH,nn,nnn,8543707</v>
       </c>
     </row>
-    <row r="35" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A35" s="39">
+    <row r="35" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="54">
         <v>43918</v>
       </c>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12">
+      <c r="B35" s="55"/>
+      <c r="C35" s="55">
         <v>13</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D35" s="55">
         <v>45</v>
       </c>
-      <c r="E35" s="12">
+      <c r="E35" s="55">
         <v>767</v>
       </c>
-      <c r="F35" s="12">
+      <c r="F35" s="55">
         <v>502</v>
       </c>
-      <c r="G35" s="12">
+      <c r="G35" s="55">
         <v>573</v>
       </c>
-      <c r="H35" s="12">
+      <c r="H35" s="55">
         <v>421</v>
       </c>
-      <c r="I35" s="12">
+      <c r="I35" s="55">
         <v>2277</v>
       </c>
-      <c r="J35" s="12">
+      <c r="J35" s="55">
         <v>47</v>
       </c>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12">
+      <c r="K35" s="55"/>
+      <c r="L35" s="55">
         <v>118</v>
       </c>
-      <c r="M35" s="12">
+      <c r="M35" s="55">
         <v>317</v>
       </c>
-      <c r="N35" s="12">
+      <c r="N35" s="55">
         <v>337</v>
       </c>
-      <c r="O35" s="12">
+      <c r="O35" s="55">
         <v>55</v>
       </c>
-      <c r="P35" s="12"/>
-      <c r="Q35" s="12">
+      <c r="P35" s="55"/>
+      <c r="Q35" s="55">
         <v>339</v>
       </c>
-      <c r="R35" s="12">
+      <c r="R35" s="55">
         <v>37</v>
       </c>
-      <c r="S35" s="12">
+      <c r="S35" s="55">
         <v>173</v>
       </c>
-      <c r="T35" s="12">
+      <c r="T35" s="55">
         <v>122</v>
       </c>
-      <c r="U35" s="12">
+      <c r="U35" s="55">
         <v>134</v>
       </c>
       <c r="V35" s="44">
         <v>1727</v>
       </c>
-      <c r="W35" s="12">
+      <c r="W35" s="55">
         <v>48</v>
       </c>
-      <c r="X35" s="12">
+      <c r="X35" s="55">
         <v>2936</v>
       </c>
-      <c r="Y35" s="12">
+      <c r="Y35" s="55">
         <v>902</v>
       </c>
-      <c r="Z35" s="12"/>
-      <c r="AA35" s="12">
+      <c r="Z35" s="55"/>
+      <c r="AA35" s="55">
         <v>1720</v>
       </c>
-      <c r="AB35" s="12">
+      <c r="AB35" s="55">
         <v>14521</v>
       </c>
       <c r="AC35" s="15" t="str">
-        <f>DAY(A35)&amp;"/"&amp;MONTH(A35)&amp;"/"&amp;YEAR(A35)&amp;$AC$1&amp;DAY(A35)&amp;$AC$1&amp;MONTH(A35)&amp;$AC$1&amp;YEAR(A35)</f>
+        <f t="shared" si="9"/>
         <v>28/3/2020,28,3,2020</v>
       </c>
       <c r="AD35" s="3" t="str">
@@ -10817,81 +10901,81 @@
         <v>28/3/2020,28,3,2020,14521,292,CH,nn,nnn,8543707</v>
       </c>
     </row>
-    <row r="36" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A36" s="39">
+    <row r="36" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="56">
         <v>43919</v>
       </c>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12">
+      <c r="B36" s="57"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57">
         <v>48</v>
       </c>
-      <c r="E36" s="12">
+      <c r="E36" s="57">
         <v>798</v>
       </c>
-      <c r="F36" s="12">
+      <c r="F36" s="57">
         <v>511</v>
       </c>
-      <c r="G36" s="12">
+      <c r="G36" s="57">
         <v>609</v>
       </c>
-      <c r="H36" s="12">
+      <c r="H36" s="57">
         <v>442</v>
       </c>
-      <c r="I36" s="12">
+      <c r="I36" s="57">
         <v>2349</v>
       </c>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12">
+      <c r="J36" s="57"/>
+      <c r="K36" s="57"/>
+      <c r="L36" s="57">
         <v>118</v>
       </c>
-      <c r="M36" s="12">
+      <c r="M36" s="57">
         <v>339</v>
       </c>
-      <c r="N36" s="12">
+      <c r="N36" s="57">
         <v>346</v>
       </c>
-      <c r="O36" s="12">
+      <c r="O36" s="57">
         <v>59</v>
       </c>
-      <c r="P36" s="12"/>
-      <c r="Q36" s="12">
+      <c r="P36" s="57"/>
+      <c r="Q36" s="57">
         <v>365</v>
       </c>
-      <c r="R36" s="12">
+      <c r="R36" s="57">
         <v>40</v>
       </c>
-      <c r="S36" s="12">
+      <c r="S36" s="57">
         <v>190</v>
       </c>
-      <c r="T36" s="12">
+      <c r="T36" s="57">
         <v>128</v>
       </c>
-      <c r="U36" s="12">
+      <c r="U36" s="57">
         <v>138</v>
       </c>
       <c r="V36" s="44">
         <v>1837</v>
       </c>
-      <c r="W36" s="12">
+      <c r="W36" s="57">
         <v>50</v>
       </c>
-      <c r="X36" s="12">
+      <c r="X36" s="57">
         <v>3168</v>
       </c>
-      <c r="Y36" s="12">
+      <c r="Y36" s="57">
         <v>964</v>
       </c>
-      <c r="Z36" s="12"/>
-      <c r="AA36" s="12">
+      <c r="Z36" s="57"/>
+      <c r="AA36" s="57">
         <v>1758</v>
       </c>
-      <c r="AB36" s="12">
+      <c r="AB36" s="57">
         <v>15228</v>
       </c>
       <c r="AC36" s="15" t="str">
-        <f>DAY(A36)&amp;"/"&amp;MONTH(A36)&amp;"/"&amp;YEAR(A36)&amp;$AC$1&amp;DAY(A36)&amp;$AC$1&amp;MONTH(A36)&amp;$AC$1&amp;YEAR(A36)</f>
+        <f t="shared" si="9"/>
         <v>29/3/2020,29,3,2020</v>
       </c>
       <c r="AD36" s="3" t="str">
@@ -11003,91 +11087,91 @@
         <v>29/3/2020,29,3,2020,15228,328,CH,nn,nnn,8543707</v>
       </c>
     </row>
-    <row r="37" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A37" s="39">
+    <row r="37" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="54">
         <v>43920</v>
       </c>
-      <c r="B37" s="12">
+      <c r="B37" s="55">
         <v>481</v>
       </c>
-      <c r="C37" s="12">
+      <c r="C37" s="55">
         <v>14</v>
       </c>
-      <c r="D37" s="12">
+      <c r="D37" s="55">
         <v>50</v>
       </c>
-      <c r="E37" s="12">
+      <c r="E37" s="55">
         <v>826</v>
       </c>
-      <c r="F37" s="12">
+      <c r="F37" s="55">
         <v>539</v>
       </c>
-      <c r="G37" s="12">
+      <c r="G37" s="55">
         <v>621</v>
       </c>
-      <c r="H37" s="12">
+      <c r="H37" s="55">
         <v>477</v>
       </c>
-      <c r="I37" s="12">
+      <c r="I37" s="55">
         <v>2450</v>
       </c>
-      <c r="J37" s="12">
+      <c r="J37" s="55">
         <v>50</v>
       </c>
-      <c r="K37" s="12">
+      <c r="K37" s="55">
         <v>497</v>
       </c>
-      <c r="L37" s="12">
+      <c r="L37" s="55">
         <v>122</v>
       </c>
-      <c r="M37" s="12">
+      <c r="M37" s="55">
         <v>351</v>
       </c>
-      <c r="N37" s="12">
+      <c r="N37" s="55">
         <v>378</v>
       </c>
-      <c r="O37" s="12">
+      <c r="O37" s="55">
         <v>63</v>
       </c>
-      <c r="P37" s="12">
+      <c r="P37" s="55">
         <v>46</v>
       </c>
-      <c r="Q37" s="12">
+      <c r="Q37" s="55">
         <v>389</v>
       </c>
-      <c r="R37" s="12">
+      <c r="R37" s="55">
         <v>41</v>
       </c>
-      <c r="S37" s="12"/>
-      <c r="T37" s="12">
+      <c r="S37" s="55"/>
+      <c r="T37" s="55">
         <v>135</v>
       </c>
-      <c r="U37" s="12">
+      <c r="U37" s="55">
         <v>148</v>
       </c>
       <c r="V37" s="44">
         <v>1962</v>
       </c>
-      <c r="W37" s="12">
+      <c r="W37" s="55">
         <v>53</v>
       </c>
-      <c r="X37" s="12">
+      <c r="X37" s="55">
         <v>3272</v>
       </c>
-      <c r="Y37" s="12">
+      <c r="Y37" s="55">
         <v>1000</v>
       </c>
-      <c r="Z37" s="12">
+      <c r="Z37" s="55">
         <v>112</v>
       </c>
-      <c r="AA37" s="12">
+      <c r="AA37" s="55">
         <v>1874</v>
       </c>
-      <c r="AB37" s="12">
+      <c r="AB37" s="55">
         <v>16141</v>
       </c>
       <c r="AC37" s="15" t="str">
-        <f>DAY(A37)&amp;"/"&amp;MONTH(A37)&amp;"/"&amp;YEAR(A37)&amp;$AC$1&amp;DAY(A37)&amp;$AC$1&amp;MONTH(A37)&amp;$AC$1&amp;YEAR(A37)</f>
+        <f t="shared" si="9"/>
         <v>30/3/2020,30,3,2020</v>
       </c>
       <c r="AD37" s="3" t="str">
@@ -11199,93 +11283,93 @@
         <v>30/3/2020,30,3,2020,16141,384,CH,nn,nnn,8543707</v>
       </c>
     </row>
-    <row r="38" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A38" s="39">
+    <row r="38" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="56">
         <v>43921</v>
       </c>
-      <c r="B38" s="12">
+      <c r="B38" s="57">
         <v>499</v>
       </c>
-      <c r="C38" s="12">
+      <c r="C38" s="57">
         <v>14</v>
       </c>
-      <c r="D38" s="12">
+      <c r="D38" s="57">
         <v>58</v>
       </c>
-      <c r="E38" s="12">
+      <c r="E38" s="57">
         <v>856</v>
       </c>
-      <c r="F38" s="12">
+      <c r="F38" s="57">
         <v>561</v>
       </c>
-      <c r="G38" s="12">
+      <c r="G38" s="57">
         <v>657</v>
       </c>
-      <c r="H38" s="12">
+      <c r="H38" s="57">
         <v>491</v>
       </c>
-      <c r="I38" s="12">
+      <c r="I38" s="57">
         <v>2657</v>
       </c>
-      <c r="J38" s="12">
+      <c r="J38" s="57">
         <v>53</v>
       </c>
-      <c r="K38" s="12">
+      <c r="K38" s="57">
         <v>513</v>
       </c>
-      <c r="L38" s="12">
+      <c r="L38" s="57">
         <v>127</v>
       </c>
-      <c r="M38" s="12">
+      <c r="M38" s="57">
         <v>375</v>
       </c>
-      <c r="N38" s="12">
+      <c r="N38" s="57">
         <v>402</v>
       </c>
-      <c r="O38" s="12">
+      <c r="O38" s="57">
         <v>70</v>
       </c>
-      <c r="P38" s="12">
+      <c r="P38" s="57">
         <v>46</v>
       </c>
-      <c r="Q38" s="12">
+      <c r="Q38" s="57">
         <v>414</v>
       </c>
-      <c r="R38" s="12">
+      <c r="R38" s="57">
         <v>42</v>
       </c>
-      <c r="S38" s="12">
+      <c r="S38" s="57">
         <v>196</v>
       </c>
-      <c r="T38" s="12">
+      <c r="T38" s="57">
         <v>141</v>
       </c>
-      <c r="U38" s="12">
+      <c r="U38" s="57">
         <v>154</v>
       </c>
       <c r="V38" s="44">
         <v>2091</v>
       </c>
-      <c r="W38" s="12">
+      <c r="W38" s="57">
         <v>57</v>
       </c>
-      <c r="X38" s="12">
+      <c r="X38" s="57">
         <v>3465</v>
       </c>
-      <c r="Y38" s="12">
+      <c r="Y38" s="57">
         <v>1085</v>
       </c>
-      <c r="Z38" s="12">
+      <c r="Z38" s="57">
         <v>114</v>
       </c>
-      <c r="AA38" s="12">
+      <c r="AA38" s="57">
         <v>1960</v>
       </c>
-      <c r="AB38" s="12">
+      <c r="AB38" s="57">
         <v>17098</v>
       </c>
       <c r="AC38" s="15" t="str">
-        <f>DAY(A38)&amp;"/"&amp;MONTH(A38)&amp;"/"&amp;YEAR(A38)&amp;$AC$1&amp;DAY(A38)&amp;$AC$1&amp;MONTH(A38)&amp;$AC$1&amp;YEAR(A38)</f>
+        <f t="shared" si="9"/>
         <v>31/3/2020,31,3,2020</v>
       </c>
       <c r="AD38" s="3" t="str">
@@ -11397,91 +11481,91 @@
         <v>31/3/2020,31,3,2020,17098,457,CH,nn,nnn,8543707</v>
       </c>
     </row>
-    <row r="39" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A39" s="39">
+    <row r="39" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="54">
         <v>43922</v>
       </c>
-      <c r="B39" s="12">
+      <c r="B39" s="55">
         <v>549</v>
       </c>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12">
+      <c r="C39" s="55"/>
+      <c r="D39" s="55">
         <v>61</v>
       </c>
-      <c r="E39" s="12">
+      <c r="E39" s="55">
         <v>909</v>
       </c>
-      <c r="F39" s="12">
+      <c r="F39" s="55">
         <v>588</v>
       </c>
-      <c r="G39" s="12">
+      <c r="G39" s="55">
         <v>691</v>
       </c>
-      <c r="H39" s="12">
+      <c r="H39" s="55">
         <v>525</v>
       </c>
-      <c r="I39" s="12">
+      <c r="I39" s="55">
         <v>2775</v>
       </c>
-      <c r="J39" s="12">
+      <c r="J39" s="55">
         <v>56</v>
       </c>
-      <c r="K39" s="12">
+      <c r="K39" s="55">
         <v>521</v>
       </c>
-      <c r="L39" s="12">
+      <c r="L39" s="55">
         <v>144</v>
       </c>
-      <c r="M39" s="12">
+      <c r="M39" s="55">
         <v>401</v>
       </c>
-      <c r="N39" s="12">
+      <c r="N39" s="55">
         <v>420</v>
       </c>
-      <c r="O39" s="12">
+      <c r="O39" s="55">
         <v>70</v>
       </c>
-      <c r="P39" s="12">
+      <c r="P39" s="55">
         <v>48</v>
       </c>
-      <c r="Q39" s="12">
+      <c r="Q39" s="55">
         <v>414</v>
       </c>
-      <c r="R39" s="12">
+      <c r="R39" s="55">
         <v>44</v>
       </c>
-      <c r="S39" s="12">
+      <c r="S39" s="55">
         <v>216</v>
       </c>
-      <c r="T39" s="12">
+      <c r="T39" s="55">
         <v>146</v>
       </c>
-      <c r="U39" s="12">
+      <c r="U39" s="55">
         <v>166</v>
       </c>
       <c r="V39" s="44">
         <v>2195</v>
       </c>
-      <c r="W39" s="12">
+      <c r="W39" s="55">
         <v>59</v>
       </c>
-      <c r="X39" s="12">
+      <c r="X39" s="55">
         <v>3639</v>
       </c>
-      <c r="Y39" s="12">
+      <c r="Y39" s="55">
         <v>1145</v>
       </c>
-      <c r="Z39" s="12">
+      <c r="Z39" s="55">
         <v>125</v>
       </c>
-      <c r="AA39" s="12">
+      <c r="AA39" s="55">
         <v>2148</v>
       </c>
-      <c r="AB39" s="12">
+      <c r="AB39" s="55">
         <v>18069</v>
       </c>
       <c r="AC39" s="15" t="str">
-        <f>DAY(A39)&amp;"/"&amp;MONTH(A39)&amp;"/"&amp;YEAR(A39)&amp;$AC$1&amp;DAY(A39)&amp;$AC$1&amp;MONTH(A39)&amp;$AC$1&amp;YEAR(A39)</f>
+        <f t="shared" si="9"/>
         <v>1/4/2020,1,4,2020</v>
       </c>
       <c r="AD39" s="3" t="str">
@@ -11593,93 +11677,93 @@
         <v>1/4/2020,1,4,2020,18069,515,CH,nn,nnn,8543707</v>
       </c>
     </row>
-    <row r="40" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A40" s="39">
+    <row r="40" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="56">
         <v>43923</v>
       </c>
-      <c r="B40" s="12">
+      <c r="B40" s="57">
         <v>592</v>
       </c>
-      <c r="C40" s="12">
+      <c r="C40" s="57">
         <v>20</v>
       </c>
-      <c r="D40" s="12">
+      <c r="D40" s="57">
         <v>64</v>
       </c>
-      <c r="E40" s="12">
+      <c r="E40" s="57">
         <v>1003</v>
       </c>
-      <c r="F40" s="12">
+      <c r="F40" s="57">
         <v>610</v>
       </c>
-      <c r="G40" s="12">
+      <c r="G40" s="57">
         <v>718</v>
       </c>
-      <c r="H40" s="12">
+      <c r="H40" s="57">
         <v>550</v>
       </c>
-      <c r="I40" s="12">
+      <c r="I40" s="57">
         <v>2938</v>
       </c>
-      <c r="J40" s="12">
+      <c r="J40" s="57">
         <v>58</v>
       </c>
-      <c r="K40" s="12">
+      <c r="K40" s="57">
         <v>569</v>
       </c>
-      <c r="L40" s="12">
+      <c r="L40" s="57">
         <v>145</v>
       </c>
-      <c r="M40" s="12">
+      <c r="M40" s="57">
         <v>422</v>
       </c>
-      <c r="N40" s="12">
+      <c r="N40" s="57">
         <v>430</v>
       </c>
-      <c r="O40" s="12">
+      <c r="O40" s="57">
         <v>76</v>
       </c>
-      <c r="P40" s="12">
+      <c r="P40" s="57">
         <v>51</v>
       </c>
-      <c r="Q40" s="12">
+      <c r="Q40" s="57">
         <v>480</v>
       </c>
-      <c r="R40" s="12">
+      <c r="R40" s="57">
         <v>47</v>
       </c>
-      <c r="S40" s="12">
+      <c r="S40" s="57">
         <v>227</v>
       </c>
-      <c r="T40" s="12">
+      <c r="T40" s="57">
         <v>155</v>
       </c>
-      <c r="U40" s="12">
+      <c r="U40" s="57">
         <v>179</v>
       </c>
       <c r="V40" s="44">
         <v>2271</v>
       </c>
-      <c r="W40" s="12">
+      <c r="W40" s="57">
         <v>60</v>
       </c>
-      <c r="X40" s="12">
+      <c r="X40" s="57">
         <v>3796</v>
       </c>
-      <c r="Y40" s="12">
+      <c r="Y40" s="57">
         <v>1218</v>
       </c>
-      <c r="Z40" s="12">
+      <c r="Z40" s="57">
         <v>131</v>
       </c>
-      <c r="AA40" s="12">
+      <c r="AA40" s="57">
         <v>2323</v>
       </c>
-      <c r="AB40" s="12">
+      <c r="AB40" s="57">
         <v>19133</v>
       </c>
       <c r="AC40" s="15" t="str">
-        <f>DAY(A40)&amp;"/"&amp;MONTH(A40)&amp;"/"&amp;YEAR(A40)&amp;$AC$1&amp;DAY(A40)&amp;$AC$1&amp;MONTH(A40)&amp;$AC$1&amp;YEAR(A40)</f>
+        <f t="shared" si="9"/>
         <v>2/4/2020,2,4,2020</v>
       </c>
       <c r="AD40" s="3" t="str">
@@ -11791,93 +11875,93 @@
         <v>2/4/2020,2,4,2020,19133,568,CH,nn,nnn,8543707</v>
       </c>
     </row>
-    <row r="41" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A41" s="39">
+    <row r="41" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="54">
         <v>43924</v>
       </c>
-      <c r="B41" s="12">
+      <c r="B41" s="55">
         <v>626</v>
       </c>
-      <c r="C41" s="12">
+      <c r="C41" s="55">
         <v>20</v>
       </c>
-      <c r="D41" s="12">
+      <c r="D41" s="55">
         <v>65</v>
       </c>
-      <c r="E41" s="12">
+      <c r="E41" s="55">
         <v>1073</v>
       </c>
-      <c r="F41" s="12">
+      <c r="F41" s="55">
         <v>625</v>
       </c>
-      <c r="G41" s="12">
+      <c r="G41" s="55">
         <v>758</v>
       </c>
-      <c r="H41" s="12">
+      <c r="H41" s="55">
         <v>588</v>
       </c>
-      <c r="I41" s="12">
+      <c r="I41" s="55">
         <v>3220</v>
       </c>
-      <c r="J41" s="12">
+      <c r="J41" s="55">
         <v>59</v>
       </c>
-      <c r="K41" s="12">
+      <c r="K41" s="55">
         <v>598</v>
       </c>
-      <c r="L41" s="12">
+      <c r="L41" s="55">
         <v>149</v>
       </c>
-      <c r="M41" s="12">
+      <c r="M41" s="55">
         <v>449</v>
       </c>
-      <c r="N41" s="12">
+      <c r="N41" s="55">
         <v>433</v>
       </c>
-      <c r="O41" s="12">
+      <c r="O41" s="55">
         <v>79</v>
       </c>
-      <c r="P41" s="12">
+      <c r="P41" s="55">
         <v>56</v>
       </c>
-      <c r="Q41" s="12">
+      <c r="Q41" s="55">
         <v>480</v>
       </c>
-      <c r="R41" s="12">
+      <c r="R41" s="55">
         <v>47</v>
       </c>
-      <c r="S41" s="12">
+      <c r="S41" s="55">
         <v>237</v>
       </c>
-      <c r="T41" s="12">
+      <c r="T41" s="55">
         <v>164</v>
       </c>
-      <c r="U41" s="12">
+      <c r="U41" s="55">
         <v>198</v>
       </c>
       <c r="V41" s="44">
         <v>2377</v>
       </c>
-      <c r="W41" s="12">
+      <c r="W41" s="55">
         <v>62</v>
       </c>
-      <c r="X41" s="12">
+      <c r="X41" s="55">
         <v>3915</v>
       </c>
-      <c r="Y41" s="12">
+      <c r="Y41" s="55">
         <v>1273</v>
       </c>
-      <c r="Z41" s="12">
+      <c r="Z41" s="55">
         <v>138</v>
       </c>
-      <c r="AA41" s="12">
+      <c r="AA41" s="55">
         <v>2452</v>
       </c>
-      <c r="AB41" s="12">
+      <c r="AB41" s="55">
         <v>20141</v>
       </c>
       <c r="AC41" s="15" t="str">
-        <f>DAY(A41)&amp;"/"&amp;MONTH(A41)&amp;"/"&amp;YEAR(A41)&amp;$AC$1&amp;DAY(A41)&amp;$AC$1&amp;MONTH(A41)&amp;$AC$1&amp;YEAR(A41)</f>
+        <f t="shared" si="9"/>
         <v>3/4/2020,3,4,2020</v>
       </c>
       <c r="AD41" s="3" t="str">
@@ -11989,83 +12073,83 @@
         <v>3/4/2020,3,4,2020,20141,629,CH,nn,nnn,8543707</v>
       </c>
     </row>
-    <row r="42" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A42" s="39">
+    <row r="42" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="56">
         <v>43925</v>
       </c>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12">
+      <c r="B42" s="57"/>
+      <c r="C42" s="57">
         <v>21</v>
       </c>
-      <c r="D42" s="12">
+      <c r="D42" s="57">
         <v>66</v>
       </c>
-      <c r="E42" s="12">
+      <c r="E42" s="57">
         <v>1106</v>
       </c>
-      <c r="F42" s="12">
+      <c r="F42" s="57">
         <v>656</v>
       </c>
-      <c r="G42" s="12">
+      <c r="G42" s="57">
         <v>771</v>
       </c>
-      <c r="H42" s="12">
+      <c r="H42" s="57">
         <v>638</v>
       </c>
-      <c r="I42" s="12">
+      <c r="I42" s="57">
         <v>3384</v>
       </c>
-      <c r="J42" s="12"/>
-      <c r="K42" s="12"/>
-      <c r="L42" s="12">
+      <c r="J42" s="57"/>
+      <c r="K42" s="57"/>
+      <c r="L42" s="57">
         <v>153</v>
       </c>
-      <c r="M42" s="12">
+      <c r="M42" s="57">
         <v>469</v>
       </c>
-      <c r="N42" s="12"/>
-      <c r="O42" s="12">
+      <c r="N42" s="57"/>
+      <c r="O42" s="57">
         <v>80</v>
       </c>
-      <c r="P42" s="12"/>
-      <c r="Q42" s="12">
+      <c r="P42" s="57"/>
+      <c r="Q42" s="57">
         <v>504</v>
       </c>
-      <c r="R42" s="12">
+      <c r="R42" s="57">
         <v>47</v>
       </c>
-      <c r="S42" s="12">
+      <c r="S42" s="57">
         <v>250</v>
       </c>
-      <c r="T42" s="12">
+      <c r="T42" s="57">
         <v>168</v>
       </c>
-      <c r="U42" s="12">
+      <c r="U42" s="57">
         <v>208</v>
       </c>
       <c r="V42" s="44">
         <v>2422</v>
       </c>
-      <c r="W42" s="12">
+      <c r="W42" s="57">
         <v>66</v>
       </c>
-      <c r="X42" s="12">
+      <c r="X42" s="57">
         <v>4035</v>
       </c>
-      <c r="Y42" s="12">
+      <c r="Y42" s="57">
         <v>1319</v>
       </c>
-      <c r="Z42" s="12">
+      <c r="Z42" s="57">
         <v>146</v>
       </c>
-      <c r="AA42" s="12">
+      <c r="AA42" s="57">
         <v>2492</v>
       </c>
-      <c r="AB42" s="12">
+      <c r="AB42" s="57">
         <v>20773</v>
       </c>
       <c r="AC42" s="15" t="str">
-        <f>DAY(A42)&amp;"/"&amp;MONTH(A42)&amp;"/"&amp;YEAR(A42)&amp;$AC$1&amp;DAY(A42)&amp;$AC$1&amp;MONTH(A42)&amp;$AC$1&amp;YEAR(A42)</f>
+        <f t="shared" si="9"/>
         <v>4/4/2020,4,4,2020</v>
       </c>
       <c r="AD42" s="3" t="str">
@@ -12177,73 +12261,83 @@
         <v>4/4/2020,4,4,2020,20773,687,CH,nn,nnn,8543707</v>
       </c>
     </row>
-    <row r="43" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A43" s="39">
+    <row r="43" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="54">
         <v>43926</v>
       </c>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12">
+      <c r="B43" s="55"/>
+      <c r="C43" s="55"/>
+      <c r="D43" s="55">
         <v>67</v>
       </c>
-      <c r="E43" s="12">
+      <c r="E43" s="55">
         <v>1137</v>
       </c>
-      <c r="F43" s="12">
+      <c r="F43" s="55">
         <v>670</v>
       </c>
-      <c r="G43" s="12">
+      <c r="G43" s="55">
         <v>794</v>
       </c>
-      <c r="H43" s="12">
+      <c r="H43" s="55">
         <v>669</v>
       </c>
-      <c r="I43" s="12"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="12"/>
-      <c r="L43" s="12">
+      <c r="I43" s="55">
+        <v>3439</v>
+      </c>
+      <c r="J43" s="55"/>
+      <c r="K43" s="55">
+        <v>646</v>
+      </c>
+      <c r="L43" s="55">
         <v>156</v>
       </c>
-      <c r="M43" s="12">
+      <c r="M43" s="55">
         <v>478</v>
       </c>
-      <c r="N43" s="12"/>
-      <c r="O43" s="12">
+      <c r="N43" s="55">
+        <v>459</v>
+      </c>
+      <c r="O43" s="55">
         <v>80</v>
       </c>
-      <c r="P43" s="12"/>
-      <c r="Q43" s="12">
+      <c r="P43" s="55"/>
+      <c r="Q43" s="55">
         <v>515</v>
       </c>
-      <c r="R43" s="12"/>
-      <c r="S43" s="12">
+      <c r="R43" s="55">
+        <v>49</v>
+      </c>
+      <c r="S43" s="55">
         <v>258</v>
       </c>
-      <c r="T43" s="12">
+      <c r="T43" s="55">
         <v>170</v>
       </c>
-      <c r="U43" s="12">
+      <c r="U43" s="55">
         <v>213</v>
       </c>
       <c r="V43" s="44">
         <v>2508</v>
       </c>
-      <c r="W43" s="12">
+      <c r="W43" s="55">
         <v>67</v>
       </c>
-      <c r="X43" s="12"/>
-      <c r="Y43" s="12">
+      <c r="X43" s="55">
+        <v>4115</v>
+      </c>
+      <c r="Y43" s="55">
         <v>1356</v>
       </c>
-      <c r="Z43" s="12"/>
-      <c r="AA43" s="12">
+      <c r="Z43" s="55"/>
+      <c r="AA43" s="55">
         <v>2522</v>
       </c>
-      <c r="AB43" s="12">
-        <v>21065</v>
+      <c r="AB43" s="55">
+        <v>21276</v>
       </c>
       <c r="AC43" s="15" t="str">
-        <f>DAY(A43)&amp;"/"&amp;MONTH(A43)&amp;"/"&amp;YEAR(A43)&amp;$AC$1&amp;DAY(A43)&amp;$AC$1&amp;MONTH(A43)&amp;$AC$1&amp;YEAR(A43)</f>
+        <f t="shared" si="9"/>
         <v>5/4/2020,5,4,2020</v>
       </c>
       <c r="AD43" s="3" t="str">
@@ -12276,7 +12370,7 @@
       </c>
       <c r="AK43" s="3" t="str">
         <f>$AC43&amp;$AC$1&amp;I43&amp;$AC$1&amp;fatalities!I44&amp;$AC$1&amp;I$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;I$2</f>
-        <v>5/4/2020,5,4,2020,,,GE,nn,nnn,499480</v>
+        <v>5/4/2020,5,4,2020,3439,92,GE,nn,nnn,499480</v>
       </c>
       <c r="AL43" s="3" t="str">
         <f>$AC43&amp;$AC$1&amp;J43&amp;$AC$1&amp;fatalities!J44&amp;$AC$1&amp;J$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;J$2</f>
@@ -12284,7 +12378,7 @@
       </c>
       <c r="AM43" s="3" t="str">
         <f>$AC43&amp;$AC$1&amp;K43&amp;$AC$1&amp;fatalities!K44&amp;$AC$1&amp;K$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;K$2</f>
-        <v>5/4/2020,5,4,2020,,,GR,nn,nnn,198379</v>
+        <v>5/4/2020,5,4,2020,646,30,GR,nn,nnn,198379</v>
       </c>
       <c r="AN43" s="3" t="str">
         <f>$AC43&amp;$AC$1&amp;L43&amp;$AC$1&amp;fatalities!L44&amp;$AC$1&amp;L$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;L$2</f>
@@ -12296,7 +12390,7 @@
       </c>
       <c r="AP43" s="3" t="str">
         <f>$AC43&amp;$AC$1&amp;N43&amp;$AC$1&amp;fatalities!N44&amp;$AC$1&amp;N$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;N$2</f>
-        <v>5/4/2020,5,4,2020,,,NE,nn,nnn,176850</v>
+        <v>5/4/2020,5,4,2020,459,26,NE,nn,nnn,176850</v>
       </c>
       <c r="AQ43" s="3" t="str">
         <f>$AC43&amp;$AC$1&amp;O43&amp;$AC$1&amp;fatalities!O44&amp;$AC$1&amp;O$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;O$2</f>
@@ -12312,7 +12406,7 @@
       </c>
       <c r="AT43" s="3" t="str">
         <f>$AC43&amp;$AC$1&amp;R43&amp;$AC$1&amp;fatalities!R44&amp;$AC$1&amp;R$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;R$2</f>
-        <v>5/4/2020,5,4,2020,,,SH,nn,nnn,81991</v>
+        <v>5/4/2020,5,4,2020,49,1,SH,nn,nnn,81991</v>
       </c>
       <c r="AU43" s="3" t="str">
         <f>$AC43&amp;$AC$1&amp;S43&amp;$AC$1&amp;fatalities!S44&amp;$AC$1&amp;S$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;S$2</f>
@@ -12336,7 +12430,7 @@
       </c>
       <c r="AZ43" s="3" t="str">
         <f>$AC43&amp;$AC$1&amp;X43&amp;$AC$1&amp;fatalities!X44&amp;$AC$1&amp;X$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;X$2</f>
-        <v>5/4/2020,5,4,2020,,,VD,nn,nnn,799145</v>
+        <v>5/4/2020,5,4,2020,4115,147,VD,nn,nnn,799145</v>
       </c>
       <c r="BA43" s="3" t="str">
         <f>$AC43&amp;$AC$1&amp;Y43&amp;$AC$1&amp;fatalities!Y44&amp;$AC$1&amp;Y$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Y$2</f>
@@ -12352,38 +12446,683 @@
       </c>
       <c r="BD43" s="3" t="str">
         <f>$AC43&amp;$AC$1&amp;AB43&amp;$AC$1&amp;fatalities!AB44&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2</f>
-        <v>5/4/2020,5,4,2020,21065,715,CH,nn,nnn,8543707</v>
-      </c>
-    </row>
-    <row r="44" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A44" s="12"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="12"/>
-      <c r="L44" s="12"/>
-      <c r="M44" s="12"/>
-      <c r="N44" s="12"/>
-      <c r="O44" s="12"/>
-      <c r="P44" s="12"/>
-      <c r="Q44" s="12"/>
-      <c r="R44" s="12"/>
-      <c r="S44" s="12"/>
-      <c r="T44" s="12"/>
-      <c r="U44" s="12"/>
-      <c r="V44" s="44"/>
-      <c r="W44" s="12"/>
-      <c r="X44" s="12"/>
-      <c r="Y44" s="12"/>
-      <c r="Z44" s="12"/>
-      <c r="AA44" s="12"/>
-      <c r="AB44" s="12"/>
+        <v>5/4/2020,5,4,2020,21276,738,CH,nn,nnn,8543707</v>
+      </c>
+    </row>
+    <row r="44" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="56">
+        <v>43927</v>
+      </c>
+      <c r="B44" s="57">
+        <v>727</v>
+      </c>
+      <c r="C44" s="57">
+        <v>21</v>
+      </c>
+      <c r="D44" s="57">
+        <v>69</v>
+      </c>
+      <c r="E44" s="57">
+        <v>1173</v>
+      </c>
+      <c r="F44" s="57">
+        <v>682</v>
+      </c>
+      <c r="G44" s="57">
+        <v>803</v>
+      </c>
+      <c r="H44" s="57"/>
+      <c r="I44" s="57"/>
+      <c r="J44" s="57">
+        <v>63</v>
+      </c>
+      <c r="K44" s="57"/>
+      <c r="L44" s="57">
+        <v>160</v>
+      </c>
+      <c r="M44" s="57">
+        <v>497</v>
+      </c>
+      <c r="N44" s="57"/>
+      <c r="O44" s="57">
+        <v>86</v>
+      </c>
+      <c r="P44" s="57">
+        <v>60</v>
+      </c>
+      <c r="Q44" s="57">
+        <v>532</v>
+      </c>
+      <c r="R44" s="57"/>
+      <c r="S44" s="57">
+        <v>261</v>
+      </c>
+      <c r="T44" s="57">
+        <v>178</v>
+      </c>
+      <c r="U44" s="57">
+        <v>219</v>
+      </c>
+      <c r="V44" s="44">
+        <v>2546</v>
+      </c>
+      <c r="W44" s="57">
+        <v>67</v>
+      </c>
+      <c r="X44" s="57"/>
+      <c r="Y44" s="57">
+        <v>1400</v>
+      </c>
+      <c r="Z44" s="57">
+        <v>152</v>
+      </c>
+      <c r="AA44" s="57">
+        <v>2590</v>
+      </c>
+      <c r="AB44" s="57">
+        <v>21663</v>
+      </c>
+      <c r="AC44" s="15" t="str">
+        <f t="shared" ref="AC44" si="10">DAY(A44)&amp;"/"&amp;MONTH(A44)&amp;"/"&amp;YEAR(A44)&amp;$AC$1&amp;DAY(A44)&amp;$AC$1&amp;MONTH(A44)&amp;$AC$1&amp;YEAR(A44)</f>
+        <v>6/4/2020,6,4,2020</v>
+      </c>
+      <c r="AD44" s="3" t="str">
+        <f>$AC44&amp;$AC$1&amp;B44&amp;$AC$1&amp;fatalities!B45&amp;$AC$1&amp;B$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;B$2</f>
+        <v>6/4/2020,6,4,2020,727,13,AG,nn,nnn,677387</v>
+      </c>
+      <c r="AE44" s="3" t="str">
+        <f>$AC44&amp;$AC$1&amp;C44&amp;$AC$1&amp;fatalities!C45&amp;$AC$1&amp;C$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;C$2</f>
+        <v>6/4/2020,6,4,2020,21,,AI,nn,nnn,16145</v>
+      </c>
+      <c r="AF44" s="3" t="str">
+        <f>$AC44&amp;$AC$1&amp;D44&amp;$AC$1&amp;fatalities!D45&amp;$AC$1&amp;D$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;D$2</f>
+        <v>6/4/2020,6,4,2020,69,3,AR,nn,nnn,55234</v>
+      </c>
+      <c r="AG44" s="3" t="str">
+        <f>$AC44&amp;$AC$1&amp;E44&amp;$AC$1&amp;fatalities!E45&amp;$AC$1&amp;E$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;E$2</f>
+        <v>6/4/2020,6,4,2020,1173,31,BE,nn,nnn,1034977</v>
+      </c>
+      <c r="AH44" s="3" t="str">
+        <f>$AC44&amp;$AC$1&amp;F44&amp;$AC$1&amp;fatalities!F45&amp;$AC$1&amp;F$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;F$2</f>
+        <v>6/4/2020,6,4,2020,682,19,BL,nn,nnn,288132</v>
+      </c>
+      <c r="AI44" s="3" t="str">
+        <f>$AC44&amp;$AC$1&amp;G44&amp;$AC$1&amp;fatalities!G45&amp;$AC$1&amp;G$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;G$2</f>
+        <v>6/4/2020,6,4,2020,803,26,BS,nn,nnn,194766</v>
+      </c>
+      <c r="AJ44" s="3" t="str">
+        <f>$AC44&amp;$AC$1&amp;H44&amp;$AC$1&amp;fatalities!H45&amp;$AC$1&amp;H$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;H$2</f>
+        <v>6/4/2020,6,4,2020,,,FR,nn,nnn,318714</v>
+      </c>
+      <c r="AK44" s="3" t="str">
+        <f>$AC44&amp;$AC$1&amp;I44&amp;$AC$1&amp;fatalities!I45&amp;$AC$1&amp;I$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;I$2</f>
+        <v>6/4/2020,6,4,2020,,,GE,nn,nnn,499480</v>
+      </c>
+      <c r="AL44" s="3" t="str">
+        <f>$AC44&amp;$AC$1&amp;J44&amp;$AC$1&amp;fatalities!J45&amp;$AC$1&amp;J$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;J$2</f>
+        <v>6/4/2020,6,4,2020,63,2,GL,nn,nnn,40403</v>
+      </c>
+      <c r="AM44" s="3" t="str">
+        <f>$AC44&amp;$AC$1&amp;K44&amp;$AC$1&amp;fatalities!K45&amp;$AC$1&amp;K$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;K$2</f>
+        <v>6/4/2020,6,4,2020,,,GR,nn,nnn,198379</v>
+      </c>
+      <c r="AN44" s="3" t="str">
+        <f>$AC44&amp;$AC$1&amp;L44&amp;$AC$1&amp;fatalities!L45&amp;$AC$1&amp;L$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;L$2</f>
+        <v>6/4/2020,6,4,2020,160,,JU,nn,nnn,73419</v>
+      </c>
+      <c r="AO44" s="3" t="str">
+        <f>$AC44&amp;$AC$1&amp;M44&amp;$AC$1&amp;fatalities!M45&amp;$AC$1&amp;M$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;M$2</f>
+        <v>6/4/2020,6,4,2020,497,9,LU,nn,nnn,409557</v>
+      </c>
+      <c r="AP44" s="3" t="str">
+        <f>$AC44&amp;$AC$1&amp;N44&amp;$AC$1&amp;fatalities!N45&amp;$AC$1&amp;N$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;N$2</f>
+        <v>6/4/2020,6,4,2020,,27,NE,nn,nnn,176850</v>
+      </c>
+      <c r="AQ44" s="3" t="str">
+        <f>$AC44&amp;$AC$1&amp;O44&amp;$AC$1&amp;fatalities!O45&amp;$AC$1&amp;O$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;O$2</f>
+        <v>6/4/2020,6,4,2020,86,0,NW,nn,nnn,43223</v>
+      </c>
+      <c r="AR44" s="3" t="str">
+        <f>$AC44&amp;$AC$1&amp;P44&amp;$AC$1&amp;fatalities!P45&amp;$AC$1&amp;P$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;P$2</f>
+        <v>6/4/2020,6,4,2020,60,0,OW,nn,nnn,37841</v>
+      </c>
+      <c r="AS44" s="3" t="str">
+        <f>$AC44&amp;$AC$1&amp;Q44&amp;$AC$1&amp;fatalities!Q45&amp;$AC$1&amp;Q$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Q$2</f>
+        <v>6/4/2020,6,4,2020,532,11,SG,nn,nnn,507697</v>
+      </c>
+      <c r="AT44" s="3" t="str">
+        <f>$AC44&amp;$AC$1&amp;R44&amp;$AC$1&amp;fatalities!R45&amp;$AC$1&amp;R$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;R$2</f>
+        <v>6/4/2020,6,4,2020,,,SH,nn,nnn,81991</v>
+      </c>
+      <c r="AU44" s="3" t="str">
+        <f>$AC44&amp;$AC$1&amp;S44&amp;$AC$1&amp;fatalities!S45&amp;$AC$1&amp;S$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;S$2</f>
+        <v>6/4/2020,6,4,2020,261,3,SO,nn,nnn,273194</v>
+      </c>
+      <c r="AV44" s="3" t="str">
+        <f>$AC44&amp;$AC$1&amp;T44&amp;$AC$1&amp;fatalities!T45&amp;$AC$1&amp;T$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;T$2</f>
+        <v>6/4/2020,6,4,2020,178,6,SZ,nn,nnn,159165</v>
+      </c>
+      <c r="AW44" s="3" t="str">
+        <f>$AC44&amp;$AC$1&amp;U44&amp;$AC$1&amp;fatalities!U45&amp;$AC$1&amp;U$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;U$2</f>
+        <v>6/4/2020,6,4,2020,219,7,TG,nn,nnn,276472</v>
+      </c>
+      <c r="AX44" s="3" t="str">
+        <f>$AC44&amp;$AC$1&amp;V44&amp;$AC$1&amp;fatalities!V45&amp;$AC$1&amp;V$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;V$2</f>
+        <v>6/4/2020,6,4,2020,2546,189,TI,nn,nnn,353343</v>
+      </c>
+      <c r="AY44" s="3" t="str">
+        <f>$AC44&amp;$AC$1&amp;W44&amp;$AC$1&amp;fatalities!W45&amp;$AC$1&amp;W$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;W$2</f>
+        <v>6/4/2020,6,4,2020,67,2,UR,nn,nnn,36433</v>
+      </c>
+      <c r="AZ44" s="3" t="str">
+        <f>$AC44&amp;$AC$1&amp;X44&amp;$AC$1&amp;fatalities!X45&amp;$AC$1&amp;X$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;X$2</f>
+        <v>6/4/2020,6,4,2020,,,VD,nn,nnn,799145</v>
+      </c>
+      <c r="BA44" s="3" t="str">
+        <f>$AC44&amp;$AC$1&amp;Y44&amp;$AC$1&amp;fatalities!Y45&amp;$AC$1&amp;Y$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Y$2</f>
+        <v>6/4/2020,6,4,2020,1400,56,VS,nn,nnn,343955</v>
+      </c>
+      <c r="BB44" s="3" t="str">
+        <f>$AC44&amp;$AC$1&amp;Z44&amp;$AC$1&amp;fatalities!Z45&amp;$AC$1&amp;Z$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Z$2</f>
+        <v>6/4/2020,6,4,2020,152,3,ZG,nn,nnn,126837</v>
+      </c>
+      <c r="BC44" s="3" t="str">
+        <f>$AC44&amp;$AC$1&amp;AA44&amp;$AC$1&amp;fatalities!AA45&amp;$AC$1&amp;AA$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AA$2</f>
+        <v>6/4/2020,6,4,2020,2590,48,ZH,nn,nnn,1520968</v>
+      </c>
+      <c r="BD44" s="3" t="str">
+        <f>$AC44&amp;$AC$1&amp;AB44&amp;$AC$1&amp;fatalities!AB45&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2</f>
+        <v>6/4/2020,6,4,2020,21663,765,CH,nn,nnn,8543707</v>
+      </c>
+    </row>
+    <row r="45" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="54"/>
+      <c r="B45" s="55"/>
+      <c r="C45" s="55"/>
+      <c r="D45" s="55"/>
+      <c r="E45" s="55"/>
+      <c r="F45" s="55"/>
+      <c r="G45" s="55"/>
+      <c r="H45" s="55"/>
+      <c r="I45" s="55"/>
+      <c r="J45" s="55"/>
+      <c r="K45" s="55"/>
+      <c r="L45" s="55"/>
+      <c r="M45" s="55"/>
+      <c r="N45" s="55"/>
+      <c r="O45" s="55"/>
+      <c r="P45" s="55"/>
+      <c r="Q45" s="55"/>
+      <c r="R45" s="55"/>
+      <c r="S45" s="55"/>
+      <c r="T45" s="55"/>
+      <c r="U45" s="55"/>
+      <c r="V45" s="55"/>
+      <c r="W45" s="55"/>
+      <c r="X45" s="55"/>
+      <c r="Y45" s="55"/>
+      <c r="Z45" s="55"/>
+      <c r="AA45" s="55"/>
+      <c r="AB45" s="55"/>
+      <c r="AC45" s="10"/>
+    </row>
+    <row r="46" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="56"/>
+      <c r="B46" s="57"/>
+      <c r="C46" s="57"/>
+      <c r="D46" s="57"/>
+      <c r="E46" s="57"/>
+      <c r="F46" s="57"/>
+      <c r="G46" s="57"/>
+      <c r="H46" s="57"/>
+      <c r="I46" s="57"/>
+      <c r="J46" s="57"/>
+      <c r="K46" s="57"/>
+      <c r="L46" s="57"/>
+      <c r="M46" s="57"/>
+      <c r="N46" s="57"/>
+      <c r="O46" s="57"/>
+      <c r="P46" s="57"/>
+      <c r="Q46" s="57"/>
+      <c r="R46" s="57"/>
+      <c r="S46" s="57"/>
+      <c r="T46" s="57"/>
+      <c r="U46" s="57"/>
+      <c r="V46" s="57"/>
+      <c r="W46" s="57"/>
+      <c r="X46" s="57"/>
+      <c r="Y46" s="57"/>
+      <c r="Z46" s="57"/>
+      <c r="AA46" s="57"/>
+      <c r="AB46" s="57"/>
+    </row>
+    <row r="47" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="54"/>
+      <c r="B47" s="55"/>
+      <c r="C47" s="55"/>
+      <c r="D47" s="55"/>
+      <c r="E47" s="55"/>
+      <c r="F47" s="55"/>
+      <c r="G47" s="55"/>
+      <c r="H47" s="55"/>
+      <c r="I47" s="55"/>
+      <c r="J47" s="55"/>
+      <c r="K47" s="55"/>
+      <c r="L47" s="55"/>
+      <c r="M47" s="55"/>
+      <c r="N47" s="55"/>
+      <c r="O47" s="55"/>
+      <c r="P47" s="55"/>
+      <c r="Q47" s="55"/>
+      <c r="R47" s="55"/>
+      <c r="S47" s="55"/>
+      <c r="T47" s="55"/>
+      <c r="U47" s="55"/>
+      <c r="V47" s="55"/>
+      <c r="W47" s="55"/>
+      <c r="X47" s="55"/>
+      <c r="Y47" s="55"/>
+      <c r="Z47" s="55"/>
+      <c r="AA47" s="55"/>
+      <c r="AB47" s="55"/>
+    </row>
+    <row r="48" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="56"/>
+      <c r="B48" s="57"/>
+      <c r="C48" s="57"/>
+      <c r="D48" s="57"/>
+      <c r="E48" s="57"/>
+      <c r="F48" s="57"/>
+      <c r="G48" s="57"/>
+      <c r="H48" s="57"/>
+      <c r="I48" s="57"/>
+      <c r="J48" s="57"/>
+      <c r="K48" s="57"/>
+      <c r="L48" s="57"/>
+      <c r="M48" s="57"/>
+      <c r="N48" s="57"/>
+      <c r="O48" s="57"/>
+      <c r="P48" s="57"/>
+      <c r="Q48" s="57"/>
+      <c r="R48" s="57"/>
+      <c r="S48" s="57"/>
+      <c r="T48" s="57"/>
+      <c r="U48" s="57"/>
+      <c r="V48" s="57"/>
+      <c r="W48" s="57"/>
+      <c r="X48" s="57"/>
+      <c r="Y48" s="57"/>
+      <c r="Z48" s="57"/>
+      <c r="AA48" s="57"/>
+      <c r="AB48" s="57"/>
+    </row>
+    <row r="49" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="54"/>
+      <c r="B49" s="55"/>
+      <c r="C49" s="55"/>
+      <c r="D49" s="55"/>
+      <c r="E49" s="55"/>
+      <c r="F49" s="55"/>
+      <c r="G49" s="55"/>
+      <c r="H49" s="55"/>
+      <c r="I49" s="55"/>
+      <c r="J49" s="55"/>
+      <c r="K49" s="55"/>
+      <c r="L49" s="55"/>
+      <c r="M49" s="55"/>
+      <c r="N49" s="55"/>
+      <c r="O49" s="55"/>
+      <c r="P49" s="55"/>
+      <c r="Q49" s="55"/>
+      <c r="R49" s="55"/>
+      <c r="S49" s="55"/>
+      <c r="T49" s="55"/>
+      <c r="U49" s="55"/>
+      <c r="V49" s="55"/>
+      <c r="W49" s="55"/>
+      <c r="X49" s="55"/>
+      <c r="Y49" s="55"/>
+      <c r="Z49" s="55"/>
+      <c r="AA49" s="55"/>
+      <c r="AB49" s="55"/>
+    </row>
+    <row r="50" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="56"/>
+      <c r="B50" s="57"/>
+      <c r="C50" s="57"/>
+      <c r="D50" s="57"/>
+      <c r="E50" s="57"/>
+      <c r="F50" s="57"/>
+      <c r="G50" s="57"/>
+      <c r="H50" s="57"/>
+      <c r="I50" s="57"/>
+      <c r="J50" s="57"/>
+      <c r="K50" s="57"/>
+      <c r="L50" s="57"/>
+      <c r="M50" s="57"/>
+      <c r="N50" s="57"/>
+      <c r="O50" s="57"/>
+      <c r="P50" s="57"/>
+      <c r="Q50" s="57"/>
+      <c r="R50" s="57"/>
+      <c r="S50" s="57"/>
+      <c r="T50" s="57"/>
+      <c r="U50" s="57"/>
+      <c r="V50" s="57"/>
+      <c r="W50" s="57"/>
+      <c r="X50" s="57"/>
+      <c r="Y50" s="57"/>
+      <c r="Z50" s="57"/>
+      <c r="AA50" s="57"/>
+      <c r="AB50" s="57"/>
+    </row>
+    <row r="51" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="54"/>
+      <c r="B51" s="55"/>
+      <c r="C51" s="55"/>
+      <c r="D51" s="55"/>
+      <c r="E51" s="55"/>
+      <c r="F51" s="55"/>
+      <c r="G51" s="55"/>
+      <c r="H51" s="55"/>
+      <c r="I51" s="55"/>
+      <c r="J51" s="55"/>
+      <c r="K51" s="55"/>
+      <c r="L51" s="55"/>
+      <c r="M51" s="55"/>
+      <c r="N51" s="55"/>
+      <c r="O51" s="55"/>
+      <c r="P51" s="55"/>
+      <c r="Q51" s="55"/>
+      <c r="R51" s="55"/>
+      <c r="S51" s="55"/>
+      <c r="T51" s="55"/>
+      <c r="U51" s="55"/>
+      <c r="V51" s="55"/>
+      <c r="W51" s="55"/>
+      <c r="X51" s="55"/>
+      <c r="Y51" s="55"/>
+      <c r="Z51" s="55"/>
+      <c r="AA51" s="55"/>
+      <c r="AB51" s="55"/>
+    </row>
+    <row r="52" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="56"/>
+      <c r="B52" s="57"/>
+      <c r="C52" s="57"/>
+      <c r="D52" s="57"/>
+      <c r="E52" s="57"/>
+      <c r="F52" s="57"/>
+      <c r="G52" s="57"/>
+      <c r="H52" s="57"/>
+      <c r="I52" s="57"/>
+      <c r="J52" s="57"/>
+      <c r="K52" s="57"/>
+      <c r="L52" s="57"/>
+      <c r="M52" s="57"/>
+      <c r="N52" s="57"/>
+      <c r="O52" s="57"/>
+      <c r="P52" s="57"/>
+      <c r="Q52" s="57"/>
+      <c r="R52" s="57"/>
+      <c r="S52" s="57"/>
+      <c r="T52" s="57"/>
+      <c r="U52" s="57"/>
+      <c r="V52" s="57"/>
+      <c r="W52" s="57"/>
+      <c r="X52" s="57"/>
+      <c r="Y52" s="57"/>
+      <c r="Z52" s="57"/>
+      <c r="AA52" s="57"/>
+      <c r="AB52" s="57"/>
+    </row>
+    <row r="53" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="54"/>
+      <c r="B53" s="55"/>
+      <c r="C53" s="55"/>
+      <c r="D53" s="55"/>
+      <c r="E53" s="55"/>
+      <c r="F53" s="55"/>
+      <c r="G53" s="55"/>
+      <c r="H53" s="55"/>
+      <c r="I53" s="55"/>
+      <c r="J53" s="55"/>
+      <c r="K53" s="55"/>
+      <c r="L53" s="55"/>
+      <c r="M53" s="55"/>
+      <c r="N53" s="55"/>
+      <c r="O53" s="55"/>
+      <c r="P53" s="55"/>
+      <c r="Q53" s="55"/>
+      <c r="R53" s="55"/>
+      <c r="S53" s="55"/>
+      <c r="T53" s="55"/>
+      <c r="U53" s="55"/>
+      <c r="V53" s="55"/>
+      <c r="W53" s="55"/>
+      <c r="X53" s="55"/>
+      <c r="Y53" s="55"/>
+      <c r="Z53" s="55"/>
+      <c r="AA53" s="55"/>
+      <c r="AB53" s="55"/>
+    </row>
+    <row r="54" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="56"/>
+      <c r="B54" s="57"/>
+      <c r="C54" s="57"/>
+      <c r="D54" s="57"/>
+      <c r="E54" s="57"/>
+      <c r="F54" s="57"/>
+      <c r="G54" s="57"/>
+      <c r="H54" s="57"/>
+      <c r="I54" s="57"/>
+      <c r="J54" s="57"/>
+      <c r="K54" s="57"/>
+      <c r="L54" s="57"/>
+      <c r="M54" s="57"/>
+      <c r="N54" s="57"/>
+      <c r="O54" s="57"/>
+      <c r="P54" s="57"/>
+      <c r="Q54" s="57"/>
+      <c r="R54" s="57"/>
+      <c r="S54" s="57"/>
+      <c r="T54" s="57"/>
+      <c r="U54" s="57"/>
+      <c r="V54" s="57"/>
+      <c r="W54" s="57"/>
+      <c r="X54" s="57"/>
+      <c r="Y54" s="57"/>
+      <c r="Z54" s="57"/>
+      <c r="AA54" s="57"/>
+      <c r="AB54" s="57"/>
+    </row>
+    <row r="55" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="54"/>
+      <c r="B55" s="55"/>
+      <c r="C55" s="55"/>
+      <c r="D55" s="55"/>
+      <c r="E55" s="55"/>
+      <c r="F55" s="55"/>
+      <c r="G55" s="55"/>
+      <c r="H55" s="55"/>
+      <c r="I55" s="55"/>
+      <c r="J55" s="55"/>
+      <c r="K55" s="55"/>
+      <c r="L55" s="55"/>
+      <c r="M55" s="55"/>
+      <c r="N55" s="55"/>
+      <c r="O55" s="55"/>
+      <c r="P55" s="55"/>
+      <c r="Q55" s="55"/>
+      <c r="R55" s="55"/>
+      <c r="S55" s="55"/>
+      <c r="T55" s="55"/>
+      <c r="U55" s="55"/>
+      <c r="V55" s="55"/>
+      <c r="W55" s="55"/>
+      <c r="X55" s="55"/>
+      <c r="Y55" s="55"/>
+      <c r="Z55" s="55"/>
+      <c r="AA55" s="55"/>
+      <c r="AB55" s="55"/>
+    </row>
+    <row r="56" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="56"/>
+      <c r="B56" s="57"/>
+      <c r="C56" s="57"/>
+      <c r="D56" s="57"/>
+      <c r="E56" s="57"/>
+      <c r="F56" s="57"/>
+      <c r="G56" s="57"/>
+      <c r="H56" s="57"/>
+      <c r="I56" s="57"/>
+      <c r="J56" s="57"/>
+      <c r="K56" s="57"/>
+      <c r="L56" s="57"/>
+      <c r="M56" s="57"/>
+      <c r="N56" s="57"/>
+      <c r="O56" s="57"/>
+      <c r="P56" s="57"/>
+      <c r="Q56" s="57"/>
+      <c r="R56" s="57"/>
+      <c r="S56" s="57"/>
+      <c r="T56" s="57"/>
+      <c r="U56" s="57"/>
+      <c r="V56" s="57"/>
+      <c r="W56" s="57"/>
+      <c r="X56" s="57"/>
+      <c r="Y56" s="57"/>
+      <c r="Z56" s="57"/>
+      <c r="AA56" s="57"/>
+      <c r="AB56" s="57"/>
+    </row>
+    <row r="57" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="54"/>
+      <c r="B57" s="55"/>
+      <c r="C57" s="55"/>
+      <c r="D57" s="55"/>
+      <c r="E57" s="55"/>
+      <c r="F57" s="55"/>
+      <c r="G57" s="55"/>
+      <c r="H57" s="55"/>
+      <c r="I57" s="55"/>
+      <c r="J57" s="55"/>
+      <c r="K57" s="55"/>
+      <c r="L57" s="55"/>
+      <c r="M57" s="55"/>
+      <c r="N57" s="55"/>
+      <c r="O57" s="55"/>
+      <c r="P57" s="55"/>
+      <c r="Q57" s="55"/>
+      <c r="R57" s="55"/>
+      <c r="S57" s="55"/>
+      <c r="T57" s="55"/>
+      <c r="U57" s="55"/>
+      <c r="V57" s="55"/>
+      <c r="W57" s="55"/>
+      <c r="X57" s="55"/>
+      <c r="Y57" s="55"/>
+      <c r="Z57" s="55"/>
+      <c r="AA57" s="55"/>
+      <c r="AB57" s="55"/>
+    </row>
+    <row r="58" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="56"/>
+      <c r="B58" s="57"/>
+      <c r="C58" s="57"/>
+      <c r="D58" s="57"/>
+      <c r="E58" s="57"/>
+      <c r="F58" s="57"/>
+      <c r="G58" s="57"/>
+      <c r="H58" s="57"/>
+      <c r="I58" s="57"/>
+      <c r="J58" s="57"/>
+      <c r="K58" s="57"/>
+      <c r="L58" s="57"/>
+      <c r="M58" s="57"/>
+      <c r="N58" s="57"/>
+      <c r="O58" s="57"/>
+      <c r="P58" s="57"/>
+      <c r="Q58" s="57"/>
+      <c r="R58" s="57"/>
+      <c r="S58" s="57"/>
+      <c r="T58" s="57"/>
+      <c r="U58" s="57"/>
+      <c r="V58" s="57"/>
+      <c r="W58" s="57"/>
+      <c r="X58" s="57"/>
+      <c r="Y58" s="57"/>
+      <c r="Z58" s="57"/>
+      <c r="AA58" s="57"/>
+      <c r="AB58" s="57"/>
+    </row>
+    <row r="59" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="54"/>
+      <c r="B59" s="55"/>
+      <c r="C59" s="55"/>
+      <c r="D59" s="55"/>
+      <c r="E59" s="55"/>
+      <c r="F59" s="55"/>
+      <c r="G59" s="55"/>
+      <c r="H59" s="55"/>
+      <c r="I59" s="55"/>
+      <c r="J59" s="55"/>
+      <c r="K59" s="55"/>
+      <c r="L59" s="55"/>
+      <c r="M59" s="55"/>
+      <c r="N59" s="55"/>
+      <c r="O59" s="55"/>
+      <c r="P59" s="55"/>
+      <c r="Q59" s="55"/>
+      <c r="R59" s="55"/>
+      <c r="S59" s="55"/>
+      <c r="T59" s="55"/>
+      <c r="U59" s="55"/>
+      <c r="V59" s="55"/>
+      <c r="W59" s="55"/>
+      <c r="X59" s="55"/>
+      <c r="Y59" s="55"/>
+      <c r="Z59" s="55"/>
+      <c r="AA59" s="55"/>
+      <c r="AB59" s="55"/>
+    </row>
+    <row r="60" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="56"/>
+      <c r="B60" s="57"/>
+      <c r="C60" s="57"/>
+      <c r="D60" s="57"/>
+      <c r="E60" s="57"/>
+      <c r="F60" s="57"/>
+      <c r="G60" s="57"/>
+      <c r="H60" s="57"/>
+      <c r="I60" s="57"/>
+      <c r="J60" s="57"/>
+      <c r="K60" s="57"/>
+      <c r="L60" s="57"/>
+      <c r="M60" s="57"/>
+      <c r="N60" s="57"/>
+      <c r="O60" s="57"/>
+      <c r="P60" s="57"/>
+      <c r="Q60" s="57"/>
+      <c r="R60" s="57"/>
+      <c r="S60" s="57"/>
+      <c r="T60" s="57"/>
+      <c r="U60" s="57"/>
+      <c r="V60" s="57"/>
+      <c r="W60" s="57"/>
+      <c r="X60" s="57"/>
+      <c r="Y60" s="57"/>
+      <c r="Z60" s="57"/>
+      <c r="AA60" s="57"/>
+      <c r="AB60" s="57"/>
+    </row>
+    <row r="61" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="U61" s="45"/>
+      <c r="V61"/>
+    </row>
+    <row r="62" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="U62" s="45"/>
+      <c r="V62"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12393,11 +13132,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC48"/>
+  <dimension ref="A1:AC61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y3" sqref="Y3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V45" sqref="V45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13758,1172 +14497,1615 @@
       </c>
     </row>
     <row r="30" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="20">
+      <c r="A30" s="54">
         <v>43912</v>
       </c>
-      <c r="B30" s="21">
+      <c r="B30" s="55">
         <v>1</v>
       </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21">
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55">
         <v>3</v>
       </c>
-      <c r="G30" s="21">
+      <c r="G30" s="55">
         <v>5</v>
       </c>
-      <c r="H30" s="21">
+      <c r="H30" s="55">
         <v>3</v>
       </c>
-      <c r="I30" s="21">
+      <c r="I30" s="55">
         <v>10</v>
       </c>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21">
+      <c r="J30" s="55"/>
+      <c r="K30" s="55">
         <v>6</v>
       </c>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21">
+      <c r="L30" s="55"/>
+      <c r="M30" s="55">
         <v>1</v>
       </c>
-      <c r="N30" s="21">
+      <c r="N30" s="55">
         <v>4</v>
       </c>
-      <c r="O30" s="21"/>
-      <c r="P30" s="21"/>
-      <c r="Q30" s="21"/>
-      <c r="R30" s="21"/>
-      <c r="S30" s="21"/>
-      <c r="T30" s="21"/>
-      <c r="U30" s="21"/>
+      <c r="O30" s="55"/>
+      <c r="P30" s="55"/>
+      <c r="Q30" s="55"/>
+      <c r="R30" s="55"/>
+      <c r="S30" s="55"/>
+      <c r="T30" s="55"/>
+      <c r="U30" s="55"/>
       <c r="V30" s="47">
         <v>37</v>
       </c>
-      <c r="W30" s="21"/>
-      <c r="X30" s="21">
+      <c r="W30" s="55"/>
+      <c r="X30" s="55">
         <v>16</v>
       </c>
-      <c r="Y30" s="21">
+      <c r="Y30" s="55">
         <v>10</v>
       </c>
-      <c r="Z30" s="21"/>
-      <c r="AA30" s="21"/>
-      <c r="AB30" s="21">
+      <c r="Z30" s="55"/>
+      <c r="AA30" s="55"/>
+      <c r="AB30" s="55">
         <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="22">
+      <c r="A31" s="56">
         <v>43913</v>
       </c>
-      <c r="B31" s="23">
+      <c r="B31" s="57">
         <v>1</v>
       </c>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23">
+      <c r="C31" s="57"/>
+      <c r="D31" s="57">
         <v>1</v>
       </c>
-      <c r="E31" s="23">
+      <c r="E31" s="57">
         <v>5</v>
       </c>
-      <c r="F31" s="23">
+      <c r="F31" s="57">
         <v>3</v>
       </c>
-      <c r="G31" s="23">
+      <c r="G31" s="57">
         <v>5</v>
       </c>
-      <c r="H31" s="23">
+      <c r="H31" s="57">
         <v>4</v>
       </c>
-      <c r="I31" s="23">
+      <c r="I31" s="57">
         <v>10</v>
       </c>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="23"/>
-      <c r="M31" s="23">
+      <c r="J31" s="57"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="57"/>
+      <c r="M31" s="57">
         <v>1</v>
       </c>
-      <c r="N31" s="23">
+      <c r="N31" s="57">
         <v>5</v>
       </c>
-      <c r="O31" s="23"/>
-      <c r="P31" s="23"/>
-      <c r="Q31" s="23">
+      <c r="O31" s="57"/>
+      <c r="P31" s="57"/>
+      <c r="Q31" s="57">
         <v>1</v>
       </c>
-      <c r="R31" s="23"/>
-      <c r="S31" s="23">
+      <c r="R31" s="57"/>
+      <c r="S31" s="57">
         <v>1</v>
       </c>
-      <c r="T31" s="23"/>
-      <c r="U31" s="23"/>
+      <c r="T31" s="57"/>
+      <c r="U31" s="57"/>
       <c r="V31" s="47">
         <v>48</v>
       </c>
-      <c r="W31" s="23"/>
-      <c r="X31" s="23">
+      <c r="W31" s="57"/>
+      <c r="X31" s="57">
         <v>25</v>
       </c>
-      <c r="Y31" s="23">
+      <c r="Y31" s="57">
         <v>12</v>
       </c>
-      <c r="Z31" s="23"/>
-      <c r="AA31" s="23">
+      <c r="Z31" s="57"/>
+      <c r="AA31" s="57">
         <v>5</v>
       </c>
-      <c r="AB31" s="23">
+      <c r="AB31" s="57">
         <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="20">
+      <c r="A32" s="54">
         <v>43914</v>
       </c>
-      <c r="B32" s="21">
+      <c r="B32" s="55">
         <v>2</v>
       </c>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21">
+      <c r="C32" s="55"/>
+      <c r="D32" s="55">
         <v>2</v>
       </c>
-      <c r="E32" s="21">
+      <c r="E32" s="55">
         <v>6</v>
       </c>
-      <c r="F32" s="21">
+      <c r="F32" s="55">
         <v>4</v>
       </c>
-      <c r="G32" s="21">
+      <c r="G32" s="55">
         <v>5</v>
       </c>
-      <c r="H32" s="21">
+      <c r="H32" s="55">
         <v>5</v>
       </c>
-      <c r="I32" s="21">
+      <c r="I32" s="55">
         <v>13</v>
       </c>
-      <c r="J32" s="21"/>
-      <c r="K32" s="21">
+      <c r="J32" s="55"/>
+      <c r="K32" s="55">
         <v>6</v>
       </c>
-      <c r="L32" s="21"/>
-      <c r="M32" s="21">
+      <c r="L32" s="55"/>
+      <c r="M32" s="55">
         <v>2</v>
       </c>
-      <c r="N32" s="21">
+      <c r="N32" s="55">
         <v>6</v>
       </c>
-      <c r="O32" s="21"/>
-      <c r="P32" s="21"/>
-      <c r="Q32" s="21"/>
-      <c r="R32" s="21"/>
-      <c r="S32" s="21">
+      <c r="O32" s="55"/>
+      <c r="P32" s="55"/>
+      <c r="Q32" s="55"/>
+      <c r="R32" s="55"/>
+      <c r="S32" s="55">
         <v>1</v>
       </c>
-      <c r="T32" s="21"/>
-      <c r="U32" s="21">
+      <c r="T32" s="55"/>
+      <c r="U32" s="55">
         <v>1</v>
       </c>
       <c r="V32" s="47">
         <v>53</v>
       </c>
-      <c r="W32" s="21"/>
-      <c r="X32" s="21">
+      <c r="W32" s="55"/>
+      <c r="X32" s="55">
         <v>29</v>
       </c>
-      <c r="Y32" s="21">
+      <c r="Y32" s="55">
         <v>13</v>
       </c>
-      <c r="Z32" s="21"/>
-      <c r="AA32" s="21">
+      <c r="Z32" s="55"/>
+      <c r="AA32" s="55">
         <v>5</v>
       </c>
-      <c r="AB32" s="21">
+      <c r="AB32" s="55">
         <v>154</v>
       </c>
     </row>
     <row r="33" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="22">
+      <c r="A33" s="56">
         <v>43915</v>
       </c>
-      <c r="B33" s="23">
+      <c r="B33" s="57">
         <v>2</v>
       </c>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23">
+      <c r="C33" s="57"/>
+      <c r="D33" s="57">
         <v>2</v>
       </c>
-      <c r="E33" s="23">
+      <c r="E33" s="57">
         <v>6</v>
       </c>
-      <c r="F33" s="23">
+      <c r="F33" s="57">
         <v>5</v>
       </c>
-      <c r="G33" s="23">
+      <c r="G33" s="57">
         <v>8</v>
       </c>
-      <c r="H33" s="23">
+      <c r="H33" s="57">
         <v>6</v>
       </c>
-      <c r="I33" s="23">
+      <c r="I33" s="57">
         <v>16</v>
       </c>
-      <c r="J33" s="23"/>
-      <c r="K33" s="23">
+      <c r="J33" s="57"/>
+      <c r="K33" s="57">
         <v>6</v>
       </c>
-      <c r="L33" s="23"/>
-      <c r="M33" s="23">
+      <c r="L33" s="57"/>
+      <c r="M33" s="57">
         <v>2</v>
       </c>
-      <c r="N33" s="23">
+      <c r="N33" s="57">
         <v>9</v>
       </c>
-      <c r="O33" s="23"/>
-      <c r="P33" s="23"/>
-      <c r="Q33" s="23">
+      <c r="O33" s="57"/>
+      <c r="P33" s="57"/>
+      <c r="Q33" s="57">
         <v>1</v>
       </c>
-      <c r="R33" s="23"/>
-      <c r="S33" s="23">
+      <c r="R33" s="57"/>
+      <c r="S33" s="57">
         <v>1</v>
       </c>
-      <c r="T33" s="23"/>
-      <c r="U33" s="23">
+      <c r="T33" s="57"/>
+      <c r="U33" s="57">
         <v>1</v>
       </c>
       <c r="V33" s="47">
         <v>60</v>
       </c>
-      <c r="W33" s="23"/>
-      <c r="X33" s="23">
+      <c r="W33" s="57"/>
+      <c r="X33" s="57">
         <v>36</v>
       </c>
-      <c r="Y33" s="23">
+      <c r="Y33" s="57">
         <v>14</v>
       </c>
-      <c r="Z33" s="23"/>
-      <c r="AA33" s="23">
+      <c r="Z33" s="57"/>
+      <c r="AA33" s="57">
         <v>7</v>
       </c>
-      <c r="AB33" s="23">
+      <c r="AB33" s="57">
         <v>182</v>
       </c>
     </row>
     <row r="34" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="20">
+      <c r="A34" s="54">
         <v>43916</v>
       </c>
-      <c r="B34" s="21">
+      <c r="B34" s="55">
         <v>2</v>
       </c>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21">
+      <c r="C34" s="55"/>
+      <c r="D34" s="55">
         <v>2</v>
       </c>
-      <c r="E34" s="21">
+      <c r="E34" s="55">
         <v>7</v>
       </c>
-      <c r="F34" s="21">
+      <c r="F34" s="55">
         <v>5</v>
       </c>
-      <c r="G34" s="21">
+      <c r="G34" s="55">
         <v>12</v>
       </c>
-      <c r="H34" s="21">
+      <c r="H34" s="55">
         <v>11</v>
       </c>
-      <c r="I34" s="21">
+      <c r="I34" s="55">
         <v>22</v>
       </c>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21">
+      <c r="J34" s="55"/>
+      <c r="K34" s="55">
         <v>9</v>
       </c>
-      <c r="L34" s="21"/>
-      <c r="M34" s="21">
+      <c r="L34" s="55"/>
+      <c r="M34" s="55">
         <v>3</v>
       </c>
-      <c r="N34" s="21">
+      <c r="N34" s="55">
         <v>11</v>
       </c>
-      <c r="O34" s="21"/>
-      <c r="P34" s="21"/>
-      <c r="Q34" s="21">
+      <c r="O34" s="55"/>
+      <c r="P34" s="55"/>
+      <c r="Q34" s="55">
         <v>2</v>
       </c>
-      <c r="R34" s="21"/>
-      <c r="S34" s="21">
+      <c r="R34" s="55"/>
+      <c r="S34" s="55">
         <v>1</v>
       </c>
-      <c r="T34" s="21">
+      <c r="T34" s="55">
         <v>1</v>
       </c>
-      <c r="U34" s="21">
+      <c r="U34" s="55">
         <v>1</v>
       </c>
       <c r="V34" s="47">
         <v>67</v>
       </c>
-      <c r="W34" s="21"/>
-      <c r="X34" s="21">
+      <c r="W34" s="55"/>
+      <c r="X34" s="55">
         <v>47</v>
       </c>
-      <c r="Y34" s="21">
+      <c r="Y34" s="55">
         <v>15</v>
       </c>
-      <c r="Z34" s="21"/>
-      <c r="AA34" s="21">
+      <c r="Z34" s="55"/>
+      <c r="AA34" s="55">
         <v>9</v>
       </c>
-      <c r="AB34" s="21">
+      <c r="AB34" s="55">
         <v>227</v>
       </c>
     </row>
     <row r="35" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="22">
+      <c r="A35" s="56">
         <v>43917</v>
       </c>
-      <c r="B35" s="23">
+      <c r="B35" s="57">
         <v>3</v>
       </c>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23">
+      <c r="C35" s="57"/>
+      <c r="D35" s="57">
         <v>2</v>
       </c>
-      <c r="E35" s="23">
+      <c r="E35" s="57">
         <v>8</v>
       </c>
-      <c r="F35" s="23">
+      <c r="F35" s="57">
         <v>5</v>
       </c>
-      <c r="G35" s="23">
+      <c r="G35" s="57">
         <v>13</v>
       </c>
-      <c r="H35" s="23">
+      <c r="H35" s="57">
         <v>15</v>
       </c>
-      <c r="I35" s="23">
+      <c r="I35" s="57">
         <v>23</v>
       </c>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23">
+      <c r="J35" s="57"/>
+      <c r="K35" s="57">
         <v>9</v>
       </c>
-      <c r="L35" s="23"/>
-      <c r="M35" s="23">
+      <c r="L35" s="57"/>
+      <c r="M35" s="57">
         <v>3</v>
       </c>
-      <c r="N35" s="23">
+      <c r="N35" s="57">
         <v>12</v>
       </c>
-      <c r="O35" s="23"/>
-      <c r="P35" s="23"/>
-      <c r="Q35" s="23"/>
-      <c r="R35" s="23"/>
-      <c r="S35" s="23">
+      <c r="O35" s="57"/>
+      <c r="P35" s="57"/>
+      <c r="Q35" s="57"/>
+      <c r="R35" s="57"/>
+      <c r="S35" s="57">
         <v>1</v>
       </c>
-      <c r="T35" s="23">
+      <c r="T35" s="57">
         <v>1</v>
       </c>
-      <c r="U35" s="23">
+      <c r="U35" s="57">
         <v>2</v>
       </c>
       <c r="V35" s="47">
         <v>76</v>
       </c>
-      <c r="W35" s="23"/>
-      <c r="X35" s="23">
+      <c r="W35" s="57"/>
+      <c r="X35" s="57">
         <v>48</v>
       </c>
-      <c r="Y35" s="23">
+      <c r="Y35" s="57">
         <v>20</v>
       </c>
-      <c r="Z35" s="23">
+      <c r="Z35" s="57">
         <v>1</v>
       </c>
-      <c r="AA35" s="23">
+      <c r="AA35" s="57">
         <v>11</v>
       </c>
-      <c r="AB35" s="23">
+      <c r="AB35" s="57">
         <v>255</v>
       </c>
     </row>
     <row r="36" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="20">
+      <c r="A36" s="54">
         <v>43918</v>
       </c>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21">
+      <c r="B36" s="55"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="55">
         <v>2</v>
       </c>
-      <c r="E36" s="21">
+      <c r="E36" s="55">
         <v>9</v>
       </c>
-      <c r="F36" s="21">
+      <c r="F36" s="55">
         <v>6</v>
       </c>
-      <c r="G36" s="21">
+      <c r="G36" s="55">
         <v>13</v>
       </c>
-      <c r="H36" s="21">
+      <c r="H36" s="55">
         <v>15</v>
       </c>
-      <c r="I36" s="21">
+      <c r="I36" s="55">
         <v>27</v>
       </c>
-      <c r="J36" s="21">
+      <c r="J36" s="55">
         <v>1</v>
       </c>
-      <c r="K36" s="21"/>
-      <c r="L36" s="21"/>
-      <c r="M36" s="21">
+      <c r="K36" s="55"/>
+      <c r="L36" s="55"/>
+      <c r="M36" s="55">
         <v>4</v>
       </c>
-      <c r="N36" s="21">
+      <c r="N36" s="55">
         <v>14</v>
       </c>
-      <c r="O36" s="21"/>
-      <c r="P36" s="21"/>
-      <c r="Q36" s="21">
+      <c r="O36" s="55"/>
+      <c r="P36" s="55"/>
+      <c r="Q36" s="55">
         <v>5</v>
       </c>
-      <c r="R36" s="21"/>
-      <c r="S36" s="21">
+      <c r="R36" s="55"/>
+      <c r="S36" s="55">
         <v>1</v>
       </c>
-      <c r="T36" s="21">
+      <c r="T36" s="55">
         <v>2</v>
       </c>
-      <c r="U36" s="21">
+      <c r="U36" s="55">
         <v>2</v>
       </c>
       <c r="V36" s="47">
         <v>87</v>
       </c>
-      <c r="W36" s="21"/>
-      <c r="X36" s="21">
+      <c r="W36" s="55"/>
+      <c r="X36" s="55">
         <v>55</v>
       </c>
-      <c r="Y36" s="21">
+      <c r="Y36" s="55">
         <v>21</v>
       </c>
-      <c r="Z36" s="21"/>
-      <c r="AA36" s="21">
+      <c r="Z36" s="55"/>
+      <c r="AA36" s="55">
         <v>15</v>
       </c>
-      <c r="AB36" s="21">
+      <c r="AB36" s="55">
         <v>292</v>
       </c>
     </row>
     <row r="37" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="22">
+      <c r="A37" s="56">
         <v>43919</v>
       </c>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23">
+      <c r="B37" s="57"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="57">
         <v>2</v>
       </c>
-      <c r="E37" s="23">
+      <c r="E37" s="57">
         <v>10</v>
       </c>
-      <c r="F37" s="23">
+      <c r="F37" s="57">
         <v>6</v>
       </c>
-      <c r="G37" s="23">
+      <c r="G37" s="57">
         <v>15</v>
       </c>
-      <c r="H37" s="23">
+      <c r="H37" s="57">
         <v>16</v>
       </c>
-      <c r="I37" s="23">
+      <c r="I37" s="57">
         <v>37</v>
       </c>
-      <c r="J37" s="23"/>
-      <c r="K37" s="23"/>
-      <c r="L37" s="23"/>
-      <c r="M37" s="23">
+      <c r="J37" s="57"/>
+      <c r="K37" s="57"/>
+      <c r="L37" s="57"/>
+      <c r="M37" s="57">
         <v>5</v>
       </c>
-      <c r="N37" s="23">
+      <c r="N37" s="57">
         <v>17</v>
       </c>
-      <c r="O37" s="23"/>
-      <c r="P37" s="23"/>
-      <c r="Q37" s="23">
+      <c r="O37" s="57"/>
+      <c r="P37" s="57"/>
+      <c r="Q37" s="57">
         <v>5</v>
       </c>
-      <c r="R37" s="23"/>
-      <c r="S37" s="23">
+      <c r="R37" s="57"/>
+      <c r="S37" s="57">
         <v>2</v>
       </c>
-      <c r="T37" s="23">
+      <c r="T37" s="57">
         <v>2</v>
       </c>
-      <c r="U37" s="23">
+      <c r="U37" s="57">
         <v>2</v>
       </c>
       <c r="V37" s="47">
         <v>93</v>
       </c>
-      <c r="W37" s="23"/>
-      <c r="X37" s="23">
+      <c r="W37" s="57"/>
+      <c r="X37" s="57">
         <v>66</v>
       </c>
-      <c r="Y37" s="23">
+      <c r="Y37" s="57">
         <v>21</v>
       </c>
-      <c r="Z37" s="23"/>
-      <c r="AA37" s="23">
+      <c r="Z37" s="57"/>
+      <c r="AA37" s="57">
         <v>15</v>
       </c>
-      <c r="AB37" s="23">
+      <c r="AB37" s="57">
         <v>328</v>
       </c>
     </row>
     <row r="38" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="20">
+      <c r="A38" s="54">
         <v>43920</v>
       </c>
-      <c r="B38" s="21">
+      <c r="B38" s="55">
         <v>8</v>
       </c>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21">
+      <c r="C38" s="55"/>
+      <c r="D38" s="55">
         <v>2</v>
       </c>
-      <c r="E38" s="21">
+      <c r="E38" s="55">
         <v>13</v>
       </c>
-      <c r="F38" s="21">
+      <c r="F38" s="55">
         <v>7</v>
       </c>
-      <c r="G38" s="21">
+      <c r="G38" s="55">
         <v>15</v>
       </c>
-      <c r="H38" s="21">
+      <c r="H38" s="55">
         <v>17</v>
       </c>
-      <c r="I38" s="21">
+      <c r="I38" s="55">
         <v>43</v>
       </c>
-      <c r="J38" s="21">
+      <c r="J38" s="55">
         <v>1</v>
       </c>
-      <c r="K38" s="21">
+      <c r="K38" s="55">
         <v>12</v>
       </c>
-      <c r="L38" s="21"/>
-      <c r="M38" s="21">
+      <c r="L38" s="55"/>
+      <c r="M38" s="55">
         <v>6</v>
       </c>
-      <c r="N38" s="21">
+      <c r="N38" s="55">
         <v>19</v>
       </c>
-      <c r="O38" s="21"/>
-      <c r="P38" s="21"/>
-      <c r="Q38" s="21">
+      <c r="O38" s="55"/>
+      <c r="P38" s="55"/>
+      <c r="Q38" s="55">
         <v>5</v>
       </c>
-      <c r="R38" s="21"/>
-      <c r="S38" s="21"/>
-      <c r="T38" s="21">
+      <c r="R38" s="55"/>
+      <c r="S38" s="55"/>
+      <c r="T38" s="55">
         <v>2</v>
       </c>
-      <c r="U38" s="21">
+      <c r="U38" s="55">
         <v>2</v>
       </c>
       <c r="V38" s="47">
         <v>105</v>
       </c>
-      <c r="W38" s="21"/>
-      <c r="X38" s="21">
+      <c r="W38" s="55"/>
+      <c r="X38" s="55">
         <v>77</v>
       </c>
-      <c r="Y38" s="21">
+      <c r="Y38" s="55">
         <v>26</v>
       </c>
-      <c r="Z38" s="21">
+      <c r="Z38" s="55">
         <v>1</v>
       </c>
-      <c r="AA38" s="21">
+      <c r="AA38" s="55">
         <v>21</v>
       </c>
-      <c r="AB38" s="21">
+      <c r="AB38" s="55">
         <v>384</v>
       </c>
     </row>
     <row r="39" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="22">
+      <c r="A39" s="56">
         <v>43921</v>
       </c>
-      <c r="B39" s="23">
+      <c r="B39" s="57">
         <v>11</v>
       </c>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23">
+      <c r="C39" s="57"/>
+      <c r="D39" s="57">
         <v>2</v>
       </c>
-      <c r="E39" s="23">
+      <c r="E39" s="57">
         <v>16</v>
       </c>
-      <c r="F39" s="23">
+      <c r="F39" s="57">
         <v>10</v>
       </c>
-      <c r="G39" s="23">
+      <c r="G39" s="57">
         <v>16</v>
       </c>
-      <c r="H39" s="23">
+      <c r="H39" s="57">
         <v>20</v>
       </c>
-      <c r="I39" s="23">
+      <c r="I39" s="57">
         <v>52</v>
       </c>
-      <c r="J39" s="23">
+      <c r="J39" s="57">
         <v>2</v>
       </c>
-      <c r="K39" s="23">
+      <c r="K39" s="57">
         <v>19</v>
       </c>
-      <c r="L39" s="23"/>
-      <c r="M39" s="23">
+      <c r="L39" s="57"/>
+      <c r="M39" s="57">
         <v>7</v>
       </c>
-      <c r="N39" s="23">
+      <c r="N39" s="57">
         <v>21</v>
       </c>
-      <c r="O39" s="23"/>
-      <c r="P39" s="23"/>
-      <c r="Q39" s="23">
+      <c r="O39" s="57"/>
+      <c r="P39" s="57"/>
+      <c r="Q39" s="57">
         <v>7</v>
       </c>
-      <c r="R39" s="23"/>
-      <c r="S39" s="23">
+      <c r="R39" s="57"/>
+      <c r="S39" s="57">
         <v>2</v>
       </c>
-      <c r="T39" s="23">
+      <c r="T39" s="57">
         <v>4</v>
       </c>
-      <c r="U39" s="23">
+      <c r="U39" s="57">
         <v>3</v>
       </c>
       <c r="V39" s="47">
         <v>120</v>
       </c>
-      <c r="W39" s="23"/>
-      <c r="X39" s="23">
+      <c r="W39" s="57"/>
+      <c r="X39" s="57">
         <v>84</v>
       </c>
-      <c r="Y39" s="23">
+      <c r="Y39" s="57">
         <v>35</v>
       </c>
-      <c r="Z39" s="23">
+      <c r="Z39" s="57">
         <v>1</v>
       </c>
-      <c r="AA39" s="23">
+      <c r="AA39" s="57">
         <v>25</v>
       </c>
-      <c r="AB39" s="23">
+      <c r="AB39" s="57">
         <v>457</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="20">
+      <c r="A40" s="54">
         <v>43922</v>
       </c>
-      <c r="B40" s="21">
+      <c r="B40" s="55">
         <v>11</v>
       </c>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21">
+      <c r="C40" s="55"/>
+      <c r="D40" s="55">
         <v>3</v>
       </c>
-      <c r="E40" s="21">
+      <c r="E40" s="55">
         <v>20</v>
       </c>
-      <c r="F40" s="21">
+      <c r="F40" s="55">
         <v>11</v>
       </c>
-      <c r="G40" s="21">
+      <c r="G40" s="55">
         <v>18</v>
       </c>
-      <c r="H40" s="21">
+      <c r="H40" s="55">
         <v>23</v>
       </c>
-      <c r="I40" s="21">
+      <c r="I40" s="55">
         <v>65</v>
       </c>
-      <c r="J40" s="21">
+      <c r="J40" s="55">
         <v>2</v>
       </c>
-      <c r="K40" s="21">
+      <c r="K40" s="55">
         <v>21</v>
       </c>
-      <c r="L40" s="21"/>
-      <c r="M40" s="21">
+      <c r="L40" s="55"/>
+      <c r="M40" s="55">
         <v>7</v>
       </c>
-      <c r="N40" s="21">
+      <c r="N40" s="55">
         <v>23</v>
       </c>
-      <c r="O40" s="21"/>
-      <c r="P40" s="21"/>
-      <c r="Q40" s="21">
+      <c r="O40" s="55"/>
+      <c r="P40" s="55"/>
+      <c r="Q40" s="55">
         <v>7</v>
       </c>
-      <c r="R40" s="21">
+      <c r="R40" s="55">
         <v>1</v>
       </c>
-      <c r="S40" s="21">
+      <c r="S40" s="55">
         <v>3</v>
       </c>
-      <c r="T40" s="21">
+      <c r="T40" s="55">
         <v>4</v>
       </c>
-      <c r="U40" s="21">
+      <c r="U40" s="55">
         <v>4</v>
       </c>
       <c r="V40" s="47">
         <v>132</v>
       </c>
-      <c r="W40" s="21">
+      <c r="W40" s="55">
         <v>1</v>
       </c>
-      <c r="X40" s="21">
+      <c r="X40" s="55">
         <v>92</v>
       </c>
-      <c r="Y40" s="21">
+      <c r="Y40" s="55">
         <v>37</v>
       </c>
-      <c r="Z40" s="21">
+      <c r="Z40" s="55">
         <v>1</v>
       </c>
-      <c r="AA40" s="21">
+      <c r="AA40" s="55">
         <v>29</v>
       </c>
-      <c r="AB40" s="21">
+      <c r="AB40" s="55">
         <v>515</v>
       </c>
     </row>
     <row r="41" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="22">
+      <c r="A41" s="56">
         <v>43923</v>
       </c>
-      <c r="B41" s="23">
+      <c r="B41" s="57">
         <v>12</v>
       </c>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23">
+      <c r="C41" s="57"/>
+      <c r="D41" s="57">
         <v>3</v>
       </c>
-      <c r="E41" s="23">
+      <c r="E41" s="57">
         <v>23</v>
       </c>
-      <c r="F41" s="23">
+      <c r="F41" s="57">
         <v>12</v>
       </c>
-      <c r="G41" s="23">
+      <c r="G41" s="57">
         <v>19</v>
       </c>
-      <c r="H41" s="23">
+      <c r="H41" s="57">
         <v>26</v>
       </c>
-      <c r="I41" s="23">
+      <c r="I41" s="57">
         <v>72</v>
       </c>
-      <c r="J41" s="23">
+      <c r="J41" s="57">
         <v>2</v>
       </c>
-      <c r="K41" s="23">
+      <c r="K41" s="57">
         <v>23</v>
       </c>
-      <c r="L41" s="23"/>
-      <c r="M41" s="23">
+      <c r="L41" s="57"/>
+      <c r="M41" s="57">
         <v>7</v>
       </c>
-      <c r="N41" s="23">
+      <c r="N41" s="57">
         <v>23</v>
       </c>
-      <c r="O41" s="23"/>
-      <c r="P41" s="23"/>
-      <c r="Q41" s="23">
+      <c r="O41" s="57"/>
+      <c r="P41" s="57"/>
+      <c r="Q41" s="57">
         <v>8</v>
       </c>
-      <c r="R41" s="23">
+      <c r="R41" s="57">
         <v>1</v>
       </c>
-      <c r="S41" s="23">
+      <c r="S41" s="57">
         <v>3</v>
       </c>
-      <c r="T41" s="23">
+      <c r="T41" s="57">
         <v>4</v>
       </c>
-      <c r="U41" s="23">
+      <c r="U41" s="57">
         <v>4</v>
       </c>
       <c r="V41" s="47">
         <v>141</v>
       </c>
-      <c r="W41" s="23">
+      <c r="W41" s="57">
         <v>1</v>
       </c>
-      <c r="X41" s="23">
+      <c r="X41" s="57">
         <v>107</v>
       </c>
-      <c r="Y41" s="23">
+      <c r="Y41" s="57">
         <v>40</v>
       </c>
-      <c r="Z41" s="23">
+      <c r="Z41" s="57">
         <v>1</v>
       </c>
-      <c r="AA41" s="23">
+      <c r="AA41" s="57">
         <v>36</v>
       </c>
-      <c r="AB41" s="23">
+      <c r="AB41" s="57">
         <v>568</v>
       </c>
     </row>
     <row r="42" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="20">
+      <c r="A42" s="54">
         <v>43924</v>
       </c>
-      <c r="B42" s="21">
+      <c r="B42" s="55">
         <v>12</v>
       </c>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21">
+      <c r="C42" s="55"/>
+      <c r="D42" s="55">
         <v>3</v>
       </c>
-      <c r="E42" s="21">
+      <c r="E42" s="55">
         <v>26</v>
       </c>
-      <c r="F42" s="21">
+      <c r="F42" s="55">
         <v>14</v>
       </c>
-      <c r="G42" s="21">
+      <c r="G42" s="55">
         <v>21</v>
       </c>
-      <c r="H42" s="21">
+      <c r="H42" s="55">
         <v>31</v>
       </c>
-      <c r="I42" s="21">
+      <c r="I42" s="55">
         <v>78</v>
       </c>
-      <c r="J42" s="21">
+      <c r="J42" s="55">
         <v>2</v>
       </c>
-      <c r="K42" s="21">
+      <c r="K42" s="55">
         <v>27</v>
       </c>
-      <c r="L42" s="21"/>
-      <c r="M42" s="21">
+      <c r="L42" s="55"/>
+      <c r="M42" s="55">
         <v>7</v>
       </c>
-      <c r="N42" s="21">
+      <c r="N42" s="55">
         <v>23</v>
       </c>
-      <c r="O42" s="21"/>
-      <c r="P42" s="21"/>
-      <c r="Q42" s="21">
+      <c r="O42" s="55"/>
+      <c r="P42" s="55"/>
+      <c r="Q42" s="55">
         <v>8</v>
       </c>
-      <c r="R42" s="21">
+      <c r="R42" s="55">
         <v>1</v>
       </c>
-      <c r="S42" s="21">
+      <c r="S42" s="55">
         <v>3</v>
       </c>
-      <c r="T42" s="21">
+      <c r="T42" s="55">
         <v>4</v>
       </c>
-      <c r="U42" s="21">
+      <c r="U42" s="55">
         <v>5</v>
       </c>
       <c r="V42" s="47">
         <v>155</v>
       </c>
-      <c r="W42" s="21">
+      <c r="W42" s="55">
         <v>1</v>
       </c>
-      <c r="X42" s="21">
+      <c r="X42" s="55">
         <v>123</v>
       </c>
-      <c r="Y42" s="21">
+      <c r="Y42" s="55">
         <v>45</v>
       </c>
-      <c r="Z42" s="21">
+      <c r="Z42" s="55">
         <v>2</v>
       </c>
-      <c r="AA42" s="21">
+      <c r="AA42" s="55">
         <v>38</v>
       </c>
-      <c r="AB42" s="21">
+      <c r="AB42" s="55">
         <v>629</v>
       </c>
       <c r="AC42"/>
     </row>
     <row r="43" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="22">
+      <c r="A43" s="56">
         <v>43925</v>
       </c>
-      <c r="B43" s="23"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23">
+      <c r="B43" s="57"/>
+      <c r="C43" s="57"/>
+      <c r="D43" s="57">
         <v>3</v>
       </c>
-      <c r="E43" s="23">
+      <c r="E43" s="57">
         <v>28</v>
       </c>
-      <c r="F43" s="23">
+      <c r="F43" s="57">
         <v>19</v>
       </c>
-      <c r="G43" s="23">
+      <c r="G43" s="57">
         <v>24</v>
       </c>
-      <c r="H43" s="23">
+      <c r="H43" s="57">
         <v>37</v>
       </c>
-      <c r="I43" s="23">
+      <c r="I43" s="57">
         <v>83</v>
       </c>
-      <c r="J43" s="23"/>
-      <c r="K43" s="23"/>
-      <c r="L43" s="23"/>
-      <c r="M43" s="23">
+      <c r="J43" s="57"/>
+      <c r="K43" s="57"/>
+      <c r="L43" s="57"/>
+      <c r="M43" s="57">
         <v>7</v>
       </c>
-      <c r="N43" s="23">
+      <c r="N43" s="57">
         <v>24</v>
       </c>
-      <c r="O43" s="23">
+      <c r="O43" s="57">
         <v>0</v>
       </c>
-      <c r="P43" s="23"/>
-      <c r="Q43" s="23">
+      <c r="P43" s="57"/>
+      <c r="Q43" s="57">
         <v>9</v>
       </c>
-      <c r="R43" s="23">
+      <c r="R43" s="57">
         <v>1</v>
       </c>
-      <c r="S43" s="23">
+      <c r="S43" s="57">
         <v>3</v>
       </c>
-      <c r="T43" s="23">
+      <c r="T43" s="57">
         <v>5</v>
       </c>
-      <c r="U43" s="23">
+      <c r="U43" s="57">
         <v>5</v>
       </c>
       <c r="V43" s="47">
         <v>165</v>
       </c>
-      <c r="W43" s="23">
+      <c r="W43" s="57">
         <v>1</v>
       </c>
-      <c r="X43" s="23">
+      <c r="X43" s="57">
         <v>138</v>
       </c>
-      <c r="Y43" s="23">
+      <c r="Y43" s="57">
         <v>51</v>
       </c>
-      <c r="Z43" s="23">
+      <c r="Z43" s="57">
         <v>2</v>
       </c>
-      <c r="AA43" s="23">
+      <c r="AA43" s="57">
         <v>41</v>
       </c>
-      <c r="AB43" s="23">
+      <c r="AB43" s="57">
         <v>687</v>
       </c>
     </row>
     <row r="44" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="20">
+      <c r="A44" s="54">
         <v>43926</v>
       </c>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21">
+      <c r="B44" s="55"/>
+      <c r="C44" s="55"/>
+      <c r="D44" s="55">
         <v>3</v>
       </c>
-      <c r="E44" s="21">
+      <c r="E44" s="55">
         <v>28</v>
       </c>
-      <c r="F44" s="21">
+      <c r="F44" s="55">
         <v>19</v>
       </c>
-      <c r="G44" s="21">
+      <c r="G44" s="55">
         <v>26</v>
       </c>
-      <c r="H44" s="21">
+      <c r="H44" s="55">
         <v>40</v>
       </c>
-      <c r="I44" s="21"/>
-      <c r="J44" s="21"/>
-      <c r="K44" s="21"/>
-      <c r="L44" s="21"/>
-      <c r="M44" s="21">
+      <c r="I44" s="55">
+        <v>92</v>
+      </c>
+      <c r="J44" s="55"/>
+      <c r="K44" s="55">
+        <v>30</v>
+      </c>
+      <c r="L44" s="55"/>
+      <c r="M44" s="55">
         <v>9</v>
       </c>
-      <c r="N44" s="21"/>
-      <c r="O44" s="21">
+      <c r="N44" s="55">
+        <v>26</v>
+      </c>
+      <c r="O44" s="55">
         <v>0</v>
       </c>
-      <c r="P44" s="21"/>
-      <c r="Q44" s="21">
+      <c r="P44" s="55"/>
+      <c r="Q44" s="55">
         <v>9</v>
       </c>
-      <c r="R44" s="21"/>
-      <c r="S44" s="21">
+      <c r="R44" s="55">
+        <v>1</v>
+      </c>
+      <c r="S44" s="55">
         <v>3</v>
       </c>
-      <c r="T44" s="21">
+      <c r="T44" s="55">
         <v>5</v>
       </c>
-      <c r="U44" s="21">
+      <c r="U44" s="55">
         <v>7</v>
       </c>
       <c r="V44" s="47">
         <v>177</v>
       </c>
-      <c r="W44" s="21">
+      <c r="W44" s="55">
         <v>2</v>
       </c>
-      <c r="X44" s="21"/>
-      <c r="Y44" s="21">
+      <c r="X44" s="55">
+        <v>147</v>
+      </c>
+      <c r="Y44" s="55">
         <v>53</v>
       </c>
-      <c r="Z44" s="21"/>
-      <c r="AA44" s="21">
+      <c r="Z44" s="55"/>
+      <c r="AA44" s="55">
         <v>45</v>
       </c>
-      <c r="AB44" s="21">
-        <v>715</v>
+      <c r="AB44" s="55">
+        <v>738</v>
       </c>
       <c r="AC44" s="10"/>
     </row>
     <row r="45" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="22"/>
-      <c r="B45" s="23"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="23"/>
-      <c r="I45" s="23"/>
-      <c r="J45" s="23"/>
-      <c r="K45" s="23"/>
-      <c r="L45" s="23"/>
-      <c r="M45" s="23"/>
-      <c r="N45" s="23"/>
-      <c r="O45" s="23"/>
-      <c r="P45" s="23"/>
-      <c r="Q45" s="23"/>
-      <c r="R45" s="23"/>
-      <c r="S45" s="23"/>
-      <c r="T45" s="23"/>
-      <c r="U45" s="23"/>
-      <c r="V45" s="47"/>
-      <c r="W45" s="23"/>
-      <c r="X45" s="23"/>
-      <c r="Y45" s="23"/>
-      <c r="Z45" s="23"/>
-      <c r="AA45" s="23"/>
-      <c r="AB45" s="23"/>
+      <c r="A45" s="56">
+        <v>43927</v>
+      </c>
+      <c r="B45" s="57">
+        <v>13</v>
+      </c>
+      <c r="C45" s="57"/>
+      <c r="D45" s="57">
+        <v>3</v>
+      </c>
+      <c r="E45" s="57">
+        <v>31</v>
+      </c>
+      <c r="F45" s="57">
+        <v>19</v>
+      </c>
+      <c r="G45" s="57">
+        <v>26</v>
+      </c>
+      <c r="H45" s="57"/>
+      <c r="I45" s="57"/>
+      <c r="J45" s="57">
+        <v>2</v>
+      </c>
+      <c r="K45" s="57"/>
+      <c r="L45" s="57"/>
+      <c r="M45" s="57">
+        <v>9</v>
+      </c>
+      <c r="N45" s="57">
+        <v>27</v>
+      </c>
+      <c r="O45" s="57">
+        <v>0</v>
+      </c>
+      <c r="P45" s="57">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="57">
+        <v>11</v>
+      </c>
+      <c r="R45" s="57"/>
+      <c r="S45" s="57">
+        <v>3</v>
+      </c>
+      <c r="T45" s="57">
+        <v>6</v>
+      </c>
+      <c r="U45" s="57">
+        <v>7</v>
+      </c>
+      <c r="V45" s="47">
+        <v>189</v>
+      </c>
+      <c r="W45" s="57">
+        <v>2</v>
+      </c>
+      <c r="X45" s="57"/>
+      <c r="Y45" s="57">
+        <v>56</v>
+      </c>
+      <c r="Z45" s="57">
+        <v>3</v>
+      </c>
+      <c r="AA45" s="57">
+        <v>48</v>
+      </c>
+      <c r="AB45" s="57">
+        <v>765</v>
+      </c>
     </row>
     <row r="46" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="20"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="21"/>
-      <c r="I46" s="21"/>
-      <c r="J46" s="21"/>
-      <c r="K46" s="21"/>
-      <c r="L46" s="21"/>
-      <c r="M46" s="21"/>
-      <c r="N46" s="21"/>
-      <c r="O46" s="21"/>
-      <c r="P46" s="21"/>
-      <c r="Q46" s="21"/>
-      <c r="R46" s="21"/>
-      <c r="S46" s="21"/>
-      <c r="T46" s="21"/>
-      <c r="U46" s="21"/>
-      <c r="V46" s="47"/>
-      <c r="W46" s="21"/>
-      <c r="X46" s="21"/>
-      <c r="Y46" s="21"/>
-      <c r="Z46" s="21"/>
-      <c r="AA46" s="21"/>
-      <c r="AB46" s="21"/>
+      <c r="A46" s="54"/>
+      <c r="B46" s="55"/>
+      <c r="C46" s="55"/>
+      <c r="D46" s="55"/>
+      <c r="E46" s="55"/>
+      <c r="F46" s="55"/>
+      <c r="G46" s="55"/>
+      <c r="H46" s="55"/>
+      <c r="I46" s="55"/>
+      <c r="J46" s="55"/>
+      <c r="K46" s="55"/>
+      <c r="L46" s="55"/>
+      <c r="M46" s="55"/>
+      <c r="N46" s="55"/>
+      <c r="O46" s="55"/>
+      <c r="P46" s="55"/>
+      <c r="Q46" s="55"/>
+      <c r="R46" s="55"/>
+      <c r="S46" s="55"/>
+      <c r="T46" s="55"/>
+      <c r="U46" s="55"/>
+      <c r="V46" s="55"/>
+      <c r="W46" s="55"/>
+      <c r="X46" s="55"/>
+      <c r="Y46" s="55"/>
+      <c r="Z46" s="55"/>
+      <c r="AA46" s="55"/>
+      <c r="AB46" s="55"/>
+      <c r="AC46" s="10"/>
     </row>
     <row r="47" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="22"/>
-      <c r="B47" s="23"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="23"/>
-      <c r="J47" s="23"/>
-      <c r="K47" s="23"/>
-      <c r="L47" s="23"/>
-      <c r="M47" s="23"/>
-      <c r="N47" s="23"/>
-      <c r="O47" s="23"/>
-      <c r="P47" s="23"/>
-      <c r="Q47" s="23"/>
-      <c r="R47" s="23"/>
-      <c r="S47" s="23"/>
-      <c r="T47" s="23"/>
-      <c r="U47" s="23"/>
-      <c r="V47" s="47"/>
-      <c r="W47" s="23"/>
-      <c r="X47" s="23"/>
-      <c r="Y47" s="23"/>
-      <c r="Z47" s="23"/>
-      <c r="AA47" s="23"/>
-      <c r="AB47" s="23"/>
+      <c r="A47" s="56"/>
+      <c r="B47" s="57"/>
+      <c r="C47" s="57"/>
+      <c r="D47" s="57"/>
+      <c r="E47" s="57"/>
+      <c r="F47" s="57"/>
+      <c r="G47" s="57"/>
+      <c r="H47" s="57"/>
+      <c r="I47" s="57"/>
+      <c r="J47" s="57"/>
+      <c r="K47" s="57"/>
+      <c r="L47" s="57"/>
+      <c r="M47" s="57"/>
+      <c r="N47" s="57"/>
+      <c r="O47" s="57"/>
+      <c r="P47" s="57"/>
+      <c r="Q47" s="57"/>
+      <c r="R47" s="57"/>
+      <c r="S47" s="57"/>
+      <c r="T47" s="57"/>
+      <c r="U47" s="57"/>
+      <c r="V47" s="57"/>
+      <c r="W47" s="57"/>
+      <c r="X47" s="57"/>
+      <c r="Y47" s="57"/>
+      <c r="Z47" s="57"/>
+      <c r="AA47" s="57"/>
+      <c r="AB47" s="57"/>
     </row>
     <row r="48" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="20"/>
-      <c r="B48" s="21"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="21"/>
-      <c r="H48" s="21"/>
-      <c r="I48" s="21"/>
-      <c r="J48" s="21"/>
-      <c r="K48" s="21"/>
-      <c r="L48" s="21"/>
-      <c r="M48" s="21"/>
-      <c r="N48" s="21"/>
-      <c r="O48" s="21"/>
-      <c r="P48" s="21"/>
-      <c r="Q48" s="21"/>
-      <c r="R48" s="21"/>
-      <c r="S48" s="21"/>
-      <c r="T48" s="21"/>
-      <c r="U48" s="21"/>
-      <c r="V48" s="47"/>
-      <c r="W48" s="21"/>
-      <c r="X48" s="21"/>
-      <c r="Y48" s="21"/>
-      <c r="Z48" s="21"/>
-      <c r="AA48" s="21"/>
-      <c r="AB48" s="21"/>
+      <c r="A48" s="54"/>
+      <c r="B48" s="55"/>
+      <c r="C48" s="55"/>
+      <c r="D48" s="55"/>
+      <c r="E48" s="55"/>
+      <c r="F48" s="55"/>
+      <c r="G48" s="55"/>
+      <c r="H48" s="55"/>
+      <c r="I48" s="55"/>
+      <c r="J48" s="55"/>
+      <c r="K48" s="55"/>
+      <c r="L48" s="55"/>
+      <c r="M48" s="55"/>
+      <c r="N48" s="55"/>
+      <c r="O48" s="55"/>
+      <c r="P48" s="55"/>
+      <c r="Q48" s="55"/>
+      <c r="R48" s="55"/>
+      <c r="S48" s="55"/>
+      <c r="T48" s="55"/>
+      <c r="U48" s="55"/>
+      <c r="V48" s="55"/>
+      <c r="W48" s="55"/>
+      <c r="X48" s="55"/>
+      <c r="Y48" s="55"/>
+      <c r="Z48" s="55"/>
+      <c r="AA48" s="55"/>
+      <c r="AB48" s="55"/>
+    </row>
+    <row r="49" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="56"/>
+      <c r="B49" s="57"/>
+      <c r="C49" s="57"/>
+      <c r="D49" s="57"/>
+      <c r="E49" s="57"/>
+      <c r="F49" s="57"/>
+      <c r="G49" s="57"/>
+      <c r="H49" s="57"/>
+      <c r="I49" s="57"/>
+      <c r="J49" s="57"/>
+      <c r="K49" s="57"/>
+      <c r="L49" s="57"/>
+      <c r="M49" s="57"/>
+      <c r="N49" s="57"/>
+      <c r="O49" s="57"/>
+      <c r="P49" s="57"/>
+      <c r="Q49" s="57"/>
+      <c r="R49" s="57"/>
+      <c r="S49" s="57"/>
+      <c r="T49" s="57"/>
+      <c r="U49" s="57"/>
+      <c r="V49" s="57"/>
+      <c r="W49" s="57"/>
+      <c r="X49" s="57"/>
+      <c r="Y49" s="57"/>
+      <c r="Z49" s="57"/>
+      <c r="AA49" s="57"/>
+      <c r="AB49" s="57"/>
+    </row>
+    <row r="50" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="54"/>
+      <c r="B50" s="55"/>
+      <c r="C50" s="55"/>
+      <c r="D50" s="55"/>
+      <c r="E50" s="55"/>
+      <c r="F50" s="55"/>
+      <c r="G50" s="55"/>
+      <c r="H50" s="55"/>
+      <c r="I50" s="55"/>
+      <c r="J50" s="55"/>
+      <c r="K50" s="55"/>
+      <c r="L50" s="55"/>
+      <c r="M50" s="55"/>
+      <c r="N50" s="55"/>
+      <c r="O50" s="55"/>
+      <c r="P50" s="55"/>
+      <c r="Q50" s="55"/>
+      <c r="R50" s="55"/>
+      <c r="S50" s="55"/>
+      <c r="T50" s="55"/>
+      <c r="U50" s="55"/>
+      <c r="V50" s="55"/>
+      <c r="W50" s="55"/>
+      <c r="X50" s="55"/>
+      <c r="Y50" s="55"/>
+      <c r="Z50" s="55"/>
+      <c r="AA50" s="55"/>
+      <c r="AB50" s="55"/>
+    </row>
+    <row r="51" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="56"/>
+      <c r="B51" s="57"/>
+      <c r="C51" s="57"/>
+      <c r="D51" s="57"/>
+      <c r="E51" s="57"/>
+      <c r="F51" s="57"/>
+      <c r="G51" s="57"/>
+      <c r="H51" s="57"/>
+      <c r="I51" s="57"/>
+      <c r="J51" s="57"/>
+      <c r="K51" s="57"/>
+      <c r="L51" s="57"/>
+      <c r="M51" s="57"/>
+      <c r="N51" s="57"/>
+      <c r="O51" s="57"/>
+      <c r="P51" s="57"/>
+      <c r="Q51" s="57"/>
+      <c r="R51" s="57"/>
+      <c r="S51" s="57"/>
+      <c r="T51" s="57"/>
+      <c r="U51" s="57"/>
+      <c r="V51" s="57"/>
+      <c r="W51" s="57"/>
+      <c r="X51" s="57"/>
+      <c r="Y51" s="57"/>
+      <c r="Z51" s="57"/>
+      <c r="AA51" s="57"/>
+      <c r="AB51" s="57"/>
+    </row>
+    <row r="52" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="54"/>
+      <c r="B52" s="55"/>
+      <c r="C52" s="55"/>
+      <c r="D52" s="55"/>
+      <c r="E52" s="55"/>
+      <c r="F52" s="55"/>
+      <c r="G52" s="55"/>
+      <c r="H52" s="55"/>
+      <c r="I52" s="55"/>
+      <c r="J52" s="55"/>
+      <c r="K52" s="55"/>
+      <c r="L52" s="55"/>
+      <c r="M52" s="55"/>
+      <c r="N52" s="55"/>
+      <c r="O52" s="55"/>
+      <c r="P52" s="55"/>
+      <c r="Q52" s="55"/>
+      <c r="R52" s="55"/>
+      <c r="S52" s="55"/>
+      <c r="T52" s="55"/>
+      <c r="U52" s="55"/>
+      <c r="V52" s="55"/>
+      <c r="W52" s="55"/>
+      <c r="X52" s="55"/>
+      <c r="Y52" s="55"/>
+      <c r="Z52" s="55"/>
+      <c r="AA52" s="55"/>
+      <c r="AB52" s="55"/>
+    </row>
+    <row r="53" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="56"/>
+      <c r="B53" s="57"/>
+      <c r="C53" s="57"/>
+      <c r="D53" s="57"/>
+      <c r="E53" s="57"/>
+      <c r="F53" s="57"/>
+      <c r="G53" s="57"/>
+      <c r="H53" s="57"/>
+      <c r="I53" s="57"/>
+      <c r="J53" s="57"/>
+      <c r="K53" s="57"/>
+      <c r="L53" s="57"/>
+      <c r="M53" s="57"/>
+      <c r="N53" s="57"/>
+      <c r="O53" s="57"/>
+      <c r="P53" s="57"/>
+      <c r="Q53" s="57"/>
+      <c r="R53" s="57"/>
+      <c r="S53" s="57"/>
+      <c r="T53" s="57"/>
+      <c r="U53" s="57"/>
+      <c r="V53" s="57"/>
+      <c r="W53" s="57"/>
+      <c r="X53" s="57"/>
+      <c r="Y53" s="57"/>
+      <c r="Z53" s="57"/>
+      <c r="AA53" s="57"/>
+      <c r="AB53" s="57"/>
+    </row>
+    <row r="54" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="54"/>
+      <c r="B54" s="55"/>
+      <c r="C54" s="55"/>
+      <c r="D54" s="55"/>
+      <c r="E54" s="55"/>
+      <c r="F54" s="55"/>
+      <c r="G54" s="55"/>
+      <c r="H54" s="55"/>
+      <c r="I54" s="55"/>
+      <c r="J54" s="55"/>
+      <c r="K54" s="55"/>
+      <c r="L54" s="55"/>
+      <c r="M54" s="55"/>
+      <c r="N54" s="55"/>
+      <c r="O54" s="55"/>
+      <c r="P54" s="55"/>
+      <c r="Q54" s="55"/>
+      <c r="R54" s="55"/>
+      <c r="S54" s="55"/>
+      <c r="T54" s="55"/>
+      <c r="U54" s="55"/>
+      <c r="V54" s="55"/>
+      <c r="W54" s="55"/>
+      <c r="X54" s="55"/>
+      <c r="Y54" s="55"/>
+      <c r="Z54" s="55"/>
+      <c r="AA54" s="55"/>
+      <c r="AB54" s="55"/>
+    </row>
+    <row r="55" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="56"/>
+      <c r="B55" s="57"/>
+      <c r="C55" s="57"/>
+      <c r="D55" s="57"/>
+      <c r="E55" s="57"/>
+      <c r="F55" s="57"/>
+      <c r="G55" s="57"/>
+      <c r="H55" s="57"/>
+      <c r="I55" s="57"/>
+      <c r="J55" s="57"/>
+      <c r="K55" s="57"/>
+      <c r="L55" s="57"/>
+      <c r="M55" s="57"/>
+      <c r="N55" s="57"/>
+      <c r="O55" s="57"/>
+      <c r="P55" s="57"/>
+      <c r="Q55" s="57"/>
+      <c r="R55" s="57"/>
+      <c r="S55" s="57"/>
+      <c r="T55" s="57"/>
+      <c r="U55" s="57"/>
+      <c r="V55" s="57"/>
+      <c r="W55" s="57"/>
+      <c r="X55" s="57"/>
+      <c r="Y55" s="57"/>
+      <c r="Z55" s="57"/>
+      <c r="AA55" s="57"/>
+      <c r="AB55" s="57"/>
+    </row>
+    <row r="56" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="54"/>
+      <c r="B56" s="55"/>
+      <c r="C56" s="55"/>
+      <c r="D56" s="55"/>
+      <c r="E56" s="55"/>
+      <c r="F56" s="55"/>
+      <c r="G56" s="55"/>
+      <c r="H56" s="55"/>
+      <c r="I56" s="55"/>
+      <c r="J56" s="55"/>
+      <c r="K56" s="55"/>
+      <c r="L56" s="55"/>
+      <c r="M56" s="55"/>
+      <c r="N56" s="55"/>
+      <c r="O56" s="55"/>
+      <c r="P56" s="55"/>
+      <c r="Q56" s="55"/>
+      <c r="R56" s="55"/>
+      <c r="S56" s="55"/>
+      <c r="T56" s="55"/>
+      <c r="U56" s="55"/>
+      <c r="V56" s="55"/>
+      <c r="W56" s="55"/>
+      <c r="X56" s="55"/>
+      <c r="Y56" s="55"/>
+      <c r="Z56" s="55"/>
+      <c r="AA56" s="55"/>
+      <c r="AB56" s="55"/>
+    </row>
+    <row r="57" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="56"/>
+      <c r="B57" s="57"/>
+      <c r="C57" s="57"/>
+      <c r="D57" s="57"/>
+      <c r="E57" s="57"/>
+      <c r="F57" s="57"/>
+      <c r="G57" s="57"/>
+      <c r="H57" s="57"/>
+      <c r="I57" s="57"/>
+      <c r="J57" s="57"/>
+      <c r="K57" s="57"/>
+      <c r="L57" s="57"/>
+      <c r="M57" s="57"/>
+      <c r="N57" s="57"/>
+      <c r="O57" s="57"/>
+      <c r="P57" s="57"/>
+      <c r="Q57" s="57"/>
+      <c r="R57" s="57"/>
+      <c r="S57" s="57"/>
+      <c r="T57" s="57"/>
+      <c r="U57" s="57"/>
+      <c r="V57" s="57"/>
+      <c r="W57" s="57"/>
+      <c r="X57" s="57"/>
+      <c r="Y57" s="57"/>
+      <c r="Z57" s="57"/>
+      <c r="AA57" s="57"/>
+      <c r="AB57" s="57"/>
+    </row>
+    <row r="58" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="54"/>
+      <c r="B58" s="55"/>
+      <c r="C58" s="55"/>
+      <c r="D58" s="55"/>
+      <c r="E58" s="55"/>
+      <c r="F58" s="55"/>
+      <c r="G58" s="55"/>
+      <c r="H58" s="55"/>
+      <c r="I58" s="55"/>
+      <c r="J58" s="55"/>
+      <c r="K58" s="55"/>
+      <c r="L58" s="55"/>
+      <c r="M58" s="55"/>
+      <c r="N58" s="55"/>
+      <c r="O58" s="55"/>
+      <c r="P58" s="55"/>
+      <c r="Q58" s="55"/>
+      <c r="R58" s="55"/>
+      <c r="S58" s="55"/>
+      <c r="T58" s="55"/>
+      <c r="U58" s="55"/>
+      <c r="V58" s="55"/>
+      <c r="W58" s="55"/>
+      <c r="X58" s="55"/>
+      <c r="Y58" s="55"/>
+      <c r="Z58" s="55"/>
+      <c r="AA58" s="55"/>
+      <c r="AB58" s="55"/>
+    </row>
+    <row r="59" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="56"/>
+      <c r="B59" s="57"/>
+      <c r="C59" s="57"/>
+      <c r="D59" s="57"/>
+      <c r="E59" s="57"/>
+      <c r="F59" s="57"/>
+      <c r="G59" s="57"/>
+      <c r="H59" s="57"/>
+      <c r="I59" s="57"/>
+      <c r="J59" s="57"/>
+      <c r="K59" s="57"/>
+      <c r="L59" s="57"/>
+      <c r="M59" s="57"/>
+      <c r="N59" s="57"/>
+      <c r="O59" s="57"/>
+      <c r="P59" s="57"/>
+      <c r="Q59" s="57"/>
+      <c r="R59" s="57"/>
+      <c r="S59" s="57"/>
+      <c r="T59" s="57"/>
+      <c r="U59" s="57"/>
+      <c r="V59" s="57"/>
+      <c r="W59" s="57"/>
+      <c r="X59" s="57"/>
+      <c r="Y59" s="57"/>
+      <c r="Z59" s="57"/>
+      <c r="AA59" s="57"/>
+      <c r="AB59" s="57"/>
+    </row>
+    <row r="60" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="54"/>
+      <c r="B60" s="55"/>
+      <c r="C60" s="55"/>
+      <c r="D60" s="55"/>
+      <c r="E60" s="55"/>
+      <c r="F60" s="55"/>
+      <c r="G60" s="55"/>
+      <c r="H60" s="55"/>
+      <c r="I60" s="55"/>
+      <c r="J60" s="55"/>
+      <c r="K60" s="55"/>
+      <c r="L60" s="55"/>
+      <c r="M60" s="55"/>
+      <c r="N60" s="55"/>
+      <c r="O60" s="55"/>
+      <c r="P60" s="55"/>
+      <c r="Q60" s="55"/>
+      <c r="R60" s="55"/>
+      <c r="S60" s="55"/>
+      <c r="T60" s="55"/>
+      <c r="U60" s="55"/>
+      <c r="V60" s="55"/>
+      <c r="W60" s="55"/>
+      <c r="X60" s="55"/>
+      <c r="Y60" s="55"/>
+      <c r="Z60" s="55"/>
+      <c r="AA60" s="55"/>
+      <c r="AB60" s="55"/>
+    </row>
+    <row r="61" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="56"/>
+      <c r="B61" s="57"/>
+      <c r="C61" s="57"/>
+      <c r="D61" s="57"/>
+      <c r="E61" s="57"/>
+      <c r="F61" s="57"/>
+      <c r="G61" s="57"/>
+      <c r="H61" s="57"/>
+      <c r="I61" s="57"/>
+      <c r="J61" s="57"/>
+      <c r="K61" s="57"/>
+      <c r="L61" s="57"/>
+      <c r="M61" s="57"/>
+      <c r="N61" s="57"/>
+      <c r="O61" s="57"/>
+      <c r="P61" s="57"/>
+      <c r="Q61" s="57"/>
+      <c r="R61" s="57"/>
+      <c r="S61" s="57"/>
+      <c r="T61" s="57"/>
+      <c r="U61" s="57"/>
+      <c r="V61" s="57"/>
+      <c r="W61" s="57"/>
+      <c r="X61" s="57"/>
+      <c r="Y61" s="57"/>
+      <c r="Z61" s="57"/>
+      <c r="AA61" s="57"/>
+      <c r="AB61" s="57"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TI_Lombardia.xlsx
+++ b/TI_Lombardia.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TI Lombardia" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">cases!$A$3:$AB$44</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TI Lombardia'!$A$3:$F$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TI Lombardia'!$A$3:$F$50</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="117">
   <si>
     <t>Date</t>
   </si>
@@ -739,7 +739,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -874,6 +874,12 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF24292E"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -929,7 +935,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1015,6 +1021,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDFE2E5"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDFE2E5"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1023,7 +1040,7 @@
     <xf numFmtId="0" fontId="18" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1157,6 +1174,12 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2872,10 +2895,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U60"/>
+  <dimension ref="A1:U65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4:L60"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L64" sqref="L4:L64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3988,900 +4011,1036 @@
         <v>6/4/2020,6,4,2020,1079,297,Lombardia,nn,nnn,10040001</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>43901</v>
-      </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34">
-        <v>68</v>
+        <v>43928</v>
+      </c>
+      <c r="B34" s="57">
+        <v>9484</v>
+      </c>
+      <c r="C34" s="57">
+        <v>52325</v>
       </c>
       <c r="D34">
-        <f>C34</f>
-        <v>68</v>
+        <f t="shared" ref="D34" si="7">C34-C33</f>
+        <v>791</v>
       </c>
       <c r="E34" t="s">
-        <v>116</v>
+        <v>9</v>
       </c>
       <c r="G34">
-        <f t="shared" ref="G34:G36" si="7">B34</f>
-        <v>1</v>
-      </c>
-      <c r="H34">
-        <v>353709</v>
+        <f t="shared" ref="G34" si="8">B34-B33</f>
+        <v>282</v>
+      </c>
+      <c r="H34" s="2">
+        <v>10040002</v>
       </c>
       <c r="K34" s="5" t="str">
-        <f t="shared" ref="K34:K36" si="8">DAY(A34)&amp;"/"&amp;MONTH(A34)&amp;"/"&amp;YEAR(A34)</f>
-        <v>11/3/2020</v>
+        <f t="shared" ref="K34" si="9">DAY(A34)&amp;"/"&amp;MONTH(A34)&amp;"/"&amp;YEAR(A34)</f>
+        <v>7/4/2020</v>
       </c>
       <c r="L34" s="3" t="str">
-        <f t="shared" ref="L34:L36" si="9">K34&amp;$L$1&amp;DAY(A34)&amp;$L$1&amp;MONTH(A34)&amp;$L$1&amp;YEAR(A34)&amp;$L$1&amp;D34&amp;$L$1&amp;G34&amp;$L$1&amp;E34&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H34</f>
-        <v>11/3/2020,11,3,2020,68,1,Ticino,nn,nnn,353709</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+        <f t="shared" ref="L34" si="10">K34&amp;$L$1&amp;DAY(A34)&amp;$L$1&amp;MONTH(A34)&amp;$L$1&amp;YEAR(A34)&amp;$L$1&amp;D34&amp;$L$1&amp;G34&amp;$L$1&amp;E34&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H34</f>
+        <v>7/4/2020,7,4,2020,791,282,Lombardia,nn,nnn,10040002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>43902</v>
-      </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35" s="43">
-        <v>180</v>
+        <v>43929</v>
+      </c>
+      <c r="B35" s="57">
+        <v>9722</v>
+      </c>
+      <c r="C35" s="57">
+        <v>53414</v>
       </c>
       <c r="D35">
-        <f t="shared" ref="D35:D60" si="10">C35-C34</f>
-        <v>112</v>
+        <f t="shared" ref="D35" si="11">C35-C34</f>
+        <v>1089</v>
       </c>
       <c r="E35" t="s">
-        <v>116</v>
+        <v>9</v>
       </c>
       <c r="G35">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="H35">
-        <v>353709</v>
+        <f t="shared" ref="G35" si="12">B35-B34</f>
+        <v>238</v>
+      </c>
+      <c r="H35" s="2">
+        <v>10040003</v>
       </c>
       <c r="K35" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>12/3/2020</v>
+        <f t="shared" ref="K35" si="13">DAY(A35)&amp;"/"&amp;MONTH(A35)&amp;"/"&amp;YEAR(A35)</f>
+        <v>8/4/2020</v>
       </c>
       <c r="L35" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>12/3/2020,12,3,2020,112,1,Ticino,nn,nnn,353709</v>
+        <f t="shared" ref="L35" si="14">K35&amp;$L$1&amp;DAY(A35)&amp;$L$1&amp;MONTH(A35)&amp;$L$1&amp;YEAR(A35)&amp;$L$1&amp;D35&amp;$L$1&amp;G35&amp;$L$1&amp;E35&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H35</f>
+        <v>8/4/2020,8,4,2020,1089,238,Lombardia,nn,nnn,10040003</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>43903</v>
+        <v>43901</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
-      <c r="C36" s="43">
-        <v>258</v>
+      <c r="C36">
+        <v>68</v>
       </c>
       <c r="D36">
-        <f t="shared" si="10"/>
-        <v>78</v>
+        <f>C36</f>
+        <v>68</v>
       </c>
       <c r="E36" t="s">
         <v>116</v>
       </c>
       <c r="G36">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="G36:G38" si="15">B36</f>
         <v>1</v>
       </c>
       <c r="H36">
         <v>353709</v>
       </c>
       <c r="K36" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>13/3/2020</v>
+        <f t="shared" ref="K36:K38" si="16">DAY(A36)&amp;"/"&amp;MONTH(A36)&amp;"/"&amp;YEAR(A36)</f>
+        <v>11/3/2020</v>
       </c>
       <c r="L36" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>13/3/2020,13,3,2020,78,1,Ticino,nn,nnn,353709</v>
+        <f t="shared" ref="L36:L38" si="17">K36&amp;$L$1&amp;DAY(A36)&amp;$L$1&amp;MONTH(A36)&amp;$L$1&amp;YEAR(A36)&amp;$L$1&amp;D36&amp;$L$1&amp;G36&amp;$L$1&amp;E36&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H36</f>
+        <v>11/3/2020,11,3,2020,68,1,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>43904</v>
+        <v>43902</v>
       </c>
       <c r="B37">
-        <v>5</v>
-      </c>
-      <c r="C37">
-        <v>262</v>
+        <v>1</v>
+      </c>
+      <c r="C37" s="43">
+        <v>180</v>
       </c>
       <c r="D37">
-        <f t="shared" si="10"/>
-        <v>4</v>
+        <f t="shared" ref="D37:D62" si="18">C37-C36</f>
+        <v>112</v>
       </c>
       <c r="E37" t="s">
         <v>116</v>
       </c>
       <c r="G37">
-        <f>B37</f>
-        <v>5</v>
+        <f t="shared" si="15"/>
+        <v>1</v>
       </c>
       <c r="H37">
         <v>353709</v>
       </c>
       <c r="K37" s="5" t="str">
-        <f t="shared" ref="K37:K59" si="11">DAY(A37)&amp;"/"&amp;MONTH(A37)&amp;"/"&amp;YEAR(A37)</f>
-        <v>14/3/2020</v>
+        <f t="shared" si="16"/>
+        <v>12/3/2020</v>
       </c>
       <c r="L37" s="3" t="str">
-        <f t="shared" ref="L37:L59" si="12">K37&amp;$L$1&amp;DAY(A37)&amp;$L$1&amp;MONTH(A37)&amp;$L$1&amp;YEAR(A37)&amp;$L$1&amp;D37&amp;$L$1&amp;G37&amp;$L$1&amp;E37&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H37</f>
-        <v>14/3/2020,14,3,2020,4,5,Ticino,nn,nnn,353709</v>
+        <f t="shared" si="17"/>
+        <v>12/3/2020,12,3,2020,112,1,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>43905</v>
+        <v>43903</v>
       </c>
       <c r="B38">
-        <v>6</v>
-      </c>
-      <c r="C38">
-        <v>291</v>
+        <v>1</v>
+      </c>
+      <c r="C38" s="43">
+        <v>258</v>
       </c>
       <c r="D38">
-        <f t="shared" si="10"/>
-        <v>29</v>
+        <f t="shared" si="18"/>
+        <v>78</v>
       </c>
       <c r="E38" t="s">
         <v>116</v>
       </c>
       <c r="G38">
-        <f t="shared" ref="G38:G59" si="13">B38-B37</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="H38">
         <v>353709</v>
       </c>
       <c r="K38" s="5" t="str">
-        <f t="shared" si="11"/>
-        <v>15/3/2020</v>
+        <f t="shared" si="16"/>
+        <v>13/3/2020</v>
       </c>
       <c r="L38" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>15/3/2020,15,3,2020,29,1,Ticino,nn,nnn,353709</v>
+        <f t="shared" si="17"/>
+        <v>13/3/2020,13,3,2020,78,1,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>43906</v>
+        <v>43904</v>
       </c>
       <c r="B39">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C39">
-        <v>330</v>
+        <v>262</v>
       </c>
       <c r="D39">
-        <f t="shared" si="10"/>
-        <v>39</v>
+        <f t="shared" si="18"/>
+        <v>4</v>
       </c>
       <c r="E39" t="s">
         <v>116</v>
       </c>
       <c r="G39">
-        <f t="shared" si="13"/>
-        <v>2</v>
+        <f>B39</f>
+        <v>5</v>
       </c>
       <c r="H39">
         <v>353709</v>
       </c>
       <c r="K39" s="5" t="str">
-        <f t="shared" si="11"/>
-        <v>16/3/2020</v>
+        <f t="shared" ref="K39:K61" si="19">DAY(A39)&amp;"/"&amp;MONTH(A39)&amp;"/"&amp;YEAR(A39)</f>
+        <v>14/3/2020</v>
       </c>
       <c r="L39" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>16/3/2020,16,3,2020,39,2,Ticino,nn,nnn,353709</v>
+        <f t="shared" ref="L39:L60" si="20">K39&amp;$L$1&amp;DAY(A39)&amp;$L$1&amp;MONTH(A39)&amp;$L$1&amp;YEAR(A39)&amp;$L$1&amp;D39&amp;$L$1&amp;G39&amp;$L$1&amp;E39&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H39</f>
+        <v>14/3/2020,14,3,2020,4,5,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>43907</v>
+        <v>43905</v>
       </c>
       <c r="B40">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C40">
-        <v>422</v>
+        <v>291</v>
       </c>
       <c r="D40">
-        <f t="shared" si="10"/>
-        <v>92</v>
+        <f t="shared" si="18"/>
+        <v>29</v>
       </c>
       <c r="E40" t="s">
         <v>116</v>
       </c>
       <c r="G40">
-        <f t="shared" si="13"/>
-        <v>2</v>
+        <f t="shared" ref="G40:G61" si="21">B40-B39</f>
+        <v>1</v>
       </c>
       <c r="H40">
         <v>353709</v>
       </c>
       <c r="K40" s="5" t="str">
-        <f t="shared" si="11"/>
-        <v>17/3/2020</v>
+        <f t="shared" si="19"/>
+        <v>15/3/2020</v>
       </c>
       <c r="L40" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>17/3/2020,17,3,2020,92,2,Ticino,nn,nnn,353709</v>
+        <f t="shared" si="20"/>
+        <v>15/3/2020,15,3,2020,29,1,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>43908</v>
+        <v>43906</v>
       </c>
       <c r="B41">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C41">
-        <v>511</v>
+        <v>330</v>
       </c>
       <c r="D41">
-        <f t="shared" si="10"/>
-        <v>89</v>
+        <f t="shared" si="18"/>
+        <v>39</v>
       </c>
       <c r="E41" t="s">
         <v>116</v>
       </c>
       <c r="G41">
-        <f t="shared" si="13"/>
-        <v>4</v>
+        <f t="shared" si="21"/>
+        <v>2</v>
       </c>
       <c r="H41">
         <v>353709</v>
       </c>
       <c r="K41" s="5" t="str">
-        <f t="shared" si="11"/>
-        <v>18/3/2020</v>
+        <f t="shared" si="19"/>
+        <v>16/3/2020</v>
       </c>
       <c r="L41" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>18/3/2020,18,3,2020,89,4,Ticino,nn,nnn,353709</v>
+        <f t="shared" si="20"/>
+        <v>16/3/2020,16,3,2020,39,2,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>43909</v>
+        <v>43907</v>
       </c>
       <c r="B42">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C42">
-        <v>638</v>
+        <v>422</v>
       </c>
       <c r="D42">
-        <f t="shared" si="10"/>
-        <v>127</v>
+        <f t="shared" si="18"/>
+        <v>92</v>
       </c>
       <c r="E42" t="s">
         <v>116</v>
       </c>
       <c r="G42">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <f t="shared" si="21"/>
+        <v>2</v>
       </c>
       <c r="H42">
         <v>353709</v>
       </c>
       <c r="K42" s="5" t="str">
-        <f t="shared" si="11"/>
-        <v>19/3/2020</v>
+        <f t="shared" si="19"/>
+        <v>17/3/2020</v>
       </c>
       <c r="L42" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>19/3/2020,19,3,2020,127,1,Ticino,nn,nnn,353709</v>
+        <f t="shared" si="20"/>
+        <v>17/3/2020,17,3,2020,92,2,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>43910</v>
+        <v>43908</v>
       </c>
       <c r="B43">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C43">
-        <v>834</v>
+        <v>511</v>
       </c>
       <c r="D43">
-        <f t="shared" si="10"/>
-        <v>196</v>
+        <f t="shared" si="18"/>
+        <v>89</v>
       </c>
       <c r="E43" t="s">
         <v>116</v>
       </c>
       <c r="G43">
-        <f t="shared" si="13"/>
-        <v>7</v>
+        <f t="shared" si="21"/>
+        <v>4</v>
       </c>
       <c r="H43">
         <v>353709</v>
       </c>
       <c r="K43" s="5" t="str">
-        <f t="shared" si="11"/>
-        <v>20/3/2020</v>
+        <f t="shared" si="19"/>
+        <v>18/3/2020</v>
       </c>
       <c r="L43" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>20/3/2020,20,3,2020,196,7,Ticino,nn,nnn,353709</v>
+        <f t="shared" si="20"/>
+        <v>18/3/2020,18,3,2020,89,4,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>43911</v>
+        <v>43909</v>
       </c>
       <c r="B44">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C44">
-        <v>918</v>
+        <v>638</v>
       </c>
       <c r="D44">
-        <f t="shared" si="10"/>
-        <v>84</v>
+        <f t="shared" si="18"/>
+        <v>127</v>
       </c>
       <c r="E44" t="s">
         <v>116</v>
       </c>
       <c r="G44">
-        <f t="shared" si="13"/>
-        <v>6</v>
+        <f t="shared" si="21"/>
+        <v>1</v>
       </c>
       <c r="H44">
         <v>353709</v>
       </c>
       <c r="K44" s="5" t="str">
-        <f t="shared" si="11"/>
-        <v>21/3/2020</v>
+        <f t="shared" si="19"/>
+        <v>19/3/2020</v>
       </c>
       <c r="L44" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>21/3/2020,21,3,2020,84,6,Ticino,nn,nnn,353709</v>
+        <f t="shared" si="20"/>
+        <v>19/3/2020,19,3,2020,127,1,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>43912</v>
+        <v>43910</v>
       </c>
       <c r="B45">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C45">
-        <v>939</v>
+        <v>834</v>
       </c>
       <c r="D45">
-        <f t="shared" si="10"/>
-        <v>21</v>
+        <f t="shared" si="18"/>
+        <v>196</v>
       </c>
       <c r="E45" t="s">
         <v>116</v>
       </c>
       <c r="G45">
-        <f t="shared" si="13"/>
-        <v>9</v>
+        <f t="shared" si="21"/>
+        <v>7</v>
       </c>
       <c r="H45">
         <v>353709</v>
       </c>
       <c r="K45" s="5" t="str">
-        <f t="shared" si="11"/>
-        <v>22/3/2020</v>
+        <f t="shared" si="19"/>
+        <v>20/3/2020</v>
       </c>
       <c r="L45" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>22/3/2020,22,3,2020,21,9,Ticino,nn,nnn,353709</v>
+        <f t="shared" si="20"/>
+        <v>20/3/2020,20,3,2020,196,7,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>43913</v>
+        <v>43911</v>
       </c>
       <c r="B46">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="C46">
-        <v>1165</v>
+        <v>918</v>
       </c>
       <c r="D46">
-        <f t="shared" si="10"/>
-        <v>226</v>
+        <f t="shared" si="18"/>
+        <v>84</v>
       </c>
       <c r="E46" t="s">
         <v>116</v>
       </c>
       <c r="G46">
-        <f t="shared" si="13"/>
-        <v>11</v>
+        <f t="shared" si="21"/>
+        <v>6</v>
       </c>
       <c r="H46">
         <v>353709</v>
       </c>
       <c r="K46" s="5" t="str">
-        <f t="shared" si="11"/>
-        <v>23/3/2020</v>
+        <f t="shared" si="19"/>
+        <v>21/3/2020</v>
       </c>
       <c r="L46" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>23/3/2020,23,3,2020,226,11,Ticino,nn,nnn,353709</v>
+        <f t="shared" si="20"/>
+        <v>21/3/2020,21,3,2020,84,6,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>43914</v>
+        <v>43912</v>
       </c>
       <c r="B47">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C47">
-        <v>1211</v>
+        <v>939</v>
       </c>
       <c r="D47">
-        <f t="shared" si="10"/>
-        <v>46</v>
+        <f t="shared" si="18"/>
+        <v>21</v>
       </c>
       <c r="E47" t="s">
         <v>116</v>
       </c>
-      <c r="F47" s="2"/>
       <c r="G47">
-        <f t="shared" si="13"/>
-        <v>5</v>
+        <f t="shared" si="21"/>
+        <v>9</v>
       </c>
       <c r="H47">
         <v>353709</v>
       </c>
       <c r="K47" s="5" t="str">
-        <f t="shared" si="11"/>
-        <v>24/3/2020</v>
+        <f t="shared" si="19"/>
+        <v>22/3/2020</v>
       </c>
       <c r="L47" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>24/3/2020,24,3,2020,46,5,Ticino,nn,nnn,353709</v>
+        <f t="shared" si="20"/>
+        <v>22/3/2020,22,3,2020,21,9,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>43915</v>
+        <v>43913</v>
       </c>
       <c r="B48">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C48">
-        <v>1343</v>
+        <v>1165</v>
       </c>
       <c r="D48">
-        <f t="shared" si="10"/>
-        <v>132</v>
+        <f t="shared" si="18"/>
+        <v>226</v>
       </c>
       <c r="E48" t="s">
         <v>116</v>
       </c>
       <c r="G48">
-        <f t="shared" si="13"/>
-        <v>7</v>
+        <f t="shared" si="21"/>
+        <v>11</v>
       </c>
       <c r="H48">
         <v>353709</v>
       </c>
       <c r="K48" s="5" t="str">
-        <f t="shared" si="11"/>
-        <v>25/3/2020</v>
+        <f t="shared" si="19"/>
+        <v>23/3/2020</v>
       </c>
       <c r="L48" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>25/3/2020,25,3,2020,132,7,Ticino,nn,nnn,353709</v>
+        <f t="shared" si="20"/>
+        <v>23/3/2020,23,3,2020,226,11,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>43916</v>
+        <v>43914</v>
       </c>
       <c r="B49">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="C49">
-        <v>1401</v>
+        <v>1211</v>
       </c>
       <c r="D49">
-        <f t="shared" si="10"/>
-        <v>58</v>
+        <f t="shared" si="18"/>
+        <v>46</v>
       </c>
       <c r="E49" t="s">
         <v>116</v>
       </c>
+      <c r="F49" s="2"/>
       <c r="G49">
-        <f t="shared" si="13"/>
-        <v>7</v>
+        <f t="shared" si="21"/>
+        <v>5</v>
       </c>
       <c r="H49">
         <v>353709</v>
       </c>
       <c r="K49" s="5" t="str">
-        <f t="shared" si="11"/>
-        <v>26/3/2020</v>
+        <f t="shared" si="19"/>
+        <v>24/3/2020</v>
       </c>
       <c r="L49" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>26/3/2020,26,3,2020,58,7,Ticino,nn,nnn,353709</v>
+        <f t="shared" si="20"/>
+        <v>24/3/2020,24,3,2020,46,5,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>43917</v>
+        <v>43915</v>
       </c>
       <c r="B50">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="C50">
-        <v>1688</v>
+        <v>1343</v>
       </c>
       <c r="D50">
-        <f t="shared" si="10"/>
-        <v>287</v>
+        <f t="shared" si="18"/>
+        <v>132</v>
       </c>
       <c r="E50" t="s">
         <v>116</v>
       </c>
       <c r="G50">
-        <f t="shared" si="13"/>
-        <v>9</v>
+        <f t="shared" si="21"/>
+        <v>7</v>
       </c>
       <c r="H50">
         <v>353709</v>
       </c>
       <c r="K50" s="5" t="str">
-        <f t="shared" si="11"/>
-        <v>27/3/2020</v>
+        <f t="shared" si="19"/>
+        <v>25/3/2020</v>
       </c>
       <c r="L50" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>27/3/2020,27,3,2020,287,9,Ticino,nn,nnn,353709</v>
+        <f t="shared" si="20"/>
+        <v>25/3/2020,25,3,2020,132,7,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>43918</v>
+        <v>43916</v>
       </c>
       <c r="B51">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="C51">
-        <v>1727</v>
+        <v>1401</v>
       </c>
       <c r="D51">
-        <f t="shared" si="10"/>
-        <v>39</v>
+        <f t="shared" si="18"/>
+        <v>58</v>
       </c>
       <c r="E51" t="s">
         <v>116</v>
       </c>
       <c r="G51">
-        <f t="shared" si="13"/>
-        <v>11</v>
+        <f t="shared" si="21"/>
+        <v>7</v>
       </c>
       <c r="H51">
         <v>353709</v>
       </c>
       <c r="K51" s="5" t="str">
-        <f t="shared" si="11"/>
-        <v>28/3/2020</v>
+        <f t="shared" si="19"/>
+        <v>26/3/2020</v>
       </c>
       <c r="L51" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>28/3/2020,28,3,2020,39,11,Ticino,nn,nnn,353709</v>
+        <f t="shared" si="20"/>
+        <v>26/3/2020,26,3,2020,58,7,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>43919</v>
+        <v>43917</v>
       </c>
       <c r="B52">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="C52">
-        <v>1837</v>
+        <v>1688</v>
       </c>
       <c r="D52">
-        <f t="shared" si="10"/>
-        <v>110</v>
+        <f t="shared" si="18"/>
+        <v>287</v>
       </c>
       <c r="E52" t="s">
         <v>116</v>
       </c>
       <c r="G52">
-        <f t="shared" si="13"/>
-        <v>6</v>
+        <f t="shared" si="21"/>
+        <v>9</v>
       </c>
       <c r="H52">
         <v>353709</v>
       </c>
       <c r="K52" s="5" t="str">
-        <f t="shared" si="11"/>
-        <v>29/3/2020</v>
+        <f t="shared" si="19"/>
+        <v>27/3/2020</v>
       </c>
       <c r="L52" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>29/3/2020,29,3,2020,110,6,Ticino,nn,nnn,353709</v>
+        <f t="shared" si="20"/>
+        <v>27/3/2020,27,3,2020,287,9,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>43920</v>
+        <v>43918</v>
       </c>
       <c r="B53">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="C53">
-        <v>1962</v>
+        <v>1727</v>
       </c>
       <c r="D53">
-        <f t="shared" si="10"/>
-        <v>125</v>
+        <f t="shared" si="18"/>
+        <v>39</v>
       </c>
       <c r="E53" t="s">
         <v>116</v>
       </c>
       <c r="G53">
-        <f t="shared" si="13"/>
-        <v>12</v>
+        <f t="shared" si="21"/>
+        <v>11</v>
       </c>
       <c r="H53">
         <v>353709</v>
       </c>
       <c r="K53" s="5" t="str">
-        <f t="shared" si="11"/>
-        <v>30/3/2020</v>
+        <f t="shared" si="19"/>
+        <v>28/3/2020</v>
       </c>
       <c r="L53" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>30/3/2020,30,3,2020,125,12,Ticino,nn,nnn,353709</v>
+        <f t="shared" si="20"/>
+        <v>28/3/2020,28,3,2020,39,11,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>43921</v>
+        <v>43919</v>
       </c>
       <c r="B54">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="C54">
-        <v>2091</v>
+        <v>1837</v>
       </c>
       <c r="D54">
-        <f t="shared" si="10"/>
-        <v>129</v>
+        <f t="shared" si="18"/>
+        <v>110</v>
       </c>
       <c r="E54" t="s">
         <v>116</v>
       </c>
       <c r="G54">
-        <f t="shared" si="13"/>
-        <v>15</v>
+        <f t="shared" si="21"/>
+        <v>6</v>
       </c>
       <c r="H54">
         <v>353709</v>
       </c>
       <c r="K54" s="5" t="str">
-        <f t="shared" si="11"/>
-        <v>31/3/2020</v>
+        <f t="shared" si="19"/>
+        <v>29/3/2020</v>
       </c>
       <c r="L54" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>31/3/2020,31,3,2020,129,15,Ticino,nn,nnn,353709</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="20"/>
+        <v>29/3/2020,29,3,2020,110,6,Ticino,nn,nnn,353709</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>43922</v>
+        <v>43920</v>
       </c>
       <c r="B55">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="C55">
-        <v>2195</v>
+        <v>1962</v>
       </c>
       <c r="D55">
-        <f t="shared" si="10"/>
-        <v>104</v>
+        <f t="shared" si="18"/>
+        <v>125</v>
       </c>
       <c r="E55" t="s">
         <v>116</v>
       </c>
       <c r="G55">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>12</v>
       </c>
       <c r="H55">
         <v>353709</v>
       </c>
       <c r="K55" s="5" t="str">
-        <f t="shared" si="11"/>
-        <v>1/4/2020</v>
+        <f t="shared" si="19"/>
+        <v>30/3/2020</v>
       </c>
       <c r="L55" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>1/4/2020,1,4,2020,104,12,Ticino,nn,nnn,353709</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="20"/>
+        <v>30/3/2020,30,3,2020,125,12,Ticino,nn,nnn,353709</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>43923</v>
-      </c>
-      <c r="B56" s="49">
-        <v>141</v>
-      </c>
-      <c r="C56" s="44">
-        <v>2271</v>
+        <v>43921</v>
+      </c>
+      <c r="B56">
+        <v>120</v>
+      </c>
+      <c r="C56">
+        <v>2091</v>
       </c>
       <c r="D56">
-        <f t="shared" si="10"/>
-        <v>76</v>
+        <f t="shared" si="18"/>
+        <v>129</v>
       </c>
       <c r="E56" t="s">
         <v>116</v>
       </c>
       <c r="G56">
-        <f t="shared" si="13"/>
-        <v>9</v>
+        <f t="shared" si="21"/>
+        <v>15</v>
       </c>
       <c r="H56">
         <v>353709</v>
       </c>
       <c r="K56" s="5" t="str">
-        <f t="shared" si="11"/>
-        <v>2/4/2020</v>
+        <f t="shared" si="19"/>
+        <v>31/3/2020</v>
       </c>
       <c r="L56" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>2/4/2020,2,4,2020,76,9,Ticino,nn,nnn,353709</v>
+        <f t="shared" si="20"/>
+        <v>31/3/2020,31,3,2020,129,15,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>43924</v>
-      </c>
-      <c r="B57" s="49">
-        <v>155</v>
-      </c>
-      <c r="C57" s="44">
-        <v>2377</v>
+        <v>43922</v>
+      </c>
+      <c r="B57">
+        <v>132</v>
+      </c>
+      <c r="C57">
+        <v>2195</v>
       </c>
       <c r="D57">
-        <f t="shared" si="10"/>
-        <v>106</v>
+        <f t="shared" si="18"/>
+        <v>104</v>
       </c>
       <c r="E57" t="s">
         <v>116</v>
       </c>
       <c r="G57">
-        <f t="shared" si="13"/>
-        <v>14</v>
+        <f t="shared" si="21"/>
+        <v>12</v>
       </c>
       <c r="H57">
         <v>353709</v>
       </c>
       <c r="K57" s="5" t="str">
-        <f t="shared" si="11"/>
-        <v>3/4/2020</v>
+        <f t="shared" si="19"/>
+        <v>1/4/2020</v>
       </c>
       <c r="L57" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>3/4/2020,3,4,2020,106,14,Ticino,nn,nnn,353709</v>
+        <f t="shared" si="20"/>
+        <v>1/4/2020,1,4,2020,104,12,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>43925</v>
+        <v>43923</v>
       </c>
       <c r="B58" s="49">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="C58" s="44">
-        <v>2422</v>
+        <v>2271</v>
       </c>
       <c r="D58">
-        <f t="shared" si="10"/>
-        <v>45</v>
+        <f t="shared" si="18"/>
+        <v>76</v>
       </c>
       <c r="E58" t="s">
         <v>116</v>
       </c>
       <c r="G58">
-        <f t="shared" si="13"/>
-        <v>10</v>
+        <f t="shared" si="21"/>
+        <v>9</v>
       </c>
       <c r="H58">
         <v>353709</v>
       </c>
       <c r="K58" s="5" t="str">
-        <f t="shared" si="11"/>
-        <v>4/4/2020</v>
+        <f t="shared" si="19"/>
+        <v>2/4/2020</v>
       </c>
       <c r="L58" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>4/4/2020,4,4,2020,45,10,Ticino,nn,nnn,353709</v>
+        <f t="shared" si="20"/>
+        <v>2/4/2020,2,4,2020,76,9,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>43926</v>
+        <v>43924</v>
       </c>
       <c r="B59" s="49">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="C59" s="44">
-        <v>2508</v>
+        <v>2377</v>
       </c>
       <c r="D59">
-        <f t="shared" si="10"/>
-        <v>86</v>
+        <f t="shared" si="18"/>
+        <v>106</v>
       </c>
       <c r="E59" t="s">
         <v>116</v>
       </c>
       <c r="G59">
-        <f t="shared" si="13"/>
-        <v>12</v>
+        <f t="shared" si="21"/>
+        <v>14</v>
       </c>
       <c r="H59">
         <v>353709</v>
       </c>
       <c r="K59" s="5" t="str">
-        <f t="shared" si="11"/>
-        <v>5/4/2020</v>
+        <f t="shared" si="19"/>
+        <v>3/4/2020</v>
       </c>
       <c r="L59" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>5/4/2020,5,4,2020,86,12,Ticino,nn,nnn,353709</v>
+        <f t="shared" si="20"/>
+        <v>3/4/2020,3,4,2020,106,14,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>43927</v>
-      </c>
-      <c r="B60" s="47">
-        <v>189</v>
+        <v>43925</v>
+      </c>
+      <c r="B60" s="49">
+        <v>165</v>
       </c>
       <c r="C60" s="44">
-        <v>2546</v>
+        <v>2422</v>
       </c>
       <c r="D60">
-        <f t="shared" si="10"/>
-        <v>38</v>
+        <f t="shared" si="18"/>
+        <v>45</v>
       </c>
       <c r="E60" t="s">
         <v>116</v>
       </c>
       <c r="G60">
-        <f t="shared" ref="G60" si="14">B60-B59</f>
+        <f t="shared" si="21"/>
+        <v>10</v>
+      </c>
+      <c r="H60">
+        <v>353709</v>
+      </c>
+      <c r="K60" s="5" t="str">
+        <f t="shared" si="19"/>
+        <v>4/4/2020</v>
+      </c>
+      <c r="L60" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>4/4/2020,4,4,2020,45,10,Ticino,nn,nnn,353709</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>43926</v>
+      </c>
+      <c r="B61" s="49">
+        <v>177</v>
+      </c>
+      <c r="C61" s="44">
+        <v>2508</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="18"/>
+        <v>86</v>
+      </c>
+      <c r="E61" t="s">
+        <v>116</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="21"/>
         <v>12</v>
       </c>
-      <c r="H60">
+      <c r="H61">
+        <v>353709</v>
+      </c>
+      <c r="K61" s="5" t="str">
+        <f t="shared" si="19"/>
+        <v>5/4/2020</v>
+      </c>
+      <c r="L61" s="3" t="str">
+        <f>K61&amp;$L$1&amp;DAY(A61)&amp;$L$1&amp;MONTH(A61)&amp;$L$1&amp;YEAR(A61)&amp;$L$1&amp;D61&amp;$L$1&amp;G61&amp;$L$1&amp;E61&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H61</f>
+        <v>5/4/2020,5,4,2020,86,12,Ticino,nn,nnn,353709</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>43927</v>
+      </c>
+      <c r="B62" s="47">
+        <v>189</v>
+      </c>
+      <c r="C62" s="44">
+        <v>2546</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="18"/>
+        <v>38</v>
+      </c>
+      <c r="E62" t="s">
+        <v>116</v>
+      </c>
+      <c r="G62">
+        <f t="shared" ref="G62:G63" si="22">B62-B61</f>
+        <v>12</v>
+      </c>
+      <c r="H62">
+        <v>353709</v>
+      </c>
+      <c r="K62" s="5" t="str">
+        <f t="shared" ref="K62" si="23">DAY(A62)&amp;"/"&amp;MONTH(A62)&amp;"/"&amp;YEAR(A62)</f>
+        <v>6/4/2020</v>
+      </c>
+      <c r="L62" s="3" t="str">
+        <f t="shared" ref="L62" si="24">K62&amp;$L$1&amp;DAY(A62)&amp;$L$1&amp;MONTH(A62)&amp;$L$1&amp;YEAR(A62)&amp;$L$1&amp;D62&amp;$L$1&amp;G62&amp;$L$1&amp;E62&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H62</f>
+        <v>6/4/2020,6,4,2020,38,12,Ticino,nn,nnn,353709</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B63" s="59">
+        <v>198</v>
+      </c>
+      <c r="C63" s="44">
+        <v>2599</v>
+      </c>
+      <c r="D63">
+        <f t="shared" ref="D63" si="25">C63-C62</f>
+        <v>53</v>
+      </c>
+      <c r="E63" t="s">
+        <v>116</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="22"/>
+        <v>9</v>
+      </c>
+      <c r="H63">
+        <v>353709</v>
+      </c>
+      <c r="K63" s="5" t="str">
+        <f t="shared" ref="K63" si="26">DAY(A63)&amp;"/"&amp;MONTH(A63)&amp;"/"&amp;YEAR(A63)</f>
+        <v>7/4/2020</v>
+      </c>
+      <c r="L63" s="3" t="str">
+        <f t="shared" ref="L63" si="27">K63&amp;$L$1&amp;DAY(A63)&amp;$L$1&amp;MONTH(A63)&amp;$L$1&amp;YEAR(A63)&amp;$L$1&amp;D63&amp;$L$1&amp;G63&amp;$L$1&amp;E63&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H63</f>
+        <v>7/4/2020,7,4,2020,53,9,Ticino,nn,nnn,353709</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>43929</v>
+      </c>
+      <c r="B64" s="47">
+        <v>211</v>
+      </c>
+      <c r="C64" s="44">
+        <v>2659</v>
+      </c>
+      <c r="D64">
+        <f t="shared" ref="D64" si="28">C64-C63</f>
+        <v>60</v>
+      </c>
+      <c r="E64" t="s">
+        <v>116</v>
+      </c>
+      <c r="G64">
+        <f t="shared" ref="G64" si="29">B64-B63</f>
+        <v>13</v>
+      </c>
+      <c r="H64">
         <v>353710</v>
       </c>
-      <c r="K60" s="5" t="str">
-        <f t="shared" ref="K60" si="15">DAY(A60)&amp;"/"&amp;MONTH(A60)&amp;"/"&amp;YEAR(A60)</f>
-        <v>6/4/2020</v>
-      </c>
-      <c r="L60" s="3" t="str">
-        <f t="shared" ref="L60" si="16">K60&amp;$L$1&amp;DAY(A60)&amp;$L$1&amp;MONTH(A60)&amp;$L$1&amp;YEAR(A60)&amp;$L$1&amp;D60&amp;$L$1&amp;G60&amp;$L$1&amp;E60&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H60</f>
-        <v>6/4/2020,6,4,2020,38,12,Ticino,nn,nnn,353710</v>
-      </c>
+      <c r="K64" s="5" t="str">
+        <f t="shared" ref="K64" si="30">DAY(A64)&amp;"/"&amp;MONTH(A64)&amp;"/"&amp;YEAR(A64)</f>
+        <v>8/4/2020</v>
+      </c>
+      <c r="L64" s="3" t="str">
+        <f t="shared" ref="L64" si="31">K64&amp;$L$1&amp;DAY(A64)&amp;$L$1&amp;MONTH(A64)&amp;$L$1&amp;YEAR(A64)&amp;$L$1&amp;D64&amp;$L$1&amp;G64&amp;$L$1&amp;E64&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H64</f>
+        <v>8/4/2020,8,4,2020,60,13,Ticino,nn,nnn,353710</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="57"/>
+      <c r="C65" s="57"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:F48">
+  <autoFilter ref="A3:F50">
     <sortState ref="A4:G23">
       <sortCondition ref="E3:E20"/>
     </sortState>
@@ -4894,11 +5053,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BD62"/>
+  <dimension ref="A1:BD63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V44" sqref="V44"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AW12" sqref="AW12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9197,7 +9356,7 @@
         <v>19/3/2020,19,3,2020,5024,44,CH,nn,nnn,8543707</v>
       </c>
     </row>
-    <row r="27" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="39">
         <v>43910</v>
       </c>
@@ -9386,70 +9545,70 @@
       </c>
     </row>
     <row r="28" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="39">
+      <c r="A28" s="56">
         <v>43911</v>
       </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12">
+      <c r="B28" s="57"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57">
         <v>418</v>
       </c>
-      <c r="F28" s="12">
+      <c r="F28" s="57">
         <v>282</v>
       </c>
-      <c r="G28" s="12">
+      <c r="G28" s="57">
         <v>299</v>
       </c>
-      <c r="H28" s="12">
+      <c r="H28" s="57">
         <v>167</v>
       </c>
-      <c r="I28" s="12">
+      <c r="I28" s="57">
         <v>1262</v>
       </c>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12">
+      <c r="J28" s="57"/>
+      <c r="K28" s="57">
         <v>239</v>
       </c>
-      <c r="L28" s="12">
+      <c r="L28" s="57">
         <v>49</v>
       </c>
-      <c r="M28" s="12">
+      <c r="M28" s="57">
         <v>109</v>
       </c>
-      <c r="N28" s="12">
+      <c r="N28" s="57">
         <v>200</v>
       </c>
-      <c r="O28" s="12">
+      <c r="O28" s="57">
         <v>33</v>
       </c>
-      <c r="P28" s="12"/>
-      <c r="Q28" s="12"/>
-      <c r="R28" s="12"/>
-      <c r="S28" s="12"/>
-      <c r="T28" s="12"/>
-      <c r="U28" s="12">
+      <c r="P28" s="57"/>
+      <c r="Q28" s="57"/>
+      <c r="R28" s="57"/>
+      <c r="S28" s="57"/>
+      <c r="T28" s="57"/>
+      <c r="U28" s="57">
         <v>56</v>
       </c>
       <c r="V28" s="44">
         <v>918</v>
       </c>
-      <c r="W28" s="12">
+      <c r="W28" s="57">
         <v>12</v>
       </c>
-      <c r="X28" s="12">
+      <c r="X28" s="57">
         <v>1676</v>
       </c>
-      <c r="Y28" s="12">
+      <c r="Y28" s="57">
         <v>433</v>
       </c>
-      <c r="Z28" s="12"/>
-      <c r="AA28" s="12"/>
-      <c r="AB28" s="12">
+      <c r="Z28" s="57"/>
+      <c r="AA28" s="57"/>
+      <c r="AB28" s="57">
         <v>7368</v>
       </c>
       <c r="AC28" s="15" t="str">
-        <f t="shared" ref="AC28:AC43" si="9">DAY(A28)&amp;"/"&amp;MONTH(A28)&amp;"/"&amp;YEAR(A28)&amp;$AC$1&amp;DAY(A28)&amp;$AC$1&amp;MONTH(A28)&amp;$AC$1&amp;YEAR(A28)</f>
+        <f t="shared" ref="AC28:AC45" si="9">DAY(A28)&amp;"/"&amp;MONTH(A28)&amp;"/"&amp;YEAR(A28)&amp;$AC$1&amp;DAY(A28)&amp;$AC$1&amp;MONTH(A28)&amp;$AC$1&amp;YEAR(A28)</f>
         <v>21/3/2020,21,3,2020</v>
       </c>
       <c r="AD28" s="3" t="str">
@@ -9761,7 +9920,7 @@
         <v>226</v>
       </c>
       <c r="I30" s="57">
-        <v>1509</v>
+        <v>1582</v>
       </c>
       <c r="J30" s="57"/>
       <c r="K30" s="57"/>
@@ -9812,7 +9971,7 @@
         <v>1068</v>
       </c>
       <c r="AB30" s="57">
-        <v>9094</v>
+        <v>9167</v>
       </c>
       <c r="AC30" s="15" t="str">
         <f t="shared" si="9"/>
@@ -9848,7 +10007,7 @@
       </c>
       <c r="AK30" s="3" t="str">
         <f>$AC30&amp;$AC$1&amp;I30&amp;$AC$1&amp;fatalities!I31&amp;$AC$1&amp;I$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;I$2</f>
-        <v>23/3/2020,23,3,2020,1509,10,GE,nn,nnn,499480</v>
+        <v>23/3/2020,23,3,2020,1582,13,GE,nn,nnn,499480</v>
       </c>
       <c r="AL30" s="3" t="str">
         <f>$AC30&amp;$AC$1&amp;J30&amp;$AC$1&amp;fatalities!J31&amp;$AC$1&amp;J$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;J$2</f>
@@ -9924,7 +10083,7 @@
       </c>
       <c r="BD30" s="3" t="str">
         <f>$AC30&amp;$AC$1&amp;AB30&amp;$AC$1&amp;fatalities!AB31&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2</f>
-        <v>23/3/2020,23,3,2020,9094,133,CH,nn,nnn,8543707</v>
+        <v>23/3/2020,23,3,2020,9167,136,CH,nn,nnn,8543707</v>
       </c>
     </row>
     <row r="31" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -9953,7 +10112,7 @@
         <v>255</v>
       </c>
       <c r="I31" s="55">
-        <v>1598</v>
+        <v>1679</v>
       </c>
       <c r="J31" s="55">
         <v>33</v>
@@ -10006,7 +10165,7 @@
         <v>1211</v>
       </c>
       <c r="AB31" s="55">
-        <v>10075</v>
+        <v>10156</v>
       </c>
       <c r="AC31" s="15" t="str">
         <f t="shared" si="9"/>
@@ -10042,7 +10201,7 @@
       </c>
       <c r="AK31" s="3" t="str">
         <f>$AC31&amp;$AC$1&amp;I31&amp;$AC$1&amp;fatalities!I32&amp;$AC$1&amp;I$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;I$2</f>
-        <v>24/3/2020,24,3,2020,1598,13,GE,nn,nnn,499480</v>
+        <v>24/3/2020,24,3,2020,1679,14,GE,nn,nnn,499480</v>
       </c>
       <c r="AL31" s="3" t="str">
         <f>$AC31&amp;$AC$1&amp;J31&amp;$AC$1&amp;fatalities!J32&amp;$AC$1&amp;J$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;J$2</f>
@@ -10118,7 +10277,7 @@
       </c>
       <c r="BD31" s="3" t="str">
         <f>$AC31&amp;$AC$1&amp;AB31&amp;$AC$1&amp;fatalities!AB32&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2</f>
-        <v>24/3/2020,24,3,2020,10075,154,CH,nn,nnn,8543707</v>
+        <v>24/3/2020,24,3,2020,10156,155,CH,nn,nnn,8543707</v>
       </c>
     </row>
     <row r="32" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -10147,7 +10306,7 @@
         <v>293</v>
       </c>
       <c r="I32" s="57">
-        <v>1708</v>
+        <v>1809</v>
       </c>
       <c r="J32" s="57">
         <v>40</v>
@@ -10202,7 +10361,7 @@
         <v>1363</v>
       </c>
       <c r="AB32" s="57">
-        <v>11087</v>
+        <v>11188</v>
       </c>
       <c r="AC32" s="15" t="str">
         <f t="shared" si="9"/>
@@ -10238,7 +10397,7 @@
       </c>
       <c r="AK32" s="3" t="str">
         <f>$AC32&amp;$AC$1&amp;I32&amp;$AC$1&amp;fatalities!I33&amp;$AC$1&amp;I$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;I$2</f>
-        <v>25/3/2020,25,3,2020,1708,16,GE,nn,nnn,499480</v>
+        <v>25/3/2020,25,3,2020,1809,21,GE,nn,nnn,499480</v>
       </c>
       <c r="AL32" s="3" t="str">
         <f>$AC32&amp;$AC$1&amp;J32&amp;$AC$1&amp;fatalities!J33&amp;$AC$1&amp;J$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;J$2</f>
@@ -10314,7 +10473,7 @@
       </c>
       <c r="BD32" s="3" t="str">
         <f>$AC32&amp;$AC$1&amp;AB32&amp;$AC$1&amp;fatalities!AB33&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2</f>
-        <v>25/3/2020,25,3,2020,11087,182,CH,nn,nnn,8543707</v>
+        <v>25/3/2020,25,3,2020,11188,187,CH,nn,nnn,8543707</v>
       </c>
     </row>
     <row r="33" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -10343,7 +10502,7 @@
         <v>309</v>
       </c>
       <c r="I33" s="55">
-        <v>1902</v>
+        <v>2041</v>
       </c>
       <c r="J33" s="55">
         <v>43</v>
@@ -10400,7 +10559,7 @@
         <v>1476</v>
       </c>
       <c r="AB33" s="55">
-        <v>12285</v>
+        <v>12424</v>
       </c>
       <c r="AC33" s="15" t="str">
         <f t="shared" si="9"/>
@@ -10436,7 +10595,7 @@
       </c>
       <c r="AK33" s="3" t="str">
         <f>$AC33&amp;$AC$1&amp;I33&amp;$AC$1&amp;fatalities!I34&amp;$AC$1&amp;I$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;I$2</f>
-        <v>26/3/2020,26,3,2020,1902,22,GE,nn,nnn,499480</v>
+        <v>26/3/2020,26,3,2020,2041,23,GE,nn,nnn,499480</v>
       </c>
       <c r="AL33" s="3" t="str">
         <f>$AC33&amp;$AC$1&amp;J33&amp;$AC$1&amp;fatalities!J34&amp;$AC$1&amp;J$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;J$2</f>
@@ -10512,7 +10671,7 @@
       </c>
       <c r="BD33" s="3" t="str">
         <f>$AC33&amp;$AC$1&amp;AB33&amp;$AC$1&amp;fatalities!AB34&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2</f>
-        <v>26/3/2020,26,3,2020,12285,227,CH,nn,nnn,8543707</v>
+        <v>26/3/2020,26,3,2020,12424,228,CH,nn,nnn,8543707</v>
       </c>
     </row>
     <row r="34" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -10541,7 +10700,7 @@
         <v>369</v>
       </c>
       <c r="I34" s="57">
-        <v>2051</v>
+        <v>2234</v>
       </c>
       <c r="J34" s="57">
         <v>44</v>
@@ -10596,7 +10755,7 @@
         <v>1578</v>
       </c>
       <c r="AB34" s="57">
-        <v>13512</v>
+        <v>13695</v>
       </c>
       <c r="AC34" s="15" t="str">
         <f t="shared" si="9"/>
@@ -10632,7 +10791,7 @@
       </c>
       <c r="AK34" s="3" t="str">
         <f>$AC34&amp;$AC$1&amp;I34&amp;$AC$1&amp;fatalities!I35&amp;$AC$1&amp;I$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;I$2</f>
-        <v>27/3/2020,27,3,2020,2051,23,GE,nn,nnn,499480</v>
+        <v>27/3/2020,27,3,2020,2234,30,GE,nn,nnn,499480</v>
       </c>
       <c r="AL34" s="3" t="str">
         <f>$AC34&amp;$AC$1&amp;J34&amp;$AC$1&amp;fatalities!J35&amp;$AC$1&amp;J$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;J$2</f>
@@ -10708,7 +10867,7 @@
       </c>
       <c r="BD34" s="3" t="str">
         <f>$AC34&amp;$AC$1&amp;AB34&amp;$AC$1&amp;fatalities!AB35&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2</f>
-        <v>27/3/2020,27,3,2020,13512,255,CH,nn,nnn,8543707</v>
+        <v>27/3/2020,27,3,2020,13695,262,CH,nn,nnn,8543707</v>
       </c>
     </row>
     <row r="35" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -10735,7 +10894,7 @@
         <v>421</v>
       </c>
       <c r="I35" s="55">
-        <v>2277</v>
+        <v>2433</v>
       </c>
       <c r="J35" s="55">
         <v>47</v>
@@ -10786,7 +10945,7 @@
         <v>1720</v>
       </c>
       <c r="AB35" s="55">
-        <v>14521</v>
+        <v>14677</v>
       </c>
       <c r="AC35" s="15" t="str">
         <f t="shared" si="9"/>
@@ -10822,7 +10981,7 @@
       </c>
       <c r="AK35" s="3" t="str">
         <f>$AC35&amp;$AC$1&amp;I35&amp;$AC$1&amp;fatalities!I36&amp;$AC$1&amp;I$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;I$2</f>
-        <v>28/3/2020,28,3,2020,2277,27,GE,nn,nnn,499480</v>
+        <v>28/3/2020,28,3,2020,2433,37,GE,nn,nnn,499480</v>
       </c>
       <c r="AL35" s="3" t="str">
         <f>$AC35&amp;$AC$1&amp;J35&amp;$AC$1&amp;fatalities!J36&amp;$AC$1&amp;J$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;J$2</f>
@@ -10898,7 +11057,7 @@
       </c>
       <c r="BD35" s="3" t="str">
         <f>$AC35&amp;$AC$1&amp;AB35&amp;$AC$1&amp;fatalities!AB36&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2</f>
-        <v>28/3/2020,28,3,2020,14521,292,CH,nn,nnn,8543707</v>
+        <v>28/3/2020,28,3,2020,14677,302,CH,nn,nnn,8543707</v>
       </c>
     </row>
     <row r="36" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -10923,7 +11082,7 @@
         <v>442</v>
       </c>
       <c r="I36" s="57">
-        <v>2349</v>
+        <v>2550</v>
       </c>
       <c r="J36" s="57"/>
       <c r="K36" s="57"/>
@@ -10972,7 +11131,7 @@
         <v>1758</v>
       </c>
       <c r="AB36" s="57">
-        <v>15228</v>
+        <v>15429</v>
       </c>
       <c r="AC36" s="15" t="str">
         <f t="shared" si="9"/>
@@ -11008,7 +11167,7 @@
       </c>
       <c r="AK36" s="3" t="str">
         <f>$AC36&amp;$AC$1&amp;I36&amp;$AC$1&amp;fatalities!I37&amp;$AC$1&amp;I$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;I$2</f>
-        <v>29/3/2020,29,3,2020,2349,37,GE,nn,nnn,499480</v>
+        <v>29/3/2020,29,3,2020,2550,44,GE,nn,nnn,499480</v>
       </c>
       <c r="AL36" s="3" t="str">
         <f>$AC36&amp;$AC$1&amp;J36&amp;$AC$1&amp;fatalities!J37&amp;$AC$1&amp;J$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;J$2</f>
@@ -11084,7 +11243,7 @@
       </c>
       <c r="BD36" s="3" t="str">
         <f>$AC36&amp;$AC$1&amp;AB36&amp;$AC$1&amp;fatalities!AB37&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2</f>
-        <v>29/3/2020,29,3,2020,15228,328,CH,nn,nnn,8543707</v>
+        <v>29/3/2020,29,3,2020,15429,335,CH,nn,nnn,8543707</v>
       </c>
     </row>
     <row r="37" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -11113,7 +11272,7 @@
         <v>477</v>
       </c>
       <c r="I37" s="55">
-        <v>2450</v>
+        <v>2764</v>
       </c>
       <c r="J37" s="55">
         <v>50</v>
@@ -11168,7 +11327,7 @@
         <v>1874</v>
       </c>
       <c r="AB37" s="55">
-        <v>16141</v>
+        <v>16455</v>
       </c>
       <c r="AC37" s="15" t="str">
         <f t="shared" si="9"/>
@@ -11204,7 +11363,7 @@
       </c>
       <c r="AK37" s="3" t="str">
         <f>$AC37&amp;$AC$1&amp;I37&amp;$AC$1&amp;fatalities!I38&amp;$AC$1&amp;I$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;I$2</f>
-        <v>30/3/2020,30,3,2020,2450,43,GE,nn,nnn,499480</v>
+        <v>30/3/2020,30,3,2020,2764,53,GE,nn,nnn,499480</v>
       </c>
       <c r="AL37" s="3" t="str">
         <f>$AC37&amp;$AC$1&amp;J37&amp;$AC$1&amp;fatalities!J38&amp;$AC$1&amp;J$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;J$2</f>
@@ -11280,7 +11439,7 @@
       </c>
       <c r="BD37" s="3" t="str">
         <f>$AC37&amp;$AC$1&amp;AB37&amp;$AC$1&amp;fatalities!AB38&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2</f>
-        <v>30/3/2020,30,3,2020,16141,384,CH,nn,nnn,8543707</v>
+        <v>30/3/2020,30,3,2020,16455,394,CH,nn,nnn,8543707</v>
       </c>
     </row>
     <row r="38" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -11309,7 +11468,7 @@
         <v>491</v>
       </c>
       <c r="I38" s="57">
-        <v>2657</v>
+        <v>2994</v>
       </c>
       <c r="J38" s="57">
         <v>53</v>
@@ -11366,7 +11525,7 @@
         <v>1960</v>
       </c>
       <c r="AB38" s="57">
-        <v>17098</v>
+        <v>17435</v>
       </c>
       <c r="AC38" s="15" t="str">
         <f t="shared" si="9"/>
@@ -11402,7 +11561,7 @@
       </c>
       <c r="AK38" s="3" t="str">
         <f>$AC38&amp;$AC$1&amp;I38&amp;$AC$1&amp;fatalities!I39&amp;$AC$1&amp;I$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;I$2</f>
-        <v>31/3/2020,31,3,2020,2657,52,GE,nn,nnn,499480</v>
+        <v>31/3/2020,31,3,2020,2994,61,GE,nn,nnn,499480</v>
       </c>
       <c r="AL38" s="3" t="str">
         <f>$AC38&amp;$AC$1&amp;J38&amp;$AC$1&amp;fatalities!J39&amp;$AC$1&amp;J$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;J$2</f>
@@ -11478,7 +11637,7 @@
       </c>
       <c r="BD38" s="3" t="str">
         <f>$AC38&amp;$AC$1&amp;AB38&amp;$AC$1&amp;fatalities!AB39&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2</f>
-        <v>31/3/2020,31,3,2020,17098,457,CH,nn,nnn,8543707</v>
+        <v>31/3/2020,31,3,2020,17435,466,CH,nn,nnn,8543707</v>
       </c>
     </row>
     <row r="39" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -11505,7 +11664,7 @@
         <v>525</v>
       </c>
       <c r="I39" s="55">
-        <v>2775</v>
+        <v>3161</v>
       </c>
       <c r="J39" s="55">
         <v>56</v>
@@ -11562,7 +11721,7 @@
         <v>2148</v>
       </c>
       <c r="AB39" s="55">
-        <v>18069</v>
+        <v>18455</v>
       </c>
       <c r="AC39" s="15" t="str">
         <f t="shared" si="9"/>
@@ -11598,7 +11757,7 @@
       </c>
       <c r="AK39" s="3" t="str">
         <f>$AC39&amp;$AC$1&amp;I39&amp;$AC$1&amp;fatalities!I40&amp;$AC$1&amp;I$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;I$2</f>
-        <v>1/4/2020,1,4,2020,2775,65,GE,nn,nnn,499480</v>
+        <v>1/4/2020,1,4,2020,3161,68,GE,nn,nnn,499480</v>
       </c>
       <c r="AL39" s="3" t="str">
         <f>$AC39&amp;$AC$1&amp;J39&amp;$AC$1&amp;fatalities!J40&amp;$AC$1&amp;J$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;J$2</f>
@@ -11674,7 +11833,7 @@
       </c>
       <c r="BD39" s="3" t="str">
         <f>$AC39&amp;$AC$1&amp;AB39&amp;$AC$1&amp;fatalities!AB40&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2</f>
-        <v>1/4/2020,1,4,2020,18069,515,CH,nn,nnn,8543707</v>
+        <v>1/4/2020,1,4,2020,18455,518,CH,nn,nnn,8543707</v>
       </c>
     </row>
     <row r="40" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -11703,7 +11862,7 @@
         <v>550</v>
       </c>
       <c r="I40" s="57">
-        <v>2938</v>
+        <v>3369</v>
       </c>
       <c r="J40" s="57">
         <v>58</v>
@@ -11760,7 +11919,7 @@
         <v>2323</v>
       </c>
       <c r="AB40" s="57">
-        <v>19133</v>
+        <v>19564</v>
       </c>
       <c r="AC40" s="15" t="str">
         <f t="shared" si="9"/>
@@ -11796,7 +11955,7 @@
       </c>
       <c r="AK40" s="3" t="str">
         <f>$AC40&amp;$AC$1&amp;I40&amp;$AC$1&amp;fatalities!I41&amp;$AC$1&amp;I$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;I$2</f>
-        <v>2/4/2020,2,4,2020,2938,72,GE,nn,nnn,499480</v>
+        <v>2/4/2020,2,4,2020,3369,76,GE,nn,nnn,499480</v>
       </c>
       <c r="AL40" s="3" t="str">
         <f>$AC40&amp;$AC$1&amp;J40&amp;$AC$1&amp;fatalities!J41&amp;$AC$1&amp;J$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;J$2</f>
@@ -11872,7 +12031,7 @@
       </c>
       <c r="BD40" s="3" t="str">
         <f>$AC40&amp;$AC$1&amp;AB40&amp;$AC$1&amp;fatalities!AB41&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2</f>
-        <v>2/4/2020,2,4,2020,19133,568,CH,nn,nnn,8543707</v>
+        <v>2/4/2020,2,4,2020,19564,572,CH,nn,nnn,8543707</v>
       </c>
     </row>
     <row r="41" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -11901,7 +12060,7 @@
         <v>588</v>
       </c>
       <c r="I41" s="55">
-        <v>3220</v>
+        <v>3561</v>
       </c>
       <c r="J41" s="55">
         <v>59</v>
@@ -11958,7 +12117,7 @@
         <v>2452</v>
       </c>
       <c r="AB41" s="55">
-        <v>20141</v>
+        <v>20482</v>
       </c>
       <c r="AC41" s="15" t="str">
         <f t="shared" si="9"/>
@@ -11994,7 +12153,7 @@
       </c>
       <c r="AK41" s="3" t="str">
         <f>$AC41&amp;$AC$1&amp;I41&amp;$AC$1&amp;fatalities!I42&amp;$AC$1&amp;I$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;I$2</f>
-        <v>3/4/2020,3,4,2020,3220,78,GE,nn,nnn,499480</v>
+        <v>3/4/2020,3,4,2020,3561,80,GE,nn,nnn,499480</v>
       </c>
       <c r="AL41" s="3" t="str">
         <f>$AC41&amp;$AC$1&amp;J41&amp;$AC$1&amp;fatalities!J42&amp;$AC$1&amp;J$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;J$2</f>
@@ -12070,7 +12229,7 @@
       </c>
       <c r="BD41" s="3" t="str">
         <f>$AC41&amp;$AC$1&amp;AB41&amp;$AC$1&amp;fatalities!AB42&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2</f>
-        <v>3/4/2020,3,4,2020,20141,629,CH,nn,nnn,8543707</v>
+        <v>3/4/2020,3,4,2020,20482,631,CH,nn,nnn,8543707</v>
       </c>
     </row>
     <row r="42" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -12097,7 +12256,7 @@
         <v>638</v>
       </c>
       <c r="I42" s="57">
-        <v>3384</v>
+        <v>3683</v>
       </c>
       <c r="J42" s="57"/>
       <c r="K42" s="57"/>
@@ -12107,7 +12266,9 @@
       <c r="M42" s="57">
         <v>469</v>
       </c>
-      <c r="N42" s="57"/>
+      <c r="N42" s="57">
+        <v>449</v>
+      </c>
       <c r="O42" s="57">
         <v>80</v>
       </c>
@@ -12146,7 +12307,7 @@
         <v>2492</v>
       </c>
       <c r="AB42" s="57">
-        <v>20773</v>
+        <v>21088</v>
       </c>
       <c r="AC42" s="15" t="str">
         <f t="shared" si="9"/>
@@ -12182,7 +12343,7 @@
       </c>
       <c r="AK42" s="3" t="str">
         <f>$AC42&amp;$AC$1&amp;I42&amp;$AC$1&amp;fatalities!I43&amp;$AC$1&amp;I$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;I$2</f>
-        <v>4/4/2020,4,4,2020,3384,83,GE,nn,nnn,499480</v>
+        <v>4/4/2020,4,4,2020,3683,93,GE,nn,nnn,499480</v>
       </c>
       <c r="AL42" s="3" t="str">
         <f>$AC42&amp;$AC$1&amp;J42&amp;$AC$1&amp;fatalities!J43&amp;$AC$1&amp;J$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;J$2</f>
@@ -12202,7 +12363,7 @@
       </c>
       <c r="AP42" s="3" t="str">
         <f>$AC42&amp;$AC$1&amp;N42&amp;$AC$1&amp;fatalities!N43&amp;$AC$1&amp;N$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;N$2</f>
-        <v>4/4/2020,4,4,2020,,24,NE,nn,nnn,176850</v>
+        <v>4/4/2020,4,4,2020,449,24,NE,nn,nnn,176850</v>
       </c>
       <c r="AQ42" s="3" t="str">
         <f>$AC42&amp;$AC$1&amp;O42&amp;$AC$1&amp;fatalities!O43&amp;$AC$1&amp;O$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;O$2</f>
@@ -12258,7 +12419,7 @@
       </c>
       <c r="BD42" s="3" t="str">
         <f>$AC42&amp;$AC$1&amp;AB42&amp;$AC$1&amp;fatalities!AB43&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2</f>
-        <v>4/4/2020,4,4,2020,20773,687,CH,nn,nnn,8543707</v>
+        <v>4/4/2020,4,4,2020,21088,697,CH,nn,nnn,8543707</v>
       </c>
     </row>
     <row r="43" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -12283,7 +12444,7 @@
         <v>669</v>
       </c>
       <c r="I43" s="55">
-        <v>3439</v>
+        <v>3750</v>
       </c>
       <c r="J43" s="55"/>
       <c r="K43" s="55">
@@ -12334,7 +12495,7 @@
         <v>2522</v>
       </c>
       <c r="AB43" s="55">
-        <v>21276</v>
+        <v>21587</v>
       </c>
       <c r="AC43" s="15" t="str">
         <f t="shared" si="9"/>
@@ -12370,7 +12531,7 @@
       </c>
       <c r="AK43" s="3" t="str">
         <f>$AC43&amp;$AC$1&amp;I43&amp;$AC$1&amp;fatalities!I44&amp;$AC$1&amp;I$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;I$2</f>
-        <v>5/4/2020,5,4,2020,3439,92,GE,nn,nnn,499480</v>
+        <v>5/4/2020,5,4,2020,3750,100,GE,nn,nnn,499480</v>
       </c>
       <c r="AL43" s="3" t="str">
         <f>$AC43&amp;$AC$1&amp;J43&amp;$AC$1&amp;fatalities!J44&amp;$AC$1&amp;J$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;J$2</f>
@@ -12446,7 +12607,7 @@
       </c>
       <c r="BD43" s="3" t="str">
         <f>$AC43&amp;$AC$1&amp;AB43&amp;$AC$1&amp;fatalities!AB44&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2</f>
-        <v>5/4/2020,5,4,2020,21276,738,CH,nn,nnn,8543707</v>
+        <v>5/4/2020,5,4,2020,21587,746,CH,nn,nnn,8543707</v>
       </c>
     </row>
     <row r="44" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -12471,19 +12632,27 @@
       <c r="G44" s="57">
         <v>803</v>
       </c>
-      <c r="H44" s="57"/>
-      <c r="I44" s="57"/>
+      <c r="H44" s="57">
+        <v>689</v>
+      </c>
+      <c r="I44" s="57">
+        <v>3862</v>
+      </c>
       <c r="J44" s="57">
         <v>63</v>
       </c>
-      <c r="K44" s="57"/>
+      <c r="K44" s="57">
+        <v>657</v>
+      </c>
       <c r="L44" s="57">
         <v>160</v>
       </c>
       <c r="M44" s="57">
         <v>497</v>
       </c>
-      <c r="N44" s="57"/>
+      <c r="N44" s="57">
+        <v>466</v>
+      </c>
       <c r="O44" s="57">
         <v>86</v>
       </c>
@@ -12493,7 +12662,9 @@
       <c r="Q44" s="57">
         <v>532</v>
       </c>
-      <c r="R44" s="57"/>
+      <c r="R44" s="57">
+        <v>50</v>
+      </c>
       <c r="S44" s="57">
         <v>261</v>
       </c>
@@ -12509,7 +12680,9 @@
       <c r="W44" s="57">
         <v>67</v>
       </c>
-      <c r="X44" s="57"/>
+      <c r="X44" s="57">
+        <v>4155</v>
+      </c>
       <c r="Y44" s="57">
         <v>1400</v>
       </c>
@@ -12520,10 +12693,10 @@
         <v>2590</v>
       </c>
       <c r="AB44" s="57">
-        <v>21663</v>
+        <v>22165</v>
       </c>
       <c r="AC44" s="15" t="str">
-        <f t="shared" ref="AC44" si="10">DAY(A44)&amp;"/"&amp;MONTH(A44)&amp;"/"&amp;YEAR(A44)&amp;$AC$1&amp;DAY(A44)&amp;$AC$1&amp;MONTH(A44)&amp;$AC$1&amp;YEAR(A44)</f>
+        <f t="shared" si="9"/>
         <v>6/4/2020,6,4,2020</v>
       </c>
       <c r="AD44" s="3" t="str">
@@ -12552,11 +12725,11 @@
       </c>
       <c r="AJ44" s="3" t="str">
         <f>$AC44&amp;$AC$1&amp;H44&amp;$AC$1&amp;fatalities!H45&amp;$AC$1&amp;H$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;H$2</f>
-        <v>6/4/2020,6,4,2020,,,FR,nn,nnn,318714</v>
+        <v>6/4/2020,6,4,2020,689,41,FR,nn,nnn,318714</v>
       </c>
       <c r="AK44" s="3" t="str">
         <f>$AC44&amp;$AC$1&amp;I44&amp;$AC$1&amp;fatalities!I45&amp;$AC$1&amp;I$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;I$2</f>
-        <v>6/4/2020,6,4,2020,,,GE,nn,nnn,499480</v>
+        <v>6/4/2020,6,4,2020,3862,111,GE,nn,nnn,499480</v>
       </c>
       <c r="AL44" s="3" t="str">
         <f>$AC44&amp;$AC$1&amp;J44&amp;$AC$1&amp;fatalities!J45&amp;$AC$1&amp;J$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;J$2</f>
@@ -12564,7 +12737,7 @@
       </c>
       <c r="AM44" s="3" t="str">
         <f>$AC44&amp;$AC$1&amp;K44&amp;$AC$1&amp;fatalities!K45&amp;$AC$1&amp;K$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;K$2</f>
-        <v>6/4/2020,6,4,2020,,,GR,nn,nnn,198379</v>
+        <v>6/4/2020,6,4,2020,657,31,GR,nn,nnn,198379</v>
       </c>
       <c r="AN44" s="3" t="str">
         <f>$AC44&amp;$AC$1&amp;L44&amp;$AC$1&amp;fatalities!L45&amp;$AC$1&amp;L$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;L$2</f>
@@ -12576,7 +12749,7 @@
       </c>
       <c r="AP44" s="3" t="str">
         <f>$AC44&amp;$AC$1&amp;N44&amp;$AC$1&amp;fatalities!N45&amp;$AC$1&amp;N$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;N$2</f>
-        <v>6/4/2020,6,4,2020,,27,NE,nn,nnn,176850</v>
+        <v>6/4/2020,6,4,2020,466,30,NE,nn,nnn,176850</v>
       </c>
       <c r="AQ44" s="3" t="str">
         <f>$AC44&amp;$AC$1&amp;O44&amp;$AC$1&amp;fatalities!O45&amp;$AC$1&amp;O$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;O$2</f>
@@ -12592,7 +12765,7 @@
       </c>
       <c r="AT44" s="3" t="str">
         <f>$AC44&amp;$AC$1&amp;R44&amp;$AC$1&amp;fatalities!R45&amp;$AC$1&amp;R$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;R$2</f>
-        <v>6/4/2020,6,4,2020,,,SH,nn,nnn,81991</v>
+        <v>6/4/2020,6,4,2020,50,1,SH,nn,nnn,81991</v>
       </c>
       <c r="AU44" s="3" t="str">
         <f>$AC44&amp;$AC$1&amp;S44&amp;$AC$1&amp;fatalities!S45&amp;$AC$1&amp;S$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;S$2</f>
@@ -12616,7 +12789,7 @@
       </c>
       <c r="AZ44" s="3" t="str">
         <f>$AC44&amp;$AC$1&amp;X44&amp;$AC$1&amp;fatalities!X45&amp;$AC$1&amp;X$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;X$2</f>
-        <v>6/4/2020,6,4,2020,,,VD,nn,nnn,799145</v>
+        <v>6/4/2020,6,4,2020,4155,160,VD,nn,nnn,799145</v>
       </c>
       <c r="BA44" s="3" t="str">
         <f>$AC44&amp;$AC$1&amp;Y44&amp;$AC$1&amp;fatalities!Y45&amp;$AC$1&amp;Y$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Y$2</f>
@@ -12632,497 +12805,923 @@
       </c>
       <c r="BD44" s="3" t="str">
         <f>$AC44&amp;$AC$1&amp;AB44&amp;$AC$1&amp;fatalities!AB45&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2</f>
-        <v>6/4/2020,6,4,2020,21663,765,CH,nn,nnn,8543707</v>
+        <v>6/4/2020,6,4,2020,22165,802,CH,nn,nnn,8543707</v>
       </c>
     </row>
     <row r="45" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="54"/>
-      <c r="B45" s="55"/>
-      <c r="C45" s="55"/>
-      <c r="D45" s="55"/>
-      <c r="E45" s="55"/>
-      <c r="F45" s="55"/>
-      <c r="G45" s="55"/>
-      <c r="H45" s="55"/>
-      <c r="I45" s="55"/>
-      <c r="J45" s="55"/>
-      <c r="K45" s="55"/>
-      <c r="L45" s="55"/>
-      <c r="M45" s="55"/>
-      <c r="N45" s="55"/>
-      <c r="O45" s="55"/>
-      <c r="P45" s="55"/>
-      <c r="Q45" s="55"/>
-      <c r="R45" s="55"/>
-      <c r="S45" s="55"/>
-      <c r="T45" s="55"/>
-      <c r="U45" s="55"/>
-      <c r="V45" s="55"/>
-      <c r="W45" s="55"/>
-      <c r="X45" s="55"/>
-      <c r="Y45" s="55"/>
-      <c r="Z45" s="55"/>
-      <c r="AA45" s="55"/>
-      <c r="AB45" s="55"/>
-      <c r="AC45" s="10"/>
+      <c r="A45" s="54">
+        <v>43928</v>
+      </c>
+      <c r="B45" s="55">
+        <v>760</v>
+      </c>
+      <c r="C45" s="55">
+        <v>21</v>
+      </c>
+      <c r="D45" s="55">
+        <v>69</v>
+      </c>
+      <c r="E45" s="55">
+        <v>1228</v>
+      </c>
+      <c r="F45" s="55">
+        <v>690</v>
+      </c>
+      <c r="G45" s="55">
+        <v>813</v>
+      </c>
+      <c r="H45" s="55">
+        <v>729</v>
+      </c>
+      <c r="I45" s="55">
+        <v>3993</v>
+      </c>
+      <c r="J45" s="55">
+        <v>63</v>
+      </c>
+      <c r="K45" s="55">
+        <v>668</v>
+      </c>
+      <c r="L45" s="55">
+        <v>168</v>
+      </c>
+      <c r="M45" s="55">
+        <v>509</v>
+      </c>
+      <c r="N45" s="55">
+        <v>492</v>
+      </c>
+      <c r="O45" s="55">
+        <v>87</v>
+      </c>
+      <c r="P45" s="55">
+        <v>60</v>
+      </c>
+      <c r="Q45" s="55">
+        <v>557</v>
+      </c>
+      <c r="R45" s="55">
+        <v>50</v>
+      </c>
+      <c r="S45" s="55">
+        <v>264</v>
+      </c>
+      <c r="T45" s="55">
+        <v>185</v>
+      </c>
+      <c r="U45" s="55">
+        <v>221</v>
+      </c>
+      <c r="V45" s="44">
+        <v>2599</v>
+      </c>
+      <c r="W45" s="55">
+        <v>68</v>
+      </c>
+      <c r="X45" s="55">
+        <v>4235</v>
+      </c>
+      <c r="Y45" s="55">
+        <v>1436</v>
+      </c>
+      <c r="Z45" s="55">
+        <v>157</v>
+      </c>
+      <c r="AA45" s="55">
+        <v>2719</v>
+      </c>
+      <c r="AB45" s="55">
+        <v>22841</v>
+      </c>
+      <c r="AC45" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v>7/4/2020,7,4,2020</v>
+      </c>
+      <c r="AD45" s="3" t="str">
+        <f>$AC45&amp;$AC$1&amp;B45&amp;$AC$1&amp;fatalities!B46&amp;$AC$1&amp;B$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;B$2</f>
+        <v>7/4/2020,7,4,2020,760,16,AG,nn,nnn,677387</v>
+      </c>
+      <c r="AE45" s="3" t="str">
+        <f>$AC45&amp;$AC$1&amp;C45&amp;$AC$1&amp;fatalities!C46&amp;$AC$1&amp;C$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;C$2</f>
+        <v>7/4/2020,7,4,2020,21,,AI,nn,nnn,16145</v>
+      </c>
+      <c r="AF45" s="3" t="str">
+        <f>$AC45&amp;$AC$1&amp;D45&amp;$AC$1&amp;fatalities!D46&amp;$AC$1&amp;D$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;D$2</f>
+        <v>7/4/2020,7,4,2020,69,3,AR,nn,nnn,55234</v>
+      </c>
+      <c r="AG45" s="3" t="str">
+        <f>$AC45&amp;$AC$1&amp;E45&amp;$AC$1&amp;fatalities!E46&amp;$AC$1&amp;E$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;E$2</f>
+        <v>7/4/2020,7,4,2020,1228,33,BE,nn,nnn,1034977</v>
+      </c>
+      <c r="AH45" s="3" t="str">
+        <f>$AC45&amp;$AC$1&amp;F45&amp;$AC$1&amp;fatalities!F46&amp;$AC$1&amp;F$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;F$2</f>
+        <v>7/4/2020,7,4,2020,690,19,BL,nn,nnn,288132</v>
+      </c>
+      <c r="AI45" s="3" t="str">
+        <f>$AC45&amp;$AC$1&amp;G45&amp;$AC$1&amp;fatalities!G46&amp;$AC$1&amp;G$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;G$2</f>
+        <v>7/4/2020,7,4,2020,813,28,BS,nn,nnn,194766</v>
+      </c>
+      <c r="AJ45" s="3" t="str">
+        <f>$AC45&amp;$AC$1&amp;H45&amp;$AC$1&amp;fatalities!H46&amp;$AC$1&amp;H$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;H$2</f>
+        <v>7/4/2020,7,4,2020,729,44,FR,nn,nnn,318714</v>
+      </c>
+      <c r="AK45" s="3" t="str">
+        <f>$AC45&amp;$AC$1&amp;I45&amp;$AC$1&amp;fatalities!I46&amp;$AC$1&amp;I$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;I$2</f>
+        <v>7/4/2020,7,4,2020,3993,118,GE,nn,nnn,499480</v>
+      </c>
+      <c r="AL45" s="3" t="str">
+        <f>$AC45&amp;$AC$1&amp;J45&amp;$AC$1&amp;fatalities!J46&amp;$AC$1&amp;J$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;J$2</f>
+        <v>7/4/2020,7,4,2020,63,2,GL,nn,nnn,40403</v>
+      </c>
+      <c r="AM45" s="3" t="str">
+        <f>$AC45&amp;$AC$1&amp;K45&amp;$AC$1&amp;fatalities!K46&amp;$AC$1&amp;K$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;K$2</f>
+        <v>7/4/2020,7,4,2020,668,34,GR,nn,nnn,198379</v>
+      </c>
+      <c r="AN45" s="3" t="str">
+        <f>$AC45&amp;$AC$1&amp;L45&amp;$AC$1&amp;fatalities!L46&amp;$AC$1&amp;L$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;L$2</f>
+        <v>7/4/2020,7,4,2020,168,,JU,nn,nnn,73419</v>
+      </c>
+      <c r="AO45" s="3" t="str">
+        <f>$AC45&amp;$AC$1&amp;M45&amp;$AC$1&amp;fatalities!M46&amp;$AC$1&amp;M$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;M$2</f>
+        <v>7/4/2020,7,4,2020,509,9,LU,nn,nnn,409557</v>
+      </c>
+      <c r="AP45" s="3" t="str">
+        <f>$AC45&amp;$AC$1&amp;N45&amp;$AC$1&amp;fatalities!N46&amp;$AC$1&amp;N$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;N$2</f>
+        <v>7/4/2020,7,4,2020,492,,NE,nn,nnn,176850</v>
+      </c>
+      <c r="AQ45" s="3" t="str">
+        <f>$AC45&amp;$AC$1&amp;O45&amp;$AC$1&amp;fatalities!O46&amp;$AC$1&amp;O$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;O$2</f>
+        <v>7/4/2020,7,4,2020,87,0,NW,nn,nnn,43223</v>
+      </c>
+      <c r="AR45" s="3" t="str">
+        <f>$AC45&amp;$AC$1&amp;P45&amp;$AC$1&amp;fatalities!P46&amp;$AC$1&amp;P$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;P$2</f>
+        <v>7/4/2020,7,4,2020,60,0,OW,nn,nnn,37841</v>
+      </c>
+      <c r="AS45" s="3" t="str">
+        <f>$AC45&amp;$AC$1&amp;Q45&amp;$AC$1&amp;fatalities!Q46&amp;$AC$1&amp;Q$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Q$2</f>
+        <v>7/4/2020,7,4,2020,557,13,SG,nn,nnn,507697</v>
+      </c>
+      <c r="AT45" s="3" t="str">
+        <f>$AC45&amp;$AC$1&amp;R45&amp;$AC$1&amp;fatalities!R46&amp;$AC$1&amp;R$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;R$2</f>
+        <v>7/4/2020,7,4,2020,50,1,SH,nn,nnn,81991</v>
+      </c>
+      <c r="AU45" s="3" t="str">
+        <f>$AC45&amp;$AC$1&amp;S45&amp;$AC$1&amp;fatalities!S46&amp;$AC$1&amp;S$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;S$2</f>
+        <v>7/4/2020,7,4,2020,264,3,SO,nn,nnn,273194</v>
+      </c>
+      <c r="AV45" s="3" t="str">
+        <f>$AC45&amp;$AC$1&amp;T45&amp;$AC$1&amp;fatalities!T46&amp;$AC$1&amp;T$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;T$2</f>
+        <v>7/4/2020,7,4,2020,185,7,SZ,nn,nnn,159165</v>
+      </c>
+      <c r="AW45" s="3" t="str">
+        <f>$AC45&amp;$AC$1&amp;U45&amp;$AC$1&amp;fatalities!U46&amp;$AC$1&amp;U$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;U$2</f>
+        <v>7/4/2020,7,4,2020,221,8,TG,nn,nnn,276472</v>
+      </c>
+      <c r="AX45" s="3" t="str">
+        <f>$AC45&amp;$AC$1&amp;V45&amp;$AC$1&amp;fatalities!V46&amp;$AC$1&amp;V$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;V$2</f>
+        <v>7/4/2020,7,4,2020,2599,198,TI,nn,nnn,353343</v>
+      </c>
+      <c r="AY45" s="3" t="str">
+        <f>$AC45&amp;$AC$1&amp;W45&amp;$AC$1&amp;fatalities!W46&amp;$AC$1&amp;W$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;W$2</f>
+        <v>7/4/2020,7,4,2020,68,2,UR,nn,nnn,36433</v>
+      </c>
+      <c r="AZ45" s="3" t="str">
+        <f>$AC45&amp;$AC$1&amp;X45&amp;$AC$1&amp;fatalities!X46&amp;$AC$1&amp;X$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;X$2</f>
+        <v>7/4/2020,7,4,2020,4235,172,VD,nn,nnn,799145</v>
+      </c>
+      <c r="BA45" s="3" t="str">
+        <f>$AC45&amp;$AC$1&amp;Y45&amp;$AC$1&amp;fatalities!Y46&amp;$AC$1&amp;Y$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Y$2</f>
+        <v>7/4/2020,7,4,2020,1436,61,VS,nn,nnn,343955</v>
+      </c>
+      <c r="BB45" s="3" t="str">
+        <f>$AC45&amp;$AC$1&amp;Z45&amp;$AC$1&amp;fatalities!Z46&amp;$AC$1&amp;Z$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Z$2</f>
+        <v>7/4/2020,7,4,2020,157,3,ZG,nn,nnn,126837</v>
+      </c>
+      <c r="BC45" s="3" t="str">
+        <f>$AC45&amp;$AC$1&amp;AA45&amp;$AC$1&amp;fatalities!AA46&amp;$AC$1&amp;AA$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AA$2</f>
+        <v>7/4/2020,7,4,2020,2719,52,ZH,nn,nnn,1520968</v>
+      </c>
+      <c r="BD45" s="3" t="str">
+        <f>$AC45&amp;$AC$1&amp;AB45&amp;$AC$1&amp;fatalities!AB46&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2</f>
+        <v>7/4/2020,7,4,2020,22841,856,CH,nn,nnn,8543707</v>
+      </c>
     </row>
     <row r="46" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="56"/>
-      <c r="B46" s="57"/>
-      <c r="C46" s="57"/>
-      <c r="D46" s="57"/>
-      <c r="E46" s="57"/>
-      <c r="F46" s="57"/>
-      <c r="G46" s="57"/>
-      <c r="H46" s="57"/>
+      <c r="A46" s="56">
+        <v>43929</v>
+      </c>
+      <c r="B46" s="57">
+        <v>788</v>
+      </c>
+      <c r="C46" s="57">
+        <v>23</v>
+      </c>
+      <c r="D46" s="57">
+        <v>72</v>
+      </c>
+      <c r="E46" s="57">
+        <v>1286</v>
+      </c>
+      <c r="F46" s="57">
+        <v>694</v>
+      </c>
+      <c r="G46" s="57">
+        <v>834</v>
+      </c>
+      <c r="H46" s="57">
+        <v>756</v>
+      </c>
       <c r="I46" s="57"/>
-      <c r="J46" s="57"/>
+      <c r="J46" s="57">
+        <v>64</v>
+      </c>
       <c r="K46" s="57"/>
-      <c r="L46" s="57"/>
-      <c r="M46" s="57"/>
+      <c r="L46" s="57">
+        <v>174</v>
+      </c>
+      <c r="M46" s="57">
+        <v>527</v>
+      </c>
       <c r="N46" s="57"/>
-      <c r="O46" s="57"/>
-      <c r="P46" s="57"/>
-      <c r="Q46" s="57"/>
-      <c r="R46" s="57"/>
-      <c r="S46" s="57"/>
-      <c r="T46" s="57"/>
-      <c r="U46" s="57"/>
-      <c r="V46" s="57"/>
-      <c r="W46" s="57"/>
+      <c r="O46" s="57">
+        <v>93</v>
+      </c>
+      <c r="P46" s="57">
+        <v>61</v>
+      </c>
+      <c r="Q46" s="57">
+        <v>578</v>
+      </c>
+      <c r="R46" s="57">
+        <v>50</v>
+      </c>
+      <c r="S46" s="57">
+        <v>276</v>
+      </c>
+      <c r="T46" s="57">
+        <v>196</v>
+      </c>
+      <c r="U46" s="57">
+        <v>236</v>
+      </c>
+      <c r="V46" s="44">
+        <v>2659</v>
+      </c>
+      <c r="W46" s="57">
+        <v>72</v>
+      </c>
       <c r="X46" s="57"/>
-      <c r="Y46" s="57"/>
-      <c r="Z46" s="57"/>
-      <c r="AA46" s="57"/>
-      <c r="AB46" s="57"/>
+      <c r="Y46" s="57">
+        <v>1484</v>
+      </c>
+      <c r="Z46" s="57">
+        <v>162</v>
+      </c>
+      <c r="AA46" s="57">
+        <v>2807</v>
+      </c>
+      <c r="AB46" s="57">
+        <v>23280</v>
+      </c>
+      <c r="AC46" s="15" t="str">
+        <f t="shared" ref="AC46" si="10">DAY(A46)&amp;"/"&amp;MONTH(A46)&amp;"/"&amp;YEAR(A46)&amp;$AC$1&amp;DAY(A46)&amp;$AC$1&amp;MONTH(A46)&amp;$AC$1&amp;YEAR(A46)</f>
+        <v>8/4/2020,8,4,2020</v>
+      </c>
+      <c r="AD46" s="3" t="str">
+        <f>$AC46&amp;$AC$1&amp;B46&amp;$AC$1&amp;fatalities!B47&amp;$AC$1&amp;B$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;B$2</f>
+        <v>8/4/2020,8,4,2020,788,16,AG,nn,nnn,677387</v>
+      </c>
+      <c r="AE46" s="3" t="str">
+        <f>$AC46&amp;$AC$1&amp;C46&amp;$AC$1&amp;fatalities!C47&amp;$AC$1&amp;C$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;C$2</f>
+        <v>8/4/2020,8,4,2020,23,,AI,nn,nnn,16145</v>
+      </c>
+      <c r="AF46" s="3" t="str">
+        <f>$AC46&amp;$AC$1&amp;D46&amp;$AC$1&amp;fatalities!D47&amp;$AC$1&amp;D$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;D$2</f>
+        <v>8/4/2020,8,4,2020,72,3,AR,nn,nnn,55234</v>
+      </c>
+      <c r="AG46" s="3" t="str">
+        <f>$AC46&amp;$AC$1&amp;E46&amp;$AC$1&amp;fatalities!E47&amp;$AC$1&amp;E$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;E$2</f>
+        <v>8/4/2020,8,4,2020,1286,37,BE,nn,nnn,1034977</v>
+      </c>
+      <c r="AH46" s="3" t="str">
+        <f>$AC46&amp;$AC$1&amp;F46&amp;$AC$1&amp;fatalities!F47&amp;$AC$1&amp;F$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;F$2</f>
+        <v>8/4/2020,8,4,2020,694,21,BL,nn,nnn,288132</v>
+      </c>
+      <c r="AI46" s="3" t="str">
+        <f>$AC46&amp;$AC$1&amp;G46&amp;$AC$1&amp;fatalities!G47&amp;$AC$1&amp;G$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;G$2</f>
+        <v>8/4/2020,8,4,2020,834,31,BS,nn,nnn,194766</v>
+      </c>
+      <c r="AJ46" s="3" t="str">
+        <f>$AC46&amp;$AC$1&amp;H46&amp;$AC$1&amp;fatalities!H47&amp;$AC$1&amp;H$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;H$2</f>
+        <v>8/4/2020,8,4,2020,756,45,FR,nn,nnn,318714</v>
+      </c>
+      <c r="AK46" s="3" t="str">
+        <f>$AC46&amp;$AC$1&amp;I46&amp;$AC$1&amp;fatalities!I47&amp;$AC$1&amp;I$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;I$2</f>
+        <v>8/4/2020,8,4,2020,,,GE,nn,nnn,499480</v>
+      </c>
+      <c r="AL46" s="3" t="str">
+        <f>$AC46&amp;$AC$1&amp;J46&amp;$AC$1&amp;fatalities!J47&amp;$AC$1&amp;J$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;J$2</f>
+        <v>8/4/2020,8,4,2020,64,2,GL,nn,nnn,40403</v>
+      </c>
+      <c r="AM46" s="3" t="str">
+        <f>$AC46&amp;$AC$1&amp;K46&amp;$AC$1&amp;fatalities!K47&amp;$AC$1&amp;K$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;K$2</f>
+        <v>8/4/2020,8,4,2020,,,GR,nn,nnn,198379</v>
+      </c>
+      <c r="AN46" s="3" t="str">
+        <f>$AC46&amp;$AC$1&amp;L46&amp;$AC$1&amp;fatalities!L47&amp;$AC$1&amp;L$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;L$2</f>
+        <v>8/4/2020,8,4,2020,174,,JU,nn,nnn,73419</v>
+      </c>
+      <c r="AO46" s="3" t="str">
+        <f>$AC46&amp;$AC$1&amp;M46&amp;$AC$1&amp;fatalities!M47&amp;$AC$1&amp;M$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;M$2</f>
+        <v>8/4/2020,8,4,2020,527,9,LU,nn,nnn,409557</v>
+      </c>
+      <c r="AP46" s="3" t="str">
+        <f>$AC46&amp;$AC$1&amp;N46&amp;$AC$1&amp;fatalities!N47&amp;$AC$1&amp;N$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;N$2</f>
+        <v>8/4/2020,8,4,2020,,,NE,nn,nnn,176850</v>
+      </c>
+      <c r="AQ46" s="3" t="str">
+        <f>$AC46&amp;$AC$1&amp;O46&amp;$AC$1&amp;fatalities!O47&amp;$AC$1&amp;O$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;O$2</f>
+        <v>8/4/2020,8,4,2020,93,0,NW,nn,nnn,43223</v>
+      </c>
+      <c r="AR46" s="3" t="str">
+        <f>$AC46&amp;$AC$1&amp;P46&amp;$AC$1&amp;fatalities!P47&amp;$AC$1&amp;P$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;P$2</f>
+        <v>8/4/2020,8,4,2020,61,0,OW,nn,nnn,37841</v>
+      </c>
+      <c r="AS46" s="3" t="str">
+        <f>$AC46&amp;$AC$1&amp;Q46&amp;$AC$1&amp;fatalities!Q47&amp;$AC$1&amp;Q$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Q$2</f>
+        <v>8/4/2020,8,4,2020,578,15,SG,nn,nnn,507697</v>
+      </c>
+      <c r="AT46" s="3" t="str">
+        <f>$AC46&amp;$AC$1&amp;R46&amp;$AC$1&amp;fatalities!R47&amp;$AC$1&amp;R$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;R$2</f>
+        <v>8/4/2020,8,4,2020,50,1,SH,nn,nnn,81991</v>
+      </c>
+      <c r="AU46" s="3" t="str">
+        <f>$AC46&amp;$AC$1&amp;S46&amp;$AC$1&amp;fatalities!S47&amp;$AC$1&amp;S$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;S$2</f>
+        <v>8/4/2020,8,4,2020,276,3,SO,nn,nnn,273194</v>
+      </c>
+      <c r="AV46" s="3" t="str">
+        <f>$AC46&amp;$AC$1&amp;T46&amp;$AC$1&amp;fatalities!T47&amp;$AC$1&amp;T$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;T$2</f>
+        <v>8/4/2020,8,4,2020,196,7,SZ,nn,nnn,159165</v>
+      </c>
+      <c r="AW46" s="3" t="str">
+        <f>$AC46&amp;$AC$1&amp;U46&amp;$AC$1&amp;fatalities!U47&amp;$AC$1&amp;U$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;U$2</f>
+        <v>8/4/2020,8,4,2020,236,8,TG,nn,nnn,276472</v>
+      </c>
+      <c r="AX46" s="3" t="str">
+        <f>$AC46&amp;$AC$1&amp;V46&amp;$AC$1&amp;fatalities!V47&amp;$AC$1&amp;V$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;V$2</f>
+        <v>8/4/2020,8,4,2020,2659,211,TI,nn,nnn,353343</v>
+      </c>
+      <c r="AY46" s="3" t="str">
+        <f>$AC46&amp;$AC$1&amp;W46&amp;$AC$1&amp;fatalities!W47&amp;$AC$1&amp;W$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;W$2</f>
+        <v>8/4/2020,8,4,2020,72,4,UR,nn,nnn,36433</v>
+      </c>
+      <c r="AZ46" s="3" t="str">
+        <f>$AC46&amp;$AC$1&amp;X46&amp;$AC$1&amp;fatalities!X47&amp;$AC$1&amp;X$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;X$2</f>
+        <v>8/4/2020,8,4,2020,,,VD,nn,nnn,799145</v>
+      </c>
+      <c r="BA46" s="3" t="str">
+        <f>$AC46&amp;$AC$1&amp;Y46&amp;$AC$1&amp;fatalities!Y47&amp;$AC$1&amp;Y$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Y$2</f>
+        <v>8/4/2020,8,4,2020,1484,68,VS,nn,nnn,343955</v>
+      </c>
+      <c r="BB46" s="3" t="str">
+        <f>$AC46&amp;$AC$1&amp;Z46&amp;$AC$1&amp;fatalities!Z47&amp;$AC$1&amp;Z$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Z$2</f>
+        <v>8/4/2020,8,4,2020,162,3,ZG,nn,nnn,126837</v>
+      </c>
+      <c r="BC46" s="3" t="str">
+        <f>$AC46&amp;$AC$1&amp;AA46&amp;$AC$1&amp;fatalities!AA47&amp;$AC$1&amp;AA$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AA$2</f>
+        <v>8/4/2020,8,4,2020,2807,57,ZH,nn,nnn,1520968</v>
+      </c>
+      <c r="BD46" s="3" t="str">
+        <f>$AC46&amp;$AC$1&amp;AB46&amp;$AC$1&amp;fatalities!AB47&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2</f>
+        <v>8/4/2020,8,4,2020,23280,895,CH,nn,nnn,8543707</v>
+      </c>
     </row>
     <row r="47" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="54"/>
-      <c r="B47" s="55"/>
-      <c r="C47" s="55"/>
-      <c r="D47" s="55"/>
-      <c r="E47" s="55"/>
-      <c r="F47" s="55"/>
-      <c r="G47" s="55"/>
-      <c r="H47" s="55"/>
-      <c r="I47" s="55"/>
-      <c r="J47" s="55"/>
-      <c r="K47" s="55"/>
-      <c r="L47" s="55"/>
-      <c r="M47" s="55"/>
-      <c r="N47" s="55"/>
-      <c r="O47" s="55"/>
-      <c r="P47" s="55"/>
-      <c r="Q47" s="55"/>
-      <c r="R47" s="55"/>
-      <c r="S47" s="55"/>
-      <c r="T47" s="55"/>
-      <c r="U47" s="55"/>
-      <c r="V47" s="55"/>
-      <c r="W47" s="55"/>
-      <c r="X47" s="55"/>
-      <c r="Y47" s="55"/>
-      <c r="Z47" s="55"/>
-      <c r="AA47" s="55"/>
-      <c r="AB47" s="55"/>
+      <c r="B47" s="56"/>
+      <c r="C47" s="57"/>
+      <c r="D47" s="57"/>
+      <c r="E47" s="57"/>
+      <c r="F47" s="57"/>
+      <c r="G47" s="57"/>
+      <c r="H47" s="57"/>
+      <c r="I47" s="57"/>
+      <c r="J47" s="57"/>
+      <c r="K47" s="57"/>
+      <c r="L47" s="57"/>
+      <c r="M47" s="57"/>
+      <c r="N47" s="57"/>
+      <c r="O47" s="57"/>
+      <c r="P47" s="57"/>
+      <c r="Q47" s="57"/>
+      <c r="R47" s="57"/>
+      <c r="S47" s="57"/>
+      <c r="T47" s="57"/>
+      <c r="U47" s="57"/>
+      <c r="V47" s="57"/>
+      <c r="W47" s="57"/>
+      <c r="X47" s="57"/>
+      <c r="Y47" s="57"/>
+      <c r="Z47" s="57"/>
+      <c r="AA47" s="57"/>
+      <c r="AB47" s="57"/>
+      <c r="AC47" s="57"/>
+      <c r="AD47" s="10"/>
     </row>
     <row r="48" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="56"/>
-      <c r="B48" s="57"/>
-      <c r="C48" s="57"/>
-      <c r="D48" s="57"/>
-      <c r="E48" s="57"/>
-      <c r="F48" s="57"/>
-      <c r="G48" s="57"/>
-      <c r="H48" s="57"/>
-      <c r="I48" s="57"/>
-      <c r="J48" s="57"/>
-      <c r="K48" s="57"/>
-      <c r="L48" s="57"/>
-      <c r="M48" s="57"/>
-      <c r="N48" s="57"/>
-      <c r="O48" s="57"/>
-      <c r="P48" s="57"/>
-      <c r="Q48" s="57"/>
-      <c r="R48" s="57"/>
-      <c r="S48" s="57"/>
-      <c r="T48" s="57"/>
-      <c r="U48" s="57"/>
-      <c r="V48" s="57"/>
-      <c r="W48" s="57"/>
-      <c r="X48" s="57"/>
-      <c r="Y48" s="57"/>
-      <c r="Z48" s="57"/>
-      <c r="AA48" s="57"/>
-      <c r="AB48" s="57"/>
-    </row>
-    <row r="49" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="54"/>
-      <c r="B49" s="55"/>
-      <c r="C49" s="55"/>
-      <c r="D49" s="55"/>
-      <c r="E49" s="55"/>
-      <c r="F49" s="55"/>
-      <c r="G49" s="55"/>
-      <c r="H49" s="55"/>
-      <c r="I49" s="55"/>
-      <c r="J49" s="55"/>
-      <c r="K49" s="55"/>
-      <c r="L49" s="55"/>
-      <c r="M49" s="55"/>
-      <c r="N49" s="55"/>
-      <c r="O49" s="55"/>
-      <c r="P49" s="55"/>
-      <c r="Q49" s="55"/>
-      <c r="R49" s="55"/>
-      <c r="S49" s="55"/>
-      <c r="T49" s="55"/>
-      <c r="U49" s="55"/>
-      <c r="V49" s="55"/>
-      <c r="W49" s="55"/>
-      <c r="X49" s="55"/>
-      <c r="Y49" s="55"/>
-      <c r="Z49" s="55"/>
-      <c r="AA49" s="55"/>
-      <c r="AB49" s="55"/>
-    </row>
-    <row r="50" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="56"/>
-      <c r="B50" s="57"/>
-      <c r="C50" s="57"/>
-      <c r="D50" s="57"/>
-      <c r="E50" s="57"/>
-      <c r="F50" s="57"/>
-      <c r="G50" s="57"/>
-      <c r="H50" s="57"/>
-      <c r="I50" s="57"/>
-      <c r="J50" s="57"/>
-      <c r="K50" s="57"/>
-      <c r="L50" s="57"/>
-      <c r="M50" s="57"/>
-      <c r="N50" s="57"/>
-      <c r="O50" s="57"/>
-      <c r="P50" s="57"/>
-      <c r="Q50" s="57"/>
-      <c r="R50" s="57"/>
-      <c r="S50" s="57"/>
-      <c r="T50" s="57"/>
-      <c r="U50" s="57"/>
-      <c r="V50" s="57"/>
-      <c r="W50" s="57"/>
-      <c r="X50" s="57"/>
-      <c r="Y50" s="57"/>
-      <c r="Z50" s="57"/>
-      <c r="AA50" s="57"/>
-      <c r="AB50" s="57"/>
-    </row>
-    <row r="51" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="54"/>
-      <c r="B51" s="55"/>
-      <c r="C51" s="55"/>
-      <c r="D51" s="55"/>
-      <c r="E51" s="55"/>
-      <c r="F51" s="55"/>
-      <c r="G51" s="55"/>
-      <c r="H51" s="55"/>
-      <c r="I51" s="55"/>
-      <c r="J51" s="55"/>
-      <c r="K51" s="55"/>
-      <c r="L51" s="55"/>
-      <c r="M51" s="55"/>
-      <c r="N51" s="55"/>
-      <c r="O51" s="55"/>
-      <c r="P51" s="55"/>
-      <c r="Q51" s="55"/>
-      <c r="R51" s="55"/>
-      <c r="S51" s="55"/>
-      <c r="T51" s="55"/>
-      <c r="U51" s="55"/>
-      <c r="V51" s="55"/>
-      <c r="W51" s="55"/>
-      <c r="X51" s="55"/>
-      <c r="Y51" s="55"/>
-      <c r="Z51" s="55"/>
-      <c r="AA51" s="55"/>
-      <c r="AB51" s="55"/>
-    </row>
-    <row r="52" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="56"/>
-      <c r="B52" s="57"/>
-      <c r="C52" s="57"/>
-      <c r="D52" s="57"/>
-      <c r="E52" s="57"/>
-      <c r="F52" s="57"/>
-      <c r="G52" s="57"/>
-      <c r="H52" s="57"/>
-      <c r="I52" s="57"/>
-      <c r="J52" s="57"/>
-      <c r="K52" s="57"/>
-      <c r="L52" s="57"/>
-      <c r="M52" s="57"/>
-      <c r="N52" s="57"/>
-      <c r="O52" s="57"/>
-      <c r="P52" s="57"/>
-      <c r="Q52" s="57"/>
-      <c r="R52" s="57"/>
-      <c r="S52" s="57"/>
-      <c r="T52" s="57"/>
-      <c r="U52" s="57"/>
-      <c r="V52" s="57"/>
-      <c r="W52" s="57"/>
-      <c r="X52" s="57"/>
-      <c r="Y52" s="57"/>
-      <c r="Z52" s="57"/>
-      <c r="AA52" s="57"/>
-      <c r="AB52" s="57"/>
-    </row>
-    <row r="53" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="54"/>
-      <c r="B53" s="55"/>
-      <c r="C53" s="55"/>
-      <c r="D53" s="55"/>
-      <c r="E53" s="55"/>
-      <c r="F53" s="55"/>
-      <c r="G53" s="55"/>
-      <c r="H53" s="55"/>
-      <c r="I53" s="55"/>
-      <c r="J53" s="55"/>
-      <c r="K53" s="55"/>
-      <c r="L53" s="55"/>
-      <c r="M53" s="55"/>
-      <c r="N53" s="55"/>
-      <c r="O53" s="55"/>
-      <c r="P53" s="55"/>
-      <c r="Q53" s="55"/>
-      <c r="R53" s="55"/>
-      <c r="S53" s="55"/>
-      <c r="T53" s="55"/>
-      <c r="U53" s="55"/>
-      <c r="V53" s="55"/>
-      <c r="W53" s="55"/>
-      <c r="X53" s="55"/>
-      <c r="Y53" s="55"/>
-      <c r="Z53" s="55"/>
-      <c r="AA53" s="55"/>
-      <c r="AB53" s="55"/>
-    </row>
-    <row r="54" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="56"/>
-      <c r="B54" s="57"/>
-      <c r="C54" s="57"/>
-      <c r="D54" s="57"/>
-      <c r="E54" s="57"/>
-      <c r="F54" s="57"/>
-      <c r="G54" s="57"/>
-      <c r="H54" s="57"/>
-      <c r="I54" s="57"/>
-      <c r="J54" s="57"/>
-      <c r="K54" s="57"/>
-      <c r="L54" s="57"/>
-      <c r="M54" s="57"/>
-      <c r="N54" s="57"/>
-      <c r="O54" s="57"/>
-      <c r="P54" s="57"/>
-      <c r="Q54" s="57"/>
-      <c r="R54" s="57"/>
-      <c r="S54" s="57"/>
-      <c r="T54" s="57"/>
-      <c r="U54" s="57"/>
-      <c r="V54" s="57"/>
-      <c r="W54" s="57"/>
-      <c r="X54" s="57"/>
-      <c r="Y54" s="57"/>
-      <c r="Z54" s="57"/>
-      <c r="AA54" s="57"/>
-      <c r="AB54" s="57"/>
-    </row>
-    <row r="55" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="54"/>
-      <c r="B55" s="55"/>
-      <c r="C55" s="55"/>
-      <c r="D55" s="55"/>
-      <c r="E55" s="55"/>
-      <c r="F55" s="55"/>
-      <c r="G55" s="55"/>
-      <c r="H55" s="55"/>
-      <c r="I55" s="55"/>
-      <c r="J55" s="55"/>
-      <c r="K55" s="55"/>
-      <c r="L55" s="55"/>
-      <c r="M55" s="55"/>
-      <c r="N55" s="55"/>
-      <c r="O55" s="55"/>
-      <c r="P55" s="55"/>
-      <c r="Q55" s="55"/>
-      <c r="R55" s="55"/>
-      <c r="S55" s="55"/>
-      <c r="T55" s="55"/>
-      <c r="U55" s="55"/>
-      <c r="V55" s="55"/>
-      <c r="W55" s="55"/>
-      <c r="X55" s="55"/>
-      <c r="Y55" s="55"/>
-      <c r="Z55" s="55"/>
-      <c r="AA55" s="55"/>
-      <c r="AB55" s="55"/>
-    </row>
-    <row r="56" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="56"/>
-      <c r="B56" s="57"/>
-      <c r="C56" s="57"/>
-      <c r="D56" s="57"/>
-      <c r="E56" s="57"/>
-      <c r="F56" s="57"/>
-      <c r="G56" s="57"/>
-      <c r="H56" s="57"/>
-      <c r="I56" s="57"/>
-      <c r="J56" s="57"/>
-      <c r="K56" s="57"/>
-      <c r="L56" s="57"/>
-      <c r="M56" s="57"/>
-      <c r="N56" s="57"/>
-      <c r="O56" s="57"/>
-      <c r="P56" s="57"/>
-      <c r="Q56" s="57"/>
-      <c r="R56" s="57"/>
-      <c r="S56" s="57"/>
-      <c r="T56" s="57"/>
-      <c r="U56" s="57"/>
-      <c r="V56" s="57"/>
-      <c r="W56" s="57"/>
-      <c r="X56" s="57"/>
-      <c r="Y56" s="57"/>
-      <c r="Z56" s="57"/>
-      <c r="AA56" s="57"/>
-      <c r="AB56" s="57"/>
-    </row>
-    <row r="57" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="54"/>
-      <c r="B57" s="55"/>
-      <c r="C57" s="55"/>
-      <c r="D57" s="55"/>
-      <c r="E57" s="55"/>
-      <c r="F57" s="55"/>
-      <c r="G57" s="55"/>
-      <c r="H57" s="55"/>
-      <c r="I57" s="55"/>
-      <c r="J57" s="55"/>
-      <c r="K57" s="55"/>
-      <c r="L57" s="55"/>
-      <c r="M57" s="55"/>
-      <c r="N57" s="55"/>
-      <c r="O57" s="55"/>
-      <c r="P57" s="55"/>
-      <c r="Q57" s="55"/>
-      <c r="R57" s="55"/>
-      <c r="S57" s="55"/>
-      <c r="T57" s="55"/>
-      <c r="U57" s="55"/>
-      <c r="V57" s="55"/>
-      <c r="W57" s="55"/>
-      <c r="X57" s="55"/>
-      <c r="Y57" s="55"/>
-      <c r="Z57" s="55"/>
-      <c r="AA57" s="55"/>
-      <c r="AB57" s="55"/>
-    </row>
-    <row r="58" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="56"/>
-      <c r="B58" s="57"/>
-      <c r="C58" s="57"/>
-      <c r="D58" s="57"/>
-      <c r="E58" s="57"/>
-      <c r="F58" s="57"/>
-      <c r="G58" s="57"/>
-      <c r="H58" s="57"/>
-      <c r="I58" s="57"/>
-      <c r="J58" s="57"/>
-      <c r="K58" s="57"/>
-      <c r="L58" s="57"/>
-      <c r="M58" s="57"/>
-      <c r="N58" s="57"/>
-      <c r="O58" s="57"/>
-      <c r="P58" s="57"/>
-      <c r="Q58" s="57"/>
-      <c r="R58" s="57"/>
-      <c r="S58" s="57"/>
-      <c r="T58" s="57"/>
-      <c r="U58" s="57"/>
-      <c r="V58" s="57"/>
-      <c r="W58" s="57"/>
-      <c r="X58" s="57"/>
-      <c r="Y58" s="57"/>
-      <c r="Z58" s="57"/>
-      <c r="AA58" s="57"/>
-      <c r="AB58" s="57"/>
-    </row>
-    <row r="59" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="54"/>
-      <c r="B59" s="55"/>
-      <c r="C59" s="55"/>
-      <c r="D59" s="55"/>
-      <c r="E59" s="55"/>
-      <c r="F59" s="55"/>
-      <c r="G59" s="55"/>
-      <c r="H59" s="55"/>
-      <c r="I59" s="55"/>
-      <c r="J59" s="55"/>
-      <c r="K59" s="55"/>
-      <c r="L59" s="55"/>
-      <c r="M59" s="55"/>
-      <c r="N59" s="55"/>
-      <c r="O59" s="55"/>
-      <c r="P59" s="55"/>
-      <c r="Q59" s="55"/>
-      <c r="R59" s="55"/>
-      <c r="S59" s="55"/>
-      <c r="T59" s="55"/>
-      <c r="U59" s="55"/>
-      <c r="V59" s="55"/>
-      <c r="W59" s="55"/>
-      <c r="X59" s="55"/>
-      <c r="Y59" s="55"/>
-      <c r="Z59" s="55"/>
-      <c r="AA59" s="55"/>
-      <c r="AB59" s="55"/>
-    </row>
-    <row r="60" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="56"/>
-      <c r="B60" s="57"/>
-      <c r="C60" s="57"/>
-      <c r="D60" s="57"/>
-      <c r="E60" s="57"/>
-      <c r="F60" s="57"/>
-      <c r="G60" s="57"/>
-      <c r="H60" s="57"/>
-      <c r="I60" s="57"/>
-      <c r="J60" s="57"/>
-      <c r="K60" s="57"/>
-      <c r="L60" s="57"/>
-      <c r="M60" s="57"/>
-      <c r="N60" s="57"/>
-      <c r="O60" s="57"/>
-      <c r="P60" s="57"/>
-      <c r="Q60" s="57"/>
-      <c r="R60" s="57"/>
-      <c r="S60" s="57"/>
-      <c r="T60" s="57"/>
-      <c r="U60" s="57"/>
-      <c r="V60" s="57"/>
-      <c r="W60" s="57"/>
-      <c r="X60" s="57"/>
-      <c r="Y60" s="57"/>
-      <c r="Z60" s="57"/>
-      <c r="AA60" s="57"/>
-      <c r="AB60" s="57"/>
-    </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="U61" s="45"/>
-      <c r="V61"/>
-    </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="U62" s="45"/>
-      <c r="V62"/>
+      <c r="A48" s="58"/>
+      <c r="B48" s="54"/>
+      <c r="C48" s="55"/>
+      <c r="D48" s="55"/>
+      <c r="E48" s="55"/>
+      <c r="F48" s="55"/>
+      <c r="G48" s="55"/>
+      <c r="H48" s="55"/>
+      <c r="I48" s="55"/>
+      <c r="J48" s="55"/>
+      <c r="K48" s="55"/>
+      <c r="L48" s="55"/>
+      <c r="M48" s="55"/>
+      <c r="N48" s="55"/>
+      <c r="O48" s="55"/>
+      <c r="P48" s="55"/>
+      <c r="Q48" s="55"/>
+      <c r="R48" s="55"/>
+      <c r="S48" s="55"/>
+      <c r="T48" s="55"/>
+      <c r="U48" s="55"/>
+      <c r="V48" s="55"/>
+      <c r="W48" s="55"/>
+      <c r="X48" s="55"/>
+      <c r="Y48" s="55"/>
+      <c r="Z48" s="55"/>
+      <c r="AA48" s="55"/>
+      <c r="AB48" s="55"/>
+      <c r="AC48" s="55"/>
+    </row>
+    <row r="49" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="58"/>
+      <c r="B49" s="56"/>
+      <c r="C49" s="57"/>
+      <c r="D49" s="57"/>
+      <c r="E49" s="57"/>
+      <c r="F49" s="57"/>
+      <c r="G49" s="57"/>
+      <c r="H49" s="57"/>
+      <c r="I49" s="57"/>
+      <c r="J49" s="57"/>
+      <c r="K49" s="57"/>
+      <c r="L49" s="57"/>
+      <c r="M49" s="57"/>
+      <c r="N49" s="57"/>
+      <c r="O49" s="57"/>
+      <c r="P49" s="57"/>
+      <c r="Q49" s="57"/>
+      <c r="R49" s="57"/>
+      <c r="S49" s="57"/>
+      <c r="T49" s="57"/>
+      <c r="U49" s="57"/>
+      <c r="V49" s="57"/>
+      <c r="W49" s="57"/>
+      <c r="X49" s="57"/>
+      <c r="Y49" s="57"/>
+      <c r="Z49" s="57"/>
+      <c r="AA49" s="57"/>
+      <c r="AB49" s="57"/>
+      <c r="AC49" s="57"/>
+    </row>
+    <row r="50" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="58"/>
+      <c r="B50" s="54"/>
+      <c r="C50" s="55"/>
+      <c r="D50" s="55"/>
+      <c r="E50" s="55"/>
+      <c r="F50" s="55"/>
+      <c r="G50" s="55"/>
+      <c r="H50" s="55"/>
+      <c r="I50" s="55"/>
+      <c r="J50" s="55"/>
+      <c r="K50" s="55"/>
+      <c r="L50" s="55"/>
+      <c r="M50" s="55"/>
+      <c r="N50" s="55"/>
+      <c r="O50" s="55"/>
+      <c r="P50" s="55"/>
+      <c r="Q50" s="55"/>
+      <c r="R50" s="55"/>
+      <c r="S50" s="55"/>
+      <c r="T50" s="55"/>
+      <c r="U50" s="55"/>
+      <c r="V50" s="55"/>
+      <c r="W50" s="55"/>
+      <c r="X50" s="55"/>
+      <c r="Y50" s="55"/>
+      <c r="Z50" s="55"/>
+      <c r="AA50" s="55"/>
+      <c r="AB50" s="55"/>
+      <c r="AC50" s="55"/>
+    </row>
+    <row r="51" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="58"/>
+      <c r="B51" s="56"/>
+      <c r="C51" s="57"/>
+      <c r="D51" s="57"/>
+      <c r="E51" s="57"/>
+      <c r="F51" s="57"/>
+      <c r="G51" s="57"/>
+      <c r="H51" s="57"/>
+      <c r="I51" s="57"/>
+      <c r="J51" s="57"/>
+      <c r="K51" s="57"/>
+      <c r="L51" s="57"/>
+      <c r="M51" s="57"/>
+      <c r="N51" s="57"/>
+      <c r="O51" s="57"/>
+      <c r="P51" s="57"/>
+      <c r="Q51" s="57"/>
+      <c r="R51" s="57"/>
+      <c r="S51" s="57"/>
+      <c r="T51" s="57"/>
+      <c r="U51" s="57"/>
+      <c r="V51" s="57"/>
+      <c r="W51" s="57"/>
+      <c r="X51" s="57"/>
+      <c r="Y51" s="57"/>
+      <c r="Z51" s="57"/>
+      <c r="AA51" s="57"/>
+      <c r="AB51" s="57"/>
+      <c r="AC51" s="57"/>
+    </row>
+    <row r="52" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="58"/>
+      <c r="B52" s="54"/>
+      <c r="C52" s="55"/>
+      <c r="D52" s="55"/>
+      <c r="E52" s="55"/>
+      <c r="F52" s="55"/>
+      <c r="G52" s="55"/>
+      <c r="H52" s="55"/>
+      <c r="I52" s="55"/>
+      <c r="J52" s="55"/>
+      <c r="K52" s="55"/>
+      <c r="L52" s="55"/>
+      <c r="M52" s="55"/>
+      <c r="N52" s="55"/>
+      <c r="O52" s="55"/>
+      <c r="P52" s="55"/>
+      <c r="Q52" s="55"/>
+      <c r="R52" s="55"/>
+      <c r="S52" s="55"/>
+      <c r="T52" s="55"/>
+      <c r="U52" s="55"/>
+      <c r="V52" s="55"/>
+      <c r="W52" s="55"/>
+      <c r="X52" s="55"/>
+      <c r="Y52" s="55"/>
+      <c r="Z52" s="55"/>
+      <c r="AA52" s="55"/>
+      <c r="AB52" s="55"/>
+      <c r="AC52" s="55"/>
+    </row>
+    <row r="53" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="58"/>
+      <c r="B53" s="56"/>
+      <c r="C53" s="57"/>
+      <c r="D53" s="57"/>
+      <c r="E53" s="57"/>
+      <c r="F53" s="57"/>
+      <c r="G53" s="57"/>
+      <c r="H53" s="57"/>
+      <c r="I53" s="57"/>
+      <c r="J53" s="57"/>
+      <c r="K53" s="57"/>
+      <c r="L53" s="57"/>
+      <c r="M53" s="57"/>
+      <c r="N53" s="57"/>
+      <c r="O53" s="57"/>
+      <c r="P53" s="57"/>
+      <c r="Q53" s="57"/>
+      <c r="R53" s="57"/>
+      <c r="S53" s="57"/>
+      <c r="T53" s="57"/>
+      <c r="U53" s="57"/>
+      <c r="V53" s="57"/>
+      <c r="W53" s="57"/>
+      <c r="X53" s="57"/>
+      <c r="Y53" s="57"/>
+      <c r="Z53" s="57"/>
+      <c r="AA53" s="57"/>
+      <c r="AB53" s="57"/>
+      <c r="AC53" s="57"/>
+    </row>
+    <row r="54" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="58"/>
+      <c r="B54" s="54"/>
+      <c r="C54" s="55"/>
+      <c r="D54" s="55"/>
+      <c r="E54" s="55"/>
+      <c r="F54" s="55"/>
+      <c r="G54" s="55"/>
+      <c r="H54" s="55"/>
+      <c r="I54" s="55"/>
+      <c r="J54" s="55"/>
+      <c r="K54" s="55"/>
+      <c r="L54" s="55"/>
+      <c r="M54" s="55"/>
+      <c r="N54" s="55"/>
+      <c r="O54" s="55"/>
+      <c r="P54" s="55"/>
+      <c r="Q54" s="55"/>
+      <c r="R54" s="55"/>
+      <c r="S54" s="55"/>
+      <c r="T54" s="55"/>
+      <c r="U54" s="55"/>
+      <c r="V54" s="55"/>
+      <c r="W54" s="55"/>
+      <c r="X54" s="55"/>
+      <c r="Y54" s="55"/>
+      <c r="Z54" s="55"/>
+      <c r="AA54" s="55"/>
+      <c r="AB54" s="55"/>
+      <c r="AC54" s="55"/>
+    </row>
+    <row r="55" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="58"/>
+      <c r="B55" s="56"/>
+      <c r="C55" s="57"/>
+      <c r="D55" s="57"/>
+      <c r="E55" s="57"/>
+      <c r="F55" s="57"/>
+      <c r="G55" s="57"/>
+      <c r="H55" s="57"/>
+      <c r="I55" s="57"/>
+      <c r="J55" s="57"/>
+      <c r="K55" s="57"/>
+      <c r="L55" s="57"/>
+      <c r="M55" s="57"/>
+      <c r="N55" s="57"/>
+      <c r="O55" s="57"/>
+      <c r="P55" s="57"/>
+      <c r="Q55" s="57"/>
+      <c r="R55" s="57"/>
+      <c r="S55" s="57"/>
+      <c r="T55" s="57"/>
+      <c r="U55" s="57"/>
+      <c r="V55" s="57"/>
+      <c r="W55" s="57"/>
+      <c r="X55" s="57"/>
+      <c r="Y55" s="57"/>
+      <c r="Z55" s="57"/>
+      <c r="AA55" s="57"/>
+      <c r="AB55" s="57"/>
+      <c r="AC55" s="57"/>
+    </row>
+    <row r="56" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="58"/>
+      <c r="B56" s="54"/>
+      <c r="C56" s="55"/>
+      <c r="D56" s="55"/>
+      <c r="E56" s="55"/>
+      <c r="F56" s="55"/>
+      <c r="G56" s="55"/>
+      <c r="H56" s="55"/>
+      <c r="I56" s="55"/>
+      <c r="J56" s="55"/>
+      <c r="K56" s="55"/>
+      <c r="L56" s="55"/>
+      <c r="M56" s="55"/>
+      <c r="N56" s="55"/>
+      <c r="O56" s="55"/>
+      <c r="P56" s="55"/>
+      <c r="Q56" s="55"/>
+      <c r="R56" s="55"/>
+      <c r="S56" s="55"/>
+      <c r="T56" s="55"/>
+      <c r="U56" s="55"/>
+      <c r="V56" s="55"/>
+      <c r="W56" s="55"/>
+      <c r="X56" s="55"/>
+      <c r="Y56" s="55"/>
+      <c r="Z56" s="55"/>
+      <c r="AA56" s="55"/>
+      <c r="AB56" s="55"/>
+      <c r="AC56" s="55"/>
+    </row>
+    <row r="57" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="58"/>
+      <c r="B57" s="56"/>
+      <c r="C57" s="57"/>
+      <c r="D57" s="57"/>
+      <c r="E57" s="57"/>
+      <c r="F57" s="57"/>
+      <c r="G57" s="57"/>
+      <c r="H57" s="57"/>
+      <c r="I57" s="57"/>
+      <c r="J57" s="57"/>
+      <c r="K57" s="57"/>
+      <c r="L57" s="57"/>
+      <c r="M57" s="57"/>
+      <c r="N57" s="57"/>
+      <c r="O57" s="57"/>
+      <c r="P57" s="57"/>
+      <c r="Q57" s="57"/>
+      <c r="R57" s="57"/>
+      <c r="S57" s="57"/>
+      <c r="T57" s="57"/>
+      <c r="U57" s="57"/>
+      <c r="V57" s="57"/>
+      <c r="W57" s="57"/>
+      <c r="X57" s="57"/>
+      <c r="Y57" s="57"/>
+      <c r="Z57" s="57"/>
+      <c r="AA57" s="57"/>
+      <c r="AB57" s="57"/>
+      <c r="AC57" s="57"/>
+    </row>
+    <row r="58" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="58"/>
+      <c r="B58" s="54"/>
+      <c r="C58" s="55"/>
+      <c r="D58" s="55"/>
+      <c r="E58" s="55"/>
+      <c r="F58" s="55"/>
+      <c r="G58" s="55"/>
+      <c r="H58" s="55"/>
+      <c r="I58" s="55"/>
+      <c r="J58" s="55"/>
+      <c r="K58" s="55"/>
+      <c r="L58" s="55"/>
+      <c r="M58" s="55"/>
+      <c r="N58" s="55"/>
+      <c r="O58" s="55"/>
+      <c r="P58" s="55"/>
+      <c r="Q58" s="55"/>
+      <c r="R58" s="55"/>
+      <c r="S58" s="55"/>
+      <c r="T58" s="55"/>
+      <c r="U58" s="55"/>
+      <c r="V58" s="55"/>
+      <c r="W58" s="55"/>
+      <c r="X58" s="55"/>
+      <c r="Y58" s="55"/>
+      <c r="Z58" s="55"/>
+      <c r="AA58" s="55"/>
+      <c r="AB58" s="55"/>
+      <c r="AC58" s="55"/>
+    </row>
+    <row r="59" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="58"/>
+      <c r="B59" s="56"/>
+      <c r="C59" s="57"/>
+      <c r="D59" s="57"/>
+      <c r="E59" s="57"/>
+      <c r="F59" s="57"/>
+      <c r="G59" s="57"/>
+      <c r="H59" s="57"/>
+      <c r="I59" s="57"/>
+      <c r="J59" s="57"/>
+      <c r="K59" s="57"/>
+      <c r="L59" s="57"/>
+      <c r="M59" s="57"/>
+      <c r="N59" s="57"/>
+      <c r="O59" s="57"/>
+      <c r="P59" s="57"/>
+      <c r="Q59" s="57"/>
+      <c r="R59" s="57"/>
+      <c r="S59" s="57"/>
+      <c r="T59" s="57"/>
+      <c r="U59" s="57"/>
+      <c r="V59" s="57"/>
+      <c r="W59" s="57"/>
+      <c r="X59" s="57"/>
+      <c r="Y59" s="57"/>
+      <c r="Z59" s="57"/>
+      <c r="AA59" s="57"/>
+      <c r="AB59" s="57"/>
+      <c r="AC59" s="57"/>
+    </row>
+    <row r="60" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="58"/>
+      <c r="B60" s="54"/>
+      <c r="C60" s="55"/>
+      <c r="D60" s="55"/>
+      <c r="E60" s="55"/>
+      <c r="F60" s="55"/>
+      <c r="G60" s="55"/>
+      <c r="H60" s="55"/>
+      <c r="I60" s="55"/>
+      <c r="J60" s="55"/>
+      <c r="K60" s="55"/>
+      <c r="L60" s="55"/>
+      <c r="M60" s="55"/>
+      <c r="N60" s="55"/>
+      <c r="O60" s="55"/>
+      <c r="P60" s="55"/>
+      <c r="Q60" s="55"/>
+      <c r="R60" s="55"/>
+      <c r="S60" s="55"/>
+      <c r="T60" s="55"/>
+      <c r="U60" s="55"/>
+      <c r="V60" s="55"/>
+      <c r="W60" s="55"/>
+      <c r="X60" s="55"/>
+      <c r="Y60" s="55"/>
+      <c r="Z60" s="55"/>
+      <c r="AA60" s="55"/>
+      <c r="AB60" s="55"/>
+      <c r="AC60" s="55"/>
+    </row>
+    <row r="61" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="58"/>
+      <c r="B61" s="56"/>
+      <c r="C61" s="57"/>
+      <c r="D61" s="57"/>
+      <c r="E61" s="57"/>
+      <c r="F61" s="57"/>
+      <c r="G61" s="57"/>
+      <c r="H61" s="57"/>
+      <c r="I61" s="57"/>
+      <c r="J61" s="57"/>
+      <c r="K61" s="57"/>
+      <c r="L61" s="57"/>
+      <c r="M61" s="57"/>
+      <c r="N61" s="57"/>
+      <c r="O61" s="57"/>
+      <c r="P61" s="57"/>
+      <c r="Q61" s="57"/>
+      <c r="R61" s="57"/>
+      <c r="S61" s="57"/>
+      <c r="T61" s="57"/>
+      <c r="U61" s="57"/>
+      <c r="V61" s="57"/>
+      <c r="W61" s="57"/>
+      <c r="X61" s="57"/>
+      <c r="Y61" s="57"/>
+      <c r="Z61" s="57"/>
+      <c r="AA61" s="57"/>
+      <c r="AB61" s="57"/>
+      <c r="AC61" s="57"/>
+    </row>
+    <row r="62" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="58"/>
+      <c r="B62" s="54"/>
+      <c r="C62" s="55"/>
+      <c r="D62" s="55"/>
+      <c r="E62" s="55"/>
+      <c r="F62" s="55"/>
+      <c r="G62" s="55"/>
+      <c r="H62" s="55"/>
+      <c r="I62" s="55"/>
+      <c r="J62" s="55"/>
+      <c r="K62" s="55"/>
+      <c r="L62" s="55"/>
+      <c r="M62" s="55"/>
+      <c r="N62" s="55"/>
+      <c r="O62" s="55"/>
+      <c r="P62" s="55"/>
+      <c r="Q62" s="55"/>
+      <c r="R62" s="55"/>
+      <c r="S62" s="55"/>
+      <c r="T62" s="55"/>
+      <c r="U62" s="55"/>
+      <c r="V62" s="55"/>
+      <c r="W62" s="55"/>
+      <c r="X62" s="55"/>
+      <c r="Y62" s="55"/>
+      <c r="Z62" s="55"/>
+      <c r="AA62" s="55"/>
+      <c r="AB62" s="55"/>
+      <c r="AC62" s="55"/>
+    </row>
+    <row r="63" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="58"/>
+      <c r="B63" s="56"/>
+      <c r="C63" s="57"/>
+      <c r="D63" s="57"/>
+      <c r="E63" s="57"/>
+      <c r="F63" s="57"/>
+      <c r="G63" s="57"/>
+      <c r="H63" s="57"/>
+      <c r="I63" s="57"/>
+      <c r="J63" s="57"/>
+      <c r="K63" s="57"/>
+      <c r="L63" s="57"/>
+      <c r="M63" s="57"/>
+      <c r="N63" s="57"/>
+      <c r="O63" s="57"/>
+      <c r="P63" s="57"/>
+      <c r="Q63" s="57"/>
+      <c r="R63" s="57"/>
+      <c r="S63" s="57"/>
+      <c r="T63" s="57"/>
+      <c r="U63" s="57"/>
+      <c r="V63" s="57"/>
+      <c r="W63" s="57"/>
+      <c r="X63" s="57"/>
+      <c r="Y63" s="57"/>
+      <c r="Z63" s="57"/>
+      <c r="AA63" s="57"/>
+      <c r="AB63" s="57"/>
+      <c r="AC63" s="57"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13132,11 +13731,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC61"/>
+  <dimension ref="A1:AE66"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V45" sqref="V45"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V47" sqref="V47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13324,11 +13923,11 @@
     <row r="3" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
       <c r="B3" s="51">
-        <f>B42/B2</f>
+        <f t="shared" ref="B3:AB3" si="0">B42/B2</f>
         <v>1.7715131822724674E-5</v>
       </c>
       <c r="C3" s="51">
-        <f t="shared" ref="C3:AB3" si="0">C42/C2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D3" s="51">
@@ -13353,7 +13952,7 @@
       </c>
       <c r="I3" s="52">
         <f t="shared" si="0"/>
-        <v>1.5616240890526148E-4</v>
+        <v>1.6016657323616562E-4</v>
       </c>
       <c r="J3" s="51">
         <f t="shared" si="0"/>
@@ -13429,7 +14028,7 @@
       </c>
       <c r="AB3" s="51">
         <f t="shared" si="0"/>
-        <v>7.3621438562909518E-5</v>
+        <v>7.3855528987592855E-5</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -13882,7 +14481,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="22">
         <v>43899</v>
       </c>
@@ -13922,7 +14521,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20">
         <v>43900</v>
       </c>
@@ -13964,7 +14563,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="22">
         <v>43901</v>
       </c>
@@ -14004,7 +14603,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="20">
         <v>43902</v>
       </c>
@@ -14046,7 +14645,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="22">
         <v>43903</v>
       </c>
@@ -14088,7 +14687,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="20">
         <v>43904</v>
       </c>
@@ -14134,7 +14733,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="22">
         <v>43905</v>
       </c>
@@ -14178,7 +14777,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="20">
         <v>43906</v>
       </c>
@@ -14228,7 +14827,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="22">
         <v>43907</v>
       </c>
@@ -14274,7 +14873,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="20">
         <v>43908</v>
       </c>
@@ -14326,7 +14925,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="22">
         <v>43909</v>
       </c>
@@ -14380,7 +14979,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20">
         <v>43910</v>
       </c>
@@ -14438,65 +15037,65 @@
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="22">
+    <row r="29" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="56">
         <v>43911</v>
       </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23">
+      <c r="B29" s="57"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57">
         <v>1</v>
       </c>
-      <c r="E29" s="23">
+      <c r="E29" s="57">
         <v>3</v>
       </c>
-      <c r="F29" s="23">
+      <c r="F29" s="57">
         <v>3</v>
       </c>
-      <c r="G29" s="23">
+      <c r="G29" s="57">
         <v>5</v>
       </c>
-      <c r="H29" s="23">
+      <c r="H29" s="57">
         <v>2</v>
       </c>
-      <c r="I29" s="23">
+      <c r="I29" s="57">
         <v>9</v>
       </c>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23">
+      <c r="J29" s="57"/>
+      <c r="K29" s="57">
         <v>3</v>
       </c>
-      <c r="L29" s="23"/>
-      <c r="M29" s="23">
+      <c r="L29" s="57"/>
+      <c r="M29" s="57">
         <v>1</v>
       </c>
-      <c r="N29" s="23">
+      <c r="N29" s="57">
         <v>4</v>
       </c>
-      <c r="O29" s="23"/>
-      <c r="P29" s="23"/>
-      <c r="Q29" s="23"/>
-      <c r="R29" s="23"/>
-      <c r="S29" s="23"/>
-      <c r="T29" s="23"/>
-      <c r="U29" s="23"/>
+      <c r="O29" s="57"/>
+      <c r="P29" s="57"/>
+      <c r="Q29" s="57"/>
+      <c r="R29" s="57"/>
+      <c r="S29" s="57"/>
+      <c r="T29" s="57"/>
+      <c r="U29" s="57"/>
       <c r="V29" s="47">
         <v>28</v>
       </c>
-      <c r="W29" s="23"/>
-      <c r="X29" s="23">
+      <c r="W29" s="57"/>
+      <c r="X29" s="57">
         <v>15</v>
       </c>
-      <c r="Y29" s="23">
+      <c r="Y29" s="57">
         <v>7</v>
       </c>
-      <c r="Z29" s="23"/>
-      <c r="AA29" s="23"/>
-      <c r="AB29" s="23">
+      <c r="Z29" s="57"/>
+      <c r="AA29" s="57"/>
+      <c r="AB29" s="57">
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="54">
         <v>43912</v>
       </c>
@@ -14552,7 +15151,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="31" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="56">
         <v>43913</v>
       </c>
@@ -14576,7 +15175,7 @@
         <v>4</v>
       </c>
       <c r="I31" s="57">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J31" s="57"/>
       <c r="K31" s="57"/>
@@ -14613,10 +15212,10 @@
         <v>5</v>
       </c>
       <c r="AB31" s="57">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="32" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="54">
         <v>43914</v>
       </c>
@@ -14640,7 +15239,7 @@
         <v>5</v>
       </c>
       <c r="I32" s="55">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J32" s="55"/>
       <c r="K32" s="55">
@@ -14679,10 +15278,14 @@
         <v>5</v>
       </c>
       <c r="AB32" s="55">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="33" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+      <c r="AC32" s="10">
+        <f>AB32-AB25</f>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="56">
         <v>43915</v>
       </c>
@@ -14706,7 +15309,7 @@
         <v>6</v>
       </c>
       <c r="I33" s="57">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="J33" s="57"/>
       <c r="K33" s="57">
@@ -14747,10 +15350,10 @@
         <v>7</v>
       </c>
       <c r="AB33" s="57">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="34" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="54">
         <v>43916</v>
       </c>
@@ -14774,7 +15377,7 @@
         <v>11</v>
       </c>
       <c r="I34" s="55">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J34" s="55"/>
       <c r="K34" s="55">
@@ -14817,10 +15420,10 @@
         <v>9</v>
       </c>
       <c r="AB34" s="55">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="35" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="56">
         <v>43917</v>
       </c>
@@ -14844,7 +15447,7 @@
         <v>15</v>
       </c>
       <c r="I35" s="57">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="J35" s="57"/>
       <c r="K35" s="57">
@@ -14887,10 +15490,10 @@
         <v>11</v>
       </c>
       <c r="AB35" s="57">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="36" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="54">
         <v>43918</v>
       </c>
@@ -14912,7 +15515,7 @@
         <v>15</v>
       </c>
       <c r="I36" s="55">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="J36" s="55">
         <v>1</v>
@@ -14955,10 +15558,10 @@
         <v>15</v>
       </c>
       <c r="AB36" s="55">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="37" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="56">
         <v>43919</v>
       </c>
@@ -14980,7 +15583,7 @@
         <v>16</v>
       </c>
       <c r="I37" s="57">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="J37" s="57"/>
       <c r="K37" s="57"/>
@@ -15021,10 +15624,10 @@
         <v>15</v>
       </c>
       <c r="AB37" s="57">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="38" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="54">
         <v>43920</v>
       </c>
@@ -15048,7 +15651,7 @@
         <v>17</v>
       </c>
       <c r="I38" s="55">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="J38" s="55">
         <v>1</v>
@@ -15093,10 +15696,10 @@
         <v>21</v>
       </c>
       <c r="AB38" s="55">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="39" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="56">
         <v>43921</v>
       </c>
@@ -15120,7 +15723,7 @@
         <v>20</v>
       </c>
       <c r="I39" s="57">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="J39" s="57">
         <v>2</v>
@@ -15167,10 +15770,14 @@
         <v>25</v>
       </c>
       <c r="AB39" s="57">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="40" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>466</v>
+      </c>
+      <c r="AC39" s="10">
+        <f>AB39-AB32</f>
+        <v>311</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="54">
         <v>43922</v>
       </c>
@@ -15194,7 +15801,7 @@
         <v>23</v>
       </c>
       <c r="I40" s="55">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J40" s="55">
         <v>2</v>
@@ -15245,10 +15852,10 @@
         <v>29</v>
       </c>
       <c r="AB40" s="55">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="41" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="56">
         <v>43923</v>
       </c>
@@ -15272,7 +15879,7 @@
         <v>26</v>
       </c>
       <c r="I41" s="57">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="J41" s="57">
         <v>2</v>
@@ -15323,10 +15930,10 @@
         <v>36</v>
       </c>
       <c r="AB41" s="57">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="42" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="54">
         <v>43924</v>
       </c>
@@ -15350,7 +15957,7 @@
         <v>31</v>
       </c>
       <c r="I42" s="55">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J42" s="55">
         <v>2</v>
@@ -15401,11 +16008,11 @@
         <v>38</v>
       </c>
       <c r="AB42" s="55">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="AC42"/>
     </row>
-    <row r="43" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="56">
         <v>43925</v>
       </c>
@@ -15427,7 +16034,7 @@
         <v>37</v>
       </c>
       <c r="I43" s="57">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="J43" s="57"/>
       <c r="K43" s="57"/>
@@ -15476,10 +16083,10 @@
         <v>41</v>
       </c>
       <c r="AB43" s="57">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="44" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="44" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="54">
         <v>43926</v>
       </c>
@@ -15501,7 +16108,7 @@
         <v>40</v>
       </c>
       <c r="I44" s="55">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="J44" s="55"/>
       <c r="K44" s="55">
@@ -15550,11 +16157,11 @@
         <v>45</v>
       </c>
       <c r="AB44" s="55">
-        <v>738</v>
+        <v>746</v>
       </c>
       <c r="AC44" s="10"/>
     </row>
-    <row r="45" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="56">
         <v>43927</v>
       </c>
@@ -15574,18 +16181,24 @@
       <c r="G45" s="57">
         <v>26</v>
       </c>
-      <c r="H45" s="57"/>
-      <c r="I45" s="57"/>
+      <c r="H45" s="57">
+        <v>41</v>
+      </c>
+      <c r="I45" s="57">
+        <v>111</v>
+      </c>
       <c r="J45" s="57">
         <v>2</v>
       </c>
-      <c r="K45" s="57"/>
+      <c r="K45" s="57">
+        <v>31</v>
+      </c>
       <c r="L45" s="57"/>
       <c r="M45" s="57">
         <v>9</v>
       </c>
       <c r="N45" s="57">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="O45" s="57">
         <v>0</v>
@@ -15596,7 +16209,9 @@
       <c r="Q45" s="57">
         <v>11</v>
       </c>
-      <c r="R45" s="57"/>
+      <c r="R45" s="57">
+        <v>1</v>
+      </c>
       <c r="S45" s="57">
         <v>3</v>
       </c>
@@ -15612,7 +16227,9 @@
       <c r="W45" s="57">
         <v>2</v>
       </c>
-      <c r="X45" s="57"/>
+      <c r="X45" s="57">
+        <v>160</v>
+      </c>
       <c r="Y45" s="57">
         <v>56</v>
       </c>
@@ -15623,73 +16240,173 @@
         <v>48</v>
       </c>
       <c r="AB45" s="57">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="46" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="54"/>
-      <c r="B46" s="55"/>
+        <v>802</v>
+      </c>
+    </row>
+    <row r="46" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="54">
+        <v>43928</v>
+      </c>
+      <c r="B46" s="55">
+        <v>16</v>
+      </c>
       <c r="C46" s="55"/>
-      <c r="D46" s="55"/>
-      <c r="E46" s="55"/>
-      <c r="F46" s="55"/>
-      <c r="G46" s="55"/>
-      <c r="H46" s="55"/>
-      <c r="I46" s="55"/>
-      <c r="J46" s="55"/>
-      <c r="K46" s="55"/>
+      <c r="D46" s="55">
+        <v>3</v>
+      </c>
+      <c r="E46" s="55">
+        <v>33</v>
+      </c>
+      <c r="F46" s="55">
+        <v>19</v>
+      </c>
+      <c r="G46" s="55">
+        <v>28</v>
+      </c>
+      <c r="H46" s="55">
+        <v>44</v>
+      </c>
+      <c r="I46" s="55">
+        <v>118</v>
+      </c>
+      <c r="J46" s="55">
+        <v>2</v>
+      </c>
+      <c r="K46" s="55">
+        <v>34</v>
+      </c>
       <c r="L46" s="55"/>
-      <c r="M46" s="55"/>
+      <c r="M46" s="55">
+        <v>9</v>
+      </c>
       <c r="N46" s="55"/>
-      <c r="O46" s="55"/>
-      <c r="P46" s="55"/>
-      <c r="Q46" s="55"/>
-      <c r="R46" s="55"/>
-      <c r="S46" s="55"/>
-      <c r="T46" s="55"/>
-      <c r="U46" s="55"/>
-      <c r="V46" s="55"/>
-      <c r="W46" s="55"/>
-      <c r="X46" s="55"/>
-      <c r="Y46" s="55"/>
-      <c r="Z46" s="55"/>
-      <c r="AA46" s="55"/>
-      <c r="AB46" s="55"/>
-      <c r="AC46" s="10"/>
-    </row>
-    <row r="47" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="56"/>
-      <c r="B47" s="57"/>
+      <c r="O46" s="55">
+        <v>0</v>
+      </c>
+      <c r="P46" s="55">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="55">
+        <v>13</v>
+      </c>
+      <c r="R46" s="55">
+        <v>1</v>
+      </c>
+      <c r="S46" s="55">
+        <v>3</v>
+      </c>
+      <c r="T46" s="55">
+        <v>7</v>
+      </c>
+      <c r="U46" s="55">
+        <v>8</v>
+      </c>
+      <c r="V46" s="47">
+        <v>198</v>
+      </c>
+      <c r="W46" s="55">
+        <v>2</v>
+      </c>
+      <c r="X46" s="55">
+        <v>172</v>
+      </c>
+      <c r="Y46" s="55">
+        <v>61</v>
+      </c>
+      <c r="Z46" s="55">
+        <v>3</v>
+      </c>
+      <c r="AA46" s="55">
+        <v>52</v>
+      </c>
+      <c r="AB46" s="55">
+        <v>856</v>
+      </c>
+      <c r="AC46" s="10">
+        <f>AB46-AB39</f>
+        <v>390</v>
+      </c>
+    </row>
+    <row r="47" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="56">
+        <v>43929</v>
+      </c>
+      <c r="B47" s="57">
+        <v>16</v>
+      </c>
       <c r="C47" s="57"/>
-      <c r="D47" s="57"/>
-      <c r="E47" s="57"/>
-      <c r="F47" s="57"/>
-      <c r="G47" s="57"/>
-      <c r="H47" s="57"/>
+      <c r="D47" s="57">
+        <v>3</v>
+      </c>
+      <c r="E47" s="57">
+        <v>37</v>
+      </c>
+      <c r="F47" s="57">
+        <v>21</v>
+      </c>
+      <c r="G47" s="57">
+        <v>31</v>
+      </c>
+      <c r="H47" s="57">
+        <v>45</v>
+      </c>
       <c r="I47" s="57"/>
-      <c r="J47" s="57"/>
+      <c r="J47" s="57">
+        <v>2</v>
+      </c>
       <c r="K47" s="57"/>
       <c r="L47" s="57"/>
-      <c r="M47" s="57"/>
+      <c r="M47" s="57">
+        <v>9</v>
+      </c>
       <c r="N47" s="57"/>
-      <c r="O47" s="57"/>
-      <c r="P47" s="57"/>
-      <c r="Q47" s="57"/>
-      <c r="R47" s="57"/>
-      <c r="S47" s="57"/>
-      <c r="T47" s="57"/>
-      <c r="U47" s="57"/>
-      <c r="V47" s="57"/>
-      <c r="W47" s="57"/>
+      <c r="O47" s="57">
+        <v>0</v>
+      </c>
+      <c r="P47" s="57">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="57">
+        <v>15</v>
+      </c>
+      <c r="R47" s="57">
+        <v>1</v>
+      </c>
+      <c r="S47" s="57">
+        <v>3</v>
+      </c>
+      <c r="T47" s="57">
+        <v>7</v>
+      </c>
+      <c r="U47" s="57">
+        <v>8</v>
+      </c>
+      <c r="V47" s="47">
+        <v>211</v>
+      </c>
+      <c r="W47" s="57">
+        <v>4</v>
+      </c>
       <c r="X47" s="57"/>
-      <c r="Y47" s="57"/>
-      <c r="Z47" s="57"/>
-      <c r="AA47" s="57"/>
-      <c r="AB47" s="57"/>
-    </row>
-    <row r="48" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="54"/>
-      <c r="B48" s="55"/>
+      <c r="Y47" s="57">
+        <v>68</v>
+      </c>
+      <c r="Z47" s="57">
+        <v>3</v>
+      </c>
+      <c r="AA47" s="57">
+        <v>57</v>
+      </c>
+      <c r="AB47" s="57">
+        <v>895</v>
+      </c>
+      <c r="AC47" s="57"/>
+      <c r="AD47" s="10"/>
+      <c r="AE47" s="10"/>
+    </row>
+    <row r="48" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="58"/>
+      <c r="B48" s="54"/>
       <c r="C48" s="55"/>
       <c r="D48" s="55"/>
       <c r="E48" s="55"/>
@@ -15716,10 +16433,11 @@
       <c r="Z48" s="55"/>
       <c r="AA48" s="55"/>
       <c r="AB48" s="55"/>
-    </row>
-    <row r="49" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="56"/>
-      <c r="B49" s="57"/>
+      <c r="AC48" s="55"/>
+    </row>
+    <row r="49" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="58"/>
+      <c r="B49" s="56"/>
       <c r="C49" s="57"/>
       <c r="D49" s="57"/>
       <c r="E49" s="57"/>
@@ -15746,10 +16464,11 @@
       <c r="Z49" s="57"/>
       <c r="AA49" s="57"/>
       <c r="AB49" s="57"/>
-    </row>
-    <row r="50" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="54"/>
-      <c r="B50" s="55"/>
+      <c r="AC49" s="57"/>
+    </row>
+    <row r="50" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="58"/>
+      <c r="B50" s="54"/>
       <c r="C50" s="55"/>
       <c r="D50" s="55"/>
       <c r="E50" s="55"/>
@@ -15776,10 +16495,11 @@
       <c r="Z50" s="55"/>
       <c r="AA50" s="55"/>
       <c r="AB50" s="55"/>
-    </row>
-    <row r="51" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="56"/>
-      <c r="B51" s="57"/>
+      <c r="AC50" s="55"/>
+    </row>
+    <row r="51" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="58"/>
+      <c r="B51" s="56"/>
       <c r="C51" s="57"/>
       <c r="D51" s="57"/>
       <c r="E51" s="57"/>
@@ -15806,10 +16526,11 @@
       <c r="Z51" s="57"/>
       <c r="AA51" s="57"/>
       <c r="AB51" s="57"/>
-    </row>
-    <row r="52" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="54"/>
-      <c r="B52" s="55"/>
+      <c r="AC51" s="57"/>
+    </row>
+    <row r="52" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="58"/>
+      <c r="B52" s="54"/>
       <c r="C52" s="55"/>
       <c r="D52" s="55"/>
       <c r="E52" s="55"/>
@@ -15836,10 +16557,11 @@
       <c r="Z52" s="55"/>
       <c r="AA52" s="55"/>
       <c r="AB52" s="55"/>
-    </row>
-    <row r="53" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="56"/>
-      <c r="B53" s="57"/>
+      <c r="AC52" s="55"/>
+    </row>
+    <row r="53" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="58"/>
+      <c r="B53" s="56"/>
       <c r="C53" s="57"/>
       <c r="D53" s="57"/>
       <c r="E53" s="57"/>
@@ -15866,10 +16588,11 @@
       <c r="Z53" s="57"/>
       <c r="AA53" s="57"/>
       <c r="AB53" s="57"/>
-    </row>
-    <row r="54" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="54"/>
-      <c r="B54" s="55"/>
+      <c r="AC53" s="57"/>
+    </row>
+    <row r="54" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="58"/>
+      <c r="B54" s="54"/>
       <c r="C54" s="55"/>
       <c r="D54" s="55"/>
       <c r="E54" s="55"/>
@@ -15896,10 +16619,11 @@
       <c r="Z54" s="55"/>
       <c r="AA54" s="55"/>
       <c r="AB54" s="55"/>
-    </row>
-    <row r="55" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="56"/>
-      <c r="B55" s="57"/>
+      <c r="AC54" s="55"/>
+    </row>
+    <row r="55" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="58"/>
+      <c r="B55" s="56"/>
       <c r="C55" s="57"/>
       <c r="D55" s="57"/>
       <c r="E55" s="57"/>
@@ -15926,10 +16650,11 @@
       <c r="Z55" s="57"/>
       <c r="AA55" s="57"/>
       <c r="AB55" s="57"/>
-    </row>
-    <row r="56" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="54"/>
-      <c r="B56" s="55"/>
+      <c r="AC55" s="57"/>
+    </row>
+    <row r="56" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="58"/>
+      <c r="B56" s="54"/>
       <c r="C56" s="55"/>
       <c r="D56" s="55"/>
       <c r="E56" s="55"/>
@@ -15956,10 +16681,11 @@
       <c r="Z56" s="55"/>
       <c r="AA56" s="55"/>
       <c r="AB56" s="55"/>
-    </row>
-    <row r="57" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="56"/>
-      <c r="B57" s="57"/>
+      <c r="AC56" s="55"/>
+    </row>
+    <row r="57" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="58"/>
+      <c r="B57" s="56"/>
       <c r="C57" s="57"/>
       <c r="D57" s="57"/>
       <c r="E57" s="57"/>
@@ -15986,10 +16712,11 @@
       <c r="Z57" s="57"/>
       <c r="AA57" s="57"/>
       <c r="AB57" s="57"/>
-    </row>
-    <row r="58" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="54"/>
-      <c r="B58" s="55"/>
+      <c r="AC57" s="57"/>
+    </row>
+    <row r="58" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="58"/>
+      <c r="B58" s="54"/>
       <c r="C58" s="55"/>
       <c r="D58" s="55"/>
       <c r="E58" s="55"/>
@@ -16016,10 +16743,11 @@
       <c r="Z58" s="55"/>
       <c r="AA58" s="55"/>
       <c r="AB58" s="55"/>
-    </row>
-    <row r="59" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="56"/>
-      <c r="B59" s="57"/>
+      <c r="AC58" s="55"/>
+    </row>
+    <row r="59" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="58"/>
+      <c r="B59" s="56"/>
       <c r="C59" s="57"/>
       <c r="D59" s="57"/>
       <c r="E59" s="57"/>
@@ -16046,10 +16774,11 @@
       <c r="Z59" s="57"/>
       <c r="AA59" s="57"/>
       <c r="AB59" s="57"/>
-    </row>
-    <row r="60" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="54"/>
-      <c r="B60" s="55"/>
+      <c r="AC59" s="57"/>
+    </row>
+    <row r="60" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="58"/>
+      <c r="B60" s="54"/>
       <c r="C60" s="55"/>
       <c r="D60" s="55"/>
       <c r="E60" s="55"/>
@@ -16076,10 +16805,11 @@
       <c r="Z60" s="55"/>
       <c r="AA60" s="55"/>
       <c r="AB60" s="55"/>
-    </row>
-    <row r="61" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="56"/>
-      <c r="B61" s="57"/>
+      <c r="AC60" s="55"/>
+    </row>
+    <row r="61" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="58"/>
+      <c r="B61" s="56"/>
       <c r="C61" s="57"/>
       <c r="D61" s="57"/>
       <c r="E61" s="57"/>
@@ -16106,6 +16836,108 @@
       <c r="Z61" s="57"/>
       <c r="AA61" s="57"/>
       <c r="AB61" s="57"/>
+      <c r="AC61" s="57"/>
+    </row>
+    <row r="62" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="58"/>
+      <c r="B62" s="54"/>
+      <c r="C62" s="55"/>
+      <c r="D62" s="55"/>
+      <c r="E62" s="55"/>
+      <c r="F62" s="55"/>
+      <c r="G62" s="55"/>
+      <c r="H62" s="55"/>
+      <c r="I62" s="55"/>
+      <c r="J62" s="55"/>
+      <c r="K62" s="55"/>
+      <c r="L62" s="55"/>
+      <c r="M62" s="55"/>
+      <c r="N62" s="55"/>
+      <c r="O62" s="55"/>
+      <c r="P62" s="55"/>
+      <c r="Q62" s="55"/>
+      <c r="R62" s="55"/>
+      <c r="S62" s="55"/>
+      <c r="T62" s="55"/>
+      <c r="U62" s="55"/>
+      <c r="V62" s="55"/>
+      <c r="W62" s="55"/>
+      <c r="X62" s="55"/>
+      <c r="Y62" s="55"/>
+      <c r="Z62" s="55"/>
+      <c r="AA62" s="55"/>
+      <c r="AB62" s="55"/>
+      <c r="AC62" s="55"/>
+    </row>
+    <row r="63" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="58"/>
+      <c r="B63" s="56"/>
+      <c r="C63" s="57"/>
+      <c r="D63" s="57"/>
+      <c r="E63" s="57"/>
+      <c r="F63" s="57"/>
+      <c r="G63" s="57"/>
+      <c r="H63" s="57"/>
+      <c r="I63" s="57"/>
+      <c r="J63" s="57"/>
+      <c r="K63" s="57"/>
+      <c r="L63" s="57"/>
+      <c r="M63" s="57"/>
+      <c r="N63" s="57"/>
+      <c r="O63" s="57"/>
+      <c r="P63" s="57"/>
+      <c r="Q63" s="57"/>
+      <c r="R63" s="57"/>
+      <c r="S63" s="57"/>
+      <c r="T63" s="57"/>
+      <c r="U63" s="57"/>
+      <c r="V63" s="57"/>
+      <c r="W63" s="57"/>
+      <c r="X63" s="57"/>
+      <c r="Y63" s="57"/>
+      <c r="Z63" s="57"/>
+      <c r="AA63" s="57"/>
+      <c r="AB63" s="57"/>
+      <c r="AC63" s="57"/>
+    </row>
+    <row r="64" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="58"/>
+      <c r="B64" s="54"/>
+      <c r="C64" s="55"/>
+      <c r="D64" s="55"/>
+      <c r="E64" s="55"/>
+      <c r="F64" s="55"/>
+      <c r="G64" s="55"/>
+      <c r="H64" s="55"/>
+      <c r="I64" s="55"/>
+      <c r="J64" s="55"/>
+      <c r="K64" s="55"/>
+      <c r="L64" s="55"/>
+      <c r="M64" s="55"/>
+      <c r="N64" s="55"/>
+      <c r="O64" s="55"/>
+      <c r="P64" s="55"/>
+      <c r="Q64" s="55"/>
+      <c r="R64" s="55"/>
+      <c r="S64" s="55"/>
+      <c r="T64" s="55"/>
+      <c r="U64" s="55"/>
+      <c r="V64" s="55"/>
+      <c r="W64" s="55"/>
+      <c r="X64" s="55"/>
+      <c r="Y64" s="55"/>
+      <c r="Z64" s="55"/>
+      <c r="AA64" s="55"/>
+      <c r="AB64" s="55"/>
+      <c r="AC64" s="55"/>
+    </row>
+    <row r="65" spans="21:22" x14ac:dyDescent="0.2">
+      <c r="U65" s="48"/>
+      <c r="V65" s="18"/>
+    </row>
+    <row r="66" spans="21:22" x14ac:dyDescent="0.2">
+      <c r="U66" s="48"/>
+      <c r="V66" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TI_Lombardia.xlsx
+++ b/TI_Lombardia.xlsx
@@ -14,7 +14,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">cases!$A$3:$AB$44</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TI Lombardia'!$A$3:$F$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TI Lombardia'!$A$3:$F$51</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="117">
   <si>
     <t>Date</t>
   </si>
@@ -2887,7 +2887,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2895,10 +2895,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U65"/>
+  <dimension ref="A1:U66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L64" sqref="L4:L64"/>
+      <selection activeCell="L66" sqref="L4:L66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2910,6 +2910,7 @@
     <col min="5" max="5" width="13.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.625" customWidth="1"/>
     <col min="7" max="7" width="14.5" customWidth="1"/>
+    <col min="19" max="19" width="12.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="29.25" x14ac:dyDescent="0.4">
@@ -3030,7 +3031,7 @@
         <v>8/3/2020</v>
       </c>
       <c r="L4" s="3" t="str">
-        <f t="shared" ref="L4:L32" si="1">K4&amp;$L$1&amp;DAY(A4)&amp;$L$1&amp;MONTH(A4)&amp;$L$1&amp;YEAR(A4)&amp;$L$1&amp;D4&amp;$L$1&amp;G4&amp;$L$1&amp;E4&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H4</f>
+        <f t="shared" ref="L4:L36" si="1">K4&amp;$L$1&amp;DAY(A4)&amp;$L$1&amp;MONTH(A4)&amp;$L$1&amp;YEAR(A4)&amp;$L$1&amp;D4&amp;$L$1&amp;G4&amp;$L$1&amp;E4&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H4</f>
         <v>8/3/2020,8,3,2020,4189,267,Lombardia,nn,nnn,10040000</v>
       </c>
     </row>
@@ -3430,7 +3431,7 @@
         <v>20/3/2020,20,3,2020,2380,381,Lombardia,nn,nnn,10040000</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>43911</v>
       </c>
@@ -3463,7 +3464,7 @@
         <v>21/3/2020,21,3,2020,3251,546,Lombardia,nn,nnn,10040000</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>43912</v>
       </c>
@@ -3496,7 +3497,7 @@
         <v>22/3/2020,22,3,2020,1691,361,Lombardia,nn,nnn,10040000</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>43913</v>
       </c>
@@ -3535,7 +3536,7 @@
         <v>23/3/2020,23,3,2020,1555,320,Lombardia,nn,nnn,10040000</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>43914</v>
       </c>
@@ -3570,7 +3571,7 @@
         <v>24/3/2020,24,3,2020,1942,402,Lombardia,nn,nnn,10040000</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>43915</v>
       </c>
@@ -3606,7 +3607,7 @@
         <v>25/3/2020,25,3,2020,1643,296,Lombardia,nn,nnn,10040000</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>43916</v>
       </c>
@@ -3642,7 +3643,7 @@
         <v>26/3/2020,26,3,2020,2543,387,Lombardia,nn,nnn,10040000</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>43917</v>
       </c>
@@ -3678,7 +3679,7 @@
         <v>27/3/2020,27,3,2020,2409,541,Lombardia,nn,nnn,10040000</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>43918</v>
       </c>
@@ -3713,8 +3714,12 @@
         <f t="shared" si="1"/>
         <v>28/3/2020,28,3,2020,2117,542,Lombardia,nn,nnn,10040000</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="S24">
+        <f>1002200/10040000</f>
+        <v>9.9820717131474099E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>43919</v>
       </c>
@@ -3747,7 +3752,7 @@
         <v>29/3/2020,29,3,2020,1592,416,Lombardia,nn,nnn,10040000</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>43920</v>
       </c>
@@ -3780,7 +3785,7 @@
         <v>30/3/2020,30,3,2020,1154,458,Lombardia,nn,nnn,10040000</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>43921</v>
       </c>
@@ -3813,7 +3818,7 @@
         <v>31/3/2020,31,3,2020,1047,381,Lombardia,nn,nnn,10040000</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>43922</v>
       </c>
@@ -3846,7 +3851,7 @@
         <v>1/4/2020,1,4,2020,1565,394,Lombardia,nn,nnn,10040000</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>43923</v>
       </c>
@@ -3879,7 +3884,7 @@
         <v>2/4/2020,2,4,2020,1292,367,Lombardia,nn,nnn,10040000</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>43924</v>
       </c>
@@ -3912,7 +3917,7 @@
         <v>3/4/2020,3,4,2020,1455,351,Lombardia,nn,nnn,10040000</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>43925</v>
       </c>
@@ -3945,7 +3950,7 @@
         <v>4/4/2020,4,4,2020,1598,345,Lombardia,nn,nnn,10040000</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43926</v>
       </c>
@@ -4000,15 +4005,15 @@
         <v>297</v>
       </c>
       <c r="H33" s="2">
-        <v>10040001</v>
+        <v>10040000</v>
       </c>
       <c r="K33" s="5" t="str">
         <f t="shared" ref="K33" si="5">DAY(A33)&amp;"/"&amp;MONTH(A33)&amp;"/"&amp;YEAR(A33)</f>
         <v>6/4/2020</v>
       </c>
       <c r="L33" s="3" t="str">
-        <f t="shared" ref="L33" si="6">K33&amp;$L$1&amp;DAY(A33)&amp;$L$1&amp;MONTH(A33)&amp;$L$1&amp;YEAR(A33)&amp;$L$1&amp;D33&amp;$L$1&amp;G33&amp;$L$1&amp;E33&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H33</f>
-        <v>6/4/2020,6,4,2020,1079,297,Lombardia,nn,nnn,10040001</v>
+        <f t="shared" si="1"/>
+        <v>6/4/2020,6,4,2020,1079,297,Lombardia,nn,nnn,10040000</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -4022,26 +4027,26 @@
         <v>52325</v>
       </c>
       <c r="D34">
-        <f t="shared" ref="D34" si="7">C34-C33</f>
+        <f t="shared" ref="D34" si="6">C34-C33</f>
         <v>791</v>
       </c>
       <c r="E34" t="s">
         <v>9</v>
       </c>
       <c r="G34">
-        <f t="shared" ref="G34" si="8">B34-B33</f>
+        <f t="shared" ref="G34" si="7">B34-B33</f>
         <v>282</v>
       </c>
       <c r="H34" s="2">
-        <v>10040002</v>
+        <v>10040000</v>
       </c>
       <c r="K34" s="5" t="str">
-        <f t="shared" ref="K34" si="9">DAY(A34)&amp;"/"&amp;MONTH(A34)&amp;"/"&amp;YEAR(A34)</f>
+        <f t="shared" ref="K34" si="8">DAY(A34)&amp;"/"&amp;MONTH(A34)&amp;"/"&amp;YEAR(A34)</f>
         <v>7/4/2020</v>
       </c>
       <c r="L34" s="3" t="str">
-        <f t="shared" ref="L34" si="10">K34&amp;$L$1&amp;DAY(A34)&amp;$L$1&amp;MONTH(A34)&amp;$L$1&amp;YEAR(A34)&amp;$L$1&amp;D34&amp;$L$1&amp;G34&amp;$L$1&amp;E34&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H34</f>
-        <v>7/4/2020,7,4,2020,791,282,Lombardia,nn,nnn,10040002</v>
+        <f t="shared" si="1"/>
+        <v>7/4/2020,7,4,2020,791,282,Lombardia,nn,nnn,10040000</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -4055,992 +4060,1054 @@
         <v>53414</v>
       </c>
       <c r="D35">
-        <f t="shared" ref="D35" si="11">C35-C34</f>
+        <f t="shared" ref="D35" si="9">C35-C34</f>
         <v>1089</v>
       </c>
       <c r="E35" t="s">
         <v>9</v>
       </c>
       <c r="G35">
-        <f t="shared" ref="G35" si="12">B35-B34</f>
+        <f t="shared" ref="G35" si="10">B35-B34</f>
         <v>238</v>
       </c>
       <c r="H35" s="2">
-        <v>10040003</v>
+        <v>10040000</v>
       </c>
       <c r="K35" s="5" t="str">
-        <f t="shared" ref="K35" si="13">DAY(A35)&amp;"/"&amp;MONTH(A35)&amp;"/"&amp;YEAR(A35)</f>
+        <f>DAY(A35)&amp;"/"&amp;MONTH(A35)&amp;"/"&amp;YEAR(A35)</f>
         <v>8/4/2020</v>
       </c>
       <c r="L35" s="3" t="str">
-        <f t="shared" ref="L35" si="14">K35&amp;$L$1&amp;DAY(A35)&amp;$L$1&amp;MONTH(A35)&amp;$L$1&amp;YEAR(A35)&amp;$L$1&amp;D35&amp;$L$1&amp;G35&amp;$L$1&amp;E35&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H35</f>
-        <v>8/4/2020,8,4,2020,1089,238,Lombardia,nn,nnn,10040003</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>8/4/2020,8,4,2020,1089,238,Lombardia,nn,nnn,10040000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>43901</v>
-      </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36">
-        <v>68</v>
+        <v>43930</v>
+      </c>
+      <c r="B36" s="57">
+        <v>10022</v>
+      </c>
+      <c r="C36" s="57">
+        <v>54802</v>
       </c>
       <c r="D36">
-        <f>C36</f>
-        <v>68</v>
+        <f t="shared" ref="D36" si="11">C36-C35</f>
+        <v>1388</v>
       </c>
       <c r="E36" t="s">
-        <v>116</v>
+        <v>9</v>
       </c>
       <c r="G36">
-        <f t="shared" ref="G36:G38" si="15">B36</f>
-        <v>1</v>
-      </c>
-      <c r="H36">
-        <v>353709</v>
+        <f t="shared" ref="G36" si="12">B36-B35</f>
+        <v>300</v>
+      </c>
+      <c r="H36" s="2">
+        <v>10040000</v>
       </c>
       <c r="K36" s="5" t="str">
-        <f t="shared" ref="K36:K38" si="16">DAY(A36)&amp;"/"&amp;MONTH(A36)&amp;"/"&amp;YEAR(A36)</f>
-        <v>11/3/2020</v>
+        <f>DAY(A36)&amp;"/"&amp;MONTH(A36)&amp;"/"&amp;YEAR(A36)</f>
+        <v>9/4/2020</v>
       </c>
       <c r="L36" s="3" t="str">
-        <f t="shared" ref="L36:L38" si="17">K36&amp;$L$1&amp;DAY(A36)&amp;$L$1&amp;MONTH(A36)&amp;$L$1&amp;YEAR(A36)&amp;$L$1&amp;D36&amp;$L$1&amp;G36&amp;$L$1&amp;E36&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H36</f>
-        <v>11/3/2020,11,3,2020,68,1,Ticino,nn,nnn,353709</v>
+        <f t="shared" si="1"/>
+        <v>9/4/2020,9,4,2020,1388,300,Lombardia,nn,nnn,10040000</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>43902</v>
+        <v>43901</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
-      <c r="C37" s="43">
-        <v>180</v>
+      <c r="C37">
+        <v>68</v>
       </c>
       <c r="D37">
-        <f t="shared" ref="D37:D62" si="18">C37-C36</f>
-        <v>112</v>
+        <f>C37</f>
+        <v>68</v>
       </c>
       <c r="E37" t="s">
         <v>116</v>
       </c>
       <c r="G37">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="G37:G39" si="13">B37</f>
         <v>1</v>
       </c>
       <c r="H37">
         <v>353709</v>
       </c>
       <c r="K37" s="5" t="str">
-        <f t="shared" si="16"/>
-        <v>12/3/2020</v>
+        <f t="shared" ref="K37:K39" si="14">DAY(A37)&amp;"/"&amp;MONTH(A37)&amp;"/"&amp;YEAR(A37)</f>
+        <v>11/3/2020</v>
       </c>
       <c r="L37" s="3" t="str">
-        <f t="shared" si="17"/>
-        <v>12/3/2020,12,3,2020,112,1,Ticino,nn,nnn,353709</v>
+        <f t="shared" ref="L37:L39" si="15">K37&amp;$L$1&amp;DAY(A37)&amp;$L$1&amp;MONTH(A37)&amp;$L$1&amp;YEAR(A37)&amp;$L$1&amp;D37&amp;$L$1&amp;G37&amp;$L$1&amp;E37&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H37</f>
+        <v>11/3/2020,11,3,2020,68,1,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>43903</v>
+        <v>43902</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
       <c r="C38" s="43">
-        <v>258</v>
+        <v>180</v>
       </c>
       <c r="D38">
-        <f t="shared" si="18"/>
-        <v>78</v>
+        <f t="shared" ref="D38:D63" si="16">C38-C37</f>
+        <v>112</v>
       </c>
       <c r="E38" t="s">
         <v>116</v>
       </c>
       <c r="G38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="H38">
         <v>353709</v>
       </c>
       <c r="K38" s="5" t="str">
-        <f t="shared" si="16"/>
-        <v>13/3/2020</v>
+        <f t="shared" si="14"/>
+        <v>12/3/2020</v>
       </c>
       <c r="L38" s="3" t="str">
-        <f t="shared" si="17"/>
-        <v>13/3/2020,13,3,2020,78,1,Ticino,nn,nnn,353709</v>
+        <f t="shared" si="15"/>
+        <v>12/3/2020,12,3,2020,112,1,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>43904</v>
+        <v>43903</v>
       </c>
       <c r="B39">
-        <v>5</v>
-      </c>
-      <c r="C39">
-        <v>262</v>
+        <v>1</v>
+      </c>
+      <c r="C39" s="43">
+        <v>258</v>
       </c>
       <c r="D39">
-        <f t="shared" si="18"/>
-        <v>4</v>
+        <f t="shared" si="16"/>
+        <v>78</v>
       </c>
       <c r="E39" t="s">
         <v>116</v>
       </c>
       <c r="G39">
-        <f>B39</f>
-        <v>5</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="H39">
         <v>353709</v>
       </c>
       <c r="K39" s="5" t="str">
-        <f t="shared" ref="K39:K61" si="19">DAY(A39)&amp;"/"&amp;MONTH(A39)&amp;"/"&amp;YEAR(A39)</f>
-        <v>14/3/2020</v>
+        <f t="shared" si="14"/>
+        <v>13/3/2020</v>
       </c>
       <c r="L39" s="3" t="str">
-        <f t="shared" ref="L39:L60" si="20">K39&amp;$L$1&amp;DAY(A39)&amp;$L$1&amp;MONTH(A39)&amp;$L$1&amp;YEAR(A39)&amp;$L$1&amp;D39&amp;$L$1&amp;G39&amp;$L$1&amp;E39&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H39</f>
-        <v>14/3/2020,14,3,2020,4,5,Ticino,nn,nnn,353709</v>
+        <f t="shared" si="15"/>
+        <v>13/3/2020,13,3,2020,78,1,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>43905</v>
+        <v>43904</v>
       </c>
       <c r="B40">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C40">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c r="D40">
-        <f t="shared" si="18"/>
-        <v>29</v>
+        <f t="shared" si="16"/>
+        <v>4</v>
       </c>
       <c r="E40" t="s">
         <v>116</v>
       </c>
       <c r="G40">
-        <f t="shared" ref="G40:G61" si="21">B40-B39</f>
-        <v>1</v>
+        <f>B40</f>
+        <v>5</v>
       </c>
       <c r="H40">
         <v>353709</v>
       </c>
       <c r="K40" s="5" t="str">
-        <f t="shared" si="19"/>
-        <v>15/3/2020</v>
+        <f t="shared" ref="K40:K62" si="17">DAY(A40)&amp;"/"&amp;MONTH(A40)&amp;"/"&amp;YEAR(A40)</f>
+        <v>14/3/2020</v>
       </c>
       <c r="L40" s="3" t="str">
-        <f t="shared" si="20"/>
-        <v>15/3/2020,15,3,2020,29,1,Ticino,nn,nnn,353709</v>
+        <f t="shared" ref="L40:L61" si="18">K40&amp;$L$1&amp;DAY(A40)&amp;$L$1&amp;MONTH(A40)&amp;$L$1&amp;YEAR(A40)&amp;$L$1&amp;D40&amp;$L$1&amp;G40&amp;$L$1&amp;E40&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H40</f>
+        <v>14/3/2020,14,3,2020,4,5,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>43906</v>
+        <v>43905</v>
       </c>
       <c r="B41">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C41">
-        <v>330</v>
+        <v>291</v>
       </c>
       <c r="D41">
-        <f t="shared" si="18"/>
-        <v>39</v>
+        <f t="shared" si="16"/>
+        <v>29</v>
       </c>
       <c r="E41" t="s">
         <v>116</v>
       </c>
       <c r="G41">
-        <f t="shared" si="21"/>
-        <v>2</v>
+        <f t="shared" ref="G41:G62" si="19">B41-B40</f>
+        <v>1</v>
       </c>
       <c r="H41">
         <v>353709</v>
       </c>
       <c r="K41" s="5" t="str">
-        <f t="shared" si="19"/>
-        <v>16/3/2020</v>
+        <f t="shared" si="17"/>
+        <v>15/3/2020</v>
       </c>
       <c r="L41" s="3" t="str">
-        <f t="shared" si="20"/>
-        <v>16/3/2020,16,3,2020,39,2,Ticino,nn,nnn,353709</v>
+        <f t="shared" si="18"/>
+        <v>15/3/2020,15,3,2020,29,1,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>43907</v>
+        <v>43906</v>
       </c>
       <c r="B42">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C42">
-        <v>422</v>
+        <v>330</v>
       </c>
       <c r="D42">
-        <f t="shared" si="18"/>
-        <v>92</v>
+        <f t="shared" si="16"/>
+        <v>39</v>
       </c>
       <c r="E42" t="s">
         <v>116</v>
       </c>
       <c r="G42">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
       <c r="H42">
         <v>353709</v>
       </c>
       <c r="K42" s="5" t="str">
-        <f t="shared" si="19"/>
-        <v>17/3/2020</v>
+        <f t="shared" si="17"/>
+        <v>16/3/2020</v>
       </c>
       <c r="L42" s="3" t="str">
-        <f t="shared" si="20"/>
-        <v>17/3/2020,17,3,2020,92,2,Ticino,nn,nnn,353709</v>
+        <f t="shared" si="18"/>
+        <v>16/3/2020,16,3,2020,39,2,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>43908</v>
+        <v>43907</v>
       </c>
       <c r="B43">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C43">
-        <v>511</v>
+        <v>422</v>
       </c>
       <c r="D43">
-        <f t="shared" si="18"/>
-        <v>89</v>
+        <f t="shared" si="16"/>
+        <v>92</v>
       </c>
       <c r="E43" t="s">
         <v>116</v>
       </c>
       <c r="G43">
-        <f t="shared" si="21"/>
-        <v>4</v>
+        <f t="shared" si="19"/>
+        <v>2</v>
       </c>
       <c r="H43">
         <v>353709</v>
       </c>
       <c r="K43" s="5" t="str">
-        <f t="shared" si="19"/>
-        <v>18/3/2020</v>
+        <f t="shared" si="17"/>
+        <v>17/3/2020</v>
       </c>
       <c r="L43" s="3" t="str">
-        <f t="shared" si="20"/>
-        <v>18/3/2020,18,3,2020,89,4,Ticino,nn,nnn,353709</v>
+        <f t="shared" si="18"/>
+        <v>17/3/2020,17,3,2020,92,2,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>43909</v>
+        <v>43908</v>
       </c>
       <c r="B44">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C44">
-        <v>638</v>
+        <v>511</v>
       </c>
       <c r="D44">
-        <f t="shared" si="18"/>
-        <v>127</v>
+        <f t="shared" si="16"/>
+        <v>89</v>
       </c>
       <c r="E44" t="s">
         <v>116</v>
       </c>
       <c r="G44">
-        <f t="shared" si="21"/>
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>4</v>
       </c>
       <c r="H44">
         <v>353709</v>
       </c>
       <c r="K44" s="5" t="str">
-        <f t="shared" si="19"/>
-        <v>19/3/2020</v>
+        <f t="shared" si="17"/>
+        <v>18/3/2020</v>
       </c>
       <c r="L44" s="3" t="str">
-        <f t="shared" si="20"/>
-        <v>19/3/2020,19,3,2020,127,1,Ticino,nn,nnn,353709</v>
+        <f t="shared" si="18"/>
+        <v>18/3/2020,18,3,2020,89,4,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>43910</v>
+        <v>43909</v>
       </c>
       <c r="B45">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C45">
-        <v>834</v>
+        <v>638</v>
       </c>
       <c r="D45">
-        <f t="shared" si="18"/>
-        <v>196</v>
+        <f t="shared" si="16"/>
+        <v>127</v>
       </c>
       <c r="E45" t="s">
         <v>116</v>
       </c>
       <c r="G45">
-        <f t="shared" si="21"/>
-        <v>7</v>
+        <f t="shared" si="19"/>
+        <v>1</v>
       </c>
       <c r="H45">
         <v>353709</v>
       </c>
       <c r="K45" s="5" t="str">
-        <f t="shared" si="19"/>
-        <v>20/3/2020</v>
+        <f t="shared" si="17"/>
+        <v>19/3/2020</v>
       </c>
       <c r="L45" s="3" t="str">
-        <f t="shared" si="20"/>
-        <v>20/3/2020,20,3,2020,196,7,Ticino,nn,nnn,353709</v>
+        <f t="shared" si="18"/>
+        <v>19/3/2020,19,3,2020,127,1,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>43911</v>
+        <v>43910</v>
       </c>
       <c r="B46">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C46">
-        <v>918</v>
+        <v>834</v>
       </c>
       <c r="D46">
-        <f t="shared" si="18"/>
-        <v>84</v>
+        <f t="shared" si="16"/>
+        <v>196</v>
       </c>
       <c r="E46" t="s">
         <v>116</v>
       </c>
       <c r="G46">
-        <f t="shared" si="21"/>
-        <v>6</v>
+        <f t="shared" si="19"/>
+        <v>7</v>
       </c>
       <c r="H46">
         <v>353709</v>
       </c>
       <c r="K46" s="5" t="str">
-        <f t="shared" si="19"/>
-        <v>21/3/2020</v>
+        <f t="shared" si="17"/>
+        <v>20/3/2020</v>
       </c>
       <c r="L46" s="3" t="str">
-        <f t="shared" si="20"/>
-        <v>21/3/2020,21,3,2020,84,6,Ticino,nn,nnn,353709</v>
+        <f t="shared" si="18"/>
+        <v>20/3/2020,20,3,2020,196,7,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>43912</v>
+        <v>43911</v>
       </c>
       <c r="B47">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C47">
-        <v>939</v>
+        <v>918</v>
       </c>
       <c r="D47">
-        <f t="shared" si="18"/>
-        <v>21</v>
+        <f t="shared" si="16"/>
+        <v>84</v>
       </c>
       <c r="E47" t="s">
         <v>116</v>
       </c>
       <c r="G47">
-        <f t="shared" si="21"/>
-        <v>9</v>
+        <f t="shared" si="19"/>
+        <v>6</v>
       </c>
       <c r="H47">
         <v>353709</v>
       </c>
       <c r="K47" s="5" t="str">
-        <f t="shared" si="19"/>
-        <v>22/3/2020</v>
+        <f t="shared" si="17"/>
+        <v>21/3/2020</v>
       </c>
       <c r="L47" s="3" t="str">
-        <f t="shared" si="20"/>
-        <v>22/3/2020,22,3,2020,21,9,Ticino,nn,nnn,353709</v>
+        <f t="shared" si="18"/>
+        <v>21/3/2020,21,3,2020,84,6,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>43913</v>
+        <v>43912</v>
       </c>
       <c r="B48">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C48">
-        <v>1165</v>
+        <v>939</v>
       </c>
       <c r="D48">
-        <f t="shared" si="18"/>
-        <v>226</v>
+        <f t="shared" si="16"/>
+        <v>21</v>
       </c>
       <c r="E48" t="s">
         <v>116</v>
       </c>
       <c r="G48">
-        <f t="shared" si="21"/>
-        <v>11</v>
+        <f t="shared" si="19"/>
+        <v>9</v>
       </c>
       <c r="H48">
         <v>353709</v>
       </c>
       <c r="K48" s="5" t="str">
-        <f t="shared" si="19"/>
-        <v>23/3/2020</v>
+        <f t="shared" si="17"/>
+        <v>22/3/2020</v>
       </c>
       <c r="L48" s="3" t="str">
-        <f t="shared" si="20"/>
-        <v>23/3/2020,23,3,2020,226,11,Ticino,nn,nnn,353709</v>
+        <f t="shared" si="18"/>
+        <v>22/3/2020,22,3,2020,21,9,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>43914</v>
+        <v>43913</v>
       </c>
       <c r="B49">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C49">
-        <v>1211</v>
+        <v>1165</v>
       </c>
       <c r="D49">
-        <f t="shared" si="18"/>
-        <v>46</v>
+        <f t="shared" si="16"/>
+        <v>226</v>
       </c>
       <c r="E49" t="s">
         <v>116</v>
       </c>
-      <c r="F49" s="2"/>
       <c r="G49">
-        <f t="shared" si="21"/>
-        <v>5</v>
+        <f t="shared" si="19"/>
+        <v>11</v>
       </c>
       <c r="H49">
         <v>353709</v>
       </c>
       <c r="K49" s="5" t="str">
-        <f t="shared" si="19"/>
-        <v>24/3/2020</v>
+        <f t="shared" si="17"/>
+        <v>23/3/2020</v>
       </c>
       <c r="L49" s="3" t="str">
-        <f t="shared" si="20"/>
-        <v>24/3/2020,24,3,2020,46,5,Ticino,nn,nnn,353709</v>
+        <f t="shared" si="18"/>
+        <v>23/3/2020,23,3,2020,226,11,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>43915</v>
+        <v>43914</v>
       </c>
       <c r="B50">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C50">
-        <v>1343</v>
+        <v>1211</v>
       </c>
       <c r="D50">
-        <f t="shared" si="18"/>
-        <v>132</v>
+        <f t="shared" si="16"/>
+        <v>46</v>
       </c>
       <c r="E50" t="s">
         <v>116</v>
       </c>
+      <c r="F50" s="2"/>
       <c r="G50">
-        <f t="shared" si="21"/>
-        <v>7</v>
+        <f t="shared" si="19"/>
+        <v>5</v>
       </c>
       <c r="H50">
         <v>353709</v>
       </c>
       <c r="K50" s="5" t="str">
-        <f t="shared" si="19"/>
-        <v>25/3/2020</v>
+        <f t="shared" si="17"/>
+        <v>24/3/2020</v>
       </c>
       <c r="L50" s="3" t="str">
-        <f t="shared" si="20"/>
-        <v>25/3/2020,25,3,2020,132,7,Ticino,nn,nnn,353709</v>
+        <f t="shared" si="18"/>
+        <v>24/3/2020,24,3,2020,46,5,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>43916</v>
+        <v>43915</v>
       </c>
       <c r="B51">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C51">
-        <v>1401</v>
+        <v>1343</v>
       </c>
       <c r="D51">
-        <f t="shared" si="18"/>
-        <v>58</v>
+        <f t="shared" si="16"/>
+        <v>132</v>
       </c>
       <c r="E51" t="s">
         <v>116</v>
       </c>
       <c r="G51">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>7</v>
       </c>
       <c r="H51">
         <v>353709</v>
       </c>
       <c r="K51" s="5" t="str">
-        <f t="shared" si="19"/>
-        <v>26/3/2020</v>
+        <f t="shared" si="17"/>
+        <v>25/3/2020</v>
       </c>
       <c r="L51" s="3" t="str">
-        <f t="shared" si="20"/>
-        <v>26/3/2020,26,3,2020,58,7,Ticino,nn,nnn,353709</v>
+        <f t="shared" si="18"/>
+        <v>25/3/2020,25,3,2020,132,7,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>43917</v>
+        <v>43916</v>
       </c>
       <c r="B52">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C52">
-        <v>1688</v>
+        <v>1401</v>
       </c>
       <c r="D52">
-        <f t="shared" si="18"/>
-        <v>287</v>
+        <f t="shared" si="16"/>
+        <v>58</v>
       </c>
       <c r="E52" t="s">
         <v>116</v>
       </c>
       <c r="G52">
-        <f t="shared" si="21"/>
-        <v>9</v>
+        <f t="shared" si="19"/>
+        <v>7</v>
       </c>
       <c r="H52">
         <v>353709</v>
       </c>
       <c r="K52" s="5" t="str">
-        <f t="shared" si="19"/>
-        <v>27/3/2020</v>
+        <f t="shared" si="17"/>
+        <v>26/3/2020</v>
       </c>
       <c r="L52" s="3" t="str">
-        <f t="shared" si="20"/>
-        <v>27/3/2020,27,3,2020,287,9,Ticino,nn,nnn,353709</v>
+        <f t="shared" si="18"/>
+        <v>26/3/2020,26,3,2020,58,7,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>43918</v>
+        <v>43917</v>
       </c>
       <c r="B53">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C53">
-        <v>1727</v>
+        <v>1688</v>
       </c>
       <c r="D53">
-        <f t="shared" si="18"/>
-        <v>39</v>
+        <f t="shared" si="16"/>
+        <v>287</v>
       </c>
       <c r="E53" t="s">
         <v>116</v>
       </c>
       <c r="G53">
-        <f t="shared" si="21"/>
-        <v>11</v>
+        <f t="shared" si="19"/>
+        <v>9</v>
       </c>
       <c r="H53">
         <v>353709</v>
       </c>
       <c r="K53" s="5" t="str">
-        <f t="shared" si="19"/>
-        <v>28/3/2020</v>
+        <f t="shared" si="17"/>
+        <v>27/3/2020</v>
       </c>
       <c r="L53" s="3" t="str">
-        <f t="shared" si="20"/>
-        <v>28/3/2020,28,3,2020,39,11,Ticino,nn,nnn,353709</v>
+        <f t="shared" si="18"/>
+        <v>27/3/2020,27,3,2020,287,9,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>43919</v>
+        <v>43918</v>
       </c>
       <c r="B54">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C54">
-        <v>1837</v>
+        <v>1727</v>
       </c>
       <c r="D54">
-        <f t="shared" si="18"/>
-        <v>110</v>
+        <f t="shared" si="16"/>
+        <v>39</v>
       </c>
       <c r="E54" t="s">
         <v>116</v>
       </c>
       <c r="G54">
-        <f t="shared" si="21"/>
-        <v>6</v>
+        <f t="shared" si="19"/>
+        <v>11</v>
       </c>
       <c r="H54">
         <v>353709</v>
       </c>
       <c r="K54" s="5" t="str">
-        <f t="shared" si="19"/>
-        <v>29/3/2020</v>
+        <f t="shared" si="17"/>
+        <v>28/3/2020</v>
       </c>
       <c r="L54" s="3" t="str">
-        <f t="shared" si="20"/>
-        <v>29/3/2020,29,3,2020,110,6,Ticino,nn,nnn,353709</v>
+        <f t="shared" si="18"/>
+        <v>28/3/2020,28,3,2020,39,11,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>43920</v>
+        <v>43919</v>
       </c>
       <c r="B55">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C55">
-        <v>1962</v>
+        <v>1837</v>
       </c>
       <c r="D55">
-        <f t="shared" si="18"/>
-        <v>125</v>
+        <f t="shared" si="16"/>
+        <v>110</v>
       </c>
       <c r="E55" t="s">
         <v>116</v>
       </c>
       <c r="G55">
-        <f t="shared" si="21"/>
-        <v>12</v>
+        <f t="shared" si="19"/>
+        <v>6</v>
       </c>
       <c r="H55">
         <v>353709</v>
       </c>
       <c r="K55" s="5" t="str">
-        <f t="shared" si="19"/>
-        <v>30/3/2020</v>
+        <f t="shared" si="17"/>
+        <v>29/3/2020</v>
       </c>
       <c r="L55" s="3" t="str">
-        <f t="shared" si="20"/>
-        <v>30/3/2020,30,3,2020,125,12,Ticino,nn,nnn,353709</v>
+        <f t="shared" si="18"/>
+        <v>29/3/2020,29,3,2020,110,6,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>43921</v>
+        <v>43920</v>
       </c>
       <c r="B56">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="C56">
-        <v>2091</v>
+        <v>1962</v>
       </c>
       <c r="D56">
-        <f t="shared" si="18"/>
-        <v>129</v>
+        <f t="shared" si="16"/>
+        <v>125</v>
       </c>
       <c r="E56" t="s">
         <v>116</v>
       </c>
       <c r="G56">
-        <f t="shared" si="21"/>
-        <v>15</v>
+        <f t="shared" si="19"/>
+        <v>12</v>
       </c>
       <c r="H56">
         <v>353709</v>
       </c>
       <c r="K56" s="5" t="str">
-        <f t="shared" si="19"/>
-        <v>31/3/2020</v>
+        <f t="shared" si="17"/>
+        <v>30/3/2020</v>
       </c>
       <c r="L56" s="3" t="str">
-        <f t="shared" si="20"/>
-        <v>31/3/2020,31,3,2020,129,15,Ticino,nn,nnn,353709</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="18"/>
+        <v>30/3/2020,30,3,2020,125,12,Ticino,nn,nnn,353709</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>43922</v>
+        <v>43921</v>
       </c>
       <c r="B57">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="C57">
-        <v>2195</v>
+        <v>2091</v>
       </c>
       <c r="D57">
-        <f t="shared" si="18"/>
-        <v>104</v>
+        <f t="shared" si="16"/>
+        <v>129</v>
       </c>
       <c r="E57" t="s">
         <v>116</v>
       </c>
       <c r="G57">
-        <f t="shared" si="21"/>
-        <v>12</v>
+        <f t="shared" si="19"/>
+        <v>15</v>
       </c>
       <c r="H57">
         <v>353709</v>
       </c>
       <c r="K57" s="5" t="str">
-        <f t="shared" si="19"/>
-        <v>1/4/2020</v>
+        <f t="shared" si="17"/>
+        <v>31/3/2020</v>
       </c>
       <c r="L57" s="3" t="str">
-        <f t="shared" si="20"/>
-        <v>1/4/2020,1,4,2020,104,12,Ticino,nn,nnn,353709</v>
+        <f t="shared" si="18"/>
+        <v>31/3/2020,31,3,2020,129,15,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>43923</v>
-      </c>
-      <c r="B58" s="49">
-        <v>141</v>
-      </c>
-      <c r="C58" s="44">
-        <v>2271</v>
+        <v>43922</v>
+      </c>
+      <c r="B58">
+        <v>132</v>
+      </c>
+      <c r="C58">
+        <v>2195</v>
       </c>
       <c r="D58">
-        <f t="shared" si="18"/>
-        <v>76</v>
+        <f t="shared" si="16"/>
+        <v>104</v>
       </c>
       <c r="E58" t="s">
         <v>116</v>
       </c>
       <c r="G58">
-        <f t="shared" si="21"/>
-        <v>9</v>
+        <f t="shared" si="19"/>
+        <v>12</v>
       </c>
       <c r="H58">
         <v>353709</v>
       </c>
       <c r="K58" s="5" t="str">
-        <f t="shared" si="19"/>
-        <v>2/4/2020</v>
+        <f t="shared" si="17"/>
+        <v>1/4/2020</v>
       </c>
       <c r="L58" s="3" t="str">
-        <f t="shared" si="20"/>
-        <v>2/4/2020,2,4,2020,76,9,Ticino,nn,nnn,353709</v>
+        <f t="shared" si="18"/>
+        <v>1/4/2020,1,4,2020,104,12,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>43924</v>
+        <v>43923</v>
       </c>
       <c r="B59" s="49">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="C59" s="44">
-        <v>2377</v>
+        <v>2271</v>
       </c>
       <c r="D59">
-        <f t="shared" si="18"/>
-        <v>106</v>
+        <f t="shared" si="16"/>
+        <v>76</v>
       </c>
       <c r="E59" t="s">
         <v>116</v>
       </c>
       <c r="G59">
-        <f t="shared" si="21"/>
-        <v>14</v>
+        <f t="shared" si="19"/>
+        <v>9</v>
       </c>
       <c r="H59">
         <v>353709</v>
       </c>
       <c r="K59" s="5" t="str">
-        <f t="shared" si="19"/>
-        <v>3/4/2020</v>
+        <f t="shared" si="17"/>
+        <v>2/4/2020</v>
       </c>
       <c r="L59" s="3" t="str">
-        <f t="shared" si="20"/>
-        <v>3/4/2020,3,4,2020,106,14,Ticino,nn,nnn,353709</v>
+        <f t="shared" si="18"/>
+        <v>2/4/2020,2,4,2020,76,9,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>43925</v>
+        <v>43924</v>
       </c>
       <c r="B60" s="49">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C60" s="44">
-        <v>2422</v>
+        <v>2377</v>
       </c>
       <c r="D60">
-        <f t="shared" si="18"/>
-        <v>45</v>
+        <f t="shared" si="16"/>
+        <v>106</v>
       </c>
       <c r="E60" t="s">
         <v>116</v>
       </c>
       <c r="G60">
-        <f t="shared" si="21"/>
-        <v>10</v>
+        <f t="shared" si="19"/>
+        <v>14</v>
       </c>
       <c r="H60">
         <v>353709</v>
       </c>
       <c r="K60" s="5" t="str">
-        <f t="shared" si="19"/>
-        <v>4/4/2020</v>
+        <f t="shared" si="17"/>
+        <v>3/4/2020</v>
       </c>
       <c r="L60" s="3" t="str">
-        <f t="shared" si="20"/>
-        <v>4/4/2020,4,4,2020,45,10,Ticino,nn,nnn,353709</v>
+        <f t="shared" si="18"/>
+        <v>3/4/2020,3,4,2020,106,14,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>43926</v>
+        <v>43925</v>
       </c>
       <c r="B61" s="49">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="C61" s="44">
-        <v>2508</v>
+        <v>2422</v>
       </c>
       <c r="D61">
-        <f t="shared" si="18"/>
-        <v>86</v>
+        <f t="shared" si="16"/>
+        <v>45</v>
       </c>
       <c r="E61" t="s">
         <v>116</v>
       </c>
       <c r="G61">
-        <f t="shared" si="21"/>
-        <v>12</v>
+        <f t="shared" si="19"/>
+        <v>10</v>
       </c>
       <c r="H61">
         <v>353709</v>
       </c>
       <c r="K61" s="5" t="str">
-        <f t="shared" si="19"/>
-        <v>5/4/2020</v>
+        <f t="shared" si="17"/>
+        <v>4/4/2020</v>
       </c>
       <c r="L61" s="3" t="str">
-        <f>K61&amp;$L$1&amp;DAY(A61)&amp;$L$1&amp;MONTH(A61)&amp;$L$1&amp;YEAR(A61)&amp;$L$1&amp;D61&amp;$L$1&amp;G61&amp;$L$1&amp;E61&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H61</f>
-        <v>5/4/2020,5,4,2020,86,12,Ticino,nn,nnn,353709</v>
+        <f t="shared" si="18"/>
+        <v>4/4/2020,4,4,2020,45,10,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>43927</v>
-      </c>
-      <c r="B62" s="47">
-        <v>189</v>
+        <v>43926</v>
+      </c>
+      <c r="B62" s="49">
+        <v>177</v>
       </c>
       <c r="C62" s="44">
-        <v>2546</v>
+        <v>2508</v>
       </c>
       <c r="D62">
-        <f t="shared" si="18"/>
-        <v>38</v>
+        <f t="shared" si="16"/>
+        <v>86</v>
       </c>
       <c r="E62" t="s">
         <v>116</v>
       </c>
       <c r="G62">
-        <f t="shared" ref="G62:G63" si="22">B62-B61</f>
+        <f t="shared" si="19"/>
         <v>12</v>
       </c>
       <c r="H62">
         <v>353709</v>
       </c>
       <c r="K62" s="5" t="str">
-        <f t="shared" ref="K62" si="23">DAY(A62)&amp;"/"&amp;MONTH(A62)&amp;"/"&amp;YEAR(A62)</f>
-        <v>6/4/2020</v>
+        <f t="shared" si="17"/>
+        <v>5/4/2020</v>
       </c>
       <c r="L62" s="3" t="str">
-        <f t="shared" ref="L62" si="24">K62&amp;$L$1&amp;DAY(A62)&amp;$L$1&amp;MONTH(A62)&amp;$L$1&amp;YEAR(A62)&amp;$L$1&amp;D62&amp;$L$1&amp;G62&amp;$L$1&amp;E62&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H62</f>
-        <v>6/4/2020,6,4,2020,38,12,Ticino,nn,nnn,353709</v>
+        <f>K62&amp;$L$1&amp;DAY(A62)&amp;$L$1&amp;MONTH(A62)&amp;$L$1&amp;YEAR(A62)&amp;$L$1&amp;D62&amp;$L$1&amp;G62&amp;$L$1&amp;E62&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H62</f>
+        <v>5/4/2020,5,4,2020,86,12,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>43928</v>
-      </c>
-      <c r="B63" s="59">
-        <v>198</v>
+        <v>43927</v>
+      </c>
+      <c r="B63" s="47">
+        <v>189</v>
       </c>
       <c r="C63" s="44">
-        <v>2599</v>
+        <v>2546</v>
       </c>
       <c r="D63">
-        <f t="shared" ref="D63" si="25">C63-C62</f>
-        <v>53</v>
+        <f t="shared" si="16"/>
+        <v>38</v>
       </c>
       <c r="E63" t="s">
         <v>116</v>
       </c>
       <c r="G63">
-        <f t="shared" si="22"/>
-        <v>9</v>
+        <f t="shared" ref="G63:G64" si="20">B63-B62</f>
+        <v>12</v>
       </c>
       <c r="H63">
         <v>353709</v>
       </c>
       <c r="K63" s="5" t="str">
-        <f t="shared" ref="K63" si="26">DAY(A63)&amp;"/"&amp;MONTH(A63)&amp;"/"&amp;YEAR(A63)</f>
-        <v>7/4/2020</v>
+        <f t="shared" ref="K63" si="21">DAY(A63)&amp;"/"&amp;MONTH(A63)&amp;"/"&amp;YEAR(A63)</f>
+        <v>6/4/2020</v>
       </c>
       <c r="L63" s="3" t="str">
-        <f t="shared" ref="L63" si="27">K63&amp;$L$1&amp;DAY(A63)&amp;$L$1&amp;MONTH(A63)&amp;$L$1&amp;YEAR(A63)&amp;$L$1&amp;D63&amp;$L$1&amp;G63&amp;$L$1&amp;E63&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H63</f>
-        <v>7/4/2020,7,4,2020,53,9,Ticino,nn,nnn,353709</v>
+        <f t="shared" ref="L63" si="22">K63&amp;$L$1&amp;DAY(A63)&amp;$L$1&amp;MONTH(A63)&amp;$L$1&amp;YEAR(A63)&amp;$L$1&amp;D63&amp;$L$1&amp;G63&amp;$L$1&amp;E63&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H63</f>
+        <v>6/4/2020,6,4,2020,38,12,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>43929</v>
-      </c>
-      <c r="B64" s="47">
-        <v>211</v>
+        <v>43928</v>
+      </c>
+      <c r="B64" s="59">
+        <v>198</v>
       </c>
       <c r="C64" s="44">
-        <v>2659</v>
+        <v>2599</v>
       </c>
       <c r="D64">
-        <f t="shared" ref="D64" si="28">C64-C63</f>
-        <v>60</v>
+        <f t="shared" ref="D64" si="23">C64-C63</f>
+        <v>53</v>
       </c>
       <c r="E64" t="s">
         <v>116</v>
       </c>
       <c r="G64">
-        <f t="shared" ref="G64" si="29">B64-B63</f>
+        <f t="shared" si="20"/>
+        <v>9</v>
+      </c>
+      <c r="H64">
+        <v>353709</v>
+      </c>
+      <c r="K64" s="5" t="str">
+        <f t="shared" ref="K64" si="24">DAY(A64)&amp;"/"&amp;MONTH(A64)&amp;"/"&amp;YEAR(A64)</f>
+        <v>7/4/2020</v>
+      </c>
+      <c r="L64" s="3" t="str">
+        <f t="shared" ref="L64" si="25">K64&amp;$L$1&amp;DAY(A64)&amp;$L$1&amp;MONTH(A64)&amp;$L$1&amp;YEAR(A64)&amp;$L$1&amp;D64&amp;$L$1&amp;G64&amp;$L$1&amp;E64&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H64</f>
+        <v>7/4/2020,7,4,2020,53,9,Ticino,nn,nnn,353709</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>43929</v>
+      </c>
+      <c r="B65" s="47">
+        <v>211</v>
+      </c>
+      <c r="C65" s="44">
+        <v>2659</v>
+      </c>
+      <c r="D65">
+        <f t="shared" ref="D65" si="26">C65-C64</f>
+        <v>60</v>
+      </c>
+      <c r="E65" t="s">
+        <v>116</v>
+      </c>
+      <c r="G65">
+        <f t="shared" ref="G65" si="27">B65-B64</f>
         <v>13</v>
       </c>
-      <c r="H64">
+      <c r="H65">
         <v>353710</v>
       </c>
-      <c r="K64" s="5" t="str">
-        <f t="shared" ref="K64" si="30">DAY(A64)&amp;"/"&amp;MONTH(A64)&amp;"/"&amp;YEAR(A64)</f>
+      <c r="K65" s="5" t="str">
+        <f t="shared" ref="K65" si="28">DAY(A65)&amp;"/"&amp;MONTH(A65)&amp;"/"&amp;YEAR(A65)</f>
         <v>8/4/2020</v>
       </c>
-      <c r="L64" s="3" t="str">
-        <f t="shared" ref="L64" si="31">K64&amp;$L$1&amp;DAY(A64)&amp;$L$1&amp;MONTH(A64)&amp;$L$1&amp;YEAR(A64)&amp;$L$1&amp;D64&amp;$L$1&amp;G64&amp;$L$1&amp;E64&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H64</f>
+      <c r="L65" s="3" t="str">
+        <f t="shared" ref="L65" si="29">K65&amp;$L$1&amp;DAY(A65)&amp;$L$1&amp;MONTH(A65)&amp;$L$1&amp;YEAR(A65)&amp;$L$1&amp;D65&amp;$L$1&amp;G65&amp;$L$1&amp;E65&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H65</f>
         <v>8/4/2020,8,4,2020,60,13,Ticino,nn,nnn,353710</v>
       </c>
     </row>
-    <row r="65" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="57"/>
-      <c r="C65" s="57"/>
+    <row r="66" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B66" s="47">
+        <v>219</v>
+      </c>
+      <c r="C66" s="55">
+        <v>2714</v>
+      </c>
+      <c r="D66">
+        <f t="shared" ref="D66" si="30">C66-C65</f>
+        <v>55</v>
+      </c>
+      <c r="E66" t="s">
+        <v>116</v>
+      </c>
+      <c r="G66">
+        <f t="shared" ref="G66" si="31">B66-B65</f>
+        <v>8</v>
+      </c>
+      <c r="H66">
+        <v>353711</v>
+      </c>
+      <c r="K66" s="5" t="str">
+        <f t="shared" ref="K66" si="32">DAY(A66)&amp;"/"&amp;MONTH(A66)&amp;"/"&amp;YEAR(A66)</f>
+        <v>9/4/2020</v>
+      </c>
+      <c r="L66" s="3" t="str">
+        <f t="shared" ref="L66" si="33">K66&amp;$L$1&amp;DAY(A66)&amp;$L$1&amp;MONTH(A66)&amp;$L$1&amp;YEAR(A66)&amp;$L$1&amp;D66&amp;$L$1&amp;G66&amp;$L$1&amp;E66&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H66</f>
+        <v>9/4/2020,9,4,2020,55,8,Ticino,nn,nnn,353711</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:F50">
+  <autoFilter ref="A3:F51">
     <sortState ref="A4:G23">
       <sortCondition ref="E3:E20"/>
     </sortState>
@@ -5053,11 +5120,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BD63"/>
+  <dimension ref="A1:BD64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AW12" sqref="AW12"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BD3" sqref="BD3:BD47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10146,7 +10213,7 @@
       <c r="U31" s="55">
         <v>87</v>
       </c>
-      <c r="V31" s="44">
+      <c r="V31" s="55">
         <v>1211</v>
       </c>
       <c r="W31" s="55">
@@ -10344,7 +10411,7 @@
       <c r="U32" s="57">
         <v>96</v>
       </c>
-      <c r="V32" s="44">
+      <c r="V32" s="57">
         <v>1354</v>
       </c>
       <c r="W32" s="57"/>
@@ -10540,7 +10607,7 @@
       <c r="U33" s="55">
         <v>110</v>
       </c>
-      <c r="V33" s="44">
+      <c r="V33" s="55">
         <v>1401</v>
       </c>
       <c r="W33" s="55">
@@ -10736,7 +10803,7 @@
       <c r="U34" s="57">
         <v>117</v>
       </c>
-      <c r="V34" s="44">
+      <c r="V34" s="57">
         <v>1688</v>
       </c>
       <c r="W34" s="57">
@@ -10928,7 +10995,7 @@
       <c r="U35" s="55">
         <v>134</v>
       </c>
-      <c r="V35" s="44">
+      <c r="V35" s="55">
         <v>1727</v>
       </c>
       <c r="W35" s="55">
@@ -11114,7 +11181,7 @@
       <c r="U36" s="57">
         <v>138</v>
       </c>
-      <c r="V36" s="44">
+      <c r="V36" s="57">
         <v>1837</v>
       </c>
       <c r="W36" s="57">
@@ -11308,7 +11375,7 @@
       <c r="U37" s="55">
         <v>148</v>
       </c>
-      <c r="V37" s="44">
+      <c r="V37" s="55">
         <v>1962</v>
       </c>
       <c r="W37" s="55">
@@ -11506,7 +11573,7 @@
       <c r="U38" s="57">
         <v>154</v>
       </c>
-      <c r="V38" s="44">
+      <c r="V38" s="57">
         <v>2091</v>
       </c>
       <c r="W38" s="57">
@@ -11702,7 +11769,7 @@
       <c r="U39" s="55">
         <v>166</v>
       </c>
-      <c r="V39" s="44">
+      <c r="V39" s="55">
         <v>2195</v>
       </c>
       <c r="W39" s="55">
@@ -11900,7 +11967,7 @@
       <c r="U40" s="57">
         <v>179</v>
       </c>
-      <c r="V40" s="44">
+      <c r="V40" s="57">
         <v>2271</v>
       </c>
       <c r="W40" s="57">
@@ -12098,7 +12165,7 @@
       <c r="U41" s="55">
         <v>198</v>
       </c>
-      <c r="V41" s="44">
+      <c r="V41" s="55">
         <v>2377</v>
       </c>
       <c r="W41" s="55">
@@ -12288,7 +12355,7 @@
       <c r="U42" s="57">
         <v>208</v>
       </c>
-      <c r="V42" s="44">
+      <c r="V42" s="57">
         <v>2422</v>
       </c>
       <c r="W42" s="57">
@@ -12478,7 +12545,7 @@
       <c r="U43" s="55">
         <v>213</v>
       </c>
-      <c r="V43" s="44">
+      <c r="V43" s="55">
         <v>2508</v>
       </c>
       <c r="W43" s="55">
@@ -12674,7 +12741,7 @@
       <c r="U44" s="57">
         <v>219</v>
       </c>
-      <c r="V44" s="44">
+      <c r="V44" s="57">
         <v>2546</v>
       </c>
       <c r="W44" s="57">
@@ -12872,7 +12939,7 @@
       <c r="U45" s="55">
         <v>221</v>
       </c>
-      <c r="V45" s="44">
+      <c r="V45" s="55">
         <v>2599</v>
       </c>
       <c r="W45" s="55">
@@ -12947,7 +13014,7 @@
       </c>
       <c r="AP45" s="3" t="str">
         <f>$AC45&amp;$AC$1&amp;N45&amp;$AC$1&amp;fatalities!N46&amp;$AC$1&amp;N$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;N$2</f>
-        <v>7/4/2020,7,4,2020,492,,NE,nn,nnn,176850</v>
+        <v>7/4/2020,7,4,2020,492,33,NE,nn,nnn,176850</v>
       </c>
       <c r="AQ45" s="3" t="str">
         <f>$AC45&amp;$AC$1&amp;O45&amp;$AC$1&amp;fatalities!O46&amp;$AC$1&amp;O$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;O$2</f>
@@ -13003,7 +13070,7 @@
       </c>
       <c r="BD45" s="3" t="str">
         <f>$AC45&amp;$AC$1&amp;AB45&amp;$AC$1&amp;fatalities!AB46&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2</f>
-        <v>7/4/2020,7,4,2020,22841,856,CH,nn,nnn,8543707</v>
+        <v>7/4/2020,7,4,2020,22841,859,CH,nn,nnn,8543707</v>
       </c>
     </row>
     <row r="46" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -13031,18 +13098,24 @@
       <c r="H46" s="57">
         <v>756</v>
       </c>
-      <c r="I46" s="57"/>
+      <c r="I46" s="57">
+        <v>4216</v>
+      </c>
       <c r="J46" s="57">
         <v>64</v>
       </c>
-      <c r="K46" s="57"/>
+      <c r="K46" s="57">
+        <v>680</v>
+      </c>
       <c r="L46" s="57">
         <v>174</v>
       </c>
       <c r="M46" s="57">
         <v>527</v>
       </c>
-      <c r="N46" s="57"/>
+      <c r="N46" s="57">
+        <v>516</v>
+      </c>
       <c r="O46" s="57">
         <v>93</v>
       </c>
@@ -13064,13 +13137,15 @@
       <c r="U46" s="57">
         <v>236</v>
       </c>
-      <c r="V46" s="44">
+      <c r="V46" s="57">
         <v>2659</v>
       </c>
       <c r="W46" s="57">
         <v>72</v>
       </c>
-      <c r="X46" s="57"/>
+      <c r="X46" s="57">
+        <v>4315</v>
+      </c>
       <c r="Y46" s="57">
         <v>1484</v>
       </c>
@@ -13081,7 +13156,7 @@
         <v>2807</v>
       </c>
       <c r="AB46" s="57">
-        <v>23280</v>
+        <v>23619</v>
       </c>
       <c r="AC46" s="15" t="str">
         <f t="shared" ref="AC46" si="10">DAY(A46)&amp;"/"&amp;MONTH(A46)&amp;"/"&amp;YEAR(A46)&amp;$AC$1&amp;DAY(A46)&amp;$AC$1&amp;MONTH(A46)&amp;$AC$1&amp;YEAR(A46)</f>
@@ -13117,7 +13192,7 @@
       </c>
       <c r="AK46" s="3" t="str">
         <f>$AC46&amp;$AC$1&amp;I46&amp;$AC$1&amp;fatalities!I47&amp;$AC$1&amp;I$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;I$2</f>
-        <v>8/4/2020,8,4,2020,,,GE,nn,nnn,499480</v>
+        <v>8/4/2020,8,4,2020,4216,125,GE,nn,nnn,499480</v>
       </c>
       <c r="AL46" s="3" t="str">
         <f>$AC46&amp;$AC$1&amp;J46&amp;$AC$1&amp;fatalities!J47&amp;$AC$1&amp;J$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;J$2</f>
@@ -13125,7 +13200,7 @@
       </c>
       <c r="AM46" s="3" t="str">
         <f>$AC46&amp;$AC$1&amp;K46&amp;$AC$1&amp;fatalities!K47&amp;$AC$1&amp;K$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;K$2</f>
-        <v>8/4/2020,8,4,2020,,,GR,nn,nnn,198379</v>
+        <v>8/4/2020,8,4,2020,680,35,GR,nn,nnn,198379</v>
       </c>
       <c r="AN46" s="3" t="str">
         <f>$AC46&amp;$AC$1&amp;L46&amp;$AC$1&amp;fatalities!L47&amp;$AC$1&amp;L$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;L$2</f>
@@ -13137,7 +13212,7 @@
       </c>
       <c r="AP46" s="3" t="str">
         <f>$AC46&amp;$AC$1&amp;N46&amp;$AC$1&amp;fatalities!N47&amp;$AC$1&amp;N$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;N$2</f>
-        <v>8/4/2020,8,4,2020,,,NE,nn,nnn,176850</v>
+        <v>8/4/2020,8,4,2020,516,34,NE,nn,nnn,176850</v>
       </c>
       <c r="AQ46" s="3" t="str">
         <f>$AC46&amp;$AC$1&amp;O46&amp;$AC$1&amp;fatalities!O47&amp;$AC$1&amp;O$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;O$2</f>
@@ -13177,7 +13252,7 @@
       </c>
       <c r="AZ46" s="3" t="str">
         <f>$AC46&amp;$AC$1&amp;X46&amp;$AC$1&amp;fatalities!X47&amp;$AC$1&amp;X$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;X$2</f>
-        <v>8/4/2020,8,4,2020,,,VD,nn,nnn,799145</v>
+        <v>8/4/2020,8,4,2020,4315,185,VD,nn,nnn,799145</v>
       </c>
       <c r="BA46" s="3" t="str">
         <f>$AC46&amp;$AC$1&amp;Y46&amp;$AC$1&amp;fatalities!Y47&amp;$AC$1&amp;Y$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Y$2</f>
@@ -13193,42 +13268,200 @@
       </c>
       <c r="BD46" s="3" t="str">
         <f>$AC46&amp;$AC$1&amp;AB46&amp;$AC$1&amp;fatalities!AB47&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2</f>
-        <v>8/4/2020,8,4,2020,23280,895,CH,nn,nnn,8543707</v>
+        <v>8/4/2020,8,4,2020,23619,920,CH,nn,nnn,8543707</v>
       </c>
     </row>
     <row r="47" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="56"/>
-      <c r="C47" s="57"/>
-      <c r="D47" s="57"/>
-      <c r="E47" s="57"/>
-      <c r="F47" s="57"/>
-      <c r="G47" s="57"/>
-      <c r="H47" s="57"/>
-      <c r="I47" s="57"/>
-      <c r="J47" s="57"/>
-      <c r="K47" s="57"/>
-      <c r="L47" s="57"/>
-      <c r="M47" s="57"/>
-      <c r="N47" s="57"/>
-      <c r="O47" s="57"/>
-      <c r="P47" s="57"/>
-      <c r="Q47" s="57"/>
-      <c r="R47" s="57"/>
-      <c r="S47" s="57"/>
-      <c r="T47" s="57"/>
-      <c r="U47" s="57"/>
-      <c r="V47" s="57"/>
-      <c r="W47" s="57"/>
-      <c r="X47" s="57"/>
-      <c r="Y47" s="57"/>
-      <c r="Z47" s="57"/>
-      <c r="AA47" s="57"/>
-      <c r="AB47" s="57"/>
-      <c r="AC47" s="57"/>
-      <c r="AD47" s="10"/>
+      <c r="A47" s="54">
+        <v>43930</v>
+      </c>
+      <c r="B47" s="55">
+        <v>822</v>
+      </c>
+      <c r="C47" s="55">
+        <v>24</v>
+      </c>
+      <c r="D47" s="55">
+        <v>74</v>
+      </c>
+      <c r="E47" s="55">
+        <v>1335</v>
+      </c>
+      <c r="F47" s="55">
+        <v>711</v>
+      </c>
+      <c r="G47" s="55">
+        <v>846</v>
+      </c>
+      <c r="H47" s="55">
+        <v>786</v>
+      </c>
+      <c r="I47" s="55"/>
+      <c r="J47" s="55">
+        <v>67</v>
+      </c>
+      <c r="K47" s="55"/>
+      <c r="L47" s="55">
+        <v>179</v>
+      </c>
+      <c r="M47" s="55">
+        <v>542</v>
+      </c>
+      <c r="N47" s="55"/>
+      <c r="O47" s="55">
+        <v>96</v>
+      </c>
+      <c r="P47" s="55">
+        <v>62</v>
+      </c>
+      <c r="Q47" s="55">
+        <v>604</v>
+      </c>
+      <c r="R47" s="55">
+        <v>52</v>
+      </c>
+      <c r="S47" s="55">
+        <v>282</v>
+      </c>
+      <c r="T47" s="55">
+        <v>213</v>
+      </c>
+      <c r="U47" s="55">
+        <v>255</v>
+      </c>
+      <c r="V47" s="55">
+        <v>2714</v>
+      </c>
+      <c r="W47" s="55">
+        <v>72</v>
+      </c>
+      <c r="X47" s="55"/>
+      <c r="Y47" s="55">
+        <v>1525</v>
+      </c>
+      <c r="Z47" s="55">
+        <v>165</v>
+      </c>
+      <c r="AA47" s="55">
+        <v>2898</v>
+      </c>
+      <c r="AB47" s="55">
+        <v>24051</v>
+      </c>
+      <c r="AC47" s="15" t="str">
+        <f t="shared" ref="AC47" si="11">DAY(A47)&amp;"/"&amp;MONTH(A47)&amp;"/"&amp;YEAR(A47)&amp;$AC$1&amp;DAY(A47)&amp;$AC$1&amp;MONTH(A47)&amp;$AC$1&amp;YEAR(A47)</f>
+        <v>9/4/2020,9,4,2020</v>
+      </c>
+      <c r="AD47" s="3" t="str">
+        <f>$AC47&amp;$AC$1&amp;B47&amp;$AC$1&amp;fatalities!B48&amp;$AC$1&amp;B$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;B$2</f>
+        <v>9/4/2020,9,4,2020,822,17,AG,nn,nnn,677387</v>
+      </c>
+      <c r="AE47" s="3" t="str">
+        <f>$AC47&amp;$AC$1&amp;C47&amp;$AC$1&amp;fatalities!C48&amp;$AC$1&amp;C$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;C$2</f>
+        <v>9/4/2020,9,4,2020,24,,AI,nn,nnn,16145</v>
+      </c>
+      <c r="AF47" s="3" t="str">
+        <f>$AC47&amp;$AC$1&amp;D47&amp;$AC$1&amp;fatalities!D48&amp;$AC$1&amp;D$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;D$2</f>
+        <v>9/4/2020,9,4,2020,74,3,AR,nn,nnn,55234</v>
+      </c>
+      <c r="AG47" s="3" t="str">
+        <f>$AC47&amp;$AC$1&amp;E47&amp;$AC$1&amp;fatalities!E48&amp;$AC$1&amp;E$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;E$2</f>
+        <v>9/4/2020,9,4,2020,1335,38,BE,nn,nnn,1034977</v>
+      </c>
+      <c r="AH47" s="3" t="str">
+        <f>$AC47&amp;$AC$1&amp;F47&amp;$AC$1&amp;fatalities!F48&amp;$AC$1&amp;F$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;F$2</f>
+        <v>9/4/2020,9,4,2020,711,21,BL,nn,nnn,288132</v>
+      </c>
+      <c r="AI47" s="3" t="str">
+        <f>$AC47&amp;$AC$1&amp;G47&amp;$AC$1&amp;fatalities!G48&amp;$AC$1&amp;G$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;G$2</f>
+        <v>9/4/2020,9,4,2020,846,33,BS,nn,nnn,194766</v>
+      </c>
+      <c r="AJ47" s="3" t="str">
+        <f>$AC47&amp;$AC$1&amp;H47&amp;$AC$1&amp;fatalities!H48&amp;$AC$1&amp;H$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;H$2</f>
+        <v>9/4/2020,9,4,2020,786,46,FR,nn,nnn,318714</v>
+      </c>
+      <c r="AK47" s="3" t="str">
+        <f>$AC47&amp;$AC$1&amp;I47&amp;$AC$1&amp;fatalities!I48&amp;$AC$1&amp;I$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;I$2</f>
+        <v>9/4/2020,9,4,2020,,,GE,nn,nnn,499480</v>
+      </c>
+      <c r="AL47" s="3" t="str">
+        <f>$AC47&amp;$AC$1&amp;J47&amp;$AC$1&amp;fatalities!J48&amp;$AC$1&amp;J$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;J$2</f>
+        <v>9/4/2020,9,4,2020,67,2,GL,nn,nnn,40403</v>
+      </c>
+      <c r="AM47" s="3" t="str">
+        <f>$AC47&amp;$AC$1&amp;K47&amp;$AC$1&amp;fatalities!K48&amp;$AC$1&amp;K$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;K$2</f>
+        <v>9/4/2020,9,4,2020,,,GR,nn,nnn,198379</v>
+      </c>
+      <c r="AN47" s="3" t="str">
+        <f>$AC47&amp;$AC$1&amp;L47&amp;$AC$1&amp;fatalities!L48&amp;$AC$1&amp;L$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;L$2</f>
+        <v>9/4/2020,9,4,2020,179,,JU,nn,nnn,73419</v>
+      </c>
+      <c r="AO47" s="3" t="str">
+        <f>$AC47&amp;$AC$1&amp;M47&amp;$AC$1&amp;fatalities!M48&amp;$AC$1&amp;M$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;M$2</f>
+        <v>9/4/2020,9,4,2020,542,9,LU,nn,nnn,409557</v>
+      </c>
+      <c r="AP47" s="3" t="str">
+        <f>$AC47&amp;$AC$1&amp;N47&amp;$AC$1&amp;fatalities!N48&amp;$AC$1&amp;N$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;N$2</f>
+        <v>9/4/2020,9,4,2020,,,NE,nn,nnn,176850</v>
+      </c>
+      <c r="AQ47" s="3" t="str">
+        <f>$AC47&amp;$AC$1&amp;O47&amp;$AC$1&amp;fatalities!O48&amp;$AC$1&amp;O$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;O$2</f>
+        <v>9/4/2020,9,4,2020,96,0,NW,nn,nnn,43223</v>
+      </c>
+      <c r="AR47" s="3" t="str">
+        <f>$AC47&amp;$AC$1&amp;P47&amp;$AC$1&amp;fatalities!P48&amp;$AC$1&amp;P$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;P$2</f>
+        <v>9/4/2020,9,4,2020,62,0,OW,nn,nnn,37841</v>
+      </c>
+      <c r="AS47" s="3" t="str">
+        <f>$AC47&amp;$AC$1&amp;Q47&amp;$AC$1&amp;fatalities!Q48&amp;$AC$1&amp;Q$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Q$2</f>
+        <v>9/4/2020,9,4,2020,604,16,SG,nn,nnn,507697</v>
+      </c>
+      <c r="AT47" s="3" t="str">
+        <f>$AC47&amp;$AC$1&amp;R47&amp;$AC$1&amp;fatalities!R48&amp;$AC$1&amp;R$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;R$2</f>
+        <v>9/4/2020,9,4,2020,52,1,SH,nn,nnn,81991</v>
+      </c>
+      <c r="AU47" s="3" t="str">
+        <f>$AC47&amp;$AC$1&amp;S47&amp;$AC$1&amp;fatalities!S48&amp;$AC$1&amp;S$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;S$2</f>
+        <v>9/4/2020,9,4,2020,282,5,SO,nn,nnn,273194</v>
+      </c>
+      <c r="AV47" s="3" t="str">
+        <f>$AC47&amp;$AC$1&amp;T47&amp;$AC$1&amp;fatalities!T48&amp;$AC$1&amp;T$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;T$2</f>
+        <v>9/4/2020,9,4,2020,213,9,SZ,nn,nnn,159165</v>
+      </c>
+      <c r="AW47" s="3" t="str">
+        <f>$AC47&amp;$AC$1&amp;U47&amp;$AC$1&amp;fatalities!U48&amp;$AC$1&amp;U$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;U$2</f>
+        <v>9/4/2020,9,4,2020,255,8,TG,nn,nnn,276472</v>
+      </c>
+      <c r="AX47" s="3" t="str">
+        <f>$AC47&amp;$AC$1&amp;V47&amp;$AC$1&amp;fatalities!V48&amp;$AC$1&amp;V$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;V$2</f>
+        <v>9/4/2020,9,4,2020,2714,219,TI,nn,nnn,353343</v>
+      </c>
+      <c r="AY47" s="3" t="str">
+        <f>$AC47&amp;$AC$1&amp;W47&amp;$AC$1&amp;fatalities!W48&amp;$AC$1&amp;W$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;W$2</f>
+        <v>9/4/2020,9,4,2020,72,4,UR,nn,nnn,36433</v>
+      </c>
+      <c r="AZ47" s="3" t="str">
+        <f>$AC47&amp;$AC$1&amp;X47&amp;$AC$1&amp;fatalities!X48&amp;$AC$1&amp;X$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;X$2</f>
+        <v>9/4/2020,9,4,2020,,,VD,nn,nnn,799145</v>
+      </c>
+      <c r="BA47" s="3" t="str">
+        <f>$AC47&amp;$AC$1&amp;Y47&amp;$AC$1&amp;fatalities!Y48&amp;$AC$1&amp;Y$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Y$2</f>
+        <v>9/4/2020,9,4,2020,1525,73,VS,nn,nnn,343955</v>
+      </c>
+      <c r="BB47" s="3" t="str">
+        <f>$AC47&amp;$AC$1&amp;Z47&amp;$AC$1&amp;fatalities!Z48&amp;$AC$1&amp;Z$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Z$2</f>
+        <v>9/4/2020,9,4,2020,165,3,ZG,nn,nnn,126837</v>
+      </c>
+      <c r="BC47" s="3" t="str">
+        <f>$AC47&amp;$AC$1&amp;AA47&amp;$AC$1&amp;fatalities!AA48&amp;$AC$1&amp;AA$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AA$2</f>
+        <v>9/4/2020,9,4,2020,2898,62,ZH,nn,nnn,1520968</v>
+      </c>
+      <c r="BD47" s="3" t="str">
+        <f>$AC47&amp;$AC$1&amp;AB47&amp;$AC$1&amp;fatalities!AB48&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2</f>
+        <v>9/4/2020,9,4,2020,24051,948,CH,nn,nnn,8543707</v>
+      </c>
     </row>
     <row r="48" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="58"/>
       <c r="B48" s="54"/>
       <c r="C48" s="55"/>
       <c r="D48" s="55"/>
@@ -13257,6 +13490,7 @@
       <c r="AA48" s="55"/>
       <c r="AB48" s="55"/>
       <c r="AC48" s="55"/>
+      <c r="AD48" s="10"/>
     </row>
     <row r="49" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="58"/>
@@ -13723,3183 +13957,6 @@
       <c r="AB63" s="57"/>
       <c r="AC63" s="57"/>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE66"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V47" sqref="V47"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9.875" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="21" width="7.25" style="18" customWidth="1"/>
-    <col min="22" max="22" width="7.25" style="48" customWidth="1"/>
-    <col min="23" max="26" width="7.25" style="18" customWidth="1"/>
-    <col min="27" max="28" width="8.625" style="18" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9" style="18"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="L1" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="M1" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="N1" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="O1" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="P1" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q1" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="R1" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="S1" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="T1" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="U1" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="V1" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="W1" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="X1" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y1" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z1" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA1" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB1" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC1" s="17"/>
-    </row>
-    <row r="2" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
-      <c r="B2" s="37">
-        <v>677387</v>
-      </c>
-      <c r="C2" s="32">
-        <v>16145</v>
-      </c>
-      <c r="D2" s="24">
-        <v>55234</v>
-      </c>
-      <c r="E2" s="32">
-        <v>1034977</v>
-      </c>
-      <c r="F2" s="24">
-        <v>288132</v>
-      </c>
-      <c r="G2" s="32">
-        <v>194766</v>
-      </c>
-      <c r="H2" s="24">
-        <v>318714</v>
-      </c>
-      <c r="I2" s="32">
-        <v>499480</v>
-      </c>
-      <c r="J2" s="24">
-        <v>40403</v>
-      </c>
-      <c r="K2" s="32">
-        <v>198379</v>
-      </c>
-      <c r="L2" s="24">
-        <v>73419</v>
-      </c>
-      <c r="M2" s="32">
-        <v>409557</v>
-      </c>
-      <c r="N2" s="24">
-        <v>176850</v>
-      </c>
-      <c r="O2" s="32">
-        <v>43223</v>
-      </c>
-      <c r="P2" s="24">
-        <v>37841</v>
-      </c>
-      <c r="Q2" s="32">
-        <v>507697</v>
-      </c>
-      <c r="R2" s="24">
-        <v>81991</v>
-      </c>
-      <c r="S2" s="32">
-        <v>273194</v>
-      </c>
-      <c r="T2" s="24">
-        <v>159165</v>
-      </c>
-      <c r="U2" s="32">
-        <v>276472</v>
-      </c>
-      <c r="V2" s="42">
-        <v>353343</v>
-      </c>
-      <c r="W2" s="32">
-        <v>36433</v>
-      </c>
-      <c r="X2" s="24">
-        <v>799145</v>
-      </c>
-      <c r="Y2" s="32">
-        <v>343955</v>
-      </c>
-      <c r="Z2" s="24">
-        <v>126837</v>
-      </c>
-      <c r="AA2" s="32">
-        <v>1520968</v>
-      </c>
-      <c r="AB2" s="50">
-        <f>SUM(B2:AA2)</f>
-        <v>8543707</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
-      <c r="B3" s="51">
-        <f t="shared" ref="B3:AB3" si="0">B42/B2</f>
-        <v>1.7715131822724674E-5</v>
-      </c>
-      <c r="C3" s="51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D3" s="51">
-        <f t="shared" si="0"/>
-        <v>5.4314371582720785E-5</v>
-      </c>
-      <c r="E3" s="51">
-        <f t="shared" si="0"/>
-        <v>2.5121331198664318E-5</v>
-      </c>
-      <c r="F3" s="51">
-        <f t="shared" si="0"/>
-        <v>4.85888412255494E-5</v>
-      </c>
-      <c r="G3" s="52">
-        <f t="shared" si="0"/>
-        <v>1.0782169372477742E-4</v>
-      </c>
-      <c r="H3" s="52">
-        <f t="shared" si="0"/>
-        <v>9.7265887284524687E-5</v>
-      </c>
-      <c r="I3" s="52">
-        <f t="shared" si="0"/>
-        <v>1.6016657323616562E-4</v>
-      </c>
-      <c r="J3" s="51">
-        <f t="shared" si="0"/>
-        <v>4.9501274657822438E-5</v>
-      </c>
-      <c r="K3" s="52">
-        <f t="shared" si="0"/>
-        <v>1.3610311575317952E-4</v>
-      </c>
-      <c r="L3" s="51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M3" s="51">
-        <f t="shared" si="0"/>
-        <v>1.7091638038172954E-5</v>
-      </c>
-      <c r="N3" s="52">
-        <f t="shared" si="0"/>
-        <v>1.3005371783997738E-4</v>
-      </c>
-      <c r="O3" s="51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P3" s="51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q3" s="51">
-        <f t="shared" si="0"/>
-        <v>1.575743012072161E-5</v>
-      </c>
-      <c r="R3" s="51">
-        <f t="shared" si="0"/>
-        <v>1.2196460587137613E-5</v>
-      </c>
-      <c r="S3" s="51">
-        <f t="shared" si="0"/>
-        <v>1.0981207493575993E-5</v>
-      </c>
-      <c r="T3" s="51">
-        <f t="shared" si="0"/>
-        <v>2.5131153205792732E-5</v>
-      </c>
-      <c r="U3" s="51">
-        <f t="shared" si="0"/>
-        <v>1.8085014033970889E-5</v>
-      </c>
-      <c r="V3" s="53">
-        <f t="shared" si="0"/>
-        <v>4.3866724400936198E-4</v>
-      </c>
-      <c r="W3" s="51">
-        <f t="shared" si="0"/>
-        <v>2.744764361979524E-5</v>
-      </c>
-      <c r="X3" s="52">
-        <f t="shared" si="0"/>
-        <v>1.5391449611772582E-4</v>
-      </c>
-      <c r="Y3" s="52">
-        <f t="shared" si="0"/>
-        <v>1.3083106801761859E-4</v>
-      </c>
-      <c r="Z3" s="51">
-        <f t="shared" si="0"/>
-        <v>1.5768269511262485E-5</v>
-      </c>
-      <c r="AA3" s="51">
-        <f t="shared" si="0"/>
-        <v>2.4984089080112139E-5</v>
-      </c>
-      <c r="AB3" s="51">
-        <f t="shared" si="0"/>
-        <v>7.3855528987592855E-5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20">
-        <v>43886</v>
-      </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="47"/>
-      <c r="W4" s="21"/>
-      <c r="X4" s="21"/>
-      <c r="Y4" s="21"/>
-      <c r="Z4" s="21"/>
-      <c r="AA4" s="21"/>
-      <c r="AB4" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22">
-        <v>43887</v>
-      </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="23"/>
-      <c r="U5" s="23"/>
-      <c r="V5" s="47"/>
-      <c r="W5" s="23"/>
-      <c r="X5" s="23"/>
-      <c r="Y5" s="23"/>
-      <c r="Z5" s="23"/>
-      <c r="AA5" s="23"/>
-      <c r="AB5" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20">
-        <v>43888</v>
-      </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="47"/>
-      <c r="W6" s="21"/>
-      <c r="X6" s="21"/>
-      <c r="Y6" s="21"/>
-      <c r="Z6" s="21"/>
-      <c r="AA6" s="21"/>
-      <c r="AB6" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22">
-        <v>43889</v>
-      </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23"/>
-      <c r="U7" s="23"/>
-      <c r="V7" s="47"/>
-      <c r="W7" s="23"/>
-      <c r="X7" s="23"/>
-      <c r="Y7" s="23"/>
-      <c r="Z7" s="23"/>
-      <c r="AA7" s="23"/>
-      <c r="AB7" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20">
-        <v>43890</v>
-      </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="21"/>
-      <c r="T8" s="21"/>
-      <c r="U8" s="21"/>
-      <c r="V8" s="47"/>
-      <c r="W8" s="21"/>
-      <c r="X8" s="21"/>
-      <c r="Y8" s="21"/>
-      <c r="Z8" s="21"/>
-      <c r="AA8" s="21"/>
-      <c r="AB8" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="22">
-        <v>43891</v>
-      </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
-      <c r="S9" s="23"/>
-      <c r="T9" s="23"/>
-      <c r="U9" s="23"/>
-      <c r="V9" s="47"/>
-      <c r="W9" s="23"/>
-      <c r="X9" s="23"/>
-      <c r="Y9" s="23"/>
-      <c r="Z9" s="23"/>
-      <c r="AA9" s="23"/>
-      <c r="AB9" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="20">
-        <v>43892</v>
-      </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="21"/>
-      <c r="T10" s="21"/>
-      <c r="U10" s="21"/>
-      <c r="V10" s="47"/>
-      <c r="W10" s="21"/>
-      <c r="X10" s="21"/>
-      <c r="Y10" s="21"/>
-      <c r="Z10" s="21"/>
-      <c r="AA10" s="21"/>
-      <c r="AB10" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22">
-        <v>43893</v>
-      </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
-      <c r="S11" s="23"/>
-      <c r="T11" s="23"/>
-      <c r="U11" s="23"/>
-      <c r="V11" s="47"/>
-      <c r="W11" s="23"/>
-      <c r="X11" s="23"/>
-      <c r="Y11" s="23"/>
-      <c r="Z11" s="23"/>
-      <c r="AA11" s="23"/>
-      <c r="AB11" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20">
-        <v>43894</v>
-      </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="21"/>
-      <c r="T12" s="21"/>
-      <c r="U12" s="21"/>
-      <c r="V12" s="47"/>
-      <c r="W12" s="21"/>
-      <c r="X12" s="21"/>
-      <c r="Y12" s="21"/>
-      <c r="Z12" s="21"/>
-      <c r="AA12" s="21"/>
-      <c r="AB12" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="22">
-        <v>43895</v>
-      </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
-      <c r="S13" s="23"/>
-      <c r="T13" s="23"/>
-      <c r="U13" s="23"/>
-      <c r="V13" s="47"/>
-      <c r="W13" s="23"/>
-      <c r="X13" s="23"/>
-      <c r="Y13" s="23"/>
-      <c r="Z13" s="23"/>
-      <c r="AA13" s="23"/>
-      <c r="AB13" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20">
-        <v>43896</v>
-      </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="21"/>
-      <c r="T14" s="21"/>
-      <c r="U14" s="21"/>
-      <c r="V14" s="47"/>
-      <c r="W14" s="21"/>
-      <c r="X14" s="21">
-        <v>1</v>
-      </c>
-      <c r="Y14" s="21"/>
-      <c r="Z14" s="21"/>
-      <c r="AA14" s="21"/>
-      <c r="AB14" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="22">
-        <v>43897</v>
-      </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="23"/>
-      <c r="T15" s="23"/>
-      <c r="U15" s="23"/>
-      <c r="V15" s="47"/>
-      <c r="W15" s="23"/>
-      <c r="X15" s="23">
-        <v>1</v>
-      </c>
-      <c r="Y15" s="23"/>
-      <c r="Z15" s="23"/>
-      <c r="AA15" s="23"/>
-      <c r="AB15" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="20">
-        <v>43898</v>
-      </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21">
-        <v>1</v>
-      </c>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="21"/>
-      <c r="S16" s="21"/>
-      <c r="T16" s="21"/>
-      <c r="U16" s="21"/>
-      <c r="V16" s="47"/>
-      <c r="W16" s="21"/>
-      <c r="X16" s="21">
-        <v>1</v>
-      </c>
-      <c r="Y16" s="21"/>
-      <c r="Z16" s="21"/>
-      <c r="AA16" s="21"/>
-      <c r="AB16" s="21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="22">
-        <v>43899</v>
-      </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23">
-        <v>1</v>
-      </c>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23">
-        <v>1</v>
-      </c>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
-      <c r="S17" s="23"/>
-      <c r="T17" s="23"/>
-      <c r="U17" s="23"/>
-      <c r="V17" s="47"/>
-      <c r="W17" s="23"/>
-      <c r="X17" s="23">
-        <v>1</v>
-      </c>
-      <c r="Y17" s="23"/>
-      <c r="Z17" s="23"/>
-      <c r="AA17" s="23"/>
-      <c r="AB17" s="23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20">
-        <v>43900</v>
-      </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21">
-        <v>1</v>
-      </c>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21">
-        <v>2</v>
-      </c>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="21"/>
-      <c r="S18" s="21"/>
-      <c r="T18" s="21"/>
-      <c r="U18" s="21"/>
-      <c r="V18" s="47">
-        <v>1</v>
-      </c>
-      <c r="W18" s="21"/>
-      <c r="X18" s="21">
-        <v>1</v>
-      </c>
-      <c r="Y18" s="21"/>
-      <c r="Z18" s="21"/>
-      <c r="AA18" s="21"/>
-      <c r="AB18" s="21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="22">
-        <v>43901</v>
-      </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23">
-        <v>2</v>
-      </c>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23">
-        <v>2</v>
-      </c>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
-      <c r="S19" s="23"/>
-      <c r="T19" s="23"/>
-      <c r="U19" s="23"/>
-      <c r="V19" s="47"/>
-      <c r="W19" s="23"/>
-      <c r="X19" s="23">
-        <v>1</v>
-      </c>
-      <c r="Y19" s="23"/>
-      <c r="Z19" s="23"/>
-      <c r="AA19" s="23"/>
-      <c r="AB19" s="23">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="20">
-        <v>43902</v>
-      </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21">
-        <v>2</v>
-      </c>
-      <c r="G20" s="21">
-        <v>1</v>
-      </c>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21">
-        <v>2</v>
-      </c>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="21"/>
-      <c r="S20" s="21"/>
-      <c r="T20" s="21"/>
-      <c r="U20" s="21"/>
-      <c r="V20" s="47"/>
-      <c r="W20" s="21"/>
-      <c r="X20" s="21">
-        <v>1</v>
-      </c>
-      <c r="Y20" s="21"/>
-      <c r="Z20" s="21"/>
-      <c r="AA20" s="21"/>
-      <c r="AB20" s="21">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="22">
-        <v>43903</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23">
-        <v>2</v>
-      </c>
-      <c r="G21" s="23">
-        <v>1</v>
-      </c>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23">
-        <v>2</v>
-      </c>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="23"/>
-      <c r="S21" s="23"/>
-      <c r="T21" s="23"/>
-      <c r="U21" s="23"/>
-      <c r="V21" s="47"/>
-      <c r="W21" s="23"/>
-      <c r="X21" s="23">
-        <v>2</v>
-      </c>
-      <c r="Y21" s="23"/>
-      <c r="Z21" s="23"/>
-      <c r="AA21" s="23"/>
-      <c r="AB21" s="23">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="20">
-        <v>43904</v>
-      </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21">
-        <v>2</v>
-      </c>
-      <c r="G22" s="21">
-        <v>1</v>
-      </c>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21">
-        <v>2</v>
-      </c>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="21"/>
-      <c r="R22" s="21"/>
-      <c r="S22" s="21"/>
-      <c r="T22" s="21"/>
-      <c r="U22" s="21"/>
-      <c r="V22" s="47">
-        <v>3</v>
-      </c>
-      <c r="W22" s="21"/>
-      <c r="X22" s="21">
-        <v>3</v>
-      </c>
-      <c r="Y22" s="21">
-        <v>1</v>
-      </c>
-      <c r="Z22" s="21"/>
-      <c r="AA22" s="21"/>
-      <c r="AB22" s="21">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="22">
-        <v>43905</v>
-      </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23">
-        <v>2</v>
-      </c>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23">
-        <v>4</v>
-      </c>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="23"/>
-      <c r="Q23" s="23"/>
-      <c r="R23" s="23"/>
-      <c r="S23" s="23"/>
-      <c r="T23" s="23"/>
-      <c r="U23" s="23"/>
-      <c r="V23" s="47">
-        <v>6</v>
-      </c>
-      <c r="W23" s="23"/>
-      <c r="X23" s="23">
-        <v>4</v>
-      </c>
-      <c r="Y23" s="23">
-        <v>1</v>
-      </c>
-      <c r="Z23" s="23"/>
-      <c r="AA23" s="23"/>
-      <c r="AB23" s="23">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="20">
-        <v>43906</v>
-      </c>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21">
-        <v>1</v>
-      </c>
-      <c r="F24" s="21">
-        <v>2</v>
-      </c>
-      <c r="G24" s="21">
-        <v>4</v>
-      </c>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21">
-        <v>4</v>
-      </c>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="21"/>
-      <c r="R24" s="21"/>
-      <c r="S24" s="21"/>
-      <c r="T24" s="21"/>
-      <c r="U24" s="21"/>
-      <c r="V24" s="47">
-        <v>8</v>
-      </c>
-      <c r="W24" s="21"/>
-      <c r="X24" s="21">
-        <v>5</v>
-      </c>
-      <c r="Y24" s="21">
-        <v>2</v>
-      </c>
-      <c r="Z24" s="21"/>
-      <c r="AA24" s="21">
-        <v>1</v>
-      </c>
-      <c r="AB24" s="21">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="22">
-        <v>43907</v>
-      </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23">
-        <v>2</v>
-      </c>
-      <c r="G25" s="23">
-        <v>4</v>
-      </c>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23">
-        <v>4</v>
-      </c>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="23"/>
-      <c r="P25" s="23"/>
-      <c r="Q25" s="23"/>
-      <c r="R25" s="23"/>
-      <c r="S25" s="23"/>
-      <c r="T25" s="23"/>
-      <c r="U25" s="23"/>
-      <c r="V25" s="47">
-        <v>10</v>
-      </c>
-      <c r="W25" s="23"/>
-      <c r="X25" s="23">
-        <v>5</v>
-      </c>
-      <c r="Y25" s="23">
-        <v>3</v>
-      </c>
-      <c r="Z25" s="23"/>
-      <c r="AA25" s="23"/>
-      <c r="AB25" s="23">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="20">
-        <v>43908</v>
-      </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21">
-        <v>1</v>
-      </c>
-      <c r="F26" s="21">
-        <v>2</v>
-      </c>
-      <c r="G26" s="21">
-        <v>4</v>
-      </c>
-      <c r="H26" s="21">
-        <v>1</v>
-      </c>
-      <c r="I26" s="21">
-        <v>6</v>
-      </c>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21">
-        <v>1</v>
-      </c>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="21"/>
-      <c r="P26" s="21"/>
-      <c r="Q26" s="21"/>
-      <c r="R26" s="21"/>
-      <c r="S26" s="21"/>
-      <c r="T26" s="21"/>
-      <c r="U26" s="21"/>
-      <c r="V26" s="47">
-        <v>14</v>
-      </c>
-      <c r="W26" s="21"/>
-      <c r="X26" s="21">
-        <v>5</v>
-      </c>
-      <c r="Y26" s="21">
-        <v>3</v>
-      </c>
-      <c r="Z26" s="21"/>
-      <c r="AA26" s="21"/>
-      <c r="AB26" s="21">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="22">
-        <v>43909</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23">
-        <v>1</v>
-      </c>
-      <c r="F27" s="23">
-        <v>2</v>
-      </c>
-      <c r="G27" s="23">
-        <v>4</v>
-      </c>
-      <c r="H27" s="23">
-        <v>1</v>
-      </c>
-      <c r="I27" s="23">
-        <v>6</v>
-      </c>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23">
-        <v>1</v>
-      </c>
-      <c r="L27" s="23"/>
-      <c r="M27" s="23"/>
-      <c r="N27" s="23"/>
-      <c r="O27" s="23"/>
-      <c r="P27" s="23"/>
-      <c r="Q27" s="23"/>
-      <c r="R27" s="23"/>
-      <c r="S27" s="23"/>
-      <c r="T27" s="23"/>
-      <c r="U27" s="23"/>
-      <c r="V27" s="47">
-        <v>15</v>
-      </c>
-      <c r="W27" s="23"/>
-      <c r="X27" s="23">
-        <v>7</v>
-      </c>
-      <c r="Y27" s="23">
-        <v>4</v>
-      </c>
-      <c r="Z27" s="23"/>
-      <c r="AA27" s="23">
-        <v>3</v>
-      </c>
-      <c r="AB27" s="23">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="20">
-        <v>43910</v>
-      </c>
-      <c r="B28" s="21">
-        <v>1</v>
-      </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21">
-        <v>2</v>
-      </c>
-      <c r="F28" s="21">
-        <v>3</v>
-      </c>
-      <c r="G28" s="21">
-        <v>4</v>
-      </c>
-      <c r="H28" s="21">
-        <v>1</v>
-      </c>
-      <c r="I28" s="21">
-        <v>8</v>
-      </c>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21">
-        <v>3</v>
-      </c>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="21">
-        <v>3</v>
-      </c>
-      <c r="O28" s="21"/>
-      <c r="P28" s="21"/>
-      <c r="Q28" s="21"/>
-      <c r="R28" s="21"/>
-      <c r="S28" s="21"/>
-      <c r="T28" s="21"/>
-      <c r="U28" s="21"/>
-      <c r="V28" s="47">
-        <v>22</v>
-      </c>
-      <c r="W28" s="21"/>
-      <c r="X28" s="21">
-        <v>12</v>
-      </c>
-      <c r="Y28" s="21">
-        <v>6</v>
-      </c>
-      <c r="Z28" s="21"/>
-      <c r="AA28" s="21">
-        <v>3</v>
-      </c>
-      <c r="AB28" s="21">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="56">
-        <v>43911</v>
-      </c>
-      <c r="B29" s="57"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57">
-        <v>1</v>
-      </c>
-      <c r="E29" s="57">
-        <v>3</v>
-      </c>
-      <c r="F29" s="57">
-        <v>3</v>
-      </c>
-      <c r="G29" s="57">
-        <v>5</v>
-      </c>
-      <c r="H29" s="57">
-        <v>2</v>
-      </c>
-      <c r="I29" s="57">
-        <v>9</v>
-      </c>
-      <c r="J29" s="57"/>
-      <c r="K29" s="57">
-        <v>3</v>
-      </c>
-      <c r="L29" s="57"/>
-      <c r="M29" s="57">
-        <v>1</v>
-      </c>
-      <c r="N29" s="57">
-        <v>4</v>
-      </c>
-      <c r="O29" s="57"/>
-      <c r="P29" s="57"/>
-      <c r="Q29" s="57"/>
-      <c r="R29" s="57"/>
-      <c r="S29" s="57"/>
-      <c r="T29" s="57"/>
-      <c r="U29" s="57"/>
-      <c r="V29" s="47">
-        <v>28</v>
-      </c>
-      <c r="W29" s="57"/>
-      <c r="X29" s="57">
-        <v>15</v>
-      </c>
-      <c r="Y29" s="57">
-        <v>7</v>
-      </c>
-      <c r="Z29" s="57"/>
-      <c r="AA29" s="57"/>
-      <c r="AB29" s="57">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="54">
-        <v>43912</v>
-      </c>
-      <c r="B30" s="55">
-        <v>1</v>
-      </c>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55">
-        <v>3</v>
-      </c>
-      <c r="G30" s="55">
-        <v>5</v>
-      </c>
-      <c r="H30" s="55">
-        <v>3</v>
-      </c>
-      <c r="I30" s="55">
-        <v>10</v>
-      </c>
-      <c r="J30" s="55"/>
-      <c r="K30" s="55">
-        <v>6</v>
-      </c>
-      <c r="L30" s="55"/>
-      <c r="M30" s="55">
-        <v>1</v>
-      </c>
-      <c r="N30" s="55">
-        <v>4</v>
-      </c>
-      <c r="O30" s="55"/>
-      <c r="P30" s="55"/>
-      <c r="Q30" s="55"/>
-      <c r="R30" s="55"/>
-      <c r="S30" s="55"/>
-      <c r="T30" s="55"/>
-      <c r="U30" s="55"/>
-      <c r="V30" s="47">
-        <v>37</v>
-      </c>
-      <c r="W30" s="55"/>
-      <c r="X30" s="55">
-        <v>16</v>
-      </c>
-      <c r="Y30" s="55">
-        <v>10</v>
-      </c>
-      <c r="Z30" s="55"/>
-      <c r="AA30" s="55"/>
-      <c r="AB30" s="55">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="56">
-        <v>43913</v>
-      </c>
-      <c r="B31" s="57">
-        <v>1</v>
-      </c>
-      <c r="C31" s="57"/>
-      <c r="D31" s="57">
-        <v>1</v>
-      </c>
-      <c r="E31" s="57">
-        <v>5</v>
-      </c>
-      <c r="F31" s="57">
-        <v>3</v>
-      </c>
-      <c r="G31" s="57">
-        <v>5</v>
-      </c>
-      <c r="H31" s="57">
-        <v>4</v>
-      </c>
-      <c r="I31" s="57">
-        <v>13</v>
-      </c>
-      <c r="J31" s="57"/>
-      <c r="K31" s="57"/>
-      <c r="L31" s="57"/>
-      <c r="M31" s="57">
-        <v>1</v>
-      </c>
-      <c r="N31" s="57">
-        <v>5</v>
-      </c>
-      <c r="O31" s="57"/>
-      <c r="P31" s="57"/>
-      <c r="Q31" s="57">
-        <v>1</v>
-      </c>
-      <c r="R31" s="57"/>
-      <c r="S31" s="57">
-        <v>1</v>
-      </c>
-      <c r="T31" s="57"/>
-      <c r="U31" s="57"/>
-      <c r="V31" s="47">
-        <v>48</v>
-      </c>
-      <c r="W31" s="57"/>
-      <c r="X31" s="57">
-        <v>25</v>
-      </c>
-      <c r="Y31" s="57">
-        <v>12</v>
-      </c>
-      <c r="Z31" s="57"/>
-      <c r="AA31" s="57">
-        <v>5</v>
-      </c>
-      <c r="AB31" s="57">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="32" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="54">
-        <v>43914</v>
-      </c>
-      <c r="B32" s="55">
-        <v>2</v>
-      </c>
-      <c r="C32" s="55"/>
-      <c r="D32" s="55">
-        <v>2</v>
-      </c>
-      <c r="E32" s="55">
-        <v>6</v>
-      </c>
-      <c r="F32" s="55">
-        <v>4</v>
-      </c>
-      <c r="G32" s="55">
-        <v>5</v>
-      </c>
-      <c r="H32" s="55">
-        <v>5</v>
-      </c>
-      <c r="I32" s="55">
-        <v>14</v>
-      </c>
-      <c r="J32" s="55"/>
-      <c r="K32" s="55">
-        <v>6</v>
-      </c>
-      <c r="L32" s="55"/>
-      <c r="M32" s="55">
-        <v>2</v>
-      </c>
-      <c r="N32" s="55">
-        <v>6</v>
-      </c>
-      <c r="O32" s="55"/>
-      <c r="P32" s="55"/>
-      <c r="Q32" s="55"/>
-      <c r="R32" s="55"/>
-      <c r="S32" s="55">
-        <v>1</v>
-      </c>
-      <c r="T32" s="55"/>
-      <c r="U32" s="55">
-        <v>1</v>
-      </c>
-      <c r="V32" s="47">
-        <v>53</v>
-      </c>
-      <c r="W32" s="55"/>
-      <c r="X32" s="55">
-        <v>29</v>
-      </c>
-      <c r="Y32" s="55">
-        <v>13</v>
-      </c>
-      <c r="Z32" s="55"/>
-      <c r="AA32" s="55">
-        <v>5</v>
-      </c>
-      <c r="AB32" s="55">
-        <v>155</v>
-      </c>
-      <c r="AC32" s="10">
-        <f>AB32-AB25</f>
-        <v>125</v>
-      </c>
-    </row>
-    <row r="33" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="56">
-        <v>43915</v>
-      </c>
-      <c r="B33" s="57">
-        <v>2</v>
-      </c>
-      <c r="C33" s="57"/>
-      <c r="D33" s="57">
-        <v>2</v>
-      </c>
-      <c r="E33" s="57">
-        <v>6</v>
-      </c>
-      <c r="F33" s="57">
-        <v>5</v>
-      </c>
-      <c r="G33" s="57">
-        <v>8</v>
-      </c>
-      <c r="H33" s="57">
-        <v>6</v>
-      </c>
-      <c r="I33" s="57">
-        <v>21</v>
-      </c>
-      <c r="J33" s="57"/>
-      <c r="K33" s="57">
-        <v>6</v>
-      </c>
-      <c r="L33" s="57"/>
-      <c r="M33" s="57">
-        <v>2</v>
-      </c>
-      <c r="N33" s="57">
-        <v>9</v>
-      </c>
-      <c r="O33" s="57"/>
-      <c r="P33" s="57"/>
-      <c r="Q33" s="57">
-        <v>1</v>
-      </c>
-      <c r="R33" s="57"/>
-      <c r="S33" s="57">
-        <v>1</v>
-      </c>
-      <c r="T33" s="57"/>
-      <c r="U33" s="57">
-        <v>1</v>
-      </c>
-      <c r="V33" s="47">
-        <v>60</v>
-      </c>
-      <c r="W33" s="57"/>
-      <c r="X33" s="57">
-        <v>36</v>
-      </c>
-      <c r="Y33" s="57">
-        <v>14</v>
-      </c>
-      <c r="Z33" s="57"/>
-      <c r="AA33" s="57">
-        <v>7</v>
-      </c>
-      <c r="AB33" s="57">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="34" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="54">
-        <v>43916</v>
-      </c>
-      <c r="B34" s="55">
-        <v>2</v>
-      </c>
-      <c r="C34" s="55"/>
-      <c r="D34" s="55">
-        <v>2</v>
-      </c>
-      <c r="E34" s="55">
-        <v>7</v>
-      </c>
-      <c r="F34" s="55">
-        <v>5</v>
-      </c>
-      <c r="G34" s="55">
-        <v>12</v>
-      </c>
-      <c r="H34" s="55">
-        <v>11</v>
-      </c>
-      <c r="I34" s="55">
-        <v>23</v>
-      </c>
-      <c r="J34" s="55"/>
-      <c r="K34" s="55">
-        <v>9</v>
-      </c>
-      <c r="L34" s="55"/>
-      <c r="M34" s="55">
-        <v>3</v>
-      </c>
-      <c r="N34" s="55">
-        <v>11</v>
-      </c>
-      <c r="O34" s="55"/>
-      <c r="P34" s="55"/>
-      <c r="Q34" s="55">
-        <v>2</v>
-      </c>
-      <c r="R34" s="55"/>
-      <c r="S34" s="55">
-        <v>1</v>
-      </c>
-      <c r="T34" s="55">
-        <v>1</v>
-      </c>
-      <c r="U34" s="55">
-        <v>1</v>
-      </c>
-      <c r="V34" s="47">
-        <v>67</v>
-      </c>
-      <c r="W34" s="55"/>
-      <c r="X34" s="55">
-        <v>47</v>
-      </c>
-      <c r="Y34" s="55">
-        <v>15</v>
-      </c>
-      <c r="Z34" s="55"/>
-      <c r="AA34" s="55">
-        <v>9</v>
-      </c>
-      <c r="AB34" s="55">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="35" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="56">
-        <v>43917</v>
-      </c>
-      <c r="B35" s="57">
-        <v>3</v>
-      </c>
-      <c r="C35" s="57"/>
-      <c r="D35" s="57">
-        <v>2</v>
-      </c>
-      <c r="E35" s="57">
-        <v>8</v>
-      </c>
-      <c r="F35" s="57">
-        <v>5</v>
-      </c>
-      <c r="G35" s="57">
-        <v>13</v>
-      </c>
-      <c r="H35" s="57">
-        <v>15</v>
-      </c>
-      <c r="I35" s="57">
-        <v>30</v>
-      </c>
-      <c r="J35" s="57"/>
-      <c r="K35" s="57">
-        <v>9</v>
-      </c>
-      <c r="L35" s="57"/>
-      <c r="M35" s="57">
-        <v>3</v>
-      </c>
-      <c r="N35" s="57">
-        <v>12</v>
-      </c>
-      <c r="O35" s="57"/>
-      <c r="P35" s="57"/>
-      <c r="Q35" s="57"/>
-      <c r="R35" s="57"/>
-      <c r="S35" s="57">
-        <v>1</v>
-      </c>
-      <c r="T35" s="57">
-        <v>1</v>
-      </c>
-      <c r="U35" s="57">
-        <v>2</v>
-      </c>
-      <c r="V35" s="47">
-        <v>76</v>
-      </c>
-      <c r="W35" s="57"/>
-      <c r="X35" s="57">
-        <v>48</v>
-      </c>
-      <c r="Y35" s="57">
-        <v>20</v>
-      </c>
-      <c r="Z35" s="57">
-        <v>1</v>
-      </c>
-      <c r="AA35" s="57">
-        <v>11</v>
-      </c>
-      <c r="AB35" s="57">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="36" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="54">
-        <v>43918</v>
-      </c>
-      <c r="B36" s="55"/>
-      <c r="C36" s="55"/>
-      <c r="D36" s="55">
-        <v>2</v>
-      </c>
-      <c r="E36" s="55">
-        <v>9</v>
-      </c>
-      <c r="F36" s="55">
-        <v>6</v>
-      </c>
-      <c r="G36" s="55">
-        <v>13</v>
-      </c>
-      <c r="H36" s="55">
-        <v>15</v>
-      </c>
-      <c r="I36" s="55">
-        <v>37</v>
-      </c>
-      <c r="J36" s="55">
-        <v>1</v>
-      </c>
-      <c r="K36" s="55"/>
-      <c r="L36" s="55"/>
-      <c r="M36" s="55">
-        <v>4</v>
-      </c>
-      <c r="N36" s="55">
-        <v>14</v>
-      </c>
-      <c r="O36" s="55"/>
-      <c r="P36" s="55"/>
-      <c r="Q36" s="55">
-        <v>5</v>
-      </c>
-      <c r="R36" s="55"/>
-      <c r="S36" s="55">
-        <v>1</v>
-      </c>
-      <c r="T36" s="55">
-        <v>2</v>
-      </c>
-      <c r="U36" s="55">
-        <v>2</v>
-      </c>
-      <c r="V36" s="47">
-        <v>87</v>
-      </c>
-      <c r="W36" s="55"/>
-      <c r="X36" s="55">
-        <v>55</v>
-      </c>
-      <c r="Y36" s="55">
-        <v>21</v>
-      </c>
-      <c r="Z36" s="55"/>
-      <c r="AA36" s="55">
-        <v>15</v>
-      </c>
-      <c r="AB36" s="55">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="37" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="56">
-        <v>43919</v>
-      </c>
-      <c r="B37" s="57"/>
-      <c r="C37" s="57"/>
-      <c r="D37" s="57">
-        <v>2</v>
-      </c>
-      <c r="E37" s="57">
-        <v>10</v>
-      </c>
-      <c r="F37" s="57">
-        <v>6</v>
-      </c>
-      <c r="G37" s="57">
-        <v>15</v>
-      </c>
-      <c r="H37" s="57">
-        <v>16</v>
-      </c>
-      <c r="I37" s="57">
-        <v>44</v>
-      </c>
-      <c r="J37" s="57"/>
-      <c r="K37" s="57"/>
-      <c r="L37" s="57"/>
-      <c r="M37" s="57">
-        <v>5</v>
-      </c>
-      <c r="N37" s="57">
-        <v>17</v>
-      </c>
-      <c r="O37" s="57"/>
-      <c r="P37" s="57"/>
-      <c r="Q37" s="57">
-        <v>5</v>
-      </c>
-      <c r="R37" s="57"/>
-      <c r="S37" s="57">
-        <v>2</v>
-      </c>
-      <c r="T37" s="57">
-        <v>2</v>
-      </c>
-      <c r="U37" s="57">
-        <v>2</v>
-      </c>
-      <c r="V37" s="47">
-        <v>93</v>
-      </c>
-      <c r="W37" s="57"/>
-      <c r="X37" s="57">
-        <v>66</v>
-      </c>
-      <c r="Y37" s="57">
-        <v>21</v>
-      </c>
-      <c r="Z37" s="57"/>
-      <c r="AA37" s="57">
-        <v>15</v>
-      </c>
-      <c r="AB37" s="57">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="38" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="54">
-        <v>43920</v>
-      </c>
-      <c r="B38" s="55">
-        <v>8</v>
-      </c>
-      <c r="C38" s="55"/>
-      <c r="D38" s="55">
-        <v>2</v>
-      </c>
-      <c r="E38" s="55">
-        <v>13</v>
-      </c>
-      <c r="F38" s="55">
-        <v>7</v>
-      </c>
-      <c r="G38" s="55">
-        <v>15</v>
-      </c>
-      <c r="H38" s="55">
-        <v>17</v>
-      </c>
-      <c r="I38" s="55">
-        <v>53</v>
-      </c>
-      <c r="J38" s="55">
-        <v>1</v>
-      </c>
-      <c r="K38" s="55">
-        <v>12</v>
-      </c>
-      <c r="L38" s="55"/>
-      <c r="M38" s="55">
-        <v>6</v>
-      </c>
-      <c r="N38" s="55">
-        <v>19</v>
-      </c>
-      <c r="O38" s="55"/>
-      <c r="P38" s="55"/>
-      <c r="Q38" s="55">
-        <v>5</v>
-      </c>
-      <c r="R38" s="55"/>
-      <c r="S38" s="55"/>
-      <c r="T38" s="55">
-        <v>2</v>
-      </c>
-      <c r="U38" s="55">
-        <v>2</v>
-      </c>
-      <c r="V38" s="47">
-        <v>105</v>
-      </c>
-      <c r="W38" s="55"/>
-      <c r="X38" s="55">
-        <v>77</v>
-      </c>
-      <c r="Y38" s="55">
-        <v>26</v>
-      </c>
-      <c r="Z38" s="55">
-        <v>1</v>
-      </c>
-      <c r="AA38" s="55">
-        <v>21</v>
-      </c>
-      <c r="AB38" s="55">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="39" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="56">
-        <v>43921</v>
-      </c>
-      <c r="B39" s="57">
-        <v>11</v>
-      </c>
-      <c r="C39" s="57"/>
-      <c r="D39" s="57">
-        <v>2</v>
-      </c>
-      <c r="E39" s="57">
-        <v>16</v>
-      </c>
-      <c r="F39" s="57">
-        <v>10</v>
-      </c>
-      <c r="G39" s="57">
-        <v>16</v>
-      </c>
-      <c r="H39" s="57">
-        <v>20</v>
-      </c>
-      <c r="I39" s="57">
-        <v>61</v>
-      </c>
-      <c r="J39" s="57">
-        <v>2</v>
-      </c>
-      <c r="K39" s="57">
-        <v>19</v>
-      </c>
-      <c r="L39" s="57"/>
-      <c r="M39" s="57">
-        <v>7</v>
-      </c>
-      <c r="N39" s="57">
-        <v>21</v>
-      </c>
-      <c r="O39" s="57"/>
-      <c r="P39" s="57"/>
-      <c r="Q39" s="57">
-        <v>7</v>
-      </c>
-      <c r="R39" s="57"/>
-      <c r="S39" s="57">
-        <v>2</v>
-      </c>
-      <c r="T39" s="57">
-        <v>4</v>
-      </c>
-      <c r="U39" s="57">
-        <v>3</v>
-      </c>
-      <c r="V39" s="47">
-        <v>120</v>
-      </c>
-      <c r="W39" s="57"/>
-      <c r="X39" s="57">
-        <v>84</v>
-      </c>
-      <c r="Y39" s="57">
-        <v>35</v>
-      </c>
-      <c r="Z39" s="57">
-        <v>1</v>
-      </c>
-      <c r="AA39" s="57">
-        <v>25</v>
-      </c>
-      <c r="AB39" s="57">
-        <v>466</v>
-      </c>
-      <c r="AC39" s="10">
-        <f>AB39-AB32</f>
-        <v>311</v>
-      </c>
-    </row>
-    <row r="40" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="54">
-        <v>43922</v>
-      </c>
-      <c r="B40" s="55">
-        <v>11</v>
-      </c>
-      <c r="C40" s="55"/>
-      <c r="D40" s="55">
-        <v>3</v>
-      </c>
-      <c r="E40" s="55">
-        <v>20</v>
-      </c>
-      <c r="F40" s="55">
-        <v>11</v>
-      </c>
-      <c r="G40" s="55">
-        <v>18</v>
-      </c>
-      <c r="H40" s="55">
-        <v>23</v>
-      </c>
-      <c r="I40" s="55">
-        <v>68</v>
-      </c>
-      <c r="J40" s="55">
-        <v>2</v>
-      </c>
-      <c r="K40" s="55">
-        <v>21</v>
-      </c>
-      <c r="L40" s="55"/>
-      <c r="M40" s="55">
-        <v>7</v>
-      </c>
-      <c r="N40" s="55">
-        <v>23</v>
-      </c>
-      <c r="O40" s="55"/>
-      <c r="P40" s="55"/>
-      <c r="Q40" s="55">
-        <v>7</v>
-      </c>
-      <c r="R40" s="55">
-        <v>1</v>
-      </c>
-      <c r="S40" s="55">
-        <v>3</v>
-      </c>
-      <c r="T40" s="55">
-        <v>4</v>
-      </c>
-      <c r="U40" s="55">
-        <v>4</v>
-      </c>
-      <c r="V40" s="47">
-        <v>132</v>
-      </c>
-      <c r="W40" s="55">
-        <v>1</v>
-      </c>
-      <c r="X40" s="55">
-        <v>92</v>
-      </c>
-      <c r="Y40" s="55">
-        <v>37</v>
-      </c>
-      <c r="Z40" s="55">
-        <v>1</v>
-      </c>
-      <c r="AA40" s="55">
-        <v>29</v>
-      </c>
-      <c r="AB40" s="55">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="41" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="56">
-        <v>43923</v>
-      </c>
-      <c r="B41" s="57">
-        <v>12</v>
-      </c>
-      <c r="C41" s="57"/>
-      <c r="D41" s="57">
-        <v>3</v>
-      </c>
-      <c r="E41" s="57">
-        <v>23</v>
-      </c>
-      <c r="F41" s="57">
-        <v>12</v>
-      </c>
-      <c r="G41" s="57">
-        <v>19</v>
-      </c>
-      <c r="H41" s="57">
-        <v>26</v>
-      </c>
-      <c r="I41" s="57">
-        <v>76</v>
-      </c>
-      <c r="J41" s="57">
-        <v>2</v>
-      </c>
-      <c r="K41" s="57">
-        <v>23</v>
-      </c>
-      <c r="L41" s="57"/>
-      <c r="M41" s="57">
-        <v>7</v>
-      </c>
-      <c r="N41" s="57">
-        <v>23</v>
-      </c>
-      <c r="O41" s="57"/>
-      <c r="P41" s="57"/>
-      <c r="Q41" s="57">
-        <v>8</v>
-      </c>
-      <c r="R41" s="57">
-        <v>1</v>
-      </c>
-      <c r="S41" s="57">
-        <v>3</v>
-      </c>
-      <c r="T41" s="57">
-        <v>4</v>
-      </c>
-      <c r="U41" s="57">
-        <v>4</v>
-      </c>
-      <c r="V41" s="47">
-        <v>141</v>
-      </c>
-      <c r="W41" s="57">
-        <v>1</v>
-      </c>
-      <c r="X41" s="57">
-        <v>107</v>
-      </c>
-      <c r="Y41" s="57">
-        <v>40</v>
-      </c>
-      <c r="Z41" s="57">
-        <v>1</v>
-      </c>
-      <c r="AA41" s="57">
-        <v>36</v>
-      </c>
-      <c r="AB41" s="57">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="42" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="54">
-        <v>43924</v>
-      </c>
-      <c r="B42" s="55">
-        <v>12</v>
-      </c>
-      <c r="C42" s="55"/>
-      <c r="D42" s="55">
-        <v>3</v>
-      </c>
-      <c r="E42" s="55">
-        <v>26</v>
-      </c>
-      <c r="F42" s="55">
-        <v>14</v>
-      </c>
-      <c r="G42" s="55">
-        <v>21</v>
-      </c>
-      <c r="H42" s="55">
-        <v>31</v>
-      </c>
-      <c r="I42" s="55">
-        <v>80</v>
-      </c>
-      <c r="J42" s="55">
-        <v>2</v>
-      </c>
-      <c r="K42" s="55">
-        <v>27</v>
-      </c>
-      <c r="L42" s="55"/>
-      <c r="M42" s="55">
-        <v>7</v>
-      </c>
-      <c r="N42" s="55">
-        <v>23</v>
-      </c>
-      <c r="O42" s="55"/>
-      <c r="P42" s="55"/>
-      <c r="Q42" s="55">
-        <v>8</v>
-      </c>
-      <c r="R42" s="55">
-        <v>1</v>
-      </c>
-      <c r="S42" s="55">
-        <v>3</v>
-      </c>
-      <c r="T42" s="55">
-        <v>4</v>
-      </c>
-      <c r="U42" s="55">
-        <v>5</v>
-      </c>
-      <c r="V42" s="47">
-        <v>155</v>
-      </c>
-      <c r="W42" s="55">
-        <v>1</v>
-      </c>
-      <c r="X42" s="55">
-        <v>123</v>
-      </c>
-      <c r="Y42" s="55">
-        <v>45</v>
-      </c>
-      <c r="Z42" s="55">
-        <v>2</v>
-      </c>
-      <c r="AA42" s="55">
-        <v>38</v>
-      </c>
-      <c r="AB42" s="55">
-        <v>631</v>
-      </c>
-      <c r="AC42"/>
-    </row>
-    <row r="43" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="56">
-        <v>43925</v>
-      </c>
-      <c r="B43" s="57"/>
-      <c r="C43" s="57"/>
-      <c r="D43" s="57">
-        <v>3</v>
-      </c>
-      <c r="E43" s="57">
-        <v>28</v>
-      </c>
-      <c r="F43" s="57">
-        <v>19</v>
-      </c>
-      <c r="G43" s="57">
-        <v>24</v>
-      </c>
-      <c r="H43" s="57">
-        <v>37</v>
-      </c>
-      <c r="I43" s="57">
-        <v>93</v>
-      </c>
-      <c r="J43" s="57"/>
-      <c r="K43" s="57"/>
-      <c r="L43" s="57"/>
-      <c r="M43" s="57">
-        <v>7</v>
-      </c>
-      <c r="N43" s="57">
-        <v>24</v>
-      </c>
-      <c r="O43" s="57">
-        <v>0</v>
-      </c>
-      <c r="P43" s="57"/>
-      <c r="Q43" s="57">
-        <v>9</v>
-      </c>
-      <c r="R43" s="57">
-        <v>1</v>
-      </c>
-      <c r="S43" s="57">
-        <v>3</v>
-      </c>
-      <c r="T43" s="57">
-        <v>5</v>
-      </c>
-      <c r="U43" s="57">
-        <v>5</v>
-      </c>
-      <c r="V43" s="47">
-        <v>165</v>
-      </c>
-      <c r="W43" s="57">
-        <v>1</v>
-      </c>
-      <c r="X43" s="57">
-        <v>138</v>
-      </c>
-      <c r="Y43" s="57">
-        <v>51</v>
-      </c>
-      <c r="Z43" s="57">
-        <v>2</v>
-      </c>
-      <c r="AA43" s="57">
-        <v>41</v>
-      </c>
-      <c r="AB43" s="57">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="44" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="54">
-        <v>43926</v>
-      </c>
-      <c r="B44" s="55"/>
-      <c r="C44" s="55"/>
-      <c r="D44" s="55">
-        <v>3</v>
-      </c>
-      <c r="E44" s="55">
-        <v>28</v>
-      </c>
-      <c r="F44" s="55">
-        <v>19</v>
-      </c>
-      <c r="G44" s="55">
-        <v>26</v>
-      </c>
-      <c r="H44" s="55">
-        <v>40</v>
-      </c>
-      <c r="I44" s="55">
-        <v>100</v>
-      </c>
-      <c r="J44" s="55"/>
-      <c r="K44" s="55">
-        <v>30</v>
-      </c>
-      <c r="L44" s="55"/>
-      <c r="M44" s="55">
-        <v>9</v>
-      </c>
-      <c r="N44" s="55">
-        <v>26</v>
-      </c>
-      <c r="O44" s="55">
-        <v>0</v>
-      </c>
-      <c r="P44" s="55"/>
-      <c r="Q44" s="55">
-        <v>9</v>
-      </c>
-      <c r="R44" s="55">
-        <v>1</v>
-      </c>
-      <c r="S44" s="55">
-        <v>3</v>
-      </c>
-      <c r="T44" s="55">
-        <v>5</v>
-      </c>
-      <c r="U44" s="55">
-        <v>7</v>
-      </c>
-      <c r="V44" s="47">
-        <v>177</v>
-      </c>
-      <c r="W44" s="55">
-        <v>2</v>
-      </c>
-      <c r="X44" s="55">
-        <v>147</v>
-      </c>
-      <c r="Y44" s="55">
-        <v>53</v>
-      </c>
-      <c r="Z44" s="55"/>
-      <c r="AA44" s="55">
-        <v>45</v>
-      </c>
-      <c r="AB44" s="55">
-        <v>746</v>
-      </c>
-      <c r="AC44" s="10"/>
-    </row>
-    <row r="45" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="56">
-        <v>43927</v>
-      </c>
-      <c r="B45" s="57">
-        <v>13</v>
-      </c>
-      <c r="C45" s="57"/>
-      <c r="D45" s="57">
-        <v>3</v>
-      </c>
-      <c r="E45" s="57">
-        <v>31</v>
-      </c>
-      <c r="F45" s="57">
-        <v>19</v>
-      </c>
-      <c r="G45" s="57">
-        <v>26</v>
-      </c>
-      <c r="H45" s="57">
-        <v>41</v>
-      </c>
-      <c r="I45" s="57">
-        <v>111</v>
-      </c>
-      <c r="J45" s="57">
-        <v>2</v>
-      </c>
-      <c r="K45" s="57">
-        <v>31</v>
-      </c>
-      <c r="L45" s="57"/>
-      <c r="M45" s="57">
-        <v>9</v>
-      </c>
-      <c r="N45" s="57">
-        <v>30</v>
-      </c>
-      <c r="O45" s="57">
-        <v>0</v>
-      </c>
-      <c r="P45" s="57">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="57">
-        <v>11</v>
-      </c>
-      <c r="R45" s="57">
-        <v>1</v>
-      </c>
-      <c r="S45" s="57">
-        <v>3</v>
-      </c>
-      <c r="T45" s="57">
-        <v>6</v>
-      </c>
-      <c r="U45" s="57">
-        <v>7</v>
-      </c>
-      <c r="V45" s="47">
-        <v>189</v>
-      </c>
-      <c r="W45" s="57">
-        <v>2</v>
-      </c>
-      <c r="X45" s="57">
-        <v>160</v>
-      </c>
-      <c r="Y45" s="57">
-        <v>56</v>
-      </c>
-      <c r="Z45" s="57">
-        <v>3</v>
-      </c>
-      <c r="AA45" s="57">
-        <v>48</v>
-      </c>
-      <c r="AB45" s="57">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="46" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="54">
-        <v>43928</v>
-      </c>
-      <c r="B46" s="55">
-        <v>16</v>
-      </c>
-      <c r="C46" s="55"/>
-      <c r="D46" s="55">
-        <v>3</v>
-      </c>
-      <c r="E46" s="55">
-        <v>33</v>
-      </c>
-      <c r="F46" s="55">
-        <v>19</v>
-      </c>
-      <c r="G46" s="55">
-        <v>28</v>
-      </c>
-      <c r="H46" s="55">
-        <v>44</v>
-      </c>
-      <c r="I46" s="55">
-        <v>118</v>
-      </c>
-      <c r="J46" s="55">
-        <v>2</v>
-      </c>
-      <c r="K46" s="55">
-        <v>34</v>
-      </c>
-      <c r="L46" s="55"/>
-      <c r="M46" s="55">
-        <v>9</v>
-      </c>
-      <c r="N46" s="55"/>
-      <c r="O46" s="55">
-        <v>0</v>
-      </c>
-      <c r="P46" s="55">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="55">
-        <v>13</v>
-      </c>
-      <c r="R46" s="55">
-        <v>1</v>
-      </c>
-      <c r="S46" s="55">
-        <v>3</v>
-      </c>
-      <c r="T46" s="55">
-        <v>7</v>
-      </c>
-      <c r="U46" s="55">
-        <v>8</v>
-      </c>
-      <c r="V46" s="47">
-        <v>198</v>
-      </c>
-      <c r="W46" s="55">
-        <v>2</v>
-      </c>
-      <c r="X46" s="55">
-        <v>172</v>
-      </c>
-      <c r="Y46" s="55">
-        <v>61</v>
-      </c>
-      <c r="Z46" s="55">
-        <v>3</v>
-      </c>
-      <c r="AA46" s="55">
-        <v>52</v>
-      </c>
-      <c r="AB46" s="55">
-        <v>856</v>
-      </c>
-      <c r="AC46" s="10">
-        <f>AB46-AB39</f>
-        <v>390</v>
-      </c>
-    </row>
-    <row r="47" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="56">
-        <v>43929</v>
-      </c>
-      <c r="B47" s="57">
-        <v>16</v>
-      </c>
-      <c r="C47" s="57"/>
-      <c r="D47" s="57">
-        <v>3</v>
-      </c>
-      <c r="E47" s="57">
-        <v>37</v>
-      </c>
-      <c r="F47" s="57">
-        <v>21</v>
-      </c>
-      <c r="G47" s="57">
-        <v>31</v>
-      </c>
-      <c r="H47" s="57">
-        <v>45</v>
-      </c>
-      <c r="I47" s="57"/>
-      <c r="J47" s="57">
-        <v>2</v>
-      </c>
-      <c r="K47" s="57"/>
-      <c r="L47" s="57"/>
-      <c r="M47" s="57">
-        <v>9</v>
-      </c>
-      <c r="N47" s="57"/>
-      <c r="O47" s="57">
-        <v>0</v>
-      </c>
-      <c r="P47" s="57">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="57">
-        <v>15</v>
-      </c>
-      <c r="R47" s="57">
-        <v>1</v>
-      </c>
-      <c r="S47" s="57">
-        <v>3</v>
-      </c>
-      <c r="T47" s="57">
-        <v>7</v>
-      </c>
-      <c r="U47" s="57">
-        <v>8</v>
-      </c>
-      <c r="V47" s="47">
-        <v>211</v>
-      </c>
-      <c r="W47" s="57">
-        <v>4</v>
-      </c>
-      <c r="X47" s="57"/>
-      <c r="Y47" s="57">
-        <v>68</v>
-      </c>
-      <c r="Z47" s="57">
-        <v>3</v>
-      </c>
-      <c r="AA47" s="57">
-        <v>57</v>
-      </c>
-      <c r="AB47" s="57">
-        <v>895</v>
-      </c>
-      <c r="AC47" s="57"/>
-      <c r="AD47" s="10"/>
-      <c r="AE47" s="10"/>
-    </row>
-    <row r="48" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="58"/>
-      <c r="B48" s="54"/>
-      <c r="C48" s="55"/>
-      <c r="D48" s="55"/>
-      <c r="E48" s="55"/>
-      <c r="F48" s="55"/>
-      <c r="G48" s="55"/>
-      <c r="H48" s="55"/>
-      <c r="I48" s="55"/>
-      <c r="J48" s="55"/>
-      <c r="K48" s="55"/>
-      <c r="L48" s="55"/>
-      <c r="M48" s="55"/>
-      <c r="N48" s="55"/>
-      <c r="O48" s="55"/>
-      <c r="P48" s="55"/>
-      <c r="Q48" s="55"/>
-      <c r="R48" s="55"/>
-      <c r="S48" s="55"/>
-      <c r="T48" s="55"/>
-      <c r="U48" s="55"/>
-      <c r="V48" s="55"/>
-      <c r="W48" s="55"/>
-      <c r="X48" s="55"/>
-      <c r="Y48" s="55"/>
-      <c r="Z48" s="55"/>
-      <c r="AA48" s="55"/>
-      <c r="AB48" s="55"/>
-      <c r="AC48" s="55"/>
-    </row>
-    <row r="49" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="58"/>
-      <c r="B49" s="56"/>
-      <c r="C49" s="57"/>
-      <c r="D49" s="57"/>
-      <c r="E49" s="57"/>
-      <c r="F49" s="57"/>
-      <c r="G49" s="57"/>
-      <c r="H49" s="57"/>
-      <c r="I49" s="57"/>
-      <c r="J49" s="57"/>
-      <c r="K49" s="57"/>
-      <c r="L49" s="57"/>
-      <c r="M49" s="57"/>
-      <c r="N49" s="57"/>
-      <c r="O49" s="57"/>
-      <c r="P49" s="57"/>
-      <c r="Q49" s="57"/>
-      <c r="R49" s="57"/>
-      <c r="S49" s="57"/>
-      <c r="T49" s="57"/>
-      <c r="U49" s="57"/>
-      <c r="V49" s="57"/>
-      <c r="W49" s="57"/>
-      <c r="X49" s="57"/>
-      <c r="Y49" s="57"/>
-      <c r="Z49" s="57"/>
-      <c r="AA49" s="57"/>
-      <c r="AB49" s="57"/>
-      <c r="AC49" s="57"/>
-    </row>
-    <row r="50" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="58"/>
-      <c r="B50" s="54"/>
-      <c r="C50" s="55"/>
-      <c r="D50" s="55"/>
-      <c r="E50" s="55"/>
-      <c r="F50" s="55"/>
-      <c r="G50" s="55"/>
-      <c r="H50" s="55"/>
-      <c r="I50" s="55"/>
-      <c r="J50" s="55"/>
-      <c r="K50" s="55"/>
-      <c r="L50" s="55"/>
-      <c r="M50" s="55"/>
-      <c r="N50" s="55"/>
-      <c r="O50" s="55"/>
-      <c r="P50" s="55"/>
-      <c r="Q50" s="55"/>
-      <c r="R50" s="55"/>
-      <c r="S50" s="55"/>
-      <c r="T50" s="55"/>
-      <c r="U50" s="55"/>
-      <c r="V50" s="55"/>
-      <c r="W50" s="55"/>
-      <c r="X50" s="55"/>
-      <c r="Y50" s="55"/>
-      <c r="Z50" s="55"/>
-      <c r="AA50" s="55"/>
-      <c r="AB50" s="55"/>
-      <c r="AC50" s="55"/>
-    </row>
-    <row r="51" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="58"/>
-      <c r="B51" s="56"/>
-      <c r="C51" s="57"/>
-      <c r="D51" s="57"/>
-      <c r="E51" s="57"/>
-      <c r="F51" s="57"/>
-      <c r="G51" s="57"/>
-      <c r="H51" s="57"/>
-      <c r="I51" s="57"/>
-      <c r="J51" s="57"/>
-      <c r="K51" s="57"/>
-      <c r="L51" s="57"/>
-      <c r="M51" s="57"/>
-      <c r="N51" s="57"/>
-      <c r="O51" s="57"/>
-      <c r="P51" s="57"/>
-      <c r="Q51" s="57"/>
-      <c r="R51" s="57"/>
-      <c r="S51" s="57"/>
-      <c r="T51" s="57"/>
-      <c r="U51" s="57"/>
-      <c r="V51" s="57"/>
-      <c r="W51" s="57"/>
-      <c r="X51" s="57"/>
-      <c r="Y51" s="57"/>
-      <c r="Z51" s="57"/>
-      <c r="AA51" s="57"/>
-      <c r="AB51" s="57"/>
-      <c r="AC51" s="57"/>
-    </row>
-    <row r="52" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="58"/>
-      <c r="B52" s="54"/>
-      <c r="C52" s="55"/>
-      <c r="D52" s="55"/>
-      <c r="E52" s="55"/>
-      <c r="F52" s="55"/>
-      <c r="G52" s="55"/>
-      <c r="H52" s="55"/>
-      <c r="I52" s="55"/>
-      <c r="J52" s="55"/>
-      <c r="K52" s="55"/>
-      <c r="L52" s="55"/>
-      <c r="M52" s="55"/>
-      <c r="N52" s="55"/>
-      <c r="O52" s="55"/>
-      <c r="P52" s="55"/>
-      <c r="Q52" s="55"/>
-      <c r="R52" s="55"/>
-      <c r="S52" s="55"/>
-      <c r="T52" s="55"/>
-      <c r="U52" s="55"/>
-      <c r="V52" s="55"/>
-      <c r="W52" s="55"/>
-      <c r="X52" s="55"/>
-      <c r="Y52" s="55"/>
-      <c r="Z52" s="55"/>
-      <c r="AA52" s="55"/>
-      <c r="AB52" s="55"/>
-      <c r="AC52" s="55"/>
-    </row>
-    <row r="53" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="58"/>
-      <c r="B53" s="56"/>
-      <c r="C53" s="57"/>
-      <c r="D53" s="57"/>
-      <c r="E53" s="57"/>
-      <c r="F53" s="57"/>
-      <c r="G53" s="57"/>
-      <c r="H53" s="57"/>
-      <c r="I53" s="57"/>
-      <c r="J53" s="57"/>
-      <c r="K53" s="57"/>
-      <c r="L53" s="57"/>
-      <c r="M53" s="57"/>
-      <c r="N53" s="57"/>
-      <c r="O53" s="57"/>
-      <c r="P53" s="57"/>
-      <c r="Q53" s="57"/>
-      <c r="R53" s="57"/>
-      <c r="S53" s="57"/>
-      <c r="T53" s="57"/>
-      <c r="U53" s="57"/>
-      <c r="V53" s="57"/>
-      <c r="W53" s="57"/>
-      <c r="X53" s="57"/>
-      <c r="Y53" s="57"/>
-      <c r="Z53" s="57"/>
-      <c r="AA53" s="57"/>
-      <c r="AB53" s="57"/>
-      <c r="AC53" s="57"/>
-    </row>
-    <row r="54" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="58"/>
-      <c r="B54" s="54"/>
-      <c r="C54" s="55"/>
-      <c r="D54" s="55"/>
-      <c r="E54" s="55"/>
-      <c r="F54" s="55"/>
-      <c r="G54" s="55"/>
-      <c r="H54" s="55"/>
-      <c r="I54" s="55"/>
-      <c r="J54" s="55"/>
-      <c r="K54" s="55"/>
-      <c r="L54" s="55"/>
-      <c r="M54" s="55"/>
-      <c r="N54" s="55"/>
-      <c r="O54" s="55"/>
-      <c r="P54" s="55"/>
-      <c r="Q54" s="55"/>
-      <c r="R54" s="55"/>
-      <c r="S54" s="55"/>
-      <c r="T54" s="55"/>
-      <c r="U54" s="55"/>
-      <c r="V54" s="55"/>
-      <c r="W54" s="55"/>
-      <c r="X54" s="55"/>
-      <c r="Y54" s="55"/>
-      <c r="Z54" s="55"/>
-      <c r="AA54" s="55"/>
-      <c r="AB54" s="55"/>
-      <c r="AC54" s="55"/>
-    </row>
-    <row r="55" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="58"/>
-      <c r="B55" s="56"/>
-      <c r="C55" s="57"/>
-      <c r="D55" s="57"/>
-      <c r="E55" s="57"/>
-      <c r="F55" s="57"/>
-      <c r="G55" s="57"/>
-      <c r="H55" s="57"/>
-      <c r="I55" s="57"/>
-      <c r="J55" s="57"/>
-      <c r="K55" s="57"/>
-      <c r="L55" s="57"/>
-      <c r="M55" s="57"/>
-      <c r="N55" s="57"/>
-      <c r="O55" s="57"/>
-      <c r="P55" s="57"/>
-      <c r="Q55" s="57"/>
-      <c r="R55" s="57"/>
-      <c r="S55" s="57"/>
-      <c r="T55" s="57"/>
-      <c r="U55" s="57"/>
-      <c r="V55" s="57"/>
-      <c r="W55" s="57"/>
-      <c r="X55" s="57"/>
-      <c r="Y55" s="57"/>
-      <c r="Z55" s="57"/>
-      <c r="AA55" s="57"/>
-      <c r="AB55" s="57"/>
-      <c r="AC55" s="57"/>
-    </row>
-    <row r="56" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="58"/>
-      <c r="B56" s="54"/>
-      <c r="C56" s="55"/>
-      <c r="D56" s="55"/>
-      <c r="E56" s="55"/>
-      <c r="F56" s="55"/>
-      <c r="G56" s="55"/>
-      <c r="H56" s="55"/>
-      <c r="I56" s="55"/>
-      <c r="J56" s="55"/>
-      <c r="K56" s="55"/>
-      <c r="L56" s="55"/>
-      <c r="M56" s="55"/>
-      <c r="N56" s="55"/>
-      <c r="O56" s="55"/>
-      <c r="P56" s="55"/>
-      <c r="Q56" s="55"/>
-      <c r="R56" s="55"/>
-      <c r="S56" s="55"/>
-      <c r="T56" s="55"/>
-      <c r="U56" s="55"/>
-      <c r="V56" s="55"/>
-      <c r="W56" s="55"/>
-      <c r="X56" s="55"/>
-      <c r="Y56" s="55"/>
-      <c r="Z56" s="55"/>
-      <c r="AA56" s="55"/>
-      <c r="AB56" s="55"/>
-      <c r="AC56" s="55"/>
-    </row>
-    <row r="57" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="58"/>
-      <c r="B57" s="56"/>
-      <c r="C57" s="57"/>
-      <c r="D57" s="57"/>
-      <c r="E57" s="57"/>
-      <c r="F57" s="57"/>
-      <c r="G57" s="57"/>
-      <c r="H57" s="57"/>
-      <c r="I57" s="57"/>
-      <c r="J57" s="57"/>
-      <c r="K57" s="57"/>
-      <c r="L57" s="57"/>
-      <c r="M57" s="57"/>
-      <c r="N57" s="57"/>
-      <c r="O57" s="57"/>
-      <c r="P57" s="57"/>
-      <c r="Q57" s="57"/>
-      <c r="R57" s="57"/>
-      <c r="S57" s="57"/>
-      <c r="T57" s="57"/>
-      <c r="U57" s="57"/>
-      <c r="V57" s="57"/>
-      <c r="W57" s="57"/>
-      <c r="X57" s="57"/>
-      <c r="Y57" s="57"/>
-      <c r="Z57" s="57"/>
-      <c r="AA57" s="57"/>
-      <c r="AB57" s="57"/>
-      <c r="AC57" s="57"/>
-    </row>
-    <row r="58" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="58"/>
-      <c r="B58" s="54"/>
-      <c r="C58" s="55"/>
-      <c r="D58" s="55"/>
-      <c r="E58" s="55"/>
-      <c r="F58" s="55"/>
-      <c r="G58" s="55"/>
-      <c r="H58" s="55"/>
-      <c r="I58" s="55"/>
-      <c r="J58" s="55"/>
-      <c r="K58" s="55"/>
-      <c r="L58" s="55"/>
-      <c r="M58" s="55"/>
-      <c r="N58" s="55"/>
-      <c r="O58" s="55"/>
-      <c r="P58" s="55"/>
-      <c r="Q58" s="55"/>
-      <c r="R58" s="55"/>
-      <c r="S58" s="55"/>
-      <c r="T58" s="55"/>
-      <c r="U58" s="55"/>
-      <c r="V58" s="55"/>
-      <c r="W58" s="55"/>
-      <c r="X58" s="55"/>
-      <c r="Y58" s="55"/>
-      <c r="Z58" s="55"/>
-      <c r="AA58" s="55"/>
-      <c r="AB58" s="55"/>
-      <c r="AC58" s="55"/>
-    </row>
-    <row r="59" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="58"/>
-      <c r="B59" s="56"/>
-      <c r="C59" s="57"/>
-      <c r="D59" s="57"/>
-      <c r="E59" s="57"/>
-      <c r="F59" s="57"/>
-      <c r="G59" s="57"/>
-      <c r="H59" s="57"/>
-      <c r="I59" s="57"/>
-      <c r="J59" s="57"/>
-      <c r="K59" s="57"/>
-      <c r="L59" s="57"/>
-      <c r="M59" s="57"/>
-      <c r="N59" s="57"/>
-      <c r="O59" s="57"/>
-      <c r="P59" s="57"/>
-      <c r="Q59" s="57"/>
-      <c r="R59" s="57"/>
-      <c r="S59" s="57"/>
-      <c r="T59" s="57"/>
-      <c r="U59" s="57"/>
-      <c r="V59" s="57"/>
-      <c r="W59" s="57"/>
-      <c r="X59" s="57"/>
-      <c r="Y59" s="57"/>
-      <c r="Z59" s="57"/>
-      <c r="AA59" s="57"/>
-      <c r="AB59" s="57"/>
-      <c r="AC59" s="57"/>
-    </row>
-    <row r="60" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="58"/>
-      <c r="B60" s="54"/>
-      <c r="C60" s="55"/>
-      <c r="D60" s="55"/>
-      <c r="E60" s="55"/>
-      <c r="F60" s="55"/>
-      <c r="G60" s="55"/>
-      <c r="H60" s="55"/>
-      <c r="I60" s="55"/>
-      <c r="J60" s="55"/>
-      <c r="K60" s="55"/>
-      <c r="L60" s="55"/>
-      <c r="M60" s="55"/>
-      <c r="N60" s="55"/>
-      <c r="O60" s="55"/>
-      <c r="P60" s="55"/>
-      <c r="Q60" s="55"/>
-      <c r="R60" s="55"/>
-      <c r="S60" s="55"/>
-      <c r="T60" s="55"/>
-      <c r="U60" s="55"/>
-      <c r="V60" s="55"/>
-      <c r="W60" s="55"/>
-      <c r="X60" s="55"/>
-      <c r="Y60" s="55"/>
-      <c r="Z60" s="55"/>
-      <c r="AA60" s="55"/>
-      <c r="AB60" s="55"/>
-      <c r="AC60" s="55"/>
-    </row>
-    <row r="61" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="58"/>
-      <c r="B61" s="56"/>
-      <c r="C61" s="57"/>
-      <c r="D61" s="57"/>
-      <c r="E61" s="57"/>
-      <c r="F61" s="57"/>
-      <c r="G61" s="57"/>
-      <c r="H61" s="57"/>
-      <c r="I61" s="57"/>
-      <c r="J61" s="57"/>
-      <c r="K61" s="57"/>
-      <c r="L61" s="57"/>
-      <c r="M61" s="57"/>
-      <c r="N61" s="57"/>
-      <c r="O61" s="57"/>
-      <c r="P61" s="57"/>
-      <c r="Q61" s="57"/>
-      <c r="R61" s="57"/>
-      <c r="S61" s="57"/>
-      <c r="T61" s="57"/>
-      <c r="U61" s="57"/>
-      <c r="V61" s="57"/>
-      <c r="W61" s="57"/>
-      <c r="X61" s="57"/>
-      <c r="Y61" s="57"/>
-      <c r="Z61" s="57"/>
-      <c r="AA61" s="57"/>
-      <c r="AB61" s="57"/>
-      <c r="AC61" s="57"/>
-    </row>
-    <row r="62" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="58"/>
-      <c r="B62" s="54"/>
-      <c r="C62" s="55"/>
-      <c r="D62" s="55"/>
-      <c r="E62" s="55"/>
-      <c r="F62" s="55"/>
-      <c r="G62" s="55"/>
-      <c r="H62" s="55"/>
-      <c r="I62" s="55"/>
-      <c r="J62" s="55"/>
-      <c r="K62" s="55"/>
-      <c r="L62" s="55"/>
-      <c r="M62" s="55"/>
-      <c r="N62" s="55"/>
-      <c r="O62" s="55"/>
-      <c r="P62" s="55"/>
-      <c r="Q62" s="55"/>
-      <c r="R62" s="55"/>
-      <c r="S62" s="55"/>
-      <c r="T62" s="55"/>
-      <c r="U62" s="55"/>
-      <c r="V62" s="55"/>
-      <c r="W62" s="55"/>
-      <c r="X62" s="55"/>
-      <c r="Y62" s="55"/>
-      <c r="Z62" s="55"/>
-      <c r="AA62" s="55"/>
-      <c r="AB62" s="55"/>
-      <c r="AC62" s="55"/>
-    </row>
-    <row r="63" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="58"/>
-      <c r="B63" s="56"/>
-      <c r="C63" s="57"/>
-      <c r="D63" s="57"/>
-      <c r="E63" s="57"/>
-      <c r="F63" s="57"/>
-      <c r="G63" s="57"/>
-      <c r="H63" s="57"/>
-      <c r="I63" s="57"/>
-      <c r="J63" s="57"/>
-      <c r="K63" s="57"/>
-      <c r="L63" s="57"/>
-      <c r="M63" s="57"/>
-      <c r="N63" s="57"/>
-      <c r="O63" s="57"/>
-      <c r="P63" s="57"/>
-      <c r="Q63" s="57"/>
-      <c r="R63" s="57"/>
-      <c r="S63" s="57"/>
-      <c r="T63" s="57"/>
-      <c r="U63" s="57"/>
-      <c r="V63" s="57"/>
-      <c r="W63" s="57"/>
-      <c r="X63" s="57"/>
-      <c r="Y63" s="57"/>
-      <c r="Z63" s="57"/>
-      <c r="AA63" s="57"/>
-      <c r="AB63" s="57"/>
-      <c r="AC63" s="57"/>
-    </row>
     <row r="64" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="58"/>
       <c r="B64" s="54"/>
@@ -16931,11 +13988,3300 @@
       <c r="AB64" s="55"/>
       <c r="AC64" s="55"/>
     </row>
-    <row r="65" spans="21:22" x14ac:dyDescent="0.2">
-      <c r="U65" s="48"/>
-      <c r="V65" s="18"/>
-    </row>
-    <row r="66" spans="21:22" x14ac:dyDescent="0.2">
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AE66"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V48" sqref="V48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.875" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="21" width="7.25" style="18" customWidth="1"/>
+    <col min="22" max="22" width="7.25" style="48" customWidth="1"/>
+    <col min="23" max="26" width="7.25" style="18" customWidth="1"/>
+    <col min="27" max="28" width="8.625" style="18" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="P1" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q1" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="R1" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="S1" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="T1" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="U1" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="V1" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="W1" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="X1" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y1" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z1" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA1" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB1" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC1" s="17"/>
+    </row>
+    <row r="2" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="20"/>
+      <c r="B2" s="37">
+        <v>677387</v>
+      </c>
+      <c r="C2" s="32">
+        <v>16145</v>
+      </c>
+      <c r="D2" s="24">
+        <v>55234</v>
+      </c>
+      <c r="E2" s="32">
+        <v>1034977</v>
+      </c>
+      <c r="F2" s="24">
+        <v>288132</v>
+      </c>
+      <c r="G2" s="32">
+        <v>194766</v>
+      </c>
+      <c r="H2" s="24">
+        <v>318714</v>
+      </c>
+      <c r="I2" s="32">
+        <v>499480</v>
+      </c>
+      <c r="J2" s="24">
+        <v>40403</v>
+      </c>
+      <c r="K2" s="32">
+        <v>198379</v>
+      </c>
+      <c r="L2" s="24">
+        <v>73419</v>
+      </c>
+      <c r="M2" s="32">
+        <v>409557</v>
+      </c>
+      <c r="N2" s="24">
+        <v>176850</v>
+      </c>
+      <c r="O2" s="32">
+        <v>43223</v>
+      </c>
+      <c r="P2" s="24">
+        <v>37841</v>
+      </c>
+      <c r="Q2" s="32">
+        <v>507697</v>
+      </c>
+      <c r="R2" s="24">
+        <v>81991</v>
+      </c>
+      <c r="S2" s="32">
+        <v>273194</v>
+      </c>
+      <c r="T2" s="24">
+        <v>159165</v>
+      </c>
+      <c r="U2" s="32">
+        <v>276472</v>
+      </c>
+      <c r="V2" s="42">
+        <v>353343</v>
+      </c>
+      <c r="W2" s="32">
+        <v>36433</v>
+      </c>
+      <c r="X2" s="24">
+        <v>799145</v>
+      </c>
+      <c r="Y2" s="32">
+        <v>343955</v>
+      </c>
+      <c r="Z2" s="24">
+        <v>126837</v>
+      </c>
+      <c r="AA2" s="32">
+        <v>1520968</v>
+      </c>
+      <c r="AB2" s="50">
+        <f>SUM(B2:AA2)</f>
+        <v>8543707</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="20"/>
+      <c r="B3" s="51">
+        <f t="shared" ref="B3:AB3" si="0">B42/B2</f>
+        <v>1.7715131822724674E-5</v>
+      </c>
+      <c r="C3" s="51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D3" s="51">
+        <f t="shared" si="0"/>
+        <v>5.4314371582720785E-5</v>
+      </c>
+      <c r="E3" s="51">
+        <f t="shared" si="0"/>
+        <v>2.5121331198664318E-5</v>
+      </c>
+      <c r="F3" s="51">
+        <f t="shared" si="0"/>
+        <v>4.85888412255494E-5</v>
+      </c>
+      <c r="G3" s="52">
+        <f t="shared" si="0"/>
+        <v>1.0782169372477742E-4</v>
+      </c>
+      <c r="H3" s="52">
+        <f t="shared" si="0"/>
+        <v>9.7265887284524687E-5</v>
+      </c>
+      <c r="I3" s="52">
+        <f t="shared" si="0"/>
+        <v>1.6016657323616562E-4</v>
+      </c>
+      <c r="J3" s="51">
+        <f t="shared" si="0"/>
+        <v>4.9501274657822438E-5</v>
+      </c>
+      <c r="K3" s="52">
+        <f t="shared" si="0"/>
+        <v>1.3610311575317952E-4</v>
+      </c>
+      <c r="L3" s="51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M3" s="51">
+        <f t="shared" si="0"/>
+        <v>1.7091638038172954E-5</v>
+      </c>
+      <c r="N3" s="52">
+        <f t="shared" si="0"/>
+        <v>1.3005371783997738E-4</v>
+      </c>
+      <c r="O3" s="51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P3" s="51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="51">
+        <f t="shared" si="0"/>
+        <v>1.575743012072161E-5</v>
+      </c>
+      <c r="R3" s="51">
+        <f t="shared" si="0"/>
+        <v>1.2196460587137613E-5</v>
+      </c>
+      <c r="S3" s="51">
+        <f t="shared" si="0"/>
+        <v>1.0981207493575993E-5</v>
+      </c>
+      <c r="T3" s="51">
+        <f t="shared" si="0"/>
+        <v>2.5131153205792732E-5</v>
+      </c>
+      <c r="U3" s="51">
+        <f t="shared" si="0"/>
+        <v>1.8085014033970889E-5</v>
+      </c>
+      <c r="V3" s="53">
+        <f t="shared" si="0"/>
+        <v>4.3866724400936198E-4</v>
+      </c>
+      <c r="W3" s="51">
+        <f t="shared" si="0"/>
+        <v>2.744764361979524E-5</v>
+      </c>
+      <c r="X3" s="52">
+        <f t="shared" si="0"/>
+        <v>1.5391449611772582E-4</v>
+      </c>
+      <c r="Y3" s="52">
+        <f t="shared" si="0"/>
+        <v>1.3083106801761859E-4</v>
+      </c>
+      <c r="Z3" s="51">
+        <f t="shared" si="0"/>
+        <v>1.5768269511262485E-5</v>
+      </c>
+      <c r="AA3" s="51">
+        <f t="shared" si="0"/>
+        <v>2.4984089080112139E-5</v>
+      </c>
+      <c r="AB3" s="51">
+        <f t="shared" si="0"/>
+        <v>7.3855528987592855E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="20">
+        <v>43886</v>
+      </c>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="47"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="21"/>
+      <c r="Z4" s="21"/>
+      <c r="AA4" s="21"/>
+      <c r="AB4" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="22">
+        <v>43887</v>
+      </c>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="23"/>
+      <c r="V5" s="47"/>
+      <c r="W5" s="23"/>
+      <c r="X5" s="23"/>
+      <c r="Y5" s="23"/>
+      <c r="Z5" s="23"/>
+      <c r="AA5" s="23"/>
+      <c r="AB5" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="20">
+        <v>43888</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="47"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="21"/>
+      <c r="Y6" s="21"/>
+      <c r="Z6" s="21"/>
+      <c r="AA6" s="21"/>
+      <c r="AB6" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="22">
+        <v>43889</v>
+      </c>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="47"/>
+      <c r="W7" s="23"/>
+      <c r="X7" s="23"/>
+      <c r="Y7" s="23"/>
+      <c r="Z7" s="23"/>
+      <c r="AA7" s="23"/>
+      <c r="AB7" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="20">
+        <v>43890</v>
+      </c>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="47"/>
+      <c r="W8" s="21"/>
+      <c r="X8" s="21"/>
+      <c r="Y8" s="21"/>
+      <c r="Z8" s="21"/>
+      <c r="AA8" s="21"/>
+      <c r="AB8" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="22">
+        <v>43891</v>
+      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="23"/>
+      <c r="V9" s="47"/>
+      <c r="W9" s="23"/>
+      <c r="X9" s="23"/>
+      <c r="Y9" s="23"/>
+      <c r="Z9" s="23"/>
+      <c r="AA9" s="23"/>
+      <c r="AB9" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="20">
+        <v>43892</v>
+      </c>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="47"/>
+      <c r="W10" s="21"/>
+      <c r="X10" s="21"/>
+      <c r="Y10" s="21"/>
+      <c r="Z10" s="21"/>
+      <c r="AA10" s="21"/>
+      <c r="AB10" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="22">
+        <v>43893</v>
+      </c>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="23"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="47"/>
+      <c r="W11" s="23"/>
+      <c r="X11" s="23"/>
+      <c r="Y11" s="23"/>
+      <c r="Z11" s="23"/>
+      <c r="AA11" s="23"/>
+      <c r="AB11" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="20">
+        <v>43894</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="47"/>
+      <c r="W12" s="21"/>
+      <c r="X12" s="21"/>
+      <c r="Y12" s="21"/>
+      <c r="Z12" s="21"/>
+      <c r="AA12" s="21"/>
+      <c r="AB12" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="22">
+        <v>43895</v>
+      </c>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="23"/>
+      <c r="T13" s="23"/>
+      <c r="U13" s="23"/>
+      <c r="V13" s="47"/>
+      <c r="W13" s="23"/>
+      <c r="X13" s="23"/>
+      <c r="Y13" s="23"/>
+      <c r="Z13" s="23"/>
+      <c r="AA13" s="23"/>
+      <c r="AB13" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="20">
+        <v>43896</v>
+      </c>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="47"/>
+      <c r="W14" s="21"/>
+      <c r="X14" s="21">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="21"/>
+      <c r="Z14" s="21"/>
+      <c r="AA14" s="21"/>
+      <c r="AB14" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="22">
+        <v>43897</v>
+      </c>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="23"/>
+      <c r="U15" s="23"/>
+      <c r="V15" s="47"/>
+      <c r="W15" s="23"/>
+      <c r="X15" s="23">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="23"/>
+      <c r="Z15" s="23"/>
+      <c r="AA15" s="23"/>
+      <c r="AB15" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="20">
+        <v>43898</v>
+      </c>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21">
+        <v>1</v>
+      </c>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="21"/>
+      <c r="V16" s="47"/>
+      <c r="W16" s="21"/>
+      <c r="X16" s="21">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="21"/>
+      <c r="Z16" s="21"/>
+      <c r="AA16" s="21"/>
+      <c r="AB16" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="22">
+        <v>43899</v>
+      </c>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23">
+        <v>1</v>
+      </c>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23">
+        <v>1</v>
+      </c>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
+      <c r="S17" s="23"/>
+      <c r="T17" s="23"/>
+      <c r="U17" s="23"/>
+      <c r="V17" s="47"/>
+      <c r="W17" s="23"/>
+      <c r="X17" s="23">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="23"/>
+      <c r="Z17" s="23"/>
+      <c r="AA17" s="23"/>
+      <c r="AB17" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="20">
+        <v>43900</v>
+      </c>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21">
+        <v>1</v>
+      </c>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21">
+        <v>2</v>
+      </c>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="21"/>
+      <c r="S18" s="21"/>
+      <c r="T18" s="21"/>
+      <c r="U18" s="21"/>
+      <c r="V18" s="47">
+        <v>1</v>
+      </c>
+      <c r="W18" s="21"/>
+      <c r="X18" s="21">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="21"/>
+      <c r="Z18" s="21"/>
+      <c r="AA18" s="21"/>
+      <c r="AB18" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="22">
+        <v>43901</v>
+      </c>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23">
+        <v>2</v>
+      </c>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23">
+        <v>2</v>
+      </c>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
+      <c r="S19" s="23"/>
+      <c r="T19" s="23"/>
+      <c r="U19" s="23"/>
+      <c r="V19" s="47"/>
+      <c r="W19" s="23"/>
+      <c r="X19" s="23">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="23"/>
+      <c r="Z19" s="23"/>
+      <c r="AA19" s="23"/>
+      <c r="AB19" s="23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="20">
+        <v>43902</v>
+      </c>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21">
+        <v>2</v>
+      </c>
+      <c r="G20" s="21">
+        <v>1</v>
+      </c>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21">
+        <v>2</v>
+      </c>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="21"/>
+      <c r="S20" s="21"/>
+      <c r="T20" s="21"/>
+      <c r="U20" s="21"/>
+      <c r="V20" s="47"/>
+      <c r="W20" s="21"/>
+      <c r="X20" s="21">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="21"/>
+      <c r="Z20" s="21"/>
+      <c r="AA20" s="21"/>
+      <c r="AB20" s="21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="22">
+        <v>43903</v>
+      </c>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23">
+        <v>2</v>
+      </c>
+      <c r="G21" s="23">
+        <v>1</v>
+      </c>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23">
+        <v>2</v>
+      </c>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
+      <c r="S21" s="23"/>
+      <c r="T21" s="23"/>
+      <c r="U21" s="23"/>
+      <c r="V21" s="47"/>
+      <c r="W21" s="23"/>
+      <c r="X21" s="23">
+        <v>2</v>
+      </c>
+      <c r="Y21" s="23"/>
+      <c r="Z21" s="23"/>
+      <c r="AA21" s="23"/>
+      <c r="AB21" s="23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="20">
+        <v>43904</v>
+      </c>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21">
+        <v>2</v>
+      </c>
+      <c r="G22" s="21">
+        <v>1</v>
+      </c>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21">
+        <v>2</v>
+      </c>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="21"/>
+      <c r="S22" s="21"/>
+      <c r="T22" s="21"/>
+      <c r="U22" s="21"/>
+      <c r="V22" s="47">
+        <v>3</v>
+      </c>
+      <c r="W22" s="21"/>
+      <c r="X22" s="21">
+        <v>3</v>
+      </c>
+      <c r="Y22" s="21">
+        <v>1</v>
+      </c>
+      <c r="Z22" s="21"/>
+      <c r="AA22" s="21"/>
+      <c r="AB22" s="21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="22">
+        <v>43905</v>
+      </c>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23">
+        <v>2</v>
+      </c>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23">
+        <v>4</v>
+      </c>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="23"/>
+      <c r="R23" s="23"/>
+      <c r="S23" s="23"/>
+      <c r="T23" s="23"/>
+      <c r="U23" s="23"/>
+      <c r="V23" s="47">
+        <v>6</v>
+      </c>
+      <c r="W23" s="23"/>
+      <c r="X23" s="23">
+        <v>4</v>
+      </c>
+      <c r="Y23" s="23">
+        <v>1</v>
+      </c>
+      <c r="Z23" s="23"/>
+      <c r="AA23" s="23"/>
+      <c r="AB23" s="23">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="20">
+        <v>43906</v>
+      </c>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21">
+        <v>1</v>
+      </c>
+      <c r="F24" s="21">
+        <v>2</v>
+      </c>
+      <c r="G24" s="21">
+        <v>4</v>
+      </c>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21">
+        <v>4</v>
+      </c>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="21"/>
+      <c r="R24" s="21"/>
+      <c r="S24" s="21"/>
+      <c r="T24" s="21"/>
+      <c r="U24" s="21"/>
+      <c r="V24" s="47">
+        <v>8</v>
+      </c>
+      <c r="W24" s="21"/>
+      <c r="X24" s="21">
+        <v>5</v>
+      </c>
+      <c r="Y24" s="21">
+        <v>2</v>
+      </c>
+      <c r="Z24" s="21"/>
+      <c r="AA24" s="21">
+        <v>1</v>
+      </c>
+      <c r="AB24" s="21">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="22">
+        <v>43907</v>
+      </c>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23">
+        <v>2</v>
+      </c>
+      <c r="G25" s="23">
+        <v>4</v>
+      </c>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23">
+        <v>4</v>
+      </c>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="23"/>
+      <c r="Q25" s="23"/>
+      <c r="R25" s="23"/>
+      <c r="S25" s="23"/>
+      <c r="T25" s="23"/>
+      <c r="U25" s="23"/>
+      <c r="V25" s="47">
+        <v>10</v>
+      </c>
+      <c r="W25" s="23"/>
+      <c r="X25" s="23">
+        <v>5</v>
+      </c>
+      <c r="Y25" s="23">
+        <v>3</v>
+      </c>
+      <c r="Z25" s="23"/>
+      <c r="AA25" s="23"/>
+      <c r="AB25" s="23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="20">
+        <v>43908</v>
+      </c>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21">
+        <v>1</v>
+      </c>
+      <c r="F26" s="21">
+        <v>2</v>
+      </c>
+      <c r="G26" s="21">
+        <v>4</v>
+      </c>
+      <c r="H26" s="21">
+        <v>1</v>
+      </c>
+      <c r="I26" s="21">
+        <v>6</v>
+      </c>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21">
+        <v>1</v>
+      </c>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="21"/>
+      <c r="R26" s="21"/>
+      <c r="S26" s="21"/>
+      <c r="T26" s="21"/>
+      <c r="U26" s="21"/>
+      <c r="V26" s="47">
+        <v>14</v>
+      </c>
+      <c r="W26" s="21"/>
+      <c r="X26" s="21">
+        <v>5</v>
+      </c>
+      <c r="Y26" s="21">
+        <v>3</v>
+      </c>
+      <c r="Z26" s="21"/>
+      <c r="AA26" s="21"/>
+      <c r="AB26" s="21">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="22">
+        <v>43909</v>
+      </c>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23">
+        <v>1</v>
+      </c>
+      <c r="F27" s="23">
+        <v>2</v>
+      </c>
+      <c r="G27" s="23">
+        <v>4</v>
+      </c>
+      <c r="H27" s="23">
+        <v>1</v>
+      </c>
+      <c r="I27" s="23">
+        <v>6</v>
+      </c>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23">
+        <v>1</v>
+      </c>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="23"/>
+      <c r="R27" s="23"/>
+      <c r="S27" s="23"/>
+      <c r="T27" s="23"/>
+      <c r="U27" s="23"/>
+      <c r="V27" s="47">
+        <v>15</v>
+      </c>
+      <c r="W27" s="23"/>
+      <c r="X27" s="23">
+        <v>7</v>
+      </c>
+      <c r="Y27" s="23">
+        <v>4</v>
+      </c>
+      <c r="Z27" s="23"/>
+      <c r="AA27" s="23">
+        <v>3</v>
+      </c>
+      <c r="AB27" s="23">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="20">
+        <v>43910</v>
+      </c>
+      <c r="B28" s="21">
+        <v>1</v>
+      </c>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21">
+        <v>2</v>
+      </c>
+      <c r="F28" s="21">
+        <v>3</v>
+      </c>
+      <c r="G28" s="21">
+        <v>4</v>
+      </c>
+      <c r="H28" s="21">
+        <v>1</v>
+      </c>
+      <c r="I28" s="21">
+        <v>8</v>
+      </c>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21">
+        <v>3</v>
+      </c>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21">
+        <v>3</v>
+      </c>
+      <c r="O28" s="21"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="21"/>
+      <c r="S28" s="21"/>
+      <c r="T28" s="21"/>
+      <c r="U28" s="21"/>
+      <c r="V28" s="47">
+        <v>22</v>
+      </c>
+      <c r="W28" s="21"/>
+      <c r="X28" s="21">
+        <v>12</v>
+      </c>
+      <c r="Y28" s="21">
+        <v>6</v>
+      </c>
+      <c r="Z28" s="21"/>
+      <c r="AA28" s="21">
+        <v>3</v>
+      </c>
+      <c r="AB28" s="21">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="56">
+        <v>43911</v>
+      </c>
+      <c r="B29" s="57"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57">
+        <v>1</v>
+      </c>
+      <c r="E29" s="57">
+        <v>3</v>
+      </c>
+      <c r="F29" s="57">
+        <v>3</v>
+      </c>
+      <c r="G29" s="57">
+        <v>5</v>
+      </c>
+      <c r="H29" s="57">
+        <v>2</v>
+      </c>
+      <c r="I29" s="57">
+        <v>9</v>
+      </c>
+      <c r="J29" s="57"/>
+      <c r="K29" s="57">
+        <v>3</v>
+      </c>
+      <c r="L29" s="57"/>
+      <c r="M29" s="57">
+        <v>1</v>
+      </c>
+      <c r="N29" s="57">
+        <v>4</v>
+      </c>
+      <c r="O29" s="57"/>
+      <c r="P29" s="57"/>
+      <c r="Q29" s="57"/>
+      <c r="R29" s="57"/>
+      <c r="S29" s="57"/>
+      <c r="T29" s="57"/>
+      <c r="U29" s="57"/>
+      <c r="V29" s="47">
+        <v>28</v>
+      </c>
+      <c r="W29" s="57"/>
+      <c r="X29" s="57">
+        <v>15</v>
+      </c>
+      <c r="Y29" s="57">
+        <v>7</v>
+      </c>
+      <c r="Z29" s="57"/>
+      <c r="AA29" s="57"/>
+      <c r="AB29" s="57">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="54">
+        <v>43912</v>
+      </c>
+      <c r="B30" s="55">
+        <v>1</v>
+      </c>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55">
+        <v>3</v>
+      </c>
+      <c r="G30" s="55">
+        <v>5</v>
+      </c>
+      <c r="H30" s="55">
+        <v>3</v>
+      </c>
+      <c r="I30" s="55">
+        <v>10</v>
+      </c>
+      <c r="J30" s="55"/>
+      <c r="K30" s="55">
+        <v>6</v>
+      </c>
+      <c r="L30" s="55"/>
+      <c r="M30" s="55">
+        <v>1</v>
+      </c>
+      <c r="N30" s="55">
+        <v>4</v>
+      </c>
+      <c r="O30" s="55"/>
+      <c r="P30" s="55"/>
+      <c r="Q30" s="55"/>
+      <c r="R30" s="55"/>
+      <c r="S30" s="55"/>
+      <c r="T30" s="55"/>
+      <c r="U30" s="55"/>
+      <c r="V30" s="47">
+        <v>37</v>
+      </c>
+      <c r="W30" s="55"/>
+      <c r="X30" s="55">
+        <v>16</v>
+      </c>
+      <c r="Y30" s="55">
+        <v>10</v>
+      </c>
+      <c r="Z30" s="55"/>
+      <c r="AA30" s="55"/>
+      <c r="AB30" s="55">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="56">
+        <v>43913</v>
+      </c>
+      <c r="B31" s="57">
+        <v>1</v>
+      </c>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57">
+        <v>1</v>
+      </c>
+      <c r="E31" s="57">
+        <v>5</v>
+      </c>
+      <c r="F31" s="57">
+        <v>3</v>
+      </c>
+      <c r="G31" s="57">
+        <v>5</v>
+      </c>
+      <c r="H31" s="57">
+        <v>4</v>
+      </c>
+      <c r="I31" s="57">
+        <v>13</v>
+      </c>
+      <c r="J31" s="57"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="57"/>
+      <c r="M31" s="57">
+        <v>1</v>
+      </c>
+      <c r="N31" s="57">
+        <v>5</v>
+      </c>
+      <c r="O31" s="57"/>
+      <c r="P31" s="57"/>
+      <c r="Q31" s="57">
+        <v>1</v>
+      </c>
+      <c r="R31" s="57"/>
+      <c r="S31" s="57">
+        <v>1</v>
+      </c>
+      <c r="T31" s="57"/>
+      <c r="U31" s="57"/>
+      <c r="V31" s="47">
+        <v>48</v>
+      </c>
+      <c r="W31" s="57"/>
+      <c r="X31" s="57">
+        <v>25</v>
+      </c>
+      <c r="Y31" s="57">
+        <v>12</v>
+      </c>
+      <c r="Z31" s="57"/>
+      <c r="AA31" s="57">
+        <v>5</v>
+      </c>
+      <c r="AB31" s="57">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="54">
+        <v>43914</v>
+      </c>
+      <c r="B32" s="55">
+        <v>2</v>
+      </c>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55">
+        <v>2</v>
+      </c>
+      <c r="E32" s="55">
+        <v>6</v>
+      </c>
+      <c r="F32" s="55">
+        <v>4</v>
+      </c>
+      <c r="G32" s="55">
+        <v>5</v>
+      </c>
+      <c r="H32" s="55">
+        <v>5</v>
+      </c>
+      <c r="I32" s="55">
+        <v>14</v>
+      </c>
+      <c r="J32" s="55"/>
+      <c r="K32" s="55">
+        <v>6</v>
+      </c>
+      <c r="L32" s="55"/>
+      <c r="M32" s="55">
+        <v>2</v>
+      </c>
+      <c r="N32" s="55">
+        <v>6</v>
+      </c>
+      <c r="O32" s="55"/>
+      <c r="P32" s="55"/>
+      <c r="Q32" s="55"/>
+      <c r="R32" s="55"/>
+      <c r="S32" s="55">
+        <v>1</v>
+      </c>
+      <c r="T32" s="55"/>
+      <c r="U32" s="55">
+        <v>1</v>
+      </c>
+      <c r="V32" s="47">
+        <v>53</v>
+      </c>
+      <c r="W32" s="55"/>
+      <c r="X32" s="55">
+        <v>29</v>
+      </c>
+      <c r="Y32" s="55">
+        <v>13</v>
+      </c>
+      <c r="Z32" s="55"/>
+      <c r="AA32" s="55">
+        <v>5</v>
+      </c>
+      <c r="AB32" s="55">
+        <v>155</v>
+      </c>
+      <c r="AC32" s="10">
+        <f>AB32-AB25</f>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="56">
+        <v>43915</v>
+      </c>
+      <c r="B33" s="57">
+        <v>2</v>
+      </c>
+      <c r="C33" s="57"/>
+      <c r="D33" s="57">
+        <v>2</v>
+      </c>
+      <c r="E33" s="57">
+        <v>6</v>
+      </c>
+      <c r="F33" s="57">
+        <v>5</v>
+      </c>
+      <c r="G33" s="57">
+        <v>8</v>
+      </c>
+      <c r="H33" s="57">
+        <v>6</v>
+      </c>
+      <c r="I33" s="57">
+        <v>21</v>
+      </c>
+      <c r="J33" s="57"/>
+      <c r="K33" s="57">
+        <v>6</v>
+      </c>
+      <c r="L33" s="57"/>
+      <c r="M33" s="57">
+        <v>2</v>
+      </c>
+      <c r="N33" s="57">
+        <v>9</v>
+      </c>
+      <c r="O33" s="57"/>
+      <c r="P33" s="57"/>
+      <c r="Q33" s="57">
+        <v>1</v>
+      </c>
+      <c r="R33" s="57"/>
+      <c r="S33" s="57">
+        <v>1</v>
+      </c>
+      <c r="T33" s="57"/>
+      <c r="U33" s="57">
+        <v>1</v>
+      </c>
+      <c r="V33" s="47">
+        <v>60</v>
+      </c>
+      <c r="W33" s="57"/>
+      <c r="X33" s="57">
+        <v>36</v>
+      </c>
+      <c r="Y33" s="57">
+        <v>14</v>
+      </c>
+      <c r="Z33" s="57"/>
+      <c r="AA33" s="57">
+        <v>7</v>
+      </c>
+      <c r="AB33" s="57">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="54">
+        <v>43916</v>
+      </c>
+      <c r="B34" s="55">
+        <v>2</v>
+      </c>
+      <c r="C34" s="55"/>
+      <c r="D34" s="55">
+        <v>2</v>
+      </c>
+      <c r="E34" s="55">
+        <v>7</v>
+      </c>
+      <c r="F34" s="55">
+        <v>5</v>
+      </c>
+      <c r="G34" s="55">
+        <v>12</v>
+      </c>
+      <c r="H34" s="55">
+        <v>11</v>
+      </c>
+      <c r="I34" s="55">
+        <v>23</v>
+      </c>
+      <c r="J34" s="55"/>
+      <c r="K34" s="55">
+        <v>9</v>
+      </c>
+      <c r="L34" s="55"/>
+      <c r="M34" s="55">
+        <v>3</v>
+      </c>
+      <c r="N34" s="55">
+        <v>11</v>
+      </c>
+      <c r="O34" s="55"/>
+      <c r="P34" s="55"/>
+      <c r="Q34" s="55">
+        <v>2</v>
+      </c>
+      <c r="R34" s="55"/>
+      <c r="S34" s="55">
+        <v>1</v>
+      </c>
+      <c r="T34" s="55">
+        <v>1</v>
+      </c>
+      <c r="U34" s="55">
+        <v>1</v>
+      </c>
+      <c r="V34" s="47">
+        <v>67</v>
+      </c>
+      <c r="W34" s="55"/>
+      <c r="X34" s="55">
+        <v>47</v>
+      </c>
+      <c r="Y34" s="55">
+        <v>15</v>
+      </c>
+      <c r="Z34" s="55"/>
+      <c r="AA34" s="55">
+        <v>9</v>
+      </c>
+      <c r="AB34" s="55">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="56">
+        <v>43917</v>
+      </c>
+      <c r="B35" s="57">
+        <v>3</v>
+      </c>
+      <c r="C35" s="57"/>
+      <c r="D35" s="57">
+        <v>2</v>
+      </c>
+      <c r="E35" s="57">
+        <v>8</v>
+      </c>
+      <c r="F35" s="57">
+        <v>5</v>
+      </c>
+      <c r="G35" s="57">
+        <v>13</v>
+      </c>
+      <c r="H35" s="57">
+        <v>15</v>
+      </c>
+      <c r="I35" s="57">
+        <v>30</v>
+      </c>
+      <c r="J35" s="57"/>
+      <c r="K35" s="57">
+        <v>9</v>
+      </c>
+      <c r="L35" s="57"/>
+      <c r="M35" s="57">
+        <v>3</v>
+      </c>
+      <c r="N35" s="57">
+        <v>12</v>
+      </c>
+      <c r="O35" s="57"/>
+      <c r="P35" s="57"/>
+      <c r="Q35" s="57"/>
+      <c r="R35" s="57"/>
+      <c r="S35" s="57">
+        <v>1</v>
+      </c>
+      <c r="T35" s="57">
+        <v>1</v>
+      </c>
+      <c r="U35" s="57">
+        <v>2</v>
+      </c>
+      <c r="V35" s="47">
+        <v>76</v>
+      </c>
+      <c r="W35" s="57"/>
+      <c r="X35" s="57">
+        <v>48</v>
+      </c>
+      <c r="Y35" s="57">
+        <v>20</v>
+      </c>
+      <c r="Z35" s="57">
+        <v>1</v>
+      </c>
+      <c r="AA35" s="57">
+        <v>11</v>
+      </c>
+      <c r="AB35" s="57">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="54">
+        <v>43918</v>
+      </c>
+      <c r="B36" s="55"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="55">
+        <v>2</v>
+      </c>
+      <c r="E36" s="55">
+        <v>9</v>
+      </c>
+      <c r="F36" s="55">
+        <v>6</v>
+      </c>
+      <c r="G36" s="55">
+        <v>13</v>
+      </c>
+      <c r="H36" s="55">
+        <v>15</v>
+      </c>
+      <c r="I36" s="55">
+        <v>37</v>
+      </c>
+      <c r="J36" s="55">
+        <v>1</v>
+      </c>
+      <c r="K36" s="55"/>
+      <c r="L36" s="55"/>
+      <c r="M36" s="55">
+        <v>4</v>
+      </c>
+      <c r="N36" s="55">
+        <v>14</v>
+      </c>
+      <c r="O36" s="55"/>
+      <c r="P36" s="55"/>
+      <c r="Q36" s="55">
+        <v>5</v>
+      </c>
+      <c r="R36" s="55"/>
+      <c r="S36" s="55">
+        <v>1</v>
+      </c>
+      <c r="T36" s="55">
+        <v>2</v>
+      </c>
+      <c r="U36" s="55">
+        <v>2</v>
+      </c>
+      <c r="V36" s="47">
+        <v>87</v>
+      </c>
+      <c r="W36" s="55"/>
+      <c r="X36" s="55">
+        <v>55</v>
+      </c>
+      <c r="Y36" s="55">
+        <v>21</v>
+      </c>
+      <c r="Z36" s="55"/>
+      <c r="AA36" s="55">
+        <v>15</v>
+      </c>
+      <c r="AB36" s="55">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="56">
+        <v>43919</v>
+      </c>
+      <c r="B37" s="57"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="57">
+        <v>2</v>
+      </c>
+      <c r="E37" s="57">
+        <v>10</v>
+      </c>
+      <c r="F37" s="57">
+        <v>6</v>
+      </c>
+      <c r="G37" s="57">
+        <v>15</v>
+      </c>
+      <c r="H37" s="57">
+        <v>16</v>
+      </c>
+      <c r="I37" s="57">
+        <v>44</v>
+      </c>
+      <c r="J37" s="57"/>
+      <c r="K37" s="57"/>
+      <c r="L37" s="57"/>
+      <c r="M37" s="57">
+        <v>5</v>
+      </c>
+      <c r="N37" s="57">
+        <v>17</v>
+      </c>
+      <c r="O37" s="57"/>
+      <c r="P37" s="57"/>
+      <c r="Q37" s="57">
+        <v>5</v>
+      </c>
+      <c r="R37" s="57"/>
+      <c r="S37" s="57">
+        <v>2</v>
+      </c>
+      <c r="T37" s="57">
+        <v>2</v>
+      </c>
+      <c r="U37" s="57">
+        <v>2</v>
+      </c>
+      <c r="V37" s="47">
+        <v>93</v>
+      </c>
+      <c r="W37" s="57"/>
+      <c r="X37" s="57">
+        <v>66</v>
+      </c>
+      <c r="Y37" s="57">
+        <v>21</v>
+      </c>
+      <c r="Z37" s="57"/>
+      <c r="AA37" s="57">
+        <v>15</v>
+      </c>
+      <c r="AB37" s="57">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="54">
+        <v>43920</v>
+      </c>
+      <c r="B38" s="55">
+        <v>8</v>
+      </c>
+      <c r="C38" s="55"/>
+      <c r="D38" s="55">
+        <v>2</v>
+      </c>
+      <c r="E38" s="55">
+        <v>13</v>
+      </c>
+      <c r="F38" s="55">
+        <v>7</v>
+      </c>
+      <c r="G38" s="55">
+        <v>15</v>
+      </c>
+      <c r="H38" s="55">
+        <v>17</v>
+      </c>
+      <c r="I38" s="55">
+        <v>53</v>
+      </c>
+      <c r="J38" s="55">
+        <v>1</v>
+      </c>
+      <c r="K38" s="55">
+        <v>12</v>
+      </c>
+      <c r="L38" s="55"/>
+      <c r="M38" s="55">
+        <v>6</v>
+      </c>
+      <c r="N38" s="55">
+        <v>19</v>
+      </c>
+      <c r="O38" s="55"/>
+      <c r="P38" s="55"/>
+      <c r="Q38" s="55">
+        <v>5</v>
+      </c>
+      <c r="R38" s="55"/>
+      <c r="S38" s="55"/>
+      <c r="T38" s="55">
+        <v>2</v>
+      </c>
+      <c r="U38" s="55">
+        <v>2</v>
+      </c>
+      <c r="V38" s="47">
+        <v>105</v>
+      </c>
+      <c r="W38" s="55"/>
+      <c r="X38" s="55">
+        <v>77</v>
+      </c>
+      <c r="Y38" s="55">
+        <v>26</v>
+      </c>
+      <c r="Z38" s="55">
+        <v>1</v>
+      </c>
+      <c r="AA38" s="55">
+        <v>21</v>
+      </c>
+      <c r="AB38" s="55">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="56">
+        <v>43921</v>
+      </c>
+      <c r="B39" s="57">
+        <v>11</v>
+      </c>
+      <c r="C39" s="57"/>
+      <c r="D39" s="57">
+        <v>2</v>
+      </c>
+      <c r="E39" s="57">
+        <v>16</v>
+      </c>
+      <c r="F39" s="57">
+        <v>10</v>
+      </c>
+      <c r="G39" s="57">
+        <v>16</v>
+      </c>
+      <c r="H39" s="57">
+        <v>20</v>
+      </c>
+      <c r="I39" s="57">
+        <v>61</v>
+      </c>
+      <c r="J39" s="57">
+        <v>2</v>
+      </c>
+      <c r="K39" s="57">
+        <v>19</v>
+      </c>
+      <c r="L39" s="57"/>
+      <c r="M39" s="57">
+        <v>7</v>
+      </c>
+      <c r="N39" s="57">
+        <v>21</v>
+      </c>
+      <c r="O39" s="57"/>
+      <c r="P39" s="57"/>
+      <c r="Q39" s="57">
+        <v>7</v>
+      </c>
+      <c r="R39" s="57"/>
+      <c r="S39" s="57">
+        <v>2</v>
+      </c>
+      <c r="T39" s="57">
+        <v>4</v>
+      </c>
+      <c r="U39" s="57">
+        <v>3</v>
+      </c>
+      <c r="V39" s="47">
+        <v>120</v>
+      </c>
+      <c r="W39" s="57"/>
+      <c r="X39" s="57">
+        <v>84</v>
+      </c>
+      <c r="Y39" s="57">
+        <v>35</v>
+      </c>
+      <c r="Z39" s="57">
+        <v>1</v>
+      </c>
+      <c r="AA39" s="57">
+        <v>25</v>
+      </c>
+      <c r="AB39" s="57">
+        <v>466</v>
+      </c>
+      <c r="AC39" s="10">
+        <f>AB39-AB32</f>
+        <v>311</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="54">
+        <v>43922</v>
+      </c>
+      <c r="B40" s="55">
+        <v>11</v>
+      </c>
+      <c r="C40" s="55"/>
+      <c r="D40" s="55">
+        <v>3</v>
+      </c>
+      <c r="E40" s="55">
+        <v>20</v>
+      </c>
+      <c r="F40" s="55">
+        <v>11</v>
+      </c>
+      <c r="G40" s="55">
+        <v>18</v>
+      </c>
+      <c r="H40" s="55">
+        <v>23</v>
+      </c>
+      <c r="I40" s="55">
+        <v>68</v>
+      </c>
+      <c r="J40" s="55">
+        <v>2</v>
+      </c>
+      <c r="K40" s="55">
+        <v>21</v>
+      </c>
+      <c r="L40" s="55"/>
+      <c r="M40" s="55">
+        <v>7</v>
+      </c>
+      <c r="N40" s="55">
+        <v>23</v>
+      </c>
+      <c r="O40" s="55"/>
+      <c r="P40" s="55"/>
+      <c r="Q40" s="55">
+        <v>7</v>
+      </c>
+      <c r="R40" s="55">
+        <v>1</v>
+      </c>
+      <c r="S40" s="55">
+        <v>3</v>
+      </c>
+      <c r="T40" s="55">
+        <v>4</v>
+      </c>
+      <c r="U40" s="55">
+        <v>4</v>
+      </c>
+      <c r="V40" s="47">
+        <v>132</v>
+      </c>
+      <c r="W40" s="55">
+        <v>1</v>
+      </c>
+      <c r="X40" s="55">
+        <v>92</v>
+      </c>
+      <c r="Y40" s="55">
+        <v>37</v>
+      </c>
+      <c r="Z40" s="55">
+        <v>1</v>
+      </c>
+      <c r="AA40" s="55">
+        <v>29</v>
+      </c>
+      <c r="AB40" s="55">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="56">
+        <v>43923</v>
+      </c>
+      <c r="B41" s="57">
+        <v>12</v>
+      </c>
+      <c r="C41" s="57"/>
+      <c r="D41" s="57">
+        <v>3</v>
+      </c>
+      <c r="E41" s="57">
+        <v>23</v>
+      </c>
+      <c r="F41" s="57">
+        <v>12</v>
+      </c>
+      <c r="G41" s="57">
+        <v>19</v>
+      </c>
+      <c r="H41" s="57">
+        <v>26</v>
+      </c>
+      <c r="I41" s="57">
+        <v>76</v>
+      </c>
+      <c r="J41" s="57">
+        <v>2</v>
+      </c>
+      <c r="K41" s="57">
+        <v>23</v>
+      </c>
+      <c r="L41" s="57"/>
+      <c r="M41" s="57">
+        <v>7</v>
+      </c>
+      <c r="N41" s="57">
+        <v>23</v>
+      </c>
+      <c r="O41" s="57"/>
+      <c r="P41" s="57"/>
+      <c r="Q41" s="57">
+        <v>8</v>
+      </c>
+      <c r="R41" s="57">
+        <v>1</v>
+      </c>
+      <c r="S41" s="57">
+        <v>3</v>
+      </c>
+      <c r="T41" s="57">
+        <v>4</v>
+      </c>
+      <c r="U41" s="57">
+        <v>4</v>
+      </c>
+      <c r="V41" s="47">
+        <v>141</v>
+      </c>
+      <c r="W41" s="57">
+        <v>1</v>
+      </c>
+      <c r="X41" s="57">
+        <v>107</v>
+      </c>
+      <c r="Y41" s="57">
+        <v>40</v>
+      </c>
+      <c r="Z41" s="57">
+        <v>1</v>
+      </c>
+      <c r="AA41" s="57">
+        <v>36</v>
+      </c>
+      <c r="AB41" s="57">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="54">
+        <v>43924</v>
+      </c>
+      <c r="B42" s="55">
+        <v>12</v>
+      </c>
+      <c r="C42" s="55"/>
+      <c r="D42" s="55">
+        <v>3</v>
+      </c>
+      <c r="E42" s="55">
+        <v>26</v>
+      </c>
+      <c r="F42" s="55">
+        <v>14</v>
+      </c>
+      <c r="G42" s="55">
+        <v>21</v>
+      </c>
+      <c r="H42" s="55">
+        <v>31</v>
+      </c>
+      <c r="I42" s="55">
+        <v>80</v>
+      </c>
+      <c r="J42" s="55">
+        <v>2</v>
+      </c>
+      <c r="K42" s="55">
+        <v>27</v>
+      </c>
+      <c r="L42" s="55"/>
+      <c r="M42" s="55">
+        <v>7</v>
+      </c>
+      <c r="N42" s="55">
+        <v>23</v>
+      </c>
+      <c r="O42" s="55"/>
+      <c r="P42" s="55"/>
+      <c r="Q42" s="55">
+        <v>8</v>
+      </c>
+      <c r="R42" s="55">
+        <v>1</v>
+      </c>
+      <c r="S42" s="55">
+        <v>3</v>
+      </c>
+      <c r="T42" s="55">
+        <v>4</v>
+      </c>
+      <c r="U42" s="55">
+        <v>5</v>
+      </c>
+      <c r="V42" s="47">
+        <v>155</v>
+      </c>
+      <c r="W42" s="55">
+        <v>1</v>
+      </c>
+      <c r="X42" s="55">
+        <v>123</v>
+      </c>
+      <c r="Y42" s="55">
+        <v>45</v>
+      </c>
+      <c r="Z42" s="55">
+        <v>2</v>
+      </c>
+      <c r="AA42" s="55">
+        <v>38</v>
+      </c>
+      <c r="AB42" s="55">
+        <v>631</v>
+      </c>
+      <c r="AC42"/>
+    </row>
+    <row r="43" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="56">
+        <v>43925</v>
+      </c>
+      <c r="B43" s="57"/>
+      <c r="C43" s="57"/>
+      <c r="D43" s="57">
+        <v>3</v>
+      </c>
+      <c r="E43" s="57">
+        <v>28</v>
+      </c>
+      <c r="F43" s="57">
+        <v>19</v>
+      </c>
+      <c r="G43" s="57">
+        <v>24</v>
+      </c>
+      <c r="H43" s="57">
+        <v>37</v>
+      </c>
+      <c r="I43" s="57">
+        <v>93</v>
+      </c>
+      <c r="J43" s="57"/>
+      <c r="K43" s="57"/>
+      <c r="L43" s="57"/>
+      <c r="M43" s="57">
+        <v>7</v>
+      </c>
+      <c r="N43" s="57">
+        <v>24</v>
+      </c>
+      <c r="O43" s="57">
+        <v>0</v>
+      </c>
+      <c r="P43" s="57"/>
+      <c r="Q43" s="57">
+        <v>9</v>
+      </c>
+      <c r="R43" s="57">
+        <v>1</v>
+      </c>
+      <c r="S43" s="57">
+        <v>3</v>
+      </c>
+      <c r="T43" s="57">
+        <v>5</v>
+      </c>
+      <c r="U43" s="57">
+        <v>5</v>
+      </c>
+      <c r="V43" s="47">
+        <v>165</v>
+      </c>
+      <c r="W43" s="57">
+        <v>1</v>
+      </c>
+      <c r="X43" s="57">
+        <v>138</v>
+      </c>
+      <c r="Y43" s="57">
+        <v>51</v>
+      </c>
+      <c r="Z43" s="57">
+        <v>2</v>
+      </c>
+      <c r="AA43" s="57">
+        <v>41</v>
+      </c>
+      <c r="AB43" s="57">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="44" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="54">
+        <v>43926</v>
+      </c>
+      <c r="B44" s="55"/>
+      <c r="C44" s="55"/>
+      <c r="D44" s="55">
+        <v>3</v>
+      </c>
+      <c r="E44" s="55">
+        <v>28</v>
+      </c>
+      <c r="F44" s="55">
+        <v>19</v>
+      </c>
+      <c r="G44" s="55">
+        <v>26</v>
+      </c>
+      <c r="H44" s="55">
+        <v>40</v>
+      </c>
+      <c r="I44" s="55">
+        <v>100</v>
+      </c>
+      <c r="J44" s="55"/>
+      <c r="K44" s="55">
+        <v>30</v>
+      </c>
+      <c r="L44" s="55"/>
+      <c r="M44" s="55">
+        <v>9</v>
+      </c>
+      <c r="N44" s="55">
+        <v>26</v>
+      </c>
+      <c r="O44" s="55">
+        <v>0</v>
+      </c>
+      <c r="P44" s="55"/>
+      <c r="Q44" s="55">
+        <v>9</v>
+      </c>
+      <c r="R44" s="55">
+        <v>1</v>
+      </c>
+      <c r="S44" s="55">
+        <v>3</v>
+      </c>
+      <c r="T44" s="55">
+        <v>5</v>
+      </c>
+      <c r="U44" s="55">
+        <v>7</v>
+      </c>
+      <c r="V44" s="47">
+        <v>177</v>
+      </c>
+      <c r="W44" s="55">
+        <v>2</v>
+      </c>
+      <c r="X44" s="55">
+        <v>147</v>
+      </c>
+      <c r="Y44" s="55">
+        <v>53</v>
+      </c>
+      <c r="Z44" s="55"/>
+      <c r="AA44" s="55">
+        <v>45</v>
+      </c>
+      <c r="AB44" s="55">
+        <v>746</v>
+      </c>
+      <c r="AC44" s="10"/>
+    </row>
+    <row r="45" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="56">
+        <v>43927</v>
+      </c>
+      <c r="B45" s="57">
+        <v>13</v>
+      </c>
+      <c r="C45" s="57"/>
+      <c r="D45" s="57">
+        <v>3</v>
+      </c>
+      <c r="E45" s="57">
+        <v>31</v>
+      </c>
+      <c r="F45" s="57">
+        <v>19</v>
+      </c>
+      <c r="G45" s="57">
+        <v>26</v>
+      </c>
+      <c r="H45" s="57">
+        <v>41</v>
+      </c>
+      <c r="I45" s="57">
+        <v>111</v>
+      </c>
+      <c r="J45" s="57">
+        <v>2</v>
+      </c>
+      <c r="K45" s="57">
+        <v>31</v>
+      </c>
+      <c r="L45" s="57"/>
+      <c r="M45" s="57">
+        <v>9</v>
+      </c>
+      <c r="N45" s="57">
+        <v>30</v>
+      </c>
+      <c r="O45" s="57">
+        <v>0</v>
+      </c>
+      <c r="P45" s="57">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="57">
+        <v>11</v>
+      </c>
+      <c r="R45" s="57">
+        <v>1</v>
+      </c>
+      <c r="S45" s="57">
+        <v>3</v>
+      </c>
+      <c r="T45" s="57">
+        <v>6</v>
+      </c>
+      <c r="U45" s="57">
+        <v>7</v>
+      </c>
+      <c r="V45" s="47">
+        <v>189</v>
+      </c>
+      <c r="W45" s="57">
+        <v>2</v>
+      </c>
+      <c r="X45" s="57">
+        <v>160</v>
+      </c>
+      <c r="Y45" s="57">
+        <v>56</v>
+      </c>
+      <c r="Z45" s="57">
+        <v>3</v>
+      </c>
+      <c r="AA45" s="57">
+        <v>48</v>
+      </c>
+      <c r="AB45" s="57">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="46" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="54">
+        <v>43928</v>
+      </c>
+      <c r="B46" s="55">
+        <v>16</v>
+      </c>
+      <c r="C46" s="55"/>
+      <c r="D46" s="55">
+        <v>3</v>
+      </c>
+      <c r="E46" s="55">
+        <v>33</v>
+      </c>
+      <c r="F46" s="55">
+        <v>19</v>
+      </c>
+      <c r="G46" s="55">
+        <v>28</v>
+      </c>
+      <c r="H46" s="55">
+        <v>44</v>
+      </c>
+      <c r="I46" s="55">
+        <v>118</v>
+      </c>
+      <c r="J46" s="55">
+        <v>2</v>
+      </c>
+      <c r="K46" s="55">
+        <v>34</v>
+      </c>
+      <c r="L46" s="55"/>
+      <c r="M46" s="55">
+        <v>9</v>
+      </c>
+      <c r="N46" s="55">
+        <v>33</v>
+      </c>
+      <c r="O46" s="55">
+        <v>0</v>
+      </c>
+      <c r="P46" s="55">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="55">
+        <v>13</v>
+      </c>
+      <c r="R46" s="55">
+        <v>1</v>
+      </c>
+      <c r="S46" s="55">
+        <v>3</v>
+      </c>
+      <c r="T46" s="55">
+        <v>7</v>
+      </c>
+      <c r="U46" s="55">
+        <v>8</v>
+      </c>
+      <c r="V46" s="47">
+        <v>198</v>
+      </c>
+      <c r="W46" s="55">
+        <v>2</v>
+      </c>
+      <c r="X46" s="55">
+        <v>172</v>
+      </c>
+      <c r="Y46" s="55">
+        <v>61</v>
+      </c>
+      <c r="Z46" s="55">
+        <v>3</v>
+      </c>
+      <c r="AA46" s="55">
+        <v>52</v>
+      </c>
+      <c r="AB46" s="55">
+        <v>859</v>
+      </c>
+      <c r="AC46" s="10">
+        <f>AB46-AB39</f>
+        <v>393</v>
+      </c>
+    </row>
+    <row r="47" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="56">
+        <v>43929</v>
+      </c>
+      <c r="B47" s="57">
+        <v>16</v>
+      </c>
+      <c r="C47" s="57"/>
+      <c r="D47" s="57">
+        <v>3</v>
+      </c>
+      <c r="E47" s="57">
+        <v>37</v>
+      </c>
+      <c r="F47" s="57">
+        <v>21</v>
+      </c>
+      <c r="G47" s="57">
+        <v>31</v>
+      </c>
+      <c r="H47" s="57">
+        <v>45</v>
+      </c>
+      <c r="I47" s="57">
+        <v>125</v>
+      </c>
+      <c r="J47" s="57">
+        <v>2</v>
+      </c>
+      <c r="K47" s="57">
+        <v>35</v>
+      </c>
+      <c r="L47" s="57"/>
+      <c r="M47" s="57">
+        <v>9</v>
+      </c>
+      <c r="N47" s="57">
+        <v>34</v>
+      </c>
+      <c r="O47" s="57">
+        <v>0</v>
+      </c>
+      <c r="P47" s="57">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="57">
+        <v>15</v>
+      </c>
+      <c r="R47" s="57">
+        <v>1</v>
+      </c>
+      <c r="S47" s="57">
+        <v>3</v>
+      </c>
+      <c r="T47" s="57">
+        <v>7</v>
+      </c>
+      <c r="U47" s="57">
+        <v>8</v>
+      </c>
+      <c r="V47" s="47">
+        <v>211</v>
+      </c>
+      <c r="W47" s="57">
+        <v>4</v>
+      </c>
+      <c r="X47" s="57">
+        <v>185</v>
+      </c>
+      <c r="Y47" s="57">
+        <v>68</v>
+      </c>
+      <c r="Z47" s="57">
+        <v>3</v>
+      </c>
+      <c r="AA47" s="57">
+        <v>57</v>
+      </c>
+      <c r="AB47" s="57">
+        <v>920</v>
+      </c>
+      <c r="AC47" s="57"/>
+      <c r="AD47" s="10"/>
+      <c r="AE47" s="10"/>
+    </row>
+    <row r="48" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="54">
+        <v>43930</v>
+      </c>
+      <c r="B48" s="55">
+        <v>17</v>
+      </c>
+      <c r="C48" s="55"/>
+      <c r="D48" s="55">
+        <v>3</v>
+      </c>
+      <c r="E48" s="55">
+        <v>38</v>
+      </c>
+      <c r="F48" s="55">
+        <v>21</v>
+      </c>
+      <c r="G48" s="55">
+        <v>33</v>
+      </c>
+      <c r="H48" s="55">
+        <v>46</v>
+      </c>
+      <c r="I48" s="55"/>
+      <c r="J48" s="55">
+        <v>2</v>
+      </c>
+      <c r="K48" s="55"/>
+      <c r="L48" s="55"/>
+      <c r="M48" s="55">
+        <v>9</v>
+      </c>
+      <c r="N48" s="55"/>
+      <c r="O48" s="55">
+        <v>0</v>
+      </c>
+      <c r="P48" s="55">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="55">
+        <v>16</v>
+      </c>
+      <c r="R48" s="55">
+        <v>1</v>
+      </c>
+      <c r="S48" s="55">
+        <v>5</v>
+      </c>
+      <c r="T48" s="55">
+        <v>9</v>
+      </c>
+      <c r="U48" s="55">
+        <v>8</v>
+      </c>
+      <c r="V48" s="47">
+        <v>219</v>
+      </c>
+      <c r="W48" s="55">
+        <v>4</v>
+      </c>
+      <c r="X48" s="55"/>
+      <c r="Y48" s="55">
+        <v>73</v>
+      </c>
+      <c r="Z48" s="55">
+        <v>3</v>
+      </c>
+      <c r="AA48" s="55">
+        <v>62</v>
+      </c>
+      <c r="AB48" s="55">
+        <v>948</v>
+      </c>
+      <c r="AC48" s="55"/>
+    </row>
+    <row r="49" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="54"/>
+      <c r="C49" s="55"/>
+      <c r="D49" s="55"/>
+      <c r="E49" s="55"/>
+      <c r="F49" s="55"/>
+      <c r="G49" s="55"/>
+      <c r="H49" s="55"/>
+      <c r="I49" s="55"/>
+      <c r="J49" s="55"/>
+      <c r="K49" s="55"/>
+      <c r="L49" s="55"/>
+      <c r="M49" s="55"/>
+      <c r="N49" s="55"/>
+      <c r="O49" s="55"/>
+      <c r="P49" s="55"/>
+      <c r="Q49" s="55"/>
+      <c r="R49" s="55"/>
+      <c r="S49" s="55"/>
+      <c r="T49" s="55"/>
+      <c r="U49" s="55"/>
+      <c r="V49" s="55"/>
+      <c r="W49" s="55"/>
+      <c r="X49" s="55"/>
+      <c r="Y49" s="55"/>
+      <c r="Z49" s="55"/>
+      <c r="AA49" s="55"/>
+      <c r="AB49" s="55"/>
+      <c r="AC49" s="55"/>
+      <c r="AD49" s="10"/>
+    </row>
+    <row r="50" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="58"/>
+      <c r="B50" s="56"/>
+      <c r="C50" s="57"/>
+      <c r="D50" s="57"/>
+      <c r="E50" s="57"/>
+      <c r="F50" s="57"/>
+      <c r="G50" s="57"/>
+      <c r="H50" s="57"/>
+      <c r="I50" s="57"/>
+      <c r="J50" s="57"/>
+      <c r="K50" s="57"/>
+      <c r="L50" s="57"/>
+      <c r="M50" s="57"/>
+      <c r="N50" s="57"/>
+      <c r="O50" s="57"/>
+      <c r="P50" s="57"/>
+      <c r="Q50" s="57"/>
+      <c r="R50" s="57"/>
+      <c r="S50" s="57"/>
+      <c r="T50" s="57"/>
+      <c r="U50" s="57"/>
+      <c r="V50" s="57"/>
+      <c r="W50" s="57"/>
+      <c r="X50" s="57"/>
+      <c r="Y50" s="57"/>
+      <c r="Z50" s="57"/>
+      <c r="AA50" s="57"/>
+      <c r="AB50" s="57"/>
+      <c r="AC50" s="57"/>
+    </row>
+    <row r="51" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="58"/>
+      <c r="B51" s="54"/>
+      <c r="C51" s="55"/>
+      <c r="D51" s="55"/>
+      <c r="E51" s="55"/>
+      <c r="F51" s="55"/>
+      <c r="G51" s="55"/>
+      <c r="H51" s="55"/>
+      <c r="I51" s="55"/>
+      <c r="J51" s="55"/>
+      <c r="K51" s="55"/>
+      <c r="L51" s="55"/>
+      <c r="M51" s="55"/>
+      <c r="N51" s="55"/>
+      <c r="O51" s="55"/>
+      <c r="P51" s="55"/>
+      <c r="Q51" s="55"/>
+      <c r="R51" s="55"/>
+      <c r="S51" s="55"/>
+      <c r="T51" s="55"/>
+      <c r="U51" s="55"/>
+      <c r="V51" s="55"/>
+      <c r="W51" s="55"/>
+      <c r="X51" s="55"/>
+      <c r="Y51" s="55"/>
+      <c r="Z51" s="55"/>
+      <c r="AA51" s="55"/>
+      <c r="AB51" s="55"/>
+      <c r="AC51" s="55"/>
+    </row>
+    <row r="52" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="58"/>
+      <c r="B52" s="56"/>
+      <c r="C52" s="57"/>
+      <c r="D52" s="57"/>
+      <c r="E52" s="57"/>
+      <c r="F52" s="57"/>
+      <c r="G52" s="57"/>
+      <c r="H52" s="57"/>
+      <c r="I52" s="57"/>
+      <c r="J52" s="57"/>
+      <c r="K52" s="57"/>
+      <c r="L52" s="57"/>
+      <c r="M52" s="57"/>
+      <c r="N52" s="57"/>
+      <c r="O52" s="57"/>
+      <c r="P52" s="57"/>
+      <c r="Q52" s="57"/>
+      <c r="R52" s="57"/>
+      <c r="S52" s="57"/>
+      <c r="T52" s="57"/>
+      <c r="U52" s="57"/>
+      <c r="V52" s="57"/>
+      <c r="W52" s="57"/>
+      <c r="X52" s="57"/>
+      <c r="Y52" s="57"/>
+      <c r="Z52" s="57"/>
+      <c r="AA52" s="57"/>
+      <c r="AB52" s="57"/>
+      <c r="AC52" s="57"/>
+    </row>
+    <row r="53" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="58"/>
+      <c r="B53" s="54"/>
+      <c r="C53" s="55"/>
+      <c r="D53" s="55"/>
+      <c r="E53" s="55"/>
+      <c r="F53" s="55"/>
+      <c r="G53" s="55"/>
+      <c r="H53" s="55"/>
+      <c r="I53" s="55"/>
+      <c r="J53" s="55"/>
+      <c r="K53" s="55"/>
+      <c r="L53" s="55"/>
+      <c r="M53" s="55"/>
+      <c r="N53" s="55"/>
+      <c r="O53" s="55"/>
+      <c r="P53" s="55"/>
+      <c r="Q53" s="55"/>
+      <c r="R53" s="55"/>
+      <c r="S53" s="55"/>
+      <c r="T53" s="55"/>
+      <c r="U53" s="55"/>
+      <c r="V53" s="55"/>
+      <c r="W53" s="55"/>
+      <c r="X53" s="55"/>
+      <c r="Y53" s="55"/>
+      <c r="Z53" s="55"/>
+      <c r="AA53" s="55"/>
+      <c r="AB53" s="55"/>
+      <c r="AC53" s="55"/>
+    </row>
+    <row r="54" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="58"/>
+      <c r="B54" s="56"/>
+      <c r="C54" s="57"/>
+      <c r="D54" s="57"/>
+      <c r="E54" s="57"/>
+      <c r="F54" s="57"/>
+      <c r="G54" s="57"/>
+      <c r="H54" s="57"/>
+      <c r="I54" s="57"/>
+      <c r="J54" s="57"/>
+      <c r="K54" s="57"/>
+      <c r="L54" s="57"/>
+      <c r="M54" s="57"/>
+      <c r="N54" s="57"/>
+      <c r="O54" s="57"/>
+      <c r="P54" s="57"/>
+      <c r="Q54" s="57"/>
+      <c r="R54" s="57"/>
+      <c r="S54" s="57"/>
+      <c r="T54" s="57"/>
+      <c r="U54" s="57"/>
+      <c r="V54" s="57"/>
+      <c r="W54" s="57"/>
+      <c r="X54" s="57"/>
+      <c r="Y54" s="57"/>
+      <c r="Z54" s="57"/>
+      <c r="AA54" s="57"/>
+      <c r="AB54" s="57"/>
+      <c r="AC54" s="57"/>
+    </row>
+    <row r="55" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="58"/>
+      <c r="B55" s="54"/>
+      <c r="C55" s="55"/>
+      <c r="D55" s="55"/>
+      <c r="E55" s="55"/>
+      <c r="F55" s="55"/>
+      <c r="G55" s="55"/>
+      <c r="H55" s="55"/>
+      <c r="I55" s="55"/>
+      <c r="J55" s="55"/>
+      <c r="K55" s="55"/>
+      <c r="L55" s="55"/>
+      <c r="M55" s="55"/>
+      <c r="N55" s="55"/>
+      <c r="O55" s="55"/>
+      <c r="P55" s="55"/>
+      <c r="Q55" s="55"/>
+      <c r="R55" s="55"/>
+      <c r="S55" s="55"/>
+      <c r="T55" s="55"/>
+      <c r="U55" s="55"/>
+      <c r="V55" s="55"/>
+      <c r="W55" s="55"/>
+      <c r="X55" s="55"/>
+      <c r="Y55" s="55"/>
+      <c r="Z55" s="55"/>
+      <c r="AA55" s="55"/>
+      <c r="AB55" s="55"/>
+      <c r="AC55" s="55"/>
+    </row>
+    <row r="56" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="58"/>
+      <c r="B56" s="56"/>
+      <c r="C56" s="57"/>
+      <c r="D56" s="57"/>
+      <c r="E56" s="57"/>
+      <c r="F56" s="57"/>
+      <c r="G56" s="57"/>
+      <c r="H56" s="57"/>
+      <c r="I56" s="57"/>
+      <c r="J56" s="57"/>
+      <c r="K56" s="57"/>
+      <c r="L56" s="57"/>
+      <c r="M56" s="57"/>
+      <c r="N56" s="57"/>
+      <c r="O56" s="57"/>
+      <c r="P56" s="57"/>
+      <c r="Q56" s="57"/>
+      <c r="R56" s="57"/>
+      <c r="S56" s="57"/>
+      <c r="T56" s="57"/>
+      <c r="U56" s="57"/>
+      <c r="V56" s="57"/>
+      <c r="W56" s="57"/>
+      <c r="X56" s="57"/>
+      <c r="Y56" s="57"/>
+      <c r="Z56" s="57"/>
+      <c r="AA56" s="57"/>
+      <c r="AB56" s="57"/>
+      <c r="AC56" s="57"/>
+    </row>
+    <row r="57" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="58"/>
+      <c r="B57" s="54"/>
+      <c r="C57" s="55"/>
+      <c r="D57" s="55"/>
+      <c r="E57" s="55"/>
+      <c r="F57" s="55"/>
+      <c r="G57" s="55"/>
+      <c r="H57" s="55"/>
+      <c r="I57" s="55"/>
+      <c r="J57" s="55"/>
+      <c r="K57" s="55"/>
+      <c r="L57" s="55"/>
+      <c r="M57" s="55"/>
+      <c r="N57" s="55"/>
+      <c r="O57" s="55"/>
+      <c r="P57" s="55"/>
+      <c r="Q57" s="55"/>
+      <c r="R57" s="55"/>
+      <c r="S57" s="55"/>
+      <c r="T57" s="55"/>
+      <c r="U57" s="55"/>
+      <c r="V57" s="55"/>
+      <c r="W57" s="55"/>
+      <c r="X57" s="55"/>
+      <c r="Y57" s="55"/>
+      <c r="Z57" s="55"/>
+      <c r="AA57" s="55"/>
+      <c r="AB57" s="55"/>
+      <c r="AC57" s="55"/>
+    </row>
+    <row r="58" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="58"/>
+      <c r="B58" s="56"/>
+      <c r="C58" s="57"/>
+      <c r="D58" s="57"/>
+      <c r="E58" s="57"/>
+      <c r="F58" s="57"/>
+      <c r="G58" s="57"/>
+      <c r="H58" s="57"/>
+      <c r="I58" s="57"/>
+      <c r="J58" s="57"/>
+      <c r="K58" s="57"/>
+      <c r="L58" s="57"/>
+      <c r="M58" s="57"/>
+      <c r="N58" s="57"/>
+      <c r="O58" s="57"/>
+      <c r="P58" s="57"/>
+      <c r="Q58" s="57"/>
+      <c r="R58" s="57"/>
+      <c r="S58" s="57"/>
+      <c r="T58" s="57"/>
+      <c r="U58" s="57"/>
+      <c r="V58" s="57"/>
+      <c r="W58" s="57"/>
+      <c r="X58" s="57"/>
+      <c r="Y58" s="57"/>
+      <c r="Z58" s="57"/>
+      <c r="AA58" s="57"/>
+      <c r="AB58" s="57"/>
+      <c r="AC58" s="57"/>
+    </row>
+    <row r="59" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="58"/>
+      <c r="B59" s="54"/>
+      <c r="C59" s="55"/>
+      <c r="D59" s="55"/>
+      <c r="E59" s="55"/>
+      <c r="F59" s="55"/>
+      <c r="G59" s="55"/>
+      <c r="H59" s="55"/>
+      <c r="I59" s="55"/>
+      <c r="J59" s="55"/>
+      <c r="K59" s="55"/>
+      <c r="L59" s="55"/>
+      <c r="M59" s="55"/>
+      <c r="N59" s="55"/>
+      <c r="O59" s="55"/>
+      <c r="P59" s="55"/>
+      <c r="Q59" s="55"/>
+      <c r="R59" s="55"/>
+      <c r="S59" s="55"/>
+      <c r="T59" s="55"/>
+      <c r="U59" s="55"/>
+      <c r="V59" s="55"/>
+      <c r="W59" s="55"/>
+      <c r="X59" s="55"/>
+      <c r="Y59" s="55"/>
+      <c r="Z59" s="55"/>
+      <c r="AA59" s="55"/>
+      <c r="AB59" s="55"/>
+      <c r="AC59" s="55"/>
+    </row>
+    <row r="60" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="58"/>
+      <c r="B60" s="56"/>
+      <c r="C60" s="57"/>
+      <c r="D60" s="57"/>
+      <c r="E60" s="57"/>
+      <c r="F60" s="57"/>
+      <c r="G60" s="57"/>
+      <c r="H60" s="57"/>
+      <c r="I60" s="57"/>
+      <c r="J60" s="57"/>
+      <c r="K60" s="57"/>
+      <c r="L60" s="57"/>
+      <c r="M60" s="57"/>
+      <c r="N60" s="57"/>
+      <c r="O60" s="57"/>
+      <c r="P60" s="57"/>
+      <c r="Q60" s="57"/>
+      <c r="R60" s="57"/>
+      <c r="S60" s="57"/>
+      <c r="T60" s="57"/>
+      <c r="U60" s="57"/>
+      <c r="V60" s="57"/>
+      <c r="W60" s="57"/>
+      <c r="X60" s="57"/>
+      <c r="Y60" s="57"/>
+      <c r="Z60" s="57"/>
+      <c r="AA60" s="57"/>
+      <c r="AB60" s="57"/>
+      <c r="AC60" s="57"/>
+    </row>
+    <row r="61" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="58"/>
+      <c r="B61" s="54"/>
+      <c r="C61" s="55"/>
+      <c r="D61" s="55"/>
+      <c r="E61" s="55"/>
+      <c r="F61" s="55"/>
+      <c r="G61" s="55"/>
+      <c r="H61" s="55"/>
+      <c r="I61" s="55"/>
+      <c r="J61" s="55"/>
+      <c r="K61" s="55"/>
+      <c r="L61" s="55"/>
+      <c r="M61" s="55"/>
+      <c r="N61" s="55"/>
+      <c r="O61" s="55"/>
+      <c r="P61" s="55"/>
+      <c r="Q61" s="55"/>
+      <c r="R61" s="55"/>
+      <c r="S61" s="55"/>
+      <c r="T61" s="55"/>
+      <c r="U61" s="55"/>
+      <c r="V61" s="55"/>
+      <c r="W61" s="55"/>
+      <c r="X61" s="55"/>
+      <c r="Y61" s="55"/>
+      <c r="Z61" s="55"/>
+      <c r="AA61" s="55"/>
+      <c r="AB61" s="55"/>
+      <c r="AC61" s="55"/>
+    </row>
+    <row r="62" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="58"/>
+      <c r="B62" s="56"/>
+      <c r="C62" s="57"/>
+      <c r="D62" s="57"/>
+      <c r="E62" s="57"/>
+      <c r="F62" s="57"/>
+      <c r="G62" s="57"/>
+      <c r="H62" s="57"/>
+      <c r="I62" s="57"/>
+      <c r="J62" s="57"/>
+      <c r="K62" s="57"/>
+      <c r="L62" s="57"/>
+      <c r="M62" s="57"/>
+      <c r="N62" s="57"/>
+      <c r="O62" s="57"/>
+      <c r="P62" s="57"/>
+      <c r="Q62" s="57"/>
+      <c r="R62" s="57"/>
+      <c r="S62" s="57"/>
+      <c r="T62" s="57"/>
+      <c r="U62" s="57"/>
+      <c r="V62" s="57"/>
+      <c r="W62" s="57"/>
+      <c r="X62" s="57"/>
+      <c r="Y62" s="57"/>
+      <c r="Z62" s="57"/>
+      <c r="AA62" s="57"/>
+      <c r="AB62" s="57"/>
+      <c r="AC62" s="57"/>
+    </row>
+    <row r="63" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="58"/>
+      <c r="B63" s="54"/>
+      <c r="C63" s="55"/>
+      <c r="D63" s="55"/>
+      <c r="E63" s="55"/>
+      <c r="F63" s="55"/>
+      <c r="G63" s="55"/>
+      <c r="H63" s="55"/>
+      <c r="I63" s="55"/>
+      <c r="J63" s="55"/>
+      <c r="K63" s="55"/>
+      <c r="L63" s="55"/>
+      <c r="M63" s="55"/>
+      <c r="N63" s="55"/>
+      <c r="O63" s="55"/>
+      <c r="P63" s="55"/>
+      <c r="Q63" s="55"/>
+      <c r="R63" s="55"/>
+      <c r="S63" s="55"/>
+      <c r="T63" s="55"/>
+      <c r="U63" s="55"/>
+      <c r="V63" s="55"/>
+      <c r="W63" s="55"/>
+      <c r="X63" s="55"/>
+      <c r="Y63" s="55"/>
+      <c r="Z63" s="55"/>
+      <c r="AA63" s="55"/>
+      <c r="AB63" s="55"/>
+      <c r="AC63" s="55"/>
+    </row>
+    <row r="64" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="58"/>
+      <c r="B64" s="56"/>
+      <c r="C64" s="57"/>
+      <c r="D64" s="57"/>
+      <c r="E64" s="57"/>
+      <c r="F64" s="57"/>
+      <c r="G64" s="57"/>
+      <c r="H64" s="57"/>
+      <c r="I64" s="57"/>
+      <c r="J64" s="57"/>
+      <c r="K64" s="57"/>
+      <c r="L64" s="57"/>
+      <c r="M64" s="57"/>
+      <c r="N64" s="57"/>
+      <c r="O64" s="57"/>
+      <c r="P64" s="57"/>
+      <c r="Q64" s="57"/>
+      <c r="R64" s="57"/>
+      <c r="S64" s="57"/>
+      <c r="T64" s="57"/>
+      <c r="U64" s="57"/>
+      <c r="V64" s="57"/>
+      <c r="W64" s="57"/>
+      <c r="X64" s="57"/>
+      <c r="Y64" s="57"/>
+      <c r="Z64" s="57"/>
+      <c r="AA64" s="57"/>
+      <c r="AB64" s="57"/>
+      <c r="AC64" s="57"/>
+    </row>
+    <row r="65" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="58"/>
+      <c r="B65" s="54"/>
+      <c r="C65" s="55"/>
+      <c r="D65" s="55"/>
+      <c r="E65" s="55"/>
+      <c r="F65" s="55"/>
+      <c r="G65" s="55"/>
+      <c r="H65" s="55"/>
+      <c r="I65" s="55"/>
+      <c r="J65" s="55"/>
+      <c r="K65" s="55"/>
+      <c r="L65" s="55"/>
+      <c r="M65" s="55"/>
+      <c r="N65" s="55"/>
+      <c r="O65" s="55"/>
+      <c r="P65" s="55"/>
+      <c r="Q65" s="55"/>
+      <c r="R65" s="55"/>
+      <c r="S65" s="55"/>
+      <c r="T65" s="55"/>
+      <c r="U65" s="55"/>
+      <c r="V65" s="55"/>
+      <c r="W65" s="55"/>
+      <c r="X65" s="55"/>
+      <c r="Y65" s="55"/>
+      <c r="Z65" s="55"/>
+      <c r="AA65" s="55"/>
+      <c r="AB65" s="55"/>
+      <c r="AC65" s="55"/>
+    </row>
+    <row r="66" spans="1:29" x14ac:dyDescent="0.2">
       <c r="U66" s="48"/>
       <c r="V66" s="18"/>
     </row>

--- a/TI_Lombardia.xlsx
+++ b/TI_Lombardia.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315"/>
   </bookViews>
   <sheets>
     <sheet name="TI Lombardia" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">cases!$A$3:$AB$44</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TI Lombardia'!$A$3:$F$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TI Lombardia'!$A$3:$F$52</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
@@ -39,7 +39,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>script sucht nach Country/Region</t>
         </r>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="118">
   <si>
     <t>Date</t>
   </si>
@@ -731,15 +731,15 @@
   <si>
     <t>Ticino</t>
   </si>
+  <si>
+    <t>daily deaths rate</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000%"/>
-  </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -769,7 +769,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="23"/>
@@ -782,12 +782,6 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
@@ -1035,12 +1029,12 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1064,7 +1058,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -1074,72 +1068,72 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="14" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="13" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="6" xfId="3"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" xfId="3"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="14" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="13" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1147,40 +1141,41 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="14" fillId="3" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="14" fillId="9" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="20" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="19" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="20" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="19" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="13" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="13" fillId="9" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="13" fillId="3" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -2895,10 +2890,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U66"/>
+  <dimension ref="A1:U69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L66" sqref="L4:L66"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="S66" sqref="S66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2910,7 +2905,7 @@
     <col min="5" max="5" width="13.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.625" customWidth="1"/>
     <col min="7" max="7" width="14.5" customWidth="1"/>
-    <col min="19" max="19" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="12.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="29.25" x14ac:dyDescent="0.4">
@@ -3987,10 +3982,10 @@
       <c r="A33" s="1">
         <v>43927</v>
       </c>
-      <c r="B33" s="57">
+      <c r="B33" s="54">
         <v>9202</v>
       </c>
-      <c r="C33" s="57">
+      <c r="C33" s="54">
         <v>51534</v>
       </c>
       <c r="D33">
@@ -4020,10 +4015,10 @@
       <c r="A34" s="1">
         <v>43928</v>
       </c>
-      <c r="B34" s="57">
+      <c r="B34" s="54">
         <v>9484</v>
       </c>
-      <c r="C34" s="57">
+      <c r="C34" s="54">
         <v>52325</v>
       </c>
       <c r="D34">
@@ -4053,10 +4048,10 @@
       <c r="A35" s="1">
         <v>43929</v>
       </c>
-      <c r="B35" s="57">
+      <c r="B35" s="54">
         <v>9722</v>
       </c>
-      <c r="C35" s="57">
+      <c r="C35" s="54">
         <v>53414</v>
       </c>
       <c r="D35">
@@ -4086,10 +4081,10 @@
       <c r="A36" s="1">
         <v>43930</v>
       </c>
-      <c r="B36" s="57">
+      <c r="B36" s="54">
         <v>10022</v>
       </c>
-      <c r="C36" s="57">
+      <c r="C36" s="54">
         <v>54802</v>
       </c>
       <c r="D36">
@@ -4115,999 +4110,1086 @@
         <v>9/4/2020,9,4,2020,1388,300,Lombardia,nn,nnn,10040000</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>43901</v>
-      </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37">
-        <v>68</v>
+        <v>43931</v>
+      </c>
+      <c r="B37" s="54">
+        <v>10238</v>
+      </c>
+      <c r="C37" s="54">
+        <v>56048</v>
       </c>
       <c r="D37">
-        <f>C37</f>
-        <v>68</v>
+        <f t="shared" ref="D37" si="13">C37-C36</f>
+        <v>1246</v>
       </c>
       <c r="E37" t="s">
-        <v>116</v>
+        <v>9</v>
       </c>
       <c r="G37">
-        <f t="shared" ref="G37:G39" si="13">B37</f>
-        <v>1</v>
-      </c>
-      <c r="H37">
-        <v>353709</v>
+        <f t="shared" ref="G37" si="14">B37-B36</f>
+        <v>216</v>
+      </c>
+      <c r="H37" s="2">
+        <v>10040000</v>
       </c>
       <c r="K37" s="5" t="str">
-        <f t="shared" ref="K37:K39" si="14">DAY(A37)&amp;"/"&amp;MONTH(A37)&amp;"/"&amp;YEAR(A37)</f>
-        <v>11/3/2020</v>
+        <f>DAY(A37)&amp;"/"&amp;MONTH(A37)&amp;"/"&amp;YEAR(A37)</f>
+        <v>10/4/2020</v>
       </c>
       <c r="L37" s="3" t="str">
-        <f t="shared" ref="L37:L39" si="15">K37&amp;$L$1&amp;DAY(A37)&amp;$L$1&amp;MONTH(A37)&amp;$L$1&amp;YEAR(A37)&amp;$L$1&amp;D37&amp;$L$1&amp;G37&amp;$L$1&amp;E37&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H37</f>
-        <v>11/3/2020,11,3,2020,68,1,Ticino,nn,nnn,353709</v>
+        <f t="shared" ref="L37" si="15">K37&amp;$L$1&amp;DAY(A37)&amp;$L$1&amp;MONTH(A37)&amp;$L$1&amp;YEAR(A37)&amp;$L$1&amp;D37&amp;$L$1&amp;G37&amp;$L$1&amp;E37&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H37</f>
+        <v>10/4/2020,10,4,2020,1246,216,Lombardia,nn,nnn,10040000</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>43902</v>
+        <v>43901</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
-      <c r="C38" s="43">
-        <v>180</v>
+      <c r="C38">
+        <v>68</v>
       </c>
       <c r="D38">
-        <f t="shared" ref="D38:D63" si="16">C38-C37</f>
-        <v>112</v>
+        <f>C38</f>
+        <v>68</v>
       </c>
       <c r="E38" t="s">
         <v>116</v>
       </c>
       <c r="G38">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="G38:G40" si="16">B38</f>
         <v>1</v>
       </c>
       <c r="H38">
         <v>353709</v>
       </c>
       <c r="K38" s="5" t="str">
-        <f t="shared" si="14"/>
-        <v>12/3/2020</v>
+        <f t="shared" ref="K38:K40" si="17">DAY(A38)&amp;"/"&amp;MONTH(A38)&amp;"/"&amp;YEAR(A38)</f>
+        <v>11/3/2020</v>
       </c>
       <c r="L38" s="3" t="str">
-        <f t="shared" si="15"/>
-        <v>12/3/2020,12,3,2020,112,1,Ticino,nn,nnn,353709</v>
+        <f t="shared" ref="L38:L40" si="18">K38&amp;$L$1&amp;DAY(A38)&amp;$L$1&amp;MONTH(A38)&amp;$L$1&amp;YEAR(A38)&amp;$L$1&amp;D38&amp;$L$1&amp;G38&amp;$L$1&amp;E38&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H38</f>
+        <v>11/3/2020,11,3,2020,68,1,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>43903</v>
+        <v>43902</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
       <c r="C39" s="43">
-        <v>258</v>
+        <v>180</v>
       </c>
       <c r="D39">
-        <f t="shared" si="16"/>
-        <v>78</v>
+        <f t="shared" ref="D39:D64" si="19">C39-C38</f>
+        <v>112</v>
       </c>
       <c r="E39" t="s">
         <v>116</v>
       </c>
       <c r="G39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="H39">
         <v>353709</v>
       </c>
       <c r="K39" s="5" t="str">
-        <f t="shared" si="14"/>
-        <v>13/3/2020</v>
+        <f t="shared" si="17"/>
+        <v>12/3/2020</v>
       </c>
       <c r="L39" s="3" t="str">
-        <f t="shared" si="15"/>
-        <v>13/3/2020,13,3,2020,78,1,Ticino,nn,nnn,353709</v>
+        <f t="shared" si="18"/>
+        <v>12/3/2020,12,3,2020,112,1,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>43904</v>
+        <v>43903</v>
       </c>
       <c r="B40">
-        <v>5</v>
-      </c>
-      <c r="C40">
-        <v>262</v>
+        <v>1</v>
+      </c>
+      <c r="C40" s="43">
+        <v>258</v>
       </c>
       <c r="D40">
-        <f t="shared" si="16"/>
-        <v>4</v>
+        <f t="shared" si="19"/>
+        <v>78</v>
       </c>
       <c r="E40" t="s">
         <v>116</v>
       </c>
       <c r="G40">
-        <f>B40</f>
-        <v>5</v>
+        <f t="shared" si="16"/>
+        <v>1</v>
       </c>
       <c r="H40">
         <v>353709</v>
       </c>
       <c r="K40" s="5" t="str">
-        <f t="shared" ref="K40:K62" si="17">DAY(A40)&amp;"/"&amp;MONTH(A40)&amp;"/"&amp;YEAR(A40)</f>
-        <v>14/3/2020</v>
+        <f t="shared" si="17"/>
+        <v>13/3/2020</v>
       </c>
       <c r="L40" s="3" t="str">
-        <f t="shared" ref="L40:L61" si="18">K40&amp;$L$1&amp;DAY(A40)&amp;$L$1&amp;MONTH(A40)&amp;$L$1&amp;YEAR(A40)&amp;$L$1&amp;D40&amp;$L$1&amp;G40&amp;$L$1&amp;E40&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H40</f>
-        <v>14/3/2020,14,3,2020,4,5,Ticino,nn,nnn,353709</v>
+        <f t="shared" si="18"/>
+        <v>13/3/2020,13,3,2020,78,1,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>43905</v>
+        <v>43904</v>
       </c>
       <c r="B41">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C41">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c r="D41">
-        <f t="shared" si="16"/>
-        <v>29</v>
+        <f t="shared" si="19"/>
+        <v>4</v>
       </c>
       <c r="E41" t="s">
         <v>116</v>
       </c>
       <c r="G41">
-        <f t="shared" ref="G41:G62" si="19">B41-B40</f>
-        <v>1</v>
+        <f>B41</f>
+        <v>5</v>
       </c>
       <c r="H41">
         <v>353709</v>
       </c>
       <c r="K41" s="5" t="str">
-        <f t="shared" si="17"/>
-        <v>15/3/2020</v>
+        <f t="shared" ref="K41:K63" si="20">DAY(A41)&amp;"/"&amp;MONTH(A41)&amp;"/"&amp;YEAR(A41)</f>
+        <v>14/3/2020</v>
       </c>
       <c r="L41" s="3" t="str">
-        <f t="shared" si="18"/>
-        <v>15/3/2020,15,3,2020,29,1,Ticino,nn,nnn,353709</v>
+        <f t="shared" ref="L41:L62" si="21">K41&amp;$L$1&amp;DAY(A41)&amp;$L$1&amp;MONTH(A41)&amp;$L$1&amp;YEAR(A41)&amp;$L$1&amp;D41&amp;$L$1&amp;G41&amp;$L$1&amp;E41&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H41</f>
+        <v>14/3/2020,14,3,2020,4,5,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>43906</v>
+        <v>43905</v>
       </c>
       <c r="B42">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C42">
-        <v>330</v>
+        <v>291</v>
       </c>
       <c r="D42">
-        <f t="shared" si="16"/>
-        <v>39</v>
+        <f t="shared" si="19"/>
+        <v>29</v>
       </c>
       <c r="E42" t="s">
         <v>116</v>
       </c>
       <c r="G42">
-        <f t="shared" si="19"/>
-        <v>2</v>
+        <f t="shared" ref="G42:G63" si="22">B42-B41</f>
+        <v>1</v>
       </c>
       <c r="H42">
         <v>353709</v>
       </c>
       <c r="K42" s="5" t="str">
-        <f t="shared" si="17"/>
-        <v>16/3/2020</v>
+        <f t="shared" si="20"/>
+        <v>15/3/2020</v>
       </c>
       <c r="L42" s="3" t="str">
-        <f t="shared" si="18"/>
-        <v>16/3/2020,16,3,2020,39,2,Ticino,nn,nnn,353709</v>
+        <f t="shared" si="21"/>
+        <v>15/3/2020,15,3,2020,29,1,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>43907</v>
+        <v>43906</v>
       </c>
       <c r="B43">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C43">
-        <v>422</v>
+        <v>330</v>
       </c>
       <c r="D43">
-        <f t="shared" si="16"/>
-        <v>92</v>
+        <f t="shared" si="19"/>
+        <v>39</v>
       </c>
       <c r="E43" t="s">
         <v>116</v>
       </c>
       <c r="G43">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2</v>
       </c>
       <c r="H43">
         <v>353709</v>
       </c>
       <c r="K43" s="5" t="str">
-        <f t="shared" si="17"/>
-        <v>17/3/2020</v>
+        <f t="shared" si="20"/>
+        <v>16/3/2020</v>
       </c>
       <c r="L43" s="3" t="str">
-        <f t="shared" si="18"/>
-        <v>17/3/2020,17,3,2020,92,2,Ticino,nn,nnn,353709</v>
+        <f t="shared" si="21"/>
+        <v>16/3/2020,16,3,2020,39,2,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>43908</v>
+        <v>43907</v>
       </c>
       <c r="B44">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C44">
-        <v>511</v>
+        <v>422</v>
       </c>
       <c r="D44">
-        <f t="shared" si="16"/>
-        <v>89</v>
+        <f t="shared" si="19"/>
+        <v>92</v>
       </c>
       <c r="E44" t="s">
         <v>116</v>
       </c>
       <c r="G44">
-        <f t="shared" si="19"/>
-        <v>4</v>
+        <f t="shared" si="22"/>
+        <v>2</v>
       </c>
       <c r="H44">
         <v>353709</v>
       </c>
       <c r="K44" s="5" t="str">
-        <f t="shared" si="17"/>
-        <v>18/3/2020</v>
+        <f t="shared" si="20"/>
+        <v>17/3/2020</v>
       </c>
       <c r="L44" s="3" t="str">
-        <f t="shared" si="18"/>
-        <v>18/3/2020,18,3,2020,89,4,Ticino,nn,nnn,353709</v>
+        <f t="shared" si="21"/>
+        <v>17/3/2020,17,3,2020,92,2,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>43909</v>
+        <v>43908</v>
       </c>
       <c r="B45">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C45">
-        <v>638</v>
+        <v>511</v>
       </c>
       <c r="D45">
-        <f t="shared" si="16"/>
-        <v>127</v>
+        <f t="shared" si="19"/>
+        <v>89</v>
       </c>
       <c r="E45" t="s">
         <v>116</v>
       </c>
       <c r="G45">
-        <f t="shared" si="19"/>
-        <v>1</v>
+        <f t="shared" si="22"/>
+        <v>4</v>
       </c>
       <c r="H45">
         <v>353709</v>
       </c>
       <c r="K45" s="5" t="str">
-        <f t="shared" si="17"/>
-        <v>19/3/2020</v>
+        <f t="shared" si="20"/>
+        <v>18/3/2020</v>
       </c>
       <c r="L45" s="3" t="str">
-        <f t="shared" si="18"/>
-        <v>19/3/2020,19,3,2020,127,1,Ticino,nn,nnn,353709</v>
+        <f t="shared" si="21"/>
+        <v>18/3/2020,18,3,2020,89,4,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>43910</v>
+        <v>43909</v>
       </c>
       <c r="B46">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C46">
-        <v>834</v>
+        <v>638</v>
       </c>
       <c r="D46">
-        <f t="shared" si="16"/>
-        <v>196</v>
+        <f t="shared" si="19"/>
+        <v>127</v>
       </c>
       <c r="E46" t="s">
         <v>116</v>
       </c>
       <c r="G46">
-        <f t="shared" si="19"/>
-        <v>7</v>
+        <f t="shared" si="22"/>
+        <v>1</v>
       </c>
       <c r="H46">
         <v>353709</v>
       </c>
       <c r="K46" s="5" t="str">
-        <f t="shared" si="17"/>
-        <v>20/3/2020</v>
+        <f t="shared" si="20"/>
+        <v>19/3/2020</v>
       </c>
       <c r="L46" s="3" t="str">
-        <f t="shared" si="18"/>
-        <v>20/3/2020,20,3,2020,196,7,Ticino,nn,nnn,353709</v>
+        <f t="shared" si="21"/>
+        <v>19/3/2020,19,3,2020,127,1,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>43911</v>
+        <v>43910</v>
       </c>
       <c r="B47">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C47">
-        <v>918</v>
+        <v>834</v>
       </c>
       <c r="D47">
-        <f t="shared" si="16"/>
-        <v>84</v>
+        <f t="shared" si="19"/>
+        <v>196</v>
       </c>
       <c r="E47" t="s">
         <v>116</v>
       </c>
       <c r="G47">
-        <f t="shared" si="19"/>
-        <v>6</v>
+        <f t="shared" si="22"/>
+        <v>7</v>
       </c>
       <c r="H47">
         <v>353709</v>
       </c>
       <c r="K47" s="5" t="str">
-        <f t="shared" si="17"/>
-        <v>21/3/2020</v>
+        <f t="shared" si="20"/>
+        <v>20/3/2020</v>
       </c>
       <c r="L47" s="3" t="str">
-        <f t="shared" si="18"/>
-        <v>21/3/2020,21,3,2020,84,6,Ticino,nn,nnn,353709</v>
+        <f t="shared" si="21"/>
+        <v>20/3/2020,20,3,2020,196,7,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>43912</v>
+        <v>43911</v>
       </c>
       <c r="B48">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C48">
-        <v>939</v>
+        <v>918</v>
       </c>
       <c r="D48">
-        <f t="shared" si="16"/>
-        <v>21</v>
+        <f t="shared" si="19"/>
+        <v>84</v>
       </c>
       <c r="E48" t="s">
         <v>116</v>
       </c>
       <c r="G48">
-        <f t="shared" si="19"/>
-        <v>9</v>
+        <f t="shared" si="22"/>
+        <v>6</v>
       </c>
       <c r="H48">
         <v>353709</v>
       </c>
       <c r="K48" s="5" t="str">
-        <f t="shared" si="17"/>
-        <v>22/3/2020</v>
+        <f t="shared" si="20"/>
+        <v>21/3/2020</v>
       </c>
       <c r="L48" s="3" t="str">
-        <f t="shared" si="18"/>
-        <v>22/3/2020,22,3,2020,21,9,Ticino,nn,nnn,353709</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+        <f t="shared" si="21"/>
+        <v>21/3/2020,21,3,2020,84,6,Ticino,nn,nnn,353709</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>43913</v>
+        <v>43912</v>
       </c>
       <c r="B49">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C49">
-        <v>1165</v>
+        <v>939</v>
       </c>
       <c r="D49">
-        <f t="shared" si="16"/>
-        <v>226</v>
+        <f t="shared" si="19"/>
+        <v>21</v>
       </c>
       <c r="E49" t="s">
         <v>116</v>
       </c>
       <c r="G49">
-        <f t="shared" si="19"/>
-        <v>11</v>
+        <f t="shared" si="22"/>
+        <v>9</v>
       </c>
       <c r="H49">
         <v>353709</v>
       </c>
       <c r="K49" s="5" t="str">
-        <f t="shared" si="17"/>
-        <v>23/3/2020</v>
+        <f t="shared" si="20"/>
+        <v>22/3/2020</v>
       </c>
       <c r="L49" s="3" t="str">
-        <f t="shared" si="18"/>
-        <v>23/3/2020,23,3,2020,226,11,Ticino,nn,nnn,353709</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+        <f t="shared" si="21"/>
+        <v>22/3/2020,22,3,2020,21,9,Ticino,nn,nnn,353709</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>43914</v>
+        <v>43913</v>
       </c>
       <c r="B50">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C50">
-        <v>1211</v>
+        <v>1165</v>
       </c>
       <c r="D50">
-        <f t="shared" si="16"/>
-        <v>46</v>
+        <f t="shared" si="19"/>
+        <v>226</v>
       </c>
       <c r="E50" t="s">
         <v>116</v>
       </c>
-      <c r="F50" s="2"/>
       <c r="G50">
-        <f t="shared" si="19"/>
-        <v>5</v>
+        <f t="shared" si="22"/>
+        <v>11</v>
       </c>
       <c r="H50">
         <v>353709</v>
       </c>
       <c r="K50" s="5" t="str">
-        <f t="shared" si="17"/>
-        <v>24/3/2020</v>
+        <f t="shared" si="20"/>
+        <v>23/3/2020</v>
       </c>
       <c r="L50" s="3" t="str">
-        <f t="shared" si="18"/>
-        <v>24/3/2020,24,3,2020,46,5,Ticino,nn,nnn,353709</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+        <f t="shared" si="21"/>
+        <v>23/3/2020,23,3,2020,226,11,Ticino,nn,nnn,353709</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>43915</v>
+        <v>43914</v>
       </c>
       <c r="B51">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C51">
-        <v>1343</v>
+        <v>1211</v>
       </c>
       <c r="D51">
-        <f t="shared" si="16"/>
-        <v>132</v>
+        <f t="shared" si="19"/>
+        <v>46</v>
       </c>
       <c r="E51" t="s">
         <v>116</v>
       </c>
+      <c r="F51" s="2"/>
       <c r="G51">
-        <f t="shared" si="19"/>
-        <v>7</v>
+        <f t="shared" si="22"/>
+        <v>5</v>
       </c>
       <c r="H51">
         <v>353709</v>
       </c>
       <c r="K51" s="5" t="str">
-        <f t="shared" si="17"/>
-        <v>25/3/2020</v>
+        <f t="shared" si="20"/>
+        <v>24/3/2020</v>
       </c>
       <c r="L51" s="3" t="str">
-        <f t="shared" si="18"/>
-        <v>25/3/2020,25,3,2020,132,7,Ticino,nn,nnn,353709</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+        <f t="shared" si="21"/>
+        <v>24/3/2020,24,3,2020,46,5,Ticino,nn,nnn,353709</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>43916</v>
+        <v>43915</v>
       </c>
       <c r="B52">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C52">
-        <v>1401</v>
+        <v>1343</v>
       </c>
       <c r="D52">
-        <f t="shared" si="16"/>
-        <v>58</v>
+        <f t="shared" si="19"/>
+        <v>132</v>
       </c>
       <c r="E52" t="s">
         <v>116</v>
       </c>
       <c r="G52">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
       <c r="H52">
         <v>353709</v>
       </c>
       <c r="K52" s="5" t="str">
-        <f t="shared" si="17"/>
-        <v>26/3/2020</v>
+        <f t="shared" si="20"/>
+        <v>25/3/2020</v>
       </c>
       <c r="L52" s="3" t="str">
-        <f t="shared" si="18"/>
-        <v>26/3/2020,26,3,2020,58,7,Ticino,nn,nnn,353709</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+        <f t="shared" si="21"/>
+        <v>25/3/2020,25,3,2020,132,7,Ticino,nn,nnn,353709</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>43917</v>
+        <v>43916</v>
       </c>
       <c r="B53">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C53">
-        <v>1688</v>
+        <v>1401</v>
       </c>
       <c r="D53">
-        <f t="shared" si="16"/>
-        <v>287</v>
+        <f t="shared" si="19"/>
+        <v>58</v>
       </c>
       <c r="E53" t="s">
         <v>116</v>
       </c>
       <c r="G53">
-        <f t="shared" si="19"/>
-        <v>9</v>
+        <f t="shared" si="22"/>
+        <v>7</v>
       </c>
       <c r="H53">
         <v>353709</v>
       </c>
       <c r="K53" s="5" t="str">
-        <f t="shared" si="17"/>
-        <v>27/3/2020</v>
+        <f t="shared" si="20"/>
+        <v>26/3/2020</v>
       </c>
       <c r="L53" s="3" t="str">
-        <f t="shared" si="18"/>
-        <v>27/3/2020,27,3,2020,287,9,Ticino,nn,nnn,353709</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+        <f t="shared" si="21"/>
+        <v>26/3/2020,26,3,2020,58,7,Ticino,nn,nnn,353709</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>43918</v>
+        <v>43917</v>
       </c>
       <c r="B54">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C54">
-        <v>1727</v>
+        <v>1688</v>
       </c>
       <c r="D54">
-        <f t="shared" si="16"/>
-        <v>39</v>
+        <f t="shared" si="19"/>
+        <v>287</v>
       </c>
       <c r="E54" t="s">
         <v>116</v>
       </c>
       <c r="G54">
-        <f t="shared" si="19"/>
-        <v>11</v>
+        <f t="shared" si="22"/>
+        <v>9</v>
       </c>
       <c r="H54">
         <v>353709</v>
       </c>
       <c r="K54" s="5" t="str">
-        <f t="shared" si="17"/>
-        <v>28/3/2020</v>
+        <f t="shared" si="20"/>
+        <v>27/3/2020</v>
       </c>
       <c r="L54" s="3" t="str">
-        <f t="shared" si="18"/>
-        <v>28/3/2020,28,3,2020,39,11,Ticino,nn,nnn,353709</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+        <f t="shared" si="21"/>
+        <v>27/3/2020,27,3,2020,287,9,Ticino,nn,nnn,353709</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>43919</v>
+        <v>43918</v>
       </c>
       <c r="B55">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C55">
-        <v>1837</v>
+        <v>1727</v>
       </c>
       <c r="D55">
-        <f t="shared" si="16"/>
-        <v>110</v>
+        <f t="shared" si="19"/>
+        <v>39</v>
       </c>
       <c r="E55" t="s">
         <v>116</v>
       </c>
       <c r="G55">
-        <f t="shared" si="19"/>
-        <v>6</v>
+        <f t="shared" si="22"/>
+        <v>11</v>
       </c>
       <c r="H55">
         <v>353709</v>
       </c>
       <c r="K55" s="5" t="str">
-        <f t="shared" si="17"/>
-        <v>29/3/2020</v>
+        <f t="shared" si="20"/>
+        <v>28/3/2020</v>
       </c>
       <c r="L55" s="3" t="str">
-        <f t="shared" si="18"/>
-        <v>29/3/2020,29,3,2020,110,6,Ticino,nn,nnn,353709</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+        <f t="shared" si="21"/>
+        <v>28/3/2020,28,3,2020,39,11,Ticino,nn,nnn,353709</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>43920</v>
+        <v>43919</v>
       </c>
       <c r="B56">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C56">
-        <v>1962</v>
+        <v>1837</v>
       </c>
       <c r="D56">
-        <f t="shared" si="16"/>
-        <v>125</v>
+        <f t="shared" si="19"/>
+        <v>110</v>
       </c>
       <c r="E56" t="s">
         <v>116</v>
       </c>
       <c r="G56">
-        <f t="shared" si="19"/>
-        <v>12</v>
+        <f t="shared" si="22"/>
+        <v>6</v>
       </c>
       <c r="H56">
         <v>353709</v>
       </c>
       <c r="K56" s="5" t="str">
-        <f t="shared" si="17"/>
-        <v>30/3/2020</v>
+        <f t="shared" si="20"/>
+        <v>29/3/2020</v>
       </c>
       <c r="L56" s="3" t="str">
-        <f t="shared" si="18"/>
-        <v>30/3/2020,30,3,2020,125,12,Ticino,nn,nnn,353709</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+        <f t="shared" si="21"/>
+        <v>29/3/2020,29,3,2020,110,6,Ticino,nn,nnn,353709</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>43921</v>
+        <v>43920</v>
       </c>
       <c r="B57">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="C57">
-        <v>2091</v>
+        <v>1962</v>
       </c>
       <c r="D57">
-        <f t="shared" si="16"/>
-        <v>129</v>
+        <f t="shared" si="19"/>
+        <v>125</v>
       </c>
       <c r="E57" t="s">
         <v>116</v>
       </c>
       <c r="G57">
-        <f t="shared" si="19"/>
-        <v>15</v>
+        <f t="shared" si="22"/>
+        <v>12</v>
       </c>
       <c r="H57">
         <v>353709</v>
       </c>
       <c r="K57" s="5" t="str">
-        <f t="shared" si="17"/>
-        <v>31/3/2020</v>
+        <f t="shared" si="20"/>
+        <v>30/3/2020</v>
       </c>
       <c r="L57" s="3" t="str">
-        <f t="shared" si="18"/>
-        <v>31/3/2020,31,3,2020,129,15,Ticino,nn,nnn,353709</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="21"/>
+        <v>30/3/2020,30,3,2020,125,12,Ticino,nn,nnn,353709</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>43922</v>
+        <v>43921</v>
       </c>
       <c r="B58">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="C58">
-        <v>2195</v>
+        <v>2091</v>
       </c>
       <c r="D58">
-        <f t="shared" si="16"/>
-        <v>104</v>
+        <f t="shared" si="19"/>
+        <v>129</v>
       </c>
       <c r="E58" t="s">
         <v>116</v>
       </c>
       <c r="G58">
-        <f t="shared" si="19"/>
-        <v>12</v>
+        <f t="shared" si="22"/>
+        <v>15</v>
       </c>
       <c r="H58">
         <v>353709</v>
       </c>
       <c r="K58" s="5" t="str">
-        <f t="shared" si="17"/>
-        <v>1/4/2020</v>
+        <f t="shared" si="20"/>
+        <v>31/3/2020</v>
       </c>
       <c r="L58" s="3" t="str">
-        <f t="shared" si="18"/>
-        <v>1/4/2020,1,4,2020,104,12,Ticino,nn,nnn,353709</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="21"/>
+        <v>31/3/2020,31,3,2020,129,15,Ticino,nn,nnn,353709</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>43923</v>
-      </c>
-      <c r="B59" s="49">
-        <v>141</v>
-      </c>
-      <c r="C59" s="44">
-        <v>2271</v>
+        <v>43922</v>
+      </c>
+      <c r="B59">
+        <v>132</v>
+      </c>
+      <c r="C59">
+        <v>2195</v>
       </c>
       <c r="D59">
-        <f t="shared" si="16"/>
-        <v>76</v>
+        <f t="shared" si="19"/>
+        <v>104</v>
       </c>
       <c r="E59" t="s">
         <v>116</v>
       </c>
       <c r="G59">
-        <f t="shared" si="19"/>
-        <v>9</v>
+        <f t="shared" si="22"/>
+        <v>12</v>
       </c>
       <c r="H59">
         <v>353709</v>
       </c>
       <c r="K59" s="5" t="str">
-        <f t="shared" si="17"/>
-        <v>2/4/2020</v>
+        <f t="shared" si="20"/>
+        <v>1/4/2020</v>
       </c>
       <c r="L59" s="3" t="str">
-        <f t="shared" si="18"/>
-        <v>2/4/2020,2,4,2020,76,9,Ticino,nn,nnn,353709</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="21"/>
+        <v>1/4/2020,1,4,2020,104,12,Ticino,nn,nnn,353709</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>43924</v>
+        <v>43923</v>
       </c>
       <c r="B60" s="49">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="C60" s="44">
-        <v>2377</v>
+        <v>2271</v>
       </c>
       <c r="D60">
-        <f t="shared" si="16"/>
-        <v>106</v>
+        <f t="shared" si="19"/>
+        <v>76</v>
       </c>
       <c r="E60" t="s">
         <v>116</v>
       </c>
       <c r="G60">
-        <f t="shared" si="19"/>
-        <v>14</v>
+        <f t="shared" si="22"/>
+        <v>9</v>
       </c>
       <c r="H60">
         <v>353709</v>
       </c>
       <c r="K60" s="5" t="str">
-        <f t="shared" si="17"/>
-        <v>3/4/2020</v>
+        <f t="shared" si="20"/>
+        <v>2/4/2020</v>
       </c>
       <c r="L60" s="3" t="str">
-        <f t="shared" si="18"/>
-        <v>3/4/2020,3,4,2020,106,14,Ticino,nn,nnn,353709</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="21"/>
+        <v>2/4/2020,2,4,2020,76,9,Ticino,nn,nnn,353709</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>43925</v>
+        <v>43924</v>
       </c>
       <c r="B61" s="49">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C61" s="44">
-        <v>2422</v>
+        <v>2377</v>
       </c>
       <c r="D61">
-        <f t="shared" si="16"/>
-        <v>45</v>
+        <f t="shared" si="19"/>
+        <v>106</v>
       </c>
       <c r="E61" t="s">
         <v>116</v>
       </c>
       <c r="G61">
-        <f t="shared" si="19"/>
-        <v>10</v>
+        <f t="shared" si="22"/>
+        <v>14</v>
       </c>
       <c r="H61">
         <v>353709</v>
       </c>
       <c r="K61" s="5" t="str">
-        <f t="shared" si="17"/>
-        <v>4/4/2020</v>
+        <f t="shared" si="20"/>
+        <v>3/4/2020</v>
       </c>
       <c r="L61" s="3" t="str">
-        <f t="shared" si="18"/>
-        <v>4/4/2020,4,4,2020,45,10,Ticino,nn,nnn,353709</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="21"/>
+        <v>3/4/2020,3,4,2020,106,14,Ticino,nn,nnn,353709</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>43926</v>
+        <v>43925</v>
       </c>
       <c r="B62" s="49">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="C62" s="44">
-        <v>2508</v>
+        <v>2422</v>
       </c>
       <c r="D62">
-        <f t="shared" si="16"/>
-        <v>86</v>
+        <f t="shared" si="19"/>
+        <v>45</v>
       </c>
       <c r="E62" t="s">
         <v>116</v>
       </c>
       <c r="G62">
-        <f t="shared" si="19"/>
-        <v>12</v>
+        <f t="shared" si="22"/>
+        <v>10</v>
       </c>
       <c r="H62">
         <v>353709</v>
       </c>
       <c r="K62" s="5" t="str">
-        <f t="shared" si="17"/>
-        <v>5/4/2020</v>
+        <f t="shared" si="20"/>
+        <v>4/4/2020</v>
       </c>
       <c r="L62" s="3" t="str">
-        <f>K62&amp;$L$1&amp;DAY(A62)&amp;$L$1&amp;MONTH(A62)&amp;$L$1&amp;YEAR(A62)&amp;$L$1&amp;D62&amp;$L$1&amp;G62&amp;$L$1&amp;E62&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H62</f>
-        <v>5/4/2020,5,4,2020,86,12,Ticino,nn,nnn,353709</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="21"/>
+        <v>4/4/2020,4,4,2020,45,10,Ticino,nn,nnn,353709</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>43927</v>
-      </c>
-      <c r="B63" s="47">
-        <v>189</v>
+        <v>43926</v>
+      </c>
+      <c r="B63" s="49">
+        <v>177</v>
       </c>
       <c r="C63" s="44">
-        <v>2546</v>
+        <v>2508</v>
       </c>
       <c r="D63">
-        <f t="shared" si="16"/>
-        <v>38</v>
+        <f t="shared" si="19"/>
+        <v>86</v>
       </c>
       <c r="E63" t="s">
         <v>116</v>
       </c>
       <c r="G63">
-        <f t="shared" ref="G63:G64" si="20">B63-B62</f>
+        <f t="shared" si="22"/>
         <v>12</v>
       </c>
       <c r="H63">
         <v>353709</v>
       </c>
       <c r="K63" s="5" t="str">
-        <f t="shared" ref="K63" si="21">DAY(A63)&amp;"/"&amp;MONTH(A63)&amp;"/"&amp;YEAR(A63)</f>
-        <v>6/4/2020</v>
+        <f t="shared" si="20"/>
+        <v>5/4/2020</v>
       </c>
       <c r="L63" s="3" t="str">
-        <f t="shared" ref="L63" si="22">K63&amp;$L$1&amp;DAY(A63)&amp;$L$1&amp;MONTH(A63)&amp;$L$1&amp;YEAR(A63)&amp;$L$1&amp;D63&amp;$L$1&amp;G63&amp;$L$1&amp;E63&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H63</f>
-        <v>6/4/2020,6,4,2020,38,12,Ticino,nn,nnn,353709</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <f>K63&amp;$L$1&amp;DAY(A63)&amp;$L$1&amp;MONTH(A63)&amp;$L$1&amp;YEAR(A63)&amp;$L$1&amp;D63&amp;$L$1&amp;G63&amp;$L$1&amp;E63&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H63</f>
+        <v>5/4/2020,5,4,2020,86,12,Ticino,nn,nnn,353709</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>43928</v>
-      </c>
-      <c r="B64" s="59">
-        <v>198</v>
+        <v>43927</v>
+      </c>
+      <c r="B64" s="47">
+        <v>189</v>
       </c>
       <c r="C64" s="44">
-        <v>2599</v>
+        <v>2546</v>
       </c>
       <c r="D64">
-        <f t="shared" ref="D64" si="23">C64-C63</f>
-        <v>53</v>
+        <f t="shared" si="19"/>
+        <v>38</v>
       </c>
       <c r="E64" t="s">
         <v>116</v>
       </c>
       <c r="G64">
-        <f t="shared" si="20"/>
-        <v>9</v>
+        <f t="shared" ref="G64:G65" si="23">B64-B63</f>
+        <v>12</v>
       </c>
       <c r="H64">
         <v>353709</v>
       </c>
       <c r="K64" s="5" t="str">
         <f t="shared" ref="K64" si="24">DAY(A64)&amp;"/"&amp;MONTH(A64)&amp;"/"&amp;YEAR(A64)</f>
-        <v>7/4/2020</v>
+        <v>6/4/2020</v>
       </c>
       <c r="L64" s="3" t="str">
         <f t="shared" ref="L64" si="25">K64&amp;$L$1&amp;DAY(A64)&amp;$L$1&amp;MONTH(A64)&amp;$L$1&amp;YEAR(A64)&amp;$L$1&amp;D64&amp;$L$1&amp;G64&amp;$L$1&amp;E64&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H64</f>
-        <v>7/4/2020,7,4,2020,53,9,Ticino,nn,nnn,353709</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>6/4/2020,6,4,2020,38,12,Ticino,nn,nnn,353709</v>
+      </c>
+      <c r="R64" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>43929</v>
-      </c>
-      <c r="B65" s="47">
-        <v>211</v>
+        <v>43928</v>
+      </c>
+      <c r="B65" s="56">
+        <v>198</v>
       </c>
       <c r="C65" s="44">
-        <v>2659</v>
+        <v>2599</v>
       </c>
       <c r="D65">
         <f t="shared" ref="D65" si="26">C65-C64</f>
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E65" t="s">
         <v>116</v>
       </c>
       <c r="G65">
-        <f t="shared" ref="G65" si="27">B65-B64</f>
-        <v>13</v>
+        <f t="shared" si="23"/>
+        <v>9</v>
       </c>
       <c r="H65">
-        <v>353710</v>
+        <v>353709</v>
       </c>
       <c r="K65" s="5" t="str">
-        <f t="shared" ref="K65" si="28">DAY(A65)&amp;"/"&amp;MONTH(A65)&amp;"/"&amp;YEAR(A65)</f>
-        <v>8/4/2020</v>
+        <f t="shared" ref="K65" si="27">DAY(A65)&amp;"/"&amp;MONTH(A65)&amp;"/"&amp;YEAR(A65)</f>
+        <v>7/4/2020</v>
       </c>
       <c r="L65" s="3" t="str">
-        <f t="shared" ref="L65" si="29">K65&amp;$L$1&amp;DAY(A65)&amp;$L$1&amp;MONTH(A65)&amp;$L$1&amp;YEAR(A65)&amp;$L$1&amp;D65&amp;$L$1&amp;G65&amp;$L$1&amp;E65&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H65</f>
-        <v>8/4/2020,8,4,2020,60,13,Ticino,nn,nnn,353710</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="L65:L68" si="28">K65&amp;$L$1&amp;DAY(A65)&amp;$L$1&amp;MONTH(A65)&amp;$L$1&amp;YEAR(A65)&amp;$L$1&amp;D65&amp;$L$1&amp;G65&amp;$L$1&amp;E65&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H65</f>
+        <v>7/4/2020,7,4,2020,53,9,Ticino,nn,nnn,353709</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>43930</v>
+        <v>43929</v>
       </c>
       <c r="B66" s="47">
-        <v>219</v>
-      </c>
-      <c r="C66" s="55">
-        <v>2714</v>
+        <v>211</v>
+      </c>
+      <c r="C66" s="44">
+        <v>2659</v>
       </c>
       <c r="D66">
-        <f t="shared" ref="D66" si="30">C66-C65</f>
-        <v>55</v>
+        <f t="shared" ref="D66" si="29">C66-C65</f>
+        <v>60</v>
       </c>
       <c r="E66" t="s">
         <v>116</v>
       </c>
       <c r="G66">
-        <f t="shared" ref="G66" si="31">B66-B65</f>
+        <f t="shared" ref="G66" si="30">B66-B65</f>
+        <v>13</v>
+      </c>
+      <c r="H66">
+        <v>353709</v>
+      </c>
+      <c r="K66" s="5" t="str">
+        <f t="shared" ref="K66" si="31">DAY(A66)&amp;"/"&amp;MONTH(A66)&amp;"/"&amp;YEAR(A66)</f>
+        <v>8/4/2020</v>
+      </c>
+      <c r="L66" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>8/4/2020,8,4,2020,60,13,Ticino,nn,nnn,353709</v>
+      </c>
+      <c r="R66">
+        <f>G66/H66</f>
+        <v>3.6753376363055506E-5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B67" s="47">
+        <v>219</v>
+      </c>
+      <c r="C67" s="52">
+        <v>2714</v>
+      </c>
+      <c r="D67">
+        <f t="shared" ref="D67" si="32">C67-C66</f>
+        <v>55</v>
+      </c>
+      <c r="E67" t="s">
+        <v>116</v>
+      </c>
+      <c r="G67">
+        <f t="shared" ref="G67" si="33">B67-B66</f>
         <v>8</v>
       </c>
-      <c r="H66">
-        <v>353711</v>
-      </c>
-      <c r="K66" s="5" t="str">
-        <f t="shared" ref="K66" si="32">DAY(A66)&amp;"/"&amp;MONTH(A66)&amp;"/"&amp;YEAR(A66)</f>
+      <c r="H67">
+        <v>353709</v>
+      </c>
+      <c r="K67" s="5" t="str">
+        <f t="shared" ref="K67" si="34">DAY(A67)&amp;"/"&amp;MONTH(A67)&amp;"/"&amp;YEAR(A67)</f>
         <v>9/4/2020</v>
       </c>
-      <c r="L66" s="3" t="str">
-        <f t="shared" ref="L66" si="33">K66&amp;$L$1&amp;DAY(A66)&amp;$L$1&amp;MONTH(A66)&amp;$L$1&amp;YEAR(A66)&amp;$L$1&amp;D66&amp;$L$1&amp;G66&amp;$L$1&amp;E66&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H66</f>
-        <v>9/4/2020,9,4,2020,55,8,Ticino,nn,nnn,353711</v>
+      <c r="L67" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>9/4/2020,9,4,2020,55,8,Ticino,nn,nnn,353709</v>
+      </c>
+      <c r="R67">
+        <f t="shared" ref="R67:R68" si="35">G67/H67</f>
+        <v>2.2617462377264928E-5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>43931</v>
+      </c>
+      <c r="B68" s="54">
+        <v>227</v>
+      </c>
+      <c r="C68" s="57">
+        <v>2776</v>
+      </c>
+      <c r="D68">
+        <f t="shared" ref="D68" si="36">C68-C67</f>
+        <v>62</v>
+      </c>
+      <c r="E68" t="s">
+        <v>116</v>
+      </c>
+      <c r="G68">
+        <f t="shared" ref="G68" si="37">B68-B67</f>
+        <v>8</v>
+      </c>
+      <c r="H68">
+        <v>353709</v>
+      </c>
+      <c r="K68" s="5" t="str">
+        <f t="shared" ref="K68" si="38">DAY(A68)&amp;"/"&amp;MONTH(A68)&amp;"/"&amp;YEAR(A68)</f>
+        <v>10/4/2020</v>
+      </c>
+      <c r="L68" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>10/4/2020,10,4,2020,62,8,Ticino,nn,nnn,353709</v>
+      </c>
+      <c r="R68">
+        <f t="shared" si="35"/>
+        <v>2.2617462377264928E-5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S69">
+        <f>AVERAGE(R66:R68)*100</f>
+        <v>2.7329433705861788E-3</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:F51">
+  <autoFilter ref="A3:F52">
     <sortState ref="A4:G23">
       <sortCondition ref="E3:E20"/>
     </sortState>
@@ -5120,11 +5202,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BD64"/>
+  <dimension ref="A1:BD65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BD3" sqref="BD3:BD47"/>
+    <sheetView topLeftCell="AF1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AV24" sqref="AV24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9612,66 +9694,66 @@
       </c>
     </row>
     <row r="28" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="56">
+      <c r="A28" s="53">
         <v>43911</v>
       </c>
-      <c r="B28" s="57"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57">
+      <c r="B28" s="54"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54">
         <v>418</v>
       </c>
-      <c r="F28" s="57">
+      <c r="F28" s="54">
         <v>282</v>
       </c>
-      <c r="G28" s="57">
+      <c r="G28" s="54">
         <v>299</v>
       </c>
-      <c r="H28" s="57">
+      <c r="H28" s="54">
         <v>167</v>
       </c>
-      <c r="I28" s="57">
+      <c r="I28" s="54">
         <v>1262</v>
       </c>
-      <c r="J28" s="57"/>
-      <c r="K28" s="57">
+      <c r="J28" s="54"/>
+      <c r="K28" s="54">
         <v>239</v>
       </c>
-      <c r="L28" s="57">
+      <c r="L28" s="54">
         <v>49</v>
       </c>
-      <c r="M28" s="57">
+      <c r="M28" s="54">
         <v>109</v>
       </c>
-      <c r="N28" s="57">
+      <c r="N28" s="54">
         <v>200</v>
       </c>
-      <c r="O28" s="57">
+      <c r="O28" s="54">
         <v>33</v>
       </c>
-      <c r="P28" s="57"/>
-      <c r="Q28" s="57"/>
-      <c r="R28" s="57"/>
-      <c r="S28" s="57"/>
-      <c r="T28" s="57"/>
-      <c r="U28" s="57">
+      <c r="P28" s="54"/>
+      <c r="Q28" s="54"/>
+      <c r="R28" s="54"/>
+      <c r="S28" s="54"/>
+      <c r="T28" s="54"/>
+      <c r="U28" s="54">
         <v>56</v>
       </c>
       <c r="V28" s="44">
         <v>918</v>
       </c>
-      <c r="W28" s="57">
+      <c r="W28" s="54">
         <v>12</v>
       </c>
-      <c r="X28" s="57">
+      <c r="X28" s="54">
         <v>1676</v>
       </c>
-      <c r="Y28" s="57">
+      <c r="Y28" s="54">
         <v>433</v>
       </c>
-      <c r="Z28" s="57"/>
-      <c r="AA28" s="57"/>
-      <c r="AB28" s="57">
+      <c r="Z28" s="54"/>
+      <c r="AA28" s="54"/>
+      <c r="AB28" s="54">
         <v>7368</v>
       </c>
       <c r="AC28" s="15" t="str">
@@ -9788,66 +9870,66 @@
       </c>
     </row>
     <row r="29" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="54">
+      <c r="A29" s="51">
         <v>43912</v>
       </c>
-      <c r="B29" s="55">
+      <c r="B29" s="52">
         <v>232</v>
       </c>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55">
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52">
         <v>289</v>
       </c>
-      <c r="G29" s="55">
+      <c r="G29" s="52">
         <v>358</v>
       </c>
-      <c r="H29" s="55">
+      <c r="H29" s="52">
         <v>202</v>
       </c>
-      <c r="I29" s="55">
+      <c r="I29" s="52">
         <v>1417</v>
       </c>
-      <c r="J29" s="55">
+      <c r="J29" s="52">
         <v>31</v>
       </c>
-      <c r="K29" s="55">
+      <c r="K29" s="52">
         <v>266</v>
       </c>
-      <c r="L29" s="55">
+      <c r="L29" s="52">
         <v>51</v>
       </c>
-      <c r="M29" s="55">
+      <c r="M29" s="52">
         <v>131</v>
       </c>
-      <c r="N29" s="55">
+      <c r="N29" s="52">
         <v>216</v>
       </c>
-      <c r="O29" s="55">
+      <c r="O29" s="52">
         <v>36</v>
       </c>
-      <c r="P29" s="55"/>
-      <c r="Q29" s="55"/>
-      <c r="R29" s="55"/>
-      <c r="S29" s="55"/>
-      <c r="T29" s="55"/>
-      <c r="U29" s="55">
+      <c r="P29" s="52"/>
+      <c r="Q29" s="52"/>
+      <c r="R29" s="52"/>
+      <c r="S29" s="52"/>
+      <c r="T29" s="52"/>
+      <c r="U29" s="52">
         <v>75</v>
       </c>
       <c r="V29" s="44">
         <v>939</v>
       </c>
-      <c r="W29" s="55"/>
-      <c r="X29" s="55">
+      <c r="W29" s="52"/>
+      <c r="X29" s="52">
         <v>1782</v>
       </c>
-      <c r="Y29" s="55">
+      <c r="Y29" s="52">
         <v>490</v>
       </c>
-      <c r="Z29" s="55"/>
-      <c r="AA29" s="55"/>
-      <c r="AB29" s="55">
+      <c r="Z29" s="52"/>
+      <c r="AA29" s="52"/>
+      <c r="AB29" s="52">
         <v>7975</v>
       </c>
       <c r="AC29" s="15" t="str">
@@ -9964,80 +10046,80 @@
       </c>
     </row>
     <row r="30" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="56">
+      <c r="A30" s="53">
         <v>43913</v>
       </c>
-      <c r="B30" s="57">
+      <c r="B30" s="54">
         <v>241</v>
       </c>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57">
+      <c r="C30" s="54"/>
+      <c r="D30" s="54">
         <v>30</v>
       </c>
-      <c r="E30" s="57">
+      <c r="E30" s="54">
         <v>470</v>
       </c>
-      <c r="F30" s="57">
+      <c r="F30" s="54">
         <v>302</v>
       </c>
-      <c r="G30" s="57">
+      <c r="G30" s="54">
         <v>376</v>
       </c>
-      <c r="H30" s="57">
+      <c r="H30" s="54">
         <v>226</v>
       </c>
-      <c r="I30" s="57">
+      <c r="I30" s="54">
         <v>1582</v>
       </c>
-      <c r="J30" s="57"/>
-      <c r="K30" s="57"/>
-      <c r="L30" s="57">
+      <c r="J30" s="54"/>
+      <c r="K30" s="54"/>
+      <c r="L30" s="54">
         <v>57</v>
       </c>
-      <c r="M30" s="57">
+      <c r="M30" s="54">
         <v>156</v>
       </c>
-      <c r="N30" s="57">
+      <c r="N30" s="54">
         <v>247</v>
       </c>
-      <c r="O30" s="57">
+      <c r="O30" s="54">
         <v>39</v>
       </c>
-      <c r="P30" s="57">
+      <c r="P30" s="54">
         <v>25</v>
       </c>
-      <c r="Q30" s="57">
+      <c r="Q30" s="54">
         <v>228</v>
       </c>
-      <c r="R30" s="57">
+      <c r="R30" s="54">
         <v>30</v>
       </c>
-      <c r="S30" s="57">
+      <c r="S30" s="54">
         <v>95</v>
       </c>
-      <c r="T30" s="57"/>
-      <c r="U30" s="57">
+      <c r="T30" s="54"/>
+      <c r="U30" s="54">
         <v>81</v>
       </c>
       <c r="V30" s="44">
         <v>1165</v>
       </c>
-      <c r="W30" s="57">
+      <c r="W30" s="54">
         <v>22</v>
       </c>
-      <c r="X30" s="57">
+      <c r="X30" s="54">
         <v>1822</v>
       </c>
-      <c r="Y30" s="57">
+      <c r="Y30" s="54">
         <v>527</v>
       </c>
-      <c r="Z30" s="57">
+      <c r="Z30" s="54">
         <v>62</v>
       </c>
-      <c r="AA30" s="57">
+      <c r="AA30" s="54">
         <v>1068</v>
       </c>
-      <c r="AB30" s="57">
+      <c r="AB30" s="54">
         <v>9167</v>
       </c>
       <c r="AC30" s="15" t="str">
@@ -10154,84 +10236,84 @@
       </c>
     </row>
     <row r="31" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="54">
+      <c r="A31" s="51">
         <v>43914</v>
       </c>
-      <c r="B31" s="55">
+      <c r="B31" s="52">
         <v>266</v>
       </c>
-      <c r="C31" s="55">
+      <c r="C31" s="52">
         <v>8</v>
       </c>
-      <c r="D31" s="55">
+      <c r="D31" s="52">
         <v>33</v>
       </c>
-      <c r="E31" s="55">
+      <c r="E31" s="52">
         <v>532</v>
       </c>
-      <c r="F31" s="55">
+      <c r="F31" s="52">
         <v>306</v>
       </c>
-      <c r="G31" s="55">
+      <c r="G31" s="52">
         <v>414</v>
       </c>
-      <c r="H31" s="55">
+      <c r="H31" s="52">
         <v>255</v>
       </c>
-      <c r="I31" s="55">
+      <c r="I31" s="52">
         <v>1679</v>
       </c>
-      <c r="J31" s="55">
+      <c r="J31" s="52">
         <v>33</v>
       </c>
-      <c r="K31" s="55">
+      <c r="K31" s="52">
         <v>276</v>
       </c>
-      <c r="L31" s="55">
+      <c r="L31" s="52">
         <v>66</v>
       </c>
-      <c r="M31" s="55">
+      <c r="M31" s="52">
         <v>205</v>
       </c>
-      <c r="N31" s="55">
+      <c r="N31" s="52">
         <v>265</v>
       </c>
-      <c r="O31" s="55">
+      <c r="O31" s="52">
         <v>42</v>
       </c>
-      <c r="P31" s="55">
+      <c r="P31" s="52">
         <v>25</v>
       </c>
-      <c r="Q31" s="55"/>
-      <c r="R31" s="55">
+      <c r="Q31" s="52"/>
+      <c r="R31" s="52">
         <v>32</v>
       </c>
-      <c r="S31" s="55">
+      <c r="S31" s="52">
         <v>104</v>
       </c>
-      <c r="T31" s="55"/>
-      <c r="U31" s="55">
+      <c r="T31" s="52"/>
+      <c r="U31" s="52">
         <v>87</v>
       </c>
-      <c r="V31" s="55">
+      <c r="V31" s="44">
         <v>1211</v>
       </c>
-      <c r="W31" s="55">
+      <c r="W31" s="52">
         <v>25</v>
       </c>
-      <c r="X31" s="55">
+      <c r="X31" s="52">
         <v>2162</v>
       </c>
-      <c r="Y31" s="55">
+      <c r="Y31" s="52">
         <v>606</v>
       </c>
-      <c r="Z31" s="55">
+      <c r="Z31" s="52">
         <v>72</v>
       </c>
-      <c r="AA31" s="55">
+      <c r="AA31" s="52">
         <v>1211</v>
       </c>
-      <c r="AB31" s="55">
+      <c r="AB31" s="52">
         <v>10156</v>
       </c>
       <c r="AC31" s="15" t="str">
@@ -10348,86 +10430,86 @@
       </c>
     </row>
     <row r="32" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="56">
+      <c r="A32" s="53">
         <v>43915</v>
       </c>
-      <c r="B32" s="57">
+      <c r="B32" s="54">
         <v>319</v>
       </c>
-      <c r="C32" s="57">
+      <c r="C32" s="54">
         <v>9</v>
       </c>
-      <c r="D32" s="57">
+      <c r="D32" s="54">
         <v>34</v>
       </c>
-      <c r="E32" s="57">
+      <c r="E32" s="54">
         <v>624</v>
       </c>
-      <c r="F32" s="57">
+      <c r="F32" s="54">
         <v>341</v>
       </c>
-      <c r="G32" s="57">
+      <c r="G32" s="54">
         <v>466</v>
       </c>
-      <c r="H32" s="57">
+      <c r="H32" s="54">
         <v>293</v>
       </c>
-      <c r="I32" s="57">
+      <c r="I32" s="54">
         <v>1809</v>
       </c>
-      <c r="J32" s="57">
+      <c r="J32" s="54">
         <v>40</v>
       </c>
-      <c r="K32" s="57">
+      <c r="K32" s="54">
         <v>322</v>
       </c>
-      <c r="L32" s="57">
+      <c r="L32" s="54">
         <v>78</v>
       </c>
-      <c r="M32" s="57">
+      <c r="M32" s="54">
         <v>228</v>
       </c>
-      <c r="N32" s="57">
+      <c r="N32" s="54">
         <v>280</v>
       </c>
-      <c r="O32" s="57">
+      <c r="O32" s="54">
         <v>44</v>
       </c>
-      <c r="P32" s="57">
+      <c r="P32" s="54">
         <v>27</v>
       </c>
-      <c r="Q32" s="57">
+      <c r="Q32" s="54">
         <v>228</v>
       </c>
-      <c r="R32" s="57">
+      <c r="R32" s="54">
         <v>34</v>
       </c>
-      <c r="S32" s="57">
+      <c r="S32" s="54">
         <v>129</v>
       </c>
-      <c r="T32" s="57">
+      <c r="T32" s="54">
         <v>99</v>
       </c>
-      <c r="U32" s="57">
+      <c r="U32" s="54">
         <v>96</v>
       </c>
-      <c r="V32" s="57">
+      <c r="V32" s="44">
         <v>1354</v>
       </c>
-      <c r="W32" s="57"/>
-      <c r="X32" s="57">
+      <c r="W32" s="54"/>
+      <c r="X32" s="54">
         <v>2215</v>
       </c>
-      <c r="Y32" s="57">
+      <c r="Y32" s="54">
         <v>651</v>
       </c>
-      <c r="Z32" s="57">
+      <c r="Z32" s="54">
         <v>80</v>
       </c>
-      <c r="AA32" s="57">
+      <c r="AA32" s="54">
         <v>1363</v>
       </c>
-      <c r="AB32" s="57">
+      <c r="AB32" s="54">
         <v>11188</v>
       </c>
       <c r="AC32" s="15" t="str">
@@ -10544,88 +10626,88 @@
       </c>
     </row>
     <row r="33" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="54">
+      <c r="A33" s="51">
         <v>43916</v>
       </c>
-      <c r="B33" s="55">
+      <c r="B33" s="52">
         <v>349</v>
       </c>
-      <c r="C33" s="55">
+      <c r="C33" s="52">
         <v>11</v>
       </c>
-      <c r="D33" s="55">
+      <c r="D33" s="52">
         <v>42</v>
       </c>
-      <c r="E33" s="55">
+      <c r="E33" s="52">
         <v>660</v>
       </c>
-      <c r="F33" s="55">
+      <c r="F33" s="52">
         <v>422</v>
       </c>
-      <c r="G33" s="55">
+      <c r="G33" s="52">
         <v>505</v>
       </c>
-      <c r="H33" s="55">
+      <c r="H33" s="52">
         <v>309</v>
       </c>
-      <c r="I33" s="55">
+      <c r="I33" s="52">
         <v>2041</v>
       </c>
-      <c r="J33" s="55">
+      <c r="J33" s="52">
         <v>43</v>
       </c>
-      <c r="K33" s="55">
+      <c r="K33" s="52">
         <v>373</v>
       </c>
-      <c r="L33" s="55">
+      <c r="L33" s="52">
         <v>99</v>
       </c>
-      <c r="M33" s="55">
+      <c r="M33" s="52">
         <v>253</v>
       </c>
-      <c r="N33" s="55">
+      <c r="N33" s="52">
         <v>299</v>
       </c>
-      <c r="O33" s="55">
+      <c r="O33" s="52">
         <v>48</v>
       </c>
-      <c r="P33" s="55">
+      <c r="P33" s="52">
         <v>30</v>
       </c>
-      <c r="Q33" s="55">
+      <c r="Q33" s="52">
         <v>306</v>
       </c>
-      <c r="R33" s="55">
+      <c r="R33" s="52">
         <v>35</v>
       </c>
-      <c r="S33" s="55">
+      <c r="S33" s="52">
         <v>141</v>
       </c>
-      <c r="T33" s="55">
+      <c r="T33" s="52">
         <v>99</v>
       </c>
-      <c r="U33" s="55">
+      <c r="U33" s="52">
         <v>110</v>
       </c>
-      <c r="V33" s="55">
+      <c r="V33" s="44">
         <v>1401</v>
       </c>
-      <c r="W33" s="55">
+      <c r="W33" s="52">
         <v>38</v>
       </c>
-      <c r="X33" s="55">
+      <c r="X33" s="52">
         <v>2532</v>
       </c>
-      <c r="Y33" s="55">
+      <c r="Y33" s="52">
         <v>715</v>
       </c>
-      <c r="Z33" s="55">
+      <c r="Z33" s="52">
         <v>87</v>
       </c>
-      <c r="AA33" s="55">
+      <c r="AA33" s="52">
         <v>1476</v>
       </c>
-      <c r="AB33" s="55">
+      <c r="AB33" s="52">
         <v>12424</v>
       </c>
       <c r="AC33" s="15" t="str">
@@ -10742,86 +10824,86 @@
       </c>
     </row>
     <row r="34" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="56">
+      <c r="A34" s="53">
         <v>43917</v>
       </c>
-      <c r="B34" s="57">
+      <c r="B34" s="54">
         <v>364</v>
       </c>
-      <c r="C34" s="57">
+      <c r="C34" s="54">
         <v>12</v>
       </c>
-      <c r="D34" s="57">
+      <c r="D34" s="54">
         <v>44</v>
       </c>
-      <c r="E34" s="57">
+      <c r="E34" s="54">
         <v>718</v>
       </c>
-      <c r="F34" s="57">
+      <c r="F34" s="54">
         <v>466</v>
       </c>
-      <c r="G34" s="57">
+      <c r="G34" s="54">
         <v>534</v>
       </c>
-      <c r="H34" s="57">
+      <c r="H34" s="54">
         <v>369</v>
       </c>
-      <c r="I34" s="57">
+      <c r="I34" s="54">
         <v>2234</v>
       </c>
-      <c r="J34" s="57">
+      <c r="J34" s="54">
         <v>44</v>
       </c>
-      <c r="K34" s="57">
+      <c r="K34" s="54">
         <v>409</v>
       </c>
-      <c r="L34" s="57">
+      <c r="L34" s="54">
         <v>112</v>
       </c>
-      <c r="M34" s="57">
+      <c r="M34" s="54">
         <v>287</v>
       </c>
-      <c r="N34" s="57">
+      <c r="N34" s="54">
         <v>316</v>
       </c>
-      <c r="O34" s="57">
+      <c r="O34" s="54">
         <v>54</v>
       </c>
-      <c r="P34" s="57">
+      <c r="P34" s="54">
         <v>37</v>
       </c>
-      <c r="Q34" s="57"/>
-      <c r="R34" s="57">
+      <c r="Q34" s="54"/>
+      <c r="R34" s="54">
         <v>36</v>
       </c>
-      <c r="S34" s="57">
+      <c r="S34" s="54">
         <v>157</v>
       </c>
-      <c r="T34" s="57">
+      <c r="T34" s="54">
         <v>119</v>
       </c>
-      <c r="U34" s="57">
+      <c r="U34" s="54">
         <v>117</v>
       </c>
-      <c r="V34" s="57">
+      <c r="V34" s="44">
         <v>1688</v>
       </c>
-      <c r="W34" s="57">
+      <c r="W34" s="54">
         <v>40</v>
       </c>
-      <c r="X34" s="57">
+      <c r="X34" s="54">
         <v>2745</v>
       </c>
-      <c r="Y34" s="57">
+      <c r="Y34" s="54">
         <v>808</v>
       </c>
-      <c r="Z34" s="57">
+      <c r="Z34" s="54">
         <v>101</v>
       </c>
-      <c r="AA34" s="57">
+      <c r="AA34" s="54">
         <v>1578</v>
       </c>
-      <c r="AB34" s="57">
+      <c r="AB34" s="54">
         <v>13695</v>
       </c>
       <c r="AC34" s="15" t="str">
@@ -10938,80 +11020,80 @@
       </c>
     </row>
     <row r="35" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="54">
+      <c r="A35" s="51">
         <v>43918</v>
       </c>
-      <c r="B35" s="55"/>
-      <c r="C35" s="55">
+      <c r="B35" s="52"/>
+      <c r="C35" s="52">
         <v>13</v>
       </c>
-      <c r="D35" s="55">
+      <c r="D35" s="52">
         <v>45</v>
       </c>
-      <c r="E35" s="55">
+      <c r="E35" s="52">
         <v>767</v>
       </c>
-      <c r="F35" s="55">
+      <c r="F35" s="52">
         <v>502</v>
       </c>
-      <c r="G35" s="55">
+      <c r="G35" s="52">
         <v>573</v>
       </c>
-      <c r="H35" s="55">
+      <c r="H35" s="52">
         <v>421</v>
       </c>
-      <c r="I35" s="55">
+      <c r="I35" s="52">
         <v>2433</v>
       </c>
-      <c r="J35" s="55">
+      <c r="J35" s="52">
         <v>47</v>
       </c>
-      <c r="K35" s="55"/>
-      <c r="L35" s="55">
+      <c r="K35" s="52"/>
+      <c r="L35" s="52">
         <v>118</v>
       </c>
-      <c r="M35" s="55">
+      <c r="M35" s="52">
         <v>317</v>
       </c>
-      <c r="N35" s="55">
+      <c r="N35" s="52">
         <v>337</v>
       </c>
-      <c r="O35" s="55">
+      <c r="O35" s="52">
         <v>55</v>
       </c>
-      <c r="P35" s="55"/>
-      <c r="Q35" s="55">
+      <c r="P35" s="52"/>
+      <c r="Q35" s="52">
         <v>339</v>
       </c>
-      <c r="R35" s="55">
+      <c r="R35" s="52">
         <v>37</v>
       </c>
-      <c r="S35" s="55">
+      <c r="S35" s="52">
         <v>173</v>
       </c>
-      <c r="T35" s="55">
+      <c r="T35" s="52">
         <v>122</v>
       </c>
-      <c r="U35" s="55">
+      <c r="U35" s="52">
         <v>134</v>
       </c>
-      <c r="V35" s="55">
+      <c r="V35" s="44">
         <v>1727</v>
       </c>
-      <c r="W35" s="55">
+      <c r="W35" s="52">
         <v>48</v>
       </c>
-      <c r="X35" s="55">
+      <c r="X35" s="52">
         <v>2936</v>
       </c>
-      <c r="Y35" s="55">
+      <c r="Y35" s="52">
         <v>902</v>
       </c>
-      <c r="Z35" s="55"/>
-      <c r="AA35" s="55">
+      <c r="Z35" s="52"/>
+      <c r="AA35" s="52">
         <v>1720</v>
       </c>
-      <c r="AB35" s="55">
+      <c r="AB35" s="52">
         <v>14677</v>
       </c>
       <c r="AC35" s="15" t="str">
@@ -11128,76 +11210,76 @@
       </c>
     </row>
     <row r="36" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="56">
+      <c r="A36" s="53">
         <v>43919</v>
       </c>
-      <c r="B36" s="57"/>
-      <c r="C36" s="57"/>
-      <c r="D36" s="57">
+      <c r="B36" s="54"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="54">
         <v>48</v>
       </c>
-      <c r="E36" s="57">
+      <c r="E36" s="54">
         <v>798</v>
       </c>
-      <c r="F36" s="57">
+      <c r="F36" s="54">
         <v>511</v>
       </c>
-      <c r="G36" s="57">
+      <c r="G36" s="54">
         <v>609</v>
       </c>
-      <c r="H36" s="57">
+      <c r="H36" s="54">
         <v>442</v>
       </c>
-      <c r="I36" s="57">
+      <c r="I36" s="54">
         <v>2550</v>
       </c>
-      <c r="J36" s="57"/>
-      <c r="K36" s="57"/>
-      <c r="L36" s="57">
+      <c r="J36" s="54"/>
+      <c r="K36" s="54"/>
+      <c r="L36" s="54">
         <v>118</v>
       </c>
-      <c r="M36" s="57">
+      <c r="M36" s="54">
         <v>339</v>
       </c>
-      <c r="N36" s="57">
+      <c r="N36" s="54">
         <v>346</v>
       </c>
-      <c r="O36" s="57">
+      <c r="O36" s="54">
         <v>59</v>
       </c>
-      <c r="P36" s="57"/>
-      <c r="Q36" s="57">
+      <c r="P36" s="54"/>
+      <c r="Q36" s="54">
         <v>365</v>
       </c>
-      <c r="R36" s="57">
+      <c r="R36" s="54">
         <v>40</v>
       </c>
-      <c r="S36" s="57">
+      <c r="S36" s="54">
         <v>190</v>
       </c>
-      <c r="T36" s="57">
+      <c r="T36" s="54">
         <v>128</v>
       </c>
-      <c r="U36" s="57">
+      <c r="U36" s="54">
         <v>138</v>
       </c>
-      <c r="V36" s="57">
+      <c r="V36" s="44">
         <v>1837</v>
       </c>
-      <c r="W36" s="57">
+      <c r="W36" s="54">
         <v>50</v>
       </c>
-      <c r="X36" s="57">
+      <c r="X36" s="54">
         <v>3168</v>
       </c>
-      <c r="Y36" s="57">
+      <c r="Y36" s="54">
         <v>964</v>
       </c>
-      <c r="Z36" s="57"/>
-      <c r="AA36" s="57">
+      <c r="Z36" s="54"/>
+      <c r="AA36" s="54">
         <v>1758</v>
       </c>
-      <c r="AB36" s="57">
+      <c r="AB36" s="54">
         <v>15429</v>
       </c>
       <c r="AC36" s="15" t="str">
@@ -11314,86 +11396,86 @@
       </c>
     </row>
     <row r="37" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="54">
+      <c r="A37" s="51">
         <v>43920</v>
       </c>
-      <c r="B37" s="55">
+      <c r="B37" s="52">
         <v>481</v>
       </c>
-      <c r="C37" s="55">
+      <c r="C37" s="52">
         <v>14</v>
       </c>
-      <c r="D37" s="55">
+      <c r="D37" s="52">
         <v>50</v>
       </c>
-      <c r="E37" s="55">
+      <c r="E37" s="52">
         <v>826</v>
       </c>
-      <c r="F37" s="55">
+      <c r="F37" s="52">
         <v>539</v>
       </c>
-      <c r="G37" s="55">
+      <c r="G37" s="52">
         <v>621</v>
       </c>
-      <c r="H37" s="55">
+      <c r="H37" s="52">
         <v>477</v>
       </c>
-      <c r="I37" s="55">
+      <c r="I37" s="52">
         <v>2764</v>
       </c>
-      <c r="J37" s="55">
+      <c r="J37" s="52">
         <v>50</v>
       </c>
-      <c r="K37" s="55">
+      <c r="K37" s="52">
         <v>497</v>
       </c>
-      <c r="L37" s="55">
+      <c r="L37" s="52">
         <v>122</v>
       </c>
-      <c r="M37" s="55">
+      <c r="M37" s="52">
         <v>351</v>
       </c>
-      <c r="N37" s="55">
+      <c r="N37" s="52">
         <v>378</v>
       </c>
-      <c r="O37" s="55">
+      <c r="O37" s="52">
         <v>63</v>
       </c>
-      <c r="P37" s="55">
+      <c r="P37" s="52">
         <v>46</v>
       </c>
-      <c r="Q37" s="55">
+      <c r="Q37" s="52">
         <v>389</v>
       </c>
-      <c r="R37" s="55">
+      <c r="R37" s="52">
         <v>41</v>
       </c>
-      <c r="S37" s="55"/>
-      <c r="T37" s="55">
+      <c r="S37" s="52"/>
+      <c r="T37" s="52">
         <v>135</v>
       </c>
-      <c r="U37" s="55">
+      <c r="U37" s="52">
         <v>148</v>
       </c>
-      <c r="V37" s="55">
+      <c r="V37" s="44">
         <v>1962</v>
       </c>
-      <c r="W37" s="55">
+      <c r="W37" s="52">
         <v>53</v>
       </c>
-      <c r="X37" s="55">
+      <c r="X37" s="52">
         <v>3272</v>
       </c>
-      <c r="Y37" s="55">
+      <c r="Y37" s="52">
         <v>1000</v>
       </c>
-      <c r="Z37" s="55">
+      <c r="Z37" s="52">
         <v>112</v>
       </c>
-      <c r="AA37" s="55">
+      <c r="AA37" s="52">
         <v>1874</v>
       </c>
-      <c r="AB37" s="55">
+      <c r="AB37" s="52">
         <v>16455</v>
       </c>
       <c r="AC37" s="15" t="str">
@@ -11510,88 +11592,88 @@
       </c>
     </row>
     <row r="38" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="56">
+      <c r="A38" s="53">
         <v>43921</v>
       </c>
-      <c r="B38" s="57">
+      <c r="B38" s="54">
         <v>499</v>
       </c>
-      <c r="C38" s="57">
+      <c r="C38" s="54">
         <v>14</v>
       </c>
-      <c r="D38" s="57">
+      <c r="D38" s="54">
         <v>58</v>
       </c>
-      <c r="E38" s="57">
+      <c r="E38" s="54">
         <v>856</v>
       </c>
-      <c r="F38" s="57">
+      <c r="F38" s="54">
         <v>561</v>
       </c>
-      <c r="G38" s="57">
+      <c r="G38" s="54">
         <v>657</v>
       </c>
-      <c r="H38" s="57">
+      <c r="H38" s="54">
         <v>491</v>
       </c>
-      <c r="I38" s="57">
+      <c r="I38" s="54">
         <v>2994</v>
       </c>
-      <c r="J38" s="57">
+      <c r="J38" s="54">
         <v>53</v>
       </c>
-      <c r="K38" s="57">
+      <c r="K38" s="54">
         <v>513</v>
       </c>
-      <c r="L38" s="57">
+      <c r="L38" s="54">
         <v>127</v>
       </c>
-      <c r="M38" s="57">
+      <c r="M38" s="54">
         <v>375</v>
       </c>
-      <c r="N38" s="57">
+      <c r="N38" s="54">
         <v>402</v>
       </c>
-      <c r="O38" s="57">
+      <c r="O38" s="54">
         <v>70</v>
       </c>
-      <c r="P38" s="57">
+      <c r="P38" s="54">
         <v>46</v>
       </c>
-      <c r="Q38" s="57">
+      <c r="Q38" s="54">
         <v>414</v>
       </c>
-      <c r="R38" s="57">
+      <c r="R38" s="54">
         <v>42</v>
       </c>
-      <c r="S38" s="57">
+      <c r="S38" s="54">
         <v>196</v>
       </c>
-      <c r="T38" s="57">
+      <c r="T38" s="54">
         <v>141</v>
       </c>
-      <c r="U38" s="57">
+      <c r="U38" s="54">
         <v>154</v>
       </c>
-      <c r="V38" s="57">
+      <c r="V38" s="44">
         <v>2091</v>
       </c>
-      <c r="W38" s="57">
+      <c r="W38" s="54">
         <v>57</v>
       </c>
-      <c r="X38" s="57">
+      <c r="X38" s="54">
         <v>3465</v>
       </c>
-      <c r="Y38" s="57">
+      <c r="Y38" s="54">
         <v>1085</v>
       </c>
-      <c r="Z38" s="57">
+      <c r="Z38" s="54">
         <v>114</v>
       </c>
-      <c r="AA38" s="57">
+      <c r="AA38" s="54">
         <v>1960</v>
       </c>
-      <c r="AB38" s="57">
+      <c r="AB38" s="54">
         <v>17435</v>
       </c>
       <c r="AC38" s="15" t="str">
@@ -11708,86 +11790,86 @@
       </c>
     </row>
     <row r="39" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="54">
+      <c r="A39" s="51">
         <v>43922</v>
       </c>
-      <c r="B39" s="55">
+      <c r="B39" s="52">
         <v>549</v>
       </c>
-      <c r="C39" s="55"/>
-      <c r="D39" s="55">
+      <c r="C39" s="52"/>
+      <c r="D39" s="52">
         <v>61</v>
       </c>
-      <c r="E39" s="55">
+      <c r="E39" s="52">
         <v>909</v>
       </c>
-      <c r="F39" s="55">
+      <c r="F39" s="52">
         <v>588</v>
       </c>
-      <c r="G39" s="55">
+      <c r="G39" s="52">
         <v>691</v>
       </c>
-      <c r="H39" s="55">
+      <c r="H39" s="52">
         <v>525</v>
       </c>
-      <c r="I39" s="55">
+      <c r="I39" s="52">
         <v>3161</v>
       </c>
-      <c r="J39" s="55">
+      <c r="J39" s="52">
         <v>56</v>
       </c>
-      <c r="K39" s="55">
+      <c r="K39" s="52">
         <v>521</v>
       </c>
-      <c r="L39" s="55">
+      <c r="L39" s="52">
         <v>144</v>
       </c>
-      <c r="M39" s="55">
+      <c r="M39" s="52">
         <v>401</v>
       </c>
-      <c r="N39" s="55">
+      <c r="N39" s="52">
         <v>420</v>
       </c>
-      <c r="O39" s="55">
+      <c r="O39" s="52">
         <v>70</v>
       </c>
-      <c r="P39" s="55">
+      <c r="P39" s="52">
         <v>48</v>
       </c>
-      <c r="Q39" s="55">
+      <c r="Q39" s="52">
         <v>414</v>
       </c>
-      <c r="R39" s="55">
+      <c r="R39" s="52">
         <v>44</v>
       </c>
-      <c r="S39" s="55">
+      <c r="S39" s="52">
         <v>216</v>
       </c>
-      <c r="T39" s="55">
+      <c r="T39" s="52">
         <v>146</v>
       </c>
-      <c r="U39" s="55">
+      <c r="U39" s="52">
         <v>166</v>
       </c>
-      <c r="V39" s="55">
+      <c r="V39" s="44">
         <v>2195</v>
       </c>
-      <c r="W39" s="55">
+      <c r="W39" s="52">
         <v>59</v>
       </c>
-      <c r="X39" s="55">
+      <c r="X39" s="52">
         <v>3639</v>
       </c>
-      <c r="Y39" s="55">
+      <c r="Y39" s="52">
         <v>1145</v>
       </c>
-      <c r="Z39" s="55">
+      <c r="Z39" s="52">
         <v>125</v>
       </c>
-      <c r="AA39" s="55">
+      <c r="AA39" s="52">
         <v>2148</v>
       </c>
-      <c r="AB39" s="55">
+      <c r="AB39" s="52">
         <v>18455</v>
       </c>
       <c r="AC39" s="15" t="str">
@@ -11904,88 +11986,88 @@
       </c>
     </row>
     <row r="40" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="56">
+      <c r="A40" s="53">
         <v>43923</v>
       </c>
-      <c r="B40" s="57">
+      <c r="B40" s="54">
         <v>592</v>
       </c>
-      <c r="C40" s="57">
+      <c r="C40" s="54">
         <v>20</v>
       </c>
-      <c r="D40" s="57">
+      <c r="D40" s="54">
         <v>64</v>
       </c>
-      <c r="E40" s="57">
+      <c r="E40" s="54">
         <v>1003</v>
       </c>
-      <c r="F40" s="57">
+      <c r="F40" s="54">
         <v>610</v>
       </c>
-      <c r="G40" s="57">
+      <c r="G40" s="54">
         <v>718</v>
       </c>
-      <c r="H40" s="57">
+      <c r="H40" s="54">
         <v>550</v>
       </c>
-      <c r="I40" s="57">
+      <c r="I40" s="54">
         <v>3369</v>
       </c>
-      <c r="J40" s="57">
+      <c r="J40" s="54">
         <v>58</v>
       </c>
-      <c r="K40" s="57">
+      <c r="K40" s="54">
         <v>569</v>
       </c>
-      <c r="L40" s="57">
+      <c r="L40" s="54">
         <v>145</v>
       </c>
-      <c r="M40" s="57">
+      <c r="M40" s="54">
         <v>422</v>
       </c>
-      <c r="N40" s="57">
+      <c r="N40" s="54">
         <v>430</v>
       </c>
-      <c r="O40" s="57">
+      <c r="O40" s="54">
         <v>76</v>
       </c>
-      <c r="P40" s="57">
+      <c r="P40" s="54">
         <v>51</v>
       </c>
-      <c r="Q40" s="57">
+      <c r="Q40" s="54">
         <v>480</v>
       </c>
-      <c r="R40" s="57">
+      <c r="R40" s="54">
         <v>47</v>
       </c>
-      <c r="S40" s="57">
+      <c r="S40" s="54">
         <v>227</v>
       </c>
-      <c r="T40" s="57">
+      <c r="T40" s="54">
         <v>155</v>
       </c>
-      <c r="U40" s="57">
+      <c r="U40" s="54">
         <v>179</v>
       </c>
-      <c r="V40" s="57">
+      <c r="V40" s="44">
         <v>2271</v>
       </c>
-      <c r="W40" s="57">
+      <c r="W40" s="54">
         <v>60</v>
       </c>
-      <c r="X40" s="57">
+      <c r="X40" s="54">
         <v>3796</v>
       </c>
-      <c r="Y40" s="57">
+      <c r="Y40" s="54">
         <v>1218</v>
       </c>
-      <c r="Z40" s="57">
+      <c r="Z40" s="54">
         <v>131</v>
       </c>
-      <c r="AA40" s="57">
+      <c r="AA40" s="54">
         <v>2323</v>
       </c>
-      <c r="AB40" s="57">
+      <c r="AB40" s="54">
         <v>19564</v>
       </c>
       <c r="AC40" s="15" t="str">
@@ -12102,88 +12184,88 @@
       </c>
     </row>
     <row r="41" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="54">
+      <c r="A41" s="51">
         <v>43924</v>
       </c>
-      <c r="B41" s="55">
+      <c r="B41" s="52">
         <v>626</v>
       </c>
-      <c r="C41" s="55">
+      <c r="C41" s="52">
         <v>20</v>
       </c>
-      <c r="D41" s="55">
+      <c r="D41" s="52">
         <v>65</v>
       </c>
-      <c r="E41" s="55">
+      <c r="E41" s="52">
         <v>1073</v>
       </c>
-      <c r="F41" s="55">
+      <c r="F41" s="52">
         <v>625</v>
       </c>
-      <c r="G41" s="55">
+      <c r="G41" s="52">
         <v>758</v>
       </c>
-      <c r="H41" s="55">
+      <c r="H41" s="52">
         <v>588</v>
       </c>
-      <c r="I41" s="55">
+      <c r="I41" s="52">
         <v>3561</v>
       </c>
-      <c r="J41" s="55">
+      <c r="J41" s="52">
         <v>59</v>
       </c>
-      <c r="K41" s="55">
+      <c r="K41" s="52">
         <v>598</v>
       </c>
-      <c r="L41" s="55">
+      <c r="L41" s="52">
         <v>149</v>
       </c>
-      <c r="M41" s="55">
+      <c r="M41" s="52">
         <v>449</v>
       </c>
-      <c r="N41" s="55">
+      <c r="N41" s="52">
         <v>433</v>
       </c>
-      <c r="O41" s="55">
+      <c r="O41" s="52">
         <v>79</v>
       </c>
-      <c r="P41" s="55">
+      <c r="P41" s="52">
         <v>56</v>
       </c>
-      <c r="Q41" s="55">
+      <c r="Q41" s="52">
         <v>480</v>
       </c>
-      <c r="R41" s="55">
+      <c r="R41" s="52">
         <v>47</v>
       </c>
-      <c r="S41" s="55">
+      <c r="S41" s="52">
         <v>237</v>
       </c>
-      <c r="T41" s="55">
+      <c r="T41" s="52">
         <v>164</v>
       </c>
-      <c r="U41" s="55">
+      <c r="U41" s="52">
         <v>198</v>
       </c>
-      <c r="V41" s="55">
+      <c r="V41" s="44">
         <v>2377</v>
       </c>
-      <c r="W41" s="55">
+      <c r="W41" s="52">
         <v>62</v>
       </c>
-      <c r="X41" s="55">
+      <c r="X41" s="52">
         <v>3915</v>
       </c>
-      <c r="Y41" s="55">
+      <c r="Y41" s="52">
         <v>1273</v>
       </c>
-      <c r="Z41" s="55">
+      <c r="Z41" s="52">
         <v>138</v>
       </c>
-      <c r="AA41" s="55">
+      <c r="AA41" s="52">
         <v>2452</v>
       </c>
-      <c r="AB41" s="55">
+      <c r="AB41" s="52">
         <v>20482</v>
       </c>
       <c r="AC41" s="15" t="str">
@@ -12300,80 +12382,80 @@
       </c>
     </row>
     <row r="42" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="56">
+      <c r="A42" s="53">
         <v>43925</v>
       </c>
-      <c r="B42" s="57"/>
-      <c r="C42" s="57">
+      <c r="B42" s="54"/>
+      <c r="C42" s="54">
         <v>21</v>
       </c>
-      <c r="D42" s="57">
+      <c r="D42" s="54">
         <v>66</v>
       </c>
-      <c r="E42" s="57">
+      <c r="E42" s="54">
         <v>1106</v>
       </c>
-      <c r="F42" s="57">
+      <c r="F42" s="54">
         <v>656</v>
       </c>
-      <c r="G42" s="57">
+      <c r="G42" s="54">
         <v>771</v>
       </c>
-      <c r="H42" s="57">
+      <c r="H42" s="54">
         <v>638</v>
       </c>
-      <c r="I42" s="57">
+      <c r="I42" s="54">
         <v>3683</v>
       </c>
-      <c r="J42" s="57"/>
-      <c r="K42" s="57"/>
-      <c r="L42" s="57">
+      <c r="J42" s="54"/>
+      <c r="K42" s="54"/>
+      <c r="L42" s="54">
         <v>153</v>
       </c>
-      <c r="M42" s="57">
+      <c r="M42" s="54">
         <v>469</v>
       </c>
-      <c r="N42" s="57">
+      <c r="N42" s="54">
         <v>449</v>
       </c>
-      <c r="O42" s="57">
+      <c r="O42" s="54">
         <v>80</v>
       </c>
-      <c r="P42" s="57"/>
-      <c r="Q42" s="57">
+      <c r="P42" s="54"/>
+      <c r="Q42" s="54">
         <v>504</v>
       </c>
-      <c r="R42" s="57">
+      <c r="R42" s="54">
         <v>47</v>
       </c>
-      <c r="S42" s="57">
+      <c r="S42" s="54">
         <v>250</v>
       </c>
-      <c r="T42" s="57">
+      <c r="T42" s="54">
         <v>168</v>
       </c>
-      <c r="U42" s="57">
+      <c r="U42" s="54">
         <v>208</v>
       </c>
-      <c r="V42" s="57">
+      <c r="V42" s="44">
         <v>2422</v>
       </c>
-      <c r="W42" s="57">
+      <c r="W42" s="54">
         <v>66</v>
       </c>
-      <c r="X42" s="57">
+      <c r="X42" s="54">
         <v>4035</v>
       </c>
-      <c r="Y42" s="57">
+      <c r="Y42" s="54">
         <v>1319</v>
       </c>
-      <c r="Z42" s="57">
+      <c r="Z42" s="54">
         <v>146</v>
       </c>
-      <c r="AA42" s="57">
+      <c r="AA42" s="54">
         <v>2492</v>
       </c>
-      <c r="AB42" s="57">
+      <c r="AB42" s="54">
         <v>21088</v>
       </c>
       <c r="AC42" s="15" t="str">
@@ -12490,78 +12572,78 @@
       </c>
     </row>
     <row r="43" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="54">
+      <c r="A43" s="51">
         <v>43926</v>
       </c>
-      <c r="B43" s="55"/>
-      <c r="C43" s="55"/>
-      <c r="D43" s="55">
+      <c r="B43" s="52"/>
+      <c r="C43" s="52"/>
+      <c r="D43" s="52">
         <v>67</v>
       </c>
-      <c r="E43" s="55">
+      <c r="E43" s="52">
         <v>1137</v>
       </c>
-      <c r="F43" s="55">
+      <c r="F43" s="52">
         <v>670</v>
       </c>
-      <c r="G43" s="55">
+      <c r="G43" s="52">
         <v>794</v>
       </c>
-      <c r="H43" s="55">
+      <c r="H43" s="52">
         <v>669</v>
       </c>
-      <c r="I43" s="55">
+      <c r="I43" s="52">
         <v>3750</v>
       </c>
-      <c r="J43" s="55"/>
-      <c r="K43" s="55">
+      <c r="J43" s="52"/>
+      <c r="K43" s="52">
         <v>646</v>
       </c>
-      <c r="L43" s="55">
+      <c r="L43" s="52">
         <v>156</v>
       </c>
-      <c r="M43" s="55">
+      <c r="M43" s="52">
         <v>478</v>
       </c>
-      <c r="N43" s="55">
+      <c r="N43" s="52">
         <v>459</v>
       </c>
-      <c r="O43" s="55">
+      <c r="O43" s="52">
         <v>80</v>
       </c>
-      <c r="P43" s="55"/>
-      <c r="Q43" s="55">
+      <c r="P43" s="52"/>
+      <c r="Q43" s="52">
         <v>515</v>
       </c>
-      <c r="R43" s="55">
+      <c r="R43" s="52">
         <v>49</v>
       </c>
-      <c r="S43" s="55">
+      <c r="S43" s="52">
         <v>258</v>
       </c>
-      <c r="T43" s="55">
+      <c r="T43" s="52">
         <v>170</v>
       </c>
-      <c r="U43" s="55">
+      <c r="U43" s="52">
         <v>213</v>
       </c>
-      <c r="V43" s="55">
+      <c r="V43" s="44">
         <v>2508</v>
       </c>
-      <c r="W43" s="55">
+      <c r="W43" s="52">
         <v>67</v>
       </c>
-      <c r="X43" s="55">
+      <c r="X43" s="52">
         <v>4115</v>
       </c>
-      <c r="Y43" s="55">
+      <c r="Y43" s="52">
         <v>1356</v>
       </c>
-      <c r="Z43" s="55"/>
-      <c r="AA43" s="55">
+      <c r="Z43" s="52"/>
+      <c r="AA43" s="52">
         <v>2522</v>
       </c>
-      <c r="AB43" s="55">
+      <c r="AB43" s="52">
         <v>21587</v>
       </c>
       <c r="AC43" s="15" t="str">
@@ -12678,88 +12760,88 @@
       </c>
     </row>
     <row r="44" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="56">
+      <c r="A44" s="53">
         <v>43927</v>
       </c>
-      <c r="B44" s="57">
+      <c r="B44" s="54">
         <v>727</v>
       </c>
-      <c r="C44" s="57">
+      <c r="C44" s="54">
         <v>21</v>
       </c>
-      <c r="D44" s="57">
+      <c r="D44" s="54">
         <v>69</v>
       </c>
-      <c r="E44" s="57">
+      <c r="E44" s="54">
         <v>1173</v>
       </c>
-      <c r="F44" s="57">
+      <c r="F44" s="54">
         <v>682</v>
       </c>
-      <c r="G44" s="57">
+      <c r="G44" s="54">
         <v>803</v>
       </c>
-      <c r="H44" s="57">
+      <c r="H44" s="54">
         <v>689</v>
       </c>
-      <c r="I44" s="57">
+      <c r="I44" s="54">
         <v>3862</v>
       </c>
-      <c r="J44" s="57">
+      <c r="J44" s="54">
         <v>63</v>
       </c>
-      <c r="K44" s="57">
+      <c r="K44" s="54">
         <v>657</v>
       </c>
-      <c r="L44" s="57">
+      <c r="L44" s="54">
         <v>160</v>
       </c>
-      <c r="M44" s="57">
+      <c r="M44" s="54">
         <v>497</v>
       </c>
-      <c r="N44" s="57">
+      <c r="N44" s="54">
         <v>466</v>
       </c>
-      <c r="O44" s="57">
+      <c r="O44" s="54">
         <v>86</v>
       </c>
-      <c r="P44" s="57">
+      <c r="P44" s="54">
         <v>60</v>
       </c>
-      <c r="Q44" s="57">
+      <c r="Q44" s="54">
         <v>532</v>
       </c>
-      <c r="R44" s="57">
+      <c r="R44" s="54">
         <v>50</v>
       </c>
-      <c r="S44" s="57">
+      <c r="S44" s="54">
         <v>261</v>
       </c>
-      <c r="T44" s="57">
+      <c r="T44" s="54">
         <v>178</v>
       </c>
-      <c r="U44" s="57">
+      <c r="U44" s="54">
         <v>219</v>
       </c>
-      <c r="V44" s="57">
+      <c r="V44" s="44">
         <v>2546</v>
       </c>
-      <c r="W44" s="57">
+      <c r="W44" s="54">
         <v>67</v>
       </c>
-      <c r="X44" s="57">
+      <c r="X44" s="54">
         <v>4155</v>
       </c>
-      <c r="Y44" s="57">
+      <c r="Y44" s="54">
         <v>1400</v>
       </c>
-      <c r="Z44" s="57">
+      <c r="Z44" s="54">
         <v>152</v>
       </c>
-      <c r="AA44" s="57">
+      <c r="AA44" s="54">
         <v>2590</v>
       </c>
-      <c r="AB44" s="57">
+      <c r="AB44" s="54">
         <v>22165</v>
       </c>
       <c r="AC44" s="15" t="str">
@@ -12876,88 +12958,88 @@
       </c>
     </row>
     <row r="45" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="54">
+      <c r="A45" s="51">
         <v>43928</v>
       </c>
-      <c r="B45" s="55">
+      <c r="B45" s="52">
         <v>760</v>
       </c>
-      <c r="C45" s="55">
+      <c r="C45" s="52">
         <v>21</v>
       </c>
-      <c r="D45" s="55">
+      <c r="D45" s="52">
         <v>69</v>
       </c>
-      <c r="E45" s="55">
+      <c r="E45" s="52">
         <v>1228</v>
       </c>
-      <c r="F45" s="55">
+      <c r="F45" s="52">
         <v>690</v>
       </c>
-      <c r="G45" s="55">
+      <c r="G45" s="52">
         <v>813</v>
       </c>
-      <c r="H45" s="55">
+      <c r="H45" s="52">
         <v>729</v>
       </c>
-      <c r="I45" s="55">
+      <c r="I45" s="52">
         <v>3993</v>
       </c>
-      <c r="J45" s="55">
+      <c r="J45" s="52">
         <v>63</v>
       </c>
-      <c r="K45" s="55">
+      <c r="K45" s="52">
         <v>668</v>
       </c>
-      <c r="L45" s="55">
+      <c r="L45" s="52">
         <v>168</v>
       </c>
-      <c r="M45" s="55">
+      <c r="M45" s="52">
         <v>509</v>
       </c>
-      <c r="N45" s="55">
+      <c r="N45" s="52">
         <v>492</v>
       </c>
-      <c r="O45" s="55">
+      <c r="O45" s="52">
         <v>87</v>
       </c>
-      <c r="P45" s="55">
+      <c r="P45" s="52">
         <v>60</v>
       </c>
-      <c r="Q45" s="55">
+      <c r="Q45" s="52">
         <v>557</v>
       </c>
-      <c r="R45" s="55">
+      <c r="R45" s="52">
         <v>50</v>
       </c>
-      <c r="S45" s="55">
+      <c r="S45" s="52">
         <v>264</v>
       </c>
-      <c r="T45" s="55">
+      <c r="T45" s="52">
         <v>185</v>
       </c>
-      <c r="U45" s="55">
+      <c r="U45" s="52">
         <v>221</v>
       </c>
-      <c r="V45" s="55">
+      <c r="V45" s="44">
         <v>2599</v>
       </c>
-      <c r="W45" s="55">
+      <c r="W45" s="52">
         <v>68</v>
       </c>
-      <c r="X45" s="55">
+      <c r="X45" s="52">
         <v>4235</v>
       </c>
-      <c r="Y45" s="55">
+      <c r="Y45" s="52">
         <v>1436</v>
       </c>
-      <c r="Z45" s="55">
+      <c r="Z45" s="52">
         <v>157</v>
       </c>
-      <c r="AA45" s="55">
+      <c r="AA45" s="52">
         <v>2719</v>
       </c>
-      <c r="AB45" s="55">
+      <c r="AB45" s="52">
         <v>22841</v>
       </c>
       <c r="AC45" s="15" t="str">
@@ -13074,88 +13156,88 @@
       </c>
     </row>
     <row r="46" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="56">
+      <c r="A46" s="53">
         <v>43929</v>
       </c>
-      <c r="B46" s="57">
+      <c r="B46" s="54">
         <v>788</v>
       </c>
-      <c r="C46" s="57">
+      <c r="C46" s="54">
         <v>23</v>
       </c>
-      <c r="D46" s="57">
+      <c r="D46" s="54">
         <v>72</v>
       </c>
-      <c r="E46" s="57">
+      <c r="E46" s="54">
         <v>1286</v>
       </c>
-      <c r="F46" s="57">
+      <c r="F46" s="54">
         <v>694</v>
       </c>
-      <c r="G46" s="57">
+      <c r="G46" s="54">
         <v>834</v>
       </c>
-      <c r="H46" s="57">
+      <c r="H46" s="54">
         <v>756</v>
       </c>
-      <c r="I46" s="57">
+      <c r="I46" s="54">
         <v>4216</v>
       </c>
-      <c r="J46" s="57">
+      <c r="J46" s="54">
         <v>64</v>
       </c>
-      <c r="K46" s="57">
+      <c r="K46" s="54">
         <v>680</v>
       </c>
-      <c r="L46" s="57">
+      <c r="L46" s="54">
         <v>174</v>
       </c>
-      <c r="M46" s="57">
+      <c r="M46" s="54">
         <v>527</v>
       </c>
-      <c r="N46" s="57">
+      <c r="N46" s="54">
         <v>516</v>
       </c>
-      <c r="O46" s="57">
+      <c r="O46" s="54">
         <v>93</v>
       </c>
-      <c r="P46" s="57">
+      <c r="P46" s="54">
         <v>61</v>
       </c>
-      <c r="Q46" s="57">
+      <c r="Q46" s="54">
         <v>578</v>
       </c>
-      <c r="R46" s="57">
+      <c r="R46" s="54">
         <v>50</v>
       </c>
-      <c r="S46" s="57">
+      <c r="S46" s="54">
         <v>276</v>
       </c>
-      <c r="T46" s="57">
+      <c r="T46" s="54">
         <v>196</v>
       </c>
-      <c r="U46" s="57">
+      <c r="U46" s="54">
         <v>236</v>
       </c>
-      <c r="V46" s="57">
+      <c r="V46" s="44">
         <v>2659</v>
       </c>
-      <c r="W46" s="57">
+      <c r="W46" s="54">
         <v>72</v>
       </c>
-      <c r="X46" s="57">
+      <c r="X46" s="54">
         <v>4315</v>
       </c>
-      <c r="Y46" s="57">
+      <c r="Y46" s="54">
         <v>1484</v>
       </c>
-      <c r="Z46" s="57">
+      <c r="Z46" s="54">
         <v>162</v>
       </c>
-      <c r="AA46" s="57">
+      <c r="AA46" s="54">
         <v>2807</v>
       </c>
-      <c r="AB46" s="57">
+      <c r="AB46" s="54">
         <v>23619</v>
       </c>
       <c r="AC46" s="15" t="str">
@@ -13204,7 +13286,7 @@
       </c>
       <c r="AN46" s="3" t="str">
         <f>$AC46&amp;$AC$1&amp;L46&amp;$AC$1&amp;fatalities!L47&amp;$AC$1&amp;L$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;L$2</f>
-        <v>8/4/2020,8,4,2020,174,,JU,nn,nnn,73419</v>
+        <v>8/4/2020,8,4,2020,174,1,JU,nn,nnn,73419</v>
       </c>
       <c r="AO46" s="3" t="str">
         <f>$AC46&amp;$AC$1&amp;M46&amp;$AC$1&amp;fatalities!M47&amp;$AC$1&amp;M$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;M$2</f>
@@ -13268,85 +13350,93 @@
       </c>
       <c r="BD46" s="3" t="str">
         <f>$AC46&amp;$AC$1&amp;AB46&amp;$AC$1&amp;fatalities!AB47&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2</f>
-        <v>8/4/2020,8,4,2020,23619,920,CH,nn,nnn,8543707</v>
+        <v>8/4/2020,8,4,2020,23619,921,CH,nn,nnn,8543707</v>
       </c>
     </row>
     <row r="47" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="54">
+      <c r="A47" s="51">
         <v>43930</v>
       </c>
-      <c r="B47" s="55">
+      <c r="B47" s="52">
         <v>822</v>
       </c>
-      <c r="C47" s="55">
+      <c r="C47" s="52">
         <v>24</v>
       </c>
-      <c r="D47" s="55">
+      <c r="D47" s="52">
         <v>74</v>
       </c>
-      <c r="E47" s="55">
+      <c r="E47" s="52">
         <v>1335</v>
       </c>
-      <c r="F47" s="55">
+      <c r="F47" s="52">
         <v>711</v>
       </c>
-      <c r="G47" s="55">
+      <c r="G47" s="52">
         <v>846</v>
       </c>
-      <c r="H47" s="55">
+      <c r="H47" s="52">
         <v>786</v>
       </c>
-      <c r="I47" s="55"/>
-      <c r="J47" s="55">
+      <c r="I47" s="52">
+        <v>4271</v>
+      </c>
+      <c r="J47" s="52">
         <v>67</v>
       </c>
-      <c r="K47" s="55"/>
-      <c r="L47" s="55">
+      <c r="K47" s="52">
+        <v>704</v>
+      </c>
+      <c r="L47" s="52">
         <v>179</v>
       </c>
-      <c r="M47" s="55">
+      <c r="M47" s="52">
         <v>542</v>
       </c>
-      <c r="N47" s="55"/>
-      <c r="O47" s="55">
+      <c r="N47" s="52">
+        <v>536</v>
+      </c>
+      <c r="O47" s="52">
         <v>96</v>
       </c>
-      <c r="P47" s="55">
+      <c r="P47" s="52">
         <v>62</v>
       </c>
-      <c r="Q47" s="55">
+      <c r="Q47" s="52">
         <v>604</v>
       </c>
-      <c r="R47" s="55">
+      <c r="R47" s="52">
         <v>52</v>
       </c>
-      <c r="S47" s="55">
+      <c r="S47" s="52">
         <v>282</v>
       </c>
-      <c r="T47" s="55">
+      <c r="T47" s="52">
         <v>213</v>
       </c>
-      <c r="U47" s="55">
+      <c r="U47" s="52">
         <v>255</v>
       </c>
-      <c r="V47" s="55">
+      <c r="V47" s="44">
         <v>2714</v>
       </c>
-      <c r="W47" s="55">
+      <c r="W47" s="52">
         <v>72</v>
       </c>
-      <c r="X47" s="55"/>
-      <c r="Y47" s="55">
+      <c r="X47" s="52">
+        <v>4424</v>
+      </c>
+      <c r="Y47" s="52">
         <v>1525</v>
       </c>
-      <c r="Z47" s="55">
+      <c r="Z47" s="52">
         <v>165</v>
       </c>
-      <c r="AA47" s="55">
+      <c r="AA47" s="52">
         <v>2898</v>
       </c>
-      <c r="AB47" s="55">
-        <v>24051</v>
+      <c r="AB47" s="52">
+        <v>24259</v>
       </c>
       <c r="AC47" s="15" t="str">
         <f t="shared" ref="AC47" si="11">DAY(A47)&amp;"/"&amp;MONTH(A47)&amp;"/"&amp;YEAR(A47)&amp;$AC$1&amp;DAY(A47)&amp;$AC$1&amp;MONTH(A47)&amp;$AC$1&amp;YEAR(A47)</f>
@@ -13382,7 +13472,7 @@
       </c>
       <c r="AK47" s="3" t="str">
         <f>$AC47&amp;$AC$1&amp;I47&amp;$AC$1&amp;fatalities!I48&amp;$AC$1&amp;I$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;I$2</f>
-        <v>9/4/2020,9,4,2020,,,GE,nn,nnn,499480</v>
+        <v>9/4/2020,9,4,2020,4271,133,GE,nn,nnn,499480</v>
       </c>
       <c r="AL47" s="3" t="str">
         <f>$AC47&amp;$AC$1&amp;J47&amp;$AC$1&amp;fatalities!J48&amp;$AC$1&amp;J$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;J$2</f>
@@ -13390,11 +13480,11 @@
       </c>
       <c r="AM47" s="3" t="str">
         <f>$AC47&amp;$AC$1&amp;K47&amp;$AC$1&amp;fatalities!K48&amp;$AC$1&amp;K$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;K$2</f>
-        <v>9/4/2020,9,4,2020,,,GR,nn,nnn,198379</v>
+        <v>9/4/2020,9,4,2020,704,35,GR,nn,nnn,198379</v>
       </c>
       <c r="AN47" s="3" t="str">
         <f>$AC47&amp;$AC$1&amp;L47&amp;$AC$1&amp;fatalities!L48&amp;$AC$1&amp;L$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;L$2</f>
-        <v>9/4/2020,9,4,2020,179,,JU,nn,nnn,73419</v>
+        <v>9/4/2020,9,4,2020,179,1,JU,nn,nnn,73419</v>
       </c>
       <c r="AO47" s="3" t="str">
         <f>$AC47&amp;$AC$1&amp;M47&amp;$AC$1&amp;fatalities!M48&amp;$AC$1&amp;M$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;M$2</f>
@@ -13402,7 +13492,7 @@
       </c>
       <c r="AP47" s="3" t="str">
         <f>$AC47&amp;$AC$1&amp;N47&amp;$AC$1&amp;fatalities!N48&amp;$AC$1&amp;N$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;N$2</f>
-        <v>9/4/2020,9,4,2020,,,NE,nn,nnn,176850</v>
+        <v>9/4/2020,9,4,2020,536,,NE,nn,nnn,176850</v>
       </c>
       <c r="AQ47" s="3" t="str">
         <f>$AC47&amp;$AC$1&amp;O47&amp;$AC$1&amp;fatalities!O48&amp;$AC$1&amp;O$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;O$2</f>
@@ -13442,7 +13532,7 @@
       </c>
       <c r="AZ47" s="3" t="str">
         <f>$AC47&amp;$AC$1&amp;X47&amp;$AC$1&amp;fatalities!X48&amp;$AC$1&amp;X$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;X$2</f>
-        <v>9/4/2020,9,4,2020,,,VD,nn,nnn,799145</v>
+        <v>9/4/2020,9,4,2020,4424,204,VD,nn,nnn,799145</v>
       </c>
       <c r="BA47" s="3" t="str">
         <f>$AC47&amp;$AC$1&amp;Y47&amp;$AC$1&amp;fatalities!Y48&amp;$AC$1&amp;Y$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Y$2</f>
@@ -13458,535 +13548,717 @@
       </c>
       <c r="BD47" s="3" t="str">
         <f>$AC47&amp;$AC$1&amp;AB47&amp;$AC$1&amp;fatalities!AB48&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2</f>
-        <v>9/4/2020,9,4,2020,24051,948,CH,nn,nnn,8543707</v>
+        <v>9/4/2020,9,4,2020,24259,976,CH,nn,nnn,8543707</v>
       </c>
     </row>
     <row r="48" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="53">
+        <v>43931</v>
+      </c>
       <c r="B48" s="54"/>
-      <c r="C48" s="55"/>
-      <c r="D48" s="55"/>
-      <c r="E48" s="55"/>
-      <c r="F48" s="55"/>
-      <c r="G48" s="55"/>
-      <c r="H48" s="55"/>
-      <c r="I48" s="55"/>
-      <c r="J48" s="55"/>
-      <c r="K48" s="55"/>
-      <c r="L48" s="55"/>
-      <c r="M48" s="55"/>
-      <c r="N48" s="55"/>
-      <c r="O48" s="55"/>
-      <c r="P48" s="55"/>
-      <c r="Q48" s="55"/>
-      <c r="R48" s="55"/>
-      <c r="S48" s="55"/>
-      <c r="T48" s="55"/>
-      <c r="U48" s="55"/>
-      <c r="V48" s="55"/>
-      <c r="W48" s="55"/>
-      <c r="X48" s="55"/>
-      <c r="Y48" s="55"/>
-      <c r="Z48" s="55"/>
-      <c r="AA48" s="55"/>
-      <c r="AB48" s="55"/>
-      <c r="AC48" s="55"/>
-      <c r="AD48" s="10"/>
-    </row>
-    <row r="49" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="58"/>
-      <c r="B49" s="56"/>
-      <c r="C49" s="57"/>
-      <c r="D49" s="57"/>
-      <c r="E49" s="57"/>
-      <c r="F49" s="57"/>
-      <c r="G49" s="57"/>
-      <c r="H49" s="57"/>
-      <c r="I49" s="57"/>
-      <c r="J49" s="57"/>
-      <c r="K49" s="57"/>
-      <c r="L49" s="57"/>
-      <c r="M49" s="57"/>
-      <c r="N49" s="57"/>
-      <c r="O49" s="57"/>
-      <c r="P49" s="57"/>
-      <c r="Q49" s="57"/>
-      <c r="R49" s="57"/>
-      <c r="S49" s="57"/>
-      <c r="T49" s="57"/>
-      <c r="U49" s="57"/>
-      <c r="V49" s="57"/>
-      <c r="W49" s="57"/>
-      <c r="X49" s="57"/>
-      <c r="Y49" s="57"/>
-      <c r="Z49" s="57"/>
-      <c r="AA49" s="57"/>
-      <c r="AB49" s="57"/>
-      <c r="AC49" s="57"/>
-    </row>
-    <row r="50" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="58"/>
-      <c r="B50" s="54"/>
-      <c r="C50" s="55"/>
-      <c r="D50" s="55"/>
-      <c r="E50" s="55"/>
-      <c r="F50" s="55"/>
-      <c r="G50" s="55"/>
-      <c r="H50" s="55"/>
-      <c r="I50" s="55"/>
-      <c r="J50" s="55"/>
-      <c r="K50" s="55"/>
-      <c r="L50" s="55"/>
-      <c r="M50" s="55"/>
-      <c r="N50" s="55"/>
-      <c r="O50" s="55"/>
-      <c r="P50" s="55"/>
-      <c r="Q50" s="55"/>
-      <c r="R50" s="55"/>
-      <c r="S50" s="55"/>
-      <c r="T50" s="55"/>
-      <c r="U50" s="55"/>
-      <c r="V50" s="55"/>
-      <c r="W50" s="55"/>
-      <c r="X50" s="55"/>
-      <c r="Y50" s="55"/>
-      <c r="Z50" s="55"/>
-      <c r="AA50" s="55"/>
-      <c r="AB50" s="55"/>
-      <c r="AC50" s="55"/>
-    </row>
-    <row r="51" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="58"/>
-      <c r="B51" s="56"/>
-      <c r="C51" s="57"/>
-      <c r="D51" s="57"/>
-      <c r="E51" s="57"/>
-      <c r="F51" s="57"/>
-      <c r="G51" s="57"/>
-      <c r="H51" s="57"/>
-      <c r="I51" s="57"/>
-      <c r="J51" s="57"/>
-      <c r="K51" s="57"/>
-      <c r="L51" s="57"/>
-      <c r="M51" s="57"/>
-      <c r="N51" s="57"/>
-      <c r="O51" s="57"/>
-      <c r="P51" s="57"/>
-      <c r="Q51" s="57"/>
-      <c r="R51" s="57"/>
-      <c r="S51" s="57"/>
-      <c r="T51" s="57"/>
-      <c r="U51" s="57"/>
-      <c r="V51" s="57"/>
-      <c r="W51" s="57"/>
-      <c r="X51" s="57"/>
-      <c r="Y51" s="57"/>
-      <c r="Z51" s="57"/>
-      <c r="AA51" s="57"/>
-      <c r="AB51" s="57"/>
-      <c r="AC51" s="57"/>
-    </row>
-    <row r="52" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="58"/>
-      <c r="B52" s="54"/>
-      <c r="C52" s="55"/>
-      <c r="D52" s="55"/>
-      <c r="E52" s="55"/>
-      <c r="F52" s="55"/>
-      <c r="G52" s="55"/>
-      <c r="H52" s="55"/>
-      <c r="I52" s="55"/>
-      <c r="J52" s="55"/>
-      <c r="K52" s="55"/>
-      <c r="L52" s="55"/>
-      <c r="M52" s="55"/>
-      <c r="N52" s="55"/>
-      <c r="O52" s="55"/>
-      <c r="P52" s="55"/>
-      <c r="Q52" s="55"/>
-      <c r="R52" s="55"/>
-      <c r="S52" s="55"/>
-      <c r="T52" s="55"/>
-      <c r="U52" s="55"/>
-      <c r="V52" s="55"/>
-      <c r="W52" s="55"/>
-      <c r="X52" s="55"/>
-      <c r="Y52" s="55"/>
-      <c r="Z52" s="55"/>
-      <c r="AA52" s="55"/>
-      <c r="AB52" s="55"/>
-      <c r="AC52" s="55"/>
-    </row>
-    <row r="53" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="58"/>
-      <c r="B53" s="56"/>
-      <c r="C53" s="57"/>
-      <c r="D53" s="57"/>
-      <c r="E53" s="57"/>
-      <c r="F53" s="57"/>
-      <c r="G53" s="57"/>
-      <c r="H53" s="57"/>
-      <c r="I53" s="57"/>
-      <c r="J53" s="57"/>
-      <c r="K53" s="57"/>
-      <c r="L53" s="57"/>
-      <c r="M53" s="57"/>
-      <c r="N53" s="57"/>
-      <c r="O53" s="57"/>
-      <c r="P53" s="57"/>
-      <c r="Q53" s="57"/>
-      <c r="R53" s="57"/>
-      <c r="S53" s="57"/>
-      <c r="T53" s="57"/>
-      <c r="U53" s="57"/>
-      <c r="V53" s="57"/>
-      <c r="W53" s="57"/>
-      <c r="X53" s="57"/>
-      <c r="Y53" s="57"/>
-      <c r="Z53" s="57"/>
-      <c r="AA53" s="57"/>
-      <c r="AB53" s="57"/>
-      <c r="AC53" s="57"/>
-    </row>
-    <row r="54" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="58"/>
-      <c r="B54" s="54"/>
-      <c r="C54" s="55"/>
-      <c r="D54" s="55"/>
-      <c r="E54" s="55"/>
-      <c r="F54" s="55"/>
-      <c r="G54" s="55"/>
-      <c r="H54" s="55"/>
-      <c r="I54" s="55"/>
-      <c r="J54" s="55"/>
-      <c r="K54" s="55"/>
-      <c r="L54" s="55"/>
-      <c r="M54" s="55"/>
-      <c r="N54" s="55"/>
-      <c r="O54" s="55"/>
-      <c r="P54" s="55"/>
-      <c r="Q54" s="55"/>
-      <c r="R54" s="55"/>
-      <c r="S54" s="55"/>
-      <c r="T54" s="55"/>
-      <c r="U54" s="55"/>
-      <c r="V54" s="55"/>
-      <c r="W54" s="55"/>
-      <c r="X54" s="55"/>
-      <c r="Y54" s="55"/>
-      <c r="Z54" s="55"/>
-      <c r="AA54" s="55"/>
-      <c r="AB54" s="55"/>
-      <c r="AC54" s="55"/>
-    </row>
-    <row r="55" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="58"/>
-      <c r="B55" s="56"/>
-      <c r="C55" s="57"/>
-      <c r="D55" s="57"/>
-      <c r="E55" s="57"/>
-      <c r="F55" s="57"/>
-      <c r="G55" s="57"/>
-      <c r="H55" s="57"/>
-      <c r="I55" s="57"/>
-      <c r="J55" s="57"/>
-      <c r="K55" s="57"/>
-      <c r="L55" s="57"/>
-      <c r="M55" s="57"/>
-      <c r="N55" s="57"/>
-      <c r="O55" s="57"/>
-      <c r="P55" s="57"/>
-      <c r="Q55" s="57"/>
-      <c r="R55" s="57"/>
-      <c r="S55" s="57"/>
-      <c r="T55" s="57"/>
-      <c r="U55" s="57"/>
-      <c r="V55" s="57"/>
-      <c r="W55" s="57"/>
-      <c r="X55" s="57"/>
-      <c r="Y55" s="57"/>
-      <c r="Z55" s="57"/>
-      <c r="AA55" s="57"/>
-      <c r="AB55" s="57"/>
-      <c r="AC55" s="57"/>
-    </row>
-    <row r="56" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="58"/>
-      <c r="B56" s="54"/>
-      <c r="C56" s="55"/>
-      <c r="D56" s="55"/>
-      <c r="E56" s="55"/>
-      <c r="F56" s="55"/>
-      <c r="G56" s="55"/>
-      <c r="H56" s="55"/>
-      <c r="I56" s="55"/>
-      <c r="J56" s="55"/>
-      <c r="K56" s="55"/>
-      <c r="L56" s="55"/>
-      <c r="M56" s="55"/>
-      <c r="N56" s="55"/>
-      <c r="O56" s="55"/>
-      <c r="P56" s="55"/>
-      <c r="Q56" s="55"/>
-      <c r="R56" s="55"/>
-      <c r="S56" s="55"/>
-      <c r="T56" s="55"/>
-      <c r="U56" s="55"/>
-      <c r="V56" s="55"/>
-      <c r="W56" s="55"/>
-      <c r="X56" s="55"/>
-      <c r="Y56" s="55"/>
-      <c r="Z56" s="55"/>
-      <c r="AA56" s="55"/>
-      <c r="AB56" s="55"/>
-      <c r="AC56" s="55"/>
-    </row>
-    <row r="57" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="58"/>
-      <c r="B57" s="56"/>
-      <c r="C57" s="57"/>
-      <c r="D57" s="57"/>
-      <c r="E57" s="57"/>
-      <c r="F57" s="57"/>
-      <c r="G57" s="57"/>
-      <c r="H57" s="57"/>
-      <c r="I57" s="57"/>
-      <c r="J57" s="57"/>
-      <c r="K57" s="57"/>
-      <c r="L57" s="57"/>
-      <c r="M57" s="57"/>
-      <c r="N57" s="57"/>
-      <c r="O57" s="57"/>
-      <c r="P57" s="57"/>
-      <c r="Q57" s="57"/>
-      <c r="R57" s="57"/>
-      <c r="S57" s="57"/>
-      <c r="T57" s="57"/>
-      <c r="U57" s="57"/>
-      <c r="V57" s="57"/>
-      <c r="W57" s="57"/>
-      <c r="X57" s="57"/>
-      <c r="Y57" s="57"/>
-      <c r="Z57" s="57"/>
-      <c r="AA57" s="57"/>
-      <c r="AB57" s="57"/>
-      <c r="AC57" s="57"/>
-    </row>
-    <row r="58" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="58"/>
-      <c r="B58" s="54"/>
-      <c r="C58" s="55"/>
-      <c r="D58" s="55"/>
-      <c r="E58" s="55"/>
-      <c r="F58" s="55"/>
-      <c r="G58" s="55"/>
-      <c r="H58" s="55"/>
-      <c r="I58" s="55"/>
-      <c r="J58" s="55"/>
-      <c r="K58" s="55"/>
-      <c r="L58" s="55"/>
-      <c r="M58" s="55"/>
-      <c r="N58" s="55"/>
-      <c r="O58" s="55"/>
-      <c r="P58" s="55"/>
-      <c r="Q58" s="55"/>
-      <c r="R58" s="55"/>
-      <c r="S58" s="55"/>
-      <c r="T58" s="55"/>
-      <c r="U58" s="55"/>
-      <c r="V58" s="55"/>
-      <c r="W58" s="55"/>
-      <c r="X58" s="55"/>
-      <c r="Y58" s="55"/>
-      <c r="Z58" s="55"/>
-      <c r="AA58" s="55"/>
-      <c r="AB58" s="55"/>
-      <c r="AC58" s="55"/>
-    </row>
-    <row r="59" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="58"/>
-      <c r="B59" s="56"/>
-      <c r="C59" s="57"/>
-      <c r="D59" s="57"/>
-      <c r="E59" s="57"/>
-      <c r="F59" s="57"/>
-      <c r="G59" s="57"/>
-      <c r="H59" s="57"/>
-      <c r="I59" s="57"/>
-      <c r="J59" s="57"/>
-      <c r="K59" s="57"/>
-      <c r="L59" s="57"/>
-      <c r="M59" s="57"/>
-      <c r="N59" s="57"/>
-      <c r="O59" s="57"/>
-      <c r="P59" s="57"/>
-      <c r="Q59" s="57"/>
-      <c r="R59" s="57"/>
-      <c r="S59" s="57"/>
-      <c r="T59" s="57"/>
-      <c r="U59" s="57"/>
-      <c r="V59" s="57"/>
-      <c r="W59" s="57"/>
-      <c r="X59" s="57"/>
-      <c r="Y59" s="57"/>
-      <c r="Z59" s="57"/>
-      <c r="AA59" s="57"/>
-      <c r="AB59" s="57"/>
-      <c r="AC59" s="57"/>
-    </row>
-    <row r="60" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="58"/>
-      <c r="B60" s="54"/>
-      <c r="C60" s="55"/>
-      <c r="D60" s="55"/>
-      <c r="E60" s="55"/>
-      <c r="F60" s="55"/>
-      <c r="G60" s="55"/>
-      <c r="H60" s="55"/>
-      <c r="I60" s="55"/>
-      <c r="J60" s="55"/>
-      <c r="K60" s="55"/>
-      <c r="L60" s="55"/>
-      <c r="M60" s="55"/>
-      <c r="N60" s="55"/>
-      <c r="O60" s="55"/>
-      <c r="P60" s="55"/>
-      <c r="Q60" s="55"/>
-      <c r="R60" s="55"/>
-      <c r="S60" s="55"/>
-      <c r="T60" s="55"/>
-      <c r="U60" s="55"/>
-      <c r="V60" s="55"/>
-      <c r="W60" s="55"/>
-      <c r="X60" s="55"/>
-      <c r="Y60" s="55"/>
-      <c r="Z60" s="55"/>
-      <c r="AA60" s="55"/>
-      <c r="AB60" s="55"/>
-      <c r="AC60" s="55"/>
-    </row>
-    <row r="61" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="58"/>
-      <c r="B61" s="56"/>
-      <c r="C61" s="57"/>
-      <c r="D61" s="57"/>
-      <c r="E61" s="57"/>
-      <c r="F61" s="57"/>
-      <c r="G61" s="57"/>
-      <c r="H61" s="57"/>
-      <c r="I61" s="57"/>
-      <c r="J61" s="57"/>
-      <c r="K61" s="57"/>
-      <c r="L61" s="57"/>
-      <c r="M61" s="57"/>
-      <c r="N61" s="57"/>
-      <c r="O61" s="57"/>
-      <c r="P61" s="57"/>
-      <c r="Q61" s="57"/>
-      <c r="R61" s="57"/>
-      <c r="S61" s="57"/>
-      <c r="T61" s="57"/>
-      <c r="U61" s="57"/>
-      <c r="V61" s="57"/>
-      <c r="W61" s="57"/>
-      <c r="X61" s="57"/>
-      <c r="Y61" s="57"/>
-      <c r="Z61" s="57"/>
-      <c r="AA61" s="57"/>
-      <c r="AB61" s="57"/>
-      <c r="AC61" s="57"/>
-    </row>
-    <row r="62" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="58"/>
-      <c r="B62" s="54"/>
-      <c r="C62" s="55"/>
-      <c r="D62" s="55"/>
-      <c r="E62" s="55"/>
-      <c r="F62" s="55"/>
-      <c r="G62" s="55"/>
-      <c r="H62" s="55"/>
-      <c r="I62" s="55"/>
-      <c r="J62" s="55"/>
-      <c r="K62" s="55"/>
-      <c r="L62" s="55"/>
-      <c r="M62" s="55"/>
-      <c r="N62" s="55"/>
-      <c r="O62" s="55"/>
-      <c r="P62" s="55"/>
-      <c r="Q62" s="55"/>
-      <c r="R62" s="55"/>
-      <c r="S62" s="55"/>
-      <c r="T62" s="55"/>
-      <c r="U62" s="55"/>
-      <c r="V62" s="55"/>
-      <c r="W62" s="55"/>
-      <c r="X62" s="55"/>
-      <c r="Y62" s="55"/>
-      <c r="Z62" s="55"/>
-      <c r="AA62" s="55"/>
-      <c r="AB62" s="55"/>
-      <c r="AC62" s="55"/>
-    </row>
-    <row r="63" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="58"/>
-      <c r="B63" s="56"/>
-      <c r="C63" s="57"/>
-      <c r="D63" s="57"/>
-      <c r="E63" s="57"/>
-      <c r="F63" s="57"/>
-      <c r="G63" s="57"/>
-      <c r="H63" s="57"/>
-      <c r="I63" s="57"/>
-      <c r="J63" s="57"/>
-      <c r="K63" s="57"/>
-      <c r="L63" s="57"/>
-      <c r="M63" s="57"/>
-      <c r="N63" s="57"/>
-      <c r="O63" s="57"/>
-      <c r="P63" s="57"/>
-      <c r="Q63" s="57"/>
-      <c r="R63" s="57"/>
-      <c r="S63" s="57"/>
-      <c r="T63" s="57"/>
-      <c r="U63" s="57"/>
-      <c r="V63" s="57"/>
-      <c r="W63" s="57"/>
-      <c r="X63" s="57"/>
-      <c r="Y63" s="57"/>
-      <c r="Z63" s="57"/>
-      <c r="AA63" s="57"/>
-      <c r="AB63" s="57"/>
-      <c r="AC63" s="57"/>
-    </row>
-    <row r="64" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="58"/>
-      <c r="B64" s="54"/>
-      <c r="C64" s="55"/>
-      <c r="D64" s="55"/>
-      <c r="E64" s="55"/>
-      <c r="F64" s="55"/>
-      <c r="G64" s="55"/>
-      <c r="H64" s="55"/>
-      <c r="I64" s="55"/>
-      <c r="J64" s="55"/>
-      <c r="K64" s="55"/>
-      <c r="L64" s="55"/>
-      <c r="M64" s="55"/>
-      <c r="N64" s="55"/>
-      <c r="O64" s="55"/>
-      <c r="P64" s="55"/>
-      <c r="Q64" s="55"/>
-      <c r="R64" s="55"/>
-      <c r="S64" s="55"/>
-      <c r="T64" s="55"/>
-      <c r="U64" s="55"/>
-      <c r="V64" s="55"/>
-      <c r="W64" s="55"/>
-      <c r="X64" s="55"/>
-      <c r="Y64" s="55"/>
-      <c r="Z64" s="55"/>
-      <c r="AA64" s="55"/>
-      <c r="AB64" s="55"/>
-      <c r="AC64" s="55"/>
+      <c r="C48" s="54"/>
+      <c r="D48" s="54">
+        <v>77</v>
+      </c>
+      <c r="E48" s="54">
+        <v>1375</v>
+      </c>
+      <c r="F48" s="54">
+        <v>722</v>
+      </c>
+      <c r="G48" s="54">
+        <v>859</v>
+      </c>
+      <c r="H48" s="54">
+        <v>796</v>
+      </c>
+      <c r="I48" s="54"/>
+      <c r="J48" s="54"/>
+      <c r="K48" s="54"/>
+      <c r="L48" s="54">
+        <v>182</v>
+      </c>
+      <c r="M48" s="54">
+        <v>560</v>
+      </c>
+      <c r="N48" s="54"/>
+      <c r="O48" s="54">
+        <v>100</v>
+      </c>
+      <c r="P48" s="54"/>
+      <c r="Q48" s="54">
+        <v>632</v>
+      </c>
+      <c r="R48" s="54">
+        <v>53</v>
+      </c>
+      <c r="S48" s="54">
+        <v>294</v>
+      </c>
+      <c r="T48" s="54">
+        <v>215</v>
+      </c>
+      <c r="U48" s="54">
+        <v>264</v>
+      </c>
+      <c r="V48" s="44">
+        <v>2776</v>
+      </c>
+      <c r="W48" s="54">
+        <v>74</v>
+      </c>
+      <c r="X48" s="54"/>
+      <c r="Y48" s="54">
+        <v>1565</v>
+      </c>
+      <c r="Z48" s="54">
+        <v>168</v>
+      </c>
+      <c r="AA48" s="54">
+        <v>2929</v>
+      </c>
+      <c r="AB48" s="54">
+        <v>24551</v>
+      </c>
+      <c r="AC48" s="15" t="str">
+        <f t="shared" ref="AC48" si="12">DAY(A48)&amp;"/"&amp;MONTH(A48)&amp;"/"&amp;YEAR(A48)&amp;$AC$1&amp;DAY(A48)&amp;$AC$1&amp;MONTH(A48)&amp;$AC$1&amp;YEAR(A48)</f>
+        <v>10/4/2020,10,4,2020</v>
+      </c>
+      <c r="AD48" s="3" t="str">
+        <f>$AC48&amp;$AC$1&amp;B48&amp;$AC$1&amp;fatalities!B49&amp;$AC$1&amp;B$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;B$2</f>
+        <v>10/4/2020,10,4,2020,,,AG,nn,nnn,677387</v>
+      </c>
+      <c r="AE48" s="3" t="str">
+        <f>$AC48&amp;$AC$1&amp;C48&amp;$AC$1&amp;fatalities!C49&amp;$AC$1&amp;C$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;C$2</f>
+        <v>10/4/2020,10,4,2020,,,AI,nn,nnn,16145</v>
+      </c>
+      <c r="AF48" s="3" t="str">
+        <f>$AC48&amp;$AC$1&amp;D48&amp;$AC$1&amp;fatalities!D49&amp;$AC$1&amp;D$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;D$2</f>
+        <v>10/4/2020,10,4,2020,77,3,AR,nn,nnn,55234</v>
+      </c>
+      <c r="AG48" s="3" t="str">
+        <f>$AC48&amp;$AC$1&amp;E48&amp;$AC$1&amp;fatalities!E49&amp;$AC$1&amp;E$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;E$2</f>
+        <v>10/4/2020,10,4,2020,1375,42,BE,nn,nnn,1034977</v>
+      </c>
+      <c r="AH48" s="3" t="str">
+        <f>$AC48&amp;$AC$1&amp;F48&amp;$AC$1&amp;fatalities!F49&amp;$AC$1&amp;F$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;F$2</f>
+        <v>10/4/2020,10,4,2020,722,22,BL,nn,nnn,288132</v>
+      </c>
+      <c r="AI48" s="3" t="str">
+        <f>$AC48&amp;$AC$1&amp;G48&amp;$AC$1&amp;fatalities!G49&amp;$AC$1&amp;G$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;G$2</f>
+        <v>10/4/2020,10,4,2020,859,33,BS,nn,nnn,194766</v>
+      </c>
+      <c r="AJ48" s="3" t="str">
+        <f>$AC48&amp;$AC$1&amp;H48&amp;$AC$1&amp;fatalities!H49&amp;$AC$1&amp;H$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;H$2</f>
+        <v>10/4/2020,10,4,2020,796,49,FR,nn,nnn,318714</v>
+      </c>
+      <c r="AK48" s="3" t="str">
+        <f>$AC48&amp;$AC$1&amp;I48&amp;$AC$1&amp;fatalities!I49&amp;$AC$1&amp;I$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;I$2</f>
+        <v>10/4/2020,10,4,2020,,,GE,nn,nnn,499480</v>
+      </c>
+      <c r="AL48" s="3" t="str">
+        <f>$AC48&amp;$AC$1&amp;J48&amp;$AC$1&amp;fatalities!J49&amp;$AC$1&amp;J$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;J$2</f>
+        <v>10/4/2020,10,4,2020,,,GL,nn,nnn,40403</v>
+      </c>
+      <c r="AM48" s="3" t="str">
+        <f>$AC48&amp;$AC$1&amp;K48&amp;$AC$1&amp;fatalities!K49&amp;$AC$1&amp;K$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;K$2</f>
+        <v>10/4/2020,10,4,2020,,,GR,nn,nnn,198379</v>
+      </c>
+      <c r="AN48" s="3" t="str">
+        <f>$AC48&amp;$AC$1&amp;L48&amp;$AC$1&amp;fatalities!L49&amp;$AC$1&amp;L$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;L$2</f>
+        <v>10/4/2020,10,4,2020,182,2,JU,nn,nnn,73419</v>
+      </c>
+      <c r="AO48" s="3" t="str">
+        <f>$AC48&amp;$AC$1&amp;M48&amp;$AC$1&amp;fatalities!M49&amp;$AC$1&amp;M$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;M$2</f>
+        <v>10/4/2020,10,4,2020,560,9,LU,nn,nnn,409557</v>
+      </c>
+      <c r="AP48" s="3" t="str">
+        <f>$AC48&amp;$AC$1&amp;N48&amp;$AC$1&amp;fatalities!N49&amp;$AC$1&amp;N$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;N$2</f>
+        <v>10/4/2020,10,4,2020,,,NE,nn,nnn,176850</v>
+      </c>
+      <c r="AQ48" s="3" t="str">
+        <f>$AC48&amp;$AC$1&amp;O48&amp;$AC$1&amp;fatalities!O49&amp;$AC$1&amp;O$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;O$2</f>
+        <v>10/4/2020,10,4,2020,100,0,NW,nn,nnn,43223</v>
+      </c>
+      <c r="AR48" s="3" t="str">
+        <f>$AC48&amp;$AC$1&amp;P48&amp;$AC$1&amp;fatalities!P49&amp;$AC$1&amp;P$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;P$2</f>
+        <v>10/4/2020,10,4,2020,,,OW,nn,nnn,37841</v>
+      </c>
+      <c r="AS48" s="3" t="str">
+        <f>$AC48&amp;$AC$1&amp;Q48&amp;$AC$1&amp;fatalities!Q49&amp;$AC$1&amp;Q$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Q$2</f>
+        <v>10/4/2020,10,4,2020,632,17,SG,nn,nnn,507697</v>
+      </c>
+      <c r="AT48" s="3" t="str">
+        <f>$AC48&amp;$AC$1&amp;R48&amp;$AC$1&amp;fatalities!R49&amp;$AC$1&amp;R$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;R$2</f>
+        <v>10/4/2020,10,4,2020,53,1,SH,nn,nnn,81991</v>
+      </c>
+      <c r="AU48" s="3" t="str">
+        <f>$AC48&amp;$AC$1&amp;S48&amp;$AC$1&amp;fatalities!S49&amp;$AC$1&amp;S$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;S$2</f>
+        <v>10/4/2020,10,4,2020,294,5,SO,nn,nnn,273194</v>
+      </c>
+      <c r="AV48" s="3" t="str">
+        <f>$AC48&amp;$AC$1&amp;T48&amp;$AC$1&amp;fatalities!T49&amp;$AC$1&amp;T$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;T$2</f>
+        <v>10/4/2020,10,4,2020,215,10,SZ,nn,nnn,159165</v>
+      </c>
+      <c r="AW48" s="3" t="str">
+        <f>$AC48&amp;$AC$1&amp;U48&amp;$AC$1&amp;fatalities!U49&amp;$AC$1&amp;U$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;U$2</f>
+        <v>10/4/2020,10,4,2020,264,8,TG,nn,nnn,276472</v>
+      </c>
+      <c r="AX48" s="3" t="str">
+        <f>$AC48&amp;$AC$1&amp;V48&amp;$AC$1&amp;fatalities!V49&amp;$AC$1&amp;V$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;V$2</f>
+        <v>10/4/2020,10,4,2020,2776,227,TI,nn,nnn,353343</v>
+      </c>
+      <c r="AY48" s="3" t="str">
+        <f>$AC48&amp;$AC$1&amp;W48&amp;$AC$1&amp;fatalities!W49&amp;$AC$1&amp;W$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;W$2</f>
+        <v>10/4/2020,10,4,2020,74,4,UR,nn,nnn,36433</v>
+      </c>
+      <c r="AZ48" s="3" t="str">
+        <f>$AC48&amp;$AC$1&amp;X48&amp;$AC$1&amp;fatalities!X49&amp;$AC$1&amp;X$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;X$2</f>
+        <v>10/4/2020,10,4,2020,,,VD,nn,nnn,799145</v>
+      </c>
+      <c r="BA48" s="3" t="str">
+        <f>$AC48&amp;$AC$1&amp;Y48&amp;$AC$1&amp;fatalities!Y49&amp;$AC$1&amp;Y$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Y$2</f>
+        <v>10/4/2020,10,4,2020,1565,75,VS,nn,nnn,343955</v>
+      </c>
+      <c r="BB48" s="3" t="str">
+        <f>$AC48&amp;$AC$1&amp;Z48&amp;$AC$1&amp;fatalities!Z49&amp;$AC$1&amp;Z$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Z$2</f>
+        <v>10/4/2020,10,4,2020,168,3,ZG,nn,nnn,126837</v>
+      </c>
+      <c r="BC48" s="3" t="str">
+        <f>$AC48&amp;$AC$1&amp;AA48&amp;$AC$1&amp;fatalities!AA49&amp;$AC$1&amp;AA$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AA$2</f>
+        <v>10/4/2020,10,4,2020,2929,64,ZH,nn,nnn,1520968</v>
+      </c>
+      <c r="BD48" s="3" t="str">
+        <f>$AC48&amp;$AC$1&amp;AB48&amp;$AC$1&amp;fatalities!AB49&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2</f>
+        <v>10/4/2020,10,4,2020,24551,999,CH,nn,nnn,8543707</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="53"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="54"/>
+      <c r="E49" s="54"/>
+      <c r="F49" s="54"/>
+      <c r="G49" s="54"/>
+      <c r="H49" s="54"/>
+      <c r="I49" s="54"/>
+      <c r="J49" s="54"/>
+      <c r="K49" s="54"/>
+      <c r="L49" s="54"/>
+      <c r="M49" s="54"/>
+      <c r="N49" s="54"/>
+      <c r="O49" s="54"/>
+      <c r="P49" s="54"/>
+      <c r="Q49" s="54"/>
+      <c r="R49" s="54"/>
+      <c r="S49" s="54"/>
+      <c r="T49" s="54"/>
+      <c r="U49" s="54"/>
+      <c r="V49" s="44"/>
+      <c r="W49" s="54"/>
+      <c r="X49" s="54"/>
+      <c r="Y49" s="54"/>
+      <c r="Z49" s="54"/>
+      <c r="AA49" s="54"/>
+      <c r="AB49" s="54"/>
+      <c r="AC49" s="54"/>
+      <c r="AD49" s="10"/>
+    </row>
+    <row r="50" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="55"/>
+      <c r="B50" s="51"/>
+      <c r="C50" s="52"/>
+      <c r="D50" s="52"/>
+      <c r="E50" s="52"/>
+      <c r="F50" s="52"/>
+      <c r="G50" s="52"/>
+      <c r="H50" s="52"/>
+      <c r="I50" s="52"/>
+      <c r="J50" s="52"/>
+      <c r="K50" s="52"/>
+      <c r="L50" s="52"/>
+      <c r="M50" s="52"/>
+      <c r="N50" s="52"/>
+      <c r="O50" s="52"/>
+      <c r="P50" s="52"/>
+      <c r="Q50" s="52"/>
+      <c r="R50" s="52"/>
+      <c r="S50" s="52"/>
+      <c r="T50" s="52"/>
+      <c r="U50" s="52"/>
+      <c r="V50" s="44"/>
+      <c r="W50" s="52"/>
+      <c r="X50" s="52"/>
+      <c r="Y50" s="52"/>
+      <c r="Z50" s="52"/>
+      <c r="AA50" s="52"/>
+      <c r="AB50" s="52"/>
+      <c r="AC50" s="52"/>
+    </row>
+    <row r="51" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="55"/>
+      <c r="B51" s="53"/>
+      <c r="C51" s="54"/>
+      <c r="D51" s="54"/>
+      <c r="E51" s="54"/>
+      <c r="F51" s="54"/>
+      <c r="G51" s="54"/>
+      <c r="H51" s="54"/>
+      <c r="I51" s="54"/>
+      <c r="J51" s="54"/>
+      <c r="K51" s="54"/>
+      <c r="L51" s="54"/>
+      <c r="M51" s="54"/>
+      <c r="N51" s="54"/>
+      <c r="O51" s="54"/>
+      <c r="P51" s="54"/>
+      <c r="Q51" s="54"/>
+      <c r="R51" s="54"/>
+      <c r="S51" s="54"/>
+      <c r="T51" s="54"/>
+      <c r="U51" s="54"/>
+      <c r="V51" s="44"/>
+      <c r="W51" s="54"/>
+      <c r="X51" s="54"/>
+      <c r="Y51" s="54"/>
+      <c r="Z51" s="54"/>
+      <c r="AA51" s="54"/>
+      <c r="AB51" s="54"/>
+      <c r="AC51" s="54"/>
+    </row>
+    <row r="52" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="55"/>
+      <c r="B52" s="51"/>
+      <c r="C52" s="52"/>
+      <c r="D52" s="52"/>
+      <c r="E52" s="52"/>
+      <c r="F52" s="52"/>
+      <c r="G52" s="52"/>
+      <c r="H52" s="52"/>
+      <c r="I52" s="52"/>
+      <c r="J52" s="52"/>
+      <c r="K52" s="52"/>
+      <c r="L52" s="52"/>
+      <c r="M52" s="52"/>
+      <c r="N52" s="52"/>
+      <c r="O52" s="52"/>
+      <c r="P52" s="52"/>
+      <c r="Q52" s="52"/>
+      <c r="R52" s="52"/>
+      <c r="S52" s="52"/>
+      <c r="T52" s="52"/>
+      <c r="U52" s="52"/>
+      <c r="V52" s="44"/>
+      <c r="W52" s="52"/>
+      <c r="X52" s="52"/>
+      <c r="Y52" s="52"/>
+      <c r="Z52" s="52"/>
+      <c r="AA52" s="52"/>
+      <c r="AB52" s="52"/>
+      <c r="AC52" s="52"/>
+    </row>
+    <row r="53" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="55"/>
+      <c r="B53" s="53"/>
+      <c r="C53" s="54"/>
+      <c r="D53" s="54"/>
+      <c r="E53" s="54"/>
+      <c r="F53" s="54"/>
+      <c r="G53" s="54"/>
+      <c r="H53" s="54"/>
+      <c r="I53" s="54"/>
+      <c r="J53" s="54"/>
+      <c r="K53" s="54"/>
+      <c r="L53" s="54"/>
+      <c r="M53" s="54"/>
+      <c r="N53" s="54"/>
+      <c r="O53" s="54"/>
+      <c r="P53" s="54"/>
+      <c r="Q53" s="54"/>
+      <c r="R53" s="54"/>
+      <c r="S53" s="54"/>
+      <c r="T53" s="54"/>
+      <c r="U53" s="54"/>
+      <c r="V53" s="44"/>
+      <c r="W53" s="54"/>
+      <c r="X53" s="54"/>
+      <c r="Y53" s="54"/>
+      <c r="Z53" s="54"/>
+      <c r="AA53" s="54"/>
+      <c r="AB53" s="54"/>
+      <c r="AC53" s="54"/>
+    </row>
+    <row r="54" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="55"/>
+      <c r="B54" s="51"/>
+      <c r="C54" s="52"/>
+      <c r="D54" s="52"/>
+      <c r="E54" s="52"/>
+      <c r="F54" s="52"/>
+      <c r="G54" s="52"/>
+      <c r="H54" s="52"/>
+      <c r="I54" s="52"/>
+      <c r="J54" s="52"/>
+      <c r="K54" s="52"/>
+      <c r="L54" s="52"/>
+      <c r="M54" s="52"/>
+      <c r="N54" s="52"/>
+      <c r="O54" s="52"/>
+      <c r="P54" s="52"/>
+      <c r="Q54" s="52"/>
+      <c r="R54" s="52"/>
+      <c r="S54" s="52"/>
+      <c r="T54" s="52"/>
+      <c r="U54" s="52"/>
+      <c r="V54" s="44"/>
+      <c r="W54" s="52"/>
+      <c r="X54" s="52"/>
+      <c r="Y54" s="52"/>
+      <c r="Z54" s="52"/>
+      <c r="AA54" s="52"/>
+      <c r="AB54" s="52"/>
+      <c r="AC54" s="52"/>
+    </row>
+    <row r="55" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="55"/>
+      <c r="B55" s="53"/>
+      <c r="C55" s="54"/>
+      <c r="D55" s="54"/>
+      <c r="E55" s="54"/>
+      <c r="F55" s="54"/>
+      <c r="G55" s="54"/>
+      <c r="H55" s="54"/>
+      <c r="I55" s="54"/>
+      <c r="J55" s="54"/>
+      <c r="K55" s="54"/>
+      <c r="L55" s="54"/>
+      <c r="M55" s="54"/>
+      <c r="N55" s="54"/>
+      <c r="O55" s="54"/>
+      <c r="P55" s="54"/>
+      <c r="Q55" s="54"/>
+      <c r="R55" s="54"/>
+      <c r="S55" s="54"/>
+      <c r="T55" s="54"/>
+      <c r="U55" s="54"/>
+      <c r="V55" s="44"/>
+      <c r="W55" s="54"/>
+      <c r="X55" s="54"/>
+      <c r="Y55" s="54"/>
+      <c r="Z55" s="54"/>
+      <c r="AA55" s="54"/>
+      <c r="AB55" s="54"/>
+      <c r="AC55" s="54"/>
+    </row>
+    <row r="56" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="55"/>
+      <c r="B56" s="51"/>
+      <c r="C56" s="52"/>
+      <c r="D56" s="52"/>
+      <c r="E56" s="52"/>
+      <c r="F56" s="52"/>
+      <c r="G56" s="52"/>
+      <c r="H56" s="52"/>
+      <c r="I56" s="52"/>
+      <c r="J56" s="52"/>
+      <c r="K56" s="52"/>
+      <c r="L56" s="52"/>
+      <c r="M56" s="52"/>
+      <c r="N56" s="52"/>
+      <c r="O56" s="52"/>
+      <c r="P56" s="52"/>
+      <c r="Q56" s="52"/>
+      <c r="R56" s="52"/>
+      <c r="S56" s="52"/>
+      <c r="T56" s="52"/>
+      <c r="U56" s="52"/>
+      <c r="V56" s="44"/>
+      <c r="W56" s="52"/>
+      <c r="X56" s="52"/>
+      <c r="Y56" s="52"/>
+      <c r="Z56" s="52"/>
+      <c r="AA56" s="52"/>
+      <c r="AB56" s="52"/>
+      <c r="AC56" s="52"/>
+    </row>
+    <row r="57" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="55"/>
+      <c r="B57" s="53"/>
+      <c r="C57" s="54"/>
+      <c r="D57" s="54"/>
+      <c r="E57" s="54"/>
+      <c r="F57" s="54"/>
+      <c r="G57" s="54"/>
+      <c r="H57" s="54"/>
+      <c r="I57" s="54"/>
+      <c r="J57" s="54"/>
+      <c r="K57" s="54"/>
+      <c r="L57" s="54"/>
+      <c r="M57" s="54"/>
+      <c r="N57" s="54"/>
+      <c r="O57" s="54"/>
+      <c r="P57" s="54"/>
+      <c r="Q57" s="54"/>
+      <c r="R57" s="54"/>
+      <c r="S57" s="54"/>
+      <c r="T57" s="54"/>
+      <c r="U57" s="54"/>
+      <c r="V57" s="44"/>
+      <c r="W57" s="54"/>
+      <c r="X57" s="54"/>
+      <c r="Y57" s="54"/>
+      <c r="Z57" s="54"/>
+      <c r="AA57" s="54"/>
+      <c r="AB57" s="54"/>
+      <c r="AC57" s="54"/>
+    </row>
+    <row r="58" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="55"/>
+      <c r="B58" s="51"/>
+      <c r="C58" s="52"/>
+      <c r="D58" s="52"/>
+      <c r="E58" s="52"/>
+      <c r="F58" s="52"/>
+      <c r="G58" s="52"/>
+      <c r="H58" s="52"/>
+      <c r="I58" s="52"/>
+      <c r="J58" s="52"/>
+      <c r="K58" s="52"/>
+      <c r="L58" s="52"/>
+      <c r="M58" s="52"/>
+      <c r="N58" s="52"/>
+      <c r="O58" s="52"/>
+      <c r="P58" s="52"/>
+      <c r="Q58" s="52"/>
+      <c r="R58" s="52"/>
+      <c r="S58" s="52"/>
+      <c r="T58" s="52"/>
+      <c r="U58" s="52"/>
+      <c r="V58" s="44"/>
+      <c r="W58" s="52"/>
+      <c r="X58" s="52"/>
+      <c r="Y58" s="52"/>
+      <c r="Z58" s="52"/>
+      <c r="AA58" s="52"/>
+      <c r="AB58" s="52"/>
+      <c r="AC58" s="52"/>
+    </row>
+    <row r="59" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="55"/>
+      <c r="B59" s="53"/>
+      <c r="C59" s="54"/>
+      <c r="D59" s="54"/>
+      <c r="E59" s="54"/>
+      <c r="F59" s="54"/>
+      <c r="G59" s="54"/>
+      <c r="H59" s="54"/>
+      <c r="I59" s="54"/>
+      <c r="J59" s="54"/>
+      <c r="K59" s="54"/>
+      <c r="L59" s="54"/>
+      <c r="M59" s="54"/>
+      <c r="N59" s="54"/>
+      <c r="O59" s="54"/>
+      <c r="P59" s="54"/>
+      <c r="Q59" s="54"/>
+      <c r="R59" s="54"/>
+      <c r="S59" s="54"/>
+      <c r="T59" s="54"/>
+      <c r="U59" s="54"/>
+      <c r="V59" s="44"/>
+      <c r="W59" s="54"/>
+      <c r="X59" s="54"/>
+      <c r="Y59" s="54"/>
+      <c r="Z59" s="54"/>
+      <c r="AA59" s="54"/>
+      <c r="AB59" s="54"/>
+      <c r="AC59" s="54"/>
+    </row>
+    <row r="60" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="55"/>
+      <c r="B60" s="51"/>
+      <c r="C60" s="52"/>
+      <c r="D60" s="52"/>
+      <c r="E60" s="52"/>
+      <c r="F60" s="52"/>
+      <c r="G60" s="52"/>
+      <c r="H60" s="52"/>
+      <c r="I60" s="52"/>
+      <c r="J60" s="52"/>
+      <c r="K60" s="52"/>
+      <c r="L60" s="52"/>
+      <c r="M60" s="52"/>
+      <c r="N60" s="52"/>
+      <c r="O60" s="52"/>
+      <c r="P60" s="52"/>
+      <c r="Q60" s="52"/>
+      <c r="R60" s="52"/>
+      <c r="S60" s="52"/>
+      <c r="T60" s="52"/>
+      <c r="U60" s="52"/>
+      <c r="V60" s="44"/>
+      <c r="W60" s="52"/>
+      <c r="X60" s="52"/>
+      <c r="Y60" s="52"/>
+      <c r="Z60" s="52"/>
+      <c r="AA60" s="52"/>
+      <c r="AB60" s="52"/>
+      <c r="AC60" s="52"/>
+    </row>
+    <row r="61" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="55"/>
+      <c r="B61" s="53"/>
+      <c r="C61" s="54"/>
+      <c r="D61" s="54"/>
+      <c r="E61" s="54"/>
+      <c r="F61" s="54"/>
+      <c r="G61" s="54"/>
+      <c r="H61" s="54"/>
+      <c r="I61" s="54"/>
+      <c r="J61" s="54"/>
+      <c r="K61" s="54"/>
+      <c r="L61" s="54"/>
+      <c r="M61" s="54"/>
+      <c r="N61" s="54"/>
+      <c r="O61" s="54"/>
+      <c r="P61" s="54"/>
+      <c r="Q61" s="54"/>
+      <c r="R61" s="54"/>
+      <c r="S61" s="54"/>
+      <c r="T61" s="54"/>
+      <c r="U61" s="54"/>
+      <c r="V61" s="44"/>
+      <c r="W61" s="54"/>
+      <c r="X61" s="54"/>
+      <c r="Y61" s="54"/>
+      <c r="Z61" s="54"/>
+      <c r="AA61" s="54"/>
+      <c r="AB61" s="54"/>
+      <c r="AC61" s="54"/>
+    </row>
+    <row r="62" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="55"/>
+      <c r="B62" s="51"/>
+      <c r="C62" s="52"/>
+      <c r="D62" s="52"/>
+      <c r="E62" s="52"/>
+      <c r="F62" s="52"/>
+      <c r="G62" s="52"/>
+      <c r="H62" s="52"/>
+      <c r="I62" s="52"/>
+      <c r="J62" s="52"/>
+      <c r="K62" s="52"/>
+      <c r="L62" s="52"/>
+      <c r="M62" s="52"/>
+      <c r="N62" s="52"/>
+      <c r="O62" s="52"/>
+      <c r="P62" s="52"/>
+      <c r="Q62" s="52"/>
+      <c r="R62" s="52"/>
+      <c r="S62" s="52"/>
+      <c r="T62" s="52"/>
+      <c r="U62" s="52"/>
+      <c r="V62" s="44"/>
+      <c r="W62" s="52"/>
+      <c r="X62" s="52"/>
+      <c r="Y62" s="52"/>
+      <c r="Z62" s="52"/>
+      <c r="AA62" s="52"/>
+      <c r="AB62" s="52"/>
+      <c r="AC62" s="52"/>
+    </row>
+    <row r="63" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="55"/>
+      <c r="B63" s="53"/>
+      <c r="C63" s="54"/>
+      <c r="D63" s="54"/>
+      <c r="E63" s="54"/>
+      <c r="F63" s="54"/>
+      <c r="G63" s="54"/>
+      <c r="H63" s="54"/>
+      <c r="I63" s="54"/>
+      <c r="J63" s="54"/>
+      <c r="K63" s="54"/>
+      <c r="L63" s="54"/>
+      <c r="M63" s="54"/>
+      <c r="N63" s="54"/>
+      <c r="O63" s="54"/>
+      <c r="P63" s="54"/>
+      <c r="Q63" s="54"/>
+      <c r="R63" s="54"/>
+      <c r="S63" s="54"/>
+      <c r="T63" s="54"/>
+      <c r="U63" s="54"/>
+      <c r="V63" s="44"/>
+      <c r="W63" s="54"/>
+      <c r="X63" s="54"/>
+      <c r="Y63" s="54"/>
+      <c r="Z63" s="54"/>
+      <c r="AA63" s="54"/>
+      <c r="AB63" s="54"/>
+      <c r="AC63" s="54"/>
+    </row>
+    <row r="64" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="55"/>
+      <c r="B64" s="51"/>
+      <c r="C64" s="52"/>
+      <c r="D64" s="52"/>
+      <c r="E64" s="52"/>
+      <c r="F64" s="52"/>
+      <c r="G64" s="52"/>
+      <c r="H64" s="52"/>
+      <c r="I64" s="52"/>
+      <c r="J64" s="52"/>
+      <c r="K64" s="52"/>
+      <c r="L64" s="52"/>
+      <c r="M64" s="52"/>
+      <c r="N64" s="52"/>
+      <c r="O64" s="52"/>
+      <c r="P64" s="52"/>
+      <c r="Q64" s="52"/>
+      <c r="R64" s="52"/>
+      <c r="S64" s="52"/>
+      <c r="T64" s="52"/>
+      <c r="U64" s="52"/>
+      <c r="V64" s="44"/>
+      <c r="W64" s="52"/>
+      <c r="X64" s="52"/>
+      <c r="Y64" s="52"/>
+      <c r="Z64" s="52"/>
+      <c r="AA64" s="52"/>
+      <c r="AB64" s="52"/>
+      <c r="AC64" s="52"/>
+    </row>
+    <row r="65" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="55"/>
+      <c r="B65" s="53"/>
+      <c r="C65" s="54"/>
+      <c r="D65" s="54"/>
+      <c r="E65" s="54"/>
+      <c r="F65" s="54"/>
+      <c r="G65" s="54"/>
+      <c r="H65" s="54"/>
+      <c r="I65" s="54"/>
+      <c r="J65" s="54"/>
+      <c r="K65" s="54"/>
+      <c r="L65" s="54"/>
+      <c r="M65" s="54"/>
+      <c r="N65" s="54"/>
+      <c r="O65" s="54"/>
+      <c r="P65" s="54"/>
+      <c r="Q65" s="54"/>
+      <c r="R65" s="54"/>
+      <c r="S65" s="54"/>
+      <c r="T65" s="54"/>
+      <c r="U65" s="54"/>
+      <c r="V65" s="44"/>
+      <c r="W65" s="54"/>
+      <c r="X65" s="54"/>
+      <c r="Y65" s="54"/>
+      <c r="Z65" s="54"/>
+      <c r="AA65" s="54"/>
+      <c r="AB65" s="54"/>
+      <c r="AC65" s="54"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13999,8 +14271,8 @@
   <dimension ref="A1:AE66"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V48" sqref="V48"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V32" sqref="V32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14187,113 +14459,113 @@
     </row>
     <row r="3" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
-      <c r="B3" s="51">
-        <f t="shared" ref="B3:AB3" si="0">B42/B2</f>
-        <v>1.7715131822724674E-5</v>
-      </c>
-      <c r="C3" s="51">
+      <c r="B3" s="58">
+        <f>B48/B2</f>
+        <v>2.5096436748859956E-5</v>
+      </c>
+      <c r="C3" s="58">
+        <f t="shared" ref="C3:AB3" si="0">C48/C2</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="58">
+        <f t="shared" si="0"/>
+        <v>5.4314371582720785E-5</v>
+      </c>
+      <c r="E3" s="58">
+        <f t="shared" si="0"/>
+        <v>3.6715791751894004E-5</v>
+      </c>
+      <c r="F3" s="60">
+        <f t="shared" si="0"/>
+        <v>7.2883261838324107E-5</v>
+      </c>
+      <c r="G3" s="60">
+        <f t="shared" si="0"/>
+        <v>1.6943409013893597E-4</v>
+      </c>
+      <c r="H3" s="60">
+        <f t="shared" si="0"/>
+        <v>1.4433002629316567E-4</v>
+      </c>
+      <c r="I3" s="60">
+        <f t="shared" si="0"/>
+        <v>2.6627692800512535E-4</v>
+      </c>
+      <c r="J3" s="58">
+        <f t="shared" si="0"/>
+        <v>4.9501274657822438E-5</v>
+      </c>
+      <c r="K3" s="60">
+        <f t="shared" si="0"/>
+        <v>1.7642996486523272E-4</v>
+      </c>
+      <c r="L3" s="58">
+        <f t="shared" si="0"/>
+        <v>1.3620452471431101E-5</v>
+      </c>
+      <c r="M3" s="58">
+        <f t="shared" si="0"/>
+        <v>2.1974963191936654E-5</v>
+      </c>
+      <c r="N3" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D3" s="51">
-        <f t="shared" si="0"/>
-        <v>5.4314371582720785E-5</v>
-      </c>
-      <c r="E3" s="51">
-        <f t="shared" si="0"/>
-        <v>2.5121331198664318E-5</v>
-      </c>
-      <c r="F3" s="51">
-        <f t="shared" si="0"/>
-        <v>4.85888412255494E-5</v>
-      </c>
-      <c r="G3" s="52">
-        <f t="shared" si="0"/>
-        <v>1.0782169372477742E-4</v>
-      </c>
-      <c r="H3" s="52">
-        <f t="shared" si="0"/>
-        <v>9.7265887284524687E-5</v>
-      </c>
-      <c r="I3" s="52">
-        <f t="shared" si="0"/>
-        <v>1.6016657323616562E-4</v>
-      </c>
-      <c r="J3" s="51">
-        <f t="shared" si="0"/>
-        <v>4.9501274657822438E-5</v>
-      </c>
-      <c r="K3" s="52">
-        <f t="shared" si="0"/>
-        <v>1.3610311575317952E-4</v>
-      </c>
-      <c r="L3" s="51">
+      <c r="O3" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M3" s="51">
-        <f t="shared" si="0"/>
-        <v>1.7091638038172954E-5</v>
-      </c>
-      <c r="N3" s="52">
-        <f t="shared" si="0"/>
-        <v>1.3005371783997738E-4</v>
-      </c>
-      <c r="O3" s="51">
+      <c r="P3" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P3" s="51">
+      <c r="Q3" s="58">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q3" s="51">
-        <f t="shared" si="0"/>
-        <v>1.575743012072161E-5</v>
-      </c>
-      <c r="R3" s="51">
+        <v>3.1514860241443221E-5</v>
+      </c>
+      <c r="R3" s="58">
         <f t="shared" si="0"/>
         <v>1.2196460587137613E-5</v>
       </c>
-      <c r="S3" s="51">
+      <c r="S3" s="58">
         <f t="shared" si="0"/>
-        <v>1.0981207493575993E-5</v>
-      </c>
-      <c r="T3" s="51">
+        <v>1.8302012489293323E-5</v>
+      </c>
+      <c r="T3" s="60">
         <f t="shared" si="0"/>
-        <v>2.5131153205792732E-5</v>
-      </c>
-      <c r="U3" s="51">
+        <v>5.6545094713033641E-5</v>
+      </c>
+      <c r="U3" s="58">
         <f t="shared" si="0"/>
-        <v>1.8085014033970889E-5</v>
-      </c>
-      <c r="V3" s="53">
+        <v>2.8936022454353425E-5</v>
+      </c>
+      <c r="V3" s="59">
         <f t="shared" si="0"/>
-        <v>4.3866724400936198E-4</v>
-      </c>
-      <c r="W3" s="51">
+        <v>6.1979436411645347E-4</v>
+      </c>
+      <c r="W3" s="60">
         <f t="shared" si="0"/>
-        <v>2.744764361979524E-5</v>
-      </c>
-      <c r="X3" s="52">
+        <v>1.0979057447918096E-4</v>
+      </c>
+      <c r="X3" s="60">
         <f t="shared" si="0"/>
-        <v>1.5391449611772582E-4</v>
-      </c>
-      <c r="Y3" s="52">
+        <v>2.5527282282939893E-4</v>
+      </c>
+      <c r="Y3" s="60">
         <f t="shared" si="0"/>
-        <v>1.3083106801761859E-4</v>
-      </c>
-      <c r="Z3" s="51">
+        <v>2.1223706589524791E-4</v>
+      </c>
+      <c r="Z3" s="58">
         <f t="shared" si="0"/>
-        <v>1.5768269511262485E-5</v>
-      </c>
-      <c r="AA3" s="51">
+        <v>2.3652404266893731E-5</v>
+      </c>
+      <c r="AA3" s="58">
         <f t="shared" si="0"/>
-        <v>2.4984089080112139E-5</v>
-      </c>
-      <c r="AB3" s="51">
+        <v>4.0763513762288228E-5</v>
+      </c>
+      <c r="AB3" s="60">
         <f t="shared" si="0"/>
-        <v>7.3855528987592855E-5</v>
+        <v>1.1423612724546851E-4</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -15303,246 +15575,246 @@
       </c>
     </row>
     <row r="29" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="56">
+      <c r="A29" s="53">
         <v>43911</v>
       </c>
-      <c r="B29" s="57"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57">
+      <c r="B29" s="54"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="54">
         <v>1</v>
       </c>
-      <c r="E29" s="57">
+      <c r="E29" s="54">
         <v>3</v>
       </c>
-      <c r="F29" s="57">
+      <c r="F29" s="54">
         <v>3</v>
       </c>
-      <c r="G29" s="57">
+      <c r="G29" s="54">
         <v>5</v>
       </c>
-      <c r="H29" s="57">
+      <c r="H29" s="54">
         <v>2</v>
       </c>
-      <c r="I29" s="57">
+      <c r="I29" s="54">
         <v>9</v>
       </c>
-      <c r="J29" s="57"/>
-      <c r="K29" s="57">
+      <c r="J29" s="54"/>
+      <c r="K29" s="54">
         <v>3</v>
       </c>
-      <c r="L29" s="57"/>
-      <c r="M29" s="57">
+      <c r="L29" s="54"/>
+      <c r="M29" s="54">
         <v>1</v>
       </c>
-      <c r="N29" s="57">
+      <c r="N29" s="54">
         <v>4</v>
       </c>
-      <c r="O29" s="57"/>
-      <c r="P29" s="57"/>
-      <c r="Q29" s="57"/>
-      <c r="R29" s="57"/>
-      <c r="S29" s="57"/>
-      <c r="T29" s="57"/>
-      <c r="U29" s="57"/>
+      <c r="O29" s="54"/>
+      <c r="P29" s="54"/>
+      <c r="Q29" s="54"/>
+      <c r="R29" s="54"/>
+      <c r="S29" s="54"/>
+      <c r="T29" s="54"/>
+      <c r="U29" s="54"/>
       <c r="V29" s="47">
         <v>28</v>
       </c>
-      <c r="W29" s="57"/>
-      <c r="X29" s="57">
+      <c r="W29" s="54"/>
+      <c r="X29" s="54">
         <v>15</v>
       </c>
-      <c r="Y29" s="57">
+      <c r="Y29" s="54">
         <v>7</v>
       </c>
-      <c r="Z29" s="57"/>
-      <c r="AA29" s="57"/>
-      <c r="AB29" s="57">
+      <c r="Z29" s="54"/>
+      <c r="AA29" s="54"/>
+      <c r="AB29" s="54">
         <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="54">
+      <c r="A30" s="51">
         <v>43912</v>
       </c>
-      <c r="B30" s="55">
+      <c r="B30" s="52">
         <v>1</v>
       </c>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55">
+      <c r="C30" s="52"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52">
         <v>3</v>
       </c>
-      <c r="G30" s="55">
+      <c r="G30" s="52">
         <v>5</v>
       </c>
-      <c r="H30" s="55">
+      <c r="H30" s="52">
         <v>3</v>
       </c>
-      <c r="I30" s="55">
+      <c r="I30" s="52">
         <v>10</v>
       </c>
-      <c r="J30" s="55"/>
-      <c r="K30" s="55">
+      <c r="J30" s="52"/>
+      <c r="K30" s="52">
         <v>6</v>
       </c>
-      <c r="L30" s="55"/>
-      <c r="M30" s="55">
+      <c r="L30" s="52"/>
+      <c r="M30" s="52">
         <v>1</v>
       </c>
-      <c r="N30" s="55">
+      <c r="N30" s="52">
         <v>4</v>
       </c>
-      <c r="O30" s="55"/>
-      <c r="P30" s="55"/>
-      <c r="Q30" s="55"/>
-      <c r="R30" s="55"/>
-      <c r="S30" s="55"/>
-      <c r="T30" s="55"/>
-      <c r="U30" s="55"/>
+      <c r="O30" s="52"/>
+      <c r="P30" s="52"/>
+      <c r="Q30" s="52"/>
+      <c r="R30" s="52"/>
+      <c r="S30" s="52"/>
+      <c r="T30" s="52"/>
+      <c r="U30" s="52"/>
       <c r="V30" s="47">
         <v>37</v>
       </c>
-      <c r="W30" s="55"/>
-      <c r="X30" s="55">
+      <c r="W30" s="52"/>
+      <c r="X30" s="52">
         <v>16</v>
       </c>
-      <c r="Y30" s="55">
+      <c r="Y30" s="52">
         <v>10</v>
       </c>
-      <c r="Z30" s="55"/>
-      <c r="AA30" s="55"/>
-      <c r="AB30" s="55">
+      <c r="Z30" s="52"/>
+      <c r="AA30" s="52"/>
+      <c r="AB30" s="52">
         <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="56">
+      <c r="A31" s="53">
         <v>43913</v>
       </c>
-      <c r="B31" s="57">
+      <c r="B31" s="54">
         <v>1</v>
       </c>
-      <c r="C31" s="57"/>
-      <c r="D31" s="57">
+      <c r="C31" s="54"/>
+      <c r="D31" s="54">
         <v>1</v>
       </c>
-      <c r="E31" s="57">
+      <c r="E31" s="54">
         <v>5</v>
       </c>
-      <c r="F31" s="57">
+      <c r="F31" s="54">
         <v>3</v>
       </c>
-      <c r="G31" s="57">
+      <c r="G31" s="54">
         <v>5</v>
       </c>
-      <c r="H31" s="57">
+      <c r="H31" s="54">
         <v>4</v>
       </c>
-      <c r="I31" s="57">
+      <c r="I31" s="54">
         <v>13</v>
       </c>
-      <c r="J31" s="57"/>
-      <c r="K31" s="57"/>
-      <c r="L31" s="57"/>
-      <c r="M31" s="57">
+      <c r="J31" s="54"/>
+      <c r="K31" s="54"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="54">
         <v>1</v>
       </c>
-      <c r="N31" s="57">
+      <c r="N31" s="54">
         <v>5</v>
       </c>
-      <c r="O31" s="57"/>
-      <c r="P31" s="57"/>
-      <c r="Q31" s="57">
+      <c r="O31" s="54"/>
+      <c r="P31" s="54"/>
+      <c r="Q31" s="54">
         <v>1</v>
       </c>
-      <c r="R31" s="57"/>
-      <c r="S31" s="57">
+      <c r="R31" s="54"/>
+      <c r="S31" s="54">
         <v>1</v>
       </c>
-      <c r="T31" s="57"/>
-      <c r="U31" s="57"/>
+      <c r="T31" s="54"/>
+      <c r="U31" s="54"/>
       <c r="V31" s="47">
         <v>48</v>
       </c>
-      <c r="W31" s="57"/>
-      <c r="X31" s="57">
+      <c r="W31" s="54"/>
+      <c r="X31" s="54">
         <v>25</v>
       </c>
-      <c r="Y31" s="57">
+      <c r="Y31" s="54">
         <v>12</v>
       </c>
-      <c r="Z31" s="57"/>
-      <c r="AA31" s="57">
+      <c r="Z31" s="54"/>
+      <c r="AA31" s="54">
         <v>5</v>
       </c>
-      <c r="AB31" s="57">
+      <c r="AB31" s="54">
         <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="54">
+      <c r="A32" s="51">
         <v>43914</v>
       </c>
-      <c r="B32" s="55">
+      <c r="B32" s="52">
         <v>2</v>
       </c>
-      <c r="C32" s="55"/>
-      <c r="D32" s="55">
+      <c r="C32" s="52"/>
+      <c r="D32" s="52">
         <v>2</v>
       </c>
-      <c r="E32" s="55">
+      <c r="E32" s="52">
         <v>6</v>
       </c>
-      <c r="F32" s="55">
+      <c r="F32" s="52">
         <v>4</v>
       </c>
-      <c r="G32" s="55">
+      <c r="G32" s="52">
         <v>5</v>
       </c>
-      <c r="H32" s="55">
+      <c r="H32" s="52">
         <v>5</v>
       </c>
-      <c r="I32" s="55">
+      <c r="I32" s="52">
         <v>14</v>
       </c>
-      <c r="J32" s="55"/>
-      <c r="K32" s="55">
+      <c r="J32" s="52"/>
+      <c r="K32" s="52">
         <v>6</v>
       </c>
-      <c r="L32" s="55"/>
-      <c r="M32" s="55">
+      <c r="L32" s="52"/>
+      <c r="M32" s="52">
         <v>2</v>
       </c>
-      <c r="N32" s="55">
+      <c r="N32" s="52">
         <v>6</v>
       </c>
-      <c r="O32" s="55"/>
-      <c r="P32" s="55"/>
-      <c r="Q32" s="55"/>
-      <c r="R32" s="55"/>
-      <c r="S32" s="55">
+      <c r="O32" s="52"/>
+      <c r="P32" s="52"/>
+      <c r="Q32" s="52"/>
+      <c r="R32" s="52"/>
+      <c r="S32" s="52">
         <v>1</v>
       </c>
-      <c r="T32" s="55"/>
-      <c r="U32" s="55">
+      <c r="T32" s="52"/>
+      <c r="U32" s="52">
         <v>1</v>
       </c>
       <c r="V32" s="47">
         <v>53</v>
       </c>
-      <c r="W32" s="55"/>
-      <c r="X32" s="55">
+      <c r="W32" s="52"/>
+      <c r="X32" s="52">
         <v>29</v>
       </c>
-      <c r="Y32" s="55">
+      <c r="Y32" s="52">
         <v>13</v>
       </c>
-      <c r="Z32" s="55"/>
-      <c r="AA32" s="55">
+      <c r="Z32" s="52"/>
+      <c r="AA32" s="52">
         <v>5</v>
       </c>
-      <c r="AB32" s="55">
+      <c r="AB32" s="52">
         <v>155</v>
       </c>
       <c r="AC32" s="10">
@@ -15551,490 +15823,490 @@
       </c>
     </row>
     <row r="33" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="56">
+      <c r="A33" s="53">
         <v>43915</v>
       </c>
-      <c r="B33" s="57">
+      <c r="B33" s="54">
         <v>2</v>
       </c>
-      <c r="C33" s="57"/>
-      <c r="D33" s="57">
+      <c r="C33" s="54"/>
+      <c r="D33" s="54">
         <v>2</v>
       </c>
-      <c r="E33" s="57">
+      <c r="E33" s="54">
         <v>6</v>
       </c>
-      <c r="F33" s="57">
+      <c r="F33" s="54">
         <v>5</v>
       </c>
-      <c r="G33" s="57">
+      <c r="G33" s="54">
         <v>8</v>
       </c>
-      <c r="H33" s="57">
+      <c r="H33" s="54">
         <v>6</v>
       </c>
-      <c r="I33" s="57">
+      <c r="I33" s="54">
         <v>21</v>
       </c>
-      <c r="J33" s="57"/>
-      <c r="K33" s="57">
+      <c r="J33" s="54"/>
+      <c r="K33" s="54">
         <v>6</v>
       </c>
-      <c r="L33" s="57"/>
-      <c r="M33" s="57">
+      <c r="L33" s="54"/>
+      <c r="M33" s="54">
         <v>2</v>
       </c>
-      <c r="N33" s="57">
+      <c r="N33" s="54">
         <v>9</v>
       </c>
-      <c r="O33" s="57"/>
-      <c r="P33" s="57"/>
-      <c r="Q33" s="57">
+      <c r="O33" s="54"/>
+      <c r="P33" s="54"/>
+      <c r="Q33" s="54">
         <v>1</v>
       </c>
-      <c r="R33" s="57"/>
-      <c r="S33" s="57">
+      <c r="R33" s="54"/>
+      <c r="S33" s="54">
         <v>1</v>
       </c>
-      <c r="T33" s="57"/>
-      <c r="U33" s="57">
+      <c r="T33" s="54"/>
+      <c r="U33" s="54">
         <v>1</v>
       </c>
-      <c r="V33" s="47">
+      <c r="V33" s="54">
         <v>60</v>
       </c>
-      <c r="W33" s="57"/>
-      <c r="X33" s="57">
+      <c r="W33" s="54"/>
+      <c r="X33" s="54">
         <v>36</v>
       </c>
-      <c r="Y33" s="57">
+      <c r="Y33" s="54">
         <v>14</v>
       </c>
-      <c r="Z33" s="57"/>
-      <c r="AA33" s="57">
+      <c r="Z33" s="54"/>
+      <c r="AA33" s="54">
         <v>7</v>
       </c>
-      <c r="AB33" s="57">
+      <c r="AB33" s="54">
         <v>187</v>
       </c>
     </row>
     <row r="34" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="54">
+      <c r="A34" s="51">
         <v>43916</v>
       </c>
-      <c r="B34" s="55">
+      <c r="B34" s="52">
         <v>2</v>
       </c>
-      <c r="C34" s="55"/>
-      <c r="D34" s="55">
+      <c r="C34" s="52"/>
+      <c r="D34" s="52">
         <v>2</v>
       </c>
-      <c r="E34" s="55">
+      <c r="E34" s="52">
         <v>7</v>
       </c>
-      <c r="F34" s="55">
+      <c r="F34" s="52">
         <v>5</v>
       </c>
-      <c r="G34" s="55">
+      <c r="G34" s="52">
         <v>12</v>
       </c>
-      <c r="H34" s="55">
+      <c r="H34" s="52">
         <v>11</v>
       </c>
-      <c r="I34" s="55">
+      <c r="I34" s="52">
         <v>23</v>
       </c>
-      <c r="J34" s="55"/>
-      <c r="K34" s="55">
+      <c r="J34" s="52"/>
+      <c r="K34" s="52">
         <v>9</v>
       </c>
-      <c r="L34" s="55"/>
-      <c r="M34" s="55">
+      <c r="L34" s="52"/>
+      <c r="M34" s="52">
         <v>3</v>
       </c>
-      <c r="N34" s="55">
+      <c r="N34" s="52">
         <v>11</v>
       </c>
-      <c r="O34" s="55"/>
-      <c r="P34" s="55"/>
-      <c r="Q34" s="55">
+      <c r="O34" s="52"/>
+      <c r="P34" s="52"/>
+      <c r="Q34" s="52">
         <v>2</v>
       </c>
-      <c r="R34" s="55"/>
-      <c r="S34" s="55">
+      <c r="R34" s="52"/>
+      <c r="S34" s="52">
         <v>1</v>
       </c>
-      <c r="T34" s="55">
+      <c r="T34" s="52">
         <v>1</v>
       </c>
-      <c r="U34" s="55">
+      <c r="U34" s="52">
         <v>1</v>
       </c>
-      <c r="V34" s="47">
+      <c r="V34" s="52">
         <v>67</v>
       </c>
-      <c r="W34" s="55"/>
-      <c r="X34" s="55">
+      <c r="W34" s="52"/>
+      <c r="X34" s="52">
         <v>47</v>
       </c>
-      <c r="Y34" s="55">
+      <c r="Y34" s="52">
         <v>15</v>
       </c>
-      <c r="Z34" s="55"/>
-      <c r="AA34" s="55">
+      <c r="Z34" s="52"/>
+      <c r="AA34" s="52">
         <v>9</v>
       </c>
-      <c r="AB34" s="55">
+      <c r="AB34" s="52">
         <v>228</v>
       </c>
     </row>
     <row r="35" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="56">
+      <c r="A35" s="53">
         <v>43917</v>
       </c>
-      <c r="B35" s="57">
+      <c r="B35" s="54">
         <v>3</v>
       </c>
-      <c r="C35" s="57"/>
-      <c r="D35" s="57">
+      <c r="C35" s="54"/>
+      <c r="D35" s="54">
         <v>2</v>
       </c>
-      <c r="E35" s="57">
+      <c r="E35" s="54">
         <v>8</v>
       </c>
-      <c r="F35" s="57">
+      <c r="F35" s="54">
         <v>5</v>
       </c>
-      <c r="G35" s="57">
+      <c r="G35" s="54">
         <v>13</v>
       </c>
-      <c r="H35" s="57">
+      <c r="H35" s="54">
         <v>15</v>
       </c>
-      <c r="I35" s="57">
+      <c r="I35" s="54">
         <v>30</v>
       </c>
-      <c r="J35" s="57"/>
-      <c r="K35" s="57">
+      <c r="J35" s="54"/>
+      <c r="K35" s="54">
         <v>9</v>
       </c>
-      <c r="L35" s="57"/>
-      <c r="M35" s="57">
+      <c r="L35" s="54"/>
+      <c r="M35" s="54">
         <v>3</v>
       </c>
-      <c r="N35" s="57">
+      <c r="N35" s="54">
         <v>12</v>
       </c>
-      <c r="O35" s="57"/>
-      <c r="P35" s="57"/>
-      <c r="Q35" s="57"/>
-      <c r="R35" s="57"/>
-      <c r="S35" s="57">
+      <c r="O35" s="54"/>
+      <c r="P35" s="54"/>
+      <c r="Q35" s="54"/>
+      <c r="R35" s="54"/>
+      <c r="S35" s="54">
         <v>1</v>
       </c>
-      <c r="T35" s="57">
+      <c r="T35" s="54">
         <v>1</v>
       </c>
-      <c r="U35" s="57">
+      <c r="U35" s="54">
         <v>2</v>
       </c>
-      <c r="V35" s="47">
+      <c r="V35" s="54">
         <v>76</v>
       </c>
-      <c r="W35" s="57"/>
-      <c r="X35" s="57">
+      <c r="W35" s="54"/>
+      <c r="X35" s="54">
         <v>48</v>
       </c>
-      <c r="Y35" s="57">
+      <c r="Y35" s="54">
         <v>20</v>
       </c>
-      <c r="Z35" s="57">
+      <c r="Z35" s="54">
         <v>1</v>
       </c>
-      <c r="AA35" s="57">
+      <c r="AA35" s="54">
         <v>11</v>
       </c>
-      <c r="AB35" s="57">
+      <c r="AB35" s="54">
         <v>262</v>
       </c>
     </row>
     <row r="36" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="54">
+      <c r="A36" s="51">
         <v>43918</v>
       </c>
-      <c r="B36" s="55"/>
-      <c r="C36" s="55"/>
-      <c r="D36" s="55">
+      <c r="B36" s="52"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52">
         <v>2</v>
       </c>
-      <c r="E36" s="55">
+      <c r="E36" s="52">
         <v>9</v>
       </c>
-      <c r="F36" s="55">
+      <c r="F36" s="52">
         <v>6</v>
       </c>
-      <c r="G36" s="55">
+      <c r="G36" s="52">
         <v>13</v>
       </c>
-      <c r="H36" s="55">
+      <c r="H36" s="52">
         <v>15</v>
       </c>
-      <c r="I36" s="55">
+      <c r="I36" s="52">
         <v>37</v>
       </c>
-      <c r="J36" s="55">
+      <c r="J36" s="52">
         <v>1</v>
       </c>
-      <c r="K36" s="55"/>
-      <c r="L36" s="55"/>
-      <c r="M36" s="55">
+      <c r="K36" s="52"/>
+      <c r="L36" s="52"/>
+      <c r="M36" s="52">
         <v>4</v>
       </c>
-      <c r="N36" s="55">
+      <c r="N36" s="52">
         <v>14</v>
       </c>
-      <c r="O36" s="55"/>
-      <c r="P36" s="55"/>
-      <c r="Q36" s="55">
+      <c r="O36" s="52"/>
+      <c r="P36" s="52"/>
+      <c r="Q36" s="52">
         <v>5</v>
       </c>
-      <c r="R36" s="55"/>
-      <c r="S36" s="55">
+      <c r="R36" s="52"/>
+      <c r="S36" s="52">
         <v>1</v>
       </c>
-      <c r="T36" s="55">
+      <c r="T36" s="52">
         <v>2</v>
       </c>
-      <c r="U36" s="55">
+      <c r="U36" s="52">
         <v>2</v>
       </c>
-      <c r="V36" s="47">
+      <c r="V36" s="52">
         <v>87</v>
       </c>
-      <c r="W36" s="55"/>
-      <c r="X36" s="55">
+      <c r="W36" s="52"/>
+      <c r="X36" s="52">
         <v>55</v>
       </c>
-      <c r="Y36" s="55">
+      <c r="Y36" s="52">
         <v>21</v>
       </c>
-      <c r="Z36" s="55"/>
-      <c r="AA36" s="55">
+      <c r="Z36" s="52"/>
+      <c r="AA36" s="52">
         <v>15</v>
       </c>
-      <c r="AB36" s="55">
+      <c r="AB36" s="52">
         <v>302</v>
       </c>
     </row>
     <row r="37" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="56">
+      <c r="A37" s="53">
         <v>43919</v>
       </c>
-      <c r="B37" s="57"/>
-      <c r="C37" s="57"/>
-      <c r="D37" s="57">
+      <c r="B37" s="54"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54">
         <v>2</v>
       </c>
-      <c r="E37" s="57">
+      <c r="E37" s="54">
         <v>10</v>
       </c>
-      <c r="F37" s="57">
+      <c r="F37" s="54">
         <v>6</v>
       </c>
-      <c r="G37" s="57">
+      <c r="G37" s="54">
         <v>15</v>
       </c>
-      <c r="H37" s="57">
+      <c r="H37" s="54">
         <v>16</v>
       </c>
-      <c r="I37" s="57">
+      <c r="I37" s="54">
         <v>44</v>
       </c>
-      <c r="J37" s="57"/>
-      <c r="K37" s="57"/>
-      <c r="L37" s="57"/>
-      <c r="M37" s="57">
+      <c r="J37" s="54"/>
+      <c r="K37" s="54"/>
+      <c r="L37" s="54"/>
+      <c r="M37" s="54">
         <v>5</v>
       </c>
-      <c r="N37" s="57">
+      <c r="N37" s="54">
         <v>17</v>
       </c>
-      <c r="O37" s="57"/>
-      <c r="P37" s="57"/>
-      <c r="Q37" s="57">
+      <c r="O37" s="54"/>
+      <c r="P37" s="54"/>
+      <c r="Q37" s="54">
         <v>5</v>
       </c>
-      <c r="R37" s="57"/>
-      <c r="S37" s="57">
+      <c r="R37" s="54"/>
+      <c r="S37" s="54">
         <v>2</v>
       </c>
-      <c r="T37" s="57">
+      <c r="T37" s="54">
         <v>2</v>
       </c>
-      <c r="U37" s="57">
+      <c r="U37" s="54">
         <v>2</v>
       </c>
-      <c r="V37" s="47">
+      <c r="V37" s="54">
         <v>93</v>
       </c>
-      <c r="W37" s="57"/>
-      <c r="X37" s="57">
+      <c r="W37" s="54"/>
+      <c r="X37" s="54">
         <v>66</v>
       </c>
-      <c r="Y37" s="57">
+      <c r="Y37" s="54">
         <v>21</v>
       </c>
-      <c r="Z37" s="57"/>
-      <c r="AA37" s="57">
+      <c r="Z37" s="54"/>
+      <c r="AA37" s="54">
         <v>15</v>
       </c>
-      <c r="AB37" s="57">
+      <c r="AB37" s="54">
         <v>335</v>
       </c>
     </row>
     <row r="38" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="54">
+      <c r="A38" s="51">
         <v>43920</v>
       </c>
-      <c r="B38" s="55">
+      <c r="B38" s="52">
         <v>8</v>
       </c>
-      <c r="C38" s="55"/>
-      <c r="D38" s="55">
+      <c r="C38" s="52"/>
+      <c r="D38" s="52">
         <v>2</v>
       </c>
-      <c r="E38" s="55">
+      <c r="E38" s="52">
         <v>13</v>
       </c>
-      <c r="F38" s="55">
+      <c r="F38" s="52">
         <v>7</v>
       </c>
-      <c r="G38" s="55">
+      <c r="G38" s="52">
         <v>15</v>
       </c>
-      <c r="H38" s="55">
+      <c r="H38" s="52">
         <v>17</v>
       </c>
-      <c r="I38" s="55">
+      <c r="I38" s="52">
         <v>53</v>
       </c>
-      <c r="J38" s="55">
+      <c r="J38" s="52">
         <v>1</v>
       </c>
-      <c r="K38" s="55">
+      <c r="K38" s="52">
         <v>12</v>
       </c>
-      <c r="L38" s="55"/>
-      <c r="M38" s="55">
+      <c r="L38" s="52"/>
+      <c r="M38" s="52">
         <v>6</v>
       </c>
-      <c r="N38" s="55">
+      <c r="N38" s="52">
         <v>19</v>
       </c>
-      <c r="O38" s="55"/>
-      <c r="P38" s="55"/>
-      <c r="Q38" s="55">
+      <c r="O38" s="52"/>
+      <c r="P38" s="52"/>
+      <c r="Q38" s="52">
         <v>5</v>
       </c>
-      <c r="R38" s="55"/>
-      <c r="S38" s="55"/>
-      <c r="T38" s="55">
+      <c r="R38" s="52"/>
+      <c r="S38" s="52"/>
+      <c r="T38" s="52">
         <v>2</v>
       </c>
-      <c r="U38" s="55">
+      <c r="U38" s="52">
         <v>2</v>
       </c>
-      <c r="V38" s="47">
+      <c r="V38" s="52">
         <v>105</v>
       </c>
-      <c r="W38" s="55"/>
-      <c r="X38" s="55">
+      <c r="W38" s="52"/>
+      <c r="X38" s="52">
         <v>77</v>
       </c>
-      <c r="Y38" s="55">
+      <c r="Y38" s="52">
         <v>26</v>
       </c>
-      <c r="Z38" s="55">
+      <c r="Z38" s="52">
         <v>1</v>
       </c>
-      <c r="AA38" s="55">
+      <c r="AA38" s="52">
         <v>21</v>
       </c>
-      <c r="AB38" s="55">
+      <c r="AB38" s="52">
         <v>394</v>
       </c>
     </row>
     <row r="39" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="56">
+      <c r="A39" s="53">
         <v>43921</v>
       </c>
-      <c r="B39" s="57">
+      <c r="B39" s="54">
         <v>11</v>
       </c>
-      <c r="C39" s="57"/>
-      <c r="D39" s="57">
+      <c r="C39" s="54"/>
+      <c r="D39" s="54">
         <v>2</v>
       </c>
-      <c r="E39" s="57">
+      <c r="E39" s="54">
         <v>16</v>
       </c>
-      <c r="F39" s="57">
+      <c r="F39" s="54">
         <v>10</v>
       </c>
-      <c r="G39" s="57">
+      <c r="G39" s="54">
         <v>16</v>
       </c>
-      <c r="H39" s="57">
+      <c r="H39" s="54">
         <v>20</v>
       </c>
-      <c r="I39" s="57">
+      <c r="I39" s="54">
         <v>61</v>
       </c>
-      <c r="J39" s="57">
+      <c r="J39" s="54">
         <v>2</v>
       </c>
-      <c r="K39" s="57">
+      <c r="K39" s="54">
         <v>19</v>
       </c>
-      <c r="L39" s="57"/>
-      <c r="M39" s="57">
+      <c r="L39" s="54"/>
+      <c r="M39" s="54">
         <v>7</v>
       </c>
-      <c r="N39" s="57">
+      <c r="N39" s="54">
         <v>21</v>
       </c>
-      <c r="O39" s="57"/>
-      <c r="P39" s="57"/>
-      <c r="Q39" s="57">
+      <c r="O39" s="54"/>
+      <c r="P39" s="54"/>
+      <c r="Q39" s="54">
         <v>7</v>
       </c>
-      <c r="R39" s="57"/>
-      <c r="S39" s="57">
+      <c r="R39" s="54"/>
+      <c r="S39" s="54">
         <v>2</v>
       </c>
-      <c r="T39" s="57">
+      <c r="T39" s="54">
         <v>4</v>
       </c>
-      <c r="U39" s="57">
+      <c r="U39" s="54">
         <v>3</v>
       </c>
-      <c r="V39" s="47">
+      <c r="V39" s="54">
         <v>120</v>
       </c>
-      <c r="W39" s="57"/>
-      <c r="X39" s="57">
+      <c r="W39" s="54"/>
+      <c r="X39" s="54">
         <v>84</v>
       </c>
-      <c r="Y39" s="57">
+      <c r="Y39" s="54">
         <v>35</v>
       </c>
-      <c r="Z39" s="57">
+      <c r="Z39" s="54">
         <v>1</v>
       </c>
-      <c r="AA39" s="57">
+      <c r="AA39" s="54">
         <v>25</v>
       </c>
-      <c r="AB39" s="57">
+      <c r="AB39" s="54">
         <v>466</v>
       </c>
       <c r="AC39" s="10">
@@ -16043,550 +16315,550 @@
       </c>
     </row>
     <row r="40" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="54">
+      <c r="A40" s="51">
         <v>43922</v>
       </c>
-      <c r="B40" s="55">
+      <c r="B40" s="52">
         <v>11</v>
       </c>
-      <c r="C40" s="55"/>
-      <c r="D40" s="55">
+      <c r="C40" s="52"/>
+      <c r="D40" s="52">
         <v>3</v>
       </c>
-      <c r="E40" s="55">
+      <c r="E40" s="52">
         <v>20</v>
       </c>
-      <c r="F40" s="55">
+      <c r="F40" s="52">
         <v>11</v>
       </c>
-      <c r="G40" s="55">
+      <c r="G40" s="52">
         <v>18</v>
       </c>
-      <c r="H40" s="55">
+      <c r="H40" s="52">
         <v>23</v>
       </c>
-      <c r="I40" s="55">
+      <c r="I40" s="52">
         <v>68</v>
       </c>
-      <c r="J40" s="55">
+      <c r="J40" s="52">
         <v>2</v>
       </c>
-      <c r="K40" s="55">
+      <c r="K40" s="52">
         <v>21</v>
       </c>
-      <c r="L40" s="55"/>
-      <c r="M40" s="55">
+      <c r="L40" s="52"/>
+      <c r="M40" s="52">
         <v>7</v>
       </c>
-      <c r="N40" s="55">
+      <c r="N40" s="52">
         <v>23</v>
       </c>
-      <c r="O40" s="55"/>
-      <c r="P40" s="55"/>
-      <c r="Q40" s="55">
+      <c r="O40" s="52"/>
+      <c r="P40" s="52"/>
+      <c r="Q40" s="52">
         <v>7</v>
       </c>
-      <c r="R40" s="55">
+      <c r="R40" s="52">
         <v>1</v>
       </c>
-      <c r="S40" s="55">
+      <c r="S40" s="52">
         <v>3</v>
       </c>
-      <c r="T40" s="55">
+      <c r="T40" s="52">
         <v>4</v>
       </c>
-      <c r="U40" s="55">
+      <c r="U40" s="52">
         <v>4</v>
       </c>
-      <c r="V40" s="47">
+      <c r="V40" s="52">
         <v>132</v>
       </c>
-      <c r="W40" s="55">
+      <c r="W40" s="52">
         <v>1</v>
       </c>
-      <c r="X40" s="55">
+      <c r="X40" s="52">
         <v>92</v>
       </c>
-      <c r="Y40" s="55">
+      <c r="Y40" s="52">
         <v>37</v>
       </c>
-      <c r="Z40" s="55">
+      <c r="Z40" s="52">
         <v>1</v>
       </c>
-      <c r="AA40" s="55">
+      <c r="AA40" s="52">
         <v>29</v>
       </c>
-      <c r="AB40" s="55">
+      <c r="AB40" s="52">
         <v>518</v>
       </c>
     </row>
     <row r="41" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="56">
+      <c r="A41" s="53">
         <v>43923</v>
       </c>
-      <c r="B41" s="57">
+      <c r="B41" s="54">
         <v>12</v>
       </c>
-      <c r="C41" s="57"/>
-      <c r="D41" s="57">
+      <c r="C41" s="54"/>
+      <c r="D41" s="54">
         <v>3</v>
       </c>
-      <c r="E41" s="57">
+      <c r="E41" s="54">
         <v>23</v>
       </c>
-      <c r="F41" s="57">
+      <c r="F41" s="54">
         <v>12</v>
       </c>
-      <c r="G41" s="57">
+      <c r="G41" s="54">
         <v>19</v>
       </c>
-      <c r="H41" s="57">
+      <c r="H41" s="54">
         <v>26</v>
       </c>
-      <c r="I41" s="57">
+      <c r="I41" s="54">
         <v>76</v>
       </c>
-      <c r="J41" s="57">
+      <c r="J41" s="54">
         <v>2</v>
       </c>
-      <c r="K41" s="57">
+      <c r="K41" s="54">
         <v>23</v>
       </c>
-      <c r="L41" s="57"/>
-      <c r="M41" s="57">
+      <c r="L41" s="54"/>
+      <c r="M41" s="54">
         <v>7</v>
       </c>
-      <c r="N41" s="57">
+      <c r="N41" s="54">
         <v>23</v>
       </c>
-      <c r="O41" s="57"/>
-      <c r="P41" s="57"/>
-      <c r="Q41" s="57">
+      <c r="O41" s="54"/>
+      <c r="P41" s="54"/>
+      <c r="Q41" s="54">
         <v>8</v>
       </c>
-      <c r="R41" s="57">
+      <c r="R41" s="54">
         <v>1</v>
       </c>
-      <c r="S41" s="57">
+      <c r="S41" s="54">
         <v>3</v>
       </c>
-      <c r="T41" s="57">
+      <c r="T41" s="54">
         <v>4</v>
       </c>
-      <c r="U41" s="57">
+      <c r="U41" s="54">
         <v>4</v>
       </c>
-      <c r="V41" s="47">
+      <c r="V41" s="54">
         <v>141</v>
       </c>
-      <c r="W41" s="57">
+      <c r="W41" s="54">
         <v>1</v>
       </c>
-      <c r="X41" s="57">
+      <c r="X41" s="54">
         <v>107</v>
       </c>
-      <c r="Y41" s="57">
+      <c r="Y41" s="54">
         <v>40</v>
       </c>
-      <c r="Z41" s="57">
+      <c r="Z41" s="54">
         <v>1</v>
       </c>
-      <c r="AA41" s="57">
+      <c r="AA41" s="54">
         <v>36</v>
       </c>
-      <c r="AB41" s="57">
+      <c r="AB41" s="54">
         <v>572</v>
       </c>
     </row>
     <row r="42" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="54">
+      <c r="A42" s="51">
         <v>43924</v>
       </c>
-      <c r="B42" s="55">
+      <c r="B42" s="52">
         <v>12</v>
       </c>
-      <c r="C42" s="55"/>
-      <c r="D42" s="55">
+      <c r="C42" s="52"/>
+      <c r="D42" s="52">
         <v>3</v>
       </c>
-      <c r="E42" s="55">
+      <c r="E42" s="52">
         <v>26</v>
       </c>
-      <c r="F42" s="55">
+      <c r="F42" s="52">
         <v>14</v>
       </c>
-      <c r="G42" s="55">
+      <c r="G42" s="52">
         <v>21</v>
       </c>
-      <c r="H42" s="55">
+      <c r="H42" s="52">
         <v>31</v>
       </c>
-      <c r="I42" s="55">
+      <c r="I42" s="52">
         <v>80</v>
       </c>
-      <c r="J42" s="55">
+      <c r="J42" s="52">
         <v>2</v>
       </c>
-      <c r="K42" s="55">
+      <c r="K42" s="52">
         <v>27</v>
       </c>
-      <c r="L42" s="55"/>
-      <c r="M42" s="55">
+      <c r="L42" s="52"/>
+      <c r="M42" s="52">
         <v>7</v>
       </c>
-      <c r="N42" s="55">
+      <c r="N42" s="52">
         <v>23</v>
       </c>
-      <c r="O42" s="55"/>
-      <c r="P42" s="55"/>
-      <c r="Q42" s="55">
+      <c r="O42" s="52"/>
+      <c r="P42" s="52"/>
+      <c r="Q42" s="52">
         <v>8</v>
       </c>
-      <c r="R42" s="55">
+      <c r="R42" s="52">
         <v>1</v>
       </c>
-      <c r="S42" s="55">
+      <c r="S42" s="52">
         <v>3</v>
       </c>
-      <c r="T42" s="55">
+      <c r="T42" s="52">
         <v>4</v>
       </c>
-      <c r="U42" s="55">
+      <c r="U42" s="52">
         <v>5</v>
       </c>
-      <c r="V42" s="47">
+      <c r="V42" s="52">
         <v>155</v>
       </c>
-      <c r="W42" s="55">
+      <c r="W42" s="52">
         <v>1</v>
       </c>
-      <c r="X42" s="55">
+      <c r="X42" s="52">
         <v>123</v>
       </c>
-      <c r="Y42" s="55">
+      <c r="Y42" s="52">
         <v>45</v>
       </c>
-      <c r="Z42" s="55">
+      <c r="Z42" s="52">
         <v>2</v>
       </c>
-      <c r="AA42" s="55">
+      <c r="AA42" s="52">
         <v>38</v>
       </c>
-      <c r="AB42" s="55">
+      <c r="AB42" s="52">
         <v>631</v>
       </c>
       <c r="AC42"/>
     </row>
     <row r="43" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="56">
+      <c r="A43" s="53">
         <v>43925</v>
       </c>
-      <c r="B43" s="57"/>
-      <c r="C43" s="57"/>
-      <c r="D43" s="57">
+      <c r="B43" s="54"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="54">
         <v>3</v>
       </c>
-      <c r="E43" s="57">
+      <c r="E43" s="54">
         <v>28</v>
       </c>
-      <c r="F43" s="57">
+      <c r="F43" s="54">
         <v>19</v>
       </c>
-      <c r="G43" s="57">
+      <c r="G43" s="54">
         <v>24</v>
       </c>
-      <c r="H43" s="57">
+      <c r="H43" s="54">
         <v>37</v>
       </c>
-      <c r="I43" s="57">
+      <c r="I43" s="54">
         <v>93</v>
       </c>
-      <c r="J43" s="57"/>
-      <c r="K43" s="57"/>
-      <c r="L43" s="57"/>
-      <c r="M43" s="57">
+      <c r="J43" s="54"/>
+      <c r="K43" s="54"/>
+      <c r="L43" s="54"/>
+      <c r="M43" s="54">
         <v>7</v>
       </c>
-      <c r="N43" s="57">
+      <c r="N43" s="54">
         <v>24</v>
       </c>
-      <c r="O43" s="57">
+      <c r="O43" s="54">
         <v>0</v>
       </c>
-      <c r="P43" s="57"/>
-      <c r="Q43" s="57">
+      <c r="P43" s="54"/>
+      <c r="Q43" s="54">
         <v>9</v>
       </c>
-      <c r="R43" s="57">
+      <c r="R43" s="54">
         <v>1</v>
       </c>
-      <c r="S43" s="57">
+      <c r="S43" s="54">
         <v>3</v>
       </c>
-      <c r="T43" s="57">
+      <c r="T43" s="54">
         <v>5</v>
       </c>
-      <c r="U43" s="57">
+      <c r="U43" s="54">
         <v>5</v>
       </c>
-      <c r="V43" s="47">
+      <c r="V43" s="54">
         <v>165</v>
       </c>
-      <c r="W43" s="57">
+      <c r="W43" s="54">
         <v>1</v>
       </c>
-      <c r="X43" s="57">
+      <c r="X43" s="54">
         <v>138</v>
       </c>
-      <c r="Y43" s="57">
+      <c r="Y43" s="54">
         <v>51</v>
       </c>
-      <c r="Z43" s="57">
+      <c r="Z43" s="54">
         <v>2</v>
       </c>
-      <c r="AA43" s="57">
+      <c r="AA43" s="54">
         <v>41</v>
       </c>
-      <c r="AB43" s="57">
+      <c r="AB43" s="54">
         <v>697</v>
       </c>
     </row>
     <row r="44" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="54">
+      <c r="A44" s="51">
         <v>43926</v>
       </c>
-      <c r="B44" s="55"/>
-      <c r="C44" s="55"/>
-      <c r="D44" s="55">
+      <c r="B44" s="52"/>
+      <c r="C44" s="52"/>
+      <c r="D44" s="52">
         <v>3</v>
       </c>
-      <c r="E44" s="55">
+      <c r="E44" s="52">
         <v>28</v>
       </c>
-      <c r="F44" s="55">
+      <c r="F44" s="52">
         <v>19</v>
       </c>
-      <c r="G44" s="55">
+      <c r="G44" s="52">
         <v>26</v>
       </c>
-      <c r="H44" s="55">
+      <c r="H44" s="52">
         <v>40</v>
       </c>
-      <c r="I44" s="55">
+      <c r="I44" s="52">
         <v>100</v>
       </c>
-      <c r="J44" s="55"/>
-      <c r="K44" s="55">
+      <c r="J44" s="52"/>
+      <c r="K44" s="52">
         <v>30</v>
       </c>
-      <c r="L44" s="55"/>
-      <c r="M44" s="55">
+      <c r="L44" s="52"/>
+      <c r="M44" s="52">
         <v>9</v>
       </c>
-      <c r="N44" s="55">
+      <c r="N44" s="52">
         <v>26</v>
       </c>
-      <c r="O44" s="55">
+      <c r="O44" s="52">
         <v>0</v>
       </c>
-      <c r="P44" s="55"/>
-      <c r="Q44" s="55">
+      <c r="P44" s="52"/>
+      <c r="Q44" s="52">
         <v>9</v>
       </c>
-      <c r="R44" s="55">
+      <c r="R44" s="52">
         <v>1</v>
       </c>
-      <c r="S44" s="55">
+      <c r="S44" s="52">
         <v>3</v>
       </c>
-      <c r="T44" s="55">
+      <c r="T44" s="52">
         <v>5</v>
       </c>
-      <c r="U44" s="55">
+      <c r="U44" s="52">
         <v>7</v>
       </c>
-      <c r="V44" s="47">
+      <c r="V44" s="52">
         <v>177</v>
       </c>
-      <c r="W44" s="55">
+      <c r="W44" s="52">
         <v>2</v>
       </c>
-      <c r="X44" s="55">
+      <c r="X44" s="52">
         <v>147</v>
       </c>
-      <c r="Y44" s="55">
+      <c r="Y44" s="52">
         <v>53</v>
       </c>
-      <c r="Z44" s="55"/>
-      <c r="AA44" s="55">
+      <c r="Z44" s="52"/>
+      <c r="AA44" s="52">
         <v>45</v>
       </c>
-      <c r="AB44" s="55">
+      <c r="AB44" s="52">
         <v>746</v>
       </c>
       <c r="AC44" s="10"/>
     </row>
     <row r="45" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="56">
+      <c r="A45" s="53">
         <v>43927</v>
       </c>
-      <c r="B45" s="57">
+      <c r="B45" s="54">
         <v>13</v>
       </c>
-      <c r="C45" s="57"/>
-      <c r="D45" s="57">
+      <c r="C45" s="54"/>
+      <c r="D45" s="54">
         <v>3</v>
       </c>
-      <c r="E45" s="57">
+      <c r="E45" s="54">
         <v>31</v>
       </c>
-      <c r="F45" s="57">
+      <c r="F45" s="54">
         <v>19</v>
       </c>
-      <c r="G45" s="57">
+      <c r="G45" s="54">
         <v>26</v>
       </c>
-      <c r="H45" s="57">
+      <c r="H45" s="54">
         <v>41</v>
       </c>
-      <c r="I45" s="57">
+      <c r="I45" s="54">
         <v>111</v>
       </c>
-      <c r="J45" s="57">
+      <c r="J45" s="54">
         <v>2</v>
       </c>
-      <c r="K45" s="57">
+      <c r="K45" s="54">
         <v>31</v>
       </c>
-      <c r="L45" s="57"/>
-      <c r="M45" s="57">
+      <c r="L45" s="54"/>
+      <c r="M45" s="54">
         <v>9</v>
       </c>
-      <c r="N45" s="57">
+      <c r="N45" s="54">
         <v>30</v>
       </c>
-      <c r="O45" s="57">
+      <c r="O45" s="54">
         <v>0</v>
       </c>
-      <c r="P45" s="57">
+      <c r="P45" s="54">
         <v>0</v>
       </c>
-      <c r="Q45" s="57">
+      <c r="Q45" s="54">
         <v>11</v>
       </c>
-      <c r="R45" s="57">
+      <c r="R45" s="54">
         <v>1</v>
       </c>
-      <c r="S45" s="57">
+      <c r="S45" s="54">
         <v>3</v>
       </c>
-      <c r="T45" s="57">
+      <c r="T45" s="54">
         <v>6</v>
       </c>
-      <c r="U45" s="57">
+      <c r="U45" s="54">
         <v>7</v>
       </c>
-      <c r="V45" s="47">
+      <c r="V45" s="54">
         <v>189</v>
       </c>
-      <c r="W45" s="57">
+      <c r="W45" s="54">
         <v>2</v>
       </c>
-      <c r="X45" s="57">
+      <c r="X45" s="54">
         <v>160</v>
       </c>
-      <c r="Y45" s="57">
+      <c r="Y45" s="54">
         <v>56</v>
       </c>
-      <c r="Z45" s="57">
+      <c r="Z45" s="54">
         <v>3</v>
       </c>
-      <c r="AA45" s="57">
+      <c r="AA45" s="54">
         <v>48</v>
       </c>
-      <c r="AB45" s="57">
+      <c r="AB45" s="54">
         <v>802</v>
       </c>
     </row>
     <row r="46" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="54">
+      <c r="A46" s="51">
         <v>43928</v>
       </c>
-      <c r="B46" s="55">
+      <c r="B46" s="52">
         <v>16</v>
       </c>
-      <c r="C46" s="55"/>
-      <c r="D46" s="55">
+      <c r="C46" s="52"/>
+      <c r="D46" s="52">
         <v>3</v>
       </c>
-      <c r="E46" s="55">
+      <c r="E46" s="52">
         <v>33</v>
       </c>
-      <c r="F46" s="55">
+      <c r="F46" s="52">
         <v>19</v>
       </c>
-      <c r="G46" s="55">
+      <c r="G46" s="52">
         <v>28</v>
       </c>
-      <c r="H46" s="55">
+      <c r="H46" s="52">
         <v>44</v>
       </c>
-      <c r="I46" s="55">
+      <c r="I46" s="52">
         <v>118</v>
       </c>
-      <c r="J46" s="55">
+      <c r="J46" s="52">
         <v>2</v>
       </c>
-      <c r="K46" s="55">
+      <c r="K46" s="52">
         <v>34</v>
       </c>
-      <c r="L46" s="55"/>
-      <c r="M46" s="55">
+      <c r="L46" s="52"/>
+      <c r="M46" s="52">
         <v>9</v>
       </c>
-      <c r="N46" s="55">
+      <c r="N46" s="52">
         <v>33</v>
       </c>
-      <c r="O46" s="55">
+      <c r="O46" s="52">
         <v>0</v>
       </c>
-      <c r="P46" s="55">
+      <c r="P46" s="52">
         <v>0</v>
       </c>
-      <c r="Q46" s="55">
+      <c r="Q46" s="52">
         <v>13</v>
       </c>
-      <c r="R46" s="55">
+      <c r="R46" s="52">
         <v>1</v>
       </c>
-      <c r="S46" s="55">
+      <c r="S46" s="52">
         <v>3</v>
       </c>
-      <c r="T46" s="55">
+      <c r="T46" s="52">
         <v>7</v>
       </c>
-      <c r="U46" s="55">
+      <c r="U46" s="52">
         <v>8</v>
       </c>
-      <c r="V46" s="47">
+      <c r="V46" s="52">
         <v>198</v>
       </c>
-      <c r="W46" s="55">
+      <c r="W46" s="52">
         <v>2</v>
       </c>
-      <c r="X46" s="55">
+      <c r="X46" s="52">
         <v>172</v>
       </c>
-      <c r="Y46" s="55">
+      <c r="Y46" s="52">
         <v>61</v>
       </c>
-      <c r="Z46" s="55">
+      <c r="Z46" s="52">
         <v>3</v>
       </c>
-      <c r="AA46" s="55">
+      <c r="AA46" s="52">
         <v>52</v>
       </c>
-      <c r="AB46" s="55">
+      <c r="AB46" s="52">
         <v>859</v>
       </c>
       <c r="AC46" s="10">
@@ -16595,695 +16867,773 @@
       </c>
     </row>
     <row r="47" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="56">
+      <c r="A47" s="53">
         <v>43929</v>
       </c>
-      <c r="B47" s="57">
+      <c r="B47" s="54">
         <v>16</v>
       </c>
-      <c r="C47" s="57"/>
-      <c r="D47" s="57">
+      <c r="C47" s="54"/>
+      <c r="D47" s="54">
         <v>3</v>
       </c>
-      <c r="E47" s="57">
+      <c r="E47" s="54">
         <v>37</v>
       </c>
-      <c r="F47" s="57">
+      <c r="F47" s="54">
         <v>21</v>
       </c>
-      <c r="G47" s="57">
+      <c r="G47" s="54">
         <v>31</v>
       </c>
-      <c r="H47" s="57">
+      <c r="H47" s="54">
         <v>45</v>
       </c>
-      <c r="I47" s="57">
+      <c r="I47" s="54">
         <v>125</v>
       </c>
-      <c r="J47" s="57">
+      <c r="J47" s="54">
         <v>2</v>
       </c>
-      <c r="K47" s="57">
+      <c r="K47" s="54">
         <v>35</v>
       </c>
-      <c r="L47" s="57"/>
-      <c r="M47" s="57">
+      <c r="L47" s="54">
+        <v>1</v>
+      </c>
+      <c r="M47" s="54">
         <v>9</v>
       </c>
-      <c r="N47" s="57">
+      <c r="N47" s="54">
         <v>34</v>
       </c>
-      <c r="O47" s="57">
+      <c r="O47" s="54">
         <v>0</v>
       </c>
-      <c r="P47" s="57">
+      <c r="P47" s="54">
         <v>0</v>
       </c>
-      <c r="Q47" s="57">
+      <c r="Q47" s="54">
         <v>15</v>
       </c>
-      <c r="R47" s="57">
+      <c r="R47" s="54">
         <v>1</v>
       </c>
-      <c r="S47" s="57">
+      <c r="S47" s="54">
         <v>3</v>
       </c>
-      <c r="T47" s="57">
+      <c r="T47" s="54">
         <v>7</v>
       </c>
-      <c r="U47" s="57">
+      <c r="U47" s="54">
         <v>8</v>
       </c>
-      <c r="V47" s="47">
+      <c r="V47" s="54">
         <v>211</v>
       </c>
-      <c r="W47" s="57">
+      <c r="W47" s="54">
         <v>4</v>
       </c>
-      <c r="X47" s="57">
+      <c r="X47" s="54">
         <v>185</v>
       </c>
-      <c r="Y47" s="57">
+      <c r="Y47" s="54">
         <v>68</v>
       </c>
-      <c r="Z47" s="57">
+      <c r="Z47" s="54">
         <v>3</v>
       </c>
-      <c r="AA47" s="57">
+      <c r="AA47" s="54">
         <v>57</v>
       </c>
-      <c r="AB47" s="57">
-        <v>920</v>
-      </c>
-      <c r="AC47" s="57"/>
+      <c r="AB47" s="54">
+        <v>921</v>
+      </c>
+      <c r="AC47" s="54"/>
       <c r="AD47" s="10"/>
       <c r="AE47" s="10"/>
     </row>
     <row r="48" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="54">
+      <c r="A48" s="51">
         <v>43930</v>
       </c>
-      <c r="B48" s="55">
+      <c r="B48" s="52">
         <v>17</v>
       </c>
-      <c r="C48" s="55"/>
-      <c r="D48" s="55">
+      <c r="C48" s="52"/>
+      <c r="D48" s="52">
         <v>3</v>
       </c>
-      <c r="E48" s="55">
+      <c r="E48" s="52">
         <v>38</v>
       </c>
-      <c r="F48" s="55">
+      <c r="F48" s="52">
         <v>21</v>
       </c>
-      <c r="G48" s="55">
+      <c r="G48" s="52">
         <v>33</v>
       </c>
-      <c r="H48" s="55">
+      <c r="H48" s="52">
         <v>46</v>
       </c>
-      <c r="I48" s="55"/>
-      <c r="J48" s="55">
+      <c r="I48" s="52">
+        <v>133</v>
+      </c>
+      <c r="J48" s="52">
         <v>2</v>
       </c>
-      <c r="K48" s="55"/>
-      <c r="L48" s="55"/>
-      <c r="M48" s="55">
+      <c r="K48" s="52">
+        <v>35</v>
+      </c>
+      <c r="L48" s="52">
+        <v>1</v>
+      </c>
+      <c r="M48" s="52">
         <v>9</v>
       </c>
-      <c r="N48" s="55"/>
-      <c r="O48" s="55">
+      <c r="N48" s="52"/>
+      <c r="O48" s="52">
         <v>0</v>
       </c>
-      <c r="P48" s="55">
+      <c r="P48" s="52">
         <v>0</v>
       </c>
-      <c r="Q48" s="55">
+      <c r="Q48" s="52">
         <v>16</v>
       </c>
-      <c r="R48" s="55">
+      <c r="R48" s="52">
         <v>1</v>
       </c>
-      <c r="S48" s="55">
+      <c r="S48" s="52">
         <v>5</v>
       </c>
-      <c r="T48" s="55">
+      <c r="T48" s="52">
         <v>9</v>
       </c>
-      <c r="U48" s="55">
+      <c r="U48" s="52">
         <v>8</v>
       </c>
-      <c r="V48" s="47">
+      <c r="V48" s="52">
         <v>219</v>
       </c>
-      <c r="W48" s="55">
+      <c r="W48" s="52">
         <v>4</v>
       </c>
-      <c r="X48" s="55"/>
-      <c r="Y48" s="55">
+      <c r="X48" s="52">
+        <v>204</v>
+      </c>
+      <c r="Y48" s="52">
         <v>73</v>
       </c>
-      <c r="Z48" s="55">
+      <c r="Z48" s="52">
         <v>3</v>
       </c>
-      <c r="AA48" s="55">
+      <c r="AA48" s="52">
         <v>62</v>
       </c>
-      <c r="AB48" s="55">
-        <v>948</v>
-      </c>
-      <c r="AC48" s="55"/>
+      <c r="AB48" s="52">
+        <v>976</v>
+      </c>
+      <c r="AC48" s="52"/>
     </row>
     <row r="49" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="53">
+        <v>43931</v>
+      </c>
       <c r="B49" s="54"/>
-      <c r="C49" s="55"/>
-      <c r="D49" s="55"/>
-      <c r="E49" s="55"/>
-      <c r="F49" s="55"/>
-      <c r="G49" s="55"/>
-      <c r="H49" s="55"/>
-      <c r="I49" s="55"/>
-      <c r="J49" s="55"/>
-      <c r="K49" s="55"/>
-      <c r="L49" s="55"/>
-      <c r="M49" s="55"/>
-      <c r="N49" s="55"/>
-      <c r="O49" s="55"/>
-      <c r="P49" s="55"/>
-      <c r="Q49" s="55"/>
-      <c r="R49" s="55"/>
-      <c r="S49" s="55"/>
-      <c r="T49" s="55"/>
-      <c r="U49" s="55"/>
-      <c r="V49" s="55"/>
-      <c r="W49" s="55"/>
-      <c r="X49" s="55"/>
-      <c r="Y49" s="55"/>
-      <c r="Z49" s="55"/>
-      <c r="AA49" s="55"/>
-      <c r="AB49" s="55"/>
-      <c r="AC49" s="55"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="54">
+        <v>3</v>
+      </c>
+      <c r="E49" s="54">
+        <v>42</v>
+      </c>
+      <c r="F49" s="54">
+        <v>22</v>
+      </c>
+      <c r="G49" s="54">
+        <v>33</v>
+      </c>
+      <c r="H49" s="54">
+        <v>49</v>
+      </c>
+      <c r="I49" s="54"/>
+      <c r="J49" s="54"/>
+      <c r="K49" s="54"/>
+      <c r="L49" s="54">
+        <v>2</v>
+      </c>
+      <c r="M49" s="54">
+        <v>9</v>
+      </c>
+      <c r="N49" s="54"/>
+      <c r="O49" s="54">
+        <v>0</v>
+      </c>
+      <c r="P49" s="54"/>
+      <c r="Q49" s="54">
+        <v>17</v>
+      </c>
+      <c r="R49" s="54">
+        <v>1</v>
+      </c>
+      <c r="S49" s="54">
+        <v>5</v>
+      </c>
+      <c r="T49" s="54">
+        <v>10</v>
+      </c>
+      <c r="U49" s="54">
+        <v>8</v>
+      </c>
+      <c r="V49" s="54">
+        <v>227</v>
+      </c>
+      <c r="W49" s="54">
+        <v>4</v>
+      </c>
+      <c r="X49" s="54"/>
+      <c r="Y49" s="54">
+        <v>75</v>
+      </c>
+      <c r="Z49" s="54">
+        <v>3</v>
+      </c>
+      <c r="AA49" s="54">
+        <v>64</v>
+      </c>
+      <c r="AB49" s="54">
+        <v>999</v>
+      </c>
+      <c r="AC49" s="52"/>
       <c r="AD49" s="10"/>
     </row>
     <row r="50" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="58"/>
-      <c r="B50" s="56"/>
-      <c r="C50" s="57"/>
-      <c r="D50" s="57"/>
-      <c r="E50" s="57"/>
-      <c r="F50" s="57"/>
-      <c r="G50" s="57"/>
-      <c r="H50" s="57"/>
-      <c r="I50" s="57"/>
-      <c r="J50" s="57"/>
-      <c r="K50" s="57"/>
-      <c r="L50" s="57"/>
-      <c r="M50" s="57"/>
-      <c r="N50" s="57"/>
-      <c r="O50" s="57"/>
-      <c r="P50" s="57"/>
-      <c r="Q50" s="57"/>
-      <c r="R50" s="57"/>
-      <c r="S50" s="57"/>
-      <c r="T50" s="57"/>
-      <c r="U50" s="57"/>
-      <c r="V50" s="57"/>
-      <c r="W50" s="57"/>
-      <c r="X50" s="57"/>
-      <c r="Y50" s="57"/>
-      <c r="Z50" s="57"/>
-      <c r="AA50" s="57"/>
-      <c r="AB50" s="57"/>
-      <c r="AC50" s="57"/>
+      <c r="B50" s="53"/>
+      <c r="C50" s="54"/>
+      <c r="D50" s="54"/>
+      <c r="E50" s="54"/>
+      <c r="F50" s="54"/>
+      <c r="G50" s="54"/>
+      <c r="H50" s="54"/>
+      <c r="I50" s="54"/>
+      <c r="J50" s="54"/>
+      <c r="K50" s="54"/>
+      <c r="L50" s="54"/>
+      <c r="M50" s="54"/>
+      <c r="N50" s="54"/>
+      <c r="O50" s="54"/>
+      <c r="P50" s="54"/>
+      <c r="Q50" s="54"/>
+      <c r="R50" s="54"/>
+      <c r="S50" s="54"/>
+      <c r="T50" s="54"/>
+      <c r="U50" s="54"/>
+      <c r="V50" s="54"/>
+      <c r="W50" s="54"/>
+      <c r="X50" s="54"/>
+      <c r="Y50" s="54"/>
+      <c r="Z50" s="54"/>
+      <c r="AA50" s="54"/>
+      <c r="AB50" s="54"/>
+      <c r="AC50" s="54"/>
+      <c r="AD50" s="10"/>
     </row>
     <row r="51" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="58"/>
-      <c r="B51" s="54"/>
-      <c r="C51" s="55"/>
-      <c r="D51" s="55"/>
-      <c r="E51" s="55"/>
-      <c r="F51" s="55"/>
-      <c r="G51" s="55"/>
-      <c r="H51" s="55"/>
-      <c r="I51" s="55"/>
-      <c r="J51" s="55"/>
-      <c r="K51" s="55"/>
-      <c r="L51" s="55"/>
-      <c r="M51" s="55"/>
-      <c r="N51" s="55"/>
-      <c r="O51" s="55"/>
-      <c r="P51" s="55"/>
-      <c r="Q51" s="55"/>
-      <c r="R51" s="55"/>
-      <c r="S51" s="55"/>
-      <c r="T51" s="55"/>
-      <c r="U51" s="55"/>
-      <c r="V51" s="55"/>
-      <c r="W51" s="55"/>
-      <c r="X51" s="55"/>
-      <c r="Y51" s="55"/>
-      <c r="Z51" s="55"/>
-      <c r="AA51" s="55"/>
-      <c r="AB51" s="55"/>
-      <c r="AC51" s="55"/>
+      <c r="A51" s="55"/>
+      <c r="B51" s="51"/>
+      <c r="C51" s="52"/>
+      <c r="D51" s="52"/>
+      <c r="E51" s="52"/>
+      <c r="F51" s="52"/>
+      <c r="G51" s="52"/>
+      <c r="H51" s="52"/>
+      <c r="I51" s="52"/>
+      <c r="J51" s="52"/>
+      <c r="K51" s="52"/>
+      <c r="L51" s="52"/>
+      <c r="M51" s="52"/>
+      <c r="N51" s="52"/>
+      <c r="O51" s="52"/>
+      <c r="P51" s="52"/>
+      <c r="Q51" s="52"/>
+      <c r="R51" s="52"/>
+      <c r="S51" s="52"/>
+      <c r="T51" s="52"/>
+      <c r="U51" s="52"/>
+      <c r="V51" s="52"/>
+      <c r="W51" s="52"/>
+      <c r="X51" s="52"/>
+      <c r="Y51" s="52"/>
+      <c r="Z51" s="52"/>
+      <c r="AA51" s="52"/>
+      <c r="AB51" s="52"/>
+      <c r="AC51" s="52"/>
     </row>
     <row r="52" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="58"/>
-      <c r="B52" s="56"/>
-      <c r="C52" s="57"/>
-      <c r="D52" s="57"/>
-      <c r="E52" s="57"/>
-      <c r="F52" s="57"/>
-      <c r="G52" s="57"/>
-      <c r="H52" s="57"/>
-      <c r="I52" s="57"/>
-      <c r="J52" s="57"/>
-      <c r="K52" s="57"/>
-      <c r="L52" s="57"/>
-      <c r="M52" s="57"/>
-      <c r="N52" s="57"/>
-      <c r="O52" s="57"/>
-      <c r="P52" s="57"/>
-      <c r="Q52" s="57"/>
-      <c r="R52" s="57"/>
-      <c r="S52" s="57"/>
-      <c r="T52" s="57"/>
-      <c r="U52" s="57"/>
-      <c r="V52" s="57"/>
-      <c r="W52" s="57"/>
-      <c r="X52" s="57"/>
-      <c r="Y52" s="57"/>
-      <c r="Z52" s="57"/>
-      <c r="AA52" s="57"/>
-      <c r="AB52" s="57"/>
-      <c r="AC52" s="57"/>
+      <c r="A52" s="55"/>
+      <c r="B52" s="53"/>
+      <c r="C52" s="54"/>
+      <c r="D52" s="54"/>
+      <c r="E52" s="54"/>
+      <c r="F52" s="54"/>
+      <c r="G52" s="54"/>
+      <c r="H52" s="54"/>
+      <c r="I52" s="54"/>
+      <c r="J52" s="54"/>
+      <c r="K52" s="54"/>
+      <c r="L52" s="54"/>
+      <c r="M52" s="54"/>
+      <c r="N52" s="54"/>
+      <c r="O52" s="54"/>
+      <c r="P52" s="54"/>
+      <c r="Q52" s="54"/>
+      <c r="R52" s="54"/>
+      <c r="S52" s="54"/>
+      <c r="T52" s="54"/>
+      <c r="U52" s="54"/>
+      <c r="V52" s="54"/>
+      <c r="W52" s="54"/>
+      <c r="X52" s="54"/>
+      <c r="Y52" s="54"/>
+      <c r="Z52" s="54"/>
+      <c r="AA52" s="54"/>
+      <c r="AB52" s="54"/>
+      <c r="AC52" s="54"/>
     </row>
     <row r="53" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="58"/>
-      <c r="B53" s="54"/>
-      <c r="C53" s="55"/>
-      <c r="D53" s="55"/>
-      <c r="E53" s="55"/>
-      <c r="F53" s="55"/>
-      <c r="G53" s="55"/>
-      <c r="H53" s="55"/>
-      <c r="I53" s="55"/>
-      <c r="J53" s="55"/>
-      <c r="K53" s="55"/>
-      <c r="L53" s="55"/>
-      <c r="M53" s="55"/>
-      <c r="N53" s="55"/>
-      <c r="O53" s="55"/>
-      <c r="P53" s="55"/>
-      <c r="Q53" s="55"/>
-      <c r="R53" s="55"/>
-      <c r="S53" s="55"/>
-      <c r="T53" s="55"/>
-      <c r="U53" s="55"/>
-      <c r="V53" s="55"/>
-      <c r="W53" s="55"/>
-      <c r="X53" s="55"/>
-      <c r="Y53" s="55"/>
-      <c r="Z53" s="55"/>
-      <c r="AA53" s="55"/>
-      <c r="AB53" s="55"/>
-      <c r="AC53" s="55"/>
+      <c r="A53" s="55"/>
+      <c r="B53" s="51"/>
+      <c r="C53" s="52"/>
+      <c r="D53" s="52"/>
+      <c r="E53" s="52"/>
+      <c r="F53" s="52"/>
+      <c r="G53" s="52"/>
+      <c r="H53" s="52"/>
+      <c r="I53" s="52"/>
+      <c r="J53" s="52"/>
+      <c r="K53" s="52"/>
+      <c r="L53" s="52"/>
+      <c r="M53" s="52"/>
+      <c r="N53" s="52"/>
+      <c r="O53" s="52"/>
+      <c r="P53" s="52"/>
+      <c r="Q53" s="52"/>
+      <c r="R53" s="52"/>
+      <c r="S53" s="52"/>
+      <c r="T53" s="52"/>
+      <c r="U53" s="52"/>
+      <c r="V53" s="52"/>
+      <c r="W53" s="52"/>
+      <c r="X53" s="52"/>
+      <c r="Y53" s="52"/>
+      <c r="Z53" s="52"/>
+      <c r="AA53" s="52"/>
+      <c r="AB53" s="52"/>
+      <c r="AC53" s="52"/>
     </row>
     <row r="54" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="58"/>
-      <c r="B54" s="56"/>
-      <c r="C54" s="57"/>
-      <c r="D54" s="57"/>
-      <c r="E54" s="57"/>
-      <c r="F54" s="57"/>
-      <c r="G54" s="57"/>
-      <c r="H54" s="57"/>
-      <c r="I54" s="57"/>
-      <c r="J54" s="57"/>
-      <c r="K54" s="57"/>
-      <c r="L54" s="57"/>
-      <c r="M54" s="57"/>
-      <c r="N54" s="57"/>
-      <c r="O54" s="57"/>
-      <c r="P54" s="57"/>
-      <c r="Q54" s="57"/>
-      <c r="R54" s="57"/>
-      <c r="S54" s="57"/>
-      <c r="T54" s="57"/>
-      <c r="U54" s="57"/>
-      <c r="V54" s="57"/>
-      <c r="W54" s="57"/>
-      <c r="X54" s="57"/>
-      <c r="Y54" s="57"/>
-      <c r="Z54" s="57"/>
-      <c r="AA54" s="57"/>
-      <c r="AB54" s="57"/>
-      <c r="AC54" s="57"/>
+      <c r="A54" s="55"/>
+      <c r="B54" s="53"/>
+      <c r="C54" s="54"/>
+      <c r="D54" s="54"/>
+      <c r="E54" s="54"/>
+      <c r="F54" s="54"/>
+      <c r="G54" s="54"/>
+      <c r="H54" s="54"/>
+      <c r="I54" s="54"/>
+      <c r="J54" s="54"/>
+      <c r="K54" s="54"/>
+      <c r="L54" s="54"/>
+      <c r="M54" s="54"/>
+      <c r="N54" s="54"/>
+      <c r="O54" s="54"/>
+      <c r="P54" s="54"/>
+      <c r="Q54" s="54"/>
+      <c r="R54" s="54"/>
+      <c r="S54" s="54"/>
+      <c r="T54" s="54"/>
+      <c r="U54" s="54"/>
+      <c r="V54" s="54"/>
+      <c r="W54" s="54"/>
+      <c r="X54" s="54"/>
+      <c r="Y54" s="54"/>
+      <c r="Z54" s="54"/>
+      <c r="AA54" s="54"/>
+      <c r="AB54" s="54"/>
+      <c r="AC54" s="54"/>
     </row>
     <row r="55" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="58"/>
-      <c r="B55" s="54"/>
-      <c r="C55" s="55"/>
-      <c r="D55" s="55"/>
-      <c r="E55" s="55"/>
-      <c r="F55" s="55"/>
-      <c r="G55" s="55"/>
-      <c r="H55" s="55"/>
-      <c r="I55" s="55"/>
-      <c r="J55" s="55"/>
-      <c r="K55" s="55"/>
-      <c r="L55" s="55"/>
-      <c r="M55" s="55"/>
-      <c r="N55" s="55"/>
-      <c r="O55" s="55"/>
-      <c r="P55" s="55"/>
-      <c r="Q55" s="55"/>
-      <c r="R55" s="55"/>
-      <c r="S55" s="55"/>
-      <c r="T55" s="55"/>
-      <c r="U55" s="55"/>
-      <c r="V55" s="55"/>
-      <c r="W55" s="55"/>
-      <c r="X55" s="55"/>
-      <c r="Y55" s="55"/>
-      <c r="Z55" s="55"/>
-      <c r="AA55" s="55"/>
-      <c r="AB55" s="55"/>
-      <c r="AC55" s="55"/>
+      <c r="A55" s="55"/>
+      <c r="B55" s="51"/>
+      <c r="C55" s="52"/>
+      <c r="D55" s="52"/>
+      <c r="E55" s="52"/>
+      <c r="F55" s="52"/>
+      <c r="G55" s="52"/>
+      <c r="H55" s="52"/>
+      <c r="I55" s="52"/>
+      <c r="J55" s="52"/>
+      <c r="K55" s="52"/>
+      <c r="L55" s="52"/>
+      <c r="M55" s="52"/>
+      <c r="N55" s="52"/>
+      <c r="O55" s="52"/>
+      <c r="P55" s="52"/>
+      <c r="Q55" s="52"/>
+      <c r="R55" s="52"/>
+      <c r="S55" s="52"/>
+      <c r="T55" s="52"/>
+      <c r="U55" s="52"/>
+      <c r="V55" s="52"/>
+      <c r="W55" s="52"/>
+      <c r="X55" s="52"/>
+      <c r="Y55" s="52"/>
+      <c r="Z55" s="52"/>
+      <c r="AA55" s="52"/>
+      <c r="AB55" s="52"/>
+      <c r="AC55" s="52"/>
     </row>
     <row r="56" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="58"/>
-      <c r="B56" s="56"/>
-      <c r="C56" s="57"/>
-      <c r="D56" s="57"/>
-      <c r="E56" s="57"/>
-      <c r="F56" s="57"/>
-      <c r="G56" s="57"/>
-      <c r="H56" s="57"/>
-      <c r="I56" s="57"/>
-      <c r="J56" s="57"/>
-      <c r="K56" s="57"/>
-      <c r="L56" s="57"/>
-      <c r="M56" s="57"/>
-      <c r="N56" s="57"/>
-      <c r="O56" s="57"/>
-      <c r="P56" s="57"/>
-      <c r="Q56" s="57"/>
-      <c r="R56" s="57"/>
-      <c r="S56" s="57"/>
-      <c r="T56" s="57"/>
-      <c r="U56" s="57"/>
-      <c r="V56" s="57"/>
-      <c r="W56" s="57"/>
-      <c r="X56" s="57"/>
-      <c r="Y56" s="57"/>
-      <c r="Z56" s="57"/>
-      <c r="AA56" s="57"/>
-      <c r="AB56" s="57"/>
-      <c r="AC56" s="57"/>
+      <c r="A56" s="55"/>
+      <c r="B56" s="53"/>
+      <c r="C56" s="54"/>
+      <c r="D56" s="54"/>
+      <c r="E56" s="54"/>
+      <c r="F56" s="54"/>
+      <c r="G56" s="54"/>
+      <c r="H56" s="54"/>
+      <c r="I56" s="54"/>
+      <c r="J56" s="54"/>
+      <c r="K56" s="54"/>
+      <c r="L56" s="54"/>
+      <c r="M56" s="54"/>
+      <c r="N56" s="54"/>
+      <c r="O56" s="54"/>
+      <c r="P56" s="54"/>
+      <c r="Q56" s="54"/>
+      <c r="R56" s="54"/>
+      <c r="S56" s="54"/>
+      <c r="T56" s="54"/>
+      <c r="U56" s="54"/>
+      <c r="V56" s="54"/>
+      <c r="W56" s="54"/>
+      <c r="X56" s="54"/>
+      <c r="Y56" s="54"/>
+      <c r="Z56" s="54"/>
+      <c r="AA56" s="54"/>
+      <c r="AB56" s="54"/>
+      <c r="AC56" s="54"/>
     </row>
     <row r="57" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="58"/>
-      <c r="B57" s="54"/>
-      <c r="C57" s="55"/>
-      <c r="D57" s="55"/>
-      <c r="E57" s="55"/>
-      <c r="F57" s="55"/>
-      <c r="G57" s="55"/>
-      <c r="H57" s="55"/>
-      <c r="I57" s="55"/>
-      <c r="J57" s="55"/>
-      <c r="K57" s="55"/>
-      <c r="L57" s="55"/>
-      <c r="M57" s="55"/>
-      <c r="N57" s="55"/>
-      <c r="O57" s="55"/>
-      <c r="P57" s="55"/>
-      <c r="Q57" s="55"/>
-      <c r="R57" s="55"/>
-      <c r="S57" s="55"/>
-      <c r="T57" s="55"/>
-      <c r="U57" s="55"/>
-      <c r="V57" s="55"/>
-      <c r="W57" s="55"/>
-      <c r="X57" s="55"/>
-      <c r="Y57" s="55"/>
-      <c r="Z57" s="55"/>
-      <c r="AA57" s="55"/>
-      <c r="AB57" s="55"/>
-      <c r="AC57" s="55"/>
+      <c r="A57" s="55"/>
+      <c r="B57" s="51"/>
+      <c r="C57" s="52"/>
+      <c r="D57" s="52"/>
+      <c r="E57" s="52"/>
+      <c r="F57" s="52"/>
+      <c r="G57" s="52"/>
+      <c r="H57" s="52"/>
+      <c r="I57" s="52"/>
+      <c r="J57" s="52"/>
+      <c r="K57" s="52"/>
+      <c r="L57" s="52"/>
+      <c r="M57" s="52"/>
+      <c r="N57" s="52"/>
+      <c r="O57" s="52"/>
+      <c r="P57" s="52"/>
+      <c r="Q57" s="52"/>
+      <c r="R57" s="52"/>
+      <c r="S57" s="52"/>
+      <c r="T57" s="52"/>
+      <c r="U57" s="52"/>
+      <c r="V57" s="52"/>
+      <c r="W57" s="52"/>
+      <c r="X57" s="52"/>
+      <c r="Y57" s="52"/>
+      <c r="Z57" s="52"/>
+      <c r="AA57" s="52"/>
+      <c r="AB57" s="52"/>
+      <c r="AC57" s="52"/>
     </row>
     <row r="58" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="58"/>
-      <c r="B58" s="56"/>
-      <c r="C58" s="57"/>
-      <c r="D58" s="57"/>
-      <c r="E58" s="57"/>
-      <c r="F58" s="57"/>
-      <c r="G58" s="57"/>
-      <c r="H58" s="57"/>
-      <c r="I58" s="57"/>
-      <c r="J58" s="57"/>
-      <c r="K58" s="57"/>
-      <c r="L58" s="57"/>
-      <c r="M58" s="57"/>
-      <c r="N58" s="57"/>
-      <c r="O58" s="57"/>
-      <c r="P58" s="57"/>
-      <c r="Q58" s="57"/>
-      <c r="R58" s="57"/>
-      <c r="S58" s="57"/>
-      <c r="T58" s="57"/>
-      <c r="U58" s="57"/>
-      <c r="V58" s="57"/>
-      <c r="W58" s="57"/>
-      <c r="X58" s="57"/>
-      <c r="Y58" s="57"/>
-      <c r="Z58" s="57"/>
-      <c r="AA58" s="57"/>
-      <c r="AB58" s="57"/>
-      <c r="AC58" s="57"/>
+      <c r="A58" s="55"/>
+      <c r="B58" s="53"/>
+      <c r="C58" s="54"/>
+      <c r="D58" s="54"/>
+      <c r="E58" s="54"/>
+      <c r="F58" s="54"/>
+      <c r="G58" s="54"/>
+      <c r="H58" s="54"/>
+      <c r="I58" s="54"/>
+      <c r="J58" s="54"/>
+      <c r="K58" s="54"/>
+      <c r="L58" s="54"/>
+      <c r="M58" s="54"/>
+      <c r="N58" s="54"/>
+      <c r="O58" s="54"/>
+      <c r="P58" s="54"/>
+      <c r="Q58" s="54"/>
+      <c r="R58" s="54"/>
+      <c r="S58" s="54"/>
+      <c r="T58" s="54"/>
+      <c r="U58" s="54"/>
+      <c r="V58" s="54"/>
+      <c r="W58" s="54"/>
+      <c r="X58" s="54"/>
+      <c r="Y58" s="54"/>
+      <c r="Z58" s="54"/>
+      <c r="AA58" s="54"/>
+      <c r="AB58" s="54"/>
+      <c r="AC58" s="54"/>
     </row>
     <row r="59" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="58"/>
-      <c r="B59" s="54"/>
-      <c r="C59" s="55"/>
-      <c r="D59" s="55"/>
-      <c r="E59" s="55"/>
-      <c r="F59" s="55"/>
-      <c r="G59" s="55"/>
-      <c r="H59" s="55"/>
-      <c r="I59" s="55"/>
-      <c r="J59" s="55"/>
-      <c r="K59" s="55"/>
-      <c r="L59" s="55"/>
-      <c r="M59" s="55"/>
-      <c r="N59" s="55"/>
-      <c r="O59" s="55"/>
-      <c r="P59" s="55"/>
-      <c r="Q59" s="55"/>
-      <c r="R59" s="55"/>
-      <c r="S59" s="55"/>
-      <c r="T59" s="55"/>
-      <c r="U59" s="55"/>
-      <c r="V59" s="55"/>
-      <c r="W59" s="55"/>
-      <c r="X59" s="55"/>
-      <c r="Y59" s="55"/>
-      <c r="Z59" s="55"/>
-      <c r="AA59" s="55"/>
-      <c r="AB59" s="55"/>
-      <c r="AC59" s="55"/>
+      <c r="A59" s="55"/>
+      <c r="B59" s="51"/>
+      <c r="C59" s="52"/>
+      <c r="D59" s="52"/>
+      <c r="E59" s="52"/>
+      <c r="F59" s="52"/>
+      <c r="G59" s="52"/>
+      <c r="H59" s="52"/>
+      <c r="I59" s="52"/>
+      <c r="J59" s="52"/>
+      <c r="K59" s="52"/>
+      <c r="L59" s="52"/>
+      <c r="M59" s="52"/>
+      <c r="N59" s="52"/>
+      <c r="O59" s="52"/>
+      <c r="P59" s="52"/>
+      <c r="Q59" s="52"/>
+      <c r="R59" s="52"/>
+      <c r="S59" s="52"/>
+      <c r="T59" s="52"/>
+      <c r="U59" s="52"/>
+      <c r="V59" s="52"/>
+      <c r="W59" s="52"/>
+      <c r="X59" s="52"/>
+      <c r="Y59" s="52"/>
+      <c r="Z59" s="52"/>
+      <c r="AA59" s="52"/>
+      <c r="AB59" s="52"/>
+      <c r="AC59" s="52"/>
     </row>
     <row r="60" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="58"/>
-      <c r="B60" s="56"/>
-      <c r="C60" s="57"/>
-      <c r="D60" s="57"/>
-      <c r="E60" s="57"/>
-      <c r="F60" s="57"/>
-      <c r="G60" s="57"/>
-      <c r="H60" s="57"/>
-      <c r="I60" s="57"/>
-      <c r="J60" s="57"/>
-      <c r="K60" s="57"/>
-      <c r="L60" s="57"/>
-      <c r="M60" s="57"/>
-      <c r="N60" s="57"/>
-      <c r="O60" s="57"/>
-      <c r="P60" s="57"/>
-      <c r="Q60" s="57"/>
-      <c r="R60" s="57"/>
-      <c r="S60" s="57"/>
-      <c r="T60" s="57"/>
-      <c r="U60" s="57"/>
-      <c r="V60" s="57"/>
-      <c r="W60" s="57"/>
-      <c r="X60" s="57"/>
-      <c r="Y60" s="57"/>
-      <c r="Z60" s="57"/>
-      <c r="AA60" s="57"/>
-      <c r="AB60" s="57"/>
-      <c r="AC60" s="57"/>
+      <c r="A60" s="55"/>
+      <c r="B60" s="53"/>
+      <c r="C60" s="54"/>
+      <c r="D60" s="54"/>
+      <c r="E60" s="54"/>
+      <c r="F60" s="54"/>
+      <c r="G60" s="54"/>
+      <c r="H60" s="54"/>
+      <c r="I60" s="54"/>
+      <c r="J60" s="54"/>
+      <c r="K60" s="54"/>
+      <c r="L60" s="54"/>
+      <c r="M60" s="54"/>
+      <c r="N60" s="54"/>
+      <c r="O60" s="54"/>
+      <c r="P60" s="54"/>
+      <c r="Q60" s="54"/>
+      <c r="R60" s="54"/>
+      <c r="S60" s="54"/>
+      <c r="T60" s="54"/>
+      <c r="U60" s="54"/>
+      <c r="V60" s="54"/>
+      <c r="W60" s="54"/>
+      <c r="X60" s="54"/>
+      <c r="Y60" s="54"/>
+      <c r="Z60" s="54"/>
+      <c r="AA60" s="54"/>
+      <c r="AB60" s="54"/>
+      <c r="AC60" s="54"/>
     </row>
     <row r="61" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="58"/>
-      <c r="B61" s="54"/>
-      <c r="C61" s="55"/>
-      <c r="D61" s="55"/>
-      <c r="E61" s="55"/>
-      <c r="F61" s="55"/>
-      <c r="G61" s="55"/>
-      <c r="H61" s="55"/>
-      <c r="I61" s="55"/>
-      <c r="J61" s="55"/>
-      <c r="K61" s="55"/>
-      <c r="L61" s="55"/>
-      <c r="M61" s="55"/>
-      <c r="N61" s="55"/>
-      <c r="O61" s="55"/>
-      <c r="P61" s="55"/>
-      <c r="Q61" s="55"/>
-      <c r="R61" s="55"/>
-      <c r="S61" s="55"/>
-      <c r="T61" s="55"/>
-      <c r="U61" s="55"/>
-      <c r="V61" s="55"/>
-      <c r="W61" s="55"/>
-      <c r="X61" s="55"/>
-      <c r="Y61" s="55"/>
-      <c r="Z61" s="55"/>
-      <c r="AA61" s="55"/>
-      <c r="AB61" s="55"/>
-      <c r="AC61" s="55"/>
+      <c r="A61" s="55"/>
+      <c r="B61" s="51"/>
+      <c r="C61" s="52"/>
+      <c r="D61" s="52"/>
+      <c r="E61" s="52"/>
+      <c r="F61" s="52"/>
+      <c r="G61" s="52"/>
+      <c r="H61" s="52"/>
+      <c r="I61" s="52"/>
+      <c r="J61" s="52"/>
+      <c r="K61" s="52"/>
+      <c r="L61" s="52"/>
+      <c r="M61" s="52"/>
+      <c r="N61" s="52"/>
+      <c r="O61" s="52"/>
+      <c r="P61" s="52"/>
+      <c r="Q61" s="52"/>
+      <c r="R61" s="52"/>
+      <c r="S61" s="52"/>
+      <c r="T61" s="52"/>
+      <c r="U61" s="52"/>
+      <c r="V61" s="52"/>
+      <c r="W61" s="52"/>
+      <c r="X61" s="52"/>
+      <c r="Y61" s="52"/>
+      <c r="Z61" s="52"/>
+      <c r="AA61" s="52"/>
+      <c r="AB61" s="52"/>
+      <c r="AC61" s="52"/>
     </row>
     <row r="62" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="58"/>
-      <c r="B62" s="56"/>
-      <c r="C62" s="57"/>
-      <c r="D62" s="57"/>
-      <c r="E62" s="57"/>
-      <c r="F62" s="57"/>
-      <c r="G62" s="57"/>
-      <c r="H62" s="57"/>
-      <c r="I62" s="57"/>
-      <c r="J62" s="57"/>
-      <c r="K62" s="57"/>
-      <c r="L62" s="57"/>
-      <c r="M62" s="57"/>
-      <c r="N62" s="57"/>
-      <c r="O62" s="57"/>
-      <c r="P62" s="57"/>
-      <c r="Q62" s="57"/>
-      <c r="R62" s="57"/>
-      <c r="S62" s="57"/>
-      <c r="T62" s="57"/>
-      <c r="U62" s="57"/>
-      <c r="V62" s="57"/>
-      <c r="W62" s="57"/>
-      <c r="X62" s="57"/>
-      <c r="Y62" s="57"/>
-      <c r="Z62" s="57"/>
-      <c r="AA62" s="57"/>
-      <c r="AB62" s="57"/>
-      <c r="AC62" s="57"/>
+      <c r="A62" s="55"/>
+      <c r="B62" s="53"/>
+      <c r="C62" s="54"/>
+      <c r="D62" s="54"/>
+      <c r="E62" s="54"/>
+      <c r="F62" s="54"/>
+      <c r="G62" s="54"/>
+      <c r="H62" s="54"/>
+      <c r="I62" s="54"/>
+      <c r="J62" s="54"/>
+      <c r="K62" s="54"/>
+      <c r="L62" s="54"/>
+      <c r="M62" s="54"/>
+      <c r="N62" s="54"/>
+      <c r="O62" s="54"/>
+      <c r="P62" s="54"/>
+      <c r="Q62" s="54"/>
+      <c r="R62" s="54"/>
+      <c r="S62" s="54"/>
+      <c r="T62" s="54"/>
+      <c r="U62" s="54"/>
+      <c r="V62" s="54"/>
+      <c r="W62" s="54"/>
+      <c r="X62" s="54"/>
+      <c r="Y62" s="54"/>
+      <c r="Z62" s="54"/>
+      <c r="AA62" s="54"/>
+      <c r="AB62" s="54"/>
+      <c r="AC62" s="54"/>
     </row>
     <row r="63" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="58"/>
-      <c r="B63" s="54"/>
-      <c r="C63" s="55"/>
-      <c r="D63" s="55"/>
-      <c r="E63" s="55"/>
-      <c r="F63" s="55"/>
-      <c r="G63" s="55"/>
-      <c r="H63" s="55"/>
-      <c r="I63" s="55"/>
-      <c r="J63" s="55"/>
-      <c r="K63" s="55"/>
-      <c r="L63" s="55"/>
-      <c r="M63" s="55"/>
-      <c r="N63" s="55"/>
-      <c r="O63" s="55"/>
-      <c r="P63" s="55"/>
-      <c r="Q63" s="55"/>
-      <c r="R63" s="55"/>
-      <c r="S63" s="55"/>
-      <c r="T63" s="55"/>
-      <c r="U63" s="55"/>
-      <c r="V63" s="55"/>
-      <c r="W63" s="55"/>
-      <c r="X63" s="55"/>
-      <c r="Y63" s="55"/>
-      <c r="Z63" s="55"/>
-      <c r="AA63" s="55"/>
-      <c r="AB63" s="55"/>
-      <c r="AC63" s="55"/>
+      <c r="A63" s="55"/>
+      <c r="B63" s="51"/>
+      <c r="C63" s="52"/>
+      <c r="D63" s="52"/>
+      <c r="E63" s="52"/>
+      <c r="F63" s="52"/>
+      <c r="G63" s="52"/>
+      <c r="H63" s="52"/>
+      <c r="I63" s="52"/>
+      <c r="J63" s="52"/>
+      <c r="K63" s="52"/>
+      <c r="L63" s="52"/>
+      <c r="M63" s="52"/>
+      <c r="N63" s="52"/>
+      <c r="O63" s="52"/>
+      <c r="P63" s="52"/>
+      <c r="Q63" s="52"/>
+      <c r="R63" s="52"/>
+      <c r="S63" s="52"/>
+      <c r="T63" s="52"/>
+      <c r="U63" s="52"/>
+      <c r="V63" s="52"/>
+      <c r="W63" s="52"/>
+      <c r="X63" s="52"/>
+      <c r="Y63" s="52"/>
+      <c r="Z63" s="52"/>
+      <c r="AA63" s="52"/>
+      <c r="AB63" s="52"/>
+      <c r="AC63" s="52"/>
     </row>
     <row r="64" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="58"/>
-      <c r="B64" s="56"/>
-      <c r="C64" s="57"/>
-      <c r="D64" s="57"/>
-      <c r="E64" s="57"/>
-      <c r="F64" s="57"/>
-      <c r="G64" s="57"/>
-      <c r="H64" s="57"/>
-      <c r="I64" s="57"/>
-      <c r="J64" s="57"/>
-      <c r="K64" s="57"/>
-      <c r="L64" s="57"/>
-      <c r="M64" s="57"/>
-      <c r="N64" s="57"/>
-      <c r="O64" s="57"/>
-      <c r="P64" s="57"/>
-      <c r="Q64" s="57"/>
-      <c r="R64" s="57"/>
-      <c r="S64" s="57"/>
-      <c r="T64" s="57"/>
-      <c r="U64" s="57"/>
-      <c r="V64" s="57"/>
-      <c r="W64" s="57"/>
-      <c r="X64" s="57"/>
-      <c r="Y64" s="57"/>
-      <c r="Z64" s="57"/>
-      <c r="AA64" s="57"/>
-      <c r="AB64" s="57"/>
-      <c r="AC64" s="57"/>
+      <c r="A64" s="55"/>
+      <c r="B64" s="53"/>
+      <c r="C64" s="54"/>
+      <c r="D64" s="54"/>
+      <c r="E64" s="54"/>
+      <c r="F64" s="54"/>
+      <c r="G64" s="54"/>
+      <c r="H64" s="54"/>
+      <c r="I64" s="54"/>
+      <c r="J64" s="54"/>
+      <c r="K64" s="54"/>
+      <c r="L64" s="54"/>
+      <c r="M64" s="54"/>
+      <c r="N64" s="54"/>
+      <c r="O64" s="54"/>
+      <c r="P64" s="54"/>
+      <c r="Q64" s="54"/>
+      <c r="R64" s="54"/>
+      <c r="S64" s="54"/>
+      <c r="T64" s="54"/>
+      <c r="U64" s="54"/>
+      <c r="V64" s="54"/>
+      <c r="W64" s="54"/>
+      <c r="X64" s="54"/>
+      <c r="Y64" s="54"/>
+      <c r="Z64" s="54"/>
+      <c r="AA64" s="54"/>
+      <c r="AB64" s="54"/>
+      <c r="AC64" s="54"/>
     </row>
     <row r="65" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="58"/>
-      <c r="B65" s="54"/>
-      <c r="C65" s="55"/>
-      <c r="D65" s="55"/>
-      <c r="E65" s="55"/>
-      <c r="F65" s="55"/>
-      <c r="G65" s="55"/>
-      <c r="H65" s="55"/>
-      <c r="I65" s="55"/>
-      <c r="J65" s="55"/>
-      <c r="K65" s="55"/>
-      <c r="L65" s="55"/>
-      <c r="M65" s="55"/>
-      <c r="N65" s="55"/>
-      <c r="O65" s="55"/>
-      <c r="P65" s="55"/>
-      <c r="Q65" s="55"/>
-      <c r="R65" s="55"/>
-      <c r="S65" s="55"/>
-      <c r="T65" s="55"/>
-      <c r="U65" s="55"/>
-      <c r="V65" s="55"/>
-      <c r="W65" s="55"/>
-      <c r="X65" s="55"/>
-      <c r="Y65" s="55"/>
-      <c r="Z65" s="55"/>
-      <c r="AA65" s="55"/>
-      <c r="AB65" s="55"/>
-      <c r="AC65" s="55"/>
-    </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="U66" s="48"/>
-      <c r="V66" s="18"/>
+      <c r="A65" s="55"/>
+      <c r="B65" s="51"/>
+      <c r="C65" s="52"/>
+      <c r="D65" s="52"/>
+      <c r="E65" s="52"/>
+      <c r="F65" s="52"/>
+      <c r="G65" s="52"/>
+      <c r="H65" s="52"/>
+      <c r="I65" s="52"/>
+      <c r="J65" s="52"/>
+      <c r="K65" s="52"/>
+      <c r="L65" s="52"/>
+      <c r="M65" s="52"/>
+      <c r="N65" s="52"/>
+      <c r="O65" s="52"/>
+      <c r="P65" s="52"/>
+      <c r="Q65" s="52"/>
+      <c r="R65" s="52"/>
+      <c r="S65" s="52"/>
+      <c r="T65" s="52"/>
+      <c r="U65" s="52"/>
+      <c r="V65" s="52"/>
+      <c r="W65" s="52"/>
+      <c r="X65" s="52"/>
+      <c r="Y65" s="52"/>
+      <c r="Z65" s="52"/>
+      <c r="AA65" s="52"/>
+      <c r="AB65" s="52"/>
+      <c r="AC65" s="52"/>
+    </row>
+    <row r="66" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="55"/>
+      <c r="B66" s="53"/>
+      <c r="C66" s="54"/>
+      <c r="D66" s="54"/>
+      <c r="E66" s="54"/>
+      <c r="F66" s="54"/>
+      <c r="G66" s="54"/>
+      <c r="H66" s="54"/>
+      <c r="I66" s="54"/>
+      <c r="J66" s="54"/>
+      <c r="K66" s="54"/>
+      <c r="L66" s="54"/>
+      <c r="M66" s="54"/>
+      <c r="N66" s="54"/>
+      <c r="O66" s="54"/>
+      <c r="P66" s="54"/>
+      <c r="Q66" s="54"/>
+      <c r="R66" s="54"/>
+      <c r="S66" s="54"/>
+      <c r="T66" s="54"/>
+      <c r="U66" s="54"/>
+      <c r="V66" s="54"/>
+      <c r="W66" s="54"/>
+      <c r="X66" s="54"/>
+      <c r="Y66" s="54"/>
+      <c r="Z66" s="54"/>
+      <c r="AA66" s="54"/>
+      <c r="AB66" s="54"/>
+      <c r="AC66" s="54"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TI_Lombardia.xlsx
+++ b/TI_Lombardia.xlsx
@@ -14,7 +14,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">cases!$A$3:$AB$44</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TI Lombardia'!$A$3:$F$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TI Lombardia'!$A$3:$F$56</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="118">
   <si>
     <t>Date</t>
   </si>
@@ -929,7 +929,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1015,17 +1015,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFDFE2E5"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFDFE2E5"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1034,7 +1023,7 @@
     <xf numFmtId="0" fontId="17" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1169,10 +1158,6 @@
     <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="13" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="13" fillId="9" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="13" fillId="3" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -2882,7 +2867,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2890,10 +2875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U69"/>
+  <dimension ref="A1:U76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="S66" sqref="S66"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2929,7 +2914,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" ht="24" x14ac:dyDescent="0.2">
       <c r="L2" s="7" t="s">
         <v>22</v>
       </c>
@@ -4121,14 +4106,14 @@
         <v>56048</v>
       </c>
       <c r="D37">
-        <f t="shared" ref="D37" si="13">C37-C36</f>
+        <f t="shared" ref="D37:D41" si="13">C37-C36</f>
         <v>1246</v>
       </c>
       <c r="E37" t="s">
         <v>9</v>
       </c>
       <c r="G37">
-        <f t="shared" ref="G37" si="14">B37-B36</f>
+        <f t="shared" ref="G37:G41" si="14">B37-B36</f>
         <v>216</v>
       </c>
       <c r="H37" s="2">
@@ -4139,1057 +4124,1319 @@
         <v>10/4/2020</v>
       </c>
       <c r="L37" s="3" t="str">
-        <f t="shared" ref="L37" si="15">K37&amp;$L$1&amp;DAY(A37)&amp;$L$1&amp;MONTH(A37)&amp;$L$1&amp;YEAR(A37)&amp;$L$1&amp;D37&amp;$L$1&amp;G37&amp;$L$1&amp;E37&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H37</f>
+        <f t="shared" ref="L37:L41" si="15">K37&amp;$L$1&amp;DAY(A37)&amp;$L$1&amp;MONTH(A37)&amp;$L$1&amp;YEAR(A37)&amp;$L$1&amp;D37&amp;$L$1&amp;G37&amp;$L$1&amp;E37&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H37</f>
         <v>10/4/2020,10,4,2020,1246,216,Lombardia,nn,nnn,10040000</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>43901</v>
-      </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38">
-        <v>68</v>
+        <v>43932</v>
+      </c>
+      <c r="B38" s="54">
+        <v>10511</v>
+      </c>
+      <c r="C38" s="54">
+        <v>57592</v>
       </c>
       <c r="D38">
-        <f>C38</f>
-        <v>68</v>
+        <f t="shared" si="13"/>
+        <v>1544</v>
       </c>
       <c r="E38" t="s">
-        <v>116</v>
+        <v>9</v>
       </c>
       <c r="G38">
-        <f t="shared" ref="G38:G40" si="16">B38</f>
-        <v>1</v>
-      </c>
-      <c r="H38">
-        <v>353709</v>
+        <f t="shared" si="14"/>
+        <v>273</v>
+      </c>
+      <c r="H38" s="2">
+        <v>10040000</v>
       </c>
       <c r="K38" s="5" t="str">
-        <f t="shared" ref="K38:K40" si="17">DAY(A38)&amp;"/"&amp;MONTH(A38)&amp;"/"&amp;YEAR(A38)</f>
-        <v>11/3/2020</v>
+        <f t="shared" ref="K38:K41" si="16">DAY(A38)&amp;"/"&amp;MONTH(A38)&amp;"/"&amp;YEAR(A38)</f>
+        <v>11/4/2020</v>
       </c>
       <c r="L38" s="3" t="str">
-        <f t="shared" ref="L38:L40" si="18">K38&amp;$L$1&amp;DAY(A38)&amp;$L$1&amp;MONTH(A38)&amp;$L$1&amp;YEAR(A38)&amp;$L$1&amp;D38&amp;$L$1&amp;G38&amp;$L$1&amp;E38&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H38</f>
-        <v>11/3/2020,11,3,2020,68,1,Ticino,nn,nnn,353709</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+        <f t="shared" si="15"/>
+        <v>11/4/2020,11,4,2020,1544,273,Lombardia,nn,nnn,10040000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>43902</v>
-      </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39" s="43">
-        <v>180</v>
+        <v>43933</v>
+      </c>
+      <c r="B39" s="54">
+        <v>10621</v>
+      </c>
+      <c r="C39" s="54">
+        <v>59052</v>
       </c>
       <c r="D39">
-        <f t="shared" ref="D39:D64" si="19">C39-C38</f>
-        <v>112</v>
+        <f t="shared" si="13"/>
+        <v>1460</v>
       </c>
       <c r="E39" t="s">
-        <v>116</v>
+        <v>9</v>
       </c>
       <c r="G39">
+        <f t="shared" si="14"/>
+        <v>110</v>
+      </c>
+      <c r="H39" s="2">
+        <v>10040000</v>
+      </c>
+      <c r="K39" s="5" t="str">
         <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="H39">
-        <v>353709</v>
-      </c>
-      <c r="K39" s="5" t="str">
-        <f t="shared" si="17"/>
-        <v>12/3/2020</v>
+        <v>12/4/2020</v>
       </c>
       <c r="L39" s="3" t="str">
-        <f t="shared" si="18"/>
-        <v>12/3/2020,12,3,2020,112,1,Ticino,nn,nnn,353709</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+        <f t="shared" si="15"/>
+        <v>12/4/2020,12,4,2020,1460,110,Lombardia,nn,nnn,10040000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>43903</v>
-      </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="C40" s="43">
-        <v>258</v>
+        <v>43934</v>
+      </c>
+      <c r="B40" s="54">
+        <v>10901</v>
+      </c>
+      <c r="C40" s="54">
+        <v>60314</v>
       </c>
       <c r="D40">
-        <f t="shared" si="19"/>
-        <v>78</v>
+        <f t="shared" si="13"/>
+        <v>1262</v>
       </c>
       <c r="E40" t="s">
-        <v>116</v>
+        <v>9</v>
       </c>
       <c r="G40">
+        <f t="shared" si="14"/>
+        <v>280</v>
+      </c>
+      <c r="H40" s="2">
+        <v>10040000</v>
+      </c>
+      <c r="K40" s="5" t="str">
         <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="H40">
-        <v>353709</v>
-      </c>
-      <c r="K40" s="5" t="str">
-        <f t="shared" si="17"/>
-        <v>13/3/2020</v>
+        <v>13/4/2020</v>
       </c>
       <c r="L40" s="3" t="str">
-        <f t="shared" si="18"/>
-        <v>13/3/2020,13,3,2020,78,1,Ticino,nn,nnn,353709</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+        <f t="shared" si="15"/>
+        <v>13/4/2020,13,4,2020,1262,280,Lombardia,nn,nnn,10040000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>43904</v>
-      </c>
-      <c r="B41">
-        <v>5</v>
-      </c>
-      <c r="C41">
-        <v>262</v>
+        <v>43935</v>
+      </c>
+      <c r="B41" s="54">
+        <v>11142</v>
+      </c>
+      <c r="C41" s="54">
+        <v>61326</v>
       </c>
       <c r="D41">
-        <f t="shared" si="19"/>
-        <v>4</v>
+        <f t="shared" si="13"/>
+        <v>1012</v>
       </c>
       <c r="E41" t="s">
-        <v>116</v>
+        <v>9</v>
       </c>
       <c r="G41">
-        <f>B41</f>
-        <v>5</v>
-      </c>
-      <c r="H41">
-        <v>353709</v>
+        <f t="shared" si="14"/>
+        <v>241</v>
+      </c>
+      <c r="H41" s="2">
+        <v>10040000</v>
       </c>
       <c r="K41" s="5" t="str">
-        <f t="shared" ref="K41:K63" si="20">DAY(A41)&amp;"/"&amp;MONTH(A41)&amp;"/"&amp;YEAR(A41)</f>
-        <v>14/3/2020</v>
+        <f t="shared" si="16"/>
+        <v>14/4/2020</v>
       </c>
       <c r="L41" s="3" t="str">
-        <f t="shared" ref="L41:L62" si="21">K41&amp;$L$1&amp;DAY(A41)&amp;$L$1&amp;MONTH(A41)&amp;$L$1&amp;YEAR(A41)&amp;$L$1&amp;D41&amp;$L$1&amp;G41&amp;$L$1&amp;E41&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H41</f>
-        <v>14/3/2020,14,3,2020,4,5,Ticino,nn,nnn,353709</v>
+        <f t="shared" si="15"/>
+        <v>14/4/2020,14,4,2020,1012,241,Lombardia,nn,nnn,10040000</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>43905</v>
+        <v>43901</v>
       </c>
       <c r="B42">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C42">
-        <v>291</v>
+        <v>68</v>
       </c>
       <c r="D42">
-        <f t="shared" si="19"/>
-        <v>29</v>
+        <f>C42</f>
+        <v>68</v>
       </c>
       <c r="E42" t="s">
         <v>116</v>
       </c>
       <c r="G42">
-        <f t="shared" ref="G42:G63" si="22">B42-B41</f>
+        <f t="shared" ref="G42:G44" si="17">B42</f>
         <v>1</v>
       </c>
       <c r="H42">
         <v>353709</v>
       </c>
       <c r="K42" s="5" t="str">
-        <f t="shared" si="20"/>
-        <v>15/3/2020</v>
+        <f t="shared" ref="K42:K44" si="18">DAY(A42)&amp;"/"&amp;MONTH(A42)&amp;"/"&amp;YEAR(A42)</f>
+        <v>11/3/2020</v>
       </c>
       <c r="L42" s="3" t="str">
-        <f t="shared" si="21"/>
-        <v>15/3/2020,15,3,2020,29,1,Ticino,nn,nnn,353709</v>
+        <f t="shared" ref="L42:L44" si="19">K42&amp;$L$1&amp;DAY(A42)&amp;$L$1&amp;MONTH(A42)&amp;$L$1&amp;YEAR(A42)&amp;$L$1&amp;D42&amp;$L$1&amp;G42&amp;$L$1&amp;E42&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H42</f>
+        <v>11/3/2020,11,3,2020,68,1,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>43906</v>
+        <v>43902</v>
       </c>
       <c r="B43">
-        <v>8</v>
-      </c>
-      <c r="C43">
-        <v>330</v>
+        <v>1</v>
+      </c>
+      <c r="C43" s="43">
+        <v>180</v>
       </c>
       <c r="D43">
-        <f t="shared" si="19"/>
-        <v>39</v>
+        <f t="shared" ref="D43:D68" si="20">C43-C42</f>
+        <v>112</v>
       </c>
       <c r="E43" t="s">
         <v>116</v>
       </c>
       <c r="G43">
-        <f t="shared" si="22"/>
-        <v>2</v>
+        <f t="shared" si="17"/>
+        <v>1</v>
       </c>
       <c r="H43">
         <v>353709</v>
       </c>
       <c r="K43" s="5" t="str">
-        <f t="shared" si="20"/>
-        <v>16/3/2020</v>
+        <f t="shared" si="18"/>
+        <v>12/3/2020</v>
       </c>
       <c r="L43" s="3" t="str">
-        <f t="shared" si="21"/>
-        <v>16/3/2020,16,3,2020,39,2,Ticino,nn,nnn,353709</v>
+        <f t="shared" si="19"/>
+        <v>12/3/2020,12,3,2020,112,1,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>43907</v>
+        <v>43903</v>
       </c>
       <c r="B44">
-        <v>10</v>
-      </c>
-      <c r="C44">
-        <v>422</v>
+        <v>1</v>
+      </c>
+      <c r="C44" s="43">
+        <v>258</v>
       </c>
       <c r="D44">
-        <f t="shared" si="19"/>
-        <v>92</v>
+        <f t="shared" si="20"/>
+        <v>78</v>
       </c>
       <c r="E44" t="s">
         <v>116</v>
       </c>
       <c r="G44">
-        <f t="shared" si="22"/>
-        <v>2</v>
+        <f t="shared" si="17"/>
+        <v>1</v>
       </c>
       <c r="H44">
         <v>353709</v>
       </c>
       <c r="K44" s="5" t="str">
-        <f t="shared" si="20"/>
-        <v>17/3/2020</v>
+        <f t="shared" si="18"/>
+        <v>13/3/2020</v>
       </c>
       <c r="L44" s="3" t="str">
-        <f t="shared" si="21"/>
-        <v>17/3/2020,17,3,2020,92,2,Ticino,nn,nnn,353709</v>
+        <f t="shared" si="19"/>
+        <v>13/3/2020,13,3,2020,78,1,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>43908</v>
+        <v>43904</v>
       </c>
       <c r="B45">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C45">
-        <v>511</v>
+        <v>262</v>
       </c>
       <c r="D45">
-        <f t="shared" si="19"/>
-        <v>89</v>
+        <f t="shared" si="20"/>
+        <v>4</v>
       </c>
       <c r="E45" t="s">
         <v>116</v>
       </c>
       <c r="G45">
-        <f t="shared" si="22"/>
-        <v>4</v>
+        <f>B45</f>
+        <v>5</v>
       </c>
       <c r="H45">
         <v>353709</v>
       </c>
       <c r="K45" s="5" t="str">
-        <f t="shared" si="20"/>
-        <v>18/3/2020</v>
+        <f t="shared" ref="K45:K67" si="21">DAY(A45)&amp;"/"&amp;MONTH(A45)&amp;"/"&amp;YEAR(A45)</f>
+        <v>14/3/2020</v>
       </c>
       <c r="L45" s="3" t="str">
-        <f t="shared" si="21"/>
-        <v>18/3/2020,18,3,2020,89,4,Ticino,nn,nnn,353709</v>
+        <f t="shared" ref="L45:L66" si="22">K45&amp;$L$1&amp;DAY(A45)&amp;$L$1&amp;MONTH(A45)&amp;$L$1&amp;YEAR(A45)&amp;$L$1&amp;D45&amp;$L$1&amp;G45&amp;$L$1&amp;E45&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H45</f>
+        <v>14/3/2020,14,3,2020,4,5,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>43909</v>
+        <v>43905</v>
       </c>
       <c r="B46">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C46">
-        <v>638</v>
+        <v>291</v>
       </c>
       <c r="D46">
-        <f t="shared" si="19"/>
-        <v>127</v>
+        <f t="shared" si="20"/>
+        <v>29</v>
       </c>
       <c r="E46" t="s">
         <v>116</v>
       </c>
       <c r="G46">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="G46:G67" si="23">B46-B45</f>
         <v>1</v>
       </c>
       <c r="H46">
         <v>353709</v>
       </c>
       <c r="K46" s="5" t="str">
-        <f t="shared" si="20"/>
-        <v>19/3/2020</v>
+        <f t="shared" si="21"/>
+        <v>15/3/2020</v>
       </c>
       <c r="L46" s="3" t="str">
-        <f t="shared" si="21"/>
-        <v>19/3/2020,19,3,2020,127,1,Ticino,nn,nnn,353709</v>
+        <f t="shared" si="22"/>
+        <v>15/3/2020,15,3,2020,29,1,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>43910</v>
+        <v>43906</v>
       </c>
       <c r="B47">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C47">
-        <v>834</v>
+        <v>330</v>
       </c>
       <c r="D47">
-        <f t="shared" si="19"/>
-        <v>196</v>
+        <f t="shared" si="20"/>
+        <v>39</v>
       </c>
       <c r="E47" t="s">
         <v>116</v>
       </c>
       <c r="G47">
-        <f t="shared" si="22"/>
-        <v>7</v>
+        <f t="shared" si="23"/>
+        <v>2</v>
       </c>
       <c r="H47">
         <v>353709</v>
       </c>
       <c r="K47" s="5" t="str">
-        <f t="shared" si="20"/>
-        <v>20/3/2020</v>
+        <f t="shared" si="21"/>
+        <v>16/3/2020</v>
       </c>
       <c r="L47" s="3" t="str">
-        <f t="shared" si="21"/>
-        <v>20/3/2020,20,3,2020,196,7,Ticino,nn,nnn,353709</v>
+        <f t="shared" si="22"/>
+        <v>16/3/2020,16,3,2020,39,2,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>43911</v>
+        <v>43907</v>
       </c>
       <c r="B48">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C48">
-        <v>918</v>
+        <v>422</v>
       </c>
       <c r="D48">
-        <f t="shared" si="19"/>
-        <v>84</v>
+        <f t="shared" si="20"/>
+        <v>92</v>
       </c>
       <c r="E48" t="s">
         <v>116</v>
       </c>
       <c r="G48">
-        <f t="shared" si="22"/>
-        <v>6</v>
+        <f t="shared" si="23"/>
+        <v>2</v>
       </c>
       <c r="H48">
         <v>353709</v>
       </c>
       <c r="K48" s="5" t="str">
+        <f t="shared" si="21"/>
+        <v>17/3/2020</v>
+      </c>
+      <c r="L48" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>17/3/2020,17,3,2020,92,2,Ticino,nn,nnn,353709</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>43908</v>
+      </c>
+      <c r="B49">
+        <v>14</v>
+      </c>
+      <c r="C49">
+        <v>511</v>
+      </c>
+      <c r="D49">
         <f t="shared" si="20"/>
-        <v>21/3/2020</v>
-      </c>
-      <c r="L48" s="3" t="str">
-        <f t="shared" si="21"/>
-        <v>21/3/2020,21,3,2020,84,6,Ticino,nn,nnn,353709</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A49" s="1">
-        <v>43912</v>
-      </c>
-      <c r="B49">
-        <v>37</v>
-      </c>
-      <c r="C49">
-        <v>939</v>
-      </c>
-      <c r="D49">
-        <f t="shared" si="19"/>
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="E49" t="s">
         <v>116</v>
       </c>
       <c r="G49">
-        <f t="shared" si="22"/>
-        <v>9</v>
+        <f t="shared" si="23"/>
+        <v>4</v>
       </c>
       <c r="H49">
         <v>353709</v>
       </c>
       <c r="K49" s="5" t="str">
+        <f t="shared" si="21"/>
+        <v>18/3/2020</v>
+      </c>
+      <c r="L49" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>18/3/2020,18,3,2020,89,4,Ticino,nn,nnn,353709</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>43909</v>
+      </c>
+      <c r="B50">
+        <v>15</v>
+      </c>
+      <c r="C50">
+        <v>638</v>
+      </c>
+      <c r="D50">
         <f t="shared" si="20"/>
-        <v>22/3/2020</v>
-      </c>
-      <c r="L49" s="3" t="str">
-        <f t="shared" si="21"/>
-        <v>22/3/2020,22,3,2020,21,9,Ticino,nn,nnn,353709</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
-        <v>43913</v>
-      </c>
-      <c r="B50">
-        <v>48</v>
-      </c>
-      <c r="C50">
-        <v>1165</v>
-      </c>
-      <c r="D50">
-        <f t="shared" si="19"/>
-        <v>226</v>
+        <v>127</v>
       </c>
       <c r="E50" t="s">
         <v>116</v>
       </c>
       <c r="G50">
-        <f t="shared" si="22"/>
-        <v>11</v>
+        <f t="shared" si="23"/>
+        <v>1</v>
       </c>
       <c r="H50">
         <v>353709</v>
       </c>
       <c r="K50" s="5" t="str">
+        <f t="shared" si="21"/>
+        <v>19/3/2020</v>
+      </c>
+      <c r="L50" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>19/3/2020,19,3,2020,127,1,Ticino,nn,nnn,353709</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>43910</v>
+      </c>
+      <c r="B51">
+        <v>22</v>
+      </c>
+      <c r="C51">
+        <v>834</v>
+      </c>
+      <c r="D51">
         <f t="shared" si="20"/>
-        <v>23/3/2020</v>
-      </c>
-      <c r="L50" s="3" t="str">
-        <f t="shared" si="21"/>
-        <v>23/3/2020,23,3,2020,226,11,Ticino,nn,nnn,353709</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A51" s="1">
-        <v>43914</v>
-      </c>
-      <c r="B51">
-        <v>53</v>
-      </c>
-      <c r="C51">
-        <v>1211</v>
-      </c>
-      <c r="D51">
-        <f t="shared" si="19"/>
-        <v>46</v>
+        <v>196</v>
       </c>
       <c r="E51" t="s">
         <v>116</v>
       </c>
-      <c r="F51" s="2"/>
       <c r="G51">
-        <f t="shared" si="22"/>
-        <v>5</v>
+        <f t="shared" si="23"/>
+        <v>7</v>
       </c>
       <c r="H51">
         <v>353709</v>
       </c>
       <c r="K51" s="5" t="str">
+        <f t="shared" si="21"/>
+        <v>20/3/2020</v>
+      </c>
+      <c r="L51" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>20/3/2020,20,3,2020,196,7,Ticino,nn,nnn,353709</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>43911</v>
+      </c>
+      <c r="B52">
+        <v>28</v>
+      </c>
+      <c r="C52">
+        <v>918</v>
+      </c>
+      <c r="D52">
         <f t="shared" si="20"/>
-        <v>24/3/2020</v>
-      </c>
-      <c r="L51" s="3" t="str">
-        <f t="shared" si="21"/>
-        <v>24/3/2020,24,3,2020,46,5,Ticino,nn,nnn,353709</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A52" s="1">
-        <v>43915</v>
-      </c>
-      <c r="B52">
-        <v>60</v>
-      </c>
-      <c r="C52">
-        <v>1343</v>
-      </c>
-      <c r="D52">
-        <f t="shared" si="19"/>
-        <v>132</v>
+        <v>84</v>
       </c>
       <c r="E52" t="s">
         <v>116</v>
       </c>
       <c r="G52">
-        <f t="shared" si="22"/>
-        <v>7</v>
+        <f t="shared" si="23"/>
+        <v>6</v>
       </c>
       <c r="H52">
         <v>353709</v>
       </c>
       <c r="K52" s="5" t="str">
+        <f t="shared" si="21"/>
+        <v>21/3/2020</v>
+      </c>
+      <c r="L52" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>21/3/2020,21,3,2020,84,6,Ticino,nn,nnn,353709</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>43912</v>
+      </c>
+      <c r="B53">
+        <v>37</v>
+      </c>
+      <c r="C53">
+        <v>939</v>
+      </c>
+      <c r="D53">
         <f t="shared" si="20"/>
-        <v>25/3/2020</v>
-      </c>
-      <c r="L52" s="3" t="str">
-        <f t="shared" si="21"/>
-        <v>25/3/2020,25,3,2020,132,7,Ticino,nn,nnn,353709</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A53" s="1">
-        <v>43916</v>
-      </c>
-      <c r="B53">
-        <v>67</v>
-      </c>
-      <c r="C53">
-        <v>1401</v>
-      </c>
-      <c r="D53">
-        <f t="shared" si="19"/>
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="E53" t="s">
         <v>116</v>
       </c>
       <c r="G53">
-        <f t="shared" si="22"/>
-        <v>7</v>
+        <f t="shared" si="23"/>
+        <v>9</v>
       </c>
       <c r="H53">
         <v>353709</v>
       </c>
       <c r="K53" s="5" t="str">
+        <f t="shared" si="21"/>
+        <v>22/3/2020</v>
+      </c>
+      <c r="L53" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>22/3/2020,22,3,2020,21,9,Ticino,nn,nnn,353709</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>43913</v>
+      </c>
+      <c r="B54">
+        <v>48</v>
+      </c>
+      <c r="C54">
+        <v>1165</v>
+      </c>
+      <c r="D54">
         <f t="shared" si="20"/>
-        <v>26/3/2020</v>
-      </c>
-      <c r="L53" s="3" t="str">
-        <f t="shared" si="21"/>
-        <v>26/3/2020,26,3,2020,58,7,Ticino,nn,nnn,353709</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A54" s="1">
-        <v>43917</v>
-      </c>
-      <c r="B54">
-        <v>76</v>
-      </c>
-      <c r="C54">
-        <v>1688</v>
-      </c>
-      <c r="D54">
-        <f t="shared" si="19"/>
-        <v>287</v>
+        <v>226</v>
       </c>
       <c r="E54" t="s">
         <v>116</v>
       </c>
       <c r="G54">
-        <f t="shared" si="22"/>
-        <v>9</v>
+        <f t="shared" si="23"/>
+        <v>11</v>
       </c>
       <c r="H54">
         <v>353709</v>
       </c>
       <c r="K54" s="5" t="str">
+        <f t="shared" si="21"/>
+        <v>23/3/2020</v>
+      </c>
+      <c r="L54" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>23/3/2020,23,3,2020,226,11,Ticino,nn,nnn,353709</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>43914</v>
+      </c>
+      <c r="B55">
+        <v>53</v>
+      </c>
+      <c r="C55">
+        <v>1211</v>
+      </c>
+      <c r="D55">
         <f t="shared" si="20"/>
-        <v>27/3/2020</v>
-      </c>
-      <c r="L54" s="3" t="str">
-        <f t="shared" si="21"/>
-        <v>27/3/2020,27,3,2020,287,9,Ticino,nn,nnn,353709</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A55" s="1">
-        <v>43918</v>
-      </c>
-      <c r="B55">
-        <v>87</v>
-      </c>
-      <c r="C55">
-        <v>1727</v>
-      </c>
-      <c r="D55">
-        <f t="shared" si="19"/>
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E55" t="s">
         <v>116</v>
       </c>
+      <c r="F55" s="2"/>
       <c r="G55">
-        <f t="shared" si="22"/>
-        <v>11</v>
+        <f t="shared" si="23"/>
+        <v>5</v>
       </c>
       <c r="H55">
         <v>353709</v>
       </c>
       <c r="K55" s="5" t="str">
+        <f t="shared" si="21"/>
+        <v>24/3/2020</v>
+      </c>
+      <c r="L55" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>24/3/2020,24,3,2020,46,5,Ticino,nn,nnn,353709</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>43915</v>
+      </c>
+      <c r="B56">
+        <v>60</v>
+      </c>
+      <c r="C56">
+        <v>1343</v>
+      </c>
+      <c r="D56">
         <f t="shared" si="20"/>
-        <v>28/3/2020</v>
-      </c>
-      <c r="L55" s="3" t="str">
-        <f t="shared" si="21"/>
-        <v>28/3/2020,28,3,2020,39,11,Ticino,nn,nnn,353709</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A56" s="1">
-        <v>43919</v>
-      </c>
-      <c r="B56">
-        <v>93</v>
-      </c>
-      <c r="C56">
-        <v>1837</v>
-      </c>
-      <c r="D56">
-        <f t="shared" si="19"/>
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="E56" t="s">
         <v>116</v>
       </c>
       <c r="G56">
-        <f t="shared" si="22"/>
-        <v>6</v>
+        <f t="shared" si="23"/>
+        <v>7</v>
       </c>
       <c r="H56">
         <v>353709</v>
       </c>
       <c r="K56" s="5" t="str">
+        <f t="shared" si="21"/>
+        <v>25/3/2020</v>
+      </c>
+      <c r="L56" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>25/3/2020,25,3,2020,132,7,Ticino,nn,nnn,353709</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>43916</v>
+      </c>
+      <c r="B57">
+        <v>67</v>
+      </c>
+      <c r="C57">
+        <v>1401</v>
+      </c>
+      <c r="D57">
         <f t="shared" si="20"/>
-        <v>29/3/2020</v>
-      </c>
-      <c r="L56" s="3" t="str">
-        <f t="shared" si="21"/>
-        <v>29/3/2020,29,3,2020,110,6,Ticino,nn,nnn,353709</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A57" s="1">
-        <v>43920</v>
-      </c>
-      <c r="B57">
-        <v>105</v>
-      </c>
-      <c r="C57">
-        <v>1962</v>
-      </c>
-      <c r="D57">
-        <f t="shared" si="19"/>
-        <v>125</v>
+        <v>58</v>
       </c>
       <c r="E57" t="s">
         <v>116</v>
       </c>
       <c r="G57">
-        <f t="shared" si="22"/>
-        <v>12</v>
+        <f t="shared" si="23"/>
+        <v>7</v>
       </c>
       <c r="H57">
         <v>353709</v>
       </c>
       <c r="K57" s="5" t="str">
+        <f t="shared" si="21"/>
+        <v>26/3/2020</v>
+      </c>
+      <c r="L57" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>26/3/2020,26,3,2020,58,7,Ticino,nn,nnn,353709</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>43917</v>
+      </c>
+      <c r="B58">
+        <v>76</v>
+      </c>
+      <c r="C58">
+        <v>1688</v>
+      </c>
+      <c r="D58">
         <f t="shared" si="20"/>
-        <v>30/3/2020</v>
-      </c>
-      <c r="L57" s="3" t="str">
-        <f t="shared" si="21"/>
-        <v>30/3/2020,30,3,2020,125,12,Ticino,nn,nnn,353709</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A58" s="1">
-        <v>43921</v>
-      </c>
-      <c r="B58">
-        <v>120</v>
-      </c>
-      <c r="C58">
-        <v>2091</v>
-      </c>
-      <c r="D58">
-        <f t="shared" si="19"/>
-        <v>129</v>
+        <v>287</v>
       </c>
       <c r="E58" t="s">
         <v>116</v>
       </c>
       <c r="G58">
-        <f t="shared" si="22"/>
-        <v>15</v>
+        <f t="shared" si="23"/>
+        <v>9</v>
       </c>
       <c r="H58">
         <v>353709</v>
       </c>
       <c r="K58" s="5" t="str">
+        <f t="shared" si="21"/>
+        <v>27/3/2020</v>
+      </c>
+      <c r="L58" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>27/3/2020,27,3,2020,287,9,Ticino,nn,nnn,353709</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>43918</v>
+      </c>
+      <c r="B59">
+        <v>87</v>
+      </c>
+      <c r="C59">
+        <v>1727</v>
+      </c>
+      <c r="D59">
         <f t="shared" si="20"/>
-        <v>31/3/2020</v>
-      </c>
-      <c r="L58" s="3" t="str">
-        <f t="shared" si="21"/>
-        <v>31/3/2020,31,3,2020,129,15,Ticino,nn,nnn,353709</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
-        <v>43922</v>
-      </c>
-      <c r="B59">
-        <v>132</v>
-      </c>
-      <c r="C59">
-        <v>2195</v>
-      </c>
-      <c r="D59">
-        <f t="shared" si="19"/>
-        <v>104</v>
+        <v>39</v>
       </c>
       <c r="E59" t="s">
         <v>116</v>
       </c>
       <c r="G59">
-        <f t="shared" si="22"/>
-        <v>12</v>
+        <f t="shared" si="23"/>
+        <v>11</v>
       </c>
       <c r="H59">
         <v>353709</v>
       </c>
       <c r="K59" s="5" t="str">
+        <f t="shared" si="21"/>
+        <v>28/3/2020</v>
+      </c>
+      <c r="L59" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>28/3/2020,28,3,2020,39,11,Ticino,nn,nnn,353709</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>43919</v>
+      </c>
+      <c r="B60">
+        <v>93</v>
+      </c>
+      <c r="C60">
+        <v>1837</v>
+      </c>
+      <c r="D60">
         <f t="shared" si="20"/>
-        <v>1/4/2020</v>
-      </c>
-      <c r="L59" s="3" t="str">
-        <f t="shared" si="21"/>
-        <v>1/4/2020,1,4,2020,104,12,Ticino,nn,nnn,353709</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
-        <v>43923</v>
-      </c>
-      <c r="B60" s="49">
-        <v>141</v>
-      </c>
-      <c r="C60" s="44">
-        <v>2271</v>
-      </c>
-      <c r="D60">
-        <f t="shared" si="19"/>
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="E60" t="s">
         <v>116</v>
       </c>
       <c r="G60">
-        <f t="shared" si="22"/>
-        <v>9</v>
+        <f t="shared" si="23"/>
+        <v>6</v>
       </c>
       <c r="H60">
         <v>353709</v>
       </c>
       <c r="K60" s="5" t="str">
+        <f t="shared" si="21"/>
+        <v>29/3/2020</v>
+      </c>
+      <c r="L60" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>29/3/2020,29,3,2020,110,6,Ticino,nn,nnn,353709</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>43920</v>
+      </c>
+      <c r="B61">
+        <v>105</v>
+      </c>
+      <c r="C61">
+        <v>1962</v>
+      </c>
+      <c r="D61">
         <f t="shared" si="20"/>
-        <v>2/4/2020</v>
-      </c>
-      <c r="L60" s="3" t="str">
-        <f t="shared" si="21"/>
-        <v>2/4/2020,2,4,2020,76,9,Ticino,nn,nnn,353709</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
-        <v>43924</v>
-      </c>
-      <c r="B61" s="49">
-        <v>155</v>
-      </c>
-      <c r="C61" s="44">
-        <v>2377</v>
-      </c>
-      <c r="D61">
-        <f t="shared" si="19"/>
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="E61" t="s">
         <v>116</v>
       </c>
       <c r="G61">
-        <f t="shared" si="22"/>
-        <v>14</v>
+        <f t="shared" si="23"/>
+        <v>12</v>
       </c>
       <c r="H61">
         <v>353709</v>
       </c>
       <c r="K61" s="5" t="str">
+        <f t="shared" si="21"/>
+        <v>30/3/2020</v>
+      </c>
+      <c r="L61" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>30/3/2020,30,3,2020,125,12,Ticino,nn,nnn,353709</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B62">
+        <v>120</v>
+      </c>
+      <c r="C62">
+        <v>2091</v>
+      </c>
+      <c r="D62">
         <f t="shared" si="20"/>
-        <v>3/4/2020</v>
-      </c>
-      <c r="L61" s="3" t="str">
-        <f t="shared" si="21"/>
-        <v>3/4/2020,3,4,2020,106,14,Ticino,nn,nnn,353709</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
-        <v>43925</v>
-      </c>
-      <c r="B62" s="49">
-        <v>165</v>
-      </c>
-      <c r="C62" s="44">
-        <v>2422</v>
-      </c>
-      <c r="D62">
-        <f t="shared" si="19"/>
-        <v>45</v>
+        <v>129</v>
       </c>
       <c r="E62" t="s">
         <v>116</v>
       </c>
       <c r="G62">
-        <f t="shared" si="22"/>
-        <v>10</v>
+        <f t="shared" si="23"/>
+        <v>15</v>
       </c>
       <c r="H62">
         <v>353709</v>
       </c>
       <c r="K62" s="5" t="str">
+        <f t="shared" si="21"/>
+        <v>31/3/2020</v>
+      </c>
+      <c r="L62" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>31/3/2020,31,3,2020,129,15,Ticino,nn,nnn,353709</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>43922</v>
+      </c>
+      <c r="B63">
+        <v>132</v>
+      </c>
+      <c r="C63">
+        <v>2195</v>
+      </c>
+      <c r="D63">
         <f t="shared" si="20"/>
-        <v>4/4/2020</v>
-      </c>
-      <c r="L62" s="3" t="str">
-        <f t="shared" si="21"/>
-        <v>4/4/2020,4,4,2020,45,10,Ticino,nn,nnn,353709</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
-        <v>43926</v>
-      </c>
-      <c r="B63" s="49">
-        <v>177</v>
-      </c>
-      <c r="C63" s="44">
-        <v>2508</v>
-      </c>
-      <c r="D63">
-        <f t="shared" si="19"/>
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="E63" t="s">
         <v>116</v>
       </c>
       <c r="G63">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>12</v>
       </c>
       <c r="H63">
         <v>353709</v>
       </c>
       <c r="K63" s="5" t="str">
+        <f t="shared" si="21"/>
+        <v>1/4/2020</v>
+      </c>
+      <c r="L63" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>1/4/2020,1,4,2020,104,12,Ticino,nn,nnn,353709</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>43923</v>
+      </c>
+      <c r="B64" s="49">
+        <v>141</v>
+      </c>
+      <c r="C64" s="44">
+        <v>2271</v>
+      </c>
+      <c r="D64">
         <f t="shared" si="20"/>
-        <v>5/4/2020</v>
-      </c>
-      <c r="L63" s="3" t="str">
-        <f>K63&amp;$L$1&amp;DAY(A63)&amp;$L$1&amp;MONTH(A63)&amp;$L$1&amp;YEAR(A63)&amp;$L$1&amp;D63&amp;$L$1&amp;G63&amp;$L$1&amp;E63&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H63</f>
-        <v>5/4/2020,5,4,2020,86,12,Ticino,nn,nnn,353709</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
-        <v>43927</v>
-      </c>
-      <c r="B64" s="47">
-        <v>189</v>
-      </c>
-      <c r="C64" s="44">
-        <v>2546</v>
-      </c>
-      <c r="D64">
-        <f t="shared" si="19"/>
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E64" t="s">
         <v>116</v>
       </c>
       <c r="G64">
-        <f t="shared" ref="G64:G65" si="23">B64-B63</f>
-        <v>12</v>
+        <f t="shared" si="23"/>
+        <v>9</v>
       </c>
       <c r="H64">
         <v>353709</v>
       </c>
       <c r="K64" s="5" t="str">
-        <f t="shared" ref="K64" si="24">DAY(A64)&amp;"/"&amp;MONTH(A64)&amp;"/"&amp;YEAR(A64)</f>
-        <v>6/4/2020</v>
+        <f t="shared" si="21"/>
+        <v>2/4/2020</v>
       </c>
       <c r="L64" s="3" t="str">
-        <f t="shared" ref="L64" si="25">K64&amp;$L$1&amp;DAY(A64)&amp;$L$1&amp;MONTH(A64)&amp;$L$1&amp;YEAR(A64)&amp;$L$1&amp;D64&amp;$L$1&amp;G64&amp;$L$1&amp;E64&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H64</f>
-        <v>6/4/2020,6,4,2020,38,12,Ticino,nn,nnn,353709</v>
-      </c>
-      <c r="R64" t="s">
-        <v>117</v>
+        <f t="shared" si="22"/>
+        <v>2/4/2020,2,4,2020,76,9,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="65" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>43928</v>
-      </c>
-      <c r="B65" s="56">
-        <v>198</v>
+        <v>43924</v>
+      </c>
+      <c r="B65" s="49">
+        <v>155</v>
       </c>
       <c r="C65" s="44">
-        <v>2599</v>
+        <v>2377</v>
       </c>
       <c r="D65">
-        <f t="shared" ref="D65" si="26">C65-C64</f>
-        <v>53</v>
+        <f t="shared" si="20"/>
+        <v>106</v>
       </c>
       <c r="E65" t="s">
         <v>116</v>
       </c>
       <c r="G65">
         <f t="shared" si="23"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H65">
         <v>353709</v>
       </c>
       <c r="K65" s="5" t="str">
-        <f t="shared" ref="K65" si="27">DAY(A65)&amp;"/"&amp;MONTH(A65)&amp;"/"&amp;YEAR(A65)</f>
-        <v>7/4/2020</v>
+        <f t="shared" si="21"/>
+        <v>3/4/2020</v>
       </c>
       <c r="L65" s="3" t="str">
-        <f t="shared" ref="L65:L68" si="28">K65&amp;$L$1&amp;DAY(A65)&amp;$L$1&amp;MONTH(A65)&amp;$L$1&amp;YEAR(A65)&amp;$L$1&amp;D65&amp;$L$1&amp;G65&amp;$L$1&amp;E65&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H65</f>
-        <v>7/4/2020,7,4,2020,53,9,Ticino,nn,nnn,353709</v>
+        <f t="shared" si="22"/>
+        <v>3/4/2020,3,4,2020,106,14,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="66" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>43929</v>
-      </c>
-      <c r="B66" s="47">
-        <v>211</v>
+        <v>43925</v>
+      </c>
+      <c r="B66" s="49">
+        <v>165</v>
       </c>
       <c r="C66" s="44">
-        <v>2659</v>
+        <v>2422</v>
       </c>
       <c r="D66">
-        <f t="shared" ref="D66" si="29">C66-C65</f>
-        <v>60</v>
+        <f t="shared" si="20"/>
+        <v>45</v>
       </c>
       <c r="E66" t="s">
         <v>116</v>
       </c>
       <c r="G66">
-        <f t="shared" ref="G66" si="30">B66-B65</f>
-        <v>13</v>
+        <f t="shared" si="23"/>
+        <v>10</v>
       </c>
       <c r="H66">
         <v>353709</v>
       </c>
       <c r="K66" s="5" t="str">
-        <f t="shared" ref="K66" si="31">DAY(A66)&amp;"/"&amp;MONTH(A66)&amp;"/"&amp;YEAR(A66)</f>
-        <v>8/4/2020</v>
+        <f t="shared" si="21"/>
+        <v>4/4/2020</v>
       </c>
       <c r="L66" s="3" t="str">
-        <f t="shared" si="28"/>
-        <v>8/4/2020,8,4,2020,60,13,Ticino,nn,nnn,353709</v>
-      </c>
-      <c r="R66">
-        <f>G66/H66</f>
-        <v>3.6753376363055506E-5</v>
+        <f t="shared" si="22"/>
+        <v>4/4/2020,4,4,2020,45,10,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="67" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>43930</v>
-      </c>
-      <c r="B67" s="47">
-        <v>219</v>
-      </c>
-      <c r="C67" s="52">
-        <v>2714</v>
+        <v>43926</v>
+      </c>
+      <c r="B67" s="49">
+        <v>177</v>
+      </c>
+      <c r="C67" s="44">
+        <v>2508</v>
       </c>
       <c r="D67">
-        <f t="shared" ref="D67" si="32">C67-C66</f>
-        <v>55</v>
+        <f t="shared" si="20"/>
+        <v>86</v>
       </c>
       <c r="E67" t="s">
         <v>116</v>
       </c>
       <c r="G67">
-        <f t="shared" ref="G67" si="33">B67-B66</f>
-        <v>8</v>
+        <f t="shared" si="23"/>
+        <v>12</v>
       </c>
       <c r="H67">
         <v>353709</v>
       </c>
       <c r="K67" s="5" t="str">
-        <f t="shared" ref="K67" si="34">DAY(A67)&amp;"/"&amp;MONTH(A67)&amp;"/"&amp;YEAR(A67)</f>
-        <v>9/4/2020</v>
+        <f t="shared" si="21"/>
+        <v>5/4/2020</v>
       </c>
       <c r="L67" s="3" t="str">
-        <f t="shared" si="28"/>
-        <v>9/4/2020,9,4,2020,55,8,Ticino,nn,nnn,353709</v>
-      </c>
-      <c r="R67">
-        <f t="shared" ref="R67:R68" si="35">G67/H67</f>
-        <v>2.2617462377264928E-5</v>
+        <f>K67&amp;$L$1&amp;DAY(A67)&amp;$L$1&amp;MONTH(A67)&amp;$L$1&amp;YEAR(A67)&amp;$L$1&amp;D67&amp;$L$1&amp;G67&amp;$L$1&amp;E67&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H67</f>
+        <v>5/4/2020,5,4,2020,86,12,Ticino,nn,nnn,353709</v>
       </c>
     </row>
     <row r="68" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>43931</v>
-      </c>
-      <c r="B68" s="54">
-        <v>227</v>
-      </c>
-      <c r="C68" s="57">
-        <v>2776</v>
+        <v>43927</v>
+      </c>
+      <c r="B68" s="49">
+        <v>189</v>
+      </c>
+      <c r="C68" s="44">
+        <v>2546</v>
       </c>
       <c r="D68">
-        <f t="shared" ref="D68" si="36">C68-C67</f>
-        <v>62</v>
+        <f t="shared" si="20"/>
+        <v>38</v>
       </c>
       <c r="E68" t="s">
         <v>116</v>
       </c>
       <c r="G68">
-        <f t="shared" ref="G68" si="37">B68-B67</f>
-        <v>8</v>
+        <f t="shared" ref="G68:G69" si="24">B68-B67</f>
+        <v>12</v>
       </c>
       <c r="H68">
         <v>353709</v>
       </c>
       <c r="K68" s="5" t="str">
-        <f t="shared" ref="K68" si="38">DAY(A68)&amp;"/"&amp;MONTH(A68)&amp;"/"&amp;YEAR(A68)</f>
+        <f t="shared" ref="K68" si="25">DAY(A68)&amp;"/"&amp;MONTH(A68)&amp;"/"&amp;YEAR(A68)</f>
+        <v>6/4/2020</v>
+      </c>
+      <c r="L68" s="3" t="str">
+        <f t="shared" ref="L68" si="26">K68&amp;$L$1&amp;DAY(A68)&amp;$L$1&amp;MONTH(A68)&amp;$L$1&amp;YEAR(A68)&amp;$L$1&amp;D68&amp;$L$1&amp;G68&amp;$L$1&amp;E68&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H68</f>
+        <v>6/4/2020,6,4,2020,38,12,Ticino,nn,nnn,353709</v>
+      </c>
+      <c r="R68" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B69" s="49">
+        <v>198</v>
+      </c>
+      <c r="C69" s="44">
+        <v>2599</v>
+      </c>
+      <c r="D69">
+        <f t="shared" ref="D69" si="27">C69-C68</f>
+        <v>53</v>
+      </c>
+      <c r="E69" t="s">
+        <v>116</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="24"/>
+        <v>9</v>
+      </c>
+      <c r="H69">
+        <v>353709</v>
+      </c>
+      <c r="K69" s="5" t="str">
+        <f t="shared" ref="K69" si="28">DAY(A69)&amp;"/"&amp;MONTH(A69)&amp;"/"&amp;YEAR(A69)</f>
+        <v>7/4/2020</v>
+      </c>
+      <c r="L69" s="3" t="str">
+        <f t="shared" ref="L69:L72" si="29">K69&amp;$L$1&amp;DAY(A69)&amp;$L$1&amp;MONTH(A69)&amp;$L$1&amp;YEAR(A69)&amp;$L$1&amp;D69&amp;$L$1&amp;G69&amp;$L$1&amp;E69&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H69</f>
+        <v>7/4/2020,7,4,2020,53,9,Ticino,nn,nnn,353709</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>43929</v>
+      </c>
+      <c r="B70" s="49">
+        <v>211</v>
+      </c>
+      <c r="C70" s="44">
+        <v>2659</v>
+      </c>
+      <c r="D70">
+        <f t="shared" ref="D70" si="30">C70-C69</f>
+        <v>60</v>
+      </c>
+      <c r="E70" t="s">
+        <v>116</v>
+      </c>
+      <c r="G70">
+        <f t="shared" ref="G70" si="31">B70-B69</f>
+        <v>13</v>
+      </c>
+      <c r="H70">
+        <v>353709</v>
+      </c>
+      <c r="K70" s="5" t="str">
+        <f t="shared" ref="K70" si="32">DAY(A70)&amp;"/"&amp;MONTH(A70)&amp;"/"&amp;YEAR(A70)</f>
+        <v>8/4/2020</v>
+      </c>
+      <c r="L70" s="3" t="str">
+        <f t="shared" si="29"/>
+        <v>8/4/2020,8,4,2020,60,13,Ticino,nn,nnn,353709</v>
+      </c>
+      <c r="R70">
+        <f>G70/H70</f>
+        <v>3.6753376363055506E-5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B71" s="49">
+        <v>219</v>
+      </c>
+      <c r="C71" s="44">
+        <v>2714</v>
+      </c>
+      <c r="D71">
+        <f t="shared" ref="D71" si="33">C71-C70</f>
+        <v>55</v>
+      </c>
+      <c r="E71" t="s">
+        <v>116</v>
+      </c>
+      <c r="G71">
+        <f t="shared" ref="G71" si="34">B71-B70</f>
+        <v>8</v>
+      </c>
+      <c r="H71">
+        <v>353709</v>
+      </c>
+      <c r="K71" s="5" t="str">
+        <f t="shared" ref="K71" si="35">DAY(A71)&amp;"/"&amp;MONTH(A71)&amp;"/"&amp;YEAR(A71)</f>
+        <v>9/4/2020</v>
+      </c>
+      <c r="L71" s="3" t="str">
+        <f t="shared" si="29"/>
+        <v>9/4/2020,9,4,2020,55,8,Ticino,nn,nnn,353709</v>
+      </c>
+      <c r="R71">
+        <f t="shared" ref="R71:R72" si="36">G71/H71</f>
+        <v>2.2617462377264928E-5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>43931</v>
+      </c>
+      <c r="B72" s="49">
+        <v>227</v>
+      </c>
+      <c r="C72" s="44">
+        <v>2776</v>
+      </c>
+      <c r="D72">
+        <f t="shared" ref="D72" si="37">C72-C71</f>
+        <v>62</v>
+      </c>
+      <c r="E72" t="s">
+        <v>116</v>
+      </c>
+      <c r="G72">
+        <f t="shared" ref="G72" si="38">B72-B71</f>
+        <v>8</v>
+      </c>
+      <c r="H72">
+        <v>353709</v>
+      </c>
+      <c r="K72" s="5" t="str">
+        <f t="shared" ref="K72" si="39">DAY(A72)&amp;"/"&amp;MONTH(A72)&amp;"/"&amp;YEAR(A72)</f>
         <v>10/4/2020</v>
       </c>
-      <c r="L68" s="3" t="str">
-        <f t="shared" si="28"/>
+      <c r="L72" s="3" t="str">
+        <f t="shared" si="29"/>
         <v>10/4/2020,10,4,2020,62,8,Ticino,nn,nnn,353709</v>
       </c>
-      <c r="R68">
-        <f t="shared" si="35"/>
+      <c r="R72">
+        <f t="shared" si="36"/>
         <v>2.2617462377264928E-5</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="S69">
-        <f>AVERAGE(R66:R68)*100</f>
+    <row r="73" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>43932</v>
+      </c>
+      <c r="B73" s="49">
+        <v>229</v>
+      </c>
+      <c r="C73" s="44">
+        <v>2818</v>
+      </c>
+      <c r="D73">
+        <f t="shared" ref="D73:D76" si="40">C73-C72</f>
+        <v>42</v>
+      </c>
+      <c r="E73" t="s">
+        <v>116</v>
+      </c>
+      <c r="G73">
+        <f t="shared" ref="G73:G76" si="41">B73-B72</f>
+        <v>2</v>
+      </c>
+      <c r="H73">
+        <v>353709</v>
+      </c>
+      <c r="K73" s="5" t="str">
+        <f t="shared" ref="K73:K76" si="42">DAY(A73)&amp;"/"&amp;MONTH(A73)&amp;"/"&amp;YEAR(A73)</f>
+        <v>11/4/2020</v>
+      </c>
+      <c r="L73" s="3" t="str">
+        <f t="shared" ref="L73:L76" si="43">K73&amp;$L$1&amp;DAY(A73)&amp;$L$1&amp;MONTH(A73)&amp;$L$1&amp;YEAR(A73)&amp;$L$1&amp;D73&amp;$L$1&amp;G73&amp;$L$1&amp;E73&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H73</f>
+        <v>11/4/2020,11,4,2020,42,2,Ticino,nn,nnn,353709</v>
+      </c>
+      <c r="S73">
+        <f>AVERAGE(R70:R72)*100</f>
         <v>2.7329433705861788E-3</v>
       </c>
     </row>
+    <row r="74" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B74" s="49">
+        <v>244</v>
+      </c>
+      <c r="C74" s="44">
+        <v>2869</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="40"/>
+        <v>51</v>
+      </c>
+      <c r="E74" t="s">
+        <v>116</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="41"/>
+        <v>15</v>
+      </c>
+      <c r="H74">
+        <v>353709</v>
+      </c>
+      <c r="K74" s="5" t="str">
+        <f t="shared" si="42"/>
+        <v>12/4/2020</v>
+      </c>
+      <c r="L74" s="3" t="str">
+        <f t="shared" si="43"/>
+        <v>12/4/2020,12,4,2020,51,15,Ticino,nn,nnn,353709</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B75" s="49">
+        <v>251</v>
+      </c>
+      <c r="C75" s="44">
+        <v>2900</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="40"/>
+        <v>31</v>
+      </c>
+      <c r="E75" t="s">
+        <v>116</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="41"/>
+        <v>7</v>
+      </c>
+      <c r="H75">
+        <v>353709</v>
+      </c>
+      <c r="K75" s="5" t="str">
+        <f t="shared" si="42"/>
+        <v>13/4/2020</v>
+      </c>
+      <c r="L75" s="3" t="str">
+        <f t="shared" si="43"/>
+        <v>13/4/2020,13,4,2020,31,7,Ticino,nn,nnn,353709</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B76" s="49">
+        <v>258</v>
+      </c>
+      <c r="C76" s="44">
+        <v>2912</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="40"/>
+        <v>12</v>
+      </c>
+      <c r="E76" t="s">
+        <v>116</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="41"/>
+        <v>7</v>
+      </c>
+      <c r="H76">
+        <v>353709</v>
+      </c>
+      <c r="K76" s="5" t="str">
+        <f t="shared" si="42"/>
+        <v>14/4/2020</v>
+      </c>
+      <c r="L76" s="3" t="str">
+        <f t="shared" si="43"/>
+        <v>14/4/2020,14,4,2020,12,7,Ticino,nn,nnn,353709</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A3:F52">
+  <autoFilter ref="A3:F56">
     <sortState ref="A4:G23">
       <sortCondition ref="E3:E20"/>
     </sortState>
@@ -5204,9 +5451,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BD65"/>
   <sheetViews>
-    <sheetView topLeftCell="AF1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AV24" sqref="AV24"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V45" sqref="V45:V52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12020,7 +12267,7 @@
         <v>569</v>
       </c>
       <c r="L40" s="54">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="M40" s="54">
         <v>422</v>
@@ -12065,10 +12312,10 @@
         <v>131</v>
       </c>
       <c r="AA40" s="54">
-        <v>2323</v>
+        <v>2307</v>
       </c>
       <c r="AB40" s="54">
-        <v>19564</v>
+        <v>19552</v>
       </c>
       <c r="AC40" s="15" t="str">
         <f t="shared" si="9"/>
@@ -12116,7 +12363,7 @@
       </c>
       <c r="AN40" s="3" t="str">
         <f>$AC40&amp;$AC$1&amp;L40&amp;$AC$1&amp;fatalities!L41&amp;$AC$1&amp;L$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;L$2</f>
-        <v>2/4/2020,2,4,2020,145,,JU,nn,nnn,73419</v>
+        <v>2/4/2020,2,4,2020,149,,JU,nn,nnn,73419</v>
       </c>
       <c r="AO40" s="3" t="str">
         <f>$AC40&amp;$AC$1&amp;M40&amp;$AC$1&amp;fatalities!M41&amp;$AC$1&amp;M$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;M$2</f>
@@ -12176,11 +12423,11 @@
       </c>
       <c r="BC40" s="3" t="str">
         <f>$AC40&amp;$AC$1&amp;AA40&amp;$AC$1&amp;fatalities!AA41&amp;$AC$1&amp;AA$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AA$2</f>
-        <v>2/4/2020,2,4,2020,2323,36,ZH,nn,nnn,1520968</v>
+        <v>2/4/2020,2,4,2020,2307,36,ZH,nn,nnn,1520968</v>
       </c>
       <c r="BD40" s="3" t="str">
         <f>$AC40&amp;$AC$1&amp;AB40&amp;$AC$1&amp;fatalities!AB41&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2</f>
-        <v>2/4/2020,2,4,2020,19564,572,CH,nn,nnn,8543707</v>
+        <v>2/4/2020,2,4,2020,19552,572,CH,nn,nnn,8543707</v>
       </c>
     </row>
     <row r="41" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -12263,10 +12510,10 @@
         <v>138</v>
       </c>
       <c r="AA41" s="52">
-        <v>2452</v>
+        <v>2435</v>
       </c>
       <c r="AB41" s="52">
-        <v>20482</v>
+        <v>20465</v>
       </c>
       <c r="AC41" s="15" t="str">
         <f t="shared" si="9"/>
@@ -12374,11 +12621,11 @@
       </c>
       <c r="BC41" s="3" t="str">
         <f>$AC41&amp;$AC$1&amp;AA41&amp;$AC$1&amp;fatalities!AA42&amp;$AC$1&amp;AA$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AA$2</f>
-        <v>3/4/2020,3,4,2020,2452,38,ZH,nn,nnn,1520968</v>
+        <v>3/4/2020,3,4,2020,2435,38,ZH,nn,nnn,1520968</v>
       </c>
       <c r="BD41" s="3" t="str">
         <f>$AC41&amp;$AC$1&amp;AB41&amp;$AC$1&amp;fatalities!AB42&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2</f>
-        <v>3/4/2020,3,4,2020,20482,631,CH,nn,nnn,8543707</v>
+        <v>3/4/2020,3,4,2020,20465,631,CH,nn,nnn,8543707</v>
       </c>
     </row>
     <row r="42" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -12410,7 +12657,7 @@
       <c r="J42" s="54"/>
       <c r="K42" s="54"/>
       <c r="L42" s="54">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M42" s="54">
         <v>469</v>
@@ -12453,10 +12700,10 @@
         <v>146</v>
       </c>
       <c r="AA42" s="54">
-        <v>2492</v>
+        <v>2468</v>
       </c>
       <c r="AB42" s="54">
-        <v>21088</v>
+        <v>21065</v>
       </c>
       <c r="AC42" s="15" t="str">
         <f t="shared" si="9"/>
@@ -12504,7 +12751,7 @@
       </c>
       <c r="AN42" s="3" t="str">
         <f>$AC42&amp;$AC$1&amp;L42&amp;$AC$1&amp;fatalities!L43&amp;$AC$1&amp;L$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;L$2</f>
-        <v>4/4/2020,4,4,2020,153,,JU,nn,nnn,73419</v>
+        <v>4/4/2020,4,4,2020,154,,JU,nn,nnn,73419</v>
       </c>
       <c r="AO42" s="3" t="str">
         <f>$AC42&amp;$AC$1&amp;M42&amp;$AC$1&amp;fatalities!M43&amp;$AC$1&amp;M$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;M$2</f>
@@ -12564,11 +12811,11 @@
       </c>
       <c r="BC42" s="3" t="str">
         <f>$AC42&amp;$AC$1&amp;AA42&amp;$AC$1&amp;fatalities!AA43&amp;$AC$1&amp;AA$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AA$2</f>
-        <v>4/4/2020,4,4,2020,2492,41,ZH,nn,nnn,1520968</v>
+        <v>4/4/2020,4,4,2020,2468,41,ZH,nn,nnn,1520968</v>
       </c>
       <c r="BD42" s="3" t="str">
         <f>$AC42&amp;$AC$1&amp;AB42&amp;$AC$1&amp;fatalities!AB43&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2</f>
-        <v>4/4/2020,4,4,2020,21088,697,CH,nn,nnn,8543707</v>
+        <v>4/4/2020,4,4,2020,21065,697,CH,nn,nnn,8543707</v>
       </c>
     </row>
     <row r="43" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -12600,7 +12847,7 @@
         <v>646</v>
       </c>
       <c r="L43" s="52">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M43" s="52">
         <v>478</v>
@@ -12641,10 +12888,10 @@
       </c>
       <c r="Z43" s="52"/>
       <c r="AA43" s="52">
-        <v>2522</v>
+        <v>2498</v>
       </c>
       <c r="AB43" s="52">
-        <v>21587</v>
+        <v>21567</v>
       </c>
       <c r="AC43" s="15" t="str">
         <f t="shared" si="9"/>
@@ -12692,7 +12939,7 @@
       </c>
       <c r="AN43" s="3" t="str">
         <f>$AC43&amp;$AC$1&amp;L43&amp;$AC$1&amp;fatalities!L44&amp;$AC$1&amp;L$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;L$2</f>
-        <v>5/4/2020,5,4,2020,156,,JU,nn,nnn,73419</v>
+        <v>5/4/2020,5,4,2020,160,,JU,nn,nnn,73419</v>
       </c>
       <c r="AO43" s="3" t="str">
         <f>$AC43&amp;$AC$1&amp;M43&amp;$AC$1&amp;fatalities!M44&amp;$AC$1&amp;M$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;M$2</f>
@@ -12752,11 +12999,11 @@
       </c>
       <c r="BC43" s="3" t="str">
         <f>$AC43&amp;$AC$1&amp;AA43&amp;$AC$1&amp;fatalities!AA44&amp;$AC$1&amp;AA$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AA$2</f>
-        <v>5/4/2020,5,4,2020,2522,45,ZH,nn,nnn,1520968</v>
+        <v>5/4/2020,5,4,2020,2498,45,ZH,nn,nnn,1520968</v>
       </c>
       <c r="BD43" s="3" t="str">
         <f>$AC43&amp;$AC$1&amp;AB43&amp;$AC$1&amp;fatalities!AB44&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2</f>
-        <v>5/4/2020,5,4,2020,21587,746,CH,nn,nnn,8543707</v>
+        <v>5/4/2020,5,4,2020,21567,746,CH,nn,nnn,8543707</v>
       </c>
     </row>
     <row r="44" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -12794,7 +13041,7 @@
         <v>657</v>
       </c>
       <c r="L44" s="54">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="M44" s="54">
         <v>497</v>
@@ -12839,10 +13086,10 @@
         <v>152</v>
       </c>
       <c r="AA44" s="54">
-        <v>2590</v>
+        <v>2612</v>
       </c>
       <c r="AB44" s="54">
-        <v>22165</v>
+        <v>22191</v>
       </c>
       <c r="AC44" s="15" t="str">
         <f t="shared" si="9"/>
@@ -12890,7 +13137,7 @@
       </c>
       <c r="AN44" s="3" t="str">
         <f>$AC44&amp;$AC$1&amp;L44&amp;$AC$1&amp;fatalities!L45&amp;$AC$1&amp;L$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;L$2</f>
-        <v>6/4/2020,6,4,2020,160,,JU,nn,nnn,73419</v>
+        <v>6/4/2020,6,4,2020,164,,JU,nn,nnn,73419</v>
       </c>
       <c r="AO44" s="3" t="str">
         <f>$AC44&amp;$AC$1&amp;M44&amp;$AC$1&amp;fatalities!M45&amp;$AC$1&amp;M$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;M$2</f>
@@ -12950,11 +13197,11 @@
       </c>
       <c r="BC44" s="3" t="str">
         <f>$AC44&amp;$AC$1&amp;AA44&amp;$AC$1&amp;fatalities!AA45&amp;$AC$1&amp;AA$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AA$2</f>
-        <v>6/4/2020,6,4,2020,2590,48,ZH,nn,nnn,1520968</v>
+        <v>6/4/2020,6,4,2020,2612,48,ZH,nn,nnn,1520968</v>
       </c>
       <c r="BD44" s="3" t="str">
         <f>$AC44&amp;$AC$1&amp;AB44&amp;$AC$1&amp;fatalities!AB45&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2</f>
-        <v>6/4/2020,6,4,2020,22165,802,CH,nn,nnn,8543707</v>
+        <v>6/4/2020,6,4,2020,22191,802,CH,nn,nnn,8543707</v>
       </c>
     </row>
     <row r="45" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -12992,7 +13239,7 @@
         <v>668</v>
       </c>
       <c r="L45" s="52">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="M45" s="52">
         <v>509</v>
@@ -13037,10 +13284,10 @@
         <v>157</v>
       </c>
       <c r="AA45" s="52">
-        <v>2719</v>
+        <v>2696</v>
       </c>
       <c r="AB45" s="52">
-        <v>22841</v>
+        <v>22821</v>
       </c>
       <c r="AC45" s="15" t="str">
         <f t="shared" si="9"/>
@@ -13088,7 +13335,7 @@
       </c>
       <c r="AN45" s="3" t="str">
         <f>$AC45&amp;$AC$1&amp;L45&amp;$AC$1&amp;fatalities!L46&amp;$AC$1&amp;L$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;L$2</f>
-        <v>7/4/2020,7,4,2020,168,,JU,nn,nnn,73419</v>
+        <v>7/4/2020,7,4,2020,171,,JU,nn,nnn,73419</v>
       </c>
       <c r="AO45" s="3" t="str">
         <f>$AC45&amp;$AC$1&amp;M45&amp;$AC$1&amp;fatalities!M46&amp;$AC$1&amp;M$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;M$2</f>
@@ -13148,11 +13395,11 @@
       </c>
       <c r="BC45" s="3" t="str">
         <f>$AC45&amp;$AC$1&amp;AA45&amp;$AC$1&amp;fatalities!AA46&amp;$AC$1&amp;AA$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AA$2</f>
-        <v>7/4/2020,7,4,2020,2719,52,ZH,nn,nnn,1520968</v>
+        <v>7/4/2020,7,4,2020,2696,52,ZH,nn,nnn,1520968</v>
       </c>
       <c r="BD45" s="3" t="str">
         <f>$AC45&amp;$AC$1&amp;AB45&amp;$AC$1&amp;fatalities!AB46&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2</f>
-        <v>7/4/2020,7,4,2020,22841,859,CH,nn,nnn,8543707</v>
+        <v>7/4/2020,7,4,2020,22821,859,CH,nn,nnn,8543707</v>
       </c>
     </row>
     <row r="46" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -13235,10 +13482,10 @@
         <v>162</v>
       </c>
       <c r="AA46" s="54">
-        <v>2807</v>
+        <v>2791</v>
       </c>
       <c r="AB46" s="54">
-        <v>23619</v>
+        <v>23603</v>
       </c>
       <c r="AC46" s="15" t="str">
         <f t="shared" ref="AC46" si="10">DAY(A46)&amp;"/"&amp;MONTH(A46)&amp;"/"&amp;YEAR(A46)&amp;$AC$1&amp;DAY(A46)&amp;$AC$1&amp;MONTH(A46)&amp;$AC$1&amp;YEAR(A46)</f>
@@ -13294,7 +13541,7 @@
       </c>
       <c r="AP46" s="3" t="str">
         <f>$AC46&amp;$AC$1&amp;N46&amp;$AC$1&amp;fatalities!N47&amp;$AC$1&amp;N$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;N$2</f>
-        <v>8/4/2020,8,4,2020,516,34,NE,nn,nnn,176850</v>
+        <v>8/4/2020,8,4,2020,516,39,NE,nn,nnn,176850</v>
       </c>
       <c r="AQ46" s="3" t="str">
         <f>$AC46&amp;$AC$1&amp;O46&amp;$AC$1&amp;fatalities!O47&amp;$AC$1&amp;O$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;O$2</f>
@@ -13346,11 +13593,11 @@
       </c>
       <c r="BC46" s="3" t="str">
         <f>$AC46&amp;$AC$1&amp;AA46&amp;$AC$1&amp;fatalities!AA47&amp;$AC$1&amp;AA$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AA$2</f>
-        <v>8/4/2020,8,4,2020,2807,57,ZH,nn,nnn,1520968</v>
+        <v>8/4/2020,8,4,2020,2791,57,ZH,nn,nnn,1520968</v>
       </c>
       <c r="BD46" s="3" t="str">
         <f>$AC46&amp;$AC$1&amp;AB46&amp;$AC$1&amp;fatalities!AB47&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2</f>
-        <v>8/4/2020,8,4,2020,23619,921,CH,nn,nnn,8543707</v>
+        <v>8/4/2020,8,4,2020,23603,926,CH,nn,nnn,8543707</v>
       </c>
     </row>
     <row r="47" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -13433,10 +13680,10 @@
         <v>165</v>
       </c>
       <c r="AA47" s="52">
-        <v>2898</v>
+        <v>2888</v>
       </c>
       <c r="AB47" s="52">
-        <v>24259</v>
+        <v>24249</v>
       </c>
       <c r="AC47" s="15" t="str">
         <f t="shared" ref="AC47" si="11">DAY(A47)&amp;"/"&amp;MONTH(A47)&amp;"/"&amp;YEAR(A47)&amp;$AC$1&amp;DAY(A47)&amp;$AC$1&amp;MONTH(A47)&amp;$AC$1&amp;YEAR(A47)</f>
@@ -13484,7 +13731,7 @@
       </c>
       <c r="AN47" s="3" t="str">
         <f>$AC47&amp;$AC$1&amp;L47&amp;$AC$1&amp;fatalities!L48&amp;$AC$1&amp;L$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;L$2</f>
-        <v>9/4/2020,9,4,2020,179,1,JU,nn,nnn,73419</v>
+        <v>9/4/2020,9,4,2020,179,,JU,nn,nnn,73419</v>
       </c>
       <c r="AO47" s="3" t="str">
         <f>$AC47&amp;$AC$1&amp;M47&amp;$AC$1&amp;fatalities!M48&amp;$AC$1&amp;M$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;M$2</f>
@@ -13492,7 +13739,7 @@
       </c>
       <c r="AP47" s="3" t="str">
         <f>$AC47&amp;$AC$1&amp;N47&amp;$AC$1&amp;fatalities!N48&amp;$AC$1&amp;N$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;N$2</f>
-        <v>9/4/2020,9,4,2020,536,,NE,nn,nnn,176850</v>
+        <v>9/4/2020,9,4,2020,536,40,NE,nn,nnn,176850</v>
       </c>
       <c r="AQ47" s="3" t="str">
         <f>$AC47&amp;$AC$1&amp;O47&amp;$AC$1&amp;fatalities!O48&amp;$AC$1&amp;O$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;O$2</f>
@@ -13544,18 +13791,20 @@
       </c>
       <c r="BC47" s="3" t="str">
         <f>$AC47&amp;$AC$1&amp;AA47&amp;$AC$1&amp;fatalities!AA48&amp;$AC$1&amp;AA$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AA$2</f>
-        <v>9/4/2020,9,4,2020,2898,62,ZH,nn,nnn,1520968</v>
+        <v>9/4/2020,9,4,2020,2888,62,ZH,nn,nnn,1520968</v>
       </c>
       <c r="BD47" s="3" t="str">
         <f>$AC47&amp;$AC$1&amp;AB47&amp;$AC$1&amp;fatalities!AB48&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2</f>
-        <v>9/4/2020,9,4,2020,24259,976,CH,nn,nnn,8543707</v>
+        <v>9/4/2020,9,4,2020,24249,982,CH,nn,nnn,8543707</v>
       </c>
     </row>
     <row r="48" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="53">
         <v>43931</v>
       </c>
-      <c r="B48" s="54"/>
+      <c r="B48" s="54">
+        <v>850</v>
+      </c>
       <c r="C48" s="54"/>
       <c r="D48" s="54">
         <v>77</v>
@@ -13572,16 +13821,22 @@
       <c r="H48" s="54">
         <v>796</v>
       </c>
-      <c r="I48" s="54"/>
+      <c r="I48" s="54">
+        <v>4310</v>
+      </c>
       <c r="J48" s="54"/>
-      <c r="K48" s="54"/>
+      <c r="K48" s="54">
+        <v>715</v>
+      </c>
       <c r="L48" s="54">
         <v>182</v>
       </c>
       <c r="M48" s="54">
         <v>560</v>
       </c>
-      <c r="N48" s="54"/>
+      <c r="N48" s="54">
+        <v>552</v>
+      </c>
       <c r="O48" s="54">
         <v>100</v>
       </c>
@@ -13607,7 +13862,9 @@
       <c r="W48" s="54">
         <v>74</v>
       </c>
-      <c r="X48" s="54"/>
+      <c r="X48" s="54">
+        <v>4524</v>
+      </c>
       <c r="Y48" s="54">
         <v>1565</v>
       </c>
@@ -13615,10 +13872,10 @@
         <v>168</v>
       </c>
       <c r="AA48" s="54">
-        <v>2929</v>
+        <v>2928</v>
       </c>
       <c r="AB48" s="54">
-        <v>24551</v>
+        <v>24744</v>
       </c>
       <c r="AC48" s="15" t="str">
         <f t="shared" ref="AC48" si="12">DAY(A48)&amp;"/"&amp;MONTH(A48)&amp;"/"&amp;YEAR(A48)&amp;$AC$1&amp;DAY(A48)&amp;$AC$1&amp;MONTH(A48)&amp;$AC$1&amp;YEAR(A48)</f>
@@ -13626,7 +13883,7 @@
       </c>
       <c r="AD48" s="3" t="str">
         <f>$AC48&amp;$AC$1&amp;B48&amp;$AC$1&amp;fatalities!B49&amp;$AC$1&amp;B$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;B$2</f>
-        <v>10/4/2020,10,4,2020,,,AG,nn,nnn,677387</v>
+        <v>10/4/2020,10,4,2020,850,18,AG,nn,nnn,677387</v>
       </c>
       <c r="AE48" s="3" t="str">
         <f>$AC48&amp;$AC$1&amp;C48&amp;$AC$1&amp;fatalities!C49&amp;$AC$1&amp;C$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;C$2</f>
@@ -13654,7 +13911,7 @@
       </c>
       <c r="AK48" s="3" t="str">
         <f>$AC48&amp;$AC$1&amp;I48&amp;$AC$1&amp;fatalities!I49&amp;$AC$1&amp;I$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;I$2</f>
-        <v>10/4/2020,10,4,2020,,,GE,nn,nnn,499480</v>
+        <v>10/4/2020,10,4,2020,4310,144,GE,nn,nnn,499480</v>
       </c>
       <c r="AL48" s="3" t="str">
         <f>$AC48&amp;$AC$1&amp;J48&amp;$AC$1&amp;fatalities!J49&amp;$AC$1&amp;J$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;J$2</f>
@@ -13662,7 +13919,7 @@
       </c>
       <c r="AM48" s="3" t="str">
         <f>$AC48&amp;$AC$1&amp;K48&amp;$AC$1&amp;fatalities!K49&amp;$AC$1&amp;K$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;K$2</f>
-        <v>10/4/2020,10,4,2020,,,GR,nn,nnn,198379</v>
+        <v>10/4/2020,10,4,2020,715,35,GR,nn,nnn,198379</v>
       </c>
       <c r="AN48" s="3" t="str">
         <f>$AC48&amp;$AC$1&amp;L48&amp;$AC$1&amp;fatalities!L49&amp;$AC$1&amp;L$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;L$2</f>
@@ -13674,7 +13931,7 @@
       </c>
       <c r="AP48" s="3" t="str">
         <f>$AC48&amp;$AC$1&amp;N48&amp;$AC$1&amp;fatalities!N49&amp;$AC$1&amp;N$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;N$2</f>
-        <v>10/4/2020,10,4,2020,,,NE,nn,nnn,176850</v>
+        <v>10/4/2020,10,4,2020,552,40,NE,nn,nnn,176850</v>
       </c>
       <c r="AQ48" s="3" t="str">
         <f>$AC48&amp;$AC$1&amp;O48&amp;$AC$1&amp;fatalities!O49&amp;$AC$1&amp;O$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;O$2</f>
@@ -13714,7 +13971,7 @@
       </c>
       <c r="AZ48" s="3" t="str">
         <f>$AC48&amp;$AC$1&amp;X48&amp;$AC$1&amp;fatalities!X49&amp;$AC$1&amp;X$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;X$2</f>
-        <v>10/4/2020,10,4,2020,,,VD,nn,nnn,799145</v>
+        <v>10/4/2020,10,4,2020,4524,224,VD,nn,nnn,799145</v>
       </c>
       <c r="BA48" s="3" t="str">
         <f>$AC48&amp;$AC$1&amp;Y48&amp;$AC$1&amp;fatalities!Y49&amp;$AC$1&amp;Y$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Y$2</f>
@@ -13726,448 +13983,1096 @@
       </c>
       <c r="BC48" s="3" t="str">
         <f>$AC48&amp;$AC$1&amp;AA48&amp;$AC$1&amp;fatalities!AA49&amp;$AC$1&amp;AA$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AA$2</f>
-        <v>10/4/2020,10,4,2020,2929,64,ZH,nn,nnn,1520968</v>
+        <v>10/4/2020,10,4,2020,2928,64,ZH,nn,nnn,1520968</v>
       </c>
       <c r="BD48" s="3" t="str">
         <f>$AC48&amp;$AC$1&amp;AB48&amp;$AC$1&amp;fatalities!AB49&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2</f>
-        <v>10/4/2020,10,4,2020,24551,999,CH,nn,nnn,8543707</v>
-      </c>
-    </row>
-    <row r="49" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="53"/>
-      <c r="C49" s="54"/>
-      <c r="D49" s="54"/>
-      <c r="E49" s="54"/>
-      <c r="F49" s="54"/>
-      <c r="G49" s="54"/>
-      <c r="H49" s="54"/>
-      <c r="I49" s="54"/>
-      <c r="J49" s="54"/>
-      <c r="K49" s="54"/>
-      <c r="L49" s="54"/>
-      <c r="M49" s="54"/>
-      <c r="N49" s="54"/>
-      <c r="O49" s="54"/>
-      <c r="P49" s="54"/>
-      <c r="Q49" s="54"/>
-      <c r="R49" s="54"/>
-      <c r="S49" s="54"/>
-      <c r="T49" s="54"/>
-      <c r="U49" s="54"/>
-      <c r="V49" s="44"/>
-      <c r="W49" s="54"/>
-      <c r="X49" s="54"/>
-      <c r="Y49" s="54"/>
-      <c r="Z49" s="54"/>
-      <c r="AA49" s="54"/>
-      <c r="AB49" s="54"/>
-      <c r="AC49" s="54"/>
-      <c r="AD49" s="10"/>
-    </row>
-    <row r="50" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="55"/>
-      <c r="B50" s="51"/>
-      <c r="C50" s="52"/>
-      <c r="D50" s="52"/>
-      <c r="E50" s="52"/>
-      <c r="F50" s="52"/>
-      <c r="G50" s="52"/>
-      <c r="H50" s="52"/>
-      <c r="I50" s="52"/>
-      <c r="J50" s="52"/>
-      <c r="K50" s="52"/>
-      <c r="L50" s="52"/>
-      <c r="M50" s="52"/>
-      <c r="N50" s="52"/>
-      <c r="O50" s="52"/>
-      <c r="P50" s="52"/>
-      <c r="Q50" s="52"/>
-      <c r="R50" s="52"/>
-      <c r="S50" s="52"/>
-      <c r="T50" s="52"/>
-      <c r="U50" s="52"/>
-      <c r="V50" s="44"/>
-      <c r="W50" s="52"/>
-      <c r="X50" s="52"/>
-      <c r="Y50" s="52"/>
-      <c r="Z50" s="52"/>
-      <c r="AA50" s="52"/>
-      <c r="AB50" s="52"/>
-      <c r="AC50" s="52"/>
-    </row>
-    <row r="51" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="55"/>
-      <c r="B51" s="53"/>
-      <c r="C51" s="54"/>
-      <c r="D51" s="54"/>
-      <c r="E51" s="54"/>
-      <c r="F51" s="54"/>
-      <c r="G51" s="54"/>
-      <c r="H51" s="54"/>
-      <c r="I51" s="54"/>
-      <c r="J51" s="54"/>
-      <c r="K51" s="54"/>
-      <c r="L51" s="54"/>
-      <c r="M51" s="54"/>
-      <c r="N51" s="54"/>
-      <c r="O51" s="54"/>
-      <c r="P51" s="54"/>
-      <c r="Q51" s="54"/>
-      <c r="R51" s="54"/>
-      <c r="S51" s="54"/>
-      <c r="T51" s="54"/>
-      <c r="U51" s="54"/>
-      <c r="V51" s="44"/>
-      <c r="W51" s="54"/>
-      <c r="X51" s="54"/>
-      <c r="Y51" s="54"/>
-      <c r="Z51" s="54"/>
-      <c r="AA51" s="54"/>
-      <c r="AB51" s="54"/>
-      <c r="AC51" s="54"/>
-    </row>
-    <row r="52" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="55"/>
-      <c r="B52" s="51"/>
-      <c r="C52" s="52"/>
-      <c r="D52" s="52"/>
-      <c r="E52" s="52"/>
-      <c r="F52" s="52"/>
-      <c r="G52" s="52"/>
-      <c r="H52" s="52"/>
-      <c r="I52" s="52"/>
-      <c r="J52" s="52"/>
-      <c r="K52" s="52"/>
-      <c r="L52" s="52"/>
-      <c r="M52" s="52"/>
-      <c r="N52" s="52"/>
-      <c r="O52" s="52"/>
-      <c r="P52" s="52"/>
-      <c r="Q52" s="52"/>
-      <c r="R52" s="52"/>
-      <c r="S52" s="52"/>
-      <c r="T52" s="52"/>
-      <c r="U52" s="52"/>
-      <c r="V52" s="44"/>
-      <c r="W52" s="52"/>
-      <c r="X52" s="52"/>
-      <c r="Y52" s="52"/>
-      <c r="Z52" s="52"/>
-      <c r="AA52" s="52"/>
-      <c r="AB52" s="52"/>
-      <c r="AC52" s="52"/>
-    </row>
-    <row r="53" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>10/4/2020,10,4,2020,24744,1037,CH,nn,nnn,8543707</v>
+      </c>
+    </row>
+    <row r="49" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="51">
+        <v>43932</v>
+      </c>
+      <c r="B49" s="52">
+        <v>878</v>
+      </c>
+      <c r="C49" s="52">
+        <v>24</v>
+      </c>
+      <c r="D49" s="52">
+        <v>77</v>
+      </c>
+      <c r="E49" s="52">
+        <v>1419</v>
+      </c>
+      <c r="F49" s="52">
+        <v>736</v>
+      </c>
+      <c r="G49" s="52">
+        <v>866</v>
+      </c>
+      <c r="H49" s="52">
+        <v>834</v>
+      </c>
+      <c r="I49" s="52">
+        <v>4357</v>
+      </c>
+      <c r="J49" s="52">
+        <v>91</v>
+      </c>
+      <c r="K49" s="52">
+        <v>728</v>
+      </c>
+      <c r="L49" s="52">
+        <v>183</v>
+      </c>
+      <c r="M49" s="52">
+        <v>568</v>
+      </c>
+      <c r="N49" s="52">
+        <v>579</v>
+      </c>
+      <c r="O49" s="52">
+        <v>103</v>
+      </c>
+      <c r="P49" s="52"/>
+      <c r="Q49" s="52">
+        <v>641</v>
+      </c>
+      <c r="R49" s="52">
+        <v>55</v>
+      </c>
+      <c r="S49" s="52">
+        <v>306</v>
+      </c>
+      <c r="T49" s="52">
+        <v>249</v>
+      </c>
+      <c r="U49" s="52">
+        <v>274</v>
+      </c>
+      <c r="V49" s="44">
+        <v>2818</v>
+      </c>
+      <c r="W49" s="52">
+        <v>75</v>
+      </c>
+      <c r="X49" s="52">
+        <v>4560</v>
+      </c>
+      <c r="Y49" s="52">
+        <v>1592</v>
+      </c>
+      <c r="Z49" s="52">
+        <v>168</v>
+      </c>
+      <c r="AA49" s="52">
+        <v>2986</v>
+      </c>
+      <c r="AB49" s="52">
+        <v>25229</v>
+      </c>
+      <c r="AC49" s="15" t="str">
+        <f t="shared" ref="AC49:AC52" si="13">DAY(A49)&amp;"/"&amp;MONTH(A49)&amp;"/"&amp;YEAR(A49)&amp;$AC$1&amp;DAY(A49)&amp;$AC$1&amp;MONTH(A49)&amp;$AC$1&amp;YEAR(A49)</f>
+        <v>11/4/2020,11,4,2020</v>
+      </c>
+      <c r="AD49" s="3" t="str">
+        <f>$AC49&amp;$AC$1&amp;B49&amp;$AC$1&amp;fatalities!B50&amp;$AC$1&amp;B$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;B$2</f>
+        <v>11/4/2020,11,4,2020,878,18,AG,nn,nnn,677387</v>
+      </c>
+      <c r="AE49" s="3" t="str">
+        <f>$AC49&amp;$AC$1&amp;C49&amp;$AC$1&amp;fatalities!C50&amp;$AC$1&amp;C$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;C$2</f>
+        <v>11/4/2020,11,4,2020,24,,AI,nn,nnn,16145</v>
+      </c>
+      <c r="AF49" s="3" t="str">
+        <f>$AC49&amp;$AC$1&amp;D49&amp;$AC$1&amp;fatalities!D50&amp;$AC$1&amp;D$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;D$2</f>
+        <v>11/4/2020,11,4,2020,77,3,AR,nn,nnn,55234</v>
+      </c>
+      <c r="AG49" s="3" t="str">
+        <f>$AC49&amp;$AC$1&amp;E49&amp;$AC$1&amp;fatalities!E50&amp;$AC$1&amp;E$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;E$2</f>
+        <v>11/4/2020,11,4,2020,1419,44,BE,nn,nnn,1034977</v>
+      </c>
+      <c r="AH49" s="3" t="str">
+        <f>$AC49&amp;$AC$1&amp;F49&amp;$AC$1&amp;fatalities!F50&amp;$AC$1&amp;F$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;F$2</f>
+        <v>11/4/2020,11,4,2020,736,22,BL,nn,nnn,288132</v>
+      </c>
+      <c r="AI49" s="3" t="str">
+        <f>$AC49&amp;$AC$1&amp;G49&amp;$AC$1&amp;fatalities!G50&amp;$AC$1&amp;G$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;G$2</f>
+        <v>11/4/2020,11,4,2020,866,33,BS,nn,nnn,194766</v>
+      </c>
+      <c r="AJ49" s="3" t="str">
+        <f>$AC49&amp;$AC$1&amp;H49&amp;$AC$1&amp;fatalities!H50&amp;$AC$1&amp;H$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;H$2</f>
+        <v>11/4/2020,11,4,2020,834,53,FR,nn,nnn,318714</v>
+      </c>
+      <c r="AK49" s="3" t="str">
+        <f>$AC49&amp;$AC$1&amp;I49&amp;$AC$1&amp;fatalities!I50&amp;$AC$1&amp;I$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;I$2</f>
+        <v>11/4/2020,11,4,2020,4357,154,GE,nn,nnn,499480</v>
+      </c>
+      <c r="AL49" s="3" t="str">
+        <f>$AC49&amp;$AC$1&amp;J49&amp;$AC$1&amp;fatalities!J50&amp;$AC$1&amp;J$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;J$2</f>
+        <v>11/4/2020,11,4,2020,91,2,GL,nn,nnn,40403</v>
+      </c>
+      <c r="AM49" s="3" t="str">
+        <f>$AC49&amp;$AC$1&amp;K49&amp;$AC$1&amp;fatalities!K50&amp;$AC$1&amp;K$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;K$2</f>
+        <v>11/4/2020,11,4,2020,728,35,GR,nn,nnn,198379</v>
+      </c>
+      <c r="AN49" s="3" t="str">
+        <f>$AC49&amp;$AC$1&amp;L49&amp;$AC$1&amp;fatalities!L50&amp;$AC$1&amp;L$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;L$2</f>
+        <v>11/4/2020,11,4,2020,183,,JU,nn,nnn,73419</v>
+      </c>
+      <c r="AO49" s="3" t="str">
+        <f>$AC49&amp;$AC$1&amp;M49&amp;$AC$1&amp;fatalities!M50&amp;$AC$1&amp;M$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;M$2</f>
+        <v>11/4/2020,11,4,2020,568,10,LU,nn,nnn,409557</v>
+      </c>
+      <c r="AP49" s="3" t="str">
+        <f>$AC49&amp;$AC$1&amp;N49&amp;$AC$1&amp;fatalities!N50&amp;$AC$1&amp;N$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;N$2</f>
+        <v>11/4/2020,11,4,2020,579,42,NE,nn,nnn,176850</v>
+      </c>
+      <c r="AQ49" s="3" t="str">
+        <f>$AC49&amp;$AC$1&amp;O49&amp;$AC$1&amp;fatalities!O50&amp;$AC$1&amp;O$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;O$2</f>
+        <v>11/4/2020,11,4,2020,103,0,NW,nn,nnn,43223</v>
+      </c>
+      <c r="AR49" s="3" t="str">
+        <f>$AC49&amp;$AC$1&amp;P49&amp;$AC$1&amp;fatalities!P50&amp;$AC$1&amp;P$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;P$2</f>
+        <v>11/4/2020,11,4,2020,,,OW,nn,nnn,37841</v>
+      </c>
+      <c r="AS49" s="3" t="str">
+        <f>$AC49&amp;$AC$1&amp;Q49&amp;$AC$1&amp;fatalities!Q50&amp;$AC$1&amp;Q$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Q$2</f>
+        <v>11/4/2020,11,4,2020,641,18,SG,nn,nnn,507697</v>
+      </c>
+      <c r="AT49" s="3" t="str">
+        <f>$AC49&amp;$AC$1&amp;R49&amp;$AC$1&amp;fatalities!R50&amp;$AC$1&amp;R$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;R$2</f>
+        <v>11/4/2020,11,4,2020,55,1,SH,nn,nnn,81991</v>
+      </c>
+      <c r="AU49" s="3" t="str">
+        <f>$AC49&amp;$AC$1&amp;S49&amp;$AC$1&amp;fatalities!S50&amp;$AC$1&amp;S$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;S$2</f>
+        <v>11/4/2020,11,4,2020,306,6,SO,nn,nnn,273194</v>
+      </c>
+      <c r="AV49" s="3" t="str">
+        <f>$AC49&amp;$AC$1&amp;T49&amp;$AC$1&amp;fatalities!T50&amp;$AC$1&amp;T$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;T$2</f>
+        <v>11/4/2020,11,4,2020,249,10,SZ,nn,nnn,159165</v>
+      </c>
+      <c r="AW49" s="3" t="str">
+        <f>$AC49&amp;$AC$1&amp;U49&amp;$AC$1&amp;fatalities!U50&amp;$AC$1&amp;U$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;U$2</f>
+        <v>11/4/2020,11,4,2020,274,8,TG,nn,nnn,276472</v>
+      </c>
+      <c r="AX49" s="3" t="str">
+        <f>$AC49&amp;$AC$1&amp;V49&amp;$AC$1&amp;fatalities!V50&amp;$AC$1&amp;V$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;V$2</f>
+        <v>11/4/2020,11,4,2020,2818,229,TI,nn,nnn,353343</v>
+      </c>
+      <c r="AY49" s="3" t="str">
+        <f>$AC49&amp;$AC$1&amp;W49&amp;$AC$1&amp;fatalities!W50&amp;$AC$1&amp;W$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;W$2</f>
+        <v>11/4/2020,11,4,2020,75,4,UR,nn,nnn,36433</v>
+      </c>
+      <c r="AZ49" s="3" t="str">
+        <f>$AC49&amp;$AC$1&amp;X49&amp;$AC$1&amp;fatalities!X50&amp;$AC$1&amp;X$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;X$2</f>
+        <v>11/4/2020,11,4,2020,4560,228,VD,nn,nnn,799145</v>
+      </c>
+      <c r="BA49" s="3" t="str">
+        <f>$AC49&amp;$AC$1&amp;Y49&amp;$AC$1&amp;fatalities!Y50&amp;$AC$1&amp;Y$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Y$2</f>
+        <v>11/4/2020,11,4,2020,1592,82,VS,nn,nnn,343955</v>
+      </c>
+      <c r="BB49" s="3" t="str">
+        <f>$AC49&amp;$AC$1&amp;Z49&amp;$AC$1&amp;fatalities!Z50&amp;$AC$1&amp;Z$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Z$2</f>
+        <v>11/4/2020,11,4,2020,168,4,ZG,nn,nnn,126837</v>
+      </c>
+      <c r="BC49" s="3" t="str">
+        <f>$AC49&amp;$AC$1&amp;AA49&amp;$AC$1&amp;fatalities!AA50&amp;$AC$1&amp;AA$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AA$2</f>
+        <v>11/4/2020,11,4,2020,2986,66,ZH,nn,nnn,1520968</v>
+      </c>
+      <c r="BD49" s="3" t="str">
+        <f>$AC49&amp;$AC$1&amp;AB49&amp;$AC$1&amp;fatalities!AB50&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2</f>
+        <v>11/4/2020,11,4,2020,25229,1074,CH,nn,nnn,8543707</v>
+      </c>
+    </row>
+    <row r="50" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="53">
+        <v>43933</v>
+      </c>
+      <c r="B50" s="54">
+        <v>899</v>
+      </c>
+      <c r="C50" s="54"/>
+      <c r="D50" s="54"/>
+      <c r="E50" s="54">
+        <v>1441</v>
+      </c>
+      <c r="F50" s="54">
+        <v>740</v>
+      </c>
+      <c r="G50" s="54">
+        <v>882</v>
+      </c>
+      <c r="H50" s="54">
+        <v>846</v>
+      </c>
+      <c r="I50" s="54">
+        <v>4371</v>
+      </c>
+      <c r="J50" s="54"/>
+      <c r="K50" s="54">
+        <v>732</v>
+      </c>
+      <c r="L50" s="54">
+        <v>183</v>
+      </c>
+      <c r="M50" s="54">
+        <v>576</v>
+      </c>
+      <c r="N50" s="54">
+        <v>589</v>
+      </c>
+      <c r="O50" s="54">
+        <v>104</v>
+      </c>
+      <c r="P50" s="54"/>
+      <c r="Q50" s="54">
+        <v>649</v>
+      </c>
+      <c r="R50" s="54">
+        <v>57</v>
+      </c>
+      <c r="S50" s="54">
+        <v>315</v>
+      </c>
+      <c r="T50" s="54">
+        <v>251</v>
+      </c>
+      <c r="U50" s="54">
+        <v>285</v>
+      </c>
+      <c r="V50" s="44">
+        <v>2869</v>
+      </c>
+      <c r="W50" s="54">
+        <v>77</v>
+      </c>
+      <c r="X50" s="54">
+        <v>4649</v>
+      </c>
+      <c r="Y50" s="54">
+        <v>1616</v>
+      </c>
+      <c r="Z50" s="54">
+        <v>168</v>
+      </c>
+      <c r="AA50" s="54">
+        <v>3003</v>
+      </c>
+      <c r="AB50" s="54">
+        <v>25556</v>
+      </c>
+      <c r="AC50" s="15" t="str">
+        <f t="shared" si="13"/>
+        <v>12/4/2020,12,4,2020</v>
+      </c>
+      <c r="AD50" s="3" t="str">
+        <f>$AC50&amp;$AC$1&amp;B50&amp;$AC$1&amp;fatalities!C51&amp;$AC$1&amp;B$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;B$2</f>
+        <v>12/4/2020,12,4,2020,899,,AG,nn,nnn,677387</v>
+      </c>
+      <c r="AE50" s="3" t="str">
+        <f>$AC50&amp;$AC$1&amp;C50&amp;$AC$1&amp;fatalities!D51&amp;$AC$1&amp;C$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;C$2</f>
+        <v>12/4/2020,12,4,2020,,,AI,nn,nnn,16145</v>
+      </c>
+      <c r="AF50" s="3" t="str">
+        <f>$AC50&amp;$AC$1&amp;D50&amp;$AC$1&amp;fatalities!E51&amp;$AC$1&amp;D$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;D$2</f>
+        <v>12/4/2020,12,4,2020,,49,AR,nn,nnn,55234</v>
+      </c>
+      <c r="AG50" s="3" t="str">
+        <f>$AC50&amp;$AC$1&amp;E50&amp;$AC$1&amp;fatalities!F51&amp;$AC$1&amp;E$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;E$2</f>
+        <v>12/4/2020,12,4,2020,1441,23,BE,nn,nnn,1034977</v>
+      </c>
+      <c r="AH50" s="3" t="str">
+        <f>$AC50&amp;$AC$1&amp;F50&amp;$AC$1&amp;fatalities!G51&amp;$AC$1&amp;F$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;F$2</f>
+        <v>12/4/2020,12,4,2020,740,33,BL,nn,nnn,288132</v>
+      </c>
+      <c r="AI50" s="3" t="str">
+        <f>$AC50&amp;$AC$1&amp;G50&amp;$AC$1&amp;fatalities!H51&amp;$AC$1&amp;G$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;G$2</f>
+        <v>12/4/2020,12,4,2020,882,54,BS,nn,nnn,194766</v>
+      </c>
+      <c r="AJ50" s="3" t="str">
+        <f>$AC50&amp;$AC$1&amp;H50&amp;$AC$1&amp;fatalities!I51&amp;$AC$1&amp;H$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;H$2</f>
+        <v>12/4/2020,12,4,2020,846,160,FR,nn,nnn,318714</v>
+      </c>
+      <c r="AK50" s="3" t="str">
+        <f>$AC50&amp;$AC$1&amp;I50&amp;$AC$1&amp;fatalities!J51&amp;$AC$1&amp;I$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;I$2</f>
+        <v>12/4/2020,12,4,2020,4371,,GE,nn,nnn,499480</v>
+      </c>
+      <c r="AL50" s="3" t="str">
+        <f>$AC50&amp;$AC$1&amp;J50&amp;$AC$1&amp;fatalities!K51&amp;$AC$1&amp;J$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;J$2</f>
+        <v>12/4/2020,12,4,2020,,35,GL,nn,nnn,40403</v>
+      </c>
+      <c r="AM50" s="3" t="str">
+        <f>$AC50&amp;$AC$1&amp;K50&amp;$AC$1&amp;fatalities!L51&amp;$AC$1&amp;K$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;K$2</f>
+        <v>12/4/2020,12,4,2020,732,,GR,nn,nnn,198379</v>
+      </c>
+      <c r="AN50" s="3" t="str">
+        <f>$AC50&amp;$AC$1&amp;L50&amp;$AC$1&amp;fatalities!M51&amp;$AC$1&amp;L$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;L$2</f>
+        <v>12/4/2020,12,4,2020,183,10,JU,nn,nnn,73419</v>
+      </c>
+      <c r="AO50" s="3" t="str">
+        <f>$AC50&amp;$AC$1&amp;M50&amp;$AC$1&amp;fatalities!N51&amp;$AC$1&amp;M$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;M$2</f>
+        <v>12/4/2020,12,4,2020,576,43,LU,nn,nnn,409557</v>
+      </c>
+      <c r="AP50" s="3" t="str">
+        <f>$AC50&amp;$AC$1&amp;N50&amp;$AC$1&amp;fatalities!O51&amp;$AC$1&amp;N$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;N$2</f>
+        <v>12/4/2020,12,4,2020,589,0,NE,nn,nnn,176850</v>
+      </c>
+      <c r="AQ50" s="3" t="str">
+        <f>$AC50&amp;$AC$1&amp;O50&amp;$AC$1&amp;fatalities!P51&amp;$AC$1&amp;O$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;O$2</f>
+        <v>12/4/2020,12,4,2020,104,,NW,nn,nnn,43223</v>
+      </c>
+      <c r="AR50" s="3" t="str">
+        <f>$AC50&amp;$AC$1&amp;P50&amp;$AC$1&amp;fatalities!Q51&amp;$AC$1&amp;P$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;P$2</f>
+        <v>12/4/2020,12,4,2020,,21,OW,nn,nnn,37841</v>
+      </c>
+      <c r="AS50" s="3" t="str">
+        <f>$AC50&amp;$AC$1&amp;Q50&amp;$AC$1&amp;fatalities!R51&amp;$AC$1&amp;Q$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Q$2</f>
+        <v>12/4/2020,12,4,2020,649,1,SG,nn,nnn,507697</v>
+      </c>
+      <c r="AT50" s="3" t="str">
+        <f>$AC50&amp;$AC$1&amp;R50&amp;$AC$1&amp;fatalities!S51&amp;$AC$1&amp;R$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;R$2</f>
+        <v>12/4/2020,12,4,2020,57,7,SH,nn,nnn,81991</v>
+      </c>
+      <c r="AU50" s="3" t="str">
+        <f>$AC50&amp;$AC$1&amp;S50&amp;$AC$1&amp;fatalities!T51&amp;$AC$1&amp;S$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;S$2</f>
+        <v>12/4/2020,12,4,2020,315,11,SO,nn,nnn,273194</v>
+      </c>
+      <c r="AV50" s="3" t="str">
+        <f>$AC50&amp;$AC$1&amp;T50&amp;$AC$1&amp;fatalities!U51&amp;$AC$1&amp;T$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;T$2</f>
+        <v>12/4/2020,12,4,2020,251,8,SZ,nn,nnn,159165</v>
+      </c>
+      <c r="AW50" s="3" t="str">
+        <f>$AC50&amp;$AC$1&amp;U50&amp;$AC$1&amp;fatalities!V51&amp;$AC$1&amp;U$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;U$2</f>
+        <v>12/4/2020,12,4,2020,285,244,TG,nn,nnn,276472</v>
+      </c>
+      <c r="AX50" s="3" t="str">
+        <f>$AC50&amp;$AC$1&amp;V50&amp;$AC$1&amp;fatalities!W51&amp;$AC$1&amp;V$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;V$2</f>
+        <v>12/4/2020,12,4,2020,2869,4,TI,nn,nnn,353343</v>
+      </c>
+      <c r="AY50" s="3" t="str">
+        <f>$AC50&amp;$AC$1&amp;W50&amp;$AC$1&amp;fatalities!X51&amp;$AC$1&amp;W$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;W$2</f>
+        <v>12/4/2020,12,4,2020,77,233,UR,nn,nnn,36433</v>
+      </c>
+      <c r="AZ50" s="3" t="str">
+        <f>$AC50&amp;$AC$1&amp;X50&amp;$AC$1&amp;fatalities!Y51&amp;$AC$1&amp;X$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;X$2</f>
+        <v>12/4/2020,12,4,2020,4649,86,VD,nn,nnn,799145</v>
+      </c>
+      <c r="BA50" s="3" t="str">
+        <f>$AC50&amp;$AC$1&amp;Y50&amp;$AC$1&amp;fatalities!Z51&amp;$AC$1&amp;Y$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Y$2</f>
+        <v>12/4/2020,12,4,2020,1616,5,VS,nn,nnn,343955</v>
+      </c>
+      <c r="BB50" s="3" t="str">
+        <f>$AC50&amp;$AC$1&amp;Z50&amp;$AC$1&amp;fatalities!AA51&amp;$AC$1&amp;Z$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Z$2</f>
+        <v>12/4/2020,12,4,2020,168,70,ZG,nn,nnn,126837</v>
+      </c>
+      <c r="BC50" s="3" t="str">
+        <f>$AC50&amp;$AC$1&amp;AA50&amp;$AC$1&amp;fatalities!AB51&amp;$AC$1&amp;AA$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AA$2</f>
+        <v>12/4/2020,12,4,2020,3003,1122,ZH,nn,nnn,1520968</v>
+      </c>
+      <c r="BD50" s="3" t="str">
+        <f>$AC50&amp;$AC$1&amp;AB50&amp;$AC$1&amp;fatalities!AC51&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2</f>
+        <v>12/4/2020,12,4,2020,25556,,CH,nn,nnn,8543707</v>
+      </c>
+    </row>
+    <row r="51" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="51">
+        <v>43934</v>
+      </c>
+      <c r="B51" s="52">
+        <v>906</v>
+      </c>
+      <c r="C51" s="52">
+        <v>24</v>
+      </c>
+      <c r="D51" s="52">
+        <v>78</v>
+      </c>
+      <c r="E51" s="52">
+        <v>1456</v>
+      </c>
+      <c r="F51" s="52">
+        <v>749</v>
+      </c>
+      <c r="G51" s="52">
+        <v>893</v>
+      </c>
+      <c r="H51" s="52">
+        <v>859</v>
+      </c>
+      <c r="I51" s="52">
+        <v>4390</v>
+      </c>
+      <c r="J51" s="52">
+        <v>92</v>
+      </c>
+      <c r="K51" s="52">
+        <v>735</v>
+      </c>
+      <c r="L51" s="52">
+        <v>184</v>
+      </c>
+      <c r="M51" s="52">
+        <v>580</v>
+      </c>
+      <c r="N51" s="52">
+        <v>590</v>
+      </c>
+      <c r="O51" s="52">
+        <v>104</v>
+      </c>
+      <c r="P51" s="52"/>
+      <c r="Q51" s="52">
+        <v>657</v>
+      </c>
+      <c r="R51" s="52">
+        <v>57</v>
+      </c>
+      <c r="S51" s="52">
+        <v>321</v>
+      </c>
+      <c r="T51" s="52">
+        <v>251</v>
+      </c>
+      <c r="U51" s="52">
+        <v>292</v>
+      </c>
+      <c r="V51" s="44">
+        <v>2900</v>
+      </c>
+      <c r="W51" s="52">
+        <v>78</v>
+      </c>
+      <c r="X51" s="52">
+        <v>4684</v>
+      </c>
+      <c r="Y51" s="52">
+        <v>1642</v>
+      </c>
+      <c r="Z51" s="52">
+        <v>170</v>
+      </c>
+      <c r="AA51" s="52">
+        <v>3021</v>
+      </c>
+      <c r="AB51" s="52">
+        <v>25775</v>
+      </c>
+      <c r="AC51" s="15" t="str">
+        <f t="shared" si="13"/>
+        <v>13/4/2020,13,4,2020</v>
+      </c>
+      <c r="AD51" s="3" t="str">
+        <f>$AC51&amp;$AC$1&amp;B51&amp;$AC$1&amp;fatalities!B52&amp;$AC$1&amp;B$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;B$2</f>
+        <v>13/4/2020,13,4,2020,906,19,AG,nn,nnn,677387</v>
+      </c>
+      <c r="AE51" s="3" t="str">
+        <f>$AC51&amp;$AC$1&amp;C51&amp;$AC$1&amp;fatalities!C52&amp;$AC$1&amp;C$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;C$2</f>
+        <v>13/4/2020,13,4,2020,24,,AI,nn,nnn,16145</v>
+      </c>
+      <c r="AF51" s="3" t="str">
+        <f>$AC51&amp;$AC$1&amp;D51&amp;$AC$1&amp;fatalities!D52&amp;$AC$1&amp;D$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;D$2</f>
+        <v>13/4/2020,13,4,2020,78,3,AR,nn,nnn,55234</v>
+      </c>
+      <c r="AG51" s="3" t="str">
+        <f>$AC51&amp;$AC$1&amp;E51&amp;$AC$1&amp;fatalities!E52&amp;$AC$1&amp;E$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;E$2</f>
+        <v>13/4/2020,13,4,2020,1456,49,BE,nn,nnn,1034977</v>
+      </c>
+      <c r="AH51" s="3" t="str">
+        <f>$AC51&amp;$AC$1&amp;F51&amp;$AC$1&amp;fatalities!F52&amp;$AC$1&amp;F$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;F$2</f>
+        <v>13/4/2020,13,4,2020,749,24,BL,nn,nnn,288132</v>
+      </c>
+      <c r="AI51" s="3" t="str">
+        <f>$AC51&amp;$AC$1&amp;G51&amp;$AC$1&amp;fatalities!G52&amp;$AC$1&amp;G$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;G$2</f>
+        <v>13/4/2020,13,4,2020,893,34,BS,nn,nnn,194766</v>
+      </c>
+      <c r="AJ51" s="3" t="str">
+        <f>$AC51&amp;$AC$1&amp;H51&amp;$AC$1&amp;fatalities!H52&amp;$AC$1&amp;H$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;H$2</f>
+        <v>13/4/2020,13,4,2020,859,55,FR,nn,nnn,318714</v>
+      </c>
+      <c r="AK51" s="3" t="str">
+        <f>$AC51&amp;$AC$1&amp;I51&amp;$AC$1&amp;fatalities!I52&amp;$AC$1&amp;I$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;I$2</f>
+        <v>13/4/2020,13,4,2020,4390,167,GE,nn,nnn,499480</v>
+      </c>
+      <c r="AL51" s="3" t="str">
+        <f>$AC51&amp;$AC$1&amp;J51&amp;$AC$1&amp;fatalities!J52&amp;$AC$1&amp;J$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;J$2</f>
+        <v>13/4/2020,13,4,2020,92,2,GL,nn,nnn,40403</v>
+      </c>
+      <c r="AM51" s="3" t="str">
+        <f>$AC51&amp;$AC$1&amp;K51&amp;$AC$1&amp;fatalities!K52&amp;$AC$1&amp;K$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;K$2</f>
+        <v>13/4/2020,13,4,2020,735,35,GR,nn,nnn,198379</v>
+      </c>
+      <c r="AN51" s="3" t="str">
+        <f>$AC51&amp;$AC$1&amp;L51&amp;$AC$1&amp;fatalities!L52&amp;$AC$1&amp;L$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;L$2</f>
+        <v>13/4/2020,13,4,2020,184,,JU,nn,nnn,73419</v>
+      </c>
+      <c r="AO51" s="3" t="str">
+        <f>$AC51&amp;$AC$1&amp;M51&amp;$AC$1&amp;fatalities!M52&amp;$AC$1&amp;M$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;M$2</f>
+        <v>13/4/2020,13,4,2020,580,10,LU,nn,nnn,409557</v>
+      </c>
+      <c r="AP51" s="3" t="str">
+        <f>$AC51&amp;$AC$1&amp;N51&amp;$AC$1&amp;fatalities!N52&amp;$AC$1&amp;N$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;N$2</f>
+        <v>13/4/2020,13,4,2020,590,44,NE,nn,nnn,176850</v>
+      </c>
+      <c r="AQ51" s="3" t="str">
+        <f>$AC51&amp;$AC$1&amp;O51&amp;$AC$1&amp;fatalities!O52&amp;$AC$1&amp;O$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;O$2</f>
+        <v>13/4/2020,13,4,2020,104,1,NW,nn,nnn,43223</v>
+      </c>
+      <c r="AR51" s="3" t="str">
+        <f>$AC51&amp;$AC$1&amp;P51&amp;$AC$1&amp;fatalities!P52&amp;$AC$1&amp;P$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;P$2</f>
+        <v>13/4/2020,13,4,2020,,,OW,nn,nnn,37841</v>
+      </c>
+      <c r="AS51" s="3" t="str">
+        <f>$AC51&amp;$AC$1&amp;Q51&amp;$AC$1&amp;fatalities!Q52&amp;$AC$1&amp;Q$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Q$2</f>
+        <v>13/4/2020,13,4,2020,657,21,SG,nn,nnn,507697</v>
+      </c>
+      <c r="AT51" s="3" t="str">
+        <f>$AC51&amp;$AC$1&amp;R51&amp;$AC$1&amp;fatalities!R52&amp;$AC$1&amp;R$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;R$2</f>
+        <v>13/4/2020,13,4,2020,57,1,SH,nn,nnn,81991</v>
+      </c>
+      <c r="AU51" s="3" t="str">
+        <f>$AC51&amp;$AC$1&amp;S51&amp;$AC$1&amp;fatalities!S52&amp;$AC$1&amp;S$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;S$2</f>
+        <v>13/4/2020,13,4,2020,321,7,SO,nn,nnn,273194</v>
+      </c>
+      <c r="AV51" s="3" t="str">
+        <f>$AC51&amp;$AC$1&amp;T51&amp;$AC$1&amp;fatalities!T52&amp;$AC$1&amp;T$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;T$2</f>
+        <v>13/4/2020,13,4,2020,251,12,SZ,nn,nnn,159165</v>
+      </c>
+      <c r="AW51" s="3" t="str">
+        <f>$AC51&amp;$AC$1&amp;U51&amp;$AC$1&amp;fatalities!U52&amp;$AC$1&amp;U$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;U$2</f>
+        <v>13/4/2020,13,4,2020,292,8,TG,nn,nnn,276472</v>
+      </c>
+      <c r="AX51" s="3" t="str">
+        <f>$AC51&amp;$AC$1&amp;V51&amp;$AC$1&amp;fatalities!V52&amp;$AC$1&amp;V$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;V$2</f>
+        <v>13/4/2020,13,4,2020,2900,251,TI,nn,nnn,353343</v>
+      </c>
+      <c r="AY51" s="3" t="str">
+        <f>$AC51&amp;$AC$1&amp;W51&amp;$AC$1&amp;fatalities!W52&amp;$AC$1&amp;W$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;W$2</f>
+        <v>13/4/2020,13,4,2020,78,4,UR,nn,nnn,36433</v>
+      </c>
+      <c r="AZ51" s="3" t="str">
+        <f>$AC51&amp;$AC$1&amp;X51&amp;$AC$1&amp;fatalities!X52&amp;$AC$1&amp;X$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;X$2</f>
+        <v>13/4/2020,13,4,2020,4684,237,VD,nn,nnn,799145</v>
+      </c>
+      <c r="BA51" s="3" t="str">
+        <f>$AC51&amp;$AC$1&amp;Y51&amp;$AC$1&amp;fatalities!Y52&amp;$AC$1&amp;Y$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Y$2</f>
+        <v>13/4/2020,13,4,2020,1642,88,VS,nn,nnn,343955</v>
+      </c>
+      <c r="BB51" s="3" t="str">
+        <f>$AC51&amp;$AC$1&amp;Z51&amp;$AC$1&amp;fatalities!Z52&amp;$AC$1&amp;Z$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Z$2</f>
+        <v>13/4/2020,13,4,2020,170,5,ZG,nn,nnn,126837</v>
+      </c>
+      <c r="BC51" s="3" t="str">
+        <f>$AC51&amp;$AC$1&amp;AA51&amp;$AC$1&amp;fatalities!AA52&amp;$AC$1&amp;AA$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AA$2</f>
+        <v>13/4/2020,13,4,2020,3021,76,ZH,nn,nnn,1520968</v>
+      </c>
+      <c r="BD51" s="3" t="str">
+        <f>$AC51&amp;$AC$1&amp;AB51&amp;$AC$1&amp;fatalities!AB52&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2</f>
+        <v>13/4/2020,13,4,2020,25775,1155,CH,nn,nnn,8543707</v>
+      </c>
+    </row>
+    <row r="52" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="53">
+        <v>43935</v>
+      </c>
+      <c r="B52" s="54">
+        <v>912</v>
+      </c>
+      <c r="C52" s="54">
+        <v>24</v>
+      </c>
+      <c r="D52" s="54">
+        <v>79</v>
+      </c>
+      <c r="E52" s="54">
+        <v>1470</v>
+      </c>
+      <c r="F52" s="54">
+        <v>755</v>
+      </c>
+      <c r="G52" s="54">
+        <v>899</v>
+      </c>
+      <c r="H52" s="54">
+        <v>879</v>
+      </c>
+      <c r="I52" s="54"/>
+      <c r="J52" s="54">
+        <v>105</v>
+      </c>
+      <c r="K52" s="54"/>
+      <c r="L52" s="54">
+        <v>185</v>
+      </c>
+      <c r="M52" s="54">
+        <v>589</v>
+      </c>
+      <c r="N52" s="54"/>
+      <c r="O52" s="54">
+        <v>105</v>
+      </c>
+      <c r="P52" s="54">
+        <v>64</v>
+      </c>
+      <c r="Q52" s="54">
+        <v>664</v>
+      </c>
+      <c r="R52" s="54">
+        <v>57</v>
+      </c>
+      <c r="S52" s="54">
+        <v>325</v>
+      </c>
+      <c r="T52" s="54">
+        <v>258</v>
+      </c>
+      <c r="U52" s="54">
+        <v>296</v>
+      </c>
+      <c r="V52" s="44">
+        <v>2912</v>
+      </c>
+      <c r="W52" s="54">
+        <v>78</v>
+      </c>
+      <c r="X52" s="54"/>
+      <c r="Y52" s="54">
+        <v>1664</v>
+      </c>
+      <c r="Z52" s="54">
+        <v>171</v>
+      </c>
+      <c r="AA52" s="54">
+        <v>3067</v>
+      </c>
+      <c r="AB52" s="54">
+        <v>25957</v>
+      </c>
+      <c r="AC52" s="15" t="str">
+        <f t="shared" si="13"/>
+        <v>14/4/2020,14,4,2020</v>
+      </c>
+      <c r="AD52" s="3" t="str">
+        <f>$AC52&amp;$AC$1&amp;B52&amp;$AC$1&amp;fatalities!B53&amp;$AC$1&amp;B$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;B$2</f>
+        <v>14/4/2020,14,4,2020,912,19,AG,nn,nnn,677387</v>
+      </c>
+      <c r="AE52" s="3" t="str">
+        <f>$AC52&amp;$AC$1&amp;C52&amp;$AC$1&amp;fatalities!C53&amp;$AC$1&amp;C$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;C$2</f>
+        <v>14/4/2020,14,4,2020,24,,AI,nn,nnn,16145</v>
+      </c>
+      <c r="AF52" s="3" t="str">
+        <f>$AC52&amp;$AC$1&amp;D52&amp;$AC$1&amp;fatalities!D53&amp;$AC$1&amp;D$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;D$2</f>
+        <v>14/4/2020,14,4,2020,79,3,AR,nn,nnn,55234</v>
+      </c>
+      <c r="AG52" s="3" t="str">
+        <f>$AC52&amp;$AC$1&amp;E52&amp;$AC$1&amp;fatalities!E53&amp;$AC$1&amp;E$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;E$2</f>
+        <v>14/4/2020,14,4,2020,1470,49,BE,nn,nnn,1034977</v>
+      </c>
+      <c r="AH52" s="3" t="str">
+        <f>$AC52&amp;$AC$1&amp;F52&amp;$AC$1&amp;fatalities!F53&amp;$AC$1&amp;F$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;F$2</f>
+        <v>14/4/2020,14,4,2020,755,25,BL,nn,nnn,288132</v>
+      </c>
+      <c r="AI52" s="3" t="str">
+        <f>$AC52&amp;$AC$1&amp;G52&amp;$AC$1&amp;fatalities!G53&amp;$AC$1&amp;G$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;G$2</f>
+        <v>14/4/2020,14,4,2020,899,34,BS,nn,nnn,194766</v>
+      </c>
+      <c r="AJ52" s="3" t="str">
+        <f>$AC52&amp;$AC$1&amp;H52&amp;$AC$1&amp;fatalities!H53&amp;$AC$1&amp;H$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;H$2</f>
+        <v>14/4/2020,14,4,2020,879,57,FR,nn,nnn,318714</v>
+      </c>
+      <c r="AK52" s="3" t="str">
+        <f>$AC52&amp;$AC$1&amp;I52&amp;$AC$1&amp;fatalities!I53&amp;$AC$1&amp;I$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;I$2</f>
+        <v>14/4/2020,14,4,2020,,,GE,nn,nnn,499480</v>
+      </c>
+      <c r="AL52" s="3" t="str">
+        <f>$AC52&amp;$AC$1&amp;J52&amp;$AC$1&amp;fatalities!J53&amp;$AC$1&amp;J$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;J$2</f>
+        <v>14/4/2020,14,4,2020,105,2,GL,nn,nnn,40403</v>
+      </c>
+      <c r="AM52" s="3" t="str">
+        <f>$AC52&amp;$AC$1&amp;K52&amp;$AC$1&amp;fatalities!K53&amp;$AC$1&amp;K$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;K$2</f>
+        <v>14/4/2020,14,4,2020,,,GR,nn,nnn,198379</v>
+      </c>
+      <c r="AN52" s="3" t="str">
+        <f>$AC52&amp;$AC$1&amp;L52&amp;$AC$1&amp;fatalities!L53&amp;$AC$1&amp;L$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;L$2</f>
+        <v>14/4/2020,14,4,2020,185,,JU,nn,nnn,73419</v>
+      </c>
+      <c r="AO52" s="3" t="str">
+        <f>$AC52&amp;$AC$1&amp;M52&amp;$AC$1&amp;fatalities!M53&amp;$AC$1&amp;M$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;M$2</f>
+        <v>14/4/2020,14,4,2020,589,11,LU,nn,nnn,409557</v>
+      </c>
+      <c r="AP52" s="3" t="str">
+        <f>$AC52&amp;$AC$1&amp;N52&amp;$AC$1&amp;fatalities!N53&amp;$AC$1&amp;N$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;N$2</f>
+        <v>14/4/2020,14,4,2020,,45,NE,nn,nnn,176850</v>
+      </c>
+      <c r="AQ52" s="3" t="str">
+        <f>$AC52&amp;$AC$1&amp;O52&amp;$AC$1&amp;fatalities!O53&amp;$AC$1&amp;O$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;O$2</f>
+        <v>14/4/2020,14,4,2020,105,1,NW,nn,nnn,43223</v>
+      </c>
+      <c r="AR52" s="3" t="str">
+        <f>$AC52&amp;$AC$1&amp;P52&amp;$AC$1&amp;fatalities!P53&amp;$AC$1&amp;P$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;P$2</f>
+        <v>14/4/2020,14,4,2020,64,0,OW,nn,nnn,37841</v>
+      </c>
+      <c r="AS52" s="3" t="str">
+        <f>$AC52&amp;$AC$1&amp;Q52&amp;$AC$1&amp;fatalities!Q53&amp;$AC$1&amp;Q$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Q$2</f>
+        <v>14/4/2020,14,4,2020,664,21,SG,nn,nnn,507697</v>
+      </c>
+      <c r="AT52" s="3" t="str">
+        <f>$AC52&amp;$AC$1&amp;R52&amp;$AC$1&amp;fatalities!R53&amp;$AC$1&amp;R$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;R$2</f>
+        <v>14/4/2020,14,4,2020,57,1,SH,nn,nnn,81991</v>
+      </c>
+      <c r="AU52" s="3" t="str">
+        <f>$AC52&amp;$AC$1&amp;S52&amp;$AC$1&amp;fatalities!S53&amp;$AC$1&amp;S$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;S$2</f>
+        <v>14/4/2020,14,4,2020,325,8,SO,nn,nnn,273194</v>
+      </c>
+      <c r="AV52" s="3" t="str">
+        <f>$AC52&amp;$AC$1&amp;T52&amp;$AC$1&amp;fatalities!T53&amp;$AC$1&amp;T$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;T$2</f>
+        <v>14/4/2020,14,4,2020,258,13,SZ,nn,nnn,159165</v>
+      </c>
+      <c r="AW52" s="3" t="str">
+        <f>$AC52&amp;$AC$1&amp;U52&amp;$AC$1&amp;fatalities!U53&amp;$AC$1&amp;U$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;U$2</f>
+        <v>14/4/2020,14,4,2020,296,10,TG,nn,nnn,276472</v>
+      </c>
+      <c r="AX52" s="3" t="str">
+        <f>$AC52&amp;$AC$1&amp;V52&amp;$AC$1&amp;fatalities!V53&amp;$AC$1&amp;V$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;V$2</f>
+        <v>14/4/2020,14,4,2020,2912,258,TI,nn,nnn,353343</v>
+      </c>
+      <c r="AY52" s="3" t="str">
+        <f>$AC52&amp;$AC$1&amp;W52&amp;$AC$1&amp;fatalities!W53&amp;$AC$1&amp;W$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;W$2</f>
+        <v>14/4/2020,14,4,2020,78,4,UR,nn,nnn,36433</v>
+      </c>
+      <c r="AZ52" s="3" t="str">
+        <f>$AC52&amp;$AC$1&amp;X52&amp;$AC$1&amp;fatalities!X53&amp;$AC$1&amp;X$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;X$2</f>
+        <v>14/4/2020,14,4,2020,,,VD,nn,nnn,799145</v>
+      </c>
+      <c r="BA52" s="3" t="str">
+        <f>$AC52&amp;$AC$1&amp;Y52&amp;$AC$1&amp;fatalities!Y53&amp;$AC$1&amp;Y$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Y$2</f>
+        <v>14/4/2020,14,4,2020,1664,90,VS,nn,nnn,343955</v>
+      </c>
+      <c r="BB52" s="3" t="str">
+        <f>$AC52&amp;$AC$1&amp;Z52&amp;$AC$1&amp;fatalities!Z53&amp;$AC$1&amp;Z$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Z$2</f>
+        <v>14/4/2020,14,4,2020,171,5,ZG,nn,nnn,126837</v>
+      </c>
+      <c r="BC52" s="3" t="str">
+        <f>$AC52&amp;$AC$1&amp;AA52&amp;$AC$1&amp;fatalities!AA53&amp;$AC$1&amp;AA$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AA$2</f>
+        <v>14/4/2020,14,4,2020,3067,78,ZH,nn,nnn,1520968</v>
+      </c>
+      <c r="BD52" s="3" t="str">
+        <f>$AC52&amp;$AC$1&amp;AB52&amp;$AC$1&amp;fatalities!AB53&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2</f>
+        <v>14/4/2020,14,4,2020,25957,1175,CH,nn,nnn,8543707</v>
+      </c>
+    </row>
+    <row r="53" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="55"/>
-      <c r="B53" s="53"/>
-      <c r="C53" s="54"/>
-      <c r="D53" s="54"/>
-      <c r="E53" s="54"/>
-      <c r="F53" s="54"/>
-      <c r="G53" s="54"/>
-      <c r="H53" s="54"/>
-      <c r="I53" s="54"/>
-      <c r="J53" s="54"/>
-      <c r="K53" s="54"/>
-      <c r="L53" s="54"/>
-      <c r="M53" s="54"/>
-      <c r="N53" s="54"/>
-      <c r="O53" s="54"/>
-      <c r="P53" s="54"/>
-      <c r="Q53" s="54"/>
-      <c r="R53" s="54"/>
-      <c r="S53" s="54"/>
-      <c r="T53" s="54"/>
-      <c r="U53" s="54"/>
-      <c r="V53" s="44"/>
-      <c r="W53" s="54"/>
-      <c r="X53" s="54"/>
-      <c r="Y53" s="54"/>
-      <c r="Z53" s="54"/>
-      <c r="AA53" s="54"/>
-      <c r="AB53" s="54"/>
-      <c r="AC53" s="54"/>
-    </row>
-    <row r="54" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="51"/>
+      <c r="C53" s="52"/>
+      <c r="D53" s="52"/>
+      <c r="E53" s="52"/>
+      <c r="F53" s="52"/>
+      <c r="G53" s="52"/>
+      <c r="H53" s="52"/>
+      <c r="I53" s="52"/>
+      <c r="J53" s="52"/>
+      <c r="K53" s="52"/>
+      <c r="L53" s="52"/>
+      <c r="M53" s="52"/>
+      <c r="N53" s="52"/>
+      <c r="O53" s="52"/>
+      <c r="P53" s="52"/>
+      <c r="Q53" s="52"/>
+      <c r="R53" s="52"/>
+      <c r="S53" s="52"/>
+      <c r="T53" s="52"/>
+      <c r="U53" s="52"/>
+      <c r="V53" s="52"/>
+      <c r="W53" s="52"/>
+      <c r="X53" s="52"/>
+      <c r="Y53" s="52"/>
+      <c r="Z53" s="52"/>
+      <c r="AA53" s="52"/>
+      <c r="AB53" s="52"/>
+      <c r="AC53" s="52"/>
+    </row>
+    <row r="54" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="55"/>
-      <c r="B54" s="51"/>
-      <c r="C54" s="52"/>
-      <c r="D54" s="52"/>
-      <c r="E54" s="52"/>
-      <c r="F54" s="52"/>
-      <c r="G54" s="52"/>
-      <c r="H54" s="52"/>
-      <c r="I54" s="52"/>
-      <c r="J54" s="52"/>
-      <c r="K54" s="52"/>
-      <c r="L54" s="52"/>
-      <c r="M54" s="52"/>
-      <c r="N54" s="52"/>
-      <c r="O54" s="52"/>
-      <c r="P54" s="52"/>
-      <c r="Q54" s="52"/>
-      <c r="R54" s="52"/>
-      <c r="S54" s="52"/>
-      <c r="T54" s="52"/>
-      <c r="U54" s="52"/>
-      <c r="V54" s="44"/>
-      <c r="W54" s="52"/>
-      <c r="X54" s="52"/>
-      <c r="Y54" s="52"/>
-      <c r="Z54" s="52"/>
-      <c r="AA54" s="52"/>
-      <c r="AB54" s="52"/>
-      <c r="AC54" s="52"/>
-    </row>
-    <row r="55" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="53"/>
+      <c r="C54" s="54"/>
+      <c r="D54" s="54"/>
+      <c r="E54" s="54"/>
+      <c r="F54" s="54"/>
+      <c r="G54" s="54"/>
+      <c r="H54" s="54"/>
+      <c r="I54" s="54"/>
+      <c r="J54" s="54"/>
+      <c r="K54" s="54"/>
+      <c r="L54" s="54"/>
+      <c r="M54" s="54"/>
+      <c r="N54" s="54"/>
+      <c r="O54" s="54"/>
+      <c r="P54" s="54"/>
+      <c r="Q54" s="54"/>
+      <c r="R54" s="54"/>
+      <c r="S54" s="54"/>
+      <c r="T54" s="54"/>
+      <c r="U54" s="54"/>
+      <c r="V54" s="54"/>
+      <c r="W54" s="54"/>
+      <c r="X54" s="54"/>
+      <c r="Y54" s="54"/>
+      <c r="Z54" s="54"/>
+      <c r="AA54" s="54"/>
+      <c r="AB54" s="54"/>
+      <c r="AC54" s="54"/>
+    </row>
+    <row r="55" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="55"/>
-      <c r="B55" s="53"/>
-      <c r="C55" s="54"/>
-      <c r="D55" s="54"/>
-      <c r="E55" s="54"/>
-      <c r="F55" s="54"/>
-      <c r="G55" s="54"/>
-      <c r="H55" s="54"/>
-      <c r="I55" s="54"/>
-      <c r="J55" s="54"/>
-      <c r="K55" s="54"/>
-      <c r="L55" s="54"/>
-      <c r="M55" s="54"/>
-      <c r="N55" s="54"/>
-      <c r="O55" s="54"/>
-      <c r="P55" s="54"/>
-      <c r="Q55" s="54"/>
-      <c r="R55" s="54"/>
-      <c r="S55" s="54"/>
-      <c r="T55" s="54"/>
-      <c r="U55" s="54"/>
-      <c r="V55" s="44"/>
-      <c r="W55" s="54"/>
-      <c r="X55" s="54"/>
-      <c r="Y55" s="54"/>
-      <c r="Z55" s="54"/>
-      <c r="AA55" s="54"/>
-      <c r="AB55" s="54"/>
-      <c r="AC55" s="54"/>
-    </row>
-    <row r="56" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="51"/>
+      <c r="C55" s="52"/>
+      <c r="D55" s="52"/>
+      <c r="E55" s="52"/>
+      <c r="F55" s="52"/>
+      <c r="G55" s="52"/>
+      <c r="H55" s="52"/>
+      <c r="I55" s="52"/>
+      <c r="J55" s="52"/>
+      <c r="K55" s="52"/>
+      <c r="L55" s="52"/>
+      <c r="M55" s="52"/>
+      <c r="N55" s="52"/>
+      <c r="O55" s="52"/>
+      <c r="P55" s="52"/>
+      <c r="Q55" s="52"/>
+      <c r="R55" s="52"/>
+      <c r="S55" s="52"/>
+      <c r="T55" s="52"/>
+      <c r="U55" s="52"/>
+      <c r="V55" s="52"/>
+      <c r="W55" s="52"/>
+      <c r="X55" s="52"/>
+      <c r="Y55" s="52"/>
+      <c r="Z55" s="52"/>
+      <c r="AA55" s="52"/>
+      <c r="AB55" s="52"/>
+      <c r="AC55" s="52"/>
+    </row>
+    <row r="56" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="55"/>
-      <c r="B56" s="51"/>
-      <c r="C56" s="52"/>
-      <c r="D56" s="52"/>
-      <c r="E56" s="52"/>
-      <c r="F56" s="52"/>
-      <c r="G56" s="52"/>
-      <c r="H56" s="52"/>
-      <c r="I56" s="52"/>
-      <c r="J56" s="52"/>
-      <c r="K56" s="52"/>
-      <c r="L56" s="52"/>
-      <c r="M56" s="52"/>
-      <c r="N56" s="52"/>
-      <c r="O56" s="52"/>
-      <c r="P56" s="52"/>
-      <c r="Q56" s="52"/>
-      <c r="R56" s="52"/>
-      <c r="S56" s="52"/>
-      <c r="T56" s="52"/>
-      <c r="U56" s="52"/>
-      <c r="V56" s="44"/>
-      <c r="W56" s="52"/>
-      <c r="X56" s="52"/>
-      <c r="Y56" s="52"/>
-      <c r="Z56" s="52"/>
-      <c r="AA56" s="52"/>
-      <c r="AB56" s="52"/>
-      <c r="AC56" s="52"/>
-    </row>
-    <row r="57" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="53"/>
+      <c r="C56" s="54"/>
+      <c r="D56" s="54"/>
+      <c r="E56" s="54"/>
+      <c r="F56" s="54"/>
+      <c r="G56" s="54"/>
+      <c r="H56" s="54"/>
+      <c r="I56" s="54"/>
+      <c r="J56" s="54"/>
+      <c r="K56" s="54"/>
+      <c r="L56" s="54"/>
+      <c r="M56" s="54"/>
+      <c r="N56" s="54"/>
+      <c r="O56" s="54"/>
+      <c r="P56" s="54"/>
+      <c r="Q56" s="54"/>
+      <c r="R56" s="54"/>
+      <c r="S56" s="54"/>
+      <c r="T56" s="54"/>
+      <c r="U56" s="54"/>
+      <c r="V56" s="54"/>
+      <c r="W56" s="54"/>
+      <c r="X56" s="54"/>
+      <c r="Y56" s="54"/>
+      <c r="Z56" s="54"/>
+      <c r="AA56" s="54"/>
+      <c r="AB56" s="54"/>
+      <c r="AC56" s="54"/>
+    </row>
+    <row r="57" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="55"/>
-      <c r="B57" s="53"/>
-      <c r="C57" s="54"/>
-      <c r="D57" s="54"/>
-      <c r="E57" s="54"/>
-      <c r="F57" s="54"/>
-      <c r="G57" s="54"/>
-      <c r="H57" s="54"/>
-      <c r="I57" s="54"/>
-      <c r="J57" s="54"/>
-      <c r="K57" s="54"/>
-      <c r="L57" s="54"/>
-      <c r="M57" s="54"/>
-      <c r="N57" s="54"/>
-      <c r="O57" s="54"/>
-      <c r="P57" s="54"/>
-      <c r="Q57" s="54"/>
-      <c r="R57" s="54"/>
-      <c r="S57" s="54"/>
-      <c r="T57" s="54"/>
-      <c r="U57" s="54"/>
-      <c r="V57" s="44"/>
-      <c r="W57" s="54"/>
-      <c r="X57" s="54"/>
-      <c r="Y57" s="54"/>
-      <c r="Z57" s="54"/>
-      <c r="AA57" s="54"/>
-      <c r="AB57" s="54"/>
-      <c r="AC57" s="54"/>
-    </row>
-    <row r="58" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="51"/>
+      <c r="C57" s="52"/>
+      <c r="D57" s="52"/>
+      <c r="E57" s="52"/>
+      <c r="F57" s="52"/>
+      <c r="G57" s="52"/>
+      <c r="H57" s="52"/>
+      <c r="I57" s="52"/>
+      <c r="J57" s="52"/>
+      <c r="K57" s="52"/>
+      <c r="L57" s="52"/>
+      <c r="M57" s="52"/>
+      <c r="N57" s="52"/>
+      <c r="O57" s="52"/>
+      <c r="P57" s="52"/>
+      <c r="Q57" s="52"/>
+      <c r="R57" s="52"/>
+      <c r="S57" s="52"/>
+      <c r="T57" s="52"/>
+      <c r="U57" s="52"/>
+      <c r="V57" s="52"/>
+      <c r="W57" s="52"/>
+      <c r="X57" s="52"/>
+      <c r="Y57" s="52"/>
+      <c r="Z57" s="52"/>
+      <c r="AA57" s="52"/>
+      <c r="AB57" s="52"/>
+      <c r="AC57" s="52"/>
+    </row>
+    <row r="58" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="55"/>
-      <c r="B58" s="51"/>
-      <c r="C58" s="52"/>
-      <c r="D58" s="52"/>
-      <c r="E58" s="52"/>
-      <c r="F58" s="52"/>
-      <c r="G58" s="52"/>
-      <c r="H58" s="52"/>
-      <c r="I58" s="52"/>
-      <c r="J58" s="52"/>
-      <c r="K58" s="52"/>
-      <c r="L58" s="52"/>
-      <c r="M58" s="52"/>
-      <c r="N58" s="52"/>
-      <c r="O58" s="52"/>
-      <c r="P58" s="52"/>
-      <c r="Q58" s="52"/>
-      <c r="R58" s="52"/>
-      <c r="S58" s="52"/>
-      <c r="T58" s="52"/>
-      <c r="U58" s="52"/>
-      <c r="V58" s="44"/>
-      <c r="W58" s="52"/>
-      <c r="X58" s="52"/>
-      <c r="Y58" s="52"/>
-      <c r="Z58" s="52"/>
-      <c r="AA58" s="52"/>
-      <c r="AB58" s="52"/>
-      <c r="AC58" s="52"/>
-    </row>
-    <row r="59" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="53"/>
+      <c r="C58" s="54"/>
+      <c r="D58" s="54"/>
+      <c r="E58" s="54"/>
+      <c r="F58" s="54"/>
+      <c r="G58" s="54"/>
+      <c r="H58" s="54"/>
+      <c r="I58" s="54"/>
+      <c r="J58" s="54"/>
+      <c r="K58" s="54"/>
+      <c r="L58" s="54"/>
+      <c r="M58" s="54"/>
+      <c r="N58" s="54"/>
+      <c r="O58" s="54"/>
+      <c r="P58" s="54"/>
+      <c r="Q58" s="54"/>
+      <c r="R58" s="54"/>
+      <c r="S58" s="54"/>
+      <c r="T58" s="54"/>
+      <c r="U58" s="54"/>
+      <c r="V58" s="54"/>
+      <c r="W58" s="54"/>
+      <c r="X58" s="54"/>
+      <c r="Y58" s="54"/>
+      <c r="Z58" s="54"/>
+      <c r="AA58" s="54"/>
+      <c r="AB58" s="54"/>
+      <c r="AC58" s="54"/>
+    </row>
+    <row r="59" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="55"/>
-      <c r="B59" s="53"/>
-      <c r="C59" s="54"/>
-      <c r="D59" s="54"/>
-      <c r="E59" s="54"/>
-      <c r="F59" s="54"/>
-      <c r="G59" s="54"/>
-      <c r="H59" s="54"/>
-      <c r="I59" s="54"/>
-      <c r="J59" s="54"/>
-      <c r="K59" s="54"/>
-      <c r="L59" s="54"/>
-      <c r="M59" s="54"/>
-      <c r="N59" s="54"/>
-      <c r="O59" s="54"/>
-      <c r="P59" s="54"/>
-      <c r="Q59" s="54"/>
-      <c r="R59" s="54"/>
-      <c r="S59" s="54"/>
-      <c r="T59" s="54"/>
-      <c r="U59" s="54"/>
-      <c r="V59" s="44"/>
-      <c r="W59" s="54"/>
-      <c r="X59" s="54"/>
-      <c r="Y59" s="54"/>
-      <c r="Z59" s="54"/>
-      <c r="AA59" s="54"/>
-      <c r="AB59" s="54"/>
-      <c r="AC59" s="54"/>
-    </row>
-    <row r="60" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="51"/>
+      <c r="C59" s="52"/>
+      <c r="D59" s="52"/>
+      <c r="E59" s="52"/>
+      <c r="F59" s="52"/>
+      <c r="G59" s="52"/>
+      <c r="H59" s="52"/>
+      <c r="I59" s="52"/>
+      <c r="J59" s="52"/>
+      <c r="K59" s="52"/>
+      <c r="L59" s="52"/>
+      <c r="M59" s="52"/>
+      <c r="N59" s="52"/>
+      <c r="O59" s="52"/>
+      <c r="P59" s="52"/>
+      <c r="Q59" s="52"/>
+      <c r="R59" s="52"/>
+      <c r="S59" s="52"/>
+      <c r="T59" s="52"/>
+      <c r="U59" s="52"/>
+      <c r="V59" s="52"/>
+      <c r="W59" s="52"/>
+      <c r="X59" s="52"/>
+      <c r="Y59" s="52"/>
+      <c r="Z59" s="52"/>
+      <c r="AA59" s="52"/>
+      <c r="AB59" s="52"/>
+      <c r="AC59" s="52"/>
+    </row>
+    <row r="60" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="55"/>
-      <c r="B60" s="51"/>
-      <c r="C60" s="52"/>
-      <c r="D60" s="52"/>
-      <c r="E60" s="52"/>
-      <c r="F60" s="52"/>
-      <c r="G60" s="52"/>
-      <c r="H60" s="52"/>
-      <c r="I60" s="52"/>
-      <c r="J60" s="52"/>
-      <c r="K60" s="52"/>
-      <c r="L60" s="52"/>
-      <c r="M60" s="52"/>
-      <c r="N60" s="52"/>
-      <c r="O60" s="52"/>
-      <c r="P60" s="52"/>
-      <c r="Q60" s="52"/>
-      <c r="R60" s="52"/>
-      <c r="S60" s="52"/>
-      <c r="T60" s="52"/>
-      <c r="U60" s="52"/>
-      <c r="V60" s="44"/>
-      <c r="W60" s="52"/>
-      <c r="X60" s="52"/>
-      <c r="Y60" s="52"/>
-      <c r="Z60" s="52"/>
-      <c r="AA60" s="52"/>
-      <c r="AB60" s="52"/>
-      <c r="AC60" s="52"/>
-    </row>
-    <row r="61" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="53"/>
+      <c r="C60" s="54"/>
+      <c r="D60" s="54"/>
+      <c r="E60" s="54"/>
+      <c r="F60" s="54"/>
+      <c r="G60" s="54"/>
+      <c r="H60" s="54"/>
+      <c r="I60" s="54"/>
+      <c r="J60" s="54"/>
+      <c r="K60" s="54"/>
+      <c r="L60" s="54"/>
+      <c r="M60" s="54"/>
+      <c r="N60" s="54"/>
+      <c r="O60" s="54"/>
+      <c r="P60" s="54"/>
+      <c r="Q60" s="54"/>
+      <c r="R60" s="54"/>
+      <c r="S60" s="54"/>
+      <c r="T60" s="54"/>
+      <c r="U60" s="54"/>
+      <c r="V60" s="54"/>
+      <c r="W60" s="54"/>
+      <c r="X60" s="54"/>
+      <c r="Y60" s="54"/>
+      <c r="Z60" s="54"/>
+      <c r="AA60" s="54"/>
+      <c r="AB60" s="54"/>
+      <c r="AC60" s="54"/>
+    </row>
+    <row r="61" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="55"/>
-      <c r="B61" s="53"/>
-      <c r="C61" s="54"/>
-      <c r="D61" s="54"/>
-      <c r="E61" s="54"/>
-      <c r="F61" s="54"/>
-      <c r="G61" s="54"/>
-      <c r="H61" s="54"/>
-      <c r="I61" s="54"/>
-      <c r="J61" s="54"/>
-      <c r="K61" s="54"/>
-      <c r="L61" s="54"/>
-      <c r="M61" s="54"/>
-      <c r="N61" s="54"/>
-      <c r="O61" s="54"/>
-      <c r="P61" s="54"/>
-      <c r="Q61" s="54"/>
-      <c r="R61" s="54"/>
-      <c r="S61" s="54"/>
-      <c r="T61" s="54"/>
-      <c r="U61" s="54"/>
-      <c r="V61" s="44"/>
-      <c r="W61" s="54"/>
-      <c r="X61" s="54"/>
-      <c r="Y61" s="54"/>
-      <c r="Z61" s="54"/>
-      <c r="AA61" s="54"/>
-      <c r="AB61" s="54"/>
-      <c r="AC61" s="54"/>
-    </row>
-    <row r="62" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="51"/>
+      <c r="C61" s="52"/>
+      <c r="D61" s="52"/>
+      <c r="E61" s="52"/>
+      <c r="F61" s="52"/>
+      <c r="G61" s="52"/>
+      <c r="H61" s="52"/>
+      <c r="I61" s="52"/>
+      <c r="J61" s="52"/>
+      <c r="K61" s="52"/>
+      <c r="L61" s="52"/>
+      <c r="M61" s="52"/>
+      <c r="N61" s="52"/>
+      <c r="O61" s="52"/>
+      <c r="P61" s="52"/>
+      <c r="Q61" s="52"/>
+      <c r="R61" s="52"/>
+      <c r="S61" s="52"/>
+      <c r="T61" s="52"/>
+      <c r="U61" s="52"/>
+      <c r="V61" s="52"/>
+      <c r="W61" s="52"/>
+      <c r="X61" s="52"/>
+      <c r="Y61" s="52"/>
+      <c r="Z61" s="52"/>
+      <c r="AA61" s="52"/>
+      <c r="AB61" s="52"/>
+      <c r="AC61" s="52"/>
+    </row>
+    <row r="62" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="55"/>
-      <c r="B62" s="51"/>
-      <c r="C62" s="52"/>
-      <c r="D62" s="52"/>
-      <c r="E62" s="52"/>
-      <c r="F62" s="52"/>
-      <c r="G62" s="52"/>
-      <c r="H62" s="52"/>
-      <c r="I62" s="52"/>
-      <c r="J62" s="52"/>
-      <c r="K62" s="52"/>
-      <c r="L62" s="52"/>
-      <c r="M62" s="52"/>
-      <c r="N62" s="52"/>
-      <c r="O62" s="52"/>
-      <c r="P62" s="52"/>
-      <c r="Q62" s="52"/>
-      <c r="R62" s="52"/>
-      <c r="S62" s="52"/>
-      <c r="T62" s="52"/>
-      <c r="U62" s="52"/>
-      <c r="V62" s="44"/>
-      <c r="W62" s="52"/>
-      <c r="X62" s="52"/>
-      <c r="Y62" s="52"/>
-      <c r="Z62" s="52"/>
-      <c r="AA62" s="52"/>
-      <c r="AB62" s="52"/>
-      <c r="AC62" s="52"/>
-    </row>
-    <row r="63" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="53"/>
+      <c r="C62" s="54"/>
+      <c r="D62" s="54"/>
+      <c r="E62" s="54"/>
+      <c r="F62" s="54"/>
+      <c r="G62" s="54"/>
+      <c r="H62" s="54"/>
+      <c r="I62" s="54"/>
+      <c r="J62" s="54"/>
+      <c r="K62" s="54"/>
+      <c r="L62" s="54"/>
+      <c r="M62" s="54"/>
+      <c r="N62" s="54"/>
+      <c r="O62" s="54"/>
+      <c r="P62" s="54"/>
+      <c r="Q62" s="54"/>
+      <c r="R62" s="54"/>
+      <c r="S62" s="54"/>
+      <c r="T62" s="54"/>
+      <c r="U62" s="54"/>
+      <c r="V62" s="54"/>
+      <c r="W62" s="54"/>
+      <c r="X62" s="54"/>
+      <c r="Y62" s="54"/>
+      <c r="Z62" s="54"/>
+      <c r="AA62" s="54"/>
+      <c r="AB62" s="54"/>
+      <c r="AC62" s="54"/>
+    </row>
+    <row r="63" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="55"/>
       <c r="B63" s="53"/>
       <c r="C63" s="54"/>
@@ -14198,7 +15103,7 @@
       <c r="AB63" s="54"/>
       <c r="AC63" s="54"/>
     </row>
-    <row r="64" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="55"/>
       <c r="B64" s="51"/>
       <c r="C64" s="52"/>
@@ -14271,8 +15176,8 @@
   <dimension ref="A1:AE66"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V32" sqref="V32"/>
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V44" sqref="V44:V53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14459,113 +15364,113 @@
     </row>
     <row r="3" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
-      <c r="B3" s="58">
+      <c r="B3" s="56">
         <f>B48/B2</f>
         <v>2.5096436748859956E-5</v>
       </c>
-      <c r="C3" s="58">
+      <c r="C3" s="56">
         <f t="shared" ref="C3:AB3" si="0">C48/C2</f>
         <v>0</v>
       </c>
-      <c r="D3" s="58">
+      <c r="D3" s="56">
         <f t="shared" si="0"/>
         <v>5.4314371582720785E-5</v>
       </c>
-      <c r="E3" s="58">
+      <c r="E3" s="56">
         <f t="shared" si="0"/>
         <v>3.6715791751894004E-5</v>
       </c>
-      <c r="F3" s="60">
+      <c r="F3" s="58">
         <f t="shared" si="0"/>
         <v>7.2883261838324107E-5</v>
       </c>
-      <c r="G3" s="60">
+      <c r="G3" s="58">
         <f t="shared" si="0"/>
         <v>1.6943409013893597E-4</v>
       </c>
-      <c r="H3" s="60">
+      <c r="H3" s="58">
         <f t="shared" si="0"/>
         <v>1.4433002629316567E-4</v>
       </c>
-      <c r="I3" s="60">
+      <c r="I3" s="58">
         <f t="shared" si="0"/>
         <v>2.6627692800512535E-4</v>
       </c>
-      <c r="J3" s="58">
+      <c r="J3" s="56">
         <f t="shared" si="0"/>
         <v>4.9501274657822438E-5</v>
       </c>
-      <c r="K3" s="60">
+      <c r="K3" s="58">
         <f t="shared" si="0"/>
         <v>1.7642996486523272E-4</v>
       </c>
-      <c r="L3" s="58">
+      <c r="L3" s="56">
         <f t="shared" si="0"/>
-        <v>1.3620452471431101E-5</v>
-      </c>
-      <c r="M3" s="58">
+        <v>0</v>
+      </c>
+      <c r="M3" s="56">
         <f t="shared" si="0"/>
         <v>2.1974963191936654E-5</v>
       </c>
-      <c r="N3" s="58">
+      <c r="N3" s="56">
+        <f t="shared" si="0"/>
+        <v>2.2618037885213457E-4</v>
+      </c>
+      <c r="O3" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O3" s="58">
+      <c r="P3" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P3" s="58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q3" s="58">
+      <c r="Q3" s="56">
         <f t="shared" si="0"/>
         <v>3.1514860241443221E-5</v>
       </c>
-      <c r="R3" s="58">
+      <c r="R3" s="56">
         <f t="shared" si="0"/>
         <v>1.2196460587137613E-5</v>
       </c>
-      <c r="S3" s="58">
+      <c r="S3" s="56">
         <f t="shared" si="0"/>
         <v>1.8302012489293323E-5</v>
       </c>
-      <c r="T3" s="60">
+      <c r="T3" s="58">
         <f t="shared" si="0"/>
         <v>5.6545094713033641E-5</v>
       </c>
-      <c r="U3" s="58">
+      <c r="U3" s="56">
         <f t="shared" si="0"/>
         <v>2.8936022454353425E-5</v>
       </c>
-      <c r="V3" s="59">
+      <c r="V3" s="57">
         <f t="shared" si="0"/>
         <v>6.1979436411645347E-4</v>
       </c>
-      <c r="W3" s="60">
+      <c r="W3" s="58">
         <f t="shared" si="0"/>
         <v>1.0979057447918096E-4</v>
       </c>
-      <c r="X3" s="60">
+      <c r="X3" s="58">
         <f t="shared" si="0"/>
         <v>2.5527282282939893E-4</v>
       </c>
-      <c r="Y3" s="60">
+      <c r="Y3" s="58">
         <f t="shared" si="0"/>
         <v>2.1223706589524791E-4</v>
       </c>
-      <c r="Z3" s="58">
+      <c r="Z3" s="56">
         <f t="shared" si="0"/>
         <v>2.3652404266893731E-5</v>
       </c>
-      <c r="AA3" s="58">
+      <c r="AA3" s="56">
         <f t="shared" si="0"/>
         <v>4.0763513762288228E-5</v>
       </c>
-      <c r="AB3" s="60">
+      <c r="AB3" s="58">
         <f t="shared" si="0"/>
-        <v>1.1423612724546851E-4</v>
+        <v>1.1493839851951852E-4</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -15872,7 +16777,7 @@
       <c r="U33" s="54">
         <v>1</v>
       </c>
-      <c r="V33" s="54">
+      <c r="V33" s="47">
         <v>60</v>
       </c>
       <c r="W33" s="54"/>
@@ -15942,7 +16847,7 @@
       <c r="U34" s="52">
         <v>1</v>
       </c>
-      <c r="V34" s="52">
+      <c r="V34" s="47">
         <v>67</v>
       </c>
       <c r="W34" s="52"/>
@@ -16010,7 +16915,7 @@
       <c r="U35" s="54">
         <v>2</v>
       </c>
-      <c r="V35" s="54">
+      <c r="V35" s="47">
         <v>76</v>
       </c>
       <c r="W35" s="54"/>
@@ -16080,7 +16985,7 @@
       <c r="U36" s="52">
         <v>2</v>
       </c>
-      <c r="V36" s="52">
+      <c r="V36" s="47">
         <v>87</v>
       </c>
       <c r="W36" s="52"/>
@@ -16146,7 +17051,7 @@
       <c r="U37" s="54">
         <v>2</v>
       </c>
-      <c r="V37" s="54">
+      <c r="V37" s="47">
         <v>93</v>
       </c>
       <c r="W37" s="54"/>
@@ -16216,7 +17121,7 @@
       <c r="U38" s="52">
         <v>2</v>
       </c>
-      <c r="V38" s="52">
+      <c r="V38" s="47">
         <v>105</v>
       </c>
       <c r="W38" s="52"/>
@@ -16290,7 +17195,7 @@
       <c r="U39" s="54">
         <v>3</v>
       </c>
-      <c r="V39" s="54">
+      <c r="V39" s="47">
         <v>120</v>
       </c>
       <c r="W39" s="54"/>
@@ -16370,7 +17275,7 @@
       <c r="U40" s="52">
         <v>4</v>
       </c>
-      <c r="V40" s="52">
+      <c r="V40" s="47">
         <v>132</v>
       </c>
       <c r="W40" s="52">
@@ -16448,7 +17353,7 @@
       <c r="U41" s="54">
         <v>4</v>
       </c>
-      <c r="V41" s="54">
+      <c r="V41" s="47">
         <v>141</v>
       </c>
       <c r="W41" s="54">
@@ -16526,7 +17431,7 @@
       <c r="U42" s="52">
         <v>5</v>
       </c>
-      <c r="V42" s="52">
+      <c r="V42" s="47">
         <v>155</v>
       </c>
       <c r="W42" s="52">
@@ -16601,7 +17506,7 @@
       <c r="U43" s="54">
         <v>5</v>
       </c>
-      <c r="V43" s="54">
+      <c r="V43" s="47">
         <v>165</v>
       </c>
       <c r="W43" s="54">
@@ -16677,7 +17582,7 @@
       <c r="U44" s="52">
         <v>7</v>
       </c>
-      <c r="V44" s="52">
+      <c r="V44" s="47">
         <v>177</v>
       </c>
       <c r="W44" s="52">
@@ -16758,7 +17663,7 @@
       <c r="U45" s="54">
         <v>7</v>
       </c>
-      <c r="V45" s="54">
+      <c r="V45" s="47">
         <v>189</v>
       </c>
       <c r="W45" s="54">
@@ -16840,7 +17745,7 @@
       <c r="U46" s="52">
         <v>8</v>
       </c>
-      <c r="V46" s="52">
+      <c r="V46" s="47">
         <v>198</v>
       </c>
       <c r="W46" s="52">
@@ -16905,7 +17810,7 @@
         <v>9</v>
       </c>
       <c r="N47" s="54">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="O47" s="54">
         <v>0</v>
@@ -16928,7 +17833,7 @@
       <c r="U47" s="54">
         <v>8</v>
       </c>
-      <c r="V47" s="54">
+      <c r="V47" s="47">
         <v>211</v>
       </c>
       <c r="W47" s="54">
@@ -16947,7 +17852,7 @@
         <v>57</v>
       </c>
       <c r="AB47" s="54">
-        <v>921</v>
+        <v>926</v>
       </c>
       <c r="AC47" s="54"/>
       <c r="AD47" s="10"/>
@@ -16985,13 +17890,13 @@
       <c r="K48" s="52">
         <v>35</v>
       </c>
-      <c r="L48" s="52">
-        <v>1</v>
-      </c>
+      <c r="L48" s="52"/>
       <c r="M48" s="52">
         <v>9</v>
       </c>
-      <c r="N48" s="52"/>
+      <c r="N48" s="52">
+        <v>40</v>
+      </c>
       <c r="O48" s="52">
         <v>0</v>
       </c>
@@ -17013,7 +17918,7 @@
       <c r="U48" s="52">
         <v>8</v>
       </c>
-      <c r="V48" s="52">
+      <c r="V48" s="47">
         <v>219</v>
       </c>
       <c r="W48" s="52">
@@ -17032,7 +17937,7 @@
         <v>62</v>
       </c>
       <c r="AB48" s="52">
-        <v>976</v>
+        <v>982</v>
       </c>
       <c r="AC48" s="52"/>
     </row>
@@ -17040,7 +17945,9 @@
       <c r="A49" s="53">
         <v>43931</v>
       </c>
-      <c r="B49" s="54"/>
+      <c r="B49" s="54">
+        <v>18</v>
+      </c>
       <c r="C49" s="54"/>
       <c r="D49" s="54">
         <v>3</v>
@@ -17057,16 +17964,22 @@
       <c r="H49" s="54">
         <v>49</v>
       </c>
-      <c r="I49" s="54"/>
+      <c r="I49" s="54">
+        <v>144</v>
+      </c>
       <c r="J49" s="54"/>
-      <c r="K49" s="54"/>
+      <c r="K49" s="54">
+        <v>35</v>
+      </c>
       <c r="L49" s="54">
         <v>2</v>
       </c>
       <c r="M49" s="54">
         <v>9</v>
       </c>
-      <c r="N49" s="54"/>
+      <c r="N49" s="54">
+        <v>40</v>
+      </c>
       <c r="O49" s="54">
         <v>0</v>
       </c>
@@ -17086,13 +17999,15 @@
       <c r="U49" s="54">
         <v>8</v>
       </c>
-      <c r="V49" s="54">
+      <c r="V49" s="47">
         <v>227</v>
       </c>
       <c r="W49" s="54">
         <v>4</v>
       </c>
-      <c r="X49" s="54"/>
+      <c r="X49" s="54">
+        <v>224</v>
+      </c>
       <c r="Y49" s="54">
         <v>75</v>
       </c>
@@ -17103,134 +18018,331 @@
         <v>64</v>
       </c>
       <c r="AB49" s="54">
-        <v>999</v>
+        <v>1037</v>
       </c>
       <c r="AC49" s="52"/>
       <c r="AD49" s="10"/>
     </row>
     <row r="50" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="53"/>
-      <c r="C50" s="54"/>
-      <c r="D50" s="54"/>
-      <c r="E50" s="54"/>
-      <c r="F50" s="54"/>
-      <c r="G50" s="54"/>
-      <c r="H50" s="54"/>
-      <c r="I50" s="54"/>
-      <c r="J50" s="54"/>
-      <c r="K50" s="54"/>
-      <c r="L50" s="54"/>
-      <c r="M50" s="54"/>
-      <c r="N50" s="54"/>
-      <c r="O50" s="54"/>
-      <c r="P50" s="54"/>
-      <c r="Q50" s="54"/>
-      <c r="R50" s="54"/>
-      <c r="S50" s="54"/>
-      <c r="T50" s="54"/>
-      <c r="U50" s="54"/>
-      <c r="V50" s="54"/>
-      <c r="W50" s="54"/>
-      <c r="X50" s="54"/>
-      <c r="Y50" s="54"/>
-      <c r="Z50" s="54"/>
-      <c r="AA50" s="54"/>
-      <c r="AB50" s="54"/>
+      <c r="A50" s="51">
+        <v>43932</v>
+      </c>
+      <c r="B50" s="52">
+        <v>18</v>
+      </c>
+      <c r="C50" s="52"/>
+      <c r="D50" s="52">
+        <v>3</v>
+      </c>
+      <c r="E50" s="52">
+        <v>44</v>
+      </c>
+      <c r="F50" s="52">
+        <v>22</v>
+      </c>
+      <c r="G50" s="52">
+        <v>33</v>
+      </c>
+      <c r="H50" s="52">
+        <v>53</v>
+      </c>
+      <c r="I50" s="52">
+        <v>154</v>
+      </c>
+      <c r="J50" s="52">
+        <v>2</v>
+      </c>
+      <c r="K50" s="52">
+        <v>35</v>
+      </c>
+      <c r="L50" s="52"/>
+      <c r="M50" s="52">
+        <v>10</v>
+      </c>
+      <c r="N50" s="52">
+        <v>42</v>
+      </c>
+      <c r="O50" s="52">
+        <v>0</v>
+      </c>
+      <c r="P50" s="52"/>
+      <c r="Q50" s="52">
+        <v>18</v>
+      </c>
+      <c r="R50" s="52">
+        <v>1</v>
+      </c>
+      <c r="S50" s="52">
+        <v>6</v>
+      </c>
+      <c r="T50" s="52">
+        <v>10</v>
+      </c>
+      <c r="U50" s="52">
+        <v>8</v>
+      </c>
+      <c r="V50" s="47">
+        <v>229</v>
+      </c>
+      <c r="W50" s="52">
+        <v>4</v>
+      </c>
+      <c r="X50" s="52">
+        <v>228</v>
+      </c>
+      <c r="Y50" s="52">
+        <v>82</v>
+      </c>
+      <c r="Z50" s="52">
+        <v>4</v>
+      </c>
+      <c r="AA50" s="52">
+        <v>66</v>
+      </c>
+      <c r="AB50" s="52">
+        <v>1074</v>
+      </c>
       <c r="AC50" s="54"/>
       <c r="AD50" s="10"/>
     </row>
     <row r="51" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="55"/>
-      <c r="B51" s="51"/>
-      <c r="C51" s="52"/>
-      <c r="D51" s="52"/>
-      <c r="E51" s="52"/>
-      <c r="F51" s="52"/>
-      <c r="G51" s="52"/>
-      <c r="H51" s="52"/>
-      <c r="I51" s="52"/>
-      <c r="J51" s="52"/>
-      <c r="K51" s="52"/>
-      <c r="L51" s="52"/>
-      <c r="M51" s="52"/>
-      <c r="N51" s="52"/>
-      <c r="O51" s="52"/>
-      <c r="P51" s="52"/>
-      <c r="Q51" s="52"/>
-      <c r="R51" s="52"/>
-      <c r="S51" s="52"/>
-      <c r="T51" s="52"/>
-      <c r="U51" s="52"/>
-      <c r="V51" s="52"/>
-      <c r="W51" s="52"/>
-      <c r="X51" s="52"/>
-      <c r="Y51" s="52"/>
-      <c r="Z51" s="52"/>
-      <c r="AA51" s="52"/>
-      <c r="AB51" s="52"/>
+      <c r="A51" s="53">
+        <v>43933</v>
+      </c>
+      <c r="B51" s="54">
+        <v>18</v>
+      </c>
+      <c r="C51" s="54"/>
+      <c r="D51" s="54"/>
+      <c r="E51" s="54">
+        <v>49</v>
+      </c>
+      <c r="F51" s="54">
+        <v>23</v>
+      </c>
+      <c r="G51" s="54">
+        <v>33</v>
+      </c>
+      <c r="H51" s="54">
+        <v>54</v>
+      </c>
+      <c r="I51" s="54">
+        <v>160</v>
+      </c>
+      <c r="J51" s="54"/>
+      <c r="K51" s="54">
+        <v>35</v>
+      </c>
+      <c r="L51" s="54"/>
+      <c r="M51" s="54">
+        <v>10</v>
+      </c>
+      <c r="N51" s="54">
+        <v>43</v>
+      </c>
+      <c r="O51" s="54">
+        <v>0</v>
+      </c>
+      <c r="P51" s="54"/>
+      <c r="Q51" s="54">
+        <v>21</v>
+      </c>
+      <c r="R51" s="54">
+        <v>1</v>
+      </c>
+      <c r="S51" s="54">
+        <v>7</v>
+      </c>
+      <c r="T51" s="54">
+        <v>11</v>
+      </c>
+      <c r="U51" s="54">
+        <v>8</v>
+      </c>
+      <c r="V51" s="47">
+        <v>244</v>
+      </c>
+      <c r="W51" s="54">
+        <v>4</v>
+      </c>
+      <c r="X51" s="54">
+        <v>233</v>
+      </c>
+      <c r="Y51" s="54">
+        <v>86</v>
+      </c>
+      <c r="Z51" s="54">
+        <v>5</v>
+      </c>
+      <c r="AA51" s="54">
+        <v>70</v>
+      </c>
+      <c r="AB51" s="54">
+        <v>1122</v>
+      </c>
       <c r="AC51" s="52"/>
+      <c r="AD51" s="10"/>
     </row>
     <row r="52" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="55"/>
-      <c r="B52" s="53"/>
-      <c r="C52" s="54"/>
-      <c r="D52" s="54"/>
-      <c r="E52" s="54"/>
-      <c r="F52" s="54"/>
-      <c r="G52" s="54"/>
-      <c r="H52" s="54"/>
-      <c r="I52" s="54"/>
-      <c r="J52" s="54"/>
-      <c r="K52" s="54"/>
-      <c r="L52" s="54"/>
-      <c r="M52" s="54"/>
-      <c r="N52" s="54"/>
-      <c r="O52" s="54"/>
-      <c r="P52" s="54"/>
-      <c r="Q52" s="54"/>
-      <c r="R52" s="54"/>
-      <c r="S52" s="54"/>
-      <c r="T52" s="54"/>
-      <c r="U52" s="54"/>
-      <c r="V52" s="54"/>
-      <c r="W52" s="54"/>
-      <c r="X52" s="54"/>
-      <c r="Y52" s="54"/>
-      <c r="Z52" s="54"/>
-      <c r="AA52" s="54"/>
-      <c r="AB52" s="54"/>
+      <c r="A52" s="51">
+        <v>43934</v>
+      </c>
+      <c r="B52" s="52">
+        <v>19</v>
+      </c>
+      <c r="C52" s="52"/>
+      <c r="D52" s="52">
+        <v>3</v>
+      </c>
+      <c r="E52" s="52">
+        <v>49</v>
+      </c>
+      <c r="F52" s="52">
+        <v>24</v>
+      </c>
+      <c r="G52" s="52">
+        <v>34</v>
+      </c>
+      <c r="H52" s="52">
+        <v>55</v>
+      </c>
+      <c r="I52" s="52">
+        <v>167</v>
+      </c>
+      <c r="J52" s="52">
+        <v>2</v>
+      </c>
+      <c r="K52" s="52">
+        <v>35</v>
+      </c>
+      <c r="L52" s="52"/>
+      <c r="M52" s="52">
+        <v>10</v>
+      </c>
+      <c r="N52" s="52">
+        <v>44</v>
+      </c>
+      <c r="O52" s="52">
+        <v>1</v>
+      </c>
+      <c r="P52" s="52"/>
+      <c r="Q52" s="52">
+        <v>21</v>
+      </c>
+      <c r="R52" s="52">
+        <v>1</v>
+      </c>
+      <c r="S52" s="52">
+        <v>7</v>
+      </c>
+      <c r="T52" s="52">
+        <v>12</v>
+      </c>
+      <c r="U52" s="52">
+        <v>8</v>
+      </c>
+      <c r="V52" s="47">
+        <v>251</v>
+      </c>
+      <c r="W52" s="52">
+        <v>4</v>
+      </c>
+      <c r="X52" s="52">
+        <v>237</v>
+      </c>
+      <c r="Y52" s="52">
+        <v>88</v>
+      </c>
+      <c r="Z52" s="52">
+        <v>5</v>
+      </c>
+      <c r="AA52" s="52">
+        <v>76</v>
+      </c>
+      <c r="AB52" s="52">
+        <v>1155</v>
+      </c>
       <c r="AC52" s="54"/>
     </row>
     <row r="53" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="55"/>
-      <c r="B53" s="51"/>
-      <c r="C53" s="52"/>
-      <c r="D53" s="52"/>
-      <c r="E53" s="52"/>
-      <c r="F53" s="52"/>
-      <c r="G53" s="52"/>
-      <c r="H53" s="52"/>
-      <c r="I53" s="52"/>
-      <c r="J53" s="52"/>
-      <c r="K53" s="52"/>
-      <c r="L53" s="52"/>
-      <c r="M53" s="52"/>
-      <c r="N53" s="52"/>
-      <c r="O53" s="52"/>
-      <c r="P53" s="52"/>
-      <c r="Q53" s="52"/>
-      <c r="R53" s="52"/>
-      <c r="S53" s="52"/>
-      <c r="T53" s="52"/>
-      <c r="U53" s="52"/>
-      <c r="V53" s="52"/>
-      <c r="W53" s="52"/>
-      <c r="X53" s="52"/>
-      <c r="Y53" s="52"/>
-      <c r="Z53" s="52"/>
-      <c r="AA53" s="52"/>
-      <c r="AB53" s="52"/>
-      <c r="AC53" s="52"/>
+      <c r="A53" s="53">
+        <v>43935</v>
+      </c>
+      <c r="B53" s="54">
+        <v>19</v>
+      </c>
+      <c r="C53" s="54"/>
+      <c r="D53" s="54">
+        <v>3</v>
+      </c>
+      <c r="E53" s="54">
+        <v>49</v>
+      </c>
+      <c r="F53" s="54">
+        <v>25</v>
+      </c>
+      <c r="G53" s="54">
+        <v>34</v>
+      </c>
+      <c r="H53" s="54">
+        <v>57</v>
+      </c>
+      <c r="I53" s="54"/>
+      <c r="J53" s="54">
+        <v>2</v>
+      </c>
+      <c r="K53" s="54"/>
+      <c r="L53" s="54"/>
+      <c r="M53" s="54">
+        <v>11</v>
+      </c>
+      <c r="N53" s="54">
+        <v>45</v>
+      </c>
+      <c r="O53" s="54">
+        <v>1</v>
+      </c>
+      <c r="P53" s="54">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="54">
+        <v>21</v>
+      </c>
+      <c r="R53" s="54">
+        <v>1</v>
+      </c>
+      <c r="S53" s="54">
+        <v>8</v>
+      </c>
+      <c r="T53" s="54">
+        <v>13</v>
+      </c>
+      <c r="U53" s="54">
+        <v>10</v>
+      </c>
+      <c r="V53" s="47">
+        <v>258</v>
+      </c>
+      <c r="W53" s="54">
+        <v>4</v>
+      </c>
+      <c r="X53" s="54"/>
+      <c r="Y53" s="54">
+        <v>90</v>
+      </c>
+      <c r="Z53" s="54">
+        <v>5</v>
+      </c>
+      <c r="AA53" s="54">
+        <v>78</v>
+      </c>
+      <c r="AB53" s="54">
+        <v>1175</v>
+      </c>
+      <c r="AC53" s="10">
+        <f>AB53-AB46</f>
+        <v>316</v>
+      </c>
     </row>
     <row r="54" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="55"/>

--- a/TI_Lombardia.xlsx
+++ b/TI_Lombardia.xlsx
@@ -14,7 +14,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">cases!$A$3:$AB$44</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TI Lombardia'!$A$3:$F$62</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TI Lombardia'!$A$3:$F$64</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="63">
   <si>
     <t>Date</t>
   </si>
@@ -991,7 +991,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -999,10 +999,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U125"/>
+  <dimension ref="A1:U146"/>
   <sheetViews>
-    <sheetView topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4:L125"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L4" sqref="L4:L132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1168,7 +1168,7 @@
         <v>9/3/2020</v>
       </c>
       <c r="L5" s="3" t="str">
-        <f t="shared" ref="L5:L68" si="3">K5&amp;$L$1&amp;DAY(A5)&amp;$L$1&amp;MONTH(A5)&amp;$L$1&amp;YEAR(A5)&amp;$L$1&amp;D5&amp;$L$1&amp;G5&amp;$L$1&amp;E5&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H5&amp;$L$1&amp;E5</f>
+        <f t="shared" ref="L5:L70" si="3">K5&amp;$L$1&amp;DAY(A5)&amp;$L$1&amp;MONTH(A5)&amp;$L$1&amp;YEAR(A5)&amp;$L$1&amp;D5&amp;$L$1&amp;G5&amp;$L$1&amp;E5&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H5&amp;$L$1&amp;E5</f>
         <v>9/3/2020,9,3,2020,1280,66,Lombardia,nn,nnn,10040000,Lombardia</v>
       </c>
     </row>
@@ -2508,7 +2508,7 @@
         <v>10040000</v>
       </c>
       <c r="K45" s="5" t="str">
-        <f t="shared" ref="K45:K47" si="27">DAY(A45)&amp;"/"&amp;MONTH(A45)&amp;"/"&amp;YEAR(A45)</f>
+        <f t="shared" ref="K45:K46" si="27">DAY(A45)&amp;"/"&amp;MONTH(A45)&amp;"/"&amp;YEAR(A45)</f>
         <v>18/4/2020</v>
       </c>
       <c r="L45" s="3" t="str">
@@ -2574,2151 +2574,2175 @@
         <v>10040000</v>
       </c>
       <c r="K47" s="5" t="str">
-        <f t="shared" si="27"/>
+        <f>DAY(A47)&amp;"/"&amp;MONTH(A47)&amp;"/"&amp;YEAR(A47)</f>
         <v>20/4/2020</v>
       </c>
       <c r="L47" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f>K47&amp;$L$1&amp;DAY(A47)&amp;$L$1&amp;MONTH(A47)&amp;$L$1&amp;YEAR(A47)&amp;$L$1&amp;D47&amp;$L$1&amp;G47&amp;$L$1&amp;E47&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H47&amp;$L$1&amp;E47</f>
         <v>20/4/2020,20,4,2020,735,163,Lombardia,nn,nnn,10040000,Lombardia</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
+        <v>43942</v>
+      </c>
+      <c r="B48" s="43">
+        <v>12579</v>
+      </c>
+      <c r="C48" s="43">
+        <v>67931</v>
+      </c>
+      <c r="D48">
+        <f t="shared" ref="D48:D49" si="30">C48-C47</f>
+        <v>960</v>
+      </c>
+      <c r="E48" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48">
+        <f t="shared" ref="G48:G49" si="31">B48-B47</f>
+        <v>203</v>
+      </c>
+      <c r="H48" s="2">
+        <v>10040000</v>
+      </c>
+      <c r="K48" s="5" t="str">
+        <f t="shared" ref="K48:K49" si="32">DAY(A48)&amp;"/"&amp;MONTH(A48)&amp;"/"&amp;YEAR(A48)</f>
+        <v>21/4/2020</v>
+      </c>
+      <c r="L48" s="3" t="str">
+        <f t="shared" ref="L48:L49" si="33">K48&amp;$L$1&amp;DAY(A48)&amp;$L$1&amp;MONTH(A48)&amp;$L$1&amp;YEAR(A48)&amp;$L$1&amp;D48&amp;$L$1&amp;G48&amp;$L$1&amp;E48&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H48&amp;$L$1&amp;E48</f>
+        <v>21/4/2020,21,4,2020,960,203,Lombardia,nn,nnn,10040000,Lombardia</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B49" s="43">
+        <v>12740</v>
+      </c>
+      <c r="C49" s="43">
+        <v>69092</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="30"/>
+        <v>1161</v>
+      </c>
+      <c r="E49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="31"/>
+        <v>161</v>
+      </c>
+      <c r="H49" s="2">
+        <v>10040000</v>
+      </c>
+      <c r="K49" s="5" t="str">
+        <f t="shared" si="32"/>
+        <v>22/4/2020</v>
+      </c>
+      <c r="L49" s="3" t="str">
+        <f t="shared" si="33"/>
+        <v>22/4/2020,22,4,2020,1161,161,Lombardia,nn,nnn,10040000,Lombardia</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
         <v>43901</v>
       </c>
-      <c r="B48">
+      <c r="B50">
         <v>1</v>
       </c>
-      <c r="C48">
+      <c r="C50">
         <v>68</v>
       </c>
-      <c r="D48">
-        <f>C48</f>
+      <c r="D50">
+        <f>C50</f>
         <v>68</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E50" t="s">
         <v>59</v>
       </c>
-      <c r="G48">
-        <f t="shared" ref="G48:G50" si="30">B48</f>
+      <c r="G50">
+        <f t="shared" ref="G50:G52" si="34">B50</f>
         <v>1</v>
       </c>
-      <c r="H48">
+      <c r="H50">
         <v>353709</v>
       </c>
-      <c r="K48" s="5" t="str">
-        <f t="shared" ref="K48:K50" si="31">DAY(A48)&amp;"/"&amp;MONTH(A48)&amp;"/"&amp;YEAR(A48)</f>
+      <c r="K50" s="5" t="str">
+        <f t="shared" ref="K50:K52" si="35">DAY(A50)&amp;"/"&amp;MONTH(A50)&amp;"/"&amp;YEAR(A50)</f>
         <v>11/3/2020</v>
       </c>
-      <c r="L48" s="3" t="str">
+      <c r="L50" s="3" t="str">
         <f t="shared" si="3"/>
         <v>11/3/2020,11,3,2020,68,1,Ticino,nn,nnn,353709,Ticino</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A49" s="1">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
         <v>43902</v>
       </c>
-      <c r="B49">
+      <c r="B51">
         <v>1</v>
       </c>
-      <c r="C49" s="32">
+      <c r="C51" s="32">
         <v>180</v>
       </c>
-      <c r="D49">
-        <f t="shared" ref="D49:D74" si="32">C49-C48</f>
+      <c r="D51">
+        <f t="shared" ref="D51:D76" si="36">C51-C50</f>
         <v>112</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E51" t="s">
         <v>59</v>
       </c>
-      <c r="G49">
-        <f t="shared" si="30"/>
+      <c r="G51">
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
-      <c r="H49">
+      <c r="H51">
         <v>353709</v>
       </c>
-      <c r="K49" s="5" t="str">
-        <f t="shared" si="31"/>
+      <c r="K51" s="5" t="str">
+        <f t="shared" si="35"/>
         <v>12/3/2020</v>
       </c>
-      <c r="L49" s="3" t="str">
+      <c r="L51" s="3" t="str">
         <f t="shared" si="3"/>
         <v>12/3/2020,12,3,2020,112,1,Ticino,nn,nnn,353709,Ticino</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
         <v>43903</v>
       </c>
-      <c r="B50">
+      <c r="B52">
         <v>1</v>
       </c>
-      <c r="C50" s="32">
+      <c r="C52" s="32">
         <v>258</v>
       </c>
-      <c r="D50">
-        <f t="shared" si="32"/>
+      <c r="D52">
+        <f t="shared" si="36"/>
         <v>78</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E52" t="s">
         <v>59</v>
       </c>
-      <c r="G50">
-        <f t="shared" si="30"/>
+      <c r="G52">
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
-      <c r="H50">
+      <c r="H52">
         <v>353709</v>
       </c>
-      <c r="K50" s="5" t="str">
-        <f t="shared" si="31"/>
+      <c r="K52" s="5" t="str">
+        <f t="shared" si="35"/>
         <v>13/3/2020</v>
       </c>
-      <c r="L50" s="3" t="str">
+      <c r="L52" s="3" t="str">
         <f t="shared" si="3"/>
         <v>13/3/2020,13,3,2020,78,1,Ticino,nn,nnn,353709,Ticino</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A51" s="1">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
         <v>43904</v>
       </c>
-      <c r="B51">
+      <c r="B53">
         <v>5</v>
       </c>
-      <c r="C51">
+      <c r="C53">
         <v>262</v>
       </c>
-      <c r="D51">
-        <f t="shared" si="32"/>
+      <c r="D53">
+        <f t="shared" si="36"/>
         <v>4</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E53" t="s">
         <v>59</v>
       </c>
-      <c r="G51">
-        <f>B51</f>
+      <c r="G53">
+        <f>B53</f>
         <v>5</v>
       </c>
-      <c r="H51">
+      <c r="H53">
         <v>353709</v>
       </c>
-      <c r="K51" s="5" t="str">
-        <f t="shared" ref="K51:K73" si="33">DAY(A51)&amp;"/"&amp;MONTH(A51)&amp;"/"&amp;YEAR(A51)</f>
+      <c r="K53" s="5" t="str">
+        <f t="shared" ref="K53:K75" si="37">DAY(A53)&amp;"/"&amp;MONTH(A53)&amp;"/"&amp;YEAR(A53)</f>
         <v>14/3/2020</v>
       </c>
-      <c r="L51" s="3" t="str">
+      <c r="L53" s="3" t="str">
         <f t="shared" si="3"/>
         <v>14/3/2020,14,3,2020,4,5,Ticino,nn,nnn,353709,Ticino</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A52" s="1">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
         <v>43905</v>
       </c>
-      <c r="B52">
+      <c r="B54">
         <v>6</v>
       </c>
-      <c r="C52">
+      <c r="C54">
         <v>291</v>
       </c>
-      <c r="D52">
-        <f t="shared" si="32"/>
+      <c r="D54">
+        <f t="shared" si="36"/>
         <v>29</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E54" t="s">
         <v>59</v>
       </c>
-      <c r="G52">
-        <f t="shared" ref="G52:G73" si="34">B52-B51</f>
+      <c r="G54">
+        <f t="shared" ref="G54:G75" si="38">B54-B53</f>
         <v>1</v>
       </c>
-      <c r="H52">
+      <c r="H54">
         <v>353709</v>
       </c>
-      <c r="K52" s="5" t="str">
-        <f t="shared" si="33"/>
+      <c r="K54" s="5" t="str">
+        <f t="shared" si="37"/>
         <v>15/3/2020</v>
       </c>
-      <c r="L52" s="3" t="str">
+      <c r="L54" s="3" t="str">
         <f t="shared" si="3"/>
         <v>15/3/2020,15,3,2020,29,1,Ticino,nn,nnn,353709,Ticino</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A53" s="1">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
         <v>43906</v>
       </c>
-      <c r="B53">
+      <c r="B55">
         <v>8</v>
       </c>
-      <c r="C53">
+      <c r="C55">
         <v>330</v>
       </c>
-      <c r="D53">
-        <f t="shared" si="32"/>
+      <c r="D55">
+        <f t="shared" si="36"/>
         <v>39</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E55" t="s">
         <v>59</v>
       </c>
-      <c r="G53">
-        <f t="shared" si="34"/>
+      <c r="G55">
+        <f t="shared" si="38"/>
         <v>2</v>
       </c>
-      <c r="H53">
+      <c r="H55">
         <v>353709</v>
       </c>
-      <c r="K53" s="5" t="str">
-        <f t="shared" si="33"/>
+      <c r="K55" s="5" t="str">
+        <f t="shared" si="37"/>
         <v>16/3/2020</v>
       </c>
-      <c r="L53" s="3" t="str">
+      <c r="L55" s="3" t="str">
         <f t="shared" si="3"/>
         <v>16/3/2020,16,3,2020,39,2,Ticino,nn,nnn,353709,Ticino</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A54" s="1">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
         <v>43907</v>
       </c>
-      <c r="B54">
+      <c r="B56">
         <v>10</v>
       </c>
-      <c r="C54">
+      <c r="C56">
         <v>422</v>
       </c>
-      <c r="D54">
-        <f t="shared" si="32"/>
+      <c r="D56">
+        <f t="shared" si="36"/>
         <v>92</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E56" t="s">
         <v>59</v>
       </c>
-      <c r="G54">
-        <f t="shared" si="34"/>
+      <c r="G56">
+        <f t="shared" si="38"/>
         <v>2</v>
       </c>
-      <c r="H54">
+      <c r="H56">
         <v>353709</v>
       </c>
-      <c r="K54" s="5" t="str">
-        <f t="shared" si="33"/>
+      <c r="K56" s="5" t="str">
+        <f t="shared" si="37"/>
         <v>17/3/2020</v>
       </c>
-      <c r="L54" s="3" t="str">
+      <c r="L56" s="3" t="str">
         <f t="shared" si="3"/>
         <v>17/3/2020,17,3,2020,92,2,Ticino,nn,nnn,353709,Ticino</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A55" s="1">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
         <v>43908</v>
       </c>
-      <c r="B55">
+      <c r="B57">
         <v>14</v>
       </c>
-      <c r="C55">
+      <c r="C57">
         <v>511</v>
       </c>
-      <c r="D55">
-        <f t="shared" si="32"/>
+      <c r="D57">
+        <f t="shared" si="36"/>
         <v>89</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E57" t="s">
         <v>59</v>
       </c>
-      <c r="G55">
-        <f t="shared" si="34"/>
+      <c r="G57">
+        <f t="shared" si="38"/>
         <v>4</v>
       </c>
-      <c r="H55">
+      <c r="H57">
         <v>353709</v>
       </c>
-      <c r="K55" s="5" t="str">
-        <f t="shared" si="33"/>
+      <c r="K57" s="5" t="str">
+        <f t="shared" si="37"/>
         <v>18/3/2020</v>
       </c>
-      <c r="L55" s="3" t="str">
+      <c r="L57" s="3" t="str">
         <f t="shared" si="3"/>
         <v>18/3/2020,18,3,2020,89,4,Ticino,nn,nnn,353709,Ticino</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A56" s="1">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
         <v>43909</v>
       </c>
-      <c r="B56">
+      <c r="B58">
         <v>15</v>
       </c>
-      <c r="C56">
+      <c r="C58">
         <v>638</v>
       </c>
-      <c r="D56">
-        <f t="shared" si="32"/>
+      <c r="D58">
+        <f t="shared" si="36"/>
         <v>127</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E58" t="s">
         <v>59</v>
       </c>
-      <c r="G56">
-        <f t="shared" si="34"/>
+      <c r="G58">
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
-      <c r="H56">
+      <c r="H58">
         <v>353709</v>
       </c>
-      <c r="K56" s="5" t="str">
-        <f t="shared" si="33"/>
+      <c r="K58" s="5" t="str">
+        <f t="shared" si="37"/>
         <v>19/3/2020</v>
       </c>
-      <c r="L56" s="3" t="str">
+      <c r="L58" s="3" t="str">
         <f t="shared" si="3"/>
         <v>19/3/2020,19,3,2020,127,1,Ticino,nn,nnn,353709,Ticino</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A57" s="1">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
         <v>43910</v>
       </c>
-      <c r="B57">
+      <c r="B59">
         <v>22</v>
       </c>
-      <c r="C57">
+      <c r="C59">
         <v>834</v>
       </c>
-      <c r="D57">
-        <f t="shared" si="32"/>
+      <c r="D59">
+        <f t="shared" si="36"/>
         <v>196</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E59" t="s">
         <v>59</v>
       </c>
-      <c r="G57">
-        <f t="shared" si="34"/>
+      <c r="G59">
+        <f t="shared" si="38"/>
         <v>7</v>
       </c>
-      <c r="H57">
+      <c r="H59">
         <v>353709</v>
       </c>
-      <c r="K57" s="5" t="str">
-        <f t="shared" si="33"/>
+      <c r="K59" s="5" t="str">
+        <f t="shared" si="37"/>
         <v>20/3/2020</v>
       </c>
-      <c r="L57" s="3" t="str">
+      <c r="L59" s="3" t="str">
         <f t="shared" si="3"/>
         <v>20/3/2020,20,3,2020,196,7,Ticino,nn,nnn,353709,Ticino</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A58" s="1">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
         <v>43911</v>
       </c>
-      <c r="B58">
+      <c r="B60">
         <v>28</v>
       </c>
-      <c r="C58">
+      <c r="C60">
         <v>918</v>
       </c>
-      <c r="D58">
-        <f t="shared" si="32"/>
+      <c r="D60">
+        <f t="shared" si="36"/>
         <v>84</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E60" t="s">
         <v>59</v>
       </c>
-      <c r="G58">
-        <f t="shared" si="34"/>
+      <c r="G60">
+        <f t="shared" si="38"/>
         <v>6</v>
       </c>
-      <c r="H58">
+      <c r="H60">
         <v>353709</v>
       </c>
-      <c r="K58" s="5" t="str">
-        <f t="shared" si="33"/>
+      <c r="K60" s="5" t="str">
+        <f t="shared" si="37"/>
         <v>21/3/2020</v>
       </c>
-      <c r="L58" s="3" t="str">
+      <c r="L60" s="3" t="str">
         <f t="shared" si="3"/>
         <v>21/3/2020,21,3,2020,84,6,Ticino,nn,nnn,353709,Ticino</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A59" s="1">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
         <v>43912</v>
       </c>
-      <c r="B59">
+      <c r="B61">
         <v>37</v>
       </c>
-      <c r="C59">
+      <c r="C61">
         <v>939</v>
       </c>
-      <c r="D59">
-        <f t="shared" si="32"/>
+      <c r="D61">
+        <f t="shared" si="36"/>
         <v>21</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E61" t="s">
         <v>59</v>
       </c>
-      <c r="G59">
-        <f t="shared" si="34"/>
+      <c r="G61">
+        <f t="shared" si="38"/>
         <v>9</v>
       </c>
-      <c r="H59">
+      <c r="H61">
         <v>353709</v>
       </c>
-      <c r="K59" s="5" t="str">
-        <f t="shared" si="33"/>
+      <c r="K61" s="5" t="str">
+        <f t="shared" si="37"/>
         <v>22/3/2020</v>
       </c>
-      <c r="L59" s="3" t="str">
+      <c r="L61" s="3" t="str">
         <f t="shared" si="3"/>
         <v>22/3/2020,22,3,2020,21,9,Ticino,nn,nnn,353709,Ticino</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A60" s="1">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
         <v>43913</v>
       </c>
-      <c r="B60">
+      <c r="B62">
         <v>48</v>
       </c>
-      <c r="C60">
+      <c r="C62">
         <v>1165</v>
       </c>
-      <c r="D60">
-        <f t="shared" si="32"/>
+      <c r="D62">
+        <f t="shared" si="36"/>
         <v>226</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E62" t="s">
         <v>59</v>
       </c>
-      <c r="G60">
-        <f t="shared" si="34"/>
+      <c r="G62">
+        <f t="shared" si="38"/>
         <v>11</v>
       </c>
-      <c r="H60">
+      <c r="H62">
         <v>353709</v>
       </c>
-      <c r="K60" s="5" t="str">
-        <f t="shared" si="33"/>
+      <c r="K62" s="5" t="str">
+        <f t="shared" si="37"/>
         <v>23/3/2020</v>
       </c>
-      <c r="L60" s="3" t="str">
+      <c r="L62" s="3" t="str">
         <f t="shared" si="3"/>
         <v>23/3/2020,23,3,2020,226,11,Ticino,nn,nnn,353709,Ticino</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A61" s="1">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
         <v>43914</v>
       </c>
-      <c r="B61">
+      <c r="B63">
         <v>53</v>
       </c>
-      <c r="C61">
+      <c r="C63">
         <v>1211</v>
       </c>
-      <c r="D61">
-        <f t="shared" si="32"/>
+      <c r="D63">
+        <f t="shared" si="36"/>
         <v>46</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E63" t="s">
         <v>59</v>
       </c>
-      <c r="F61" s="2"/>
-      <c r="G61">
-        <f t="shared" si="34"/>
+      <c r="F63" s="2"/>
+      <c r="G63">
+        <f t="shared" si="38"/>
         <v>5</v>
       </c>
-      <c r="H61">
+      <c r="H63">
         <v>353709</v>
       </c>
-      <c r="K61" s="5" t="str">
-        <f t="shared" si="33"/>
+      <c r="K63" s="5" t="str">
+        <f t="shared" si="37"/>
         <v>24/3/2020</v>
       </c>
-      <c r="L61" s="3" t="str">
+      <c r="L63" s="3" t="str">
         <f t="shared" si="3"/>
         <v>24/3/2020,24,3,2020,46,5,Ticino,nn,nnn,353709,Ticino</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A62" s="1">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
         <v>43915</v>
       </c>
-      <c r="B62">
+      <c r="B64">
         <v>60</v>
       </c>
-      <c r="C62">
+      <c r="C64">
         <v>1343</v>
       </c>
-      <c r="D62">
-        <f t="shared" si="32"/>
+      <c r="D64">
+        <f t="shared" si="36"/>
         <v>132</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E64" t="s">
         <v>59</v>
       </c>
-      <c r="G62">
-        <f t="shared" si="34"/>
+      <c r="G64">
+        <f t="shared" si="38"/>
         <v>7</v>
       </c>
-      <c r="H62">
+      <c r="H64">
         <v>353709</v>
       </c>
-      <c r="K62" s="5" t="str">
-        <f t="shared" si="33"/>
+      <c r="K64" s="5" t="str">
+        <f t="shared" si="37"/>
         <v>25/3/2020</v>
       </c>
-      <c r="L62" s="3" t="str">
+      <c r="L64" s="3" t="str">
         <f t="shared" si="3"/>
         <v>25/3/2020,25,3,2020,132,7,Ticino,nn,nnn,353709,Ticino</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A63" s="1">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
         <v>43916</v>
       </c>
-      <c r="B63">
+      <c r="B65">
         <v>67</v>
       </c>
-      <c r="C63">
+      <c r="C65">
         <v>1401</v>
       </c>
-      <c r="D63">
-        <f t="shared" si="32"/>
+      <c r="D65">
+        <f t="shared" si="36"/>
         <v>58</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E65" t="s">
         <v>59</v>
       </c>
-      <c r="G63">
-        <f t="shared" si="34"/>
+      <c r="G65">
+        <f t="shared" si="38"/>
         <v>7</v>
       </c>
-      <c r="H63">
+      <c r="H65">
         <v>353709</v>
       </c>
-      <c r="K63" s="5" t="str">
-        <f t="shared" si="33"/>
+      <c r="K65" s="5" t="str">
+        <f t="shared" si="37"/>
         <v>26/3/2020</v>
       </c>
-      <c r="L63" s="3" t="str">
+      <c r="L65" s="3" t="str">
         <f t="shared" si="3"/>
         <v>26/3/2020,26,3,2020,58,7,Ticino,nn,nnn,353709,Ticino</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A64" s="1">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
         <v>43917</v>
       </c>
-      <c r="B64">
+      <c r="B66">
         <v>76</v>
       </c>
-      <c r="C64">
+      <c r="C66">
         <v>1688</v>
       </c>
-      <c r="D64">
-        <f t="shared" si="32"/>
+      <c r="D66">
+        <f t="shared" si="36"/>
         <v>287</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E66" t="s">
         <v>59</v>
       </c>
-      <c r="G64">
-        <f t="shared" si="34"/>
+      <c r="G66">
+        <f t="shared" si="38"/>
         <v>9</v>
       </c>
-      <c r="H64">
+      <c r="H66">
         <v>353709</v>
       </c>
-      <c r="K64" s="5" t="str">
-        <f t="shared" si="33"/>
+      <c r="K66" s="5" t="str">
+        <f t="shared" si="37"/>
         <v>27/3/2020</v>
       </c>
-      <c r="L64" s="3" t="str">
+      <c r="L66" s="3" t="str">
         <f t="shared" si="3"/>
         <v>27/3/2020,27,3,2020,287,9,Ticino,nn,nnn,353709,Ticino</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A65" s="1">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
         <v>43918</v>
       </c>
-      <c r="B65">
+      <c r="B67">
         <v>87</v>
       </c>
-      <c r="C65">
+      <c r="C67">
         <v>1727</v>
       </c>
-      <c r="D65">
-        <f t="shared" si="32"/>
+      <c r="D67">
+        <f t="shared" si="36"/>
         <v>39</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E67" t="s">
         <v>59</v>
       </c>
-      <c r="G65">
-        <f t="shared" si="34"/>
+      <c r="G67">
+        <f t="shared" si="38"/>
         <v>11</v>
       </c>
-      <c r="H65">
+      <c r="H67">
         <v>353709</v>
       </c>
-      <c r="K65" s="5" t="str">
-        <f t="shared" si="33"/>
+      <c r="K67" s="5" t="str">
+        <f t="shared" si="37"/>
         <v>28/3/2020</v>
       </c>
-      <c r="L65" s="3" t="str">
+      <c r="L67" s="3" t="str">
         <f t="shared" si="3"/>
         <v>28/3/2020,28,3,2020,39,11,Ticino,nn,nnn,353709,Ticino</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A66" s="1">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
         <v>43919</v>
       </c>
-      <c r="B66">
+      <c r="B68">
         <v>93</v>
       </c>
-      <c r="C66">
+      <c r="C68">
         <v>1837</v>
       </c>
-      <c r="D66">
-        <f t="shared" si="32"/>
+      <c r="D68">
+        <f t="shared" si="36"/>
         <v>110</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E68" t="s">
         <v>59</v>
       </c>
-      <c r="G66">
-        <f t="shared" si="34"/>
+      <c r="G68">
+        <f t="shared" si="38"/>
         <v>6</v>
       </c>
-      <c r="H66">
+      <c r="H68">
         <v>353709</v>
       </c>
-      <c r="K66" s="5" t="str">
-        <f t="shared" si="33"/>
+      <c r="K68" s="5" t="str">
+        <f t="shared" si="37"/>
         <v>29/3/2020</v>
       </c>
-      <c r="L66" s="3" t="str">
+      <c r="L68" s="3" t="str">
         <f t="shared" si="3"/>
         <v>29/3/2020,29,3,2020,110,6,Ticino,nn,nnn,353709,Ticino</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A67" s="1">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
         <v>43920</v>
       </c>
-      <c r="B67">
+      <c r="B69">
         <v>105</v>
       </c>
-      <c r="C67">
+      <c r="C69">
         <v>1962</v>
       </c>
-      <c r="D67">
-        <f t="shared" si="32"/>
+      <c r="D69">
+        <f t="shared" si="36"/>
         <v>125</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E69" t="s">
         <v>59</v>
       </c>
-      <c r="G67">
-        <f t="shared" si="34"/>
+      <c r="G69">
+        <f t="shared" si="38"/>
         <v>12</v>
       </c>
-      <c r="H67">
+      <c r="H69">
         <v>353709</v>
       </c>
-      <c r="K67" s="5" t="str">
-        <f t="shared" si="33"/>
+      <c r="K69" s="5" t="str">
+        <f t="shared" si="37"/>
         <v>30/3/2020</v>
       </c>
-      <c r="L67" s="3" t="str">
+      <c r="L69" s="3" t="str">
         <f t="shared" si="3"/>
         <v>30/3/2020,30,3,2020,125,12,Ticino,nn,nnn,353709,Ticino</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A68" s="1">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
         <v>43921</v>
       </c>
-      <c r="B68">
+      <c r="B70">
         <v>120</v>
       </c>
-      <c r="C68">
+      <c r="C70">
         <v>2091</v>
       </c>
-      <c r="D68">
-        <f t="shared" si="32"/>
+      <c r="D70">
+        <f t="shared" si="36"/>
         <v>129</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E70" t="s">
         <v>59</v>
       </c>
-      <c r="G68">
-        <f t="shared" si="34"/>
+      <c r="G70">
+        <f t="shared" si="38"/>
         <v>15</v>
       </c>
-      <c r="H68">
+      <c r="H70">
         <v>353709</v>
       </c>
-      <c r="K68" s="5" t="str">
-        <f t="shared" si="33"/>
+      <c r="K70" s="5" t="str">
+        <f t="shared" si="37"/>
         <v>31/3/2020</v>
       </c>
-      <c r="L68" s="3" t="str">
+      <c r="L70" s="3" t="str">
         <f t="shared" si="3"/>
         <v>31/3/2020,31,3,2020,129,15,Ticino,nn,nnn,353709,Ticino</v>
       </c>
     </row>
-    <row r="69" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
+    <row r="71" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
         <v>43922</v>
       </c>
-      <c r="B69">
+      <c r="B71">
         <v>132</v>
       </c>
-      <c r="C69">
+      <c r="C71">
         <v>2195</v>
       </c>
-      <c r="D69">
-        <f t="shared" si="32"/>
+      <c r="D71">
+        <f t="shared" si="36"/>
         <v>104</v>
-      </c>
-      <c r="E69" t="s">
-        <v>59</v>
-      </c>
-      <c r="G69">
-        <f t="shared" si="34"/>
-        <v>12</v>
-      </c>
-      <c r="H69">
-        <v>353709</v>
-      </c>
-      <c r="K69" s="5" t="str">
-        <f t="shared" si="33"/>
-        <v>1/4/2020</v>
-      </c>
-      <c r="L69" s="3" t="str">
-        <f t="shared" ref="L69:L125" si="35">K69&amp;$L$1&amp;DAY(A69)&amp;$L$1&amp;MONTH(A69)&amp;$L$1&amp;YEAR(A69)&amp;$L$1&amp;D69&amp;$L$1&amp;G69&amp;$L$1&amp;E69&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H69&amp;$L$1&amp;E69</f>
-        <v>1/4/2020,1,4,2020,104,12,Ticino,nn,nnn,353709,Ticino</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
-        <v>43923</v>
-      </c>
-      <c r="B70" s="38">
-        <v>141</v>
-      </c>
-      <c r="C70" s="33">
-        <v>2271</v>
-      </c>
-      <c r="D70">
-        <f t="shared" si="32"/>
-        <v>76</v>
-      </c>
-      <c r="E70" t="s">
-        <v>59</v>
-      </c>
-      <c r="G70">
-        <f t="shared" si="34"/>
-        <v>9</v>
-      </c>
-      <c r="H70">
-        <v>353709</v>
-      </c>
-      <c r="K70" s="5" t="str">
-        <f t="shared" si="33"/>
-        <v>2/4/2020</v>
-      </c>
-      <c r="L70" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>2/4/2020,2,4,2020,76,9,Ticino,nn,nnn,353709,Ticino</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
-        <v>43924</v>
-      </c>
-      <c r="B71" s="38">
-        <v>155</v>
-      </c>
-      <c r="C71" s="33">
-        <v>2377</v>
-      </c>
-      <c r="D71">
-        <f t="shared" si="32"/>
-        <v>106</v>
       </c>
       <c r="E71" t="s">
         <v>59</v>
       </c>
       <c r="G71">
-        <f t="shared" si="34"/>
-        <v>14</v>
+        <f t="shared" si="38"/>
+        <v>12</v>
       </c>
       <c r="H71">
         <v>353709</v>
       </c>
       <c r="K71" s="5" t="str">
-        <f t="shared" si="33"/>
-        <v>3/4/2020</v>
+        <f t="shared" si="37"/>
+        <v>1/4/2020</v>
       </c>
       <c r="L71" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>3/4/2020,3,4,2020,106,14,Ticino,nn,nnn,353709,Ticino</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="L71:L129" si="39">K71&amp;$L$1&amp;DAY(A71)&amp;$L$1&amp;MONTH(A71)&amp;$L$1&amp;YEAR(A71)&amp;$L$1&amp;D71&amp;$L$1&amp;G71&amp;$L$1&amp;E71&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H71&amp;$L$1&amp;E71</f>
+        <v>1/4/2020,1,4,2020,104,12,Ticino,nn,nnn,353709,Ticino</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>43925</v>
+        <v>43923</v>
       </c>
       <c r="B72" s="38">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="C72" s="33">
-        <v>2422</v>
+        <v>2271</v>
       </c>
       <c r="D72">
-        <f t="shared" si="32"/>
-        <v>45</v>
+        <f t="shared" si="36"/>
+        <v>76</v>
       </c>
       <c r="E72" t="s">
         <v>59</v>
       </c>
       <c r="G72">
-        <f t="shared" si="34"/>
-        <v>10</v>
+        <f t="shared" si="38"/>
+        <v>9</v>
       </c>
       <c r="H72">
         <v>353709</v>
       </c>
       <c r="K72" s="5" t="str">
-        <f t="shared" si="33"/>
-        <v>4/4/2020</v>
+        <f t="shared" si="37"/>
+        <v>2/4/2020</v>
       </c>
       <c r="L72" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>4/4/2020,4,4,2020,45,10,Ticino,nn,nnn,353709,Ticino</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="39"/>
+        <v>2/4/2020,2,4,2020,76,9,Ticino,nn,nnn,353709,Ticino</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>43926</v>
+        <v>43924</v>
       </c>
       <c r="B73" s="38">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="C73" s="33">
-        <v>2508</v>
+        <v>2377</v>
       </c>
       <c r="D73">
-        <f t="shared" si="32"/>
-        <v>86</v>
+        <f t="shared" si="36"/>
+        <v>106</v>
       </c>
       <c r="E73" t="s">
         <v>59</v>
       </c>
       <c r="G73">
-        <f t="shared" si="34"/>
-        <v>12</v>
+        <f t="shared" si="38"/>
+        <v>14</v>
       </c>
       <c r="H73">
         <v>353709</v>
       </c>
       <c r="K73" s="5" t="str">
-        <f t="shared" si="33"/>
-        <v>5/4/2020</v>
+        <f t="shared" si="37"/>
+        <v>3/4/2020</v>
       </c>
       <c r="L73" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>5/4/2020,5,4,2020,86,12,Ticino,nn,nnn,353709,Ticino</v>
-      </c>
-    </row>
-    <row r="74" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="39"/>
+        <v>3/4/2020,3,4,2020,106,14,Ticino,nn,nnn,353709,Ticino</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>43927</v>
+        <v>43925</v>
       </c>
       <c r="B74" s="38">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="C74" s="33">
-        <v>2546</v>
+        <v>2422</v>
       </c>
       <c r="D74">
-        <f t="shared" si="32"/>
-        <v>38</v>
+        <f t="shared" si="36"/>
+        <v>45</v>
       </c>
       <c r="E74" t="s">
         <v>59</v>
       </c>
       <c r="G74">
-        <f t="shared" ref="G74:G75" si="36">B74-B73</f>
-        <v>12</v>
+        <f t="shared" si="38"/>
+        <v>10</v>
       </c>
       <c r="H74">
         <v>353709</v>
       </c>
       <c r="K74" s="5" t="str">
-        <f t="shared" ref="K74" si="37">DAY(A74)&amp;"/"&amp;MONTH(A74)&amp;"/"&amp;YEAR(A74)</f>
-        <v>6/4/2020</v>
+        <f t="shared" si="37"/>
+        <v>4/4/2020</v>
       </c>
       <c r="L74" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>6/4/2020,6,4,2020,38,12,Ticino,nn,nnn,353709,Ticino</v>
-      </c>
-      <c r="R74" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="75" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="39"/>
+        <v>4/4/2020,4,4,2020,45,10,Ticino,nn,nnn,353709,Ticino</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>43928</v>
+        <v>43926</v>
       </c>
       <c r="B75" s="38">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="C75" s="33">
-        <v>2599</v>
+        <v>2508</v>
       </c>
       <c r="D75">
-        <f t="shared" ref="D75" si="38">C75-C74</f>
-        <v>53</v>
+        <f t="shared" si="36"/>
+        <v>86</v>
       </c>
       <c r="E75" t="s">
         <v>59</v>
       </c>
       <c r="G75">
-        <f t="shared" si="36"/>
-        <v>9</v>
+        <f t="shared" si="38"/>
+        <v>12</v>
       </c>
       <c r="H75">
         <v>353709</v>
       </c>
       <c r="K75" s="5" t="str">
-        <f t="shared" ref="K75" si="39">DAY(A75)&amp;"/"&amp;MONTH(A75)&amp;"/"&amp;YEAR(A75)</f>
-        <v>7/4/2020</v>
+        <f t="shared" si="37"/>
+        <v>5/4/2020</v>
       </c>
       <c r="L75" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>7/4/2020,7,4,2020,53,9,Ticino,nn,nnn,353709,Ticino</v>
-      </c>
-    </row>
-    <row r="76" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="39"/>
+        <v>5/4/2020,5,4,2020,86,12,Ticino,nn,nnn,353709,Ticino</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>43929</v>
+        <v>43927</v>
       </c>
       <c r="B76" s="38">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="C76" s="33">
-        <v>2659</v>
+        <v>2546</v>
       </c>
       <c r="D76">
-        <f t="shared" ref="D76" si="40">C76-C75</f>
-        <v>60</v>
+        <f t="shared" si="36"/>
+        <v>38</v>
       </c>
       <c r="E76" t="s">
         <v>59</v>
       </c>
       <c r="G76">
-        <f t="shared" ref="G76" si="41">B76-B75</f>
-        <v>13</v>
+        <f t="shared" ref="G76:G77" si="40">B76-B75</f>
+        <v>12</v>
       </c>
       <c r="H76">
         <v>353709</v>
       </c>
       <c r="K76" s="5" t="str">
-        <f t="shared" ref="K76" si="42">DAY(A76)&amp;"/"&amp;MONTH(A76)&amp;"/"&amp;YEAR(A76)</f>
-        <v>8/4/2020</v>
+        <f t="shared" ref="K76" si="41">DAY(A76)&amp;"/"&amp;MONTH(A76)&amp;"/"&amp;YEAR(A76)</f>
+        <v>6/4/2020</v>
       </c>
       <c r="L76" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>8/4/2020,8,4,2020,60,13,Ticino,nn,nnn,353709,Ticino</v>
-      </c>
-      <c r="R76">
-        <f>G76/H76</f>
-        <v>3.6753376363055506E-5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="39"/>
+        <v>6/4/2020,6,4,2020,38,12,Ticino,nn,nnn,353709,Ticino</v>
+      </c>
+      <c r="R76" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>43930</v>
+        <v>43928</v>
       </c>
       <c r="B77" s="38">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="C77" s="33">
-        <v>2714</v>
+        <v>2599</v>
       </c>
       <c r="D77">
-        <f t="shared" ref="D77" si="43">C77-C76</f>
-        <v>55</v>
+        <f t="shared" ref="D77" si="42">C77-C76</f>
+        <v>53</v>
       </c>
       <c r="E77" t="s">
         <v>59</v>
       </c>
       <c r="G77">
-        <f t="shared" ref="G77" si="44">B77-B76</f>
-        <v>8</v>
+        <f t="shared" si="40"/>
+        <v>9</v>
       </c>
       <c r="H77">
         <v>353709</v>
       </c>
       <c r="K77" s="5" t="str">
-        <f t="shared" ref="K77" si="45">DAY(A77)&amp;"/"&amp;MONTH(A77)&amp;"/"&amp;YEAR(A77)</f>
-        <v>9/4/2020</v>
+        <f t="shared" ref="K77" si="43">DAY(A77)&amp;"/"&amp;MONTH(A77)&amp;"/"&amp;YEAR(A77)</f>
+        <v>7/4/2020</v>
       </c>
       <c r="L77" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>9/4/2020,9,4,2020,55,8,Ticino,nn,nnn,353709,Ticino</v>
-      </c>
-      <c r="R77">
-        <f t="shared" ref="R77:R78" si="46">G77/H77</f>
-        <v>2.2617462377264928E-5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="39"/>
+        <v>7/4/2020,7,4,2020,53,9,Ticino,nn,nnn,353709,Ticino</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>43931</v>
+        <v>43929</v>
       </c>
       <c r="B78" s="38">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="C78" s="33">
-        <v>2776</v>
+        <v>2659</v>
       </c>
       <c r="D78">
-        <f t="shared" ref="D78" si="47">C78-C77</f>
-        <v>62</v>
+        <f t="shared" ref="D78" si="44">C78-C77</f>
+        <v>60</v>
       </c>
       <c r="E78" t="s">
         <v>59</v>
       </c>
       <c r="G78">
-        <f t="shared" ref="G78" si="48">B78-B77</f>
-        <v>8</v>
+        <f t="shared" ref="G78" si="45">B78-B77</f>
+        <v>13</v>
       </c>
       <c r="H78">
         <v>353709</v>
       </c>
       <c r="K78" s="5" t="str">
-        <f t="shared" ref="K78" si="49">DAY(A78)&amp;"/"&amp;MONTH(A78)&amp;"/"&amp;YEAR(A78)</f>
-        <v>10/4/2020</v>
+        <f t="shared" ref="K78" si="46">DAY(A78)&amp;"/"&amp;MONTH(A78)&amp;"/"&amp;YEAR(A78)</f>
+        <v>8/4/2020</v>
       </c>
       <c r="L78" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>10/4/2020,10,4,2020,62,8,Ticino,nn,nnn,353709,Ticino</v>
+        <f t="shared" si="39"/>
+        <v>8/4/2020,8,4,2020,60,13,Ticino,nn,nnn,353709,Ticino</v>
       </c>
       <c r="R78">
-        <f t="shared" si="46"/>
-        <v>2.2617462377264928E-5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <f>G78/H78</f>
+        <v>3.6753376363055506E-5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>43932</v>
+        <v>43930</v>
       </c>
       <c r="B79" s="38">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="C79" s="33">
-        <v>2818</v>
+        <v>2714</v>
       </c>
       <c r="D79">
-        <f t="shared" ref="D79:D82" si="50">C79-C78</f>
-        <v>42</v>
+        <f t="shared" ref="D79" si="47">C79-C78</f>
+        <v>55</v>
       </c>
       <c r="E79" t="s">
         <v>59</v>
       </c>
       <c r="G79">
-        <f t="shared" ref="G79:G82" si="51">B79-B78</f>
-        <v>2</v>
+        <f t="shared" ref="G79" si="48">B79-B78</f>
+        <v>8</v>
       </c>
       <c r="H79">
         <v>353709</v>
       </c>
       <c r="K79" s="5" t="str">
-        <f t="shared" ref="K79:K82" si="52">DAY(A79)&amp;"/"&amp;MONTH(A79)&amp;"/"&amp;YEAR(A79)</f>
-        <v>11/4/2020</v>
+        <f t="shared" ref="K79" si="49">DAY(A79)&amp;"/"&amp;MONTH(A79)&amp;"/"&amp;YEAR(A79)</f>
+        <v>9/4/2020</v>
       </c>
       <c r="L79" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>11/4/2020,11,4,2020,42,2,Ticino,nn,nnn,353709,Ticino</v>
-      </c>
-      <c r="S79">
-        <f>AVERAGE(R76:R78)*100</f>
-        <v>2.7329433705861788E-3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="39"/>
+        <v>9/4/2020,9,4,2020,55,8,Ticino,nn,nnn,353709,Ticino</v>
+      </c>
+      <c r="R79">
+        <f t="shared" ref="R79:R80" si="50">G79/H79</f>
+        <v>2.2617462377264928E-5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>43933</v>
+        <v>43931</v>
       </c>
       <c r="B80" s="38">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="C80" s="33">
-        <v>2869</v>
+        <v>2776</v>
       </c>
       <c r="D80">
-        <f t="shared" si="50"/>
-        <v>51</v>
+        <f t="shared" ref="D80" si="51">C80-C79</f>
+        <v>62</v>
       </c>
       <c r="E80" t="s">
         <v>59</v>
       </c>
       <c r="G80">
-        <f t="shared" si="51"/>
-        <v>15</v>
+        <f t="shared" ref="G80" si="52">B80-B79</f>
+        <v>8</v>
       </c>
       <c r="H80">
         <v>353709</v>
       </c>
       <c r="K80" s="5" t="str">
-        <f t="shared" si="52"/>
-        <v>12/4/2020</v>
+        <f t="shared" ref="K80" si="53">DAY(A80)&amp;"/"&amp;MONTH(A80)&amp;"/"&amp;YEAR(A80)</f>
+        <v>10/4/2020</v>
       </c>
       <c r="L80" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>12/4/2020,12,4,2020,51,15,Ticino,nn,nnn,353709,Ticino</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="39"/>
+        <v>10/4/2020,10,4,2020,62,8,Ticino,nn,nnn,353709,Ticino</v>
+      </c>
+      <c r="R80">
+        <f t="shared" si="50"/>
+        <v>2.2617462377264928E-5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>43934</v>
+        <v>43932</v>
       </c>
       <c r="B81" s="38">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="C81" s="33">
-        <v>2900</v>
+        <v>2818</v>
       </c>
       <c r="D81">
-        <f t="shared" si="50"/>
-        <v>31</v>
+        <f t="shared" ref="D81:D84" si="54">C81-C80</f>
+        <v>42</v>
       </c>
       <c r="E81" t="s">
         <v>59</v>
       </c>
       <c r="G81">
-        <f t="shared" si="51"/>
-        <v>7</v>
+        <f t="shared" ref="G81:G84" si="55">B81-B80</f>
+        <v>2</v>
       </c>
       <c r="H81">
         <v>353709</v>
       </c>
       <c r="K81" s="5" t="str">
-        <f t="shared" si="52"/>
-        <v>13/4/2020</v>
+        <f t="shared" ref="K81:K84" si="56">DAY(A81)&amp;"/"&amp;MONTH(A81)&amp;"/"&amp;YEAR(A81)</f>
+        <v>11/4/2020</v>
       </c>
       <c r="L81" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>13/4/2020,13,4,2020,31,7,Ticino,nn,nnn,353709,Ticino</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="39"/>
+        <v>11/4/2020,11,4,2020,42,2,Ticino,nn,nnn,353709,Ticino</v>
+      </c>
+      <c r="S81">
+        <f>AVERAGE(R78:R80)*100</f>
+        <v>2.7329433705861788E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>43935</v>
+        <v>43933</v>
       </c>
       <c r="B82" s="38">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="C82" s="33">
-        <v>2912</v>
+        <v>2869</v>
       </c>
       <c r="D82">
-        <f t="shared" si="50"/>
-        <v>12</v>
+        <f t="shared" si="54"/>
+        <v>51</v>
       </c>
       <c r="E82" t="s">
         <v>59</v>
       </c>
       <c r="G82">
-        <f t="shared" si="51"/>
-        <v>7</v>
+        <f t="shared" si="55"/>
+        <v>15</v>
       </c>
       <c r="H82">
         <v>353709</v>
       </c>
       <c r="K82" s="5" t="str">
-        <f t="shared" si="52"/>
-        <v>14/4/2020</v>
+        <f t="shared" si="56"/>
+        <v>12/4/2020</v>
       </c>
       <c r="L82" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>14/4/2020,14,4,2020,12,7,Ticino,nn,nnn,353709,Ticino</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="39"/>
+        <v>12/4/2020,12,4,2020,51,15,Ticino,nn,nnn,353709,Ticino</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>43936</v>
-      </c>
-      <c r="B83" s="36">
-        <v>263</v>
+        <v>43934</v>
+      </c>
+      <c r="B83" s="38">
+        <v>251</v>
       </c>
       <c r="C83" s="33">
-        <v>2927</v>
+        <v>2900</v>
       </c>
       <c r="D83">
-        <f t="shared" ref="D83" si="53">C83-C82</f>
-        <v>15</v>
+        <f t="shared" si="54"/>
+        <v>31</v>
       </c>
       <c r="E83" t="s">
         <v>59</v>
       </c>
       <c r="G83">
-        <f t="shared" ref="G83" si="54">B83-B82</f>
-        <v>5</v>
+        <f t="shared" si="55"/>
+        <v>7</v>
       </c>
       <c r="H83">
         <v>353709</v>
       </c>
       <c r="K83" s="5" t="str">
-        <f t="shared" ref="K83:K89" si="55">DAY(A83)&amp;"/"&amp;MONTH(A83)&amp;"/"&amp;YEAR(A83)</f>
-        <v>15/4/2020</v>
+        <f t="shared" si="56"/>
+        <v>13/4/2020</v>
       </c>
       <c r="L83" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>15/4/2020,15,4,2020,15,5,Ticino,nn,nnn,353709,Ticino</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="39"/>
+        <v>13/4/2020,13,4,2020,31,7,Ticino,nn,nnn,353709,Ticino</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>43937</v>
-      </c>
-      <c r="B84" s="36">
-        <v>269</v>
+        <v>43935</v>
+      </c>
+      <c r="B84" s="38">
+        <v>258</v>
       </c>
       <c r="C84" s="33">
-        <v>2953</v>
+        <v>2912</v>
       </c>
       <c r="D84">
-        <f t="shared" ref="D84" si="56">C84-C83</f>
-        <v>26</v>
+        <f t="shared" si="54"/>
+        <v>12</v>
       </c>
       <c r="E84" t="s">
         <v>59</v>
       </c>
       <c r="G84">
-        <f t="shared" ref="G84" si="57">B84-B83</f>
-        <v>6</v>
+        <f t="shared" si="55"/>
+        <v>7</v>
       </c>
       <c r="H84">
         <v>353709</v>
       </c>
       <c r="K84" s="5" t="str">
-        <f t="shared" ref="K84" si="58">DAY(A84)&amp;"/"&amp;MONTH(A84)&amp;"/"&amp;YEAR(A84)</f>
-        <v>16/4/2020</v>
+        <f t="shared" si="56"/>
+        <v>14/4/2020</v>
       </c>
       <c r="L84" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>16/4/2020,16,4,2020,26,6,Ticino,nn,nnn,353709,Ticino</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+        <f t="shared" si="39"/>
+        <v>14/4/2020,14,4,2020,12,7,Ticino,nn,nnn,353709,Ticino</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>43938</v>
-      </c>
-      <c r="B85" s="56">
-        <v>270</v>
+        <v>43936</v>
+      </c>
+      <c r="B85" s="36">
+        <v>263</v>
       </c>
       <c r="C85" s="33">
-        <v>2977</v>
+        <v>2927</v>
       </c>
       <c r="D85">
-        <f t="shared" ref="D85" si="59">C85-C84</f>
-        <v>24</v>
+        <f t="shared" ref="D85" si="57">C85-C84</f>
+        <v>15</v>
       </c>
       <c r="E85" t="s">
         <v>59</v>
       </c>
       <c r="G85">
-        <f t="shared" ref="G85" si="60">B85-B84</f>
-        <v>1</v>
+        <f t="shared" ref="G85" si="58">B85-B84</f>
+        <v>5</v>
       </c>
       <c r="H85">
         <v>353709</v>
       </c>
       <c r="K85" s="5" t="str">
-        <f t="shared" ref="K85" si="61">DAY(A85)&amp;"/"&amp;MONTH(A85)&amp;"/"&amp;YEAR(A85)</f>
-        <v>17/4/2020</v>
+        <f t="shared" ref="K85:K93" si="59">DAY(A85)&amp;"/"&amp;MONTH(A85)&amp;"/"&amp;YEAR(A85)</f>
+        <v>15/4/2020</v>
       </c>
       <c r="L85" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>17/4/2020,17,4,2020,24,1,Ticino,nn,nnn,353709,Ticino</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+        <f t="shared" si="39"/>
+        <v>15/4/2020,15,4,2020,15,5,Ticino,nn,nnn,353709,Ticino</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>43939</v>
-      </c>
-      <c r="B86" s="56">
-        <v>277</v>
-      </c>
-      <c r="C86" s="60">
-        <v>2994</v>
+        <v>43937</v>
+      </c>
+      <c r="B86" s="36">
+        <v>269</v>
+      </c>
+      <c r="C86" s="33">
+        <v>2953</v>
       </c>
       <c r="D86">
-        <f t="shared" ref="D86:D87" si="62">C86-C85</f>
-        <v>17</v>
+        <f t="shared" ref="D86" si="60">C86-C85</f>
+        <v>26</v>
       </c>
       <c r="E86" t="s">
         <v>59</v>
       </c>
       <c r="G86">
-        <f t="shared" ref="G86:G87" si="63">B86-B85</f>
-        <v>7</v>
+        <f t="shared" ref="G86" si="61">B86-B85</f>
+        <v>6</v>
       </c>
       <c r="H86">
         <v>353709</v>
       </c>
       <c r="K86" s="5" t="str">
-        <f t="shared" ref="K86:K87" si="64">DAY(A86)&amp;"/"&amp;MONTH(A86)&amp;"/"&amp;YEAR(A86)</f>
-        <v>18/4/2020</v>
+        <f t="shared" ref="K86" si="62">DAY(A86)&amp;"/"&amp;MONTH(A86)&amp;"/"&amp;YEAR(A86)</f>
+        <v>16/4/2020</v>
       </c>
       <c r="L86" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>18/4/2020,18,4,2020,17,7,Ticino,nn,nnn,353709,Ticino</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+        <f t="shared" si="39"/>
+        <v>16/4/2020,16,4,2020,26,6,Ticino,nn,nnn,353709,Ticino</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>43940</v>
+        <v>43938</v>
       </c>
       <c r="B87" s="56">
-        <v>281</v>
-      </c>
-      <c r="C87" s="60">
-        <v>3032</v>
+        <v>270</v>
+      </c>
+      <c r="C87" s="33">
+        <v>2977</v>
       </c>
       <c r="D87">
-        <f t="shared" si="62"/>
-        <v>38</v>
+        <f t="shared" ref="D87" si="63">C87-C86</f>
+        <v>24</v>
       </c>
       <c r="E87" t="s">
         <v>59</v>
       </c>
       <c r="G87">
-        <f t="shared" si="63"/>
-        <v>4</v>
+        <f t="shared" ref="G87" si="64">B87-B86</f>
+        <v>1</v>
       </c>
       <c r="H87">
         <v>353709</v>
       </c>
       <c r="K87" s="5" t="str">
-        <f t="shared" si="64"/>
-        <v>19/4/2020</v>
+        <f t="shared" ref="K87" si="65">DAY(A87)&amp;"/"&amp;MONTH(A87)&amp;"/"&amp;YEAR(A87)</f>
+        <v>17/4/2020</v>
       </c>
       <c r="L87" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>19/4/2020,19,4,2020,38,4,Ticino,nn,nnn,353709,Ticino</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+        <f t="shared" si="39"/>
+        <v>17/4/2020,17,4,2020,24,1,Ticino,nn,nnn,353709,Ticino</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>43941</v>
+        <v>43939</v>
       </c>
       <c r="B88" s="56">
-        <v>288</v>
-      </c>
-      <c r="C88" s="58">
-        <v>3058</v>
+        <v>277</v>
+      </c>
+      <c r="C88" s="60">
+        <v>2994</v>
       </c>
       <c r="D88">
-        <f t="shared" ref="D88" si="65">C88-C87</f>
-        <v>26</v>
+        <f t="shared" ref="D88:D89" si="66">C88-C87</f>
+        <v>17</v>
       </c>
       <c r="E88" t="s">
         <v>59</v>
       </c>
       <c r="G88">
-        <f t="shared" ref="G88" si="66">B88-B87</f>
+        <f t="shared" ref="G88:G89" si="67">B88-B87</f>
         <v>7</v>
       </c>
       <c r="H88">
         <v>353709</v>
       </c>
       <c r="K88" s="5" t="str">
-        <f t="shared" ref="K88" si="67">DAY(A88)&amp;"/"&amp;MONTH(A88)&amp;"/"&amp;YEAR(A88)</f>
+        <f t="shared" ref="K88:K89" si="68">DAY(A88)&amp;"/"&amp;MONTH(A88)&amp;"/"&amp;YEAR(A88)</f>
+        <v>18/4/2020</v>
+      </c>
+      <c r="L88" s="3" t="str">
+        <f t="shared" si="39"/>
+        <v>18/4/2020,18,4,2020,17,7,Ticino,nn,nnn,353709,Ticino</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B89" s="56">
+        <v>281</v>
+      </c>
+      <c r="C89" s="60">
+        <v>3032</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="66"/>
+        <v>38</v>
+      </c>
+      <c r="E89" t="s">
+        <v>59</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="67"/>
+        <v>4</v>
+      </c>
+      <c r="H89">
+        <v>353709</v>
+      </c>
+      <c r="K89" s="5" t="str">
+        <f t="shared" si="68"/>
+        <v>19/4/2020</v>
+      </c>
+      <c r="L89" s="3" t="str">
+        <f t="shared" si="39"/>
+        <v>19/4/2020,19,4,2020,38,4,Ticino,nn,nnn,353709,Ticino</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B90" s="56">
+        <v>288</v>
+      </c>
+      <c r="C90" s="58">
+        <v>3058</v>
+      </c>
+      <c r="D90">
+        <f t="shared" ref="D90" si="69">C90-C89</f>
+        <v>26</v>
+      </c>
+      <c r="E90" t="s">
+        <v>59</v>
+      </c>
+      <c r="G90">
+        <f t="shared" ref="G90" si="70">B90-B89</f>
+        <v>7</v>
+      </c>
+      <c r="H90">
+        <v>353709</v>
+      </c>
+      <c r="K90" s="5" t="str">
+        <f t="shared" ref="K90" si="71">DAY(A90)&amp;"/"&amp;MONTH(A90)&amp;"/"&amp;YEAR(A90)</f>
         <v>20/4/2020</v>
       </c>
-      <c r="L88" s="3" t="str">
-        <f t="shared" si="35"/>
+      <c r="L90" s="3" t="str">
+        <f t="shared" si="39"/>
         <v>20/4/2020,20,4,2020,26,7,Ticino,nn,nnn,353709,Ticino</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A89" s="53">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
+        <v>43942</v>
+      </c>
+      <c r="B91" s="58">
+        <v>291</v>
+      </c>
+      <c r="C91" s="58">
+        <v>3065</v>
+      </c>
+      <c r="D91">
+        <f t="shared" ref="D91:D92" si="72">C91-C90</f>
+        <v>7</v>
+      </c>
+      <c r="E91" t="s">
+        <v>59</v>
+      </c>
+      <c r="G91">
+        <f t="shared" ref="G91:G92" si="73">B91-B90</f>
+        <v>3</v>
+      </c>
+      <c r="H91">
+        <v>353710</v>
+      </c>
+      <c r="K91" s="5" t="str">
+        <f t="shared" ref="K91:K92" si="74">DAY(A91)&amp;"/"&amp;MONTH(A91)&amp;"/"&amp;YEAR(A91)</f>
+        <v>21/4/2020</v>
+      </c>
+      <c r="L91" s="3" t="str">
+        <f t="shared" ref="L91:L92" si="75">K91&amp;$L$1&amp;DAY(A91)&amp;$L$1&amp;MONTH(A91)&amp;$L$1&amp;YEAR(A91)&amp;$L$1&amp;D91&amp;$L$1&amp;G91&amp;$L$1&amp;E91&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H91&amp;$L$1&amp;E91</f>
+        <v>21/4/2020,21,4,2020,7,3,Ticino,nn,nnn,353710,Ticino</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B92" s="58">
+        <v>295</v>
+      </c>
+      <c r="C92" s="58">
+        <v>3089</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="72"/>
+        <v>24</v>
+      </c>
+      <c r="E92" t="s">
+        <v>59</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="73"/>
+        <v>4</v>
+      </c>
+      <c r="H92">
+        <v>353711</v>
+      </c>
+      <c r="K92" s="5" t="str">
+        <f t="shared" si="74"/>
+        <v>22/4/2020</v>
+      </c>
+      <c r="L92" s="3" t="str">
+        <f t="shared" si="75"/>
+        <v>22/4/2020,22,4,2020,24,4,Ticino,nn,nnn,353711,Ticino</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A93" s="53">
         <v>43901</v>
-      </c>
-      <c r="B89" s="48"/>
-      <c r="C89" s="49"/>
-      <c r="D89">
-        <v>157</v>
-      </c>
-      <c r="E89" t="s">
-        <v>62</v>
-      </c>
-      <c r="G89">
-        <v>1</v>
-      </c>
-      <c r="H89">
-        <v>8400000</v>
-      </c>
-      <c r="K89" s="5" t="str">
-        <f t="shared" si="55"/>
-        <v>11/3/2020</v>
-      </c>
-      <c r="L89" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>11/3/2020,11,3,2020,157,1,New_York_City,nn,nnn,8400000,New_York_City</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A90" s="53">
-        <v>43902</v>
-      </c>
-      <c r="B90" s="48"/>
-      <c r="C90" s="49"/>
-      <c r="D90">
-        <v>358</v>
-      </c>
-      <c r="E90" t="s">
-        <v>62</v>
-      </c>
-      <c r="G90">
-        <v>1</v>
-      </c>
-      <c r="H90">
-        <v>8400000</v>
-      </c>
-      <c r="K90" s="5" t="str">
-        <f t="shared" ref="K90:K123" si="68">DAY(A90)&amp;"/"&amp;MONTH(A90)&amp;"/"&amp;YEAR(A90)</f>
-        <v>12/3/2020</v>
-      </c>
-      <c r="L90" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>12/3/2020,12,3,2020,358,1,New_York_City,nn,nnn,8400000,New_York_City</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A91" s="53">
-        <v>43903</v>
-      </c>
-      <c r="B91" s="48"/>
-      <c r="C91" s="49"/>
-      <c r="D91">
-        <v>622</v>
-      </c>
-      <c r="E91" t="s">
-        <v>62</v>
-      </c>
-      <c r="G91">
-        <v>0</v>
-      </c>
-      <c r="H91">
-        <v>8400000</v>
-      </c>
-      <c r="K91" s="5" t="str">
-        <f t="shared" si="68"/>
-        <v>13/3/2020</v>
-      </c>
-      <c r="L91" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>13/3/2020,13,3,2020,622,0,New_York_City,nn,nnn,8400000,New_York_City</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A92" s="53">
-        <v>43904</v>
-      </c>
-      <c r="B92" s="48"/>
-      <c r="C92" s="49"/>
-      <c r="D92">
-        <v>645</v>
-      </c>
-      <c r="E92" t="s">
-        <v>62</v>
-      </c>
-      <c r="G92">
-        <v>2</v>
-      </c>
-      <c r="H92">
-        <v>8400000</v>
-      </c>
-      <c r="K92" s="5" t="str">
-        <f t="shared" si="68"/>
-        <v>14/3/2020</v>
-      </c>
-      <c r="L92" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>14/3/2020,14,3,2020,645,2,New_York_City,nn,nnn,8400000,New_York_City</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A93" s="53">
-        <v>43905</v>
       </c>
       <c r="B93" s="48"/>
       <c r="C93" s="49"/>
       <c r="D93">
-        <v>1029</v>
+        <v>157</v>
       </c>
       <c r="E93" t="s">
         <v>62</v>
       </c>
       <c r="G93">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H93">
         <v>8400000</v>
       </c>
       <c r="K93" s="5" t="str">
-        <f t="shared" si="68"/>
-        <v>15/3/2020</v>
+        <f t="shared" si="59"/>
+        <v>11/3/2020</v>
       </c>
       <c r="L93" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>15/3/2020,15,3,2020,1029,6,New_York_City,nn,nnn,8400000,New_York_City</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+        <f t="shared" si="39"/>
+        <v>11/3/2020,11,3,2020,157,1,New_York_City,nn,nnn,8400000,New_York_City</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A94" s="53">
-        <v>43906</v>
+        <v>43902</v>
       </c>
       <c r="B94" s="48"/>
       <c r="C94" s="49"/>
       <c r="D94">
-        <v>2106</v>
+        <v>358</v>
       </c>
       <c r="E94" t="s">
         <v>62</v>
       </c>
       <c r="G94">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H94">
         <v>8400000</v>
       </c>
       <c r="K94" s="5" t="str">
-        <f t="shared" si="68"/>
-        <v>16/3/2020</v>
+        <f t="shared" ref="K94:K127" si="76">DAY(A94)&amp;"/"&amp;MONTH(A94)&amp;"/"&amp;YEAR(A94)</f>
+        <v>12/3/2020</v>
       </c>
       <c r="L94" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>16/3/2020,16,3,2020,2106,9,New_York_City,nn,nnn,8400000,New_York_City</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+        <f t="shared" si="39"/>
+        <v>12/3/2020,12,3,2020,358,1,New_York_City,nn,nnn,8400000,New_York_City</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A95" s="53">
-        <v>43907</v>
+        <v>43903</v>
       </c>
       <c r="B95" s="48"/>
       <c r="C95" s="49"/>
       <c r="D95">
-        <v>2392</v>
+        <v>622</v>
       </c>
       <c r="E95" t="s">
         <v>62</v>
       </c>
       <c r="G95">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H95">
         <v>8400000</v>
       </c>
       <c r="K95" s="5" t="str">
-        <f t="shared" si="68"/>
-        <v>17/3/2020</v>
+        <f t="shared" si="76"/>
+        <v>13/3/2020</v>
       </c>
       <c r="L95" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>17/3/2020,17,3,2020,2392,7,New_York_City,nn,nnn,8400000,New_York_City</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+        <f t="shared" si="39"/>
+        <v>13/3/2020,13,3,2020,622,0,New_York_City,nn,nnn,8400000,New_York_City</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A96" s="53">
-        <v>43908</v>
+        <v>43904</v>
       </c>
       <c r="B96" s="48"/>
       <c r="C96" s="49"/>
       <c r="D96">
-        <v>2928</v>
+        <v>645</v>
       </c>
       <c r="E96" t="s">
         <v>62</v>
       </c>
       <c r="G96">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="H96">
         <v>8400000</v>
       </c>
       <c r="K96" s="5" t="str">
-        <f t="shared" si="68"/>
-        <v>18/3/2020</v>
+        <f t="shared" si="76"/>
+        <v>14/3/2020</v>
       </c>
       <c r="L96" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>18/3/2020,18,3,2020,2928,21,New_York_City,nn,nnn,8400000,New_York_City</v>
+        <f t="shared" si="39"/>
+        <v>14/3/2020,14,3,2020,645,2,New_York_City,nn,nnn,8400000,New_York_City</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" s="53">
-        <v>43909</v>
+        <v>43905</v>
       </c>
       <c r="B97" s="48"/>
       <c r="C97" s="49"/>
       <c r="D97">
-        <v>3653</v>
+        <v>1029</v>
       </c>
       <c r="E97" t="s">
         <v>62</v>
       </c>
       <c r="G97">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="H97">
         <v>8400000</v>
       </c>
       <c r="K97" s="5" t="str">
-        <f t="shared" si="68"/>
-        <v>19/3/2020</v>
+        <f t="shared" si="76"/>
+        <v>15/3/2020</v>
       </c>
       <c r="L97" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>19/3/2020,19,3,2020,3653,25,New_York_City,nn,nnn,8400000,New_York_City</v>
+        <f t="shared" si="39"/>
+        <v>15/3/2020,15,3,2020,1029,6,New_York_City,nn,nnn,8400000,New_York_City</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" s="53">
-        <v>43910</v>
+        <v>43906</v>
       </c>
       <c r="B98" s="48"/>
       <c r="C98" s="49"/>
       <c r="D98">
-        <v>3958</v>
+        <v>2106</v>
       </c>
       <c r="E98" t="s">
         <v>62</v>
       </c>
       <c r="G98">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="H98">
         <v>8400000</v>
       </c>
       <c r="K98" s="5" t="str">
-        <f t="shared" si="68"/>
-        <v>20/3/2020</v>
+        <f t="shared" si="76"/>
+        <v>16/3/2020</v>
       </c>
       <c r="L98" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>20/3/2020,20,3,2020,3958,46,New_York_City,nn,nnn,8400000,New_York_City</v>
+        <f t="shared" si="39"/>
+        <v>16/3/2020,16,3,2020,2106,9,New_York_City,nn,nnn,8400000,New_York_City</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" s="53">
-        <v>43911</v>
+        <v>43907</v>
       </c>
       <c r="B99" s="48"/>
       <c r="C99" s="49"/>
       <c r="D99">
-        <v>2591</v>
+        <v>2392</v>
       </c>
       <c r="E99" t="s">
         <v>62</v>
       </c>
       <c r="G99">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="H99">
         <v>8400000</v>
       </c>
       <c r="K99" s="5" t="str">
-        <f t="shared" si="68"/>
-        <v>21/3/2020</v>
+        <f t="shared" si="76"/>
+        <v>17/3/2020</v>
       </c>
       <c r="L99" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>21/3/2020,21,3,2020,2591,40,New_York_City,nn,nnn,8400000,New_York_City</v>
+        <f t="shared" si="39"/>
+        <v>17/3/2020,17,3,2020,2392,7,New_York_City,nn,nnn,8400000,New_York_City</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" s="53">
-        <v>43912</v>
+        <v>43908</v>
       </c>
       <c r="B100" s="48"/>
       <c r="C100" s="49"/>
       <c r="D100">
-        <v>2542</v>
+        <v>2928</v>
       </c>
       <c r="E100" t="s">
         <v>62</v>
       </c>
       <c r="G100">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="H100">
         <v>8400000</v>
       </c>
       <c r="K100" s="5" t="str">
-        <f t="shared" si="68"/>
-        <v>22/3/2020</v>
+        <f t="shared" si="76"/>
+        <v>18/3/2020</v>
       </c>
       <c r="L100" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>22/3/2020,22,3,2020,2542,46,New_York_City,nn,nnn,8400000,New_York_City</v>
+        <f t="shared" si="39"/>
+        <v>18/3/2020,18,3,2020,2928,21,New_York_City,nn,nnn,8400000,New_York_City</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" s="53">
-        <v>43913</v>
+        <v>43909</v>
       </c>
       <c r="B101" s="48"/>
       <c r="C101" s="49"/>
       <c r="D101">
-        <v>3477</v>
+        <v>3653</v>
       </c>
       <c r="E101" t="s">
         <v>62</v>
       </c>
       <c r="G101">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="H101">
         <v>8400000</v>
       </c>
       <c r="K101" s="5" t="str">
-        <f t="shared" si="68"/>
-        <v>23/3/2020</v>
+        <f t="shared" si="76"/>
+        <v>19/3/2020</v>
       </c>
       <c r="L101" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>23/3/2020,23,3,2020,3477,81,New_York_City,nn,nnn,8400000,New_York_City</v>
+        <f t="shared" si="39"/>
+        <v>19/3/2020,19,3,2020,3653,25,New_York_City,nn,nnn,8400000,New_York_City</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" s="53">
-        <v>43914</v>
+        <v>43910</v>
       </c>
       <c r="B102" s="48"/>
       <c r="C102" s="49"/>
       <c r="D102">
-        <v>4365</v>
+        <v>3958</v>
       </c>
       <c r="E102" t="s">
         <v>62</v>
       </c>
       <c r="G102">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="H102">
         <v>8400000</v>
       </c>
       <c r="K102" s="5" t="str">
-        <f t="shared" si="68"/>
-        <v>24/3/2020</v>
+        <f t="shared" si="76"/>
+        <v>20/3/2020</v>
       </c>
       <c r="L102" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>24/3/2020,24,3,2020,4365,92,New_York_City,nn,nnn,8400000,New_York_City</v>
+        <f t="shared" si="39"/>
+        <v>20/3/2020,20,3,2020,3958,46,New_York_City,nn,nnn,8400000,New_York_City</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" s="53">
-        <v>43915</v>
+        <v>43911</v>
       </c>
       <c r="B103" s="48"/>
       <c r="C103" s="49"/>
       <c r="D103">
-        <v>4705</v>
+        <v>2591</v>
       </c>
       <c r="E103" t="s">
         <v>62</v>
       </c>
       <c r="G103">
-        <v>119</v>
+        <v>40</v>
       </c>
       <c r="H103">
         <v>8400000</v>
       </c>
       <c r="K103" s="5" t="str">
-        <f t="shared" si="68"/>
-        <v>25/3/2020</v>
+        <f t="shared" si="76"/>
+        <v>21/3/2020</v>
       </c>
       <c r="L103" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>25/3/2020,25,3,2020,4705,119,New_York_City,nn,nnn,8400000,New_York_City</v>
+        <f t="shared" si="39"/>
+        <v>21/3/2020,21,3,2020,2591,40,New_York_City,nn,nnn,8400000,New_York_City</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" s="53">
-        <v>43916</v>
+        <v>43912</v>
       </c>
       <c r="B104" s="48"/>
       <c r="C104" s="49"/>
       <c r="D104">
-        <v>4872</v>
+        <v>2542</v>
       </c>
       <c r="E104" t="s">
         <v>62</v>
       </c>
       <c r="G104">
-        <v>184</v>
+        <v>46</v>
       </c>
       <c r="H104">
         <v>8400000</v>
       </c>
       <c r="K104" s="5" t="str">
-        <f t="shared" si="68"/>
-        <v>26/3/2020</v>
+        <f t="shared" si="76"/>
+        <v>22/3/2020</v>
       </c>
       <c r="L104" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>26/3/2020,26,3,2020,4872,184,New_York_City,nn,nnn,8400000,New_York_City</v>
+        <f t="shared" si="39"/>
+        <v>22/3/2020,22,3,2020,2542,46,New_York_City,nn,nnn,8400000,New_York_City</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" s="53">
-        <v>43917</v>
+        <v>43913</v>
       </c>
       <c r="B105" s="48"/>
       <c r="C105" s="49"/>
       <c r="D105">
-        <v>4953</v>
+        <v>3477</v>
       </c>
       <c r="E105" t="s">
         <v>62</v>
       </c>
       <c r="G105">
-        <v>203</v>
+        <v>81</v>
       </c>
       <c r="H105">
         <v>8400000</v>
       </c>
       <c r="K105" s="5" t="str">
-        <f t="shared" si="68"/>
-        <v>27/3/2020</v>
+        <f t="shared" si="76"/>
+        <v>23/3/2020</v>
       </c>
       <c r="L105" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>27/3/2020,27,3,2020,4953,203,New_York_City,nn,nnn,8400000,New_York_City</v>
+        <f t="shared" si="39"/>
+        <v>23/3/2020,23,3,2020,3477,81,New_York_City,nn,nnn,8400000,New_York_City</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" s="53">
-        <v>43918</v>
+        <v>43914</v>
       </c>
       <c r="B106" s="48"/>
       <c r="C106" s="49"/>
       <c r="D106">
-        <v>3350</v>
+        <v>4365</v>
       </c>
       <c r="E106" t="s">
         <v>62</v>
       </c>
       <c r="G106">
-        <v>253</v>
+        <v>92</v>
       </c>
       <c r="H106">
         <v>8400000</v>
       </c>
       <c r="K106" s="5" t="str">
-        <f t="shared" si="68"/>
-        <v>28/3/2020</v>
+        <f t="shared" si="76"/>
+        <v>24/3/2020</v>
       </c>
       <c r="L106" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>28/3/2020,28,3,2020,3350,253,New_York_City,nn,nnn,8400000,New_York_City</v>
+        <f t="shared" si="39"/>
+        <v>24/3/2020,24,3,2020,4365,92,New_York_City,nn,nnn,8400000,New_York_City</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107" s="53">
-        <v>43919</v>
+        <v>43915</v>
       </c>
       <c r="B107" s="48"/>
       <c r="C107" s="49"/>
       <c r="D107">
-        <v>3424</v>
+        <v>4705</v>
       </c>
       <c r="E107" t="s">
         <v>62</v>
       </c>
       <c r="G107">
-        <v>274</v>
+        <v>119</v>
       </c>
       <c r="H107">
         <v>8400000</v>
       </c>
       <c r="K107" s="5" t="str">
-        <f t="shared" si="68"/>
-        <v>29/3/2020</v>
+        <f t="shared" si="76"/>
+        <v>25/3/2020</v>
       </c>
       <c r="L107" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>29/3/2020,29,3,2020,3424,274,New_York_City,nn,nnn,8400000,New_York_City</v>
+        <f t="shared" si="39"/>
+        <v>25/3/2020,25,3,2020,4705,119,New_York_City,nn,nnn,8400000,New_York_City</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108" s="53">
-        <v>43920</v>
+        <v>43916</v>
       </c>
       <c r="B108" s="48"/>
       <c r="C108" s="49"/>
       <c r="D108">
-        <v>5973</v>
+        <v>4872</v>
       </c>
       <c r="E108" t="s">
         <v>62</v>
       </c>
       <c r="G108">
-        <v>295</v>
+        <v>184</v>
       </c>
       <c r="H108">
         <v>8400000</v>
       </c>
       <c r="K108" s="5" t="str">
-        <f t="shared" si="68"/>
-        <v>30/3/2020</v>
+        <f t="shared" si="76"/>
+        <v>26/3/2020</v>
       </c>
       <c r="L108" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>30/3/2020,30,3,2020,5973,295,New_York_City,nn,nnn,8400000,New_York_City</v>
+        <f t="shared" si="39"/>
+        <v>26/3/2020,26,3,2020,4872,184,New_York_City,nn,nnn,8400000,New_York_City</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109" s="53">
-        <v>43921</v>
+        <v>43917</v>
       </c>
       <c r="B109" s="48"/>
       <c r="C109" s="49"/>
       <c r="D109">
-        <v>5136</v>
+        <v>4953</v>
       </c>
       <c r="E109" t="s">
         <v>62</v>
       </c>
       <c r="G109">
-        <v>356</v>
+        <v>203</v>
       </c>
       <c r="H109">
         <v>8400000</v>
       </c>
       <c r="K109" s="5" t="str">
-        <f t="shared" si="68"/>
-        <v>31/3/2020</v>
+        <f t="shared" si="76"/>
+        <v>27/3/2020</v>
       </c>
       <c r="L109" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>31/3/2020,31,3,2020,5136,356,New_York_City,nn,nnn,8400000,New_York_City</v>
+        <f t="shared" si="39"/>
+        <v>27/3/2020,27,3,2020,4953,203,New_York_City,nn,nnn,8400000,New_York_City</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110" s="53">
-        <v>43922</v>
+        <v>43918</v>
       </c>
       <c r="B110" s="48"/>
       <c r="C110" s="49"/>
       <c r="D110">
-        <v>4888</v>
+        <v>3350</v>
       </c>
       <c r="E110" t="s">
         <v>62</v>
       </c>
       <c r="G110">
-        <v>401</v>
+        <v>253</v>
       </c>
       <c r="H110">
         <v>8400000</v>
       </c>
       <c r="K110" s="5" t="str">
-        <f t="shared" si="68"/>
-        <v>1/4/2020</v>
+        <f t="shared" si="76"/>
+        <v>28/3/2020</v>
       </c>
       <c r="L110" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>1/4/2020,1,4,2020,4888,401,New_York_City,nn,nnn,8400000,New_York_City</v>
+        <f t="shared" si="39"/>
+        <v>28/3/2020,28,3,2020,3350,253,New_York_City,nn,nnn,8400000,New_York_City</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111" s="53">
-        <v>43923</v>
+        <v>43919</v>
       </c>
       <c r="B111" s="48"/>
       <c r="C111" s="49"/>
       <c r="D111">
-        <v>5533</v>
+        <v>3424</v>
       </c>
       <c r="E111" t="s">
         <v>62</v>
       </c>
       <c r="G111">
-        <v>433</v>
+        <v>274</v>
       </c>
       <c r="H111">
         <v>8400000</v>
       </c>
       <c r="K111" s="5" t="str">
-        <f t="shared" si="68"/>
-        <v>2/4/2020</v>
+        <f t="shared" si="76"/>
+        <v>29/3/2020</v>
       </c>
       <c r="L111" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>2/4/2020,2,4,2020,5533,433,New_York_City,nn,nnn,8400000,New_York_City</v>
+        <f t="shared" si="39"/>
+        <v>29/3/2020,29,3,2020,3424,274,New_York_City,nn,nnn,8400000,New_York_City</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112" s="53">
-        <v>43924</v>
+        <v>43920</v>
       </c>
       <c r="B112" s="48"/>
       <c r="C112" s="49"/>
       <c r="D112">
-        <v>5396</v>
+        <v>5973</v>
       </c>
       <c r="E112" t="s">
         <v>62</v>
       </c>
       <c r="G112">
-        <v>441</v>
+        <v>295</v>
       </c>
       <c r="H112">
         <v>8400000</v>
       </c>
       <c r="K112" s="5" t="str">
-        <f t="shared" si="68"/>
-        <v>3/4/2020</v>
+        <f t="shared" si="76"/>
+        <v>30/3/2020</v>
       </c>
       <c r="L112" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>3/4/2020,3,4,2020,5396,441,New_York_City,nn,nnn,8400000,New_York_City</v>
+        <f t="shared" si="39"/>
+        <v>30/3/2020,30,3,2020,5973,295,New_York_City,nn,nnn,8400000,New_York_City</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113" s="53">
-        <v>43925</v>
+        <v>43921</v>
       </c>
       <c r="B113" s="48"/>
       <c r="C113" s="49"/>
       <c r="D113">
-        <v>3666</v>
+        <v>5136</v>
       </c>
       <c r="E113" t="s">
         <v>62</v>
       </c>
       <c r="G113">
-        <v>450</v>
+        <v>356</v>
       </c>
       <c r="H113">
         <v>8400000</v>
       </c>
       <c r="K113" s="5" t="str">
-        <f t="shared" si="68"/>
-        <v>4/4/2020</v>
+        <f t="shared" si="76"/>
+        <v>31/3/2020</v>
       </c>
       <c r="L113" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>4/4/2020,4,4,2020,3666,450,New_York_City,nn,nnn,8400000,New_York_City</v>
+        <f t="shared" si="39"/>
+        <v>31/3/2020,31,3,2020,5136,356,New_York_City,nn,nnn,8400000,New_York_City</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114" s="53">
-        <v>43926</v>
+        <v>43922</v>
       </c>
       <c r="B114" s="48"/>
       <c r="C114" s="49"/>
       <c r="D114">
-        <v>3572</v>
+        <v>4993</v>
       </c>
       <c r="E114" t="s">
         <v>62</v>
       </c>
       <c r="G114">
-        <v>506</v>
+        <v>402</v>
       </c>
       <c r="H114">
         <v>8400000</v>
       </c>
       <c r="K114" s="5" t="str">
-        <f t="shared" si="68"/>
-        <v>5/4/2020</v>
+        <f t="shared" si="76"/>
+        <v>1/4/2020</v>
       </c>
       <c r="L114" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>5/4/2020,5,4,2020,3572,506,New_York_City,nn,nnn,8400000,New_York_City</v>
+        <f t="shared" si="39"/>
+        <v>1/4/2020,1,4,2020,4993,402,New_York_City,nn,nnn,8400000,New_York_City</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115" s="53">
-        <v>43927</v>
+        <v>43923</v>
       </c>
       <c r="B115" s="48"/>
       <c r="C115" s="49"/>
       <c r="D115">
-        <v>6155</v>
+        <v>5615</v>
       </c>
       <c r="E115" t="s">
         <v>62</v>
       </c>
       <c r="G115">
-        <v>513</v>
+        <v>441</v>
       </c>
       <c r="H115">
         <v>8400000</v>
       </c>
       <c r="K115" s="5" t="str">
-        <f t="shared" si="68"/>
-        <v>6/4/2020</v>
+        <f t="shared" si="76"/>
+        <v>2/4/2020</v>
       </c>
       <c r="L115" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>6/4/2020,6,4,2020,6155,513,New_York_City,nn,nnn,8400000,New_York_City</v>
+        <f t="shared" si="39"/>
+        <v>2/4/2020,2,4,2020,5615,441,New_York_City,nn,nnn,8400000,New_York_City</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116" s="53">
-        <v>43928</v>
+        <v>43924</v>
       </c>
       <c r="B116" s="48"/>
       <c r="C116" s="49"/>
       <c r="D116">
-        <v>5830</v>
+        <v>5473</v>
       </c>
       <c r="E116" t="s">
         <v>62</v>
       </c>
       <c r="G116">
-        <v>533</v>
+        <v>447</v>
       </c>
       <c r="H116">
         <v>8400000</v>
       </c>
       <c r="K116" s="5" t="str">
-        <f t="shared" si="68"/>
-        <v>7/4/2020</v>
+        <f t="shared" si="76"/>
+        <v>3/4/2020</v>
       </c>
       <c r="L116" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>7/4/2020,7,4,2020,5830,533,New_York_City,nn,nnn,8400000,New_York_City</v>
+        <f t="shared" si="39"/>
+        <v>3/4/2020,3,4,2020,5473,447,New_York_City,nn,nnn,8400000,New_York_City</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A117" s="53">
-        <v>43929</v>
+        <v>43925</v>
       </c>
       <c r="B117" s="48"/>
       <c r="C117" s="49"/>
       <c r="D117">
-        <v>5341</v>
+        <v>3739</v>
       </c>
       <c r="E117" t="s">
         <v>62</v>
@@ -4730,232 +4754,451 @@
         <v>8400000</v>
       </c>
       <c r="K117" s="5" t="str">
-        <f t="shared" si="68"/>
-        <v>8/4/2020</v>
+        <f t="shared" si="76"/>
+        <v>4/4/2020</v>
       </c>
       <c r="L117" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>8/4/2020,8,4,2020,5341,459,New_York_City,nn,nnn,8400000,New_York_City</v>
+        <f t="shared" si="39"/>
+        <v>4/4/2020,4,4,2020,3739,459,New_York_City,nn,nnn,8400000,New_York_City</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118" s="53">
-        <v>43930</v>
+        <v>43926</v>
       </c>
       <c r="B118" s="48"/>
       <c r="C118" s="49"/>
       <c r="D118">
-        <v>4826</v>
+        <v>3590</v>
       </c>
       <c r="E118" t="s">
         <v>62</v>
       </c>
       <c r="G118">
-        <v>436</v>
+        <v>516</v>
       </c>
       <c r="H118">
         <v>8400000</v>
       </c>
       <c r="K118" s="5" t="str">
-        <f t="shared" si="68"/>
-        <v>9/4/2020</v>
+        <f t="shared" si="76"/>
+        <v>5/4/2020</v>
       </c>
       <c r="L118" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>9/4/2020,9,4,2020,4826,436,New_York_City,nn,nnn,8400000,New_York_City</v>
+        <f t="shared" si="39"/>
+        <v>5/4/2020,5,4,2020,3590,516,New_York_City,nn,nnn,8400000,New_York_City</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119" s="53">
-        <v>43931</v>
+        <v>43927</v>
       </c>
       <c r="B119" s="48"/>
       <c r="C119" s="49"/>
       <c r="D119">
-        <v>4182</v>
+        <v>6194</v>
       </c>
       <c r="E119" t="s">
         <v>62</v>
       </c>
       <c r="G119">
-        <v>417</v>
+        <v>521</v>
       </c>
       <c r="H119">
         <v>8400000</v>
       </c>
       <c r="K119" s="5" t="str">
-        <f t="shared" si="68"/>
-        <v>10/4/2020</v>
+        <f t="shared" si="76"/>
+        <v>6/4/2020</v>
       </c>
       <c r="L119" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>10/4/2020,10,4,2020,4182,417,New_York_City,nn,nnn,8400000,New_York_City</v>
+        <f t="shared" si="39"/>
+        <v>6/4/2020,6,4,2020,6194,521,New_York_City,nn,nnn,8400000,New_York_City</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A120" s="53">
-        <v>43932</v>
+        <v>43928</v>
       </c>
       <c r="B120" s="48"/>
       <c r="C120" s="49"/>
       <c r="D120">
-        <v>3467</v>
+        <v>5866</v>
       </c>
       <c r="E120" t="s">
         <v>62</v>
       </c>
       <c r="G120">
-        <v>401</v>
+        <v>543</v>
       </c>
       <c r="H120">
         <v>8400000</v>
       </c>
       <c r="K120" s="5" t="str">
-        <f t="shared" si="68"/>
-        <v>11/4/2020</v>
+        <f t="shared" si="76"/>
+        <v>7/4/2020</v>
       </c>
       <c r="L120" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>11/4/2020,11,4,2020,3467,401,New_York_City,nn,nnn,8400000,New_York_City</v>
+        <f t="shared" si="39"/>
+        <v>7/4/2020,7,4,2020,5866,543,New_York_City,nn,nnn,8400000,New_York_City</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121" s="53">
-        <v>43933</v>
+        <v>43929</v>
       </c>
       <c r="B121" s="48"/>
       <c r="C121" s="49"/>
       <c r="D121">
-        <v>2600</v>
+        <v>5372</v>
       </c>
       <c r="E121" t="s">
         <v>62</v>
       </c>
       <c r="G121">
-        <v>409</v>
+        <v>470</v>
       </c>
       <c r="H121">
         <v>8400000</v>
       </c>
       <c r="K121" s="5" t="str">
-        <f t="shared" si="68"/>
-        <v>12/4/2020</v>
+        <f t="shared" si="76"/>
+        <v>8/4/2020</v>
       </c>
       <c r="L121" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>12/4/2020,12,4,2020,2600,409,New_York_City,nn,nnn,8400000,New_York_City</v>
+        <f t="shared" si="39"/>
+        <v>8/4/2020,8,4,2020,5372,470,New_York_City,nn,nnn,8400000,New_York_City</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122" s="53">
-        <v>43934</v>
+        <v>43930</v>
       </c>
       <c r="B122" s="48"/>
       <c r="C122" s="49"/>
       <c r="D122">
-        <v>2974</v>
+        <v>4836</v>
       </c>
       <c r="E122" t="s">
         <v>62</v>
       </c>
       <c r="G122">
-        <v>393</v>
+        <v>470</v>
       </c>
       <c r="H122">
         <v>8400000</v>
       </c>
       <c r="K122" s="5" t="str">
-        <f t="shared" si="68"/>
-        <v>13/4/2020</v>
+        <f t="shared" si="76"/>
+        <v>9/4/2020</v>
       </c>
       <c r="L122" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>13/4/2020,13,4,2020,2974,393,New_York_City,nn,nnn,8400000,New_York_City</v>
+        <f t="shared" si="39"/>
+        <v>9/4/2020,9,4,2020,4836,470,New_York_City,nn,nnn,8400000,New_York_City</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123" s="53">
-        <v>43935</v>
+        <v>43931</v>
       </c>
       <c r="B123" s="48"/>
       <c r="C123" s="49"/>
       <c r="D123">
-        <v>3586</v>
+        <v>4204</v>
       </c>
       <c r="E123" t="s">
         <v>62</v>
       </c>
       <c r="G123">
-        <v>326</v>
+        <v>445</v>
       </c>
       <c r="H123">
         <v>8400000</v>
       </c>
       <c r="K123" s="5" t="str">
-        <f t="shared" si="68"/>
-        <v>14/4/2020</v>
+        <f t="shared" si="76"/>
+        <v>10/4/2020</v>
       </c>
       <c r="L123" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>14/4/2020,14,4,2020,3586,326,New_York_City,nn,nnn,8400000,New_York_City</v>
+        <f t="shared" si="39"/>
+        <v>10/4/2020,10,4,2020,4204,445,New_York_City,nn,nnn,8400000,New_York_City</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124" s="53">
-        <v>43936</v>
+        <v>43932</v>
       </c>
       <c r="B124" s="48"/>
       <c r="C124" s="49"/>
       <c r="D124">
-        <v>3015</v>
+        <v>3530</v>
       </c>
       <c r="E124" t="s">
         <v>62</v>
       </c>
       <c r="G124">
-        <v>280</v>
+        <v>442</v>
       </c>
       <c r="H124">
         <v>8400000</v>
       </c>
       <c r="K124" s="5" t="str">
-        <f t="shared" ref="K124:K125" si="69">DAY(A124)&amp;"/"&amp;MONTH(A124)&amp;"/"&amp;YEAR(A124)</f>
-        <v>15/4/2020</v>
+        <f t="shared" si="76"/>
+        <v>11/4/2020</v>
       </c>
       <c r="L124" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>15/4/2020,15,4,2020,3015,280,New_York_City,nn,nnn,8400000,New_York_City</v>
+        <f t="shared" si="39"/>
+        <v>11/4/2020,11,4,2020,3530,442,New_York_City,nn,nnn,8400000,New_York_City</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A125" s="53">
-        <v>43937</v>
-      </c>
-      <c r="B125" s="57"/>
+        <v>43933</v>
+      </c>
+      <c r="B125" s="48"/>
       <c r="C125" s="49"/>
       <c r="D125">
-        <v>2107</v>
+        <v>2668</v>
       </c>
       <c r="E125" t="s">
         <v>62</v>
       </c>
       <c r="G125">
-        <v>226</v>
+        <v>447</v>
       </c>
       <c r="H125">
         <v>8400000</v>
       </c>
       <c r="K125" s="5" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="76"/>
+        <v>12/4/2020</v>
+      </c>
+      <c r="L125" s="3" t="str">
+        <f t="shared" si="39"/>
+        <v>12/4/2020,12,4,2020,2668,447,New_York_City,nn,nnn,8400000,New_York_City</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A126" s="53">
+        <v>43934</v>
+      </c>
+      <c r="B126" s="48"/>
+      <c r="C126" s="49"/>
+      <c r="D126">
+        <v>3104</v>
+      </c>
+      <c r="E126" t="s">
+        <v>62</v>
+      </c>
+      <c r="G126">
+        <v>441</v>
+      </c>
+      <c r="H126">
+        <v>8400000</v>
+      </c>
+      <c r="K126" s="5" t="str">
+        <f t="shared" si="76"/>
+        <v>13/4/2020</v>
+      </c>
+      <c r="L126" s="3" t="str">
+        <f t="shared" si="39"/>
+        <v>13/4/2020,13,4,2020,3104,441,New_York_City,nn,nnn,8400000,New_York_City</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A127" s="53">
+        <v>43935</v>
+      </c>
+      <c r="B127" s="48"/>
+      <c r="C127" s="49"/>
+      <c r="D127">
+        <v>3885</v>
+      </c>
+      <c r="E127" t="s">
+        <v>62</v>
+      </c>
+      <c r="G127">
+        <v>378</v>
+      </c>
+      <c r="H127">
+        <v>8400000</v>
+      </c>
+      <c r="K127" s="5" t="str">
+        <f t="shared" si="76"/>
+        <v>14/4/2020</v>
+      </c>
+      <c r="L127" s="3" t="str">
+        <f t="shared" si="39"/>
+        <v>14/4/2020,14,4,2020,3885,378,New_York_City,nn,nnn,8400000,New_York_City</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A128" s="53">
+        <v>43936</v>
+      </c>
+      <c r="B128" s="48"/>
+      <c r="C128" s="49"/>
+      <c r="D128">
+        <v>3511</v>
+      </c>
+      <c r="E128" t="s">
+        <v>62</v>
+      </c>
+      <c r="G128">
+        <v>323</v>
+      </c>
+      <c r="H128">
+        <v>8400000</v>
+      </c>
+      <c r="K128" s="5" t="str">
+        <f t="shared" ref="K128:K129" si="77">DAY(A128)&amp;"/"&amp;MONTH(A128)&amp;"/"&amp;YEAR(A128)</f>
+        <v>15/4/2020</v>
+      </c>
+      <c r="L128" s="3" t="str">
+        <f t="shared" si="39"/>
+        <v>15/4/2020,15,4,2020,3511,323,New_York_City,nn,nnn,8400000,New_York_City</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A129" s="53">
+        <v>43937</v>
+      </c>
+      <c r="B129" s="57"/>
+      <c r="C129" s="49"/>
+      <c r="D129">
+        <v>2964</v>
+      </c>
+      <c r="E129" t="s">
+        <v>62</v>
+      </c>
+      <c r="G129">
+        <v>263</v>
+      </c>
+      <c r="H129">
+        <v>8400000</v>
+      </c>
+      <c r="K129" s="5" t="str">
+        <f t="shared" si="77"/>
         <v>16/4/2020</v>
       </c>
-      <c r="L125" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>16/4/2020,16,4,2020,2107,226,New_York_City,nn,nnn,8400000,New_York_City</v>
-      </c>
+      <c r="L129" s="3" t="str">
+        <f t="shared" si="39"/>
+        <v>16/4/2020,16,4,2020,2964,263,New_York_City,nn,nnn,8400000,New_York_City</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A130" s="53">
+        <v>43938</v>
+      </c>
+      <c r="D130">
+        <v>2660</v>
+      </c>
+      <c r="E130" t="s">
+        <v>62</v>
+      </c>
+      <c r="G130">
+        <v>247</v>
+      </c>
+      <c r="H130">
+        <v>8400000</v>
+      </c>
+      <c r="K130" s="5" t="str">
+        <f t="shared" ref="K130:K132" si="78">DAY(A130)&amp;"/"&amp;MONTH(A130)&amp;"/"&amp;YEAR(A130)</f>
+        <v>17/4/2020</v>
+      </c>
+      <c r="L130" s="3" t="str">
+        <f t="shared" ref="L130:L132" si="79">K130&amp;$L$1&amp;DAY(A130)&amp;$L$1&amp;MONTH(A130)&amp;$L$1&amp;YEAR(A130)&amp;$L$1&amp;D130&amp;$L$1&amp;G130&amp;$L$1&amp;E130&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H130&amp;$L$1&amp;E130</f>
+        <v>17/4/2020,17,4,2020,2660,247,New_York_City,nn,nnn,8400000,New_York_City</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A131" s="53">
+        <v>43939</v>
+      </c>
+      <c r="D131">
+        <v>1205</v>
+      </c>
+      <c r="E131" t="s">
+        <v>62</v>
+      </c>
+      <c r="G131">
+        <v>219</v>
+      </c>
+      <c r="H131">
+        <v>8400000</v>
+      </c>
+      <c r="K131" s="5" t="str">
+        <f t="shared" si="78"/>
+        <v>18/4/2020</v>
+      </c>
+      <c r="L131" s="3" t="str">
+        <f t="shared" si="79"/>
+        <v>18/4/2020,18,4,2020,1205,219,New_York_City,nn,nnn,8400000,New_York_City</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A132" s="53">
+        <v>43940</v>
+      </c>
+      <c r="D132">
+        <v>870</v>
+      </c>
+      <c r="E132" t="s">
+        <v>62</v>
+      </c>
+      <c r="G132">
+        <v>177</v>
+      </c>
+      <c r="H132">
+        <v>8400000</v>
+      </c>
+      <c r="K132" s="5" t="str">
+        <f t="shared" si="78"/>
+        <v>19/4/2020</v>
+      </c>
+      <c r="L132" s="3" t="str">
+        <f t="shared" si="79"/>
+        <v>19/4/2020,19,4,2020,870,177,New_York_City,nn,nnn,8400000,New_York_City</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D135" s="1"/>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D136" s="1"/>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D137" s="1"/>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D138" s="1"/>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D139" s="1"/>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D140" s="1"/>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D141" s="1"/>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D142" s="1"/>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D143" s="1"/>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D144" s="1"/>
+    </row>
+    <row r="145" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D145" s="1"/>
+    </row>
+    <row r="146" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D146" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:F62">
+  <autoFilter ref="A3:F64">
     <sortState ref="A4:G23">
       <sortCondition ref="E3:E20"/>
     </sortState>
@@ -4968,11 +5211,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BD71"/>
+  <dimension ref="A1:BD73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BD3" sqref="BD3:BD58"/>
+    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BD3" sqref="BD3:BD60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13147,7 +13390,7 @@
         <v>786</v>
       </c>
       <c r="I47" s="41">
-        <v>4209</v>
+        <v>4198</v>
       </c>
       <c r="J47" s="41">
         <v>67</v>
@@ -13195,7 +13438,7 @@
         <v>4424</v>
       </c>
       <c r="Y47" s="41">
-        <v>1525</v>
+        <v>1598</v>
       </c>
       <c r="Z47" s="41">
         <v>165</v>
@@ -13204,7 +13447,7 @@
         <v>2887</v>
       </c>
       <c r="AB47" s="41">
-        <v>24200</v>
+        <v>24262</v>
       </c>
       <c r="AC47" s="15" t="str">
         <f t="shared" si="9"/>
@@ -13240,7 +13483,7 @@
       </c>
       <c r="AK47" s="3" t="str">
         <f>$AC47&amp;$AC$1&amp;I47&amp;$AC$1&amp;fatalities!I48&amp;$AC$1&amp;I$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;I$2&amp;$AC$1&amp;I$1</f>
-        <v>9/4/2020,9,4,2020,4209,145,GE,nn,nnn,499480,GE</v>
+        <v>9/4/2020,9,4,2020,4198,149,GE,nn,nnn,499480,GE</v>
       </c>
       <c r="AL47" s="3" t="str">
         <f>$AC47&amp;$AC$1&amp;J47&amp;$AC$1&amp;fatalities!J48&amp;$AC$1&amp;J$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;J$2&amp;$AC$1&amp;J$1</f>
@@ -13252,7 +13495,7 @@
       </c>
       <c r="AN47" s="3" t="str">
         <f>$AC47&amp;$AC$1&amp;L47&amp;$AC$1&amp;fatalities!L48&amp;$AC$1&amp;L$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;L$2&amp;$AC$1&amp;L$1</f>
-        <v>9/4/2020,9,4,2020,179,,JU,nn,nnn,73419,JU</v>
+        <v>9/4/2020,9,4,2020,179,1,JU,nn,nnn,73419,JU</v>
       </c>
       <c r="AO47" s="3" t="str">
         <f>$AC47&amp;$AC$1&amp;M47&amp;$AC$1&amp;fatalities!M48&amp;$AC$1&amp;M$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;M$2&amp;$AC$1&amp;M$1</f>
@@ -13304,7 +13547,7 @@
       </c>
       <c r="BA47" s="3" t="str">
         <f>$AC47&amp;$AC$1&amp;Y47&amp;$AC$1&amp;fatalities!Y48&amp;$AC$1&amp;Y$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Y$2&amp;$AC$1&amp;Y$1</f>
-        <v>9/4/2020,9,4,2020,1525,73,VS,nn,nnn,343955,VS</v>
+        <v>9/4/2020,9,4,2020,1598,77,VS,nn,nnn,343955,VS</v>
       </c>
       <c r="BB47" s="3" t="str">
         <f>$AC47&amp;$AC$1&amp;Z47&amp;$AC$1&amp;fatalities!Z48&amp;$AC$1&amp;Z$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Z$2&amp;$AC$1&amp;Z$1</f>
@@ -13312,11 +13555,11 @@
       </c>
       <c r="BC47" s="3" t="str">
         <f>$AC47&amp;$AC$1&amp;AA47&amp;$AC$1&amp;fatalities!AA48&amp;$AC$1&amp;AA$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AA$2&amp;$AC$1&amp;AA$1</f>
-        <v>9/4/2020,9,4,2020,2887,65,ZH,nn,nnn,1520968,ZH</v>
+        <v>9/4/2020,9,4,2020,2887,66,ZH,nn,nnn,1520968,ZH</v>
       </c>
       <c r="BD47" s="3" t="str">
         <f>$AC47&amp;$AC$1&amp;AB47&amp;$AC$1&amp;fatalities!AB48&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2&amp;$AC$1&amp;AB$1</f>
-        <v>9/4/2020,9,4,2020,24200,997,CH,nn,nnn,8543707,CH</v>
+        <v>9/4/2020,9,4,2020,24262,1006,CH,nn,nnn,8543707,CH</v>
       </c>
     </row>
     <row r="48" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -13343,7 +13586,7 @@
         <v>796</v>
       </c>
       <c r="I48" s="43">
-        <v>4251</v>
+        <v>4240</v>
       </c>
       <c r="J48" s="43"/>
       <c r="K48" s="43">
@@ -13387,7 +13630,7 @@
         <v>4524</v>
       </c>
       <c r="Y48" s="43">
-        <v>1565</v>
+        <v>1627</v>
       </c>
       <c r="Z48" s="43">
         <v>168</v>
@@ -13396,7 +13639,7 @@
         <v>2927</v>
       </c>
       <c r="AB48" s="43">
-        <v>24702</v>
+        <v>24753</v>
       </c>
       <c r="AC48" s="15" t="str">
         <f t="shared" si="9"/>
@@ -13432,7 +13675,7 @@
       </c>
       <c r="AK48" s="3" t="str">
         <f>$AC48&amp;$AC$1&amp;I48&amp;$AC$1&amp;fatalities!I49&amp;$AC$1&amp;I$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;I$2&amp;$AC$1&amp;I$1</f>
-        <v>10/4/2020,10,4,2020,4251,154,GE,nn,nnn,499480,GE</v>
+        <v>10/4/2020,10,4,2020,4240,159,GE,nn,nnn,499480,GE</v>
       </c>
       <c r="AL48" s="3" t="str">
         <f>$AC48&amp;$AC$1&amp;J48&amp;$AC$1&amp;fatalities!J49&amp;$AC$1&amp;J$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;J$2&amp;$AC$1&amp;J$1</f>
@@ -13444,7 +13687,7 @@
       </c>
       <c r="AN48" s="3" t="str">
         <f>$AC48&amp;$AC$1&amp;L48&amp;$AC$1&amp;fatalities!L49&amp;$AC$1&amp;L$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;L$2&amp;$AC$1&amp;L$1</f>
-        <v>10/4/2020,10,4,2020,182,2,JU,nn,nnn,73419,JU</v>
+        <v>10/4/2020,10,4,2020,182,3,JU,nn,nnn,73419,JU</v>
       </c>
       <c r="AO48" s="3" t="str">
         <f>$AC48&amp;$AC$1&amp;M48&amp;$AC$1&amp;fatalities!M49&amp;$AC$1&amp;M$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;M$2&amp;$AC$1&amp;M$1</f>
@@ -13496,7 +13739,7 @@
       </c>
       <c r="BA48" s="3" t="str">
         <f>$AC48&amp;$AC$1&amp;Y48&amp;$AC$1&amp;fatalities!Y49&amp;$AC$1&amp;Y$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Y$2&amp;$AC$1&amp;Y$1</f>
-        <v>10/4/2020,10,4,2020,1565,75,VS,nn,nnn,343955,VS</v>
+        <v>10/4/2020,10,4,2020,1627,83,VS,nn,nnn,343955,VS</v>
       </c>
       <c r="BB48" s="3" t="str">
         <f>$AC48&amp;$AC$1&amp;Z48&amp;$AC$1&amp;fatalities!Z49&amp;$AC$1&amp;Z$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Z$2&amp;$AC$1&amp;Z$1</f>
@@ -13504,11 +13747,11 @@
       </c>
       <c r="BC48" s="3" t="str">
         <f>$AC48&amp;$AC$1&amp;AA48&amp;$AC$1&amp;fatalities!AA49&amp;$AC$1&amp;AA$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AA$2&amp;$AC$1&amp;AA$1</f>
-        <v>10/4/2020,10,4,2020,2927,70,ZH,nn,nnn,1520968,ZH</v>
+        <v>10/4/2020,10,4,2020,2927,71,ZH,nn,nnn,1520968,ZH</v>
       </c>
       <c r="BD48" s="3" t="str">
         <f>$AC48&amp;$AC$1&amp;AB48&amp;$AC$1&amp;fatalities!AB49&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2&amp;$AC$1&amp;AB$1</f>
-        <v>10/4/2020,10,4,2020,24702,1053,CH,nn,nnn,8543707,CH</v>
+        <v>10/4/2020,10,4,2020,24753,1068,CH,nn,nnn,8543707,CH</v>
       </c>
     </row>
     <row r="49" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -13537,7 +13780,7 @@
         <v>834</v>
       </c>
       <c r="I49" s="41">
-        <v>4300</v>
+        <v>4289</v>
       </c>
       <c r="J49" s="41">
         <v>91</v>
@@ -13583,7 +13826,7 @@
         <v>4560</v>
       </c>
       <c r="Y49" s="41">
-        <v>1592</v>
+        <v>1653</v>
       </c>
       <c r="Z49" s="41">
         <v>168</v>
@@ -13592,7 +13835,7 @@
         <v>2985</v>
       </c>
       <c r="AB49" s="41">
-        <v>25171</v>
+        <v>25221</v>
       </c>
       <c r="AC49" s="15" t="str">
         <f t="shared" si="9"/>
@@ -13628,7 +13871,7 @@
       </c>
       <c r="AK49" s="3" t="str">
         <f>$AC49&amp;$AC$1&amp;I49&amp;$AC$1&amp;fatalities!I50&amp;$AC$1&amp;I$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;I$2&amp;$AC$1&amp;I$1</f>
-        <v>11/4/2020,11,4,2020,4300,161,GE,nn,nnn,499480,GE</v>
+        <v>11/4/2020,11,4,2020,4289,167,GE,nn,nnn,499480,GE</v>
       </c>
       <c r="AL49" s="3" t="str">
         <f>$AC49&amp;$AC$1&amp;J49&amp;$AC$1&amp;fatalities!J50&amp;$AC$1&amp;J$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;J$2&amp;$AC$1&amp;J$1</f>
@@ -13640,7 +13883,7 @@
       </c>
       <c r="AN49" s="3" t="str">
         <f>$AC49&amp;$AC$1&amp;L49&amp;$AC$1&amp;fatalities!L50&amp;$AC$1&amp;L$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;L$2&amp;$AC$1&amp;L$1</f>
-        <v>11/4/2020,11,4,2020,183,,JU,nn,nnn,73419,JU</v>
+        <v>11/4/2020,11,4,2020,183,3,JU,nn,nnn,73419,JU</v>
       </c>
       <c r="AO49" s="3" t="str">
         <f>$AC49&amp;$AC$1&amp;M49&amp;$AC$1&amp;fatalities!M50&amp;$AC$1&amp;M$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;M$2&amp;$AC$1&amp;M$1</f>
@@ -13692,7 +13935,7 @@
       </c>
       <c r="BA49" s="3" t="str">
         <f>$AC49&amp;$AC$1&amp;Y49&amp;$AC$1&amp;fatalities!Y50&amp;$AC$1&amp;Y$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Y$2&amp;$AC$1&amp;Y$1</f>
-        <v>11/4/2020,11,4,2020,1592,82,VS,nn,nnn,343955,VS</v>
+        <v>11/4/2020,11,4,2020,1653,85,VS,nn,nnn,343955,VS</v>
       </c>
       <c r="BB49" s="3" t="str">
         <f>$AC49&amp;$AC$1&amp;Z49&amp;$AC$1&amp;fatalities!Z50&amp;$AC$1&amp;Z$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Z$2&amp;$AC$1&amp;Z$1</f>
@@ -13700,11 +13943,11 @@
       </c>
       <c r="BC49" s="3" t="str">
         <f>$AC49&amp;$AC$1&amp;AA49&amp;$AC$1&amp;fatalities!AA50&amp;$AC$1&amp;AA$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AA$2&amp;$AC$1&amp;AA$1</f>
-        <v>11/4/2020,11,4,2020,2985,76,ZH,nn,nnn,1520968,ZH</v>
+        <v>11/4/2020,11,4,2020,2985,77,ZH,nn,nnn,1520968,ZH</v>
       </c>
       <c r="BD49" s="3" t="str">
         <f>$AC49&amp;$AC$1&amp;AB49&amp;$AC$1&amp;fatalities!AB50&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2&amp;$AC$1&amp;AB$1</f>
-        <v>11/4/2020,11,4,2020,25171,1091,CH,nn,nnn,8543707,CH</v>
+        <v>11/4/2020,11,4,2020,25221,1102,CH,nn,nnn,8543707,CH</v>
       </c>
     </row>
     <row r="50" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -13729,7 +13972,7 @@
         <v>846</v>
       </c>
       <c r="I50" s="43">
-        <v>4322</v>
+        <v>4311</v>
       </c>
       <c r="J50" s="43"/>
       <c r="K50" s="43">
@@ -13773,7 +14016,7 @@
         <v>4649</v>
       </c>
       <c r="Y50" s="43">
-        <v>1616</v>
+        <v>1666</v>
       </c>
       <c r="Z50" s="43">
         <v>168</v>
@@ -13782,7 +14025,7 @@
         <v>3002</v>
       </c>
       <c r="AB50" s="43">
-        <v>25506</v>
+        <v>25545</v>
       </c>
       <c r="AC50" s="15" t="str">
         <f t="shared" si="9"/>
@@ -13818,7 +14061,7 @@
       </c>
       <c r="AK50" s="3" t="str">
         <f>$AC50&amp;$AC$1&amp;I50&amp;$AC$1&amp;fatalities!I51&amp;$AC$1&amp;I$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;I$2&amp;$AC$1&amp;I$1</f>
-        <v>12/4/2020,12,4,2020,4322,167,GE,nn,nnn,499480,GE</v>
+        <v>12/4/2020,12,4,2020,4311,173,GE,nn,nnn,499480,GE</v>
       </c>
       <c r="AL50" s="3" t="str">
         <f>$AC50&amp;$AC$1&amp;J50&amp;$AC$1&amp;fatalities!J51&amp;$AC$1&amp;J$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;J$2&amp;$AC$1&amp;J$1</f>
@@ -13830,7 +14073,7 @@
       </c>
       <c r="AN50" s="3" t="str">
         <f>$AC50&amp;$AC$1&amp;L50&amp;$AC$1&amp;fatalities!L51&amp;$AC$1&amp;L$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;L$2&amp;$AC$1&amp;L$1</f>
-        <v>12/4/2020,12,4,2020,183,,JU,nn,nnn,73419,JU</v>
+        <v>12/4/2020,12,4,2020,183,3,JU,nn,nnn,73419,JU</v>
       </c>
       <c r="AO50" s="3" t="str">
         <f>$AC50&amp;$AC$1&amp;M50&amp;$AC$1&amp;fatalities!M51&amp;$AC$1&amp;M$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;M$2&amp;$AC$1&amp;M$1</f>
@@ -13838,7 +14081,7 @@
       </c>
       <c r="AP50" s="3" t="str">
         <f>$AC50&amp;$AC$1&amp;N50&amp;$AC$1&amp;fatalities!N51&amp;$AC$1&amp;N$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;N$2&amp;$AC$1&amp;N$1</f>
-        <v>12/4/2020,12,4,2020,589,46,NE,nn,nnn,176850,NE</v>
+        <v>12/4/2020,12,4,2020,589,47,NE,nn,nnn,176850,NE</v>
       </c>
       <c r="AQ50" s="3" t="str">
         <f>$AC50&amp;$AC$1&amp;O50&amp;$AC$1&amp;fatalities!O51&amp;$AC$1&amp;O$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;O$2&amp;$AC$1&amp;O$1</f>
@@ -13882,7 +14125,7 @@
       </c>
       <c r="BA50" s="3" t="str">
         <f>$AC50&amp;$AC$1&amp;Y50&amp;$AC$1&amp;fatalities!Y51&amp;$AC$1&amp;Y$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Y$2&amp;$AC$1&amp;Y$1</f>
-        <v>12/4/2020,12,4,2020,1616,86,VS,nn,nnn,343955,VS</v>
+        <v>12/4/2020,12,4,2020,1666,91,VS,nn,nnn,343955,VS</v>
       </c>
       <c r="BB50" s="3" t="str">
         <f>$AC50&amp;$AC$1&amp;Z50&amp;$AC$1&amp;fatalities!Z51&amp;$AC$1&amp;Z$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Z$2&amp;$AC$1&amp;Z$1</f>
@@ -13890,11 +14133,11 @@
       </c>
       <c r="BC50" s="3" t="str">
         <f>$AC50&amp;$AC$1&amp;AA50&amp;$AC$1&amp;fatalities!AA51&amp;$AC$1&amp;AA$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AA$2&amp;$AC$1&amp;AA$1</f>
-        <v>12/4/2020,12,4,2020,3002,78,ZH,nn,nnn,1520968,ZH</v>
+        <v>12/4/2020,12,4,2020,3002,79,ZH,nn,nnn,1520968,ZH</v>
       </c>
       <c r="BD50" s="3" t="str">
         <f>$AC50&amp;$AC$1&amp;AB50&amp;$AC$1&amp;fatalities!AB51&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2&amp;$AC$1&amp;AB$1</f>
-        <v>12/4/2020,12,4,2020,25506,1140,CH,nn,nnn,8543707,CH</v>
+        <v>12/4/2020,12,4,2020,25545,1154,CH,nn,nnn,8543707,CH</v>
       </c>
     </row>
     <row r="51" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -13923,7 +14166,7 @@
         <v>859</v>
       </c>
       <c r="I51" s="41">
-        <v>4372</v>
+        <v>4361</v>
       </c>
       <c r="J51" s="41">
         <v>92</v>
@@ -13969,7 +14212,7 @@
         <v>4684</v>
       </c>
       <c r="Y51" s="41">
-        <v>1642</v>
+        <v>1680</v>
       </c>
       <c r="Z51" s="41">
         <v>170</v>
@@ -13978,7 +14221,7 @@
         <v>3019</v>
       </c>
       <c r="AB51" s="41">
-        <v>25760</v>
+        <v>25787</v>
       </c>
       <c r="AC51" s="15" t="str">
         <f t="shared" si="9"/>
@@ -14014,7 +14257,7 @@
       </c>
       <c r="AK51" s="3" t="str">
         <f>$AC51&amp;$AC$1&amp;I51&amp;$AC$1&amp;fatalities!I52&amp;$AC$1&amp;I$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;I$2&amp;$AC$1&amp;I$1</f>
-        <v>13/4/2020,13,4,2020,4372,170,GE,nn,nnn,499480,GE</v>
+        <v>13/4/2020,13,4,2020,4361,176,GE,nn,nnn,499480,GE</v>
       </c>
       <c r="AL51" s="3" t="str">
         <f>$AC51&amp;$AC$1&amp;J51&amp;$AC$1&amp;fatalities!J52&amp;$AC$1&amp;J$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;J$2&amp;$AC$1&amp;J$1</f>
@@ -14026,7 +14269,7 @@
       </c>
       <c r="AN51" s="3" t="str">
         <f>$AC51&amp;$AC$1&amp;L51&amp;$AC$1&amp;fatalities!L52&amp;$AC$1&amp;L$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;L$2&amp;$AC$1&amp;L$1</f>
-        <v>13/4/2020,13,4,2020,184,,JU,nn,nnn,73419,JU</v>
+        <v>13/4/2020,13,4,2020,184,3,JU,nn,nnn,73419,JU</v>
       </c>
       <c r="AO51" s="3" t="str">
         <f>$AC51&amp;$AC$1&amp;M51&amp;$AC$1&amp;fatalities!M52&amp;$AC$1&amp;M$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;M$2&amp;$AC$1&amp;M$1</f>
@@ -14034,7 +14277,7 @@
       </c>
       <c r="AP51" s="3" t="str">
         <f>$AC51&amp;$AC$1&amp;N51&amp;$AC$1&amp;fatalities!N52&amp;$AC$1&amp;N$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;N$2&amp;$AC$1&amp;N$1</f>
-        <v>13/4/2020,13,4,2020,595,47,NE,nn,nnn,176850,NE</v>
+        <v>13/4/2020,13,4,2020,595,48,NE,nn,nnn,176850,NE</v>
       </c>
       <c r="AQ51" s="3" t="str">
         <f>$AC51&amp;$AC$1&amp;O51&amp;$AC$1&amp;fatalities!O52&amp;$AC$1&amp;O$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;O$2&amp;$AC$1&amp;O$1</f>
@@ -14078,7 +14321,7 @@
       </c>
       <c r="BA51" s="3" t="str">
         <f>$AC51&amp;$AC$1&amp;Y51&amp;$AC$1&amp;fatalities!Y52&amp;$AC$1&amp;Y$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Y$2&amp;$AC$1&amp;Y$1</f>
-        <v>13/4/2020,13,4,2020,1642,88,VS,nn,nnn,343955,VS</v>
+        <v>13/4/2020,13,4,2020,1680,93,VS,nn,nnn,343955,VS</v>
       </c>
       <c r="BB51" s="3" t="str">
         <f>$AC51&amp;$AC$1&amp;Z51&amp;$AC$1&amp;fatalities!Z52&amp;$AC$1&amp;Z$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Z$2&amp;$AC$1&amp;Z$1</f>
@@ -14086,11 +14329,11 @@
       </c>
       <c r="BC51" s="3" t="str">
         <f>$AC51&amp;$AC$1&amp;AA51&amp;$AC$1&amp;fatalities!AA52&amp;$AC$1&amp;AA$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AA$2&amp;$AC$1&amp;AA$1</f>
-        <v>13/4/2020,13,4,2020,3019,82,ZH,nn,nnn,1520968,ZH</v>
+        <v>13/4/2020,13,4,2020,3019,83,ZH,nn,nnn,1520968,ZH</v>
       </c>
       <c r="BD51" s="3" t="str">
         <f>$AC51&amp;$AC$1&amp;AB51&amp;$AC$1&amp;fatalities!AB52&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2&amp;$AC$1&amp;AB$1</f>
-        <v>13/4/2020,13,4,2020,25760,1167,CH,nn,nnn,8543707,CH</v>
+        <v>13/4/2020,13,4,2020,25787,1181,CH,nn,nnn,8543707,CH</v>
       </c>
     </row>
     <row r="52" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -14119,7 +14362,7 @@
         <v>879</v>
       </c>
       <c r="I52" s="43">
-        <v>4424</v>
+        <v>4414</v>
       </c>
       <c r="J52" s="43">
         <v>105</v>
@@ -14167,7 +14410,7 @@
         <v>4741</v>
       </c>
       <c r="Y52" s="43">
-        <v>1664</v>
+        <v>1706</v>
       </c>
       <c r="Z52" s="43">
         <v>171</v>
@@ -14176,7 +14419,7 @@
         <v>3066</v>
       </c>
       <c r="AB52" s="43">
-        <v>26068</v>
+        <v>26100</v>
       </c>
       <c r="AC52" s="15" t="str">
         <f t="shared" si="9"/>
@@ -14212,7 +14455,7 @@
       </c>
       <c r="AK52" s="3" t="str">
         <f>$AC52&amp;$AC$1&amp;I52&amp;$AC$1&amp;fatalities!I53&amp;$AC$1&amp;I$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;I$2&amp;$AC$1&amp;I$1</f>
-        <v>14/4/2020,14,4,2020,4424,174,GE,nn,nnn,499480,GE</v>
+        <v>14/4/2020,14,4,2020,4414,180,GE,nn,nnn,499480,GE</v>
       </c>
       <c r="AL52" s="3" t="str">
         <f>$AC52&amp;$AC$1&amp;J52&amp;$AC$1&amp;fatalities!J53&amp;$AC$1&amp;J$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;J$2&amp;$AC$1&amp;J$1</f>
@@ -14224,7 +14467,7 @@
       </c>
       <c r="AN52" s="3" t="str">
         <f>$AC52&amp;$AC$1&amp;L52&amp;$AC$1&amp;fatalities!L53&amp;$AC$1&amp;L$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;L$2&amp;$AC$1&amp;L$1</f>
-        <v>14/4/2020,14,4,2020,185,,JU,nn,nnn,73419,JU</v>
+        <v>14/4/2020,14,4,2020,185,3,JU,nn,nnn,73419,JU</v>
       </c>
       <c r="AO52" s="3" t="str">
         <f>$AC52&amp;$AC$1&amp;M52&amp;$AC$1&amp;fatalities!M53&amp;$AC$1&amp;M$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;M$2&amp;$AC$1&amp;M$1</f>
@@ -14232,7 +14475,7 @@
       </c>
       <c r="AP52" s="3" t="str">
         <f>$AC52&amp;$AC$1&amp;N52&amp;$AC$1&amp;fatalities!N53&amp;$AC$1&amp;N$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;N$2&amp;$AC$1&amp;N$1</f>
-        <v>14/4/2020,14,4,2020,606,48,NE,nn,nnn,176850,NE</v>
+        <v>14/4/2020,14,4,2020,606,51,NE,nn,nnn,176850,NE</v>
       </c>
       <c r="AQ52" s="3" t="str">
         <f>$AC52&amp;$AC$1&amp;O52&amp;$AC$1&amp;fatalities!O53&amp;$AC$1&amp;O$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;O$2&amp;$AC$1&amp;O$1</f>
@@ -14276,7 +14519,7 @@
       </c>
       <c r="BA52" s="3" t="str">
         <f>$AC52&amp;$AC$1&amp;Y52&amp;$AC$1&amp;fatalities!Y53&amp;$AC$1&amp;Y$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Y$2&amp;$AC$1&amp;Y$1</f>
-        <v>14/4/2020,14,4,2020,1664,90,VS,nn,nnn,343955,VS</v>
+        <v>14/4/2020,14,4,2020,1706,94,VS,nn,nnn,343955,VS</v>
       </c>
       <c r="BB52" s="3" t="str">
         <f>$AC52&amp;$AC$1&amp;Z52&amp;$AC$1&amp;fatalities!Z53&amp;$AC$1&amp;Z$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Z$2&amp;$AC$1&amp;Z$1</f>
@@ -14284,11 +14527,11 @@
       </c>
       <c r="BC52" s="3" t="str">
         <f>$AC52&amp;$AC$1&amp;AA52&amp;$AC$1&amp;fatalities!AA53&amp;$AC$1&amp;AA$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AA$2&amp;$AC$1&amp;AA$1</f>
-        <v>14/4/2020,14,4,2020,3066,86,ZH,nn,nnn,1520968,ZH</v>
+        <v>14/4/2020,14,4,2020,3066,87,ZH,nn,nnn,1520968,ZH</v>
       </c>
       <c r="BD52" s="3" t="str">
         <f>$AC52&amp;$AC$1&amp;AB52&amp;$AC$1&amp;fatalities!AB53&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2&amp;$AC$1&amp;AB$1</f>
-        <v>14/4/2020,14,4,2020,26068,1212,CH,nn,nnn,8543707,CH</v>
+        <v>14/4/2020,14,4,2020,26100,1227,CH,nn,nnn,8543707,CH</v>
       </c>
     </row>
     <row r="53" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -14317,7 +14560,7 @@
         <v>890</v>
       </c>
       <c r="I53" s="41">
-        <v>4489</v>
+        <v>4480</v>
       </c>
       <c r="J53" s="41">
         <v>105</v>
@@ -14332,7 +14575,7 @@
         <v>596</v>
       </c>
       <c r="N53" s="41">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="O53" s="41">
         <v>106</v>
@@ -14365,7 +14608,7 @@
         <v>4794</v>
       </c>
       <c r="Y53" s="41">
-        <v>1682</v>
+        <v>1722</v>
       </c>
       <c r="Z53" s="41">
         <v>171</v>
@@ -14374,7 +14617,7 @@
         <v>3113</v>
       </c>
       <c r="AB53" s="41">
-        <v>26389</v>
+        <v>26424</v>
       </c>
       <c r="AC53" s="15" t="str">
         <f t="shared" ref="AC53" si="10">DAY(A53)&amp;"/"&amp;MONTH(A53)&amp;"/"&amp;YEAR(A53)&amp;$AC$1&amp;DAY(A53)&amp;$AC$1&amp;MONTH(A53)&amp;$AC$1&amp;YEAR(A53)</f>
@@ -14410,7 +14653,7 @@
       </c>
       <c r="AK53" s="3" t="str">
         <f>$AC53&amp;$AC$1&amp;I53&amp;$AC$1&amp;fatalities!I54&amp;$AC$1&amp;I$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;I$2&amp;$AC$1&amp;I$1</f>
-        <v>15/4/2020,15,4,2020,4489,178,GE,nn,nnn,499480,GE</v>
+        <v>15/4/2020,15,4,2020,4480,184,GE,nn,nnn,499480,GE</v>
       </c>
       <c r="AL53" s="3" t="str">
         <f>$AC53&amp;$AC$1&amp;J53&amp;$AC$1&amp;fatalities!J54&amp;$AC$1&amp;J$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;J$2&amp;$AC$1&amp;J$1</f>
@@ -14422,7 +14665,7 @@
       </c>
       <c r="AN53" s="3" t="str">
         <f>$AC53&amp;$AC$1&amp;L53&amp;$AC$1&amp;fatalities!L54&amp;$AC$1&amp;L$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;L$2&amp;$AC$1&amp;L$1</f>
-        <v>15/4/2020,15,4,2020,188,,JU,nn,nnn,73419,JU</v>
+        <v>15/4/2020,15,4,2020,188,3,JU,nn,nnn,73419,JU</v>
       </c>
       <c r="AO53" s="3" t="str">
         <f>$AC53&amp;$AC$1&amp;M53&amp;$AC$1&amp;fatalities!M54&amp;$AC$1&amp;M$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;M$2&amp;$AC$1&amp;M$1</f>
@@ -14430,7 +14673,7 @@
       </c>
       <c r="AP53" s="3" t="str">
         <f>$AC53&amp;$AC$1&amp;N53&amp;$AC$1&amp;fatalities!N54&amp;$AC$1&amp;N$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;N$2&amp;$AC$1&amp;N$1</f>
-        <v>15/4/2020,15,4,2020,615,48,NE,nn,nnn,176850,NE</v>
+        <v>15/4/2020,15,4,2020,619,52,NE,nn,nnn,176850,NE</v>
       </c>
       <c r="AQ53" s="3" t="str">
         <f>$AC53&amp;$AC$1&amp;O53&amp;$AC$1&amp;fatalities!O54&amp;$AC$1&amp;O$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;O$2&amp;$AC$1&amp;O$1</f>
@@ -14474,7 +14717,7 @@
       </c>
       <c r="BA53" s="3" t="str">
         <f>$AC53&amp;$AC$1&amp;Y53&amp;$AC$1&amp;fatalities!Y54&amp;$AC$1&amp;Y$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Y$2&amp;$AC$1&amp;Y$1</f>
-        <v>15/4/2020,15,4,2020,1682,94,VS,nn,nnn,343955,VS</v>
+        <v>15/4/2020,15,4,2020,1722,94,VS,nn,nnn,343955,VS</v>
       </c>
       <c r="BB53" s="3" t="str">
         <f>$AC53&amp;$AC$1&amp;Z53&amp;$AC$1&amp;fatalities!Z54&amp;$AC$1&amp;Z$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Z$2&amp;$AC$1&amp;Z$1</f>
@@ -14482,11 +14725,11 @@
       </c>
       <c r="BC53" s="3" t="str">
         <f>$AC53&amp;$AC$1&amp;AA53&amp;$AC$1&amp;fatalities!AA54&amp;$AC$1&amp;AA$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AA$2&amp;$AC$1&amp;AA$1</f>
-        <v>15/4/2020,15,4,2020,3113,90,ZH,nn,nnn,1520968,ZH</v>
+        <v>15/4/2020,15,4,2020,3113,91,ZH,nn,nnn,1520968,ZH</v>
       </c>
       <c r="BD53" s="3" t="str">
         <f>$AC53&amp;$AC$1&amp;AB53&amp;$AC$1&amp;fatalities!AB54&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2&amp;$AC$1&amp;AB$1</f>
-        <v>15/4/2020,15,4,2020,26389,1262,CH,nn,nnn,8543707,CH</v>
+        <v>15/4/2020,15,4,2020,26424,1274,CH,nn,nnn,8543707,CH</v>
       </c>
     </row>
     <row r="54" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -14515,7 +14758,7 @@
         <v>907</v>
       </c>
       <c r="I54" s="43">
-        <v>4553</v>
+        <v>4545</v>
       </c>
       <c r="J54" s="43">
         <v>106</v>
@@ -14530,7 +14773,7 @@
         <v>599</v>
       </c>
       <c r="N54" s="43">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="O54" s="43">
         <v>106</v>
@@ -14563,7 +14806,7 @@
         <v>4844</v>
       </c>
       <c r="Y54" s="43">
-        <v>1707</v>
+        <v>1739</v>
       </c>
       <c r="Z54" s="43">
         <v>171</v>
@@ -14572,7 +14815,7 @@
         <v>3148</v>
       </c>
       <c r="AB54" s="43">
-        <v>26719</v>
+        <v>26744</v>
       </c>
       <c r="AC54" s="15" t="str">
         <f t="shared" ref="AC54" si="11">DAY(A54)&amp;"/"&amp;MONTH(A54)&amp;"/"&amp;YEAR(A54)&amp;$AC$1&amp;DAY(A54)&amp;$AC$1&amp;MONTH(A54)&amp;$AC$1&amp;YEAR(A54)</f>
@@ -14608,7 +14851,7 @@
       </c>
       <c r="AK54" s="3" t="str">
         <f>$AC54&amp;$AC$1&amp;I54&amp;$AC$1&amp;fatalities!I55&amp;$AC$1&amp;I$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;I$2&amp;$AC$1&amp;I$1</f>
-        <v>16/4/2020,16,4,2020,4553,184,GE,nn,nnn,499480,GE</v>
+        <v>16/4/2020,16,4,2020,4545,190,GE,nn,nnn,499480,GE</v>
       </c>
       <c r="AL54" s="3" t="str">
         <f>$AC54&amp;$AC$1&amp;J54&amp;$AC$1&amp;fatalities!J55&amp;$AC$1&amp;J$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;J$2&amp;$AC$1&amp;J$1</f>
@@ -14620,7 +14863,7 @@
       </c>
       <c r="AN54" s="3" t="str">
         <f>$AC54&amp;$AC$1&amp;L54&amp;$AC$1&amp;fatalities!L55&amp;$AC$1&amp;L$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;L$2&amp;$AC$1&amp;L$1</f>
-        <v>16/4/2020,16,4,2020,189,,JU,nn,nnn,73419,JU</v>
+        <v>16/4/2020,16,4,2020,189,3,JU,nn,nnn,73419,JU</v>
       </c>
       <c r="AO54" s="3" t="str">
         <f>$AC54&amp;$AC$1&amp;M54&amp;$AC$1&amp;fatalities!M55&amp;$AC$1&amp;M$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;M$2&amp;$AC$1&amp;M$1</f>
@@ -14628,7 +14871,7 @@
       </c>
       <c r="AP54" s="3" t="str">
         <f>$AC54&amp;$AC$1&amp;N54&amp;$AC$1&amp;fatalities!N55&amp;$AC$1&amp;N$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;N$2&amp;$AC$1&amp;N$1</f>
-        <v>16/4/2020,16,4,2020,626,48,NE,nn,nnn,176850,NE</v>
+        <v>16/4/2020,16,4,2020,627,53,NE,nn,nnn,176850,NE</v>
       </c>
       <c r="AQ54" s="3" t="str">
         <f>$AC54&amp;$AC$1&amp;O54&amp;$AC$1&amp;fatalities!O55&amp;$AC$1&amp;O$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;O$2&amp;$AC$1&amp;O$1</f>
@@ -14672,7 +14915,7 @@
       </c>
       <c r="BA54" s="3" t="str">
         <f>$AC54&amp;$AC$1&amp;Y54&amp;$AC$1&amp;fatalities!Y55&amp;$AC$1&amp;Y$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Y$2&amp;$AC$1&amp;Y$1</f>
-        <v>16/4/2020,16,4,2020,1707,94,VS,nn,nnn,343955,VS</v>
+        <v>16/4/2020,16,4,2020,1739,95,VS,nn,nnn,343955,VS</v>
       </c>
       <c r="BB54" s="3" t="str">
         <f>$AC54&amp;$AC$1&amp;Z54&amp;$AC$1&amp;fatalities!Z55&amp;$AC$1&amp;Z$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Z$2&amp;$AC$1&amp;Z$1</f>
@@ -14680,11 +14923,11 @@
       </c>
       <c r="BC54" s="3" t="str">
         <f>$AC54&amp;$AC$1&amp;AA54&amp;$AC$1&amp;fatalities!AA55&amp;$AC$1&amp;AA$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AA$2&amp;$AC$1&amp;AA$1</f>
-        <v>16/4/2020,16,4,2020,3148,94,ZH,nn,nnn,1520968,ZH</v>
+        <v>16/4/2020,16,4,2020,3148,95,ZH,nn,nnn,1520968,ZH</v>
       </c>
       <c r="BD54" s="3" t="str">
         <f>$AC54&amp;$AC$1&amp;AB54&amp;$AC$1&amp;fatalities!AB55&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2&amp;$AC$1&amp;AB$1</f>
-        <v>16/4/2020,16,4,2020,26719,1305,CH,nn,nnn,8543707,CH</v>
+        <v>16/4/2020,16,4,2020,26744,1319,CH,nn,nnn,8543707,CH</v>
       </c>
     </row>
     <row r="55" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -14713,7 +14956,7 @@
         <v>930</v>
       </c>
       <c r="I55" s="41">
-        <v>4613</v>
+        <v>4605</v>
       </c>
       <c r="J55" s="41">
         <v>108</v>
@@ -14726,7 +14969,7 @@
         <v>607</v>
       </c>
       <c r="N55" s="41">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="O55" s="41">
         <v>107</v>
@@ -14759,7 +15002,7 @@
         <v>4880</v>
       </c>
       <c r="Y55" s="41">
-        <v>1730</v>
+        <v>1757</v>
       </c>
       <c r="Z55" s="41">
         <v>172</v>
@@ -14768,7 +15011,7 @@
         <v>3171</v>
       </c>
       <c r="AB55" s="41">
-        <v>27034</v>
+        <v>27054</v>
       </c>
       <c r="AC55" s="15" t="str">
         <f t="shared" ref="AC55" si="12">DAY(A55)&amp;"/"&amp;MONTH(A55)&amp;"/"&amp;YEAR(A55)&amp;$AC$1&amp;DAY(A55)&amp;$AC$1&amp;MONTH(A55)&amp;$AC$1&amp;YEAR(A55)</f>
@@ -14804,7 +15047,7 @@
       </c>
       <c r="AK55" s="3" t="str">
         <f>$AC55&amp;$AC$1&amp;I55&amp;$AC$1&amp;fatalities!I56&amp;$AC$1&amp;I$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;I$2&amp;$AC$1&amp;I$1</f>
-        <v>17/4/2020,17,4,2020,4613,190,GE,nn,nnn,499480,GE</v>
+        <v>17/4/2020,17,4,2020,4605,196,GE,nn,nnn,499480,GE</v>
       </c>
       <c r="AL55" s="3" t="str">
         <f>$AC55&amp;$AC$1&amp;J55&amp;$AC$1&amp;fatalities!J56&amp;$AC$1&amp;J$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;J$2&amp;$AC$1&amp;J$1</f>
@@ -14816,7 +15059,7 @@
       </c>
       <c r="AN55" s="3" t="str">
         <f>$AC55&amp;$AC$1&amp;L55&amp;$AC$1&amp;fatalities!L56&amp;$AC$1&amp;L$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;L$2&amp;$AC$1&amp;L$1</f>
-        <v>17/4/2020,17,4,2020,191,,JU,nn,nnn,73419,JU</v>
+        <v>17/4/2020,17,4,2020,191,3,JU,nn,nnn,73419,JU</v>
       </c>
       <c r="AO55" s="3" t="str">
         <f>$AC55&amp;$AC$1&amp;M55&amp;$AC$1&amp;fatalities!M56&amp;$AC$1&amp;M$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;M$2&amp;$AC$1&amp;M$1</f>
@@ -14824,7 +15067,7 @@
       </c>
       <c r="AP55" s="3" t="str">
         <f>$AC55&amp;$AC$1&amp;N55&amp;$AC$1&amp;fatalities!N56&amp;$AC$1&amp;N$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;N$2&amp;$AC$1&amp;N$1</f>
-        <v>17/4/2020,17,4,2020,636,50,NE,nn,nnn,176850,NE</v>
+        <v>17/4/2020,17,4,2020,637,55,NE,nn,nnn,176850,NE</v>
       </c>
       <c r="AQ55" s="3" t="str">
         <f>$AC55&amp;$AC$1&amp;O55&amp;$AC$1&amp;fatalities!O56&amp;$AC$1&amp;O$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;O$2&amp;$AC$1&amp;O$1</f>
@@ -14868,7 +15111,7 @@
       </c>
       <c r="BA55" s="3" t="str">
         <f>$AC55&amp;$AC$1&amp;Y55&amp;$AC$1&amp;fatalities!Y56&amp;$AC$1&amp;Y$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Y$2&amp;$AC$1&amp;Y$1</f>
-        <v>17/4/2020,17,4,2020,1730,96,VS,nn,nnn,343955,VS</v>
+        <v>17/4/2020,17,4,2020,1757,99,VS,nn,nnn,343955,VS</v>
       </c>
       <c r="BB55" s="3" t="str">
         <f>$AC55&amp;$AC$1&amp;Z55&amp;$AC$1&amp;fatalities!Z56&amp;$AC$1&amp;Z$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Z$2&amp;$AC$1&amp;Z$1</f>
@@ -14876,11 +15119,11 @@
       </c>
       <c r="BC55" s="3" t="str">
         <f>$AC55&amp;$AC$1&amp;AA55&amp;$AC$1&amp;fatalities!AA56&amp;$AC$1&amp;AA$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AA$2&amp;$AC$1&amp;AA$1</f>
-        <v>17/4/2020,17,4,2020,3171,97,ZH,nn,nnn,1520968,ZH</v>
+        <v>17/4/2020,17,4,2020,3171,98,ZH,nn,nnn,1520968,ZH</v>
       </c>
       <c r="BD55" s="3" t="str">
         <f>$AC55&amp;$AC$1&amp;AB55&amp;$AC$1&amp;fatalities!AB56&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2&amp;$AC$1&amp;AB$1</f>
-        <v>17/4/2020,17,4,2020,27034,1351,CH,nn,nnn,8543707,CH</v>
+        <v>17/4/2020,17,4,2020,27054,1367,CH,nn,nnn,8543707,CH</v>
       </c>
     </row>
     <row r="56" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -14905,7 +15148,7 @@
         <v>956</v>
       </c>
       <c r="I56" s="43">
-        <v>4661</v>
+        <v>4654</v>
       </c>
       <c r="J56" s="43"/>
       <c r="K56" s="43"/>
@@ -14916,7 +15159,7 @@
         <v>623</v>
       </c>
       <c r="N56" s="43">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="O56" s="43">
         <v>108</v>
@@ -14947,7 +15190,7 @@
         <v>4945</v>
       </c>
       <c r="Y56" s="43">
-        <v>1745</v>
+        <v>1766</v>
       </c>
       <c r="Z56" s="43">
         <v>174</v>
@@ -14956,7 +15199,7 @@
         <v>3211</v>
       </c>
       <c r="AB56" s="43">
-        <v>27368</v>
+        <v>27383</v>
       </c>
       <c r="AC56" s="15" t="str">
         <f t="shared" ref="AC56:AC57" si="13">DAY(A56)&amp;"/"&amp;MONTH(A56)&amp;"/"&amp;YEAR(A56)&amp;$AC$1&amp;DAY(A56)&amp;$AC$1&amp;MONTH(A56)&amp;$AC$1&amp;YEAR(A56)</f>
@@ -14992,7 +15235,7 @@
       </c>
       <c r="AK56" s="3" t="str">
         <f>$AC56&amp;$AC$1&amp;I56&amp;$AC$1&amp;fatalities!I57&amp;$AC$1&amp;I$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;I$2&amp;$AC$1&amp;I$1</f>
-        <v>18/4/2020,18,4,2020,4661,193,GE,nn,nnn,499480,GE</v>
+        <v>18/4/2020,18,4,2020,4654,199,GE,nn,nnn,499480,GE</v>
       </c>
       <c r="AL56" s="3" t="str">
         <f>$AC56&amp;$AC$1&amp;J56&amp;$AC$1&amp;fatalities!J57&amp;$AC$1&amp;J$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;J$2&amp;$AC$1&amp;J$1</f>
@@ -15004,7 +15247,7 @@
       </c>
       <c r="AN56" s="3" t="str">
         <f>$AC56&amp;$AC$1&amp;L56&amp;$AC$1&amp;fatalities!L57&amp;$AC$1&amp;L$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;L$2&amp;$AC$1&amp;L$1</f>
-        <v>18/4/2020,18,4,2020,192,,JU,nn,nnn,73419,JU</v>
+        <v>18/4/2020,18,4,2020,192,3,JU,nn,nnn,73419,JU</v>
       </c>
       <c r="AO56" s="3" t="str">
         <f>$AC56&amp;$AC$1&amp;M56&amp;$AC$1&amp;fatalities!M57&amp;$AC$1&amp;M$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;M$2&amp;$AC$1&amp;M$1</f>
@@ -15012,7 +15255,7 @@
       </c>
       <c r="AP56" s="3" t="str">
         <f>$AC56&amp;$AC$1&amp;N56&amp;$AC$1&amp;fatalities!N57&amp;$AC$1&amp;N$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;N$2&amp;$AC$1&amp;N$1</f>
-        <v>18/4/2020,18,4,2020,638,50,NE,nn,nnn,176850,NE</v>
+        <v>18/4/2020,18,4,2020,639,55,NE,nn,nnn,176850,NE</v>
       </c>
       <c r="AQ56" s="3" t="str">
         <f>$AC56&amp;$AC$1&amp;O56&amp;$AC$1&amp;fatalities!O57&amp;$AC$1&amp;O$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;O$2&amp;$AC$1&amp;O$1</f>
@@ -15056,7 +15299,7 @@
       </c>
       <c r="BA56" s="3" t="str">
         <f>$AC56&amp;$AC$1&amp;Y56&amp;$AC$1&amp;fatalities!Y57&amp;$AC$1&amp;Y$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Y$2&amp;$AC$1&amp;Y$1</f>
-        <v>18/4/2020,18,4,2020,1745,97,VS,nn,nnn,343955,VS</v>
+        <v>18/4/2020,18,4,2020,1766,104,VS,nn,nnn,343955,VS</v>
       </c>
       <c r="BB56" s="3" t="str">
         <f>$AC56&amp;$AC$1&amp;Z56&amp;$AC$1&amp;fatalities!Z57&amp;$AC$1&amp;Z$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Z$2&amp;$AC$1&amp;Z$1</f>
@@ -15064,11 +15307,11 @@
       </c>
       <c r="BC56" s="3" t="str">
         <f>$AC56&amp;$AC$1&amp;AA56&amp;$AC$1&amp;fatalities!AA57&amp;$AC$1&amp;AA$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AA$2&amp;$AC$1&amp;AA$1</f>
-        <v>18/4/2020,18,4,2020,3211,102,ZH,nn,nnn,1520968,ZH</v>
+        <v>18/4/2020,18,4,2020,3211,104,ZH,nn,nnn,1520968,ZH</v>
       </c>
       <c r="BD56" s="3" t="str">
         <f>$AC56&amp;$AC$1&amp;AB56&amp;$AC$1&amp;fatalities!AB57&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2&amp;$AC$1&amp;AB$1</f>
-        <v>18/4/2020,18,4,2020,27368,1381,CH,nn,nnn,8543707,CH</v>
+        <v>18/4/2020,18,4,2020,27383,1402,CH,nn,nnn,8543707,CH</v>
       </c>
     </row>
     <row r="57" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -15095,7 +15338,7 @@
         <v>980</v>
       </c>
       <c r="I57" s="41">
-        <v>4671</v>
+        <v>4665</v>
       </c>
       <c r="J57" s="41"/>
       <c r="K57" s="41">
@@ -15107,7 +15350,9 @@
       <c r="M57" s="41">
         <v>626</v>
       </c>
-      <c r="N57" s="41"/>
+      <c r="N57" s="41">
+        <v>640</v>
+      </c>
       <c r="O57" s="41">
         <v>108</v>
       </c>
@@ -15137,7 +15382,7 @@
         <v>4966</v>
       </c>
       <c r="Y57" s="41">
-        <v>1755</v>
+        <v>1773</v>
       </c>
       <c r="Z57" s="41">
         <v>175</v>
@@ -15146,7 +15391,7 @@
         <v>3238</v>
       </c>
       <c r="AB57" s="41">
-        <v>27568</v>
+        <v>27582</v>
       </c>
       <c r="AC57" s="15" t="str">
         <f t="shared" si="13"/>
@@ -15182,7 +15427,7 @@
       </c>
       <c r="AK57" s="3" t="str">
         <f>$AC57&amp;$AC$1&amp;I57&amp;$AC$1&amp;fatalities!I58&amp;$AC$1&amp;I$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;I$2&amp;$AC$1&amp;I$1</f>
-        <v>19/4/2020,19,4,2020,4671,195,GE,nn,nnn,499480,GE</v>
+        <v>19/4/2020,19,4,2020,4665,201,GE,nn,nnn,499480,GE</v>
       </c>
       <c r="AL57" s="3" t="str">
         <f>$AC57&amp;$AC$1&amp;J57&amp;$AC$1&amp;fatalities!J58&amp;$AC$1&amp;J$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;J$2&amp;$AC$1&amp;J$1</f>
@@ -15194,7 +15439,7 @@
       </c>
       <c r="AN57" s="3" t="str">
         <f>$AC57&amp;$AC$1&amp;L57&amp;$AC$1&amp;fatalities!L58&amp;$AC$1&amp;L$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;L$2&amp;$AC$1&amp;L$1</f>
-        <v>19/4/2020,19,4,2020,192,,JU,nn,nnn,73419,JU</v>
+        <v>19/4/2020,19,4,2020,192,5,JU,nn,nnn,73419,JU</v>
       </c>
       <c r="AO57" s="3" t="str">
         <f>$AC57&amp;$AC$1&amp;M57&amp;$AC$1&amp;fatalities!M58&amp;$AC$1&amp;M$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;M$2&amp;$AC$1&amp;M$1</f>
@@ -15202,7 +15447,7 @@
       </c>
       <c r="AP57" s="3" t="str">
         <f>$AC57&amp;$AC$1&amp;N57&amp;$AC$1&amp;fatalities!N58&amp;$AC$1&amp;N$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;N$2&amp;$AC$1&amp;N$1</f>
-        <v>19/4/2020,19,4,2020,,50,NE,nn,nnn,176850,NE</v>
+        <v>19/4/2020,19,4,2020,640,56,NE,nn,nnn,176850,NE</v>
       </c>
       <c r="AQ57" s="3" t="str">
         <f>$AC57&amp;$AC$1&amp;O57&amp;$AC$1&amp;fatalities!O58&amp;$AC$1&amp;O$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;O$2&amp;$AC$1&amp;O$1</f>
@@ -15246,7 +15491,7 @@
       </c>
       <c r="BA57" s="3" t="str">
         <f>$AC57&amp;$AC$1&amp;Y57&amp;$AC$1&amp;fatalities!Y58&amp;$AC$1&amp;Y$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Y$2&amp;$AC$1&amp;Y$1</f>
-        <v>19/4/2020,19,4,2020,1755,103,VS,nn,nnn,343955,VS</v>
+        <v>19/4/2020,19,4,2020,1773,107,VS,nn,nnn,343955,VS</v>
       </c>
       <c r="BB57" s="3" t="str">
         <f>$AC57&amp;$AC$1&amp;Z57&amp;$AC$1&amp;fatalities!Z58&amp;$AC$1&amp;Z$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Z$2&amp;$AC$1&amp;Z$1</f>
@@ -15254,11 +15499,11 @@
       </c>
       <c r="BC57" s="3" t="str">
         <f>$AC57&amp;$AC$1&amp;AA57&amp;$AC$1&amp;fatalities!AA58&amp;$AC$1&amp;AA$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AA$2&amp;$AC$1&amp;AA$1</f>
-        <v>19/4/2020,19,4,2020,3238,102,ZH,nn,nnn,1520968,ZH</v>
+        <v>19/4/2020,19,4,2020,3238,104,ZH,nn,nnn,1520968,ZH</v>
       </c>
       <c r="BD57" s="3" t="str">
         <f>$AC57&amp;$AC$1&amp;AB57&amp;$AC$1&amp;fatalities!AB58&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2&amp;$AC$1&amp;AB$1</f>
-        <v>19/4/2020,19,4,2020,27568,1404,CH,nn,nnn,8543707,CH</v>
+        <v>19/4/2020,19,4,2020,27582,1425,CH,nn,nnn,8543707,CH</v>
       </c>
     </row>
     <row r="58" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -15286,17 +15531,27 @@
       <c r="H58" s="43">
         <v>989</v>
       </c>
-      <c r="I58" s="43"/>
+      <c r="I58" s="43">
+        <v>4694</v>
+      </c>
       <c r="J58" s="43">
         <v>114</v>
       </c>
-      <c r="K58" s="43"/>
-      <c r="L58" s="43"/>
+      <c r="K58" s="43">
+        <v>778</v>
+      </c>
+      <c r="L58" s="43">
+        <v>195</v>
+      </c>
       <c r="M58" s="43">
         <v>633</v>
       </c>
-      <c r="N58" s="43"/>
-      <c r="O58" s="43"/>
+      <c r="N58" s="43">
+        <v>651</v>
+      </c>
+      <c r="O58" s="43">
+        <v>108</v>
+      </c>
       <c r="P58" s="43">
         <v>67</v>
       </c>
@@ -15321,9 +15576,11 @@
       <c r="W58" s="43">
         <v>78</v>
       </c>
-      <c r="X58" s="43"/>
+      <c r="X58" s="43">
+        <v>4987</v>
+      </c>
       <c r="Y58" s="43">
-        <v>1771</v>
+        <v>1786</v>
       </c>
       <c r="Z58" s="43">
         <v>175</v>
@@ -15332,7 +15589,7 @@
         <v>3254</v>
       </c>
       <c r="AB58" s="43">
-        <v>27693</v>
+        <v>27777</v>
       </c>
       <c r="AC58" s="15" t="str">
         <f t="shared" ref="AC58" si="14">DAY(A58)&amp;"/"&amp;MONTH(A58)&amp;"/"&amp;YEAR(A58)&amp;$AC$1&amp;DAY(A58)&amp;$AC$1&amp;MONTH(A58)&amp;$AC$1&amp;YEAR(A58)</f>
@@ -15368,7 +15625,7 @@
       </c>
       <c r="AK58" s="3" t="str">
         <f>$AC58&amp;$AC$1&amp;I58&amp;$AC$1&amp;fatalities!I59&amp;$AC$1&amp;I$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;I$2&amp;$AC$1&amp;I$1</f>
-        <v>20/4/2020,20,4,2020,,,GE,nn,nnn,499480,GE</v>
+        <v>20/4/2020,20,4,2020,4694,202,GE,nn,nnn,499480,GE</v>
       </c>
       <c r="AL58" s="3" t="str">
         <f>$AC58&amp;$AC$1&amp;J58&amp;$AC$1&amp;fatalities!J59&amp;$AC$1&amp;J$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;J$2&amp;$AC$1&amp;J$1</f>
@@ -15376,11 +15633,11 @@
       </c>
       <c r="AM58" s="3" t="str">
         <f>$AC58&amp;$AC$1&amp;K58&amp;$AC$1&amp;fatalities!K59&amp;$AC$1&amp;K$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;K$2&amp;$AC$1&amp;K$1</f>
-        <v>20/4/2020,20,4,2020,,,GR,nn,nnn,198379,GR</v>
+        <v>20/4/2020,20,4,2020,778,40,GR,nn,nnn,198379,GR</v>
       </c>
       <c r="AN58" s="3" t="str">
         <f>$AC58&amp;$AC$1&amp;L58&amp;$AC$1&amp;fatalities!L59&amp;$AC$1&amp;L$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;L$2&amp;$AC$1&amp;L$1</f>
-        <v>20/4/2020,20,4,2020,,,JU,nn,nnn,73419,JU</v>
+        <v>20/4/2020,20,4,2020,195,6,JU,nn,nnn,73419,JU</v>
       </c>
       <c r="AO58" s="3" t="str">
         <f>$AC58&amp;$AC$1&amp;M58&amp;$AC$1&amp;fatalities!M59&amp;$AC$1&amp;M$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;M$2&amp;$AC$1&amp;M$1</f>
@@ -15388,11 +15645,11 @@
       </c>
       <c r="AP58" s="3" t="str">
         <f>$AC58&amp;$AC$1&amp;N58&amp;$AC$1&amp;fatalities!N59&amp;$AC$1&amp;N$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;N$2&amp;$AC$1&amp;N$1</f>
-        <v>20/4/2020,20,4,2020,,,NE,nn,nnn,176850,NE</v>
+        <v>20/4/2020,20,4,2020,651,56,NE,nn,nnn,176850,NE</v>
       </c>
       <c r="AQ58" s="3" t="str">
         <f>$AC58&amp;$AC$1&amp;O58&amp;$AC$1&amp;fatalities!O59&amp;$AC$1&amp;O$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;O$2&amp;$AC$1&amp;O$1</f>
-        <v>20/4/2020,20,4,2020,,,NW,nn,nnn,43223,NW</v>
+        <v>20/4/2020,20,4,2020,108,3,NW,nn,nnn,43223,NW</v>
       </c>
       <c r="AR58" s="3" t="str">
         <f>$AC58&amp;$AC$1&amp;P58&amp;$AC$1&amp;fatalities!P59&amp;$AC$1&amp;P$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;P$2&amp;$AC$1&amp;P$1</f>
@@ -15428,11 +15685,11 @@
       </c>
       <c r="AZ58" s="3" t="str">
         <f>$AC58&amp;$AC$1&amp;X58&amp;$AC$1&amp;fatalities!X59&amp;$AC$1&amp;X$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;X$2&amp;$AC$1&amp;X$1</f>
-        <v>20/4/2020,20,4,2020,,,VD,nn,nnn,799145,VD</v>
+        <v>20/4/2020,20,4,2020,4987,310,VD,nn,nnn,799145,VD</v>
       </c>
       <c r="BA58" s="3" t="str">
         <f>$AC58&amp;$AC$1&amp;Y58&amp;$AC$1&amp;fatalities!Y59&amp;$AC$1&amp;Y$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Y$2&amp;$AC$1&amp;Y$1</f>
-        <v>20/4/2020,20,4,2020,1771,108,VS,nn,nnn,343955,VS</v>
+        <v>20/4/2020,20,4,2020,1786,110,VS,nn,nnn,343955,VS</v>
       </c>
       <c r="BB58" s="3" t="str">
         <f>$AC58&amp;$AC$1&amp;Z58&amp;$AC$1&amp;fatalities!Z59&amp;$AC$1&amp;Z$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Z$2&amp;$AC$1&amp;Z$1</f>
@@ -15440,74 +15697,398 @@
       </c>
       <c r="BC58" s="3" t="str">
         <f>$AC58&amp;$AC$1&amp;AA58&amp;$AC$1&amp;fatalities!AA59&amp;$AC$1&amp;AA$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AA$2&amp;$AC$1&amp;AA$1</f>
-        <v>20/4/2020,20,4,2020,3254,103,ZH,nn,nnn,1520968,ZH</v>
+        <v>20/4/2020,20,4,2020,3254,106,ZH,nn,nnn,1520968,ZH</v>
       </c>
       <c r="BD58" s="3" t="str">
         <f>$AC58&amp;$AC$1&amp;AB58&amp;$AC$1&amp;fatalities!AB59&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2&amp;$AC$1&amp;AB$1</f>
-        <v>20/4/2020,20,4,2020,27693,1429,CH,nn,nnn,8543707,CH</v>
+        <v>20/4/2020,20,4,2020,27777,1463,CH,nn,nnn,8543707,CH</v>
       </c>
     </row>
     <row r="59" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="44"/>
-      <c r="B59" s="42"/>
-      <c r="C59" s="43"/>
-      <c r="D59" s="43"/>
-      <c r="E59" s="43"/>
-      <c r="F59" s="43"/>
-      <c r="G59" s="43"/>
-      <c r="H59" s="43"/>
-      <c r="I59" s="43"/>
-      <c r="J59" s="43"/>
-      <c r="K59" s="43"/>
-      <c r="L59" s="43"/>
-      <c r="M59" s="43"/>
-      <c r="N59" s="43"/>
-      <c r="O59" s="43"/>
-      <c r="P59" s="43"/>
-      <c r="Q59" s="43"/>
-      <c r="R59" s="43"/>
-      <c r="S59" s="43"/>
-      <c r="T59" s="43"/>
-      <c r="U59" s="43"/>
-      <c r="V59" s="43"/>
-      <c r="W59" s="43"/>
-      <c r="X59" s="43"/>
-      <c r="Y59" s="43"/>
-      <c r="Z59" s="43"/>
-      <c r="AA59" s="43"/>
-      <c r="AB59" s="43"/>
-      <c r="AC59" s="43"/>
+      <c r="A59" s="40">
+        <v>43942</v>
+      </c>
+      <c r="B59" s="41">
+        <v>1017</v>
+      </c>
+      <c r="C59" s="41">
+        <v>24</v>
+      </c>
+      <c r="D59" s="41">
+        <v>86</v>
+      </c>
+      <c r="E59" s="41">
+        <v>1622</v>
+      </c>
+      <c r="F59" s="41">
+        <v>809</v>
+      </c>
+      <c r="G59" s="41">
+        <v>933</v>
+      </c>
+      <c r="H59" s="41">
+        <v>995</v>
+      </c>
+      <c r="I59" s="41">
+        <v>4710</v>
+      </c>
+      <c r="J59" s="41">
+        <v>115</v>
+      </c>
+      <c r="K59" s="41">
+        <v>782</v>
+      </c>
+      <c r="L59" s="41">
+        <v>195</v>
+      </c>
+      <c r="M59" s="41">
+        <v>643</v>
+      </c>
+      <c r="N59" s="41">
+        <v>652</v>
+      </c>
+      <c r="O59" s="41">
+        <v>108</v>
+      </c>
+      <c r="P59" s="41">
+        <v>67</v>
+      </c>
+      <c r="Q59" s="41">
+        <v>718</v>
+      </c>
+      <c r="R59" s="41">
+        <v>63</v>
+      </c>
+      <c r="S59" s="41">
+        <v>359</v>
+      </c>
+      <c r="T59" s="41">
+        <v>276</v>
+      </c>
+      <c r="U59" s="41">
+        <v>339</v>
+      </c>
+      <c r="V59" s="58">
+        <v>3065</v>
+      </c>
+      <c r="W59" s="41">
+        <v>78</v>
+      </c>
+      <c r="X59" s="41">
+        <v>5037</v>
+      </c>
+      <c r="Y59" s="41">
+        <v>1791</v>
+      </c>
+      <c r="Z59" s="41">
+        <v>176</v>
+      </c>
+      <c r="AA59" s="41">
+        <v>3280</v>
+      </c>
+      <c r="AB59" s="41">
+        <v>27940</v>
+      </c>
+      <c r="AC59" s="15" t="str">
+        <f t="shared" ref="AC59:AC60" si="15">DAY(A59)&amp;"/"&amp;MONTH(A59)&amp;"/"&amp;YEAR(A59)&amp;$AC$1&amp;DAY(A59)&amp;$AC$1&amp;MONTH(A59)&amp;$AC$1&amp;YEAR(A59)</f>
+        <v>21/4/2020,21,4,2020</v>
+      </c>
+      <c r="AD59" s="3" t="str">
+        <f>$AC59&amp;$AC$1&amp;B59&amp;$AC$1&amp;fatalities!B60&amp;$AC$1&amp;B$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;B$2&amp;$AC$1&amp;B$1</f>
+        <v>21/4/2020,21,4,2020,1017,29,AG,nn,nnn,677387,AG</v>
+      </c>
+      <c r="AE59" s="3" t="str">
+        <f>$AC59&amp;$AC$1&amp;C59&amp;$AC$1&amp;fatalities!C60&amp;$AC$1&amp;C$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;C$2&amp;$AC$1&amp;C$1</f>
+        <v>21/4/2020,21,4,2020,24,,AI,nn,nnn,16145,AI</v>
+      </c>
+      <c r="AF59" s="3" t="str">
+        <f>$AC59&amp;$AC$1&amp;D59&amp;$AC$1&amp;fatalities!D60&amp;$AC$1&amp;D$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;D$2&amp;$AC$1&amp;D$1</f>
+        <v>21/4/2020,21,4,2020,86,3,AR,nn,nnn,55234,AR</v>
+      </c>
+      <c r="AG59" s="3" t="str">
+        <f>$AC59&amp;$AC$1&amp;E59&amp;$AC$1&amp;fatalities!E60&amp;$AC$1&amp;E$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;E$2&amp;$AC$1&amp;E$1</f>
+        <v>21/4/2020,21,4,2020,1622,77,BE,nn,nnn,1034977,BE</v>
+      </c>
+      <c r="AH59" s="3" t="str">
+        <f>$AC59&amp;$AC$1&amp;F59&amp;$AC$1&amp;fatalities!F60&amp;$AC$1&amp;F$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;F$2&amp;$AC$1&amp;F$1</f>
+        <v>21/4/2020,21,4,2020,809,26,BL,nn,nnn,288132,BL</v>
+      </c>
+      <c r="AI59" s="3" t="str">
+        <f>$AC59&amp;$AC$1&amp;G59&amp;$AC$1&amp;fatalities!G60&amp;$AC$1&amp;G$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;G$2&amp;$AC$1&amp;G$1</f>
+        <v>21/4/2020,21,4,2020,933,44,BS,nn,nnn,194766,BS</v>
+      </c>
+      <c r="AJ59" s="3" t="str">
+        <f>$AC59&amp;$AC$1&amp;H59&amp;$AC$1&amp;fatalities!H60&amp;$AC$1&amp;H$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;H$2&amp;$AC$1&amp;H$1</f>
+        <v>21/4/2020,21,4,2020,995,74,FR,nn,nnn,318714,FR</v>
+      </c>
+      <c r="AK59" s="3" t="str">
+        <f>$AC59&amp;$AC$1&amp;I59&amp;$AC$1&amp;fatalities!I60&amp;$AC$1&amp;I$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;I$2&amp;$AC$1&amp;I$1</f>
+        <v>21/4/2020,21,4,2020,4710,205,GE,nn,nnn,499480,GE</v>
+      </c>
+      <c r="AL59" s="3" t="str">
+        <f>$AC59&amp;$AC$1&amp;J59&amp;$AC$1&amp;fatalities!J60&amp;$AC$1&amp;J$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;J$2&amp;$AC$1&amp;J$1</f>
+        <v>21/4/2020,21,4,2020,115,6,GL,nn,nnn,40403,GL</v>
+      </c>
+      <c r="AM59" s="3" t="str">
+        <f>$AC59&amp;$AC$1&amp;K59&amp;$AC$1&amp;fatalities!K60&amp;$AC$1&amp;K$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;K$2&amp;$AC$1&amp;K$1</f>
+        <v>21/4/2020,21,4,2020,782,42,GR,nn,nnn,198379,GR</v>
+      </c>
+      <c r="AN59" s="3" t="str">
+        <f>$AC59&amp;$AC$1&amp;L59&amp;$AC$1&amp;fatalities!L60&amp;$AC$1&amp;L$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;L$2&amp;$AC$1&amp;L$1</f>
+        <v>21/4/2020,21,4,2020,195,6,JU,nn,nnn,73419,JU</v>
+      </c>
+      <c r="AO59" s="3" t="str">
+        <f>$AC59&amp;$AC$1&amp;M59&amp;$AC$1&amp;fatalities!M60&amp;$AC$1&amp;M$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;M$2&amp;$AC$1&amp;M$1</f>
+        <v>21/4/2020,21,4,2020,643,15,LU,nn,nnn,409557,LU</v>
+      </c>
+      <c r="AP59" s="3" t="str">
+        <f>$AC59&amp;$AC$1&amp;N59&amp;$AC$1&amp;fatalities!N60&amp;$AC$1&amp;N$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;N$2&amp;$AC$1&amp;N$1</f>
+        <v>21/4/2020,21,4,2020,652,56,NE,nn,nnn,176850,NE</v>
+      </c>
+      <c r="AQ59" s="3" t="str">
+        <f>$AC59&amp;$AC$1&amp;O59&amp;$AC$1&amp;fatalities!O60&amp;$AC$1&amp;O$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;O$2&amp;$AC$1&amp;O$1</f>
+        <v>21/4/2020,21,4,2020,108,3,NW,nn,nnn,43223,NW</v>
+      </c>
+      <c r="AR59" s="3" t="str">
+        <f>$AC59&amp;$AC$1&amp;P59&amp;$AC$1&amp;fatalities!P60&amp;$AC$1&amp;P$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;P$2&amp;$AC$1&amp;P$1</f>
+        <v>21/4/2020,21,4,2020,67,0,OW,nn,nnn,37841,OW</v>
+      </c>
+      <c r="AS59" s="3" t="str">
+        <f>$AC59&amp;$AC$1&amp;Q59&amp;$AC$1&amp;fatalities!Q60&amp;$AC$1&amp;Q$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Q$2&amp;$AC$1&amp;Q$1</f>
+        <v>21/4/2020,21,4,2020,718,29,SG,nn,nnn,507697,SG</v>
+      </c>
+      <c r="AT59" s="3" t="str">
+        <f>$AC59&amp;$AC$1&amp;R59&amp;$AC$1&amp;fatalities!R60&amp;$AC$1&amp;R$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;R$2&amp;$AC$1&amp;R$1</f>
+        <v>21/4/2020,21,4,2020,63,2,SH,nn,nnn,81991,SH</v>
+      </c>
+      <c r="AU59" s="3" t="str">
+        <f>$AC59&amp;$AC$1&amp;S59&amp;$AC$1&amp;fatalities!S60&amp;$AC$1&amp;S$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;S$2&amp;$AC$1&amp;S$1</f>
+        <v>21/4/2020,21,4,2020,359,11,SO,nn,nnn,273194,SO</v>
+      </c>
+      <c r="AV59" s="3" t="str">
+        <f>$AC59&amp;$AC$1&amp;T59&amp;$AC$1&amp;fatalities!T60&amp;$AC$1&amp;T$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;T$2&amp;$AC$1&amp;T$1</f>
+        <v>21/4/2020,21,4,2020,276,16,SZ,nn,nnn,159165,SZ</v>
+      </c>
+      <c r="AW59" s="3" t="str">
+        <f>$AC59&amp;$AC$1&amp;U59&amp;$AC$1&amp;fatalities!U60&amp;$AC$1&amp;U$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;U$2&amp;$AC$1&amp;U$1</f>
+        <v>21/4/2020,21,4,2020,339,13,TG,nn,nnn,276472,TG</v>
+      </c>
+      <c r="AX59" s="3" t="str">
+        <f>$AC59&amp;$AC$1&amp;V59&amp;$AC$1&amp;fatalities!V60&amp;$AC$1&amp;V$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;V$2&amp;$AC$1&amp;V$1</f>
+        <v>21/4/2020,21,4,2020,3065,291,TI,nn,nnn,353343,TI</v>
+      </c>
+      <c r="AY59" s="3" t="str">
+        <f>$AC59&amp;$AC$1&amp;W59&amp;$AC$1&amp;fatalities!W60&amp;$AC$1&amp;W$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;W$2&amp;$AC$1&amp;W$1</f>
+        <v>21/4/2020,21,4,2020,78,5,UR,nn,nnn,36433,UR</v>
+      </c>
+      <c r="AZ59" s="3" t="str">
+        <f>$AC59&amp;$AC$1&amp;X59&amp;$AC$1&amp;fatalities!X60&amp;$AC$1&amp;X$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;X$2&amp;$AC$1&amp;X$1</f>
+        <v>21/4/2020,21,4,2020,5037,316,VD,nn,nnn,799145,VD</v>
+      </c>
+      <c r="BA59" s="3" t="str">
+        <f>$AC59&amp;$AC$1&amp;Y59&amp;$AC$1&amp;fatalities!Y60&amp;$AC$1&amp;Y$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Y$2&amp;$AC$1&amp;Y$1</f>
+        <v>21/4/2020,21,4,2020,1791,113,VS,nn,nnn,343955,VS</v>
+      </c>
+      <c r="BB59" s="3" t="str">
+        <f>$AC59&amp;$AC$1&amp;Z59&amp;$AC$1&amp;fatalities!Z60&amp;$AC$1&amp;Z$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Z$2&amp;$AC$1&amp;Z$1</f>
+        <v>21/4/2020,21,4,2020,176,8,ZG,nn,nnn,126837,ZG</v>
+      </c>
+      <c r="BC59" s="3" t="str">
+        <f>$AC59&amp;$AC$1&amp;AA59&amp;$AC$1&amp;fatalities!AA60&amp;$AC$1&amp;AA$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AA$2&amp;$AC$1&amp;AA$1</f>
+        <v>21/4/2020,21,4,2020,3280,108,ZH,nn,nnn,1520968,ZH</v>
+      </c>
+      <c r="BD59" s="3" t="str">
+        <f>$AC59&amp;$AC$1&amp;AB59&amp;$AC$1&amp;fatalities!AB60&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2&amp;$AC$1&amp;AB$1</f>
+        <v>21/4/2020,21,4,2020,27940,1498,CH,nn,nnn,8543707,CH</v>
+      </c>
     </row>
     <row r="60" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="40"/>
-      <c r="C60" s="41"/>
-      <c r="D60" s="41"/>
-      <c r="E60" s="41"/>
-      <c r="F60" s="41"/>
-      <c r="G60" s="41"/>
-      <c r="H60" s="41"/>
-      <c r="I60" s="41"/>
-      <c r="J60" s="41"/>
-      <c r="K60" s="41"/>
-      <c r="L60" s="41"/>
-      <c r="M60" s="41"/>
-      <c r="N60" s="41"/>
-      <c r="O60" s="41"/>
-      <c r="P60" s="41"/>
-      <c r="Q60" s="41"/>
-      <c r="R60" s="41"/>
-      <c r="S60" s="41"/>
-      <c r="T60" s="41"/>
-      <c r="U60" s="41"/>
-      <c r="V60" s="41"/>
-      <c r="W60" s="41"/>
-      <c r="X60" s="41"/>
-      <c r="Y60" s="41"/>
-      <c r="Z60" s="41"/>
-      <c r="AA60" s="41"/>
-      <c r="AB60" s="41"/>
-      <c r="AC60" s="41"/>
-      <c r="AD60" s="10"/>
+      <c r="A60" s="42">
+        <v>43943</v>
+      </c>
+      <c r="B60" s="43">
+        <v>1026</v>
+      </c>
+      <c r="C60" s="43">
+        <v>24</v>
+      </c>
+      <c r="D60" s="43">
+        <v>87</v>
+      </c>
+      <c r="E60" s="43">
+        <v>1643</v>
+      </c>
+      <c r="F60" s="43">
+        <v>811</v>
+      </c>
+      <c r="G60" s="43">
+        <v>933</v>
+      </c>
+      <c r="H60" s="43">
+        <v>1006</v>
+      </c>
+      <c r="I60" s="43"/>
+      <c r="J60" s="43">
+        <v>117</v>
+      </c>
+      <c r="K60" s="43"/>
+      <c r="L60" s="43">
+        <v>196</v>
+      </c>
+      <c r="M60" s="43">
+        <v>648</v>
+      </c>
+      <c r="N60" s="43"/>
+      <c r="O60" s="43"/>
+      <c r="P60" s="43">
+        <v>67</v>
+      </c>
+      <c r="Q60" s="43">
+        <v>724</v>
+      </c>
+      <c r="R60" s="43">
+        <v>63</v>
+      </c>
+      <c r="S60" s="43">
+        <v>368</v>
+      </c>
+      <c r="T60" s="43">
+        <v>282</v>
+      </c>
+      <c r="U60" s="43">
+        <v>340</v>
+      </c>
+      <c r="V60" s="58">
+        <v>3089</v>
+      </c>
+      <c r="W60" s="43">
+        <v>78</v>
+      </c>
+      <c r="X60" s="43"/>
+      <c r="Y60" s="43">
+        <v>1792</v>
+      </c>
+      <c r="Z60" s="43">
+        <v>176</v>
+      </c>
+      <c r="AA60" s="43">
+        <v>3320</v>
+      </c>
+      <c r="AB60" s="43">
+        <v>28079</v>
+      </c>
+      <c r="AC60" s="15" t="str">
+        <f t="shared" si="15"/>
+        <v>22/4/2020,22,4,2020</v>
+      </c>
+      <c r="AD60" s="3" t="str">
+        <f>$AC60&amp;$AC$1&amp;B60&amp;$AC$1&amp;fatalities!B61&amp;$AC$1&amp;B$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;B$2&amp;$AC$1&amp;B$1</f>
+        <v>22/4/2020,22,4,2020,1026,31,AG,nn,nnn,677387,AG</v>
+      </c>
+      <c r="AE60" s="3" t="str">
+        <f>$AC60&amp;$AC$1&amp;C60&amp;$AC$1&amp;fatalities!C61&amp;$AC$1&amp;C$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;C$2&amp;$AC$1&amp;C$1</f>
+        <v>22/4/2020,22,4,2020,24,,AI,nn,nnn,16145,AI</v>
+      </c>
+      <c r="AF60" s="3" t="str">
+        <f>$AC60&amp;$AC$1&amp;D60&amp;$AC$1&amp;fatalities!D61&amp;$AC$1&amp;D$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;D$2&amp;$AC$1&amp;D$1</f>
+        <v>22/4/2020,22,4,2020,87,3,AR,nn,nnn,55234,AR</v>
+      </c>
+      <c r="AG60" s="3" t="str">
+        <f>$AC60&amp;$AC$1&amp;E60&amp;$AC$1&amp;fatalities!E61&amp;$AC$1&amp;E$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;E$2&amp;$AC$1&amp;E$1</f>
+        <v>22/4/2020,22,4,2020,1643,77,BE,nn,nnn,1034977,BE</v>
+      </c>
+      <c r="AH60" s="3" t="str">
+        <f>$AC60&amp;$AC$1&amp;F60&amp;$AC$1&amp;fatalities!F61&amp;$AC$1&amp;F$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;F$2&amp;$AC$1&amp;F$1</f>
+        <v>22/4/2020,22,4,2020,811,26,BL,nn,nnn,288132,BL</v>
+      </c>
+      <c r="AI60" s="3" t="str">
+        <f>$AC60&amp;$AC$1&amp;G60&amp;$AC$1&amp;fatalities!G61&amp;$AC$1&amp;G$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;G$2&amp;$AC$1&amp;G$1</f>
+        <v>22/4/2020,22,4,2020,933,45,BS,nn,nnn,194766,BS</v>
+      </c>
+      <c r="AJ60" s="3" t="str">
+        <f>$AC60&amp;$AC$1&amp;H60&amp;$AC$1&amp;fatalities!H61&amp;$AC$1&amp;H$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;H$2&amp;$AC$1&amp;H$1</f>
+        <v>22/4/2020,22,4,2020,1006,76,FR,nn,nnn,318714,FR</v>
+      </c>
+      <c r="AK60" s="3" t="str">
+        <f>$AC60&amp;$AC$1&amp;I60&amp;$AC$1&amp;fatalities!I61&amp;$AC$1&amp;I$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;I$2&amp;$AC$1&amp;I$1</f>
+        <v>22/4/2020,22,4,2020,,,GE,nn,nnn,499480,GE</v>
+      </c>
+      <c r="AL60" s="3" t="str">
+        <f>$AC60&amp;$AC$1&amp;J60&amp;$AC$1&amp;fatalities!J61&amp;$AC$1&amp;J$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;J$2&amp;$AC$1&amp;J$1</f>
+        <v>22/4/2020,22,4,2020,117,6,GL,nn,nnn,40403,GL</v>
+      </c>
+      <c r="AM60" s="3" t="str">
+        <f>$AC60&amp;$AC$1&amp;K60&amp;$AC$1&amp;fatalities!K61&amp;$AC$1&amp;K$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;K$2&amp;$AC$1&amp;K$1</f>
+        <v>22/4/2020,22,4,2020,,,GR,nn,nnn,198379,GR</v>
+      </c>
+      <c r="AN60" s="3" t="str">
+        <f>$AC60&amp;$AC$1&amp;L60&amp;$AC$1&amp;fatalities!L61&amp;$AC$1&amp;L$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;L$2&amp;$AC$1&amp;L$1</f>
+        <v>22/4/2020,22,4,2020,196,6,JU,nn,nnn,73419,JU</v>
+      </c>
+      <c r="AO60" s="3" t="str">
+        <f>$AC60&amp;$AC$1&amp;M60&amp;$AC$1&amp;fatalities!M61&amp;$AC$1&amp;M$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;M$2&amp;$AC$1&amp;M$1</f>
+        <v>22/4/2020,22,4,2020,648,15,LU,nn,nnn,409557,LU</v>
+      </c>
+      <c r="AP60" s="3" t="str">
+        <f>$AC60&amp;$AC$1&amp;N60&amp;$AC$1&amp;fatalities!N61&amp;$AC$1&amp;N$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;N$2&amp;$AC$1&amp;N$1</f>
+        <v>22/4/2020,22,4,2020,,56,NE,nn,nnn,176850,NE</v>
+      </c>
+      <c r="AQ60" s="3" t="str">
+        <f>$AC60&amp;$AC$1&amp;O60&amp;$AC$1&amp;fatalities!O61&amp;$AC$1&amp;O$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;O$2&amp;$AC$1&amp;O$1</f>
+        <v>22/4/2020,22,4,2020,,,NW,nn,nnn,43223,NW</v>
+      </c>
+      <c r="AR60" s="3" t="str">
+        <f>$AC60&amp;$AC$1&amp;P60&amp;$AC$1&amp;fatalities!P61&amp;$AC$1&amp;P$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;P$2&amp;$AC$1&amp;P$1</f>
+        <v>22/4/2020,22,4,2020,67,0,OW,nn,nnn,37841,OW</v>
+      </c>
+      <c r="AS60" s="3" t="str">
+        <f>$AC60&amp;$AC$1&amp;Q60&amp;$AC$1&amp;fatalities!Q61&amp;$AC$1&amp;Q$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Q$2&amp;$AC$1&amp;Q$1</f>
+        <v>22/4/2020,22,4,2020,724,29,SG,nn,nnn,507697,SG</v>
+      </c>
+      <c r="AT60" s="3" t="str">
+        <f>$AC60&amp;$AC$1&amp;R60&amp;$AC$1&amp;fatalities!R61&amp;$AC$1&amp;R$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;R$2&amp;$AC$1&amp;R$1</f>
+        <v>22/4/2020,22,4,2020,63,3,SH,nn,nnn,81991,SH</v>
+      </c>
+      <c r="AU60" s="3" t="str">
+        <f>$AC60&amp;$AC$1&amp;S60&amp;$AC$1&amp;fatalities!S61&amp;$AC$1&amp;S$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;S$2&amp;$AC$1&amp;S$1</f>
+        <v>22/4/2020,22,4,2020,368,11,SO,nn,nnn,273194,SO</v>
+      </c>
+      <c r="AV60" s="3" t="str">
+        <f>$AC60&amp;$AC$1&amp;T60&amp;$AC$1&amp;fatalities!T61&amp;$AC$1&amp;T$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;T$2&amp;$AC$1&amp;T$1</f>
+        <v>22/4/2020,22,4,2020,282,16,SZ,nn,nnn,159165,SZ</v>
+      </c>
+      <c r="AW60" s="3" t="str">
+        <f>$AC60&amp;$AC$1&amp;U60&amp;$AC$1&amp;fatalities!U61&amp;$AC$1&amp;U$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;U$2&amp;$AC$1&amp;U$1</f>
+        <v>22/4/2020,22,4,2020,340,14,TG,nn,nnn,276472,TG</v>
+      </c>
+      <c r="AX60" s="3" t="str">
+        <f>$AC60&amp;$AC$1&amp;V60&amp;$AC$1&amp;fatalities!V61&amp;$AC$1&amp;V$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;V$2&amp;$AC$1&amp;V$1</f>
+        <v>22/4/2020,22,4,2020,3089,295,TI,nn,nnn,353343,TI</v>
+      </c>
+      <c r="AY60" s="3" t="str">
+        <f>$AC60&amp;$AC$1&amp;W60&amp;$AC$1&amp;fatalities!W61&amp;$AC$1&amp;W$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;W$2&amp;$AC$1&amp;W$1</f>
+        <v>22/4/2020,22,4,2020,78,5,UR,nn,nnn,36433,UR</v>
+      </c>
+      <c r="AZ60" s="3" t="str">
+        <f>$AC60&amp;$AC$1&amp;X60&amp;$AC$1&amp;fatalities!X61&amp;$AC$1&amp;X$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;X$2&amp;$AC$1&amp;X$1</f>
+        <v>22/4/2020,22,4,2020,,,VD,nn,nnn,799145,VD</v>
+      </c>
+      <c r="BA60" s="3" t="str">
+        <f>$AC60&amp;$AC$1&amp;Y60&amp;$AC$1&amp;fatalities!Y61&amp;$AC$1&amp;Y$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Y$2&amp;$AC$1&amp;Y$1</f>
+        <v>22/4/2020,22,4,2020,1792,114,VS,nn,nnn,343955,VS</v>
+      </c>
+      <c r="BB60" s="3" t="str">
+        <f>$AC60&amp;$AC$1&amp;Z60&amp;$AC$1&amp;fatalities!Z61&amp;$AC$1&amp;Z$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Z$2&amp;$AC$1&amp;Z$1</f>
+        <v>22/4/2020,22,4,2020,176,8,ZG,nn,nnn,126837,ZG</v>
+      </c>
+      <c r="BC60" s="3" t="str">
+        <f>$AC60&amp;$AC$1&amp;AA60&amp;$AC$1&amp;fatalities!AA61&amp;$AC$1&amp;AA$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AA$2&amp;$AC$1&amp;AA$1</f>
+        <v>22/4/2020,22,4,2020,3320,108,ZH,nn,nnn,1520968,ZH</v>
+      </c>
+      <c r="BD60" s="3" t="str">
+        <f>$AC60&amp;$AC$1&amp;AB60&amp;$AC$1&amp;fatalities!AB61&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2&amp;$AC$1&amp;AB$1</f>
+        <v>22/4/2020,22,4,2020,28079,1510,CH,nn,nnn,8543707,CH</v>
+      </c>
     </row>
     <row r="61" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="44"/>
@@ -15850,6 +16431,68 @@
       <c r="AB71" s="43"/>
       <c r="AC71" s="43"/>
     </row>
+    <row r="72" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="44"/>
+      <c r="B72" s="40"/>
+      <c r="C72" s="41"/>
+      <c r="D72" s="41"/>
+      <c r="E72" s="41"/>
+      <c r="F72" s="41"/>
+      <c r="G72" s="41"/>
+      <c r="H72" s="41"/>
+      <c r="I72" s="41"/>
+      <c r="J72" s="41"/>
+      <c r="K72" s="41"/>
+      <c r="L72" s="41"/>
+      <c r="M72" s="41"/>
+      <c r="N72" s="41"/>
+      <c r="O72" s="41"/>
+      <c r="P72" s="41"/>
+      <c r="Q72" s="41"/>
+      <c r="R72" s="41"/>
+      <c r="S72" s="41"/>
+      <c r="T72" s="41"/>
+      <c r="U72" s="41"/>
+      <c r="V72" s="41"/>
+      <c r="W72" s="41"/>
+      <c r="X72" s="41"/>
+      <c r="Y72" s="41"/>
+      <c r="Z72" s="41"/>
+      <c r="AA72" s="41"/>
+      <c r="AB72" s="41"/>
+      <c r="AC72" s="41"/>
+    </row>
+    <row r="73" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="44"/>
+      <c r="B73" s="42"/>
+      <c r="C73" s="43"/>
+      <c r="D73" s="43"/>
+      <c r="E73" s="43"/>
+      <c r="F73" s="43"/>
+      <c r="G73" s="43"/>
+      <c r="H73" s="43"/>
+      <c r="I73" s="43"/>
+      <c r="J73" s="43"/>
+      <c r="K73" s="43"/>
+      <c r="L73" s="43"/>
+      <c r="M73" s="43"/>
+      <c r="N73" s="43"/>
+      <c r="O73" s="43"/>
+      <c r="P73" s="43"/>
+      <c r="Q73" s="43"/>
+      <c r="R73" s="43"/>
+      <c r="S73" s="43"/>
+      <c r="T73" s="43"/>
+      <c r="U73" s="43"/>
+      <c r="V73" s="43"/>
+      <c r="W73" s="43"/>
+      <c r="X73" s="43"/>
+      <c r="Y73" s="43"/>
+      <c r="Z73" s="43"/>
+      <c r="AA73" s="43"/>
+      <c r="AB73" s="43"/>
+      <c r="AC73" s="43"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -15858,11 +16501,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF73"/>
+  <dimension ref="A1:AF75"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V48" sqref="V48:V59"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V60" sqref="V60:V61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16079,7 +16722,7 @@
       </c>
       <c r="I3" s="47">
         <f t="shared" si="0"/>
-        <v>2.9030191399055015E-4</v>
+        <v>2.9831024265235847E-4</v>
       </c>
       <c r="J3" s="45">
         <f t="shared" si="0"/>
@@ -16091,7 +16734,7 @@
       </c>
       <c r="L3" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.3620452471431101E-5</v>
       </c>
       <c r="M3" s="45">
         <f t="shared" si="0"/>
@@ -16143,7 +16786,7 @@
       </c>
       <c r="Y3" s="47">
         <f t="shared" si="0"/>
-        <v>2.1223706589524791E-4</v>
+        <v>2.238664941634807E-4</v>
       </c>
       <c r="Z3" s="45">
         <f t="shared" si="0"/>
@@ -16151,11 +16794,11 @@
       </c>
       <c r="AA3" s="45">
         <f t="shared" si="0"/>
-        <v>4.273594184756024E-5</v>
+        <v>4.3393417875984239E-5</v>
       </c>
       <c r="AB3" s="47">
         <f t="shared" si="0"/>
-        <v>1.1669407670464355E-4</v>
+        <v>1.1774748361571857E-4</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -18566,7 +19209,7 @@
         <v>46</v>
       </c>
       <c r="I48" s="41">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="J48" s="41">
         <v>2</v>
@@ -18574,7 +19217,9 @@
       <c r="K48" s="41">
         <v>35</v>
       </c>
-      <c r="L48" s="41"/>
+      <c r="L48" s="41">
+        <v>1</v>
+      </c>
       <c r="M48" s="41">
         <v>9</v>
       </c>
@@ -18612,16 +19257,16 @@
         <v>204</v>
       </c>
       <c r="Y48" s="41">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Z48" s="41">
         <v>3</v>
       </c>
       <c r="AA48" s="41">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AB48" s="41">
-        <v>997</v>
+        <v>1006</v>
       </c>
       <c r="AC48" s="41"/>
     </row>
@@ -18649,14 +19294,14 @@
         <v>49</v>
       </c>
       <c r="I49" s="43">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="J49" s="43"/>
       <c r="K49" s="43">
         <v>35</v>
       </c>
       <c r="L49" s="43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M49" s="43">
         <v>9</v>
@@ -18693,16 +19338,16 @@
         <v>224</v>
       </c>
       <c r="Y49" s="43">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="Z49" s="43">
         <v>3</v>
       </c>
       <c r="AA49" s="43">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB49" s="43">
-        <v>1053</v>
+        <v>1068</v>
       </c>
       <c r="AC49" s="41"/>
     </row>
@@ -18730,7 +19375,7 @@
         <v>53</v>
       </c>
       <c r="I50" s="41">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="J50" s="41">
         <v>2</v>
@@ -18738,7 +19383,9 @@
       <c r="K50" s="41">
         <v>35</v>
       </c>
-      <c r="L50" s="41"/>
+      <c r="L50" s="41">
+        <v>3</v>
+      </c>
       <c r="M50" s="41">
         <v>10</v>
       </c>
@@ -18774,16 +19421,16 @@
         <v>228</v>
       </c>
       <c r="Y50" s="41">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="Z50" s="41">
         <v>4</v>
       </c>
       <c r="AA50" s="41">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB50" s="41">
-        <v>1091</v>
+        <v>1102</v>
       </c>
       <c r="AC50" s="43"/>
     </row>
@@ -18809,18 +19456,20 @@
         <v>54</v>
       </c>
       <c r="I51" s="43">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="J51" s="43"/>
       <c r="K51" s="43">
         <v>35</v>
       </c>
-      <c r="L51" s="43"/>
+      <c r="L51" s="43">
+        <v>3</v>
+      </c>
       <c r="M51" s="43">
         <v>10</v>
       </c>
       <c r="N51" s="43">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O51" s="43">
         <v>0</v>
@@ -18851,16 +19500,16 @@
         <v>233</v>
       </c>
       <c r="Y51" s="43">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="Z51" s="43">
         <v>5</v>
       </c>
       <c r="AA51" s="43">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB51" s="43">
-        <v>1140</v>
+        <v>1154</v>
       </c>
       <c r="AC51" s="41"/>
     </row>
@@ -18888,7 +19537,7 @@
         <v>55</v>
       </c>
       <c r="I52" s="41">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="J52" s="41">
         <v>2</v>
@@ -18896,12 +19545,14 @@
       <c r="K52" s="41">
         <v>35</v>
       </c>
-      <c r="L52" s="41"/>
+      <c r="L52" s="41">
+        <v>3</v>
+      </c>
       <c r="M52" s="41">
         <v>10</v>
       </c>
       <c r="N52" s="41">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O52" s="41">
         <v>1</v>
@@ -18932,16 +19583,16 @@
         <v>237</v>
       </c>
       <c r="Y52" s="41">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="Z52" s="41">
         <v>5</v>
       </c>
       <c r="AA52" s="41">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AB52" s="41">
-        <v>1167</v>
+        <v>1181</v>
       </c>
       <c r="AC52" s="43"/>
     </row>
@@ -18969,7 +19620,7 @@
         <v>57</v>
       </c>
       <c r="I53" s="43">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="J53" s="43">
         <v>2</v>
@@ -18977,12 +19628,14 @@
       <c r="K53" s="43">
         <v>37</v>
       </c>
-      <c r="L53" s="43"/>
+      <c r="L53" s="43">
+        <v>3</v>
+      </c>
       <c r="M53" s="43">
         <v>11</v>
       </c>
       <c r="N53" s="43">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="O53" s="43">
         <v>1</v>
@@ -19015,16 +19668,16 @@
         <v>254</v>
       </c>
       <c r="Y53" s="43">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="Z53" s="43">
         <v>5</v>
       </c>
       <c r="AA53" s="43">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AB53" s="43">
-        <v>1212</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="54" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -19051,7 +19704,7 @@
         <v>63</v>
       </c>
       <c r="I54" s="41">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="J54" s="41">
         <v>2</v>
@@ -19059,12 +19712,14 @@
       <c r="K54" s="41">
         <v>38</v>
       </c>
-      <c r="L54" s="41"/>
+      <c r="L54" s="41">
+        <v>3</v>
+      </c>
       <c r="M54" s="41">
         <v>12</v>
       </c>
       <c r="N54" s="41">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="O54" s="41">
         <v>2</v>
@@ -19103,14 +19758,14 @@
         <v>5</v>
       </c>
       <c r="AA54" s="41">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AB54" s="41">
-        <v>1262</v>
+        <v>1274</v>
       </c>
       <c r="AC54" s="10">
         <f>AB54-AB46</f>
-        <v>396</v>
+        <v>408</v>
       </c>
     </row>
     <row r="55" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -19137,7 +19792,7 @@
         <v>65</v>
       </c>
       <c r="I55" s="43">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="J55" s="43">
         <v>3</v>
@@ -19145,12 +19800,14 @@
       <c r="K55" s="43">
         <v>39</v>
       </c>
-      <c r="L55" s="43"/>
+      <c r="L55" s="43">
+        <v>3</v>
+      </c>
       <c r="M55" s="43">
         <v>13</v>
       </c>
       <c r="N55" s="43">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="O55" s="43">
         <v>2</v>
@@ -19183,16 +19840,16 @@
         <v>279</v>
       </c>
       <c r="Y55" s="43">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Z55" s="43">
         <v>6</v>
       </c>
       <c r="AA55" s="43">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AB55" s="43">
-        <v>1305</v>
+        <v>1319</v>
       </c>
       <c r="AC55" s="43"/>
       <c r="AD55" s="43"/>
@@ -19222,18 +19879,20 @@
         <v>67</v>
       </c>
       <c r="I56" s="41">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="J56" s="41">
         <v>3</v>
       </c>
       <c r="K56" s="41"/>
-      <c r="L56" s="41"/>
+      <c r="L56" s="41">
+        <v>3</v>
+      </c>
       <c r="M56" s="41">
         <v>14</v>
       </c>
       <c r="N56" s="41">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="O56" s="41">
         <v>2</v>
@@ -19266,16 +19925,16 @@
         <v>291</v>
       </c>
       <c r="Y56" s="41">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="Z56" s="41">
         <v>6</v>
       </c>
       <c r="AA56" s="41">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AB56" s="41">
-        <v>1351</v>
+        <v>1367</v>
       </c>
       <c r="AC56" s="41"/>
       <c r="AD56" s="41"/>
@@ -19302,16 +19961,18 @@
         <v>69</v>
       </c>
       <c r="I57" s="43">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="J57" s="43"/>
       <c r="K57" s="43"/>
-      <c r="L57" s="43"/>
+      <c r="L57" s="43">
+        <v>3</v>
+      </c>
       <c r="M57" s="43">
         <v>15</v>
       </c>
       <c r="N57" s="43">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="O57" s="43">
         <v>3</v>
@@ -19342,16 +20003,16 @@
         <v>292</v>
       </c>
       <c r="Y57" s="43">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="Z57" s="43">
         <v>7</v>
       </c>
       <c r="AA57" s="43">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AB57" s="43">
-        <v>1381</v>
+        <v>1402</v>
       </c>
       <c r="AC57" s="43"/>
       <c r="AD57" s="10"/>
@@ -19380,18 +20041,20 @@
         <v>71</v>
       </c>
       <c r="I58" s="41">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="J58" s="41"/>
       <c r="K58" s="41">
         <v>40</v>
       </c>
-      <c r="L58" s="41"/>
+      <c r="L58" s="41">
+        <v>5</v>
+      </c>
       <c r="M58" s="41">
         <v>15</v>
       </c>
       <c r="N58" s="41">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="O58" s="41">
         <v>3</v>
@@ -19422,16 +20085,16 @@
         <v>298</v>
       </c>
       <c r="Y58" s="41">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="Z58" s="41">
         <v>7</v>
       </c>
       <c r="AA58" s="41">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AB58" s="41">
-        <v>1404</v>
+        <v>1425</v>
       </c>
       <c r="AC58" s="41"/>
       <c r="AD58" s="41"/>
@@ -19459,17 +20122,27 @@
       <c r="H59" s="43">
         <v>72</v>
       </c>
-      <c r="I59" s="43"/>
+      <c r="I59" s="43">
+        <v>202</v>
+      </c>
       <c r="J59" s="43">
         <v>5</v>
       </c>
-      <c r="K59" s="43"/>
-      <c r="L59" s="43"/>
+      <c r="K59" s="43">
+        <v>40</v>
+      </c>
+      <c r="L59" s="43">
+        <v>6</v>
+      </c>
       <c r="M59" s="43">
         <v>15</v>
       </c>
-      <c r="N59" s="43"/>
-      <c r="O59" s="43"/>
+      <c r="N59" s="43">
+        <v>56</v>
+      </c>
+      <c r="O59" s="43">
+        <v>3</v>
+      </c>
       <c r="P59" s="43">
         <v>0</v>
       </c>
@@ -19494,89 +20167,194 @@
       <c r="W59" s="43">
         <v>5</v>
       </c>
-      <c r="X59" s="43"/>
+      <c r="X59" s="43">
+        <v>310</v>
+      </c>
       <c r="Y59" s="43">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Z59" s="43">
         <v>7</v>
       </c>
       <c r="AA59" s="43">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="AB59" s="43">
-        <v>1429</v>
+        <v>1463</v>
       </c>
       <c r="AC59" s="43"/>
       <c r="AD59" s="10"/>
       <c r="AE59" s="43"/>
     </row>
     <row r="60" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="40"/>
+      <c r="A60" s="40">
+        <v>43942</v>
+      </c>
+      <c r="B60" s="41">
+        <v>29</v>
+      </c>
       <c r="C60" s="41"/>
-      <c r="D60" s="41"/>
-      <c r="E60" s="41"/>
-      <c r="F60" s="41"/>
-      <c r="G60" s="41"/>
-      <c r="H60" s="41"/>
-      <c r="I60" s="41"/>
-      <c r="J60" s="41"/>
-      <c r="K60" s="41"/>
-      <c r="L60" s="41"/>
-      <c r="M60" s="41"/>
-      <c r="N60" s="41"/>
-      <c r="O60" s="41"/>
-      <c r="P60" s="41"/>
-      <c r="Q60" s="41"/>
-      <c r="R60" s="41"/>
-      <c r="S60" s="41"/>
-      <c r="T60" s="41"/>
-      <c r="U60" s="41"/>
-      <c r="V60" s="41"/>
-      <c r="W60" s="41"/>
-      <c r="X60" s="41"/>
-      <c r="Y60" s="41"/>
-      <c r="Z60" s="41"/>
-      <c r="AA60" s="41"/>
-      <c r="AB60" s="41"/>
+      <c r="D60" s="41">
+        <v>3</v>
+      </c>
+      <c r="E60" s="41">
+        <v>77</v>
+      </c>
+      <c r="F60" s="41">
+        <v>26</v>
+      </c>
+      <c r="G60" s="41">
+        <v>44</v>
+      </c>
+      <c r="H60" s="41">
+        <v>74</v>
+      </c>
+      <c r="I60" s="41">
+        <v>205</v>
+      </c>
+      <c r="J60" s="41">
+        <v>6</v>
+      </c>
+      <c r="K60" s="41">
+        <v>42</v>
+      </c>
+      <c r="L60" s="41">
+        <v>6</v>
+      </c>
+      <c r="M60" s="41">
+        <v>15</v>
+      </c>
+      <c r="N60" s="41">
+        <v>56</v>
+      </c>
+      <c r="O60" s="41">
+        <v>3</v>
+      </c>
+      <c r="P60" s="41">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="41">
+        <v>29</v>
+      </c>
+      <c r="R60" s="41">
+        <v>2</v>
+      </c>
+      <c r="S60" s="41">
+        <v>11</v>
+      </c>
+      <c r="T60" s="41">
+        <v>16</v>
+      </c>
+      <c r="U60" s="41">
+        <v>13</v>
+      </c>
+      <c r="V60" s="58">
+        <v>291</v>
+      </c>
+      <c r="W60" s="41">
+        <v>5</v>
+      </c>
+      <c r="X60" s="41">
+        <v>316</v>
+      </c>
+      <c r="Y60" s="41">
+        <v>113</v>
+      </c>
+      <c r="Z60" s="41">
+        <v>8</v>
+      </c>
+      <c r="AA60" s="41">
+        <v>108</v>
+      </c>
+      <c r="AB60" s="41">
+        <v>1498</v>
+      </c>
       <c r="AC60" s="41"/>
       <c r="AD60" s="10"/>
       <c r="AE60" s="41"/>
     </row>
     <row r="61" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="44"/>
-      <c r="B61" s="42"/>
+      <c r="A61" s="42">
+        <v>43943</v>
+      </c>
+      <c r="B61" s="43">
+        <v>31</v>
+      </c>
       <c r="C61" s="43"/>
-      <c r="D61" s="43"/>
-      <c r="E61" s="43"/>
-      <c r="F61" s="43"/>
-      <c r="G61" s="43"/>
-      <c r="H61" s="43"/>
+      <c r="D61" s="43">
+        <v>3</v>
+      </c>
+      <c r="E61" s="43">
+        <v>77</v>
+      </c>
+      <c r="F61" s="43">
+        <v>26</v>
+      </c>
+      <c r="G61" s="43">
+        <v>45</v>
+      </c>
+      <c r="H61" s="43">
+        <v>76</v>
+      </c>
       <c r="I61" s="43"/>
-      <c r="J61" s="43"/>
+      <c r="J61" s="43">
+        <v>6</v>
+      </c>
       <c r="K61" s="43"/>
-      <c r="L61" s="43"/>
-      <c r="M61" s="43"/>
-      <c r="N61" s="43"/>
+      <c r="L61" s="43">
+        <v>6</v>
+      </c>
+      <c r="M61" s="43">
+        <v>15</v>
+      </c>
+      <c r="N61" s="43">
+        <v>56</v>
+      </c>
       <c r="O61" s="43"/>
-      <c r="P61" s="43"/>
-      <c r="Q61" s="43"/>
-      <c r="R61" s="43"/>
-      <c r="S61" s="43"/>
-      <c r="T61" s="43"/>
-      <c r="U61" s="43"/>
-      <c r="V61" s="43"/>
-      <c r="W61" s="43"/>
+      <c r="P61" s="43">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="43">
+        <v>29</v>
+      </c>
+      <c r="R61" s="43">
+        <v>3</v>
+      </c>
+      <c r="S61" s="43">
+        <v>11</v>
+      </c>
+      <c r="T61" s="43">
+        <v>16</v>
+      </c>
+      <c r="U61" s="43">
+        <v>14</v>
+      </c>
+      <c r="V61" s="58">
+        <v>295</v>
+      </c>
+      <c r="W61" s="43">
+        <v>5</v>
+      </c>
       <c r="X61" s="43"/>
-      <c r="Y61" s="43"/>
-      <c r="Z61" s="43"/>
-      <c r="AA61" s="43"/>
-      <c r="AB61" s="43"/>
-      <c r="AC61" s="43"/>
+      <c r="Y61" s="43">
+        <v>114</v>
+      </c>
+      <c r="Z61" s="43">
+        <v>8</v>
+      </c>
+      <c r="AA61" s="43">
+        <v>108</v>
+      </c>
+      <c r="AB61" s="43">
+        <v>1510</v>
+      </c>
+      <c r="AC61" s="10">
+        <f>AB61-AB54</f>
+        <v>236</v>
+      </c>
       <c r="AD61" s="43"/>
     </row>
     <row r="62" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="44"/>
       <c r="B62" s="40"/>
       <c r="C62" s="41"/>
       <c r="D62" s="41"/>
@@ -19605,7 +20383,8 @@
       <c r="AA62" s="41"/>
       <c r="AB62" s="41"/>
       <c r="AC62" s="41"/>
-      <c r="AD62" s="41"/>
+      <c r="AD62" s="10"/>
+      <c r="AE62" s="41"/>
     </row>
     <row r="63" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="44"/>
@@ -19893,10 +20672,128 @@
       <c r="AC71" s="43"/>
     </row>
     <row r="72" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="V72" s="36"/>
+      <c r="A72" s="44"/>
+      <c r="B72" s="40"/>
+      <c r="C72" s="41"/>
+      <c r="D72" s="41"/>
+      <c r="E72" s="41"/>
+      <c r="F72" s="41"/>
+      <c r="G72" s="41"/>
+      <c r="H72" s="41"/>
+      <c r="I72" s="41"/>
+      <c r="J72" s="41"/>
+      <c r="K72" s="41"/>
+      <c r="L72" s="41"/>
+      <c r="M72" s="41"/>
+      <c r="N72" s="41"/>
+      <c r="O72" s="41"/>
+      <c r="P72" s="41"/>
+      <c r="Q72" s="41"/>
+      <c r="R72" s="41"/>
+      <c r="S72" s="41"/>
+      <c r="T72" s="41"/>
+      <c r="U72" s="41"/>
+      <c r="V72" s="41"/>
+      <c r="W72" s="41"/>
+      <c r="X72" s="41"/>
+      <c r="Y72" s="41"/>
+      <c r="Z72" s="41"/>
+      <c r="AA72" s="41"/>
+      <c r="AB72" s="41"/>
+      <c r="AC72" s="41"/>
     </row>
     <row r="73" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="V73" s="36"/>
+      <c r="A73" s="44"/>
+      <c r="B73" s="42"/>
+      <c r="C73" s="43"/>
+      <c r="D73" s="43"/>
+      <c r="E73" s="43"/>
+      <c r="F73" s="43"/>
+      <c r="G73" s="43"/>
+      <c r="H73" s="43"/>
+      <c r="I73" s="43"/>
+      <c r="J73" s="43"/>
+      <c r="K73" s="43"/>
+      <c r="L73" s="43"/>
+      <c r="M73" s="43"/>
+      <c r="N73" s="43"/>
+      <c r="O73" s="43"/>
+      <c r="P73" s="43"/>
+      <c r="Q73" s="43"/>
+      <c r="R73" s="43"/>
+      <c r="S73" s="43"/>
+      <c r="T73" s="43"/>
+      <c r="U73" s="43"/>
+      <c r="V73" s="43"/>
+      <c r="W73" s="43"/>
+      <c r="X73" s="43"/>
+      <c r="Y73" s="43"/>
+      <c r="Z73" s="43"/>
+      <c r="AA73" s="43"/>
+      <c r="AB73" s="43"/>
+      <c r="AC73" s="43"/>
+    </row>
+    <row r="74" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="44"/>
+      <c r="B74" s="40"/>
+      <c r="C74" s="41"/>
+      <c r="D74" s="41"/>
+      <c r="E74" s="41"/>
+      <c r="F74" s="41"/>
+      <c r="G74" s="41"/>
+      <c r="H74" s="41"/>
+      <c r="I74" s="41"/>
+      <c r="J74" s="41"/>
+      <c r="K74" s="41"/>
+      <c r="L74" s="41"/>
+      <c r="M74" s="41"/>
+      <c r="N74" s="41"/>
+      <c r="O74" s="41"/>
+      <c r="P74" s="41"/>
+      <c r="Q74" s="41"/>
+      <c r="R74" s="41"/>
+      <c r="S74" s="41"/>
+      <c r="T74" s="41"/>
+      <c r="U74" s="41"/>
+      <c r="V74" s="41"/>
+      <c r="W74" s="41"/>
+      <c r="X74" s="41"/>
+      <c r="Y74" s="41"/>
+      <c r="Z74" s="41"/>
+      <c r="AA74" s="41"/>
+      <c r="AB74" s="41"/>
+      <c r="AC74" s="41"/>
+    </row>
+    <row r="75" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="44"/>
+      <c r="B75" s="42"/>
+      <c r="C75" s="43"/>
+      <c r="D75" s="43"/>
+      <c r="E75" s="43"/>
+      <c r="F75" s="43"/>
+      <c r="G75" s="43"/>
+      <c r="H75" s="43"/>
+      <c r="I75" s="43"/>
+      <c r="J75" s="43"/>
+      <c r="K75" s="43"/>
+      <c r="L75" s="43"/>
+      <c r="M75" s="43"/>
+      <c r="N75" s="43"/>
+      <c r="O75" s="43"/>
+      <c r="P75" s="43"/>
+      <c r="Q75" s="43"/>
+      <c r="R75" s="43"/>
+      <c r="S75" s="43"/>
+      <c r="T75" s="43"/>
+      <c r="U75" s="43"/>
+      <c r="V75" s="43"/>
+      <c r="W75" s="43"/>
+      <c r="X75" s="43"/>
+      <c r="Y75" s="43"/>
+      <c r="Z75" s="43"/>
+      <c r="AA75" s="43"/>
+      <c r="AB75" s="43"/>
+      <c r="AC75" s="43"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TI_Lombardia.xlsx
+++ b/TI_Lombardia.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TI Lombardia" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">cases!$A$3:$AB$44</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TI Lombardia'!$A$3:$F$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TI Lombardia'!$A$3:$F$67</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="63">
   <si>
     <t>Date</t>
   </si>
@@ -500,7 +500,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -544,12 +544,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -910,49 +904,49 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1059,8 +1053,6 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="10" fontId="14" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="14" fillId="9" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="14" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1089,14 +1081,14 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="8" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="8" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="8" xfId="4" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="8" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="8" xfId="4" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="8" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="8" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="8" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1107,6 +1099,13 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="8" xfId="44" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="44" applyFont="1"/>
+    <xf numFmtId="10" fontId="33" fillId="30" borderId="0" xfId="35" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="33" fillId="18" borderId="0" xfId="23" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="33" fillId="26" borderId="0" xfId="31" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -1420,7 +1419,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1428,10 +1427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U150"/>
+  <dimension ref="A1:U152"/>
   <sheetViews>
-    <sheetView topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4:L138"/>
+    <sheetView topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4:L141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1597,7 +1596,7 @@
         <v>9/3/2020</v>
       </c>
       <c r="L5" s="3" t="str">
-        <f t="shared" ref="L5:L72" si="3">K5&amp;$L$1&amp;DAY(A5)&amp;$L$1&amp;MONTH(A5)&amp;$L$1&amp;YEAR(A5)&amp;$L$1&amp;D5&amp;$L$1&amp;G5&amp;$L$1&amp;E5&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H5&amp;$L$1&amp;E5</f>
+        <f t="shared" ref="L5:L73" si="3">K5&amp;$L$1&amp;DAY(A5)&amp;$L$1&amp;MONTH(A5)&amp;$L$1&amp;YEAR(A5)&amp;$L$1&amp;D5&amp;$L$1&amp;G5&amp;$L$1&amp;E5&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H5&amp;$L$1&amp;E5</f>
         <v>9/3/2020,9,3,2020,1280,66,Lombardia,nn,nnn,10040000,Lombardia</v>
       </c>
     </row>
@@ -3143,1021 +3142,1017 @@
         <v>24/4/2020,24,4,2020,1091,166,Lombardia,nn,nnn,10040000,Lombardia</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B52" s="43">
+        <v>13269</v>
+      </c>
+      <c r="C52" s="43">
+        <v>71969</v>
+      </c>
+      <c r="D52">
+        <f t="shared" ref="D52" si="38">C52-C51</f>
+        <v>713</v>
+      </c>
+      <c r="E52" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52">
+        <f t="shared" ref="G52" si="39">B52-B51</f>
+        <v>163</v>
+      </c>
+      <c r="H52" s="2">
+        <v>10040001</v>
+      </c>
+      <c r="K52" s="5" t="str">
+        <f t="shared" ref="K52" si="40">DAY(A52)&amp;"/"&amp;MONTH(A52)&amp;"/"&amp;YEAR(A52)</f>
+        <v>25/4/2020</v>
+      </c>
+      <c r="L52" s="3" t="str">
+        <f t="shared" ref="L52" si="41">K52&amp;$L$1&amp;DAY(A52)&amp;$L$1&amp;MONTH(A52)&amp;$L$1&amp;YEAR(A52)&amp;$L$1&amp;D52&amp;$L$1&amp;G52&amp;$L$1&amp;E52&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H52&amp;$L$1&amp;E52</f>
+        <v>25/4/2020,25,4,2020,713,163,Lombardia,nn,nnn,10040001,Lombardia</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
         <v>43901</v>
       </c>
-      <c r="B52">
+      <c r="B53">
         <v>1</v>
       </c>
-      <c r="C52">
+      <c r="C53">
         <v>68</v>
       </c>
-      <c r="D52">
-        <f>C52</f>
+      <c r="D53">
+        <f>C53</f>
         <v>68</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E53" t="s">
         <v>59</v>
       </c>
-      <c r="G52">
-        <f t="shared" ref="G52:G54" si="38">B52</f>
+      <c r="G53">
+        <f t="shared" ref="G53:G55" si="42">B53</f>
         <v>1</v>
       </c>
-      <c r="H52">
+      <c r="H53">
         <v>353709</v>
       </c>
-      <c r="K52" s="5" t="str">
-        <f t="shared" ref="K52:K54" si="39">DAY(A52)&amp;"/"&amp;MONTH(A52)&amp;"/"&amp;YEAR(A52)</f>
+      <c r="K53" s="5" t="str">
+        <f t="shared" ref="K53:K55" si="43">DAY(A53)&amp;"/"&amp;MONTH(A53)&amp;"/"&amp;YEAR(A53)</f>
         <v>11/3/2020</v>
       </c>
-      <c r="L52" s="3" t="str">
+      <c r="L53" s="3" t="str">
         <f t="shared" si="3"/>
         <v>11/3/2020,11,3,2020,68,1,Ticino,nn,nnn,353709,Ticino</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A53" s="1">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
         <v>43902</v>
       </c>
-      <c r="B53">
+      <c r="B54">
         <v>1</v>
       </c>
-      <c r="C53" s="32">
+      <c r="C54" s="32">
         <v>180</v>
       </c>
-      <c r="D53">
-        <f t="shared" ref="D53:D78" si="40">C53-C52</f>
+      <c r="D54">
+        <f t="shared" ref="D54:D79" si="44">C54-C53</f>
         <v>112</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E54" t="s">
         <v>59</v>
       </c>
-      <c r="G53">
-        <f t="shared" si="38"/>
+      <c r="G54">
+        <f t="shared" si="42"/>
         <v>1</v>
       </c>
-      <c r="H53">
+      <c r="H54">
         <v>353709</v>
       </c>
-      <c r="K53" s="5" t="str">
-        <f t="shared" si="39"/>
+      <c r="K54" s="5" t="str">
+        <f t="shared" si="43"/>
         <v>12/3/2020</v>
       </c>
-      <c r="L53" s="3" t="str">
+      <c r="L54" s="3" t="str">
         <f t="shared" si="3"/>
         <v>12/3/2020,12,3,2020,112,1,Ticino,nn,nnn,353709,Ticino</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A54" s="1">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
         <v>43903</v>
       </c>
-      <c r="B54">
+      <c r="B55">
         <v>1</v>
       </c>
-      <c r="C54" s="32">
+      <c r="C55" s="32">
         <v>258</v>
       </c>
-      <c r="D54">
-        <f t="shared" si="40"/>
+      <c r="D55">
+        <f t="shared" si="44"/>
         <v>78</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E55" t="s">
         <v>59</v>
       </c>
-      <c r="G54">
-        <f t="shared" si="38"/>
+      <c r="G55">
+        <f t="shared" si="42"/>
         <v>1</v>
       </c>
-      <c r="H54">
+      <c r="H55">
         <v>353709</v>
       </c>
-      <c r="K54" s="5" t="str">
-        <f t="shared" si="39"/>
+      <c r="K55" s="5" t="str">
+        <f t="shared" si="43"/>
         <v>13/3/2020</v>
       </c>
-      <c r="L54" s="3" t="str">
+      <c r="L55" s="3" t="str">
         <f t="shared" si="3"/>
         <v>13/3/2020,13,3,2020,78,1,Ticino,nn,nnn,353709,Ticino</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A55" s="1">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
         <v>43904</v>
       </c>
-      <c r="B55">
+      <c r="B56">
         <v>5</v>
       </c>
-      <c r="C55">
+      <c r="C56">
         <v>262</v>
       </c>
-      <c r="D55">
-        <f t="shared" si="40"/>
+      <c r="D56">
+        <f t="shared" si="44"/>
         <v>4</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E56" t="s">
         <v>59</v>
       </c>
-      <c r="G55">
-        <f>B55</f>
+      <c r="G56">
+        <f>B56</f>
         <v>5</v>
       </c>
-      <c r="H55">
+      <c r="H56">
         <v>353709</v>
       </c>
-      <c r="K55" s="5" t="str">
-        <f t="shared" ref="K55:K77" si="41">DAY(A55)&amp;"/"&amp;MONTH(A55)&amp;"/"&amp;YEAR(A55)</f>
+      <c r="K56" s="5" t="str">
+        <f t="shared" ref="K56:K78" si="45">DAY(A56)&amp;"/"&amp;MONTH(A56)&amp;"/"&amp;YEAR(A56)</f>
         <v>14/3/2020</v>
       </c>
-      <c r="L55" s="3" t="str">
+      <c r="L56" s="3" t="str">
         <f t="shared" si="3"/>
         <v>14/3/2020,14,3,2020,4,5,Ticino,nn,nnn,353709,Ticino</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A56" s="1">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
         <v>43905</v>
       </c>
-      <c r="B56">
+      <c r="B57">
         <v>6</v>
       </c>
-      <c r="C56">
+      <c r="C57">
         <v>291</v>
       </c>
-      <c r="D56">
-        <f t="shared" si="40"/>
+      <c r="D57">
+        <f t="shared" si="44"/>
         <v>29</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E57" t="s">
         <v>59</v>
       </c>
-      <c r="G56">
-        <f t="shared" ref="G56:G77" si="42">B56-B55</f>
+      <c r="G57">
+        <f t="shared" ref="G57:G78" si="46">B57-B56</f>
         <v>1</v>
       </c>
-      <c r="H56">
+      <c r="H57">
         <v>353709</v>
       </c>
-      <c r="K56" s="5" t="str">
-        <f t="shared" si="41"/>
+      <c r="K57" s="5" t="str">
+        <f t="shared" si="45"/>
         <v>15/3/2020</v>
       </c>
-      <c r="L56" s="3" t="str">
+      <c r="L57" s="3" t="str">
         <f t="shared" si="3"/>
         <v>15/3/2020,15,3,2020,29,1,Ticino,nn,nnn,353709,Ticino</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A57" s="1">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
         <v>43906</v>
       </c>
-      <c r="B57">
+      <c r="B58">
         <v>8</v>
       </c>
-      <c r="C57">
+      <c r="C58">
         <v>330</v>
       </c>
-      <c r="D57">
-        <f t="shared" si="40"/>
+      <c r="D58">
+        <f t="shared" si="44"/>
         <v>39</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E58" t="s">
         <v>59</v>
       </c>
-      <c r="G57">
-        <f t="shared" si="42"/>
+      <c r="G58">
+        <f t="shared" si="46"/>
         <v>2</v>
       </c>
-      <c r="H57">
+      <c r="H58">
         <v>353709</v>
       </c>
-      <c r="K57" s="5" t="str">
-        <f t="shared" si="41"/>
+      <c r="K58" s="5" t="str">
+        <f t="shared" si="45"/>
         <v>16/3/2020</v>
       </c>
-      <c r="L57" s="3" t="str">
+      <c r="L58" s="3" t="str">
         <f t="shared" si="3"/>
         <v>16/3/2020,16,3,2020,39,2,Ticino,nn,nnn,353709,Ticino</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A58" s="1">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
         <v>43907</v>
       </c>
-      <c r="B58">
+      <c r="B59">
         <v>10</v>
       </c>
-      <c r="C58">
+      <c r="C59">
         <v>422</v>
       </c>
-      <c r="D58">
-        <f t="shared" si="40"/>
+      <c r="D59">
+        <f t="shared" si="44"/>
         <v>92</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E59" t="s">
         <v>59</v>
       </c>
-      <c r="G58">
-        <f t="shared" si="42"/>
+      <c r="G59">
+        <f t="shared" si="46"/>
         <v>2</v>
       </c>
-      <c r="H58">
+      <c r="H59">
         <v>353709</v>
       </c>
-      <c r="K58" s="5" t="str">
-        <f t="shared" si="41"/>
+      <c r="K59" s="5" t="str">
+        <f t="shared" si="45"/>
         <v>17/3/2020</v>
       </c>
-      <c r="L58" s="3" t="str">
+      <c r="L59" s="3" t="str">
         <f t="shared" si="3"/>
         <v>17/3/2020,17,3,2020,92,2,Ticino,nn,nnn,353709,Ticino</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A59" s="1">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
         <v>43908</v>
       </c>
-      <c r="B59">
+      <c r="B60">
         <v>14</v>
       </c>
-      <c r="C59">
+      <c r="C60">
         <v>511</v>
       </c>
-      <c r="D59">
-        <f t="shared" si="40"/>
+      <c r="D60">
+        <f t="shared" si="44"/>
         <v>89</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E60" t="s">
         <v>59</v>
       </c>
-      <c r="G59">
-        <f t="shared" si="42"/>
+      <c r="G60">
+        <f t="shared" si="46"/>
         <v>4</v>
       </c>
-      <c r="H59">
+      <c r="H60">
         <v>353709</v>
       </c>
-      <c r="K59" s="5" t="str">
-        <f t="shared" si="41"/>
+      <c r="K60" s="5" t="str">
+        <f t="shared" si="45"/>
         <v>18/3/2020</v>
       </c>
-      <c r="L59" s="3" t="str">
+      <c r="L60" s="3" t="str">
         <f t="shared" si="3"/>
         <v>18/3/2020,18,3,2020,89,4,Ticino,nn,nnn,353709,Ticino</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A60" s="1">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
         <v>43909</v>
       </c>
-      <c r="B60">
+      <c r="B61">
         <v>15</v>
       </c>
-      <c r="C60">
+      <c r="C61">
         <v>638</v>
       </c>
-      <c r="D60">
-        <f t="shared" si="40"/>
+      <c r="D61">
+        <f t="shared" si="44"/>
         <v>127</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E61" t="s">
         <v>59</v>
       </c>
-      <c r="G60">
-        <f t="shared" si="42"/>
+      <c r="G61">
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
-      <c r="H60">
+      <c r="H61">
         <v>353709</v>
       </c>
-      <c r="K60" s="5" t="str">
-        <f t="shared" si="41"/>
+      <c r="K61" s="5" t="str">
+        <f t="shared" si="45"/>
         <v>19/3/2020</v>
       </c>
-      <c r="L60" s="3" t="str">
+      <c r="L61" s="3" t="str">
         <f t="shared" si="3"/>
         <v>19/3/2020,19,3,2020,127,1,Ticino,nn,nnn,353709,Ticino</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A61" s="1">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
         <v>43910</v>
       </c>
-      <c r="B61">
+      <c r="B62">
         <v>22</v>
       </c>
-      <c r="C61">
+      <c r="C62">
         <v>834</v>
       </c>
-      <c r="D61">
-        <f t="shared" si="40"/>
+      <c r="D62">
+        <f t="shared" si="44"/>
         <v>196</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E62" t="s">
         <v>59</v>
       </c>
-      <c r="G61">
-        <f t="shared" si="42"/>
+      <c r="G62">
+        <f t="shared" si="46"/>
         <v>7</v>
       </c>
-      <c r="H61">
+      <c r="H62">
         <v>353709</v>
       </c>
-      <c r="K61" s="5" t="str">
-        <f t="shared" si="41"/>
+      <c r="K62" s="5" t="str">
+        <f t="shared" si="45"/>
         <v>20/3/2020</v>
       </c>
-      <c r="L61" s="3" t="str">
+      <c r="L62" s="3" t="str">
         <f t="shared" si="3"/>
         <v>20/3/2020,20,3,2020,196,7,Ticino,nn,nnn,353709,Ticino</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A62" s="1">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
         <v>43911</v>
       </c>
-      <c r="B62">
+      <c r="B63">
         <v>28</v>
       </c>
-      <c r="C62">
+      <c r="C63">
         <v>918</v>
       </c>
-      <c r="D62">
-        <f t="shared" si="40"/>
+      <c r="D63">
+        <f t="shared" si="44"/>
         <v>84</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E63" t="s">
         <v>59</v>
       </c>
-      <c r="G62">
-        <f t="shared" si="42"/>
+      <c r="G63">
+        <f t="shared" si="46"/>
         <v>6</v>
       </c>
-      <c r="H62">
+      <c r="H63">
         <v>353709</v>
       </c>
-      <c r="K62" s="5" t="str">
-        <f t="shared" si="41"/>
+      <c r="K63" s="5" t="str">
+        <f t="shared" si="45"/>
         <v>21/3/2020</v>
       </c>
-      <c r="L62" s="3" t="str">
+      <c r="L63" s="3" t="str">
         <f t="shared" si="3"/>
         <v>21/3/2020,21,3,2020,84,6,Ticino,nn,nnn,353709,Ticino</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A63" s="1">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
         <v>43912</v>
       </c>
-      <c r="B63">
+      <c r="B64">
         <v>37</v>
       </c>
-      <c r="C63">
+      <c r="C64">
         <v>939</v>
       </c>
-      <c r="D63">
-        <f t="shared" si="40"/>
+      <c r="D64">
+        <f t="shared" si="44"/>
         <v>21</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E64" t="s">
         <v>59</v>
       </c>
-      <c r="G63">
-        <f t="shared" si="42"/>
+      <c r="G64">
+        <f t="shared" si="46"/>
         <v>9</v>
       </c>
-      <c r="H63">
+      <c r="H64">
         <v>353709</v>
       </c>
-      <c r="K63" s="5" t="str">
-        <f t="shared" si="41"/>
+      <c r="K64" s="5" t="str">
+        <f t="shared" si="45"/>
         <v>22/3/2020</v>
       </c>
-      <c r="L63" s="3" t="str">
+      <c r="L64" s="3" t="str">
         <f t="shared" si="3"/>
         <v>22/3/2020,22,3,2020,21,9,Ticino,nn,nnn,353709,Ticino</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A64" s="1">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
         <v>43913</v>
       </c>
-      <c r="B64">
+      <c r="B65">
         <v>48</v>
       </c>
-      <c r="C64">
+      <c r="C65">
         <v>1165</v>
       </c>
-      <c r="D64">
-        <f t="shared" si="40"/>
+      <c r="D65">
+        <f t="shared" si="44"/>
         <v>226</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E65" t="s">
         <v>59</v>
       </c>
-      <c r="G64">
-        <f t="shared" si="42"/>
+      <c r="G65">
+        <f t="shared" si="46"/>
         <v>11</v>
       </c>
-      <c r="H64">
+      <c r="H65">
         <v>353709</v>
       </c>
-      <c r="K64" s="5" t="str">
-        <f t="shared" si="41"/>
+      <c r="K65" s="5" t="str">
+        <f t="shared" si="45"/>
         <v>23/3/2020</v>
       </c>
-      <c r="L64" s="3" t="str">
+      <c r="L65" s="3" t="str">
         <f t="shared" si="3"/>
         <v>23/3/2020,23,3,2020,226,11,Ticino,nn,nnn,353709,Ticino</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A65" s="1">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
         <v>43914</v>
       </c>
-      <c r="B65">
+      <c r="B66">
         <v>53</v>
       </c>
-      <c r="C65">
+      <c r="C66">
         <v>1211</v>
       </c>
-      <c r="D65">
-        <f t="shared" si="40"/>
+      <c r="D66">
+        <f t="shared" si="44"/>
         <v>46</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E66" t="s">
         <v>59</v>
       </c>
-      <c r="F65" s="2"/>
-      <c r="G65">
-        <f t="shared" si="42"/>
+      <c r="F66" s="2"/>
+      <c r="G66">
+        <f t="shared" si="46"/>
         <v>5</v>
       </c>
-      <c r="H65">
+      <c r="H66">
         <v>353709</v>
       </c>
-      <c r="K65" s="5" t="str">
-        <f t="shared" si="41"/>
+      <c r="K66" s="5" t="str">
+        <f t="shared" si="45"/>
         <v>24/3/2020</v>
       </c>
-      <c r="L65" s="3" t="str">
+      <c r="L66" s="3" t="str">
         <f t="shared" si="3"/>
         <v>24/3/2020,24,3,2020,46,5,Ticino,nn,nnn,353709,Ticino</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A66" s="1">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
         <v>43915</v>
       </c>
-      <c r="B66">
+      <c r="B67">
         <v>60</v>
       </c>
-      <c r="C66">
+      <c r="C67">
         <v>1343</v>
       </c>
-      <c r="D66">
-        <f t="shared" si="40"/>
+      <c r="D67">
+        <f t="shared" si="44"/>
         <v>132</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E67" t="s">
         <v>59</v>
       </c>
-      <c r="G66">
-        <f t="shared" si="42"/>
+      <c r="G67">
+        <f t="shared" si="46"/>
         <v>7</v>
       </c>
-      <c r="H66">
+      <c r="H67">
         <v>353709</v>
       </c>
-      <c r="K66" s="5" t="str">
-        <f t="shared" si="41"/>
+      <c r="K67" s="5" t="str">
+        <f t="shared" si="45"/>
         <v>25/3/2020</v>
       </c>
-      <c r="L66" s="3" t="str">
+      <c r="L67" s="3" t="str">
         <f t="shared" si="3"/>
         <v>25/3/2020,25,3,2020,132,7,Ticino,nn,nnn,353709,Ticino</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A67" s="1">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
         <v>43916</v>
       </c>
-      <c r="B67">
+      <c r="B68">
         <v>67</v>
       </c>
-      <c r="C67">
+      <c r="C68">
         <v>1401</v>
       </c>
-      <c r="D67">
-        <f t="shared" si="40"/>
+      <c r="D68">
+        <f t="shared" si="44"/>
         <v>58</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E68" t="s">
         <v>59</v>
       </c>
-      <c r="G67">
-        <f t="shared" si="42"/>
+      <c r="G68">
+        <f t="shared" si="46"/>
         <v>7</v>
       </c>
-      <c r="H67">
+      <c r="H68">
         <v>353709</v>
       </c>
-      <c r="K67" s="5" t="str">
-        <f t="shared" si="41"/>
+      <c r="K68" s="5" t="str">
+        <f t="shared" si="45"/>
         <v>26/3/2020</v>
       </c>
-      <c r="L67" s="3" t="str">
+      <c r="L68" s="3" t="str">
         <f t="shared" si="3"/>
         <v>26/3/2020,26,3,2020,58,7,Ticino,nn,nnn,353709,Ticino</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A68" s="1">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
         <v>43917</v>
       </c>
-      <c r="B68">
+      <c r="B69">
         <v>76</v>
       </c>
-      <c r="C68">
+      <c r="C69">
         <v>1688</v>
       </c>
-      <c r="D68">
-        <f t="shared" si="40"/>
+      <c r="D69">
+        <f t="shared" si="44"/>
         <v>287</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E69" t="s">
         <v>59</v>
       </c>
-      <c r="G68">
-        <f t="shared" si="42"/>
+      <c r="G69">
+        <f t="shared" si="46"/>
         <v>9</v>
       </c>
-      <c r="H68">
+      <c r="H69">
         <v>353709</v>
       </c>
-      <c r="K68" s="5" t="str">
-        <f t="shared" si="41"/>
+      <c r="K69" s="5" t="str">
+        <f t="shared" si="45"/>
         <v>27/3/2020</v>
       </c>
-      <c r="L68" s="3" t="str">
+      <c r="L69" s="3" t="str">
         <f t="shared" si="3"/>
         <v>27/3/2020,27,3,2020,287,9,Ticino,nn,nnn,353709,Ticino</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A69" s="1">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
         <v>43918</v>
       </c>
-      <c r="B69">
+      <c r="B70">
         <v>87</v>
       </c>
-      <c r="C69">
+      <c r="C70">
         <v>1727</v>
       </c>
-      <c r="D69">
-        <f t="shared" si="40"/>
+      <c r="D70">
+        <f t="shared" si="44"/>
         <v>39</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E70" t="s">
         <v>59</v>
       </c>
-      <c r="G69">
-        <f t="shared" si="42"/>
+      <c r="G70">
+        <f t="shared" si="46"/>
         <v>11</v>
       </c>
-      <c r="H69">
+      <c r="H70">
         <v>353709</v>
       </c>
-      <c r="K69" s="5" t="str">
-        <f t="shared" si="41"/>
+      <c r="K70" s="5" t="str">
+        <f t="shared" si="45"/>
         <v>28/3/2020</v>
       </c>
-      <c r="L69" s="3" t="str">
+      <c r="L70" s="3" t="str">
         <f t="shared" si="3"/>
         <v>28/3/2020,28,3,2020,39,11,Ticino,nn,nnn,353709,Ticino</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A70" s="1">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
         <v>43919</v>
       </c>
-      <c r="B70">
+      <c r="B71">
         <v>93</v>
       </c>
-      <c r="C70">
+      <c r="C71">
         <v>1837</v>
       </c>
-      <c r="D70">
-        <f t="shared" si="40"/>
+      <c r="D71">
+        <f t="shared" si="44"/>
         <v>110</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E71" t="s">
         <v>59</v>
       </c>
-      <c r="G70">
-        <f t="shared" si="42"/>
+      <c r="G71">
+        <f t="shared" si="46"/>
         <v>6</v>
       </c>
-      <c r="H70">
+      <c r="H71">
         <v>353709</v>
       </c>
-      <c r="K70" s="5" t="str">
-        <f t="shared" si="41"/>
+      <c r="K71" s="5" t="str">
+        <f t="shared" si="45"/>
         <v>29/3/2020</v>
       </c>
-      <c r="L70" s="3" t="str">
+      <c r="L71" s="3" t="str">
         <f t="shared" si="3"/>
         <v>29/3/2020,29,3,2020,110,6,Ticino,nn,nnn,353709,Ticino</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A71" s="1">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
         <v>43920</v>
       </c>
-      <c r="B71">
+      <c r="B72">
         <v>105</v>
       </c>
-      <c r="C71">
+      <c r="C72">
         <v>1962</v>
       </c>
-      <c r="D71">
-        <f t="shared" si="40"/>
+      <c r="D72">
+        <f t="shared" si="44"/>
         <v>125</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E72" t="s">
         <v>59</v>
       </c>
-      <c r="G71">
-        <f t="shared" si="42"/>
+      <c r="G72">
+        <f t="shared" si="46"/>
         <v>12</v>
       </c>
-      <c r="H71">
+      <c r="H72">
         <v>353709</v>
       </c>
-      <c r="K71" s="5" t="str">
-        <f t="shared" si="41"/>
+      <c r="K72" s="5" t="str">
+        <f t="shared" si="45"/>
         <v>30/3/2020</v>
       </c>
-      <c r="L71" s="3" t="str">
+      <c r="L72" s="3" t="str">
         <f t="shared" si="3"/>
         <v>30/3/2020,30,3,2020,125,12,Ticino,nn,nnn,353709,Ticino</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A72" s="1">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
         <v>43921</v>
       </c>
-      <c r="B72">
+      <c r="B73">
         <v>120</v>
       </c>
-      <c r="C72">
+      <c r="C73">
         <v>2091</v>
       </c>
-      <c r="D72">
-        <f t="shared" si="40"/>
+      <c r="D73">
+        <f t="shared" si="44"/>
         <v>129</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E73" t="s">
         <v>59</v>
       </c>
-      <c r="G72">
-        <f t="shared" si="42"/>
+      <c r="G73">
+        <f t="shared" si="46"/>
         <v>15</v>
       </c>
-      <c r="H72">
+      <c r="H73">
         <v>353709</v>
       </c>
-      <c r="K72" s="5" t="str">
-        <f t="shared" si="41"/>
+      <c r="K73" s="5" t="str">
+        <f t="shared" si="45"/>
         <v>31/3/2020</v>
       </c>
-      <c r="L72" s="3" t="str">
+      <c r="L73" s="3" t="str">
         <f t="shared" si="3"/>
         <v>31/3/2020,31,3,2020,129,15,Ticino,nn,nnn,353709,Ticino</v>
       </c>
     </row>
-    <row r="73" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
-        <v>43922</v>
-      </c>
-      <c r="B73">
-        <v>132</v>
-      </c>
-      <c r="C73">
-        <v>2195</v>
-      </c>
-      <c r="D73">
-        <f t="shared" si="40"/>
-        <v>104</v>
-      </c>
-      <c r="E73" t="s">
-        <v>59</v>
-      </c>
-      <c r="G73">
-        <f t="shared" si="42"/>
-        <v>12</v>
-      </c>
-      <c r="H73">
-        <v>353709</v>
-      </c>
-      <c r="K73" s="5" t="str">
-        <f t="shared" si="41"/>
-        <v>1/4/2020</v>
-      </c>
-      <c r="L73" s="3" t="str">
-        <f t="shared" ref="L73:L133" si="43">K73&amp;$L$1&amp;DAY(A73)&amp;$L$1&amp;MONTH(A73)&amp;$L$1&amp;YEAR(A73)&amp;$L$1&amp;D73&amp;$L$1&amp;G73&amp;$L$1&amp;E73&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H73&amp;$L$1&amp;E73</f>
-        <v>1/4/2020,1,4,2020,104,12,Ticino,nn,nnn,353709,Ticino</v>
-      </c>
-    </row>
     <row r="74" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>43923</v>
-      </c>
-      <c r="B74" s="38">
-        <v>141</v>
-      </c>
-      <c r="C74" s="33">
-        <v>2271</v>
+        <v>43922</v>
+      </c>
+      <c r="B74">
+        <v>132</v>
+      </c>
+      <c r="C74">
+        <v>2195</v>
       </c>
       <c r="D74">
-        <f t="shared" si="40"/>
-        <v>76</v>
+        <f t="shared" si="44"/>
+        <v>104</v>
       </c>
       <c r="E74" t="s">
         <v>59</v>
       </c>
       <c r="G74">
-        <f t="shared" si="42"/>
-        <v>9</v>
+        <f t="shared" si="46"/>
+        <v>12</v>
       </c>
       <c r="H74">
         <v>353709</v>
       </c>
       <c r="K74" s="5" t="str">
-        <f t="shared" si="41"/>
-        <v>2/4/2020</v>
+        <f t="shared" si="45"/>
+        <v>1/4/2020</v>
       </c>
       <c r="L74" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>2/4/2020,2,4,2020,76,9,Ticino,nn,nnn,353709,Ticino</v>
+        <f t="shared" ref="L74:L135" si="47">K74&amp;$L$1&amp;DAY(A74)&amp;$L$1&amp;MONTH(A74)&amp;$L$1&amp;YEAR(A74)&amp;$L$1&amp;D74&amp;$L$1&amp;G74&amp;$L$1&amp;E74&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H74&amp;$L$1&amp;E74</f>
+        <v>1/4/2020,1,4,2020,104,12,Ticino,nn,nnn,353709,Ticino</v>
       </c>
     </row>
     <row r="75" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>43924</v>
+        <v>43923</v>
       </c>
       <c r="B75" s="38">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="C75" s="33">
-        <v>2377</v>
+        <v>2271</v>
       </c>
       <c r="D75">
-        <f t="shared" si="40"/>
-        <v>106</v>
+        <f t="shared" si="44"/>
+        <v>76</v>
       </c>
       <c r="E75" t="s">
         <v>59</v>
       </c>
       <c r="G75">
-        <f t="shared" si="42"/>
-        <v>14</v>
+        <f t="shared" si="46"/>
+        <v>9</v>
       </c>
       <c r="H75">
         <v>353709</v>
       </c>
       <c r="K75" s="5" t="str">
-        <f t="shared" si="41"/>
-        <v>3/4/2020</v>
+        <f t="shared" si="45"/>
+        <v>2/4/2020</v>
       </c>
       <c r="L75" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>3/4/2020,3,4,2020,106,14,Ticino,nn,nnn,353709,Ticino</v>
+        <f t="shared" si="47"/>
+        <v>2/4/2020,2,4,2020,76,9,Ticino,nn,nnn,353709,Ticino</v>
       </c>
     </row>
     <row r="76" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>43925</v>
+        <v>43924</v>
       </c>
       <c r="B76" s="38">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C76" s="33">
-        <v>2422</v>
+        <v>2377</v>
       </c>
       <c r="D76">
-        <f t="shared" si="40"/>
-        <v>45</v>
+        <f t="shared" si="44"/>
+        <v>106</v>
       </c>
       <c r="E76" t="s">
         <v>59</v>
       </c>
       <c r="G76">
-        <f t="shared" si="42"/>
-        <v>10</v>
+        <f t="shared" si="46"/>
+        <v>14</v>
       </c>
       <c r="H76">
         <v>353709</v>
       </c>
       <c r="K76" s="5" t="str">
-        <f t="shared" si="41"/>
-        <v>4/4/2020</v>
+        <f t="shared" si="45"/>
+        <v>3/4/2020</v>
       </c>
       <c r="L76" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>4/4/2020,4,4,2020,45,10,Ticino,nn,nnn,353709,Ticino</v>
+        <f t="shared" si="47"/>
+        <v>3/4/2020,3,4,2020,106,14,Ticino,nn,nnn,353709,Ticino</v>
       </c>
     </row>
     <row r="77" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>43926</v>
+        <v>43925</v>
       </c>
       <c r="B77" s="38">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="C77" s="33">
-        <v>2508</v>
+        <v>2422</v>
       </c>
       <c r="D77">
-        <f t="shared" si="40"/>
-        <v>86</v>
+        <f t="shared" si="44"/>
+        <v>45</v>
       </c>
       <c r="E77" t="s">
         <v>59</v>
       </c>
       <c r="G77">
-        <f t="shared" si="42"/>
-        <v>12</v>
+        <f t="shared" si="46"/>
+        <v>10</v>
       </c>
       <c r="H77">
         <v>353709</v>
       </c>
       <c r="K77" s="5" t="str">
-        <f t="shared" si="41"/>
-        <v>5/4/2020</v>
+        <f t="shared" si="45"/>
+        <v>4/4/2020</v>
       </c>
       <c r="L77" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>5/4/2020,5,4,2020,86,12,Ticino,nn,nnn,353709,Ticino</v>
+        <f t="shared" si="47"/>
+        <v>4/4/2020,4,4,2020,45,10,Ticino,nn,nnn,353709,Ticino</v>
       </c>
     </row>
     <row r="78" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>43927</v>
+        <v>43926</v>
       </c>
       <c r="B78" s="38">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="C78" s="33">
-        <v>2546</v>
+        <v>2508</v>
       </c>
       <c r="D78">
-        <f t="shared" si="40"/>
-        <v>38</v>
+        <f t="shared" si="44"/>
+        <v>86</v>
       </c>
       <c r="E78" t="s">
         <v>59</v>
       </c>
       <c r="G78">
-        <f t="shared" ref="G78:G79" si="44">B78-B77</f>
+        <f t="shared" si="46"/>
         <v>12</v>
       </c>
       <c r="H78">
         <v>353709</v>
       </c>
       <c r="K78" s="5" t="str">
-        <f t="shared" ref="K78" si="45">DAY(A78)&amp;"/"&amp;MONTH(A78)&amp;"/"&amp;YEAR(A78)</f>
-        <v>6/4/2020</v>
+        <f t="shared" si="45"/>
+        <v>5/4/2020</v>
       </c>
       <c r="L78" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>6/4/2020,6,4,2020,38,12,Ticino,nn,nnn,353709,Ticino</v>
-      </c>
-      <c r="R78" t="s">
-        <v>60</v>
+        <f t="shared" si="47"/>
+        <v>5/4/2020,5,4,2020,86,12,Ticino,nn,nnn,353709,Ticino</v>
       </c>
     </row>
     <row r="79" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>43928</v>
+        <v>43927</v>
       </c>
       <c r="B79" s="38">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="C79" s="33">
-        <v>2599</v>
+        <v>2546</v>
       </c>
       <c r="D79">
-        <f t="shared" ref="D79" si="46">C79-C78</f>
-        <v>53</v>
+        <f t="shared" si="44"/>
+        <v>38</v>
       </c>
       <c r="E79" t="s">
         <v>59</v>
       </c>
       <c r="G79">
-        <f t="shared" si="44"/>
-        <v>9</v>
+        <f t="shared" ref="G79:G80" si="48">B79-B78</f>
+        <v>12</v>
       </c>
       <c r="H79">
         <v>353709</v>
       </c>
       <c r="K79" s="5" t="str">
-        <f t="shared" ref="K79" si="47">DAY(A79)&amp;"/"&amp;MONTH(A79)&amp;"/"&amp;YEAR(A79)</f>
-        <v>7/4/2020</v>
+        <f t="shared" ref="K79" si="49">DAY(A79)&amp;"/"&amp;MONTH(A79)&amp;"/"&amp;YEAR(A79)</f>
+        <v>6/4/2020</v>
       </c>
       <c r="L79" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>7/4/2020,7,4,2020,53,9,Ticino,nn,nnn,353709,Ticino</v>
+        <f t="shared" si="47"/>
+        <v>6/4/2020,6,4,2020,38,12,Ticino,nn,nnn,353709,Ticino</v>
+      </c>
+      <c r="R79" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="80" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>43929</v>
+        <v>43928</v>
       </c>
       <c r="B80" s="38">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="C80" s="33">
-        <v>2659</v>
+        <v>2599</v>
       </c>
       <c r="D80">
-        <f t="shared" ref="D80" si="48">C80-C79</f>
-        <v>60</v>
+        <f t="shared" ref="D80" si="50">C80-C79</f>
+        <v>53</v>
       </c>
       <c r="E80" t="s">
         <v>59</v>
       </c>
       <c r="G80">
-        <f t="shared" ref="G80" si="49">B80-B79</f>
-        <v>13</v>
+        <f t="shared" si="48"/>
+        <v>9</v>
       </c>
       <c r="H80">
         <v>353709</v>
       </c>
       <c r="K80" s="5" t="str">
-        <f t="shared" ref="K80" si="50">DAY(A80)&amp;"/"&amp;MONTH(A80)&amp;"/"&amp;YEAR(A80)</f>
-        <v>8/4/2020</v>
+        <f t="shared" ref="K80" si="51">DAY(A80)&amp;"/"&amp;MONTH(A80)&amp;"/"&amp;YEAR(A80)</f>
+        <v>7/4/2020</v>
       </c>
       <c r="L80" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>8/4/2020,8,4,2020,60,13,Ticino,nn,nnn,353709,Ticino</v>
-      </c>
-      <c r="R80">
-        <f>G80/H80</f>
-        <v>3.6753376363055506E-5</v>
+        <f t="shared" si="47"/>
+        <v>7/4/2020,7,4,2020,53,9,Ticino,nn,nnn,353709,Ticino</v>
       </c>
     </row>
     <row r="81" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>43930</v>
+        <v>43929</v>
       </c>
       <c r="B81" s="38">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C81" s="33">
-        <v>2714</v>
+        <v>2659</v>
       </c>
       <c r="D81">
-        <f t="shared" ref="D81" si="51">C81-C80</f>
-        <v>55</v>
+        <f t="shared" ref="D81" si="52">C81-C80</f>
+        <v>60</v>
       </c>
       <c r="E81" t="s">
         <v>59</v>
       </c>
       <c r="G81">
-        <f t="shared" ref="G81" si="52">B81-B80</f>
-        <v>8</v>
+        <f t="shared" ref="G81" si="53">B81-B80</f>
+        <v>13</v>
       </c>
       <c r="H81">
         <v>353709</v>
       </c>
       <c r="K81" s="5" t="str">
-        <f t="shared" ref="K81" si="53">DAY(A81)&amp;"/"&amp;MONTH(A81)&amp;"/"&amp;YEAR(A81)</f>
-        <v>9/4/2020</v>
+        <f t="shared" ref="K81" si="54">DAY(A81)&amp;"/"&amp;MONTH(A81)&amp;"/"&amp;YEAR(A81)</f>
+        <v>8/4/2020</v>
       </c>
       <c r="L81" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>9/4/2020,9,4,2020,55,8,Ticino,nn,nnn,353709,Ticino</v>
+        <f t="shared" si="47"/>
+        <v>8/4/2020,8,4,2020,60,13,Ticino,nn,nnn,353709,Ticino</v>
       </c>
       <c r="R81">
-        <f t="shared" ref="R81:R82" si="54">G81/H81</f>
-        <v>2.2617462377264928E-5</v>
+        <f>G81/H81</f>
+        <v>3.6753376363055506E-5</v>
       </c>
     </row>
     <row r="82" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>43931</v>
+        <v>43930</v>
       </c>
       <c r="B82" s="38">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C82" s="33">
-        <v>2776</v>
+        <v>2714</v>
       </c>
       <c r="D82">
         <f t="shared" ref="D82" si="55">C82-C81</f>
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E82" t="s">
         <v>59</v>
@@ -4171,1613 +4166,1699 @@
       </c>
       <c r="K82" s="5" t="str">
         <f t="shared" ref="K82" si="57">DAY(A82)&amp;"/"&amp;MONTH(A82)&amp;"/"&amp;YEAR(A82)</f>
-        <v>10/4/2020</v>
+        <v>9/4/2020</v>
       </c>
       <c r="L82" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>10/4/2020,10,4,2020,62,8,Ticino,nn,nnn,353709,Ticino</v>
+        <f t="shared" si="47"/>
+        <v>9/4/2020,9,4,2020,55,8,Ticino,nn,nnn,353709,Ticino</v>
       </c>
       <c r="R82">
-        <f t="shared" si="54"/>
+        <f t="shared" ref="R82:R83" si="58">G82/H82</f>
         <v>2.2617462377264928E-5</v>
       </c>
     </row>
     <row r="83" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>43932</v>
+        <v>43931</v>
       </c>
       <c r="B83" s="38">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C83" s="33">
-        <v>2818</v>
+        <v>2776</v>
       </c>
       <c r="D83">
-        <f t="shared" ref="D83:D86" si="58">C83-C82</f>
-        <v>42</v>
+        <f t="shared" ref="D83" si="59">C83-C82</f>
+        <v>62</v>
       </c>
       <c r="E83" t="s">
         <v>59</v>
       </c>
       <c r="G83">
-        <f t="shared" ref="G83:G86" si="59">B83-B82</f>
-        <v>2</v>
+        <f t="shared" ref="G83" si="60">B83-B82</f>
+        <v>8</v>
       </c>
       <c r="H83">
         <v>353709</v>
       </c>
       <c r="K83" s="5" t="str">
-        <f t="shared" ref="K83:K86" si="60">DAY(A83)&amp;"/"&amp;MONTH(A83)&amp;"/"&amp;YEAR(A83)</f>
-        <v>11/4/2020</v>
+        <f t="shared" ref="K83" si="61">DAY(A83)&amp;"/"&amp;MONTH(A83)&amp;"/"&amp;YEAR(A83)</f>
+        <v>10/4/2020</v>
       </c>
       <c r="L83" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>11/4/2020,11,4,2020,42,2,Ticino,nn,nnn,353709,Ticino</v>
-      </c>
-      <c r="S83">
-        <f>AVERAGE(R80:R82)*100</f>
-        <v>2.7329433705861788E-3</v>
+        <f t="shared" si="47"/>
+        <v>10/4/2020,10,4,2020,62,8,Ticino,nn,nnn,353709,Ticino</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="58"/>
+        <v>2.2617462377264928E-5</v>
       </c>
     </row>
     <row r="84" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>43933</v>
+        <v>43932</v>
       </c>
       <c r="B84" s="38">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="C84" s="33">
-        <v>2869</v>
+        <v>2818</v>
       </c>
       <c r="D84">
-        <f t="shared" si="58"/>
-        <v>51</v>
+        <f t="shared" ref="D84:D87" si="62">C84-C83</f>
+        <v>42</v>
       </c>
       <c r="E84" t="s">
         <v>59</v>
       </c>
       <c r="G84">
-        <f t="shared" si="59"/>
-        <v>15</v>
+        <f t="shared" ref="G84:G87" si="63">B84-B83</f>
+        <v>2</v>
       </c>
       <c r="H84">
         <v>353709</v>
       </c>
       <c r="K84" s="5" t="str">
-        <f t="shared" si="60"/>
-        <v>12/4/2020</v>
+        <f t="shared" ref="K84:K87" si="64">DAY(A84)&amp;"/"&amp;MONTH(A84)&amp;"/"&amp;YEAR(A84)</f>
+        <v>11/4/2020</v>
       </c>
       <c r="L84" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>12/4/2020,12,4,2020,51,15,Ticino,nn,nnn,353709,Ticino</v>
+        <f t="shared" si="47"/>
+        <v>11/4/2020,11,4,2020,42,2,Ticino,nn,nnn,353709,Ticino</v>
+      </c>
+      <c r="S84">
+        <f>AVERAGE(R81:R83)*100</f>
+        <v>2.7329433705861788E-3</v>
       </c>
     </row>
     <row r="85" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>43934</v>
+        <v>43933</v>
       </c>
       <c r="B85" s="38">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="C85" s="33">
-        <v>2900</v>
+        <v>2869</v>
       </c>
       <c r="D85">
-        <f t="shared" si="58"/>
-        <v>31</v>
+        <f t="shared" si="62"/>
+        <v>51</v>
       </c>
       <c r="E85" t="s">
         <v>59</v>
       </c>
       <c r="G85">
-        <f t="shared" si="59"/>
-        <v>7</v>
+        <f t="shared" si="63"/>
+        <v>15</v>
       </c>
       <c r="H85">
         <v>353709</v>
       </c>
       <c r="K85" s="5" t="str">
-        <f t="shared" si="60"/>
-        <v>13/4/2020</v>
+        <f t="shared" si="64"/>
+        <v>12/4/2020</v>
       </c>
       <c r="L85" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>13/4/2020,13,4,2020,31,7,Ticino,nn,nnn,353709,Ticino</v>
+        <f t="shared" si="47"/>
+        <v>12/4/2020,12,4,2020,51,15,Ticino,nn,nnn,353709,Ticino</v>
       </c>
     </row>
     <row r="86" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>43935</v>
+        <v>43934</v>
       </c>
       <c r="B86" s="38">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="C86" s="33">
-        <v>2912</v>
+        <v>2900</v>
       </c>
       <c r="D86">
-        <f t="shared" si="58"/>
-        <v>12</v>
+        <f t="shared" si="62"/>
+        <v>31</v>
       </c>
       <c r="E86" t="s">
         <v>59</v>
       </c>
       <c r="G86">
-        <f t="shared" si="59"/>
+        <f t="shared" si="63"/>
         <v>7</v>
       </c>
       <c r="H86">
         <v>353709</v>
       </c>
       <c r="K86" s="5" t="str">
-        <f t="shared" si="60"/>
-        <v>14/4/2020</v>
+        <f t="shared" si="64"/>
+        <v>13/4/2020</v>
       </c>
       <c r="L86" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>14/4/2020,14,4,2020,12,7,Ticino,nn,nnn,353709,Ticino</v>
+        <f t="shared" si="47"/>
+        <v>13/4/2020,13,4,2020,31,7,Ticino,nn,nnn,353709,Ticino</v>
       </c>
     </row>
     <row r="87" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>43936</v>
-      </c>
-      <c r="B87" s="36">
-        <v>263</v>
+        <v>43935</v>
+      </c>
+      <c r="B87" s="38">
+        <v>258</v>
       </c>
       <c r="C87" s="33">
-        <v>2927</v>
+        <v>2912</v>
       </c>
       <c r="D87">
-        <f t="shared" ref="D87" si="61">C87-C86</f>
-        <v>15</v>
+        <f t="shared" si="62"/>
+        <v>12</v>
       </c>
       <c r="E87" t="s">
         <v>59</v>
       </c>
       <c r="G87">
-        <f t="shared" ref="G87" si="62">B87-B86</f>
-        <v>5</v>
+        <f t="shared" si="63"/>
+        <v>7</v>
       </c>
       <c r="H87">
         <v>353709</v>
       </c>
       <c r="K87" s="5" t="str">
-        <f t="shared" ref="K87:K97" si="63">DAY(A87)&amp;"/"&amp;MONTH(A87)&amp;"/"&amp;YEAR(A87)</f>
-        <v>15/4/2020</v>
+        <f t="shared" si="64"/>
+        <v>14/4/2020</v>
       </c>
       <c r="L87" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>15/4/2020,15,4,2020,15,5,Ticino,nn,nnn,353709,Ticino</v>
+        <f t="shared" si="47"/>
+        <v>14/4/2020,14,4,2020,12,7,Ticino,nn,nnn,353709,Ticino</v>
       </c>
     </row>
     <row r="88" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>43937</v>
+        <v>43936</v>
       </c>
       <c r="B88" s="36">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C88" s="33">
-        <v>2953</v>
+        <v>2927</v>
       </c>
       <c r="D88">
-        <f t="shared" ref="D88" si="64">C88-C87</f>
-        <v>26</v>
+        <f t="shared" ref="D88" si="65">C88-C87</f>
+        <v>15</v>
       </c>
       <c r="E88" t="s">
         <v>59</v>
       </c>
       <c r="G88">
-        <f t="shared" ref="G88" si="65">B88-B87</f>
-        <v>6</v>
+        <f t="shared" ref="G88" si="66">B88-B87</f>
+        <v>5</v>
       </c>
       <c r="H88">
         <v>353709</v>
       </c>
       <c r="K88" s="5" t="str">
-        <f t="shared" ref="K88" si="66">DAY(A88)&amp;"/"&amp;MONTH(A88)&amp;"/"&amp;YEAR(A88)</f>
-        <v>16/4/2020</v>
+        <f t="shared" ref="K88:K99" si="67">DAY(A88)&amp;"/"&amp;MONTH(A88)&amp;"/"&amp;YEAR(A88)</f>
+        <v>15/4/2020</v>
       </c>
       <c r="L88" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>16/4/2020,16,4,2020,26,6,Ticino,nn,nnn,353709,Ticino</v>
-      </c>
-    </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
+        <f t="shared" si="47"/>
+        <v>15/4/2020,15,4,2020,15,5,Ticino,nn,nnn,353709,Ticino</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>43938</v>
-      </c>
-      <c r="B89" s="56">
-        <v>270</v>
+        <v>43937</v>
+      </c>
+      <c r="B89" s="36">
+        <v>269</v>
       </c>
       <c r="C89" s="33">
-        <v>2977</v>
+        <v>2953</v>
       </c>
       <c r="D89">
-        <f t="shared" ref="D89" si="67">C89-C88</f>
-        <v>24</v>
+        <f t="shared" ref="D89" si="68">C89-C88</f>
+        <v>26</v>
       </c>
       <c r="E89" t="s">
         <v>59</v>
       </c>
       <c r="G89">
-        <f t="shared" ref="G89" si="68">B89-B88</f>
-        <v>1</v>
+        <f t="shared" ref="G89" si="69">B89-B88</f>
+        <v>6</v>
       </c>
       <c r="H89">
         <v>353709</v>
       </c>
       <c r="K89" s="5" t="str">
-        <f t="shared" ref="K89" si="69">DAY(A89)&amp;"/"&amp;MONTH(A89)&amp;"/"&amp;YEAR(A89)</f>
-        <v>17/4/2020</v>
+        <f t="shared" ref="K89" si="70">DAY(A89)&amp;"/"&amp;MONTH(A89)&amp;"/"&amp;YEAR(A89)</f>
+        <v>16/4/2020</v>
       </c>
       <c r="L89" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>17/4/2020,17,4,2020,24,1,Ticino,nn,nnn,353709,Ticino</v>
-      </c>
-    </row>
-    <row r="90" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+        <f t="shared" si="47"/>
+        <v>16/4/2020,16,4,2020,26,6,Ticino,nn,nnn,353709,Ticino</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>43939</v>
-      </c>
-      <c r="B90" s="56">
-        <v>277</v>
-      </c>
-      <c r="C90" s="60">
-        <v>2994</v>
+        <v>43938</v>
+      </c>
+      <c r="B90" s="54">
+        <v>270</v>
+      </c>
+      <c r="C90" s="33">
+        <v>2977</v>
       </c>
       <c r="D90">
-        <f t="shared" ref="D90:D91" si="70">C90-C89</f>
-        <v>17</v>
+        <f t="shared" ref="D90" si="71">C90-C89</f>
+        <v>24</v>
       </c>
       <c r="E90" t="s">
         <v>59</v>
       </c>
       <c r="G90">
-        <f t="shared" ref="G90:G91" si="71">B90-B89</f>
-        <v>7</v>
+        <f t="shared" ref="G90" si="72">B90-B89</f>
+        <v>1</v>
       </c>
       <c r="H90">
         <v>353709</v>
       </c>
       <c r="K90" s="5" t="str">
-        <f t="shared" ref="K90:K91" si="72">DAY(A90)&amp;"/"&amp;MONTH(A90)&amp;"/"&amp;YEAR(A90)</f>
-        <v>18/4/2020</v>
+        <f t="shared" ref="K90" si="73">DAY(A90)&amp;"/"&amp;MONTH(A90)&amp;"/"&amp;YEAR(A90)</f>
+        <v>17/4/2020</v>
       </c>
       <c r="L90" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>18/4/2020,18,4,2020,17,7,Ticino,nn,nnn,353709,Ticino</v>
+        <f t="shared" si="47"/>
+        <v>17/4/2020,17,4,2020,24,1,Ticino,nn,nnn,353709,Ticino</v>
       </c>
     </row>
     <row r="91" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>43940</v>
-      </c>
-      <c r="B91" s="56">
-        <v>281</v>
-      </c>
-      <c r="C91" s="60">
-        <v>3032</v>
+        <v>43939</v>
+      </c>
+      <c r="B91" s="54">
+        <v>277</v>
+      </c>
+      <c r="C91" s="58">
+        <v>2994</v>
       </c>
       <c r="D91">
-        <f t="shared" si="70"/>
-        <v>38</v>
+        <f t="shared" ref="D91:D92" si="74">C91-C90</f>
+        <v>17</v>
       </c>
       <c r="E91" t="s">
         <v>59</v>
       </c>
       <c r="G91">
-        <f t="shared" si="71"/>
-        <v>4</v>
+        <f t="shared" ref="G91:G92" si="75">B91-B90</f>
+        <v>7</v>
       </c>
       <c r="H91">
         <v>353709</v>
       </c>
       <c r="K91" s="5" t="str">
-        <f t="shared" si="72"/>
-        <v>19/4/2020</v>
+        <f t="shared" ref="K91:K92" si="76">DAY(A91)&amp;"/"&amp;MONTH(A91)&amp;"/"&amp;YEAR(A91)</f>
+        <v>18/4/2020</v>
       </c>
       <c r="L91" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>19/4/2020,19,4,2020,38,4,Ticino,nn,nnn,353709,Ticino</v>
-      </c>
-    </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
+        <f t="shared" si="47"/>
+        <v>18/4/2020,18,4,2020,17,7,Ticino,nn,nnn,353709,Ticino</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>43941</v>
-      </c>
-      <c r="B92" s="56">
-        <v>288</v>
+        <v>43940</v>
+      </c>
+      <c r="B92" s="54">
+        <v>281</v>
       </c>
       <c r="C92" s="58">
-        <v>3058</v>
+        <v>3032</v>
       </c>
       <c r="D92">
-        <f t="shared" ref="D92" si="73">C92-C91</f>
-        <v>26</v>
+        <f t="shared" si="74"/>
+        <v>38</v>
       </c>
       <c r="E92" t="s">
         <v>59</v>
       </c>
       <c r="G92">
-        <f t="shared" ref="G92" si="74">B92-B91</f>
-        <v>7</v>
+        <f t="shared" si="75"/>
+        <v>4</v>
       </c>
       <c r="H92">
         <v>353709</v>
       </c>
       <c r="K92" s="5" t="str">
-        <f t="shared" ref="K92" si="75">DAY(A92)&amp;"/"&amp;MONTH(A92)&amp;"/"&amp;YEAR(A92)</f>
-        <v>20/4/2020</v>
+        <f t="shared" si="76"/>
+        <v>19/4/2020</v>
       </c>
       <c r="L92" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>20/4/2020,20,4,2020,26,7,Ticino,nn,nnn,353709,Ticino</v>
+        <f t="shared" si="47"/>
+        <v>19/4/2020,19,4,2020,38,4,Ticino,nn,nnn,353709,Ticino</v>
       </c>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <v>43942</v>
-      </c>
-      <c r="B93" s="58">
-        <v>291</v>
-      </c>
-      <c r="C93" s="58">
-        <v>3065</v>
+        <v>43941</v>
+      </c>
+      <c r="B93" s="54">
+        <v>288</v>
+      </c>
+      <c r="C93" s="56">
+        <v>3058</v>
       </c>
       <c r="D93">
-        <f t="shared" ref="D93:D94" si="76">C93-C92</f>
-        <v>7</v>
+        <f t="shared" ref="D93" si="77">C93-C92</f>
+        <v>26</v>
       </c>
       <c r="E93" t="s">
         <v>59</v>
       </c>
       <c r="G93">
-        <f t="shared" ref="G93:G94" si="77">B93-B92</f>
-        <v>3</v>
+        <f t="shared" ref="G93" si="78">B93-B92</f>
+        <v>7</v>
       </c>
       <c r="H93">
         <v>353709</v>
       </c>
       <c r="K93" s="5" t="str">
-        <f t="shared" ref="K93:K94" si="78">DAY(A93)&amp;"/"&amp;MONTH(A93)&amp;"/"&amp;YEAR(A93)</f>
-        <v>21/4/2020</v>
+        <f t="shared" ref="K93" si="79">DAY(A93)&amp;"/"&amp;MONTH(A93)&amp;"/"&amp;YEAR(A93)</f>
+        <v>20/4/2020</v>
       </c>
       <c r="L93" s="3" t="str">
-        <f t="shared" ref="L93:L94" si="79">K93&amp;$L$1&amp;DAY(A93)&amp;$L$1&amp;MONTH(A93)&amp;$L$1&amp;YEAR(A93)&amp;$L$1&amp;D93&amp;$L$1&amp;G93&amp;$L$1&amp;E93&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H93&amp;$L$1&amp;E93</f>
-        <v>21/4/2020,21,4,2020,7,3,Ticino,nn,nnn,353709,Ticino</v>
+        <f t="shared" si="47"/>
+        <v>20/4/2020,20,4,2020,26,7,Ticino,nn,nnn,353709,Ticino</v>
       </c>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>43943</v>
-      </c>
-      <c r="B94" s="58">
-        <v>295</v>
-      </c>
-      <c r="C94" s="58">
-        <v>3089</v>
+        <v>43942</v>
+      </c>
+      <c r="B94" s="56">
+        <v>291</v>
+      </c>
+      <c r="C94" s="56">
+        <v>3065</v>
       </c>
       <c r="D94">
-        <f t="shared" si="76"/>
-        <v>24</v>
+        <f t="shared" ref="D94:D95" si="80">C94-C93</f>
+        <v>7</v>
       </c>
       <c r="E94" t="s">
         <v>59</v>
       </c>
       <c r="G94">
-        <f t="shared" si="77"/>
-        <v>4</v>
+        <f t="shared" ref="G94:G95" si="81">B94-B93</f>
+        <v>3</v>
       </c>
       <c r="H94">
         <v>353709</v>
       </c>
       <c r="K94" s="5" t="str">
-        <f t="shared" si="78"/>
-        <v>22/4/2020</v>
+        <f t="shared" ref="K94:K95" si="82">DAY(A94)&amp;"/"&amp;MONTH(A94)&amp;"/"&amp;YEAR(A94)</f>
+        <v>21/4/2020</v>
       </c>
       <c r="L94" s="3" t="str">
-        <f t="shared" si="79"/>
-        <v>22/4/2020,22,4,2020,24,4,Ticino,nn,nnn,353709,Ticino</v>
+        <f t="shared" ref="L94:L95" si="83">K94&amp;$L$1&amp;DAY(A94)&amp;$L$1&amp;MONTH(A94)&amp;$L$1&amp;YEAR(A94)&amp;$L$1&amp;D94&amp;$L$1&amp;G94&amp;$L$1&amp;E94&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H94&amp;$L$1&amp;E94</f>
+        <v>21/4/2020,21,4,2020,7,3,Ticino,nn,nnn,353709,Ticino</v>
       </c>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>43944</v>
-      </c>
-      <c r="B95" s="58">
-        <v>298</v>
-      </c>
-      <c r="C95" s="58">
-        <v>3106</v>
+        <v>43943</v>
+      </c>
+      <c r="B95" s="56">
+        <v>295</v>
+      </c>
+      <c r="C95" s="56">
+        <v>3089</v>
       </c>
       <c r="D95">
-        <f t="shared" ref="D95:D96" si="80">C95-C94</f>
-        <v>17</v>
+        <f t="shared" si="80"/>
+        <v>24</v>
       </c>
       <c r="E95" t="s">
         <v>59</v>
       </c>
       <c r="G95">
-        <f t="shared" ref="G95:G96" si="81">B95-B94</f>
-        <v>3</v>
+        <f t="shared" si="81"/>
+        <v>4</v>
       </c>
       <c r="H95">
         <v>353709</v>
       </c>
       <c r="K95" s="5" t="str">
-        <f t="shared" ref="K95:K96" si="82">DAY(A95)&amp;"/"&amp;MONTH(A95)&amp;"/"&amp;YEAR(A95)</f>
-        <v>23/4/2020</v>
+        <f t="shared" si="82"/>
+        <v>22/4/2020</v>
       </c>
       <c r="L95" s="3" t="str">
-        <f t="shared" ref="L95:L96" si="83">K95&amp;$L$1&amp;DAY(A95)&amp;$L$1&amp;MONTH(A95)&amp;$L$1&amp;YEAR(A95)&amp;$L$1&amp;D95&amp;$L$1&amp;G95&amp;$L$1&amp;E95&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H95&amp;$L$1&amp;E95</f>
-        <v>23/4/2020,23,4,2020,17,3,Ticino,nn,nnn,353709,Ticino</v>
+        <f t="shared" si="83"/>
+        <v>22/4/2020,22,4,2020,24,4,Ticino,nn,nnn,353709,Ticino</v>
       </c>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>43945</v>
-      </c>
-      <c r="B96" s="58">
-        <v>299</v>
-      </c>
-      <c r="C96" s="58">
-        <v>3112</v>
+        <v>43944</v>
+      </c>
+      <c r="B96" s="56">
+        <v>298</v>
+      </c>
+      <c r="C96" s="56">
+        <v>3106</v>
       </c>
       <c r="D96">
-        <f t="shared" si="80"/>
-        <v>6</v>
+        <f t="shared" ref="D96:D97" si="84">C96-C95</f>
+        <v>17</v>
       </c>
       <c r="E96" t="s">
         <v>59</v>
       </c>
       <c r="G96">
-        <f t="shared" si="81"/>
-        <v>1</v>
+        <f t="shared" ref="G96:G97" si="85">B96-B95</f>
+        <v>3</v>
       </c>
       <c r="H96">
         <v>353709</v>
       </c>
       <c r="K96" s="5" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" ref="K96:K97" si="86">DAY(A96)&amp;"/"&amp;MONTH(A96)&amp;"/"&amp;YEAR(A96)</f>
+        <v>23/4/2020</v>
+      </c>
+      <c r="L96" s="3" t="str">
+        <f t="shared" ref="L96:L97" si="87">K96&amp;$L$1&amp;DAY(A96)&amp;$L$1&amp;MONTH(A96)&amp;$L$1&amp;YEAR(A96)&amp;$L$1&amp;D96&amp;$L$1&amp;G96&amp;$L$1&amp;E96&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H96&amp;$L$1&amp;E96</f>
+        <v>23/4/2020,23,4,2020,17,3,Ticino,nn,nnn,353709,Ticino</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
+        <v>43945</v>
+      </c>
+      <c r="B97" s="56">
+        <v>299</v>
+      </c>
+      <c r="C97" s="56">
+        <v>3112</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="84"/>
+        <v>6</v>
+      </c>
+      <c r="E97" t="s">
+        <v>59</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="85"/>
+        <v>1</v>
+      </c>
+      <c r="H97">
+        <v>353709</v>
+      </c>
+      <c r="K97" s="5" t="str">
+        <f t="shared" si="86"/>
         <v>24/4/2020</v>
       </c>
-      <c r="L96" s="3" t="str">
-        <f t="shared" si="83"/>
+      <c r="L97" s="3" t="str">
+        <f t="shared" si="87"/>
         <v>24/4/2020,24,4,2020,6,1,Ticino,nn,nnn,353709,Ticino</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A97" s="53">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B98" s="64">
+        <v>304</v>
+      </c>
+      <c r="C98" s="64">
+        <v>3142</v>
+      </c>
+      <c r="D98">
+        <f t="shared" ref="D98" si="88">C98-C97</f>
+        <v>30</v>
+      </c>
+      <c r="E98" t="s">
+        <v>59</v>
+      </c>
+      <c r="G98">
+        <f t="shared" ref="G98" si="89">B98-B97</f>
+        <v>5</v>
+      </c>
+      <c r="H98">
+        <v>353709</v>
+      </c>
+      <c r="K98" s="5" t="str">
+        <f t="shared" ref="K98" si="90">DAY(A98)&amp;"/"&amp;MONTH(A98)&amp;"/"&amp;YEAR(A98)</f>
+        <v>25/4/2020</v>
+      </c>
+      <c r="L98" s="3" t="str">
+        <f t="shared" ref="L98" si="91">K98&amp;$L$1&amp;DAY(A98)&amp;$L$1&amp;MONTH(A98)&amp;$L$1&amp;YEAR(A98)&amp;$L$1&amp;D98&amp;$L$1&amp;G98&amp;$L$1&amp;E98&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H98&amp;$L$1&amp;E98</f>
+        <v>25/4/2020,25,4,2020,30,5,Ticino,nn,nnn,353709,Ticino</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A99" s="51">
         <v>43901</v>
       </c>
-      <c r="B97" s="48"/>
-      <c r="C97" s="49"/>
-      <c r="D97" s="64">
+      <c r="B99" s="46"/>
+      <c r="C99" s="47"/>
+      <c r="D99" s="62">
         <v>153</v>
-      </c>
-      <c r="E97" t="s">
-        <v>62</v>
-      </c>
-      <c r="G97" s="65">
-        <v>1</v>
-      </c>
-      <c r="H97">
-        <v>8400000</v>
-      </c>
-      <c r="K97" s="5" t="str">
-        <f t="shared" si="63"/>
-        <v>11/3/2020</v>
-      </c>
-      <c r="L97" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>11/3/2020,11,3,2020,153,1,New_York_City,nn,nnn,8400000,New_York_City</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A98" s="53">
-        <v>43902</v>
-      </c>
-      <c r="B98" s="48"/>
-      <c r="C98" s="49"/>
-      <c r="D98" s="64">
-        <v>355</v>
-      </c>
-      <c r="E98" t="s">
-        <v>62</v>
-      </c>
-      <c r="G98" s="65">
-        <v>1</v>
-      </c>
-      <c r="H98">
-        <v>8400000</v>
-      </c>
-      <c r="K98" s="5" t="str">
-        <f t="shared" ref="K98:K131" si="84">DAY(A98)&amp;"/"&amp;MONTH(A98)&amp;"/"&amp;YEAR(A98)</f>
-        <v>12/3/2020</v>
-      </c>
-      <c r="L98" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>12/3/2020,12,3,2020,355,1,New_York_City,nn,nnn,8400000,New_York_City</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A99" s="53">
-        <v>43903</v>
-      </c>
-      <c r="B99" s="48"/>
-      <c r="C99" s="49"/>
-      <c r="D99" s="64">
-        <v>616</v>
       </c>
       <c r="E99" t="s">
         <v>62</v>
       </c>
-      <c r="G99" s="65"/>
+      <c r="G99" s="63">
+        <v>1</v>
+      </c>
       <c r="H99">
         <v>8400000</v>
       </c>
       <c r="K99" s="5" t="str">
-        <f t="shared" si="84"/>
-        <v>13/3/2020</v>
+        <f t="shared" si="67"/>
+        <v>11/3/2020</v>
       </c>
       <c r="L99" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>13/3/2020,13,3,2020,616,,New_York_City,nn,nnn,8400000,New_York_City</v>
+        <f t="shared" si="47"/>
+        <v>11/3/2020,11,3,2020,153,1,New_York_City,nn,nnn,8400000,New_York_City</v>
       </c>
     </row>
     <row r="100" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A100" s="53">
-        <v>43904</v>
-      </c>
-      <c r="B100" s="48"/>
-      <c r="C100" s="49"/>
-      <c r="D100" s="64">
-        <v>636</v>
+      <c r="A100" s="51">
+        <v>43902</v>
+      </c>
+      <c r="B100" s="46"/>
+      <c r="C100" s="47"/>
+      <c r="D100" s="62">
+        <v>355</v>
       </c>
       <c r="E100" t="s">
         <v>62</v>
       </c>
-      <c r="G100" s="65">
-        <v>2</v>
+      <c r="G100" s="63">
+        <v>1</v>
       </c>
       <c r="H100">
         <v>8400000</v>
       </c>
       <c r="K100" s="5" t="str">
-        <f t="shared" si="84"/>
-        <v>14/3/2020</v>
+        <f t="shared" ref="K100:K133" si="92">DAY(A100)&amp;"/"&amp;MONTH(A100)&amp;"/"&amp;YEAR(A100)</f>
+        <v>12/3/2020</v>
       </c>
       <c r="L100" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>14/3/2020,14,3,2020,636,2,New_York_City,nn,nnn,8400000,New_York_City</v>
+        <f t="shared" si="47"/>
+        <v>12/3/2020,12,3,2020,355,1,New_York_City,nn,nnn,8400000,New_York_City</v>
       </c>
     </row>
     <row r="101" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A101" s="53">
-        <v>43905</v>
-      </c>
-      <c r="B101" s="48"/>
-      <c r="C101" s="49"/>
-      <c r="D101" s="64">
-        <v>1023</v>
+      <c r="A101" s="51">
+        <v>43903</v>
+      </c>
+      <c r="B101" s="46"/>
+      <c r="C101" s="47"/>
+      <c r="D101" s="62">
+        <v>616</v>
       </c>
       <c r="E101" t="s">
         <v>62</v>
       </c>
-      <c r="G101" s="65">
-        <v>6</v>
-      </c>
+      <c r="G101" s="63"/>
       <c r="H101">
         <v>8400000</v>
       </c>
       <c r="K101" s="5" t="str">
-        <f t="shared" si="84"/>
-        <v>15/3/2020</v>
+        <f t="shared" si="92"/>
+        <v>13/3/2020</v>
       </c>
       <c r="L101" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>15/3/2020,15,3,2020,1023,6,New_York_City,nn,nnn,8400000,New_York_City</v>
+        <f t="shared" si="47"/>
+        <v>13/3/2020,13,3,2020,616,,New_York_City,nn,nnn,8400000,New_York_City</v>
       </c>
     </row>
     <row r="102" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A102" s="53">
-        <v>43906</v>
-      </c>
-      <c r="B102" s="48"/>
-      <c r="C102" s="49"/>
-      <c r="D102" s="64">
-        <v>2111</v>
+      <c r="A102" s="51">
+        <v>43904</v>
+      </c>
+      <c r="B102" s="46"/>
+      <c r="C102" s="47"/>
+      <c r="D102" s="62">
+        <v>636</v>
       </c>
       <c r="E102" t="s">
         <v>62</v>
       </c>
-      <c r="G102" s="65">
-        <v>9</v>
+      <c r="G102" s="63">
+        <v>2</v>
       </c>
       <c r="H102">
         <v>8400000</v>
       </c>
       <c r="K102" s="5" t="str">
-        <f t="shared" si="84"/>
-        <v>16/3/2020</v>
+        <f t="shared" si="92"/>
+        <v>14/3/2020</v>
       </c>
       <c r="L102" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>16/3/2020,16,3,2020,2111,9,New_York_City,nn,nnn,8400000,New_York_City</v>
+        <f t="shared" si="47"/>
+        <v>14/3/2020,14,3,2020,636,2,New_York_City,nn,nnn,8400000,New_York_City</v>
       </c>
     </row>
     <row r="103" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A103" s="53">
-        <v>43907</v>
-      </c>
-      <c r="B103" s="48"/>
-      <c r="C103" s="49"/>
-      <c r="D103" s="64">
-        <v>2440</v>
+      <c r="A103" s="51">
+        <v>43905</v>
+      </c>
+      <c r="B103" s="46"/>
+      <c r="C103" s="47"/>
+      <c r="D103" s="62">
+        <v>1023</v>
       </c>
       <c r="E103" t="s">
         <v>62</v>
       </c>
-      <c r="G103" s="65">
-        <v>7</v>
+      <c r="G103" s="63">
+        <v>6</v>
       </c>
       <c r="H103">
         <v>8400000</v>
       </c>
       <c r="K103" s="5" t="str">
-        <f t="shared" si="84"/>
-        <v>17/3/2020</v>
+        <f t="shared" si="92"/>
+        <v>15/3/2020</v>
       </c>
       <c r="L103" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>17/3/2020,17,3,2020,2440,7,New_York_City,nn,nnn,8400000,New_York_City</v>
+        <f t="shared" si="47"/>
+        <v>15/3/2020,15,3,2020,1023,6,New_York_City,nn,nnn,8400000,New_York_City</v>
       </c>
     </row>
     <row r="104" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A104" s="53">
-        <v>43908</v>
-      </c>
-      <c r="B104" s="48"/>
-      <c r="C104" s="49"/>
-      <c r="D104" s="64">
-        <v>2945</v>
+      <c r="A104" s="51">
+        <v>43906</v>
+      </c>
+      <c r="B104" s="46"/>
+      <c r="C104" s="47"/>
+      <c r="D104" s="62">
+        <v>2111</v>
       </c>
       <c r="E104" t="s">
         <v>62</v>
       </c>
-      <c r="G104" s="65">
-        <v>21</v>
+      <c r="G104" s="63">
+        <v>9</v>
       </c>
       <c r="H104">
         <v>8400000</v>
       </c>
       <c r="K104" s="5" t="str">
-        <f t="shared" si="84"/>
-        <v>18/3/2020</v>
+        <f t="shared" si="92"/>
+        <v>16/3/2020</v>
       </c>
       <c r="L104" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>18/3/2020,18,3,2020,2945,21,New_York_City,nn,nnn,8400000,New_York_City</v>
+        <f t="shared" si="47"/>
+        <v>16/3/2020,16,3,2020,2111,9,New_York_City,nn,nnn,8400000,New_York_City</v>
       </c>
     </row>
     <row r="105" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A105" s="53">
-        <v>43909</v>
-      </c>
-      <c r="B105" s="48"/>
-      <c r="C105" s="49"/>
-      <c r="D105" s="64">
-        <v>3667</v>
+      <c r="A105" s="51">
+        <v>43907</v>
+      </c>
+      <c r="B105" s="46"/>
+      <c r="C105" s="47"/>
+      <c r="D105" s="62">
+        <v>2440</v>
       </c>
       <c r="E105" t="s">
         <v>62</v>
       </c>
-      <c r="G105" s="65">
-        <v>25</v>
+      <c r="G105" s="63">
+        <v>7</v>
       </c>
       <c r="H105">
         <v>8400000</v>
       </c>
       <c r="K105" s="5" t="str">
-        <f t="shared" si="84"/>
-        <v>19/3/2020</v>
+        <f t="shared" si="92"/>
+        <v>17/3/2020</v>
       </c>
       <c r="L105" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>19/3/2020,19,3,2020,3667,25,New_York_City,nn,nnn,8400000,New_York_City</v>
+        <f t="shared" si="47"/>
+        <v>17/3/2020,17,3,2020,2440,7,New_York_City,nn,nnn,8400000,New_York_City</v>
       </c>
     </row>
     <row r="106" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A106" s="53">
-        <v>43910</v>
-      </c>
-      <c r="B106" s="48"/>
-      <c r="C106" s="49"/>
-      <c r="D106" s="64">
-        <v>3975</v>
+      <c r="A106" s="51">
+        <v>43908</v>
+      </c>
+      <c r="B106" s="46"/>
+      <c r="C106" s="47"/>
+      <c r="D106" s="62">
+        <v>2945</v>
       </c>
       <c r="E106" t="s">
         <v>62</v>
       </c>
-      <c r="G106" s="65">
-        <v>46</v>
+      <c r="G106" s="63">
+        <v>21</v>
       </c>
       <c r="H106">
         <v>8400000</v>
       </c>
       <c r="K106" s="5" t="str">
-        <f t="shared" si="84"/>
-        <v>20/3/2020</v>
+        <f t="shared" si="92"/>
+        <v>18/3/2020</v>
       </c>
       <c r="L106" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>20/3/2020,20,3,2020,3975,46,New_York_City,nn,nnn,8400000,New_York_City</v>
+        <f t="shared" si="47"/>
+        <v>18/3/2020,18,3,2020,2945,21,New_York_City,nn,nnn,8400000,New_York_City</v>
       </c>
     </row>
     <row r="107" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A107" s="53">
-        <v>43911</v>
-      </c>
-      <c r="B107" s="48"/>
-      <c r="C107" s="49"/>
-      <c r="D107" s="64">
-        <v>2598</v>
+      <c r="A107" s="51">
+        <v>43909</v>
+      </c>
+      <c r="B107" s="46"/>
+      <c r="C107" s="47"/>
+      <c r="D107" s="62">
+        <v>3667</v>
       </c>
       <c r="E107" t="s">
         <v>62</v>
       </c>
-      <c r="G107" s="65">
-        <v>41</v>
+      <c r="G107" s="63">
+        <v>25</v>
       </c>
       <c r="H107">
         <v>8400000</v>
       </c>
       <c r="K107" s="5" t="str">
-        <f t="shared" si="84"/>
-        <v>21/3/2020</v>
+        <f t="shared" si="92"/>
+        <v>19/3/2020</v>
       </c>
       <c r="L107" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>21/3/2020,21,3,2020,2598,41,New_York_City,nn,nnn,8400000,New_York_City</v>
+        <f t="shared" si="47"/>
+        <v>19/3/2020,19,3,2020,3667,25,New_York_City,nn,nnn,8400000,New_York_City</v>
       </c>
     </row>
     <row r="108" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A108" s="53">
-        <v>43912</v>
-      </c>
-      <c r="B108" s="48"/>
-      <c r="C108" s="49"/>
-      <c r="D108" s="64">
-        <v>2543</v>
+      <c r="A108" s="51">
+        <v>43910</v>
+      </c>
+      <c r="B108" s="46"/>
+      <c r="C108" s="47"/>
+      <c r="D108" s="62">
+        <v>3975</v>
       </c>
       <c r="E108" t="s">
         <v>62</v>
       </c>
-      <c r="G108" s="65">
-        <v>48</v>
+      <c r="G108" s="63">
+        <v>46</v>
       </c>
       <c r="H108">
         <v>8400000</v>
       </c>
       <c r="K108" s="5" t="str">
-        <f t="shared" si="84"/>
-        <v>22/3/2020</v>
+        <f t="shared" si="92"/>
+        <v>20/3/2020</v>
       </c>
       <c r="L108" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>22/3/2020,22,3,2020,2543,48,New_York_City,nn,nnn,8400000,New_York_City</v>
+        <f t="shared" si="47"/>
+        <v>20/3/2020,20,3,2020,3975,46,New_York_City,nn,nnn,8400000,New_York_City</v>
       </c>
     </row>
     <row r="109" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A109" s="53">
-        <v>43913</v>
-      </c>
-      <c r="B109" s="48"/>
-      <c r="C109" s="49"/>
-      <c r="D109" s="64">
-        <v>3493</v>
+      <c r="A109" s="51">
+        <v>43911</v>
+      </c>
+      <c r="B109" s="46"/>
+      <c r="C109" s="47"/>
+      <c r="D109" s="62">
+        <v>2598</v>
       </c>
       <c r="E109" t="s">
         <v>62</v>
       </c>
-      <c r="G109" s="65">
-        <v>81</v>
+      <c r="G109" s="63">
+        <v>41</v>
       </c>
       <c r="H109">
         <v>8400000</v>
       </c>
       <c r="K109" s="5" t="str">
-        <f t="shared" si="84"/>
-        <v>23/3/2020</v>
+        <f t="shared" si="92"/>
+        <v>21/3/2020</v>
       </c>
       <c r="L109" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>23/3/2020,23,3,2020,3493,81,New_York_City,nn,nnn,8400000,New_York_City</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A110" s="53">
-        <v>43914</v>
-      </c>
-      <c r="B110" s="48"/>
-      <c r="C110" s="49"/>
-      <c r="D110" s="64">
-        <v>4379</v>
+        <f t="shared" si="47"/>
+        <v>21/3/2020,21,3,2020,2598,41,New_York_City,nn,nnn,8400000,New_York_City</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A110" s="51">
+        <v>43912</v>
+      </c>
+      <c r="B110" s="46"/>
+      <c r="C110" s="47"/>
+      <c r="D110">
+        <v>2543</v>
       </c>
       <c r="E110" t="s">
         <v>62</v>
       </c>
-      <c r="G110" s="65">
-        <v>92</v>
+      <c r="G110">
+        <v>48</v>
       </c>
       <c r="H110">
         <v>8400000</v>
       </c>
       <c r="K110" s="5" t="str">
-        <f t="shared" si="84"/>
-        <v>24/3/2020</v>
+        <f t="shared" si="92"/>
+        <v>22/3/2020</v>
       </c>
       <c r="L110" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>24/3/2020,24,3,2020,4379,92,New_York_City,nn,nnn,8400000,New_York_City</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A111" s="53">
-        <v>43915</v>
-      </c>
-      <c r="B111" s="48"/>
-      <c r="C111" s="49"/>
-      <c r="D111" s="64">
-        <v>4718</v>
+        <f t="shared" si="47"/>
+        <v>22/3/2020,22,3,2020,2543,48,New_York_City,nn,nnn,8400000,New_York_City</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A111" s="51">
+        <v>43913</v>
+      </c>
+      <c r="B111" s="46"/>
+      <c r="C111" s="47"/>
+      <c r="D111">
+        <v>3496</v>
       </c>
       <c r="E111" t="s">
         <v>62</v>
       </c>
-      <c r="G111" s="65">
-        <v>121</v>
+      <c r="G111">
+        <v>81</v>
       </c>
       <c r="H111">
         <v>8400000</v>
       </c>
       <c r="K111" s="5" t="str">
-        <f t="shared" si="84"/>
-        <v>25/3/2020</v>
+        <f t="shared" si="92"/>
+        <v>23/3/2020</v>
       </c>
       <c r="L111" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25/3/2020,25,3,2020,4718,121,New_York_City,nn,nnn,8400000,New_York_City</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A112" s="53">
-        <v>43916</v>
-      </c>
-      <c r="B112" s="48"/>
-      <c r="C112" s="49"/>
-      <c r="D112" s="64">
-        <v>4891</v>
+        <f t="shared" si="47"/>
+        <v>23/3/2020,23,3,2020,3496,81,New_York_City,nn,nnn,8400000,New_York_City</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A112" s="51">
+        <v>43914</v>
+      </c>
+      <c r="B112" s="46"/>
+      <c r="C112" s="47"/>
+      <c r="D112">
+        <v>4380</v>
       </c>
       <c r="E112" t="s">
         <v>62</v>
       </c>
-      <c r="G112" s="65">
-        <v>185</v>
+      <c r="G112">
+        <v>92</v>
       </c>
       <c r="H112">
         <v>8400000</v>
       </c>
       <c r="K112" s="5" t="str">
-        <f t="shared" si="84"/>
-        <v>26/3/2020</v>
+        <f t="shared" si="92"/>
+        <v>24/3/2020</v>
       </c>
       <c r="L112" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>26/3/2020,26,3,2020,4891,185,New_York_City,nn,nnn,8400000,New_York_City</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A113" s="53">
-        <v>43917</v>
-      </c>
-      <c r="B113" s="48"/>
-      <c r="C113" s="49"/>
-      <c r="D113" s="64">
-        <v>4975</v>
+        <f t="shared" si="47"/>
+        <v>24/3/2020,24,3,2020,4380,92,New_York_City,nn,nnn,8400000,New_York_City</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A113" s="51">
+        <v>43915</v>
+      </c>
+      <c r="B113" s="46"/>
+      <c r="C113" s="47"/>
+      <c r="D113">
+        <v>4720</v>
       </c>
       <c r="E113" t="s">
         <v>62</v>
       </c>
-      <c r="G113" s="65">
-        <v>207</v>
+      <c r="G113">
+        <v>121</v>
       </c>
       <c r="H113">
         <v>8400000</v>
       </c>
       <c r="K113" s="5" t="str">
-        <f t="shared" si="84"/>
-        <v>27/3/2020</v>
+        <f t="shared" si="92"/>
+        <v>25/3/2020</v>
       </c>
       <c r="L113" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>27/3/2020,27,3,2020,4975,207,New_York_City,nn,nnn,8400000,New_York_City</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A114" s="53">
-        <v>43918</v>
-      </c>
-      <c r="B114" s="48"/>
-      <c r="C114" s="49"/>
-      <c r="D114" s="64">
-        <v>3369</v>
+        <f t="shared" si="47"/>
+        <v>25/3/2020,25,3,2020,4720,121,New_York_City,nn,nnn,8400000,New_York_City</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A114" s="51">
+        <v>43916</v>
+      </c>
+      <c r="B114" s="46"/>
+      <c r="C114" s="47"/>
+      <c r="D114">
+        <v>4894</v>
       </c>
       <c r="E114" t="s">
         <v>62</v>
       </c>
-      <c r="G114" s="65">
-        <v>262</v>
+      <c r="G114">
+        <v>185</v>
       </c>
       <c r="H114">
         <v>8400000</v>
       </c>
       <c r="K114" s="5" t="str">
-        <f t="shared" si="84"/>
-        <v>28/3/2020</v>
+        <f t="shared" si="92"/>
+        <v>26/3/2020</v>
       </c>
       <c r="L114" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>28/3/2020,28,3,2020,3369,262,New_York_City,nn,nnn,8400000,New_York_City</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A115" s="53">
-        <v>43919</v>
-      </c>
-      <c r="B115" s="48"/>
-      <c r="C115" s="49"/>
-      <c r="D115" s="64">
-        <v>3427</v>
+        <f t="shared" si="47"/>
+        <v>26/3/2020,26,3,2020,4894,185,New_York_City,nn,nnn,8400000,New_York_City</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A115" s="51">
+        <v>43917</v>
+      </c>
+      <c r="B115" s="46"/>
+      <c r="C115" s="47"/>
+      <c r="D115">
+        <v>4979</v>
       </c>
       <c r="E115" t="s">
         <v>62</v>
       </c>
-      <c r="G115" s="65">
-        <v>278</v>
+      <c r="G115">
+        <v>207</v>
       </c>
       <c r="H115">
         <v>8400000</v>
       </c>
       <c r="K115" s="5" t="str">
-        <f t="shared" si="84"/>
-        <v>29/3/2020</v>
+        <f t="shared" si="92"/>
+        <v>27/3/2020</v>
       </c>
       <c r="L115" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>29/3/2020,29,3,2020,3427,278,New_York_City,nn,nnn,8400000,New_York_City</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A116" s="53">
-        <v>43920</v>
-      </c>
-      <c r="B116" s="48"/>
-      <c r="C116" s="49"/>
-      <c r="D116" s="64">
-        <v>5989</v>
+        <f t="shared" si="47"/>
+        <v>27/3/2020,27,3,2020,4979,207,New_York_City,nn,nnn,8400000,New_York_City</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A116" s="51">
+        <v>43918</v>
+      </c>
+      <c r="B116" s="46"/>
+      <c r="C116" s="47"/>
+      <c r="D116">
+        <v>3370</v>
       </c>
       <c r="E116" t="s">
         <v>62</v>
       </c>
-      <c r="G116" s="65">
-        <v>303</v>
+      <c r="G116">
+        <v>262</v>
       </c>
       <c r="H116">
         <v>8400000</v>
       </c>
       <c r="K116" s="5" t="str">
-        <f t="shared" si="84"/>
-        <v>30/3/2020</v>
+        <f t="shared" si="92"/>
+        <v>28/3/2020</v>
       </c>
       <c r="L116" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>30/3/2020,30,3,2020,5989,303,New_York_City,nn,nnn,8400000,New_York_City</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A117" s="53">
-        <v>43921</v>
-      </c>
-      <c r="B117" s="48"/>
-      <c r="C117" s="49"/>
-      <c r="D117" s="64">
-        <v>5154</v>
+        <f t="shared" si="47"/>
+        <v>28/3/2020,28,3,2020,3370,262,New_York_City,nn,nnn,8400000,New_York_City</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A117" s="51">
+        <v>43919</v>
+      </c>
+      <c r="B117" s="46"/>
+      <c r="C117" s="47"/>
+      <c r="D117">
+        <v>3429</v>
       </c>
       <c r="E117" t="s">
         <v>62</v>
       </c>
-      <c r="G117" s="65">
-        <v>362</v>
+      <c r="G117">
+        <v>278</v>
       </c>
       <c r="H117">
         <v>8400000</v>
       </c>
       <c r="K117" s="5" t="str">
-        <f t="shared" si="84"/>
-        <v>31/3/2020</v>
+        <f t="shared" si="92"/>
+        <v>29/3/2020</v>
       </c>
       <c r="L117" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>31/3/2020,31,3,2020,5154,362,New_York_City,nn,nnn,8400000,New_York_City</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A118" s="53">
-        <v>43922</v>
-      </c>
-      <c r="B118" s="48"/>
-      <c r="C118" s="49"/>
-      <c r="D118" s="64">
-        <v>5003</v>
+        <f t="shared" si="47"/>
+        <v>29/3/2020,29,3,2020,3429,278,New_York_City,nn,nnn,8400000,New_York_City</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A118" s="51">
+        <v>43920</v>
+      </c>
+      <c r="B118" s="46"/>
+      <c r="C118" s="47"/>
+      <c r="D118">
+        <v>5990</v>
       </c>
       <c r="E118" t="s">
         <v>62</v>
       </c>
-      <c r="G118" s="65">
-        <v>405</v>
+      <c r="G118">
+        <v>303</v>
       </c>
       <c r="H118">
         <v>8400000</v>
       </c>
       <c r="K118" s="5" t="str">
-        <f t="shared" si="84"/>
-        <v>1/4/2020</v>
+        <f t="shared" si="92"/>
+        <v>30/3/2020</v>
       </c>
       <c r="L118" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>1/4/2020,1,4,2020,5003,405,New_York_City,nn,nnn,8400000,New_York_City</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A119" s="53">
-        <v>43923</v>
-      </c>
-      <c r="B119" s="48"/>
-      <c r="C119" s="49"/>
-      <c r="D119" s="64">
-        <v>5626</v>
+        <f t="shared" si="47"/>
+        <v>30/3/2020,30,3,2020,5990,303,New_York_City,nn,nnn,8400000,New_York_City</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A119" s="51">
+        <v>43921</v>
+      </c>
+      <c r="B119" s="46"/>
+      <c r="C119" s="47"/>
+      <c r="D119">
+        <v>5154</v>
       </c>
       <c r="E119" t="s">
         <v>62</v>
       </c>
-      <c r="G119" s="65">
-        <v>444</v>
+      <c r="G119">
+        <v>362</v>
       </c>
       <c r="H119">
         <v>8400000</v>
       </c>
       <c r="K119" s="5" t="str">
-        <f t="shared" si="84"/>
-        <v>2/4/2020</v>
+        <f t="shared" si="92"/>
+        <v>31/3/2020</v>
       </c>
       <c r="L119" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>2/4/2020,2,4,2020,5626,444,New_York_City,nn,nnn,8400000,New_York_City</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A120" s="53">
-        <v>43924</v>
-      </c>
-      <c r="B120" s="48"/>
-      <c r="C120" s="49"/>
-      <c r="D120" s="64">
-        <v>5481</v>
+        <f t="shared" si="47"/>
+        <v>31/3/2020,31,3,2020,5154,362,New_York_City,nn,nnn,8400000,New_York_City</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A120" s="51">
+        <v>43922</v>
+      </c>
+      <c r="B120" s="46"/>
+      <c r="C120" s="47"/>
+      <c r="D120">
+        <v>5006</v>
       </c>
       <c r="E120" t="s">
         <v>62</v>
       </c>
-      <c r="G120" s="65">
-        <v>453</v>
+      <c r="G120">
+        <v>405</v>
       </c>
       <c r="H120">
         <v>8400000</v>
       </c>
       <c r="K120" s="5" t="str">
-        <f t="shared" si="84"/>
-        <v>3/4/2020</v>
+        <f t="shared" si="92"/>
+        <v>1/4/2020</v>
       </c>
       <c r="L120" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>3/4/2020,3,4,2020,5481,453,New_York_City,nn,nnn,8400000,New_York_City</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A121" s="53">
-        <v>43925</v>
-      </c>
-      <c r="B121" s="48"/>
-      <c r="C121" s="49"/>
-      <c r="D121" s="64">
-        <v>3739</v>
+        <f t="shared" si="47"/>
+        <v>1/4/2020,1,4,2020,5006,405,New_York_City,nn,nnn,8400000,New_York_City</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A121" s="51">
+        <v>43923</v>
+      </c>
+      <c r="B121" s="46"/>
+      <c r="C121" s="47"/>
+      <c r="D121">
+        <v>5627</v>
       </c>
       <c r="E121" t="s">
         <v>62</v>
       </c>
-      <c r="G121" s="65">
-        <v>464</v>
+      <c r="G121">
+        <v>445</v>
       </c>
       <c r="H121">
         <v>8400000</v>
       </c>
       <c r="K121" s="5" t="str">
-        <f t="shared" si="84"/>
-        <v>4/4/2020</v>
+        <f t="shared" si="92"/>
+        <v>2/4/2020</v>
       </c>
       <c r="L121" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>4/4/2020,4,4,2020,3739,464,New_York_City,nn,nnn,8400000,New_York_City</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A122" s="53">
-        <v>43926</v>
-      </c>
-      <c r="B122" s="48"/>
-      <c r="C122" s="49"/>
-      <c r="D122" s="64">
-        <v>3594</v>
+        <f t="shared" si="47"/>
+        <v>2/4/2020,2,4,2020,5627,445,New_York_City,nn,nnn,8400000,New_York_City</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A122" s="51">
+        <v>43924</v>
+      </c>
+      <c r="B122" s="46"/>
+      <c r="C122" s="47"/>
+      <c r="D122">
+        <v>5487</v>
       </c>
       <c r="E122" t="s">
         <v>62</v>
       </c>
-      <c r="G122" s="65">
-        <v>521</v>
+      <c r="G122">
+        <v>455</v>
       </c>
       <c r="H122">
         <v>8400000</v>
       </c>
       <c r="K122" s="5" t="str">
-        <f t="shared" si="84"/>
-        <v>5/4/2020</v>
+        <f t="shared" si="92"/>
+        <v>3/4/2020</v>
       </c>
       <c r="L122" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>5/4/2020,5,4,2020,3594,521,New_York_City,nn,nnn,8400000,New_York_City</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A123" s="53">
-        <v>43927</v>
-      </c>
-      <c r="B123" s="48"/>
-      <c r="C123" s="49"/>
-      <c r="D123" s="64">
-        <v>6198</v>
+        <f t="shared" si="47"/>
+        <v>3/4/2020,3,4,2020,5487,455,New_York_City,nn,nnn,8400000,New_York_City</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A123" s="51">
+        <v>43925</v>
+      </c>
+      <c r="B123" s="46"/>
+      <c r="C123" s="47"/>
+      <c r="D123">
+        <v>3741</v>
       </c>
       <c r="E123" t="s">
         <v>62</v>
       </c>
-      <c r="G123" s="65">
-        <v>527</v>
+      <c r="G123">
+        <v>466</v>
       </c>
       <c r="H123">
         <v>8400000</v>
       </c>
       <c r="K123" s="5" t="str">
-        <f t="shared" si="84"/>
-        <v>6/4/2020</v>
+        <f t="shared" si="92"/>
+        <v>4/4/2020</v>
       </c>
       <c r="L123" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>6/4/2020,6,4,2020,6198,527,New_York_City,nn,nnn,8400000,New_York_City</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A124" s="53">
-        <v>43928</v>
-      </c>
-      <c r="B124" s="48"/>
-      <c r="C124" s="49"/>
-      <c r="D124" s="64">
-        <v>5877</v>
+        <f t="shared" si="47"/>
+        <v>4/4/2020,4,4,2020,3741,466,New_York_City,nn,nnn,8400000,New_York_City</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A124" s="51">
+        <v>43926</v>
+      </c>
+      <c r="B124" s="46"/>
+      <c r="C124" s="47"/>
+      <c r="D124">
+        <v>3594</v>
       </c>
       <c r="E124" t="s">
         <v>62</v>
       </c>
-      <c r="G124" s="65">
-        <v>550</v>
+      <c r="G124">
+        <v>523</v>
       </c>
       <c r="H124">
         <v>8400000</v>
       </c>
       <c r="K124" s="5" t="str">
-        <f t="shared" si="84"/>
-        <v>7/4/2020</v>
+        <f t="shared" si="92"/>
+        <v>5/4/2020</v>
       </c>
       <c r="L124" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>7/4/2020,7,4,2020,5877,550,New_York_City,nn,nnn,8400000,New_York_City</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A125" s="53">
-        <v>43929</v>
-      </c>
-      <c r="B125" s="48"/>
-      <c r="C125" s="49"/>
-      <c r="D125" s="64">
-        <v>5379</v>
+        <f t="shared" si="47"/>
+        <v>5/4/2020,5,4,2020,3594,523,New_York_City,nn,nnn,8400000,New_York_City</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A125" s="51">
+        <v>43927</v>
+      </c>
+      <c r="B125" s="46"/>
+      <c r="C125" s="47"/>
+      <c r="D125">
+        <v>6201</v>
       </c>
       <c r="E125" t="s">
         <v>62</v>
       </c>
-      <c r="G125" s="65">
-        <v>491</v>
+      <c r="G125">
+        <v>529</v>
       </c>
       <c r="H125">
         <v>8400000</v>
       </c>
       <c r="K125" s="5" t="str">
-        <f t="shared" si="84"/>
-        <v>8/4/2020</v>
+        <f t="shared" si="92"/>
+        <v>6/4/2020</v>
       </c>
       <c r="L125" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>8/4/2020,8,4,2020,5379,491,New_York_City,nn,nnn,8400000,New_York_City</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A126" s="53">
-        <v>43930</v>
-      </c>
-      <c r="B126" s="48"/>
-      <c r="C126" s="49"/>
-      <c r="D126" s="64">
-        <v>4845</v>
+        <f t="shared" si="47"/>
+        <v>6/4/2020,6,4,2020,6201,529,New_York_City,nn,nnn,8400000,New_York_City</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A126" s="51">
+        <v>43928</v>
+      </c>
+      <c r="B126" s="46"/>
+      <c r="C126" s="47"/>
+      <c r="D126">
+        <v>5893</v>
       </c>
       <c r="E126" t="s">
         <v>62</v>
       </c>
-      <c r="G126" s="65">
-        <v>493</v>
+      <c r="G126">
+        <v>552</v>
       </c>
       <c r="H126">
         <v>8400000</v>
       </c>
       <c r="K126" s="5" t="str">
-        <f t="shared" si="84"/>
-        <v>9/4/2020</v>
+        <f t="shared" si="92"/>
+        <v>7/4/2020</v>
       </c>
       <c r="L126" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>9/4/2020,9,4,2020,4845,493,New_York_City,nn,nnn,8400000,New_York_City</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A127" s="53">
-        <v>43931</v>
-      </c>
-      <c r="B127" s="48"/>
-      <c r="C127" s="49"/>
-      <c r="D127" s="64">
-        <v>4208</v>
+        <f t="shared" si="47"/>
+        <v>7/4/2020,7,4,2020,5893,552,New_York_City,nn,nnn,8400000,New_York_City</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A127" s="51">
+        <v>43929</v>
+      </c>
+      <c r="B127" s="46"/>
+      <c r="C127" s="47"/>
+      <c r="D127">
+        <v>5382</v>
       </c>
       <c r="E127" t="s">
         <v>62</v>
       </c>
-      <c r="G127" s="65">
-        <v>468</v>
+      <c r="G127">
+        <v>492</v>
       </c>
       <c r="H127">
         <v>8400000</v>
       </c>
       <c r="K127" s="5" t="str">
-        <f t="shared" si="84"/>
-        <v>10/4/2020</v>
+        <f t="shared" si="92"/>
+        <v>8/4/2020</v>
       </c>
       <c r="L127" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>10/4/2020,10,4,2020,4208,468,New_York_City,nn,nnn,8400000,New_York_City</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A128" s="53">
-        <v>43932</v>
-      </c>
-      <c r="B128" s="48"/>
-      <c r="C128" s="49"/>
-      <c r="D128" s="64">
-        <v>3538</v>
+        <f t="shared" si="47"/>
+        <v>8/4/2020,8,4,2020,5382,492,New_York_City,nn,nnn,8400000,New_York_City</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A128" s="51">
+        <v>43930</v>
+      </c>
+      <c r="B128" s="46"/>
+      <c r="C128" s="47"/>
+      <c r="D128">
+        <v>4846</v>
       </c>
       <c r="E128" t="s">
         <v>62</v>
       </c>
-      <c r="G128" s="65">
-        <v>463</v>
+      <c r="G128">
+        <v>498</v>
       </c>
       <c r="H128">
         <v>8400000</v>
       </c>
       <c r="K128" s="5" t="str">
-        <f t="shared" si="84"/>
-        <v>11/4/2020</v>
+        <f t="shared" si="92"/>
+        <v>9/4/2020</v>
       </c>
       <c r="L128" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>11/4/2020,11,4,2020,3538,463,New_York_City,nn,nnn,8400000,New_York_City</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A129" s="53">
-        <v>43933</v>
-      </c>
-      <c r="B129" s="48"/>
-      <c r="C129" s="49"/>
-      <c r="D129" s="64">
-        <v>2701</v>
+        <f t="shared" si="47"/>
+        <v>9/4/2020,9,4,2020,4846,498,New_York_City,nn,nnn,8400000,New_York_City</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A129" s="51">
+        <v>43931</v>
+      </c>
+      <c r="B129" s="46"/>
+      <c r="C129" s="47"/>
+      <c r="D129">
+        <v>4208</v>
       </c>
       <c r="E129" t="s">
         <v>62</v>
       </c>
-      <c r="G129" s="65">
-        <v>480</v>
+      <c r="G129">
+        <v>474</v>
       </c>
       <c r="H129">
         <v>8400000</v>
       </c>
       <c r="K129" s="5" t="str">
-        <f t="shared" si="84"/>
-        <v>12/4/2020</v>
+        <f t="shared" si="92"/>
+        <v>10/4/2020</v>
       </c>
       <c r="L129" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>12/4/2020,12,4,2020,2701,480,New_York_City,nn,nnn,8400000,New_York_City</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A130" s="53">
-        <v>43934</v>
-      </c>
-      <c r="B130" s="48"/>
-      <c r="C130" s="49"/>
-      <c r="D130" s="64">
-        <v>3200</v>
+        <f t="shared" si="47"/>
+        <v>10/4/2020,10,4,2020,4208,474,New_York_City,nn,nnn,8400000,New_York_City</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A130" s="51">
+        <v>43932</v>
+      </c>
+      <c r="B130" s="46"/>
+      <c r="C130" s="47"/>
+      <c r="D130">
+        <v>3544</v>
       </c>
       <c r="E130" t="s">
         <v>62</v>
       </c>
-      <c r="G130" s="65">
-        <v>473</v>
+      <c r="G130">
+        <v>471</v>
       </c>
       <c r="H130">
         <v>8400000</v>
       </c>
       <c r="K130" s="5" t="str">
-        <f t="shared" si="84"/>
-        <v>13/4/2020</v>
+        <f t="shared" si="92"/>
+        <v>11/4/2020</v>
       </c>
       <c r="L130" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>13/4/2020,13,4,2020,3200,473,New_York_City,nn,nnn,8400000,New_York_City</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A131" s="53">
-        <v>43935</v>
-      </c>
-      <c r="B131" s="48"/>
-      <c r="C131" s="49"/>
-      <c r="D131" s="64">
-        <v>4022</v>
+        <f t="shared" si="47"/>
+        <v>11/4/2020,11,4,2020,3544,471,New_York_City,nn,nnn,8400000,New_York_City</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A131" s="51">
+        <v>43933</v>
+      </c>
+      <c r="B131" s="46"/>
+      <c r="C131" s="47"/>
+      <c r="D131">
+        <v>2701</v>
       </c>
       <c r="E131" t="s">
         <v>62</v>
       </c>
-      <c r="G131" s="65">
-        <v>417</v>
+      <c r="G131">
+        <v>487</v>
       </c>
       <c r="H131">
         <v>8400000</v>
       </c>
       <c r="K131" s="5" t="str">
-        <f t="shared" si="84"/>
-        <v>14/4/2020</v>
+        <f t="shared" si="92"/>
+        <v>12/4/2020</v>
       </c>
       <c r="L131" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>14/4/2020,14,4,2020,4022,417,New_York_City,nn,nnn,8400000,New_York_City</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A132" s="53">
-        <v>43936</v>
-      </c>
-      <c r="B132" s="48"/>
-      <c r="C132" s="49"/>
-      <c r="D132" s="64">
-        <v>3716</v>
+        <f t="shared" si="47"/>
+        <v>12/4/2020,12,4,2020,2701,487,New_York_City,nn,nnn,8400000,New_York_City</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A132" s="51">
+        <v>43934</v>
+      </c>
+      <c r="B132" s="46"/>
+      <c r="C132" s="47"/>
+      <c r="D132">
+        <v>3203</v>
       </c>
       <c r="E132" t="s">
         <v>62</v>
       </c>
-      <c r="G132" s="65">
-        <v>358</v>
+      <c r="G132">
+        <v>480</v>
       </c>
       <c r="H132">
         <v>8400000</v>
       </c>
       <c r="K132" s="5" t="str">
-        <f t="shared" ref="K132:K133" si="85">DAY(A132)&amp;"/"&amp;MONTH(A132)&amp;"/"&amp;YEAR(A132)</f>
-        <v>15/4/2020</v>
+        <f t="shared" si="92"/>
+        <v>13/4/2020</v>
       </c>
       <c r="L132" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>15/4/2020,15,4,2020,3716,358,New_York_City,nn,nnn,8400000,New_York_City</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A133" s="53">
-        <v>43937</v>
-      </c>
-      <c r="B133" s="57"/>
-      <c r="C133" s="49"/>
-      <c r="D133" s="64">
-        <v>3360</v>
+        <f t="shared" si="47"/>
+        <v>13/4/2020,13,4,2020,3203,480,New_York_City,nn,nnn,8400000,New_York_City</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A133" s="51">
+        <v>43935</v>
+      </c>
+      <c r="B133" s="46"/>
+      <c r="C133" s="47"/>
+      <c r="D133">
+        <v>4033</v>
       </c>
       <c r="E133" t="s">
         <v>62</v>
       </c>
-      <c r="G133" s="65">
-        <v>311</v>
+      <c r="G133">
+        <v>434</v>
       </c>
       <c r="H133">
         <v>8400000</v>
       </c>
       <c r="K133" s="5" t="str">
-        <f t="shared" si="85"/>
-        <v>16/4/2020</v>
+        <f t="shared" si="92"/>
+        <v>14/4/2020</v>
       </c>
       <c r="L133" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>16/4/2020,16,4,2020,3360,311,New_York_City,nn,nnn,8400000,New_York_City</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A134" s="53">
-        <v>43938</v>
-      </c>
-      <c r="D134" s="64">
-        <v>3386</v>
+        <f t="shared" si="47"/>
+        <v>14/4/2020,14,4,2020,4033,434,New_York_City,nn,nnn,8400000,New_York_City</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A134" s="51">
+        <v>43936</v>
+      </c>
+      <c r="B134" s="46"/>
+      <c r="C134" s="47"/>
+      <c r="D134">
+        <v>3729</v>
       </c>
       <c r="E134" t="s">
         <v>62</v>
       </c>
-      <c r="G134" s="65">
-        <v>283</v>
+      <c r="G134">
+        <v>369</v>
       </c>
       <c r="H134">
         <v>8400000</v>
       </c>
       <c r="K134" s="5" t="str">
-        <f t="shared" ref="K134:K136" si="86">DAY(A134)&amp;"/"&amp;MONTH(A134)&amp;"/"&amp;YEAR(A134)</f>
-        <v>17/4/2020</v>
+        <f t="shared" ref="K134:K135" si="93">DAY(A134)&amp;"/"&amp;MONTH(A134)&amp;"/"&amp;YEAR(A134)</f>
+        <v>15/4/2020</v>
       </c>
       <c r="L134" s="3" t="str">
-        <f t="shared" ref="L134:L136" si="87">K134&amp;$L$1&amp;DAY(A134)&amp;$L$1&amp;MONTH(A134)&amp;$L$1&amp;YEAR(A134)&amp;$L$1&amp;D134&amp;$L$1&amp;G134&amp;$L$1&amp;E134&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H134&amp;$L$1&amp;E134</f>
-        <v>17/4/2020,17,4,2020,3386,283,New_York_City,nn,nnn,8400000,New_York_City</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A135" s="53">
-        <v>43939</v>
-      </c>
-      <c r="D135" s="64">
-        <v>1938</v>
+        <f t="shared" si="47"/>
+        <v>15/4/2020,15,4,2020,3729,369,New_York_City,nn,nnn,8400000,New_York_City</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A135" s="51">
+        <v>43937</v>
+      </c>
+      <c r="B135" s="55"/>
+      <c r="C135" s="47"/>
+      <c r="D135">
+        <v>3394</v>
       </c>
       <c r="E135" t="s">
         <v>62</v>
       </c>
-      <c r="G135" s="65">
-        <v>263</v>
+      <c r="G135">
+        <v>316</v>
       </c>
       <c r="H135">
         <v>8400000</v>
       </c>
       <c r="K135" s="5" t="str">
-        <f t="shared" si="86"/>
-        <v>18/4/2020</v>
+        <f t="shared" si="93"/>
+        <v>16/4/2020</v>
       </c>
       <c r="L135" s="3" t="str">
-        <f t="shared" si="87"/>
-        <v>18/4/2020,18,4,2020,1938,263,New_York_City,nn,nnn,8400000,New_York_City</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A136" s="53">
-        <v>43940</v>
-      </c>
-      <c r="D136" s="64">
-        <v>2138</v>
+        <f t="shared" si="47"/>
+        <v>16/4/2020,16,4,2020,3394,316,New_York_City,nn,nnn,8400000,New_York_City</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A136" s="51">
+        <v>43938</v>
+      </c>
+      <c r="D136">
+        <v>3421</v>
       </c>
       <c r="E136" t="s">
         <v>62</v>
       </c>
-      <c r="G136" s="65">
-        <v>243</v>
+      <c r="G136">
+        <v>289</v>
       </c>
       <c r="H136">
         <v>8400000</v>
       </c>
       <c r="K136" s="5" t="str">
-        <f t="shared" si="86"/>
-        <v>19/4/2020</v>
+        <f t="shared" ref="K136:K138" si="94">DAY(A136)&amp;"/"&amp;MONTH(A136)&amp;"/"&amp;YEAR(A136)</f>
+        <v>17/4/2020</v>
       </c>
       <c r="L136" s="3" t="str">
-        <f t="shared" si="87"/>
-        <v>19/4/2020,19,4,2020,2138,243,New_York_City,nn,nnn,8400000,New_York_City</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A137" s="53">
-        <v>43941</v>
-      </c>
-      <c r="D137" s="64">
-        <v>2806</v>
+        <f t="shared" ref="L136:L138" si="95">K136&amp;$L$1&amp;DAY(A136)&amp;$L$1&amp;MONTH(A136)&amp;$L$1&amp;YEAR(A136)&amp;$L$1&amp;D136&amp;$L$1&amp;G136&amp;$L$1&amp;E136&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H136&amp;$L$1&amp;E136</f>
+        <v>17/4/2020,17,4,2020,3421,289,New_York_City,nn,nnn,8400000,New_York_City</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A137" s="51">
+        <v>43939</v>
+      </c>
+      <c r="D137">
+        <v>2049</v>
       </c>
       <c r="E137" t="s">
         <v>62</v>
       </c>
-      <c r="G137" s="65">
-        <v>216</v>
+      <c r="G137">
+        <v>270</v>
       </c>
       <c r="H137">
         <v>8400000</v>
       </c>
       <c r="K137" s="5" t="str">
-        <f t="shared" ref="K137:K138" si="88">DAY(A137)&amp;"/"&amp;MONTH(A137)&amp;"/"&amp;YEAR(A137)</f>
-        <v>20/4/2020</v>
+        <f t="shared" si="94"/>
+        <v>18/4/2020</v>
       </c>
       <c r="L137" s="3" t="str">
-        <f t="shared" ref="L137:L138" si="89">K137&amp;$L$1&amp;DAY(A137)&amp;$L$1&amp;MONTH(A137)&amp;$L$1&amp;YEAR(A137)&amp;$L$1&amp;D137&amp;$L$1&amp;G137&amp;$L$1&amp;E137&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H137&amp;$L$1&amp;E137</f>
-        <v>20/4/2020,20,4,2020,2806,216,New_York_City,nn,nnn,8400000,New_York_City</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A138" s="53">
-        <v>43942</v>
-      </c>
-      <c r="D138" s="64">
-        <v>1212</v>
+        <f t="shared" si="95"/>
+        <v>18/4/2020,18,4,2020,2049,270,New_York_City,nn,nnn,8400000,New_York_City</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A138" s="51">
+        <v>43940</v>
+      </c>
+      <c r="D138">
+        <v>2240</v>
       </c>
       <c r="E138" t="s">
         <v>62</v>
       </c>
-      <c r="G138" s="65">
-        <v>158</v>
+      <c r="G138">
+        <v>249</v>
       </c>
       <c r="H138">
         <v>8400000</v>
       </c>
       <c r="K138" s="5" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
+        <v>19/4/2020</v>
+      </c>
+      <c r="L138" s="3" t="str">
+        <f t="shared" si="95"/>
+        <v>19/4/2020,19,4,2020,2240,249,New_York_City,nn,nnn,8400000,New_York_City</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A139" s="51">
+        <v>43941</v>
+      </c>
+      <c r="D139">
+        <v>3490</v>
+      </c>
+      <c r="E139" t="s">
+        <v>62</v>
+      </c>
+      <c r="G139">
+        <v>223</v>
+      </c>
+      <c r="H139">
+        <v>8400000</v>
+      </c>
+      <c r="K139" s="5" t="str">
+        <f t="shared" ref="K139:K140" si="96">DAY(A139)&amp;"/"&amp;MONTH(A139)&amp;"/"&amp;YEAR(A139)</f>
+        <v>20/4/2020</v>
+      </c>
+      <c r="L139" s="3" t="str">
+        <f t="shared" ref="L139:L140" si="97">K139&amp;$L$1&amp;DAY(A139)&amp;$L$1&amp;MONTH(A139)&amp;$L$1&amp;YEAR(A139)&amp;$L$1&amp;D139&amp;$L$1&amp;G139&amp;$L$1&amp;E139&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H139&amp;$L$1&amp;E139</f>
+        <v>20/4/2020,20,4,2020,3490,223,New_York_City,nn,nnn,8400000,New_York_City</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A140" s="51">
+        <v>43942</v>
+      </c>
+      <c r="D140">
+        <v>2377</v>
+      </c>
+      <c r="E140" t="s">
+        <v>62</v>
+      </c>
+      <c r="G140">
+        <v>162</v>
+      </c>
+      <c r="H140">
+        <v>8400000</v>
+      </c>
+      <c r="K140" s="5" t="str">
+        <f t="shared" si="96"/>
         <v>21/4/2020</v>
       </c>
-      <c r="L138" s="3" t="str">
-        <f t="shared" si="89"/>
-        <v>21/4/2020,21,4,2020,1212,158,New_York_City,nn,nnn,8400000,New_York_City</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D139" s="1"/>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D140" s="1"/>
+      <c r="L140" s="3" t="str">
+        <f t="shared" si="97"/>
+        <v>21/4/2020,21,4,2020,2377,162,New_York_City,nn,nnn,8400000,New_York_City</v>
+      </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D141" s="1"/>
+      <c r="A141" s="51">
+        <v>43943</v>
+      </c>
+      <c r="D141">
+        <v>2236</v>
+      </c>
+      <c r="E141" t="s">
+        <v>62</v>
+      </c>
+      <c r="G141">
+        <v>107</v>
+      </c>
+      <c r="H141">
+        <v>8400000</v>
+      </c>
+      <c r="K141" s="5" t="str">
+        <f t="shared" ref="K141" si="98">DAY(A141)&amp;"/"&amp;MONTH(A141)&amp;"/"&amp;YEAR(A141)</f>
+        <v>22/4/2020</v>
+      </c>
+      <c r="L141" s="3" t="str">
+        <f t="shared" ref="L141" si="99">K141&amp;$L$1&amp;DAY(A141)&amp;$L$1&amp;MONTH(A141)&amp;$L$1&amp;YEAR(A141)&amp;$L$1&amp;D141&amp;$L$1&amp;G141&amp;$L$1&amp;E141&amp;$L$1&amp;"nn"&amp;$L$1&amp;"nnn"&amp;$L$1&amp;H141&amp;$L$1&amp;E141</f>
+        <v>22/4/2020,22,4,2020,2236,107,New_York_City,nn,nnn,8400000,New_York_City</v>
+      </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D142" s="1"/>
@@ -5806,8 +5887,14 @@
     <row r="150" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D150" s="1"/>
     </row>
+    <row r="151" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D151" s="1"/>
+    </row>
+    <row r="152" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D152" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A3:F66">
+  <autoFilter ref="A3:F67">
     <sortState ref="A4:G23">
       <sortCondition ref="E3:E20"/>
     </sortState>
@@ -5822,9 +5909,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BD90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BD3" sqref="BD3:BD62"/>
+    <sheetView topLeftCell="AJ1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BE3" sqref="BE3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13641,7 +13728,7 @@
       <c r="U45" s="41">
         <v>221</v>
       </c>
-      <c r="V45" s="59">
+      <c r="V45" s="57">
         <v>2599</v>
       </c>
       <c r="W45" s="41">
@@ -13839,7 +13926,7 @@
       <c r="U46" s="43">
         <v>236</v>
       </c>
-      <c r="V46" s="60">
+      <c r="V46" s="58">
         <v>2659</v>
       </c>
       <c r="W46" s="43">
@@ -14037,7 +14124,7 @@
       <c r="U47" s="41">
         <v>255</v>
       </c>
-      <c r="V47" s="58">
+      <c r="V47" s="56">
         <v>2714</v>
       </c>
       <c r="W47" s="41">
@@ -14231,7 +14318,7 @@
       <c r="U48" s="43">
         <v>264</v>
       </c>
-      <c r="V48" s="58">
+      <c r="V48" s="56">
         <v>2776</v>
       </c>
       <c r="W48" s="43">
@@ -14427,7 +14514,7 @@
       <c r="U49" s="41">
         <v>274</v>
       </c>
-      <c r="V49" s="58">
+      <c r="V49" s="56">
         <v>2818</v>
       </c>
       <c r="W49" s="41">
@@ -14619,7 +14706,7 @@
       <c r="U50" s="43">
         <v>285</v>
       </c>
-      <c r="V50" s="58">
+      <c r="V50" s="64">
         <v>2869</v>
       </c>
       <c r="W50" s="43">
@@ -14674,7 +14761,7 @@
       </c>
       <c r="AK50" s="3" t="str">
         <f>$AC50&amp;$AC$1&amp;I50&amp;$AC$1&amp;fatalities!I51&amp;$AC$1&amp;I$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;I$2&amp;$AC$1&amp;I$1</f>
-        <v>12/4/2020,12,4,2020,4296,176,GE,nn,nnn,499480,GE</v>
+        <v>12/4/2020,12,4,2020,4296,178,GE,nn,nnn,499480,GE</v>
       </c>
       <c r="AL50" s="3" t="str">
         <f>$AC50&amp;$AC$1&amp;J50&amp;$AC$1&amp;fatalities!J51&amp;$AC$1&amp;J$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;J$2&amp;$AC$1&amp;J$1</f>
@@ -14694,7 +14781,7 @@
       </c>
       <c r="AP50" s="3" t="str">
         <f>$AC50&amp;$AC$1&amp;N50&amp;$AC$1&amp;fatalities!N51&amp;$AC$1&amp;N$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;N$2&amp;$AC$1&amp;N$1</f>
-        <v>12/4/2020,12,4,2020,589,47,NE,nn,nnn,176850,NE</v>
+        <v>12/4/2020,12,4,2020,589,48,NE,nn,nnn,176850,NE</v>
       </c>
       <c r="AQ50" s="3" t="str">
         <f>$AC50&amp;$AC$1&amp;O50&amp;$AC$1&amp;fatalities!O51&amp;$AC$1&amp;O$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;O$2&amp;$AC$1&amp;O$1</f>
@@ -14750,7 +14837,7 @@
       </c>
       <c r="BD50" s="3" t="str">
         <f>$AC50&amp;$AC$1&amp;AB50&amp;$AC$1&amp;fatalities!AB51&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2&amp;$AC$1&amp;AB$1</f>
-        <v>12/4/2020,12,4,2020,25700,1175,CH,nn,nnn,8543707,CH</v>
+        <v>12/4/2020,12,4,2020,25700,1178,CH,nn,nnn,8543707,CH</v>
       </c>
     </row>
     <row r="51" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -14815,7 +14902,7 @@
       <c r="U51" s="41">
         <v>292</v>
       </c>
-      <c r="V51" s="58">
+      <c r="V51" s="64">
         <v>2900</v>
       </c>
       <c r="W51" s="41">
@@ -14870,7 +14957,7 @@
       </c>
       <c r="AK51" s="3" t="str">
         <f>$AC51&amp;$AC$1&amp;I51&amp;$AC$1&amp;fatalities!I52&amp;$AC$1&amp;I$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;I$2&amp;$AC$1&amp;I$1</f>
-        <v>13/4/2020,13,4,2020,4346,179,GE,nn,nnn,499480,GE</v>
+        <v>13/4/2020,13,4,2020,4346,181,GE,nn,nnn,499480,GE</v>
       </c>
       <c r="AL51" s="3" t="str">
         <f>$AC51&amp;$AC$1&amp;J51&amp;$AC$1&amp;fatalities!J52&amp;$AC$1&amp;J$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;J$2&amp;$AC$1&amp;J$1</f>
@@ -14890,7 +14977,7 @@
       </c>
       <c r="AP51" s="3" t="str">
         <f>$AC51&amp;$AC$1&amp;N51&amp;$AC$1&amp;fatalities!N52&amp;$AC$1&amp;N$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;N$2&amp;$AC$1&amp;N$1</f>
-        <v>13/4/2020,13,4,2020,595,48,NE,nn,nnn,176850,NE</v>
+        <v>13/4/2020,13,4,2020,595,50,NE,nn,nnn,176850,NE</v>
       </c>
       <c r="AQ51" s="3" t="str">
         <f>$AC51&amp;$AC$1&amp;O51&amp;$AC$1&amp;fatalities!O52&amp;$AC$1&amp;O$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;O$2&amp;$AC$1&amp;O$1</f>
@@ -14946,7 +15033,7 @@
       </c>
       <c r="BD51" s="3" t="str">
         <f>$AC51&amp;$AC$1&amp;AB51&amp;$AC$1&amp;fatalities!AB52&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2&amp;$AC$1&amp;AB$1</f>
-        <v>13/4/2020,13,4,2020,25950,1204,CH,nn,nnn,8543707,CH</v>
+        <v>13/4/2020,13,4,2020,25950,1208,CH,nn,nnn,8543707,CH</v>
       </c>
     </row>
     <row r="52" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -15013,7 +15100,7 @@
       <c r="U52" s="43">
         <v>296</v>
       </c>
-      <c r="V52" s="58">
+      <c r="V52" s="64">
         <v>2912</v>
       </c>
       <c r="W52" s="43">
@@ -15068,7 +15155,7 @@
       </c>
       <c r="AK52" s="3" t="str">
         <f>$AC52&amp;$AC$1&amp;I52&amp;$AC$1&amp;fatalities!I53&amp;$AC$1&amp;I$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;I$2&amp;$AC$1&amp;I$1</f>
-        <v>14/4/2020,14,4,2020,4399,183,GE,nn,nnn,499480,GE</v>
+        <v>14/4/2020,14,4,2020,4399,186,GE,nn,nnn,499480,GE</v>
       </c>
       <c r="AL52" s="3" t="str">
         <f>$AC52&amp;$AC$1&amp;J52&amp;$AC$1&amp;fatalities!J53&amp;$AC$1&amp;J$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;J$2&amp;$AC$1&amp;J$1</f>
@@ -15088,7 +15175,7 @@
       </c>
       <c r="AP52" s="3" t="str">
         <f>$AC52&amp;$AC$1&amp;N52&amp;$AC$1&amp;fatalities!N53&amp;$AC$1&amp;N$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;N$2&amp;$AC$1&amp;N$1</f>
-        <v>14/4/2020,14,4,2020,606,51,NE,nn,nnn,176850,NE</v>
+        <v>14/4/2020,14,4,2020,606,53,NE,nn,nnn,176850,NE</v>
       </c>
       <c r="AQ52" s="3" t="str">
         <f>$AC52&amp;$AC$1&amp;O52&amp;$AC$1&amp;fatalities!O53&amp;$AC$1&amp;O$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;O$2&amp;$AC$1&amp;O$1</f>
@@ -15144,7 +15231,7 @@
       </c>
       <c r="BD52" s="3" t="str">
         <f>$AC52&amp;$AC$1&amp;AB52&amp;$AC$1&amp;fatalities!AB53&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2&amp;$AC$1&amp;AB$1</f>
-        <v>14/4/2020,14,4,2020,26271,1241,CH,nn,nnn,8543707,CH</v>
+        <v>14/4/2020,14,4,2020,26271,1246,CH,nn,nnn,8543707,CH</v>
       </c>
     </row>
     <row r="53" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -15173,7 +15260,7 @@
         <v>890</v>
       </c>
       <c r="I53" s="41">
-        <v>4465</v>
+        <v>4463</v>
       </c>
       <c r="J53" s="41">
         <v>105</v>
@@ -15211,7 +15298,7 @@
       <c r="U53" s="41">
         <v>302</v>
       </c>
-      <c r="V53" s="58">
+      <c r="V53" s="64">
         <v>2927</v>
       </c>
       <c r="W53" s="41">
@@ -15230,7 +15317,7 @@
         <v>3113</v>
       </c>
       <c r="AB53" s="41">
-        <v>26591</v>
+        <v>26589</v>
       </c>
       <c r="AC53" s="15" t="str">
         <f t="shared" ref="AC53" si="10">DAY(A53)&amp;"/"&amp;MONTH(A53)&amp;"/"&amp;YEAR(A53)&amp;$AC$1&amp;DAY(A53)&amp;$AC$1&amp;MONTH(A53)&amp;$AC$1&amp;YEAR(A53)</f>
@@ -15266,7 +15353,7 @@
       </c>
       <c r="AK53" s="3" t="str">
         <f>$AC53&amp;$AC$1&amp;I53&amp;$AC$1&amp;fatalities!I54&amp;$AC$1&amp;I$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;I$2&amp;$AC$1&amp;I$1</f>
-        <v>15/4/2020,15,4,2020,4465,187,GE,nn,nnn,499480,GE</v>
+        <v>15/4/2020,15,4,2020,4463,190,GE,nn,nnn,499480,GE</v>
       </c>
       <c r="AL53" s="3" t="str">
         <f>$AC53&amp;$AC$1&amp;J53&amp;$AC$1&amp;fatalities!J54&amp;$AC$1&amp;J$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;J$2&amp;$AC$1&amp;J$1</f>
@@ -15286,7 +15373,7 @@
       </c>
       <c r="AP53" s="3" t="str">
         <f>$AC53&amp;$AC$1&amp;N53&amp;$AC$1&amp;fatalities!N54&amp;$AC$1&amp;N$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;N$2&amp;$AC$1&amp;N$1</f>
-        <v>15/4/2020,15,4,2020,619,53,NE,nn,nnn,176850,NE</v>
+        <v>15/4/2020,15,4,2020,619,54,NE,nn,nnn,176850,NE</v>
       </c>
       <c r="AQ53" s="3" t="str">
         <f>$AC53&amp;$AC$1&amp;O53&amp;$AC$1&amp;fatalities!O54&amp;$AC$1&amp;O$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;O$2&amp;$AC$1&amp;O$1</f>
@@ -15342,7 +15429,7 @@
       </c>
       <c r="BD53" s="3" t="str">
         <f>$AC53&amp;$AC$1&amp;AB53&amp;$AC$1&amp;fatalities!AB54&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2&amp;$AC$1&amp;AB$1</f>
-        <v>15/4/2020,15,4,2020,26591,1295,CH,nn,nnn,8543707,CH</v>
+        <v>15/4/2020,15,4,2020,26589,1299,CH,nn,nnn,8543707,CH</v>
       </c>
     </row>
     <row r="54" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -15371,7 +15458,7 @@
         <v>907</v>
       </c>
       <c r="I54" s="43">
-        <v>4530</v>
+        <v>4528</v>
       </c>
       <c r="J54" s="43">
         <v>106</v>
@@ -15409,7 +15496,7 @@
       <c r="U54" s="43">
         <v>308</v>
       </c>
-      <c r="V54" s="58">
+      <c r="V54" s="64">
         <v>2953</v>
       </c>
       <c r="W54" s="43">
@@ -15428,7 +15515,7 @@
         <v>3148</v>
       </c>
       <c r="AB54" s="43">
-        <v>26890</v>
+        <v>26888</v>
       </c>
       <c r="AC54" s="15" t="str">
         <f t="shared" ref="AC54" si="11">DAY(A54)&amp;"/"&amp;MONTH(A54)&amp;"/"&amp;YEAR(A54)&amp;$AC$1&amp;DAY(A54)&amp;$AC$1&amp;MONTH(A54)&amp;$AC$1&amp;YEAR(A54)</f>
@@ -15464,7 +15551,7 @@
       </c>
       <c r="AK54" s="3" t="str">
         <f>$AC54&amp;$AC$1&amp;I54&amp;$AC$1&amp;fatalities!I55&amp;$AC$1&amp;I$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;I$2&amp;$AC$1&amp;I$1</f>
-        <v>16/4/2020,16,4,2020,4530,193,GE,nn,nnn,499480,GE</v>
+        <v>16/4/2020,16,4,2020,4528,196,GE,nn,nnn,499480,GE</v>
       </c>
       <c r="AL54" s="3" t="str">
         <f>$AC54&amp;$AC$1&amp;J54&amp;$AC$1&amp;fatalities!J55&amp;$AC$1&amp;J$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;J$2&amp;$AC$1&amp;J$1</f>
@@ -15484,7 +15571,7 @@
       </c>
       <c r="AP54" s="3" t="str">
         <f>$AC54&amp;$AC$1&amp;N54&amp;$AC$1&amp;fatalities!N55&amp;$AC$1&amp;N$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;N$2&amp;$AC$1&amp;N$1</f>
-        <v>16/4/2020,16,4,2020,627,54,NE,nn,nnn,176850,NE</v>
+        <v>16/4/2020,16,4,2020,627,55,NE,nn,nnn,176850,NE</v>
       </c>
       <c r="AQ54" s="3" t="str">
         <f>$AC54&amp;$AC$1&amp;O54&amp;$AC$1&amp;fatalities!O55&amp;$AC$1&amp;O$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;O$2&amp;$AC$1&amp;O$1</f>
@@ -15540,7 +15627,7 @@
       </c>
       <c r="BD54" s="3" t="str">
         <f>$AC54&amp;$AC$1&amp;AB54&amp;$AC$1&amp;fatalities!AB55&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2&amp;$AC$1&amp;AB$1</f>
-        <v>16/4/2020,16,4,2020,26890,1336,CH,nn,nnn,8543707,CH</v>
+        <v>16/4/2020,16,4,2020,26888,1340,CH,nn,nnn,8543707,CH</v>
       </c>
     </row>
     <row r="55" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -15569,7 +15656,7 @@
         <v>930</v>
       </c>
       <c r="I55" s="41">
-        <v>4590</v>
+        <v>4588</v>
       </c>
       <c r="J55" s="41">
         <v>108</v>
@@ -15607,7 +15694,7 @@
       <c r="U55" s="41">
         <v>321</v>
       </c>
-      <c r="V55" s="58">
+      <c r="V55" s="64">
         <v>2977</v>
       </c>
       <c r="W55" s="41">
@@ -15626,7 +15713,7 @@
         <v>3171</v>
       </c>
       <c r="AB55" s="41">
-        <v>27203</v>
+        <v>27201</v>
       </c>
       <c r="AC55" s="15" t="str">
         <f t="shared" ref="AC55" si="12">DAY(A55)&amp;"/"&amp;MONTH(A55)&amp;"/"&amp;YEAR(A55)&amp;$AC$1&amp;DAY(A55)&amp;$AC$1&amp;MONTH(A55)&amp;$AC$1&amp;YEAR(A55)</f>
@@ -15662,7 +15749,7 @@
       </c>
       <c r="AK55" s="3" t="str">
         <f>$AC55&amp;$AC$1&amp;I55&amp;$AC$1&amp;fatalities!I56&amp;$AC$1&amp;I$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;I$2&amp;$AC$1&amp;I$1</f>
-        <v>17/4/2020,17,4,2020,4590,199,GE,nn,nnn,499480,GE</v>
+        <v>17/4/2020,17,4,2020,4588,202,GE,nn,nnn,499480,GE</v>
       </c>
       <c r="AL55" s="3" t="str">
         <f>$AC55&amp;$AC$1&amp;J55&amp;$AC$1&amp;fatalities!J56&amp;$AC$1&amp;J$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;J$2&amp;$AC$1&amp;J$1</f>
@@ -15682,7 +15769,7 @@
       </c>
       <c r="AP55" s="3" t="str">
         <f>$AC55&amp;$AC$1&amp;N55&amp;$AC$1&amp;fatalities!N56&amp;$AC$1&amp;N$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;N$2&amp;$AC$1&amp;N$1</f>
-        <v>17/4/2020,17,4,2020,637,57,NE,nn,nnn,176850,NE</v>
+        <v>17/4/2020,17,4,2020,637,58,NE,nn,nnn,176850,NE</v>
       </c>
       <c r="AQ55" s="3" t="str">
         <f>$AC55&amp;$AC$1&amp;O55&amp;$AC$1&amp;fatalities!O56&amp;$AC$1&amp;O$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;O$2&amp;$AC$1&amp;O$1</f>
@@ -15738,7 +15825,7 @@
       </c>
       <c r="BD55" s="3" t="str">
         <f>$AC55&amp;$AC$1&amp;AB55&amp;$AC$1&amp;fatalities!AB56&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2&amp;$AC$1&amp;AB$1</f>
-        <v>17/4/2020,17,4,2020,27203,1381,CH,nn,nnn,8543707,CH</v>
+        <v>17/4/2020,17,4,2020,27201,1385,CH,nn,nnn,8543707,CH</v>
       </c>
     </row>
     <row r="56" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -15763,7 +15850,7 @@
         <v>956</v>
       </c>
       <c r="I56" s="43">
-        <v>4639</v>
+        <v>4637</v>
       </c>
       <c r="J56" s="43">
         <v>111</v>
@@ -15799,7 +15886,7 @@
       <c r="U56" s="43">
         <v>332</v>
       </c>
-      <c r="V56" s="58">
+      <c r="V56" s="64">
         <v>2994</v>
       </c>
       <c r="W56" s="43">
@@ -15818,7 +15905,7 @@
         <v>3211</v>
       </c>
       <c r="AB56" s="43">
-        <v>27494</v>
+        <v>27492</v>
       </c>
       <c r="AC56" s="15" t="str">
         <f t="shared" ref="AC56:AC57" si="13">DAY(A56)&amp;"/"&amp;MONTH(A56)&amp;"/"&amp;YEAR(A56)&amp;$AC$1&amp;DAY(A56)&amp;$AC$1&amp;MONTH(A56)&amp;$AC$1&amp;YEAR(A56)</f>
@@ -15854,7 +15941,7 @@
       </c>
       <c r="AK56" s="3" t="str">
         <f>$AC56&amp;$AC$1&amp;I56&amp;$AC$1&amp;fatalities!I57&amp;$AC$1&amp;I$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;I$2&amp;$AC$1&amp;I$1</f>
-        <v>18/4/2020,18,4,2020,4639,202,GE,nn,nnn,499480,GE</v>
+        <v>18/4/2020,18,4,2020,4637,206,GE,nn,nnn,499480,GE</v>
       </c>
       <c r="AL56" s="3" t="str">
         <f>$AC56&amp;$AC$1&amp;J56&amp;$AC$1&amp;fatalities!J57&amp;$AC$1&amp;J$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;J$2&amp;$AC$1&amp;J$1</f>
@@ -15874,7 +15961,7 @@
       </c>
       <c r="AP56" s="3" t="str">
         <f>$AC56&amp;$AC$1&amp;N56&amp;$AC$1&amp;fatalities!N57&amp;$AC$1&amp;N$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;N$2&amp;$AC$1&amp;N$1</f>
-        <v>18/4/2020,18,4,2020,639,57,NE,nn,nnn,176850,NE</v>
+        <v>18/4/2020,18,4,2020,639,59,NE,nn,nnn,176850,NE</v>
       </c>
       <c r="AQ56" s="3" t="str">
         <f>$AC56&amp;$AC$1&amp;O56&amp;$AC$1&amp;fatalities!O57&amp;$AC$1&amp;O$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;O$2&amp;$AC$1&amp;O$1</f>
@@ -15930,7 +16017,7 @@
       </c>
       <c r="BD56" s="3" t="str">
         <f>$AC56&amp;$AC$1&amp;AB56&amp;$AC$1&amp;fatalities!AB57&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2&amp;$AC$1&amp;AB$1</f>
-        <v>18/4/2020,18,4,2020,27494,1419,CH,nn,nnn,8543707,CH</v>
+        <v>18/4/2020,18,4,2020,27492,1425,CH,nn,nnn,8543707,CH</v>
       </c>
     </row>
     <row r="57" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -15957,7 +16044,7 @@
         <v>980</v>
       </c>
       <c r="I57" s="41">
-        <v>4650</v>
+        <v>4648</v>
       </c>
       <c r="J57" s="41">
         <v>111</v>
@@ -15993,7 +16080,7 @@
       <c r="U57" s="41">
         <v>333</v>
       </c>
-      <c r="V57" s="58">
+      <c r="V57" s="64">
         <v>3032</v>
       </c>
       <c r="W57" s="41">
@@ -16012,7 +16099,7 @@
         <v>3238</v>
       </c>
       <c r="AB57" s="41">
-        <v>27670</v>
+        <v>27668</v>
       </c>
       <c r="AC57" s="15" t="str">
         <f t="shared" si="13"/>
@@ -16048,7 +16135,7 @@
       </c>
       <c r="AK57" s="3" t="str">
         <f>$AC57&amp;$AC$1&amp;I57&amp;$AC$1&amp;fatalities!I58&amp;$AC$1&amp;I$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;I$2&amp;$AC$1&amp;I$1</f>
-        <v>19/4/2020,19,4,2020,4650,204,GE,nn,nnn,499480,GE</v>
+        <v>19/4/2020,19,4,2020,4648,208,GE,nn,nnn,499480,GE</v>
       </c>
       <c r="AL57" s="3" t="str">
         <f>$AC57&amp;$AC$1&amp;J57&amp;$AC$1&amp;fatalities!J58&amp;$AC$1&amp;J$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;J$2&amp;$AC$1&amp;J$1</f>
@@ -16068,7 +16155,7 @@
       </c>
       <c r="AP57" s="3" t="str">
         <f>$AC57&amp;$AC$1&amp;N57&amp;$AC$1&amp;fatalities!N58&amp;$AC$1&amp;N$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;N$2&amp;$AC$1&amp;N$1</f>
-        <v>19/4/2020,19,4,2020,640,58,NE,nn,nnn,176850,NE</v>
+        <v>19/4/2020,19,4,2020,640,60,NE,nn,nnn,176850,NE</v>
       </c>
       <c r="AQ57" s="3" t="str">
         <f>$AC57&amp;$AC$1&amp;O57&amp;$AC$1&amp;fatalities!O58&amp;$AC$1&amp;O$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;O$2&amp;$AC$1&amp;O$1</f>
@@ -16124,7 +16211,7 @@
       </c>
       <c r="BD57" s="3" t="str">
         <f>$AC57&amp;$AC$1&amp;AB57&amp;$AC$1&amp;fatalities!AB58&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2&amp;$AC$1&amp;AB$1</f>
-        <v>19/4/2020,19,4,2020,27670,1441,CH,nn,nnn,8543707,CH</v>
+        <v>19/4/2020,19,4,2020,27668,1447,CH,nn,nnn,8543707,CH</v>
       </c>
     </row>
     <row r="58" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -16153,7 +16240,7 @@
         <v>989</v>
       </c>
       <c r="I58" s="43">
-        <v>4679</v>
+        <v>4675</v>
       </c>
       <c r="J58" s="43">
         <v>114</v>
@@ -16191,7 +16278,7 @@
       <c r="U58" s="43">
         <v>335</v>
       </c>
-      <c r="V58" s="58">
+      <c r="V58" s="64">
         <v>3058</v>
       </c>
       <c r="W58" s="43">
@@ -16210,7 +16297,7 @@
         <v>3254</v>
       </c>
       <c r="AB58" s="43">
-        <v>27875</v>
+        <v>27871</v>
       </c>
       <c r="AC58" s="15" t="str">
         <f t="shared" ref="AC58" si="14">DAY(A58)&amp;"/"&amp;MONTH(A58)&amp;"/"&amp;YEAR(A58)&amp;$AC$1&amp;DAY(A58)&amp;$AC$1&amp;MONTH(A58)&amp;$AC$1&amp;YEAR(A58)</f>
@@ -16246,7 +16333,7 @@
       </c>
       <c r="AK58" s="3" t="str">
         <f>$AC58&amp;$AC$1&amp;I58&amp;$AC$1&amp;fatalities!I59&amp;$AC$1&amp;I$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;I$2&amp;$AC$1&amp;I$1</f>
-        <v>20/4/2020,20,4,2020,4679,205,GE,nn,nnn,499480,GE</v>
+        <v>20/4/2020,20,4,2020,4675,210,GE,nn,nnn,499480,GE</v>
       </c>
       <c r="AL58" s="3" t="str">
         <f>$AC58&amp;$AC$1&amp;J58&amp;$AC$1&amp;fatalities!J59&amp;$AC$1&amp;J$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;J$2&amp;$AC$1&amp;J$1</f>
@@ -16266,7 +16353,7 @@
       </c>
       <c r="AP58" s="3" t="str">
         <f>$AC58&amp;$AC$1&amp;N58&amp;$AC$1&amp;fatalities!N59&amp;$AC$1&amp;N$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;N$2&amp;$AC$1&amp;N$1</f>
-        <v>20/4/2020,20,4,2020,651,60,NE,nn,nnn,176850,NE</v>
+        <v>20/4/2020,20,4,2020,651,62,NE,nn,nnn,176850,NE</v>
       </c>
       <c r="AQ58" s="3" t="str">
         <f>$AC58&amp;$AC$1&amp;O58&amp;$AC$1&amp;fatalities!O59&amp;$AC$1&amp;O$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;O$2&amp;$AC$1&amp;O$1</f>
@@ -16322,7 +16409,7 @@
       </c>
       <c r="BD58" s="3" t="str">
         <f>$AC58&amp;$AC$1&amp;AB58&amp;$AC$1&amp;fatalities!AB59&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2&amp;$AC$1&amp;AB$1</f>
-        <v>20/4/2020,20,4,2020,27875,1480,CH,nn,nnn,8543707,CH</v>
+        <v>20/4/2020,20,4,2020,27871,1487,CH,nn,nnn,8543707,CH</v>
       </c>
     </row>
     <row r="59" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -16351,7 +16438,7 @@
         <v>995</v>
       </c>
       <c r="I59" s="41">
-        <v>4705</v>
+        <v>4701</v>
       </c>
       <c r="J59" s="41">
         <v>115</v>
@@ -16389,7 +16476,7 @@
       <c r="U59" s="41">
         <v>339</v>
       </c>
-      <c r="V59" s="58">
+      <c r="V59" s="64">
         <v>3065</v>
       </c>
       <c r="W59" s="41">
@@ -16408,7 +16495,7 @@
         <v>3280</v>
       </c>
       <c r="AB59" s="41">
-        <v>28032</v>
+        <v>28028</v>
       </c>
       <c r="AC59" s="15" t="str">
         <f t="shared" ref="AC59:AC60" si="15">DAY(A59)&amp;"/"&amp;MONTH(A59)&amp;"/"&amp;YEAR(A59)&amp;$AC$1&amp;DAY(A59)&amp;$AC$1&amp;MONTH(A59)&amp;$AC$1&amp;YEAR(A59)</f>
@@ -16444,7 +16531,7 @@
       </c>
       <c r="AK59" s="3" t="str">
         <f>$AC59&amp;$AC$1&amp;I59&amp;$AC$1&amp;fatalities!I60&amp;$AC$1&amp;I$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;I$2&amp;$AC$1&amp;I$1</f>
-        <v>21/4/2020,21,4,2020,4705,209,GE,nn,nnn,499480,GE</v>
+        <v>21/4/2020,21,4,2020,4701,214,GE,nn,nnn,499480,GE</v>
       </c>
       <c r="AL59" s="3" t="str">
         <f>$AC59&amp;$AC$1&amp;J59&amp;$AC$1&amp;fatalities!J60&amp;$AC$1&amp;J$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;J$2&amp;$AC$1&amp;J$1</f>
@@ -16464,7 +16551,7 @@
       </c>
       <c r="AP59" s="3" t="str">
         <f>$AC59&amp;$AC$1&amp;N59&amp;$AC$1&amp;fatalities!N60&amp;$AC$1&amp;N$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;N$2&amp;$AC$1&amp;N$1</f>
-        <v>21/4/2020,21,4,2020,656,60,NE,nn,nnn,176850,NE</v>
+        <v>21/4/2020,21,4,2020,656,63,NE,nn,nnn,176850,NE</v>
       </c>
       <c r="AQ59" s="3" t="str">
         <f>$AC59&amp;$AC$1&amp;O59&amp;$AC$1&amp;fatalities!O60&amp;$AC$1&amp;O$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;O$2&amp;$AC$1&amp;O$1</f>
@@ -16520,7 +16607,7 @@
       </c>
       <c r="BD59" s="3" t="str">
         <f>$AC59&amp;$AC$1&amp;AB59&amp;$AC$1&amp;fatalities!AB60&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2&amp;$AC$1&amp;AB$1</f>
-        <v>21/4/2020,21,4,2020,28032,1515,CH,nn,nnn,8543707,CH</v>
+        <v>21/4/2020,21,4,2020,28028,1523,CH,nn,nnn,8543707,CH</v>
       </c>
     </row>
     <row r="60" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -16549,7 +16636,7 @@
         <v>1006</v>
       </c>
       <c r="I60" s="43">
-        <v>4726</v>
+        <v>4722</v>
       </c>
       <c r="J60" s="43">
         <v>117</v>
@@ -16564,7 +16651,7 @@
         <v>648</v>
       </c>
       <c r="N60" s="43">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="O60" s="43">
         <v>108</v>
@@ -16587,7 +16674,7 @@
       <c r="U60" s="43">
         <v>340</v>
       </c>
-      <c r="V60" s="58">
+      <c r="V60" s="64">
         <v>3089</v>
       </c>
       <c r="W60" s="43">
@@ -16606,7 +16693,7 @@
         <v>3320</v>
       </c>
       <c r="AB60" s="43">
-        <v>28222</v>
+        <v>28220</v>
       </c>
       <c r="AC60" s="15" t="str">
         <f t="shared" si="15"/>
@@ -16642,7 +16729,7 @@
       </c>
       <c r="AK60" s="3" t="str">
         <f>$AC60&amp;$AC$1&amp;I60&amp;$AC$1&amp;fatalities!I61&amp;$AC$1&amp;I$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;I$2&amp;$AC$1&amp;I$1</f>
-        <v>22/4/2020,22,4,2020,4726,213,GE,nn,nnn,499480,GE</v>
+        <v>22/4/2020,22,4,2020,4722,219,GE,nn,nnn,499480,GE</v>
       </c>
       <c r="AL60" s="3" t="str">
         <f>$AC60&amp;$AC$1&amp;J60&amp;$AC$1&amp;fatalities!J61&amp;$AC$1&amp;J$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;J$2&amp;$AC$1&amp;J$1</f>
@@ -16662,7 +16749,7 @@
       </c>
       <c r="AP60" s="3" t="str">
         <f>$AC60&amp;$AC$1&amp;N60&amp;$AC$1&amp;fatalities!N61&amp;$AC$1&amp;N$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;N$2&amp;$AC$1&amp;N$1</f>
-        <v>22/4/2020,22,4,2020,660,61,NE,nn,nnn,176850,NE</v>
+        <v>22/4/2020,22,4,2020,662,64,NE,nn,nnn,176850,NE</v>
       </c>
       <c r="AQ60" s="3" t="str">
         <f>$AC60&amp;$AC$1&amp;O60&amp;$AC$1&amp;fatalities!O61&amp;$AC$1&amp;O$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;O$2&amp;$AC$1&amp;O$1</f>
@@ -16718,7 +16805,7 @@
       </c>
       <c r="BD60" s="3" t="str">
         <f>$AC60&amp;$AC$1&amp;AB60&amp;$AC$1&amp;fatalities!AB61&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2&amp;$AC$1&amp;AB$1</f>
-        <v>22/4/2020,22,4,2020,28222,1538,CH,nn,nnn,8543707,CH</v>
+        <v>22/4/2020,22,4,2020,28220,1547,CH,nn,nnn,8543707,CH</v>
       </c>
     </row>
     <row r="61" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -16761,7 +16848,9 @@
       <c r="M61" s="41">
         <v>654</v>
       </c>
-      <c r="N61" s="41"/>
+      <c r="N61" s="41">
+        <v>669</v>
+      </c>
       <c r="O61" s="41">
         <v>108</v>
       </c>
@@ -16783,7 +16872,7 @@
       <c r="U61" s="41">
         <v>353</v>
       </c>
-      <c r="V61" s="58">
+      <c r="V61" s="64">
         <v>3106</v>
       </c>
       <c r="W61" s="41">
@@ -16802,7 +16891,7 @@
         <v>3337</v>
       </c>
       <c r="AB61" s="41">
-        <v>28360</v>
+        <v>28369</v>
       </c>
       <c r="AC61" s="15" t="str">
         <f t="shared" ref="AC61:AC62" si="16">DAY(A61)&amp;"/"&amp;MONTH(A61)&amp;"/"&amp;YEAR(A61)&amp;$AC$1&amp;DAY(A61)&amp;$AC$1&amp;MONTH(A61)&amp;$AC$1&amp;YEAR(A61)</f>
@@ -16858,7 +16947,7 @@
       </c>
       <c r="AP61" s="3" t="str">
         <f>$AC61&amp;$AC$1&amp;N61&amp;$AC$1&amp;fatalities!N62&amp;$AC$1&amp;N$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;N$2&amp;$AC$1&amp;N$1</f>
-        <v>23/4/2020,23,4,2020,,61,NE,nn,nnn,176850,NE</v>
+        <v>23/4/2020,23,4,2020,669,,NE,nn,nnn,176850,NE</v>
       </c>
       <c r="AQ61" s="3" t="str">
         <f>$AC61&amp;$AC$1&amp;O61&amp;$AC$1&amp;fatalities!O62&amp;$AC$1&amp;O$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;O$2&amp;$AC$1&amp;O$1</f>
@@ -16914,7 +17003,7 @@
       </c>
       <c r="BD61" s="3" t="str">
         <f>$AC61&amp;$AC$1&amp;AB61&amp;$AC$1&amp;fatalities!AB62&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2&amp;$AC$1&amp;AB$1</f>
-        <v>23/4/2020,23,4,2020,28360,1567,CH,nn,nnn,8543707,CH</v>
+        <v>23/4/2020,23,4,2020,28369,1570,CH,nn,nnn,8543707,CH</v>
       </c>
     </row>
     <row r="62" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -16954,7 +17043,9 @@
         <v>660</v>
       </c>
       <c r="N62" s="43"/>
-      <c r="O62" s="43"/>
+      <c r="O62" s="43">
+        <v>108</v>
+      </c>
       <c r="P62" s="43">
         <v>71</v>
       </c>
@@ -16973,8 +17064,8 @@
       <c r="U62" s="43">
         <v>358</v>
       </c>
-      <c r="V62" s="58">
-        <v>3112</v>
+      <c r="V62" s="64">
+        <v>3121</v>
       </c>
       <c r="W62" s="43">
         <v>78</v>
@@ -16990,7 +17081,7 @@
         <v>3366</v>
       </c>
       <c r="AB62" s="43">
-        <v>28488</v>
+        <v>28506</v>
       </c>
       <c r="AC62" s="15" t="str">
         <f t="shared" si="16"/>
@@ -17046,11 +17137,11 @@
       </c>
       <c r="AP62" s="3" t="str">
         <f>$AC62&amp;$AC$1&amp;N62&amp;$AC$1&amp;fatalities!N63&amp;$AC$1&amp;N$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;N$2&amp;$AC$1&amp;N$1</f>
-        <v>24/4/2020,24,4,2020,,62,NE,nn,nnn,176850,NE</v>
+        <v>24/4/2020,24,4,2020,,,NE,nn,nnn,176850,NE</v>
       </c>
       <c r="AQ62" s="3" t="str">
         <f>$AC62&amp;$AC$1&amp;O62&amp;$AC$1&amp;fatalities!O63&amp;$AC$1&amp;O$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;O$2&amp;$AC$1&amp;O$1</f>
-        <v>24/4/2020,24,4,2020,,,NW,nn,nnn,43223,NW</v>
+        <v>24/4/2020,24,4,2020,108,3,NW,nn,nnn,43223,NW</v>
       </c>
       <c r="AR62" s="3" t="str">
         <f>$AC62&amp;$AC$1&amp;P62&amp;$AC$1&amp;fatalities!P63&amp;$AC$1&amp;P$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;P$2&amp;$AC$1&amp;P$1</f>
@@ -17062,7 +17153,7 @@
       </c>
       <c r="AT62" s="3" t="str">
         <f>$AC62&amp;$AC$1&amp;R62&amp;$AC$1&amp;fatalities!R63&amp;$AC$1&amp;R$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;R$2&amp;$AC$1&amp;R$1</f>
-        <v>24/4/2020,24,4,2020,70,5,SH,nn,nnn,81991,SH</v>
+        <v>24/4/2020,24,4,2020,70,3,SH,nn,nnn,81991,SH</v>
       </c>
       <c r="AU62" s="3" t="str">
         <f>$AC62&amp;$AC$1&amp;S62&amp;$AC$1&amp;fatalities!S63&amp;$AC$1&amp;S$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;S$2&amp;$AC$1&amp;S$1</f>
@@ -17078,7 +17169,7 @@
       </c>
       <c r="AX62" s="3" t="str">
         <f>$AC62&amp;$AC$1&amp;V62&amp;$AC$1&amp;fatalities!V63&amp;$AC$1&amp;V$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;V$2&amp;$AC$1&amp;V$1</f>
-        <v>24/4/2020,24,4,2020,3112,299,TI,nn,nnn,353343,TI</v>
+        <v>24/4/2020,24,4,2020,3121,299,TI,nn,nnn,353343,TI</v>
       </c>
       <c r="AY62" s="3" t="str">
         <f>$AC62&amp;$AC$1&amp;W62&amp;$AC$1&amp;fatalities!W63&amp;$AC$1&amp;W$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;W$2&amp;$AC$1&amp;W$1</f>
@@ -17098,43 +17189,186 @@
       </c>
       <c r="BC62" s="3" t="str">
         <f>$AC62&amp;$AC$1&amp;AA62&amp;$AC$1&amp;fatalities!AA63&amp;$AC$1&amp;AA$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AA$2&amp;$AC$1&amp;AA$1</f>
-        <v>24/4/2020,24,4,2020,3366,113,ZH,nn,nnn,1520968,ZH</v>
+        <v>24/4/2020,24,4,2020,3366,114,ZH,nn,nnn,1520968,ZH</v>
       </c>
       <c r="BD62" s="3" t="str">
         <f>$AC62&amp;$AC$1&amp;AB62&amp;$AC$1&amp;fatalities!AB63&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2&amp;$AC$1&amp;AB$1</f>
-        <v>24/4/2020,24,4,2020,28488,1589,CH,nn,nnn,8543707,CH</v>
+        <v>24/4/2020,24,4,2020,28506,1590,CH,nn,nnn,8543707,CH</v>
       </c>
     </row>
     <row r="63" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="42"/>
-      <c r="C63" s="43"/>
-      <c r="D63" s="43"/>
-      <c r="E63" s="43"/>
-      <c r="F63" s="43"/>
-      <c r="G63" s="43"/>
-      <c r="H63" s="43"/>
-      <c r="I63" s="43"/>
-      <c r="J63" s="43"/>
-      <c r="K63" s="43"/>
-      <c r="L63" s="43"/>
-      <c r="M63" s="43"/>
-      <c r="N63" s="43"/>
-      <c r="O63" s="43"/>
-      <c r="P63" s="43"/>
-      <c r="Q63" s="43"/>
-      <c r="R63" s="43"/>
-      <c r="S63" s="43"/>
-      <c r="T63" s="43"/>
-      <c r="U63" s="43"/>
-      <c r="V63" s="43"/>
-      <c r="W63" s="43"/>
-      <c r="X63" s="43"/>
-      <c r="Y63" s="43"/>
-      <c r="Z63" s="43"/>
-      <c r="AA63" s="43"/>
-      <c r="AB63" s="43"/>
-      <c r="AC63" s="43"/>
-      <c r="AD63" s="10"/>
+      <c r="A63" s="40">
+        <v>43946</v>
+      </c>
+      <c r="B63" s="41"/>
+      <c r="C63" s="41">
+        <v>25</v>
+      </c>
+      <c r="D63" s="41"/>
+      <c r="E63" s="41">
+        <v>1708</v>
+      </c>
+      <c r="F63" s="41">
+        <v>816</v>
+      </c>
+      <c r="G63" s="41"/>
+      <c r="H63" s="41">
+        <v>1029</v>
+      </c>
+      <c r="I63" s="41"/>
+      <c r="J63" s="41"/>
+      <c r="K63" s="41"/>
+      <c r="L63" s="41"/>
+      <c r="M63" s="41">
+        <v>667</v>
+      </c>
+      <c r="N63" s="41"/>
+      <c r="O63" s="41"/>
+      <c r="P63" s="41"/>
+      <c r="Q63" s="41">
+        <v>753</v>
+      </c>
+      <c r="R63" s="41"/>
+      <c r="S63" s="41">
+        <v>379</v>
+      </c>
+      <c r="T63" s="41">
+        <v>287</v>
+      </c>
+      <c r="U63" s="41">
+        <v>359</v>
+      </c>
+      <c r="V63" s="64">
+        <v>3142</v>
+      </c>
+      <c r="W63" s="41">
+        <v>78</v>
+      </c>
+      <c r="X63" s="41"/>
+      <c r="Y63" s="41">
+        <v>1825</v>
+      </c>
+      <c r="Z63" s="41">
+        <v>181</v>
+      </c>
+      <c r="AA63" s="41">
+        <v>3397</v>
+      </c>
+      <c r="AB63" s="41">
+        <v>28623</v>
+      </c>
+      <c r="AC63" s="15" t="str">
+        <f t="shared" ref="AC63" si="17">DAY(A63)&amp;"/"&amp;MONTH(A63)&amp;"/"&amp;YEAR(A63)&amp;$AC$1&amp;DAY(A63)&amp;$AC$1&amp;MONTH(A63)&amp;$AC$1&amp;YEAR(A63)</f>
+        <v>25/4/2020,25,4,2020</v>
+      </c>
+      <c r="AD63" s="3" t="str">
+        <f>$AC63&amp;$AC$1&amp;B63&amp;$AC$1&amp;fatalities!B64&amp;$AC$1&amp;B$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;B$2&amp;$AC$1&amp;B$1</f>
+        <v>25/4/2020,25,4,2020,,,AG,nn,nnn,677387,AG</v>
+      </c>
+      <c r="AE63" s="3" t="str">
+        <f>$AC63&amp;$AC$1&amp;C63&amp;$AC$1&amp;fatalities!C64&amp;$AC$1&amp;C$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;C$2&amp;$AC$1&amp;C$1</f>
+        <v>25/4/2020,25,4,2020,25,,AI,nn,nnn,16145,AI</v>
+      </c>
+      <c r="AF63" s="3" t="str">
+        <f>$AC63&amp;$AC$1&amp;D63&amp;$AC$1&amp;fatalities!D64&amp;$AC$1&amp;D$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;D$2&amp;$AC$1&amp;D$1</f>
+        <v>25/4/2020,25,4,2020,,,AR,nn,nnn,55234,AR</v>
+      </c>
+      <c r="AG63" s="3" t="str">
+        <f>$AC63&amp;$AC$1&amp;E63&amp;$AC$1&amp;fatalities!E64&amp;$AC$1&amp;E$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;E$2&amp;$AC$1&amp;E$1</f>
+        <v>25/4/2020,25,4,2020,1708,83,BE,nn,nnn,1034977,BE</v>
+      </c>
+      <c r="AH63" s="3" t="str">
+        <f>$AC63&amp;$AC$1&amp;F63&amp;$AC$1&amp;fatalities!F64&amp;$AC$1&amp;F$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;F$2&amp;$AC$1&amp;F$1</f>
+        <v>25/4/2020,25,4,2020,816,30,BL,nn,nnn,288132,BL</v>
+      </c>
+      <c r="AI63" s="3" t="str">
+        <f>$AC63&amp;$AC$1&amp;G63&amp;$AC$1&amp;fatalities!G64&amp;$AC$1&amp;G$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;G$2&amp;$AC$1&amp;G$1</f>
+        <v>25/4/2020,25,4,2020,,,BS,nn,nnn,194766,BS</v>
+      </c>
+      <c r="AJ63" s="3" t="str">
+        <f>$AC63&amp;$AC$1&amp;H63&amp;$AC$1&amp;fatalities!H64&amp;$AC$1&amp;H$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;H$2&amp;$AC$1&amp;H$1</f>
+        <v>25/4/2020,25,4,2020,1029,76,FR,nn,nnn,318714,FR</v>
+      </c>
+      <c r="AK63" s="3" t="str">
+        <f>$AC63&amp;$AC$1&amp;I63&amp;$AC$1&amp;fatalities!I64&amp;$AC$1&amp;I$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;I$2&amp;$AC$1&amp;I$1</f>
+        <v>25/4/2020,25,4,2020,,,GE,nn,nnn,499480,GE</v>
+      </c>
+      <c r="AL63" s="3" t="str">
+        <f>$AC63&amp;$AC$1&amp;J63&amp;$AC$1&amp;fatalities!J64&amp;$AC$1&amp;J$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;J$2&amp;$AC$1&amp;J$1</f>
+        <v>25/4/2020,25,4,2020,,,GL,nn,nnn,40403,GL</v>
+      </c>
+      <c r="AM63" s="3" t="str">
+        <f>$AC63&amp;$AC$1&amp;K63&amp;$AC$1&amp;fatalities!K64&amp;$AC$1&amp;K$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;K$2&amp;$AC$1&amp;K$1</f>
+        <v>25/4/2020,25,4,2020,,,GR,nn,nnn,198379,GR</v>
+      </c>
+      <c r="AN63" s="3" t="str">
+        <f>$AC63&amp;$AC$1&amp;L63&amp;$AC$1&amp;fatalities!L64&amp;$AC$1&amp;L$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;L$2&amp;$AC$1&amp;L$1</f>
+        <v>25/4/2020,25,4,2020,,,JU,nn,nnn,73419,JU</v>
+      </c>
+      <c r="AO63" s="3" t="str">
+        <f>$AC63&amp;$AC$1&amp;M63&amp;$AC$1&amp;fatalities!M64&amp;$AC$1&amp;M$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;M$2&amp;$AC$1&amp;M$1</f>
+        <v>25/4/2020,25,4,2020,667,16,LU,nn,nnn,409557,LU</v>
+      </c>
+      <c r="AP63" s="3" t="str">
+        <f>$AC63&amp;$AC$1&amp;N63&amp;$AC$1&amp;fatalities!N64&amp;$AC$1&amp;N$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;N$2&amp;$AC$1&amp;N$1</f>
+        <v>25/4/2020,25,4,2020,,,NE,nn,nnn,176850,NE</v>
+      </c>
+      <c r="AQ63" s="3" t="str">
+        <f>$AC63&amp;$AC$1&amp;O63&amp;$AC$1&amp;fatalities!O64&amp;$AC$1&amp;O$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;O$2&amp;$AC$1&amp;O$1</f>
+        <v>25/4/2020,25,4,2020,,,NW,nn,nnn,43223,NW</v>
+      </c>
+      <c r="AR63" s="3" t="str">
+        <f>$AC63&amp;$AC$1&amp;P63&amp;$AC$1&amp;fatalities!P64&amp;$AC$1&amp;P$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;P$2&amp;$AC$1&amp;P$1</f>
+        <v>25/4/2020,25,4,2020,,,OW,nn,nnn,37841,OW</v>
+      </c>
+      <c r="AS63" s="3" t="str">
+        <f>$AC63&amp;$AC$1&amp;Q63&amp;$AC$1&amp;fatalities!Q64&amp;$AC$1&amp;Q$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Q$2&amp;$AC$1&amp;Q$1</f>
+        <v>25/4/2020,25,4,2020,753,31,SG,nn,nnn,507697,SG</v>
+      </c>
+      <c r="AT63" s="3" t="str">
+        <f>$AC63&amp;$AC$1&amp;R63&amp;$AC$1&amp;fatalities!R64&amp;$AC$1&amp;R$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;R$2&amp;$AC$1&amp;R$1</f>
+        <v>25/4/2020,25,4,2020,,,SH,nn,nnn,81991,SH</v>
+      </c>
+      <c r="AU63" s="3" t="str">
+        <f>$AC63&amp;$AC$1&amp;S63&amp;$AC$1&amp;fatalities!S64&amp;$AC$1&amp;S$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;S$2&amp;$AC$1&amp;S$1</f>
+        <v>25/4/2020,25,4,2020,379,14,SO,nn,nnn,273194,SO</v>
+      </c>
+      <c r="AV63" s="3" t="str">
+        <f>$AC63&amp;$AC$1&amp;T63&amp;$AC$1&amp;fatalities!T64&amp;$AC$1&amp;T$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;T$2&amp;$AC$1&amp;T$1</f>
+        <v>25/4/2020,25,4,2020,287,17,SZ,nn,nnn,159165,SZ</v>
+      </c>
+      <c r="AW63" s="3" t="str">
+        <f>$AC63&amp;$AC$1&amp;U63&amp;$AC$1&amp;fatalities!U64&amp;$AC$1&amp;U$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;U$2&amp;$AC$1&amp;U$1</f>
+        <v>25/4/2020,25,4,2020,359,14,TG,nn,nnn,276472,TG</v>
+      </c>
+      <c r="AX63" s="3" t="str">
+        <f>$AC63&amp;$AC$1&amp;V63&amp;$AC$1&amp;fatalities!V64&amp;$AC$1&amp;V$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;V$2&amp;$AC$1&amp;V$1</f>
+        <v>25/4/2020,25,4,2020,3142,304,TI,nn,nnn,353343,TI</v>
+      </c>
+      <c r="AY63" s="3" t="str">
+        <f>$AC63&amp;$AC$1&amp;W63&amp;$AC$1&amp;fatalities!W64&amp;$AC$1&amp;W$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;W$2&amp;$AC$1&amp;W$1</f>
+        <v>25/4/2020,25,4,2020,78,5,UR,nn,nnn,36433,UR</v>
+      </c>
+      <c r="AZ63" s="3" t="str">
+        <f>$AC63&amp;$AC$1&amp;X63&amp;$AC$1&amp;fatalities!X64&amp;$AC$1&amp;X$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;X$2&amp;$AC$1&amp;X$1</f>
+        <v>25/4/2020,25,4,2020,,,VD,nn,nnn,799145,VD</v>
+      </c>
+      <c r="BA63" s="3" t="str">
+        <f>$AC63&amp;$AC$1&amp;Y63&amp;$AC$1&amp;fatalities!Y64&amp;$AC$1&amp;Y$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Y$2&amp;$AC$1&amp;Y$1</f>
+        <v>25/4/2020,25,4,2020,1825,128,VS,nn,nnn,343955,VS</v>
+      </c>
+      <c r="BB63" s="3" t="str">
+        <f>$AC63&amp;$AC$1&amp;Z63&amp;$AC$1&amp;fatalities!Z64&amp;$AC$1&amp;Z$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;Z$2&amp;$AC$1&amp;Z$1</f>
+        <v>25/4/2020,25,4,2020,181,8,ZG,nn,nnn,126837,ZG</v>
+      </c>
+      <c r="BC63" s="3" t="str">
+        <f>$AC63&amp;$AC$1&amp;AA63&amp;$AC$1&amp;fatalities!AA64&amp;$AC$1&amp;AA$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AA$2&amp;$AC$1&amp;AA$1</f>
+        <v>25/4/2020,25,4,2020,3397,114,ZH,nn,nnn,1520968,ZH</v>
+      </c>
+      <c r="BD63" s="3" t="str">
+        <f>$AC63&amp;$AC$1&amp;AB63&amp;$AC$1&amp;fatalities!AB64&amp;$AC$1&amp;AB$1&amp;$AC$1&amp;"nn"&amp;$AC$1&amp;"nnn"&amp;$AC$1&amp;AB$2&amp;$AC$1&amp;AB$1</f>
+        <v>25/4/2020,25,4,2020,28623,1599,CH,nn,nnn,8543707,CH</v>
+      </c>
     </row>
     <row r="64" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="44"/>
@@ -17158,7 +17392,7 @@
       <c r="S64" s="41"/>
       <c r="T64" s="41"/>
       <c r="U64" s="41"/>
-      <c r="V64" s="41"/>
+      <c r="V64" s="64"/>
       <c r="W64" s="41"/>
       <c r="X64" s="41"/>
       <c r="Y64" s="41"/>
@@ -17167,8 +17401,7 @@
       <c r="AB64" s="41"/>
       <c r="AC64" s="41"/>
     </row>
-    <row r="65" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="44"/>
+    <row r="65" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B65" s="42"/>
       <c r="C65" s="43"/>
       <c r="D65" s="43"/>
@@ -17197,8 +17430,9 @@
       <c r="AA65" s="43"/>
       <c r="AB65" s="43"/>
       <c r="AC65" s="43"/>
-    </row>
-    <row r="66" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AD65" s="10"/>
+    </row>
+    <row r="66" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="44"/>
       <c r="B66" s="40"/>
       <c r="C66" s="41"/>
@@ -17229,7 +17463,7 @@
       <c r="AB66" s="41"/>
       <c r="AC66" s="41"/>
     </row>
-    <row r="67" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="44"/>
       <c r="B67" s="42"/>
       <c r="C67" s="43"/>
@@ -17260,7 +17494,7 @@
       <c r="AB67" s="43"/>
       <c r="AC67" s="43"/>
     </row>
-    <row r="68" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="44"/>
       <c r="B68" s="40"/>
       <c r="C68" s="41"/>
@@ -17291,7 +17525,7 @@
       <c r="AB68" s="41"/>
       <c r="AC68" s="41"/>
     </row>
-    <row r="69" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="44"/>
       <c r="B69" s="42"/>
       <c r="C69" s="43"/>
@@ -17322,7 +17556,7 @@
       <c r="AB69" s="43"/>
       <c r="AC69" s="43"/>
     </row>
-    <row r="70" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="44"/>
       <c r="B70" s="40"/>
       <c r="C70" s="41"/>
@@ -17353,7 +17587,7 @@
       <c r="AB70" s="41"/>
       <c r="AC70" s="41"/>
     </row>
-    <row r="71" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="44"/>
       <c r="B71" s="42"/>
       <c r="C71" s="43"/>
@@ -17384,7 +17618,7 @@
       <c r="AB71" s="43"/>
       <c r="AC71" s="43"/>
     </row>
-    <row r="72" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="44"/>
       <c r="B72" s="40"/>
       <c r="C72" s="41"/>
@@ -17415,7 +17649,7 @@
       <c r="AB72" s="41"/>
       <c r="AC72" s="41"/>
     </row>
-    <row r="73" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="44"/>
       <c r="B73" s="42"/>
       <c r="C73" s="43"/>
@@ -17446,7 +17680,7 @@
       <c r="AB73" s="43"/>
       <c r="AC73" s="43"/>
     </row>
-    <row r="74" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="44"/>
       <c r="B74" s="40"/>
       <c r="C74" s="41"/>
@@ -17477,7 +17711,7 @@
       <c r="AB74" s="41"/>
       <c r="AC74" s="41"/>
     </row>
-    <row r="75" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="44"/>
       <c r="B75" s="42"/>
       <c r="C75" s="43"/>
@@ -17508,7 +17742,7 @@
       <c r="AB75" s="43"/>
       <c r="AC75" s="43"/>
     </row>
-    <row r="76" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="44"/>
       <c r="B76" s="40"/>
       <c r="C76" s="41"/>
@@ -17539,7 +17773,7 @@
       <c r="AB76" s="41"/>
       <c r="AC76" s="41"/>
     </row>
-    <row r="77" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="44"/>
       <c r="B77" s="42"/>
       <c r="C77" s="43"/>
@@ -17570,233 +17804,234 @@
       <c r="AB77" s="43"/>
       <c r="AC77" s="43"/>
     </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A78" s="62"/>
-      <c r="B78" s="63"/>
-      <c r="C78" s="63"/>
-      <c r="D78" s="63"/>
-      <c r="E78" s="63"/>
-      <c r="F78" s="63"/>
-      <c r="G78" s="63"/>
-      <c r="H78" s="63"/>
-      <c r="I78" s="63"/>
-      <c r="J78" s="63"/>
-      <c r="K78" s="63"/>
-      <c r="L78" s="63"/>
-      <c r="M78" s="63"/>
-      <c r="N78" s="63"/>
-      <c r="O78" s="63"/>
-      <c r="P78" s="63"/>
-      <c r="Q78" s="63"/>
-      <c r="R78" s="63"/>
-      <c r="S78" s="63"/>
-      <c r="T78" s="63"/>
-      <c r="U78" s="63"/>
-      <c r="V78" s="63"/>
-      <c r="W78" s="63"/>
-      <c r="X78" s="63"/>
-      <c r="Y78" s="63"/>
-      <c r="Z78" s="63"/>
-      <c r="AA78" s="63"/>
-      <c r="AB78" s="63"/>
-    </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="44"/>
+      <c r="B78" s="40"/>
+      <c r="C78" s="41"/>
+      <c r="D78" s="41"/>
+      <c r="E78" s="41"/>
+      <c r="F78" s="41"/>
+      <c r="G78" s="41"/>
+      <c r="H78" s="41"/>
+      <c r="I78" s="41"/>
+      <c r="J78" s="41"/>
+      <c r="K78" s="41"/>
+      <c r="L78" s="41"/>
+      <c r="M78" s="41"/>
+      <c r="N78" s="41"/>
+      <c r="O78" s="41"/>
+      <c r="P78" s="41"/>
+      <c r="Q78" s="41"/>
+      <c r="R78" s="41"/>
+      <c r="S78" s="41"/>
+      <c r="T78" s="41"/>
+      <c r="U78" s="41"/>
+      <c r="V78" s="41"/>
+      <c r="W78" s="41"/>
+      <c r="X78" s="41"/>
+      <c r="Y78" s="41"/>
+      <c r="Z78" s="41"/>
+      <c r="AA78" s="41"/>
+      <c r="AB78" s="41"/>
+      <c r="AC78" s="41"/>
+    </row>
+    <row r="79" spans="1:30" x14ac:dyDescent="0.2">
       <c r="V79"/>
     </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A80" s="62"/>
-      <c r="B80" s="63"/>
-      <c r="C80" s="63"/>
-      <c r="D80" s="63"/>
-      <c r="E80" s="63"/>
-      <c r="F80" s="63"/>
-      <c r="G80" s="63"/>
-      <c r="H80" s="63"/>
-      <c r="I80" s="63"/>
-      <c r="J80" s="63"/>
-      <c r="K80" s="63"/>
-      <c r="L80" s="63"/>
-      <c r="M80" s="63"/>
-      <c r="N80" s="63"/>
-      <c r="O80" s="63"/>
-      <c r="P80" s="63"/>
-      <c r="Q80" s="63"/>
-      <c r="R80" s="63"/>
-      <c r="S80" s="63"/>
-      <c r="T80" s="63"/>
-      <c r="U80" s="63"/>
-      <c r="V80" s="63"/>
-      <c r="W80" s="63"/>
-      <c r="X80" s="63"/>
-      <c r="Y80" s="63"/>
-      <c r="Z80" s="63"/>
-      <c r="AA80" s="63"/>
-      <c r="AB80" s="63"/>
+    <row r="80" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A80" s="60"/>
+      <c r="B80" s="61"/>
+      <c r="C80" s="61"/>
+      <c r="D80" s="61"/>
+      <c r="E80" s="61"/>
+      <c r="F80" s="61"/>
+      <c r="G80" s="61"/>
+      <c r="H80" s="61"/>
+      <c r="I80" s="61"/>
+      <c r="J80" s="61"/>
+      <c r="K80" s="61"/>
+      <c r="L80" s="61"/>
+      <c r="M80" s="61"/>
+      <c r="N80" s="61"/>
+      <c r="O80" s="61"/>
+      <c r="P80" s="61"/>
+      <c r="Q80" s="61"/>
+      <c r="R80" s="61"/>
+      <c r="S80" s="61"/>
+      <c r="T80" s="61"/>
+      <c r="U80" s="61"/>
+      <c r="V80" s="61"/>
+      <c r="W80" s="61"/>
+      <c r="X80" s="61"/>
+      <c r="Y80" s="61"/>
+      <c r="Z80" s="61"/>
+      <c r="AA80" s="61"/>
+      <c r="AB80" s="61"/>
     </row>
     <row r="81" spans="1:28" x14ac:dyDescent="0.2">
       <c r="V81"/>
     </row>
     <row r="82" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A82" s="62"/>
-      <c r="B82" s="63"/>
-      <c r="C82" s="63"/>
-      <c r="D82" s="63"/>
-      <c r="E82" s="63"/>
-      <c r="F82" s="63"/>
-      <c r="G82" s="63"/>
-      <c r="H82" s="63"/>
-      <c r="I82" s="63"/>
-      <c r="J82" s="63"/>
-      <c r="K82" s="63"/>
-      <c r="L82" s="63"/>
-      <c r="M82" s="63"/>
-      <c r="N82" s="63"/>
-      <c r="O82" s="63"/>
-      <c r="P82" s="63"/>
-      <c r="Q82" s="63"/>
-      <c r="R82" s="63"/>
-      <c r="S82" s="63"/>
-      <c r="T82" s="63"/>
-      <c r="U82" s="63"/>
-      <c r="V82" s="63"/>
-      <c r="W82" s="63"/>
-      <c r="X82" s="63"/>
-      <c r="Y82" s="63"/>
-      <c r="Z82" s="63"/>
-      <c r="AA82" s="63"/>
-      <c r="AB82" s="63"/>
+      <c r="A82" s="60"/>
+      <c r="B82" s="61"/>
+      <c r="C82" s="61"/>
+      <c r="D82" s="61"/>
+      <c r="E82" s="61"/>
+      <c r="F82" s="61"/>
+      <c r="G82" s="61"/>
+      <c r="H82" s="61"/>
+      <c r="I82" s="61"/>
+      <c r="J82" s="61"/>
+      <c r="K82" s="61"/>
+      <c r="L82" s="61"/>
+      <c r="M82" s="61"/>
+      <c r="N82" s="61"/>
+      <c r="O82" s="61"/>
+      <c r="P82" s="61"/>
+      <c r="Q82" s="61"/>
+      <c r="R82" s="61"/>
+      <c r="S82" s="61"/>
+      <c r="T82" s="61"/>
+      <c r="U82" s="61"/>
+      <c r="V82" s="61"/>
+      <c r="W82" s="61"/>
+      <c r="X82" s="61"/>
+      <c r="Y82" s="61"/>
+      <c r="Z82" s="61"/>
+      <c r="AA82" s="61"/>
+      <c r="AB82" s="61"/>
     </row>
     <row r="83" spans="1:28" x14ac:dyDescent="0.2">
       <c r="V83"/>
     </row>
     <row r="84" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A84" s="62"/>
-      <c r="B84" s="63"/>
-      <c r="C84" s="63"/>
-      <c r="D84" s="63"/>
-      <c r="E84" s="63"/>
-      <c r="F84" s="63"/>
-      <c r="G84" s="63"/>
-      <c r="H84" s="63"/>
-      <c r="I84" s="63"/>
-      <c r="J84" s="63"/>
-      <c r="K84" s="63"/>
-      <c r="L84" s="63"/>
-      <c r="M84" s="63"/>
-      <c r="N84" s="63"/>
-      <c r="O84" s="63"/>
-      <c r="P84" s="63"/>
-      <c r="Q84" s="63"/>
-      <c r="R84" s="63"/>
-      <c r="S84" s="63"/>
-      <c r="T84" s="63"/>
-      <c r="U84" s="63"/>
-      <c r="V84" s="63"/>
-      <c r="W84" s="63"/>
-      <c r="X84" s="63"/>
-      <c r="Y84" s="63"/>
-      <c r="Z84" s="63"/>
-      <c r="AA84" s="63"/>
-      <c r="AB84" s="63"/>
+      <c r="A84" s="60"/>
+      <c r="B84" s="61"/>
+      <c r="C84" s="61"/>
+      <c r="D84" s="61"/>
+      <c r="E84" s="61"/>
+      <c r="F84" s="61"/>
+      <c r="G84" s="61"/>
+      <c r="H84" s="61"/>
+      <c r="I84" s="61"/>
+      <c r="J84" s="61"/>
+      <c r="K84" s="61"/>
+      <c r="L84" s="61"/>
+      <c r="M84" s="61"/>
+      <c r="N84" s="61"/>
+      <c r="O84" s="61"/>
+      <c r="P84" s="61"/>
+      <c r="Q84" s="61"/>
+      <c r="R84" s="61"/>
+      <c r="S84" s="61"/>
+      <c r="T84" s="61"/>
+      <c r="U84" s="61"/>
+      <c r="V84" s="61"/>
+      <c r="W84" s="61"/>
+      <c r="X84" s="61"/>
+      <c r="Y84" s="61"/>
+      <c r="Z84" s="61"/>
+      <c r="AA84" s="61"/>
+      <c r="AB84" s="61"/>
     </row>
     <row r="85" spans="1:28" x14ac:dyDescent="0.2">
       <c r="V85"/>
     </row>
     <row r="86" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A86" s="62"/>
-      <c r="B86" s="63"/>
-      <c r="C86" s="63"/>
-      <c r="D86" s="63"/>
-      <c r="E86" s="63"/>
-      <c r="F86" s="63"/>
-      <c r="G86" s="63"/>
-      <c r="H86" s="63"/>
-      <c r="I86" s="63"/>
-      <c r="J86" s="63"/>
-      <c r="K86" s="63"/>
-      <c r="L86" s="63"/>
-      <c r="M86" s="63"/>
-      <c r="N86" s="63"/>
-      <c r="O86" s="63"/>
-      <c r="P86" s="63"/>
-      <c r="Q86" s="63"/>
-      <c r="R86" s="63"/>
-      <c r="S86" s="63"/>
-      <c r="T86" s="63"/>
-      <c r="U86" s="63"/>
-      <c r="V86" s="63"/>
-      <c r="W86" s="63"/>
-      <c r="X86" s="63"/>
-      <c r="Y86" s="63"/>
-      <c r="Z86" s="63"/>
-      <c r="AA86" s="63"/>
-      <c r="AB86" s="63"/>
+      <c r="A86" s="60"/>
+      <c r="B86" s="61"/>
+      <c r="C86" s="61"/>
+      <c r="D86" s="61"/>
+      <c r="E86" s="61"/>
+      <c r="F86" s="61"/>
+      <c r="G86" s="61"/>
+      <c r="H86" s="61"/>
+      <c r="I86" s="61"/>
+      <c r="J86" s="61"/>
+      <c r="K86" s="61"/>
+      <c r="L86" s="61"/>
+      <c r="M86" s="61"/>
+      <c r="N86" s="61"/>
+      <c r="O86" s="61"/>
+      <c r="P86" s="61"/>
+      <c r="Q86" s="61"/>
+      <c r="R86" s="61"/>
+      <c r="S86" s="61"/>
+      <c r="T86" s="61"/>
+      <c r="U86" s="61"/>
+      <c r="V86" s="61"/>
+      <c r="W86" s="61"/>
+      <c r="X86" s="61"/>
+      <c r="Y86" s="61"/>
+      <c r="Z86" s="61"/>
+      <c r="AA86" s="61"/>
+      <c r="AB86" s="61"/>
     </row>
     <row r="87" spans="1:28" x14ac:dyDescent="0.2">
       <c r="V87"/>
     </row>
     <row r="88" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A88" s="62"/>
-      <c r="B88" s="63"/>
-      <c r="C88" s="63"/>
-      <c r="D88" s="63"/>
-      <c r="E88" s="63"/>
-      <c r="F88" s="63"/>
-      <c r="G88" s="63"/>
-      <c r="H88" s="63"/>
-      <c r="I88" s="63"/>
-      <c r="J88" s="63"/>
-      <c r="K88" s="63"/>
-      <c r="L88" s="63"/>
-      <c r="M88" s="63"/>
-      <c r="N88" s="63"/>
-      <c r="O88" s="63"/>
-      <c r="P88" s="63"/>
-      <c r="Q88" s="63"/>
-      <c r="R88" s="63"/>
-      <c r="S88" s="63"/>
-      <c r="T88" s="63"/>
-      <c r="U88" s="63"/>
-      <c r="V88" s="63"/>
-      <c r="W88" s="63"/>
-      <c r="X88" s="63"/>
-      <c r="Y88" s="63"/>
-      <c r="Z88" s="63"/>
-      <c r="AA88" s="63"/>
-      <c r="AB88" s="63"/>
+      <c r="A88" s="60"/>
+      <c r="B88" s="61"/>
+      <c r="C88" s="61"/>
+      <c r="D88" s="61"/>
+      <c r="E88" s="61"/>
+      <c r="F88" s="61"/>
+      <c r="G88" s="61"/>
+      <c r="H88" s="61"/>
+      <c r="I88" s="61"/>
+      <c r="J88" s="61"/>
+      <c r="K88" s="61"/>
+      <c r="L88" s="61"/>
+      <c r="M88" s="61"/>
+      <c r="N88" s="61"/>
+      <c r="O88" s="61"/>
+      <c r="P88" s="61"/>
+      <c r="Q88" s="61"/>
+      <c r="R88" s="61"/>
+      <c r="S88" s="61"/>
+      <c r="T88" s="61"/>
+      <c r="U88" s="61"/>
+      <c r="V88" s="61"/>
+      <c r="W88" s="61"/>
+      <c r="X88" s="61"/>
+      <c r="Y88" s="61"/>
+      <c r="Z88" s="61"/>
+      <c r="AA88" s="61"/>
+      <c r="AB88" s="61"/>
     </row>
     <row r="89" spans="1:28" x14ac:dyDescent="0.2">
       <c r="V89"/>
     </row>
     <row r="90" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A90" s="62"/>
-      <c r="B90" s="63"/>
-      <c r="C90" s="63"/>
-      <c r="D90" s="63"/>
-      <c r="E90" s="63"/>
-      <c r="F90" s="63"/>
-      <c r="G90" s="63"/>
-      <c r="H90" s="63"/>
-      <c r="I90" s="63"/>
-      <c r="J90" s="63"/>
-      <c r="K90" s="63"/>
-      <c r="L90" s="63"/>
-      <c r="M90" s="63"/>
-      <c r="N90" s="63"/>
-      <c r="O90" s="63"/>
-      <c r="P90" s="63"/>
-      <c r="Q90" s="63"/>
-      <c r="R90" s="63"/>
-      <c r="S90" s="63"/>
-      <c r="T90" s="63"/>
-      <c r="U90" s="63"/>
-      <c r="V90" s="63"/>
-      <c r="W90" s="63"/>
-      <c r="X90" s="63"/>
-      <c r="Y90" s="63"/>
-      <c r="Z90" s="63"/>
-      <c r="AA90" s="63"/>
-      <c r="AB90" s="63"/>
+      <c r="A90" s="60"/>
+      <c r="B90" s="61"/>
+      <c r="C90" s="61"/>
+      <c r="D90" s="61"/>
+      <c r="E90" s="61"/>
+      <c r="F90" s="61"/>
+      <c r="G90" s="61"/>
+      <c r="H90" s="61"/>
+      <c r="I90" s="61"/>
+      <c r="J90" s="61"/>
+      <c r="K90" s="61"/>
+      <c r="L90" s="61"/>
+      <c r="M90" s="61"/>
+      <c r="N90" s="61"/>
+      <c r="O90" s="61"/>
+      <c r="P90" s="61"/>
+      <c r="Q90" s="61"/>
+      <c r="R90" s="61"/>
+      <c r="S90" s="61"/>
+      <c r="T90" s="61"/>
+      <c r="U90" s="61"/>
+      <c r="V90" s="61"/>
+      <c r="W90" s="61"/>
+      <c r="X90" s="61"/>
+      <c r="Y90" s="61"/>
+      <c r="Z90" s="61"/>
+      <c r="AA90" s="61"/>
+      <c r="AB90" s="61"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17806,17 +18041,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF78"/>
+  <dimension ref="A1:AF87"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V62" sqref="V62:V63"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AC61" sqref="AC61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.875" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="21" width="7.25" style="18" customWidth="1"/>
+    <col min="2" max="4" width="7.25" style="18" customWidth="1"/>
+    <col min="5" max="5" width="9" style="18" customWidth="1"/>
+    <col min="6" max="21" width="7.25" style="18" customWidth="1"/>
     <col min="22" max="22" width="7.25" style="37" customWidth="1"/>
     <col min="23" max="26" width="7.25" style="18" customWidth="1"/>
     <col min="27" max="28" width="8.625" style="18" bestFit="1" customWidth="1"/>
@@ -17995,14 +18232,14 @@
         <v>8543707</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20"/>
       <c r="B3" s="45">
-        <f>B48/B2</f>
-        <v>2.5096436748859956E-5</v>
+        <f>B62/B2</f>
+        <v>4.5764090542038748E-5</v>
       </c>
       <c r="C3" s="45">
-        <f t="shared" ref="C3:AB3" si="0">C48/C2</f>
+        <f t="shared" ref="C3:AB3" si="0">C62/C2</f>
         <v>0</v>
       </c>
       <c r="D3" s="45">
@@ -18011,47 +18248,47 @@
       </c>
       <c r="E3" s="45">
         <f t="shared" si="0"/>
-        <v>3.6715791751894004E-5</v>
-      </c>
-      <c r="F3" s="47">
+        <v>7.6330198642095431E-5</v>
+      </c>
+      <c r="F3" s="45">
         <f t="shared" si="0"/>
-        <v>7.2883261838324107E-5</v>
-      </c>
-      <c r="G3" s="47">
+        <v>9.0236419418877458E-5</v>
+      </c>
+      <c r="G3" s="68">
         <f t="shared" si="0"/>
-        <v>1.6943409013893597E-4</v>
-      </c>
-      <c r="H3" s="47">
+        <v>2.310464865530945E-4</v>
+      </c>
+      <c r="H3" s="68">
         <f t="shared" si="0"/>
-        <v>1.4433002629316567E-4</v>
-      </c>
-      <c r="I3" s="47">
+        <v>2.3845830431044762E-4</v>
+      </c>
+      <c r="I3" s="66">
         <f t="shared" si="0"/>
-        <v>2.9831024265235847E-4</v>
+        <v>4.444622407303596E-4</v>
       </c>
       <c r="J3" s="45">
         <f t="shared" si="0"/>
-        <v>4.9501274657822438E-5</v>
-      </c>
-      <c r="K3" s="47">
+        <v>1.4850382397346731E-4</v>
+      </c>
+      <c r="K3" s="68">
         <f t="shared" si="0"/>
-        <v>1.7642996486523272E-4</v>
+        <v>2.1675681397728591E-4</v>
       </c>
       <c r="L3" s="45">
         <f t="shared" si="0"/>
-        <v>1.3620452471431101E-5</v>
+        <v>8.172271482858661E-5</v>
       </c>
       <c r="M3" s="45">
         <f t="shared" si="0"/>
-        <v>2.1974963191936654E-5</v>
+        <v>3.6624938653227756E-5</v>
       </c>
       <c r="N3" s="45">
         <f t="shared" si="0"/>
-        <v>2.2618037885213457E-4</v>
+        <v>0</v>
       </c>
       <c r="O3" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.9407491381903152E-5</v>
       </c>
       <c r="P3" s="45">
         <f t="shared" si="0"/>
@@ -18059,51 +18296,51 @@
       </c>
       <c r="Q3" s="45">
         <f t="shared" si="0"/>
-        <v>3.1514860241443221E-5</v>
+        <v>6.1060041717796238E-5</v>
       </c>
       <c r="R3" s="45">
         <f t="shared" si="0"/>
-        <v>1.2196460587137613E-5</v>
+        <v>3.6589381761412838E-5</v>
       </c>
       <c r="S3" s="45">
         <f t="shared" si="0"/>
-        <v>1.8302012489293323E-5</v>
-      </c>
-      <c r="T3" s="47">
+        <v>4.3924829974303974E-5</v>
+      </c>
+      <c r="T3" s="45">
         <f t="shared" si="0"/>
-        <v>5.6545094713033641E-5</v>
+        <v>1.0052461282317093E-4</v>
       </c>
       <c r="U3" s="45">
         <f t="shared" si="0"/>
-        <v>2.8936022454353425E-5</v>
-      </c>
-      <c r="V3" s="46">
+        <v>5.0638039295118495E-5</v>
+      </c>
+      <c r="V3" s="67">
         <f t="shared" si="0"/>
-        <v>6.1979436411645347E-4</v>
-      </c>
-      <c r="W3" s="47">
+        <v>8.4337315299864437E-4</v>
+      </c>
+      <c r="W3" s="45">
         <f t="shared" si="0"/>
-        <v>1.0979057447918096E-4</v>
-      </c>
-      <c r="X3" s="47">
+        <v>1.3723821809897619E-4</v>
+      </c>
+      <c r="X3" s="66">
         <f t="shared" si="0"/>
-        <v>2.5527282282939893E-4</v>
-      </c>
-      <c r="Y3" s="47">
+        <v>4.1419266841436788E-4</v>
+      </c>
+      <c r="Y3" s="66">
         <f t="shared" si="0"/>
-        <v>2.238664941634807E-4</v>
+        <v>3.4888284804698291E-4</v>
       </c>
       <c r="Z3" s="45">
         <f t="shared" si="0"/>
-        <v>2.3652404266893731E-5</v>
+        <v>6.3073078045049939E-5</v>
       </c>
       <c r="AA3" s="45">
         <f t="shared" si="0"/>
-        <v>4.3393417875984239E-5</v>
-      </c>
-      <c r="AB3" s="47">
+        <v>7.4294791211912411E-5</v>
+      </c>
+      <c r="AB3" s="45">
         <f t="shared" si="0"/>
-        <v>1.1774748361571857E-4</v>
+        <v>1.8376098337641962E-4</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -20378,7 +20615,7 @@
       <c r="U46" s="41">
         <v>8</v>
       </c>
-      <c r="V46" s="61">
+      <c r="V46" s="59">
         <v>198</v>
       </c>
       <c r="W46" s="41">
@@ -20466,7 +20703,7 @@
       <c r="U47" s="43">
         <v>8</v>
       </c>
-      <c r="V47" s="58">
+      <c r="V47" s="56">
         <v>211</v>
       </c>
       <c r="W47" s="43">
@@ -20552,7 +20789,7 @@
       <c r="U48" s="41">
         <v>8</v>
       </c>
-      <c r="V48" s="58">
+      <c r="V48" s="56">
         <v>219</v>
       </c>
       <c r="W48" s="41">
@@ -20633,7 +20870,7 @@
       <c r="U49" s="43">
         <v>8</v>
       </c>
-      <c r="V49" s="58">
+      <c r="V49" s="56">
         <v>227</v>
       </c>
       <c r="W49" s="43">
@@ -20716,7 +20953,7 @@
       <c r="U50" s="41">
         <v>8</v>
       </c>
-      <c r="V50" s="58">
+      <c r="V50" s="56">
         <v>229</v>
       </c>
       <c r="W50" s="41">
@@ -20761,7 +20998,7 @@
         <v>54</v>
       </c>
       <c r="I51" s="43">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="J51" s="43">
         <v>2</v>
@@ -20776,7 +21013,7 @@
         <v>10</v>
       </c>
       <c r="N51" s="43">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O51" s="43">
         <v>1</v>
@@ -20797,7 +21034,7 @@
       <c r="U51" s="43">
         <v>8</v>
       </c>
-      <c r="V51" s="58">
+      <c r="V51" s="64">
         <v>244</v>
       </c>
       <c r="W51" s="43">
@@ -20816,7 +21053,7 @@
         <v>79</v>
       </c>
       <c r="AB51" s="43">
-        <v>1175</v>
+        <v>1178</v>
       </c>
       <c r="AC51" s="41"/>
     </row>
@@ -20844,7 +21081,7 @@
         <v>55</v>
       </c>
       <c r="I52" s="41">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J52" s="41">
         <v>2</v>
@@ -20859,7 +21096,7 @@
         <v>10</v>
       </c>
       <c r="N52" s="41">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="O52" s="41">
         <v>1</v>
@@ -20880,7 +21117,7 @@
       <c r="U52" s="41">
         <v>8</v>
       </c>
-      <c r="V52" s="58">
+      <c r="V52" s="64">
         <v>251</v>
       </c>
       <c r="W52" s="41">
@@ -20899,7 +21136,7 @@
         <v>83</v>
       </c>
       <c r="AB52" s="41">
-        <v>1204</v>
+        <v>1208</v>
       </c>
       <c r="AC52" s="43"/>
     </row>
@@ -20927,7 +21164,7 @@
         <v>57</v>
       </c>
       <c r="I53" s="43">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="J53" s="43">
         <v>2</v>
@@ -20942,7 +21179,7 @@
         <v>11</v>
       </c>
       <c r="N53" s="43">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="O53" s="43">
         <v>1</v>
@@ -20965,7 +21202,7 @@
       <c r="U53" s="43">
         <v>10</v>
       </c>
-      <c r="V53" s="58">
+      <c r="V53" s="64">
         <v>258</v>
       </c>
       <c r="W53" s="43">
@@ -20984,7 +21221,7 @@
         <v>87</v>
       </c>
       <c r="AB53" s="43">
-        <v>1241</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="54" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -21011,7 +21248,7 @@
         <v>63</v>
       </c>
       <c r="I54" s="41">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="J54" s="41">
         <v>2</v>
@@ -21026,7 +21263,7 @@
         <v>12</v>
       </c>
       <c r="N54" s="41">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O54" s="41">
         <v>2</v>
@@ -21049,7 +21286,7 @@
       <c r="U54" s="41">
         <v>11</v>
       </c>
-      <c r="V54" s="58">
+      <c r="V54" s="64">
         <v>263</v>
       </c>
       <c r="W54" s="41">
@@ -21068,11 +21305,11 @@
         <v>91</v>
       </c>
       <c r="AB54" s="41">
-        <v>1295</v>
+        <v>1299</v>
       </c>
       <c r="AC54" s="10">
         <f>AB54-AB46</f>
-        <v>429</v>
+        <v>433</v>
       </c>
     </row>
     <row r="55" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -21099,7 +21336,7 @@
         <v>65</v>
       </c>
       <c r="I55" s="43">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="J55" s="43">
         <v>3</v>
@@ -21114,7 +21351,7 @@
         <v>13</v>
       </c>
       <c r="N55" s="43">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O55" s="43">
         <v>2</v>
@@ -21137,7 +21374,7 @@
       <c r="U55" s="43">
         <v>11</v>
       </c>
-      <c r="V55" s="58">
+      <c r="V55" s="64">
         <v>269</v>
       </c>
       <c r="W55" s="43">
@@ -21156,7 +21393,7 @@
         <v>95</v>
       </c>
       <c r="AB55" s="43">
-        <v>1336</v>
+        <v>1340</v>
       </c>
       <c r="AC55" s="43"/>
       <c r="AD55" s="43"/>
@@ -21186,7 +21423,7 @@
         <v>67</v>
       </c>
       <c r="I56" s="41">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="J56" s="41">
         <v>3</v>
@@ -21201,7 +21438,7 @@
         <v>14</v>
       </c>
       <c r="N56" s="41">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O56" s="41">
         <v>3</v>
@@ -21224,7 +21461,7 @@
       <c r="U56" s="41">
         <v>12</v>
       </c>
-      <c r="V56" s="58">
+      <c r="V56" s="64">
         <v>270</v>
       </c>
       <c r="W56" s="41">
@@ -21243,7 +21480,7 @@
         <v>99</v>
       </c>
       <c r="AB56" s="41">
-        <v>1381</v>
+        <v>1385</v>
       </c>
       <c r="AC56" s="41"/>
       <c r="AD56" s="41"/>
@@ -21270,7 +21507,7 @@
         <v>69</v>
       </c>
       <c r="I57" s="43">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="J57" s="43">
         <v>3</v>
@@ -21285,7 +21522,7 @@
         <v>15</v>
       </c>
       <c r="N57" s="43">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O57" s="43">
         <v>3</v>
@@ -21306,7 +21543,7 @@
       <c r="U57" s="43">
         <v>13</v>
       </c>
-      <c r="V57" s="58">
+      <c r="V57" s="64">
         <v>277</v>
       </c>
       <c r="W57" s="43">
@@ -21325,7 +21562,7 @@
         <v>105</v>
       </c>
       <c r="AB57" s="43">
-        <v>1419</v>
+        <v>1425</v>
       </c>
       <c r="AC57" s="43"/>
       <c r="AD57" s="10"/>
@@ -21354,7 +21591,7 @@
         <v>71</v>
       </c>
       <c r="I58" s="41">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="J58" s="41">
         <v>3</v>
@@ -21369,7 +21606,7 @@
         <v>15</v>
       </c>
       <c r="N58" s="41">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O58" s="41">
         <v>3</v>
@@ -21390,7 +21627,7 @@
       <c r="U58" s="41">
         <v>13</v>
       </c>
-      <c r="V58" s="58">
+      <c r="V58" s="64">
         <v>281</v>
       </c>
       <c r="W58" s="41">
@@ -21409,7 +21646,7 @@
         <v>105</v>
       </c>
       <c r="AB58" s="41">
-        <v>1441</v>
+        <v>1447</v>
       </c>
       <c r="AC58" s="41"/>
       <c r="AD58" s="41"/>
@@ -21438,7 +21675,7 @@
         <v>72</v>
       </c>
       <c r="I59" s="43">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="J59" s="43">
         <v>5</v>
@@ -21453,7 +21690,7 @@
         <v>15</v>
       </c>
       <c r="N59" s="43">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O59" s="43">
         <v>3</v>
@@ -21476,7 +21713,7 @@
       <c r="U59" s="43">
         <v>13</v>
       </c>
-      <c r="V59" s="58">
+      <c r="V59" s="64">
         <v>288</v>
       </c>
       <c r="W59" s="43">
@@ -21495,7 +21732,7 @@
         <v>107</v>
       </c>
       <c r="AB59" s="43">
-        <v>1480</v>
+        <v>1487</v>
       </c>
       <c r="AC59" s="43"/>
       <c r="AD59" s="10"/>
@@ -21525,7 +21762,7 @@
         <v>74</v>
       </c>
       <c r="I60" s="41">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="J60" s="41">
         <v>6</v>
@@ -21540,7 +21777,7 @@
         <v>15</v>
       </c>
       <c r="N60" s="41">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="O60" s="41">
         <v>3</v>
@@ -21563,7 +21800,7 @@
       <c r="U60" s="41">
         <v>13</v>
       </c>
-      <c r="V60" s="58">
+      <c r="V60" s="64">
         <v>291</v>
       </c>
       <c r="W60" s="41">
@@ -21582,7 +21819,7 @@
         <v>109</v>
       </c>
       <c r="AB60" s="41">
-        <v>1515</v>
+        <v>1523</v>
       </c>
       <c r="AC60" s="41"/>
       <c r="AD60" s="10"/>
@@ -21612,7 +21849,7 @@
         <v>76</v>
       </c>
       <c r="I61" s="43">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="J61" s="43">
         <v>6</v>
@@ -21627,7 +21864,7 @@
         <v>15</v>
       </c>
       <c r="N61" s="43">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="O61" s="43">
         <v>3</v>
@@ -21650,7 +21887,7 @@
       <c r="U61" s="43">
         <v>14</v>
       </c>
-      <c r="V61" s="58">
+      <c r="V61" s="64">
         <v>295</v>
       </c>
       <c r="W61" s="43">
@@ -21669,11 +21906,11 @@
         <v>110</v>
       </c>
       <c r="AB61" s="43">
-        <v>1538</v>
+        <v>1547</v>
       </c>
       <c r="AC61" s="10">
         <f>AB61-AB54</f>
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="AD61" s="43"/>
     </row>
@@ -21715,9 +21952,7 @@
       <c r="M62" s="41">
         <v>15</v>
       </c>
-      <c r="N62" s="41">
-        <v>61</v>
-      </c>
+      <c r="N62" s="41"/>
       <c r="O62" s="41">
         <v>3</v>
       </c>
@@ -21739,7 +21974,7 @@
       <c r="U62" s="41">
         <v>14</v>
       </c>
-      <c r="V62" s="58">
+      <c r="V62" s="64">
         <v>298</v>
       </c>
       <c r="W62" s="41">
@@ -21758,7 +21993,7 @@
         <v>113</v>
       </c>
       <c r="AB62" s="41">
-        <v>1567</v>
+        <v>1570</v>
       </c>
       <c r="AC62" s="41"/>
       <c r="AD62" s="10"/>
@@ -21798,10 +22033,10 @@
       <c r="M63" s="43">
         <v>16</v>
       </c>
-      <c r="N63" s="43">
-        <v>62</v>
-      </c>
-      <c r="O63" s="43"/>
+      <c r="N63" s="43"/>
+      <c r="O63" s="43">
+        <v>3</v>
+      </c>
       <c r="P63" s="43">
         <v>0</v>
       </c>
@@ -21809,7 +22044,7 @@
         <v>31</v>
       </c>
       <c r="R63" s="43">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S63" s="43">
         <v>14</v>
@@ -21820,7 +22055,7 @@
       <c r="U63" s="43">
         <v>14</v>
       </c>
-      <c r="V63" s="58">
+      <c r="V63" s="64">
         <v>299</v>
       </c>
       <c r="W63" s="43">
@@ -21834,483 +22069,541 @@
         <v>8</v>
       </c>
       <c r="AA63" s="43">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AB63" s="43">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="AC63" s="43"/>
       <c r="AD63" s="43"/>
     </row>
     <row r="64" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="42"/>
-      <c r="C64" s="43"/>
-      <c r="D64" s="43"/>
-      <c r="E64" s="43"/>
-      <c r="F64" s="43"/>
-      <c r="G64" s="43"/>
-      <c r="H64" s="43"/>
-      <c r="I64" s="43"/>
-      <c r="J64" s="43"/>
-      <c r="K64" s="43"/>
-      <c r="L64" s="43"/>
-      <c r="M64" s="43"/>
-      <c r="N64" s="43"/>
-      <c r="O64" s="43"/>
-      <c r="P64" s="43"/>
-      <c r="Q64" s="43"/>
-      <c r="R64" s="43"/>
-      <c r="S64" s="43"/>
-      <c r="T64" s="43"/>
-      <c r="U64" s="43"/>
-      <c r="V64" s="43"/>
-      <c r="W64" s="43"/>
-      <c r="X64" s="43"/>
-      <c r="Y64" s="43"/>
-      <c r="Z64" s="43"/>
-      <c r="AA64" s="43"/>
-      <c r="AB64" s="43"/>
+      <c r="A64" s="40">
+        <v>43946</v>
+      </c>
+      <c r="B64" s="41"/>
+      <c r="C64" s="41"/>
+      <c r="D64" s="41"/>
+      <c r="E64" s="41">
+        <v>83</v>
+      </c>
+      <c r="F64" s="41">
+        <v>30</v>
+      </c>
+      <c r="G64" s="41"/>
+      <c r="H64" s="41">
+        <v>76</v>
+      </c>
+      <c r="I64" s="41"/>
+      <c r="J64" s="41"/>
+      <c r="K64" s="41"/>
+      <c r="L64" s="41"/>
+      <c r="M64" s="41">
+        <v>16</v>
+      </c>
+      <c r="N64" s="41"/>
+      <c r="O64" s="41"/>
+      <c r="P64" s="41"/>
+      <c r="Q64" s="41">
+        <v>31</v>
+      </c>
+      <c r="R64" s="41"/>
+      <c r="S64" s="41">
+        <v>14</v>
+      </c>
+      <c r="T64" s="41">
+        <v>17</v>
+      </c>
+      <c r="U64" s="41">
+        <v>14</v>
+      </c>
+      <c r="V64" s="64">
+        <v>304</v>
+      </c>
+      <c r="W64" s="41">
+        <v>5</v>
+      </c>
+      <c r="X64" s="41"/>
+      <c r="Y64" s="41">
+        <v>128</v>
+      </c>
+      <c r="Z64" s="41">
+        <v>8</v>
+      </c>
+      <c r="AA64" s="41">
+        <v>114</v>
+      </c>
+      <c r="AB64" s="41">
+        <v>1599</v>
+      </c>
       <c r="AC64" s="43"/>
       <c r="AD64" s="10"/>
       <c r="AE64" s="41"/>
     </row>
-    <row r="65" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="44"/>
-      <c r="B65" s="40"/>
-      <c r="C65" s="41"/>
-      <c r="D65" s="41"/>
-      <c r="E65" s="41"/>
-      <c r="F65" s="41"/>
-      <c r="G65" s="41"/>
-      <c r="H65" s="41"/>
-      <c r="I65" s="41"/>
-      <c r="J65" s="41"/>
-      <c r="K65" s="41"/>
-      <c r="L65" s="41"/>
-      <c r="M65" s="41"/>
-      <c r="N65" s="41"/>
-      <c r="O65" s="41"/>
-      <c r="P65" s="41"/>
-      <c r="Q65" s="41"/>
-      <c r="R65" s="41"/>
-      <c r="S65" s="41"/>
-      <c r="T65" s="41"/>
-      <c r="U65" s="41"/>
-      <c r="V65" s="41"/>
-      <c r="W65" s="41"/>
-      <c r="X65" s="41"/>
-      <c r="Y65" s="41"/>
-      <c r="Z65" s="41"/>
-      <c r="AA65" s="41"/>
-      <c r="AB65" s="41"/>
-      <c r="AC65" s="41"/>
-      <c r="AD65" s="43"/>
-    </row>
-    <row r="66" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="42"/>
+      <c r="C65" s="43"/>
+      <c r="D65" s="43"/>
+      <c r="E65" s="43"/>
+      <c r="F65" s="43"/>
+      <c r="G65" s="43"/>
+      <c r="H65" s="43"/>
+      <c r="I65" s="43"/>
+      <c r="J65" s="43"/>
+      <c r="K65" s="43"/>
+      <c r="L65" s="43"/>
+      <c r="M65" s="43"/>
+      <c r="N65" s="43"/>
+      <c r="O65" s="43"/>
+      <c r="P65" s="43"/>
+      <c r="Q65" s="43"/>
+      <c r="R65" s="43"/>
+      <c r="S65" s="43"/>
+      <c r="T65" s="43"/>
+      <c r="U65" s="43"/>
+      <c r="V65" s="64"/>
+      <c r="W65" s="43"/>
+      <c r="X65" s="43"/>
+      <c r="Y65" s="43"/>
+      <c r="Z65" s="43"/>
+      <c r="AA65" s="43"/>
+      <c r="AB65" s="43"/>
+      <c r="AC65" s="43"/>
+      <c r="AD65" s="10"/>
+      <c r="AE65" s="43"/>
+    </row>
+    <row r="66" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="44"/>
-      <c r="B66" s="42"/>
-      <c r="C66" s="43"/>
-      <c r="D66" s="43"/>
-      <c r="E66" s="43"/>
-      <c r="F66" s="43"/>
-      <c r="G66" s="43"/>
-      <c r="H66" s="43"/>
-      <c r="I66" s="43"/>
-      <c r="J66" s="43"/>
-      <c r="K66" s="43"/>
-      <c r="L66" s="43"/>
-      <c r="M66" s="43"/>
-      <c r="N66" s="43"/>
-      <c r="O66" s="43"/>
-      <c r="P66" s="43"/>
-      <c r="Q66" s="43"/>
-      <c r="R66" s="43"/>
-      <c r="S66" s="43"/>
-      <c r="T66" s="43"/>
-      <c r="U66" s="43"/>
-      <c r="V66" s="43"/>
-      <c r="W66" s="43"/>
-      <c r="X66" s="43"/>
-      <c r="Y66" s="43"/>
-      <c r="Z66" s="43"/>
-      <c r="AA66" s="43"/>
-      <c r="AB66" s="43"/>
-      <c r="AC66" s="43"/>
+      <c r="B66" s="40"/>
+      <c r="C66" s="41"/>
+      <c r="D66" s="41"/>
+      <c r="E66" s="41"/>
+      <c r="F66" s="41"/>
+      <c r="G66" s="41"/>
+      <c r="H66" s="41"/>
+      <c r="I66" s="41"/>
+      <c r="J66" s="41"/>
+      <c r="K66" s="41"/>
+      <c r="L66" s="41"/>
+      <c r="M66" s="41"/>
+      <c r="N66" s="41"/>
+      <c r="O66" s="41"/>
+      <c r="P66" s="41"/>
+      <c r="Q66" s="41"/>
+      <c r="R66" s="41"/>
+      <c r="S66" s="41"/>
+      <c r="T66" s="41"/>
+      <c r="U66" s="41"/>
+      <c r="V66" s="64"/>
+      <c r="W66" s="41"/>
+      <c r="X66" s="41"/>
+      <c r="Y66" s="41"/>
+      <c r="Z66" s="41"/>
+      <c r="AA66" s="41"/>
+      <c r="AB66" s="41"/>
+      <c r="AC66" s="41"/>
       <c r="AD66" s="41"/>
     </row>
-    <row r="67" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="44"/>
-      <c r="B67" s="40"/>
-      <c r="C67" s="41"/>
-      <c r="D67" s="41"/>
-      <c r="E67" s="41"/>
-      <c r="F67" s="41"/>
-      <c r="G67" s="41"/>
-      <c r="H67" s="41"/>
-      <c r="I67" s="41"/>
-      <c r="J67" s="41"/>
-      <c r="K67" s="41"/>
-      <c r="L67" s="41"/>
-      <c r="M67" s="41"/>
-      <c r="N67" s="41"/>
-      <c r="O67" s="41"/>
-      <c r="P67" s="41"/>
-      <c r="Q67" s="41"/>
-      <c r="R67" s="41"/>
-      <c r="S67" s="41"/>
-      <c r="T67" s="41"/>
-      <c r="U67" s="41"/>
-      <c r="V67" s="41"/>
-      <c r="W67" s="41"/>
-      <c r="X67" s="41"/>
-      <c r="Y67" s="41"/>
-      <c r="Z67" s="41"/>
-      <c r="AA67" s="41"/>
-      <c r="AB67" s="41"/>
-      <c r="AC67" s="41"/>
+      <c r="B67" s="42"/>
+      <c r="C67" s="43"/>
+      <c r="D67" s="43"/>
+      <c r="E67" s="43"/>
+      <c r="F67" s="43"/>
+      <c r="G67" s="43"/>
+      <c r="H67" s="43"/>
+      <c r="I67" s="43"/>
+      <c r="J67" s="43"/>
+      <c r="K67" s="43"/>
+      <c r="L67" s="43"/>
+      <c r="M67" s="43"/>
+      <c r="N67" s="43"/>
+      <c r="O67" s="43"/>
+      <c r="P67" s="43"/>
+      <c r="Q67" s="43"/>
+      <c r="R67" s="43"/>
+      <c r="S67" s="43"/>
+      <c r="T67" s="43"/>
+      <c r="U67" s="43"/>
+      <c r="V67" s="64"/>
+      <c r="W67" s="43"/>
+      <c r="X67" s="43"/>
+      <c r="Y67" s="43"/>
+      <c r="Z67" s="43"/>
+      <c r="AA67" s="43"/>
+      <c r="AB67" s="43"/>
+      <c r="AC67" s="43"/>
       <c r="AD67" s="43"/>
     </row>
-    <row r="68" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="44"/>
-      <c r="B68" s="42"/>
-      <c r="C68" s="43"/>
-      <c r="D68" s="43"/>
-      <c r="E68" s="43"/>
-      <c r="F68" s="43"/>
-      <c r="G68" s="43"/>
-      <c r="H68" s="43"/>
-      <c r="I68" s="43"/>
-      <c r="J68" s="43"/>
-      <c r="K68" s="43"/>
-      <c r="L68" s="43"/>
-      <c r="M68" s="43"/>
-      <c r="N68" s="43"/>
-      <c r="O68" s="43"/>
-      <c r="P68" s="43"/>
-      <c r="Q68" s="43"/>
-      <c r="R68" s="43"/>
-      <c r="S68" s="43"/>
-      <c r="T68" s="43"/>
-      <c r="U68" s="43"/>
-      <c r="V68" s="43"/>
-      <c r="W68" s="43"/>
-      <c r="X68" s="43"/>
-      <c r="Y68" s="43"/>
-      <c r="Z68" s="43"/>
-      <c r="AA68" s="43"/>
-      <c r="AB68" s="43"/>
-      <c r="AC68" s="43"/>
+      <c r="B68" s="40"/>
+      <c r="C68" s="41"/>
+      <c r="D68" s="41"/>
+      <c r="E68" s="41"/>
+      <c r="F68" s="41"/>
+      <c r="G68" s="41"/>
+      <c r="H68" s="41"/>
+      <c r="I68" s="41"/>
+      <c r="J68" s="41"/>
+      <c r="K68" s="41"/>
+      <c r="L68" s="41"/>
+      <c r="M68" s="41"/>
+      <c r="N68" s="41"/>
+      <c r="O68" s="41"/>
+      <c r="P68" s="41"/>
+      <c r="Q68" s="41"/>
+      <c r="R68" s="41"/>
+      <c r="S68" s="41"/>
+      <c r="T68" s="41"/>
+      <c r="U68" s="41"/>
+      <c r="V68" s="64"/>
+      <c r="W68" s="41"/>
+      <c r="X68" s="41"/>
+      <c r="Y68" s="41"/>
+      <c r="Z68" s="41"/>
+      <c r="AA68" s="41"/>
+      <c r="AB68" s="41"/>
+      <c r="AC68" s="41"/>
       <c r="AD68" s="41"/>
     </row>
-    <row r="69" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="44"/>
-      <c r="B69" s="40"/>
-      <c r="C69" s="41"/>
-      <c r="D69" s="41"/>
-      <c r="E69" s="41"/>
-      <c r="F69" s="41"/>
-      <c r="G69" s="41"/>
-      <c r="H69" s="41"/>
-      <c r="I69" s="41"/>
-      <c r="J69" s="41"/>
-      <c r="K69" s="41"/>
-      <c r="L69" s="41"/>
-      <c r="M69" s="41"/>
-      <c r="N69" s="41"/>
-      <c r="O69" s="41"/>
-      <c r="P69" s="41"/>
-      <c r="Q69" s="41"/>
-      <c r="R69" s="41"/>
-      <c r="S69" s="41"/>
-      <c r="T69" s="41"/>
-      <c r="U69" s="41"/>
-      <c r="V69" s="41"/>
-      <c r="W69" s="41"/>
-      <c r="X69" s="41"/>
-      <c r="Y69" s="41"/>
-      <c r="Z69" s="41"/>
-      <c r="AA69" s="41"/>
-      <c r="AB69" s="41"/>
-      <c r="AC69" s="41"/>
-    </row>
-    <row r="70" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="42"/>
+      <c r="C69" s="43"/>
+      <c r="D69" s="43"/>
+      <c r="E69" s="43"/>
+      <c r="F69" s="43"/>
+      <c r="G69" s="43"/>
+      <c r="H69" s="43"/>
+      <c r="I69" s="43"/>
+      <c r="J69" s="43"/>
+      <c r="K69" s="43"/>
+      <c r="L69" s="43"/>
+      <c r="M69" s="43"/>
+      <c r="N69" s="43"/>
+      <c r="O69" s="43"/>
+      <c r="P69" s="43"/>
+      <c r="Q69" s="43"/>
+      <c r="R69" s="43"/>
+      <c r="S69" s="43"/>
+      <c r="T69" s="43"/>
+      <c r="U69" s="43"/>
+      <c r="V69" s="64"/>
+      <c r="W69" s="43"/>
+      <c r="X69" s="43"/>
+      <c r="Y69" s="43"/>
+      <c r="Z69" s="43"/>
+      <c r="AA69" s="43"/>
+      <c r="AB69" s="43"/>
+      <c r="AC69" s="43"/>
+    </row>
+    <row r="70" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="44"/>
-      <c r="B70" s="42"/>
-      <c r="C70" s="43"/>
-      <c r="D70" s="43"/>
-      <c r="E70" s="43"/>
-      <c r="F70" s="43"/>
-      <c r="G70" s="43"/>
-      <c r="H70" s="43"/>
-      <c r="I70" s="43"/>
-      <c r="J70" s="43"/>
-      <c r="K70" s="43"/>
-      <c r="L70" s="43"/>
-      <c r="M70" s="43"/>
-      <c r="N70" s="43"/>
-      <c r="O70" s="43"/>
-      <c r="P70" s="43"/>
-      <c r="Q70" s="43"/>
-      <c r="R70" s="43"/>
-      <c r="S70" s="43"/>
-      <c r="T70" s="43"/>
-      <c r="U70" s="43"/>
-      <c r="V70" s="43"/>
-      <c r="W70" s="43"/>
-      <c r="X70" s="43"/>
-      <c r="Y70" s="43"/>
-      <c r="Z70" s="43"/>
-      <c r="AA70" s="43"/>
-      <c r="AB70" s="43"/>
-      <c r="AC70" s="43"/>
-    </row>
-    <row r="71" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="40"/>
+      <c r="C70" s="41"/>
+      <c r="D70" s="41"/>
+      <c r="E70" s="41"/>
+      <c r="F70" s="41"/>
+      <c r="G70" s="41"/>
+      <c r="H70" s="41"/>
+      <c r="I70" s="41"/>
+      <c r="J70" s="41"/>
+      <c r="K70" s="41"/>
+      <c r="L70" s="41"/>
+      <c r="M70" s="41"/>
+      <c r="N70" s="41"/>
+      <c r="O70" s="41"/>
+      <c r="P70" s="41"/>
+      <c r="Q70" s="41"/>
+      <c r="R70" s="41"/>
+      <c r="S70" s="41"/>
+      <c r="T70" s="41"/>
+      <c r="U70" s="41"/>
+      <c r="V70" s="64"/>
+      <c r="W70" s="41"/>
+      <c r="X70" s="41"/>
+      <c r="Y70" s="41"/>
+      <c r="Z70" s="41"/>
+      <c r="AA70" s="41"/>
+      <c r="AB70" s="41"/>
+      <c r="AC70" s="41"/>
+    </row>
+    <row r="71" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="44"/>
-      <c r="B71" s="40"/>
-      <c r="C71" s="41"/>
-      <c r="D71" s="41"/>
-      <c r="E71" s="41"/>
-      <c r="F71" s="41"/>
-      <c r="G71" s="41"/>
-      <c r="H71" s="41"/>
-      <c r="I71" s="41"/>
-      <c r="J71" s="41"/>
-      <c r="K71" s="41"/>
-      <c r="L71" s="41"/>
-      <c r="M71" s="41"/>
-      <c r="N71" s="41"/>
-      <c r="O71" s="41"/>
-      <c r="P71" s="41"/>
-      <c r="Q71" s="41"/>
-      <c r="R71" s="41"/>
-      <c r="S71" s="41"/>
-      <c r="T71" s="41"/>
-      <c r="U71" s="41"/>
-      <c r="V71" s="41"/>
-      <c r="W71" s="41"/>
-      <c r="X71" s="41"/>
-      <c r="Y71" s="41"/>
-      <c r="Z71" s="41"/>
-      <c r="AA71" s="41"/>
-      <c r="AB71" s="41"/>
-      <c r="AC71" s="41"/>
-    </row>
-    <row r="72" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="42"/>
+      <c r="C71" s="43"/>
+      <c r="D71" s="43"/>
+      <c r="E71" s="43"/>
+      <c r="F71" s="43"/>
+      <c r="G71" s="43"/>
+      <c r="H71" s="43"/>
+      <c r="I71" s="43"/>
+      <c r="J71" s="43"/>
+      <c r="K71" s="43"/>
+      <c r="L71" s="43"/>
+      <c r="M71" s="43"/>
+      <c r="N71" s="43"/>
+      <c r="O71" s="43"/>
+      <c r="P71" s="43"/>
+      <c r="Q71" s="43"/>
+      <c r="R71" s="43"/>
+      <c r="S71" s="43"/>
+      <c r="T71" s="43"/>
+      <c r="U71" s="43"/>
+      <c r="V71" s="64"/>
+      <c r="W71" s="43"/>
+      <c r="X71" s="43"/>
+      <c r="Y71" s="43"/>
+      <c r="Z71" s="43"/>
+      <c r="AA71" s="43"/>
+      <c r="AB71" s="43"/>
+      <c r="AC71" s="43"/>
+    </row>
+    <row r="72" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="44"/>
-      <c r="B72" s="42"/>
-      <c r="C72" s="43"/>
-      <c r="D72" s="43"/>
-      <c r="E72" s="43"/>
-      <c r="F72" s="43"/>
-      <c r="G72" s="43"/>
-      <c r="H72" s="43"/>
-      <c r="I72" s="43"/>
-      <c r="J72" s="43"/>
-      <c r="K72" s="43"/>
-      <c r="L72" s="43"/>
-      <c r="M72" s="43"/>
-      <c r="N72" s="43"/>
-      <c r="O72" s="43"/>
-      <c r="P72" s="43"/>
-      <c r="Q72" s="43"/>
-      <c r="R72" s="43"/>
-      <c r="S72" s="43"/>
-      <c r="T72" s="43"/>
-      <c r="U72" s="43"/>
-      <c r="V72" s="43"/>
-      <c r="W72" s="43"/>
-      <c r="X72" s="43"/>
-      <c r="Y72" s="43"/>
-      <c r="Z72" s="43"/>
-      <c r="AA72" s="43"/>
-      <c r="AB72" s="43"/>
-      <c r="AC72" s="43"/>
-    </row>
-    <row r="73" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="40"/>
+      <c r="C72" s="41"/>
+      <c r="D72" s="41"/>
+      <c r="E72" s="41"/>
+      <c r="F72" s="41"/>
+      <c r="G72" s="41"/>
+      <c r="H72" s="41"/>
+      <c r="I72" s="41"/>
+      <c r="J72" s="41"/>
+      <c r="K72" s="41"/>
+      <c r="L72" s="41"/>
+      <c r="M72" s="41"/>
+      <c r="N72" s="41"/>
+      <c r="O72" s="41"/>
+      <c r="P72" s="41"/>
+      <c r="Q72" s="41"/>
+      <c r="R72" s="41"/>
+      <c r="S72" s="41"/>
+      <c r="T72" s="41"/>
+      <c r="U72" s="41"/>
+      <c r="V72" s="64"/>
+      <c r="W72" s="41"/>
+      <c r="X72" s="41"/>
+      <c r="Y72" s="41"/>
+      <c r="Z72" s="41"/>
+      <c r="AA72" s="41"/>
+      <c r="AB72" s="41"/>
+      <c r="AC72" s="41"/>
+    </row>
+    <row r="73" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="44"/>
-      <c r="B73" s="40"/>
-      <c r="C73" s="41"/>
-      <c r="D73" s="41"/>
-      <c r="E73" s="41"/>
-      <c r="F73" s="41"/>
-      <c r="G73" s="41"/>
-      <c r="H73" s="41"/>
-      <c r="I73" s="41"/>
-      <c r="J73" s="41"/>
-      <c r="K73" s="41"/>
-      <c r="L73" s="41"/>
-      <c r="M73" s="41"/>
-      <c r="N73" s="41"/>
-      <c r="O73" s="41"/>
-      <c r="P73" s="41"/>
-      <c r="Q73" s="41"/>
-      <c r="R73" s="41"/>
-      <c r="S73" s="41"/>
-      <c r="T73" s="41"/>
-      <c r="U73" s="41"/>
-      <c r="V73" s="41"/>
-      <c r="W73" s="41"/>
-      <c r="X73" s="41"/>
-      <c r="Y73" s="41"/>
-      <c r="Z73" s="41"/>
-      <c r="AA73" s="41"/>
-      <c r="AB73" s="41"/>
-      <c r="AC73" s="41"/>
-    </row>
-    <row r="74" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="42"/>
+      <c r="C73" s="43"/>
+      <c r="D73" s="43"/>
+      <c r="E73" s="43"/>
+      <c r="F73" s="43"/>
+      <c r="G73" s="43"/>
+      <c r="H73" s="43"/>
+      <c r="I73" s="43"/>
+      <c r="J73" s="43"/>
+      <c r="K73" s="43"/>
+      <c r="L73" s="43"/>
+      <c r="M73" s="43"/>
+      <c r="N73" s="43"/>
+      <c r="O73" s="43"/>
+      <c r="P73" s="43"/>
+      <c r="Q73" s="43"/>
+      <c r="R73" s="43"/>
+      <c r="S73" s="43"/>
+      <c r="T73" s="43"/>
+      <c r="U73" s="43"/>
+      <c r="V73" s="64"/>
+      <c r="W73" s="43"/>
+      <c r="X73" s="43"/>
+      <c r="Y73" s="43"/>
+      <c r="Z73" s="43"/>
+      <c r="AA73" s="43"/>
+      <c r="AB73" s="43"/>
+      <c r="AC73" s="43"/>
+    </row>
+    <row r="74" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="44"/>
-      <c r="B74" s="42"/>
-      <c r="C74" s="43"/>
-      <c r="D74" s="43"/>
-      <c r="E74" s="43"/>
-      <c r="F74" s="43"/>
-      <c r="G74" s="43"/>
-      <c r="H74" s="43"/>
-      <c r="I74" s="43"/>
-      <c r="J74" s="43"/>
-      <c r="K74" s="43"/>
-      <c r="L74" s="43"/>
-      <c r="M74" s="43"/>
-      <c r="N74" s="43"/>
-      <c r="O74" s="43"/>
-      <c r="P74" s="43"/>
-      <c r="Q74" s="43"/>
-      <c r="R74" s="43"/>
-      <c r="S74" s="43"/>
-      <c r="T74" s="43"/>
-      <c r="U74" s="43"/>
-      <c r="V74" s="43"/>
-      <c r="W74" s="43"/>
-      <c r="X74" s="43"/>
-      <c r="Y74" s="43"/>
-      <c r="Z74" s="43"/>
-      <c r="AA74" s="43"/>
-      <c r="AB74" s="43"/>
-      <c r="AC74" s="43"/>
-    </row>
-    <row r="75" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="40"/>
+      <c r="C74" s="41"/>
+      <c r="D74" s="41"/>
+      <c r="E74" s="41"/>
+      <c r="F74" s="41"/>
+      <c r="G74" s="41"/>
+      <c r="H74" s="41"/>
+      <c r="I74" s="41"/>
+      <c r="J74" s="41"/>
+      <c r="K74" s="41"/>
+      <c r="L74" s="41"/>
+      <c r="M74" s="41"/>
+      <c r="N74" s="41"/>
+      <c r="O74" s="41"/>
+      <c r="P74" s="41"/>
+      <c r="Q74" s="41"/>
+      <c r="R74" s="41"/>
+      <c r="S74" s="41"/>
+      <c r="T74" s="41"/>
+      <c r="U74" s="41"/>
+      <c r="V74" s="64"/>
+      <c r="W74" s="41"/>
+      <c r="X74" s="41"/>
+      <c r="Y74" s="41"/>
+      <c r="Z74" s="41"/>
+      <c r="AA74" s="41"/>
+      <c r="AB74" s="41"/>
+      <c r="AC74" s="41"/>
+    </row>
+    <row r="75" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="44"/>
-      <c r="B75" s="40"/>
-      <c r="C75" s="41"/>
-      <c r="D75" s="41"/>
-      <c r="E75" s="41"/>
-      <c r="F75" s="41"/>
-      <c r="G75" s="41"/>
-      <c r="H75" s="41"/>
-      <c r="I75" s="41"/>
-      <c r="J75" s="41"/>
-      <c r="K75" s="41"/>
-      <c r="L75" s="41"/>
-      <c r="M75" s="41"/>
-      <c r="N75" s="41"/>
-      <c r="O75" s="41"/>
-      <c r="P75" s="41"/>
-      <c r="Q75" s="41"/>
-      <c r="R75" s="41"/>
-      <c r="S75" s="41"/>
-      <c r="T75" s="41"/>
-      <c r="U75" s="41"/>
-      <c r="V75" s="41"/>
-      <c r="W75" s="41"/>
-      <c r="X75" s="41"/>
-      <c r="Y75" s="41"/>
-      <c r="Z75" s="41"/>
-      <c r="AA75" s="41"/>
-      <c r="AB75" s="41"/>
-      <c r="AC75" s="41"/>
-    </row>
-    <row r="76" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="42"/>
+      <c r="C75" s="43"/>
+      <c r="D75" s="43"/>
+      <c r="E75" s="43"/>
+      <c r="F75" s="43"/>
+      <c r="G75" s="43"/>
+      <c r="H75" s="43"/>
+      <c r="I75" s="43"/>
+      <c r="J75" s="43"/>
+      <c r="K75" s="43"/>
+      <c r="L75" s="43"/>
+      <c r="M75" s="43"/>
+      <c r="N75" s="43"/>
+      <c r="O75" s="43"/>
+      <c r="P75" s="43"/>
+      <c r="Q75" s="43"/>
+      <c r="R75" s="43"/>
+      <c r="S75" s="43"/>
+      <c r="T75" s="43"/>
+      <c r="U75" s="43"/>
+      <c r="V75" s="64"/>
+      <c r="W75" s="43"/>
+      <c r="X75" s="43"/>
+      <c r="Y75" s="43"/>
+      <c r="Z75" s="43"/>
+      <c r="AA75" s="43"/>
+      <c r="AB75" s="43"/>
+      <c r="AC75" s="43"/>
+    </row>
+    <row r="76" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="44"/>
-      <c r="B76" s="42"/>
-      <c r="C76" s="43"/>
-      <c r="D76" s="43"/>
-      <c r="E76" s="43"/>
-      <c r="F76" s="43"/>
-      <c r="G76" s="43"/>
-      <c r="H76" s="43"/>
-      <c r="I76" s="43"/>
-      <c r="J76" s="43"/>
-      <c r="K76" s="43"/>
-      <c r="L76" s="43"/>
-      <c r="M76" s="43"/>
-      <c r="N76" s="43"/>
-      <c r="O76" s="43"/>
-      <c r="P76" s="43"/>
-      <c r="Q76" s="43"/>
-      <c r="R76" s="43"/>
-      <c r="S76" s="43"/>
-      <c r="T76" s="43"/>
-      <c r="U76" s="43"/>
-      <c r="V76" s="43"/>
-      <c r="W76" s="43"/>
-      <c r="X76" s="43"/>
-      <c r="Y76" s="43"/>
-      <c r="Z76" s="43"/>
-      <c r="AA76" s="43"/>
-      <c r="AB76" s="43"/>
-      <c r="AC76" s="43"/>
-    </row>
-    <row r="77" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="40"/>
+      <c r="C76" s="41"/>
+      <c r="D76" s="41"/>
+      <c r="E76" s="41"/>
+      <c r="F76" s="41"/>
+      <c r="G76" s="41"/>
+      <c r="H76" s="41"/>
+      <c r="I76" s="41"/>
+      <c r="J76" s="41"/>
+      <c r="K76" s="41"/>
+      <c r="L76" s="41"/>
+      <c r="M76" s="41"/>
+      <c r="N76" s="41"/>
+      <c r="O76" s="41"/>
+      <c r="P76" s="41"/>
+      <c r="Q76" s="41"/>
+      <c r="R76" s="41"/>
+      <c r="S76" s="41"/>
+      <c r="T76" s="41"/>
+      <c r="U76" s="41"/>
+      <c r="V76" s="64"/>
+      <c r="W76" s="41"/>
+      <c r="X76" s="41"/>
+      <c r="Y76" s="41"/>
+      <c r="Z76" s="41"/>
+      <c r="AA76" s="41"/>
+      <c r="AB76" s="41"/>
+      <c r="AC76" s="41"/>
+    </row>
+    <row r="77" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="44"/>
-      <c r="B77" s="40"/>
-      <c r="C77" s="41"/>
-      <c r="D77" s="41"/>
-      <c r="E77" s="41"/>
-      <c r="F77" s="41"/>
-      <c r="G77" s="41"/>
-      <c r="H77" s="41"/>
-      <c r="I77" s="41"/>
-      <c r="J77" s="41"/>
-      <c r="K77" s="41"/>
-      <c r="L77" s="41"/>
-      <c r="M77" s="41"/>
-      <c r="N77" s="41"/>
-      <c r="O77" s="41"/>
-      <c r="P77" s="41"/>
-      <c r="Q77" s="41"/>
-      <c r="R77" s="41"/>
-      <c r="S77" s="41"/>
-      <c r="T77" s="41"/>
-      <c r="U77" s="41"/>
-      <c r="V77" s="41"/>
-      <c r="W77" s="41"/>
-      <c r="X77" s="41"/>
-      <c r="Y77" s="41"/>
-      <c r="Z77" s="41"/>
-      <c r="AA77" s="41"/>
-      <c r="AB77" s="41"/>
-      <c r="AC77" s="41"/>
-    </row>
-    <row r="78" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="42"/>
+      <c r="C77" s="43"/>
+      <c r="D77" s="43"/>
+      <c r="E77" s="43"/>
+      <c r="F77" s="43"/>
+      <c r="G77" s="43"/>
+      <c r="H77" s="43"/>
+      <c r="I77" s="43"/>
+      <c r="J77" s="43"/>
+      <c r="K77" s="43"/>
+      <c r="L77" s="43"/>
+      <c r="M77" s="43"/>
+      <c r="N77" s="43"/>
+      <c r="O77" s="43"/>
+      <c r="P77" s="43"/>
+      <c r="Q77" s="43"/>
+      <c r="R77" s="43"/>
+      <c r="S77" s="43"/>
+      <c r="T77" s="43"/>
+      <c r="U77" s="43"/>
+      <c r="V77" s="64"/>
+      <c r="W77" s="43"/>
+      <c r="X77" s="43"/>
+      <c r="Y77" s="43"/>
+      <c r="Z77" s="43"/>
+      <c r="AA77" s="43"/>
+      <c r="AB77" s="43"/>
+      <c r="AC77" s="43"/>
+    </row>
+    <row r="78" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="44"/>
-      <c r="B78" s="42"/>
-      <c r="C78" s="43"/>
-      <c r="D78" s="43"/>
-      <c r="E78" s="43"/>
-      <c r="F78" s="43"/>
-      <c r="G78" s="43"/>
-      <c r="H78" s="43"/>
-      <c r="I78" s="43"/>
-      <c r="J78" s="43"/>
-      <c r="K78" s="43"/>
-      <c r="L78" s="43"/>
-      <c r="M78" s="43"/>
-      <c r="N78" s="43"/>
-      <c r="O78" s="43"/>
-      <c r="P78" s="43"/>
-      <c r="Q78" s="43"/>
-      <c r="R78" s="43"/>
-      <c r="S78" s="43"/>
-      <c r="T78" s="43"/>
-      <c r="U78" s="43"/>
-      <c r="V78" s="43"/>
-      <c r="W78" s="43"/>
-      <c r="X78" s="43"/>
-      <c r="Y78" s="43"/>
-      <c r="Z78" s="43"/>
-      <c r="AA78" s="43"/>
-      <c r="AB78" s="43"/>
-      <c r="AC78" s="43"/>
+      <c r="B78" s="40"/>
+      <c r="C78" s="41"/>
+      <c r="D78" s="41"/>
+      <c r="E78" s="41"/>
+      <c r="F78" s="41"/>
+      <c r="G78" s="41"/>
+      <c r="H78" s="41"/>
+      <c r="I78" s="41"/>
+      <c r="J78" s="41"/>
+      <c r="K78" s="41"/>
+      <c r="L78" s="41"/>
+      <c r="M78" s="41"/>
+      <c r="N78" s="41"/>
+      <c r="O78" s="41"/>
+      <c r="P78" s="41"/>
+      <c r="Q78" s="41"/>
+      <c r="R78" s="41"/>
+      <c r="S78" s="41"/>
+      <c r="T78" s="41"/>
+      <c r="U78" s="41"/>
+      <c r="V78" s="64"/>
+      <c r="W78" s="41"/>
+      <c r="X78" s="41"/>
+      <c r="Y78" s="41"/>
+      <c r="Z78" s="41"/>
+      <c r="AA78" s="41"/>
+      <c r="AB78" s="41"/>
+      <c r="AC78" s="41"/>
+    </row>
+    <row r="79" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="V79" s="65"/>
+    </row>
+    <row r="80" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="V80" s="65"/>
+    </row>
+    <row r="81" spans="22:22" x14ac:dyDescent="0.2">
+      <c r="V81" s="65"/>
+    </row>
+    <row r="82" spans="22:22" x14ac:dyDescent="0.2">
+      <c r="V82" s="65"/>
+    </row>
+    <row r="83" spans="22:22" x14ac:dyDescent="0.2">
+      <c r="V83" s="65"/>
+    </row>
+    <row r="84" spans="22:22" x14ac:dyDescent="0.2">
+      <c r="V84" s="65"/>
+    </row>
+    <row r="85" spans="22:22" x14ac:dyDescent="0.2">
+      <c r="V85" s="65"/>
+    </row>
+    <row r="86" spans="22:22" x14ac:dyDescent="0.2">
+      <c r="V86" s="65"/>
+    </row>
+    <row r="87" spans="22:22" x14ac:dyDescent="0.2">
+      <c r="V87" s="65"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22345,595 +22638,595 @@
       <c r="A2" s="1">
         <v>43923</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="48" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="50">
+      <c r="D2" s="48">
         <v>92381</v>
       </c>
-      <c r="E2" s="50">
+      <c r="E2" s="48">
         <v>2373</v>
       </c>
-      <c r="H2" s="53">
+      <c r="H2" s="51">
         <v>43901</v>
       </c>
-      <c r="I2" s="48">
+      <c r="I2" s="46">
         <v>1</v>
       </c>
-      <c r="J2" s="49">
+      <c r="J2" s="47">
         <v>345</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="53">
+      <c r="A3" s="51">
         <v>43924</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="48" t="s">
+      <c r="B3" s="52"/>
+      <c r="C3" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="51">
+      <c r="D3" s="49">
         <v>102863</v>
       </c>
-      <c r="E3" s="52">
+      <c r="E3" s="50">
         <v>2935</v>
       </c>
-      <c r="H3" s="53">
+      <c r="H3" s="51">
         <v>43902</v>
       </c>
-      <c r="I3" s="48">
+      <c r="I3" s="46">
         <v>2</v>
       </c>
-      <c r="J3" s="49">
+      <c r="J3" s="47">
         <v>703</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="53">
+      <c r="A4" s="51">
         <v>43925</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="48" t="s">
+      <c r="B4" s="52"/>
+      <c r="C4" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="51">
+      <c r="D4" s="49">
         <v>113704</v>
       </c>
-      <c r="E4" s="52">
+      <c r="E4" s="50">
         <v>3565</v>
       </c>
-      <c r="H4" s="53">
+      <c r="H4" s="51">
         <v>43903</v>
       </c>
-      <c r="I4" s="48">
+      <c r="I4" s="46">
         <v>2</v>
       </c>
-      <c r="J4" s="49">
+      <c r="J4" s="47">
         <v>1325</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="53">
+      <c r="A5" s="51">
         <v>43926</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="48" t="s">
+      <c r="B5" s="52"/>
+      <c r="C5" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="51">
+      <c r="D5" s="49">
         <v>122031</v>
       </c>
-      <c r="E5" s="52">
+      <c r="E5" s="50">
         <v>4159</v>
       </c>
-      <c r="H5" s="53">
+      <c r="H5" s="51">
         <v>43904</v>
       </c>
-      <c r="I5" s="48">
+      <c r="I5" s="46">
         <v>4</v>
       </c>
-      <c r="J5" s="49">
+      <c r="J5" s="47">
         <v>1970</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="53">
+      <c r="A6" s="51">
         <v>43927</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="48" t="s">
+      <c r="B6" s="52"/>
+      <c r="C6" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="51">
+      <c r="D6" s="49">
         <v>130689</v>
       </c>
-      <c r="E6" s="52">
+      <c r="E6" s="50">
         <v>4758</v>
       </c>
-      <c r="H6" s="53">
+      <c r="H6" s="51">
         <v>43905</v>
       </c>
-      <c r="I6" s="48">
+      <c r="I6" s="46">
         <v>10</v>
       </c>
-      <c r="J6" s="49">
+      <c r="J6" s="47">
         <v>2998</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="53">
+      <c r="A7" s="51">
         <v>43928</v>
       </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="48" t="s">
+      <c r="B7" s="52"/>
+      <c r="C7" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="51">
+      <c r="D7" s="49">
         <v>138836</v>
       </c>
-      <c r="E7" s="52">
+      <c r="E7" s="50">
         <v>5489</v>
       </c>
-      <c r="H7" s="53">
+      <c r="H7" s="51">
         <v>43906</v>
       </c>
-      <c r="I7" s="48">
+      <c r="I7" s="46">
         <v>19</v>
       </c>
-      <c r="J7" s="49">
+      <c r="J7" s="47">
         <v>5104</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="53">
+      <c r="A8" s="51">
         <v>43929</v>
       </c>
-      <c r="B8" s="54"/>
-      <c r="C8" s="48" t="s">
+      <c r="B8" s="52"/>
+      <c r="C8" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="51">
+      <c r="D8" s="49">
         <v>149316</v>
       </c>
-      <c r="E8" s="52">
+      <c r="E8" s="50">
         <v>6268</v>
       </c>
-      <c r="H8" s="53">
+      <c r="H8" s="51">
         <v>43907</v>
       </c>
-      <c r="I8" s="48">
+      <c r="I8" s="46">
         <v>26</v>
       </c>
-      <c r="J8" s="49">
+      <c r="J8" s="47">
         <v>7496</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="53">
+      <c r="A9" s="51">
         <v>43930</v>
       </c>
-      <c r="B9" s="54"/>
-      <c r="C9" s="48" t="s">
+      <c r="B9" s="52"/>
+      <c r="C9" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="51">
+      <c r="D9" s="49">
         <v>159937</v>
       </c>
-      <c r="E9" s="52">
+      <c r="E9" s="50">
         <v>7067</v>
       </c>
-      <c r="H9" s="53">
+      <c r="H9" s="51">
         <v>43908</v>
       </c>
-      <c r="I9" s="48">
+      <c r="I9" s="46">
         <v>47</v>
       </c>
-      <c r="J9" s="49">
+      <c r="J9" s="47">
         <v>10425</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="53">
+      <c r="A10" s="51">
         <v>43931</v>
       </c>
-      <c r="B10" s="54"/>
-      <c r="C10" s="48" t="s">
+      <c r="B10" s="52"/>
+      <c r="C10" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="51">
+      <c r="D10" s="49">
         <v>170512</v>
       </c>
-      <c r="E10" s="52">
+      <c r="E10" s="50">
         <v>7844</v>
       </c>
-      <c r="H10" s="53">
+      <c r="H10" s="51">
         <v>43909</v>
       </c>
-      <c r="I10" s="48">
+      <c r="I10" s="46">
         <v>72</v>
       </c>
-      <c r="J10" s="49">
+      <c r="J10" s="47">
         <v>14078</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="53">
+      <c r="A11" s="51">
         <v>43932</v>
       </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="48" t="s">
+      <c r="B11" s="52"/>
+      <c r="C11" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="51">
+      <c r="D11" s="49">
         <v>180458</v>
       </c>
-      <c r="E11" s="52">
+      <c r="E11" s="50">
         <v>8627</v>
       </c>
-      <c r="H11" s="53">
+      <c r="H11" s="51">
         <v>43910</v>
       </c>
-      <c r="I11" s="48">
+      <c r="I11" s="46">
         <v>118</v>
       </c>
-      <c r="J11" s="49">
+      <c r="J11" s="47">
         <v>18035</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="53">
+      <c r="A12" s="51">
         <v>43933</v>
       </c>
-      <c r="B12" s="54"/>
-      <c r="C12" s="48" t="s">
+      <c r="B12" s="52"/>
+      <c r="C12" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="51">
+      <c r="D12" s="49">
         <v>188694</v>
       </c>
-      <c r="E12" s="52">
+      <c r="E12" s="50">
         <v>9385</v>
       </c>
-      <c r="H12" s="53">
+      <c r="H12" s="51">
         <v>43911</v>
       </c>
-      <c r="I12" s="48">
+      <c r="I12" s="46">
         <v>157</v>
       </c>
-      <c r="J12" s="49">
+      <c r="J12" s="47">
         <v>20624</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="53">
+      <c r="A13" s="51">
         <v>43934</v>
       </c>
-      <c r="B13" s="54"/>
-      <c r="C13" s="48" t="s">
+      <c r="B13" s="52"/>
+      <c r="C13" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="51">
+      <c r="D13" s="49">
         <v>195031</v>
       </c>
-      <c r="E13" s="52">
+      <c r="E13" s="50">
         <v>10056</v>
       </c>
-      <c r="H13" s="53">
+      <c r="H13" s="51">
         <v>43912</v>
       </c>
-      <c r="I13" s="48">
+      <c r="I13" s="46">
         <v>202</v>
       </c>
-      <c r="J13" s="49">
+      <c r="J13" s="47">
         <v>23166</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="53">
+      <c r="A14" s="51">
         <v>43935</v>
       </c>
-      <c r="B14" s="54"/>
-      <c r="C14" s="48" t="s">
+      <c r="B14" s="52"/>
+      <c r="C14" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="D14" s="51">
+      <c r="D14" s="49">
         <v>202208</v>
       </c>
-      <c r="E14" s="52">
+      <c r="E14" s="50">
         <v>10834</v>
       </c>
-      <c r="H14" s="53">
+      <c r="H14" s="51">
         <v>43913</v>
       </c>
-      <c r="I14" s="48">
+      <c r="I14" s="46">
         <v>283</v>
       </c>
-      <c r="J14" s="49">
+      <c r="J14" s="47">
         <v>26641</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="53">
+      <c r="A15" s="51">
         <v>43936</v>
       </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="48" t="s">
+      <c r="B15" s="52"/>
+      <c r="C15" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="51">
+      <c r="D15" s="49">
         <v>213779</v>
       </c>
-      <c r="E15" s="52">
+      <c r="E15" s="50">
         <v>11586</v>
       </c>
-      <c r="H15" s="53">
+      <c r="H15" s="51">
         <v>43914</v>
       </c>
-      <c r="I15" s="48">
+      <c r="I15" s="46">
         <v>375</v>
       </c>
-      <c r="J15" s="49">
+      <c r="J15" s="47">
         <v>31008</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="53">
+      <c r="A16" s="51">
         <v>43937</v>
       </c>
-      <c r="B16" s="54"/>
-      <c r="C16" s="48" t="s">
+      <c r="B16" s="52"/>
+      <c r="C16" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="51">
+      <c r="D16" s="49">
         <v>222284</v>
       </c>
-      <c r="E16" s="52">
+      <c r="E16" s="50">
         <v>12192</v>
       </c>
-      <c r="H16" s="53">
+      <c r="H16" s="51">
         <v>43915</v>
       </c>
-      <c r="I16" s="48">
+      <c r="I16" s="46">
         <v>490</v>
       </c>
-      <c r="J16" s="49">
+      <c r="J16" s="47">
         <v>35712</v>
       </c>
     </row>
     <row r="17" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="H17" s="53">
+      <c r="H17" s="51">
         <v>43916</v>
       </c>
-      <c r="I17" s="48">
+      <c r="I17" s="46">
         <v>668</v>
       </c>
-      <c r="J17" s="49">
+      <c r="J17" s="47">
         <v>40581</v>
       </c>
     </row>
     <row r="18" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="H18" s="53">
+      <c r="H18" s="51">
         <v>43917</v>
       </c>
-      <c r="I18" s="48">
+      <c r="I18" s="46">
         <v>866</v>
       </c>
-      <c r="J18" s="49">
+      <c r="J18" s="47">
         <v>45533</v>
       </c>
     </row>
     <row r="19" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="H19" s="53">
+      <c r="H19" s="51">
         <v>43918</v>
       </c>
-      <c r="I19" s="48">
+      <c r="I19" s="46">
         <v>1113</v>
       </c>
-      <c r="J19" s="49">
+      <c r="J19" s="47">
         <v>48881</v>
       </c>
     </row>
     <row r="20" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="H20" s="53">
+      <c r="H20" s="51">
         <v>43919</v>
       </c>
-      <c r="I20" s="48">
+      <c r="I20" s="46">
         <v>1376</v>
       </c>
-      <c r="J20" s="49">
+      <c r="J20" s="47">
         <v>52304</v>
       </c>
     </row>
     <row r="21" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="H21" s="53">
+      <c r="H21" s="51">
         <v>43920</v>
       </c>
-      <c r="I21" s="48">
+      <c r="I21" s="46">
         <v>1663</v>
       </c>
-      <c r="J21" s="49">
+      <c r="J21" s="47">
         <v>58265</v>
       </c>
     </row>
     <row r="22" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="H22" s="53">
+      <c r="H22" s="51">
         <v>43921</v>
       </c>
-      <c r="I22" s="48">
+      <c r="I22" s="46">
         <v>2005</v>
       </c>
-      <c r="J22" s="49">
+      <c r="J22" s="47">
         <v>63398</v>
       </c>
     </row>
     <row r="23" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="H23" s="53">
+      <c r="H23" s="51">
         <v>43922</v>
       </c>
-      <c r="I23" s="48">
+      <c r="I23" s="46">
         <v>2388</v>
       </c>
-      <c r="J23" s="49">
+      <c r="J23" s="47">
         <v>68283</v>
       </c>
     </row>
     <row r="24" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="H24" s="53">
+      <c r="H24" s="51">
         <v>43923</v>
       </c>
-      <c r="I24" s="48">
+      <c r="I24" s="46">
         <v>2799</v>
       </c>
-      <c r="J24" s="49">
+      <c r="J24" s="47">
         <v>73811</v>
       </c>
     </row>
     <row r="25" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="H25" s="53">
+      <c r="H25" s="51">
         <v>43924</v>
       </c>
-      <c r="I25" s="48">
+      <c r="I25" s="46">
         <v>3228</v>
       </c>
-      <c r="J25" s="49">
+      <c r="J25" s="47">
         <v>79200</v>
       </c>
     </row>
     <row r="26" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="H26" s="53">
+      <c r="H26" s="51">
         <v>43925</v>
       </c>
-      <c r="I26" s="48">
+      <c r="I26" s="46">
         <v>3662</v>
       </c>
-      <c r="J26" s="49">
+      <c r="J26" s="47">
         <v>82857</v>
       </c>
     </row>
     <row r="27" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="H27" s="53">
+      <c r="H27" s="51">
         <v>43926</v>
       </c>
-      <c r="I27" s="48">
+      <c r="I27" s="46">
         <v>4150</v>
       </c>
-      <c r="J27" s="49">
+      <c r="J27" s="47">
         <v>86406</v>
       </c>
     </row>
     <row r="28" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="H28" s="53">
+      <c r="H28" s="51">
         <v>43927</v>
       </c>
-      <c r="I28" s="48">
+      <c r="I28" s="46">
         <v>4640</v>
       </c>
-      <c r="J28" s="49">
+      <c r="J28" s="47">
         <v>92494</v>
       </c>
     </row>
     <row r="29" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="H29" s="53">
+      <c r="H29" s="51">
         <v>43928</v>
       </c>
-      <c r="I29" s="48">
+      <c r="I29" s="46">
         <v>5149</v>
       </c>
-      <c r="J29" s="49">
+      <c r="J29" s="47">
         <v>98148</v>
       </c>
     </row>
     <row r="30" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="H30" s="53">
+      <c r="H30" s="51">
         <v>43929</v>
       </c>
-      <c r="I30" s="48">
+      <c r="I30" s="46">
         <v>5579</v>
       </c>
-      <c r="J30" s="49">
+      <c r="J30" s="47">
         <v>103249</v>
       </c>
     </row>
     <row r="31" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="H31" s="53">
+      <c r="H31" s="51">
         <v>43930</v>
       </c>
-      <c r="I31" s="48">
+      <c r="I31" s="46">
         <v>5970</v>
       </c>
-      <c r="J31" s="49">
+      <c r="J31" s="47">
         <v>107353</v>
       </c>
     </row>
     <row r="32" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="H32" s="53">
+      <c r="H32" s="51">
         <v>43931</v>
       </c>
-      <c r="I32" s="48">
+      <c r="I32" s="46">
         <v>6323</v>
       </c>
-      <c r="J32" s="49">
+      <c r="J32" s="47">
         <v>111096</v>
       </c>
     </row>
     <row r="33" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="H33" s="53">
+      <c r="H33" s="51">
         <v>43932</v>
       </c>
-      <c r="I33" s="48">
+      <c r="I33" s="46">
         <v>6652</v>
       </c>
-      <c r="J33" s="49">
+      <c r="J33" s="47">
         <v>113503</v>
       </c>
     </row>
     <row r="34" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="H34" s="53">
+      <c r="H34" s="51">
         <v>43933</v>
       </c>
-      <c r="I34" s="48">
+      <c r="I34" s="46">
         <v>6955</v>
       </c>
-      <c r="J34" s="49">
+      <c r="J34" s="47">
         <v>114877</v>
       </c>
     </row>
     <row r="35" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="H35" s="53">
+      <c r="H35" s="51">
         <v>43934</v>
       </c>
-      <c r="I35" s="48">
+      <c r="I35" s="46">
         <v>7234</v>
       </c>
-      <c r="J35" s="49">
+      <c r="J35" s="47">
         <v>116713</v>
       </c>
     </row>
     <row r="36" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="H36" s="53">
+      <c r="H36" s="51">
         <v>43935</v>
       </c>
-      <c r="I36" s="48">
+      <c r="I36" s="46">
         <v>7386</v>
       </c>
-      <c r="J36" s="49">
+      <c r="J36" s="47">
         <v>117529</v>
       </c>
     </row>
     <row r="37" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="H37" s="53">
+      <c r="H37" s="51">
         <v>43936</v>
       </c>
-      <c r="I37" s="48">
+      <c r="I37" s="46">
         <v>7399</v>
       </c>
-      <c r="J37" s="49">
+      <c r="J37" s="47">
         <v>117563</v>
       </c>
     </row>
     <row r="51" spans="16:16" x14ac:dyDescent="0.2">
-      <c r="P51" s="55"/>
+      <c r="P51" s="53"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
